--- a/Spain Primera Liga/Spain Primera Liga.xlsx
+++ b/Spain Primera Liga/Spain Primera Liga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6049" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6045" uniqueCount="58">
   <si>
     <t>id</t>
   </si>
@@ -549,7 +549,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC1208"/>
+  <dimension ref="A1:AC1207"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -13907,7 +13907,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>2793230</v>
+        <v>2789934</v>
       </c>
       <c r="C151" t="s">
         <v>28</v>
@@ -13919,76 +13919,76 @@
         <v>44304.5625</v>
       </c>
       <c r="F151" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="G151" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J151" t="s">
         <v>56</v>
       </c>
       <c r="K151">
+        <v>1.909</v>
+      </c>
+      <c r="L151">
+        <v>3.6</v>
+      </c>
+      <c r="M151">
+        <v>3.75</v>
+      </c>
+      <c r="N151">
+        <v>1.75</v>
+      </c>
+      <c r="O151">
+        <v>3.8</v>
+      </c>
+      <c r="P151">
+        <v>4.333</v>
+      </c>
+      <c r="Q151">
+        <v>-0.5</v>
+      </c>
+      <c r="R151">
+        <v>1.86</v>
+      </c>
+      <c r="S151">
+        <v>2.04</v>
+      </c>
+      <c r="T151">
+        <v>3</v>
+      </c>
+      <c r="U151">
+        <v>2.05</v>
+      </c>
+      <c r="V151">
+        <v>1.85</v>
+      </c>
+      <c r="W151">
+        <v>-1</v>
+      </c>
+      <c r="X151">
         <v>2.8</v>
       </c>
-      <c r="L151">
-        <v>3.2</v>
-      </c>
-      <c r="M151">
-        <v>2.5</v>
-      </c>
-      <c r="N151">
-        <v>3.6</v>
-      </c>
-      <c r="O151">
-        <v>3.5</v>
-      </c>
-      <c r="P151">
-        <v>2</v>
-      </c>
-      <c r="Q151">
-        <v>0.5</v>
-      </c>
-      <c r="R151">
-        <v>1.85</v>
-      </c>
-      <c r="S151">
-        <v>2.05</v>
-      </c>
-      <c r="T151">
-        <v>2.25</v>
-      </c>
-      <c r="U151">
-        <v>1.89</v>
-      </c>
-      <c r="V151">
-        <v>2.01</v>
-      </c>
-      <c r="W151">
-        <v>-1</v>
-      </c>
-      <c r="X151">
-        <v>2.5</v>
-      </c>
       <c r="Y151">
         <v>-1</v>
       </c>
       <c r="Z151">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA151">
-        <v>-1</v>
+        <v>1.04</v>
       </c>
       <c r="AB151">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AC151">
-        <v>1.01</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="152" spans="1:29">
@@ -13996,7 +13996,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>2789934</v>
+        <v>2793230</v>
       </c>
       <c r="C152" t="s">
         <v>28</v>
@@ -14008,76 +14008,76 @@
         <v>44304.5625</v>
       </c>
       <c r="F152" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="G152" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H152">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I152">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J152" t="s">
         <v>56</v>
       </c>
       <c r="K152">
-        <v>1.909</v>
+        <v>2.8</v>
       </c>
       <c r="L152">
+        <v>3.2</v>
+      </c>
+      <c r="M152">
+        <v>2.5</v>
+      </c>
+      <c r="N152">
         <v>3.6</v>
       </c>
-      <c r="M152">
-        <v>3.75</v>
-      </c>
-      <c r="N152">
-        <v>1.75</v>
-      </c>
       <c r="O152">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P152">
-        <v>4.333</v>
+        <v>2</v>
       </c>
       <c r="Q152">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R152">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="S152">
-        <v>2.04</v>
+        <v>2.05</v>
       </c>
       <c r="T152">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U152">
-        <v>2.05</v>
+        <v>1.89</v>
       </c>
       <c r="V152">
-        <v>1.85</v>
+        <v>2.01</v>
       </c>
       <c r="W152">
         <v>-1</v>
       </c>
       <c r="X152">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="Y152">
         <v>-1</v>
       </c>
       <c r="Z152">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA152">
-        <v>1.04</v>
+        <v>-1</v>
       </c>
       <c r="AB152">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AC152">
-        <v>-1</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="153" spans="1:29">
@@ -14886,7 +14886,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>2733408</v>
+        <v>2733407</v>
       </c>
       <c r="C162" t="s">
         <v>28</v>
@@ -14898,13 +14898,13 @@
         <v>44308.66666666666</v>
       </c>
       <c r="F162" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G162" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H162">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I162">
         <v>1</v>
@@ -14913,43 +14913,43 @@
         <v>55</v>
       </c>
       <c r="K162">
-        <v>1.833</v>
+        <v>2.25</v>
       </c>
       <c r="L162">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M162">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="N162">
+        <v>2.25</v>
+      </c>
+      <c r="O162">
+        <v>3.2</v>
+      </c>
+      <c r="P162">
+        <v>3.4</v>
+      </c>
+      <c r="Q162">
+        <v>-0.25</v>
+      </c>
+      <c r="R162">
+        <v>1.95</v>
+      </c>
+      <c r="S162">
+        <v>1.95</v>
+      </c>
+      <c r="T162">
+        <v>2.25</v>
+      </c>
+      <c r="U162">
+        <v>2.1</v>
+      </c>
+      <c r="V162">
         <v>1.8</v>
       </c>
-      <c r="O162">
-        <v>3.75</v>
-      </c>
-      <c r="P162">
-        <v>4.333</v>
-      </c>
-      <c r="Q162">
-        <v>-0.75</v>
-      </c>
-      <c r="R162">
-        <v>2.05</v>
-      </c>
-      <c r="S162">
-        <v>1.88</v>
-      </c>
-      <c r="T162">
-        <v>2.5</v>
-      </c>
-      <c r="U162">
-        <v>1.85</v>
-      </c>
-      <c r="V162">
-        <v>2.05</v>
-      </c>
       <c r="W162">
-        <v>0.8</v>
+        <v>1.25</v>
       </c>
       <c r="X162">
         <v>-1</v>
@@ -14958,13 +14958,13 @@
         <v>-1</v>
       </c>
       <c r="Z162">
-        <v>0.5249999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AA162">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB162">
-        <v>0.8500000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="AC162">
         <v>-1</v>
@@ -14975,7 +14975,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>2733407</v>
+        <v>2733408</v>
       </c>
       <c r="C163" t="s">
         <v>28</v>
@@ -14987,13 +14987,13 @@
         <v>44308.66666666666</v>
       </c>
       <c r="F163" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G163" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H163">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I163">
         <v>1</v>
@@ -15002,43 +15002,43 @@
         <v>55</v>
       </c>
       <c r="K163">
-        <v>2.25</v>
+        <v>1.833</v>
       </c>
       <c r="L163">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M163">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="N163">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="O163">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="P163">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="Q163">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R163">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="S163">
-        <v>1.95</v>
+        <v>1.88</v>
       </c>
       <c r="T163">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U163">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="V163">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="W163">
-        <v>1.25</v>
+        <v>0.8</v>
       </c>
       <c r="X163">
         <v>-1</v>
@@ -15047,13 +15047,13 @@
         <v>-1</v>
       </c>
       <c r="Z163">
-        <v>0.95</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AA163">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB163">
-        <v>1.1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC163">
         <v>-1</v>
@@ -18357,7 +18357,7 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>2859803</v>
+        <v>2855788</v>
       </c>
       <c r="C201" t="s">
         <v>28</v>
@@ -18369,10 +18369,10 @@
         <v>44328.625</v>
       </c>
       <c r="F201" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G201" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H201">
         <v>1</v>
@@ -18384,43 +18384,43 @@
         <v>55</v>
       </c>
       <c r="K201">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="L201">
         <v>3.2</v>
       </c>
       <c r="M201">
+        <v>2.875</v>
+      </c>
+      <c r="N201">
+        <v>2.8</v>
+      </c>
+      <c r="O201">
         <v>3</v>
       </c>
-      <c r="N201">
-        <v>2.55</v>
-      </c>
-      <c r="O201">
-        <v>3.25</v>
-      </c>
       <c r="P201">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="Q201">
         <v>0</v>
       </c>
       <c r="R201">
-        <v>1.84</v>
+        <v>1.95</v>
       </c>
       <c r="S201">
-        <v>2.06</v>
+        <v>1.95</v>
       </c>
       <c r="T201">
         <v>2.25</v>
       </c>
       <c r="U201">
-        <v>2.01</v>
+        <v>2.1</v>
       </c>
       <c r="V201">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="W201">
-        <v>1.55</v>
+        <v>1.8</v>
       </c>
       <c r="X201">
         <v>-1</v>
@@ -18429,7 +18429,7 @@
         <v>-1</v>
       </c>
       <c r="Z201">
-        <v>0.8400000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AA201">
         <v>-1</v>
@@ -18438,7 +18438,7 @@
         <v>-1</v>
       </c>
       <c r="AC201">
-        <v>0.8899999999999999</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="202" spans="1:29">
@@ -18446,7 +18446,7 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>2855788</v>
+        <v>2859803</v>
       </c>
       <c r="C202" t="s">
         <v>28</v>
@@ -18458,10 +18458,10 @@
         <v>44328.625</v>
       </c>
       <c r="F202" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G202" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H202">
         <v>1</v>
@@ -18473,43 +18473,43 @@
         <v>55</v>
       </c>
       <c r="K202">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="L202">
         <v>3.2</v>
       </c>
       <c r="M202">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="N202">
+        <v>2.55</v>
+      </c>
+      <c r="O202">
+        <v>3.25</v>
+      </c>
+      <c r="P202">
         <v>2.8</v>
       </c>
-      <c r="O202">
-        <v>3</v>
-      </c>
-      <c r="P202">
-        <v>2.75</v>
-      </c>
       <c r="Q202">
         <v>0</v>
       </c>
       <c r="R202">
-        <v>1.95</v>
+        <v>1.84</v>
       </c>
       <c r="S202">
-        <v>1.95</v>
+        <v>2.06</v>
       </c>
       <c r="T202">
         <v>2.25</v>
       </c>
       <c r="U202">
-        <v>2.1</v>
+        <v>2.01</v>
       </c>
       <c r="V202">
-        <v>1.8</v>
+        <v>1.89</v>
       </c>
       <c r="W202">
-        <v>1.8</v>
+        <v>1.55</v>
       </c>
       <c r="X202">
         <v>-1</v>
@@ -18518,7 +18518,7 @@
         <v>-1</v>
       </c>
       <c r="Z202">
-        <v>0.95</v>
+        <v>0.8400000000000001</v>
       </c>
       <c r="AA202">
         <v>-1</v>
@@ -18527,7 +18527,7 @@
         <v>-1</v>
       </c>
       <c r="AC202">
-        <v>0.8</v>
+        <v>0.8899999999999999</v>
       </c>
     </row>
     <row r="203" spans="1:29">
@@ -19870,7 +19870,7 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>2895717</v>
+        <v>2897753</v>
       </c>
       <c r="C218" t="s">
         <v>28</v>
@@ -19882,76 +19882,76 @@
         <v>44338.54166666666</v>
       </c>
       <c r="F218" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G218" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="H218">
         <v>0</v>
       </c>
       <c r="I218">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J218" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K218">
-        <v>4.333</v>
+        <v>1.85</v>
       </c>
       <c r="L218">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="M218">
-        <v>1.65</v>
+        <v>3.75</v>
       </c>
       <c r="N218">
-        <v>5</v>
+        <v>1.727</v>
       </c>
       <c r="O218">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="P218">
-        <v>1.55</v>
+        <v>4.5</v>
       </c>
       <c r="Q218">
-        <v>1</v>
+        <v>-0.75</v>
       </c>
       <c r="R218">
-        <v>1.93</v>
+        <v>2.01</v>
       </c>
       <c r="S218">
-        <v>1.97</v>
+        <v>1.89</v>
       </c>
       <c r="T218">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U218">
-        <v>1.98</v>
+        <v>1.91</v>
       </c>
       <c r="V218">
-        <v>1.92</v>
+        <v>1.99</v>
       </c>
       <c r="W218">
         <v>-1</v>
       </c>
       <c r="X218">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y218">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="Z218">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA218">
-        <v>-0</v>
+        <v>0.8899999999999999</v>
       </c>
       <c r="AB218">
         <v>-1</v>
       </c>
       <c r="AC218">
-        <v>0.9199999999999999</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="219" spans="1:29">
@@ -19959,7 +19959,7 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>2897753</v>
+        <v>2895717</v>
       </c>
       <c r="C219" t="s">
         <v>28</v>
@@ -19971,76 +19971,76 @@
         <v>44338.54166666666</v>
       </c>
       <c r="F219" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G219" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="H219">
         <v>0</v>
       </c>
       <c r="I219">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J219" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K219">
-        <v>1.85</v>
+        <v>4.333</v>
       </c>
       <c r="L219">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="M219">
-        <v>3.75</v>
+        <v>1.65</v>
       </c>
       <c r="N219">
-        <v>1.727</v>
+        <v>5</v>
       </c>
       <c r="O219">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="P219">
-        <v>4.5</v>
+        <v>1.55</v>
       </c>
       <c r="Q219">
-        <v>-0.75</v>
+        <v>1</v>
       </c>
       <c r="R219">
-        <v>2.01</v>
+        <v>1.93</v>
       </c>
       <c r="S219">
-        <v>1.89</v>
+        <v>1.97</v>
       </c>
       <c r="T219">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U219">
-        <v>1.91</v>
+        <v>1.98</v>
       </c>
       <c r="V219">
-        <v>1.99</v>
+        <v>1.92</v>
       </c>
       <c r="W219">
         <v>-1</v>
       </c>
       <c r="X219">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y219">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="Z219">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA219">
-        <v>0.8899999999999999</v>
+        <v>-0</v>
       </c>
       <c r="AB219">
         <v>-1</v>
       </c>
       <c r="AC219">
-        <v>0.99</v>
+        <v>0.9199999999999999</v>
       </c>
     </row>
     <row r="220" spans="1:29">
@@ -20137,7 +20137,7 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>2900188</v>
+        <v>2904154</v>
       </c>
       <c r="C221" t="s">
         <v>28</v>
@@ -20149,76 +20149,76 @@
         <v>44338.54166666666</v>
       </c>
       <c r="F221" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G221" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="H221">
+        <v>1</v>
+      </c>
+      <c r="I221">
         <v>2</v>
       </c>
-      <c r="I221">
-        <v>0</v>
-      </c>
       <c r="J221" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K221">
-        <v>1.727</v>
+        <v>7</v>
       </c>
       <c r="L221">
-        <v>3.8</v>
+        <v>5</v>
       </c>
       <c r="M221">
-        <v>4.75</v>
+        <v>1.4</v>
       </c>
       <c r="N221">
+        <v>9.5</v>
+      </c>
+      <c r="O221">
+        <v>5.5</v>
+      </c>
+      <c r="P221">
+        <v>1.3</v>
+      </c>
+      <c r="Q221">
+        <v>1.5</v>
+      </c>
+      <c r="R221">
+        <v>1.9</v>
+      </c>
+      <c r="S221">
         <v>2</v>
       </c>
-      <c r="O221">
-        <v>3.7</v>
-      </c>
-      <c r="P221">
-        <v>3.5</v>
-      </c>
-      <c r="Q221">
-        <v>-0.5</v>
-      </c>
-      <c r="R221">
-        <v>2.07</v>
-      </c>
-      <c r="S221">
-        <v>1.83</v>
-      </c>
       <c r="T221">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U221">
-        <v>2.03</v>
+        <v>2.06</v>
       </c>
       <c r="V221">
-        <v>1.87</v>
+        <v>1.84</v>
       </c>
       <c r="W221">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X221">
         <v>-1</v>
       </c>
       <c r="Y221">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="Z221">
-        <v>1.07</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA221">
         <v>-1</v>
       </c>
       <c r="AB221">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC221">
-        <v>0.8700000000000001</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="222" spans="1:29">
@@ -20226,7 +20226,7 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>2904154</v>
+        <v>2918304</v>
       </c>
       <c r="C222" t="s">
         <v>28</v>
@@ -20238,55 +20238,55 @@
         <v>44338.54166666666</v>
       </c>
       <c r="F222" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G222" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="H222">
+        <v>0</v>
+      </c>
+      <c r="I222">
         <v>1</v>
-      </c>
-      <c r="I222">
-        <v>2</v>
       </c>
       <c r="J222" t="s">
         <v>57</v>
       </c>
       <c r="K222">
-        <v>7</v>
+        <v>4.2</v>
       </c>
       <c r="L222">
-        <v>5</v>
+        <v>3.8</v>
       </c>
       <c r="M222">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="N222">
-        <v>9.5</v>
+        <v>5.75</v>
       </c>
       <c r="O222">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="P222">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="Q222">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="R222">
+        <v>2</v>
+      </c>
+      <c r="S222">
         <v>1.9</v>
-      </c>
-      <c r="S222">
-        <v>2</v>
       </c>
       <c r="T222">
         <v>3</v>
       </c>
       <c r="U222">
-        <v>2.06</v>
+        <v>2.02</v>
       </c>
       <c r="V222">
-        <v>1.84</v>
+        <v>1.88</v>
       </c>
       <c r="W222">
         <v>-1</v>
@@ -20295,19 +20295,19 @@
         <v>-1</v>
       </c>
       <c r="Y222">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="Z222">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA222">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB222">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC222">
-        <v>-0</v>
+        <v>0.8799999999999999</v>
       </c>
     </row>
     <row r="223" spans="1:29">
@@ -20315,7 +20315,7 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>2918304</v>
+        <v>2970033</v>
       </c>
       <c r="C223" t="s">
         <v>28</v>
@@ -20327,64 +20327,64 @@
         <v>44338.54166666666</v>
       </c>
       <c r="F223" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="G223" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H223">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I223">
         <v>1</v>
       </c>
       <c r="J223" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K223">
-        <v>4.2</v>
+        <v>1.5</v>
       </c>
       <c r="L223">
-        <v>3.8</v>
+        <v>5</v>
       </c>
       <c r="M223">
-        <v>1.8</v>
+        <v>5.5</v>
       </c>
       <c r="N223">
-        <v>5.75</v>
+        <v>1.5</v>
       </c>
       <c r="O223">
         <v>4.5</v>
       </c>
       <c r="P223">
-        <v>1.5</v>
+        <v>5.5</v>
       </c>
       <c r="Q223">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="R223">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="S223">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="T223">
         <v>3</v>
       </c>
       <c r="U223">
-        <v>2.02</v>
+        <v>1.86</v>
       </c>
       <c r="V223">
-        <v>1.88</v>
+        <v>2.04</v>
       </c>
       <c r="W223">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X223">
         <v>-1</v>
       </c>
       <c r="Y223">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z223">
         <v>0</v>
@@ -20393,10 +20393,10 @@
         <v>-0</v>
       </c>
       <c r="AB223">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC223">
-        <v>0.8799999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="224" spans="1:29">
@@ -20404,7 +20404,7 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>2970033</v>
+        <v>2900188</v>
       </c>
       <c r="C224" t="s">
         <v>28</v>
@@ -20416,58 +20416,58 @@
         <v>44338.54166666666</v>
       </c>
       <c r="F224" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="G224" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H224">
         <v>2</v>
       </c>
       <c r="I224">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J224" t="s">
         <v>55</v>
       </c>
       <c r="K224">
-        <v>1.5</v>
+        <v>1.727</v>
       </c>
       <c r="L224">
-        <v>5</v>
+        <v>3.8</v>
       </c>
       <c r="M224">
-        <v>5.5</v>
+        <v>4.75</v>
       </c>
       <c r="N224">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="O224">
-        <v>4.5</v>
+        <v>3.7</v>
       </c>
       <c r="P224">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="Q224">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R224">
-        <v>1.98</v>
+        <v>2.07</v>
       </c>
       <c r="S224">
-        <v>1.92</v>
+        <v>1.83</v>
       </c>
       <c r="T224">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U224">
-        <v>1.86</v>
+        <v>2.03</v>
       </c>
       <c r="V224">
-        <v>2.04</v>
+        <v>1.87</v>
       </c>
       <c r="W224">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="X224">
         <v>-1</v>
@@ -20476,16 +20476,16 @@
         <v>-1</v>
       </c>
       <c r="Z224">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="AA224">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB224">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC224">
-        <v>-0</v>
+        <v>0.8700000000000001</v>
       </c>
     </row>
     <row r="225" spans="1:29">
@@ -25032,7 +25032,7 @@
         <v>274</v>
       </c>
       <c r="B276">
-        <v>3712716</v>
+        <v>3713649</v>
       </c>
       <c r="C276" t="s">
         <v>28</v>
@@ -25044,13 +25044,13 @@
         <v>44460.70833333334</v>
       </c>
       <c r="F276" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="G276" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="H276">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I276">
         <v>2</v>
@@ -25059,41 +25059,41 @@
         <v>57</v>
       </c>
       <c r="K276">
-        <v>1.75</v>
+        <v>2.5</v>
       </c>
       <c r="L276">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="M276">
-        <v>5</v>
+        <v>2.9</v>
       </c>
       <c r="N276">
-        <v>1.75</v>
+        <v>3.1</v>
       </c>
       <c r="O276">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P276">
-        <v>5</v>
+        <v>2.3</v>
       </c>
       <c r="Q276">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R276">
+        <v>1.88</v>
+      </c>
+      <c r="S276">
+        <v>2.02</v>
+      </c>
+      <c r="T276">
+        <v>2.5</v>
+      </c>
+      <c r="U276">
         <v>2.07</v>
       </c>
-      <c r="S276">
+      <c r="V276">
         <v>1.83</v>
       </c>
-      <c r="T276">
-        <v>2.25</v>
-      </c>
-      <c r="U276">
-        <v>2.03</v>
-      </c>
-      <c r="V276">
-        <v>1.87</v>
-      </c>
       <c r="W276">
         <v>-1</v>
       </c>
@@ -25101,19 +25101,19 @@
         <v>-1</v>
       </c>
       <c r="Y276">
-        <v>4</v>
+        <v>1.3</v>
       </c>
       <c r="Z276">
         <v>-1</v>
       </c>
       <c r="AA276">
+        <v>1.02</v>
+      </c>
+      <c r="AB276">
+        <v>-1</v>
+      </c>
+      <c r="AC276">
         <v>0.8300000000000001</v>
-      </c>
-      <c r="AB276">
-        <v>1.03</v>
-      </c>
-      <c r="AC276">
-        <v>-1</v>
       </c>
     </row>
     <row r="277" spans="1:29">
@@ -25121,7 +25121,7 @@
         <v>275</v>
       </c>
       <c r="B277">
-        <v>3713649</v>
+        <v>3712716</v>
       </c>
       <c r="C277" t="s">
         <v>28</v>
@@ -25133,13 +25133,13 @@
         <v>44460.70833333334</v>
       </c>
       <c r="F277" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="G277" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="H277">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I277">
         <v>2</v>
@@ -25148,40 +25148,40 @@
         <v>57</v>
       </c>
       <c r="K277">
-        <v>2.5</v>
+        <v>1.75</v>
       </c>
       <c r="L277">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="M277">
-        <v>2.9</v>
+        <v>5</v>
       </c>
       <c r="N277">
-        <v>3.1</v>
+        <v>1.75</v>
       </c>
       <c r="O277">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P277">
-        <v>2.3</v>
+        <v>5</v>
       </c>
       <c r="Q277">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R277">
-        <v>1.88</v>
+        <v>2.07</v>
       </c>
       <c r="S277">
-        <v>2.02</v>
+        <v>1.83</v>
       </c>
       <c r="T277">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U277">
-        <v>2.07</v>
+        <v>2.03</v>
       </c>
       <c r="V277">
-        <v>1.83</v>
+        <v>1.87</v>
       </c>
       <c r="W277">
         <v>-1</v>
@@ -25190,19 +25190,19 @@
         <v>-1</v>
       </c>
       <c r="Y277">
-        <v>1.3</v>
+        <v>4</v>
       </c>
       <c r="Z277">
         <v>-1</v>
       </c>
       <c r="AA277">
-        <v>1.02</v>
+        <v>0.8300000000000001</v>
       </c>
       <c r="AB277">
-        <v>-1</v>
+        <v>1.03</v>
       </c>
       <c r="AC277">
-        <v>0.8300000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="278" spans="1:29">
@@ -36958,7 +36958,7 @@
         <v>408</v>
       </c>
       <c r="B410">
-        <v>3712740</v>
+        <v>3713745</v>
       </c>
       <c r="C410" t="s">
         <v>28</v>
@@ -36970,76 +36970,76 @@
         <v>44563.51041666666</v>
       </c>
       <c r="F410" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G410" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="H410">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I410">
         <v>0</v>
       </c>
       <c r="J410" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K410">
-        <v>1.444</v>
+        <v>2.15</v>
       </c>
       <c r="L410">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="M410">
-        <v>6.5</v>
+        <v>3.4</v>
       </c>
       <c r="N410">
-        <v>1.444</v>
+        <v>2.6</v>
       </c>
       <c r="O410">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="P410">
-        <v>8</v>
+        <v>2.9</v>
       </c>
       <c r="Q410">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R410">
-        <v>1.83</v>
+        <v>1.79</v>
       </c>
       <c r="S410">
-        <v>2.07</v>
+        <v>2.11</v>
       </c>
       <c r="T410">
         <v>2.25</v>
       </c>
       <c r="U410">
-        <v>1.85</v>
+        <v>1.97</v>
       </c>
       <c r="V410">
-        <v>2.05</v>
+        <v>1.93</v>
       </c>
       <c r="W410">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X410">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y410">
         <v>-1</v>
       </c>
       <c r="Z410">
-        <v>0.8300000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA410">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB410">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC410">
-        <v>0.5249999999999999</v>
+        <v>0.9299999999999999</v>
       </c>
     </row>
     <row r="411" spans="1:29">
@@ -37047,7 +37047,7 @@
         <v>409</v>
       </c>
       <c r="B411">
-        <v>3713745</v>
+        <v>3712740</v>
       </c>
       <c r="C411" t="s">
         <v>28</v>
@@ -37059,76 +37059,76 @@
         <v>44563.51041666666</v>
       </c>
       <c r="F411" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G411" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="H411">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I411">
         <v>0</v>
       </c>
       <c r="J411" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K411">
-        <v>2.15</v>
+        <v>1.444</v>
       </c>
       <c r="L411">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="M411">
-        <v>3.4</v>
+        <v>6.5</v>
       </c>
       <c r="N411">
-        <v>2.6</v>
+        <v>1.444</v>
       </c>
       <c r="O411">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="P411">
-        <v>2.9</v>
+        <v>8</v>
       </c>
       <c r="Q411">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R411">
-        <v>1.79</v>
+        <v>1.83</v>
       </c>
       <c r="S411">
-        <v>2.11</v>
+        <v>2.07</v>
       </c>
       <c r="T411">
         <v>2.25</v>
       </c>
       <c r="U411">
-        <v>1.97</v>
+        <v>1.85</v>
       </c>
       <c r="V411">
-        <v>1.93</v>
+        <v>2.05</v>
       </c>
       <c r="W411">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X411">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y411">
         <v>-1</v>
       </c>
       <c r="Z411">
-        <v>0</v>
+        <v>0.8300000000000001</v>
       </c>
       <c r="AA411">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB411">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC411">
-        <v>0.9299999999999999</v>
+        <v>0.5249999999999999</v>
       </c>
     </row>
     <row r="412" spans="1:29">
@@ -37136,7 +37136,7 @@
         <v>410</v>
       </c>
       <c r="B412">
-        <v>3713740</v>
+        <v>3713739</v>
       </c>
       <c r="C412" t="s">
         <v>28</v>
@@ -37148,76 +37148,76 @@
         <v>44563.60416666666</v>
       </c>
       <c r="F412" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G412" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H412">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I412">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J412" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K412">
+        <v>3.8</v>
+      </c>
+      <c r="L412">
+        <v>3</v>
+      </c>
+      <c r="M412">
+        <v>2.1</v>
+      </c>
+      <c r="N412">
+        <v>4.75</v>
+      </c>
+      <c r="O412">
+        <v>3.3</v>
+      </c>
+      <c r="P412">
         <v>1.85</v>
       </c>
-      <c r="L412">
-        <v>3.5</v>
-      </c>
-      <c r="M412">
-        <v>3.8</v>
-      </c>
-      <c r="N412">
-        <v>1.75</v>
-      </c>
-      <c r="O412">
-        <v>3.75</v>
-      </c>
-      <c r="P412">
-        <v>4.5</v>
-      </c>
       <c r="Q412">
+        <v>0.5</v>
+      </c>
+      <c r="R412">
+        <v>2.03</v>
+      </c>
+      <c r="S412">
+        <v>1.87</v>
+      </c>
+      <c r="T412">
+        <v>2.25</v>
+      </c>
+      <c r="U412">
+        <v>2.06</v>
+      </c>
+      <c r="V412">
+        <v>1.84</v>
+      </c>
+      <c r="W412">
+        <v>-1</v>
+      </c>
+      <c r="X412">
+        <v>2.3</v>
+      </c>
+      <c r="Y412">
+        <v>-1</v>
+      </c>
+      <c r="Z412">
+        <v>1.03</v>
+      </c>
+      <c r="AA412">
+        <v>-1</v>
+      </c>
+      <c r="AB412">
         <v>-0.5</v>
       </c>
-      <c r="R412">
-        <v>1.83</v>
-      </c>
-      <c r="S412">
-        <v>2.07</v>
-      </c>
-      <c r="T412">
-        <v>2.75</v>
-      </c>
-      <c r="U412">
-        <v>2</v>
-      </c>
-      <c r="V412">
-        <v>1.9</v>
-      </c>
-      <c r="W412">
-        <v>-1</v>
-      </c>
-      <c r="X412">
-        <v>-1</v>
-      </c>
-      <c r="Y412">
-        <v>3.5</v>
-      </c>
-      <c r="Z412">
-        <v>-1</v>
-      </c>
-      <c r="AA412">
-        <v>1.07</v>
-      </c>
-      <c r="AB412">
-        <v>-1</v>
-      </c>
       <c r="AC412">
-        <v>0.8999999999999999</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="413" spans="1:29">
@@ -37225,7 +37225,7 @@
         <v>411</v>
       </c>
       <c r="B413">
-        <v>3713739</v>
+        <v>3713740</v>
       </c>
       <c r="C413" t="s">
         <v>28</v>
@@ -37237,76 +37237,76 @@
         <v>44563.60416666666</v>
       </c>
       <c r="F413" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G413" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H413">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I413">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J413" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K413">
+        <v>1.85</v>
+      </c>
+      <c r="L413">
+        <v>3.5</v>
+      </c>
+      <c r="M413">
         <v>3.8</v>
       </c>
-      <c r="L413">
-        <v>3</v>
-      </c>
-      <c r="M413">
-        <v>2.1</v>
-      </c>
       <c r="N413">
-        <v>4.75</v>
+        <v>1.75</v>
       </c>
       <c r="O413">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="P413">
-        <v>1.85</v>
+        <v>4.5</v>
       </c>
       <c r="Q413">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R413">
-        <v>2.03</v>
+        <v>1.83</v>
       </c>
       <c r="S413">
-        <v>1.87</v>
+        <v>2.07</v>
       </c>
       <c r="T413">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U413">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="V413">
-        <v>1.84</v>
+        <v>1.9</v>
       </c>
       <c r="W413">
         <v>-1</v>
       </c>
       <c r="X413">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y413">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Z413">
-        <v>1.03</v>
+        <v>-1</v>
       </c>
       <c r="AA413">
-        <v>-1</v>
+        <v>1.07</v>
       </c>
       <c r="AB413">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC413">
-        <v>0.42</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="414" spans="1:29">
@@ -38204,7 +38204,7 @@
         <v>422</v>
       </c>
       <c r="B424">
-        <v>3713748</v>
+        <v>3713746</v>
       </c>
       <c r="C424" t="s">
         <v>28</v>
@@ -38216,76 +38216,76 @@
         <v>44570.60416666666</v>
       </c>
       <c r="F424" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="G424" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="H424">
+        <v>0</v>
+      </c>
+      <c r="I424">
+        <v>0</v>
+      </c>
+      <c r="J424" t="s">
+        <v>56</v>
+      </c>
+      <c r="K424">
+        <v>3.2</v>
+      </c>
+      <c r="L424">
+        <v>3.1</v>
+      </c>
+      <c r="M424">
+        <v>2.3</v>
+      </c>
+      <c r="N424">
+        <v>4</v>
+      </c>
+      <c r="O424">
+        <v>3.25</v>
+      </c>
+      <c r="P424">
         <v>2</v>
       </c>
-      <c r="I424">
-        <v>0</v>
-      </c>
-      <c r="J424" t="s">
-        <v>55</v>
-      </c>
-      <c r="K424">
-        <v>1.666</v>
-      </c>
-      <c r="L424">
-        <v>3.4</v>
-      </c>
-      <c r="M424">
-        <v>6</v>
-      </c>
-      <c r="N424">
-        <v>1.6</v>
-      </c>
-      <c r="O424">
-        <v>3.6</v>
-      </c>
-      <c r="P424">
-        <v>6.5</v>
-      </c>
       <c r="Q424">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="R424">
-        <v>2.09</v>
+        <v>1.84</v>
       </c>
       <c r="S424">
-        <v>1.81</v>
+        <v>2.06</v>
       </c>
       <c r="T424">
         <v>2.25</v>
       </c>
       <c r="U424">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="V424">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="W424">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X424">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y424">
         <v>-1</v>
       </c>
       <c r="Z424">
-        <v>1.09</v>
+        <v>0.8400000000000001</v>
       </c>
       <c r="AA424">
         <v>-1</v>
       </c>
       <c r="AB424">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC424">
-        <v>0.4350000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="425" spans="1:29">
@@ -38293,7 +38293,7 @@
         <v>423</v>
       </c>
       <c r="B425">
-        <v>3713746</v>
+        <v>3713748</v>
       </c>
       <c r="C425" t="s">
         <v>28</v>
@@ -38305,76 +38305,76 @@
         <v>44570.60416666666</v>
       </c>
       <c r="F425" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="G425" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="H425">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I425">
         <v>0</v>
       </c>
       <c r="J425" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K425">
-        <v>3.2</v>
+        <v>1.666</v>
       </c>
       <c r="L425">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M425">
-        <v>2.3</v>
+        <v>6</v>
       </c>
       <c r="N425">
-        <v>4</v>
+        <v>1.6</v>
       </c>
       <c r="O425">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="P425">
-        <v>2</v>
+        <v>6.5</v>
       </c>
       <c r="Q425">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="R425">
-        <v>1.84</v>
+        <v>2.09</v>
       </c>
       <c r="S425">
-        <v>2.06</v>
+        <v>1.81</v>
       </c>
       <c r="T425">
         <v>2.25</v>
       </c>
       <c r="U425">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="V425">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="W425">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X425">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y425">
         <v>-1</v>
       </c>
       <c r="Z425">
-        <v>0.8400000000000001</v>
+        <v>1.09</v>
       </c>
       <c r="AA425">
         <v>-1</v>
       </c>
       <c r="AB425">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC425">
-        <v>0.8999999999999999</v>
+        <v>0.4350000000000001</v>
       </c>
     </row>
     <row r="426" spans="1:29">
@@ -52978,7 +52978,7 @@
         <v>588</v>
       </c>
       <c r="B590">
-        <v>4237159</v>
+        <v>4118971</v>
       </c>
       <c r="C590" t="s">
         <v>28</v>
@@ -52990,76 +52990,76 @@
         <v>44696.60416666666</v>
       </c>
       <c r="F590" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G590" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="H590">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I590">
         <v>1</v>
       </c>
       <c r="J590" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K590">
+        <v>1.666</v>
+      </c>
+      <c r="L590">
+        <v>3.6</v>
+      </c>
+      <c r="M590">
+        <v>5.5</v>
+      </c>
+      <c r="N590">
+        <v>1.75</v>
+      </c>
+      <c r="O590">
+        <v>3.4</v>
+      </c>
+      <c r="P590">
+        <v>5</v>
+      </c>
+      <c r="Q590">
+        <v>-0.75</v>
+      </c>
+      <c r="R590">
+        <v>2.03</v>
+      </c>
+      <c r="S590">
+        <v>1.87</v>
+      </c>
+      <c r="T590">
         <v>2.25</v>
       </c>
-      <c r="L590">
-        <v>3</v>
-      </c>
-      <c r="M590">
-        <v>3.6</v>
-      </c>
-      <c r="N590">
-        <v>1.95</v>
-      </c>
-      <c r="O590">
-        <v>3.1</v>
-      </c>
-      <c r="P590">
-        <v>4.75</v>
-      </c>
-      <c r="Q590">
+      <c r="U590">
+        <v>2.1</v>
+      </c>
+      <c r="V590">
+        <v>1.8</v>
+      </c>
+      <c r="W590">
+        <v>0.75</v>
+      </c>
+      <c r="X590">
+        <v>-1</v>
+      </c>
+      <c r="Y590">
+        <v>-1</v>
+      </c>
+      <c r="Z590">
+        <v>0.5149999999999999</v>
+      </c>
+      <c r="AA590">
         <v>-0.5</v>
       </c>
-      <c r="R590">
-        <v>1.97</v>
-      </c>
-      <c r="S590">
-        <v>1.93</v>
-      </c>
-      <c r="T590">
-        <v>2</v>
-      </c>
-      <c r="U590">
-        <v>2.02</v>
-      </c>
-      <c r="V590">
-        <v>1.88</v>
-      </c>
-      <c r="W590">
-        <v>-1</v>
-      </c>
-      <c r="X590">
-        <v>2.1</v>
-      </c>
-      <c r="Y590">
-        <v>-1</v>
-      </c>
-      <c r="Z590">
-        <v>-1</v>
-      </c>
-      <c r="AA590">
-        <v>0.9299999999999999</v>
-      </c>
       <c r="AB590">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="AC590">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="591" spans="1:29">
@@ -53067,7 +53067,7 @@
         <v>589</v>
       </c>
       <c r="B591">
-        <v>4123823</v>
+        <v>4237159</v>
       </c>
       <c r="C591" t="s">
         <v>28</v>
@@ -53079,49 +53079,49 @@
         <v>44696.60416666666</v>
       </c>
       <c r="F591" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="G591" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H591">
+        <v>1</v>
+      </c>
+      <c r="I591">
+        <v>1</v>
+      </c>
+      <c r="J591" t="s">
+        <v>56</v>
+      </c>
+      <c r="K591">
+        <v>2.25</v>
+      </c>
+      <c r="L591">
+        <v>3</v>
+      </c>
+      <c r="M591">
+        <v>3.6</v>
+      </c>
+      <c r="N591">
+        <v>1.95</v>
+      </c>
+      <c r="O591">
+        <v>3.1</v>
+      </c>
+      <c r="P591">
+        <v>4.75</v>
+      </c>
+      <c r="Q591">
+        <v>-0.5</v>
+      </c>
+      <c r="R591">
+        <v>1.97</v>
+      </c>
+      <c r="S591">
+        <v>1.93</v>
+      </c>
+      <c r="T591">
         <v>2</v>
-      </c>
-      <c r="I591">
-        <v>0</v>
-      </c>
-      <c r="J591" t="s">
-        <v>55</v>
-      </c>
-      <c r="K591">
-        <v>1.5</v>
-      </c>
-      <c r="L591">
-        <v>4.333</v>
-      </c>
-      <c r="M591">
-        <v>6</v>
-      </c>
-      <c r="N591">
-        <v>1.55</v>
-      </c>
-      <c r="O591">
-        <v>4.5</v>
-      </c>
-      <c r="P591">
-        <v>5.5</v>
-      </c>
-      <c r="Q591">
-        <v>-1</v>
-      </c>
-      <c r="R591">
-        <v>1.83</v>
-      </c>
-      <c r="S591">
-        <v>2.07</v>
-      </c>
-      <c r="T591">
-        <v>3.25</v>
       </c>
       <c r="U591">
         <v>2.02</v>
@@ -53130,25 +53130,25 @@
         <v>1.88</v>
       </c>
       <c r="W591">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="X591">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y591">
         <v>-1</v>
       </c>
       <c r="Z591">
-        <v>0.8300000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA591">
-        <v>-1</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="AB591">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC591">
-        <v>0.8799999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="592" spans="1:29">
@@ -53156,7 +53156,7 @@
         <v>590</v>
       </c>
       <c r="B592">
-        <v>4118971</v>
+        <v>4120332</v>
       </c>
       <c r="C592" t="s">
         <v>28</v>
@@ -53168,40 +53168,40 @@
         <v>44696.60416666666</v>
       </c>
       <c r="F592" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="G592" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="H592">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I592">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J592" t="s">
         <v>55</v>
       </c>
       <c r="K592">
-        <v>1.666</v>
+        <v>1.7</v>
       </c>
       <c r="L592">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M592">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="N592">
-        <v>1.75</v>
+        <v>1.333</v>
       </c>
       <c r="O592">
-        <v>3.4</v>
+        <v>5.25</v>
       </c>
       <c r="P592">
-        <v>5</v>
+        <v>8.5</v>
       </c>
       <c r="Q592">
-        <v>-0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R592">
         <v>2.03</v>
@@ -53210,16 +53210,16 @@
         <v>1.87</v>
       </c>
       <c r="T592">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U592">
-        <v>2.1</v>
+        <v>1.84</v>
       </c>
       <c r="V592">
-        <v>1.8</v>
+        <v>2.06</v>
       </c>
       <c r="W592">
-        <v>0.75</v>
+        <v>0.333</v>
       </c>
       <c r="X592">
         <v>-1</v>
@@ -53228,16 +53228,16 @@
         <v>-1</v>
       </c>
       <c r="Z592">
-        <v>0.5149999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA592">
-        <v>-0.5</v>
+        <v>0.8700000000000001</v>
       </c>
       <c r="AB592">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="AC592">
-        <v>-1</v>
+        <v>1.06</v>
       </c>
     </row>
     <row r="593" spans="1:29">
@@ -53245,7 +53245,7 @@
         <v>591</v>
       </c>
       <c r="B593">
-        <v>4233381</v>
+        <v>4123823</v>
       </c>
       <c r="C593" t="s">
         <v>28</v>
@@ -53257,76 +53257,76 @@
         <v>44696.60416666666</v>
       </c>
       <c r="F593" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G593" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="H593">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I593">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J593" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K593">
-        <v>2.15</v>
+        <v>1.5</v>
       </c>
       <c r="L593">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="M593">
-        <v>3.2</v>
+        <v>6</v>
       </c>
       <c r="N593">
-        <v>2</v>
+        <v>1.55</v>
       </c>
       <c r="O593">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="P593">
-        <v>3.6</v>
+        <v>5.5</v>
       </c>
       <c r="Q593">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R593">
-        <v>2.11</v>
+        <v>1.83</v>
       </c>
       <c r="S593">
-        <v>1.79</v>
+        <v>2.07</v>
       </c>
       <c r="T593">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="U593">
-        <v>1.91</v>
+        <v>2.02</v>
       </c>
       <c r="V593">
-        <v>1.99</v>
+        <v>1.88</v>
       </c>
       <c r="W593">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="X593">
         <v>-1</v>
       </c>
       <c r="Y593">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z593">
-        <v>-1</v>
+        <v>0.8300000000000001</v>
       </c>
       <c r="AA593">
-        <v>0.79</v>
+        <v>-1</v>
       </c>
       <c r="AB593">
-        <v>0.9099999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC593">
-        <v>-1</v>
+        <v>0.8799999999999999</v>
       </c>
     </row>
     <row r="594" spans="1:29">
@@ -53512,7 +53512,7 @@
         <v>594</v>
       </c>
       <c r="B596">
-        <v>4120332</v>
+        <v>4233381</v>
       </c>
       <c r="C596" t="s">
         <v>28</v>
@@ -53524,76 +53524,76 @@
         <v>44696.60416666666</v>
       </c>
       <c r="F596" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="G596" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="H596">
         <v>1</v>
       </c>
       <c r="I596">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J596" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K596">
-        <v>1.7</v>
+        <v>2.15</v>
       </c>
       <c r="L596">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M596">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="N596">
-        <v>1.333</v>
+        <v>2</v>
       </c>
       <c r="O596">
-        <v>5.25</v>
+        <v>3.5</v>
       </c>
       <c r="P596">
-        <v>8.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q596">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R596">
-        <v>2.03</v>
+        <v>2.11</v>
       </c>
       <c r="S596">
-        <v>1.87</v>
+        <v>1.79</v>
       </c>
       <c r="T596">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U596">
-        <v>1.84</v>
+        <v>1.91</v>
       </c>
       <c r="V596">
-        <v>2.06</v>
+        <v>1.99</v>
       </c>
       <c r="W596">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X596">
         <v>-1</v>
       </c>
       <c r="Y596">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z596">
         <v>-1</v>
       </c>
       <c r="AA596">
-        <v>0.8700000000000001</v>
+        <v>0.79</v>
       </c>
       <c r="AB596">
-        <v>-1</v>
+        <v>0.9099999999999999</v>
       </c>
       <c r="AC596">
-        <v>1.06</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="597" spans="1:29">
@@ -54224,7 +54224,7 @@
         <v>602</v>
       </c>
       <c r="B604">
-        <v>4123824</v>
+        <v>4252736</v>
       </c>
       <c r="C604" t="s">
         <v>28</v>
@@ -54236,76 +54236,76 @@
         <v>44703.70833333334</v>
       </c>
       <c r="F604" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G604" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="H604">
         <v>1</v>
       </c>
       <c r="I604">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J604" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K604">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="L604">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M604">
         <v>3</v>
       </c>
       <c r="N604">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="O604">
         <v>3.1</v>
       </c>
       <c r="P604">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="Q604">
         <v>0</v>
       </c>
       <c r="R604">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="S604">
-        <v>1.9</v>
+        <v>1.99</v>
       </c>
       <c r="T604">
         <v>2.25</v>
       </c>
       <c r="U604">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="V604">
-        <v>1.92</v>
+        <v>1.88</v>
       </c>
       <c r="W604">
+        <v>-1</v>
+      </c>
+      <c r="X604">
+        <v>-1</v>
+      </c>
+      <c r="Y604">
         <v>1.8</v>
       </c>
-      <c r="X604">
-        <v>-1</v>
-      </c>
-      <c r="Y604">
-        <v>-1</v>
-      </c>
       <c r="Z604">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA604">
-        <v>-1</v>
+        <v>0.99</v>
       </c>
       <c r="AB604">
-        <v>-1</v>
+        <v>1.02</v>
       </c>
       <c r="AC604">
-        <v>0.9199999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="605" spans="1:29">
@@ -54402,7 +54402,7 @@
         <v>604</v>
       </c>
       <c r="B606">
-        <v>4252736</v>
+        <v>4123824</v>
       </c>
       <c r="C606" t="s">
         <v>28</v>
@@ -54414,76 +54414,76 @@
         <v>44703.70833333334</v>
       </c>
       <c r="F606" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G606" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="H606">
         <v>1</v>
       </c>
       <c r="I606">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J606" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K606">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="L606">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M606">
         <v>3</v>
       </c>
       <c r="N606">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="O606">
         <v>3.1</v>
       </c>
       <c r="P606">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="Q606">
         <v>0</v>
       </c>
       <c r="R606">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="S606">
-        <v>1.99</v>
+        <v>1.9</v>
       </c>
       <c r="T606">
         <v>2.25</v>
       </c>
       <c r="U606">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="V606">
-        <v>1.88</v>
+        <v>1.92</v>
       </c>
       <c r="W606">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="X606">
         <v>-1</v>
       </c>
       <c r="Y606">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z606">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA606">
-        <v>0.99</v>
+        <v>-1</v>
       </c>
       <c r="AB606">
-        <v>1.02</v>
+        <v>-1</v>
       </c>
       <c r="AC606">
-        <v>-1</v>
+        <v>0.9199999999999999</v>
       </c>
     </row>
     <row r="607" spans="1:29">
@@ -62768,7 +62768,7 @@
         <v>698</v>
       </c>
       <c r="B700">
-        <v>5210752</v>
+        <v>5210753</v>
       </c>
       <c r="C700" t="s">
         <v>28</v>
@@ -62780,76 +62780,76 @@
         <v>44853.58333333334</v>
       </c>
       <c r="F700" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G700" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="H700">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I700">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J700" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K700">
-        <v>2.9</v>
+        <v>2.4</v>
       </c>
       <c r="L700">
         <v>3.3</v>
       </c>
       <c r="M700">
+        <v>2.875</v>
+      </c>
+      <c r="N700">
+        <v>3.1</v>
+      </c>
+      <c r="O700">
+        <v>3.2</v>
+      </c>
+      <c r="P700">
         <v>2.375</v>
-      </c>
-      <c r="N700">
-        <v>3.5</v>
-      </c>
-      <c r="O700">
-        <v>3.25</v>
-      </c>
-      <c r="P700">
-        <v>2.2</v>
       </c>
       <c r="Q700">
         <v>0.25</v>
       </c>
       <c r="R700">
-        <v>2.01</v>
+        <v>1.86</v>
       </c>
       <c r="S700">
-        <v>1.89</v>
+        <v>2.04</v>
       </c>
       <c r="T700">
         <v>2.25</v>
       </c>
       <c r="U700">
-        <v>1.97</v>
+        <v>2.03</v>
       </c>
       <c r="V700">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="W700">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="X700">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y700">
         <v>-1</v>
       </c>
       <c r="Z700">
-        <v>0.5049999999999999</v>
+        <v>0.8600000000000001</v>
       </c>
       <c r="AA700">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB700">
-        <v>-1</v>
+        <v>1.03</v>
       </c>
       <c r="AC700">
-        <v>0.9299999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="701" spans="1:29">
@@ -62857,7 +62857,7 @@
         <v>699</v>
       </c>
       <c r="B701">
-        <v>5210753</v>
+        <v>5210752</v>
       </c>
       <c r="C701" t="s">
         <v>28</v>
@@ -62869,76 +62869,76 @@
         <v>44853.58333333334</v>
       </c>
       <c r="F701" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G701" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="H701">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I701">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J701" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K701">
-        <v>2.4</v>
+        <v>2.9</v>
       </c>
       <c r="L701">
         <v>3.3</v>
       </c>
       <c r="M701">
-        <v>2.875</v>
+        <v>2.375</v>
       </c>
       <c r="N701">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="O701">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P701">
-        <v>2.375</v>
+        <v>2.2</v>
       </c>
       <c r="Q701">
         <v>0.25</v>
       </c>
       <c r="R701">
-        <v>1.86</v>
+        <v>2.01</v>
       </c>
       <c r="S701">
-        <v>2.04</v>
+        <v>1.89</v>
       </c>
       <c r="T701">
         <v>2.25</v>
       </c>
       <c r="U701">
-        <v>2.03</v>
+        <v>1.97</v>
       </c>
       <c r="V701">
-        <v>1.87</v>
+        <v>1.93</v>
       </c>
       <c r="W701">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="X701">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y701">
         <v>-1</v>
       </c>
       <c r="Z701">
-        <v>0.8600000000000001</v>
+        <v>0.5049999999999999</v>
       </c>
       <c r="AA701">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB701">
-        <v>1.03</v>
+        <v>-1</v>
       </c>
       <c r="AC701">
-        <v>-1</v>
+        <v>0.9299999999999999</v>
       </c>
     </row>
     <row r="702" spans="1:29">
@@ -67307,7 +67307,7 @@
         <v>749</v>
       </c>
       <c r="B751">
-        <v>5934416</v>
+        <v>5934417</v>
       </c>
       <c r="C751" t="s">
         <v>28</v>
@@ -67319,10 +67319,10 @@
         <v>44925.63541666666</v>
       </c>
       <c r="F751" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="G751" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="H751">
         <v>1</v>
@@ -67334,46 +67334,46 @@
         <v>56</v>
       </c>
       <c r="K751">
-        <v>2.375</v>
+        <v>2.3</v>
       </c>
       <c r="L751">
+        <v>3.1</v>
+      </c>
+      <c r="M751">
         <v>3.2</v>
       </c>
-      <c r="M751">
-        <v>3.1</v>
-      </c>
       <c r="N751">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="O751">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P751">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="Q751">
         <v>-0.25</v>
       </c>
       <c r="R751">
-        <v>1.95</v>
+        <v>1.87</v>
       </c>
       <c r="S751">
-        <v>1.95</v>
+        <v>2.03</v>
       </c>
       <c r="T751">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U751">
-        <v>1.75</v>
+        <v>1.86</v>
       </c>
       <c r="V751">
-        <v>2.05</v>
+        <v>2.04</v>
       </c>
       <c r="W751">
         <v>-1</v>
       </c>
       <c r="X751">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="Y751">
         <v>-1</v>
@@ -67382,13 +67382,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA751">
-        <v>0.475</v>
+        <v>0.5149999999999999</v>
       </c>
       <c r="AB751">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AC751">
-        <v>-0</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="752" spans="1:29">
@@ -67396,7 +67396,7 @@
         <v>750</v>
       </c>
       <c r="B752">
-        <v>5934417</v>
+        <v>5934416</v>
       </c>
       <c r="C752" t="s">
         <v>28</v>
@@ -67408,10 +67408,10 @@
         <v>44925.63541666666</v>
       </c>
       <c r="F752" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G752" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="H752">
         <v>1</v>
@@ -67423,46 +67423,46 @@
         <v>56</v>
       </c>
       <c r="K752">
-        <v>2.3</v>
+        <v>2.375</v>
       </c>
       <c r="L752">
+        <v>3.2</v>
+      </c>
+      <c r="M752">
         <v>3.1</v>
       </c>
-      <c r="M752">
+      <c r="N752">
+        <v>2.2</v>
+      </c>
+      <c r="O752">
         <v>3.2</v>
       </c>
-      <c r="N752">
-        <v>2.15</v>
-      </c>
-      <c r="O752">
-        <v>3.25</v>
-      </c>
       <c r="P752">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="Q752">
         <v>-0.25</v>
       </c>
       <c r="R752">
-        <v>1.87</v>
+        <v>1.95</v>
       </c>
       <c r="S752">
-        <v>2.03</v>
+        <v>1.95</v>
       </c>
       <c r="T752">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U752">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="V752">
-        <v>2.04</v>
+        <v>2.05</v>
       </c>
       <c r="W752">
         <v>-1</v>
       </c>
       <c r="X752">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="Y752">
         <v>-1</v>
@@ -67471,13 +67471,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA752">
-        <v>0.5149999999999999</v>
+        <v>0.475</v>
       </c>
       <c r="AB752">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AC752">
-        <v>0.52</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="753" spans="1:29">
@@ -82971,7 +82971,7 @@
         <v>925</v>
       </c>
       <c r="B927">
-        <v>5534478</v>
+        <v>5540298</v>
       </c>
       <c r="C927" t="s">
         <v>28</v>
@@ -82983,58 +82983,58 @@
         <v>45048.60416666666</v>
       </c>
       <c r="F927" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="G927" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="H927">
+        <v>2</v>
+      </c>
+      <c r="I927">
         <v>1</v>
-      </c>
-      <c r="I927">
-        <v>0</v>
       </c>
       <c r="J927" t="s">
         <v>55</v>
       </c>
       <c r="K927">
-        <v>1.25</v>
+        <v>1.65</v>
       </c>
       <c r="L927">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="M927">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="N927">
-        <v>1.166</v>
+        <v>1.727</v>
       </c>
       <c r="O927">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="P927">
-        <v>15</v>
+        <v>4.5</v>
       </c>
       <c r="Q927">
-        <v>-2</v>
+        <v>-0.75</v>
       </c>
       <c r="R927">
-        <v>1.85</v>
+        <v>1.92</v>
       </c>
       <c r="S927">
-        <v>2.05</v>
+        <v>1.98</v>
       </c>
       <c r="T927">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U927">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V927">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="W927">
-        <v>0.1659999999999999</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X927">
         <v>-1</v>
@@ -83043,16 +83043,16 @@
         <v>-1</v>
       </c>
       <c r="Z927">
-        <v>-1</v>
+        <v>0.46</v>
       </c>
       <c r="AA927">
-        <v>1.05</v>
+        <v>-0.5</v>
       </c>
       <c r="AB927">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC927">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="928" spans="1:29">
@@ -83060,7 +83060,7 @@
         <v>926</v>
       </c>
       <c r="B928">
-        <v>5540298</v>
+        <v>5534478</v>
       </c>
       <c r="C928" t="s">
         <v>28</v>
@@ -83072,58 +83072,58 @@
         <v>45048.60416666666</v>
       </c>
       <c r="F928" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G928" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="H928">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I928">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J928" t="s">
         <v>55</v>
       </c>
       <c r="K928">
-        <v>1.65</v>
+        <v>1.25</v>
       </c>
       <c r="L928">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="M928">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="N928">
-        <v>1.727</v>
+        <v>1.166</v>
       </c>
       <c r="O928">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="P928">
-        <v>4.5</v>
+        <v>15</v>
       </c>
       <c r="Q928">
-        <v>-0.75</v>
+        <v>-2</v>
       </c>
       <c r="R928">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="S928">
-        <v>1.98</v>
+        <v>2.05</v>
       </c>
       <c r="T928">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U928">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V928">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="W928">
-        <v>0.7270000000000001</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X928">
         <v>-1</v>
@@ -83132,16 +83132,16 @@
         <v>-1</v>
       </c>
       <c r="Z928">
-        <v>0.46</v>
+        <v>-1</v>
       </c>
       <c r="AA928">
-        <v>-0.5</v>
+        <v>1.05</v>
       </c>
       <c r="AB928">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC928">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="929" spans="1:29">
@@ -83505,7 +83505,7 @@
         <v>931</v>
       </c>
       <c r="B933">
-        <v>5534213</v>
+        <v>5545333</v>
       </c>
       <c r="C933" t="s">
         <v>28</v>
@@ -83517,58 +83517,58 @@
         <v>45050.60416666666</v>
       </c>
       <c r="F933" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="G933" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H933">
+        <v>3</v>
+      </c>
+      <c r="I933">
         <v>2</v>
-      </c>
-      <c r="I933">
-        <v>1</v>
       </c>
       <c r="J933" t="s">
         <v>55</v>
       </c>
       <c r="K933">
-        <v>2.2</v>
+        <v>1.909</v>
       </c>
       <c r="L933">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M933">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="N933">
-        <v>1.909</v>
+        <v>1.8</v>
       </c>
       <c r="O933">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="P933">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="Q933">
         <v>-0.5</v>
       </c>
       <c r="R933">
+        <v>1.88</v>
+      </c>
+      <c r="S933">
+        <v>2.02</v>
+      </c>
+      <c r="T933">
+        <v>2.5</v>
+      </c>
+      <c r="U933">
+        <v>1.98</v>
+      </c>
+      <c r="V933">
         <v>1.92</v>
       </c>
-      <c r="S933">
-        <v>1.98</v>
-      </c>
-      <c r="T933">
-        <v>2</v>
-      </c>
-      <c r="U933">
-        <v>1.86</v>
-      </c>
-      <c r="V933">
-        <v>2.04</v>
-      </c>
       <c r="W933">
-        <v>0.909</v>
+        <v>0.8</v>
       </c>
       <c r="X933">
         <v>-1</v>
@@ -83577,13 +83577,13 @@
         <v>-1</v>
       </c>
       <c r="Z933">
-        <v>0.9199999999999999</v>
+        <v>0.8799999999999999</v>
       </c>
       <c r="AA933">
         <v>-1</v>
       </c>
       <c r="AB933">
-        <v>0.8600000000000001</v>
+        <v>0.98</v>
       </c>
       <c r="AC933">
         <v>-1</v>
@@ -83594,7 +83594,7 @@
         <v>932</v>
       </c>
       <c r="B934">
-        <v>5545333</v>
+        <v>5534213</v>
       </c>
       <c r="C934" t="s">
         <v>28</v>
@@ -83606,58 +83606,58 @@
         <v>45050.60416666666</v>
       </c>
       <c r="F934" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="G934" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H934">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I934">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J934" t="s">
         <v>55</v>
       </c>
       <c r="K934">
+        <v>2.2</v>
+      </c>
+      <c r="L934">
+        <v>3.2</v>
+      </c>
+      <c r="M934">
+        <v>3.4</v>
+      </c>
+      <c r="N934">
         <v>1.909</v>
       </c>
-      <c r="L934">
-        <v>3.5</v>
-      </c>
-      <c r="M934">
-        <v>4</v>
-      </c>
-      <c r="N934">
-        <v>1.8</v>
-      </c>
       <c r="O934">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="P934">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="Q934">
         <v>-0.5</v>
       </c>
       <c r="R934">
-        <v>1.88</v>
+        <v>1.92</v>
       </c>
       <c r="S934">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="T934">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U934">
-        <v>1.98</v>
+        <v>1.86</v>
       </c>
       <c r="V934">
-        <v>1.92</v>
+        <v>2.04</v>
       </c>
       <c r="W934">
-        <v>0.8</v>
+        <v>0.909</v>
       </c>
       <c r="X934">
         <v>-1</v>
@@ -83666,13 +83666,13 @@
         <v>-1</v>
       </c>
       <c r="Z934">
-        <v>0.8799999999999999</v>
+        <v>0.9199999999999999</v>
       </c>
       <c r="AA934">
         <v>-1</v>
       </c>
       <c r="AB934">
-        <v>0.98</v>
+        <v>0.8600000000000001</v>
       </c>
       <c r="AC934">
         <v>-1</v>
@@ -85018,7 +85018,7 @@
         <v>948</v>
       </c>
       <c r="B950">
-        <v>5611043</v>
+        <v>5611042</v>
       </c>
       <c r="C950" t="s">
         <v>28</v>
@@ -85030,76 +85030,76 @@
         <v>45066.5625</v>
       </c>
       <c r="F950" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="G950" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="H950">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I950">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J950" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K950">
-        <v>1.5</v>
+        <v>2.3</v>
       </c>
       <c r="L950">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="M950">
-        <v>6.5</v>
+        <v>3.2</v>
       </c>
       <c r="N950">
-        <v>1.65</v>
+        <v>2.25</v>
       </c>
       <c r="O950">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="P950">
-        <v>6</v>
+        <v>3.3</v>
       </c>
       <c r="Q950">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R950">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="S950">
-        <v>2.01</v>
+        <v>1.95</v>
       </c>
       <c r="T950">
         <v>2.25</v>
       </c>
       <c r="U950">
-        <v>2.09</v>
+        <v>1.9</v>
       </c>
       <c r="V950">
-        <v>1.81</v>
+        <v>2</v>
       </c>
       <c r="W950">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X950">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y950">
         <v>-1</v>
       </c>
       <c r="Z950">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA950">
-        <v>1.01</v>
+        <v>-1</v>
       </c>
       <c r="AB950">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC950">
-        <v>0.405</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="951" spans="1:29">
@@ -85107,7 +85107,7 @@
         <v>949</v>
       </c>
       <c r="B951">
-        <v>5611042</v>
+        <v>5611043</v>
       </c>
       <c r="C951" t="s">
         <v>28</v>
@@ -85119,76 +85119,76 @@
         <v>45066.5625</v>
       </c>
       <c r="F951" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="G951" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="H951">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I951">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J951" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K951">
-        <v>2.3</v>
+        <v>1.5</v>
       </c>
       <c r="L951">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="M951">
-        <v>3.2</v>
+        <v>6.5</v>
       </c>
       <c r="N951">
-        <v>2.25</v>
+        <v>1.65</v>
       </c>
       <c r="O951">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="P951">
-        <v>3.3</v>
+        <v>6</v>
       </c>
       <c r="Q951">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R951">
-        <v>1.95</v>
+        <v>1.89</v>
       </c>
       <c r="S951">
-        <v>1.95</v>
+        <v>2.01</v>
       </c>
       <c r="T951">
         <v>2.25</v>
       </c>
       <c r="U951">
-        <v>1.9</v>
+        <v>2.09</v>
       </c>
       <c r="V951">
-        <v>2</v>
+        <v>1.81</v>
       </c>
       <c r="W951">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X951">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y951">
         <v>-1</v>
       </c>
       <c r="Z951">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA951">
-        <v>-1</v>
+        <v>1.01</v>
       </c>
       <c r="AB951">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AC951">
-        <v>-1</v>
+        <v>0.405</v>
       </c>
     </row>
     <row r="952" spans="1:29">
@@ -86175,7 +86175,7 @@
         <v>961</v>
       </c>
       <c r="B963">
-        <v>5643107</v>
+        <v>5642104</v>
       </c>
       <c r="C963" t="s">
         <v>28</v>
@@ -86187,76 +86187,76 @@
         <v>45070.70833333334</v>
       </c>
       <c r="F963" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="G963" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="H963">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I963">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J963" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K963">
-        <v>4</v>
+        <v>1.909</v>
       </c>
       <c r="L963">
+        <v>3.25</v>
+      </c>
+      <c r="M963">
+        <v>4.333</v>
+      </c>
+      <c r="N963">
+        <v>2.25</v>
+      </c>
+      <c r="O963">
+        <v>2.9</v>
+      </c>
+      <c r="P963">
         <v>3.75</v>
       </c>
-      <c r="M963">
-        <v>1.833</v>
-      </c>
-      <c r="N963">
-        <v>3</v>
-      </c>
-      <c r="O963">
-        <v>3.5</v>
-      </c>
-      <c r="P963">
-        <v>2.3</v>
-      </c>
       <c r="Q963">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R963">
-        <v>1.82</v>
+        <v>1.96</v>
       </c>
       <c r="S963">
-        <v>2.11</v>
+        <v>1.97</v>
       </c>
       <c r="T963">
+        <v>1.75</v>
+      </c>
+      <c r="U963">
+        <v>1.81</v>
+      </c>
+      <c r="V963">
+        <v>2.09</v>
+      </c>
+      <c r="W963">
+        <v>-1</v>
+      </c>
+      <c r="X963">
+        <v>-1</v>
+      </c>
+      <c r="Y963">
         <v>2.75</v>
       </c>
-      <c r="U963">
-        <v>2</v>
-      </c>
-      <c r="V963">
-        <v>1.9</v>
-      </c>
-      <c r="W963">
-        <v>-1</v>
-      </c>
-      <c r="X963">
-        <v>2.5</v>
-      </c>
-      <c r="Y963">
-        <v>-1</v>
-      </c>
       <c r="Z963">
-        <v>0.41</v>
+        <v>-1</v>
       </c>
       <c r="AA963">
-        <v>-0.5</v>
+        <v>0.97</v>
       </c>
       <c r="AB963">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC963">
-        <v>-1</v>
+        <v>1.09</v>
       </c>
     </row>
     <row r="964" spans="1:29">
@@ -86264,7 +86264,7 @@
         <v>962</v>
       </c>
       <c r="B964">
-        <v>5642104</v>
+        <v>5643107</v>
       </c>
       <c r="C964" t="s">
         <v>28</v>
@@ -86276,76 +86276,76 @@
         <v>45070.70833333334</v>
       </c>
       <c r="F964" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="G964" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="H964">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I964">
+        <v>3</v>
+      </c>
+      <c r="J964" t="s">
+        <v>56</v>
+      </c>
+      <c r="K964">
+        <v>4</v>
+      </c>
+      <c r="L964">
+        <v>3.75</v>
+      </c>
+      <c r="M964">
+        <v>1.833</v>
+      </c>
+      <c r="N964">
+        <v>3</v>
+      </c>
+      <c r="O964">
+        <v>3.5</v>
+      </c>
+      <c r="P964">
+        <v>2.3</v>
+      </c>
+      <c r="Q964">
+        <v>0.25</v>
+      </c>
+      <c r="R964">
+        <v>1.82</v>
+      </c>
+      <c r="S964">
+        <v>2.11</v>
+      </c>
+      <c r="T964">
+        <v>2.75</v>
+      </c>
+      <c r="U964">
+        <v>2</v>
+      </c>
+      <c r="V964">
+        <v>1.9</v>
+      </c>
+      <c r="W964">
+        <v>-1</v>
+      </c>
+      <c r="X964">
+        <v>2.5</v>
+      </c>
+      <c r="Y964">
+        <v>-1</v>
+      </c>
+      <c r="Z964">
+        <v>0.41</v>
+      </c>
+      <c r="AA964">
+        <v>-0.5</v>
+      </c>
+      <c r="AB964">
         <v>1</v>
       </c>
-      <c r="J964" t="s">
-        <v>57</v>
-      </c>
-      <c r="K964">
-        <v>1.909</v>
-      </c>
-      <c r="L964">
-        <v>3.25</v>
-      </c>
-      <c r="M964">
-        <v>4.333</v>
-      </c>
-      <c r="N964">
-        <v>2.25</v>
-      </c>
-      <c r="O964">
-        <v>2.9</v>
-      </c>
-      <c r="P964">
-        <v>3.75</v>
-      </c>
-      <c r="Q964">
-        <v>-0.25</v>
-      </c>
-      <c r="R964">
-        <v>1.96</v>
-      </c>
-      <c r="S964">
-        <v>1.97</v>
-      </c>
-      <c r="T964">
-        <v>1.75</v>
-      </c>
-      <c r="U964">
-        <v>1.81</v>
-      </c>
-      <c r="V964">
-        <v>2.09</v>
-      </c>
-      <c r="W964">
-        <v>-1</v>
-      </c>
-      <c r="X964">
-        <v>-1</v>
-      </c>
-      <c r="Y964">
-        <v>2.75</v>
-      </c>
-      <c r="Z964">
-        <v>-1</v>
-      </c>
-      <c r="AA964">
-        <v>0.97</v>
-      </c>
-      <c r="AB964">
-        <v>-1</v>
-      </c>
       <c r="AC964">
-        <v>1.09</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="965" spans="1:29">
@@ -86620,7 +86620,7 @@
         <v>966</v>
       </c>
       <c r="B968">
-        <v>5697401</v>
+        <v>5701612</v>
       </c>
       <c r="C968" t="s">
         <v>28</v>
@@ -86632,76 +86632,76 @@
         <v>45074.58333333334</v>
       </c>
       <c r="F968" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G968" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="H968">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I968">
         <v>1</v>
       </c>
       <c r="J968" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K968">
+        <v>1.909</v>
+      </c>
+      <c r="L968">
+        <v>3.4</v>
+      </c>
+      <c r="M968">
+        <v>4</v>
+      </c>
+      <c r="N968">
+        <v>2.4</v>
+      </c>
+      <c r="O968">
+        <v>2.75</v>
+      </c>
+      <c r="P968">
+        <v>3.5</v>
+      </c>
+      <c r="Q968">
+        <v>-0.25</v>
+      </c>
+      <c r="R968">
+        <v>2.1</v>
+      </c>
+      <c r="S968">
+        <v>1.8</v>
+      </c>
+      <c r="T968">
+        <v>1.5</v>
+      </c>
+      <c r="U968">
+        <v>1.82</v>
+      </c>
+      <c r="V968">
+        <v>2.08</v>
+      </c>
+      <c r="W968">
         <v>1.4</v>
       </c>
-      <c r="L968">
-        <v>4.5</v>
-      </c>
-      <c r="M968">
-        <v>8</v>
-      </c>
-      <c r="N968">
-        <v>1.4</v>
-      </c>
-      <c r="O968">
-        <v>4.5</v>
-      </c>
-      <c r="P968">
-        <v>8</v>
-      </c>
-      <c r="Q968">
-        <v>-1.25</v>
-      </c>
-      <c r="R968">
-        <v>1.95</v>
-      </c>
-      <c r="S968">
-        <v>1.95</v>
-      </c>
-      <c r="T968">
-        <v>2.75</v>
-      </c>
-      <c r="U968">
-        <v>1.91</v>
-      </c>
-      <c r="V968">
-        <v>1.99</v>
-      </c>
-      <c r="W968">
-        <v>-1</v>
-      </c>
       <c r="X968">
         <v>-1</v>
       </c>
       <c r="Y968">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="Z968">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="AA968">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB968">
-        <v>-1</v>
+        <v>0.8200000000000001</v>
       </c>
       <c r="AC968">
-        <v>0.99</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="969" spans="1:29">
@@ -86709,7 +86709,7 @@
         <v>967</v>
       </c>
       <c r="B969">
-        <v>5705884</v>
+        <v>5705727</v>
       </c>
       <c r="C969" t="s">
         <v>28</v>
@@ -86721,73 +86721,73 @@
         <v>45074.58333333334</v>
       </c>
       <c r="F969" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="G969" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="H969">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I969">
         <v>2</v>
       </c>
       <c r="J969" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K969">
-        <v>2.2</v>
+        <v>1.909</v>
       </c>
       <c r="L969">
+        <v>3.6</v>
+      </c>
+      <c r="M969">
+        <v>3.75</v>
+      </c>
+      <c r="N969">
+        <v>2</v>
+      </c>
+      <c r="O969">
         <v>3.5</v>
       </c>
-      <c r="M969">
-        <v>3.1</v>
-      </c>
-      <c r="N969">
-        <v>1.909</v>
-      </c>
-      <c r="O969">
+      <c r="P969">
         <v>3.6</v>
-      </c>
-      <c r="P969">
-        <v>3.8</v>
       </c>
       <c r="Q969">
         <v>-0.5</v>
       </c>
       <c r="R969">
-        <v>1.98</v>
+        <v>2.025</v>
       </c>
       <c r="S969">
-        <v>1.92</v>
+        <v>1.775</v>
       </c>
       <c r="T969">
         <v>2.5</v>
       </c>
       <c r="U969">
-        <v>1.99</v>
+        <v>2.07</v>
       </c>
       <c r="V969">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="W969">
         <v>-1</v>
       </c>
       <c r="X969">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y969">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Z969">
         <v>-1</v>
       </c>
       <c r="AA969">
-        <v>0.9199999999999999</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB969">
-        <v>0.99</v>
+        <v>1.07</v>
       </c>
       <c r="AC969">
         <v>-1</v>
@@ -86798,7 +86798,7 @@
         <v>968</v>
       </c>
       <c r="B970">
-        <v>5705727</v>
+        <v>5705884</v>
       </c>
       <c r="C970" t="s">
         <v>28</v>
@@ -86810,73 +86810,73 @@
         <v>45074.58333333334</v>
       </c>
       <c r="F970" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="G970" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="H970">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I970">
         <v>2</v>
       </c>
       <c r="J970" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K970">
+        <v>2.2</v>
+      </c>
+      <c r="L970">
+        <v>3.5</v>
+      </c>
+      <c r="M970">
+        <v>3.1</v>
+      </c>
+      <c r="N970">
         <v>1.909</v>
       </c>
-      <c r="L970">
+      <c r="O970">
         <v>3.6</v>
       </c>
-      <c r="M970">
-        <v>3.75</v>
-      </c>
-      <c r="N970">
-        <v>2</v>
-      </c>
-      <c r="O970">
-        <v>3.5</v>
-      </c>
       <c r="P970">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="Q970">
         <v>-0.5</v>
       </c>
       <c r="R970">
-        <v>2.025</v>
+        <v>1.98</v>
       </c>
       <c r="S970">
-        <v>1.775</v>
+        <v>1.92</v>
       </c>
       <c r="T970">
         <v>2.5</v>
       </c>
       <c r="U970">
-        <v>2.07</v>
+        <v>1.99</v>
       </c>
       <c r="V970">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="W970">
         <v>-1</v>
       </c>
       <c r="X970">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y970">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Z970">
         <v>-1</v>
       </c>
       <c r="AA970">
-        <v>0.7749999999999999</v>
+        <v>0.9199999999999999</v>
       </c>
       <c r="AB970">
-        <v>1.07</v>
+        <v>0.99</v>
       </c>
       <c r="AC970">
         <v>-1</v>
@@ -86976,7 +86976,7 @@
         <v>970</v>
       </c>
       <c r="B972">
-        <v>5701613</v>
+        <v>5713343</v>
       </c>
       <c r="C972" t="s">
         <v>28</v>
@@ -86988,59 +86988,59 @@
         <v>45074.58333333334</v>
       </c>
       <c r="F972" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="G972" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H972">
+        <v>2</v>
+      </c>
+      <c r="I972">
         <v>1</v>
-      </c>
-      <c r="I972">
-        <v>0</v>
       </c>
       <c r="J972" t="s">
         <v>55</v>
       </c>
       <c r="K972">
-        <v>2.6</v>
+        <v>2.875</v>
       </c>
       <c r="L972">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M972">
-        <v>2.7</v>
+        <v>2.3</v>
       </c>
       <c r="N972">
-        <v>2.45</v>
+        <v>3</v>
       </c>
       <c r="O972">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="P972">
-        <v>3.1</v>
+        <v>2.2</v>
       </c>
       <c r="Q972">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R972">
-        <v>2.075</v>
+        <v>1.9</v>
       </c>
       <c r="S972">
-        <v>1.725</v>
+        <v>2</v>
       </c>
       <c r="T972">
+        <v>3</v>
+      </c>
+      <c r="U972">
+        <v>2.06</v>
+      </c>
+      <c r="V972">
+        <v>1.84</v>
+      </c>
+      <c r="W972">
         <v>2</v>
       </c>
-      <c r="U972">
-        <v>1.95</v>
-      </c>
-      <c r="V972">
-        <v>1.95</v>
-      </c>
-      <c r="W972">
-        <v>1.45</v>
-      </c>
       <c r="X972">
         <v>-1</v>
       </c>
@@ -87048,16 +87048,16 @@
         <v>-1</v>
       </c>
       <c r="Z972">
-        <v>1.075</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA972">
         <v>-1</v>
       </c>
       <c r="AB972">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC972">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="973" spans="1:29">
@@ -87065,7 +87065,7 @@
         <v>971</v>
       </c>
       <c r="B973">
-        <v>5701612</v>
+        <v>5697401</v>
       </c>
       <c r="C973" t="s">
         <v>28</v>
@@ -87077,76 +87077,76 @@
         <v>45074.58333333334</v>
       </c>
       <c r="F973" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G973" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="H973">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I973">
         <v>1</v>
       </c>
       <c r="J973" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K973">
-        <v>1.909</v>
+        <v>1.4</v>
       </c>
       <c r="L973">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="M973">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="N973">
-        <v>2.4</v>
+        <v>1.4</v>
       </c>
       <c r="O973">
+        <v>4.5</v>
+      </c>
+      <c r="P973">
+        <v>8</v>
+      </c>
+      <c r="Q973">
+        <v>-1.25</v>
+      </c>
+      <c r="R973">
+        <v>1.95</v>
+      </c>
+      <c r="S973">
+        <v>1.95</v>
+      </c>
+      <c r="T973">
         <v>2.75</v>
       </c>
-      <c r="P973">
-        <v>3.5</v>
-      </c>
-      <c r="Q973">
-        <v>-0.25</v>
-      </c>
-      <c r="R973">
-        <v>2.1</v>
-      </c>
-      <c r="S973">
-        <v>1.8</v>
-      </c>
-      <c r="T973">
-        <v>1.5</v>
-      </c>
       <c r="U973">
-        <v>1.82</v>
+        <v>1.91</v>
       </c>
       <c r="V973">
-        <v>2.08</v>
+        <v>1.99</v>
       </c>
       <c r="W973">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="X973">
         <v>-1</v>
       </c>
       <c r="Y973">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="Z973">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="AA973">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB973">
-        <v>0.8200000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC973">
-        <v>-1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="974" spans="1:29">
@@ -87243,7 +87243,7 @@
         <v>973</v>
       </c>
       <c r="B975">
-        <v>5713343</v>
+        <v>5701613</v>
       </c>
       <c r="C975" t="s">
         <v>28</v>
@@ -87255,58 +87255,58 @@
         <v>45074.58333333334</v>
       </c>
       <c r="F975" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="G975" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H975">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I975">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J975" t="s">
         <v>55</v>
       </c>
       <c r="K975">
-        <v>2.875</v>
+        <v>2.6</v>
       </c>
       <c r="L975">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M975">
-        <v>2.3</v>
+        <v>2.7</v>
       </c>
       <c r="N975">
-        <v>3</v>
+        <v>2.45</v>
       </c>
       <c r="O975">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="P975">
-        <v>2.2</v>
+        <v>3.1</v>
       </c>
       <c r="Q975">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R975">
-        <v>1.9</v>
+        <v>2.075</v>
       </c>
       <c r="S975">
+        <v>1.725</v>
+      </c>
+      <c r="T975">
         <v>2</v>
       </c>
-      <c r="T975">
-        <v>3</v>
-      </c>
       <c r="U975">
-        <v>2.06</v>
+        <v>1.95</v>
       </c>
       <c r="V975">
-        <v>1.84</v>
+        <v>1.95</v>
       </c>
       <c r="W975">
-        <v>2</v>
+        <v>1.45</v>
       </c>
       <c r="X975">
         <v>-1</v>
@@ -87315,16 +87315,16 @@
         <v>-1</v>
       </c>
       <c r="Z975">
-        <v>0.8999999999999999</v>
+        <v>1.075</v>
       </c>
       <c r="AA975">
         <v>-1</v>
       </c>
       <c r="AB975">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC975">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="976" spans="1:29">
@@ -87777,7 +87777,7 @@
         <v>979</v>
       </c>
       <c r="B981">
-        <v>5738382</v>
+        <v>5732768</v>
       </c>
       <c r="C981" t="s">
         <v>28</v>
@@ -87789,73 +87789,73 @@
         <v>45081.66666666666</v>
       </c>
       <c r="F981" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="G981" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="H981">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I981">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J981" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K981">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="L981">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M981">
-        <v>2.2</v>
+        <v>1.909</v>
       </c>
       <c r="N981">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="O981">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P981">
-        <v>2.45</v>
+        <v>2.75</v>
       </c>
       <c r="Q981">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R981">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="S981">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="T981">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U981">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="V981">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W981">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X981">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y981">
         <v>-1</v>
       </c>
       <c r="Z981">
-        <v>1.06</v>
+        <v>-0.5</v>
       </c>
       <c r="AA981">
-        <v>-1</v>
+        <v>0.415</v>
       </c>
       <c r="AB981">
-        <v>0.95</v>
+        <v>1.1</v>
       </c>
       <c r="AC981">
         <v>-1</v>
@@ -87866,7 +87866,7 @@
         <v>980</v>
       </c>
       <c r="B982">
-        <v>5732768</v>
+        <v>5734498</v>
       </c>
       <c r="C982" t="s">
         <v>28</v>
@@ -87878,76 +87878,76 @@
         <v>45081.66666666666</v>
       </c>
       <c r="F982" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="G982" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="H982">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I982">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J982" t="s">
         <v>56</v>
       </c>
       <c r="K982">
-        <v>3.5</v>
+        <v>2.1</v>
       </c>
       <c r="L982">
+        <v>3.4</v>
+      </c>
+      <c r="M982">
+        <v>3.4</v>
+      </c>
+      <c r="N982">
+        <v>2.05</v>
+      </c>
+      <c r="O982">
+        <v>3.3</v>
+      </c>
+      <c r="P982">
         <v>4</v>
       </c>
-      <c r="M982">
-        <v>1.909</v>
-      </c>
-      <c r="N982">
-        <v>2.4</v>
-      </c>
-      <c r="O982">
-        <v>3.75</v>
-      </c>
-      <c r="P982">
-        <v>2.75</v>
-      </c>
       <c r="Q982">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R982">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="S982">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="T982">
-        <v>3.25</v>
+        <v>2</v>
       </c>
       <c r="U982">
-        <v>2.1</v>
+        <v>1.82</v>
       </c>
       <c r="V982">
-        <v>1.8</v>
+        <v>2.08</v>
       </c>
       <c r="W982">
         <v>-1</v>
       </c>
       <c r="X982">
-        <v>2.75</v>
+        <v>2.3</v>
       </c>
       <c r="Y982">
         <v>-1</v>
       </c>
       <c r="Z982">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA982">
-        <v>0.415</v>
+        <v>0.8200000000000001</v>
       </c>
       <c r="AB982">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="AC982">
-        <v>-1</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="983" spans="1:29">
@@ -87955,7 +87955,7 @@
         <v>981</v>
       </c>
       <c r="B983">
-        <v>5734498</v>
+        <v>5737343</v>
       </c>
       <c r="C983" t="s">
         <v>28</v>
@@ -87967,55 +87967,55 @@
         <v>45081.66666666666</v>
       </c>
       <c r="F983" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G983" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="H983">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I983">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J983" t="s">
         <v>56</v>
       </c>
       <c r="K983">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="L983">
         <v>3.4</v>
       </c>
       <c r="M983">
-        <v>3.4</v>
+        <v>2.6</v>
       </c>
       <c r="N983">
-        <v>2.05</v>
+        <v>2.45</v>
       </c>
       <c r="O983">
         <v>3.3</v>
       </c>
       <c r="P983">
-        <v>4</v>
+        <v>2.875</v>
       </c>
       <c r="Q983">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R983">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="S983">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="T983">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U983">
-        <v>1.82</v>
+        <v>1.91</v>
       </c>
       <c r="V983">
-        <v>2.08</v>
+        <v>1.99</v>
       </c>
       <c r="W983">
         <v>-1</v>
@@ -88027,16 +88027,16 @@
         <v>-1</v>
       </c>
       <c r="Z983">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA983">
-        <v>0.8200000000000001</v>
+        <v>0.375</v>
       </c>
       <c r="AB983">
         <v>-1</v>
       </c>
       <c r="AC983">
-        <v>1.08</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="984" spans="1:29">
@@ -88044,7 +88044,7 @@
         <v>982</v>
       </c>
       <c r="B984">
-        <v>5762751</v>
+        <v>5738382</v>
       </c>
       <c r="C984" t="s">
         <v>28</v>
@@ -88056,76 +88056,76 @@
         <v>45081.66666666666</v>
       </c>
       <c r="F984" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G984" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="H984">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I984">
         <v>1</v>
       </c>
       <c r="J984" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K984">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="L984">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M984">
         <v>2.2</v>
       </c>
       <c r="N984">
-        <v>2.875</v>
+        <v>2.7</v>
       </c>
       <c r="O984">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P984">
         <v>2.45</v>
       </c>
       <c r="Q984">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R984">
-        <v>1.78</v>
+        <v>2.06</v>
       </c>
       <c r="S984">
-        <v>2.125</v>
+        <v>1.84</v>
       </c>
       <c r="T984">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U984">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="V984">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="W984">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X984">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y984">
         <v>-1</v>
       </c>
       <c r="Z984">
-        <v>0.39</v>
+        <v>1.06</v>
       </c>
       <c r="AA984">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB984">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AC984">
-        <v>0.49</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="985" spans="1:29">
@@ -88133,7 +88133,7 @@
         <v>983</v>
       </c>
       <c r="B985">
-        <v>5737343</v>
+        <v>5762751</v>
       </c>
       <c r="C985" t="s">
         <v>28</v>
@@ -88145,10 +88145,10 @@
         <v>45081.66666666666</v>
       </c>
       <c r="F985" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="G985" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H985">
         <v>1</v>
@@ -88160,40 +88160,40 @@
         <v>56</v>
       </c>
       <c r="K985">
-        <v>2.6</v>
+        <v>3.1</v>
       </c>
       <c r="L985">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M985">
-        <v>2.6</v>
+        <v>2.2</v>
       </c>
       <c r="N985">
-        <v>2.45</v>
+        <v>2.875</v>
       </c>
       <c r="O985">
         <v>3.3</v>
       </c>
       <c r="P985">
-        <v>2.875</v>
+        <v>2.45</v>
       </c>
       <c r="Q985">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R985">
-        <v>2.05</v>
+        <v>1.78</v>
       </c>
       <c r="S985">
-        <v>1.75</v>
+        <v>2.125</v>
       </c>
       <c r="T985">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U985">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="V985">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="W985">
         <v>-1</v>
@@ -88205,16 +88205,16 @@
         <v>-1</v>
       </c>
       <c r="Z985">
+        <v>0.39</v>
+      </c>
+      <c r="AA985">
         <v>-0.5</v>
       </c>
-      <c r="AA985">
-        <v>0.375</v>
-      </c>
       <c r="AB985">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC985">
-        <v>0.99</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="986" spans="1:29">
@@ -94096,7 +94096,7 @@
         <v>1050</v>
       </c>
       <c r="B1052">
-        <v>6809385</v>
+        <v>6809387</v>
       </c>
       <c r="C1052" t="s">
         <v>28</v>
@@ -94108,10 +94108,10 @@
         <v>45197.58333333334</v>
       </c>
       <c r="F1052" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G1052" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H1052">
         <v>1</v>
@@ -94123,61 +94123,61 @@
         <v>56</v>
       </c>
       <c r="K1052">
+        <v>2</v>
+      </c>
+      <c r="L1052">
         <v>3.2</v>
       </c>
-      <c r="L1052">
-        <v>3.25</v>
-      </c>
       <c r="M1052">
+        <v>4</v>
+      </c>
+      <c r="N1052">
+        <v>1.571</v>
+      </c>
+      <c r="O1052">
+        <v>3.75</v>
+      </c>
+      <c r="P1052">
+        <v>6.5</v>
+      </c>
+      <c r="Q1052">
+        <v>-1</v>
+      </c>
+      <c r="R1052">
+        <v>2.06</v>
+      </c>
+      <c r="S1052">
+        <v>1.84</v>
+      </c>
+      <c r="T1052">
         <v>2.25</v>
       </c>
-      <c r="N1052">
-        <v>2.8</v>
-      </c>
-      <c r="O1052">
-        <v>3.3</v>
-      </c>
-      <c r="P1052">
-        <v>2.55</v>
-      </c>
-      <c r="Q1052">
-        <v>0</v>
-      </c>
-      <c r="R1052">
-        <v>2.07</v>
-      </c>
-      <c r="S1052">
-        <v>1.86</v>
-      </c>
-      <c r="T1052">
-        <v>2.5</v>
-      </c>
       <c r="U1052">
-        <v>1.97</v>
+        <v>1.99</v>
       </c>
       <c r="V1052">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="W1052">
         <v>-1</v>
       </c>
       <c r="X1052">
-        <v>2.3</v>
+        <v>2.75</v>
       </c>
       <c r="Y1052">
         <v>-1</v>
       </c>
       <c r="Z1052">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA1052">
-        <v>-0</v>
+        <v>0.8400000000000001</v>
       </c>
       <c r="AB1052">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC1052">
-        <v>0.9299999999999999</v>
+        <v>0.455</v>
       </c>
     </row>
     <row r="1053" spans="1:29">
@@ -94185,7 +94185,7 @@
         <v>1051</v>
       </c>
       <c r="B1053">
-        <v>6809387</v>
+        <v>6809385</v>
       </c>
       <c r="C1053" t="s">
         <v>28</v>
@@ -94197,10 +94197,10 @@
         <v>45197.58333333334</v>
       </c>
       <c r="F1053" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G1053" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H1053">
         <v>1</v>
@@ -94212,61 +94212,61 @@
         <v>56</v>
       </c>
       <c r="K1053">
-        <v>2</v>
+        <v>3.2</v>
       </c>
       <c r="L1053">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M1053">
-        <v>4</v>
+        <v>2.25</v>
       </c>
       <c r="N1053">
-        <v>1.571</v>
+        <v>2.8</v>
       </c>
       <c r="O1053">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="P1053">
-        <v>6.5</v>
+        <v>2.55</v>
       </c>
       <c r="Q1053">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R1053">
-        <v>2.06</v>
+        <v>2.07</v>
       </c>
       <c r="S1053">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="T1053">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U1053">
-        <v>1.99</v>
+        <v>1.97</v>
       </c>
       <c r="V1053">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="W1053">
         <v>-1</v>
       </c>
       <c r="X1053">
-        <v>2.75</v>
+        <v>2.3</v>
       </c>
       <c r="Y1053">
         <v>-1</v>
       </c>
       <c r="Z1053">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA1053">
-        <v>0.8400000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB1053">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC1053">
-        <v>0.455</v>
+        <v>0.9299999999999999</v>
       </c>
     </row>
     <row r="1054" spans="1:29">
@@ -102195,7 +102195,7 @@
         <v>1141</v>
       </c>
       <c r="B1143">
-        <v>6809424</v>
+        <v>6809425</v>
       </c>
       <c r="C1143" t="s">
         <v>28</v>
@@ -102207,76 +102207,76 @@
         <v>45271.70833333334</v>
       </c>
       <c r="F1143" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G1143" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H1143">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1143">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J1143" t="s">
         <v>56</v>
       </c>
       <c r="K1143">
-        <v>4.5</v>
+        <v>2.3</v>
       </c>
       <c r="L1143">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M1143">
-        <v>1.75</v>
+        <v>3.25</v>
       </c>
       <c r="N1143">
-        <v>4.2</v>
+        <v>2.7</v>
       </c>
       <c r="O1143">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="P1143">
-        <v>1.85</v>
+        <v>2.8</v>
       </c>
       <c r="Q1143">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R1143">
-        <v>2.01</v>
+        <v>1.92</v>
       </c>
       <c r="S1143">
-        <v>1.89</v>
+        <v>1.98</v>
       </c>
       <c r="T1143">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U1143">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V1143">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="W1143">
         <v>-1</v>
       </c>
       <c r="X1143">
-        <v>2.75</v>
+        <v>2.1</v>
       </c>
       <c r="Y1143">
         <v>-1</v>
       </c>
       <c r="Z1143">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="AA1143">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB1143">
         <v>-1</v>
       </c>
       <c r="AC1143">
-        <v>1.05</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="1144" spans="1:29">
@@ -102284,7 +102284,7 @@
         <v>1142</v>
       </c>
       <c r="B1144">
-        <v>6809425</v>
+        <v>6809424</v>
       </c>
       <c r="C1144" t="s">
         <v>28</v>
@@ -102296,76 +102296,76 @@
         <v>45271.70833333334</v>
       </c>
       <c r="F1144" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G1144" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="H1144">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I1144">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J1144" t="s">
         <v>56</v>
       </c>
       <c r="K1144">
-        <v>2.3</v>
+        <v>4.5</v>
       </c>
       <c r="L1144">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M1144">
-        <v>3.25</v>
+        <v>1.75</v>
       </c>
       <c r="N1144">
-        <v>2.7</v>
+        <v>4.2</v>
       </c>
       <c r="O1144">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="P1144">
-        <v>2.8</v>
+        <v>1.85</v>
       </c>
       <c r="Q1144">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R1144">
-        <v>1.92</v>
+        <v>2.01</v>
       </c>
       <c r="S1144">
-        <v>1.98</v>
+        <v>1.89</v>
       </c>
       <c r="T1144">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U1144">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="V1144">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="W1144">
         <v>-1</v>
       </c>
       <c r="X1144">
-        <v>2.1</v>
+        <v>2.75</v>
       </c>
       <c r="Y1144">
         <v>-1</v>
       </c>
       <c r="Z1144">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AA1144">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB1144">
         <v>-1</v>
       </c>
       <c r="AC1144">
-        <v>0.95</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="1145" spans="1:29">
@@ -103797,7 +103797,7 @@
         <v>1159</v>
       </c>
       <c r="B1161">
-        <v>6809436</v>
+        <v>6809289</v>
       </c>
       <c r="C1161" t="s">
         <v>28</v>
@@ -103809,76 +103809,76 @@
         <v>45281.625</v>
       </c>
       <c r="F1161" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="G1161" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="H1161">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I1161">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J1161" t="s">
         <v>56</v>
       </c>
       <c r="K1161">
-        <v>4.333</v>
+        <v>2.4</v>
       </c>
       <c r="L1161">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M1161">
-        <v>1.85</v>
+        <v>2.75</v>
       </c>
       <c r="N1161">
-        <v>6</v>
+        <v>2.6</v>
       </c>
       <c r="O1161">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P1161">
-        <v>1.65</v>
+        <v>2.5</v>
       </c>
       <c r="Q1161">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R1161">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="S1161">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="T1161">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U1161">
-        <v>1.84</v>
+        <v>1.91</v>
       </c>
       <c r="V1161">
-        <v>2.06</v>
+        <v>1.99</v>
       </c>
       <c r="W1161">
         <v>-1</v>
       </c>
       <c r="X1161">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="Y1161">
         <v>-1</v>
       </c>
       <c r="Z1161">
-        <v>0.98</v>
+        <v>0</v>
       </c>
       <c r="AA1161">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB1161">
         <v>-1</v>
       </c>
       <c r="AC1161">
-        <v>1.06</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="1162" spans="1:29">
@@ -103886,7 +103886,7 @@
         <v>1160</v>
       </c>
       <c r="B1162">
-        <v>6809289</v>
+        <v>6809436</v>
       </c>
       <c r="C1162" t="s">
         <v>28</v>
@@ -103898,76 +103898,76 @@
         <v>45281.625</v>
       </c>
       <c r="F1162" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="G1162" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="H1162">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1162">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J1162" t="s">
         <v>56</v>
       </c>
       <c r="K1162">
-        <v>2.4</v>
+        <v>4.333</v>
       </c>
       <c r="L1162">
+        <v>3.2</v>
+      </c>
+      <c r="M1162">
+        <v>1.85</v>
+      </c>
+      <c r="N1162">
+        <v>6</v>
+      </c>
+      <c r="O1162">
         <v>3.5</v>
       </c>
-      <c r="M1162">
-        <v>2.75</v>
-      </c>
-      <c r="N1162">
-        <v>2.6</v>
-      </c>
-      <c r="O1162">
-        <v>3.6</v>
-      </c>
       <c r="P1162">
+        <v>1.65</v>
+      </c>
+      <c r="Q1162">
+        <v>0.75</v>
+      </c>
+      <c r="R1162">
+        <v>1.98</v>
+      </c>
+      <c r="S1162">
+        <v>1.92</v>
+      </c>
+      <c r="T1162">
+        <v>2</v>
+      </c>
+      <c r="U1162">
+        <v>1.84</v>
+      </c>
+      <c r="V1162">
+        <v>2.06</v>
+      </c>
+      <c r="W1162">
+        <v>-1</v>
+      </c>
+      <c r="X1162">
         <v>2.5</v>
       </c>
-      <c r="Q1162">
-        <v>0</v>
-      </c>
-      <c r="R1162">
-        <v>1.97</v>
-      </c>
-      <c r="S1162">
-        <v>1.93</v>
-      </c>
-      <c r="T1162">
-        <v>2.75</v>
-      </c>
-      <c r="U1162">
-        <v>1.91</v>
-      </c>
-      <c r="V1162">
-        <v>1.99</v>
-      </c>
-      <c r="W1162">
-        <v>-1</v>
-      </c>
-      <c r="X1162">
-        <v>2.6</v>
-      </c>
       <c r="Y1162">
         <v>-1</v>
       </c>
       <c r="Z1162">
-        <v>0</v>
+        <v>0.98</v>
       </c>
       <c r="AA1162">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB1162">
         <v>-1</v>
       </c>
       <c r="AC1162">
-        <v>0.99</v>
+        <v>1.06</v>
       </c>
     </row>
     <row r="1163" spans="1:29">
@@ -103975,7 +103975,7 @@
         <v>1161</v>
       </c>
       <c r="B1163">
-        <v>6809290</v>
+        <v>6809437</v>
       </c>
       <c r="C1163" t="s">
         <v>28</v>
@@ -103987,76 +103987,76 @@
         <v>45281.72916666666</v>
       </c>
       <c r="F1163" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="G1163" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="H1163">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1163">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J1163" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K1163">
-        <v>2.2</v>
+        <v>4.75</v>
       </c>
       <c r="L1163">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="M1163">
-        <v>3.4</v>
+        <v>1.666</v>
       </c>
       <c r="N1163">
-        <v>2.2</v>
+        <v>5.5</v>
       </c>
       <c r="O1163">
-        <v>2.9</v>
+        <v>4.2</v>
       </c>
       <c r="P1163">
-        <v>4</v>
+        <v>1.571</v>
       </c>
       <c r="Q1163">
-        <v>-0.25</v>
+        <v>1</v>
       </c>
       <c r="R1163">
-        <v>1.89</v>
+        <v>1.83</v>
       </c>
       <c r="S1163">
-        <v>2.01</v>
+        <v>2.07</v>
       </c>
       <c r="T1163">
-        <v>1.75</v>
+        <v>2.5</v>
       </c>
       <c r="U1163">
-        <v>1.95</v>
+        <v>1.88</v>
       </c>
       <c r="V1163">
-        <v>1.95</v>
+        <v>2.02</v>
       </c>
       <c r="W1163">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X1163">
         <v>-1</v>
       </c>
       <c r="Y1163">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="Z1163">
-        <v>0.8899999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA1163">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB1163">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC1163">
-        <v>-1</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="1164" spans="1:29">
@@ -104064,7 +104064,7 @@
         <v>1162</v>
       </c>
       <c r="B1164">
-        <v>6809437</v>
+        <v>6809290</v>
       </c>
       <c r="C1164" t="s">
         <v>28</v>
@@ -104076,76 +104076,76 @@
         <v>45281.72916666666</v>
       </c>
       <c r="F1164" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="G1164" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="H1164">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I1164">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J1164" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K1164">
-        <v>4.75</v>
+        <v>2.2</v>
       </c>
       <c r="L1164">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="M1164">
-        <v>1.666</v>
+        <v>3.4</v>
       </c>
       <c r="N1164">
-        <v>5.5</v>
+        <v>2.2</v>
       </c>
       <c r="O1164">
-        <v>4.2</v>
+        <v>2.9</v>
       </c>
       <c r="P1164">
-        <v>1.571</v>
+        <v>4</v>
       </c>
       <c r="Q1164">
-        <v>1</v>
+        <v>-0.25</v>
       </c>
       <c r="R1164">
-        <v>1.83</v>
+        <v>1.89</v>
       </c>
       <c r="S1164">
-        <v>2.07</v>
+        <v>2.01</v>
       </c>
       <c r="T1164">
-        <v>2.5</v>
+        <v>1.75</v>
       </c>
       <c r="U1164">
-        <v>1.88</v>
+        <v>1.95</v>
       </c>
       <c r="V1164">
-        <v>2.02</v>
+        <v>1.95</v>
       </c>
       <c r="W1164">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X1164">
         <v>-1</v>
       </c>
       <c r="Y1164">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="Z1164">
-        <v>0</v>
+        <v>0.8899999999999999</v>
       </c>
       <c r="AA1164">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB1164">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC1164">
-        <v>1.02</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1165" spans="1:29">
@@ -106823,7 +106823,7 @@
         <v>1193</v>
       </c>
       <c r="B1195">
-        <v>7702917</v>
+        <v>7702913</v>
       </c>
       <c r="C1195" t="s">
         <v>28</v>
@@ -106832,49 +106832,49 @@
         <v>28</v>
       </c>
       <c r="E1195" s="2">
-        <v>45318.70833333334</v>
+        <v>45319.41666666666</v>
       </c>
       <c r="F1195" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="G1195" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="K1195">
-        <v>2.625</v>
+        <v>2.875</v>
       </c>
       <c r="L1195">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M1195">
-        <v>2.625</v>
+        <v>2.375</v>
       </c>
       <c r="N1195">
-        <v>2.2</v>
+        <v>2.9</v>
       </c>
       <c r="O1195">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="P1195">
-        <v>3.75</v>
+        <v>2.4</v>
       </c>
       <c r="Q1195">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R1195">
-        <v>1.89</v>
+        <v>1.85</v>
       </c>
       <c r="S1195">
-        <v>2.01</v>
+        <v>2.05</v>
       </c>
       <c r="T1195">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U1195">
-        <v>1.9</v>
+        <v>2.03</v>
       </c>
       <c r="V1195">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="W1195">
         <v>0</v>
@@ -106897,7 +106897,7 @@
         <v>1194</v>
       </c>
       <c r="B1196">
-        <v>7702913</v>
+        <v>7702916</v>
       </c>
       <c r="C1196" t="s">
         <v>28</v>
@@ -106906,49 +106906,49 @@
         <v>28</v>
       </c>
       <c r="E1196" s="2">
-        <v>45319.41666666666</v>
+        <v>45319.51041666666</v>
       </c>
       <c r="F1196" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="G1196" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="K1196">
-        <v>2.875</v>
+        <v>4</v>
       </c>
       <c r="L1196">
         <v>3.4</v>
       </c>
       <c r="M1196">
-        <v>2.375</v>
+        <v>1.909</v>
       </c>
       <c r="N1196">
-        <v>2.9</v>
+        <v>5.5</v>
       </c>
       <c r="O1196">
         <v>3.4</v>
       </c>
       <c r="P1196">
-        <v>2.4</v>
+        <v>1.727</v>
       </c>
       <c r="Q1196">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R1196">
-        <v>1.83</v>
+        <v>1.93</v>
       </c>
       <c r="S1196">
-        <v>2.07</v>
+        <v>1.97</v>
       </c>
       <c r="T1196">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U1196">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="V1196">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="W1196">
         <v>0</v>
@@ -106971,7 +106971,7 @@
         <v>1195</v>
       </c>
       <c r="B1197">
-        <v>7702916</v>
+        <v>7702918</v>
       </c>
       <c r="C1197" t="s">
         <v>28</v>
@@ -106980,49 +106980,49 @@
         <v>28</v>
       </c>
       <c r="E1197" s="2">
-        <v>45319.51041666666</v>
+        <v>45319.60416666666</v>
       </c>
       <c r="F1197" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G1197" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="K1197">
-        <v>4</v>
+        <v>2.1</v>
       </c>
       <c r="L1197">
         <v>3.4</v>
       </c>
       <c r="M1197">
-        <v>1.909</v>
+        <v>3.4</v>
       </c>
       <c r="N1197">
-        <v>5.5</v>
+        <v>2.05</v>
       </c>
       <c r="O1197">
         <v>3.4</v>
       </c>
       <c r="P1197">
-        <v>1.727</v>
+        <v>3.6</v>
       </c>
       <c r="Q1197">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R1197">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="S1197">
-        <v>1.99</v>
+        <v>2.07</v>
       </c>
       <c r="T1197">
         <v>2.25</v>
       </c>
       <c r="U1197">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="V1197">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="W1197">
         <v>0</v>
@@ -107045,7 +107045,7 @@
         <v>1196</v>
       </c>
       <c r="B1198">
-        <v>7702918</v>
+        <v>7702911</v>
       </c>
       <c r="C1198" t="s">
         <v>28</v>
@@ -107054,49 +107054,49 @@
         <v>28</v>
       </c>
       <c r="E1198" s="2">
-        <v>45319.60416666666</v>
+        <v>45319.70833333334</v>
       </c>
       <c r="F1198" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="G1198" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="K1198">
-        <v>2.1</v>
+        <v>1.533</v>
       </c>
       <c r="L1198">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="M1198">
-        <v>3.4</v>
+        <v>5.5</v>
       </c>
       <c r="N1198">
-        <v>2.05</v>
+        <v>1.533</v>
       </c>
       <c r="O1198">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P1198">
-        <v>3.6</v>
+        <v>6.5</v>
       </c>
       <c r="Q1198">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R1198">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="S1198">
-        <v>2.07</v>
+        <v>1.99</v>
       </c>
       <c r="T1198">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U1198">
-        <v>2.01</v>
+        <v>1.92</v>
       </c>
       <c r="V1198">
-        <v>1.89</v>
+        <v>1.98</v>
       </c>
       <c r="W1198">
         <v>0</v>
@@ -107119,7 +107119,7 @@
         <v>1197</v>
       </c>
       <c r="B1199">
-        <v>7702911</v>
+        <v>7702914</v>
       </c>
       <c r="C1199" t="s">
         <v>28</v>
@@ -107128,49 +107128,49 @@
         <v>28</v>
       </c>
       <c r="E1199" s="2">
-        <v>45319.70833333334</v>
+        <v>45320.70833333334</v>
       </c>
       <c r="F1199" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="G1199" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="K1199">
-        <v>1.533</v>
+        <v>1.833</v>
       </c>
       <c r="L1199">
+        <v>3.5</v>
+      </c>
+      <c r="M1199">
         <v>4.333</v>
       </c>
-      <c r="M1199">
-        <v>5.5</v>
-      </c>
       <c r="N1199">
-        <v>1.533</v>
+        <v>1.8</v>
       </c>
       <c r="O1199">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P1199">
-        <v>6.5</v>
+        <v>4.75</v>
       </c>
       <c r="Q1199">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R1199">
-        <v>1.92</v>
+        <v>1.82</v>
       </c>
       <c r="S1199">
-        <v>1.98</v>
+        <v>2.08</v>
       </c>
       <c r="T1199">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U1199">
-        <v>1.91</v>
+        <v>2.06</v>
       </c>
       <c r="V1199">
-        <v>1.99</v>
+        <v>1.84</v>
       </c>
       <c r="W1199">
         <v>0</v>
@@ -107193,7 +107193,7 @@
         <v>1198</v>
       </c>
       <c r="B1200">
-        <v>7702914</v>
+        <v>6809300</v>
       </c>
       <c r="C1200" t="s">
         <v>28</v>
@@ -107202,49 +107202,49 @@
         <v>28</v>
       </c>
       <c r="E1200" s="2">
-        <v>45320.70833333334</v>
+        <v>45322.625</v>
       </c>
       <c r="F1200" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="G1200" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K1200">
-        <v>1.833</v>
+        <v>1.285</v>
       </c>
       <c r="L1200">
-        <v>3.5</v>
+        <v>5.25</v>
       </c>
       <c r="M1200">
-        <v>4.333</v>
+        <v>12</v>
       </c>
       <c r="N1200">
-        <v>1.8</v>
+        <v>1.3</v>
       </c>
       <c r="O1200">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="P1200">
-        <v>4.75</v>
+        <v>10</v>
       </c>
       <c r="Q1200">
-        <v>-0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R1200">
-        <v>1.82</v>
+        <v>1.9</v>
       </c>
       <c r="S1200">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="T1200">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U1200">
-        <v>2.06</v>
+        <v>1.95</v>
       </c>
       <c r="V1200">
-        <v>1.84</v>
+        <v>1.95</v>
       </c>
       <c r="W1200">
         <v>0</v>
@@ -107267,7 +107267,7 @@
         <v>1199</v>
       </c>
       <c r="B1201">
-        <v>6809300</v>
+        <v>6809445</v>
       </c>
       <c r="C1201" t="s">
         <v>28</v>
@@ -107276,49 +107276,49 @@
         <v>28</v>
       </c>
       <c r="E1201" s="2">
-        <v>45322.625</v>
+        <v>45322.70833333334</v>
       </c>
       <c r="F1201" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G1201" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="K1201">
-        <v>1.285</v>
+        <v>1.333</v>
       </c>
       <c r="L1201">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="M1201">
-        <v>12</v>
+        <v>8.5</v>
       </c>
       <c r="N1201">
-        <v>1.285</v>
+        <v>1.45</v>
       </c>
       <c r="O1201">
-        <v>5.25</v>
+        <v>4.333</v>
       </c>
       <c r="P1201">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="Q1201">
-        <v>-1.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R1201">
-        <v>2.06</v>
+        <v>2.05</v>
       </c>
       <c r="S1201">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="T1201">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U1201">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="V1201">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="W1201">
         <v>0</v>
@@ -107341,7 +107341,7 @@
         <v>1200</v>
       </c>
       <c r="B1202">
-        <v>6809445</v>
+        <v>6809447</v>
       </c>
       <c r="C1202" t="s">
         <v>28</v>
@@ -107350,49 +107350,49 @@
         <v>28</v>
       </c>
       <c r="E1202" s="2">
-        <v>45322.70833333334</v>
+        <v>45323.70833333334</v>
       </c>
       <c r="F1202" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="G1202" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="K1202">
-        <v>1.333</v>
+        <v>5.75</v>
       </c>
       <c r="L1202">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M1202">
-        <v>8.5</v>
+        <v>1.571</v>
       </c>
       <c r="N1202">
-        <v>1.45</v>
+        <v>6.5</v>
       </c>
       <c r="O1202">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="P1202">
-        <v>7</v>
+        <v>1.533</v>
       </c>
       <c r="Q1202">
-        <v>-1.25</v>
+        <v>1</v>
       </c>
       <c r="R1202">
-        <v>2.05</v>
+        <v>1.92</v>
       </c>
       <c r="S1202">
-        <v>1.85</v>
+        <v>1.98</v>
       </c>
       <c r="T1202">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U1202">
+        <v>1.98</v>
+      </c>
+      <c r="V1202">
         <v>1.92</v>
-      </c>
-      <c r="V1202">
-        <v>1.98</v>
       </c>
       <c r="W1202">
         <v>0</v>
@@ -107415,7 +107415,7 @@
         <v>1201</v>
       </c>
       <c r="B1203">
-        <v>6809447</v>
+        <v>6809460</v>
       </c>
       <c r="C1203" t="s">
         <v>28</v>
@@ -107424,49 +107424,49 @@
         <v>28</v>
       </c>
       <c r="E1203" s="2">
-        <v>45323.70833333334</v>
+        <v>45324.70833333334</v>
       </c>
       <c r="F1203" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G1203" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="K1203">
-        <v>5.75</v>
+        <v>1.615</v>
       </c>
       <c r="L1203">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M1203">
-        <v>1.571</v>
+        <v>5.5</v>
       </c>
       <c r="N1203">
-        <v>6</v>
+        <v>1.5</v>
       </c>
       <c r="O1203">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P1203">
-        <v>1.571</v>
+        <v>6.5</v>
       </c>
       <c r="Q1203">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="R1203">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="S1203">
-        <v>1.99</v>
+        <v>1.95</v>
       </c>
       <c r="T1203">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U1203">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="V1203">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="W1203">
         <v>0</v>
@@ -107489,7 +107489,7 @@
         <v>1202</v>
       </c>
       <c r="B1204">
-        <v>6809460</v>
+        <v>6809316</v>
       </c>
       <c r="C1204" t="s">
         <v>28</v>
@@ -107498,43 +107498,43 @@
         <v>28</v>
       </c>
       <c r="E1204" s="2">
-        <v>45324.70833333334</v>
+        <v>45325.41666666666</v>
       </c>
       <c r="F1204" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G1204" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="K1204">
-        <v>1.615</v>
+        <v>1.666</v>
       </c>
       <c r="L1204">
         <v>3.75</v>
       </c>
       <c r="M1204">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="N1204">
-        <v>1.5</v>
+        <v>1.65</v>
       </c>
       <c r="O1204">
         <v>3.8</v>
       </c>
       <c r="P1204">
-        <v>6.5</v>
+        <v>5.25</v>
       </c>
       <c r="Q1204">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R1204">
-        <v>1.95</v>
+        <v>1.83</v>
       </c>
       <c r="S1204">
-        <v>1.95</v>
+        <v>2.07</v>
       </c>
       <c r="T1204">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U1204">
         <v>1.95</v>
@@ -107563,7 +107563,7 @@
         <v>1203</v>
       </c>
       <c r="B1205">
-        <v>6809316</v>
+        <v>6809462</v>
       </c>
       <c r="C1205" t="s">
         <v>28</v>
@@ -107572,49 +107572,49 @@
         <v>28</v>
       </c>
       <c r="E1205" s="2">
-        <v>45325.41666666666</v>
+        <v>45325.51041666666</v>
       </c>
       <c r="F1205" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G1205" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K1205">
-        <v>1.666</v>
+        <v>2.375</v>
       </c>
       <c r="L1205">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="M1205">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N1205">
-        <v>1.65</v>
+        <v>2.3</v>
       </c>
       <c r="O1205">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="P1205">
-        <v>5.25</v>
+        <v>3.25</v>
       </c>
       <c r="Q1205">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R1205">
-        <v>1.83</v>
+        <v>1.99</v>
       </c>
       <c r="S1205">
-        <v>2.07</v>
+        <v>1.91</v>
       </c>
       <c r="T1205">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U1205">
-        <v>1.95</v>
+        <v>2.09</v>
       </c>
       <c r="V1205">
-        <v>1.95</v>
+        <v>1.81</v>
       </c>
       <c r="W1205">
         <v>0</v>
@@ -107637,7 +107637,7 @@
         <v>1204</v>
       </c>
       <c r="B1206">
-        <v>6809462</v>
+        <v>6809315</v>
       </c>
       <c r="C1206" t="s">
         <v>28</v>
@@ -107646,49 +107646,49 @@
         <v>28</v>
       </c>
       <c r="E1206" s="2">
-        <v>45325.51041666666</v>
+        <v>45325.60416666666</v>
       </c>
       <c r="F1206" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G1206" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="K1206">
-        <v>2.375</v>
+        <v>6</v>
       </c>
       <c r="L1206">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="M1206">
-        <v>3</v>
+        <v>1.533</v>
       </c>
       <c r="N1206">
-        <v>2.3</v>
+        <v>5.25</v>
       </c>
       <c r="O1206">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="P1206">
-        <v>3.25</v>
+        <v>1.65</v>
       </c>
       <c r="Q1206">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R1206">
-        <v>2</v>
+        <v>2.01</v>
       </c>
       <c r="S1206">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="T1206">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U1206">
-        <v>2.09</v>
+        <v>1.89</v>
       </c>
       <c r="V1206">
-        <v>1.81</v>
+        <v>2.01</v>
       </c>
       <c r="W1206">
         <v>0</v>
@@ -107711,7 +107711,7 @@
         <v>1205</v>
       </c>
       <c r="B1207">
-        <v>6809315</v>
+        <v>6809313</v>
       </c>
       <c r="C1207" t="s">
         <v>28</v>
@@ -107720,34 +107720,34 @@
         <v>28</v>
       </c>
       <c r="E1207" s="2">
-        <v>45325.60416666666</v>
+        <v>45325.70833333334</v>
       </c>
       <c r="F1207" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="G1207" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="K1207">
-        <v>6</v>
+        <v>2.25</v>
       </c>
       <c r="L1207">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M1207">
-        <v>1.533</v>
+        <v>2.9</v>
       </c>
       <c r="N1207">
-        <v>5.5</v>
+        <v>2.05</v>
       </c>
       <c r="O1207">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P1207">
-        <v>1.615</v>
+        <v>3.4</v>
       </c>
       <c r="Q1207">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R1207">
         <v>2.08</v>
@@ -107759,10 +107759,10 @@
         <v>2.5</v>
       </c>
       <c r="U1207">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="V1207">
-        <v>2.02</v>
+        <v>1.9</v>
       </c>
       <c r="W1207">
         <v>0</v>
@@ -107777,80 +107777,6 @@
         <v>0</v>
       </c>
       <c r="AA1207">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1208" spans="1:27">
-      <c r="A1208" s="1">
-        <v>1206</v>
-      </c>
-      <c r="B1208">
-        <v>6809313</v>
-      </c>
-      <c r="C1208" t="s">
-        <v>28</v>
-      </c>
-      <c r="D1208" t="s">
-        <v>28</v>
-      </c>
-      <c r="E1208" s="2">
-        <v>45325.70833333334</v>
-      </c>
-      <c r="F1208" t="s">
-        <v>53</v>
-      </c>
-      <c r="G1208" t="s">
-        <v>35</v>
-      </c>
-      <c r="K1208">
-        <v>2.25</v>
-      </c>
-      <c r="L1208">
-        <v>3.6</v>
-      </c>
-      <c r="M1208">
-        <v>2.9</v>
-      </c>
-      <c r="N1208">
-        <v>2.05</v>
-      </c>
-      <c r="O1208">
-        <v>3.6</v>
-      </c>
-      <c r="P1208">
-        <v>3.4</v>
-      </c>
-      <c r="Q1208">
-        <v>-0.5</v>
-      </c>
-      <c r="R1208">
-        <v>2.08</v>
-      </c>
-      <c r="S1208">
-        <v>1.82</v>
-      </c>
-      <c r="T1208">
-        <v>2.5</v>
-      </c>
-      <c r="U1208">
-        <v>2</v>
-      </c>
-      <c r="V1208">
-        <v>1.9</v>
-      </c>
-      <c r="W1208">
-        <v>0</v>
-      </c>
-      <c r="X1208">
-        <v>0</v>
-      </c>
-      <c r="Y1208">
-        <v>0</v>
-      </c>
-      <c r="Z1208">
-        <v>0</v>
-      </c>
-      <c r="AA1208">
         <v>0</v>
       </c>
     </row>

--- a/Spain Primera Liga/Spain Primera Liga.xlsx
+++ b/Spain Primera Liga/Spain Primera Liga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6061" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6045" uniqueCount="58">
   <si>
     <t>id</t>
   </si>
@@ -549,7 +549,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC1211"/>
+  <dimension ref="A1:AC1207"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -13907,7 +13907,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>2793230</v>
+        <v>2789934</v>
       </c>
       <c r="C151" t="s">
         <v>28</v>
@@ -13919,76 +13919,76 @@
         <v>44304.5625</v>
       </c>
       <c r="F151" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="G151" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J151" t="s">
         <v>56</v>
       </c>
       <c r="K151">
+        <v>1.909</v>
+      </c>
+      <c r="L151">
+        <v>3.6</v>
+      </c>
+      <c r="M151">
+        <v>3.75</v>
+      </c>
+      <c r="N151">
+        <v>1.75</v>
+      </c>
+      <c r="O151">
+        <v>3.8</v>
+      </c>
+      <c r="P151">
+        <v>4.333</v>
+      </c>
+      <c r="Q151">
+        <v>-0.5</v>
+      </c>
+      <c r="R151">
+        <v>1.86</v>
+      </c>
+      <c r="S151">
+        <v>2.04</v>
+      </c>
+      <c r="T151">
+        <v>3</v>
+      </c>
+      <c r="U151">
+        <v>2.05</v>
+      </c>
+      <c r="V151">
+        <v>1.85</v>
+      </c>
+      <c r="W151">
+        <v>-1</v>
+      </c>
+      <c r="X151">
         <v>2.8</v>
       </c>
-      <c r="L151">
-        <v>3.2</v>
-      </c>
-      <c r="M151">
-        <v>2.5</v>
-      </c>
-      <c r="N151">
-        <v>3.6</v>
-      </c>
-      <c r="O151">
-        <v>3.5</v>
-      </c>
-      <c r="P151">
-        <v>2</v>
-      </c>
-      <c r="Q151">
-        <v>0.5</v>
-      </c>
-      <c r="R151">
-        <v>1.85</v>
-      </c>
-      <c r="S151">
-        <v>2.05</v>
-      </c>
-      <c r="T151">
-        <v>2.25</v>
-      </c>
-      <c r="U151">
-        <v>1.89</v>
-      </c>
-      <c r="V151">
-        <v>2.01</v>
-      </c>
-      <c r="W151">
-        <v>-1</v>
-      </c>
-      <c r="X151">
-        <v>2.5</v>
-      </c>
       <c r="Y151">
         <v>-1</v>
       </c>
       <c r="Z151">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA151">
-        <v>-1</v>
+        <v>1.04</v>
       </c>
       <c r="AB151">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AC151">
-        <v>1.01</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="152" spans="1:29">
@@ -13996,7 +13996,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>2789934</v>
+        <v>2793230</v>
       </c>
       <c r="C152" t="s">
         <v>28</v>
@@ -14008,76 +14008,76 @@
         <v>44304.5625</v>
       </c>
       <c r="F152" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="G152" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H152">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I152">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J152" t="s">
         <v>56</v>
       </c>
       <c r="K152">
-        <v>1.909</v>
+        <v>2.8</v>
       </c>
       <c r="L152">
+        <v>3.2</v>
+      </c>
+      <c r="M152">
+        <v>2.5</v>
+      </c>
+      <c r="N152">
         <v>3.6</v>
       </c>
-      <c r="M152">
-        <v>3.75</v>
-      </c>
-      <c r="N152">
-        <v>1.75</v>
-      </c>
       <c r="O152">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P152">
-        <v>4.333</v>
+        <v>2</v>
       </c>
       <c r="Q152">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R152">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="S152">
-        <v>2.04</v>
+        <v>2.05</v>
       </c>
       <c r="T152">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U152">
-        <v>2.05</v>
+        <v>1.89</v>
       </c>
       <c r="V152">
-        <v>1.85</v>
+        <v>2.01</v>
       </c>
       <c r="W152">
         <v>-1</v>
       </c>
       <c r="X152">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="Y152">
         <v>-1</v>
       </c>
       <c r="Z152">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA152">
-        <v>1.04</v>
+        <v>-1</v>
       </c>
       <c r="AB152">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AC152">
-        <v>-1</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="153" spans="1:29">
@@ -18891,7 +18891,7 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>3500826</v>
+        <v>3500820</v>
       </c>
       <c r="C207" t="s">
         <v>28</v>
@@ -18903,76 +18903,76 @@
         <v>44332.5625</v>
       </c>
       <c r="F207" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="G207" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H207">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I207">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J207" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K207">
-        <v>1.666</v>
+        <v>1.2</v>
       </c>
       <c r="L207">
-        <v>3.4</v>
+        <v>7</v>
       </c>
       <c r="M207">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="N207">
-        <v>1.444</v>
+        <v>1.222</v>
       </c>
       <c r="O207">
-        <v>4.2</v>
+        <v>7</v>
       </c>
       <c r="P207">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="Q207">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="R207">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="S207">
-        <v>2.07</v>
+        <v>1.99</v>
       </c>
       <c r="T207">
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="U207">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="V207">
-        <v>1.95</v>
+        <v>1.99</v>
       </c>
       <c r="W207">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X207">
         <v>-1</v>
       </c>
       <c r="Y207">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="Z207">
-        <v>0.8300000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA207">
-        <v>-1</v>
+        <v>0.99</v>
       </c>
       <c r="AB207">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC207">
-        <v>-1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="208" spans="1:29">
@@ -18980,7 +18980,7 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>3500825</v>
+        <v>3500822</v>
       </c>
       <c r="C208" t="s">
         <v>28</v>
@@ -18992,76 +18992,76 @@
         <v>44332.5625</v>
       </c>
       <c r="F208" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="G208" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="H208">
         <v>1</v>
       </c>
       <c r="I208">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J208" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K208">
-        <v>3.1</v>
+        <v>1.909</v>
       </c>
       <c r="L208">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="M208">
+        <v>4</v>
+      </c>
+      <c r="N208">
+        <v>2.05</v>
+      </c>
+      <c r="O208">
+        <v>3.6</v>
+      </c>
+      <c r="P208">
+        <v>3.6</v>
+      </c>
+      <c r="Q208">
+        <v>-0.25</v>
+      </c>
+      <c r="R208">
+        <v>1.83</v>
+      </c>
+      <c r="S208">
+        <v>2.07</v>
+      </c>
+      <c r="T208">
         <v>2.5</v>
       </c>
-      <c r="N208">
-        <v>3.6</v>
-      </c>
-      <c r="O208">
-        <v>3.25</v>
-      </c>
-      <c r="P208">
-        <v>2.15</v>
-      </c>
-      <c r="Q208">
-        <v>0.25</v>
-      </c>
-      <c r="R208">
-        <v>1.95</v>
-      </c>
-      <c r="S208">
-        <v>1.95</v>
-      </c>
-      <c r="T208">
-        <v>2.25</v>
-      </c>
       <c r="U208">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="V208">
-        <v>1.86</v>
+        <v>1.84</v>
       </c>
       <c r="W208">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X208">
         <v>-1</v>
       </c>
       <c r="Y208">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z208">
-        <v>-1</v>
+        <v>0.8300000000000001</v>
       </c>
       <c r="AA208">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB208">
-        <v>1.04</v>
+        <v>-1</v>
       </c>
       <c r="AC208">
-        <v>-1</v>
+        <v>0.8400000000000001</v>
       </c>
     </row>
     <row r="209" spans="1:29">
@@ -19069,7 +19069,7 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>3500823</v>
+        <v>3500827</v>
       </c>
       <c r="C209" t="s">
         <v>28</v>
@@ -19081,13 +19081,13 @@
         <v>44332.5625</v>
       </c>
       <c r="F209" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G209" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="H209">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I209">
         <v>1</v>
@@ -19096,43 +19096,43 @@
         <v>55</v>
       </c>
       <c r="K209">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="L209">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M209">
-        <v>4.75</v>
+        <v>3.3</v>
       </c>
       <c r="N209">
-        <v>1.615</v>
+        <v>2.2</v>
       </c>
       <c r="O209">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P209">
-        <v>5.5</v>
+        <v>3.25</v>
       </c>
       <c r="Q209">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R209">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="S209">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="T209">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U209">
-        <v>1.9</v>
+        <v>2.03</v>
       </c>
       <c r="V209">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="W209">
-        <v>0.615</v>
+        <v>1.2</v>
       </c>
       <c r="X209">
         <v>-1</v>
@@ -19141,13 +19141,13 @@
         <v>-1</v>
       </c>
       <c r="Z209">
-        <v>0.425</v>
+        <v>0.95</v>
       </c>
       <c r="AA209">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB209">
-        <v>0.8999999999999999</v>
+        <v>1.03</v>
       </c>
       <c r="AC209">
         <v>-1</v>
@@ -19158,7 +19158,7 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>3500827</v>
+        <v>3500823</v>
       </c>
       <c r="C210" t="s">
         <v>28</v>
@@ -19170,13 +19170,13 @@
         <v>44332.5625</v>
       </c>
       <c r="F210" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G210" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="H210">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I210">
         <v>1</v>
@@ -19185,43 +19185,43 @@
         <v>55</v>
       </c>
       <c r="K210">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="L210">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M210">
-        <v>3.3</v>
+        <v>4.75</v>
       </c>
       <c r="N210">
-        <v>2.2</v>
+        <v>1.615</v>
       </c>
       <c r="O210">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P210">
-        <v>3.25</v>
+        <v>5.5</v>
       </c>
       <c r="Q210">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R210">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="S210">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="T210">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U210">
-        <v>2.03</v>
+        <v>1.9</v>
       </c>
       <c r="V210">
-        <v>1.87</v>
+        <v>2</v>
       </c>
       <c r="W210">
-        <v>1.2</v>
+        <v>0.615</v>
       </c>
       <c r="X210">
         <v>-1</v>
@@ -19230,13 +19230,13 @@
         <v>-1</v>
       </c>
       <c r="Z210">
-        <v>0.95</v>
+        <v>0.425</v>
       </c>
       <c r="AA210">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB210">
-        <v>1.03</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC210">
         <v>-1</v>
@@ -19247,7 +19247,7 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>3500822</v>
+        <v>3500825</v>
       </c>
       <c r="C211" t="s">
         <v>28</v>
@@ -19259,76 +19259,76 @@
         <v>44332.5625</v>
       </c>
       <c r="F211" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="G211" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="H211">
         <v>1</v>
       </c>
       <c r="I211">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J211" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K211">
-        <v>1.909</v>
+        <v>3.1</v>
       </c>
       <c r="L211">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="M211">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="N211">
-        <v>2.05</v>
+        <v>3.6</v>
       </c>
       <c r="O211">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="P211">
-        <v>3.6</v>
+        <v>2.15</v>
       </c>
       <c r="Q211">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R211">
-        <v>1.83</v>
+        <v>1.95</v>
       </c>
       <c r="S211">
-        <v>2.07</v>
+        <v>1.95</v>
       </c>
       <c r="T211">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U211">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="V211">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="W211">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X211">
         <v>-1</v>
       </c>
       <c r="Y211">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z211">
-        <v>0.8300000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA211">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB211">
-        <v>-1</v>
+        <v>1.04</v>
       </c>
       <c r="AC211">
-        <v>0.8400000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="212" spans="1:29">
@@ -19336,7 +19336,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>3500820</v>
+        <v>3500826</v>
       </c>
       <c r="C212" t="s">
         <v>28</v>
@@ -19348,76 +19348,76 @@
         <v>44332.5625</v>
       </c>
       <c r="F212" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="G212" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H212">
+        <v>4</v>
+      </c>
+      <c r="I212">
         <v>1</v>
       </c>
-      <c r="I212">
-        <v>2</v>
-      </c>
       <c r="J212" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K212">
-        <v>1.2</v>
+        <v>1.666</v>
       </c>
       <c r="L212">
-        <v>7</v>
+        <v>3.4</v>
       </c>
       <c r="M212">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="N212">
-        <v>1.222</v>
+        <v>1.444</v>
       </c>
       <c r="O212">
-        <v>7</v>
+        <v>4.2</v>
       </c>
       <c r="P212">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="Q212">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="R212">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="S212">
-        <v>1.99</v>
+        <v>2.07</v>
       </c>
       <c r="T212">
-        <v>3.75</v>
+        <v>2.5</v>
       </c>
       <c r="U212">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="V212">
-        <v>1.99</v>
+        <v>1.95</v>
       </c>
       <c r="W212">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X212">
         <v>-1</v>
       </c>
       <c r="Y212">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="Z212">
-        <v>-1</v>
+        <v>0.8300000000000001</v>
       </c>
       <c r="AA212">
-        <v>0.99</v>
+        <v>-1</v>
       </c>
       <c r="AB212">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC212">
-        <v>0.99</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="213" spans="1:29">
@@ -19870,7 +19870,7 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>2895717</v>
+        <v>2897753</v>
       </c>
       <c r="C218" t="s">
         <v>28</v>
@@ -19882,76 +19882,76 @@
         <v>44338.54166666666</v>
       </c>
       <c r="F218" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G218" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="H218">
         <v>0</v>
       </c>
       <c r="I218">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J218" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K218">
-        <v>4.333</v>
+        <v>1.85</v>
       </c>
       <c r="L218">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="M218">
-        <v>1.65</v>
+        <v>3.75</v>
       </c>
       <c r="N218">
-        <v>5</v>
+        <v>1.727</v>
       </c>
       <c r="O218">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="P218">
-        <v>1.55</v>
+        <v>4.5</v>
       </c>
       <c r="Q218">
-        <v>1</v>
+        <v>-0.75</v>
       </c>
       <c r="R218">
-        <v>1.93</v>
+        <v>2.01</v>
       </c>
       <c r="S218">
-        <v>1.97</v>
+        <v>1.89</v>
       </c>
       <c r="T218">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U218">
-        <v>1.98</v>
+        <v>1.91</v>
       </c>
       <c r="V218">
-        <v>1.92</v>
+        <v>1.99</v>
       </c>
       <c r="W218">
         <v>-1</v>
       </c>
       <c r="X218">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y218">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="Z218">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA218">
-        <v>-0</v>
+        <v>0.8899999999999999</v>
       </c>
       <c r="AB218">
         <v>-1</v>
       </c>
       <c r="AC218">
-        <v>0.9199999999999999</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="219" spans="1:29">
@@ -19959,7 +19959,7 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>2897753</v>
+        <v>2895717</v>
       </c>
       <c r="C219" t="s">
         <v>28</v>
@@ -19971,76 +19971,76 @@
         <v>44338.54166666666</v>
       </c>
       <c r="F219" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G219" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="H219">
         <v>0</v>
       </c>
       <c r="I219">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J219" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K219">
-        <v>1.85</v>
+        <v>4.333</v>
       </c>
       <c r="L219">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="M219">
-        <v>3.75</v>
+        <v>1.65</v>
       </c>
       <c r="N219">
-        <v>1.727</v>
+        <v>5</v>
       </c>
       <c r="O219">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="P219">
-        <v>4.5</v>
+        <v>1.55</v>
       </c>
       <c r="Q219">
-        <v>-0.75</v>
+        <v>1</v>
       </c>
       <c r="R219">
-        <v>2.01</v>
+        <v>1.93</v>
       </c>
       <c r="S219">
-        <v>1.89</v>
+        <v>1.97</v>
       </c>
       <c r="T219">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U219">
-        <v>1.91</v>
+        <v>1.98</v>
       </c>
       <c r="V219">
-        <v>1.99</v>
+        <v>1.92</v>
       </c>
       <c r="W219">
         <v>-1</v>
       </c>
       <c r="X219">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y219">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="Z219">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA219">
-        <v>0.8899999999999999</v>
+        <v>-0</v>
       </c>
       <c r="AB219">
         <v>-1</v>
       </c>
       <c r="AC219">
-        <v>0.99</v>
+        <v>0.9199999999999999</v>
       </c>
     </row>
     <row r="220" spans="1:29">
@@ -20048,7 +20048,7 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>2900188</v>
+        <v>2900187</v>
       </c>
       <c r="C220" t="s">
         <v>28</v>
@@ -20060,76 +20060,76 @@
         <v>44338.54166666666</v>
       </c>
       <c r="F220" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="G220" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H220">
         <v>2</v>
       </c>
       <c r="I220">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J220" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K220">
-        <v>1.727</v>
+        <v>2.9</v>
       </c>
       <c r="L220">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="M220">
-        <v>4.75</v>
+        <v>2.25</v>
       </c>
       <c r="N220">
+        <v>3.3</v>
+      </c>
+      <c r="O220">
+        <v>3.75</v>
+      </c>
+      <c r="P220">
+        <v>2.05</v>
+      </c>
+      <c r="Q220">
+        <v>0.25</v>
+      </c>
+      <c r="R220">
         <v>2</v>
       </c>
-      <c r="O220">
-        <v>3.7</v>
-      </c>
-      <c r="P220">
-        <v>3.5</v>
-      </c>
-      <c r="Q220">
-        <v>-0.5</v>
-      </c>
-      <c r="R220">
-        <v>2.07</v>
-      </c>
       <c r="S220">
-        <v>1.83</v>
+        <v>1.9</v>
       </c>
       <c r="T220">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U220">
-        <v>2.03</v>
+        <v>1.99</v>
       </c>
       <c r="V220">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="W220">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X220">
         <v>-1</v>
       </c>
       <c r="Y220">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z220">
-        <v>1.07</v>
+        <v>-1</v>
       </c>
       <c r="AA220">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB220">
-        <v>-1</v>
+        <v>0.99</v>
       </c>
       <c r="AC220">
-        <v>0.8700000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="221" spans="1:29">
@@ -20315,7 +20315,7 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>2900187</v>
+        <v>2970033</v>
       </c>
       <c r="C223" t="s">
         <v>28</v>
@@ -20327,76 +20327,76 @@
         <v>44338.54166666666</v>
       </c>
       <c r="F223" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G223" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H223">
         <v>2</v>
       </c>
       <c r="I223">
+        <v>1</v>
+      </c>
+      <c r="J223" t="s">
+        <v>55</v>
+      </c>
+      <c r="K223">
+        <v>1.5</v>
+      </c>
+      <c r="L223">
+        <v>5</v>
+      </c>
+      <c r="M223">
+        <v>5.5</v>
+      </c>
+      <c r="N223">
+        <v>1.5</v>
+      </c>
+      <c r="O223">
+        <v>4.5</v>
+      </c>
+      <c r="P223">
+        <v>5.5</v>
+      </c>
+      <c r="Q223">
+        <v>-1</v>
+      </c>
+      <c r="R223">
+        <v>1.98</v>
+      </c>
+      <c r="S223">
+        <v>1.92</v>
+      </c>
+      <c r="T223">
         <v>3</v>
       </c>
-      <c r="J223" t="s">
-        <v>57</v>
-      </c>
-      <c r="K223">
-        <v>2.9</v>
-      </c>
-      <c r="L223">
-        <v>3.75</v>
-      </c>
-      <c r="M223">
-        <v>2.25</v>
-      </c>
-      <c r="N223">
-        <v>3.3</v>
-      </c>
-      <c r="O223">
-        <v>3.75</v>
-      </c>
-      <c r="P223">
-        <v>2.05</v>
-      </c>
-      <c r="Q223">
-        <v>0.25</v>
-      </c>
-      <c r="R223">
-        <v>2</v>
-      </c>
-      <c r="S223">
-        <v>1.9</v>
-      </c>
-      <c r="T223">
-        <v>2.75</v>
-      </c>
       <c r="U223">
-        <v>1.99</v>
+        <v>1.86</v>
       </c>
       <c r="V223">
-        <v>1.91</v>
+        <v>2.04</v>
       </c>
       <c r="W223">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X223">
         <v>-1</v>
       </c>
       <c r="Y223">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z223">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA223">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
       <c r="AB223">
-        <v>0.99</v>
+        <v>0</v>
       </c>
       <c r="AC223">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="224" spans="1:29">
@@ -20404,7 +20404,7 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>2970033</v>
+        <v>2900188</v>
       </c>
       <c r="C224" t="s">
         <v>28</v>
@@ -20416,58 +20416,58 @@
         <v>44338.54166666666</v>
       </c>
       <c r="F224" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="G224" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H224">
         <v>2</v>
       </c>
       <c r="I224">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J224" t="s">
         <v>55</v>
       </c>
       <c r="K224">
-        <v>1.5</v>
+        <v>1.727</v>
       </c>
       <c r="L224">
-        <v>5</v>
+        <v>3.8</v>
       </c>
       <c r="M224">
-        <v>5.5</v>
+        <v>4.75</v>
       </c>
       <c r="N224">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="O224">
-        <v>4.5</v>
+        <v>3.7</v>
       </c>
       <c r="P224">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="Q224">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R224">
-        <v>1.98</v>
+        <v>2.07</v>
       </c>
       <c r="S224">
-        <v>1.92</v>
+        <v>1.83</v>
       </c>
       <c r="T224">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U224">
-        <v>1.86</v>
+        <v>2.03</v>
       </c>
       <c r="V224">
-        <v>2.04</v>
+        <v>1.87</v>
       </c>
       <c r="W224">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="X224">
         <v>-1</v>
@@ -20476,16 +20476,16 @@
         <v>-1</v>
       </c>
       <c r="Z224">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="AA224">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB224">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC224">
-        <v>-0</v>
+        <v>0.8700000000000001</v>
       </c>
     </row>
     <row r="225" spans="1:29">
@@ -23074,7 +23074,7 @@
         <v>252</v>
       </c>
       <c r="B254">
-        <v>3713628</v>
+        <v>3712713</v>
       </c>
       <c r="C254" t="s">
         <v>28</v>
@@ -23086,73 +23086,73 @@
         <v>44437.60416666666</v>
       </c>
       <c r="F254" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="G254" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H254">
+        <v>4</v>
+      </c>
+      <c r="I254">
+        <v>0</v>
+      </c>
+      <c r="J254" t="s">
+        <v>55</v>
+      </c>
+      <c r="K254">
+        <v>2.5</v>
+      </c>
+      <c r="L254">
+        <v>3.2</v>
+      </c>
+      <c r="M254">
+        <v>2.875</v>
+      </c>
+      <c r="N254">
+        <v>2.05</v>
+      </c>
+      <c r="O254">
+        <v>3.3</v>
+      </c>
+      <c r="P254">
+        <v>3.8</v>
+      </c>
+      <c r="Q254">
+        <v>-0.25</v>
+      </c>
+      <c r="R254">
+        <v>1.82</v>
+      </c>
+      <c r="S254">
+        <v>2.08</v>
+      </c>
+      <c r="T254">
         <v>2</v>
       </c>
-      <c r="I254">
-        <v>3</v>
-      </c>
-      <c r="J254" t="s">
-        <v>57</v>
-      </c>
-      <c r="K254">
-        <v>3</v>
-      </c>
-      <c r="L254">
-        <v>3</v>
-      </c>
-      <c r="M254">
-        <v>2.55</v>
-      </c>
-      <c r="N254">
-        <v>3.4</v>
-      </c>
-      <c r="O254">
-        <v>3</v>
-      </c>
-      <c r="P254">
-        <v>2.25</v>
-      </c>
-      <c r="Q254">
-        <v>0.25</v>
-      </c>
-      <c r="R254">
-        <v>1.89</v>
-      </c>
-      <c r="S254">
-        <v>2.01</v>
-      </c>
-      <c r="T254">
-        <v>1.75</v>
-      </c>
       <c r="U254">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="V254">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="W254">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X254">
         <v>-1</v>
       </c>
       <c r="Y254">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z254">
-        <v>-1</v>
+        <v>0.8200000000000001</v>
       </c>
       <c r="AA254">
-        <v>1.01</v>
+        <v>-1</v>
       </c>
       <c r="AB254">
-        <v>0.8500000000000001</v>
+        <v>0.8799999999999999</v>
       </c>
       <c r="AC254">
         <v>-1</v>
@@ -23163,7 +23163,7 @@
         <v>253</v>
       </c>
       <c r="B255">
-        <v>3712713</v>
+        <v>3713628</v>
       </c>
       <c r="C255" t="s">
         <v>28</v>
@@ -23175,73 +23175,73 @@
         <v>44437.60416666666</v>
       </c>
       <c r="F255" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="G255" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H255">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I255">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J255" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K255">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="L255">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M255">
-        <v>2.875</v>
+        <v>2.55</v>
       </c>
       <c r="N255">
+        <v>3.4</v>
+      </c>
+      <c r="O255">
+        <v>3</v>
+      </c>
+      <c r="P255">
+        <v>2.25</v>
+      </c>
+      <c r="Q255">
+        <v>0.25</v>
+      </c>
+      <c r="R255">
+        <v>1.89</v>
+      </c>
+      <c r="S255">
+        <v>2.01</v>
+      </c>
+      <c r="T255">
+        <v>1.75</v>
+      </c>
+      <c r="U255">
+        <v>1.85</v>
+      </c>
+      <c r="V255">
         <v>2.05</v>
       </c>
-      <c r="O255">
-        <v>3.3</v>
-      </c>
-      <c r="P255">
-        <v>3.8</v>
-      </c>
-      <c r="Q255">
-        <v>-0.25</v>
-      </c>
-      <c r="R255">
-        <v>1.82</v>
-      </c>
-      <c r="S255">
-        <v>2.08</v>
-      </c>
-      <c r="T255">
-        <v>2</v>
-      </c>
-      <c r="U255">
-        <v>1.88</v>
-      </c>
-      <c r="V255">
-        <v>2.02</v>
-      </c>
       <c r="W255">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X255">
         <v>-1</v>
       </c>
       <c r="Y255">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z255">
-        <v>0.8200000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA255">
-        <v>-1</v>
+        <v>1.01</v>
       </c>
       <c r="AB255">
-        <v>0.8799999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC255">
         <v>-1</v>
@@ -25032,7 +25032,7 @@
         <v>274</v>
       </c>
       <c r="B276">
-        <v>3712716</v>
+        <v>3713649</v>
       </c>
       <c r="C276" t="s">
         <v>28</v>
@@ -25044,13 +25044,13 @@
         <v>44460.70833333334</v>
       </c>
       <c r="F276" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="G276" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="H276">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I276">
         <v>2</v>
@@ -25059,41 +25059,41 @@
         <v>57</v>
       </c>
       <c r="K276">
-        <v>1.75</v>
+        <v>2.5</v>
       </c>
       <c r="L276">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="M276">
-        <v>5</v>
+        <v>2.9</v>
       </c>
       <c r="N276">
-        <v>1.75</v>
+        <v>3.1</v>
       </c>
       <c r="O276">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P276">
-        <v>5</v>
+        <v>2.3</v>
       </c>
       <c r="Q276">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R276">
+        <v>1.88</v>
+      </c>
+      <c r="S276">
+        <v>2.02</v>
+      </c>
+      <c r="T276">
+        <v>2.5</v>
+      </c>
+      <c r="U276">
         <v>2.07</v>
       </c>
-      <c r="S276">
+      <c r="V276">
         <v>1.83</v>
       </c>
-      <c r="T276">
-        <v>2.25</v>
-      </c>
-      <c r="U276">
-        <v>2.03</v>
-      </c>
-      <c r="V276">
-        <v>1.87</v>
-      </c>
       <c r="W276">
         <v>-1</v>
       </c>
@@ -25101,19 +25101,19 @@
         <v>-1</v>
       </c>
       <c r="Y276">
-        <v>4</v>
+        <v>1.3</v>
       </c>
       <c r="Z276">
         <v>-1</v>
       </c>
       <c r="AA276">
+        <v>1.02</v>
+      </c>
+      <c r="AB276">
+        <v>-1</v>
+      </c>
+      <c r="AC276">
         <v>0.8300000000000001</v>
-      </c>
-      <c r="AB276">
-        <v>1.03</v>
-      </c>
-      <c r="AC276">
-        <v>-1</v>
       </c>
     </row>
     <row r="277" spans="1:29">
@@ -25121,7 +25121,7 @@
         <v>275</v>
       </c>
       <c r="B277">
-        <v>3713649</v>
+        <v>3712716</v>
       </c>
       <c r="C277" t="s">
         <v>28</v>
@@ -25133,13 +25133,13 @@
         <v>44460.70833333334</v>
       </c>
       <c r="F277" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="G277" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="H277">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I277">
         <v>2</v>
@@ -25148,40 +25148,40 @@
         <v>57</v>
       </c>
       <c r="K277">
-        <v>2.5</v>
+        <v>1.75</v>
       </c>
       <c r="L277">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="M277">
-        <v>2.9</v>
+        <v>5</v>
       </c>
       <c r="N277">
-        <v>3.1</v>
+        <v>1.75</v>
       </c>
       <c r="O277">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P277">
-        <v>2.3</v>
+        <v>5</v>
       </c>
       <c r="Q277">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R277">
-        <v>1.88</v>
+        <v>2.07</v>
       </c>
       <c r="S277">
-        <v>2.02</v>
+        <v>1.83</v>
       </c>
       <c r="T277">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U277">
-        <v>2.07</v>
+        <v>2.03</v>
       </c>
       <c r="V277">
-        <v>1.83</v>
+        <v>1.87</v>
       </c>
       <c r="W277">
         <v>-1</v>
@@ -25190,19 +25190,19 @@
         <v>-1</v>
       </c>
       <c r="Y277">
-        <v>1.3</v>
+        <v>4</v>
       </c>
       <c r="Z277">
         <v>-1</v>
       </c>
       <c r="AA277">
-        <v>1.02</v>
+        <v>0.8300000000000001</v>
       </c>
       <c r="AB277">
-        <v>-1</v>
+        <v>1.03</v>
       </c>
       <c r="AC277">
-        <v>0.8300000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="278" spans="1:29">
@@ -25210,7 +25210,7 @@
         <v>276</v>
       </c>
       <c r="B278">
-        <v>3712717</v>
+        <v>3713651</v>
       </c>
       <c r="C278" t="s">
         <v>28</v>
@@ -25222,58 +25222,58 @@
         <v>44461.60416666666</v>
       </c>
       <c r="F278" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="G278" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H278">
+        <v>3</v>
+      </c>
+      <c r="I278">
         <v>1</v>
-      </c>
-      <c r="I278">
-        <v>0</v>
       </c>
       <c r="J278" t="s">
         <v>55</v>
       </c>
       <c r="K278">
-        <v>1.85</v>
+        <v>1.615</v>
       </c>
       <c r="L278">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M278">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="N278">
-        <v>1.75</v>
+        <v>1.571</v>
       </c>
       <c r="O278">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P278">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q278">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R278">
-        <v>2.01</v>
+        <v>2.08</v>
       </c>
       <c r="S278">
-        <v>1.89</v>
+        <v>1.82</v>
       </c>
       <c r="T278">
         <v>2.25</v>
       </c>
       <c r="U278">
-        <v>1.95</v>
+        <v>1.84</v>
       </c>
       <c r="V278">
-        <v>1.95</v>
+        <v>2.06</v>
       </c>
       <c r="W278">
-        <v>0.75</v>
+        <v>0.571</v>
       </c>
       <c r="X278">
         <v>-1</v>
@@ -25282,16 +25282,16 @@
         <v>-1</v>
       </c>
       <c r="Z278">
-        <v>0.5049999999999999</v>
+        <v>1.08</v>
       </c>
       <c r="AA278">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB278">
-        <v>-1</v>
+        <v>0.8400000000000001</v>
       </c>
       <c r="AC278">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="279" spans="1:29">
@@ -25299,7 +25299,7 @@
         <v>277</v>
       </c>
       <c r="B279">
-        <v>3713651</v>
+        <v>3712717</v>
       </c>
       <c r="C279" t="s">
         <v>28</v>
@@ -25311,58 +25311,58 @@
         <v>44461.60416666666</v>
       </c>
       <c r="F279" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G279" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H279">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I279">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J279" t="s">
         <v>55</v>
       </c>
       <c r="K279">
-        <v>1.615</v>
+        <v>1.85</v>
       </c>
       <c r="L279">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M279">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="N279">
-        <v>1.571</v>
+        <v>1.75</v>
       </c>
       <c r="O279">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P279">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q279">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R279">
-        <v>2.08</v>
+        <v>2.01</v>
       </c>
       <c r="S279">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="T279">
         <v>2.25</v>
       </c>
       <c r="U279">
-        <v>1.84</v>
+        <v>1.95</v>
       </c>
       <c r="V279">
-        <v>2.06</v>
+        <v>1.95</v>
       </c>
       <c r="W279">
-        <v>0.571</v>
+        <v>0.75</v>
       </c>
       <c r="X279">
         <v>-1</v>
@@ -25371,16 +25371,16 @@
         <v>-1</v>
       </c>
       <c r="Z279">
-        <v>1.08</v>
+        <v>0.5049999999999999</v>
       </c>
       <c r="AA279">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB279">
-        <v>0.8400000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC279">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="280" spans="1:29">
@@ -25566,7 +25566,7 @@
         <v>280</v>
       </c>
       <c r="B282">
-        <v>3713648</v>
+        <v>3713650</v>
       </c>
       <c r="C282" t="s">
         <v>28</v>
@@ -25578,13 +25578,13 @@
         <v>44462.60416666666</v>
       </c>
       <c r="F282" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G282" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H282">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I282">
         <v>3</v>
@@ -25593,40 +25593,40 @@
         <v>57</v>
       </c>
       <c r="K282">
-        <v>4</v>
+        <v>2.45</v>
       </c>
       <c r="L282">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M282">
-        <v>1.95</v>
+        <v>2.9</v>
       </c>
       <c r="N282">
-        <v>4.2</v>
+        <v>2.25</v>
       </c>
       <c r="O282">
         <v>3.3</v>
       </c>
       <c r="P282">
-        <v>1.95</v>
+        <v>3.2</v>
       </c>
       <c r="Q282">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R282">
+        <v>2.02</v>
+      </c>
+      <c r="S282">
         <v>1.88</v>
       </c>
-      <c r="S282">
-        <v>2.02</v>
-      </c>
       <c r="T282">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U282">
-        <v>1.97</v>
+        <v>2.07</v>
       </c>
       <c r="V282">
-        <v>1.93</v>
+        <v>1.83</v>
       </c>
       <c r="W282">
         <v>-1</v>
@@ -25635,16 +25635,16 @@
         <v>-1</v>
       </c>
       <c r="Y282">
-        <v>0.95</v>
+        <v>2.2</v>
       </c>
       <c r="Z282">
         <v>-1</v>
       </c>
       <c r="AA282">
-        <v>1.02</v>
+        <v>0.8799999999999999</v>
       </c>
       <c r="AB282">
-        <v>0.97</v>
+        <v>1.07</v>
       </c>
       <c r="AC282">
         <v>-1</v>
@@ -25655,7 +25655,7 @@
         <v>281</v>
       </c>
       <c r="B283">
-        <v>3713650</v>
+        <v>3713648</v>
       </c>
       <c r="C283" t="s">
         <v>28</v>
@@ -25667,13 +25667,13 @@
         <v>44462.60416666666</v>
       </c>
       <c r="F283" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G283" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H283">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I283">
         <v>3</v>
@@ -25682,40 +25682,40 @@
         <v>57</v>
       </c>
       <c r="K283">
-        <v>2.45</v>
+        <v>4</v>
       </c>
       <c r="L283">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M283">
-        <v>2.9</v>
+        <v>1.95</v>
       </c>
       <c r="N283">
-        <v>2.25</v>
+        <v>4.2</v>
       </c>
       <c r="O283">
         <v>3.3</v>
       </c>
       <c r="P283">
-        <v>3.2</v>
+        <v>1.95</v>
       </c>
       <c r="Q283">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R283">
+        <v>1.88</v>
+      </c>
+      <c r="S283">
         <v>2.02</v>
       </c>
-      <c r="S283">
-        <v>1.88</v>
-      </c>
       <c r="T283">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U283">
-        <v>2.07</v>
+        <v>1.97</v>
       </c>
       <c r="V283">
-        <v>1.83</v>
+        <v>1.93</v>
       </c>
       <c r="W283">
         <v>-1</v>
@@ -25724,16 +25724,16 @@
         <v>-1</v>
       </c>
       <c r="Y283">
-        <v>2.2</v>
+        <v>0.95</v>
       </c>
       <c r="Z283">
         <v>-1</v>
       </c>
       <c r="AA283">
-        <v>0.8799999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="AB283">
-        <v>1.07</v>
+        <v>0.97</v>
       </c>
       <c r="AC283">
         <v>-1</v>
@@ -36958,7 +36958,7 @@
         <v>408</v>
       </c>
       <c r="B410">
-        <v>3712740</v>
+        <v>3713745</v>
       </c>
       <c r="C410" t="s">
         <v>28</v>
@@ -36970,76 +36970,76 @@
         <v>44563.51041666666</v>
       </c>
       <c r="F410" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G410" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="H410">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I410">
         <v>0</v>
       </c>
       <c r="J410" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K410">
-        <v>1.444</v>
+        <v>2.15</v>
       </c>
       <c r="L410">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="M410">
-        <v>6.5</v>
+        <v>3.4</v>
       </c>
       <c r="N410">
-        <v>1.444</v>
+        <v>2.6</v>
       </c>
       <c r="O410">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="P410">
-        <v>8</v>
+        <v>2.9</v>
       </c>
       <c r="Q410">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R410">
-        <v>1.83</v>
+        <v>1.79</v>
       </c>
       <c r="S410">
-        <v>2.07</v>
+        <v>2.11</v>
       </c>
       <c r="T410">
         <v>2.25</v>
       </c>
       <c r="U410">
-        <v>1.85</v>
+        <v>1.97</v>
       </c>
       <c r="V410">
-        <v>2.05</v>
+        <v>1.93</v>
       </c>
       <c r="W410">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X410">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y410">
         <v>-1</v>
       </c>
       <c r="Z410">
-        <v>0.8300000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA410">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB410">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC410">
-        <v>0.5249999999999999</v>
+        <v>0.9299999999999999</v>
       </c>
     </row>
     <row r="411" spans="1:29">
@@ -37047,7 +37047,7 @@
         <v>409</v>
       </c>
       <c r="B411">
-        <v>3713745</v>
+        <v>3712740</v>
       </c>
       <c r="C411" t="s">
         <v>28</v>
@@ -37059,76 +37059,76 @@
         <v>44563.51041666666</v>
       </c>
       <c r="F411" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G411" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="H411">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I411">
         <v>0</v>
       </c>
       <c r="J411" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K411">
-        <v>2.15</v>
+        <v>1.444</v>
       </c>
       <c r="L411">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="M411">
-        <v>3.4</v>
+        <v>6.5</v>
       </c>
       <c r="N411">
-        <v>2.6</v>
+        <v>1.444</v>
       </c>
       <c r="O411">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="P411">
-        <v>2.9</v>
+        <v>8</v>
       </c>
       <c r="Q411">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R411">
-        <v>1.79</v>
+        <v>1.83</v>
       </c>
       <c r="S411">
-        <v>2.11</v>
+        <v>2.07</v>
       </c>
       <c r="T411">
         <v>2.25</v>
       </c>
       <c r="U411">
-        <v>1.97</v>
+        <v>1.85</v>
       </c>
       <c r="V411">
-        <v>1.93</v>
+        <v>2.05</v>
       </c>
       <c r="W411">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X411">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y411">
         <v>-1</v>
       </c>
       <c r="Z411">
-        <v>0</v>
+        <v>0.8300000000000001</v>
       </c>
       <c r="AA411">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB411">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC411">
-        <v>0.9299999999999999</v>
+        <v>0.5249999999999999</v>
       </c>
     </row>
     <row r="412" spans="1:29">
@@ -52088,7 +52088,7 @@
         <v>578</v>
       </c>
       <c r="B580">
-        <v>4102121</v>
+        <v>4097364</v>
       </c>
       <c r="C580" t="s">
         <v>28</v>
@@ -52100,76 +52100,76 @@
         <v>44692.58333333334</v>
       </c>
       <c r="F580" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="G580" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="H580">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I580">
         <v>1</v>
       </c>
       <c r="J580" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K580">
+        <v>2.375</v>
+      </c>
+      <c r="L580">
+        <v>3</v>
+      </c>
+      <c r="M580">
+        <v>3.4</v>
+      </c>
+      <c r="N580">
+        <v>2.45</v>
+      </c>
+      <c r="O580">
+        <v>2.8</v>
+      </c>
+      <c r="P580">
+        <v>3.4</v>
+      </c>
+      <c r="Q580">
+        <v>0</v>
+      </c>
+      <c r="R580">
+        <v>1.85</v>
+      </c>
+      <c r="S580">
         <v>2.05</v>
       </c>
-      <c r="L580">
-        <v>3.4</v>
-      </c>
-      <c r="M580">
-        <v>3.75</v>
-      </c>
-      <c r="N580">
-        <v>2.2</v>
-      </c>
-      <c r="O580">
-        <v>3.5</v>
-      </c>
-      <c r="P580">
-        <v>3.1</v>
-      </c>
-      <c r="Q580">
-        <v>-0.25</v>
-      </c>
-      <c r="R580">
-        <v>1.97</v>
-      </c>
-      <c r="S580">
-        <v>1.93</v>
-      </c>
       <c r="T580">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U580">
-        <v>1.82</v>
+        <v>2.125</v>
       </c>
       <c r="V580">
-        <v>2.08</v>
+        <v>1.78</v>
       </c>
       <c r="W580">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X580">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Y580">
         <v>-1</v>
       </c>
       <c r="Z580">
-        <v>0.97</v>
+        <v>0</v>
       </c>
       <c r="AA580">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB580">
-        <v>0.8200000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC580">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="581" spans="1:29">
@@ -52177,7 +52177,7 @@
         <v>579</v>
       </c>
       <c r="B581">
-        <v>4097364</v>
+        <v>4102121</v>
       </c>
       <c r="C581" t="s">
         <v>28</v>
@@ -52189,76 +52189,76 @@
         <v>44692.58333333334</v>
       </c>
       <c r="F581" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="G581" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="H581">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I581">
         <v>1</v>
       </c>
       <c r="J581" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K581">
-        <v>2.375</v>
+        <v>2.05</v>
       </c>
       <c r="L581">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="M581">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="N581">
-        <v>2.45</v>
+        <v>2.2</v>
       </c>
       <c r="O581">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="P581">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="Q581">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R581">
-        <v>1.85</v>
+        <v>1.97</v>
       </c>
       <c r="S581">
-        <v>2.05</v>
+        <v>1.93</v>
       </c>
       <c r="T581">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U581">
-        <v>2.125</v>
+        <v>1.82</v>
       </c>
       <c r="V581">
-        <v>1.78</v>
+        <v>2.08</v>
       </c>
       <c r="W581">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X581">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Y581">
         <v>-1</v>
       </c>
       <c r="Z581">
-        <v>0</v>
+        <v>0.97</v>
       </c>
       <c r="AA581">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB581">
-        <v>0</v>
+        <v>0.8200000000000001</v>
       </c>
       <c r="AC581">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="582" spans="1:29">
@@ -52978,7 +52978,7 @@
         <v>588</v>
       </c>
       <c r="B590">
-        <v>4237159</v>
+        <v>4118971</v>
       </c>
       <c r="C590" t="s">
         <v>28</v>
@@ -52990,76 +52990,76 @@
         <v>44696.60416666666</v>
       </c>
       <c r="F590" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G590" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="H590">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I590">
         <v>1</v>
       </c>
       <c r="J590" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K590">
+        <v>1.666</v>
+      </c>
+      <c r="L590">
+        <v>3.6</v>
+      </c>
+      <c r="M590">
+        <v>5.5</v>
+      </c>
+      <c r="N590">
+        <v>1.75</v>
+      </c>
+      <c r="O590">
+        <v>3.4</v>
+      </c>
+      <c r="P590">
+        <v>5</v>
+      </c>
+      <c r="Q590">
+        <v>-0.75</v>
+      </c>
+      <c r="R590">
+        <v>2.03</v>
+      </c>
+      <c r="S590">
+        <v>1.87</v>
+      </c>
+      <c r="T590">
         <v>2.25</v>
       </c>
-      <c r="L590">
-        <v>3</v>
-      </c>
-      <c r="M590">
-        <v>3.6</v>
-      </c>
-      <c r="N590">
-        <v>1.95</v>
-      </c>
-      <c r="O590">
-        <v>3.1</v>
-      </c>
-      <c r="P590">
-        <v>4.75</v>
-      </c>
-      <c r="Q590">
+      <c r="U590">
+        <v>2.1</v>
+      </c>
+      <c r="V590">
+        <v>1.8</v>
+      </c>
+      <c r="W590">
+        <v>0.75</v>
+      </c>
+      <c r="X590">
+        <v>-1</v>
+      </c>
+      <c r="Y590">
+        <v>-1</v>
+      </c>
+      <c r="Z590">
+        <v>0.5149999999999999</v>
+      </c>
+      <c r="AA590">
         <v>-0.5</v>
       </c>
-      <c r="R590">
-        <v>1.97</v>
-      </c>
-      <c r="S590">
-        <v>1.93</v>
-      </c>
-      <c r="T590">
-        <v>2</v>
-      </c>
-      <c r="U590">
-        <v>2.02</v>
-      </c>
-      <c r="V590">
-        <v>1.88</v>
-      </c>
-      <c r="W590">
-        <v>-1</v>
-      </c>
-      <c r="X590">
-        <v>2.1</v>
-      </c>
-      <c r="Y590">
-        <v>-1</v>
-      </c>
-      <c r="Z590">
-        <v>-1</v>
-      </c>
-      <c r="AA590">
-        <v>0.9299999999999999</v>
-      </c>
       <c r="AB590">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="AC590">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="591" spans="1:29">
@@ -53067,7 +53067,7 @@
         <v>589</v>
       </c>
       <c r="B591">
-        <v>4123823</v>
+        <v>4237159</v>
       </c>
       <c r="C591" t="s">
         <v>28</v>
@@ -53079,49 +53079,49 @@
         <v>44696.60416666666</v>
       </c>
       <c r="F591" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="G591" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H591">
+        <v>1</v>
+      </c>
+      <c r="I591">
+        <v>1</v>
+      </c>
+      <c r="J591" t="s">
+        <v>56</v>
+      </c>
+      <c r="K591">
+        <v>2.25</v>
+      </c>
+      <c r="L591">
+        <v>3</v>
+      </c>
+      <c r="M591">
+        <v>3.6</v>
+      </c>
+      <c r="N591">
+        <v>1.95</v>
+      </c>
+      <c r="O591">
+        <v>3.1</v>
+      </c>
+      <c r="P591">
+        <v>4.75</v>
+      </c>
+      <c r="Q591">
+        <v>-0.5</v>
+      </c>
+      <c r="R591">
+        <v>1.97</v>
+      </c>
+      <c r="S591">
+        <v>1.93</v>
+      </c>
+      <c r="T591">
         <v>2</v>
-      </c>
-      <c r="I591">
-        <v>0</v>
-      </c>
-      <c r="J591" t="s">
-        <v>55</v>
-      </c>
-      <c r="K591">
-        <v>1.5</v>
-      </c>
-      <c r="L591">
-        <v>4.333</v>
-      </c>
-      <c r="M591">
-        <v>6</v>
-      </c>
-      <c r="N591">
-        <v>1.55</v>
-      </c>
-      <c r="O591">
-        <v>4.5</v>
-      </c>
-      <c r="P591">
-        <v>5.5</v>
-      </c>
-      <c r="Q591">
-        <v>-1</v>
-      </c>
-      <c r="R591">
-        <v>1.83</v>
-      </c>
-      <c r="S591">
-        <v>2.07</v>
-      </c>
-      <c r="T591">
-        <v>3.25</v>
       </c>
       <c r="U591">
         <v>2.02</v>
@@ -53130,25 +53130,25 @@
         <v>1.88</v>
       </c>
       <c r="W591">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="X591">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y591">
         <v>-1</v>
       </c>
       <c r="Z591">
-        <v>0.8300000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA591">
-        <v>-1</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="AB591">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC591">
-        <v>0.8799999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="592" spans="1:29">
@@ -53156,7 +53156,7 @@
         <v>590</v>
       </c>
       <c r="B592">
-        <v>4118971</v>
+        <v>4120332</v>
       </c>
       <c r="C592" t="s">
         <v>28</v>
@@ -53168,40 +53168,40 @@
         <v>44696.60416666666</v>
       </c>
       <c r="F592" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="G592" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="H592">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I592">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J592" t="s">
         <v>55</v>
       </c>
       <c r="K592">
-        <v>1.666</v>
+        <v>1.7</v>
       </c>
       <c r="L592">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M592">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="N592">
-        <v>1.75</v>
+        <v>1.333</v>
       </c>
       <c r="O592">
-        <v>3.4</v>
+        <v>5.25</v>
       </c>
       <c r="P592">
-        <v>5</v>
+        <v>8.5</v>
       </c>
       <c r="Q592">
-        <v>-0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R592">
         <v>2.03</v>
@@ -53210,16 +53210,16 @@
         <v>1.87</v>
       </c>
       <c r="T592">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U592">
-        <v>2.1</v>
+        <v>1.84</v>
       </c>
       <c r="V592">
-        <v>1.8</v>
+        <v>2.06</v>
       </c>
       <c r="W592">
-        <v>0.75</v>
+        <v>0.333</v>
       </c>
       <c r="X592">
         <v>-1</v>
@@ -53228,16 +53228,16 @@
         <v>-1</v>
       </c>
       <c r="Z592">
-        <v>0.5149999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA592">
-        <v>-0.5</v>
+        <v>0.8700000000000001</v>
       </c>
       <c r="AB592">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="AC592">
-        <v>-1</v>
+        <v>1.06</v>
       </c>
     </row>
     <row r="593" spans="1:29">
@@ -53245,7 +53245,7 @@
         <v>591</v>
       </c>
       <c r="B593">
-        <v>4233381</v>
+        <v>4123823</v>
       </c>
       <c r="C593" t="s">
         <v>28</v>
@@ -53257,76 +53257,76 @@
         <v>44696.60416666666</v>
       </c>
       <c r="F593" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G593" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="H593">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I593">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J593" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K593">
-        <v>2.15</v>
+        <v>1.5</v>
       </c>
       <c r="L593">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="M593">
-        <v>3.2</v>
+        <v>6</v>
       </c>
       <c r="N593">
-        <v>2</v>
+        <v>1.55</v>
       </c>
       <c r="O593">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="P593">
-        <v>3.6</v>
+        <v>5.5</v>
       </c>
       <c r="Q593">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R593">
-        <v>2.11</v>
+        <v>1.83</v>
       </c>
       <c r="S593">
-        <v>1.79</v>
+        <v>2.07</v>
       </c>
       <c r="T593">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="U593">
-        <v>1.91</v>
+        <v>2.02</v>
       </c>
       <c r="V593">
-        <v>1.99</v>
+        <v>1.88</v>
       </c>
       <c r="W593">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="X593">
         <v>-1</v>
       </c>
       <c r="Y593">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z593">
-        <v>-1</v>
+        <v>0.8300000000000001</v>
       </c>
       <c r="AA593">
-        <v>0.79</v>
+        <v>-1</v>
       </c>
       <c r="AB593">
-        <v>0.9099999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC593">
-        <v>-1</v>
+        <v>0.8799999999999999</v>
       </c>
     </row>
     <row r="594" spans="1:29">
@@ -53512,7 +53512,7 @@
         <v>594</v>
       </c>
       <c r="B596">
-        <v>4120332</v>
+        <v>4233381</v>
       </c>
       <c r="C596" t="s">
         <v>28</v>
@@ -53524,76 +53524,76 @@
         <v>44696.60416666666</v>
       </c>
       <c r="F596" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="G596" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="H596">
         <v>1</v>
       </c>
       <c r="I596">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J596" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K596">
-        <v>1.7</v>
+        <v>2.15</v>
       </c>
       <c r="L596">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M596">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="N596">
-        <v>1.333</v>
+        <v>2</v>
       </c>
       <c r="O596">
-        <v>5.25</v>
+        <v>3.5</v>
       </c>
       <c r="P596">
-        <v>8.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q596">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R596">
-        <v>2.03</v>
+        <v>2.11</v>
       </c>
       <c r="S596">
-        <v>1.87</v>
+        <v>1.79</v>
       </c>
       <c r="T596">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U596">
-        <v>1.84</v>
+        <v>1.91</v>
       </c>
       <c r="V596">
-        <v>2.06</v>
+        <v>1.99</v>
       </c>
       <c r="W596">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X596">
         <v>-1</v>
       </c>
       <c r="Y596">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z596">
         <v>-1</v>
       </c>
       <c r="AA596">
-        <v>0.8700000000000001</v>
+        <v>0.79</v>
       </c>
       <c r="AB596">
-        <v>-1</v>
+        <v>0.9099999999999999</v>
       </c>
       <c r="AC596">
-        <v>1.06</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="597" spans="1:29">
@@ -54224,7 +54224,7 @@
         <v>602</v>
       </c>
       <c r="B604">
-        <v>4123824</v>
+        <v>4252736</v>
       </c>
       <c r="C604" t="s">
         <v>28</v>
@@ -54236,76 +54236,76 @@
         <v>44703.70833333334</v>
       </c>
       <c r="F604" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G604" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="H604">
         <v>1</v>
       </c>
       <c r="I604">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J604" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K604">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="L604">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M604">
         <v>3</v>
       </c>
       <c r="N604">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="O604">
         <v>3.1</v>
       </c>
       <c r="P604">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="Q604">
         <v>0</v>
       </c>
       <c r="R604">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="S604">
-        <v>1.9</v>
+        <v>1.99</v>
       </c>
       <c r="T604">
         <v>2.25</v>
       </c>
       <c r="U604">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="V604">
-        <v>1.92</v>
+        <v>1.88</v>
       </c>
       <c r="W604">
+        <v>-1</v>
+      </c>
+      <c r="X604">
+        <v>-1</v>
+      </c>
+      <c r="Y604">
         <v>1.8</v>
       </c>
-      <c r="X604">
-        <v>-1</v>
-      </c>
-      <c r="Y604">
-        <v>-1</v>
-      </c>
       <c r="Z604">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA604">
-        <v>-1</v>
+        <v>0.99</v>
       </c>
       <c r="AB604">
-        <v>-1</v>
+        <v>1.02</v>
       </c>
       <c r="AC604">
-        <v>0.9199999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="605" spans="1:29">
@@ -54402,7 +54402,7 @@
         <v>604</v>
       </c>
       <c r="B606">
-        <v>4252736</v>
+        <v>4123824</v>
       </c>
       <c r="C606" t="s">
         <v>28</v>
@@ -54414,76 +54414,76 @@
         <v>44703.70833333334</v>
       </c>
       <c r="F606" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G606" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="H606">
         <v>1</v>
       </c>
       <c r="I606">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J606" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K606">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="L606">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M606">
         <v>3</v>
       </c>
       <c r="N606">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="O606">
         <v>3.1</v>
       </c>
       <c r="P606">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="Q606">
         <v>0</v>
       </c>
       <c r="R606">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="S606">
-        <v>1.99</v>
+        <v>1.9</v>
       </c>
       <c r="T606">
         <v>2.25</v>
       </c>
       <c r="U606">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="V606">
-        <v>1.88</v>
+        <v>1.92</v>
       </c>
       <c r="W606">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="X606">
         <v>-1</v>
       </c>
       <c r="Y606">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z606">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA606">
-        <v>0.99</v>
+        <v>-1</v>
       </c>
       <c r="AB606">
-        <v>1.02</v>
+        <v>-1</v>
       </c>
       <c r="AC606">
-        <v>-1</v>
+        <v>0.9199999999999999</v>
       </c>
     </row>
     <row r="607" spans="1:29">
@@ -59564,7 +59564,7 @@
         <v>662</v>
       </c>
       <c r="B664">
-        <v>5210709</v>
+        <v>5210713</v>
       </c>
       <c r="C664" t="s">
         <v>28</v>
@@ -59576,10 +59576,10 @@
         <v>44822.5625</v>
       </c>
       <c r="F664" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G664" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="H664">
         <v>2</v>
@@ -59591,43 +59591,43 @@
         <v>55</v>
       </c>
       <c r="K664">
-        <v>1.571</v>
+        <v>1.615</v>
       </c>
       <c r="L664">
         <v>3.8</v>
       </c>
       <c r="M664">
-        <v>6</v>
+        <v>5.25</v>
       </c>
       <c r="N664">
-        <v>1.7</v>
+        <v>1.727</v>
       </c>
       <c r="O664">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P664">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="Q664">
         <v>-0.75</v>
       </c>
       <c r="R664">
-        <v>1.97</v>
+        <v>1.95</v>
       </c>
       <c r="S664">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="T664">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U664">
-        <v>2.06</v>
+        <v>1.83</v>
       </c>
       <c r="V664">
-        <v>1.84</v>
+        <v>2.07</v>
       </c>
       <c r="W664">
-        <v>0.7</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X664">
         <v>-1</v>
@@ -59636,13 +59636,13 @@
         <v>-1</v>
       </c>
       <c r="Z664">
-        <v>0.485</v>
+        <v>0.475</v>
       </c>
       <c r="AA664">
         <v>-0.5</v>
       </c>
       <c r="AB664">
-        <v>1.06</v>
+        <v>0.8300000000000001</v>
       </c>
       <c r="AC664">
         <v>-1</v>
@@ -59653,7 +59653,7 @@
         <v>663</v>
       </c>
       <c r="B665">
-        <v>5210713</v>
+        <v>5210709</v>
       </c>
       <c r="C665" t="s">
         <v>28</v>
@@ -59665,10 +59665,10 @@
         <v>44822.5625</v>
       </c>
       <c r="F665" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G665" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="H665">
         <v>2</v>
@@ -59680,43 +59680,43 @@
         <v>55</v>
       </c>
       <c r="K665">
-        <v>1.615</v>
+        <v>1.571</v>
       </c>
       <c r="L665">
         <v>3.8</v>
       </c>
       <c r="M665">
-        <v>5.25</v>
+        <v>6</v>
       </c>
       <c r="N665">
-        <v>1.727</v>
+        <v>1.7</v>
       </c>
       <c r="O665">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P665">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="Q665">
         <v>-0.75</v>
       </c>
       <c r="R665">
-        <v>1.95</v>
+        <v>1.97</v>
       </c>
       <c r="S665">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="T665">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U665">
-        <v>1.83</v>
+        <v>2.06</v>
       </c>
       <c r="V665">
-        <v>2.07</v>
+        <v>1.84</v>
       </c>
       <c r="W665">
-        <v>0.7270000000000001</v>
+        <v>0.7</v>
       </c>
       <c r="X665">
         <v>-1</v>
@@ -59725,13 +59725,13 @@
         <v>-1</v>
       </c>
       <c r="Z665">
-        <v>0.475</v>
+        <v>0.485</v>
       </c>
       <c r="AA665">
         <v>-0.5</v>
       </c>
       <c r="AB665">
-        <v>0.8300000000000001</v>
+        <v>1.06</v>
       </c>
       <c r="AC665">
         <v>-1</v>
@@ -62768,7 +62768,7 @@
         <v>698</v>
       </c>
       <c r="B700">
-        <v>5210752</v>
+        <v>5210753</v>
       </c>
       <c r="C700" t="s">
         <v>28</v>
@@ -62780,76 +62780,76 @@
         <v>44853.58333333334</v>
       </c>
       <c r="F700" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G700" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="H700">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I700">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J700" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K700">
-        <v>2.9</v>
+        <v>2.4</v>
       </c>
       <c r="L700">
         <v>3.3</v>
       </c>
       <c r="M700">
+        <v>2.875</v>
+      </c>
+      <c r="N700">
+        <v>3.1</v>
+      </c>
+      <c r="O700">
+        <v>3.2</v>
+      </c>
+      <c r="P700">
         <v>2.375</v>
-      </c>
-      <c r="N700">
-        <v>3.5</v>
-      </c>
-      <c r="O700">
-        <v>3.25</v>
-      </c>
-      <c r="P700">
-        <v>2.2</v>
       </c>
       <c r="Q700">
         <v>0.25</v>
       </c>
       <c r="R700">
-        <v>2.01</v>
+        <v>1.86</v>
       </c>
       <c r="S700">
-        <v>1.89</v>
+        <v>2.04</v>
       </c>
       <c r="T700">
         <v>2.25</v>
       </c>
       <c r="U700">
-        <v>1.97</v>
+        <v>2.03</v>
       </c>
       <c r="V700">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="W700">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="X700">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y700">
         <v>-1</v>
       </c>
       <c r="Z700">
-        <v>0.5049999999999999</v>
+        <v>0.8600000000000001</v>
       </c>
       <c r="AA700">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB700">
-        <v>-1</v>
+        <v>1.03</v>
       </c>
       <c r="AC700">
-        <v>0.9299999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="701" spans="1:29">
@@ -62857,7 +62857,7 @@
         <v>699</v>
       </c>
       <c r="B701">
-        <v>5210753</v>
+        <v>5210752</v>
       </c>
       <c r="C701" t="s">
         <v>28</v>
@@ -62869,76 +62869,76 @@
         <v>44853.58333333334</v>
       </c>
       <c r="F701" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G701" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="H701">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I701">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J701" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K701">
-        <v>2.4</v>
+        <v>2.9</v>
       </c>
       <c r="L701">
         <v>3.3</v>
       </c>
       <c r="M701">
-        <v>2.875</v>
+        <v>2.375</v>
       </c>
       <c r="N701">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="O701">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P701">
-        <v>2.375</v>
+        <v>2.2</v>
       </c>
       <c r="Q701">
         <v>0.25</v>
       </c>
       <c r="R701">
-        <v>1.86</v>
+        <v>2.01</v>
       </c>
       <c r="S701">
-        <v>2.04</v>
+        <v>1.89</v>
       </c>
       <c r="T701">
         <v>2.25</v>
       </c>
       <c r="U701">
-        <v>2.03</v>
+        <v>1.97</v>
       </c>
       <c r="V701">
-        <v>1.87</v>
+        <v>1.93</v>
       </c>
       <c r="W701">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="X701">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y701">
         <v>-1</v>
       </c>
       <c r="Z701">
-        <v>0.8600000000000001</v>
+        <v>0.5049999999999999</v>
       </c>
       <c r="AA701">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB701">
-        <v>1.03</v>
+        <v>-1</v>
       </c>
       <c r="AC701">
-        <v>-1</v>
+        <v>0.9299999999999999</v>
       </c>
     </row>
     <row r="702" spans="1:29">
@@ -63925,7 +63925,7 @@
         <v>711</v>
       </c>
       <c r="B713">
-        <v>5210758</v>
+        <v>5210765</v>
       </c>
       <c r="C713" t="s">
         <v>28</v>
@@ -63937,76 +63937,76 @@
         <v>44857.5625</v>
       </c>
       <c r="F713" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="G713" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="H713">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I713">
         <v>1</v>
       </c>
       <c r="J713" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K713">
-        <v>2.55</v>
+        <v>1.4</v>
       </c>
       <c r="L713">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="M713">
-        <v>2.8</v>
+        <v>8.5</v>
       </c>
       <c r="N713">
-        <v>2.4</v>
+        <v>1.363</v>
       </c>
       <c r="O713">
-        <v>3.25</v>
+        <v>5.25</v>
       </c>
       <c r="P713">
-        <v>3.1</v>
+        <v>8</v>
       </c>
       <c r="Q713">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R713">
-        <v>2.11</v>
+        <v>2.04</v>
       </c>
       <c r="S713">
-        <v>1.79</v>
+        <v>1.86</v>
       </c>
       <c r="T713">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U713">
-        <v>1.95</v>
+        <v>2.01</v>
       </c>
       <c r="V713">
-        <v>1.95</v>
+        <v>1.89</v>
       </c>
       <c r="W713">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X713">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y713">
         <v>-1</v>
       </c>
       <c r="Z713">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA713">
-        <v>0.395</v>
+        <v>0.8600000000000001</v>
       </c>
       <c r="AB713">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AC713">
-        <v>0.475</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="714" spans="1:29">
@@ -64014,7 +64014,7 @@
         <v>712</v>
       </c>
       <c r="B714">
-        <v>5210765</v>
+        <v>5210758</v>
       </c>
       <c r="C714" t="s">
         <v>28</v>
@@ -64026,76 +64026,76 @@
         <v>44857.5625</v>
       </c>
       <c r="F714" t="s">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="G714" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="H714">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I714">
         <v>1</v>
       </c>
       <c r="J714" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K714">
-        <v>1.4</v>
+        <v>2.55</v>
       </c>
       <c r="L714">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="M714">
-        <v>8.5</v>
+        <v>2.8</v>
       </c>
       <c r="N714">
-        <v>1.363</v>
+        <v>2.4</v>
       </c>
       <c r="O714">
-        <v>5.25</v>
+        <v>3.25</v>
       </c>
       <c r="P714">
-        <v>8</v>
+        <v>3.1</v>
       </c>
       <c r="Q714">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R714">
-        <v>2.04</v>
+        <v>2.11</v>
       </c>
       <c r="S714">
-        <v>1.86</v>
+        <v>1.79</v>
       </c>
       <c r="T714">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U714">
-        <v>2.01</v>
+        <v>1.95</v>
       </c>
       <c r="V714">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="W714">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X714">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y714">
         <v>-1</v>
       </c>
       <c r="Z714">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA714">
-        <v>0.8600000000000001</v>
+        <v>0.395</v>
       </c>
       <c r="AB714">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AC714">
-        <v>-0</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="715" spans="1:29">
@@ -66328,7 +66328,7 @@
         <v>738</v>
       </c>
       <c r="B740">
-        <v>5210789</v>
+        <v>5210795</v>
       </c>
       <c r="C740" t="s">
         <v>28</v>
@@ -66340,76 +66340,76 @@
         <v>44874.625</v>
       </c>
       <c r="F740" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="G740" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H740">
         <v>1</v>
       </c>
       <c r="I740">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J740" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K740">
-        <v>2.2</v>
+        <v>2.625</v>
       </c>
       <c r="L740">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M740">
-        <v>3.5</v>
+        <v>2.7</v>
       </c>
       <c r="N740">
-        <v>2.05</v>
+        <v>2.45</v>
       </c>
       <c r="O740">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P740">
-        <v>4</v>
+        <v>2.9</v>
       </c>
       <c r="Q740">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R740">
-        <v>2.04</v>
+        <v>1.78</v>
       </c>
       <c r="S740">
-        <v>1.86</v>
+        <v>2.125</v>
       </c>
       <c r="T740">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U740">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="V740">
-        <v>2.01</v>
+        <v>1.95</v>
       </c>
       <c r="W740">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X740">
         <v>-1</v>
       </c>
       <c r="Y740">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Z740">
-        <v>1.04</v>
+        <v>-1</v>
       </c>
       <c r="AA740">
-        <v>-1</v>
+        <v>1.125</v>
       </c>
       <c r="AB740">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC740">
-        <v>1.01</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="741" spans="1:29">
@@ -66417,7 +66417,7 @@
         <v>739</v>
       </c>
       <c r="B741">
-        <v>5210795</v>
+        <v>5210789</v>
       </c>
       <c r="C741" t="s">
         <v>28</v>
@@ -66429,76 +66429,76 @@
         <v>44874.625</v>
       </c>
       <c r="F741" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="G741" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H741">
         <v>1</v>
       </c>
       <c r="I741">
+        <v>0</v>
+      </c>
+      <c r="J741" t="s">
+        <v>55</v>
+      </c>
+      <c r="K741">
+        <v>2.2</v>
+      </c>
+      <c r="L741">
+        <v>3.1</v>
+      </c>
+      <c r="M741">
+        <v>3.5</v>
+      </c>
+      <c r="N741">
+        <v>2.05</v>
+      </c>
+      <c r="O741">
+        <v>3.2</v>
+      </c>
+      <c r="P741">
+        <v>4</v>
+      </c>
+      <c r="Q741">
+        <v>-0.5</v>
+      </c>
+      <c r="R741">
+        <v>2.04</v>
+      </c>
+      <c r="S741">
+        <v>1.86</v>
+      </c>
+      <c r="T741">
         <v>2</v>
       </c>
-      <c r="J741" t="s">
-        <v>57</v>
-      </c>
-      <c r="K741">
-        <v>2.625</v>
-      </c>
-      <c r="L741">
-        <v>3.2</v>
-      </c>
-      <c r="M741">
-        <v>2.7</v>
-      </c>
-      <c r="N741">
-        <v>2.45</v>
-      </c>
-      <c r="O741">
-        <v>3.3</v>
-      </c>
-      <c r="P741">
-        <v>2.9</v>
-      </c>
-      <c r="Q741">
-        <v>0</v>
-      </c>
-      <c r="R741">
-        <v>1.78</v>
-      </c>
-      <c r="S741">
-        <v>2.125</v>
-      </c>
-      <c r="T741">
-        <v>2.25</v>
-      </c>
       <c r="U741">
-        <v>1.95</v>
+        <v>1.89</v>
       </c>
       <c r="V741">
-        <v>1.95</v>
+        <v>2.01</v>
       </c>
       <c r="W741">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X741">
         <v>-1</v>
       </c>
       <c r="Y741">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z741">
-        <v>-1</v>
+        <v>1.04</v>
       </c>
       <c r="AA741">
-        <v>1.125</v>
+        <v>-1</v>
       </c>
       <c r="AB741">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC741">
-        <v>-1</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="742" spans="1:29">
@@ -85641,7 +85641,7 @@
         <v>955</v>
       </c>
       <c r="B957">
-        <v>5638811</v>
+        <v>5638808</v>
       </c>
       <c r="C957" t="s">
         <v>28</v>
@@ -85653,61 +85653,61 @@
         <v>45069.60416666666</v>
       </c>
       <c r="F957" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G957" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H957">
         <v>1</v>
       </c>
       <c r="I957">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J957" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K957">
-        <v>1.4</v>
+        <v>2.2</v>
       </c>
       <c r="L957">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="M957">
-        <v>8.5</v>
+        <v>3.25</v>
       </c>
       <c r="N957">
-        <v>1.363</v>
+        <v>2.1</v>
       </c>
       <c r="O957">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="P957">
-        <v>8</v>
+        <v>3.6</v>
       </c>
       <c r="Q957">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R957">
-        <v>1.89</v>
+        <v>1.82</v>
       </c>
       <c r="S957">
-        <v>2.01</v>
+        <v>2.08</v>
       </c>
       <c r="T957">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U957">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="V957">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W957">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X957">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y957">
         <v>-1</v>
@@ -85716,13 +85716,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA957">
-        <v>0.5049999999999999</v>
+        <v>0.54</v>
       </c>
       <c r="AB957">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC957">
-        <v>0.8999999999999999</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="958" spans="1:29">
@@ -85730,7 +85730,7 @@
         <v>956</v>
       </c>
       <c r="B958">
-        <v>5638808</v>
+        <v>5638811</v>
       </c>
       <c r="C958" t="s">
         <v>28</v>
@@ -85742,61 +85742,61 @@
         <v>45069.60416666666</v>
       </c>
       <c r="F958" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G958" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H958">
         <v>1</v>
       </c>
       <c r="I958">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J958" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K958">
-        <v>2.2</v>
+        <v>1.4</v>
       </c>
       <c r="L958">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="M958">
-        <v>3.25</v>
+        <v>8.5</v>
       </c>
       <c r="N958">
-        <v>2.1</v>
+        <v>1.363</v>
       </c>
       <c r="O958">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="P958">
-        <v>3.6</v>
+        <v>8</v>
       </c>
       <c r="Q958">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R958">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="S958">
-        <v>2.08</v>
+        <v>2.01</v>
       </c>
       <c r="T958">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U958">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="V958">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W958">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X958">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y958">
         <v>-1</v>
@@ -85805,13 +85805,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA958">
-        <v>0.54</v>
+        <v>0.5049999999999999</v>
       </c>
       <c r="AB958">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC958">
-        <v>0.5125</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="959" spans="1:29">
@@ -86620,7 +86620,7 @@
         <v>966</v>
       </c>
       <c r="B968">
-        <v>5697401</v>
+        <v>5701612</v>
       </c>
       <c r="C968" t="s">
         <v>28</v>
@@ -86632,76 +86632,76 @@
         <v>45074.58333333334</v>
       </c>
       <c r="F968" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G968" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="H968">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I968">
         <v>1</v>
       </c>
       <c r="J968" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K968">
+        <v>1.909</v>
+      </c>
+      <c r="L968">
+        <v>3.4</v>
+      </c>
+      <c r="M968">
+        <v>4</v>
+      </c>
+      <c r="N968">
+        <v>2.4</v>
+      </c>
+      <c r="O968">
+        <v>2.75</v>
+      </c>
+      <c r="P968">
+        <v>3.5</v>
+      </c>
+      <c r="Q968">
+        <v>-0.25</v>
+      </c>
+      <c r="R968">
+        <v>2.1</v>
+      </c>
+      <c r="S968">
+        <v>1.8</v>
+      </c>
+      <c r="T968">
+        <v>1.5</v>
+      </c>
+      <c r="U968">
+        <v>1.82</v>
+      </c>
+      <c r="V968">
+        <v>2.08</v>
+      </c>
+      <c r="W968">
         <v>1.4</v>
       </c>
-      <c r="L968">
-        <v>4.5</v>
-      </c>
-      <c r="M968">
-        <v>8</v>
-      </c>
-      <c r="N968">
-        <v>1.4</v>
-      </c>
-      <c r="O968">
-        <v>4.5</v>
-      </c>
-      <c r="P968">
-        <v>8</v>
-      </c>
-      <c r="Q968">
-        <v>-1.25</v>
-      </c>
-      <c r="R968">
-        <v>1.95</v>
-      </c>
-      <c r="S968">
-        <v>1.95</v>
-      </c>
-      <c r="T968">
-        <v>2.75</v>
-      </c>
-      <c r="U968">
-        <v>1.91</v>
-      </c>
-      <c r="V968">
-        <v>1.99</v>
-      </c>
-      <c r="W968">
-        <v>-1</v>
-      </c>
       <c r="X968">
         <v>-1</v>
       </c>
       <c r="Y968">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="Z968">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="AA968">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB968">
-        <v>-1</v>
+        <v>0.8200000000000001</v>
       </c>
       <c r="AC968">
-        <v>0.99</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="969" spans="1:29">
@@ -86709,7 +86709,7 @@
         <v>967</v>
       </c>
       <c r="B969">
-        <v>5713343</v>
+        <v>5705727</v>
       </c>
       <c r="C969" t="s">
         <v>28</v>
@@ -86721,76 +86721,76 @@
         <v>45074.58333333334</v>
       </c>
       <c r="F969" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="G969" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="H969">
         <v>2</v>
       </c>
       <c r="I969">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J969" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K969">
-        <v>2.875</v>
+        <v>1.909</v>
       </c>
       <c r="L969">
+        <v>3.6</v>
+      </c>
+      <c r="M969">
+        <v>3.75</v>
+      </c>
+      <c r="N969">
+        <v>2</v>
+      </c>
+      <c r="O969">
         <v>3.5</v>
       </c>
-      <c r="M969">
-        <v>2.3</v>
-      </c>
-      <c r="N969">
-        <v>3</v>
-      </c>
-      <c r="O969">
-        <v>3.75</v>
-      </c>
       <c r="P969">
-        <v>2.2</v>
+        <v>3.6</v>
       </c>
       <c r="Q969">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R969">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S969">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="T969">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U969">
-        <v>2.06</v>
+        <v>2.07</v>
       </c>
       <c r="V969">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="W969">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X969">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y969">
         <v>-1</v>
       </c>
       <c r="Z969">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA969">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB969">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="AC969">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="970" spans="1:29">
@@ -86798,7 +86798,7 @@
         <v>968</v>
       </c>
       <c r="B970">
-        <v>5697402</v>
+        <v>5705884</v>
       </c>
       <c r="C970" t="s">
         <v>28</v>
@@ -86810,76 +86810,76 @@
         <v>45074.58333333334</v>
       </c>
       <c r="F970" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G970" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="H970">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I970">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J970" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K970">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L970">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M970">
         <v>3.1</v>
       </c>
       <c r="N970">
-        <v>2.2</v>
+        <v>1.909</v>
       </c>
       <c r="O970">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P970">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="Q970">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R970">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="S970">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="T970">
         <v>2.5</v>
       </c>
       <c r="U970">
-        <v>1.86</v>
+        <v>1.99</v>
       </c>
       <c r="V970">
-        <v>2.04</v>
+        <v>1.91</v>
       </c>
       <c r="W970">
         <v>-1</v>
       </c>
       <c r="X970">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y970">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Z970">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA970">
-        <v>0.465</v>
+        <v>0.9199999999999999</v>
       </c>
       <c r="AB970">
-        <v>-1</v>
+        <v>0.99</v>
       </c>
       <c r="AC970">
-        <v>1.04</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="971" spans="1:29">
@@ -86887,7 +86887,7 @@
         <v>969</v>
       </c>
       <c r="B971">
-        <v>5705727</v>
+        <v>5697402</v>
       </c>
       <c r="C971" t="s">
         <v>28</v>
@@ -86899,76 +86899,76 @@
         <v>45074.58333333334</v>
       </c>
       <c r="F971" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="G971" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="H971">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I971">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J971" t="s">
         <v>56</v>
       </c>
       <c r="K971">
-        <v>1.909</v>
+        <v>2.25</v>
       </c>
       <c r="L971">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M971">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="N971">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="O971">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P971">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="Q971">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R971">
-        <v>2.025</v>
+        <v>1.97</v>
       </c>
       <c r="S971">
-        <v>1.775</v>
+        <v>1.93</v>
       </c>
       <c r="T971">
         <v>2.5</v>
       </c>
       <c r="U971">
-        <v>2.07</v>
+        <v>1.86</v>
       </c>
       <c r="V971">
-        <v>1.83</v>
+        <v>2.04</v>
       </c>
       <c r="W971">
         <v>-1</v>
       </c>
       <c r="X971">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="Y971">
         <v>-1</v>
       </c>
       <c r="Z971">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA971">
-        <v>0.7749999999999999</v>
+        <v>0.465</v>
       </c>
       <c r="AB971">
-        <v>1.07</v>
+        <v>-1</v>
       </c>
       <c r="AC971">
-        <v>-1</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="972" spans="1:29">
@@ -86976,7 +86976,7 @@
         <v>970</v>
       </c>
       <c r="B972">
-        <v>5705884</v>
+        <v>5713343</v>
       </c>
       <c r="C972" t="s">
         <v>28</v>
@@ -86988,76 +86988,76 @@
         <v>45074.58333333334</v>
       </c>
       <c r="F972" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G972" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H972">
+        <v>2</v>
+      </c>
+      <c r="I972">
         <v>1</v>
       </c>
-      <c r="I972">
-        <v>2</v>
-      </c>
       <c r="J972" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K972">
-        <v>2.2</v>
+        <v>2.875</v>
       </c>
       <c r="L972">
         <v>3.5</v>
       </c>
       <c r="M972">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="N972">
-        <v>1.909</v>
+        <v>3</v>
       </c>
       <c r="O972">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P972">
-        <v>3.8</v>
+        <v>2.2</v>
       </c>
       <c r="Q972">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R972">
-        <v>1.98</v>
+        <v>1.9</v>
       </c>
       <c r="S972">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="T972">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U972">
-        <v>1.99</v>
+        <v>2.06</v>
       </c>
       <c r="V972">
-        <v>1.91</v>
+        <v>1.84</v>
       </c>
       <c r="W972">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X972">
         <v>-1</v>
       </c>
       <c r="Y972">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Z972">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA972">
-        <v>0.9199999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB972">
-        <v>0.99</v>
+        <v>0</v>
       </c>
       <c r="AC972">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="973" spans="1:29">
@@ -87065,7 +87065,7 @@
         <v>971</v>
       </c>
       <c r="B973">
-        <v>5701612</v>
+        <v>5697401</v>
       </c>
       <c r="C973" t="s">
         <v>28</v>
@@ -87077,76 +87077,76 @@
         <v>45074.58333333334</v>
       </c>
       <c r="F973" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G973" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="H973">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I973">
         <v>1</v>
       </c>
       <c r="J973" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K973">
-        <v>1.909</v>
+        <v>1.4</v>
       </c>
       <c r="L973">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="M973">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="N973">
-        <v>2.4</v>
+        <v>1.4</v>
       </c>
       <c r="O973">
+        <v>4.5</v>
+      </c>
+      <c r="P973">
+        <v>8</v>
+      </c>
+      <c r="Q973">
+        <v>-1.25</v>
+      </c>
+      <c r="R973">
+        <v>1.95</v>
+      </c>
+      <c r="S973">
+        <v>1.95</v>
+      </c>
+      <c r="T973">
         <v>2.75</v>
       </c>
-      <c r="P973">
-        <v>3.5</v>
-      </c>
-      <c r="Q973">
-        <v>-0.25</v>
-      </c>
-      <c r="R973">
-        <v>2.1</v>
-      </c>
-      <c r="S973">
-        <v>1.8</v>
-      </c>
-      <c r="T973">
-        <v>1.5</v>
-      </c>
       <c r="U973">
-        <v>1.82</v>
+        <v>1.91</v>
       </c>
       <c r="V973">
-        <v>2.08</v>
+        <v>1.99</v>
       </c>
       <c r="W973">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="X973">
         <v>-1</v>
       </c>
       <c r="Y973">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="Z973">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="AA973">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB973">
-        <v>0.8200000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC973">
-        <v>-1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="974" spans="1:29">
@@ -87154,7 +87154,7 @@
         <v>972</v>
       </c>
       <c r="B974">
-        <v>5701613</v>
+        <v>5703047</v>
       </c>
       <c r="C974" t="s">
         <v>28</v>
@@ -87166,13 +87166,13 @@
         <v>45074.58333333334</v>
       </c>
       <c r="F974" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="G974" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="H974">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I974">
         <v>0</v>
@@ -87181,43 +87181,43 @@
         <v>55</v>
       </c>
       <c r="K974">
-        <v>2.6</v>
+        <v>1.5</v>
       </c>
       <c r="L974">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="M974">
-        <v>2.7</v>
+        <v>6</v>
       </c>
       <c r="N974">
-        <v>2.45</v>
+        <v>1.25</v>
       </c>
       <c r="O974">
-        <v>3.1</v>
+        <v>5.75</v>
       </c>
       <c r="P974">
-        <v>3.1</v>
+        <v>12</v>
       </c>
       <c r="Q974">
-        <v>-0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R974">
-        <v>2.075</v>
+        <v>2</v>
       </c>
       <c r="S974">
-        <v>1.725</v>
+        <v>1.9</v>
       </c>
       <c r="T974">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U974">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="V974">
-        <v>1.95</v>
+        <v>1.97</v>
       </c>
       <c r="W974">
-        <v>1.45</v>
+        <v>0.25</v>
       </c>
       <c r="X974">
         <v>-1</v>
@@ -87226,16 +87226,16 @@
         <v>-1</v>
       </c>
       <c r="Z974">
-        <v>1.075</v>
+        <v>1</v>
       </c>
       <c r="AA974">
         <v>-1</v>
       </c>
       <c r="AB974">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC974">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="975" spans="1:29">
@@ -87243,7 +87243,7 @@
         <v>973</v>
       </c>
       <c r="B975">
-        <v>5703047</v>
+        <v>5701613</v>
       </c>
       <c r="C975" t="s">
         <v>28</v>
@@ -87255,13 +87255,13 @@
         <v>45074.58333333334</v>
       </c>
       <c r="F975" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G975" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="H975">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I975">
         <v>0</v>
@@ -87270,43 +87270,43 @@
         <v>55</v>
       </c>
       <c r="K975">
-        <v>1.5</v>
+        <v>2.6</v>
       </c>
       <c r="L975">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="M975">
-        <v>6</v>
+        <v>2.7</v>
       </c>
       <c r="N975">
-        <v>1.25</v>
+        <v>2.45</v>
       </c>
       <c r="O975">
-        <v>5.75</v>
+        <v>3.1</v>
       </c>
       <c r="P975">
-        <v>12</v>
+        <v>3.1</v>
       </c>
       <c r="Q975">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R975">
+        <v>2.075</v>
+      </c>
+      <c r="S975">
+        <v>1.725</v>
+      </c>
+      <c r="T975">
         <v>2</v>
       </c>
-      <c r="S975">
-        <v>1.9</v>
-      </c>
-      <c r="T975">
-        <v>3</v>
-      </c>
       <c r="U975">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="V975">
-        <v>1.97</v>
+        <v>1.95</v>
       </c>
       <c r="W975">
-        <v>0.25</v>
+        <v>1.45</v>
       </c>
       <c r="X975">
         <v>-1</v>
@@ -87315,16 +87315,16 @@
         <v>-1</v>
       </c>
       <c r="Z975">
-        <v>1</v>
+        <v>1.075</v>
       </c>
       <c r="AA975">
         <v>-1</v>
       </c>
       <c r="AB975">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC975">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="976" spans="1:29">
@@ -103797,7 +103797,7 @@
         <v>1159</v>
       </c>
       <c r="B1161">
-        <v>6809289</v>
+        <v>6809436</v>
       </c>
       <c r="C1161" t="s">
         <v>28</v>
@@ -103809,76 +103809,76 @@
         <v>45281.625</v>
       </c>
       <c r="F1161" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="G1161" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="H1161">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1161">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J1161" t="s">
         <v>56</v>
       </c>
       <c r="K1161">
-        <v>2.4</v>
+        <v>4.333</v>
       </c>
       <c r="L1161">
+        <v>3.2</v>
+      </c>
+      <c r="M1161">
+        <v>1.85</v>
+      </c>
+      <c r="N1161">
+        <v>6</v>
+      </c>
+      <c r="O1161">
         <v>3.5</v>
       </c>
-      <c r="M1161">
-        <v>2.75</v>
-      </c>
-      <c r="N1161">
-        <v>2.6</v>
-      </c>
-      <c r="O1161">
-        <v>3.6</v>
-      </c>
       <c r="P1161">
+        <v>1.65</v>
+      </c>
+      <c r="Q1161">
+        <v>0.75</v>
+      </c>
+      <c r="R1161">
+        <v>1.98</v>
+      </c>
+      <c r="S1161">
+        <v>1.92</v>
+      </c>
+      <c r="T1161">
+        <v>2</v>
+      </c>
+      <c r="U1161">
+        <v>1.84</v>
+      </c>
+      <c r="V1161">
+        <v>2.06</v>
+      </c>
+      <c r="W1161">
+        <v>-1</v>
+      </c>
+      <c r="X1161">
         <v>2.5</v>
       </c>
-      <c r="Q1161">
-        <v>0</v>
-      </c>
-      <c r="R1161">
-        <v>1.97</v>
-      </c>
-      <c r="S1161">
-        <v>1.93</v>
-      </c>
-      <c r="T1161">
-        <v>2.75</v>
-      </c>
-      <c r="U1161">
-        <v>1.91</v>
-      </c>
-      <c r="V1161">
-        <v>1.99</v>
-      </c>
-      <c r="W1161">
-        <v>-1</v>
-      </c>
-      <c r="X1161">
-        <v>2.6</v>
-      </c>
       <c r="Y1161">
         <v>-1</v>
       </c>
       <c r="Z1161">
-        <v>0</v>
+        <v>0.98</v>
       </c>
       <c r="AA1161">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB1161">
         <v>-1</v>
       </c>
       <c r="AC1161">
-        <v>0.99</v>
+        <v>1.06</v>
       </c>
     </row>
     <row r="1162" spans="1:29">
@@ -103886,7 +103886,7 @@
         <v>1160</v>
       </c>
       <c r="B1162">
-        <v>6809436</v>
+        <v>6809289</v>
       </c>
       <c r="C1162" t="s">
         <v>28</v>
@@ -103898,76 +103898,76 @@
         <v>45281.625</v>
       </c>
       <c r="F1162" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="G1162" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="H1162">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I1162">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J1162" t="s">
         <v>56</v>
       </c>
       <c r="K1162">
-        <v>4.333</v>
+        <v>2.4</v>
       </c>
       <c r="L1162">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M1162">
-        <v>1.85</v>
+        <v>2.75</v>
       </c>
       <c r="N1162">
-        <v>6</v>
+        <v>2.6</v>
       </c>
       <c r="O1162">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P1162">
-        <v>1.65</v>
+        <v>2.5</v>
       </c>
       <c r="Q1162">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R1162">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="S1162">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="T1162">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U1162">
-        <v>1.84</v>
+        <v>1.91</v>
       </c>
       <c r="V1162">
-        <v>2.06</v>
+        <v>1.99</v>
       </c>
       <c r="W1162">
         <v>-1</v>
       </c>
       <c r="X1162">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="Y1162">
         <v>-1</v>
       </c>
       <c r="Z1162">
-        <v>0.98</v>
+        <v>0</v>
       </c>
       <c r="AA1162">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB1162">
         <v>-1</v>
       </c>
       <c r="AC1162">
-        <v>1.06</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="1163" spans="1:29">
@@ -103975,7 +103975,7 @@
         <v>1161</v>
       </c>
       <c r="B1163">
-        <v>6809437</v>
+        <v>6809290</v>
       </c>
       <c r="C1163" t="s">
         <v>28</v>
@@ -103987,76 +103987,76 @@
         <v>45281.72916666666</v>
       </c>
       <c r="F1163" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="G1163" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="H1163">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I1163">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J1163" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K1163">
-        <v>4.75</v>
+        <v>2.2</v>
       </c>
       <c r="L1163">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="M1163">
-        <v>1.666</v>
+        <v>3.4</v>
       </c>
       <c r="N1163">
-        <v>5.5</v>
+        <v>2.2</v>
       </c>
       <c r="O1163">
-        <v>4.2</v>
+        <v>2.9</v>
       </c>
       <c r="P1163">
-        <v>1.571</v>
+        <v>4</v>
       </c>
       <c r="Q1163">
-        <v>1</v>
+        <v>-0.25</v>
       </c>
       <c r="R1163">
-        <v>1.83</v>
+        <v>1.89</v>
       </c>
       <c r="S1163">
-        <v>2.07</v>
+        <v>2.01</v>
       </c>
       <c r="T1163">
-        <v>2.5</v>
+        <v>1.75</v>
       </c>
       <c r="U1163">
-        <v>1.88</v>
+        <v>1.95</v>
       </c>
       <c r="V1163">
-        <v>2.02</v>
+        <v>1.95</v>
       </c>
       <c r="W1163">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X1163">
         <v>-1</v>
       </c>
       <c r="Y1163">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="Z1163">
-        <v>0</v>
+        <v>0.8899999999999999</v>
       </c>
       <c r="AA1163">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB1163">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC1163">
-        <v>1.02</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1164" spans="1:29">
@@ -104064,7 +104064,7 @@
         <v>1162</v>
       </c>
       <c r="B1164">
-        <v>6809290</v>
+        <v>6809437</v>
       </c>
       <c r="C1164" t="s">
         <v>28</v>
@@ -104076,76 +104076,76 @@
         <v>45281.72916666666</v>
       </c>
       <c r="F1164" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="G1164" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="H1164">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1164">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J1164" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K1164">
-        <v>2.2</v>
+        <v>4.75</v>
       </c>
       <c r="L1164">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="M1164">
-        <v>3.4</v>
+        <v>1.666</v>
       </c>
       <c r="N1164">
-        <v>2.2</v>
+        <v>5.5</v>
       </c>
       <c r="O1164">
-        <v>2.9</v>
+        <v>4.2</v>
       </c>
       <c r="P1164">
-        <v>4</v>
+        <v>1.571</v>
       </c>
       <c r="Q1164">
-        <v>-0.25</v>
+        <v>1</v>
       </c>
       <c r="R1164">
-        <v>1.89</v>
+        <v>1.83</v>
       </c>
       <c r="S1164">
-        <v>2.01</v>
+        <v>2.07</v>
       </c>
       <c r="T1164">
-        <v>1.75</v>
+        <v>2.5</v>
       </c>
       <c r="U1164">
-        <v>1.95</v>
+        <v>1.88</v>
       </c>
       <c r="V1164">
-        <v>1.95</v>
+        <v>2.02</v>
       </c>
       <c r="W1164">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X1164">
         <v>-1</v>
       </c>
       <c r="Y1164">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="Z1164">
-        <v>0.8899999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA1164">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB1164">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC1164">
-        <v>-1</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="1165" spans="1:29">
@@ -104598,7 +104598,7 @@
         <v>1168</v>
       </c>
       <c r="B1170">
-        <v>6809442</v>
+        <v>6809440</v>
       </c>
       <c r="C1170" t="s">
         <v>28</v>
@@ -104610,58 +104610,58 @@
         <v>45294.63541666666</v>
       </c>
       <c r="F1170" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G1170" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="H1170">
+        <v>2</v>
+      </c>
+      <c r="I1170">
         <v>1</v>
-      </c>
-      <c r="I1170">
-        <v>0</v>
       </c>
       <c r="J1170" t="s">
         <v>55</v>
       </c>
       <c r="K1170">
-        <v>1.222</v>
+        <v>2.25</v>
       </c>
       <c r="L1170">
-        <v>6.5</v>
+        <v>3.2</v>
       </c>
       <c r="M1170">
-        <v>11</v>
+        <v>3.25</v>
       </c>
       <c r="N1170">
-        <v>1.2</v>
+        <v>2.15</v>
       </c>
       <c r="O1170">
-        <v>6.5</v>
+        <v>3.2</v>
       </c>
       <c r="P1170">
-        <v>15</v>
+        <v>3.5</v>
       </c>
       <c r="Q1170">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R1170">
-        <v>1.95</v>
+        <v>1.89</v>
       </c>
       <c r="S1170">
-        <v>1.98</v>
+        <v>2.04</v>
       </c>
       <c r="T1170">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U1170">
-        <v>2.02</v>
+        <v>1.86</v>
       </c>
       <c r="V1170">
-        <v>1.88</v>
+        <v>2.04</v>
       </c>
       <c r="W1170">
-        <v>0.2</v>
+        <v>1.15</v>
       </c>
       <c r="X1170">
         <v>-1</v>
@@ -104670,16 +104670,16 @@
         <v>-1</v>
       </c>
       <c r="Z1170">
-        <v>-1</v>
+        <v>0.8899999999999999</v>
       </c>
       <c r="AA1170">
-        <v>0.98</v>
+        <v>-1</v>
       </c>
       <c r="AB1170">
-        <v>-1</v>
+        <v>0.8600000000000001</v>
       </c>
       <c r="AC1170">
-        <v>0.8799999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1171" spans="1:29">
@@ -104687,7 +104687,7 @@
         <v>1169</v>
       </c>
       <c r="B1171">
-        <v>6809440</v>
+        <v>6809442</v>
       </c>
       <c r="C1171" t="s">
         <v>28</v>
@@ -104699,58 +104699,58 @@
         <v>45294.63541666666</v>
       </c>
       <c r="F1171" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G1171" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="H1171">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1171">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J1171" t="s">
         <v>55</v>
       </c>
       <c r="K1171">
-        <v>2.25</v>
+        <v>1.222</v>
       </c>
       <c r="L1171">
-        <v>3.2</v>
+        <v>6.5</v>
       </c>
       <c r="M1171">
-        <v>3.25</v>
+        <v>11</v>
       </c>
       <c r="N1171">
-        <v>2.15</v>
+        <v>1.2</v>
       </c>
       <c r="O1171">
-        <v>3.2</v>
+        <v>6.5</v>
       </c>
       <c r="P1171">
-        <v>3.5</v>
+        <v>15</v>
       </c>
       <c r="Q1171">
-        <v>-0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R1171">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="S1171">
-        <v>2.04</v>
+        <v>1.98</v>
       </c>
       <c r="T1171">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U1171">
-        <v>1.86</v>
+        <v>2.02</v>
       </c>
       <c r="V1171">
-        <v>2.04</v>
+        <v>1.88</v>
       </c>
       <c r="W1171">
-        <v>1.15</v>
+        <v>0.2</v>
       </c>
       <c r="X1171">
         <v>-1</v>
@@ -104759,16 +104759,16 @@
         <v>-1</v>
       </c>
       <c r="Z1171">
-        <v>0.8899999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA1171">
-        <v>-1</v>
+        <v>0.98</v>
       </c>
       <c r="AB1171">
-        <v>0.8600000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC1171">
-        <v>-1</v>
+        <v>0.8799999999999999</v>
       </c>
     </row>
     <row r="1172" spans="1:29">
@@ -106823,7 +106823,7 @@
         <v>1193</v>
       </c>
       <c r="B1195">
-        <v>7702913</v>
+        <v>7702914</v>
       </c>
       <c r="C1195" t="s">
         <v>28</v>
@@ -106832,49 +106832,49 @@
         <v>28</v>
       </c>
       <c r="E1195" s="2">
-        <v>45319.41666666666</v>
+        <v>45320.70833333334</v>
       </c>
       <c r="F1195" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G1195" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="K1195">
-        <v>2.875</v>
+        <v>1.833</v>
       </c>
       <c r="L1195">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M1195">
-        <v>2.375</v>
+        <v>4.333</v>
       </c>
       <c r="N1195">
-        <v>2.9</v>
+        <v>1.85</v>
       </c>
       <c r="O1195">
         <v>3.4</v>
       </c>
       <c r="P1195">
-        <v>2.45</v>
+        <v>4.5</v>
       </c>
       <c r="Q1195">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R1195">
-        <v>2.11</v>
+        <v>1.88</v>
       </c>
       <c r="S1195">
-        <v>1.82</v>
+        <v>2.02</v>
       </c>
       <c r="T1195">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U1195">
-        <v>1.93</v>
+        <v>2.07</v>
       </c>
       <c r="V1195">
-        <v>1.97</v>
+        <v>1.83</v>
       </c>
       <c r="W1195">
         <v>0</v>
@@ -106897,7 +106897,7 @@
         <v>1194</v>
       </c>
       <c r="B1196">
-        <v>7702916</v>
+        <v>6809300</v>
       </c>
       <c r="C1196" t="s">
         <v>28</v>
@@ -106906,49 +106906,49 @@
         <v>28</v>
       </c>
       <c r="E1196" s="2">
-        <v>45319.51041666666</v>
+        <v>45322.625</v>
       </c>
       <c r="F1196" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="G1196" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="K1196">
-        <v>4</v>
+        <v>1.285</v>
       </c>
       <c r="L1196">
-        <v>3.4</v>
+        <v>5.25</v>
       </c>
       <c r="M1196">
-        <v>1.909</v>
+        <v>12</v>
       </c>
       <c r="N1196">
+        <v>1.3</v>
+      </c>
+      <c r="O1196">
         <v>4.75</v>
       </c>
-      <c r="O1196">
-        <v>3.5</v>
-      </c>
       <c r="P1196">
-        <v>1.8</v>
+        <v>10</v>
       </c>
       <c r="Q1196">
-        <v>0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R1196">
-        <v>2.06</v>
+        <v>1.95</v>
       </c>
       <c r="S1196">
-        <v>1.87</v>
+        <v>1.95</v>
       </c>
       <c r="T1196">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U1196">
-        <v>2.01</v>
+        <v>1.83</v>
       </c>
       <c r="V1196">
-        <v>1.89</v>
+        <v>2.07</v>
       </c>
       <c r="W1196">
         <v>0</v>
@@ -106971,7 +106971,7 @@
         <v>1195</v>
       </c>
       <c r="B1197">
-        <v>7702918</v>
+        <v>6809445</v>
       </c>
       <c r="C1197" t="s">
         <v>28</v>
@@ -106980,49 +106980,49 @@
         <v>28</v>
       </c>
       <c r="E1197" s="2">
-        <v>45319.60416666666</v>
+        <v>45322.70833333334</v>
       </c>
       <c r="F1197" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="G1197" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="K1197">
-        <v>2.1</v>
+        <v>1.333</v>
       </c>
       <c r="L1197">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="M1197">
-        <v>3.4</v>
+        <v>8.5</v>
       </c>
       <c r="N1197">
-        <v>2.15</v>
+        <v>1.45</v>
       </c>
       <c r="O1197">
-        <v>3.3</v>
+        <v>4.333</v>
       </c>
       <c r="P1197">
-        <v>3.5</v>
+        <v>7</v>
       </c>
       <c r="Q1197">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R1197">
-        <v>1.88</v>
+        <v>2.04</v>
       </c>
       <c r="S1197">
-        <v>2.05</v>
+        <v>1.86</v>
       </c>
       <c r="T1197">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U1197">
-        <v>2.05</v>
+        <v>1.91</v>
       </c>
       <c r="V1197">
-        <v>1.85</v>
+        <v>1.99</v>
       </c>
       <c r="W1197">
         <v>0</v>
@@ -107045,7 +107045,7 @@
         <v>1196</v>
       </c>
       <c r="B1198">
-        <v>7702911</v>
+        <v>6809447</v>
       </c>
       <c r="C1198" t="s">
         <v>28</v>
@@ -107054,40 +107054,40 @@
         <v>28</v>
       </c>
       <c r="E1198" s="2">
-        <v>45319.70833333334</v>
+        <v>45323.70833333334</v>
       </c>
       <c r="F1198" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="G1198" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="K1198">
-        <v>1.533</v>
+        <v>5.75</v>
       </c>
       <c r="L1198">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="M1198">
-        <v>5.5</v>
+        <v>1.571</v>
       </c>
       <c r="N1198">
-        <v>1.533</v>
+        <v>6.5</v>
       </c>
       <c r="O1198">
         <v>4.2</v>
       </c>
       <c r="P1198">
-        <v>7</v>
+        <v>1.533</v>
       </c>
       <c r="Q1198">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="R1198">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="S1198">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="T1198">
         <v>2.5</v>
@@ -107119,7 +107119,7 @@
         <v>1197</v>
       </c>
       <c r="B1199">
-        <v>7702914</v>
+        <v>6809460</v>
       </c>
       <c r="C1199" t="s">
         <v>28</v>
@@ -107128,49 +107128,49 @@
         <v>28</v>
       </c>
       <c r="E1199" s="2">
-        <v>45320.70833333334</v>
+        <v>45324.70833333334</v>
       </c>
       <c r="F1199" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G1199" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="K1199">
-        <v>1.833</v>
+        <v>1.615</v>
       </c>
       <c r="L1199">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M1199">
-        <v>4.333</v>
+        <v>5.5</v>
       </c>
       <c r="N1199">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="O1199">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P1199">
-        <v>4.75</v>
+        <v>6.5</v>
       </c>
       <c r="Q1199">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R1199">
-        <v>1.84</v>
+        <v>1.95</v>
       </c>
       <c r="S1199">
-        <v>2.06</v>
+        <v>1.95</v>
       </c>
       <c r="T1199">
         <v>2.25</v>
       </c>
       <c r="U1199">
-        <v>2.06</v>
+        <v>1.95</v>
       </c>
       <c r="V1199">
-        <v>1.84</v>
+        <v>1.95</v>
       </c>
       <c r="W1199">
         <v>0</v>
@@ -107193,7 +107193,7 @@
         <v>1198</v>
       </c>
       <c r="B1200">
-        <v>6809300</v>
+        <v>6809316</v>
       </c>
       <c r="C1200" t="s">
         <v>28</v>
@@ -107202,43 +107202,43 @@
         <v>28</v>
       </c>
       <c r="E1200" s="2">
-        <v>45322.625</v>
+        <v>45325.41666666666</v>
       </c>
       <c r="F1200" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="G1200" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="K1200">
-        <v>1.285</v>
+        <v>1.666</v>
       </c>
       <c r="L1200">
+        <v>3.75</v>
+      </c>
+      <c r="M1200">
+        <v>5</v>
+      </c>
+      <c r="N1200">
+        <v>1.65</v>
+      </c>
+      <c r="O1200">
+        <v>3.8</v>
+      </c>
+      <c r="P1200">
         <v>5.25</v>
       </c>
-      <c r="M1200">
-        <v>12</v>
-      </c>
-      <c r="N1200">
-        <v>1.3</v>
-      </c>
-      <c r="O1200">
-        <v>5</v>
-      </c>
-      <c r="P1200">
-        <v>10</v>
-      </c>
       <c r="Q1200">
-        <v>-1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R1200">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="S1200">
-        <v>1.98</v>
+        <v>2.05</v>
       </c>
       <c r="T1200">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U1200">
         <v>1.95</v>
@@ -107267,7 +107267,7 @@
         <v>1199</v>
       </c>
       <c r="B1201">
-        <v>6809445</v>
+        <v>6809462</v>
       </c>
       <c r="C1201" t="s">
         <v>28</v>
@@ -107276,49 +107276,49 @@
         <v>28</v>
       </c>
       <c r="E1201" s="2">
-        <v>45322.70833333334</v>
+        <v>45325.51041666666</v>
       </c>
       <c r="F1201" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="G1201" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="K1201">
-        <v>1.333</v>
+        <v>2.375</v>
       </c>
       <c r="L1201">
-        <v>5</v>
+        <v>3.25</v>
       </c>
       <c r="M1201">
-        <v>8.5</v>
+        <v>3</v>
       </c>
       <c r="N1201">
-        <v>1.45</v>
+        <v>2.3</v>
       </c>
       <c r="O1201">
-        <v>4.333</v>
+        <v>3.2</v>
       </c>
       <c r="P1201">
-        <v>7</v>
+        <v>3.25</v>
       </c>
       <c r="Q1201">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R1201">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="S1201">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="T1201">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U1201">
-        <v>1.92</v>
+        <v>2.09</v>
       </c>
       <c r="V1201">
-        <v>1.98</v>
+        <v>1.81</v>
       </c>
       <c r="W1201">
         <v>0</v>
@@ -107341,7 +107341,7 @@
         <v>1200</v>
       </c>
       <c r="B1202">
-        <v>6809447</v>
+        <v>6809315</v>
       </c>
       <c r="C1202" t="s">
         <v>28</v>
@@ -107350,49 +107350,49 @@
         <v>28</v>
       </c>
       <c r="E1202" s="2">
-        <v>45323.70833333334</v>
+        <v>45325.60416666666</v>
       </c>
       <c r="F1202" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G1202" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="K1202">
-        <v>5.75</v>
+        <v>6</v>
       </c>
       <c r="L1202">
         <v>4</v>
       </c>
       <c r="M1202">
-        <v>1.571</v>
+        <v>1.533</v>
       </c>
       <c r="N1202">
-        <v>6.5</v>
+        <v>5.25</v>
       </c>
       <c r="O1202">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="P1202">
-        <v>1.533</v>
+        <v>1.65</v>
       </c>
       <c r="Q1202">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="R1202">
-        <v>1.95</v>
+        <v>2.02</v>
       </c>
       <c r="S1202">
-        <v>1.95</v>
+        <v>1.88</v>
       </c>
       <c r="T1202">
         <v>2.5</v>
       </c>
       <c r="U1202">
-        <v>1.98</v>
+        <v>1.89</v>
       </c>
       <c r="V1202">
-        <v>1.92</v>
+        <v>2.01</v>
       </c>
       <c r="W1202">
         <v>0</v>
@@ -107415,7 +107415,7 @@
         <v>1201</v>
       </c>
       <c r="B1203">
-        <v>6809460</v>
+        <v>6809313</v>
       </c>
       <c r="C1203" t="s">
         <v>28</v>
@@ -107424,49 +107424,49 @@
         <v>28</v>
       </c>
       <c r="E1203" s="2">
-        <v>45324.70833333334</v>
+        <v>45325.70833333334</v>
       </c>
       <c r="F1203" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="G1203" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="K1203">
-        <v>1.615</v>
+        <v>2.25</v>
       </c>
       <c r="L1203">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M1203">
-        <v>5.5</v>
+        <v>2.9</v>
       </c>
       <c r="N1203">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="O1203">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P1203">
-        <v>6.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q1203">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R1203">
-        <v>1.95</v>
+        <v>2.06</v>
       </c>
       <c r="S1203">
-        <v>1.95</v>
+        <v>1.84</v>
       </c>
       <c r="T1203">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U1203">
-        <v>1.95</v>
+        <v>1.97</v>
       </c>
       <c r="V1203">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="W1203">
         <v>0</v>
@@ -107489,7 +107489,7 @@
         <v>1202</v>
       </c>
       <c r="B1204">
-        <v>6809316</v>
+        <v>6809464</v>
       </c>
       <c r="C1204" t="s">
         <v>28</v>
@@ -107498,49 +107498,49 @@
         <v>28</v>
       </c>
       <c r="E1204" s="2">
-        <v>45325.41666666666</v>
+        <v>45326.41666666666</v>
       </c>
       <c r="F1204" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G1204" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="K1204">
-        <v>1.666</v>
+        <v>1.8</v>
       </c>
       <c r="L1204">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M1204">
-        <v>5</v>
+        <v>4.333</v>
       </c>
       <c r="N1204">
-        <v>1.65</v>
+        <v>1.571</v>
       </c>
       <c r="O1204">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P1204">
-        <v>5.25</v>
+        <v>6</v>
       </c>
       <c r="Q1204">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R1204">
-        <v>1.85</v>
+        <v>2.04</v>
       </c>
       <c r="S1204">
-        <v>2.05</v>
+        <v>1.86</v>
       </c>
       <c r="T1204">
         <v>2.5</v>
       </c>
       <c r="U1204">
-        <v>1.95</v>
+        <v>1.88</v>
       </c>
       <c r="V1204">
-        <v>1.95</v>
+        <v>2.02</v>
       </c>
       <c r="W1204">
         <v>0</v>
@@ -107563,7 +107563,7 @@
         <v>1203</v>
       </c>
       <c r="B1205">
-        <v>6809462</v>
+        <v>6809317</v>
       </c>
       <c r="C1205" t="s">
         <v>28</v>
@@ -107572,49 +107572,49 @@
         <v>28</v>
       </c>
       <c r="E1205" s="2">
-        <v>45325.51041666666</v>
+        <v>45326.51041666666</v>
       </c>
       <c r="F1205" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G1205" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="K1205">
-        <v>2.375</v>
+        <v>2.3</v>
       </c>
       <c r="L1205">
         <v>3.25</v>
       </c>
       <c r="M1205">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="N1205">
-        <v>2.3</v>
+        <v>2.375</v>
       </c>
       <c r="O1205">
+        <v>3.1</v>
+      </c>
+      <c r="P1205">
         <v>3.2</v>
-      </c>
-      <c r="P1205">
-        <v>3.25</v>
       </c>
       <c r="Q1205">
         <v>-0.25</v>
       </c>
       <c r="R1205">
-        <v>1.99</v>
+        <v>2.05</v>
       </c>
       <c r="S1205">
-        <v>1.91</v>
+        <v>1.85</v>
       </c>
       <c r="T1205">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U1205">
-        <v>2.09</v>
+        <v>1.87</v>
       </c>
       <c r="V1205">
-        <v>1.81</v>
+        <v>2.03</v>
       </c>
       <c r="W1205">
         <v>0</v>
@@ -107637,7 +107637,7 @@
         <v>1204</v>
       </c>
       <c r="B1206">
-        <v>6809315</v>
+        <v>6809461</v>
       </c>
       <c r="C1206" t="s">
         <v>28</v>
@@ -107646,49 +107646,49 @@
         <v>28</v>
       </c>
       <c r="E1206" s="2">
-        <v>45325.60416666666</v>
+        <v>45326.60416666666</v>
       </c>
       <c r="F1206" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G1206" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="K1206">
-        <v>6</v>
+        <v>1.833</v>
       </c>
       <c r="L1206">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M1206">
-        <v>1.533</v>
+        <v>4.5</v>
       </c>
       <c r="N1206">
-        <v>5.25</v>
+        <v>1.85</v>
       </c>
       <c r="O1206">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P1206">
-        <v>1.65</v>
+        <v>4.333</v>
       </c>
       <c r="Q1206">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R1206">
-        <v>2.02</v>
+        <v>1.95</v>
       </c>
       <c r="S1206">
-        <v>1.88</v>
+        <v>1.95</v>
       </c>
       <c r="T1206">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U1206">
-        <v>1.89</v>
+        <v>2.07</v>
       </c>
       <c r="V1206">
-        <v>2.01</v>
+        <v>1.83</v>
       </c>
       <c r="W1206">
         <v>0</v>
@@ -107711,7 +107711,7 @@
         <v>1205</v>
       </c>
       <c r="B1207">
-        <v>6809313</v>
+        <v>6809463</v>
       </c>
       <c r="C1207" t="s">
         <v>28</v>
@@ -107720,49 +107720,49 @@
         <v>28</v>
       </c>
       <c r="E1207" s="2">
-        <v>45325.70833333334</v>
+        <v>45326.70833333334</v>
       </c>
       <c r="F1207" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="G1207" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="K1207">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="L1207">
         <v>3.6</v>
       </c>
       <c r="M1207">
-        <v>2.9</v>
+        <v>4.333</v>
       </c>
       <c r="N1207">
-        <v>2.05</v>
+        <v>1.7</v>
       </c>
       <c r="O1207">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P1207">
-        <v>3.3</v>
+        <v>4.75</v>
       </c>
       <c r="Q1207">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R1207">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="S1207">
-        <v>2.08</v>
+        <v>1.98</v>
       </c>
       <c r="T1207">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U1207">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="V1207">
-        <v>1.9</v>
+        <v>2.02</v>
       </c>
       <c r="W1207">
         <v>0</v>
@@ -107777,302 +107777,6 @@
         <v>0</v>
       </c>
       <c r="AA1207">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1208" spans="1:27">
-      <c r="A1208" s="1">
-        <v>1206</v>
-      </c>
-      <c r="B1208">
-        <v>6809464</v>
-      </c>
-      <c r="C1208" t="s">
-        <v>28</v>
-      </c>
-      <c r="D1208" t="s">
-        <v>28</v>
-      </c>
-      <c r="E1208" s="2">
-        <v>45326.41666666666</v>
-      </c>
-      <c r="F1208" t="s">
-        <v>29</v>
-      </c>
-      <c r="G1208" t="s">
-        <v>44</v>
-      </c>
-      <c r="K1208">
-        <v>1.8</v>
-      </c>
-      <c r="L1208">
-        <v>3.6</v>
-      </c>
-      <c r="M1208">
-        <v>4.333</v>
-      </c>
-      <c r="N1208">
-        <v>1.6</v>
-      </c>
-      <c r="O1208">
-        <v>3.8</v>
-      </c>
-      <c r="P1208">
-        <v>5.75</v>
-      </c>
-      <c r="Q1208">
-        <v>-1</v>
-      </c>
-      <c r="R1208">
-        <v>2.05</v>
-      </c>
-      <c r="S1208">
-        <v>1.85</v>
-      </c>
-      <c r="T1208">
-        <v>2.5</v>
-      </c>
-      <c r="U1208">
-        <v>1.9</v>
-      </c>
-      <c r="V1208">
-        <v>2</v>
-      </c>
-      <c r="W1208">
-        <v>0</v>
-      </c>
-      <c r="X1208">
-        <v>0</v>
-      </c>
-      <c r="Y1208">
-        <v>0</v>
-      </c>
-      <c r="Z1208">
-        <v>0</v>
-      </c>
-      <c r="AA1208">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1209" spans="1:27">
-      <c r="A1209" s="1">
-        <v>1207</v>
-      </c>
-      <c r="B1209">
-        <v>6809317</v>
-      </c>
-      <c r="C1209" t="s">
-        <v>28</v>
-      </c>
-      <c r="D1209" t="s">
-        <v>28</v>
-      </c>
-      <c r="E1209" s="2">
-        <v>45326.51041666666</v>
-      </c>
-      <c r="F1209" t="s">
-        <v>42</v>
-      </c>
-      <c r="G1209" t="s">
-        <v>39</v>
-      </c>
-      <c r="K1209">
-        <v>2.3</v>
-      </c>
-      <c r="L1209">
-        <v>3.25</v>
-      </c>
-      <c r="M1209">
-        <v>3.1</v>
-      </c>
-      <c r="N1209">
-        <v>2.375</v>
-      </c>
-      <c r="O1209">
-        <v>3.1</v>
-      </c>
-      <c r="P1209">
-        <v>3.2</v>
-      </c>
-      <c r="Q1209">
-        <v>-0.25</v>
-      </c>
-      <c r="R1209">
-        <v>2.07</v>
-      </c>
-      <c r="S1209">
-        <v>1.83</v>
-      </c>
-      <c r="T1209">
-        <v>2</v>
-      </c>
-      <c r="U1209">
-        <v>1.88</v>
-      </c>
-      <c r="V1209">
-        <v>2.02</v>
-      </c>
-      <c r="W1209">
-        <v>0</v>
-      </c>
-      <c r="X1209">
-        <v>0</v>
-      </c>
-      <c r="Y1209">
-        <v>0</v>
-      </c>
-      <c r="Z1209">
-        <v>0</v>
-      </c>
-      <c r="AA1209">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1210" spans="1:27">
-      <c r="A1210" s="1">
-        <v>1208</v>
-      </c>
-      <c r="B1210">
-        <v>6809461</v>
-      </c>
-      <c r="C1210" t="s">
-        <v>28</v>
-      </c>
-      <c r="D1210" t="s">
-        <v>28</v>
-      </c>
-      <c r="E1210" s="2">
-        <v>45326.60416666666</v>
-      </c>
-      <c r="F1210" t="s">
-        <v>30</v>
-      </c>
-      <c r="G1210" t="s">
-        <v>31</v>
-      </c>
-      <c r="K1210">
-        <v>1.833</v>
-      </c>
-      <c r="L1210">
-        <v>3.4</v>
-      </c>
-      <c r="M1210">
-        <v>4.5</v>
-      </c>
-      <c r="N1210">
-        <v>1.85</v>
-      </c>
-      <c r="O1210">
-        <v>3.4</v>
-      </c>
-      <c r="P1210">
-        <v>4.333</v>
-      </c>
-      <c r="Q1210">
-        <v>-0.5</v>
-      </c>
-      <c r="R1210">
-        <v>1.95</v>
-      </c>
-      <c r="S1210">
-        <v>1.95</v>
-      </c>
-      <c r="T1210">
-        <v>2.25</v>
-      </c>
-      <c r="U1210">
-        <v>2.07</v>
-      </c>
-      <c r="V1210">
-        <v>1.83</v>
-      </c>
-      <c r="W1210">
-        <v>0</v>
-      </c>
-      <c r="X1210">
-        <v>0</v>
-      </c>
-      <c r="Y1210">
-        <v>0</v>
-      </c>
-      <c r="Z1210">
-        <v>0</v>
-      </c>
-      <c r="AA1210">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1211" spans="1:27">
-      <c r="A1211" s="1">
-        <v>1209</v>
-      </c>
-      <c r="B1211">
-        <v>6809463</v>
-      </c>
-      <c r="C1211" t="s">
-        <v>28</v>
-      </c>
-      <c r="D1211" t="s">
-        <v>28</v>
-      </c>
-      <c r="E1211" s="2">
-        <v>45326.70833333334</v>
-      </c>
-      <c r="F1211" t="s">
-        <v>32</v>
-      </c>
-      <c r="G1211" t="s">
-        <v>47</v>
-      </c>
-      <c r="K1211">
-        <v>1.8</v>
-      </c>
-      <c r="L1211">
-        <v>3.6</v>
-      </c>
-      <c r="M1211">
-        <v>4.333</v>
-      </c>
-      <c r="N1211">
-        <v>1.7</v>
-      </c>
-      <c r="O1211">
-        <v>3.75</v>
-      </c>
-      <c r="P1211">
-        <v>4.75</v>
-      </c>
-      <c r="Q1211">
-        <v>-0.75</v>
-      </c>
-      <c r="R1211">
-        <v>1.92</v>
-      </c>
-      <c r="S1211">
-        <v>1.98</v>
-      </c>
-      <c r="T1211">
-        <v>2.75</v>
-      </c>
-      <c r="U1211">
-        <v>1.88</v>
-      </c>
-      <c r="V1211">
-        <v>2.02</v>
-      </c>
-      <c r="W1211">
-        <v>0</v>
-      </c>
-      <c r="X1211">
-        <v>0</v>
-      </c>
-      <c r="Y1211">
-        <v>0</v>
-      </c>
-      <c r="Z1211">
-        <v>0</v>
-      </c>
-      <c r="AA1211">
         <v>0</v>
       </c>
     </row>

--- a/Spain Primera Liga/Spain Primera Liga.xlsx
+++ b/Spain Primera Liga/Spain Primera Liga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6080" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6084" uniqueCount="58">
   <si>
     <t>id</t>
   </si>
@@ -549,7 +549,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC1214"/>
+  <dimension ref="A1:AC1215"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -20760,7 +20760,7 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>3718849</v>
+        <v>3718900</v>
       </c>
       <c r="C228" t="s">
         <v>28</v>
@@ -20772,10 +20772,10 @@
         <v>44422.60416666666</v>
       </c>
       <c r="F228" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="G228" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="H228">
         <v>1</v>
@@ -20787,31 +20787,31 @@
         <v>56</v>
       </c>
       <c r="K228">
-        <v>2.75</v>
+        <v>3.1</v>
       </c>
       <c r="L228">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M228">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="N228">
-        <v>3.3</v>
+        <v>2.45</v>
       </c>
       <c r="O228">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="P228">
-        <v>2.2</v>
+        <v>3.1</v>
       </c>
       <c r="Q228">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R228">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="S228">
-        <v>2.02</v>
+        <v>2.125</v>
       </c>
       <c r="T228">
         <v>2.25</v>
@@ -20820,28 +20820,28 @@
         <v>2.05</v>
       </c>
       <c r="V228">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="W228">
         <v>-1</v>
       </c>
       <c r="X228">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="Y228">
         <v>-1</v>
       </c>
       <c r="Z228">
-        <v>0.4399999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA228">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB228">
         <v>-0.5</v>
       </c>
       <c r="AC228">
-        <v>0.425</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="229" spans="1:29">
@@ -20849,7 +20849,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>3718900</v>
+        <v>3718849</v>
       </c>
       <c r="C229" t="s">
         <v>28</v>
@@ -20861,10 +20861,10 @@
         <v>44422.60416666666</v>
       </c>
       <c r="F229" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="G229" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="H229">
         <v>1</v>
@@ -20876,31 +20876,31 @@
         <v>56</v>
       </c>
       <c r="K229">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="L229">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M229">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="N229">
-        <v>2.45</v>
+        <v>3.3</v>
       </c>
       <c r="O229">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="P229">
-        <v>3.1</v>
+        <v>2.2</v>
       </c>
       <c r="Q229">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R229">
-        <v>1.78</v>
+        <v>1.88</v>
       </c>
       <c r="S229">
-        <v>2.125</v>
+        <v>2.02</v>
       </c>
       <c r="T229">
         <v>2.25</v>
@@ -20909,28 +20909,28 @@
         <v>2.05</v>
       </c>
       <c r="V229">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="W229">
         <v>-1</v>
       </c>
       <c r="X229">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="Y229">
         <v>-1</v>
       </c>
       <c r="Z229">
-        <v>0</v>
+        <v>0.4399999999999999</v>
       </c>
       <c r="AA229">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB229">
         <v>-0.5</v>
       </c>
       <c r="AC229">
-        <v>0.375</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="230" spans="1:29">
@@ -38204,7 +38204,7 @@
         <v>422</v>
       </c>
       <c r="B424">
-        <v>3713748</v>
+        <v>3713746</v>
       </c>
       <c r="C424" t="s">
         <v>28</v>
@@ -38216,76 +38216,76 @@
         <v>44570.60416666666</v>
       </c>
       <c r="F424" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="G424" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="H424">
+        <v>0</v>
+      </c>
+      <c r="I424">
+        <v>0</v>
+      </c>
+      <c r="J424" t="s">
+        <v>56</v>
+      </c>
+      <c r="K424">
+        <v>3.2</v>
+      </c>
+      <c r="L424">
+        <v>3.1</v>
+      </c>
+      <c r="M424">
+        <v>2.3</v>
+      </c>
+      <c r="N424">
+        <v>4</v>
+      </c>
+      <c r="O424">
+        <v>3.25</v>
+      </c>
+      <c r="P424">
         <v>2</v>
       </c>
-      <c r="I424">
-        <v>0</v>
-      </c>
-      <c r="J424" t="s">
-        <v>55</v>
-      </c>
-      <c r="K424">
-        <v>1.666</v>
-      </c>
-      <c r="L424">
-        <v>3.4</v>
-      </c>
-      <c r="M424">
-        <v>6</v>
-      </c>
-      <c r="N424">
-        <v>1.6</v>
-      </c>
-      <c r="O424">
-        <v>3.6</v>
-      </c>
-      <c r="P424">
-        <v>6.5</v>
-      </c>
       <c r="Q424">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="R424">
-        <v>2.09</v>
+        <v>1.84</v>
       </c>
       <c r="S424">
-        <v>1.81</v>
+        <v>2.06</v>
       </c>
       <c r="T424">
         <v>2.25</v>
       </c>
       <c r="U424">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="V424">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="W424">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X424">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y424">
         <v>-1</v>
       </c>
       <c r="Z424">
-        <v>1.09</v>
+        <v>0.8400000000000001</v>
       </c>
       <c r="AA424">
         <v>-1</v>
       </c>
       <c r="AB424">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC424">
-        <v>0.4350000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="425" spans="1:29">
@@ -38293,7 +38293,7 @@
         <v>423</v>
       </c>
       <c r="B425">
-        <v>3713746</v>
+        <v>3713748</v>
       </c>
       <c r="C425" t="s">
         <v>28</v>
@@ -38305,76 +38305,76 @@
         <v>44570.60416666666</v>
       </c>
       <c r="F425" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="G425" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="H425">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I425">
         <v>0</v>
       </c>
       <c r="J425" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K425">
-        <v>3.2</v>
+        <v>1.666</v>
       </c>
       <c r="L425">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M425">
-        <v>2.3</v>
+        <v>6</v>
       </c>
       <c r="N425">
-        <v>4</v>
+        <v>1.6</v>
       </c>
       <c r="O425">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="P425">
-        <v>2</v>
+        <v>6.5</v>
       </c>
       <c r="Q425">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="R425">
-        <v>1.84</v>
+        <v>2.09</v>
       </c>
       <c r="S425">
-        <v>2.06</v>
+        <v>1.81</v>
       </c>
       <c r="T425">
         <v>2.25</v>
       </c>
       <c r="U425">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="V425">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="W425">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X425">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y425">
         <v>-1</v>
       </c>
       <c r="Z425">
-        <v>0.8400000000000001</v>
+        <v>1.09</v>
       </c>
       <c r="AA425">
         <v>-1</v>
       </c>
       <c r="AB425">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC425">
-        <v>0.8999999999999999</v>
+        <v>0.4350000000000001</v>
       </c>
     </row>
     <row r="426" spans="1:29">
@@ -52088,7 +52088,7 @@
         <v>578</v>
       </c>
       <c r="B580">
-        <v>4102121</v>
+        <v>4097364</v>
       </c>
       <c r="C580" t="s">
         <v>28</v>
@@ -52100,76 +52100,76 @@
         <v>44692.58333333334</v>
       </c>
       <c r="F580" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="G580" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="H580">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I580">
         <v>1</v>
       </c>
       <c r="J580" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K580">
+        <v>2.375</v>
+      </c>
+      <c r="L580">
+        <v>3</v>
+      </c>
+      <c r="M580">
+        <v>3.4</v>
+      </c>
+      <c r="N580">
+        <v>2.45</v>
+      </c>
+      <c r="O580">
+        <v>2.8</v>
+      </c>
+      <c r="P580">
+        <v>3.4</v>
+      </c>
+      <c r="Q580">
+        <v>0</v>
+      </c>
+      <c r="R580">
+        <v>1.85</v>
+      </c>
+      <c r="S580">
         <v>2.05</v>
       </c>
-      <c r="L580">
-        <v>3.4</v>
-      </c>
-      <c r="M580">
-        <v>3.75</v>
-      </c>
-      <c r="N580">
-        <v>2.2</v>
-      </c>
-      <c r="O580">
-        <v>3.5</v>
-      </c>
-      <c r="P580">
-        <v>3.1</v>
-      </c>
-      <c r="Q580">
-        <v>-0.25</v>
-      </c>
-      <c r="R580">
-        <v>1.97</v>
-      </c>
-      <c r="S580">
-        <v>1.93</v>
-      </c>
       <c r="T580">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U580">
-        <v>1.82</v>
+        <v>2.125</v>
       </c>
       <c r="V580">
-        <v>2.08</v>
+        <v>1.78</v>
       </c>
       <c r="W580">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X580">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Y580">
         <v>-1</v>
       </c>
       <c r="Z580">
-        <v>0.97</v>
+        <v>0</v>
       </c>
       <c r="AA580">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB580">
-        <v>0.8200000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC580">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="581" spans="1:29">
@@ -52177,7 +52177,7 @@
         <v>579</v>
       </c>
       <c r="B581">
-        <v>4097364</v>
+        <v>4102121</v>
       </c>
       <c r="C581" t="s">
         <v>28</v>
@@ -52189,76 +52189,76 @@
         <v>44692.58333333334</v>
       </c>
       <c r="F581" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="G581" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="H581">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I581">
         <v>1</v>
       </c>
       <c r="J581" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K581">
-        <v>2.375</v>
+        <v>2.05</v>
       </c>
       <c r="L581">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="M581">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="N581">
-        <v>2.45</v>
+        <v>2.2</v>
       </c>
       <c r="O581">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="P581">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="Q581">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R581">
-        <v>1.85</v>
+        <v>1.97</v>
       </c>
       <c r="S581">
-        <v>2.05</v>
+        <v>1.93</v>
       </c>
       <c r="T581">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U581">
-        <v>2.125</v>
+        <v>1.82</v>
       </c>
       <c r="V581">
-        <v>1.78</v>
+        <v>2.08</v>
       </c>
       <c r="W581">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X581">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Y581">
         <v>-1</v>
       </c>
       <c r="Z581">
-        <v>0</v>
+        <v>0.97</v>
       </c>
       <c r="AA581">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB581">
-        <v>0</v>
+        <v>0.8200000000000001</v>
       </c>
       <c r="AC581">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="582" spans="1:29">
@@ -53601,7 +53601,7 @@
         <v>595</v>
       </c>
       <c r="B597">
-        <v>4145032</v>
+        <v>4250294</v>
       </c>
       <c r="C597" t="s">
         <v>28</v>
@@ -53613,76 +53613,76 @@
         <v>44701.66666666666</v>
       </c>
       <c r="F597" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="G597" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="H597">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I597">
+        <v>0</v>
+      </c>
+      <c r="J597" t="s">
+        <v>56</v>
+      </c>
+      <c r="K597">
+        <v>1.615</v>
+      </c>
+      <c r="L597">
+        <v>4.5</v>
+      </c>
+      <c r="M597">
+        <v>4.75</v>
+      </c>
+      <c r="N597">
+        <v>1.5</v>
+      </c>
+      <c r="O597">
+        <v>5</v>
+      </c>
+      <c r="P597">
+        <v>5.5</v>
+      </c>
+      <c r="Q597">
+        <v>-1.25</v>
+      </c>
+      <c r="R597">
+        <v>2.07</v>
+      </c>
+      <c r="S597">
+        <v>1.83</v>
+      </c>
+      <c r="T597">
+        <v>3.5</v>
+      </c>
+      <c r="U597">
+        <v>1.92</v>
+      </c>
+      <c r="V597">
+        <v>1.98</v>
+      </c>
+      <c r="W597">
+        <v>-1</v>
+      </c>
+      <c r="X597">
         <v>4</v>
       </c>
-      <c r="J597" t="s">
-        <v>57</v>
-      </c>
-      <c r="K597">
-        <v>2.2</v>
-      </c>
-      <c r="L597">
-        <v>3.6</v>
-      </c>
-      <c r="M597">
-        <v>3.1</v>
-      </c>
-      <c r="N597">
-        <v>1.75</v>
-      </c>
-      <c r="O597">
-        <v>4</v>
-      </c>
-      <c r="P597">
-        <v>4.2</v>
-      </c>
-      <c r="Q597">
-        <v>-0.75</v>
-      </c>
-      <c r="R597">
-        <v>2.03</v>
-      </c>
-      <c r="S597">
-        <v>1.87</v>
-      </c>
-      <c r="T597">
-        <v>3</v>
-      </c>
-      <c r="U597">
-        <v>1.9</v>
-      </c>
-      <c r="V597">
-        <v>2</v>
-      </c>
-      <c r="W597">
-        <v>-1</v>
-      </c>
-      <c r="X597">
-        <v>-1</v>
-      </c>
       <c r="Y597">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z597">
         <v>-1</v>
       </c>
       <c r="AA597">
-        <v>0.8700000000000001</v>
+        <v>0.8300000000000001</v>
       </c>
       <c r="AB597">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC597">
-        <v>-1</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="598" spans="1:29">
@@ -53690,7 +53690,7 @@
         <v>596</v>
       </c>
       <c r="B598">
-        <v>4250294</v>
+        <v>4145032</v>
       </c>
       <c r="C598" t="s">
         <v>28</v>
@@ -53702,76 +53702,76 @@
         <v>44701.66666666666</v>
       </c>
       <c r="F598" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="G598" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="H598">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I598">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J598" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K598">
-        <v>1.615</v>
+        <v>2.2</v>
       </c>
       <c r="L598">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="M598">
-        <v>4.75</v>
+        <v>3.1</v>
       </c>
       <c r="N598">
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
       <c r="O598">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P598">
-        <v>5.5</v>
+        <v>4.2</v>
       </c>
       <c r="Q598">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R598">
-        <v>2.07</v>
+        <v>2.03</v>
       </c>
       <c r="S598">
-        <v>1.83</v>
+        <v>1.87</v>
       </c>
       <c r="T598">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U598">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="V598">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="W598">
         <v>-1</v>
       </c>
       <c r="X598">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Y598">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z598">
         <v>-1</v>
       </c>
       <c r="AA598">
-        <v>0.8300000000000001</v>
+        <v>0.8700000000000001</v>
       </c>
       <c r="AB598">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC598">
-        <v>0.98</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="599" spans="1:29">
@@ -54224,7 +54224,7 @@
         <v>602</v>
       </c>
       <c r="B604">
-        <v>4245956</v>
+        <v>4123824</v>
       </c>
       <c r="C604" t="s">
         <v>28</v>
@@ -54236,76 +54236,76 @@
         <v>44703.70833333334</v>
       </c>
       <c r="F604" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="G604" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H604">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I604">
+        <v>0</v>
+      </c>
+      <c r="J604" t="s">
+        <v>55</v>
+      </c>
+      <c r="K604">
+        <v>2.3</v>
+      </c>
+      <c r="L604">
+        <v>3.5</v>
+      </c>
+      <c r="M604">
+        <v>3</v>
+      </c>
+      <c r="N604">
+        <v>2.8</v>
+      </c>
+      <c r="O604">
+        <v>3.1</v>
+      </c>
+      <c r="P604">
+        <v>2.7</v>
+      </c>
+      <c r="Q604">
+        <v>0</v>
+      </c>
+      <c r="R604">
         <v>2</v>
       </c>
-      <c r="J604" t="s">
-        <v>57</v>
-      </c>
-      <c r="K604">
-        <v>2.4</v>
-      </c>
-      <c r="L604">
-        <v>3.6</v>
-      </c>
-      <c r="M604">
-        <v>2.75</v>
-      </c>
-      <c r="N604">
-        <v>1.909</v>
-      </c>
-      <c r="O604">
-        <v>4</v>
-      </c>
-      <c r="P604">
-        <v>3.5</v>
-      </c>
-      <c r="Q604">
-        <v>-0.5</v>
-      </c>
-      <c r="R604">
-        <v>1.97</v>
-      </c>
       <c r="S604">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="T604">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U604">
-        <v>1.89</v>
+        <v>1.98</v>
       </c>
       <c r="V604">
-        <v>2.01</v>
+        <v>1.92</v>
       </c>
       <c r="W604">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="X604">
         <v>-1</v>
       </c>
       <c r="Y604">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z604">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA604">
-        <v>0.9299999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB604">
         <v>-1</v>
       </c>
       <c r="AC604">
-        <v>1.01</v>
+        <v>0.9199999999999999</v>
       </c>
     </row>
     <row r="605" spans="1:29">
@@ -54313,7 +54313,7 @@
         <v>603</v>
       </c>
       <c r="B605">
-        <v>4252736</v>
+        <v>4245956</v>
       </c>
       <c r="C605" t="s">
         <v>28</v>
@@ -54325,13 +54325,13 @@
         <v>44703.70833333334</v>
       </c>
       <c r="F605" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="G605" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="H605">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I605">
         <v>2</v>
@@ -54343,37 +54343,37 @@
         <v>2.4</v>
       </c>
       <c r="L605">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M605">
+        <v>2.75</v>
+      </c>
+      <c r="N605">
+        <v>1.909</v>
+      </c>
+      <c r="O605">
+        <v>4</v>
+      </c>
+      <c r="P605">
+        <v>3.5</v>
+      </c>
+      <c r="Q605">
+        <v>-0.5</v>
+      </c>
+      <c r="R605">
+        <v>1.97</v>
+      </c>
+      <c r="S605">
+        <v>1.93</v>
+      </c>
+      <c r="T605">
         <v>3</v>
       </c>
-      <c r="N605">
-        <v>2.7</v>
-      </c>
-      <c r="O605">
-        <v>3.1</v>
-      </c>
-      <c r="P605">
-        <v>2.8</v>
-      </c>
-      <c r="Q605">
-        <v>0</v>
-      </c>
-      <c r="R605">
-        <v>1.91</v>
-      </c>
-      <c r="S605">
-        <v>1.99</v>
-      </c>
-      <c r="T605">
-        <v>2.25</v>
-      </c>
       <c r="U605">
-        <v>2.02</v>
+        <v>1.89</v>
       </c>
       <c r="V605">
-        <v>1.88</v>
+        <v>2.01</v>
       </c>
       <c r="W605">
         <v>-1</v>
@@ -54382,19 +54382,19 @@
         <v>-1</v>
       </c>
       <c r="Y605">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="Z605">
         <v>-1</v>
       </c>
       <c r="AA605">
-        <v>0.99</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="AB605">
-        <v>1.02</v>
+        <v>-1</v>
       </c>
       <c r="AC605">
-        <v>-1</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="606" spans="1:29">
@@ -54402,7 +54402,7 @@
         <v>604</v>
       </c>
       <c r="B606">
-        <v>4123824</v>
+        <v>4252736</v>
       </c>
       <c r="C606" t="s">
         <v>28</v>
@@ -54414,76 +54414,76 @@
         <v>44703.70833333334</v>
       </c>
       <c r="F606" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G606" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="H606">
         <v>1</v>
       </c>
       <c r="I606">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J606" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K606">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="L606">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M606">
         <v>3</v>
       </c>
       <c r="N606">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="O606">
         <v>3.1</v>
       </c>
       <c r="P606">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="Q606">
         <v>0</v>
       </c>
       <c r="R606">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="S606">
-        <v>1.9</v>
+        <v>1.99</v>
       </c>
       <c r="T606">
         <v>2.25</v>
       </c>
       <c r="U606">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="V606">
-        <v>1.92</v>
+        <v>1.88</v>
       </c>
       <c r="W606">
+        <v>-1</v>
+      </c>
+      <c r="X606">
+        <v>-1</v>
+      </c>
+      <c r="Y606">
         <v>1.8</v>
       </c>
-      <c r="X606">
-        <v>-1</v>
-      </c>
-      <c r="Y606">
-        <v>-1</v>
-      </c>
       <c r="Z606">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA606">
-        <v>-1</v>
+        <v>0.99</v>
       </c>
       <c r="AB606">
-        <v>-1</v>
+        <v>1.02</v>
       </c>
       <c r="AC606">
-        <v>0.9199999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="607" spans="1:29">
@@ -67663,7 +67663,7 @@
         <v>753</v>
       </c>
       <c r="B755">
-        <v>5934420</v>
+        <v>5934429</v>
       </c>
       <c r="C755" t="s">
         <v>28</v>
@@ -67675,58 +67675,58 @@
         <v>44926.51041666666</v>
       </c>
       <c r="F755" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G755" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H755">
         <v>2</v>
       </c>
       <c r="I755">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J755" t="s">
         <v>55</v>
       </c>
       <c r="K755">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="L755">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M755">
-        <v>4.333</v>
+        <v>3.8</v>
       </c>
       <c r="N755">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="O755">
         <v>3.3</v>
       </c>
       <c r="P755">
-        <v>4.333</v>
+        <v>3.8</v>
       </c>
       <c r="Q755">
         <v>-0.5</v>
       </c>
       <c r="R755">
-        <v>1.92</v>
+        <v>2.03</v>
       </c>
       <c r="S755">
-        <v>1.98</v>
+        <v>1.87</v>
       </c>
       <c r="T755">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U755">
-        <v>1.86</v>
+        <v>1.95</v>
       </c>
       <c r="V755">
-        <v>2.04</v>
+        <v>1.95</v>
       </c>
       <c r="W755">
-        <v>0.909</v>
+        <v>1</v>
       </c>
       <c r="X755">
         <v>-1</v>
@@ -67735,16 +67735,16 @@
         <v>-1</v>
       </c>
       <c r="Z755">
-        <v>0.9199999999999999</v>
+        <v>1.03</v>
       </c>
       <c r="AA755">
         <v>-1</v>
       </c>
       <c r="AB755">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AC755">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="756" spans="1:29">
@@ -67752,7 +67752,7 @@
         <v>754</v>
       </c>
       <c r="B756">
-        <v>5934429</v>
+        <v>5934420</v>
       </c>
       <c r="C756" t="s">
         <v>28</v>
@@ -67764,58 +67764,58 @@
         <v>44926.51041666666</v>
       </c>
       <c r="F756" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G756" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H756">
         <v>2</v>
       </c>
       <c r="I756">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J756" t="s">
         <v>55</v>
       </c>
       <c r="K756">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="L756">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M756">
-        <v>3.8</v>
+        <v>4.333</v>
       </c>
       <c r="N756">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="O756">
         <v>3.3</v>
       </c>
       <c r="P756">
-        <v>3.8</v>
+        <v>4.333</v>
       </c>
       <c r="Q756">
         <v>-0.5</v>
       </c>
       <c r="R756">
-        <v>2.03</v>
+        <v>1.92</v>
       </c>
       <c r="S756">
-        <v>1.87</v>
+        <v>1.98</v>
       </c>
       <c r="T756">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U756">
-        <v>1.95</v>
+        <v>1.86</v>
       </c>
       <c r="V756">
-        <v>1.95</v>
+        <v>2.04</v>
       </c>
       <c r="W756">
-        <v>1</v>
+        <v>0.909</v>
       </c>
       <c r="X756">
         <v>-1</v>
@@ -67824,16 +67824,16 @@
         <v>-1</v>
       </c>
       <c r="Z756">
-        <v>1.03</v>
+        <v>0.9199999999999999</v>
       </c>
       <c r="AA756">
         <v>-1</v>
       </c>
       <c r="AB756">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AC756">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="757" spans="1:29">
@@ -81636,7 +81636,7 @@
         <v>910</v>
       </c>
       <c r="B912">
-        <v>5466353</v>
+        <v>5467507</v>
       </c>
       <c r="C912" t="s">
         <v>28</v>
@@ -81648,58 +81648,58 @@
         <v>45042.70833333334</v>
       </c>
       <c r="F912" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="G912" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H912">
+        <v>2</v>
+      </c>
+      <c r="I912">
         <v>1</v>
-      </c>
-      <c r="I912">
-        <v>0</v>
       </c>
       <c r="J912" t="s">
         <v>55</v>
       </c>
       <c r="K912">
-        <v>1.4</v>
+        <v>4.5</v>
       </c>
       <c r="L912">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="M912">
-        <v>7.5</v>
+        <v>1.7</v>
       </c>
       <c r="N912">
-        <v>1.363</v>
+        <v>5</v>
       </c>
       <c r="O912">
-        <v>5</v>
+        <v>3.8</v>
       </c>
       <c r="P912">
-        <v>8</v>
+        <v>1.7</v>
       </c>
       <c r="Q912">
-        <v>-1.25</v>
+        <v>0.75</v>
       </c>
       <c r="R912">
-        <v>1.87</v>
+        <v>1.95</v>
       </c>
       <c r="S912">
-        <v>2.03</v>
+        <v>1.95</v>
       </c>
       <c r="T912">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U912">
-        <v>1.96</v>
+        <v>1.85</v>
       </c>
       <c r="V912">
-        <v>1.94</v>
+        <v>2.05</v>
       </c>
       <c r="W912">
-        <v>0.363</v>
+        <v>4</v>
       </c>
       <c r="X912">
         <v>-1</v>
@@ -81708,16 +81708,16 @@
         <v>-1</v>
       </c>
       <c r="Z912">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AA912">
-        <v>0.5149999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB912">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC912">
-        <v>0.9399999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="913" spans="1:29">
@@ -81725,7 +81725,7 @@
         <v>911</v>
       </c>
       <c r="B913">
-        <v>5467507</v>
+        <v>5466353</v>
       </c>
       <c r="C913" t="s">
         <v>28</v>
@@ -81737,58 +81737,58 @@
         <v>45042.70833333334</v>
       </c>
       <c r="F913" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="G913" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H913">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I913">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J913" t="s">
         <v>55</v>
       </c>
       <c r="K913">
+        <v>1.4</v>
+      </c>
+      <c r="L913">
         <v>4.5</v>
       </c>
-      <c r="L913">
-        <v>4</v>
-      </c>
       <c r="M913">
-        <v>1.7</v>
+        <v>7.5</v>
       </c>
       <c r="N913">
+        <v>1.363</v>
+      </c>
+      <c r="O913">
         <v>5</v>
       </c>
-      <c r="O913">
-        <v>3.8</v>
-      </c>
       <c r="P913">
-        <v>1.7</v>
+        <v>8</v>
       </c>
       <c r="Q913">
-        <v>0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R913">
-        <v>1.95</v>
+        <v>1.87</v>
       </c>
       <c r="S913">
-        <v>1.95</v>
+        <v>2.03</v>
       </c>
       <c r="T913">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U913">
-        <v>1.85</v>
+        <v>1.96</v>
       </c>
       <c r="V913">
-        <v>2.05</v>
+        <v>1.94</v>
       </c>
       <c r="W913">
-        <v>4</v>
+        <v>0.363</v>
       </c>
       <c r="X913">
         <v>-1</v>
@@ -81797,16 +81797,16 @@
         <v>-1</v>
       </c>
       <c r="Z913">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AA913">
-        <v>-1</v>
+        <v>0.5149999999999999</v>
       </c>
       <c r="AB913">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC913">
-        <v>-1</v>
+        <v>0.9399999999999999</v>
       </c>
     </row>
     <row r="914" spans="1:29">
@@ -83327,7 +83327,7 @@
         <v>929</v>
       </c>
       <c r="B931">
-        <v>5549244</v>
+        <v>5534214</v>
       </c>
       <c r="C931" t="s">
         <v>28</v>
@@ -83339,58 +83339,58 @@
         <v>45049.70833333334</v>
       </c>
       <c r="F931" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="G931" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H931">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I931">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J931" t="s">
         <v>55</v>
       </c>
       <c r="K931">
-        <v>1.3</v>
+        <v>2.55</v>
       </c>
       <c r="L931">
-        <v>5.5</v>
+        <v>3</v>
       </c>
       <c r="M931">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="N931">
-        <v>1.333</v>
+        <v>2.8</v>
       </c>
       <c r="O931">
-        <v>5.25</v>
+        <v>2.9</v>
       </c>
       <c r="P931">
-        <v>9.5</v>
+        <v>2.875</v>
       </c>
       <c r="Q931">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="R931">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S931">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T931">
-        <v>3</v>
+        <v>1.75</v>
       </c>
       <c r="U931">
-        <v>2.07</v>
+        <v>1.86</v>
       </c>
       <c r="V931">
-        <v>1.83</v>
+        <v>2.04</v>
       </c>
       <c r="W931">
-        <v>0.333</v>
+        <v>1.8</v>
       </c>
       <c r="X931">
         <v>-1</v>
@@ -83399,16 +83399,16 @@
         <v>-1</v>
       </c>
       <c r="Z931">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA931">
         <v>-1</v>
       </c>
       <c r="AB931">
-        <v>1.07</v>
+        <v>-1</v>
       </c>
       <c r="AC931">
-        <v>-1</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="932" spans="1:29">
@@ -83416,7 +83416,7 @@
         <v>930</v>
       </c>
       <c r="B932">
-        <v>5534214</v>
+        <v>5549244</v>
       </c>
       <c r="C932" t="s">
         <v>28</v>
@@ -83428,58 +83428,58 @@
         <v>45049.70833333334</v>
       </c>
       <c r="F932" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="G932" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="H932">
+        <v>5</v>
+      </c>
+      <c r="I932">
         <v>1</v>
-      </c>
-      <c r="I932">
-        <v>0</v>
       </c>
       <c r="J932" t="s">
         <v>55</v>
       </c>
       <c r="K932">
-        <v>2.55</v>
+        <v>1.3</v>
       </c>
       <c r="L932">
+        <v>5.5</v>
+      </c>
+      <c r="M932">
+        <v>10</v>
+      </c>
+      <c r="N932">
+        <v>1.333</v>
+      </c>
+      <c r="O932">
+        <v>5.25</v>
+      </c>
+      <c r="P932">
+        <v>9.5</v>
+      </c>
+      <c r="Q932">
+        <v>-1.5</v>
+      </c>
+      <c r="R932">
+        <v>1.95</v>
+      </c>
+      <c r="S932">
+        <v>1.95</v>
+      </c>
+      <c r="T932">
         <v>3</v>
       </c>
-      <c r="M932">
-        <v>3</v>
-      </c>
-      <c r="N932">
-        <v>2.8</v>
-      </c>
-      <c r="O932">
-        <v>2.9</v>
-      </c>
-      <c r="P932">
-        <v>2.875</v>
-      </c>
-      <c r="Q932">
-        <v>0</v>
-      </c>
-      <c r="R932">
-        <v>1.9</v>
-      </c>
-      <c r="S932">
-        <v>2</v>
-      </c>
-      <c r="T932">
-        <v>1.75</v>
-      </c>
       <c r="U932">
-        <v>1.86</v>
+        <v>2.07</v>
       </c>
       <c r="V932">
-        <v>2.04</v>
+        <v>1.83</v>
       </c>
       <c r="W932">
-        <v>1.8</v>
+        <v>0.333</v>
       </c>
       <c r="X932">
         <v>-1</v>
@@ -83488,16 +83488,16 @@
         <v>-1</v>
       </c>
       <c r="Z932">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AA932">
         <v>-1</v>
       </c>
       <c r="AB932">
-        <v>-1</v>
+        <v>1.07</v>
       </c>
       <c r="AC932">
-        <v>1.04</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="933" spans="1:29">
@@ -83683,7 +83683,7 @@
         <v>933</v>
       </c>
       <c r="B935">
-        <v>5540274</v>
+        <v>5549243</v>
       </c>
       <c r="C935" t="s">
         <v>28</v>
@@ -83695,76 +83695,76 @@
         <v>45050.70833333334</v>
       </c>
       <c r="F935" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="G935" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="H935">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I935">
         <v>1</v>
       </c>
       <c r="J935" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K935">
-        <v>1.65</v>
+        <v>1.615</v>
       </c>
       <c r="L935">
         <v>3.8</v>
       </c>
       <c r="M935">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="N935">
-        <v>1.909</v>
+        <v>1.615</v>
       </c>
       <c r="O935">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P935">
-        <v>3.8</v>
+        <v>5.5</v>
       </c>
       <c r="Q935">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R935">
-        <v>1.95</v>
+        <v>1.82</v>
       </c>
       <c r="S935">
-        <v>1.95</v>
+        <v>2.08</v>
       </c>
       <c r="T935">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U935">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="V935">
-        <v>1.9</v>
+        <v>2.03</v>
       </c>
       <c r="W935">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X935">
         <v>-1</v>
       </c>
       <c r="Y935">
-        <v>-1</v>
+        <v>4.5</v>
       </c>
       <c r="Z935">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA935">
-        <v>-1</v>
+        <v>1.08</v>
       </c>
       <c r="AB935">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC935">
-        <v>-1</v>
+        <v>1.03</v>
       </c>
     </row>
     <row r="936" spans="1:29">
@@ -83772,7 +83772,7 @@
         <v>934</v>
       </c>
       <c r="B936">
-        <v>5549243</v>
+        <v>5540274</v>
       </c>
       <c r="C936" t="s">
         <v>28</v>
@@ -83784,76 +83784,76 @@
         <v>45050.70833333334</v>
       </c>
       <c r="F936" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="G936" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="H936">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I936">
         <v>1</v>
       </c>
       <c r="J936" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K936">
-        <v>1.615</v>
+        <v>1.65</v>
       </c>
       <c r="L936">
         <v>3.8</v>
       </c>
       <c r="M936">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="N936">
-        <v>1.615</v>
+        <v>1.909</v>
       </c>
       <c r="O936">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P936">
-        <v>5.5</v>
+        <v>3.8</v>
       </c>
       <c r="Q936">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R936">
-        <v>1.82</v>
+        <v>1.95</v>
       </c>
       <c r="S936">
-        <v>2.08</v>
+        <v>1.95</v>
       </c>
       <c r="T936">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U936">
-        <v>1.87</v>
+        <v>2</v>
       </c>
       <c r="V936">
-        <v>2.03</v>
+        <v>1.9</v>
       </c>
       <c r="W936">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X936">
         <v>-1</v>
       </c>
       <c r="Y936">
-        <v>4.5</v>
+        <v>-1</v>
       </c>
       <c r="Z936">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA936">
-        <v>1.08</v>
+        <v>-1</v>
       </c>
       <c r="AB936">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC936">
-        <v>1.03</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="937" spans="1:29">
@@ -85641,7 +85641,7 @@
         <v>955</v>
       </c>
       <c r="B957">
-        <v>5638808</v>
+        <v>5638811</v>
       </c>
       <c r="C957" t="s">
         <v>28</v>
@@ -85653,61 +85653,61 @@
         <v>45069.60416666666</v>
       </c>
       <c r="F957" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G957" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H957">
         <v>1</v>
       </c>
       <c r="I957">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J957" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K957">
-        <v>2.2</v>
+        <v>1.4</v>
       </c>
       <c r="L957">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="M957">
-        <v>3.25</v>
+        <v>8.5</v>
       </c>
       <c r="N957">
-        <v>2.1</v>
+        <v>1.363</v>
       </c>
       <c r="O957">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="P957">
-        <v>3.6</v>
+        <v>8</v>
       </c>
       <c r="Q957">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R957">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="S957">
-        <v>2.08</v>
+        <v>2.01</v>
       </c>
       <c r="T957">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U957">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="V957">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W957">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X957">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y957">
         <v>-1</v>
@@ -85716,13 +85716,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA957">
-        <v>0.54</v>
+        <v>0.5049999999999999</v>
       </c>
       <c r="AB957">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC957">
-        <v>0.5125</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="958" spans="1:29">
@@ -85730,7 +85730,7 @@
         <v>956</v>
       </c>
       <c r="B958">
-        <v>5638811</v>
+        <v>5638808</v>
       </c>
       <c r="C958" t="s">
         <v>28</v>
@@ -85742,61 +85742,61 @@
         <v>45069.60416666666</v>
       </c>
       <c r="F958" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G958" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H958">
         <v>1</v>
       </c>
       <c r="I958">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J958" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K958">
-        <v>1.4</v>
+        <v>2.2</v>
       </c>
       <c r="L958">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="M958">
-        <v>8.5</v>
+        <v>3.25</v>
       </c>
       <c r="N958">
-        <v>1.363</v>
+        <v>2.1</v>
       </c>
       <c r="O958">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="P958">
-        <v>8</v>
+        <v>3.6</v>
       </c>
       <c r="Q958">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R958">
-        <v>1.89</v>
+        <v>1.82</v>
       </c>
       <c r="S958">
-        <v>2.01</v>
+        <v>2.08</v>
       </c>
       <c r="T958">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U958">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="V958">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W958">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X958">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y958">
         <v>-1</v>
@@ -85805,13 +85805,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA958">
-        <v>0.5049999999999999</v>
+        <v>0.54</v>
       </c>
       <c r="AB958">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC958">
-        <v>0.8999999999999999</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="959" spans="1:29">
@@ -86976,7 +86976,7 @@
         <v>970</v>
       </c>
       <c r="B972">
-        <v>5703047</v>
+        <v>5701613</v>
       </c>
       <c r="C972" t="s">
         <v>28</v>
@@ -86988,13 +86988,13 @@
         <v>45074.58333333334</v>
       </c>
       <c r="F972" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G972" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="H972">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I972">
         <v>0</v>
@@ -87003,43 +87003,43 @@
         <v>55</v>
       </c>
       <c r="K972">
-        <v>1.5</v>
+        <v>2.6</v>
       </c>
       <c r="L972">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="M972">
-        <v>6</v>
+        <v>2.7</v>
       </c>
       <c r="N972">
-        <v>1.25</v>
+        <v>2.45</v>
       </c>
       <c r="O972">
-        <v>5.75</v>
+        <v>3.1</v>
       </c>
       <c r="P972">
-        <v>12</v>
+        <v>3.1</v>
       </c>
       <c r="Q972">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R972">
+        <v>2.075</v>
+      </c>
+      <c r="S972">
+        <v>1.725</v>
+      </c>
+      <c r="T972">
         <v>2</v>
       </c>
-      <c r="S972">
-        <v>1.9</v>
-      </c>
-      <c r="T972">
-        <v>3</v>
-      </c>
       <c r="U972">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="V972">
-        <v>1.97</v>
+        <v>1.95</v>
       </c>
       <c r="W972">
-        <v>0.25</v>
+        <v>1.45</v>
       </c>
       <c r="X972">
         <v>-1</v>
@@ -87048,16 +87048,16 @@
         <v>-1</v>
       </c>
       <c r="Z972">
-        <v>1</v>
+        <v>1.075</v>
       </c>
       <c r="AA972">
         <v>-1</v>
       </c>
       <c r="AB972">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC972">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="973" spans="1:29">
@@ -87065,7 +87065,7 @@
         <v>971</v>
       </c>
       <c r="B973">
-        <v>5701613</v>
+        <v>5705727</v>
       </c>
       <c r="C973" t="s">
         <v>28</v>
@@ -87077,76 +87077,76 @@
         <v>45074.58333333334</v>
       </c>
       <c r="F973" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="G973" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="H973">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I973">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J973" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K973">
-        <v>2.6</v>
+        <v>1.909</v>
       </c>
       <c r="L973">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M973">
-        <v>2.7</v>
+        <v>3.75</v>
       </c>
       <c r="N973">
-        <v>2.45</v>
+        <v>2</v>
       </c>
       <c r="O973">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="P973">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="Q973">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R973">
-        <v>2.075</v>
+        <v>2.025</v>
       </c>
       <c r="S973">
-        <v>1.725</v>
+        <v>1.775</v>
       </c>
       <c r="T973">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U973">
-        <v>1.95</v>
+        <v>2.07</v>
       </c>
       <c r="V973">
-        <v>1.95</v>
+        <v>1.83</v>
       </c>
       <c r="W973">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="X973">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y973">
         <v>-1</v>
       </c>
       <c r="Z973">
-        <v>1.075</v>
+        <v>-1</v>
       </c>
       <c r="AA973">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB973">
-        <v>-1</v>
+        <v>1.07</v>
       </c>
       <c r="AC973">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="974" spans="1:29">
@@ -87154,7 +87154,7 @@
         <v>972</v>
       </c>
       <c r="B974">
-        <v>5705884</v>
+        <v>5703047</v>
       </c>
       <c r="C974" t="s">
         <v>28</v>
@@ -87166,76 +87166,76 @@
         <v>45074.58333333334</v>
       </c>
       <c r="F974" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="G974" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="H974">
+        <v>3</v>
+      </c>
+      <c r="I974">
+        <v>0</v>
+      </c>
+      <c r="J974" t="s">
+        <v>55</v>
+      </c>
+      <c r="K974">
+        <v>1.5</v>
+      </c>
+      <c r="L974">
+        <v>4.5</v>
+      </c>
+      <c r="M974">
+        <v>6</v>
+      </c>
+      <c r="N974">
+        <v>1.25</v>
+      </c>
+      <c r="O974">
+        <v>5.75</v>
+      </c>
+      <c r="P974">
+        <v>12</v>
+      </c>
+      <c r="Q974">
+        <v>-1.75</v>
+      </c>
+      <c r="R974">
+        <v>2</v>
+      </c>
+      <c r="S974">
+        <v>1.9</v>
+      </c>
+      <c r="T974">
+        <v>3</v>
+      </c>
+      <c r="U974">
+        <v>1.93</v>
+      </c>
+      <c r="V974">
+        <v>1.97</v>
+      </c>
+      <c r="W974">
+        <v>0.25</v>
+      </c>
+      <c r="X974">
+        <v>-1</v>
+      </c>
+      <c r="Y974">
+        <v>-1</v>
+      </c>
+      <c r="Z974">
         <v>1</v>
       </c>
-      <c r="I974">
-        <v>2</v>
-      </c>
-      <c r="J974" t="s">
-        <v>57</v>
-      </c>
-      <c r="K974">
-        <v>2.2</v>
-      </c>
-      <c r="L974">
-        <v>3.5</v>
-      </c>
-      <c r="M974">
-        <v>3.1</v>
-      </c>
-      <c r="N974">
-        <v>1.909</v>
-      </c>
-      <c r="O974">
-        <v>3.6</v>
-      </c>
-      <c r="P974">
-        <v>3.8</v>
-      </c>
-      <c r="Q974">
-        <v>-0.5</v>
-      </c>
-      <c r="R974">
-        <v>1.98</v>
-      </c>
-      <c r="S974">
-        <v>1.92</v>
-      </c>
-      <c r="T974">
-        <v>2.5</v>
-      </c>
-      <c r="U974">
-        <v>1.99</v>
-      </c>
-      <c r="V974">
-        <v>1.91</v>
-      </c>
-      <c r="W974">
-        <v>-1</v>
-      </c>
-      <c r="X974">
-        <v>-1</v>
-      </c>
-      <c r="Y974">
-        <v>2.8</v>
-      </c>
-      <c r="Z974">
-        <v>-1</v>
-      </c>
       <c r="AA974">
-        <v>0.9199999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB974">
-        <v>0.99</v>
+        <v>0</v>
       </c>
       <c r="AC974">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="975" spans="1:29">
@@ -87243,7 +87243,7 @@
         <v>973</v>
       </c>
       <c r="B975">
-        <v>5705727</v>
+        <v>5705884</v>
       </c>
       <c r="C975" t="s">
         <v>28</v>
@@ -87255,73 +87255,73 @@
         <v>45074.58333333334</v>
       </c>
       <c r="F975" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="G975" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="H975">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I975">
         <v>2</v>
       </c>
       <c r="J975" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K975">
+        <v>2.2</v>
+      </c>
+      <c r="L975">
+        <v>3.5</v>
+      </c>
+      <c r="M975">
+        <v>3.1</v>
+      </c>
+      <c r="N975">
         <v>1.909</v>
       </c>
-      <c r="L975">
+      <c r="O975">
         <v>3.6</v>
       </c>
-      <c r="M975">
-        <v>3.75</v>
-      </c>
-      <c r="N975">
-        <v>2</v>
-      </c>
-      <c r="O975">
-        <v>3.5</v>
-      </c>
       <c r="P975">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="Q975">
         <v>-0.5</v>
       </c>
       <c r="R975">
-        <v>2.025</v>
+        <v>1.98</v>
       </c>
       <c r="S975">
-        <v>1.775</v>
+        <v>1.92</v>
       </c>
       <c r="T975">
         <v>2.5</v>
       </c>
       <c r="U975">
-        <v>2.07</v>
+        <v>1.99</v>
       </c>
       <c r="V975">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="W975">
         <v>-1</v>
       </c>
       <c r="X975">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y975">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Z975">
         <v>-1</v>
       </c>
       <c r="AA975">
-        <v>0.7749999999999999</v>
+        <v>0.9199999999999999</v>
       </c>
       <c r="AB975">
-        <v>1.07</v>
+        <v>0.99</v>
       </c>
       <c r="AC975">
         <v>-1</v>
@@ -93918,7 +93918,7 @@
         <v>1048</v>
       </c>
       <c r="B1050">
-        <v>6809384</v>
+        <v>6809223</v>
       </c>
       <c r="C1050" t="s">
         <v>28</v>
@@ -93930,19 +93930,19 @@
         <v>45196.6875</v>
       </c>
       <c r="F1050" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="G1050" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H1050">
         <v>0</v>
       </c>
       <c r="I1050">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J1050" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K1050">
         <v>2.625</v>
@@ -93954,52 +93954,52 @@
         <v>2.875</v>
       </c>
       <c r="N1050">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="O1050">
+        <v>3</v>
+      </c>
+      <c r="P1050">
         <v>3.1</v>
       </c>
-      <c r="P1050">
-        <v>2.9</v>
-      </c>
       <c r="Q1050">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R1050">
-        <v>1.85</v>
+        <v>2.125</v>
       </c>
       <c r="S1050">
-        <v>2.05</v>
+        <v>1.78</v>
       </c>
       <c r="T1050">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U1050">
-        <v>2.08</v>
+        <v>2.03</v>
       </c>
       <c r="V1050">
-        <v>1.82</v>
+        <v>1.87</v>
       </c>
       <c r="W1050">
         <v>-1</v>
       </c>
       <c r="X1050">
+        <v>-1</v>
+      </c>
+      <c r="Y1050">
         <v>2.1</v>
       </c>
-      <c r="Y1050">
-        <v>-1</v>
-      </c>
       <c r="Z1050">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA1050">
-        <v>-0</v>
+        <v>0.78</v>
       </c>
       <c r="AB1050">
         <v>-1</v>
       </c>
       <c r="AC1050">
-        <v>0.8200000000000001</v>
+        <v>0.8700000000000001</v>
       </c>
     </row>
     <row r="1051" spans="1:29">
@@ -94007,7 +94007,7 @@
         <v>1049</v>
       </c>
       <c r="B1051">
-        <v>6809223</v>
+        <v>6809384</v>
       </c>
       <c r="C1051" t="s">
         <v>28</v>
@@ -94019,19 +94019,19 @@
         <v>45196.6875</v>
       </c>
       <c r="F1051" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G1051" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="H1051">
         <v>0</v>
       </c>
       <c r="I1051">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J1051" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K1051">
         <v>2.625</v>
@@ -94043,52 +94043,52 @@
         <v>2.875</v>
       </c>
       <c r="N1051">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="O1051">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="P1051">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="Q1051">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R1051">
-        <v>2.125</v>
+        <v>1.85</v>
       </c>
       <c r="S1051">
-        <v>1.78</v>
+        <v>2.05</v>
       </c>
       <c r="T1051">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U1051">
-        <v>2.03</v>
+        <v>2.08</v>
       </c>
       <c r="V1051">
-        <v>1.87</v>
+        <v>1.82</v>
       </c>
       <c r="W1051">
         <v>-1</v>
       </c>
       <c r="X1051">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y1051">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z1051">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA1051">
-        <v>0.78</v>
+        <v>-0</v>
       </c>
       <c r="AB1051">
         <v>-1</v>
       </c>
       <c r="AC1051">
-        <v>0.8700000000000001</v>
+        <v>0.8200000000000001</v>
       </c>
     </row>
     <row r="1052" spans="1:29">
@@ -102195,7 +102195,7 @@
         <v>1141</v>
       </c>
       <c r="B1143">
-        <v>6809424</v>
+        <v>6809425</v>
       </c>
       <c r="C1143" t="s">
         <v>28</v>
@@ -102207,76 +102207,76 @@
         <v>45271.70833333334</v>
       </c>
       <c r="F1143" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G1143" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H1143">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1143">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J1143" t="s">
         <v>56</v>
       </c>
       <c r="K1143">
-        <v>4.5</v>
+        <v>2.3</v>
       </c>
       <c r="L1143">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M1143">
-        <v>1.75</v>
+        <v>3.25</v>
       </c>
       <c r="N1143">
-        <v>4.2</v>
+        <v>2.7</v>
       </c>
       <c r="O1143">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="P1143">
-        <v>1.85</v>
+        <v>2.8</v>
       </c>
       <c r="Q1143">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R1143">
-        <v>2.01</v>
+        <v>1.92</v>
       </c>
       <c r="S1143">
-        <v>1.89</v>
+        <v>1.98</v>
       </c>
       <c r="T1143">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U1143">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V1143">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="W1143">
         <v>-1</v>
       </c>
       <c r="X1143">
-        <v>2.75</v>
+        <v>2.1</v>
       </c>
       <c r="Y1143">
         <v>-1</v>
       </c>
       <c r="Z1143">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="AA1143">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB1143">
         <v>-1</v>
       </c>
       <c r="AC1143">
-        <v>1.05</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="1144" spans="1:29">
@@ -102284,7 +102284,7 @@
         <v>1142</v>
       </c>
       <c r="B1144">
-        <v>6809425</v>
+        <v>6809424</v>
       </c>
       <c r="C1144" t="s">
         <v>28</v>
@@ -102296,76 +102296,76 @@
         <v>45271.70833333334</v>
       </c>
       <c r="F1144" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G1144" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="H1144">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I1144">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J1144" t="s">
         <v>56</v>
       </c>
       <c r="K1144">
-        <v>2.3</v>
+        <v>4.5</v>
       </c>
       <c r="L1144">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M1144">
-        <v>3.25</v>
+        <v>1.75</v>
       </c>
       <c r="N1144">
-        <v>2.7</v>
+        <v>4.2</v>
       </c>
       <c r="O1144">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="P1144">
-        <v>2.8</v>
+        <v>1.85</v>
       </c>
       <c r="Q1144">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R1144">
-        <v>1.92</v>
+        <v>2.01</v>
       </c>
       <c r="S1144">
-        <v>1.98</v>
+        <v>1.89</v>
       </c>
       <c r="T1144">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U1144">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="V1144">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="W1144">
         <v>-1</v>
       </c>
       <c r="X1144">
-        <v>2.1</v>
+        <v>2.75</v>
       </c>
       <c r="Y1144">
         <v>-1</v>
       </c>
       <c r="Z1144">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AA1144">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB1144">
         <v>-1</v>
       </c>
       <c r="AC1144">
-        <v>0.95</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="1145" spans="1:29">
@@ -103352,7 +103352,7 @@
         <v>1154</v>
       </c>
       <c r="B1156">
-        <v>6809435</v>
+        <v>6809292</v>
       </c>
       <c r="C1156" t="s">
         <v>28</v>
@@ -103364,49 +103364,49 @@
         <v>45279.72916666666</v>
       </c>
       <c r="F1156" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="G1156" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H1156">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1156">
         <v>3</v>
       </c>
       <c r="J1156" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K1156">
-        <v>1.333</v>
+        <v>2.875</v>
       </c>
       <c r="L1156">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="M1156">
-        <v>8</v>
+        <v>2.25</v>
       </c>
       <c r="N1156">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="O1156">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="P1156">
-        <v>7</v>
+        <v>2.45</v>
       </c>
       <c r="Q1156">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R1156">
-        <v>1.83</v>
+        <v>1.78</v>
       </c>
       <c r="S1156">
-        <v>2.07</v>
+        <v>2.125</v>
       </c>
       <c r="T1156">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U1156">
         <v>2.04</v>
@@ -103418,16 +103418,16 @@
         <v>-1</v>
       </c>
       <c r="X1156">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y1156">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="Z1156">
         <v>-1</v>
       </c>
       <c r="AA1156">
-        <v>1.07</v>
+        <v>1.125</v>
       </c>
       <c r="AB1156">
         <v>1.04</v>
@@ -103441,7 +103441,7 @@
         <v>1155</v>
       </c>
       <c r="B1157">
-        <v>6809292</v>
+        <v>6809435</v>
       </c>
       <c r="C1157" t="s">
         <v>28</v>
@@ -103453,49 +103453,49 @@
         <v>45279.72916666666</v>
       </c>
       <c r="F1157" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="G1157" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="H1157">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I1157">
         <v>3</v>
       </c>
       <c r="J1157" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K1157">
-        <v>2.875</v>
+        <v>1.333</v>
       </c>
       <c r="L1157">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="M1157">
-        <v>2.25</v>
+        <v>8</v>
       </c>
       <c r="N1157">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="O1157">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="P1157">
-        <v>2.45</v>
+        <v>7</v>
       </c>
       <c r="Q1157">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R1157">
-        <v>1.78</v>
+        <v>1.83</v>
       </c>
       <c r="S1157">
-        <v>2.125</v>
+        <v>2.07</v>
       </c>
       <c r="T1157">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U1157">
         <v>2.04</v>
@@ -103507,16 +103507,16 @@
         <v>-1</v>
       </c>
       <c r="X1157">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y1157">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="Z1157">
         <v>-1</v>
       </c>
       <c r="AA1157">
-        <v>1.125</v>
+        <v>1.07</v>
       </c>
       <c r="AB1157">
         <v>1.04</v>
@@ -103619,7 +103619,7 @@
         <v>1157</v>
       </c>
       <c r="B1159">
-        <v>6809438</v>
+        <v>6809434</v>
       </c>
       <c r="C1159" t="s">
         <v>28</v>
@@ -103631,58 +103631,58 @@
         <v>45280.72916666666</v>
       </c>
       <c r="F1159" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G1159" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="H1159">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I1159">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J1159" t="s">
         <v>55</v>
       </c>
       <c r="K1159">
-        <v>2.15</v>
+        <v>1.4</v>
       </c>
       <c r="L1159">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="M1159">
-        <v>2.9</v>
+        <v>7</v>
       </c>
       <c r="N1159">
-        <v>2.3</v>
+        <v>1.363</v>
       </c>
       <c r="O1159">
-        <v>3.5</v>
+        <v>5.25</v>
       </c>
       <c r="P1159">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="Q1159">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R1159">
-        <v>2.08</v>
+        <v>1.87</v>
       </c>
       <c r="S1159">
-        <v>1.82</v>
+        <v>2.06</v>
       </c>
       <c r="T1159">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U1159">
-        <v>2.06</v>
+        <v>1.91</v>
       </c>
       <c r="V1159">
-        <v>1.84</v>
+        <v>1.99</v>
       </c>
       <c r="W1159">
-        <v>1.3</v>
+        <v>0.363</v>
       </c>
       <c r="X1159">
         <v>-1</v>
@@ -103691,16 +103691,16 @@
         <v>-1</v>
       </c>
       <c r="Z1159">
-        <v>1.08</v>
+        <v>-0.5</v>
       </c>
       <c r="AA1159">
-        <v>-1</v>
+        <v>0.53</v>
       </c>
       <c r="AB1159">
-        <v>1.06</v>
+        <v>-1</v>
       </c>
       <c r="AC1159">
-        <v>-1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="1160" spans="1:29">
@@ -103708,7 +103708,7 @@
         <v>1158</v>
       </c>
       <c r="B1160">
-        <v>6809434</v>
+        <v>6809438</v>
       </c>
       <c r="C1160" t="s">
         <v>28</v>
@@ -103720,58 +103720,58 @@
         <v>45280.72916666666</v>
       </c>
       <c r="F1160" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G1160" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="H1160">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I1160">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J1160" t="s">
         <v>55</v>
       </c>
       <c r="K1160">
-        <v>1.4</v>
+        <v>2.15</v>
       </c>
       <c r="L1160">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="M1160">
-        <v>7</v>
+        <v>2.9</v>
       </c>
       <c r="N1160">
-        <v>1.363</v>
+        <v>2.3</v>
       </c>
       <c r="O1160">
-        <v>5.25</v>
+        <v>3.5</v>
       </c>
       <c r="P1160">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="Q1160">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R1160">
-        <v>1.87</v>
+        <v>2.08</v>
       </c>
       <c r="S1160">
+        <v>1.82</v>
+      </c>
+      <c r="T1160">
+        <v>2.5</v>
+      </c>
+      <c r="U1160">
         <v>2.06</v>
       </c>
-      <c r="T1160">
-        <v>2.75</v>
-      </c>
-      <c r="U1160">
-        <v>1.91</v>
-      </c>
       <c r="V1160">
-        <v>1.99</v>
+        <v>1.84</v>
       </c>
       <c r="W1160">
-        <v>0.363</v>
+        <v>1.3</v>
       </c>
       <c r="X1160">
         <v>-1</v>
@@ -103780,16 +103780,16 @@
         <v>-1</v>
       </c>
       <c r="Z1160">
-        <v>-0.5</v>
+        <v>1.08</v>
       </c>
       <c r="AA1160">
-        <v>0.53</v>
+        <v>-1</v>
       </c>
       <c r="AB1160">
-        <v>-1</v>
+        <v>1.06</v>
       </c>
       <c r="AC1160">
-        <v>0.99</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1161" spans="1:29">
@@ -103797,7 +103797,7 @@
         <v>1159</v>
       </c>
       <c r="B1161">
-        <v>6809436</v>
+        <v>6809289</v>
       </c>
       <c r="C1161" t="s">
         <v>28</v>
@@ -103809,76 +103809,76 @@
         <v>45281.625</v>
       </c>
       <c r="F1161" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="G1161" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="H1161">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I1161">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J1161" t="s">
         <v>56</v>
       </c>
       <c r="K1161">
-        <v>4.333</v>
+        <v>2.4</v>
       </c>
       <c r="L1161">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M1161">
-        <v>1.85</v>
+        <v>2.75</v>
       </c>
       <c r="N1161">
-        <v>6</v>
+        <v>2.6</v>
       </c>
       <c r="O1161">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P1161">
-        <v>1.65</v>
+        <v>2.5</v>
       </c>
       <c r="Q1161">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R1161">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="S1161">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="T1161">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U1161">
-        <v>1.84</v>
+        <v>1.91</v>
       </c>
       <c r="V1161">
-        <v>2.06</v>
+        <v>1.99</v>
       </c>
       <c r="W1161">
         <v>-1</v>
       </c>
       <c r="X1161">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="Y1161">
         <v>-1</v>
       </c>
       <c r="Z1161">
-        <v>0.98</v>
+        <v>0</v>
       </c>
       <c r="AA1161">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB1161">
         <v>-1</v>
       </c>
       <c r="AC1161">
-        <v>1.06</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="1162" spans="1:29">
@@ -103886,7 +103886,7 @@
         <v>1160</v>
       </c>
       <c r="B1162">
-        <v>6809289</v>
+        <v>6809436</v>
       </c>
       <c r="C1162" t="s">
         <v>28</v>
@@ -103898,76 +103898,76 @@
         <v>45281.625</v>
       </c>
       <c r="F1162" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="G1162" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="H1162">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1162">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J1162" t="s">
         <v>56</v>
       </c>
       <c r="K1162">
-        <v>2.4</v>
+        <v>4.333</v>
       </c>
       <c r="L1162">
+        <v>3.2</v>
+      </c>
+      <c r="M1162">
+        <v>1.85</v>
+      </c>
+      <c r="N1162">
+        <v>6</v>
+      </c>
+      <c r="O1162">
         <v>3.5</v>
       </c>
-      <c r="M1162">
-        <v>2.75</v>
-      </c>
-      <c r="N1162">
-        <v>2.6</v>
-      </c>
-      <c r="O1162">
-        <v>3.6</v>
-      </c>
       <c r="P1162">
+        <v>1.65</v>
+      </c>
+      <c r="Q1162">
+        <v>0.75</v>
+      </c>
+      <c r="R1162">
+        <v>1.98</v>
+      </c>
+      <c r="S1162">
+        <v>1.92</v>
+      </c>
+      <c r="T1162">
+        <v>2</v>
+      </c>
+      <c r="U1162">
+        <v>1.84</v>
+      </c>
+      <c r="V1162">
+        <v>2.06</v>
+      </c>
+      <c r="W1162">
+        <v>-1</v>
+      </c>
+      <c r="X1162">
         <v>2.5</v>
       </c>
-      <c r="Q1162">
-        <v>0</v>
-      </c>
-      <c r="R1162">
-        <v>1.97</v>
-      </c>
-      <c r="S1162">
-        <v>1.93</v>
-      </c>
-      <c r="T1162">
-        <v>2.75</v>
-      </c>
-      <c r="U1162">
-        <v>1.91</v>
-      </c>
-      <c r="V1162">
-        <v>1.99</v>
-      </c>
-      <c r="W1162">
-        <v>-1</v>
-      </c>
-      <c r="X1162">
-        <v>2.6</v>
-      </c>
       <c r="Y1162">
         <v>-1</v>
       </c>
       <c r="Z1162">
-        <v>0</v>
+        <v>0.98</v>
       </c>
       <c r="AA1162">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB1162">
         <v>-1</v>
       </c>
       <c r="AC1162">
-        <v>0.99</v>
+        <v>1.06</v>
       </c>
     </row>
     <row r="1163" spans="1:29">
@@ -107473,31 +107473,31 @@
         <v>4.333</v>
       </c>
       <c r="N1202">
-        <v>1.85</v>
+        <v>1.833</v>
       </c>
       <c r="O1202">
         <v>3.5</v>
       </c>
       <c r="P1202">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="Q1202">
         <v>-0.5</v>
       </c>
       <c r="R1202">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="S1202">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="T1202">
         <v>2.25</v>
       </c>
       <c r="U1202">
-        <v>2.07</v>
+        <v>2.05</v>
       </c>
       <c r="V1202">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="W1202">
         <v>0</v>
@@ -107550,10 +107550,10 @@
         <v>1.333</v>
       </c>
       <c r="O1203">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="P1203">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q1203">
         <v>-1.5</v>
@@ -107568,10 +107568,10 @@
         <v>3</v>
       </c>
       <c r="U1203">
-        <v>2.07</v>
+        <v>2.06</v>
       </c>
       <c r="V1203">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="W1203">
         <v>0</v>
@@ -107633,19 +107633,19 @@
         <v>-1.25</v>
       </c>
       <c r="R1204">
-        <v>2.04</v>
+        <v>2.05</v>
       </c>
       <c r="S1204">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="T1204">
         <v>2.75</v>
       </c>
       <c r="U1204">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="V1204">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="W1204">
         <v>0</v>
@@ -108400,6 +108400,80 @@
         <v>0</v>
       </c>
       <c r="AA1214">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1215" spans="1:29">
+      <c r="A1215" s="1">
+        <v>1213</v>
+      </c>
+      <c r="B1215">
+        <v>6809314</v>
+      </c>
+      <c r="C1215" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1215" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1215" s="2">
+        <v>45327.70833333334</v>
+      </c>
+      <c r="F1215" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1215" t="s">
+        <v>40</v>
+      </c>
+      <c r="K1215">
+        <v>2.375</v>
+      </c>
+      <c r="L1215">
+        <v>3.25</v>
+      </c>
+      <c r="M1215">
+        <v>3</v>
+      </c>
+      <c r="N1215">
+        <v>2.2</v>
+      </c>
+      <c r="O1215">
+        <v>3.3</v>
+      </c>
+      <c r="P1215">
+        <v>3.3</v>
+      </c>
+      <c r="Q1215">
+        <v>-0.25</v>
+      </c>
+      <c r="R1215">
+        <v>1.92</v>
+      </c>
+      <c r="S1215">
+        <v>1.98</v>
+      </c>
+      <c r="T1215">
+        <v>2.25</v>
+      </c>
+      <c r="U1215">
+        <v>1.99</v>
+      </c>
+      <c r="V1215">
+        <v>1.91</v>
+      </c>
+      <c r="W1215">
+        <v>0</v>
+      </c>
+      <c r="X1215">
+        <v>0</v>
+      </c>
+      <c r="Y1215">
+        <v>0</v>
+      </c>
+      <c r="Z1215">
+        <v>0</v>
+      </c>
+      <c r="AA1215">
         <v>0</v>
       </c>
     </row>

--- a/Spain Primera Liga/Spain Primera Liga.xlsx
+++ b/Spain Primera Liga/Spain Primera Liga.xlsx
@@ -81191,7 +81191,7 @@
         <v>905</v>
       </c>
       <c r="B907">
-        <v>5461881</v>
+        <v>5470775</v>
       </c>
       <c r="C907" t="s">
         <v>28</v>
@@ -81203,76 +81203,76 @@
         <v>45041.60416666666</v>
       </c>
       <c r="F907" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="G907" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="H907">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I907">
+        <v>2</v>
+      </c>
+      <c r="J907" t="s">
+        <v>55</v>
+      </c>
+      <c r="K907">
+        <v>6</v>
+      </c>
+      <c r="L907">
+        <v>4</v>
+      </c>
+      <c r="M907">
+        <v>1.533</v>
+      </c>
+      <c r="N907">
+        <v>5.25</v>
+      </c>
+      <c r="O907">
+        <v>4.2</v>
+      </c>
+      <c r="P907">
+        <v>1.6</v>
+      </c>
+      <c r="Q907">
         <v>1</v>
       </c>
-      <c r="J907" t="s">
-        <v>57</v>
-      </c>
-      <c r="K907">
-        <v>2.3</v>
-      </c>
-      <c r="L907">
-        <v>3.2</v>
-      </c>
-      <c r="M907">
-        <v>3.2</v>
-      </c>
-      <c r="N907">
-        <v>2.05</v>
-      </c>
-      <c r="O907">
-        <v>3.2</v>
-      </c>
-      <c r="P907">
-        <v>4</v>
-      </c>
-      <c r="Q907">
-        <v>-0.5</v>
-      </c>
       <c r="R907">
-        <v>2.08</v>
+        <v>1.84</v>
       </c>
       <c r="S907">
-        <v>1.82</v>
+        <v>2.06</v>
       </c>
       <c r="T907">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U907">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="V907">
-        <v>1.97</v>
+        <v>1.95</v>
       </c>
       <c r="W907">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="X907">
         <v>-1</v>
       </c>
       <c r="Y907">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z907">
-        <v>-1</v>
+        <v>0.8400000000000001</v>
       </c>
       <c r="AA907">
-        <v>0.8200000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB907">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC907">
-        <v>0.97</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="908" spans="1:29">
@@ -81280,7 +81280,7 @@
         <v>906</v>
       </c>
       <c r="B908">
-        <v>5470775</v>
+        <v>5461881</v>
       </c>
       <c r="C908" t="s">
         <v>28</v>
@@ -81292,76 +81292,76 @@
         <v>45041.60416666666</v>
       </c>
       <c r="F908" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="G908" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="H908">
+        <v>0</v>
+      </c>
+      <c r="I908">
+        <v>1</v>
+      </c>
+      <c r="J908" t="s">
+        <v>57</v>
+      </c>
+      <c r="K908">
+        <v>2.3</v>
+      </c>
+      <c r="L908">
+        <v>3.2</v>
+      </c>
+      <c r="M908">
+        <v>3.2</v>
+      </c>
+      <c r="N908">
+        <v>2.05</v>
+      </c>
+      <c r="O908">
+        <v>3.2</v>
+      </c>
+      <c r="P908">
         <v>4</v>
       </c>
-      <c r="I908">
+      <c r="Q908">
+        <v>-0.5</v>
+      </c>
+      <c r="R908">
+        <v>2.08</v>
+      </c>
+      <c r="S908">
+        <v>1.82</v>
+      </c>
+      <c r="T908">
         <v>2</v>
       </c>
-      <c r="J908" t="s">
-        <v>55</v>
-      </c>
-      <c r="K908">
-        <v>6</v>
-      </c>
-      <c r="L908">
-        <v>4</v>
-      </c>
-      <c r="M908">
-        <v>1.533</v>
-      </c>
-      <c r="N908">
-        <v>5.25</v>
-      </c>
-      <c r="O908">
-        <v>4.2</v>
-      </c>
-      <c r="P908">
-        <v>1.6</v>
-      </c>
-      <c r="Q908">
-        <v>1</v>
-      </c>
-      <c r="R908">
-        <v>1.84</v>
-      </c>
-      <c r="S908">
-        <v>2.06</v>
-      </c>
-      <c r="T908">
+      <c r="U908">
+        <v>1.93</v>
+      </c>
+      <c r="V908">
+        <v>1.97</v>
+      </c>
+      <c r="W908">
+        <v>-1</v>
+      </c>
+      <c r="X908">
+        <v>-1</v>
+      </c>
+      <c r="Y908">
         <v>3</v>
       </c>
-      <c r="U908">
-        <v>1.95</v>
-      </c>
-      <c r="V908">
-        <v>1.95</v>
-      </c>
-      <c r="W908">
-        <v>4.25</v>
-      </c>
-      <c r="X908">
-        <v>-1</v>
-      </c>
-      <c r="Y908">
-        <v>-1</v>
-      </c>
       <c r="Z908">
-        <v>0.8400000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA908">
-        <v>-1</v>
+        <v>0.8200000000000001</v>
       </c>
       <c r="AB908">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC908">
-        <v>-1</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="909" spans="1:29">
@@ -81636,7 +81636,7 @@
         <v>910</v>
       </c>
       <c r="B912">
-        <v>5467507</v>
+        <v>5466353</v>
       </c>
       <c r="C912" t="s">
         <v>28</v>
@@ -81648,58 +81648,58 @@
         <v>45042.70833333334</v>
       </c>
       <c r="F912" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="G912" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H912">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I912">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J912" t="s">
         <v>55</v>
       </c>
       <c r="K912">
+        <v>1.4</v>
+      </c>
+      <c r="L912">
         <v>4.5</v>
       </c>
-      <c r="L912">
-        <v>4</v>
-      </c>
       <c r="M912">
-        <v>1.7</v>
+        <v>7.5</v>
       </c>
       <c r="N912">
+        <v>1.363</v>
+      </c>
+      <c r="O912">
         <v>5</v>
       </c>
-      <c r="O912">
-        <v>3.8</v>
-      </c>
       <c r="P912">
-        <v>1.7</v>
+        <v>8</v>
       </c>
       <c r="Q912">
-        <v>0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R912">
-        <v>1.95</v>
+        <v>1.87</v>
       </c>
       <c r="S912">
-        <v>1.95</v>
+        <v>2.03</v>
       </c>
       <c r="T912">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U912">
-        <v>1.85</v>
+        <v>1.96</v>
       </c>
       <c r="V912">
-        <v>2.05</v>
+        <v>1.94</v>
       </c>
       <c r="W912">
-        <v>4</v>
+        <v>0.363</v>
       </c>
       <c r="X912">
         <v>-1</v>
@@ -81708,16 +81708,16 @@
         <v>-1</v>
       </c>
       <c r="Z912">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AA912">
-        <v>-1</v>
+        <v>0.5149999999999999</v>
       </c>
       <c r="AB912">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC912">
-        <v>-1</v>
+        <v>0.9399999999999999</v>
       </c>
     </row>
     <row r="913" spans="1:29">
@@ -81725,7 +81725,7 @@
         <v>911</v>
       </c>
       <c r="B913">
-        <v>5466353</v>
+        <v>5467507</v>
       </c>
       <c r="C913" t="s">
         <v>28</v>
@@ -81737,58 +81737,58 @@
         <v>45042.70833333334</v>
       </c>
       <c r="F913" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="G913" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H913">
+        <v>2</v>
+      </c>
+      <c r="I913">
         <v>1</v>
-      </c>
-      <c r="I913">
-        <v>0</v>
       </c>
       <c r="J913" t="s">
         <v>55</v>
       </c>
       <c r="K913">
-        <v>1.4</v>
+        <v>4.5</v>
       </c>
       <c r="L913">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="M913">
-        <v>7.5</v>
+        <v>1.7</v>
       </c>
       <c r="N913">
-        <v>1.363</v>
+        <v>5</v>
       </c>
       <c r="O913">
-        <v>5</v>
+        <v>3.8</v>
       </c>
       <c r="P913">
-        <v>8</v>
+        <v>1.7</v>
       </c>
       <c r="Q913">
-        <v>-1.25</v>
+        <v>0.75</v>
       </c>
       <c r="R913">
-        <v>1.87</v>
+        <v>1.95</v>
       </c>
       <c r="S913">
-        <v>2.03</v>
+        <v>1.95</v>
       </c>
       <c r="T913">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U913">
-        <v>1.96</v>
+        <v>1.85</v>
       </c>
       <c r="V913">
-        <v>1.94</v>
+        <v>2.05</v>
       </c>
       <c r="W913">
-        <v>0.363</v>
+        <v>4</v>
       </c>
       <c r="X913">
         <v>-1</v>
@@ -81797,16 +81797,16 @@
         <v>-1</v>
       </c>
       <c r="Z913">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AA913">
-        <v>0.5149999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB913">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC913">
-        <v>0.9399999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="914" spans="1:29">
@@ -82971,7 +82971,7 @@
         <v>925</v>
       </c>
       <c r="B927">
-        <v>5534478</v>
+        <v>5540298</v>
       </c>
       <c r="C927" t="s">
         <v>28</v>
@@ -82983,58 +82983,58 @@
         <v>45048.60416666666</v>
       </c>
       <c r="F927" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="G927" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="H927">
+        <v>2</v>
+      </c>
+      <c r="I927">
         <v>1</v>
-      </c>
-      <c r="I927">
-        <v>0</v>
       </c>
       <c r="J927" t="s">
         <v>55</v>
       </c>
       <c r="K927">
-        <v>1.25</v>
+        <v>1.65</v>
       </c>
       <c r="L927">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="M927">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="N927">
-        <v>1.166</v>
+        <v>1.727</v>
       </c>
       <c r="O927">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="P927">
-        <v>15</v>
+        <v>4.5</v>
       </c>
       <c r="Q927">
-        <v>-2</v>
+        <v>-0.75</v>
       </c>
       <c r="R927">
-        <v>1.85</v>
+        <v>1.92</v>
       </c>
       <c r="S927">
-        <v>2.05</v>
+        <v>1.98</v>
       </c>
       <c r="T927">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U927">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V927">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="W927">
-        <v>0.1659999999999999</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X927">
         <v>-1</v>
@@ -83043,16 +83043,16 @@
         <v>-1</v>
       </c>
       <c r="Z927">
-        <v>-1</v>
+        <v>0.46</v>
       </c>
       <c r="AA927">
-        <v>1.05</v>
+        <v>-0.5</v>
       </c>
       <c r="AB927">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC927">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="928" spans="1:29">
@@ -83060,7 +83060,7 @@
         <v>926</v>
       </c>
       <c r="B928">
-        <v>5540298</v>
+        <v>5534478</v>
       </c>
       <c r="C928" t="s">
         <v>28</v>
@@ -83072,58 +83072,58 @@
         <v>45048.60416666666</v>
       </c>
       <c r="F928" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G928" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="H928">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I928">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J928" t="s">
         <v>55</v>
       </c>
       <c r="K928">
-        <v>1.65</v>
+        <v>1.25</v>
       </c>
       <c r="L928">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="M928">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="N928">
-        <v>1.727</v>
+        <v>1.166</v>
       </c>
       <c r="O928">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="P928">
-        <v>4.5</v>
+        <v>15</v>
       </c>
       <c r="Q928">
-        <v>-0.75</v>
+        <v>-2</v>
       </c>
       <c r="R928">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="S928">
-        <v>1.98</v>
+        <v>2.05</v>
       </c>
       <c r="T928">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U928">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V928">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="W928">
-        <v>0.7270000000000001</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X928">
         <v>-1</v>
@@ -83132,16 +83132,16 @@
         <v>-1</v>
       </c>
       <c r="Z928">
-        <v>0.46</v>
+        <v>-1</v>
       </c>
       <c r="AA928">
-        <v>-0.5</v>
+        <v>1.05</v>
       </c>
       <c r="AB928">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC928">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="929" spans="1:29">
@@ -93918,7 +93918,7 @@
         <v>1048</v>
       </c>
       <c r="B1050">
-        <v>6809223</v>
+        <v>6809384</v>
       </c>
       <c r="C1050" t="s">
         <v>28</v>
@@ -93930,19 +93930,19 @@
         <v>45196.6875</v>
       </c>
       <c r="F1050" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G1050" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="H1050">
         <v>0</v>
       </c>
       <c r="I1050">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J1050" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K1050">
         <v>2.625</v>
@@ -93954,52 +93954,52 @@
         <v>2.875</v>
       </c>
       <c r="N1050">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="O1050">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="P1050">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="Q1050">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R1050">
-        <v>2.125</v>
+        <v>1.85</v>
       </c>
       <c r="S1050">
-        <v>1.78</v>
+        <v>2.05</v>
       </c>
       <c r="T1050">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U1050">
-        <v>2.03</v>
+        <v>2.08</v>
       </c>
       <c r="V1050">
-        <v>1.87</v>
+        <v>1.82</v>
       </c>
       <c r="W1050">
         <v>-1</v>
       </c>
       <c r="X1050">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y1050">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z1050">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA1050">
-        <v>0.78</v>
+        <v>-0</v>
       </c>
       <c r="AB1050">
         <v>-1</v>
       </c>
       <c r="AC1050">
-        <v>0.8700000000000001</v>
+        <v>0.8200000000000001</v>
       </c>
     </row>
     <row r="1051" spans="1:29">
@@ -94007,7 +94007,7 @@
         <v>1049</v>
       </c>
       <c r="B1051">
-        <v>6809384</v>
+        <v>6809223</v>
       </c>
       <c r="C1051" t="s">
         <v>28</v>
@@ -94019,19 +94019,19 @@
         <v>45196.6875</v>
       </c>
       <c r="F1051" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="G1051" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H1051">
         <v>0</v>
       </c>
       <c r="I1051">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J1051" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K1051">
         <v>2.625</v>
@@ -94043,52 +94043,52 @@
         <v>2.875</v>
       </c>
       <c r="N1051">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="O1051">
+        <v>3</v>
+      </c>
+      <c r="P1051">
         <v>3.1</v>
       </c>
-      <c r="P1051">
-        <v>2.9</v>
-      </c>
       <c r="Q1051">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R1051">
-        <v>1.85</v>
+        <v>2.125</v>
       </c>
       <c r="S1051">
-        <v>2.05</v>
+        <v>1.78</v>
       </c>
       <c r="T1051">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U1051">
-        <v>2.08</v>
+        <v>2.03</v>
       </c>
       <c r="V1051">
-        <v>1.82</v>
+        <v>1.87</v>
       </c>
       <c r="W1051">
         <v>-1</v>
       </c>
       <c r="X1051">
+        <v>-1</v>
+      </c>
+      <c r="Y1051">
         <v>2.1</v>
       </c>
-      <c r="Y1051">
-        <v>-1</v>
-      </c>
       <c r="Z1051">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA1051">
-        <v>-0</v>
+        <v>0.78</v>
       </c>
       <c r="AB1051">
         <v>-1</v>
       </c>
       <c r="AC1051">
-        <v>0.8200000000000001</v>
+        <v>0.8700000000000001</v>
       </c>
     </row>
     <row r="1052" spans="1:29">
@@ -107485,10 +107485,10 @@
         <v>-0.5</v>
       </c>
       <c r="R1202">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="S1202">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="T1202">
         <v>2.25</v>
@@ -107568,10 +107568,10 @@
         <v>3</v>
       </c>
       <c r="U1203">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="V1203">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="W1203">
         <v>0</v>
@@ -107707,10 +107707,10 @@
         <v>1</v>
       </c>
       <c r="R1205">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="S1205">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="T1205">
         <v>2.5</v>
@@ -108077,19 +108077,19 @@
         <v>-0.25</v>
       </c>
       <c r="R1210">
-        <v>1.82</v>
+        <v>1.87</v>
       </c>
       <c r="S1210">
-        <v>2.08</v>
+        <v>2.03</v>
       </c>
       <c r="T1210">
         <v>2.5</v>
       </c>
       <c r="U1210">
-        <v>2.03</v>
+        <v>2.06</v>
       </c>
       <c r="V1210">
-        <v>1.87</v>
+        <v>1.84</v>
       </c>
       <c r="W1210">
         <v>0</v>
@@ -108139,31 +108139,31 @@
         <v>4.333</v>
       </c>
       <c r="N1211">
-        <v>1.571</v>
+        <v>1.65</v>
       </c>
       <c r="O1211">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P1211">
-        <v>6</v>
+        <v>5.25</v>
       </c>
       <c r="Q1211">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R1211">
-        <v>2.07</v>
+        <v>1.91</v>
       </c>
       <c r="S1211">
-        <v>1.83</v>
+        <v>1.99</v>
       </c>
       <c r="T1211">
         <v>2.5</v>
       </c>
       <c r="U1211">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="V1211">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="W1211">
         <v>0</v>

--- a/Spain Primera Liga/Spain Primera Liga.xlsx
+++ b/Spain Primera Liga/Spain Primera Liga.xlsx
@@ -67307,7 +67307,7 @@
         <v>749</v>
       </c>
       <c r="B751">
-        <v>5934416</v>
+        <v>5934417</v>
       </c>
       <c r="C751" t="s">
         <v>28</v>
@@ -67319,10 +67319,10 @@
         <v>44925.63541666666</v>
       </c>
       <c r="F751" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="G751" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="H751">
         <v>1</v>
@@ -67334,46 +67334,46 @@
         <v>56</v>
       </c>
       <c r="K751">
-        <v>2.375</v>
+        <v>2.3</v>
       </c>
       <c r="L751">
+        <v>3.1</v>
+      </c>
+      <c r="M751">
         <v>3.2</v>
       </c>
-      <c r="M751">
-        <v>3.1</v>
-      </c>
       <c r="N751">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="O751">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P751">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="Q751">
         <v>-0.25</v>
       </c>
       <c r="R751">
-        <v>1.95</v>
+        <v>1.87</v>
       </c>
       <c r="S751">
-        <v>1.95</v>
+        <v>2.03</v>
       </c>
       <c r="T751">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U751">
-        <v>1.75</v>
+        <v>1.86</v>
       </c>
       <c r="V751">
-        <v>2.05</v>
+        <v>2.04</v>
       </c>
       <c r="W751">
         <v>-1</v>
       </c>
       <c r="X751">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="Y751">
         <v>-1</v>
@@ -67382,13 +67382,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA751">
-        <v>0.475</v>
+        <v>0.5149999999999999</v>
       </c>
       <c r="AB751">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AC751">
-        <v>-0</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="752" spans="1:29">
@@ -67396,7 +67396,7 @@
         <v>750</v>
       </c>
       <c r="B752">
-        <v>5934417</v>
+        <v>5934416</v>
       </c>
       <c r="C752" t="s">
         <v>28</v>
@@ -67408,10 +67408,10 @@
         <v>44925.63541666666</v>
       </c>
       <c r="F752" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G752" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="H752">
         <v>1</v>
@@ -67423,46 +67423,46 @@
         <v>56</v>
       </c>
       <c r="K752">
-        <v>2.3</v>
+        <v>2.375</v>
       </c>
       <c r="L752">
+        <v>3.2</v>
+      </c>
+      <c r="M752">
         <v>3.1</v>
       </c>
-      <c r="M752">
+      <c r="N752">
+        <v>2.2</v>
+      </c>
+      <c r="O752">
         <v>3.2</v>
       </c>
-      <c r="N752">
-        <v>2.15</v>
-      </c>
-      <c r="O752">
-        <v>3.25</v>
-      </c>
       <c r="P752">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="Q752">
         <v>-0.25</v>
       </c>
       <c r="R752">
-        <v>1.87</v>
+        <v>1.95</v>
       </c>
       <c r="S752">
-        <v>2.03</v>
+        <v>1.95</v>
       </c>
       <c r="T752">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U752">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="V752">
-        <v>2.04</v>
+        <v>2.05</v>
       </c>
       <c r="W752">
         <v>-1</v>
       </c>
       <c r="X752">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="Y752">
         <v>-1</v>
@@ -67471,13 +67471,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA752">
-        <v>0.5149999999999999</v>
+        <v>0.475</v>
       </c>
       <c r="AB752">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AC752">
-        <v>0.52</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="753" spans="1:29">
@@ -81191,7 +81191,7 @@
         <v>905</v>
       </c>
       <c r="B907">
-        <v>5470775</v>
+        <v>5461881</v>
       </c>
       <c r="C907" t="s">
         <v>28</v>
@@ -81203,76 +81203,76 @@
         <v>45041.60416666666</v>
       </c>
       <c r="F907" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="G907" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="H907">
+        <v>0</v>
+      </c>
+      <c r="I907">
+        <v>1</v>
+      </c>
+      <c r="J907" t="s">
+        <v>57</v>
+      </c>
+      <c r="K907">
+        <v>2.3</v>
+      </c>
+      <c r="L907">
+        <v>3.2</v>
+      </c>
+      <c r="M907">
+        <v>3.2</v>
+      </c>
+      <c r="N907">
+        <v>2.05</v>
+      </c>
+      <c r="O907">
+        <v>3.2</v>
+      </c>
+      <c r="P907">
         <v>4</v>
       </c>
-      <c r="I907">
+      <c r="Q907">
+        <v>-0.5</v>
+      </c>
+      <c r="R907">
+        <v>2.08</v>
+      </c>
+      <c r="S907">
+        <v>1.82</v>
+      </c>
+      <c r="T907">
         <v>2</v>
       </c>
-      <c r="J907" t="s">
-        <v>55</v>
-      </c>
-      <c r="K907">
-        <v>6</v>
-      </c>
-      <c r="L907">
-        <v>4</v>
-      </c>
-      <c r="M907">
-        <v>1.533</v>
-      </c>
-      <c r="N907">
-        <v>5.25</v>
-      </c>
-      <c r="O907">
-        <v>4.2</v>
-      </c>
-      <c r="P907">
-        <v>1.6</v>
-      </c>
-      <c r="Q907">
-        <v>1</v>
-      </c>
-      <c r="R907">
-        <v>1.84</v>
-      </c>
-      <c r="S907">
-        <v>2.06</v>
-      </c>
-      <c r="T907">
+      <c r="U907">
+        <v>1.93</v>
+      </c>
+      <c r="V907">
+        <v>1.97</v>
+      </c>
+      <c r="W907">
+        <v>-1</v>
+      </c>
+      <c r="X907">
+        <v>-1</v>
+      </c>
+      <c r="Y907">
         <v>3</v>
       </c>
-      <c r="U907">
-        <v>1.95</v>
-      </c>
-      <c r="V907">
-        <v>1.95</v>
-      </c>
-      <c r="W907">
-        <v>4.25</v>
-      </c>
-      <c r="X907">
-        <v>-1</v>
-      </c>
-      <c r="Y907">
-        <v>-1</v>
-      </c>
       <c r="Z907">
-        <v>0.8400000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA907">
-        <v>-1</v>
+        <v>0.8200000000000001</v>
       </c>
       <c r="AB907">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC907">
-        <v>-1</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="908" spans="1:29">
@@ -81280,7 +81280,7 @@
         <v>906</v>
       </c>
       <c r="B908">
-        <v>5461881</v>
+        <v>5470775</v>
       </c>
       <c r="C908" t="s">
         <v>28</v>
@@ -81292,76 +81292,76 @@
         <v>45041.60416666666</v>
       </c>
       <c r="F908" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="G908" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="H908">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I908">
+        <v>2</v>
+      </c>
+      <c r="J908" t="s">
+        <v>55</v>
+      </c>
+      <c r="K908">
+        <v>6</v>
+      </c>
+      <c r="L908">
+        <v>4</v>
+      </c>
+      <c r="M908">
+        <v>1.533</v>
+      </c>
+      <c r="N908">
+        <v>5.25</v>
+      </c>
+      <c r="O908">
+        <v>4.2</v>
+      </c>
+      <c r="P908">
+        <v>1.6</v>
+      </c>
+      <c r="Q908">
         <v>1</v>
       </c>
-      <c r="J908" t="s">
-        <v>57</v>
-      </c>
-      <c r="K908">
-        <v>2.3</v>
-      </c>
-      <c r="L908">
-        <v>3.2</v>
-      </c>
-      <c r="M908">
-        <v>3.2</v>
-      </c>
-      <c r="N908">
-        <v>2.05</v>
-      </c>
-      <c r="O908">
-        <v>3.2</v>
-      </c>
-      <c r="P908">
-        <v>4</v>
-      </c>
-      <c r="Q908">
-        <v>-0.5</v>
-      </c>
       <c r="R908">
-        <v>2.08</v>
+        <v>1.84</v>
       </c>
       <c r="S908">
-        <v>1.82</v>
+        <v>2.06</v>
       </c>
       <c r="T908">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U908">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="V908">
-        <v>1.97</v>
+        <v>1.95</v>
       </c>
       <c r="W908">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="X908">
         <v>-1</v>
       </c>
       <c r="Y908">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z908">
-        <v>-1</v>
+        <v>0.8400000000000001</v>
       </c>
       <c r="AA908">
-        <v>0.8200000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB908">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC908">
-        <v>0.97</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="909" spans="1:29">
@@ -81636,7 +81636,7 @@
         <v>910</v>
       </c>
       <c r="B912">
-        <v>5466353</v>
+        <v>5467507</v>
       </c>
       <c r="C912" t="s">
         <v>28</v>
@@ -81648,58 +81648,58 @@
         <v>45042.70833333334</v>
       </c>
       <c r="F912" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="G912" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H912">
+        <v>2</v>
+      </c>
+      <c r="I912">
         <v>1</v>
-      </c>
-      <c r="I912">
-        <v>0</v>
       </c>
       <c r="J912" t="s">
         <v>55</v>
       </c>
       <c r="K912">
-        <v>1.4</v>
+        <v>4.5</v>
       </c>
       <c r="L912">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="M912">
-        <v>7.5</v>
+        <v>1.7</v>
       </c>
       <c r="N912">
-        <v>1.363</v>
+        <v>5</v>
       </c>
       <c r="O912">
-        <v>5</v>
+        <v>3.8</v>
       </c>
       <c r="P912">
-        <v>8</v>
+        <v>1.7</v>
       </c>
       <c r="Q912">
-        <v>-1.25</v>
+        <v>0.75</v>
       </c>
       <c r="R912">
-        <v>1.87</v>
+        <v>1.95</v>
       </c>
       <c r="S912">
-        <v>2.03</v>
+        <v>1.95</v>
       </c>
       <c r="T912">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U912">
-        <v>1.96</v>
+        <v>1.85</v>
       </c>
       <c r="V912">
-        <v>1.94</v>
+        <v>2.05</v>
       </c>
       <c r="W912">
-        <v>0.363</v>
+        <v>4</v>
       </c>
       <c r="X912">
         <v>-1</v>
@@ -81708,16 +81708,16 @@
         <v>-1</v>
       </c>
       <c r="Z912">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AA912">
-        <v>0.5149999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB912">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC912">
-        <v>0.9399999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="913" spans="1:29">
@@ -81725,7 +81725,7 @@
         <v>911</v>
       </c>
       <c r="B913">
-        <v>5467507</v>
+        <v>5466353</v>
       </c>
       <c r="C913" t="s">
         <v>28</v>
@@ -81737,58 +81737,58 @@
         <v>45042.70833333334</v>
       </c>
       <c r="F913" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="G913" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H913">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I913">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J913" t="s">
         <v>55</v>
       </c>
       <c r="K913">
+        <v>1.4</v>
+      </c>
+      <c r="L913">
         <v>4.5</v>
       </c>
-      <c r="L913">
-        <v>4</v>
-      </c>
       <c r="M913">
-        <v>1.7</v>
+        <v>7.5</v>
       </c>
       <c r="N913">
+        <v>1.363</v>
+      </c>
+      <c r="O913">
         <v>5</v>
       </c>
-      <c r="O913">
-        <v>3.8</v>
-      </c>
       <c r="P913">
-        <v>1.7</v>
+        <v>8</v>
       </c>
       <c r="Q913">
-        <v>0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R913">
-        <v>1.95</v>
+        <v>1.87</v>
       </c>
       <c r="S913">
-        <v>1.95</v>
+        <v>2.03</v>
       </c>
       <c r="T913">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U913">
-        <v>1.85</v>
+        <v>1.96</v>
       </c>
       <c r="V913">
-        <v>2.05</v>
+        <v>1.94</v>
       </c>
       <c r="W913">
-        <v>4</v>
+        <v>0.363</v>
       </c>
       <c r="X913">
         <v>-1</v>
@@ -81797,16 +81797,16 @@
         <v>-1</v>
       </c>
       <c r="Z913">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AA913">
-        <v>-1</v>
+        <v>0.5149999999999999</v>
       </c>
       <c r="AB913">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC913">
-        <v>-1</v>
+        <v>0.9399999999999999</v>
       </c>
     </row>
     <row r="914" spans="1:29">
@@ -82971,7 +82971,7 @@
         <v>925</v>
       </c>
       <c r="B927">
-        <v>5540298</v>
+        <v>5534478</v>
       </c>
       <c r="C927" t="s">
         <v>28</v>
@@ -82983,58 +82983,58 @@
         <v>45048.60416666666</v>
       </c>
       <c r="F927" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G927" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="H927">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I927">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J927" t="s">
         <v>55</v>
       </c>
       <c r="K927">
-        <v>1.65</v>
+        <v>1.25</v>
       </c>
       <c r="L927">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="M927">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="N927">
-        <v>1.727</v>
+        <v>1.166</v>
       </c>
       <c r="O927">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="P927">
-        <v>4.5</v>
+        <v>15</v>
       </c>
       <c r="Q927">
-        <v>-0.75</v>
+        <v>-2</v>
       </c>
       <c r="R927">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="S927">
-        <v>1.98</v>
+        <v>2.05</v>
       </c>
       <c r="T927">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U927">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V927">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="W927">
-        <v>0.7270000000000001</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X927">
         <v>-1</v>
@@ -83043,16 +83043,16 @@
         <v>-1</v>
       </c>
       <c r="Z927">
-        <v>0.46</v>
+        <v>-1</v>
       </c>
       <c r="AA927">
-        <v>-0.5</v>
+        <v>1.05</v>
       </c>
       <c r="AB927">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC927">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="928" spans="1:29">
@@ -83060,7 +83060,7 @@
         <v>926</v>
       </c>
       <c r="B928">
-        <v>5534478</v>
+        <v>5540298</v>
       </c>
       <c r="C928" t="s">
         <v>28</v>
@@ -83072,58 +83072,58 @@
         <v>45048.60416666666</v>
       </c>
       <c r="F928" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="G928" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="H928">
+        <v>2</v>
+      </c>
+      <c r="I928">
         <v>1</v>
-      </c>
-      <c r="I928">
-        <v>0</v>
       </c>
       <c r="J928" t="s">
         <v>55</v>
       </c>
       <c r="K928">
-        <v>1.25</v>
+        <v>1.65</v>
       </c>
       <c r="L928">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="M928">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="N928">
-        <v>1.166</v>
+        <v>1.727</v>
       </c>
       <c r="O928">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="P928">
-        <v>15</v>
+        <v>4.5</v>
       </c>
       <c r="Q928">
-        <v>-2</v>
+        <v>-0.75</v>
       </c>
       <c r="R928">
-        <v>1.85</v>
+        <v>1.92</v>
       </c>
       <c r="S928">
-        <v>2.05</v>
+        <v>1.98</v>
       </c>
       <c r="T928">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U928">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V928">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="W928">
-        <v>0.1659999999999999</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X928">
         <v>-1</v>
@@ -83132,16 +83132,16 @@
         <v>-1</v>
       </c>
       <c r="Z928">
-        <v>-1</v>
+        <v>0.46</v>
       </c>
       <c r="AA928">
-        <v>1.05</v>
+        <v>-0.5</v>
       </c>
       <c r="AB928">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC928">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="929" spans="1:29">
@@ -93918,7 +93918,7 @@
         <v>1048</v>
       </c>
       <c r="B1050">
-        <v>6809384</v>
+        <v>6809223</v>
       </c>
       <c r="C1050" t="s">
         <v>28</v>
@@ -93930,19 +93930,19 @@
         <v>45196.6875</v>
       </c>
       <c r="F1050" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="G1050" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H1050">
         <v>0</v>
       </c>
       <c r="I1050">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J1050" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K1050">
         <v>2.625</v>
@@ -93954,52 +93954,52 @@
         <v>2.875</v>
       </c>
       <c r="N1050">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="O1050">
+        <v>3</v>
+      </c>
+      <c r="P1050">
         <v>3.1</v>
       </c>
-      <c r="P1050">
-        <v>2.9</v>
-      </c>
       <c r="Q1050">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R1050">
-        <v>1.85</v>
+        <v>2.125</v>
       </c>
       <c r="S1050">
-        <v>2.05</v>
+        <v>1.78</v>
       </c>
       <c r="T1050">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U1050">
-        <v>2.08</v>
+        <v>2.03</v>
       </c>
       <c r="V1050">
-        <v>1.82</v>
+        <v>1.87</v>
       </c>
       <c r="W1050">
         <v>-1</v>
       </c>
       <c r="X1050">
+        <v>-1</v>
+      </c>
+      <c r="Y1050">
         <v>2.1</v>
       </c>
-      <c r="Y1050">
-        <v>-1</v>
-      </c>
       <c r="Z1050">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA1050">
-        <v>-0</v>
+        <v>0.78</v>
       </c>
       <c r="AB1050">
         <v>-1</v>
       </c>
       <c r="AC1050">
-        <v>0.8200000000000001</v>
+        <v>0.8700000000000001</v>
       </c>
     </row>
     <row r="1051" spans="1:29">
@@ -94007,7 +94007,7 @@
         <v>1049</v>
       </c>
       <c r="B1051">
-        <v>6809223</v>
+        <v>6809384</v>
       </c>
       <c r="C1051" t="s">
         <v>28</v>
@@ -94019,19 +94019,19 @@
         <v>45196.6875</v>
       </c>
       <c r="F1051" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G1051" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="H1051">
         <v>0</v>
       </c>
       <c r="I1051">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J1051" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K1051">
         <v>2.625</v>
@@ -94043,52 +94043,52 @@
         <v>2.875</v>
       </c>
       <c r="N1051">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="O1051">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="P1051">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="Q1051">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R1051">
-        <v>2.125</v>
+        <v>1.85</v>
       </c>
       <c r="S1051">
-        <v>1.78</v>
+        <v>2.05</v>
       </c>
       <c r="T1051">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U1051">
-        <v>2.03</v>
+        <v>2.08</v>
       </c>
       <c r="V1051">
-        <v>1.87</v>
+        <v>1.82</v>
       </c>
       <c r="W1051">
         <v>-1</v>
       </c>
       <c r="X1051">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y1051">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z1051">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA1051">
-        <v>0.78</v>
+        <v>-0</v>
       </c>
       <c r="AB1051">
         <v>-1</v>
       </c>
       <c r="AC1051">
-        <v>0.8700000000000001</v>
+        <v>0.8200000000000001</v>
       </c>
     </row>
     <row r="1052" spans="1:29">
@@ -102195,7 +102195,7 @@
         <v>1141</v>
       </c>
       <c r="B1143">
-        <v>6809425</v>
+        <v>6809424</v>
       </c>
       <c r="C1143" t="s">
         <v>28</v>
@@ -102207,76 +102207,76 @@
         <v>45271.70833333334</v>
       </c>
       <c r="F1143" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G1143" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="H1143">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I1143">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J1143" t="s">
         <v>56</v>
       </c>
       <c r="K1143">
-        <v>2.3</v>
+        <v>4.5</v>
       </c>
       <c r="L1143">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M1143">
-        <v>3.25</v>
+        <v>1.75</v>
       </c>
       <c r="N1143">
-        <v>2.7</v>
+        <v>4.2</v>
       </c>
       <c r="O1143">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="P1143">
-        <v>2.8</v>
+        <v>1.85</v>
       </c>
       <c r="Q1143">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R1143">
-        <v>1.92</v>
+        <v>2.01</v>
       </c>
       <c r="S1143">
-        <v>1.98</v>
+        <v>1.89</v>
       </c>
       <c r="T1143">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U1143">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="V1143">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="W1143">
         <v>-1</v>
       </c>
       <c r="X1143">
-        <v>2.1</v>
+        <v>2.75</v>
       </c>
       <c r="Y1143">
         <v>-1</v>
       </c>
       <c r="Z1143">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AA1143">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB1143">
         <v>-1</v>
       </c>
       <c r="AC1143">
-        <v>0.95</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="1144" spans="1:29">
@@ -102284,7 +102284,7 @@
         <v>1142</v>
       </c>
       <c r="B1144">
-        <v>6809424</v>
+        <v>6809425</v>
       </c>
       <c r="C1144" t="s">
         <v>28</v>
@@ -102296,76 +102296,76 @@
         <v>45271.70833333334</v>
       </c>
       <c r="F1144" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G1144" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H1144">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1144">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J1144" t="s">
         <v>56</v>
       </c>
       <c r="K1144">
-        <v>4.5</v>
+        <v>2.3</v>
       </c>
       <c r="L1144">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M1144">
-        <v>1.75</v>
+        <v>3.25</v>
       </c>
       <c r="N1144">
-        <v>4.2</v>
+        <v>2.7</v>
       </c>
       <c r="O1144">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="P1144">
-        <v>1.85</v>
+        <v>2.8</v>
       </c>
       <c r="Q1144">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R1144">
-        <v>2.01</v>
+        <v>1.92</v>
       </c>
       <c r="S1144">
-        <v>1.89</v>
+        <v>1.98</v>
       </c>
       <c r="T1144">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U1144">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V1144">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="W1144">
         <v>-1</v>
       </c>
       <c r="X1144">
-        <v>2.75</v>
+        <v>2.1</v>
       </c>
       <c r="Y1144">
         <v>-1</v>
       </c>
       <c r="Z1144">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="AA1144">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB1144">
         <v>-1</v>
       </c>
       <c r="AC1144">
-        <v>1.05</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="1145" spans="1:29">
@@ -103619,7 +103619,7 @@
         <v>1157</v>
       </c>
       <c r="B1159">
-        <v>6809434</v>
+        <v>6809438</v>
       </c>
       <c r="C1159" t="s">
         <v>28</v>
@@ -103631,58 +103631,58 @@
         <v>45280.72916666666</v>
       </c>
       <c r="F1159" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G1159" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="H1159">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I1159">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J1159" t="s">
         <v>55</v>
       </c>
       <c r="K1159">
-        <v>1.4</v>
+        <v>2.15</v>
       </c>
       <c r="L1159">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="M1159">
-        <v>7</v>
+        <v>2.9</v>
       </c>
       <c r="N1159">
-        <v>1.363</v>
+        <v>2.3</v>
       </c>
       <c r="O1159">
-        <v>5.25</v>
+        <v>3.5</v>
       </c>
       <c r="P1159">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="Q1159">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R1159">
-        <v>1.87</v>
+        <v>2.08</v>
       </c>
       <c r="S1159">
+        <v>1.82</v>
+      </c>
+      <c r="T1159">
+        <v>2.5</v>
+      </c>
+      <c r="U1159">
         <v>2.06</v>
       </c>
-      <c r="T1159">
-        <v>2.75</v>
-      </c>
-      <c r="U1159">
-        <v>1.91</v>
-      </c>
       <c r="V1159">
-        <v>1.99</v>
+        <v>1.84</v>
       </c>
       <c r="W1159">
-        <v>0.363</v>
+        <v>1.3</v>
       </c>
       <c r="X1159">
         <v>-1</v>
@@ -103691,16 +103691,16 @@
         <v>-1</v>
       </c>
       <c r="Z1159">
-        <v>-0.5</v>
+        <v>1.08</v>
       </c>
       <c r="AA1159">
-        <v>0.53</v>
+        <v>-1</v>
       </c>
       <c r="AB1159">
-        <v>-1</v>
+        <v>1.06</v>
       </c>
       <c r="AC1159">
-        <v>0.99</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1160" spans="1:29">
@@ -103708,7 +103708,7 @@
         <v>1158</v>
       </c>
       <c r="B1160">
-        <v>6809438</v>
+        <v>6809434</v>
       </c>
       <c r="C1160" t="s">
         <v>28</v>
@@ -103720,58 +103720,58 @@
         <v>45280.72916666666</v>
       </c>
       <c r="F1160" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G1160" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="H1160">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I1160">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J1160" t="s">
         <v>55</v>
       </c>
       <c r="K1160">
-        <v>2.15</v>
+        <v>1.4</v>
       </c>
       <c r="L1160">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="M1160">
-        <v>2.9</v>
+        <v>7</v>
       </c>
       <c r="N1160">
-        <v>2.3</v>
+        <v>1.363</v>
       </c>
       <c r="O1160">
-        <v>3.5</v>
+        <v>5.25</v>
       </c>
       <c r="P1160">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="Q1160">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R1160">
-        <v>2.08</v>
+        <v>1.87</v>
       </c>
       <c r="S1160">
-        <v>1.82</v>
+        <v>2.06</v>
       </c>
       <c r="T1160">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U1160">
-        <v>2.06</v>
+        <v>1.91</v>
       </c>
       <c r="V1160">
-        <v>1.84</v>
+        <v>1.99</v>
       </c>
       <c r="W1160">
-        <v>1.3</v>
+        <v>0.363</v>
       </c>
       <c r="X1160">
         <v>-1</v>
@@ -103780,16 +103780,16 @@
         <v>-1</v>
       </c>
       <c r="Z1160">
-        <v>1.08</v>
+        <v>-0.5</v>
       </c>
       <c r="AA1160">
-        <v>-1</v>
+        <v>0.53</v>
       </c>
       <c r="AB1160">
-        <v>1.06</v>
+        <v>-1</v>
       </c>
       <c r="AC1160">
-        <v>-1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="1161" spans="1:29">
@@ -103975,7 +103975,7 @@
         <v>1161</v>
       </c>
       <c r="B1163">
-        <v>6809290</v>
+        <v>6809437</v>
       </c>
       <c r="C1163" t="s">
         <v>28</v>
@@ -103987,76 +103987,76 @@
         <v>45281.72916666666</v>
       </c>
       <c r="F1163" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="G1163" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="H1163">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1163">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J1163" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K1163">
-        <v>2.2</v>
+        <v>4.75</v>
       </c>
       <c r="L1163">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="M1163">
-        <v>3.4</v>
+        <v>1.666</v>
       </c>
       <c r="N1163">
-        <v>2.2</v>
+        <v>5.5</v>
       </c>
       <c r="O1163">
-        <v>2.9</v>
+        <v>4.2</v>
       </c>
       <c r="P1163">
-        <v>4</v>
+        <v>1.571</v>
       </c>
       <c r="Q1163">
-        <v>-0.25</v>
+        <v>1</v>
       </c>
       <c r="R1163">
-        <v>1.89</v>
+        <v>1.83</v>
       </c>
       <c r="S1163">
-        <v>2.01</v>
+        <v>2.07</v>
       </c>
       <c r="T1163">
-        <v>1.75</v>
+        <v>2.5</v>
       </c>
       <c r="U1163">
-        <v>1.95</v>
+        <v>1.88</v>
       </c>
       <c r="V1163">
-        <v>1.95</v>
+        <v>2.02</v>
       </c>
       <c r="W1163">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X1163">
         <v>-1</v>
       </c>
       <c r="Y1163">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="Z1163">
-        <v>0.8899999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA1163">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB1163">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC1163">
-        <v>-1</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="1164" spans="1:29">
@@ -104064,7 +104064,7 @@
         <v>1162</v>
       </c>
       <c r="B1164">
-        <v>6809437</v>
+        <v>6809290</v>
       </c>
       <c r="C1164" t="s">
         <v>28</v>
@@ -104076,76 +104076,76 @@
         <v>45281.72916666666</v>
       </c>
       <c r="F1164" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="G1164" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="H1164">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I1164">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J1164" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K1164">
-        <v>4.75</v>
+        <v>2.2</v>
       </c>
       <c r="L1164">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="M1164">
-        <v>1.666</v>
+        <v>3.4</v>
       </c>
       <c r="N1164">
-        <v>5.5</v>
+        <v>2.2</v>
       </c>
       <c r="O1164">
-        <v>4.2</v>
+        <v>2.9</v>
       </c>
       <c r="P1164">
-        <v>1.571</v>
+        <v>4</v>
       </c>
       <c r="Q1164">
-        <v>1</v>
+        <v>-0.25</v>
       </c>
       <c r="R1164">
-        <v>1.83</v>
+        <v>1.89</v>
       </c>
       <c r="S1164">
-        <v>2.07</v>
+        <v>2.01</v>
       </c>
       <c r="T1164">
-        <v>2.5</v>
+        <v>1.75</v>
       </c>
       <c r="U1164">
-        <v>1.88</v>
+        <v>1.95</v>
       </c>
       <c r="V1164">
-        <v>2.02</v>
+        <v>1.95</v>
       </c>
       <c r="W1164">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X1164">
         <v>-1</v>
       </c>
       <c r="Y1164">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="Z1164">
-        <v>0</v>
+        <v>0.8899999999999999</v>
       </c>
       <c r="AA1164">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB1164">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC1164">
-        <v>1.02</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1165" spans="1:29">
@@ -104598,7 +104598,7 @@
         <v>1168</v>
       </c>
       <c r="B1170">
-        <v>6809442</v>
+        <v>6809440</v>
       </c>
       <c r="C1170" t="s">
         <v>28</v>
@@ -104610,58 +104610,58 @@
         <v>45294.63541666666</v>
       </c>
       <c r="F1170" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G1170" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="H1170">
+        <v>2</v>
+      </c>
+      <c r="I1170">
         <v>1</v>
-      </c>
-      <c r="I1170">
-        <v>0</v>
       </c>
       <c r="J1170" t="s">
         <v>55</v>
       </c>
       <c r="K1170">
-        <v>1.222</v>
+        <v>2.25</v>
       </c>
       <c r="L1170">
-        <v>6.5</v>
+        <v>3.2</v>
       </c>
       <c r="M1170">
-        <v>11</v>
+        <v>3.25</v>
       </c>
       <c r="N1170">
-        <v>1.2</v>
+        <v>2.15</v>
       </c>
       <c r="O1170">
-        <v>6.5</v>
+        <v>3.2</v>
       </c>
       <c r="P1170">
-        <v>15</v>
+        <v>3.5</v>
       </c>
       <c r="Q1170">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R1170">
-        <v>1.95</v>
+        <v>1.89</v>
       </c>
       <c r="S1170">
-        <v>1.98</v>
+        <v>2.04</v>
       </c>
       <c r="T1170">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U1170">
-        <v>2.02</v>
+        <v>1.86</v>
       </c>
       <c r="V1170">
-        <v>1.88</v>
+        <v>2.04</v>
       </c>
       <c r="W1170">
-        <v>0.2</v>
+        <v>1.15</v>
       </c>
       <c r="X1170">
         <v>-1</v>
@@ -104670,16 +104670,16 @@
         <v>-1</v>
       </c>
       <c r="Z1170">
-        <v>-1</v>
+        <v>0.8899999999999999</v>
       </c>
       <c r="AA1170">
-        <v>0.98</v>
+        <v>-1</v>
       </c>
       <c r="AB1170">
-        <v>-1</v>
+        <v>0.8600000000000001</v>
       </c>
       <c r="AC1170">
-        <v>0.8799999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1171" spans="1:29">
@@ -104687,7 +104687,7 @@
         <v>1169</v>
       </c>
       <c r="B1171">
-        <v>6809440</v>
+        <v>6809442</v>
       </c>
       <c r="C1171" t="s">
         <v>28</v>
@@ -104699,58 +104699,58 @@
         <v>45294.63541666666</v>
       </c>
       <c r="F1171" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G1171" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="H1171">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1171">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J1171" t="s">
         <v>55</v>
       </c>
       <c r="K1171">
-        <v>2.25</v>
+        <v>1.222</v>
       </c>
       <c r="L1171">
-        <v>3.2</v>
+        <v>6.5</v>
       </c>
       <c r="M1171">
-        <v>3.25</v>
+        <v>11</v>
       </c>
       <c r="N1171">
-        <v>2.15</v>
+        <v>1.2</v>
       </c>
       <c r="O1171">
-        <v>3.2</v>
+        <v>6.5</v>
       </c>
       <c r="P1171">
-        <v>3.5</v>
+        <v>15</v>
       </c>
       <c r="Q1171">
-        <v>-0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R1171">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="S1171">
-        <v>2.04</v>
+        <v>1.98</v>
       </c>
       <c r="T1171">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U1171">
-        <v>1.86</v>
+        <v>2.02</v>
       </c>
       <c r="V1171">
-        <v>2.04</v>
+        <v>1.88</v>
       </c>
       <c r="W1171">
-        <v>1.15</v>
+        <v>0.2</v>
       </c>
       <c r="X1171">
         <v>-1</v>
@@ -104759,16 +104759,16 @@
         <v>-1</v>
       </c>
       <c r="Z1171">
-        <v>0.8899999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA1171">
-        <v>-1</v>
+        <v>0.98</v>
       </c>
       <c r="AB1171">
-        <v>0.8600000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC1171">
-        <v>-1</v>
+        <v>0.8799999999999999</v>
       </c>
     </row>
     <row r="1172" spans="1:29">
@@ -107473,31 +107473,31 @@
         <v>4.333</v>
       </c>
       <c r="N1202">
-        <v>1.833</v>
+        <v>1.85</v>
       </c>
       <c r="O1202">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P1202">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="Q1202">
         <v>-0.5</v>
       </c>
       <c r="R1202">
-        <v>1.83</v>
+        <v>1.89</v>
       </c>
       <c r="S1202">
-        <v>2.1</v>
+        <v>2.04</v>
       </c>
       <c r="T1202">
         <v>2.25</v>
       </c>
       <c r="U1202">
-        <v>2.05</v>
+        <v>2.06</v>
       </c>
       <c r="V1202">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="W1202">
         <v>0</v>
@@ -107568,10 +107568,10 @@
         <v>3</v>
       </c>
       <c r="U1203">
-        <v>2.04</v>
+        <v>2.03</v>
       </c>
       <c r="V1203">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="W1203">
         <v>0</v>
@@ -107621,31 +107621,31 @@
         <v>8.5</v>
       </c>
       <c r="N1204">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="O1204">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="P1204">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="Q1204">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="R1204">
-        <v>2.05</v>
+        <v>1.83</v>
       </c>
       <c r="S1204">
-        <v>1.85</v>
+        <v>2.07</v>
       </c>
       <c r="T1204">
         <v>2.75</v>
       </c>
       <c r="U1204">
-        <v>1.92</v>
+        <v>1.97</v>
       </c>
       <c r="V1204">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="W1204">
         <v>0</v>
@@ -107707,10 +107707,10 @@
         <v>1</v>
       </c>
       <c r="R1205">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="S1205">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="T1205">
         <v>2.5</v>
@@ -107855,19 +107855,19 @@
         <v>-0.75</v>
       </c>
       <c r="R1207">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="S1207">
-        <v>2.04</v>
+        <v>2.03</v>
       </c>
       <c r="T1207">
         <v>2.5</v>
       </c>
       <c r="U1207">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="V1207">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="W1207">
         <v>0</v>
@@ -108065,22 +108065,22 @@
         <v>2.9</v>
       </c>
       <c r="N1210">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="O1210">
         <v>3.6</v>
       </c>
       <c r="P1210">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Q1210">
         <v>-0.25</v>
       </c>
       <c r="R1210">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="S1210">
-        <v>2.03</v>
+        <v>2.02</v>
       </c>
       <c r="T1210">
         <v>2.5</v>
@@ -108151,10 +108151,10 @@
         <v>-0.75</v>
       </c>
       <c r="R1211">
-        <v>1.91</v>
+        <v>1.88</v>
       </c>
       <c r="S1211">
-        <v>1.99</v>
+        <v>2.02</v>
       </c>
       <c r="T1211">
         <v>2.5</v>
@@ -108234,10 +108234,10 @@
         <v>2</v>
       </c>
       <c r="U1212">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="V1212">
-        <v>2.03</v>
+        <v>1.99</v>
       </c>
       <c r="W1212">
         <v>0</v>
@@ -108456,10 +108456,10 @@
         <v>2.25</v>
       </c>
       <c r="U1215">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="V1215">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="W1215">
         <v>0</v>

--- a/Spain Primera Liga/Spain Primera Liga.xlsx
+++ b/Spain Primera Liga/Spain Primera Liga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6084" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6080" uniqueCount="58">
   <si>
     <t>id</t>
   </si>
@@ -549,7 +549,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC1215"/>
+  <dimension ref="A1:AC1214"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -52800,7 +52800,7 @@
         <v>586</v>
       </c>
       <c r="B588">
-        <v>4115963</v>
+        <v>4118971</v>
       </c>
       <c r="C588" t="s">
         <v>28</v>
@@ -52812,13 +52812,13 @@
         <v>44696.60416666666</v>
       </c>
       <c r="F588" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="G588" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="H588">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I588">
         <v>1</v>
@@ -52827,43 +52827,43 @@
         <v>55</v>
       </c>
       <c r="K588">
-        <v>2.375</v>
+        <v>1.666</v>
       </c>
       <c r="L588">
         <v>3.6</v>
       </c>
       <c r="M588">
-        <v>2.8</v>
+        <v>5.5</v>
       </c>
       <c r="N588">
-        <v>2.625</v>
+        <v>1.75</v>
       </c>
       <c r="O588">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P588">
-        <v>2.375</v>
+        <v>5</v>
       </c>
       <c r="Q588">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R588">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="S588">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="T588">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U588">
-        <v>2.03</v>
+        <v>2.1</v>
       </c>
       <c r="V588">
-        <v>1.87</v>
+        <v>1.8</v>
       </c>
       <c r="W588">
-        <v>1.625</v>
+        <v>0.75</v>
       </c>
       <c r="X588">
         <v>-1</v>
@@ -52872,13 +52872,13 @@
         <v>-1</v>
       </c>
       <c r="Z588">
-        <v>1.05</v>
+        <v>0.5149999999999999</v>
       </c>
       <c r="AA588">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB588">
-        <v>1.03</v>
+        <v>1.1</v>
       </c>
       <c r="AC588">
         <v>-1</v>
@@ -52889,7 +52889,7 @@
         <v>587</v>
       </c>
       <c r="B589">
-        <v>4233381</v>
+        <v>4237159</v>
       </c>
       <c r="C589" t="s">
         <v>28</v>
@@ -52901,76 +52901,76 @@
         <v>44696.60416666666</v>
       </c>
       <c r="F589" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="G589" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H589">
         <v>1</v>
       </c>
       <c r="I589">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J589" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K589">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="L589">
+        <v>3</v>
+      </c>
+      <c r="M589">
         <v>3.6</v>
       </c>
-      <c r="M589">
-        <v>3.2</v>
-      </c>
       <c r="N589">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="O589">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="P589">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="Q589">
         <v>-0.5</v>
       </c>
       <c r="R589">
-        <v>2.11</v>
+        <v>1.97</v>
       </c>
       <c r="S589">
-        <v>1.79</v>
+        <v>1.93</v>
       </c>
       <c r="T589">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U589">
-        <v>1.91</v>
+        <v>2.02</v>
       </c>
       <c r="V589">
-        <v>1.99</v>
+        <v>1.88</v>
       </c>
       <c r="W589">
         <v>-1</v>
       </c>
       <c r="X589">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y589">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z589">
         <v>-1</v>
       </c>
       <c r="AA589">
-        <v>0.79</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="AB589">
-        <v>0.9099999999999999</v>
+        <v>0</v>
       </c>
       <c r="AC589">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="590" spans="1:29">
@@ -52978,7 +52978,7 @@
         <v>588</v>
       </c>
       <c r="B590">
-        <v>4237159</v>
+        <v>4115963</v>
       </c>
       <c r="C590" t="s">
         <v>28</v>
@@ -52990,76 +52990,76 @@
         <v>44696.60416666666</v>
       </c>
       <c r="F590" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G590" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H590">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I590">
         <v>1</v>
       </c>
       <c r="J590" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K590">
-        <v>2.25</v>
+        <v>2.375</v>
       </c>
       <c r="L590">
+        <v>3.6</v>
+      </c>
+      <c r="M590">
+        <v>2.8</v>
+      </c>
+      <c r="N590">
+        <v>2.625</v>
+      </c>
+      <c r="O590">
+        <v>3.75</v>
+      </c>
+      <c r="P590">
+        <v>2.375</v>
+      </c>
+      <c r="Q590">
+        <v>0</v>
+      </c>
+      <c r="R590">
+        <v>2.05</v>
+      </c>
+      <c r="S590">
+        <v>1.85</v>
+      </c>
+      <c r="T590">
         <v>3</v>
       </c>
-      <c r="M590">
-        <v>3.6</v>
-      </c>
-      <c r="N590">
-        <v>1.95</v>
-      </c>
-      <c r="O590">
-        <v>3.1</v>
-      </c>
-      <c r="P590">
-        <v>4.75</v>
-      </c>
-      <c r="Q590">
-        <v>-0.5</v>
-      </c>
-      <c r="R590">
-        <v>1.97</v>
-      </c>
-      <c r="S590">
-        <v>1.93</v>
-      </c>
-      <c r="T590">
-        <v>2</v>
-      </c>
       <c r="U590">
-        <v>2.02</v>
+        <v>2.03</v>
       </c>
       <c r="V590">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="W590">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="X590">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y590">
         <v>-1</v>
       </c>
       <c r="Z590">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA590">
-        <v>0.9299999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB590">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AC590">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="591" spans="1:29">
@@ -53067,7 +53067,7 @@
         <v>589</v>
       </c>
       <c r="B591">
-        <v>4118971</v>
+        <v>4233381</v>
       </c>
       <c r="C591" t="s">
         <v>28</v>
@@ -53079,73 +53079,73 @@
         <v>44696.60416666666</v>
       </c>
       <c r="F591" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="G591" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H591">
+        <v>1</v>
+      </c>
+      <c r="I591">
         <v>2</v>
       </c>
-      <c r="I591">
-        <v>1</v>
-      </c>
       <c r="J591" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K591">
-        <v>1.666</v>
+        <v>2.15</v>
       </c>
       <c r="L591">
         <v>3.6</v>
       </c>
       <c r="M591">
-        <v>5.5</v>
+        <v>3.2</v>
       </c>
       <c r="N591">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="O591">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P591">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="Q591">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R591">
-        <v>2.03</v>
+        <v>2.11</v>
       </c>
       <c r="S591">
-        <v>1.87</v>
+        <v>1.79</v>
       </c>
       <c r="T591">
         <v>2.25</v>
       </c>
       <c r="U591">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="V591">
-        <v>1.8</v>
+        <v>1.99</v>
       </c>
       <c r="W591">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X591">
         <v>-1</v>
       </c>
       <c r="Y591">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z591">
-        <v>0.5149999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA591">
-        <v>-0.5</v>
+        <v>0.79</v>
       </c>
       <c r="AB591">
-        <v>1.1</v>
+        <v>0.9099999999999999</v>
       </c>
       <c r="AC591">
         <v>-1</v>
@@ -53601,7 +53601,7 @@
         <v>595</v>
       </c>
       <c r="B597">
-        <v>4250294</v>
+        <v>4145032</v>
       </c>
       <c r="C597" t="s">
         <v>28</v>
@@ -53613,76 +53613,76 @@
         <v>44701.66666666666</v>
       </c>
       <c r="F597" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="G597" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="H597">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I597">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J597" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K597">
-        <v>1.615</v>
+        <v>2.2</v>
       </c>
       <c r="L597">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="M597">
-        <v>4.75</v>
+        <v>3.1</v>
       </c>
       <c r="N597">
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
       <c r="O597">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P597">
-        <v>5.5</v>
+        <v>4.2</v>
       </c>
       <c r="Q597">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R597">
-        <v>2.07</v>
+        <v>2.03</v>
       </c>
       <c r="S597">
-        <v>1.83</v>
+        <v>1.87</v>
       </c>
       <c r="T597">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U597">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="V597">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="W597">
         <v>-1</v>
       </c>
       <c r="X597">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Y597">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z597">
         <v>-1</v>
       </c>
       <c r="AA597">
-        <v>0.8300000000000001</v>
+        <v>0.8700000000000001</v>
       </c>
       <c r="AB597">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC597">
-        <v>0.98</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="598" spans="1:29">
@@ -53690,7 +53690,7 @@
         <v>596</v>
       </c>
       <c r="B598">
-        <v>4145032</v>
+        <v>4250294</v>
       </c>
       <c r="C598" t="s">
         <v>28</v>
@@ -53702,76 +53702,76 @@
         <v>44701.66666666666</v>
       </c>
       <c r="F598" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="G598" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="H598">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I598">
+        <v>0</v>
+      </c>
+      <c r="J598" t="s">
+        <v>56</v>
+      </c>
+      <c r="K598">
+        <v>1.615</v>
+      </c>
+      <c r="L598">
+        <v>4.5</v>
+      </c>
+      <c r="M598">
+        <v>4.75</v>
+      </c>
+      <c r="N598">
+        <v>1.5</v>
+      </c>
+      <c r="O598">
+        <v>5</v>
+      </c>
+      <c r="P598">
+        <v>5.5</v>
+      </c>
+      <c r="Q598">
+        <v>-1.25</v>
+      </c>
+      <c r="R598">
+        <v>2.07</v>
+      </c>
+      <c r="S598">
+        <v>1.83</v>
+      </c>
+      <c r="T598">
+        <v>3.5</v>
+      </c>
+      <c r="U598">
+        <v>1.92</v>
+      </c>
+      <c r="V598">
+        <v>1.98</v>
+      </c>
+      <c r="W598">
+        <v>-1</v>
+      </c>
+      <c r="X598">
         <v>4</v>
       </c>
-      <c r="J598" t="s">
-        <v>57</v>
-      </c>
-      <c r="K598">
-        <v>2.2</v>
-      </c>
-      <c r="L598">
-        <v>3.6</v>
-      </c>
-      <c r="M598">
-        <v>3.1</v>
-      </c>
-      <c r="N598">
-        <v>1.75</v>
-      </c>
-      <c r="O598">
-        <v>4</v>
-      </c>
-      <c r="P598">
-        <v>4.2</v>
-      </c>
-      <c r="Q598">
-        <v>-0.75</v>
-      </c>
-      <c r="R598">
-        <v>2.03</v>
-      </c>
-      <c r="S598">
-        <v>1.87</v>
-      </c>
-      <c r="T598">
-        <v>3</v>
-      </c>
-      <c r="U598">
-        <v>1.9</v>
-      </c>
-      <c r="V598">
-        <v>2</v>
-      </c>
-      <c r="W598">
-        <v>-1</v>
-      </c>
-      <c r="X598">
-        <v>-1</v>
-      </c>
       <c r="Y598">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z598">
         <v>-1</v>
       </c>
       <c r="AA598">
-        <v>0.8700000000000001</v>
+        <v>0.8300000000000001</v>
       </c>
       <c r="AB598">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC598">
-        <v>-1</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="599" spans="1:29">
@@ -67307,7 +67307,7 @@
         <v>749</v>
       </c>
       <c r="B751">
-        <v>5934417</v>
+        <v>5934416</v>
       </c>
       <c r="C751" t="s">
         <v>28</v>
@@ -67319,10 +67319,10 @@
         <v>44925.63541666666</v>
       </c>
       <c r="F751" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G751" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="H751">
         <v>1</v>
@@ -67334,46 +67334,46 @@
         <v>56</v>
       </c>
       <c r="K751">
-        <v>2.3</v>
+        <v>2.375</v>
       </c>
       <c r="L751">
+        <v>3.2</v>
+      </c>
+      <c r="M751">
         <v>3.1</v>
       </c>
-      <c r="M751">
+      <c r="N751">
+        <v>2.2</v>
+      </c>
+      <c r="O751">
         <v>3.2</v>
       </c>
-      <c r="N751">
-        <v>2.15</v>
-      </c>
-      <c r="O751">
-        <v>3.25</v>
-      </c>
       <c r="P751">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="Q751">
         <v>-0.25</v>
       </c>
       <c r="R751">
-        <v>1.87</v>
+        <v>1.95</v>
       </c>
       <c r="S751">
-        <v>2.03</v>
+        <v>1.95</v>
       </c>
       <c r="T751">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U751">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="V751">
-        <v>2.04</v>
+        <v>2.05</v>
       </c>
       <c r="W751">
         <v>-1</v>
       </c>
       <c r="X751">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="Y751">
         <v>-1</v>
@@ -67382,13 +67382,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA751">
-        <v>0.5149999999999999</v>
+        <v>0.475</v>
       </c>
       <c r="AB751">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AC751">
-        <v>0.52</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="752" spans="1:29">
@@ -67396,7 +67396,7 @@
         <v>750</v>
       </c>
       <c r="B752">
-        <v>5934416</v>
+        <v>5934417</v>
       </c>
       <c r="C752" t="s">
         <v>28</v>
@@ -67408,10 +67408,10 @@
         <v>44925.63541666666</v>
       </c>
       <c r="F752" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="G752" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="H752">
         <v>1</v>
@@ -67423,46 +67423,46 @@
         <v>56</v>
       </c>
       <c r="K752">
-        <v>2.375</v>
+        <v>2.3</v>
       </c>
       <c r="L752">
+        <v>3.1</v>
+      </c>
+      <c r="M752">
         <v>3.2</v>
       </c>
-      <c r="M752">
-        <v>3.1</v>
-      </c>
       <c r="N752">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="O752">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P752">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="Q752">
         <v>-0.25</v>
       </c>
       <c r="R752">
-        <v>1.95</v>
+        <v>1.87</v>
       </c>
       <c r="S752">
-        <v>1.95</v>
+        <v>2.03</v>
       </c>
       <c r="T752">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U752">
-        <v>1.75</v>
+        <v>1.86</v>
       </c>
       <c r="V752">
-        <v>2.05</v>
+        <v>2.04</v>
       </c>
       <c r="W752">
         <v>-1</v>
       </c>
       <c r="X752">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="Y752">
         <v>-1</v>
@@ -67471,13 +67471,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA752">
-        <v>0.475</v>
+        <v>0.5149999999999999</v>
       </c>
       <c r="AB752">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AC752">
-        <v>-0</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="753" spans="1:29">
@@ -81814,7 +81814,7 @@
         <v>912</v>
       </c>
       <c r="B914">
-        <v>5466354</v>
+        <v>5466355</v>
       </c>
       <c r="C914" t="s">
         <v>28</v>
@@ -81826,49 +81826,49 @@
         <v>45043.60416666666</v>
       </c>
       <c r="F914" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G914" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="H914">
+        <v>4</v>
+      </c>
+      <c r="I914">
         <v>2</v>
-      </c>
-      <c r="I914">
-        <v>1</v>
       </c>
       <c r="J914" t="s">
         <v>55</v>
       </c>
       <c r="K914">
-        <v>1.666</v>
+        <v>1.55</v>
       </c>
       <c r="L914">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="M914">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="N914">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="O914">
-        <v>3.8</v>
+        <v>4.333</v>
       </c>
       <c r="P914">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q914">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R914">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="S914">
-        <v>1.95</v>
+        <v>1.99</v>
       </c>
       <c r="T914">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U914">
         <v>1.93</v>
@@ -81877,7 +81877,7 @@
         <v>1.97</v>
       </c>
       <c r="W914">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="X914">
         <v>-1</v>
@@ -81886,10 +81886,10 @@
         <v>-1</v>
       </c>
       <c r="Z914">
-        <v>0.475</v>
+        <v>0.9099999999999999</v>
       </c>
       <c r="AA914">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB914">
         <v>0.9299999999999999</v>
@@ -81903,7 +81903,7 @@
         <v>913</v>
       </c>
       <c r="B915">
-        <v>5466355</v>
+        <v>5466354</v>
       </c>
       <c r="C915" t="s">
         <v>28</v>
@@ -81915,49 +81915,49 @@
         <v>45043.60416666666</v>
       </c>
       <c r="F915" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G915" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="H915">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I915">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J915" t="s">
         <v>55</v>
       </c>
       <c r="K915">
-        <v>1.55</v>
+        <v>1.666</v>
       </c>
       <c r="L915">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="M915">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="N915">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="O915">
-        <v>4.333</v>
+        <v>3.8</v>
       </c>
       <c r="P915">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q915">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R915">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="S915">
-        <v>1.99</v>
+        <v>1.95</v>
       </c>
       <c r="T915">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U915">
         <v>1.93</v>
@@ -81966,7 +81966,7 @@
         <v>1.97</v>
       </c>
       <c r="W915">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="X915">
         <v>-1</v>
@@ -81975,10 +81975,10 @@
         <v>-1</v>
       </c>
       <c r="Z915">
-        <v>0.9099999999999999</v>
+        <v>0.475</v>
       </c>
       <c r="AA915">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB915">
         <v>0.9299999999999999</v>
@@ -103797,7 +103797,7 @@
         <v>1159</v>
       </c>
       <c r="B1161">
-        <v>6809289</v>
+        <v>6809436</v>
       </c>
       <c r="C1161" t="s">
         <v>28</v>
@@ -103809,76 +103809,76 @@
         <v>45281.625</v>
       </c>
       <c r="F1161" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="G1161" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="H1161">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1161">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J1161" t="s">
         <v>56</v>
       </c>
       <c r="K1161">
-        <v>2.4</v>
+        <v>4.333</v>
       </c>
       <c r="L1161">
+        <v>3.2</v>
+      </c>
+      <c r="M1161">
+        <v>1.85</v>
+      </c>
+      <c r="N1161">
+        <v>6</v>
+      </c>
+      <c r="O1161">
         <v>3.5</v>
       </c>
-      <c r="M1161">
-        <v>2.75</v>
-      </c>
-      <c r="N1161">
-        <v>2.6</v>
-      </c>
-      <c r="O1161">
-        <v>3.6</v>
-      </c>
       <c r="P1161">
+        <v>1.65</v>
+      </c>
+      <c r="Q1161">
+        <v>0.75</v>
+      </c>
+      <c r="R1161">
+        <v>1.98</v>
+      </c>
+      <c r="S1161">
+        <v>1.92</v>
+      </c>
+      <c r="T1161">
+        <v>2</v>
+      </c>
+      <c r="U1161">
+        <v>1.84</v>
+      </c>
+      <c r="V1161">
+        <v>2.06</v>
+      </c>
+      <c r="W1161">
+        <v>-1</v>
+      </c>
+      <c r="X1161">
         <v>2.5</v>
       </c>
-      <c r="Q1161">
-        <v>0</v>
-      </c>
-      <c r="R1161">
-        <v>1.97</v>
-      </c>
-      <c r="S1161">
-        <v>1.93</v>
-      </c>
-      <c r="T1161">
-        <v>2.75</v>
-      </c>
-      <c r="U1161">
-        <v>1.91</v>
-      </c>
-      <c r="V1161">
-        <v>1.99</v>
-      </c>
-      <c r="W1161">
-        <v>-1</v>
-      </c>
-      <c r="X1161">
-        <v>2.6</v>
-      </c>
       <c r="Y1161">
         <v>-1</v>
       </c>
       <c r="Z1161">
-        <v>0</v>
+        <v>0.98</v>
       </c>
       <c r="AA1161">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB1161">
         <v>-1</v>
       </c>
       <c r="AC1161">
-        <v>0.99</v>
+        <v>1.06</v>
       </c>
     </row>
     <row r="1162" spans="1:29">
@@ -103886,7 +103886,7 @@
         <v>1160</v>
       </c>
       <c r="B1162">
-        <v>6809436</v>
+        <v>6809289</v>
       </c>
       <c r="C1162" t="s">
         <v>28</v>
@@ -103898,76 +103898,76 @@
         <v>45281.625</v>
       </c>
       <c r="F1162" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="G1162" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="H1162">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I1162">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J1162" t="s">
         <v>56</v>
       </c>
       <c r="K1162">
-        <v>4.333</v>
+        <v>2.4</v>
       </c>
       <c r="L1162">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M1162">
-        <v>1.85</v>
+        <v>2.75</v>
       </c>
       <c r="N1162">
-        <v>6</v>
+        <v>2.6</v>
       </c>
       <c r="O1162">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P1162">
-        <v>1.65</v>
+        <v>2.5</v>
       </c>
       <c r="Q1162">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R1162">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="S1162">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="T1162">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U1162">
-        <v>1.84</v>
+        <v>1.91</v>
       </c>
       <c r="V1162">
-        <v>2.06</v>
+        <v>1.99</v>
       </c>
       <c r="W1162">
         <v>-1</v>
       </c>
       <c r="X1162">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="Y1162">
         <v>-1</v>
       </c>
       <c r="Z1162">
-        <v>0.98</v>
+        <v>0</v>
       </c>
       <c r="AA1162">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB1162">
         <v>-1</v>
       </c>
       <c r="AC1162">
-        <v>1.06</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="1163" spans="1:29">
@@ -107446,7 +107446,7 @@
         <v>1200</v>
       </c>
       <c r="B1202">
-        <v>7702914</v>
+        <v>6809300</v>
       </c>
       <c r="C1202" t="s">
         <v>28</v>
@@ -107455,49 +107455,49 @@
         <v>28</v>
       </c>
       <c r="E1202" s="2">
-        <v>45320.70833333334</v>
+        <v>45322.625</v>
       </c>
       <c r="F1202" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="G1202" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K1202">
-        <v>1.833</v>
+        <v>1.285</v>
       </c>
       <c r="L1202">
-        <v>3.5</v>
+        <v>5.25</v>
       </c>
       <c r="M1202">
-        <v>4.333</v>
+        <v>12</v>
       </c>
       <c r="N1202">
-        <v>1.85</v>
+        <v>1.333</v>
       </c>
       <c r="O1202">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="P1202">
-        <v>4.5</v>
+        <v>9</v>
       </c>
       <c r="Q1202">
-        <v>-0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R1202">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="S1202">
-        <v>2.04</v>
+        <v>1.95</v>
       </c>
       <c r="T1202">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U1202">
-        <v>2.06</v>
+        <v>2.03</v>
       </c>
       <c r="V1202">
-        <v>1.84</v>
+        <v>1.87</v>
       </c>
       <c r="W1202">
         <v>0</v>
@@ -107520,7 +107520,7 @@
         <v>1201</v>
       </c>
       <c r="B1203">
-        <v>6809300</v>
+        <v>6809445</v>
       </c>
       <c r="C1203" t="s">
         <v>28</v>
@@ -107529,49 +107529,49 @@
         <v>28</v>
       </c>
       <c r="E1203" s="2">
-        <v>45322.625</v>
+        <v>45322.70833333334</v>
       </c>
       <c r="F1203" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G1203" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="K1203">
-        <v>1.285</v>
+        <v>1.333</v>
       </c>
       <c r="L1203">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="M1203">
-        <v>12</v>
+        <v>8.5</v>
       </c>
       <c r="N1203">
-        <v>1.333</v>
+        <v>1.5</v>
       </c>
       <c r="O1203">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="P1203">
-        <v>9</v>
+        <v>6.5</v>
       </c>
       <c r="Q1203">
-        <v>-1.5</v>
+        <v>-1</v>
       </c>
       <c r="R1203">
-        <v>1.95</v>
+        <v>1.83</v>
       </c>
       <c r="S1203">
-        <v>1.95</v>
+        <v>2.07</v>
       </c>
       <c r="T1203">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U1203">
-        <v>2.03</v>
+        <v>1.97</v>
       </c>
       <c r="V1203">
-        <v>1.87</v>
+        <v>1.93</v>
       </c>
       <c r="W1203">
         <v>0</v>
@@ -107594,7 +107594,7 @@
         <v>1202</v>
       </c>
       <c r="B1204">
-        <v>6809445</v>
+        <v>6809447</v>
       </c>
       <c r="C1204" t="s">
         <v>28</v>
@@ -107603,49 +107603,49 @@
         <v>28</v>
       </c>
       <c r="E1204" s="2">
-        <v>45322.70833333334</v>
+        <v>45323.70833333334</v>
       </c>
       <c r="F1204" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="G1204" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="K1204">
-        <v>1.333</v>
+        <v>5.75</v>
       </c>
       <c r="L1204">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M1204">
-        <v>8.5</v>
+        <v>1.571</v>
       </c>
       <c r="N1204">
-        <v>1.5</v>
+        <v>6.5</v>
       </c>
       <c r="O1204">
         <v>4.2</v>
       </c>
       <c r="P1204">
-        <v>6.5</v>
+        <v>1.533</v>
       </c>
       <c r="Q1204">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="R1204">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="S1204">
-        <v>2.07</v>
+        <v>1.98</v>
       </c>
       <c r="T1204">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U1204">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="V1204">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="W1204">
         <v>0</v>
@@ -107668,7 +107668,7 @@
         <v>1203</v>
       </c>
       <c r="B1205">
-        <v>6809447</v>
+        <v>6809460</v>
       </c>
       <c r="C1205" t="s">
         <v>28</v>
@@ -107677,49 +107677,49 @@
         <v>28</v>
       </c>
       <c r="E1205" s="2">
-        <v>45323.70833333334</v>
+        <v>45324.70833333334</v>
       </c>
       <c r="F1205" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G1205" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="K1205">
-        <v>5.75</v>
+        <v>1.615</v>
       </c>
       <c r="L1205">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M1205">
-        <v>1.571</v>
+        <v>5.5</v>
       </c>
       <c r="N1205">
+        <v>1.5</v>
+      </c>
+      <c r="O1205">
+        <v>3.8</v>
+      </c>
+      <c r="P1205">
         <v>6.5</v>
       </c>
-      <c r="O1205">
-        <v>4.2</v>
-      </c>
-      <c r="P1205">
-        <v>1.533</v>
-      </c>
       <c r="Q1205">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="R1205">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="S1205">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="T1205">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U1205">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="V1205">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="W1205">
         <v>0</v>
@@ -107742,7 +107742,7 @@
         <v>1204</v>
       </c>
       <c r="B1206">
-        <v>6809460</v>
+        <v>6809316</v>
       </c>
       <c r="C1206" t="s">
         <v>28</v>
@@ -107751,49 +107751,49 @@
         <v>28</v>
       </c>
       <c r="E1206" s="2">
-        <v>45324.70833333334</v>
+        <v>45325.41666666666</v>
       </c>
       <c r="F1206" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G1206" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="K1206">
-        <v>1.615</v>
+        <v>1.666</v>
       </c>
       <c r="L1206">
         <v>3.75</v>
       </c>
       <c r="M1206">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="N1206">
-        <v>1.5</v>
+        <v>1.65</v>
       </c>
       <c r="O1206">
         <v>3.8</v>
       </c>
       <c r="P1206">
-        <v>6.5</v>
+        <v>5.25</v>
       </c>
       <c r="Q1206">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R1206">
-        <v>1.95</v>
+        <v>1.87</v>
       </c>
       <c r="S1206">
-        <v>1.95</v>
+        <v>2.03</v>
       </c>
       <c r="T1206">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U1206">
-        <v>1.95</v>
+        <v>2.01</v>
       </c>
       <c r="V1206">
-        <v>1.95</v>
+        <v>1.89</v>
       </c>
       <c r="W1206">
         <v>0</v>
@@ -107816,7 +107816,7 @@
         <v>1205</v>
       </c>
       <c r="B1207">
-        <v>6809316</v>
+        <v>6809462</v>
       </c>
       <c r="C1207" t="s">
         <v>28</v>
@@ -107825,49 +107825,49 @@
         <v>28</v>
       </c>
       <c r="E1207" s="2">
-        <v>45325.41666666666</v>
+        <v>45325.51041666666</v>
       </c>
       <c r="F1207" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G1207" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K1207">
-        <v>1.666</v>
+        <v>2.375</v>
       </c>
       <c r="L1207">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="M1207">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N1207">
-        <v>1.65</v>
+        <v>2.3</v>
       </c>
       <c r="O1207">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="P1207">
-        <v>5.25</v>
+        <v>3.25</v>
       </c>
       <c r="Q1207">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R1207">
-        <v>1.87</v>
+        <v>1.99</v>
       </c>
       <c r="S1207">
-        <v>2.03</v>
+        <v>1.91</v>
       </c>
       <c r="T1207">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U1207">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="V1207">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="W1207">
         <v>0</v>
@@ -107890,7 +107890,7 @@
         <v>1206</v>
       </c>
       <c r="B1208">
-        <v>6809462</v>
+        <v>6809315</v>
       </c>
       <c r="C1208" t="s">
         <v>28</v>
@@ -107899,49 +107899,49 @@
         <v>28</v>
       </c>
       <c r="E1208" s="2">
-        <v>45325.51041666666</v>
+        <v>45325.60416666666</v>
       </c>
       <c r="F1208" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G1208" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="K1208">
-        <v>2.375</v>
+        <v>6</v>
       </c>
       <c r="L1208">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="M1208">
-        <v>3</v>
+        <v>1.533</v>
       </c>
       <c r="N1208">
-        <v>2.3</v>
+        <v>5.25</v>
       </c>
       <c r="O1208">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="P1208">
-        <v>3.25</v>
+        <v>1.65</v>
       </c>
       <c r="Q1208">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R1208">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="S1208">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="T1208">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U1208">
-        <v>2.08</v>
+        <v>1.88</v>
       </c>
       <c r="V1208">
-        <v>1.82</v>
+        <v>2.02</v>
       </c>
       <c r="W1208">
         <v>0</v>
@@ -107964,7 +107964,7 @@
         <v>1207</v>
       </c>
       <c r="B1209">
-        <v>6809315</v>
+        <v>6809313</v>
       </c>
       <c r="C1209" t="s">
         <v>28</v>
@@ -107973,49 +107973,49 @@
         <v>28</v>
       </c>
       <c r="E1209" s="2">
-        <v>45325.60416666666</v>
+        <v>45325.70833333334</v>
       </c>
       <c r="F1209" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="G1209" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="K1209">
-        <v>6</v>
+        <v>2.25</v>
       </c>
       <c r="L1209">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M1209">
-        <v>1.533</v>
+        <v>2.9</v>
       </c>
       <c r="N1209">
-        <v>5.25</v>
+        <v>2.1</v>
       </c>
       <c r="O1209">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P1209">
-        <v>1.65</v>
+        <v>3.25</v>
       </c>
       <c r="Q1209">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R1209">
-        <v>2.03</v>
+        <v>1.88</v>
       </c>
       <c r="S1209">
-        <v>1.87</v>
+        <v>2.02</v>
       </c>
       <c r="T1209">
         <v>2.5</v>
       </c>
       <c r="U1209">
-        <v>1.88</v>
+        <v>2.06</v>
       </c>
       <c r="V1209">
-        <v>2.02</v>
+        <v>1.84</v>
       </c>
       <c r="W1209">
         <v>0</v>
@@ -108038,7 +108038,7 @@
         <v>1208</v>
       </c>
       <c r="B1210">
-        <v>6809313</v>
+        <v>6809464</v>
       </c>
       <c r="C1210" t="s">
         <v>28</v>
@@ -108047,34 +108047,34 @@
         <v>28</v>
       </c>
       <c r="E1210" s="2">
-        <v>45325.70833333334</v>
+        <v>45326.41666666666</v>
       </c>
       <c r="F1210" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="G1210" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="K1210">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="L1210">
         <v>3.6</v>
       </c>
       <c r="M1210">
-        <v>2.9</v>
+        <v>4.333</v>
       </c>
       <c r="N1210">
-        <v>2.1</v>
+        <v>1.65</v>
       </c>
       <c r="O1210">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P1210">
-        <v>3.25</v>
+        <v>5.25</v>
       </c>
       <c r="Q1210">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R1210">
         <v>1.88</v>
@@ -108086,10 +108086,10 @@
         <v>2.5</v>
       </c>
       <c r="U1210">
-        <v>2.06</v>
+        <v>1.9</v>
       </c>
       <c r="V1210">
-        <v>1.84</v>
+        <v>2</v>
       </c>
       <c r="W1210">
         <v>0</v>
@@ -108112,7 +108112,7 @@
         <v>1209</v>
       </c>
       <c r="B1211">
-        <v>6809464</v>
+        <v>6809317</v>
       </c>
       <c r="C1211" t="s">
         <v>28</v>
@@ -108121,49 +108121,49 @@
         <v>28</v>
       </c>
       <c r="E1211" s="2">
-        <v>45326.41666666666</v>
+        <v>45326.51041666666</v>
       </c>
       <c r="F1211" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="G1211" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="K1211">
-        <v>1.8</v>
+        <v>2.3</v>
       </c>
       <c r="L1211">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="M1211">
-        <v>4.333</v>
+        <v>3.1</v>
       </c>
       <c r="N1211">
-        <v>1.65</v>
+        <v>2.3</v>
       </c>
       <c r="O1211">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="P1211">
-        <v>5.25</v>
+        <v>3.3</v>
       </c>
       <c r="Q1211">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R1211">
-        <v>1.88</v>
+        <v>2.01</v>
       </c>
       <c r="S1211">
-        <v>2.02</v>
+        <v>1.89</v>
       </c>
       <c r="T1211">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U1211">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="V1211">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="W1211">
         <v>0</v>
@@ -108186,7 +108186,7 @@
         <v>1210</v>
       </c>
       <c r="B1212">
-        <v>6809317</v>
+        <v>6809461</v>
       </c>
       <c r="C1212" t="s">
         <v>28</v>
@@ -108195,49 +108195,49 @@
         <v>28</v>
       </c>
       <c r="E1212" s="2">
-        <v>45326.51041666666</v>
+        <v>45326.60416666666</v>
       </c>
       <c r="F1212" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="G1212" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="K1212">
-        <v>2.3</v>
+        <v>1.833</v>
       </c>
       <c r="L1212">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M1212">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="N1212">
-        <v>2.3</v>
+        <v>1.85</v>
       </c>
       <c r="O1212">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="P1212">
-        <v>3.3</v>
+        <v>4.333</v>
       </c>
       <c r="Q1212">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R1212">
-        <v>2.01</v>
+        <v>1.95</v>
       </c>
       <c r="S1212">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="T1212">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U1212">
-        <v>1.91</v>
+        <v>2.07</v>
       </c>
       <c r="V1212">
-        <v>1.99</v>
+        <v>1.83</v>
       </c>
       <c r="W1212">
         <v>0</v>
@@ -108260,7 +108260,7 @@
         <v>1211</v>
       </c>
       <c r="B1213">
-        <v>6809461</v>
+        <v>6809463</v>
       </c>
       <c r="C1213" t="s">
         <v>28</v>
@@ -108269,49 +108269,49 @@
         <v>28</v>
       </c>
       <c r="E1213" s="2">
-        <v>45326.60416666666</v>
+        <v>45326.70833333334</v>
       </c>
       <c r="F1213" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G1213" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="K1213">
-        <v>1.833</v>
+        <v>1.8</v>
       </c>
       <c r="L1213">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M1213">
-        <v>4.5</v>
+        <v>4.333</v>
       </c>
       <c r="N1213">
-        <v>1.85</v>
+        <v>1.7</v>
       </c>
       <c r="O1213">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P1213">
-        <v>4.333</v>
+        <v>4.75</v>
       </c>
       <c r="Q1213">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R1213">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="S1213">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="T1213">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U1213">
-        <v>2.07</v>
+        <v>1.87</v>
       </c>
       <c r="V1213">
-        <v>1.83</v>
+        <v>2.03</v>
       </c>
       <c r="W1213">
         <v>0</v>
@@ -108334,7 +108334,7 @@
         <v>1212</v>
       </c>
       <c r="B1214">
-        <v>6809463</v>
+        <v>6809314</v>
       </c>
       <c r="C1214" t="s">
         <v>28</v>
@@ -108343,34 +108343,34 @@
         <v>28</v>
       </c>
       <c r="E1214" s="2">
-        <v>45326.70833333334</v>
+        <v>45327.70833333334</v>
       </c>
       <c r="F1214" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="G1214" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="K1214">
-        <v>1.8</v>
+        <v>2.375</v>
       </c>
       <c r="L1214">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="M1214">
-        <v>4.333</v>
+        <v>3</v>
       </c>
       <c r="N1214">
-        <v>1.7</v>
+        <v>2.2</v>
       </c>
       <c r="O1214">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="P1214">
-        <v>4.75</v>
+        <v>3.3</v>
       </c>
       <c r="Q1214">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R1214">
         <v>1.92</v>
@@ -108379,13 +108379,13 @@
         <v>1.98</v>
       </c>
       <c r="T1214">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U1214">
-        <v>1.87</v>
+        <v>1.98</v>
       </c>
       <c r="V1214">
-        <v>2.03</v>
+        <v>1.92</v>
       </c>
       <c r="W1214">
         <v>0</v>
@@ -108400,80 +108400,6 @@
         <v>0</v>
       </c>
       <c r="AA1214">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1215" spans="1:29">
-      <c r="A1215" s="1">
-        <v>1213</v>
-      </c>
-      <c r="B1215">
-        <v>6809314</v>
-      </c>
-      <c r="C1215" t="s">
-        <v>28</v>
-      </c>
-      <c r="D1215" t="s">
-        <v>28</v>
-      </c>
-      <c r="E1215" s="2">
-        <v>45327.70833333334</v>
-      </c>
-      <c r="F1215" t="s">
-        <v>51</v>
-      </c>
-      <c r="G1215" t="s">
-        <v>40</v>
-      </c>
-      <c r="K1215">
-        <v>2.375</v>
-      </c>
-      <c r="L1215">
-        <v>3.25</v>
-      </c>
-      <c r="M1215">
-        <v>3</v>
-      </c>
-      <c r="N1215">
-        <v>2.2</v>
-      </c>
-      <c r="O1215">
-        <v>3.3</v>
-      </c>
-      <c r="P1215">
-        <v>3.3</v>
-      </c>
-      <c r="Q1215">
-        <v>-0.25</v>
-      </c>
-      <c r="R1215">
-        <v>1.92</v>
-      </c>
-      <c r="S1215">
-        <v>1.98</v>
-      </c>
-      <c r="T1215">
-        <v>2.25</v>
-      </c>
-      <c r="U1215">
-        <v>1.98</v>
-      </c>
-      <c r="V1215">
-        <v>1.92</v>
-      </c>
-      <c r="W1215">
-        <v>0</v>
-      </c>
-      <c r="X1215">
-        <v>0</v>
-      </c>
-      <c r="Y1215">
-        <v>0</v>
-      </c>
-      <c r="Z1215">
-        <v>0</v>
-      </c>
-      <c r="AA1215">
         <v>0</v>
       </c>
     </row>

--- a/Spain Primera Liga/Spain Primera Liga.xlsx
+++ b/Spain Primera Liga/Spain Primera Liga.xlsx
@@ -67663,7 +67663,7 @@
         <v>753</v>
       </c>
       <c r="B755">
-        <v>5934429</v>
+        <v>5934420</v>
       </c>
       <c r="C755" t="s">
         <v>28</v>
@@ -67675,58 +67675,58 @@
         <v>44926.51041666666</v>
       </c>
       <c r="F755" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G755" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H755">
         <v>2</v>
       </c>
       <c r="I755">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J755" t="s">
         <v>55</v>
       </c>
       <c r="K755">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="L755">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M755">
-        <v>3.8</v>
+        <v>4.333</v>
       </c>
       <c r="N755">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="O755">
         <v>3.3</v>
       </c>
       <c r="P755">
-        <v>3.8</v>
+        <v>4.333</v>
       </c>
       <c r="Q755">
         <v>-0.5</v>
       </c>
       <c r="R755">
-        <v>2.03</v>
+        <v>1.92</v>
       </c>
       <c r="S755">
-        <v>1.87</v>
+        <v>1.98</v>
       </c>
       <c r="T755">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U755">
-        <v>1.95</v>
+        <v>1.86</v>
       </c>
       <c r="V755">
-        <v>1.95</v>
+        <v>2.04</v>
       </c>
       <c r="W755">
-        <v>1</v>
+        <v>0.909</v>
       </c>
       <c r="X755">
         <v>-1</v>
@@ -67735,16 +67735,16 @@
         <v>-1</v>
       </c>
       <c r="Z755">
-        <v>1.03</v>
+        <v>0.9199999999999999</v>
       </c>
       <c r="AA755">
         <v>-1</v>
       </c>
       <c r="AB755">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AC755">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="756" spans="1:29">
@@ -67752,7 +67752,7 @@
         <v>754</v>
       </c>
       <c r="B756">
-        <v>5934420</v>
+        <v>5934429</v>
       </c>
       <c r="C756" t="s">
         <v>28</v>
@@ -67764,58 +67764,58 @@
         <v>44926.51041666666</v>
       </c>
       <c r="F756" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G756" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H756">
         <v>2</v>
       </c>
       <c r="I756">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J756" t="s">
         <v>55</v>
       </c>
       <c r="K756">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="L756">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M756">
-        <v>4.333</v>
+        <v>3.8</v>
       </c>
       <c r="N756">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="O756">
         <v>3.3</v>
       </c>
       <c r="P756">
-        <v>4.333</v>
+        <v>3.8</v>
       </c>
       <c r="Q756">
         <v>-0.5</v>
       </c>
       <c r="R756">
-        <v>1.92</v>
+        <v>2.03</v>
       </c>
       <c r="S756">
-        <v>1.98</v>
+        <v>1.87</v>
       </c>
       <c r="T756">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U756">
-        <v>1.86</v>
+        <v>1.95</v>
       </c>
       <c r="V756">
-        <v>2.04</v>
+        <v>1.95</v>
       </c>
       <c r="W756">
-        <v>0.909</v>
+        <v>1</v>
       </c>
       <c r="X756">
         <v>-1</v>
@@ -67824,16 +67824,16 @@
         <v>-1</v>
       </c>
       <c r="Z756">
-        <v>0.9199999999999999</v>
+        <v>1.03</v>
       </c>
       <c r="AA756">
         <v>-1</v>
       </c>
       <c r="AB756">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AC756">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="757" spans="1:29">
@@ -81191,7 +81191,7 @@
         <v>905</v>
       </c>
       <c r="B907">
-        <v>5461881</v>
+        <v>5470775</v>
       </c>
       <c r="C907" t="s">
         <v>28</v>
@@ -81203,76 +81203,76 @@
         <v>45041.60416666666</v>
       </c>
       <c r="F907" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="G907" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="H907">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I907">
+        <v>2</v>
+      </c>
+      <c r="J907" t="s">
+        <v>55</v>
+      </c>
+      <c r="K907">
+        <v>6</v>
+      </c>
+      <c r="L907">
+        <v>4</v>
+      </c>
+      <c r="M907">
+        <v>1.533</v>
+      </c>
+      <c r="N907">
+        <v>5.25</v>
+      </c>
+      <c r="O907">
+        <v>4.2</v>
+      </c>
+      <c r="P907">
+        <v>1.6</v>
+      </c>
+      <c r="Q907">
         <v>1</v>
       </c>
-      <c r="J907" t="s">
-        <v>57</v>
-      </c>
-      <c r="K907">
-        <v>2.3</v>
-      </c>
-      <c r="L907">
-        <v>3.2</v>
-      </c>
-      <c r="M907">
-        <v>3.2</v>
-      </c>
-      <c r="N907">
-        <v>2.05</v>
-      </c>
-      <c r="O907">
-        <v>3.2</v>
-      </c>
-      <c r="P907">
-        <v>4</v>
-      </c>
-      <c r="Q907">
-        <v>-0.5</v>
-      </c>
       <c r="R907">
-        <v>2.08</v>
+        <v>1.84</v>
       </c>
       <c r="S907">
-        <v>1.82</v>
+        <v>2.06</v>
       </c>
       <c r="T907">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U907">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="V907">
-        <v>1.97</v>
+        <v>1.95</v>
       </c>
       <c r="W907">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="X907">
         <v>-1</v>
       </c>
       <c r="Y907">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z907">
-        <v>-1</v>
+        <v>0.8400000000000001</v>
       </c>
       <c r="AA907">
-        <v>0.8200000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB907">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC907">
-        <v>0.97</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="908" spans="1:29">
@@ -81280,7 +81280,7 @@
         <v>906</v>
       </c>
       <c r="B908">
-        <v>5470775</v>
+        <v>5461881</v>
       </c>
       <c r="C908" t="s">
         <v>28</v>
@@ -81292,76 +81292,76 @@
         <v>45041.60416666666</v>
       </c>
       <c r="F908" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="G908" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="H908">
+        <v>0</v>
+      </c>
+      <c r="I908">
+        <v>1</v>
+      </c>
+      <c r="J908" t="s">
+        <v>57</v>
+      </c>
+      <c r="K908">
+        <v>2.3</v>
+      </c>
+      <c r="L908">
+        <v>3.2</v>
+      </c>
+      <c r="M908">
+        <v>3.2</v>
+      </c>
+      <c r="N908">
+        <v>2.05</v>
+      </c>
+      <c r="O908">
+        <v>3.2</v>
+      </c>
+      <c r="P908">
         <v>4</v>
       </c>
-      <c r="I908">
+      <c r="Q908">
+        <v>-0.5</v>
+      </c>
+      <c r="R908">
+        <v>2.08</v>
+      </c>
+      <c r="S908">
+        <v>1.82</v>
+      </c>
+      <c r="T908">
         <v>2</v>
       </c>
-      <c r="J908" t="s">
-        <v>55</v>
-      </c>
-      <c r="K908">
-        <v>6</v>
-      </c>
-      <c r="L908">
-        <v>4</v>
-      </c>
-      <c r="M908">
-        <v>1.533</v>
-      </c>
-      <c r="N908">
-        <v>5.25</v>
-      </c>
-      <c r="O908">
-        <v>4.2</v>
-      </c>
-      <c r="P908">
-        <v>1.6</v>
-      </c>
-      <c r="Q908">
-        <v>1</v>
-      </c>
-      <c r="R908">
-        <v>1.84</v>
-      </c>
-      <c r="S908">
-        <v>2.06</v>
-      </c>
-      <c r="T908">
+      <c r="U908">
+        <v>1.93</v>
+      </c>
+      <c r="V908">
+        <v>1.97</v>
+      </c>
+      <c r="W908">
+        <v>-1</v>
+      </c>
+      <c r="X908">
+        <v>-1</v>
+      </c>
+      <c r="Y908">
         <v>3</v>
       </c>
-      <c r="U908">
-        <v>1.95</v>
-      </c>
-      <c r="V908">
-        <v>1.95</v>
-      </c>
-      <c r="W908">
-        <v>4.25</v>
-      </c>
-      <c r="X908">
-        <v>-1</v>
-      </c>
-      <c r="Y908">
-        <v>-1</v>
-      </c>
       <c r="Z908">
-        <v>0.8400000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA908">
-        <v>-1</v>
+        <v>0.8200000000000001</v>
       </c>
       <c r="AB908">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC908">
-        <v>-1</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="909" spans="1:29">
@@ -81458,7 +81458,7 @@
         <v>908</v>
       </c>
       <c r="B910">
-        <v>5471430</v>
+        <v>5475945</v>
       </c>
       <c r="C910" t="s">
         <v>28</v>
@@ -81470,73 +81470,73 @@
         <v>45042.60416666666</v>
       </c>
       <c r="F910" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="G910" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H910">
+        <v>3</v>
+      </c>
+      <c r="I910">
         <v>1</v>
       </c>
-      <c r="I910">
-        <v>2</v>
-      </c>
       <c r="J910" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K910">
-        <v>1.95</v>
+        <v>1.363</v>
       </c>
       <c r="L910">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="M910">
-        <v>3.8</v>
+        <v>9</v>
       </c>
       <c r="N910">
-        <v>1.85</v>
+        <v>1.3</v>
       </c>
       <c r="O910">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="P910">
-        <v>4.5</v>
+        <v>12</v>
       </c>
       <c r="Q910">
-        <v>-0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R910">
-        <v>1.88</v>
+        <v>2.04</v>
       </c>
       <c r="S910">
-        <v>2.02</v>
+        <v>1.86</v>
       </c>
       <c r="T910">
         <v>2.25</v>
       </c>
       <c r="U910">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="V910">
-        <v>1.9</v>
+        <v>2.03</v>
       </c>
       <c r="W910">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="X910">
         <v>-1</v>
       </c>
       <c r="Y910">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Z910">
-        <v>-1</v>
+        <v>1.04</v>
       </c>
       <c r="AA910">
-        <v>1.02</v>
+        <v>-1</v>
       </c>
       <c r="AB910">
-        <v>1</v>
+        <v>0.8700000000000001</v>
       </c>
       <c r="AC910">
         <v>-1</v>
@@ -81547,7 +81547,7 @@
         <v>909</v>
       </c>
       <c r="B911">
-        <v>5475945</v>
+        <v>5471430</v>
       </c>
       <c r="C911" t="s">
         <v>28</v>
@@ -81559,73 +81559,73 @@
         <v>45042.60416666666</v>
       </c>
       <c r="F911" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="G911" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="H911">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I911">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J911" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K911">
-        <v>1.363</v>
+        <v>1.95</v>
       </c>
       <c r="L911">
+        <v>3.4</v>
+      </c>
+      <c r="M911">
+        <v>3.8</v>
+      </c>
+      <c r="N911">
+        <v>1.85</v>
+      </c>
+      <c r="O911">
+        <v>3.5</v>
+      </c>
+      <c r="P911">
         <v>4.5</v>
       </c>
-      <c r="M911">
-        <v>9</v>
-      </c>
-      <c r="N911">
-        <v>1.3</v>
-      </c>
-      <c r="O911">
-        <v>4.75</v>
-      </c>
-      <c r="P911">
-        <v>12</v>
-      </c>
       <c r="Q911">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R911">
-        <v>2.04</v>
+        <v>1.88</v>
       </c>
       <c r="S911">
-        <v>1.86</v>
+        <v>2.02</v>
       </c>
       <c r="T911">
         <v>2.25</v>
       </c>
       <c r="U911">
-        <v>1.87</v>
+        <v>2</v>
       </c>
       <c r="V911">
-        <v>2.03</v>
+        <v>1.9</v>
       </c>
       <c r="W911">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="X911">
         <v>-1</v>
       </c>
       <c r="Y911">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Z911">
-        <v>1.04</v>
+        <v>-1</v>
       </c>
       <c r="AA911">
-        <v>-1</v>
+        <v>1.02</v>
       </c>
       <c r="AB911">
-        <v>0.8700000000000001</v>
+        <v>1</v>
       </c>
       <c r="AC911">
         <v>-1</v>
@@ -81814,7 +81814,7 @@
         <v>912</v>
       </c>
       <c r="B914">
-        <v>5466355</v>
+        <v>5466354</v>
       </c>
       <c r="C914" t="s">
         <v>28</v>
@@ -81826,49 +81826,49 @@
         <v>45043.60416666666</v>
       </c>
       <c r="F914" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G914" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="H914">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I914">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J914" t="s">
         <v>55</v>
       </c>
       <c r="K914">
-        <v>1.55</v>
+        <v>1.666</v>
       </c>
       <c r="L914">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="M914">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="N914">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="O914">
-        <v>4.333</v>
+        <v>3.8</v>
       </c>
       <c r="P914">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q914">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R914">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="S914">
-        <v>1.99</v>
+        <v>1.95</v>
       </c>
       <c r="T914">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U914">
         <v>1.93</v>
@@ -81877,7 +81877,7 @@
         <v>1.97</v>
       </c>
       <c r="W914">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="X914">
         <v>-1</v>
@@ -81886,10 +81886,10 @@
         <v>-1</v>
       </c>
       <c r="Z914">
-        <v>0.9099999999999999</v>
+        <v>0.475</v>
       </c>
       <c r="AA914">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB914">
         <v>0.9299999999999999</v>
@@ -81903,7 +81903,7 @@
         <v>913</v>
       </c>
       <c r="B915">
-        <v>5466354</v>
+        <v>5466355</v>
       </c>
       <c r="C915" t="s">
         <v>28</v>
@@ -81915,49 +81915,49 @@
         <v>45043.60416666666</v>
       </c>
       <c r="F915" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G915" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="H915">
+        <v>4</v>
+      </c>
+      <c r="I915">
         <v>2</v>
-      </c>
-      <c r="I915">
-        <v>1</v>
       </c>
       <c r="J915" t="s">
         <v>55</v>
       </c>
       <c r="K915">
-        <v>1.666</v>
+        <v>1.55</v>
       </c>
       <c r="L915">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="M915">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="N915">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="O915">
-        <v>3.8</v>
+        <v>4.333</v>
       </c>
       <c r="P915">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q915">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R915">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="S915">
-        <v>1.95</v>
+        <v>1.99</v>
       </c>
       <c r="T915">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U915">
         <v>1.93</v>
@@ -81966,7 +81966,7 @@
         <v>1.97</v>
       </c>
       <c r="W915">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="X915">
         <v>-1</v>
@@ -81975,10 +81975,10 @@
         <v>-1</v>
       </c>
       <c r="Z915">
-        <v>0.475</v>
+        <v>0.9099999999999999</v>
       </c>
       <c r="AA915">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB915">
         <v>0.9299999999999999</v>
@@ -83327,7 +83327,7 @@
         <v>929</v>
       </c>
       <c r="B931">
-        <v>5534214</v>
+        <v>5549244</v>
       </c>
       <c r="C931" t="s">
         <v>28</v>
@@ -83339,58 +83339,58 @@
         <v>45049.70833333334</v>
       </c>
       <c r="F931" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="G931" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="H931">
+        <v>5</v>
+      </c>
+      <c r="I931">
         <v>1</v>
-      </c>
-      <c r="I931">
-        <v>0</v>
       </c>
       <c r="J931" t="s">
         <v>55</v>
       </c>
       <c r="K931">
-        <v>2.55</v>
+        <v>1.3</v>
       </c>
       <c r="L931">
+        <v>5.5</v>
+      </c>
+      <c r="M931">
+        <v>10</v>
+      </c>
+      <c r="N931">
+        <v>1.333</v>
+      </c>
+      <c r="O931">
+        <v>5.25</v>
+      </c>
+      <c r="P931">
+        <v>9.5</v>
+      </c>
+      <c r="Q931">
+        <v>-1.5</v>
+      </c>
+      <c r="R931">
+        <v>1.95</v>
+      </c>
+      <c r="S931">
+        <v>1.95</v>
+      </c>
+      <c r="T931">
         <v>3</v>
       </c>
-      <c r="M931">
-        <v>3</v>
-      </c>
-      <c r="N931">
-        <v>2.8</v>
-      </c>
-      <c r="O931">
-        <v>2.9</v>
-      </c>
-      <c r="P931">
-        <v>2.875</v>
-      </c>
-      <c r="Q931">
-        <v>0</v>
-      </c>
-      <c r="R931">
-        <v>1.9</v>
-      </c>
-      <c r="S931">
-        <v>2</v>
-      </c>
-      <c r="T931">
-        <v>1.75</v>
-      </c>
       <c r="U931">
-        <v>1.86</v>
+        <v>2.07</v>
       </c>
       <c r="V931">
-        <v>2.04</v>
+        <v>1.83</v>
       </c>
       <c r="W931">
-        <v>1.8</v>
+        <v>0.333</v>
       </c>
       <c r="X931">
         <v>-1</v>
@@ -83399,16 +83399,16 @@
         <v>-1</v>
       </c>
       <c r="Z931">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AA931">
         <v>-1</v>
       </c>
       <c r="AB931">
-        <v>-1</v>
+        <v>1.07</v>
       </c>
       <c r="AC931">
-        <v>1.04</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="932" spans="1:29">
@@ -83416,7 +83416,7 @@
         <v>930</v>
       </c>
       <c r="B932">
-        <v>5549244</v>
+        <v>5534214</v>
       </c>
       <c r="C932" t="s">
         <v>28</v>
@@ -83428,58 +83428,58 @@
         <v>45049.70833333334</v>
       </c>
       <c r="F932" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="G932" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H932">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I932">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J932" t="s">
         <v>55</v>
       </c>
       <c r="K932">
-        <v>1.3</v>
+        <v>2.55</v>
       </c>
       <c r="L932">
-        <v>5.5</v>
+        <v>3</v>
       </c>
       <c r="M932">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="N932">
-        <v>1.333</v>
+        <v>2.8</v>
       </c>
       <c r="O932">
-        <v>5.25</v>
+        <v>2.9</v>
       </c>
       <c r="P932">
-        <v>9.5</v>
+        <v>2.875</v>
       </c>
       <c r="Q932">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="R932">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S932">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T932">
-        <v>3</v>
+        <v>1.75</v>
       </c>
       <c r="U932">
-        <v>2.07</v>
+        <v>1.86</v>
       </c>
       <c r="V932">
-        <v>1.83</v>
+        <v>2.04</v>
       </c>
       <c r="W932">
-        <v>0.333</v>
+        <v>1.8</v>
       </c>
       <c r="X932">
         <v>-1</v>
@@ -83488,16 +83488,16 @@
         <v>-1</v>
       </c>
       <c r="Z932">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA932">
         <v>-1</v>
       </c>
       <c r="AB932">
-        <v>1.07</v>
+        <v>-1</v>
       </c>
       <c r="AC932">
-        <v>-1</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="933" spans="1:29">
@@ -83683,7 +83683,7 @@
         <v>933</v>
       </c>
       <c r="B935">
-        <v>5549243</v>
+        <v>5540274</v>
       </c>
       <c r="C935" t="s">
         <v>28</v>
@@ -83695,76 +83695,76 @@
         <v>45050.70833333334</v>
       </c>
       <c r="F935" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="G935" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="H935">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I935">
         <v>1</v>
       </c>
       <c r="J935" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K935">
-        <v>1.615</v>
+        <v>1.65</v>
       </c>
       <c r="L935">
         <v>3.8</v>
       </c>
       <c r="M935">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="N935">
-        <v>1.615</v>
+        <v>1.909</v>
       </c>
       <c r="O935">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P935">
-        <v>5.5</v>
+        <v>3.8</v>
       </c>
       <c r="Q935">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R935">
-        <v>1.82</v>
+        <v>1.95</v>
       </c>
       <c r="S935">
-        <v>2.08</v>
+        <v>1.95</v>
       </c>
       <c r="T935">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U935">
-        <v>1.87</v>
+        <v>2</v>
       </c>
       <c r="V935">
-        <v>2.03</v>
+        <v>1.9</v>
       </c>
       <c r="W935">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X935">
         <v>-1</v>
       </c>
       <c r="Y935">
-        <v>4.5</v>
+        <v>-1</v>
       </c>
       <c r="Z935">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA935">
-        <v>1.08</v>
+        <v>-1</v>
       </c>
       <c r="AB935">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC935">
-        <v>1.03</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="936" spans="1:29">
@@ -83772,7 +83772,7 @@
         <v>934</v>
       </c>
       <c r="B936">
-        <v>5540274</v>
+        <v>5549243</v>
       </c>
       <c r="C936" t="s">
         <v>28</v>
@@ -83784,76 +83784,76 @@
         <v>45050.70833333334</v>
       </c>
       <c r="F936" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="G936" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="H936">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I936">
         <v>1</v>
       </c>
       <c r="J936" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K936">
-        <v>1.65</v>
+        <v>1.615</v>
       </c>
       <c r="L936">
         <v>3.8</v>
       </c>
       <c r="M936">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="N936">
-        <v>1.909</v>
+        <v>1.615</v>
       </c>
       <c r="O936">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P936">
-        <v>3.8</v>
+        <v>5.5</v>
       </c>
       <c r="Q936">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R936">
-        <v>1.95</v>
+        <v>1.82</v>
       </c>
       <c r="S936">
-        <v>1.95</v>
+        <v>2.08</v>
       </c>
       <c r="T936">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U936">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="V936">
-        <v>1.9</v>
+        <v>2.03</v>
       </c>
       <c r="W936">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X936">
         <v>-1</v>
       </c>
       <c r="Y936">
-        <v>-1</v>
+        <v>4.5</v>
       </c>
       <c r="Z936">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA936">
-        <v>-1</v>
+        <v>1.08</v>
       </c>
       <c r="AB936">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC936">
-        <v>-1</v>
+        <v>1.03</v>
       </c>
     </row>
     <row r="937" spans="1:29">
@@ -85641,7 +85641,7 @@
         <v>955</v>
       </c>
       <c r="B957">
-        <v>5638811</v>
+        <v>5638808</v>
       </c>
       <c r="C957" t="s">
         <v>28</v>
@@ -85653,61 +85653,61 @@
         <v>45069.60416666666</v>
       </c>
       <c r="F957" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G957" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H957">
         <v>1</v>
       </c>
       <c r="I957">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J957" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K957">
-        <v>1.4</v>
+        <v>2.2</v>
       </c>
       <c r="L957">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="M957">
-        <v>8.5</v>
+        <v>3.25</v>
       </c>
       <c r="N957">
-        <v>1.363</v>
+        <v>2.1</v>
       </c>
       <c r="O957">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="P957">
-        <v>8</v>
+        <v>3.6</v>
       </c>
       <c r="Q957">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R957">
-        <v>1.89</v>
+        <v>1.82</v>
       </c>
       <c r="S957">
-        <v>2.01</v>
+        <v>2.08</v>
       </c>
       <c r="T957">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U957">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="V957">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W957">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X957">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y957">
         <v>-1</v>
@@ -85716,13 +85716,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA957">
-        <v>0.5049999999999999</v>
+        <v>0.54</v>
       </c>
       <c r="AB957">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC957">
-        <v>0.8999999999999999</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="958" spans="1:29">
@@ -85730,7 +85730,7 @@
         <v>956</v>
       </c>
       <c r="B958">
-        <v>5638808</v>
+        <v>5638811</v>
       </c>
       <c r="C958" t="s">
         <v>28</v>
@@ -85742,61 +85742,61 @@
         <v>45069.60416666666</v>
       </c>
       <c r="F958" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G958" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H958">
         <v>1</v>
       </c>
       <c r="I958">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J958" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K958">
-        <v>2.2</v>
+        <v>1.4</v>
       </c>
       <c r="L958">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="M958">
-        <v>3.25</v>
+        <v>8.5</v>
       </c>
       <c r="N958">
-        <v>2.1</v>
+        <v>1.363</v>
       </c>
       <c r="O958">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="P958">
-        <v>3.6</v>
+        <v>8</v>
       </c>
       <c r="Q958">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R958">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="S958">
-        <v>2.08</v>
+        <v>2.01</v>
       </c>
       <c r="T958">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U958">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="V958">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W958">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X958">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y958">
         <v>-1</v>
@@ -85805,13 +85805,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA958">
-        <v>0.54</v>
+        <v>0.5049999999999999</v>
       </c>
       <c r="AB958">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC958">
-        <v>0.5125</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="959" spans="1:29">
@@ -86976,7 +86976,7 @@
         <v>970</v>
       </c>
       <c r="B972">
-        <v>5701613</v>
+        <v>5703047</v>
       </c>
       <c r="C972" t="s">
         <v>28</v>
@@ -86988,13 +86988,13 @@
         <v>45074.58333333334</v>
       </c>
       <c r="F972" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="G972" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="H972">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I972">
         <v>0</v>
@@ -87003,43 +87003,43 @@
         <v>55</v>
       </c>
       <c r="K972">
-        <v>2.6</v>
+        <v>1.5</v>
       </c>
       <c r="L972">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="M972">
-        <v>2.7</v>
+        <v>6</v>
       </c>
       <c r="N972">
-        <v>2.45</v>
+        <v>1.25</v>
       </c>
       <c r="O972">
-        <v>3.1</v>
+        <v>5.75</v>
       </c>
       <c r="P972">
-        <v>3.1</v>
+        <v>12</v>
       </c>
       <c r="Q972">
-        <v>-0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R972">
-        <v>2.075</v>
+        <v>2</v>
       </c>
       <c r="S972">
-        <v>1.725</v>
+        <v>1.9</v>
       </c>
       <c r="T972">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U972">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="V972">
-        <v>1.95</v>
+        <v>1.97</v>
       </c>
       <c r="W972">
-        <v>1.45</v>
+        <v>0.25</v>
       </c>
       <c r="X972">
         <v>-1</v>
@@ -87048,16 +87048,16 @@
         <v>-1</v>
       </c>
       <c r="Z972">
-        <v>1.075</v>
+        <v>1</v>
       </c>
       <c r="AA972">
         <v>-1</v>
       </c>
       <c r="AB972">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC972">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="973" spans="1:29">
@@ -87065,7 +87065,7 @@
         <v>971</v>
       </c>
       <c r="B973">
-        <v>5705727</v>
+        <v>5701613</v>
       </c>
       <c r="C973" t="s">
         <v>28</v>
@@ -87077,76 +87077,76 @@
         <v>45074.58333333334</v>
       </c>
       <c r="F973" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G973" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="H973">
+        <v>1</v>
+      </c>
+      <c r="I973">
+        <v>0</v>
+      </c>
+      <c r="J973" t="s">
+        <v>55</v>
+      </c>
+      <c r="K973">
+        <v>2.6</v>
+      </c>
+      <c r="L973">
+        <v>3.2</v>
+      </c>
+      <c r="M973">
+        <v>2.7</v>
+      </c>
+      <c r="N973">
+        <v>2.45</v>
+      </c>
+      <c r="O973">
+        <v>3.1</v>
+      </c>
+      <c r="P973">
+        <v>3.1</v>
+      </c>
+      <c r="Q973">
+        <v>-0.25</v>
+      </c>
+      <c r="R973">
+        <v>2.075</v>
+      </c>
+      <c r="S973">
+        <v>1.725</v>
+      </c>
+      <c r="T973">
         <v>2</v>
       </c>
-      <c r="I973">
-        <v>2</v>
-      </c>
-      <c r="J973" t="s">
-        <v>56</v>
-      </c>
-      <c r="K973">
-        <v>1.909</v>
-      </c>
-      <c r="L973">
-        <v>3.6</v>
-      </c>
-      <c r="M973">
-        <v>3.75</v>
-      </c>
-      <c r="N973">
-        <v>2</v>
-      </c>
-      <c r="O973">
-        <v>3.5</v>
-      </c>
-      <c r="P973">
-        <v>3.6</v>
-      </c>
-      <c r="Q973">
-        <v>-0.5</v>
-      </c>
-      <c r="R973">
-        <v>2.025</v>
-      </c>
-      <c r="S973">
-        <v>1.775</v>
-      </c>
-      <c r="T973">
-        <v>2.5</v>
-      </c>
       <c r="U973">
-        <v>2.07</v>
+        <v>1.95</v>
       </c>
       <c r="V973">
-        <v>1.83</v>
+        <v>1.95</v>
       </c>
       <c r="W973">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="X973">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y973">
         <v>-1</v>
       </c>
       <c r="Z973">
-        <v>-1</v>
+        <v>1.075</v>
       </c>
       <c r="AA973">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB973">
-        <v>1.07</v>
+        <v>-1</v>
       </c>
       <c r="AC973">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="974" spans="1:29">
@@ -87154,7 +87154,7 @@
         <v>972</v>
       </c>
       <c r="B974">
-        <v>5703047</v>
+        <v>5705884</v>
       </c>
       <c r="C974" t="s">
         <v>28</v>
@@ -87166,76 +87166,76 @@
         <v>45074.58333333334</v>
       </c>
       <c r="F974" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="G974" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="H974">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I974">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J974" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K974">
-        <v>1.5</v>
+        <v>2.2</v>
       </c>
       <c r="L974">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="M974">
-        <v>6</v>
+        <v>3.1</v>
       </c>
       <c r="N974">
-        <v>1.25</v>
+        <v>1.909</v>
       </c>
       <c r="O974">
-        <v>5.75</v>
+        <v>3.6</v>
       </c>
       <c r="P974">
-        <v>12</v>
+        <v>3.8</v>
       </c>
       <c r="Q974">
-        <v>-1.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R974">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="S974">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="T974">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U974">
-        <v>1.93</v>
+        <v>1.99</v>
       </c>
       <c r="V974">
-        <v>1.97</v>
+        <v>1.91</v>
       </c>
       <c r="W974">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="X974">
         <v>-1</v>
       </c>
       <c r="Y974">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Z974">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA974">
-        <v>-1</v>
+        <v>0.9199999999999999</v>
       </c>
       <c r="AB974">
-        <v>0</v>
+        <v>0.99</v>
       </c>
       <c r="AC974">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="975" spans="1:29">
@@ -87243,7 +87243,7 @@
         <v>973</v>
       </c>
       <c r="B975">
-        <v>5705884</v>
+        <v>5705727</v>
       </c>
       <c r="C975" t="s">
         <v>28</v>
@@ -87255,73 +87255,73 @@
         <v>45074.58333333334</v>
       </c>
       <c r="F975" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="G975" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="H975">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I975">
         <v>2</v>
       </c>
       <c r="J975" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K975">
-        <v>2.2</v>
+        <v>1.909</v>
       </c>
       <c r="L975">
+        <v>3.6</v>
+      </c>
+      <c r="M975">
+        <v>3.75</v>
+      </c>
+      <c r="N975">
+        <v>2</v>
+      </c>
+      <c r="O975">
         <v>3.5</v>
       </c>
-      <c r="M975">
-        <v>3.1</v>
-      </c>
-      <c r="N975">
-        <v>1.909</v>
-      </c>
-      <c r="O975">
+      <c r="P975">
         <v>3.6</v>
-      </c>
-      <c r="P975">
-        <v>3.8</v>
       </c>
       <c r="Q975">
         <v>-0.5</v>
       </c>
       <c r="R975">
-        <v>1.98</v>
+        <v>2.025</v>
       </c>
       <c r="S975">
-        <v>1.92</v>
+        <v>1.775</v>
       </c>
       <c r="T975">
         <v>2.5</v>
       </c>
       <c r="U975">
-        <v>1.99</v>
+        <v>2.07</v>
       </c>
       <c r="V975">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="W975">
         <v>-1</v>
       </c>
       <c r="X975">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y975">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Z975">
         <v>-1</v>
       </c>
       <c r="AA975">
-        <v>0.9199999999999999</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB975">
-        <v>0.99</v>
+        <v>1.07</v>
       </c>
       <c r="AC975">
         <v>-1</v>
@@ -93918,7 +93918,7 @@
         <v>1048</v>
       </c>
       <c r="B1050">
-        <v>6809223</v>
+        <v>6809384</v>
       </c>
       <c r="C1050" t="s">
         <v>28</v>
@@ -93930,19 +93930,19 @@
         <v>45196.6875</v>
       </c>
       <c r="F1050" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G1050" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="H1050">
         <v>0</v>
       </c>
       <c r="I1050">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J1050" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K1050">
         <v>2.625</v>
@@ -93954,52 +93954,52 @@
         <v>2.875</v>
       </c>
       <c r="N1050">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="O1050">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="P1050">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="Q1050">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R1050">
-        <v>2.125</v>
+        <v>1.85</v>
       </c>
       <c r="S1050">
-        <v>1.78</v>
+        <v>2.05</v>
       </c>
       <c r="T1050">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U1050">
-        <v>2.03</v>
+        <v>2.08</v>
       </c>
       <c r="V1050">
-        <v>1.87</v>
+        <v>1.82</v>
       </c>
       <c r="W1050">
         <v>-1</v>
       </c>
       <c r="X1050">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y1050">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z1050">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA1050">
-        <v>0.78</v>
+        <v>-0</v>
       </c>
       <c r="AB1050">
         <v>-1</v>
       </c>
       <c r="AC1050">
-        <v>0.8700000000000001</v>
+        <v>0.8200000000000001</v>
       </c>
     </row>
     <row r="1051" spans="1:29">
@@ -94007,7 +94007,7 @@
         <v>1049</v>
       </c>
       <c r="B1051">
-        <v>6809384</v>
+        <v>6809223</v>
       </c>
       <c r="C1051" t="s">
         <v>28</v>
@@ -94019,19 +94019,19 @@
         <v>45196.6875</v>
       </c>
       <c r="F1051" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="G1051" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H1051">
         <v>0</v>
       </c>
       <c r="I1051">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J1051" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K1051">
         <v>2.625</v>
@@ -94043,52 +94043,52 @@
         <v>2.875</v>
       </c>
       <c r="N1051">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="O1051">
+        <v>3</v>
+      </c>
+      <c r="P1051">
         <v>3.1</v>
       </c>
-      <c r="P1051">
-        <v>2.9</v>
-      </c>
       <c r="Q1051">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R1051">
-        <v>1.85</v>
+        <v>2.125</v>
       </c>
       <c r="S1051">
-        <v>2.05</v>
+        <v>1.78</v>
       </c>
       <c r="T1051">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U1051">
-        <v>2.08</v>
+        <v>2.03</v>
       </c>
       <c r="V1051">
-        <v>1.82</v>
+        <v>1.87</v>
       </c>
       <c r="W1051">
         <v>-1</v>
       </c>
       <c r="X1051">
+        <v>-1</v>
+      </c>
+      <c r="Y1051">
         <v>2.1</v>
       </c>
-      <c r="Y1051">
-        <v>-1</v>
-      </c>
       <c r="Z1051">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA1051">
-        <v>-0</v>
+        <v>0.78</v>
       </c>
       <c r="AB1051">
         <v>-1</v>
       </c>
       <c r="AC1051">
-        <v>0.8200000000000001</v>
+        <v>0.8700000000000001</v>
       </c>
     </row>
     <row r="1052" spans="1:29">
@@ -102195,7 +102195,7 @@
         <v>1141</v>
       </c>
       <c r="B1143">
-        <v>6809424</v>
+        <v>6809425</v>
       </c>
       <c r="C1143" t="s">
         <v>28</v>
@@ -102207,76 +102207,76 @@
         <v>45271.70833333334</v>
       </c>
       <c r="F1143" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G1143" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H1143">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1143">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J1143" t="s">
         <v>56</v>
       </c>
       <c r="K1143">
-        <v>4.5</v>
+        <v>2.3</v>
       </c>
       <c r="L1143">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M1143">
-        <v>1.75</v>
+        <v>3.25</v>
       </c>
       <c r="N1143">
-        <v>4.2</v>
+        <v>2.7</v>
       </c>
       <c r="O1143">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="P1143">
-        <v>1.85</v>
+        <v>2.8</v>
       </c>
       <c r="Q1143">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R1143">
-        <v>2.01</v>
+        <v>1.92</v>
       </c>
       <c r="S1143">
-        <v>1.89</v>
+        <v>1.98</v>
       </c>
       <c r="T1143">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U1143">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V1143">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="W1143">
         <v>-1</v>
       </c>
       <c r="X1143">
-        <v>2.75</v>
+        <v>2.1</v>
       </c>
       <c r="Y1143">
         <v>-1</v>
       </c>
       <c r="Z1143">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="AA1143">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB1143">
         <v>-1</v>
       </c>
       <c r="AC1143">
-        <v>1.05</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="1144" spans="1:29">
@@ -102284,7 +102284,7 @@
         <v>1142</v>
       </c>
       <c r="B1144">
-        <v>6809425</v>
+        <v>6809424</v>
       </c>
       <c r="C1144" t="s">
         <v>28</v>
@@ -102296,76 +102296,76 @@
         <v>45271.70833333334</v>
       </c>
       <c r="F1144" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G1144" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="H1144">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I1144">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J1144" t="s">
         <v>56</v>
       </c>
       <c r="K1144">
-        <v>2.3</v>
+        <v>4.5</v>
       </c>
       <c r="L1144">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M1144">
-        <v>3.25</v>
+        <v>1.75</v>
       </c>
       <c r="N1144">
-        <v>2.7</v>
+        <v>4.2</v>
       </c>
       <c r="O1144">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="P1144">
-        <v>2.8</v>
+        <v>1.85</v>
       </c>
       <c r="Q1144">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R1144">
-        <v>1.92</v>
+        <v>2.01</v>
       </c>
       <c r="S1144">
-        <v>1.98</v>
+        <v>1.89</v>
       </c>
       <c r="T1144">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U1144">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="V1144">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="W1144">
         <v>-1</v>
       </c>
       <c r="X1144">
-        <v>2.1</v>
+        <v>2.75</v>
       </c>
       <c r="Y1144">
         <v>-1</v>
       </c>
       <c r="Z1144">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AA1144">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB1144">
         <v>-1</v>
       </c>
       <c r="AC1144">
-        <v>0.95</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="1145" spans="1:29">
@@ -103797,7 +103797,7 @@
         <v>1159</v>
       </c>
       <c r="B1161">
-        <v>6809436</v>
+        <v>6809289</v>
       </c>
       <c r="C1161" t="s">
         <v>28</v>
@@ -103809,76 +103809,76 @@
         <v>45281.625</v>
       </c>
       <c r="F1161" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="G1161" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="H1161">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I1161">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J1161" t="s">
         <v>56</v>
       </c>
       <c r="K1161">
-        <v>4.333</v>
+        <v>2.4</v>
       </c>
       <c r="L1161">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M1161">
-        <v>1.85</v>
+        <v>2.75</v>
       </c>
       <c r="N1161">
-        <v>6</v>
+        <v>2.6</v>
       </c>
       <c r="O1161">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P1161">
-        <v>1.65</v>
+        <v>2.5</v>
       </c>
       <c r="Q1161">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R1161">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="S1161">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="T1161">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U1161">
-        <v>1.84</v>
+        <v>1.91</v>
       </c>
       <c r="V1161">
-        <v>2.06</v>
+        <v>1.99</v>
       </c>
       <c r="W1161">
         <v>-1</v>
       </c>
       <c r="X1161">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="Y1161">
         <v>-1</v>
       </c>
       <c r="Z1161">
-        <v>0.98</v>
+        <v>0</v>
       </c>
       <c r="AA1161">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB1161">
         <v>-1</v>
       </c>
       <c r="AC1161">
-        <v>1.06</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="1162" spans="1:29">
@@ -103886,7 +103886,7 @@
         <v>1160</v>
       </c>
       <c r="B1162">
-        <v>6809289</v>
+        <v>6809436</v>
       </c>
       <c r="C1162" t="s">
         <v>28</v>
@@ -103898,76 +103898,76 @@
         <v>45281.625</v>
       </c>
       <c r="F1162" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="G1162" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="H1162">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1162">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J1162" t="s">
         <v>56</v>
       </c>
       <c r="K1162">
-        <v>2.4</v>
+        <v>4.333</v>
       </c>
       <c r="L1162">
+        <v>3.2</v>
+      </c>
+      <c r="M1162">
+        <v>1.85</v>
+      </c>
+      <c r="N1162">
+        <v>6</v>
+      </c>
+      <c r="O1162">
         <v>3.5</v>
       </c>
-      <c r="M1162">
-        <v>2.75</v>
-      </c>
-      <c r="N1162">
-        <v>2.6</v>
-      </c>
-      <c r="O1162">
-        <v>3.6</v>
-      </c>
       <c r="P1162">
+        <v>1.65</v>
+      </c>
+      <c r="Q1162">
+        <v>0.75</v>
+      </c>
+      <c r="R1162">
+        <v>1.98</v>
+      </c>
+      <c r="S1162">
+        <v>1.92</v>
+      </c>
+      <c r="T1162">
+        <v>2</v>
+      </c>
+      <c r="U1162">
+        <v>1.84</v>
+      </c>
+      <c r="V1162">
+        <v>2.06</v>
+      </c>
+      <c r="W1162">
+        <v>-1</v>
+      </c>
+      <c r="X1162">
         <v>2.5</v>
       </c>
-      <c r="Q1162">
-        <v>0</v>
-      </c>
-      <c r="R1162">
-        <v>1.97</v>
-      </c>
-      <c r="S1162">
-        <v>1.93</v>
-      </c>
-      <c r="T1162">
-        <v>2.75</v>
-      </c>
-      <c r="U1162">
-        <v>1.91</v>
-      </c>
-      <c r="V1162">
-        <v>1.99</v>
-      </c>
-      <c r="W1162">
-        <v>-1</v>
-      </c>
-      <c r="X1162">
-        <v>2.6</v>
-      </c>
       <c r="Y1162">
         <v>-1</v>
       </c>
       <c r="Z1162">
-        <v>0</v>
+        <v>0.98</v>
       </c>
       <c r="AA1162">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB1162">
         <v>-1</v>
       </c>
       <c r="AC1162">
-        <v>0.99</v>
+        <v>1.06</v>
       </c>
     </row>
     <row r="1163" spans="1:29">
@@ -107559,19 +107559,19 @@
         <v>-1</v>
       </c>
       <c r="R1203">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="S1203">
-        <v>2.07</v>
+        <v>2.06</v>
       </c>
       <c r="T1203">
         <v>2.75</v>
       </c>
       <c r="U1203">
-        <v>1.97</v>
+        <v>1.99</v>
       </c>
       <c r="V1203">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="W1203">
         <v>0</v>
@@ -107781,10 +107781,10 @@
         <v>-0.75</v>
       </c>
       <c r="R1206">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="S1206">
-        <v>2.03</v>
+        <v>2.04</v>
       </c>
       <c r="T1206">
         <v>2.5</v>
@@ -107855,10 +107855,10 @@
         <v>-0.25</v>
       </c>
       <c r="R1207">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="S1207">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="T1207">
         <v>2.25</v>
@@ -108077,10 +108077,10 @@
         <v>-0.75</v>
       </c>
       <c r="R1210">
-        <v>1.88</v>
+        <v>1.86</v>
       </c>
       <c r="S1210">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="T1210">
         <v>2.5</v>
@@ -108382,10 +108382,10 @@
         <v>2.25</v>
       </c>
       <c r="U1214">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="V1214">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="W1214">
         <v>0</v>

--- a/Spain Primera Liga/Spain Primera Liga.xlsx
+++ b/Spain Primera Liga/Spain Primera Liga.xlsx
@@ -36958,7 +36958,7 @@
         <v>408</v>
       </c>
       <c r="B410">
-        <v>3713745</v>
+        <v>3712740</v>
       </c>
       <c r="C410" t="s">
         <v>28</v>
@@ -36970,76 +36970,76 @@
         <v>44563.51041666666</v>
       </c>
       <c r="F410" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G410" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="H410">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I410">
         <v>0</v>
       </c>
       <c r="J410" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K410">
-        <v>2.15</v>
+        <v>1.444</v>
       </c>
       <c r="L410">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="M410">
-        <v>3.4</v>
+        <v>6.5</v>
       </c>
       <c r="N410">
-        <v>2.6</v>
+        <v>1.444</v>
       </c>
       <c r="O410">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="P410">
-        <v>2.9</v>
+        <v>8</v>
       </c>
       <c r="Q410">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R410">
-        <v>1.79</v>
+        <v>1.83</v>
       </c>
       <c r="S410">
-        <v>2.11</v>
+        <v>2.07</v>
       </c>
       <c r="T410">
         <v>2.25</v>
       </c>
       <c r="U410">
-        <v>1.97</v>
+        <v>1.85</v>
       </c>
       <c r="V410">
-        <v>1.93</v>
+        <v>2.05</v>
       </c>
       <c r="W410">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X410">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y410">
         <v>-1</v>
       </c>
       <c r="Z410">
-        <v>0</v>
+        <v>0.8300000000000001</v>
       </c>
       <c r="AA410">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB410">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC410">
-        <v>0.9299999999999999</v>
+        <v>0.5249999999999999</v>
       </c>
     </row>
     <row r="411" spans="1:29">
@@ -37047,7 +37047,7 @@
         <v>409</v>
       </c>
       <c r="B411">
-        <v>3712740</v>
+        <v>3713745</v>
       </c>
       <c r="C411" t="s">
         <v>28</v>
@@ -37059,76 +37059,76 @@
         <v>44563.51041666666</v>
       </c>
       <c r="F411" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G411" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="H411">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I411">
         <v>0</v>
       </c>
       <c r="J411" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K411">
-        <v>1.444</v>
+        <v>2.15</v>
       </c>
       <c r="L411">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="M411">
-        <v>6.5</v>
+        <v>3.4</v>
       </c>
       <c r="N411">
-        <v>1.444</v>
+        <v>2.6</v>
       </c>
       <c r="O411">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="P411">
-        <v>8</v>
+        <v>2.9</v>
       </c>
       <c r="Q411">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R411">
-        <v>1.83</v>
+        <v>1.79</v>
       </c>
       <c r="S411">
-        <v>2.07</v>
+        <v>2.11</v>
       </c>
       <c r="T411">
         <v>2.25</v>
       </c>
       <c r="U411">
-        <v>1.85</v>
+        <v>1.97</v>
       </c>
       <c r="V411">
-        <v>2.05</v>
+        <v>1.93</v>
       </c>
       <c r="W411">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X411">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y411">
         <v>-1</v>
       </c>
       <c r="Z411">
-        <v>0.8300000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA411">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB411">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC411">
-        <v>0.5249999999999999</v>
+        <v>0.9299999999999999</v>
       </c>
     </row>
     <row r="412" spans="1:29">
@@ -38204,7 +38204,7 @@
         <v>422</v>
       </c>
       <c r="B424">
-        <v>3713746</v>
+        <v>3713748</v>
       </c>
       <c r="C424" t="s">
         <v>28</v>
@@ -38216,76 +38216,76 @@
         <v>44570.60416666666</v>
       </c>
       <c r="F424" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="G424" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="H424">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I424">
         <v>0</v>
       </c>
       <c r="J424" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K424">
-        <v>3.2</v>
+        <v>1.666</v>
       </c>
       <c r="L424">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M424">
-        <v>2.3</v>
+        <v>6</v>
       </c>
       <c r="N424">
-        <v>4</v>
+        <v>1.6</v>
       </c>
       <c r="O424">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="P424">
-        <v>2</v>
+        <v>6.5</v>
       </c>
       <c r="Q424">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="R424">
-        <v>1.84</v>
+        <v>2.09</v>
       </c>
       <c r="S424">
-        <v>2.06</v>
+        <v>1.81</v>
       </c>
       <c r="T424">
         <v>2.25</v>
       </c>
       <c r="U424">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="V424">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="W424">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X424">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y424">
         <v>-1</v>
       </c>
       <c r="Z424">
-        <v>0.8400000000000001</v>
+        <v>1.09</v>
       </c>
       <c r="AA424">
         <v>-1</v>
       </c>
       <c r="AB424">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC424">
-        <v>0.8999999999999999</v>
+        <v>0.4350000000000001</v>
       </c>
     </row>
     <row r="425" spans="1:29">
@@ -38293,7 +38293,7 @@
         <v>423</v>
       </c>
       <c r="B425">
-        <v>3713748</v>
+        <v>3713746</v>
       </c>
       <c r="C425" t="s">
         <v>28</v>
@@ -38305,76 +38305,76 @@
         <v>44570.60416666666</v>
       </c>
       <c r="F425" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="G425" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="H425">
+        <v>0</v>
+      </c>
+      <c r="I425">
+        <v>0</v>
+      </c>
+      <c r="J425" t="s">
+        <v>56</v>
+      </c>
+      <c r="K425">
+        <v>3.2</v>
+      </c>
+      <c r="L425">
+        <v>3.1</v>
+      </c>
+      <c r="M425">
+        <v>2.3</v>
+      </c>
+      <c r="N425">
+        <v>4</v>
+      </c>
+      <c r="O425">
+        <v>3.25</v>
+      </c>
+      <c r="P425">
         <v>2</v>
       </c>
-      <c r="I425">
-        <v>0</v>
-      </c>
-      <c r="J425" t="s">
-        <v>55</v>
-      </c>
-      <c r="K425">
-        <v>1.666</v>
-      </c>
-      <c r="L425">
-        <v>3.4</v>
-      </c>
-      <c r="M425">
-        <v>6</v>
-      </c>
-      <c r="N425">
-        <v>1.6</v>
-      </c>
-      <c r="O425">
-        <v>3.6</v>
-      </c>
-      <c r="P425">
-        <v>6.5</v>
-      </c>
       <c r="Q425">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="R425">
-        <v>2.09</v>
+        <v>1.84</v>
       </c>
       <c r="S425">
-        <v>1.81</v>
+        <v>2.06</v>
       </c>
       <c r="T425">
         <v>2.25</v>
       </c>
       <c r="U425">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="V425">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="W425">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X425">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y425">
         <v>-1</v>
       </c>
       <c r="Z425">
-        <v>1.09</v>
+        <v>0.8400000000000001</v>
       </c>
       <c r="AA425">
         <v>-1</v>
       </c>
       <c r="AB425">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC425">
-        <v>0.4350000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="426" spans="1:29">
@@ -67663,7 +67663,7 @@
         <v>753</v>
       </c>
       <c r="B755">
-        <v>5934420</v>
+        <v>5934429</v>
       </c>
       <c r="C755" t="s">
         <v>28</v>
@@ -67675,58 +67675,58 @@
         <v>44926.51041666666</v>
       </c>
       <c r="F755" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G755" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H755">
         <v>2</v>
       </c>
       <c r="I755">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J755" t="s">
         <v>55</v>
       </c>
       <c r="K755">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="L755">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M755">
-        <v>4.333</v>
+        <v>3.8</v>
       </c>
       <c r="N755">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="O755">
         <v>3.3</v>
       </c>
       <c r="P755">
-        <v>4.333</v>
+        <v>3.8</v>
       </c>
       <c r="Q755">
         <v>-0.5</v>
       </c>
       <c r="R755">
-        <v>1.92</v>
+        <v>2.03</v>
       </c>
       <c r="S755">
-        <v>1.98</v>
+        <v>1.87</v>
       </c>
       <c r="T755">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U755">
-        <v>1.86</v>
+        <v>1.95</v>
       </c>
       <c r="V755">
-        <v>2.04</v>
+        <v>1.95</v>
       </c>
       <c r="W755">
-        <v>0.909</v>
+        <v>1</v>
       </c>
       <c r="X755">
         <v>-1</v>
@@ -67735,16 +67735,16 @@
         <v>-1</v>
       </c>
       <c r="Z755">
-        <v>0.9199999999999999</v>
+        <v>1.03</v>
       </c>
       <c r="AA755">
         <v>-1</v>
       </c>
       <c r="AB755">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AC755">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="756" spans="1:29">
@@ -67752,7 +67752,7 @@
         <v>754</v>
       </c>
       <c r="B756">
-        <v>5934429</v>
+        <v>5934420</v>
       </c>
       <c r="C756" t="s">
         <v>28</v>
@@ -67764,58 +67764,58 @@
         <v>44926.51041666666</v>
       </c>
       <c r="F756" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G756" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H756">
         <v>2</v>
       </c>
       <c r="I756">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J756" t="s">
         <v>55</v>
       </c>
       <c r="K756">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="L756">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M756">
-        <v>3.8</v>
+        <v>4.333</v>
       </c>
       <c r="N756">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="O756">
         <v>3.3</v>
       </c>
       <c r="P756">
-        <v>3.8</v>
+        <v>4.333</v>
       </c>
       <c r="Q756">
         <v>-0.5</v>
       </c>
       <c r="R756">
-        <v>2.03</v>
+        <v>1.92</v>
       </c>
       <c r="S756">
-        <v>1.87</v>
+        <v>1.98</v>
       </c>
       <c r="T756">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U756">
-        <v>1.95</v>
+        <v>1.86</v>
       </c>
       <c r="V756">
-        <v>1.95</v>
+        <v>2.04</v>
       </c>
       <c r="W756">
-        <v>1</v>
+        <v>0.909</v>
       </c>
       <c r="X756">
         <v>-1</v>
@@ -67824,16 +67824,16 @@
         <v>-1</v>
       </c>
       <c r="Z756">
-        <v>1.03</v>
+        <v>0.9199999999999999</v>
       </c>
       <c r="AA756">
         <v>-1</v>
       </c>
       <c r="AB756">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AC756">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="757" spans="1:29">
@@ -81191,7 +81191,7 @@
         <v>905</v>
       </c>
       <c r="B907">
-        <v>5470775</v>
+        <v>5461881</v>
       </c>
       <c r="C907" t="s">
         <v>28</v>
@@ -81203,76 +81203,76 @@
         <v>45041.60416666666</v>
       </c>
       <c r="F907" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="G907" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="H907">
+        <v>0</v>
+      </c>
+      <c r="I907">
+        <v>1</v>
+      </c>
+      <c r="J907" t="s">
+        <v>57</v>
+      </c>
+      <c r="K907">
+        <v>2.3</v>
+      </c>
+      <c r="L907">
+        <v>3.2</v>
+      </c>
+      <c r="M907">
+        <v>3.2</v>
+      </c>
+      <c r="N907">
+        <v>2.05</v>
+      </c>
+      <c r="O907">
+        <v>3.2</v>
+      </c>
+      <c r="P907">
         <v>4</v>
       </c>
-      <c r="I907">
+      <c r="Q907">
+        <v>-0.5</v>
+      </c>
+      <c r="R907">
+        <v>2.08</v>
+      </c>
+      <c r="S907">
+        <v>1.82</v>
+      </c>
+      <c r="T907">
         <v>2</v>
       </c>
-      <c r="J907" t="s">
-        <v>55</v>
-      </c>
-      <c r="K907">
-        <v>6</v>
-      </c>
-      <c r="L907">
-        <v>4</v>
-      </c>
-      <c r="M907">
-        <v>1.533</v>
-      </c>
-      <c r="N907">
-        <v>5.25</v>
-      </c>
-      <c r="O907">
-        <v>4.2</v>
-      </c>
-      <c r="P907">
-        <v>1.6</v>
-      </c>
-      <c r="Q907">
-        <v>1</v>
-      </c>
-      <c r="R907">
-        <v>1.84</v>
-      </c>
-      <c r="S907">
-        <v>2.06</v>
-      </c>
-      <c r="T907">
+      <c r="U907">
+        <v>1.93</v>
+      </c>
+      <c r="V907">
+        <v>1.97</v>
+      </c>
+      <c r="W907">
+        <v>-1</v>
+      </c>
+      <c r="X907">
+        <v>-1</v>
+      </c>
+      <c r="Y907">
         <v>3</v>
       </c>
-      <c r="U907">
-        <v>1.95</v>
-      </c>
-      <c r="V907">
-        <v>1.95</v>
-      </c>
-      <c r="W907">
-        <v>4.25</v>
-      </c>
-      <c r="X907">
-        <v>-1</v>
-      </c>
-      <c r="Y907">
-        <v>-1</v>
-      </c>
       <c r="Z907">
-        <v>0.8400000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA907">
-        <v>-1</v>
+        <v>0.8200000000000001</v>
       </c>
       <c r="AB907">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC907">
-        <v>-1</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="908" spans="1:29">
@@ -81280,7 +81280,7 @@
         <v>906</v>
       </c>
       <c r="B908">
-        <v>5461881</v>
+        <v>5470775</v>
       </c>
       <c r="C908" t="s">
         <v>28</v>
@@ -81292,76 +81292,76 @@
         <v>45041.60416666666</v>
       </c>
       <c r="F908" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="G908" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="H908">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I908">
+        <v>2</v>
+      </c>
+      <c r="J908" t="s">
+        <v>55</v>
+      </c>
+      <c r="K908">
+        <v>6</v>
+      </c>
+      <c r="L908">
+        <v>4</v>
+      </c>
+      <c r="M908">
+        <v>1.533</v>
+      </c>
+      <c r="N908">
+        <v>5.25</v>
+      </c>
+      <c r="O908">
+        <v>4.2</v>
+      </c>
+      <c r="P908">
+        <v>1.6</v>
+      </c>
+      <c r="Q908">
         <v>1</v>
       </c>
-      <c r="J908" t="s">
-        <v>57</v>
-      </c>
-      <c r="K908">
-        <v>2.3</v>
-      </c>
-      <c r="L908">
-        <v>3.2</v>
-      </c>
-      <c r="M908">
-        <v>3.2</v>
-      </c>
-      <c r="N908">
-        <v>2.05</v>
-      </c>
-      <c r="O908">
-        <v>3.2</v>
-      </c>
-      <c r="P908">
-        <v>4</v>
-      </c>
-      <c r="Q908">
-        <v>-0.5</v>
-      </c>
       <c r="R908">
-        <v>2.08</v>
+        <v>1.84</v>
       </c>
       <c r="S908">
-        <v>1.82</v>
+        <v>2.06</v>
       </c>
       <c r="T908">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U908">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="V908">
-        <v>1.97</v>
+        <v>1.95</v>
       </c>
       <c r="W908">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="X908">
         <v>-1</v>
       </c>
       <c r="Y908">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z908">
-        <v>-1</v>
+        <v>0.8400000000000001</v>
       </c>
       <c r="AA908">
-        <v>0.8200000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB908">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC908">
-        <v>0.97</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="909" spans="1:29">
@@ -81458,7 +81458,7 @@
         <v>908</v>
       </c>
       <c r="B910">
-        <v>5475945</v>
+        <v>5471430</v>
       </c>
       <c r="C910" t="s">
         <v>28</v>
@@ -81470,73 +81470,73 @@
         <v>45042.60416666666</v>
       </c>
       <c r="F910" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="G910" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="H910">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I910">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J910" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K910">
-        <v>1.363</v>
+        <v>1.95</v>
       </c>
       <c r="L910">
+        <v>3.4</v>
+      </c>
+      <c r="M910">
+        <v>3.8</v>
+      </c>
+      <c r="N910">
+        <v>1.85</v>
+      </c>
+      <c r="O910">
+        <v>3.5</v>
+      </c>
+      <c r="P910">
         <v>4.5</v>
       </c>
-      <c r="M910">
-        <v>9</v>
-      </c>
-      <c r="N910">
-        <v>1.3</v>
-      </c>
-      <c r="O910">
-        <v>4.75</v>
-      </c>
-      <c r="P910">
-        <v>12</v>
-      </c>
       <c r="Q910">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R910">
-        <v>2.04</v>
+        <v>1.88</v>
       </c>
       <c r="S910">
-        <v>1.86</v>
+        <v>2.02</v>
       </c>
       <c r="T910">
         <v>2.25</v>
       </c>
       <c r="U910">
-        <v>1.87</v>
+        <v>2</v>
       </c>
       <c r="V910">
-        <v>2.03</v>
+        <v>1.9</v>
       </c>
       <c r="W910">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="X910">
         <v>-1</v>
       </c>
       <c r="Y910">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Z910">
-        <v>1.04</v>
+        <v>-1</v>
       </c>
       <c r="AA910">
-        <v>-1</v>
+        <v>1.02</v>
       </c>
       <c r="AB910">
-        <v>0.8700000000000001</v>
+        <v>1</v>
       </c>
       <c r="AC910">
         <v>-1</v>
@@ -81547,7 +81547,7 @@
         <v>909</v>
       </c>
       <c r="B911">
-        <v>5471430</v>
+        <v>5475945</v>
       </c>
       <c r="C911" t="s">
         <v>28</v>
@@ -81559,73 +81559,73 @@
         <v>45042.60416666666</v>
       </c>
       <c r="F911" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="G911" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H911">
+        <v>3</v>
+      </c>
+      <c r="I911">
         <v>1</v>
       </c>
-      <c r="I911">
-        <v>2</v>
-      </c>
       <c r="J911" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K911">
-        <v>1.95</v>
+        <v>1.363</v>
       </c>
       <c r="L911">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="M911">
-        <v>3.8</v>
+        <v>9</v>
       </c>
       <c r="N911">
-        <v>1.85</v>
+        <v>1.3</v>
       </c>
       <c r="O911">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="P911">
-        <v>4.5</v>
+        <v>12</v>
       </c>
       <c r="Q911">
-        <v>-0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R911">
-        <v>1.88</v>
+        <v>2.04</v>
       </c>
       <c r="S911">
-        <v>2.02</v>
+        <v>1.86</v>
       </c>
       <c r="T911">
         <v>2.25</v>
       </c>
       <c r="U911">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="V911">
-        <v>1.9</v>
+        <v>2.03</v>
       </c>
       <c r="W911">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="X911">
         <v>-1</v>
       </c>
       <c r="Y911">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Z911">
-        <v>-1</v>
+        <v>1.04</v>
       </c>
       <c r="AA911">
-        <v>1.02</v>
+        <v>-1</v>
       </c>
       <c r="AB911">
-        <v>1</v>
+        <v>0.8700000000000001</v>
       </c>
       <c r="AC911">
         <v>-1</v>
@@ -82971,7 +82971,7 @@
         <v>925</v>
       </c>
       <c r="B927">
-        <v>5534478</v>
+        <v>5540298</v>
       </c>
       <c r="C927" t="s">
         <v>28</v>
@@ -82983,58 +82983,58 @@
         <v>45048.60416666666</v>
       </c>
       <c r="F927" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="G927" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="H927">
+        <v>2</v>
+      </c>
+      <c r="I927">
         <v>1</v>
-      </c>
-      <c r="I927">
-        <v>0</v>
       </c>
       <c r="J927" t="s">
         <v>55</v>
       </c>
       <c r="K927">
-        <v>1.25</v>
+        <v>1.65</v>
       </c>
       <c r="L927">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="M927">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="N927">
-        <v>1.166</v>
+        <v>1.727</v>
       </c>
       <c r="O927">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="P927">
-        <v>15</v>
+        <v>4.5</v>
       </c>
       <c r="Q927">
-        <v>-2</v>
+        <v>-0.75</v>
       </c>
       <c r="R927">
-        <v>1.85</v>
+        <v>1.92</v>
       </c>
       <c r="S927">
-        <v>2.05</v>
+        <v>1.98</v>
       </c>
       <c r="T927">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U927">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V927">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="W927">
-        <v>0.1659999999999999</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X927">
         <v>-1</v>
@@ -83043,16 +83043,16 @@
         <v>-1</v>
       </c>
       <c r="Z927">
-        <v>-1</v>
+        <v>0.46</v>
       </c>
       <c r="AA927">
-        <v>1.05</v>
+        <v>-0.5</v>
       </c>
       <c r="AB927">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC927">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="928" spans="1:29">
@@ -83060,7 +83060,7 @@
         <v>926</v>
       </c>
       <c r="B928">
-        <v>5540298</v>
+        <v>5534478</v>
       </c>
       <c r="C928" t="s">
         <v>28</v>
@@ -83072,58 +83072,58 @@
         <v>45048.60416666666</v>
       </c>
       <c r="F928" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G928" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="H928">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I928">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J928" t="s">
         <v>55</v>
       </c>
       <c r="K928">
-        <v>1.65</v>
+        <v>1.25</v>
       </c>
       <c r="L928">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="M928">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="N928">
-        <v>1.727</v>
+        <v>1.166</v>
       </c>
       <c r="O928">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="P928">
-        <v>4.5</v>
+        <v>15</v>
       </c>
       <c r="Q928">
-        <v>-0.75</v>
+        <v>-2</v>
       </c>
       <c r="R928">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="S928">
-        <v>1.98</v>
+        <v>2.05</v>
       </c>
       <c r="T928">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U928">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V928">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="W928">
-        <v>0.7270000000000001</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X928">
         <v>-1</v>
@@ -83132,16 +83132,16 @@
         <v>-1</v>
       </c>
       <c r="Z928">
-        <v>0.46</v>
+        <v>-1</v>
       </c>
       <c r="AA928">
-        <v>-0.5</v>
+        <v>1.05</v>
       </c>
       <c r="AB928">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC928">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="929" spans="1:29">
@@ -83327,7 +83327,7 @@
         <v>929</v>
       </c>
       <c r="B931">
-        <v>5549244</v>
+        <v>5534214</v>
       </c>
       <c r="C931" t="s">
         <v>28</v>
@@ -83339,58 +83339,58 @@
         <v>45049.70833333334</v>
       </c>
       <c r="F931" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="G931" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H931">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I931">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J931" t="s">
         <v>55</v>
       </c>
       <c r="K931">
-        <v>1.3</v>
+        <v>2.55</v>
       </c>
       <c r="L931">
-        <v>5.5</v>
+        <v>3</v>
       </c>
       <c r="M931">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="N931">
-        <v>1.333</v>
+        <v>2.8</v>
       </c>
       <c r="O931">
-        <v>5.25</v>
+        <v>2.9</v>
       </c>
       <c r="P931">
-        <v>9.5</v>
+        <v>2.875</v>
       </c>
       <c r="Q931">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="R931">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S931">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T931">
-        <v>3</v>
+        <v>1.75</v>
       </c>
       <c r="U931">
-        <v>2.07</v>
+        <v>1.86</v>
       </c>
       <c r="V931">
-        <v>1.83</v>
+        <v>2.04</v>
       </c>
       <c r="W931">
-        <v>0.333</v>
+        <v>1.8</v>
       </c>
       <c r="X931">
         <v>-1</v>
@@ -83399,16 +83399,16 @@
         <v>-1</v>
       </c>
       <c r="Z931">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA931">
         <v>-1</v>
       </c>
       <c r="AB931">
-        <v>1.07</v>
+        <v>-1</v>
       </c>
       <c r="AC931">
-        <v>-1</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="932" spans="1:29">
@@ -83416,7 +83416,7 @@
         <v>930</v>
       </c>
       <c r="B932">
-        <v>5534214</v>
+        <v>5549244</v>
       </c>
       <c r="C932" t="s">
         <v>28</v>
@@ -83428,58 +83428,58 @@
         <v>45049.70833333334</v>
       </c>
       <c r="F932" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="G932" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="H932">
+        <v>5</v>
+      </c>
+      <c r="I932">
         <v>1</v>
-      </c>
-      <c r="I932">
-        <v>0</v>
       </c>
       <c r="J932" t="s">
         <v>55</v>
       </c>
       <c r="K932">
-        <v>2.55</v>
+        <v>1.3</v>
       </c>
       <c r="L932">
+        <v>5.5</v>
+      </c>
+      <c r="M932">
+        <v>10</v>
+      </c>
+      <c r="N932">
+        <v>1.333</v>
+      </c>
+      <c r="O932">
+        <v>5.25</v>
+      </c>
+      <c r="P932">
+        <v>9.5</v>
+      </c>
+      <c r="Q932">
+        <v>-1.5</v>
+      </c>
+      <c r="R932">
+        <v>1.95</v>
+      </c>
+      <c r="S932">
+        <v>1.95</v>
+      </c>
+      <c r="T932">
         <v>3</v>
       </c>
-      <c r="M932">
-        <v>3</v>
-      </c>
-      <c r="N932">
-        <v>2.8</v>
-      </c>
-      <c r="O932">
-        <v>2.9</v>
-      </c>
-      <c r="P932">
-        <v>2.875</v>
-      </c>
-      <c r="Q932">
-        <v>0</v>
-      </c>
-      <c r="R932">
-        <v>1.9</v>
-      </c>
-      <c r="S932">
-        <v>2</v>
-      </c>
-      <c r="T932">
-        <v>1.75</v>
-      </c>
       <c r="U932">
-        <v>1.86</v>
+        <v>2.07</v>
       </c>
       <c r="V932">
-        <v>2.04</v>
+        <v>1.83</v>
       </c>
       <c r="W932">
-        <v>1.8</v>
+        <v>0.333</v>
       </c>
       <c r="X932">
         <v>-1</v>
@@ -83488,16 +83488,16 @@
         <v>-1</v>
       </c>
       <c r="Z932">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AA932">
         <v>-1</v>
       </c>
       <c r="AB932">
-        <v>-1</v>
+        <v>1.07</v>
       </c>
       <c r="AC932">
-        <v>1.04</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="933" spans="1:29">
@@ -83683,7 +83683,7 @@
         <v>933</v>
       </c>
       <c r="B935">
-        <v>5540274</v>
+        <v>5549243</v>
       </c>
       <c r="C935" t="s">
         <v>28</v>
@@ -83695,76 +83695,76 @@
         <v>45050.70833333334</v>
       </c>
       <c r="F935" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="G935" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="H935">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I935">
         <v>1</v>
       </c>
       <c r="J935" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K935">
-        <v>1.65</v>
+        <v>1.615</v>
       </c>
       <c r="L935">
         <v>3.8</v>
       </c>
       <c r="M935">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="N935">
-        <v>1.909</v>
+        <v>1.615</v>
       </c>
       <c r="O935">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P935">
-        <v>3.8</v>
+        <v>5.5</v>
       </c>
       <c r="Q935">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R935">
-        <v>1.95</v>
+        <v>1.82</v>
       </c>
       <c r="S935">
-        <v>1.95</v>
+        <v>2.08</v>
       </c>
       <c r="T935">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U935">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="V935">
-        <v>1.9</v>
+        <v>2.03</v>
       </c>
       <c r="W935">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X935">
         <v>-1</v>
       </c>
       <c r="Y935">
-        <v>-1</v>
+        <v>4.5</v>
       </c>
       <c r="Z935">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA935">
-        <v>-1</v>
+        <v>1.08</v>
       </c>
       <c r="AB935">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC935">
-        <v>-1</v>
+        <v>1.03</v>
       </c>
     </row>
     <row r="936" spans="1:29">
@@ -83772,7 +83772,7 @@
         <v>934</v>
       </c>
       <c r="B936">
-        <v>5549243</v>
+        <v>5540274</v>
       </c>
       <c r="C936" t="s">
         <v>28</v>
@@ -83784,76 +83784,76 @@
         <v>45050.70833333334</v>
       </c>
       <c r="F936" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="G936" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="H936">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I936">
         <v>1</v>
       </c>
       <c r="J936" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K936">
-        <v>1.615</v>
+        <v>1.65</v>
       </c>
       <c r="L936">
         <v>3.8</v>
       </c>
       <c r="M936">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="N936">
-        <v>1.615</v>
+        <v>1.909</v>
       </c>
       <c r="O936">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P936">
-        <v>5.5</v>
+        <v>3.8</v>
       </c>
       <c r="Q936">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R936">
-        <v>1.82</v>
+        <v>1.95</v>
       </c>
       <c r="S936">
-        <v>2.08</v>
+        <v>1.95</v>
       </c>
       <c r="T936">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U936">
-        <v>1.87</v>
+        <v>2</v>
       </c>
       <c r="V936">
-        <v>2.03</v>
+        <v>1.9</v>
       </c>
       <c r="W936">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X936">
         <v>-1</v>
       </c>
       <c r="Y936">
-        <v>4.5</v>
+        <v>-1</v>
       </c>
       <c r="Z936">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA936">
-        <v>1.08</v>
+        <v>-1</v>
       </c>
       <c r="AB936">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC936">
-        <v>1.03</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="937" spans="1:29">
@@ -85641,7 +85641,7 @@
         <v>955</v>
       </c>
       <c r="B957">
-        <v>5638808</v>
+        <v>5638811</v>
       </c>
       <c r="C957" t="s">
         <v>28</v>
@@ -85653,61 +85653,61 @@
         <v>45069.60416666666</v>
       </c>
       <c r="F957" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G957" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H957">
         <v>1</v>
       </c>
       <c r="I957">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J957" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K957">
-        <v>2.2</v>
+        <v>1.4</v>
       </c>
       <c r="L957">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="M957">
-        <v>3.25</v>
+        <v>8.5</v>
       </c>
       <c r="N957">
-        <v>2.1</v>
+        <v>1.363</v>
       </c>
       <c r="O957">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="P957">
-        <v>3.6</v>
+        <v>8</v>
       </c>
       <c r="Q957">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R957">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="S957">
-        <v>2.08</v>
+        <v>2.01</v>
       </c>
       <c r="T957">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U957">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="V957">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W957">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X957">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y957">
         <v>-1</v>
@@ -85716,13 +85716,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA957">
-        <v>0.54</v>
+        <v>0.5049999999999999</v>
       </c>
       <c r="AB957">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC957">
-        <v>0.5125</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="958" spans="1:29">
@@ -85730,7 +85730,7 @@
         <v>956</v>
       </c>
       <c r="B958">
-        <v>5638811</v>
+        <v>5638808</v>
       </c>
       <c r="C958" t="s">
         <v>28</v>
@@ -85742,61 +85742,61 @@
         <v>45069.60416666666</v>
       </c>
       <c r="F958" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G958" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H958">
         <v>1</v>
       </c>
       <c r="I958">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J958" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K958">
-        <v>1.4</v>
+        <v>2.2</v>
       </c>
       <c r="L958">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="M958">
-        <v>8.5</v>
+        <v>3.25</v>
       </c>
       <c r="N958">
-        <v>1.363</v>
+        <v>2.1</v>
       </c>
       <c r="O958">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="P958">
-        <v>8</v>
+        <v>3.6</v>
       </c>
       <c r="Q958">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R958">
-        <v>1.89</v>
+        <v>1.82</v>
       </c>
       <c r="S958">
-        <v>2.01</v>
+        <v>2.08</v>
       </c>
       <c r="T958">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U958">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="V958">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W958">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X958">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y958">
         <v>-1</v>
@@ -85805,13 +85805,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA958">
-        <v>0.5049999999999999</v>
+        <v>0.54</v>
       </c>
       <c r="AB958">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC958">
-        <v>0.8999999999999999</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="959" spans="1:29">
@@ -86976,7 +86976,7 @@
         <v>970</v>
       </c>
       <c r="B972">
-        <v>5703047</v>
+        <v>5701613</v>
       </c>
       <c r="C972" t="s">
         <v>28</v>
@@ -86988,13 +86988,13 @@
         <v>45074.58333333334</v>
       </c>
       <c r="F972" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G972" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="H972">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I972">
         <v>0</v>
@@ -87003,43 +87003,43 @@
         <v>55</v>
       </c>
       <c r="K972">
-        <v>1.5</v>
+        <v>2.6</v>
       </c>
       <c r="L972">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="M972">
-        <v>6</v>
+        <v>2.7</v>
       </c>
       <c r="N972">
-        <v>1.25</v>
+        <v>2.45</v>
       </c>
       <c r="O972">
-        <v>5.75</v>
+        <v>3.1</v>
       </c>
       <c r="P972">
-        <v>12</v>
+        <v>3.1</v>
       </c>
       <c r="Q972">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R972">
+        <v>2.075</v>
+      </c>
+      <c r="S972">
+        <v>1.725</v>
+      </c>
+      <c r="T972">
         <v>2</v>
       </c>
-      <c r="S972">
-        <v>1.9</v>
-      </c>
-      <c r="T972">
-        <v>3</v>
-      </c>
       <c r="U972">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="V972">
-        <v>1.97</v>
+        <v>1.95</v>
       </c>
       <c r="W972">
-        <v>0.25</v>
+        <v>1.45</v>
       </c>
       <c r="X972">
         <v>-1</v>
@@ -87048,16 +87048,16 @@
         <v>-1</v>
       </c>
       <c r="Z972">
-        <v>1</v>
+        <v>1.075</v>
       </c>
       <c r="AA972">
         <v>-1</v>
       </c>
       <c r="AB972">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC972">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="973" spans="1:29">
@@ -87065,7 +87065,7 @@
         <v>971</v>
       </c>
       <c r="B973">
-        <v>5701613</v>
+        <v>5705727</v>
       </c>
       <c r="C973" t="s">
         <v>28</v>
@@ -87077,76 +87077,76 @@
         <v>45074.58333333334</v>
       </c>
       <c r="F973" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="G973" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="H973">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I973">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J973" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K973">
-        <v>2.6</v>
+        <v>1.909</v>
       </c>
       <c r="L973">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M973">
-        <v>2.7</v>
+        <v>3.75</v>
       </c>
       <c r="N973">
-        <v>2.45</v>
+        <v>2</v>
       </c>
       <c r="O973">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="P973">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="Q973">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R973">
-        <v>2.075</v>
+        <v>2.025</v>
       </c>
       <c r="S973">
-        <v>1.725</v>
+        <v>1.775</v>
       </c>
       <c r="T973">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U973">
-        <v>1.95</v>
+        <v>2.07</v>
       </c>
       <c r="V973">
-        <v>1.95</v>
+        <v>1.83</v>
       </c>
       <c r="W973">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="X973">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y973">
         <v>-1</v>
       </c>
       <c r="Z973">
-        <v>1.075</v>
+        <v>-1</v>
       </c>
       <c r="AA973">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB973">
-        <v>-1</v>
+        <v>1.07</v>
       </c>
       <c r="AC973">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="974" spans="1:29">
@@ -87154,7 +87154,7 @@
         <v>972</v>
       </c>
       <c r="B974">
-        <v>5705884</v>
+        <v>5703047</v>
       </c>
       <c r="C974" t="s">
         <v>28</v>
@@ -87166,76 +87166,76 @@
         <v>45074.58333333334</v>
       </c>
       <c r="F974" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="G974" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="H974">
+        <v>3</v>
+      </c>
+      <c r="I974">
+        <v>0</v>
+      </c>
+      <c r="J974" t="s">
+        <v>55</v>
+      </c>
+      <c r="K974">
+        <v>1.5</v>
+      </c>
+      <c r="L974">
+        <v>4.5</v>
+      </c>
+      <c r="M974">
+        <v>6</v>
+      </c>
+      <c r="N974">
+        <v>1.25</v>
+      </c>
+      <c r="O974">
+        <v>5.75</v>
+      </c>
+      <c r="P974">
+        <v>12</v>
+      </c>
+      <c r="Q974">
+        <v>-1.75</v>
+      </c>
+      <c r="R974">
+        <v>2</v>
+      </c>
+      <c r="S974">
+        <v>1.9</v>
+      </c>
+      <c r="T974">
+        <v>3</v>
+      </c>
+      <c r="U974">
+        <v>1.93</v>
+      </c>
+      <c r="V974">
+        <v>1.97</v>
+      </c>
+      <c r="W974">
+        <v>0.25</v>
+      </c>
+      <c r="X974">
+        <v>-1</v>
+      </c>
+      <c r="Y974">
+        <v>-1</v>
+      </c>
+      <c r="Z974">
         <v>1</v>
       </c>
-      <c r="I974">
-        <v>2</v>
-      </c>
-      <c r="J974" t="s">
-        <v>57</v>
-      </c>
-      <c r="K974">
-        <v>2.2</v>
-      </c>
-      <c r="L974">
-        <v>3.5</v>
-      </c>
-      <c r="M974">
-        <v>3.1</v>
-      </c>
-      <c r="N974">
-        <v>1.909</v>
-      </c>
-      <c r="O974">
-        <v>3.6</v>
-      </c>
-      <c r="P974">
-        <v>3.8</v>
-      </c>
-      <c r="Q974">
-        <v>-0.5</v>
-      </c>
-      <c r="R974">
-        <v>1.98</v>
-      </c>
-      <c r="S974">
-        <v>1.92</v>
-      </c>
-      <c r="T974">
-        <v>2.5</v>
-      </c>
-      <c r="U974">
-        <v>1.99</v>
-      </c>
-      <c r="V974">
-        <v>1.91</v>
-      </c>
-      <c r="W974">
-        <v>-1</v>
-      </c>
-      <c r="X974">
-        <v>-1</v>
-      </c>
-      <c r="Y974">
-        <v>2.8</v>
-      </c>
-      <c r="Z974">
-        <v>-1</v>
-      </c>
       <c r="AA974">
-        <v>0.9199999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB974">
-        <v>0.99</v>
+        <v>0</v>
       </c>
       <c r="AC974">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="975" spans="1:29">
@@ -87243,7 +87243,7 @@
         <v>973</v>
       </c>
       <c r="B975">
-        <v>5705727</v>
+        <v>5705884</v>
       </c>
       <c r="C975" t="s">
         <v>28</v>
@@ -87255,73 +87255,73 @@
         <v>45074.58333333334</v>
       </c>
       <c r="F975" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="G975" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="H975">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I975">
         <v>2</v>
       </c>
       <c r="J975" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K975">
+        <v>2.2</v>
+      </c>
+      <c r="L975">
+        <v>3.5</v>
+      </c>
+      <c r="M975">
+        <v>3.1</v>
+      </c>
+      <c r="N975">
         <v>1.909</v>
       </c>
-      <c r="L975">
+      <c r="O975">
         <v>3.6</v>
       </c>
-      <c r="M975">
-        <v>3.75</v>
-      </c>
-      <c r="N975">
-        <v>2</v>
-      </c>
-      <c r="O975">
-        <v>3.5</v>
-      </c>
       <c r="P975">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="Q975">
         <v>-0.5</v>
       </c>
       <c r="R975">
-        <v>2.025</v>
+        <v>1.98</v>
       </c>
       <c r="S975">
-        <v>1.775</v>
+        <v>1.92</v>
       </c>
       <c r="T975">
         <v>2.5</v>
       </c>
       <c r="U975">
-        <v>2.07</v>
+        <v>1.99</v>
       </c>
       <c r="V975">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="W975">
         <v>-1</v>
       </c>
       <c r="X975">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y975">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Z975">
         <v>-1</v>
       </c>
       <c r="AA975">
-        <v>0.7749999999999999</v>
+        <v>0.9199999999999999</v>
       </c>
       <c r="AB975">
-        <v>1.07</v>
+        <v>0.99</v>
       </c>
       <c r="AC975">
         <v>-1</v>
@@ -103619,7 +103619,7 @@
         <v>1157</v>
       </c>
       <c r="B1159">
-        <v>6809438</v>
+        <v>6809434</v>
       </c>
       <c r="C1159" t="s">
         <v>28</v>
@@ -103631,58 +103631,58 @@
         <v>45280.72916666666</v>
       </c>
       <c r="F1159" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G1159" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="H1159">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I1159">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J1159" t="s">
         <v>55</v>
       </c>
       <c r="K1159">
-        <v>2.15</v>
+        <v>1.4</v>
       </c>
       <c r="L1159">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="M1159">
-        <v>2.9</v>
+        <v>7</v>
       </c>
       <c r="N1159">
-        <v>2.3</v>
+        <v>1.363</v>
       </c>
       <c r="O1159">
-        <v>3.5</v>
+        <v>5.25</v>
       </c>
       <c r="P1159">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="Q1159">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R1159">
-        <v>2.08</v>
+        <v>1.87</v>
       </c>
       <c r="S1159">
-        <v>1.82</v>
+        <v>2.06</v>
       </c>
       <c r="T1159">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U1159">
-        <v>2.06</v>
+        <v>1.91</v>
       </c>
       <c r="V1159">
-        <v>1.84</v>
+        <v>1.99</v>
       </c>
       <c r="W1159">
-        <v>1.3</v>
+        <v>0.363</v>
       </c>
       <c r="X1159">
         <v>-1</v>
@@ -103691,16 +103691,16 @@
         <v>-1</v>
       </c>
       <c r="Z1159">
-        <v>1.08</v>
+        <v>-0.5</v>
       </c>
       <c r="AA1159">
-        <v>-1</v>
+        <v>0.53</v>
       </c>
       <c r="AB1159">
-        <v>1.06</v>
+        <v>-1</v>
       </c>
       <c r="AC1159">
-        <v>-1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="1160" spans="1:29">
@@ -103708,7 +103708,7 @@
         <v>1158</v>
       </c>
       <c r="B1160">
-        <v>6809434</v>
+        <v>6809438</v>
       </c>
       <c r="C1160" t="s">
         <v>28</v>
@@ -103720,58 +103720,58 @@
         <v>45280.72916666666</v>
       </c>
       <c r="F1160" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G1160" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="H1160">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I1160">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J1160" t="s">
         <v>55</v>
       </c>
       <c r="K1160">
-        <v>1.4</v>
+        <v>2.15</v>
       </c>
       <c r="L1160">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="M1160">
-        <v>7</v>
+        <v>2.9</v>
       </c>
       <c r="N1160">
-        <v>1.363</v>
+        <v>2.3</v>
       </c>
       <c r="O1160">
-        <v>5.25</v>
+        <v>3.5</v>
       </c>
       <c r="P1160">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="Q1160">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R1160">
-        <v>1.87</v>
+        <v>2.08</v>
       </c>
       <c r="S1160">
+        <v>1.82</v>
+      </c>
+      <c r="T1160">
+        <v>2.5</v>
+      </c>
+      <c r="U1160">
         <v>2.06</v>
       </c>
-      <c r="T1160">
-        <v>2.75</v>
-      </c>
-      <c r="U1160">
-        <v>1.91</v>
-      </c>
       <c r="V1160">
-        <v>1.99</v>
+        <v>1.84</v>
       </c>
       <c r="W1160">
-        <v>0.363</v>
+        <v>1.3</v>
       </c>
       <c r="X1160">
         <v>-1</v>
@@ -103780,16 +103780,16 @@
         <v>-1</v>
       </c>
       <c r="Z1160">
-        <v>-0.5</v>
+        <v>1.08</v>
       </c>
       <c r="AA1160">
-        <v>0.53</v>
+        <v>-1</v>
       </c>
       <c r="AB1160">
-        <v>-1</v>
+        <v>1.06</v>
       </c>
       <c r="AC1160">
-        <v>0.99</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1161" spans="1:29">
@@ -103975,7 +103975,7 @@
         <v>1161</v>
       </c>
       <c r="B1163">
-        <v>6809437</v>
+        <v>6809290</v>
       </c>
       <c r="C1163" t="s">
         <v>28</v>
@@ -103987,76 +103987,76 @@
         <v>45281.72916666666</v>
       </c>
       <c r="F1163" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="G1163" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="H1163">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I1163">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J1163" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K1163">
-        <v>4.75</v>
+        <v>2.2</v>
       </c>
       <c r="L1163">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="M1163">
-        <v>1.666</v>
+        <v>3.4</v>
       </c>
       <c r="N1163">
-        <v>5.5</v>
+        <v>2.2</v>
       </c>
       <c r="O1163">
-        <v>4.2</v>
+        <v>2.9</v>
       </c>
       <c r="P1163">
-        <v>1.571</v>
+        <v>4</v>
       </c>
       <c r="Q1163">
-        <v>1</v>
+        <v>-0.25</v>
       </c>
       <c r="R1163">
-        <v>1.83</v>
+        <v>1.89</v>
       </c>
       <c r="S1163">
-        <v>2.07</v>
+        <v>2.01</v>
       </c>
       <c r="T1163">
-        <v>2.5</v>
+        <v>1.75</v>
       </c>
       <c r="U1163">
-        <v>1.88</v>
+        <v>1.95</v>
       </c>
       <c r="V1163">
-        <v>2.02</v>
+        <v>1.95</v>
       </c>
       <c r="W1163">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X1163">
         <v>-1</v>
       </c>
       <c r="Y1163">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="Z1163">
-        <v>0</v>
+        <v>0.8899999999999999</v>
       </c>
       <c r="AA1163">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB1163">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC1163">
-        <v>1.02</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1164" spans="1:29">
@@ -104064,7 +104064,7 @@
         <v>1162</v>
       </c>
       <c r="B1164">
-        <v>6809290</v>
+        <v>6809437</v>
       </c>
       <c r="C1164" t="s">
         <v>28</v>
@@ -104076,76 +104076,76 @@
         <v>45281.72916666666</v>
       </c>
       <c r="F1164" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="G1164" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="H1164">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1164">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J1164" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K1164">
-        <v>2.2</v>
+        <v>4.75</v>
       </c>
       <c r="L1164">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="M1164">
-        <v>3.4</v>
+        <v>1.666</v>
       </c>
       <c r="N1164">
-        <v>2.2</v>
+        <v>5.5</v>
       </c>
       <c r="O1164">
-        <v>2.9</v>
+        <v>4.2</v>
       </c>
       <c r="P1164">
-        <v>4</v>
+        <v>1.571</v>
       </c>
       <c r="Q1164">
-        <v>-0.25</v>
+        <v>1</v>
       </c>
       <c r="R1164">
-        <v>1.89</v>
+        <v>1.83</v>
       </c>
       <c r="S1164">
-        <v>2.01</v>
+        <v>2.07</v>
       </c>
       <c r="T1164">
-        <v>1.75</v>
+        <v>2.5</v>
       </c>
       <c r="U1164">
-        <v>1.95</v>
+        <v>1.88</v>
       </c>
       <c r="V1164">
-        <v>1.95</v>
+        <v>2.02</v>
       </c>
       <c r="W1164">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X1164">
         <v>-1</v>
       </c>
       <c r="Y1164">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="Z1164">
-        <v>0.8899999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA1164">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB1164">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC1164">
-        <v>-1</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="1165" spans="1:29">
@@ -104598,7 +104598,7 @@
         <v>1168</v>
       </c>
       <c r="B1170">
-        <v>6809440</v>
+        <v>6809442</v>
       </c>
       <c r="C1170" t="s">
         <v>28</v>
@@ -104610,58 +104610,58 @@
         <v>45294.63541666666</v>
       </c>
       <c r="F1170" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G1170" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="H1170">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1170">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J1170" t="s">
         <v>55</v>
       </c>
       <c r="K1170">
-        <v>2.25</v>
+        <v>1.222</v>
       </c>
       <c r="L1170">
-        <v>3.2</v>
+        <v>6.5</v>
       </c>
       <c r="M1170">
-        <v>3.25</v>
+        <v>11</v>
       </c>
       <c r="N1170">
-        <v>2.15</v>
+        <v>1.2</v>
       </c>
       <c r="O1170">
-        <v>3.2</v>
+        <v>6.5</v>
       </c>
       <c r="P1170">
-        <v>3.5</v>
+        <v>15</v>
       </c>
       <c r="Q1170">
-        <v>-0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R1170">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="S1170">
-        <v>2.04</v>
+        <v>1.98</v>
       </c>
       <c r="T1170">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U1170">
-        <v>1.86</v>
+        <v>2.02</v>
       </c>
       <c r="V1170">
-        <v>2.04</v>
+        <v>1.88</v>
       </c>
       <c r="W1170">
-        <v>1.15</v>
+        <v>0.2</v>
       </c>
       <c r="X1170">
         <v>-1</v>
@@ -104670,16 +104670,16 @@
         <v>-1</v>
       </c>
       <c r="Z1170">
-        <v>0.8899999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA1170">
-        <v>-1</v>
+        <v>0.98</v>
       </c>
       <c r="AB1170">
-        <v>0.8600000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC1170">
-        <v>-1</v>
+        <v>0.8799999999999999</v>
       </c>
     </row>
     <row r="1171" spans="1:29">
@@ -104687,7 +104687,7 @@
         <v>1169</v>
       </c>
       <c r="B1171">
-        <v>6809442</v>
+        <v>6809440</v>
       </c>
       <c r="C1171" t="s">
         <v>28</v>
@@ -104699,58 +104699,58 @@
         <v>45294.63541666666</v>
       </c>
       <c r="F1171" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G1171" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="H1171">
+        <v>2</v>
+      </c>
+      <c r="I1171">
         <v>1</v>
-      </c>
-      <c r="I1171">
-        <v>0</v>
       </c>
       <c r="J1171" t="s">
         <v>55</v>
       </c>
       <c r="K1171">
-        <v>1.222</v>
+        <v>2.25</v>
       </c>
       <c r="L1171">
-        <v>6.5</v>
+        <v>3.2</v>
       </c>
       <c r="M1171">
-        <v>11</v>
+        <v>3.25</v>
       </c>
       <c r="N1171">
-        <v>1.2</v>
+        <v>2.15</v>
       </c>
       <c r="O1171">
-        <v>6.5</v>
+        <v>3.2</v>
       </c>
       <c r="P1171">
-        <v>15</v>
+        <v>3.5</v>
       </c>
       <c r="Q1171">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R1171">
-        <v>1.95</v>
+        <v>1.89</v>
       </c>
       <c r="S1171">
-        <v>1.98</v>
+        <v>2.04</v>
       </c>
       <c r="T1171">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U1171">
-        <v>2.02</v>
+        <v>1.86</v>
       </c>
       <c r="V1171">
-        <v>1.88</v>
+        <v>2.04</v>
       </c>
       <c r="W1171">
-        <v>0.2</v>
+        <v>1.15</v>
       </c>
       <c r="X1171">
         <v>-1</v>
@@ -104759,16 +104759,16 @@
         <v>-1</v>
       </c>
       <c r="Z1171">
-        <v>-1</v>
+        <v>0.8899999999999999</v>
       </c>
       <c r="AA1171">
-        <v>0.98</v>
+        <v>-1</v>
       </c>
       <c r="AB1171">
-        <v>-1</v>
+        <v>0.8600000000000001</v>
       </c>
       <c r="AC1171">
-        <v>0.8799999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1172" spans="1:29">
@@ -107473,31 +107473,31 @@
         <v>12</v>
       </c>
       <c r="N1202">
-        <v>1.333</v>
+        <v>1.363</v>
       </c>
       <c r="O1202">
         <v>5</v>
       </c>
       <c r="P1202">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Q1202">
         <v>-1.5</v>
       </c>
       <c r="R1202">
-        <v>1.95</v>
+        <v>2.03</v>
       </c>
       <c r="S1202">
-        <v>1.95</v>
+        <v>1.87</v>
       </c>
       <c r="T1202">
         <v>3</v>
       </c>
       <c r="U1202">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="V1202">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="W1202">
         <v>0</v>
@@ -107559,19 +107559,19 @@
         <v>-1</v>
       </c>
       <c r="R1203">
-        <v>1.84</v>
+        <v>1.89</v>
       </c>
       <c r="S1203">
-        <v>2.06</v>
+        <v>2.01</v>
       </c>
       <c r="T1203">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U1203">
-        <v>1.99</v>
+        <v>1.92</v>
       </c>
       <c r="V1203">
-        <v>1.91</v>
+        <v>1.98</v>
       </c>
       <c r="W1203">
         <v>0</v>
@@ -107621,13 +107621,13 @@
         <v>1.571</v>
       </c>
       <c r="N1204">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="O1204">
         <v>4.2</v>
       </c>
       <c r="P1204">
-        <v>1.533</v>
+        <v>1.55</v>
       </c>
       <c r="Q1204">
         <v>1</v>
@@ -107716,10 +107716,10 @@
         <v>2.25</v>
       </c>
       <c r="U1205">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="V1205">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="W1205">
         <v>0</v>
@@ -107781,10 +107781,10 @@
         <v>-0.75</v>
       </c>
       <c r="R1206">
-        <v>1.86</v>
+        <v>1.84</v>
       </c>
       <c r="S1206">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="T1206">
         <v>2.5</v>
@@ -107846,7 +107846,7 @@
         <v>2.3</v>
       </c>
       <c r="O1207">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P1207">
         <v>3.25</v>
@@ -107855,19 +107855,19 @@
         <v>-0.25</v>
       </c>
       <c r="R1207">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="S1207">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="T1207">
         <v>2.25</v>
       </c>
       <c r="U1207">
-        <v>2.08</v>
+        <v>2.02</v>
       </c>
       <c r="V1207">
-        <v>1.82</v>
+        <v>1.88</v>
       </c>
       <c r="W1207">
         <v>0</v>
@@ -107929,10 +107929,10 @@
         <v>0.75</v>
       </c>
       <c r="R1208">
-        <v>2.03</v>
+        <v>2.02</v>
       </c>
       <c r="S1208">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="T1208">
         <v>2.5</v>
@@ -108003,10 +108003,10 @@
         <v>-0.25</v>
       </c>
       <c r="R1209">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="S1209">
-        <v>2.02</v>
+        <v>2.01</v>
       </c>
       <c r="T1209">
         <v>2.5</v>
@@ -108077,19 +108077,19 @@
         <v>-0.75</v>
       </c>
       <c r="R1210">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="S1210">
-        <v>2.04</v>
+        <v>2.05</v>
       </c>
       <c r="T1210">
         <v>2.5</v>
       </c>
       <c r="U1210">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="V1210">
-        <v>2</v>
+        <v>2.01</v>
       </c>
       <c r="W1210">
         <v>0</v>
@@ -108160,10 +108160,10 @@
         <v>2</v>
       </c>
       <c r="U1211">
-        <v>1.92</v>
+        <v>1.88</v>
       </c>
       <c r="V1211">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="W1211">
         <v>0</v>
@@ -108299,10 +108299,10 @@
         <v>-0.75</v>
       </c>
       <c r="R1213">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="S1213">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="T1213">
         <v>2.75</v>
@@ -108373,19 +108373,19 @@
         <v>-0.25</v>
       </c>
       <c r="R1214">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="S1214">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="T1214">
         <v>2.25</v>
       </c>
       <c r="U1214">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="V1214">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="W1214">
         <v>0</v>

--- a/Spain Primera Liga/Spain Primera Liga.xlsx
+++ b/Spain Primera Liga/Spain Primera Liga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6080" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6072" uniqueCount="58">
   <si>
     <t>id</t>
   </si>
@@ -549,7 +549,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC1214"/>
+  <dimension ref="A1:AC1212"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -81191,7 +81191,7 @@
         <v>905</v>
       </c>
       <c r="B907">
-        <v>5461881</v>
+        <v>5470775</v>
       </c>
       <c r="C907" t="s">
         <v>28</v>
@@ -81203,76 +81203,76 @@
         <v>45041.60416666666</v>
       </c>
       <c r="F907" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="G907" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="H907">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I907">
+        <v>2</v>
+      </c>
+      <c r="J907" t="s">
+        <v>55</v>
+      </c>
+      <c r="K907">
+        <v>6</v>
+      </c>
+      <c r="L907">
+        <v>4</v>
+      </c>
+      <c r="M907">
+        <v>1.533</v>
+      </c>
+      <c r="N907">
+        <v>5.25</v>
+      </c>
+      <c r="O907">
+        <v>4.2</v>
+      </c>
+      <c r="P907">
+        <v>1.6</v>
+      </c>
+      <c r="Q907">
         <v>1</v>
       </c>
-      <c r="J907" t="s">
-        <v>57</v>
-      </c>
-      <c r="K907">
-        <v>2.3</v>
-      </c>
-      <c r="L907">
-        <v>3.2</v>
-      </c>
-      <c r="M907">
-        <v>3.2</v>
-      </c>
-      <c r="N907">
-        <v>2.05</v>
-      </c>
-      <c r="O907">
-        <v>3.2</v>
-      </c>
-      <c r="P907">
-        <v>4</v>
-      </c>
-      <c r="Q907">
-        <v>-0.5</v>
-      </c>
       <c r="R907">
-        <v>2.08</v>
+        <v>1.84</v>
       </c>
       <c r="S907">
-        <v>1.82</v>
+        <v>2.06</v>
       </c>
       <c r="T907">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U907">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="V907">
-        <v>1.97</v>
+        <v>1.95</v>
       </c>
       <c r="W907">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="X907">
         <v>-1</v>
       </c>
       <c r="Y907">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z907">
-        <v>-1</v>
+        <v>0.8400000000000001</v>
       </c>
       <c r="AA907">
-        <v>0.8200000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB907">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC907">
-        <v>0.97</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="908" spans="1:29">
@@ -81280,7 +81280,7 @@
         <v>906</v>
       </c>
       <c r="B908">
-        <v>5470775</v>
+        <v>5461881</v>
       </c>
       <c r="C908" t="s">
         <v>28</v>
@@ -81292,76 +81292,76 @@
         <v>45041.60416666666</v>
       </c>
       <c r="F908" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="G908" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="H908">
+        <v>0</v>
+      </c>
+      <c r="I908">
+        <v>1</v>
+      </c>
+      <c r="J908" t="s">
+        <v>57</v>
+      </c>
+      <c r="K908">
+        <v>2.3</v>
+      </c>
+      <c r="L908">
+        <v>3.2</v>
+      </c>
+      <c r="M908">
+        <v>3.2</v>
+      </c>
+      <c r="N908">
+        <v>2.05</v>
+      </c>
+      <c r="O908">
+        <v>3.2</v>
+      </c>
+      <c r="P908">
         <v>4</v>
       </c>
-      <c r="I908">
+      <c r="Q908">
+        <v>-0.5</v>
+      </c>
+      <c r="R908">
+        <v>2.08</v>
+      </c>
+      <c r="S908">
+        <v>1.82</v>
+      </c>
+      <c r="T908">
         <v>2</v>
       </c>
-      <c r="J908" t="s">
-        <v>55</v>
-      </c>
-      <c r="K908">
-        <v>6</v>
-      </c>
-      <c r="L908">
-        <v>4</v>
-      </c>
-      <c r="M908">
-        <v>1.533</v>
-      </c>
-      <c r="N908">
-        <v>5.25</v>
-      </c>
-      <c r="O908">
-        <v>4.2</v>
-      </c>
-      <c r="P908">
-        <v>1.6</v>
-      </c>
-      <c r="Q908">
-        <v>1</v>
-      </c>
-      <c r="R908">
-        <v>1.84</v>
-      </c>
-      <c r="S908">
-        <v>2.06</v>
-      </c>
-      <c r="T908">
+      <c r="U908">
+        <v>1.93</v>
+      </c>
+      <c r="V908">
+        <v>1.97</v>
+      </c>
+      <c r="W908">
+        <v>-1</v>
+      </c>
+      <c r="X908">
+        <v>-1</v>
+      </c>
+      <c r="Y908">
         <v>3</v>
       </c>
-      <c r="U908">
-        <v>1.95</v>
-      </c>
-      <c r="V908">
-        <v>1.95</v>
-      </c>
-      <c r="W908">
-        <v>4.25</v>
-      </c>
-      <c r="X908">
-        <v>-1</v>
-      </c>
-      <c r="Y908">
-        <v>-1</v>
-      </c>
       <c r="Z908">
-        <v>0.8400000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA908">
-        <v>-1</v>
+        <v>0.8200000000000001</v>
       </c>
       <c r="AB908">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC908">
-        <v>-1</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="909" spans="1:29">
@@ -81636,7 +81636,7 @@
         <v>910</v>
       </c>
       <c r="B912">
-        <v>5467507</v>
+        <v>5466353</v>
       </c>
       <c r="C912" t="s">
         <v>28</v>
@@ -81648,58 +81648,58 @@
         <v>45042.70833333334</v>
       </c>
       <c r="F912" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="G912" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H912">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I912">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J912" t="s">
         <v>55</v>
       </c>
       <c r="K912">
+        <v>1.4</v>
+      </c>
+      <c r="L912">
         <v>4.5</v>
       </c>
-      <c r="L912">
-        <v>4</v>
-      </c>
       <c r="M912">
-        <v>1.7</v>
+        <v>7.5</v>
       </c>
       <c r="N912">
+        <v>1.363</v>
+      </c>
+      <c r="O912">
         <v>5</v>
       </c>
-      <c r="O912">
-        <v>3.8</v>
-      </c>
       <c r="P912">
-        <v>1.7</v>
+        <v>8</v>
       </c>
       <c r="Q912">
-        <v>0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R912">
-        <v>1.95</v>
+        <v>1.87</v>
       </c>
       <c r="S912">
-        <v>1.95</v>
+        <v>2.03</v>
       </c>
       <c r="T912">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U912">
-        <v>1.85</v>
+        <v>1.96</v>
       </c>
       <c r="V912">
-        <v>2.05</v>
+        <v>1.94</v>
       </c>
       <c r="W912">
-        <v>4</v>
+        <v>0.363</v>
       </c>
       <c r="X912">
         <v>-1</v>
@@ -81708,16 +81708,16 @@
         <v>-1</v>
       </c>
       <c r="Z912">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AA912">
-        <v>-1</v>
+        <v>0.5149999999999999</v>
       </c>
       <c r="AB912">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC912">
-        <v>-1</v>
+        <v>0.9399999999999999</v>
       </c>
     </row>
     <row r="913" spans="1:29">
@@ -81725,7 +81725,7 @@
         <v>911</v>
       </c>
       <c r="B913">
-        <v>5466353</v>
+        <v>5467507</v>
       </c>
       <c r="C913" t="s">
         <v>28</v>
@@ -81737,58 +81737,58 @@
         <v>45042.70833333334</v>
       </c>
       <c r="F913" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="G913" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H913">
+        <v>2</v>
+      </c>
+      <c r="I913">
         <v>1</v>
-      </c>
-      <c r="I913">
-        <v>0</v>
       </c>
       <c r="J913" t="s">
         <v>55</v>
       </c>
       <c r="K913">
-        <v>1.4</v>
+        <v>4.5</v>
       </c>
       <c r="L913">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="M913">
-        <v>7.5</v>
+        <v>1.7</v>
       </c>
       <c r="N913">
-        <v>1.363</v>
+        <v>5</v>
       </c>
       <c r="O913">
-        <v>5</v>
+        <v>3.8</v>
       </c>
       <c r="P913">
-        <v>8</v>
+        <v>1.7</v>
       </c>
       <c r="Q913">
-        <v>-1.25</v>
+        <v>0.75</v>
       </c>
       <c r="R913">
-        <v>1.87</v>
+        <v>1.95</v>
       </c>
       <c r="S913">
-        <v>2.03</v>
+        <v>1.95</v>
       </c>
       <c r="T913">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U913">
-        <v>1.96</v>
+        <v>1.85</v>
       </c>
       <c r="V913">
-        <v>1.94</v>
+        <v>2.05</v>
       </c>
       <c r="W913">
-        <v>0.363</v>
+        <v>4</v>
       </c>
       <c r="X913">
         <v>-1</v>
@@ -81797,16 +81797,16 @@
         <v>-1</v>
       </c>
       <c r="Z913">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AA913">
-        <v>0.5149999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB913">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC913">
-        <v>0.9399999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="914" spans="1:29">
@@ -102195,7 +102195,7 @@
         <v>1141</v>
       </c>
       <c r="B1143">
-        <v>6809425</v>
+        <v>6809424</v>
       </c>
       <c r="C1143" t="s">
         <v>28</v>
@@ -102207,76 +102207,76 @@
         <v>45271.70833333334</v>
       </c>
       <c r="F1143" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G1143" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="H1143">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I1143">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J1143" t="s">
         <v>56</v>
       </c>
       <c r="K1143">
-        <v>2.3</v>
+        <v>4.5</v>
       </c>
       <c r="L1143">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M1143">
-        <v>3.25</v>
+        <v>1.75</v>
       </c>
       <c r="N1143">
-        <v>2.7</v>
+        <v>4.2</v>
       </c>
       <c r="O1143">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="P1143">
-        <v>2.8</v>
+        <v>1.85</v>
       </c>
       <c r="Q1143">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R1143">
-        <v>1.92</v>
+        <v>2.01</v>
       </c>
       <c r="S1143">
-        <v>1.98</v>
+        <v>1.89</v>
       </c>
       <c r="T1143">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U1143">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="V1143">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="W1143">
         <v>-1</v>
       </c>
       <c r="X1143">
-        <v>2.1</v>
+        <v>2.75</v>
       </c>
       <c r="Y1143">
         <v>-1</v>
       </c>
       <c r="Z1143">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AA1143">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB1143">
         <v>-1</v>
       </c>
       <c r="AC1143">
-        <v>0.95</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="1144" spans="1:29">
@@ -102284,7 +102284,7 @@
         <v>1142</v>
       </c>
       <c r="B1144">
-        <v>6809424</v>
+        <v>6809425</v>
       </c>
       <c r="C1144" t="s">
         <v>28</v>
@@ -102296,76 +102296,76 @@
         <v>45271.70833333334</v>
       </c>
       <c r="F1144" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G1144" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H1144">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1144">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J1144" t="s">
         <v>56</v>
       </c>
       <c r="K1144">
-        <v>4.5</v>
+        <v>2.3</v>
       </c>
       <c r="L1144">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M1144">
-        <v>1.75</v>
+        <v>3.25</v>
       </c>
       <c r="N1144">
-        <v>4.2</v>
+        <v>2.7</v>
       </c>
       <c r="O1144">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="P1144">
-        <v>1.85</v>
+        <v>2.8</v>
       </c>
       <c r="Q1144">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R1144">
-        <v>2.01</v>
+        <v>1.92</v>
       </c>
       <c r="S1144">
-        <v>1.89</v>
+        <v>1.98</v>
       </c>
       <c r="T1144">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U1144">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V1144">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="W1144">
         <v>-1</v>
       </c>
       <c r="X1144">
-        <v>2.75</v>
+        <v>2.1</v>
       </c>
       <c r="Y1144">
         <v>-1</v>
       </c>
       <c r="Z1144">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="AA1144">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB1144">
         <v>-1</v>
       </c>
       <c r="AC1144">
-        <v>1.05</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="1145" spans="1:29">
@@ -107446,7 +107446,7 @@
         <v>1200</v>
       </c>
       <c r="B1202">
-        <v>6809300</v>
+        <v>6809447</v>
       </c>
       <c r="C1202" t="s">
         <v>28</v>
@@ -107455,49 +107455,49 @@
         <v>28</v>
       </c>
       <c r="E1202" s="2">
-        <v>45322.625</v>
+        <v>45323.70833333334</v>
       </c>
       <c r="F1202" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="G1202" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="K1202">
-        <v>1.285</v>
+        <v>5.75</v>
       </c>
       <c r="L1202">
-        <v>5.25</v>
+        <v>4</v>
       </c>
       <c r="M1202">
-        <v>12</v>
+        <v>1.571</v>
       </c>
       <c r="N1202">
-        <v>1.363</v>
+        <v>5.75</v>
       </c>
       <c r="O1202">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="P1202">
-        <v>9.5</v>
+        <v>1.571</v>
       </c>
       <c r="Q1202">
-        <v>-1.5</v>
+        <v>1</v>
       </c>
       <c r="R1202">
-        <v>2.03</v>
+        <v>1.9</v>
       </c>
       <c r="S1202">
-        <v>1.87</v>
+        <v>2</v>
       </c>
       <c r="T1202">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U1202">
-        <v>2.05</v>
+        <v>1.98</v>
       </c>
       <c r="V1202">
-        <v>1.85</v>
+        <v>1.92</v>
       </c>
       <c r="W1202">
         <v>0</v>
@@ -107520,7 +107520,7 @@
         <v>1201</v>
       </c>
       <c r="B1203">
-        <v>6809445</v>
+        <v>6809460</v>
       </c>
       <c r="C1203" t="s">
         <v>28</v>
@@ -107529,28 +107529,28 @@
         <v>28</v>
       </c>
       <c r="E1203" s="2">
-        <v>45322.70833333334</v>
+        <v>45324.70833333334</v>
       </c>
       <c r="F1203" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="G1203" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K1203">
-        <v>1.333</v>
+        <v>1.615</v>
       </c>
       <c r="L1203">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="M1203">
-        <v>8.5</v>
+        <v>5.5</v>
       </c>
       <c r="N1203">
         <v>1.5</v>
       </c>
       <c r="O1203">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="P1203">
         <v>6.5</v>
@@ -107559,19 +107559,19 @@
         <v>-1</v>
       </c>
       <c r="R1203">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="S1203">
-        <v>2.01</v>
+        <v>1.95</v>
       </c>
       <c r="T1203">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U1203">
-        <v>1.92</v>
+        <v>1.97</v>
       </c>
       <c r="V1203">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="W1203">
         <v>0</v>
@@ -107594,7 +107594,7 @@
         <v>1202</v>
       </c>
       <c r="B1204">
-        <v>6809447</v>
+        <v>6809316</v>
       </c>
       <c r="C1204" t="s">
         <v>28</v>
@@ -107603,49 +107603,49 @@
         <v>28</v>
       </c>
       <c r="E1204" s="2">
-        <v>45323.70833333334</v>
+        <v>45325.41666666666</v>
       </c>
       <c r="F1204" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G1204" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="K1204">
-        <v>5.75</v>
+        <v>1.666</v>
       </c>
       <c r="L1204">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M1204">
-        <v>1.571</v>
+        <v>5</v>
       </c>
       <c r="N1204">
-        <v>6</v>
+        <v>1.65</v>
       </c>
       <c r="O1204">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="P1204">
-        <v>1.55</v>
+        <v>5.25</v>
       </c>
       <c r="Q1204">
-        <v>1</v>
+        <v>-0.75</v>
       </c>
       <c r="R1204">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="S1204">
-        <v>1.98</v>
+        <v>2.05</v>
       </c>
       <c r="T1204">
         <v>2.5</v>
       </c>
       <c r="U1204">
-        <v>1.98</v>
+        <v>2.01</v>
       </c>
       <c r="V1204">
-        <v>1.92</v>
+        <v>1.89</v>
       </c>
       <c r="W1204">
         <v>0</v>
@@ -107668,7 +107668,7 @@
         <v>1203</v>
       </c>
       <c r="B1205">
-        <v>6809460</v>
+        <v>6809462</v>
       </c>
       <c r="C1205" t="s">
         <v>28</v>
@@ -107677,49 +107677,49 @@
         <v>28</v>
       </c>
       <c r="E1205" s="2">
-        <v>45324.70833333334</v>
+        <v>45325.51041666666</v>
       </c>
       <c r="F1205" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G1205" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="K1205">
-        <v>1.615</v>
+        <v>2.375</v>
       </c>
       <c r="L1205">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="M1205">
-        <v>5.5</v>
+        <v>3</v>
       </c>
       <c r="N1205">
-        <v>1.5</v>
+        <v>2.3</v>
       </c>
       <c r="O1205">
-        <v>3.8</v>
+        <v>3.25</v>
       </c>
       <c r="P1205">
-        <v>6.5</v>
+        <v>3.25</v>
       </c>
       <c r="Q1205">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R1205">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="S1205">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="T1205">
         <v>2.25</v>
       </c>
       <c r="U1205">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="V1205">
-        <v>1.92</v>
+        <v>1.88</v>
       </c>
       <c r="W1205">
         <v>0</v>
@@ -107742,7 +107742,7 @@
         <v>1204</v>
       </c>
       <c r="B1206">
-        <v>6809316</v>
+        <v>6809315</v>
       </c>
       <c r="C1206" t="s">
         <v>28</v>
@@ -107751,49 +107751,49 @@
         <v>28</v>
       </c>
       <c r="E1206" s="2">
-        <v>45325.41666666666</v>
+        <v>45325.60416666666</v>
       </c>
       <c r="F1206" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G1206" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="K1206">
-        <v>1.666</v>
+        <v>6</v>
       </c>
       <c r="L1206">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M1206">
-        <v>5</v>
+        <v>1.533</v>
       </c>
       <c r="N1206">
-        <v>1.65</v>
+        <v>4.5</v>
       </c>
       <c r="O1206">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P1206">
-        <v>5.25</v>
+        <v>1.8</v>
       </c>
       <c r="Q1206">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R1206">
-        <v>1.84</v>
+        <v>2.04</v>
       </c>
       <c r="S1206">
-        <v>2.06</v>
+        <v>1.86</v>
       </c>
       <c r="T1206">
         <v>2.5</v>
       </c>
       <c r="U1206">
-        <v>2.01</v>
+        <v>1.92</v>
       </c>
       <c r="V1206">
-        <v>1.89</v>
+        <v>1.98</v>
       </c>
       <c r="W1206">
         <v>0</v>
@@ -107816,7 +107816,7 @@
         <v>1205</v>
       </c>
       <c r="B1207">
-        <v>6809462</v>
+        <v>6809313</v>
       </c>
       <c r="C1207" t="s">
         <v>28</v>
@@ -107825,28 +107825,28 @@
         <v>28</v>
       </c>
       <c r="E1207" s="2">
-        <v>45325.51041666666</v>
+        <v>45325.70833333334</v>
       </c>
       <c r="F1207" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="G1207" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="K1207">
-        <v>2.375</v>
+        <v>2.25</v>
       </c>
       <c r="L1207">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="M1207">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="N1207">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="O1207">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="P1207">
         <v>3.25</v>
@@ -107855,19 +107855,19 @@
         <v>-0.25</v>
       </c>
       <c r="R1207">
-        <v>1.98</v>
+        <v>1.89</v>
       </c>
       <c r="S1207">
-        <v>1.92</v>
+        <v>2.01</v>
       </c>
       <c r="T1207">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U1207">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="V1207">
-        <v>1.88</v>
+        <v>1.84</v>
       </c>
       <c r="W1207">
         <v>0</v>
@@ -107890,7 +107890,7 @@
         <v>1206</v>
       </c>
       <c r="B1208">
-        <v>6809315</v>
+        <v>6809464</v>
       </c>
       <c r="C1208" t="s">
         <v>28</v>
@@ -107899,49 +107899,49 @@
         <v>28</v>
       </c>
       <c r="E1208" s="2">
-        <v>45325.60416666666</v>
+        <v>45326.41666666666</v>
       </c>
       <c r="F1208" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G1208" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="K1208">
-        <v>6</v>
+        <v>1.8</v>
       </c>
       <c r="L1208">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M1208">
-        <v>1.533</v>
+        <v>4.333</v>
       </c>
       <c r="N1208">
+        <v>1.65</v>
+      </c>
+      <c r="O1208">
+        <v>3.8</v>
+      </c>
+      <c r="P1208">
         <v>5.25</v>
       </c>
-      <c r="O1208">
-        <v>3.75</v>
-      </c>
-      <c r="P1208">
-        <v>1.65</v>
-      </c>
       <c r="Q1208">
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R1208">
-        <v>2.02</v>
+        <v>1.84</v>
       </c>
       <c r="S1208">
-        <v>1.88</v>
+        <v>2.06</v>
       </c>
       <c r="T1208">
         <v>2.5</v>
       </c>
       <c r="U1208">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="V1208">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="W1208">
         <v>0</v>
@@ -107964,7 +107964,7 @@
         <v>1207</v>
       </c>
       <c r="B1209">
-        <v>6809313</v>
+        <v>6809317</v>
       </c>
       <c r="C1209" t="s">
         <v>28</v>
@@ -107973,49 +107973,49 @@
         <v>28</v>
       </c>
       <c r="E1209" s="2">
-        <v>45325.70833333334</v>
+        <v>45326.51041666666</v>
       </c>
       <c r="F1209" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="G1209" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="K1209">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L1209">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="M1209">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="N1209">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="O1209">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="P1209">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="Q1209">
         <v>-0.25</v>
       </c>
       <c r="R1209">
+        <v>2.01</v>
+      </c>
+      <c r="S1209">
         <v>1.89</v>
       </c>
-      <c r="S1209">
-        <v>2.01</v>
-      </c>
       <c r="T1209">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U1209">
-        <v>2.06</v>
+        <v>1.88</v>
       </c>
       <c r="V1209">
-        <v>1.84</v>
+        <v>2.02</v>
       </c>
       <c r="W1209">
         <v>0</v>
@@ -108038,7 +108038,7 @@
         <v>1208</v>
       </c>
       <c r="B1210">
-        <v>6809464</v>
+        <v>6809461</v>
       </c>
       <c r="C1210" t="s">
         <v>28</v>
@@ -108047,49 +108047,49 @@
         <v>28</v>
       </c>
       <c r="E1210" s="2">
-        <v>45326.41666666666</v>
+        <v>45326.60416666666</v>
       </c>
       <c r="F1210" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G1210" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="K1210">
-        <v>1.8</v>
+        <v>1.833</v>
       </c>
       <c r="L1210">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M1210">
+        <v>4.5</v>
+      </c>
+      <c r="N1210">
+        <v>1.85</v>
+      </c>
+      <c r="O1210">
+        <v>3.4</v>
+      </c>
+      <c r="P1210">
         <v>4.333</v>
       </c>
-      <c r="N1210">
-        <v>1.65</v>
-      </c>
-      <c r="O1210">
-        <v>3.8</v>
-      </c>
-      <c r="P1210">
-        <v>5.25</v>
-      </c>
       <c r="Q1210">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R1210">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="S1210">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="T1210">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U1210">
-        <v>1.89</v>
+        <v>2.07</v>
       </c>
       <c r="V1210">
-        <v>2.01</v>
+        <v>1.83</v>
       </c>
       <c r="W1210">
         <v>0</v>
@@ -108112,7 +108112,7 @@
         <v>1209</v>
       </c>
       <c r="B1211">
-        <v>6809317</v>
+        <v>6809463</v>
       </c>
       <c r="C1211" t="s">
         <v>28</v>
@@ -108121,43 +108121,43 @@
         <v>28</v>
       </c>
       <c r="E1211" s="2">
-        <v>45326.51041666666</v>
+        <v>45326.70833333334</v>
       </c>
       <c r="F1211" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="G1211" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="K1211">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="L1211">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="M1211">
-        <v>3.1</v>
+        <v>4.333</v>
       </c>
       <c r="N1211">
-        <v>2.3</v>
+        <v>1.7</v>
       </c>
       <c r="O1211">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="P1211">
-        <v>3.3</v>
+        <v>4.75</v>
       </c>
       <c r="Q1211">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R1211">
-        <v>2.01</v>
+        <v>1.95</v>
       </c>
       <c r="S1211">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="T1211">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U1211">
         <v>1.88</v>
@@ -108186,7 +108186,7 @@
         <v>1210</v>
       </c>
       <c r="B1212">
-        <v>6809461</v>
+        <v>6809314</v>
       </c>
       <c r="C1212" t="s">
         <v>28</v>
@@ -108195,49 +108195,49 @@
         <v>28</v>
       </c>
       <c r="E1212" s="2">
-        <v>45326.60416666666</v>
+        <v>45327.70833333334</v>
       </c>
       <c r="F1212" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="G1212" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="K1212">
-        <v>1.833</v>
+        <v>2.375</v>
       </c>
       <c r="L1212">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M1212">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="N1212">
-        <v>1.85</v>
+        <v>2.2</v>
       </c>
       <c r="O1212">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P1212">
-        <v>4.333</v>
+        <v>3.3</v>
       </c>
       <c r="Q1212">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R1212">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="S1212">
-        <v>1.95</v>
+        <v>1.99</v>
       </c>
       <c r="T1212">
         <v>2.25</v>
       </c>
       <c r="U1212">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="V1212">
-        <v>1.83</v>
+        <v>1.9</v>
       </c>
       <c r="W1212">
         <v>0</v>
@@ -108252,154 +108252,6 @@
         <v>0</v>
       </c>
       <c r="AA1212">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1213" spans="1:29">
-      <c r="A1213" s="1">
-        <v>1211</v>
-      </c>
-      <c r="B1213">
-        <v>6809463</v>
-      </c>
-      <c r="C1213" t="s">
-        <v>28</v>
-      </c>
-      <c r="D1213" t="s">
-        <v>28</v>
-      </c>
-      <c r="E1213" s="2">
-        <v>45326.70833333334</v>
-      </c>
-      <c r="F1213" t="s">
-        <v>32</v>
-      </c>
-      <c r="G1213" t="s">
-        <v>47</v>
-      </c>
-      <c r="K1213">
-        <v>1.8</v>
-      </c>
-      <c r="L1213">
-        <v>3.6</v>
-      </c>
-      <c r="M1213">
-        <v>4.333</v>
-      </c>
-      <c r="N1213">
-        <v>1.7</v>
-      </c>
-      <c r="O1213">
-        <v>3.75</v>
-      </c>
-      <c r="P1213">
-        <v>4.75</v>
-      </c>
-      <c r="Q1213">
-        <v>-0.75</v>
-      </c>
-      <c r="R1213">
-        <v>1.93</v>
-      </c>
-      <c r="S1213">
-        <v>1.97</v>
-      </c>
-      <c r="T1213">
-        <v>2.75</v>
-      </c>
-      <c r="U1213">
-        <v>1.87</v>
-      </c>
-      <c r="V1213">
-        <v>2.03</v>
-      </c>
-      <c r="W1213">
-        <v>0</v>
-      </c>
-      <c r="X1213">
-        <v>0</v>
-      </c>
-      <c r="Y1213">
-        <v>0</v>
-      </c>
-      <c r="Z1213">
-        <v>0</v>
-      </c>
-      <c r="AA1213">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1214" spans="1:29">
-      <c r="A1214" s="1">
-        <v>1212</v>
-      </c>
-      <c r="B1214">
-        <v>6809314</v>
-      </c>
-      <c r="C1214" t="s">
-        <v>28</v>
-      </c>
-      <c r="D1214" t="s">
-        <v>28</v>
-      </c>
-      <c r="E1214" s="2">
-        <v>45327.70833333334</v>
-      </c>
-      <c r="F1214" t="s">
-        <v>51</v>
-      </c>
-      <c r="G1214" t="s">
-        <v>40</v>
-      </c>
-      <c r="K1214">
-        <v>2.375</v>
-      </c>
-      <c r="L1214">
-        <v>3.25</v>
-      </c>
-      <c r="M1214">
-        <v>3</v>
-      </c>
-      <c r="N1214">
-        <v>2.2</v>
-      </c>
-      <c r="O1214">
-        <v>3.3</v>
-      </c>
-      <c r="P1214">
-        <v>3.3</v>
-      </c>
-      <c r="Q1214">
-        <v>-0.25</v>
-      </c>
-      <c r="R1214">
-        <v>1.91</v>
-      </c>
-      <c r="S1214">
-        <v>1.99</v>
-      </c>
-      <c r="T1214">
-        <v>2.25</v>
-      </c>
-      <c r="U1214">
-        <v>2</v>
-      </c>
-      <c r="V1214">
-        <v>1.9</v>
-      </c>
-      <c r="W1214">
-        <v>0</v>
-      </c>
-      <c r="X1214">
-        <v>0</v>
-      </c>
-      <c r="Y1214">
-        <v>0</v>
-      </c>
-      <c r="Z1214">
-        <v>0</v>
-      </c>
-      <c r="AA1214">
         <v>0</v>
       </c>
     </row>

--- a/Spain Primera Liga/Spain Primera Liga.xlsx
+++ b/Spain Primera Liga/Spain Primera Liga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2313" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2318" uniqueCount="55">
   <si>
     <t>id</t>
   </si>
@@ -540,7 +540,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC460"/>
+  <dimension ref="A1:AC461"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -14254,7 +14254,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>5475945</v>
+        <v>5471430</v>
       </c>
       <c r="C155" t="s">
         <v>28</v>
@@ -14266,73 +14266,73 @@
         <v>45042.60416666666</v>
       </c>
       <c r="F155" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="G155" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H155">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I155">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J155" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K155">
-        <v>1.363</v>
+        <v>1.95</v>
       </c>
       <c r="L155">
+        <v>3.4</v>
+      </c>
+      <c r="M155">
+        <v>3.8</v>
+      </c>
+      <c r="N155">
+        <v>1.85</v>
+      </c>
+      <c r="O155">
+        <v>3.5</v>
+      </c>
+      <c r="P155">
         <v>4.5</v>
       </c>
-      <c r="M155">
-        <v>9</v>
-      </c>
-      <c r="N155">
-        <v>1.3</v>
-      </c>
-      <c r="O155">
-        <v>4.75</v>
-      </c>
-      <c r="P155">
-        <v>12</v>
-      </c>
       <c r="Q155">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R155">
-        <v>2.04</v>
+        <v>1.88</v>
       </c>
       <c r="S155">
-        <v>1.86</v>
+        <v>2.02</v>
       </c>
       <c r="T155">
         <v>2.25</v>
       </c>
       <c r="U155">
-        <v>1.87</v>
+        <v>2</v>
       </c>
       <c r="V155">
-        <v>2.03</v>
+        <v>1.9</v>
       </c>
       <c r="W155">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="X155">
         <v>-1</v>
       </c>
       <c r="Y155">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Z155">
-        <v>1.04</v>
+        <v>-1</v>
       </c>
       <c r="AA155">
-        <v>-1</v>
+        <v>1.02</v>
       </c>
       <c r="AB155">
-        <v>0.8700000000000001</v>
+        <v>1</v>
       </c>
       <c r="AC155">
         <v>-1</v>
@@ -14343,7 +14343,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>5471430</v>
+        <v>5475945</v>
       </c>
       <c r="C156" t="s">
         <v>28</v>
@@ -14355,73 +14355,73 @@
         <v>45042.60416666666</v>
       </c>
       <c r="F156" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G156" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H156">
+        <v>3</v>
+      </c>
+      <c r="I156">
         <v>1</v>
       </c>
-      <c r="I156">
-        <v>2</v>
-      </c>
       <c r="J156" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K156">
-        <v>1.95</v>
+        <v>1.363</v>
       </c>
       <c r="L156">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="M156">
-        <v>3.8</v>
+        <v>9</v>
       </c>
       <c r="N156">
-        <v>1.85</v>
+        <v>1.3</v>
       </c>
       <c r="O156">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="P156">
-        <v>4.5</v>
+        <v>12</v>
       </c>
       <c r="Q156">
-        <v>-0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R156">
-        <v>1.88</v>
+        <v>2.04</v>
       </c>
       <c r="S156">
-        <v>2.02</v>
+        <v>1.86</v>
       </c>
       <c r="T156">
         <v>2.25</v>
       </c>
       <c r="U156">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="V156">
-        <v>1.9</v>
+        <v>2.03</v>
       </c>
       <c r="W156">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="X156">
         <v>-1</v>
       </c>
       <c r="Y156">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Z156">
-        <v>-1</v>
+        <v>1.04</v>
       </c>
       <c r="AA156">
-        <v>1.02</v>
+        <v>-1</v>
       </c>
       <c r="AB156">
-        <v>1</v>
+        <v>0.8700000000000001</v>
       </c>
       <c r="AC156">
         <v>-1</v>
@@ -14432,7 +14432,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>5466353</v>
+        <v>5467507</v>
       </c>
       <c r="C157" t="s">
         <v>28</v>
@@ -14444,58 +14444,58 @@
         <v>45042.70833333334</v>
       </c>
       <c r="F157" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G157" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="H157">
+        <v>2</v>
+      </c>
+      <c r="I157">
         <v>1</v>
-      </c>
-      <c r="I157">
-        <v>0</v>
       </c>
       <c r="J157" t="s">
         <v>53</v>
       </c>
       <c r="K157">
-        <v>1.4</v>
+        <v>4.5</v>
       </c>
       <c r="L157">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="M157">
-        <v>7.5</v>
+        <v>1.7</v>
       </c>
       <c r="N157">
-        <v>1.363</v>
+        <v>5</v>
       </c>
       <c r="O157">
-        <v>5</v>
+        <v>3.8</v>
       </c>
       <c r="P157">
-        <v>8</v>
+        <v>1.7</v>
       </c>
       <c r="Q157">
-        <v>-1.25</v>
+        <v>0.75</v>
       </c>
       <c r="R157">
-        <v>1.87</v>
+        <v>1.95</v>
       </c>
       <c r="S157">
-        <v>2.03</v>
+        <v>1.95</v>
       </c>
       <c r="T157">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U157">
-        <v>1.96</v>
+        <v>1.85</v>
       </c>
       <c r="V157">
-        <v>1.94</v>
+        <v>2.05</v>
       </c>
       <c r="W157">
-        <v>0.363</v>
+        <v>4</v>
       </c>
       <c r="X157">
         <v>-1</v>
@@ -14504,16 +14504,16 @@
         <v>-1</v>
       </c>
       <c r="Z157">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AA157">
-        <v>0.5149999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB157">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC157">
-        <v>0.9399999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="158" spans="1:29">
@@ -14521,7 +14521,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>5467507</v>
+        <v>5466353</v>
       </c>
       <c r="C158" t="s">
         <v>28</v>
@@ -14533,58 +14533,58 @@
         <v>45042.70833333334</v>
       </c>
       <c r="F158" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G158" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="H158">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I158">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J158" t="s">
         <v>53</v>
       </c>
       <c r="K158">
+        <v>1.4</v>
+      </c>
+      <c r="L158">
         <v>4.5</v>
       </c>
-      <c r="L158">
-        <v>4</v>
-      </c>
       <c r="M158">
-        <v>1.7</v>
+        <v>7.5</v>
       </c>
       <c r="N158">
+        <v>1.363</v>
+      </c>
+      <c r="O158">
         <v>5</v>
       </c>
-      <c r="O158">
-        <v>3.8</v>
-      </c>
       <c r="P158">
-        <v>1.7</v>
+        <v>8</v>
       </c>
       <c r="Q158">
-        <v>0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R158">
-        <v>1.95</v>
+        <v>1.87</v>
       </c>
       <c r="S158">
-        <v>1.95</v>
+        <v>2.03</v>
       </c>
       <c r="T158">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U158">
-        <v>1.85</v>
+        <v>1.96</v>
       </c>
       <c r="V158">
-        <v>2.05</v>
+        <v>1.94</v>
       </c>
       <c r="W158">
-        <v>4</v>
+        <v>0.363</v>
       </c>
       <c r="X158">
         <v>-1</v>
@@ -14593,16 +14593,16 @@
         <v>-1</v>
       </c>
       <c r="Z158">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AA158">
-        <v>-1</v>
+        <v>0.5149999999999999</v>
       </c>
       <c r="AB158">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC158">
-        <v>-1</v>
+        <v>0.9399999999999999</v>
       </c>
     </row>
     <row r="159" spans="1:29">
@@ -17814,7 +17814,7 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>5611043</v>
+        <v>5611042</v>
       </c>
       <c r="C195" t="s">
         <v>28</v>
@@ -17826,76 +17826,76 @@
         <v>45066.5625</v>
       </c>
       <c r="F195" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="G195" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H195">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I195">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J195" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K195">
-        <v>1.5</v>
+        <v>2.3</v>
       </c>
       <c r="L195">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="M195">
-        <v>6.5</v>
+        <v>3.2</v>
       </c>
       <c r="N195">
-        <v>1.65</v>
+        <v>2.25</v>
       </c>
       <c r="O195">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="P195">
-        <v>6</v>
+        <v>3.3</v>
       </c>
       <c r="Q195">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R195">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="S195">
-        <v>2.01</v>
+        <v>1.95</v>
       </c>
       <c r="T195">
         <v>2.25</v>
       </c>
       <c r="U195">
-        <v>2.09</v>
+        <v>1.9</v>
       </c>
       <c r="V195">
-        <v>1.81</v>
+        <v>2</v>
       </c>
       <c r="W195">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X195">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y195">
         <v>-1</v>
       </c>
       <c r="Z195">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA195">
-        <v>1.01</v>
+        <v>-1</v>
       </c>
       <c r="AB195">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC195">
-        <v>0.405</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="196" spans="1:29">
@@ -17903,7 +17903,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>5611042</v>
+        <v>5611043</v>
       </c>
       <c r="C196" t="s">
         <v>28</v>
@@ -17915,76 +17915,76 @@
         <v>45066.5625</v>
       </c>
       <c r="F196" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="G196" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H196">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I196">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J196" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K196">
-        <v>2.3</v>
+        <v>1.5</v>
       </c>
       <c r="L196">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="M196">
-        <v>3.2</v>
+        <v>6.5</v>
       </c>
       <c r="N196">
-        <v>2.25</v>
+        <v>1.65</v>
       </c>
       <c r="O196">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="P196">
-        <v>3.3</v>
+        <v>6</v>
       </c>
       <c r="Q196">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R196">
-        <v>1.95</v>
+        <v>1.89</v>
       </c>
       <c r="S196">
-        <v>1.95</v>
+        <v>2.01</v>
       </c>
       <c r="T196">
         <v>2.25</v>
       </c>
       <c r="U196">
-        <v>1.9</v>
+        <v>2.09</v>
       </c>
       <c r="V196">
-        <v>2</v>
+        <v>1.81</v>
       </c>
       <c r="W196">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X196">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y196">
         <v>-1</v>
       </c>
       <c r="Z196">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA196">
-        <v>-1</v>
+        <v>1.01</v>
       </c>
       <c r="AB196">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AC196">
-        <v>-1</v>
+        <v>0.405</v>
       </c>
     </row>
     <row r="197" spans="1:29">
@@ -18437,7 +18437,7 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>5638808</v>
+        <v>5638811</v>
       </c>
       <c r="C202" t="s">
         <v>28</v>
@@ -18449,61 +18449,61 @@
         <v>45069.60416666666</v>
       </c>
       <c r="F202" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G202" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="H202">
         <v>1</v>
       </c>
       <c r="I202">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J202" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K202">
-        <v>2.2</v>
+        <v>1.4</v>
       </c>
       <c r="L202">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="M202">
-        <v>3.25</v>
+        <v>8.5</v>
       </c>
       <c r="N202">
-        <v>2.1</v>
+        <v>1.363</v>
       </c>
       <c r="O202">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="P202">
-        <v>3.6</v>
+        <v>8</v>
       </c>
       <c r="Q202">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R202">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="S202">
-        <v>2.08</v>
+        <v>2.01</v>
       </c>
       <c r="T202">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U202">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="V202">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W202">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X202">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y202">
         <v>-1</v>
@@ -18512,13 +18512,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA202">
-        <v>0.54</v>
+        <v>0.5049999999999999</v>
       </c>
       <c r="AB202">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC202">
-        <v>0.5125</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="203" spans="1:29">
@@ -18526,7 +18526,7 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>5638811</v>
+        <v>5638808</v>
       </c>
       <c r="C203" t="s">
         <v>28</v>
@@ -18538,61 +18538,61 @@
         <v>45069.60416666666</v>
       </c>
       <c r="F203" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G203" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H203">
         <v>1</v>
       </c>
       <c r="I203">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J203" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K203">
-        <v>1.4</v>
+        <v>2.2</v>
       </c>
       <c r="L203">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="M203">
-        <v>8.5</v>
+        <v>3.25</v>
       </c>
       <c r="N203">
-        <v>1.363</v>
+        <v>2.1</v>
       </c>
       <c r="O203">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="P203">
-        <v>8</v>
+        <v>3.6</v>
       </c>
       <c r="Q203">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R203">
-        <v>1.89</v>
+        <v>1.82</v>
       </c>
       <c r="S203">
-        <v>2.01</v>
+        <v>2.08</v>
       </c>
       <c r="T203">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U203">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="V203">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W203">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X203">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y203">
         <v>-1</v>
@@ -18601,13 +18601,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA203">
-        <v>0.5049999999999999</v>
+        <v>0.54</v>
       </c>
       <c r="AB203">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC203">
-        <v>0.8999999999999999</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="204" spans="1:29">
@@ -18793,7 +18793,7 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>5634388</v>
+        <v>5638885</v>
       </c>
       <c r="C206" t="s">
         <v>28</v>
@@ -18805,58 +18805,58 @@
         <v>45070.60416666666</v>
       </c>
       <c r="F206" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="G206" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="H206">
         <v>2</v>
       </c>
       <c r="I206">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J206" t="s">
         <v>53</v>
       </c>
       <c r="K206">
-        <v>1.45</v>
+        <v>1.363</v>
       </c>
       <c r="L206">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="M206">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="N206">
-        <v>1.45</v>
+        <v>1.363</v>
       </c>
       <c r="O206">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="P206">
-        <v>6</v>
+        <v>7.5</v>
       </c>
       <c r="Q206">
-        <v>-1.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R206">
+        <v>2.06</v>
+      </c>
+      <c r="S206">
+        <v>1.84</v>
+      </c>
+      <c r="T206">
+        <v>3.25</v>
+      </c>
+      <c r="U206">
         <v>2.07</v>
       </c>
-      <c r="S206">
+      <c r="V206">
         <v>1.83</v>
       </c>
-      <c r="T206">
-        <v>3</v>
-      </c>
-      <c r="U206">
-        <v>1.92</v>
-      </c>
-      <c r="V206">
-        <v>1.98</v>
-      </c>
       <c r="W206">
-        <v>0.45</v>
+        <v>0.363</v>
       </c>
       <c r="X206">
         <v>-1</v>
@@ -18865,16 +18865,16 @@
         <v>-1</v>
       </c>
       <c r="Z206">
-        <v>1.07</v>
+        <v>-1</v>
       </c>
       <c r="AA206">
-        <v>-1</v>
+        <v>0.8400000000000001</v>
       </c>
       <c r="AB206">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC206">
-        <v>0.98</v>
+        <v>0.415</v>
       </c>
     </row>
     <row r="207" spans="1:29">
@@ -18882,7 +18882,7 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>5638885</v>
+        <v>5634388</v>
       </c>
       <c r="C207" t="s">
         <v>28</v>
@@ -18894,58 +18894,58 @@
         <v>45070.60416666666</v>
       </c>
       <c r="F207" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="G207" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="H207">
         <v>2</v>
       </c>
       <c r="I207">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J207" t="s">
         <v>53</v>
       </c>
       <c r="K207">
-        <v>1.363</v>
+        <v>1.45</v>
       </c>
       <c r="L207">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="M207">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="N207">
-        <v>1.363</v>
+        <v>1.45</v>
       </c>
       <c r="O207">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="P207">
-        <v>7.5</v>
+        <v>6</v>
       </c>
       <c r="Q207">
-        <v>-1.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R207">
-        <v>2.06</v>
+        <v>2.07</v>
       </c>
       <c r="S207">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="T207">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U207">
-        <v>2.07</v>
+        <v>1.92</v>
       </c>
       <c r="V207">
-        <v>1.83</v>
+        <v>1.98</v>
       </c>
       <c r="W207">
-        <v>0.363</v>
+        <v>0.45</v>
       </c>
       <c r="X207">
         <v>-1</v>
@@ -18954,16 +18954,16 @@
         <v>-1</v>
       </c>
       <c r="Z207">
-        <v>-1</v>
+        <v>1.07</v>
       </c>
       <c r="AA207">
-        <v>0.8400000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB207">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC207">
-        <v>0.415</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="208" spans="1:29">
@@ -18971,7 +18971,7 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>5643107</v>
+        <v>5642104</v>
       </c>
       <c r="C208" t="s">
         <v>28</v>
@@ -18983,76 +18983,76 @@
         <v>45070.70833333334</v>
       </c>
       <c r="F208" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="G208" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="H208">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I208">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J208" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K208">
-        <v>4</v>
+        <v>1.909</v>
       </c>
       <c r="L208">
+        <v>3.25</v>
+      </c>
+      <c r="M208">
+        <v>4.333</v>
+      </c>
+      <c r="N208">
+        <v>2.25</v>
+      </c>
+      <c r="O208">
+        <v>2.9</v>
+      </c>
+      <c r="P208">
         <v>3.75</v>
       </c>
-      <c r="M208">
-        <v>1.833</v>
-      </c>
-      <c r="N208">
-        <v>3</v>
-      </c>
-      <c r="O208">
-        <v>3.5</v>
-      </c>
-      <c r="P208">
-        <v>2.3</v>
-      </c>
       <c r="Q208">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R208">
-        <v>1.82</v>
+        <v>1.96</v>
       </c>
       <c r="S208">
-        <v>2.11</v>
+        <v>1.97</v>
       </c>
       <c r="T208">
+        <v>1.75</v>
+      </c>
+      <c r="U208">
+        <v>1.81</v>
+      </c>
+      <c r="V208">
+        <v>2.09</v>
+      </c>
+      <c r="W208">
+        <v>-1</v>
+      </c>
+      <c r="X208">
+        <v>-1</v>
+      </c>
+      <c r="Y208">
         <v>2.75</v>
       </c>
-      <c r="U208">
-        <v>2</v>
-      </c>
-      <c r="V208">
-        <v>1.9</v>
-      </c>
-      <c r="W208">
-        <v>-1</v>
-      </c>
-      <c r="X208">
-        <v>2.5</v>
-      </c>
-      <c r="Y208">
-        <v>-1</v>
-      </c>
       <c r="Z208">
-        <v>0.41</v>
+        <v>-1</v>
       </c>
       <c r="AA208">
-        <v>-0.5</v>
+        <v>0.97</v>
       </c>
       <c r="AB208">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC208">
-        <v>-1</v>
+        <v>1.09</v>
       </c>
     </row>
     <row r="209" spans="1:29">
@@ -19060,7 +19060,7 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>5642104</v>
+        <v>5643107</v>
       </c>
       <c r="C209" t="s">
         <v>28</v>
@@ -19072,76 +19072,76 @@
         <v>45070.70833333334</v>
       </c>
       <c r="F209" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="G209" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="H209">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I209">
+        <v>3</v>
+      </c>
+      <c r="J209" t="s">
+        <v>54</v>
+      </c>
+      <c r="K209">
+        <v>4</v>
+      </c>
+      <c r="L209">
+        <v>3.75</v>
+      </c>
+      <c r="M209">
+        <v>1.833</v>
+      </c>
+      <c r="N209">
+        <v>3</v>
+      </c>
+      <c r="O209">
+        <v>3.5</v>
+      </c>
+      <c r="P209">
+        <v>2.3</v>
+      </c>
+      <c r="Q209">
+        <v>0.25</v>
+      </c>
+      <c r="R209">
+        <v>1.82</v>
+      </c>
+      <c r="S209">
+        <v>2.11</v>
+      </c>
+      <c r="T209">
+        <v>2.75</v>
+      </c>
+      <c r="U209">
+        <v>2</v>
+      </c>
+      <c r="V209">
+        <v>1.9</v>
+      </c>
+      <c r="W209">
+        <v>-1</v>
+      </c>
+      <c r="X209">
+        <v>2.5</v>
+      </c>
+      <c r="Y209">
+        <v>-1</v>
+      </c>
+      <c r="Z209">
+        <v>0.41</v>
+      </c>
+      <c r="AA209">
+        <v>-0.5</v>
+      </c>
+      <c r="AB209">
         <v>1</v>
       </c>
-      <c r="J209" t="s">
-        <v>52</v>
-      </c>
-      <c r="K209">
-        <v>1.909</v>
-      </c>
-      <c r="L209">
-        <v>3.25</v>
-      </c>
-      <c r="M209">
-        <v>4.333</v>
-      </c>
-      <c r="N209">
-        <v>2.25</v>
-      </c>
-      <c r="O209">
-        <v>2.9</v>
-      </c>
-      <c r="P209">
-        <v>3.75</v>
-      </c>
-      <c r="Q209">
-        <v>-0.25</v>
-      </c>
-      <c r="R209">
-        <v>1.96</v>
-      </c>
-      <c r="S209">
-        <v>1.97</v>
-      </c>
-      <c r="T209">
-        <v>1.75</v>
-      </c>
-      <c r="U209">
-        <v>1.81</v>
-      </c>
-      <c r="V209">
-        <v>2.09</v>
-      </c>
-      <c r="W209">
-        <v>-1</v>
-      </c>
-      <c r="X209">
-        <v>-1</v>
-      </c>
-      <c r="Y209">
-        <v>2.75</v>
-      </c>
-      <c r="Z209">
-        <v>-1</v>
-      </c>
-      <c r="AA209">
-        <v>0.97</v>
-      </c>
-      <c r="AB209">
-        <v>-1</v>
-      </c>
       <c r="AC209">
-        <v>1.09</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="210" spans="1:29">
@@ -19416,7 +19416,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>5701613</v>
+        <v>5697401</v>
       </c>
       <c r="C213" t="s">
         <v>28</v>
@@ -19428,76 +19428,76 @@
         <v>45074.58333333334</v>
       </c>
       <c r="F213" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="G213" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H213">
+        <v>0</v>
+      </c>
+      <c r="I213">
         <v>1</v>
       </c>
-      <c r="I213">
-        <v>0</v>
-      </c>
       <c r="J213" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K213">
-        <v>2.6</v>
+        <v>1.4</v>
       </c>
       <c r="L213">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="M213">
-        <v>2.7</v>
+        <v>8</v>
       </c>
       <c r="N213">
-        <v>2.45</v>
+        <v>1.4</v>
       </c>
       <c r="O213">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="P213">
-        <v>3.1</v>
+        <v>8</v>
       </c>
       <c r="Q213">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R213">
-        <v>2.075</v>
+        <v>1.95</v>
       </c>
       <c r="S213">
-        <v>1.725</v>
+        <v>1.95</v>
       </c>
       <c r="T213">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U213">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="V213">
-        <v>1.95</v>
+        <v>1.99</v>
       </c>
       <c r="W213">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="X213">
         <v>-1</v>
       </c>
       <c r="Y213">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="Z213">
-        <v>1.075</v>
+        <v>-1</v>
       </c>
       <c r="AA213">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB213">
         <v>-1</v>
       </c>
       <c r="AC213">
-        <v>0.95</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="214" spans="1:29">
@@ -19505,7 +19505,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>5697401</v>
+        <v>5701613</v>
       </c>
       <c r="C214" t="s">
         <v>28</v>
@@ -19517,76 +19517,76 @@
         <v>45074.58333333334</v>
       </c>
       <c r="F214" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="G214" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H214">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I214">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J214" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K214">
-        <v>1.4</v>
+        <v>2.6</v>
       </c>
       <c r="L214">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="M214">
-        <v>8</v>
+        <v>2.7</v>
       </c>
       <c r="N214">
-        <v>1.4</v>
+        <v>2.45</v>
       </c>
       <c r="O214">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="P214">
-        <v>8</v>
+        <v>3.1</v>
       </c>
       <c r="Q214">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R214">
+        <v>2.075</v>
+      </c>
+      <c r="S214">
+        <v>1.725</v>
+      </c>
+      <c r="T214">
+        <v>2</v>
+      </c>
+      <c r="U214">
         <v>1.95</v>
       </c>
-      <c r="S214">
+      <c r="V214">
         <v>1.95</v>
       </c>
-      <c r="T214">
-        <v>2.75</v>
-      </c>
-      <c r="U214">
-        <v>1.91</v>
-      </c>
-      <c r="V214">
-        <v>1.99</v>
-      </c>
       <c r="W214">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="X214">
         <v>-1</v>
       </c>
       <c r="Y214">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="Z214">
-        <v>-1</v>
+        <v>1.075</v>
       </c>
       <c r="AA214">
+        <v>-1</v>
+      </c>
+      <c r="AB214">
+        <v>-1</v>
+      </c>
+      <c r="AC214">
         <v>0.95</v>
-      </c>
-      <c r="AB214">
-        <v>-1</v>
-      </c>
-      <c r="AC214">
-        <v>0.99</v>
       </c>
     </row>
     <row r="215" spans="1:29">
@@ -19594,7 +19594,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>5697402</v>
+        <v>5701612</v>
       </c>
       <c r="C215" t="s">
         <v>28</v>
@@ -19606,76 +19606,76 @@
         <v>45074.58333333334</v>
       </c>
       <c r="F215" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="G215" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H215">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I215">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J215" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K215">
-        <v>2.25</v>
+        <v>1.909</v>
       </c>
       <c r="L215">
         <v>3.4</v>
       </c>
       <c r="M215">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="N215">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="O215">
-        <v>3.3</v>
+        <v>2.75</v>
       </c>
       <c r="P215">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="Q215">
         <v>-0.25</v>
       </c>
       <c r="R215">
-        <v>1.97</v>
+        <v>2.1</v>
       </c>
       <c r="S215">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="T215">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="U215">
-        <v>1.86</v>
+        <v>1.82</v>
       </c>
       <c r="V215">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="W215">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="X215">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y215">
         <v>-1</v>
       </c>
       <c r="Z215">
-        <v>-0.5</v>
+        <v>1.1</v>
       </c>
       <c r="AA215">
-        <v>0.465</v>
+        <v>-1</v>
       </c>
       <c r="AB215">
-        <v>-1</v>
+        <v>0.8200000000000001</v>
       </c>
       <c r="AC215">
-        <v>1.04</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="216" spans="1:29">
@@ -19683,7 +19683,7 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>5701612</v>
+        <v>5705727</v>
       </c>
       <c r="C216" t="s">
         <v>28</v>
@@ -19695,73 +19695,73 @@
         <v>45074.58333333334</v>
       </c>
       <c r="F216" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="G216" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="H216">
         <v>2</v>
       </c>
       <c r="I216">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J216" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K216">
         <v>1.909</v>
       </c>
       <c r="L216">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M216">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="N216">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="O216">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="P216">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q216">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R216">
-        <v>2.1</v>
+        <v>2.025</v>
       </c>
       <c r="S216">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="T216">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="U216">
-        <v>1.82</v>
+        <v>2.07</v>
       </c>
       <c r="V216">
-        <v>2.08</v>
+        <v>1.83</v>
       </c>
       <c r="W216">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="X216">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y216">
         <v>-1</v>
       </c>
       <c r="Z216">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="AA216">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB216">
-        <v>0.8200000000000001</v>
+        <v>1.07</v>
       </c>
       <c r="AC216">
         <v>-1</v>
@@ -19861,7 +19861,7 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>5713343</v>
+        <v>5697402</v>
       </c>
       <c r="C218" t="s">
         <v>28</v>
@@ -19873,76 +19873,76 @@
         <v>45074.58333333334</v>
       </c>
       <c r="F218" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G218" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H218">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I218">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J218" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K218">
-        <v>2.875</v>
+        <v>2.25</v>
       </c>
       <c r="L218">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M218">
+        <v>3.1</v>
+      </c>
+      <c r="N218">
+        <v>2.2</v>
+      </c>
+      <c r="O218">
+        <v>3.3</v>
+      </c>
+      <c r="P218">
+        <v>3.3</v>
+      </c>
+      <c r="Q218">
+        <v>-0.25</v>
+      </c>
+      <c r="R218">
+        <v>1.97</v>
+      </c>
+      <c r="S218">
+        <v>1.93</v>
+      </c>
+      <c r="T218">
+        <v>2.5</v>
+      </c>
+      <c r="U218">
+        <v>1.86</v>
+      </c>
+      <c r="V218">
+        <v>2.04</v>
+      </c>
+      <c r="W218">
+        <v>-1</v>
+      </c>
+      <c r="X218">
         <v>2.3</v>
       </c>
-      <c r="N218">
-        <v>3</v>
-      </c>
-      <c r="O218">
-        <v>3.75</v>
-      </c>
-      <c r="P218">
-        <v>2.2</v>
-      </c>
-      <c r="Q218">
-        <v>0.25</v>
-      </c>
-      <c r="R218">
-        <v>1.9</v>
-      </c>
-      <c r="S218">
-        <v>2</v>
-      </c>
-      <c r="T218">
-        <v>3</v>
-      </c>
-      <c r="U218">
-        <v>2.06</v>
-      </c>
-      <c r="V218">
-        <v>1.84</v>
-      </c>
-      <c r="W218">
-        <v>2</v>
-      </c>
-      <c r="X218">
-        <v>-1</v>
-      </c>
       <c r="Y218">
         <v>-1</v>
       </c>
       <c r="Z218">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AA218">
-        <v>-1</v>
+        <v>0.465</v>
       </c>
       <c r="AB218">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC218">
-        <v>-0</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="219" spans="1:29">
@@ -20039,7 +20039,7 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>5705727</v>
+        <v>5713343</v>
       </c>
       <c r="C220" t="s">
         <v>28</v>
@@ -20051,76 +20051,76 @@
         <v>45074.58333333334</v>
       </c>
       <c r="F220" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G220" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H220">
         <v>2</v>
       </c>
       <c r="I220">
+        <v>1</v>
+      </c>
+      <c r="J220" t="s">
+        <v>53</v>
+      </c>
+      <c r="K220">
+        <v>2.875</v>
+      </c>
+      <c r="L220">
+        <v>3.5</v>
+      </c>
+      <c r="M220">
+        <v>2.3</v>
+      </c>
+      <c r="N220">
+        <v>3</v>
+      </c>
+      <c r="O220">
+        <v>3.75</v>
+      </c>
+      <c r="P220">
+        <v>2.2</v>
+      </c>
+      <c r="Q220">
+        <v>0.25</v>
+      </c>
+      <c r="R220">
+        <v>1.9</v>
+      </c>
+      <c r="S220">
         <v>2</v>
       </c>
-      <c r="J220" t="s">
-        <v>54</v>
-      </c>
-      <c r="K220">
-        <v>1.909</v>
-      </c>
-      <c r="L220">
-        <v>3.6</v>
-      </c>
-      <c r="M220">
-        <v>3.75</v>
-      </c>
-      <c r="N220">
+      <c r="T220">
+        <v>3</v>
+      </c>
+      <c r="U220">
+        <v>2.06</v>
+      </c>
+      <c r="V220">
+        <v>1.84</v>
+      </c>
+      <c r="W220">
         <v>2</v>
       </c>
-      <c r="O220">
-        <v>3.5</v>
-      </c>
-      <c r="P220">
-        <v>3.6</v>
-      </c>
-      <c r="Q220">
-        <v>-0.5</v>
-      </c>
-      <c r="R220">
-        <v>2.025</v>
-      </c>
-      <c r="S220">
-        <v>1.775</v>
-      </c>
-      <c r="T220">
-        <v>2.5</v>
-      </c>
-      <c r="U220">
-        <v>2.07</v>
-      </c>
-      <c r="V220">
-        <v>1.83</v>
-      </c>
-      <c r="W220">
-        <v>-1</v>
-      </c>
       <c r="X220">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y220">
         <v>-1</v>
       </c>
       <c r="Z220">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA220">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB220">
-        <v>1.07</v>
+        <v>0</v>
       </c>
       <c r="AC220">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="221" spans="1:29">
@@ -20128,7 +20128,7 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>5776610</v>
+        <v>5732767</v>
       </c>
       <c r="C221" t="s">
         <v>28</v>
@@ -20140,73 +20140,73 @@
         <v>45081.5625</v>
       </c>
       <c r="F221" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G221" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H221">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I221">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J221" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K221">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="L221">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M221">
-        <v>2.45</v>
+        <v>2.15</v>
       </c>
       <c r="N221">
-        <v>2.625</v>
+        <v>3</v>
       </c>
       <c r="O221">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="P221">
         <v>2.45</v>
       </c>
       <c r="Q221">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R221">
-        <v>2.04</v>
+        <v>1.8</v>
       </c>
       <c r="S221">
-        <v>1.86</v>
+        <v>2.14</v>
       </c>
       <c r="T221">
-        <v>3.25</v>
+        <v>2</v>
       </c>
       <c r="U221">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="V221">
-        <v>2.02</v>
+        <v>2.01</v>
       </c>
       <c r="W221">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X221">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y221">
         <v>-1</v>
       </c>
       <c r="Z221">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AA221">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB221">
-        <v>0.8799999999999999</v>
+        <v>0.8899999999999999</v>
       </c>
       <c r="AC221">
         <v>-1</v>
@@ -20217,7 +20217,7 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>5730415</v>
+        <v>5776609</v>
       </c>
       <c r="C222" t="s">
         <v>28</v>
@@ -20229,10 +20229,10 @@
         <v>45081.5625</v>
       </c>
       <c r="F222" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G222" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H222">
         <v>2</v>
@@ -20247,40 +20247,40 @@
         <v>2.25</v>
       </c>
       <c r="L222">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M222">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="N222">
-        <v>2.05</v>
+        <v>1.571</v>
       </c>
       <c r="O222">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P222">
-        <v>3.25</v>
+        <v>5.75</v>
       </c>
       <c r="Q222">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R222">
-        <v>1.85</v>
+        <v>2.01</v>
       </c>
       <c r="S222">
-        <v>2.05</v>
+        <v>1.89</v>
       </c>
       <c r="T222">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U222">
-        <v>2.02</v>
+        <v>1.89</v>
       </c>
       <c r="V222">
-        <v>1.88</v>
+        <v>2.01</v>
       </c>
       <c r="W222">
-        <v>1.05</v>
+        <v>0.571</v>
       </c>
       <c r="X222">
         <v>-1</v>
@@ -20289,16 +20289,16 @@
         <v>-1</v>
       </c>
       <c r="Z222">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA222">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB222">
-        <v>0.51</v>
+        <v>0.8899999999999999</v>
       </c>
       <c r="AC222">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="223" spans="1:29">
@@ -20306,7 +20306,7 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>5776609</v>
+        <v>5734136</v>
       </c>
       <c r="C223" t="s">
         <v>28</v>
@@ -20318,76 +20318,76 @@
         <v>45081.5625</v>
       </c>
       <c r="F223" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="G223" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H223">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I223">
         <v>1</v>
       </c>
       <c r="J223" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K223">
-        <v>2.25</v>
+        <v>1.95</v>
       </c>
       <c r="L223">
         <v>3.6</v>
       </c>
       <c r="M223">
-        <v>2.9</v>
+        <v>3.6</v>
       </c>
       <c r="N223">
-        <v>1.571</v>
+        <v>1.65</v>
       </c>
       <c r="O223">
         <v>4</v>
       </c>
       <c r="P223">
-        <v>5.75</v>
+        <v>4.75</v>
       </c>
       <c r="Q223">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R223">
-        <v>2.01</v>
+        <v>1.84</v>
       </c>
       <c r="S223">
-        <v>1.89</v>
+        <v>2.06</v>
       </c>
       <c r="T223">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U223">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="V223">
-        <v>2.01</v>
+        <v>2</v>
       </c>
       <c r="W223">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X223">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y223">
         <v>-1</v>
       </c>
       <c r="Z223">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA223">
-        <v>-0</v>
+        <v>1.06</v>
       </c>
       <c r="AB223">
-        <v>0.8899999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC223">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="224" spans="1:29">
@@ -20395,7 +20395,7 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>5734136</v>
+        <v>5776610</v>
       </c>
       <c r="C224" t="s">
         <v>28</v>
@@ -20407,76 +20407,76 @@
         <v>45081.5625</v>
       </c>
       <c r="F224" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="G224" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H224">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I224">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J224" t="s">
         <v>54</v>
       </c>
       <c r="K224">
-        <v>1.95</v>
+        <v>2.75</v>
       </c>
       <c r="L224">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M224">
-        <v>3.6</v>
+        <v>2.45</v>
       </c>
       <c r="N224">
-        <v>1.65</v>
+        <v>2.625</v>
       </c>
       <c r="O224">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P224">
-        <v>4.75</v>
+        <v>2.45</v>
       </c>
       <c r="Q224">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R224">
-        <v>1.84</v>
+        <v>2.04</v>
       </c>
       <c r="S224">
-        <v>2.06</v>
+        <v>1.86</v>
       </c>
       <c r="T224">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U224">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="V224">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="W224">
         <v>-1</v>
       </c>
       <c r="X224">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Y224">
         <v>-1</v>
       </c>
       <c r="Z224">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA224">
-        <v>1.06</v>
+        <v>-0</v>
       </c>
       <c r="AB224">
-        <v>-1</v>
+        <v>0.8799999999999999</v>
       </c>
       <c r="AC224">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="225" spans="1:29">
@@ -20484,7 +20484,7 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>5732767</v>
+        <v>5730415</v>
       </c>
       <c r="C225" t="s">
         <v>28</v>
@@ -20496,58 +20496,58 @@
         <v>45081.5625</v>
       </c>
       <c r="F225" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="G225" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="H225">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I225">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J225" t="s">
         <v>53</v>
       </c>
       <c r="K225">
-        <v>3.4</v>
+        <v>2.25</v>
       </c>
       <c r="L225">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M225">
-        <v>2.15</v>
+        <v>3</v>
       </c>
       <c r="N225">
-        <v>3</v>
+        <v>2.05</v>
       </c>
       <c r="O225">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="P225">
-        <v>2.45</v>
+        <v>3.25</v>
       </c>
       <c r="Q225">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R225">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S225">
-        <v>2.14</v>
+        <v>2.05</v>
       </c>
       <c r="T225">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U225">
-        <v>1.89</v>
+        <v>2.02</v>
       </c>
       <c r="V225">
-        <v>2.01</v>
+        <v>1.88</v>
       </c>
       <c r="W225">
-        <v>2</v>
+        <v>1.05</v>
       </c>
       <c r="X225">
         <v>-1</v>
@@ -20556,16 +20556,16 @@
         <v>-1</v>
       </c>
       <c r="Z225">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA225">
         <v>-1</v>
       </c>
       <c r="AB225">
-        <v>0.8899999999999999</v>
+        <v>0.51</v>
       </c>
       <c r="AC225">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="226" spans="1:29">
@@ -20662,7 +20662,7 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>5732768</v>
+        <v>5737343</v>
       </c>
       <c r="C227" t="s">
         <v>28</v>
@@ -20674,61 +20674,61 @@
         <v>45081.66666666666</v>
       </c>
       <c r="F227" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G227" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="H227">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I227">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J227" t="s">
         <v>54</v>
       </c>
       <c r="K227">
-        <v>3.5</v>
+        <v>2.6</v>
       </c>
       <c r="L227">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M227">
-        <v>1.909</v>
+        <v>2.6</v>
       </c>
       <c r="N227">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="O227">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="P227">
-        <v>2.75</v>
+        <v>2.875</v>
       </c>
       <c r="Q227">
         <v>-0.25</v>
       </c>
       <c r="R227">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="S227">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="T227">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U227">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="V227">
-        <v>1.8</v>
+        <v>1.99</v>
       </c>
       <c r="W227">
         <v>-1</v>
       </c>
       <c r="X227">
-        <v>2.75</v>
+        <v>2.3</v>
       </c>
       <c r="Y227">
         <v>-1</v>
@@ -20737,13 +20737,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA227">
-        <v>0.415</v>
+        <v>0.375</v>
       </c>
       <c r="AB227">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="AC227">
-        <v>-1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="228" spans="1:29">
@@ -20751,7 +20751,7 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>5734498</v>
+        <v>5738382</v>
       </c>
       <c r="C228" t="s">
         <v>28</v>
@@ -20763,76 +20763,76 @@
         <v>45081.66666666666</v>
       </c>
       <c r="F228" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G228" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H228">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I228">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J228" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K228">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="L228">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M228">
-        <v>3.4</v>
+        <v>2.2</v>
       </c>
       <c r="N228">
-        <v>2.05</v>
+        <v>2.7</v>
       </c>
       <c r="O228">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P228">
-        <v>4</v>
+        <v>2.45</v>
       </c>
       <c r="Q228">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R228">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="S228">
-        <v>1.82</v>
+        <v>1.84</v>
       </c>
       <c r="T228">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U228">
-        <v>1.82</v>
+        <v>1.95</v>
       </c>
       <c r="V228">
-        <v>2.08</v>
+        <v>1.95</v>
       </c>
       <c r="W228">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X228">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y228">
         <v>-1</v>
       </c>
       <c r="Z228">
-        <v>-1</v>
+        <v>1.06</v>
       </c>
       <c r="AA228">
-        <v>0.8200000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB228">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC228">
-        <v>1.08</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="229" spans="1:29">
@@ -20840,7 +20840,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>5737343</v>
+        <v>5732768</v>
       </c>
       <c r="C229" t="s">
         <v>28</v>
@@ -20852,61 +20852,61 @@
         <v>45081.66666666666</v>
       </c>
       <c r="F229" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G229" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="H229">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I229">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J229" t="s">
         <v>54</v>
       </c>
       <c r="K229">
-        <v>2.6</v>
+        <v>3.5</v>
       </c>
       <c r="L229">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M229">
-        <v>2.6</v>
+        <v>1.909</v>
       </c>
       <c r="N229">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="O229">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="P229">
-        <v>2.875</v>
+        <v>2.75</v>
       </c>
       <c r="Q229">
         <v>-0.25</v>
       </c>
       <c r="R229">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="S229">
-        <v>1.75</v>
+        <v>1.83</v>
       </c>
       <c r="T229">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U229">
-        <v>1.91</v>
+        <v>2.1</v>
       </c>
       <c r="V229">
-        <v>1.99</v>
+        <v>1.8</v>
       </c>
       <c r="W229">
         <v>-1</v>
       </c>
       <c r="X229">
-        <v>2.3</v>
+        <v>2.75</v>
       </c>
       <c r="Y229">
         <v>-1</v>
@@ -20915,13 +20915,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA229">
-        <v>0.375</v>
+        <v>0.415</v>
       </c>
       <c r="AB229">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="AC229">
-        <v>0.99</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="230" spans="1:29">
@@ -20929,7 +20929,7 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>5738382</v>
+        <v>5734498</v>
       </c>
       <c r="C230" t="s">
         <v>28</v>
@@ -20941,76 +20941,76 @@
         <v>45081.66666666666</v>
       </c>
       <c r="F230" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G230" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H230">
+        <v>0</v>
+      </c>
+      <c r="I230">
+        <v>0</v>
+      </c>
+      <c r="J230" t="s">
+        <v>54</v>
+      </c>
+      <c r="K230">
+        <v>2.1</v>
+      </c>
+      <c r="L230">
+        <v>3.4</v>
+      </c>
+      <c r="M230">
+        <v>3.4</v>
+      </c>
+      <c r="N230">
+        <v>2.05</v>
+      </c>
+      <c r="O230">
+        <v>3.3</v>
+      </c>
+      <c r="P230">
+        <v>4</v>
+      </c>
+      <c r="Q230">
+        <v>-0.5</v>
+      </c>
+      <c r="R230">
+        <v>2.08</v>
+      </c>
+      <c r="S230">
+        <v>1.82</v>
+      </c>
+      <c r="T230">
         <v>2</v>
       </c>
-      <c r="I230">
-        <v>1</v>
-      </c>
-      <c r="J230" t="s">
-        <v>53</v>
-      </c>
-      <c r="K230">
-        <v>3</v>
-      </c>
-      <c r="L230">
-        <v>3.6</v>
-      </c>
-      <c r="M230">
-        <v>2.2</v>
-      </c>
-      <c r="N230">
-        <v>2.7</v>
-      </c>
-      <c r="O230">
-        <v>3.6</v>
-      </c>
-      <c r="P230">
-        <v>2.45</v>
-      </c>
-      <c r="Q230">
-        <v>0</v>
-      </c>
-      <c r="R230">
-        <v>2.06</v>
-      </c>
-      <c r="S230">
-        <v>1.84</v>
-      </c>
-      <c r="T230">
-        <v>2.5</v>
-      </c>
       <c r="U230">
-        <v>1.95</v>
+        <v>1.82</v>
       </c>
       <c r="V230">
-        <v>1.95</v>
+        <v>2.08</v>
       </c>
       <c r="W230">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X230">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y230">
         <v>-1</v>
       </c>
       <c r="Z230">
-        <v>1.06</v>
+        <v>-1</v>
       </c>
       <c r="AA230">
-        <v>-1</v>
+        <v>0.8200000000000001</v>
       </c>
       <c r="AB230">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC230">
-        <v>-1</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="231" spans="1:29">
@@ -26002,7 +26002,7 @@
         <v>285</v>
       </c>
       <c r="B287">
-        <v>7173107</v>
+        <v>7173100</v>
       </c>
       <c r="C287" t="s">
         <v>28</v>
@@ -26014,76 +26014,76 @@
         <v>45193.5625</v>
       </c>
       <c r="F287" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G287" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="H287">
         <v>1</v>
       </c>
       <c r="I287">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J287" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K287">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="L287">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M287">
+        <v>4.5</v>
+      </c>
+      <c r="N287">
+        <v>1.75</v>
+      </c>
+      <c r="O287">
         <v>3.5</v>
       </c>
-      <c r="N287">
-        <v>1.909</v>
-      </c>
-      <c r="O287">
-        <v>3.6</v>
-      </c>
       <c r="P287">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="Q287">
+        <v>-0.75</v>
+      </c>
+      <c r="R287">
+        <v>2.07</v>
+      </c>
+      <c r="S287">
+        <v>1.86</v>
+      </c>
+      <c r="T287">
+        <v>2.25</v>
+      </c>
+      <c r="U287">
+        <v>1.89</v>
+      </c>
+      <c r="V287">
+        <v>2.01</v>
+      </c>
+      <c r="W287">
+        <v>-1</v>
+      </c>
+      <c r="X287">
+        <v>2.5</v>
+      </c>
+      <c r="Y287">
+        <v>-1</v>
+      </c>
+      <c r="Z287">
+        <v>-1</v>
+      </c>
+      <c r="AA287">
+        <v>0.8600000000000001</v>
+      </c>
+      <c r="AB287">
         <v>-0.5</v>
       </c>
-      <c r="R287">
-        <v>1.95</v>
-      </c>
-      <c r="S287">
-        <v>1.95</v>
-      </c>
-      <c r="T287">
-        <v>2.5</v>
-      </c>
-      <c r="U287">
-        <v>1.95</v>
-      </c>
-      <c r="V287">
-        <v>1.95</v>
-      </c>
-      <c r="W287">
-        <v>0.909</v>
-      </c>
-      <c r="X287">
-        <v>-1</v>
-      </c>
-      <c r="Y287">
-        <v>-1</v>
-      </c>
-      <c r="Z287">
-        <v>0.95</v>
-      </c>
-      <c r="AA287">
-        <v>-1</v>
-      </c>
-      <c r="AB287">
-        <v>-1</v>
-      </c>
       <c r="AC287">
-        <v>0.95</v>
+        <v>0.5049999999999999</v>
       </c>
     </row>
     <row r="288" spans="1:29">
@@ -26091,7 +26091,7 @@
         <v>286</v>
       </c>
       <c r="B288">
-        <v>7173100</v>
+        <v>7173107</v>
       </c>
       <c r="C288" t="s">
         <v>28</v>
@@ -26103,76 +26103,76 @@
         <v>45193.5625</v>
       </c>
       <c r="F288" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G288" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="H288">
         <v>1</v>
       </c>
       <c r="I288">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J288" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K288">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="L288">
+        <v>3.3</v>
+      </c>
+      <c r="M288">
         <v>3.5</v>
       </c>
-      <c r="M288">
-        <v>4.5</v>
-      </c>
       <c r="N288">
-        <v>1.75</v>
+        <v>1.909</v>
       </c>
       <c r="O288">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P288">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="Q288">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R288">
-        <v>2.07</v>
+        <v>1.95</v>
       </c>
       <c r="S288">
-        <v>1.86</v>
+        <v>1.95</v>
       </c>
       <c r="T288">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U288">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="V288">
-        <v>2.01</v>
+        <v>1.95</v>
       </c>
       <c r="W288">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X288">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y288">
         <v>-1</v>
       </c>
       <c r="Z288">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA288">
-        <v>0.8600000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB288">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC288">
-        <v>0.5049999999999999</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="289" spans="1:29">
@@ -26714,7 +26714,7 @@
         <v>293</v>
       </c>
       <c r="B295">
-        <v>6809223</v>
+        <v>6809384</v>
       </c>
       <c r="C295" t="s">
         <v>28</v>
@@ -26726,19 +26726,19 @@
         <v>45196.6875</v>
       </c>
       <c r="F295" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="G295" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="H295">
         <v>0</v>
       </c>
       <c r="I295">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J295" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K295">
         <v>2.625</v>
@@ -26750,52 +26750,52 @@
         <v>2.875</v>
       </c>
       <c r="N295">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="O295">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="P295">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="Q295">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R295">
-        <v>2.125</v>
+        <v>1.85</v>
       </c>
       <c r="S295">
-        <v>1.78</v>
+        <v>2.05</v>
       </c>
       <c r="T295">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U295">
-        <v>2.03</v>
+        <v>2.08</v>
       </c>
       <c r="V295">
-        <v>1.87</v>
+        <v>1.82</v>
       </c>
       <c r="W295">
         <v>-1</v>
       </c>
       <c r="X295">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y295">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z295">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA295">
-        <v>0.78</v>
+        <v>-0</v>
       </c>
       <c r="AB295">
         <v>-1</v>
       </c>
       <c r="AC295">
-        <v>0.8700000000000001</v>
+        <v>0.8200000000000001</v>
       </c>
     </row>
     <row r="296" spans="1:29">
@@ -26803,7 +26803,7 @@
         <v>294</v>
       </c>
       <c r="B296">
-        <v>6809384</v>
+        <v>6809223</v>
       </c>
       <c r="C296" t="s">
         <v>28</v>
@@ -26815,19 +26815,19 @@
         <v>45196.6875</v>
       </c>
       <c r="F296" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="G296" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="H296">
         <v>0</v>
       </c>
       <c r="I296">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J296" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K296">
         <v>2.625</v>
@@ -26839,52 +26839,52 @@
         <v>2.875</v>
       </c>
       <c r="N296">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="O296">
+        <v>3</v>
+      </c>
+      <c r="P296">
         <v>3.1</v>
       </c>
-      <c r="P296">
-        <v>2.9</v>
-      </c>
       <c r="Q296">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R296">
-        <v>1.85</v>
+        <v>2.125</v>
       </c>
       <c r="S296">
-        <v>2.05</v>
+        <v>1.78</v>
       </c>
       <c r="T296">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U296">
-        <v>2.08</v>
+        <v>2.03</v>
       </c>
       <c r="V296">
-        <v>1.82</v>
+        <v>1.87</v>
       </c>
       <c r="W296">
         <v>-1</v>
       </c>
       <c r="X296">
+        <v>-1</v>
+      </c>
+      <c r="Y296">
         <v>2.1</v>
       </c>
-      <c r="Y296">
-        <v>-1</v>
-      </c>
       <c r="Z296">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA296">
-        <v>-0</v>
+        <v>0.78</v>
       </c>
       <c r="AB296">
         <v>-1</v>
       </c>
       <c r="AC296">
-        <v>0.8200000000000001</v>
+        <v>0.8700000000000001</v>
       </c>
     </row>
     <row r="297" spans="1:29">
@@ -26892,7 +26892,7 @@
         <v>295</v>
       </c>
       <c r="B297">
-        <v>6809385</v>
+        <v>6809387</v>
       </c>
       <c r="C297" t="s">
         <v>28</v>
@@ -26904,10 +26904,10 @@
         <v>45197.58333333334</v>
       </c>
       <c r="F297" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="G297" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H297">
         <v>1</v>
@@ -26919,61 +26919,61 @@
         <v>54</v>
       </c>
       <c r="K297">
+        <v>2</v>
+      </c>
+      <c r="L297">
         <v>3.2</v>
       </c>
-      <c r="L297">
-        <v>3.25</v>
-      </c>
       <c r="M297">
+        <v>4</v>
+      </c>
+      <c r="N297">
+        <v>1.571</v>
+      </c>
+      <c r="O297">
+        <v>3.75</v>
+      </c>
+      <c r="P297">
+        <v>6.5</v>
+      </c>
+      <c r="Q297">
+        <v>-1</v>
+      </c>
+      <c r="R297">
+        <v>2.06</v>
+      </c>
+      <c r="S297">
+        <v>1.84</v>
+      </c>
+      <c r="T297">
         <v>2.25</v>
       </c>
-      <c r="N297">
-        <v>2.8</v>
-      </c>
-      <c r="O297">
-        <v>3.3</v>
-      </c>
-      <c r="P297">
-        <v>2.55</v>
-      </c>
-      <c r="Q297">
-        <v>0</v>
-      </c>
-      <c r="R297">
-        <v>2.07</v>
-      </c>
-      <c r="S297">
-        <v>1.86</v>
-      </c>
-      <c r="T297">
-        <v>2.5</v>
-      </c>
       <c r="U297">
-        <v>1.97</v>
+        <v>1.99</v>
       </c>
       <c r="V297">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="W297">
         <v>-1</v>
       </c>
       <c r="X297">
-        <v>2.3</v>
+        <v>2.75</v>
       </c>
       <c r="Y297">
         <v>-1</v>
       </c>
       <c r="Z297">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA297">
-        <v>-0</v>
+        <v>0.8400000000000001</v>
       </c>
       <c r="AB297">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC297">
-        <v>0.9299999999999999</v>
+        <v>0.455</v>
       </c>
     </row>
     <row r="298" spans="1:29">
@@ -26981,7 +26981,7 @@
         <v>296</v>
       </c>
       <c r="B298">
-        <v>6809387</v>
+        <v>6809385</v>
       </c>
       <c r="C298" t="s">
         <v>28</v>
@@ -26993,10 +26993,10 @@
         <v>45197.58333333334</v>
       </c>
       <c r="F298" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="G298" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H298">
         <v>1</v>
@@ -27008,61 +27008,61 @@
         <v>54</v>
       </c>
       <c r="K298">
-        <v>2</v>
+        <v>3.2</v>
       </c>
       <c r="L298">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M298">
-        <v>4</v>
+        <v>2.25</v>
       </c>
       <c r="N298">
-        <v>1.571</v>
+        <v>2.8</v>
       </c>
       <c r="O298">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="P298">
-        <v>6.5</v>
+        <v>2.55</v>
       </c>
       <c r="Q298">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R298">
-        <v>2.06</v>
+        <v>2.07</v>
       </c>
       <c r="S298">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="T298">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U298">
-        <v>1.99</v>
+        <v>1.97</v>
       </c>
       <c r="V298">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="W298">
         <v>-1</v>
       </c>
       <c r="X298">
-        <v>2.75</v>
+        <v>2.3</v>
       </c>
       <c r="Y298">
         <v>-1</v>
       </c>
       <c r="Z298">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA298">
-        <v>0.8400000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB298">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC298">
-        <v>0.455</v>
+        <v>0.9299999999999999</v>
       </c>
     </row>
     <row r="299" spans="1:29">
@@ -27782,7 +27782,7 @@
         <v>305</v>
       </c>
       <c r="B307">
-        <v>6809388</v>
+        <v>6809226</v>
       </c>
       <c r="C307" t="s">
         <v>28</v>
@@ -27794,58 +27794,58 @@
         <v>45200.66666666666</v>
       </c>
       <c r="F307" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="G307" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="H307">
         <v>3</v>
       </c>
       <c r="I307">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J307" t="s">
         <v>53</v>
       </c>
       <c r="K307">
-        <v>1.333</v>
+        <v>2.2</v>
       </c>
       <c r="L307">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="M307">
-        <v>8.5</v>
+        <v>3.4</v>
       </c>
       <c r="N307">
-        <v>1.333</v>
+        <v>2.05</v>
       </c>
       <c r="O307">
-        <v>5.5</v>
+        <v>3.25</v>
       </c>
       <c r="P307">
-        <v>8.5</v>
+        <v>4</v>
       </c>
       <c r="Q307">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R307">
-        <v>2.03</v>
+        <v>2.06</v>
       </c>
       <c r="S307">
-        <v>1.87</v>
+        <v>1.84</v>
       </c>
       <c r="T307">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U307">
-        <v>1.84</v>
+        <v>2.05</v>
       </c>
       <c r="V307">
-        <v>2.06</v>
+        <v>1.85</v>
       </c>
       <c r="W307">
-        <v>0.333</v>
+        <v>1.05</v>
       </c>
       <c r="X307">
         <v>-1</v>
@@ -27854,13 +27854,13 @@
         <v>-1</v>
       </c>
       <c r="Z307">
-        <v>-1</v>
+        <v>1.06</v>
       </c>
       <c r="AA307">
-        <v>0.8700000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB307">
-        <v>0.8400000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="AC307">
         <v>-1</v>
@@ -27871,7 +27871,7 @@
         <v>306</v>
       </c>
       <c r="B308">
-        <v>6809226</v>
+        <v>6809388</v>
       </c>
       <c r="C308" t="s">
         <v>28</v>
@@ -27883,58 +27883,58 @@
         <v>45200.66666666666</v>
       </c>
       <c r="F308" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="G308" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="H308">
         <v>3</v>
       </c>
       <c r="I308">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J308" t="s">
         <v>53</v>
       </c>
       <c r="K308">
-        <v>2.2</v>
+        <v>1.333</v>
       </c>
       <c r="L308">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="M308">
-        <v>3.4</v>
+        <v>8.5</v>
       </c>
       <c r="N308">
-        <v>2.05</v>
+        <v>1.333</v>
       </c>
       <c r="O308">
-        <v>3.25</v>
+        <v>5.5</v>
       </c>
       <c r="P308">
-        <v>4</v>
+        <v>8.5</v>
       </c>
       <c r="Q308">
-        <v>-0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R308">
+        <v>2.03</v>
+      </c>
+      <c r="S308">
+        <v>1.87</v>
+      </c>
+      <c r="T308">
+        <v>2.5</v>
+      </c>
+      <c r="U308">
+        <v>1.84</v>
+      </c>
+      <c r="V308">
         <v>2.06</v>
       </c>
-      <c r="S308">
-        <v>1.84</v>
-      </c>
-      <c r="T308">
-        <v>2.25</v>
-      </c>
-      <c r="U308">
-        <v>2.05</v>
-      </c>
-      <c r="V308">
-        <v>1.85</v>
-      </c>
       <c r="W308">
-        <v>1.05</v>
+        <v>0.333</v>
       </c>
       <c r="X308">
         <v>-1</v>
@@ -27943,13 +27943,13 @@
         <v>-1</v>
       </c>
       <c r="Z308">
-        <v>1.06</v>
+        <v>-1</v>
       </c>
       <c r="AA308">
-        <v>-1</v>
+        <v>0.8700000000000001</v>
       </c>
       <c r="AB308">
-        <v>1.05</v>
+        <v>0.8400000000000001</v>
       </c>
       <c r="AC308">
         <v>-1</v>
@@ -28672,7 +28672,7 @@
         <v>315</v>
       </c>
       <c r="B317">
-        <v>6809395</v>
+        <v>6809394</v>
       </c>
       <c r="C317" t="s">
         <v>28</v>
@@ -28684,76 +28684,76 @@
         <v>45207.5625</v>
       </c>
       <c r="F317" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="G317" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="H317">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I317">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J317" t="s">
         <v>54</v>
       </c>
       <c r="K317">
-        <v>2.8</v>
+        <v>2.1</v>
       </c>
       <c r="L317">
         <v>3.25</v>
       </c>
       <c r="M317">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="N317">
-        <v>2.45</v>
+        <v>2</v>
       </c>
       <c r="O317">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P317">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="Q317">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R317">
-        <v>2.11</v>
+        <v>2.01</v>
       </c>
       <c r="S317">
-        <v>1.79</v>
+        <v>1.89</v>
       </c>
       <c r="T317">
         <v>2.25</v>
       </c>
       <c r="U317">
-        <v>1.99</v>
+        <v>2.07</v>
       </c>
       <c r="V317">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="W317">
         <v>-1</v>
       </c>
       <c r="X317">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="Y317">
         <v>-1</v>
       </c>
       <c r="Z317">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA317">
-        <v>0.395</v>
+        <v>0.8899999999999999</v>
       </c>
       <c r="AB317">
-        <v>-0.5</v>
+        <v>1.07</v>
       </c>
       <c r="AC317">
-        <v>0.455</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="318" spans="1:29">
@@ -28761,7 +28761,7 @@
         <v>316</v>
       </c>
       <c r="B318">
-        <v>6809394</v>
+        <v>6809395</v>
       </c>
       <c r="C318" t="s">
         <v>28</v>
@@ -28773,76 +28773,76 @@
         <v>45207.5625</v>
       </c>
       <c r="F318" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="G318" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="H318">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I318">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J318" t="s">
         <v>54</v>
       </c>
       <c r="K318">
-        <v>2.1</v>
+        <v>2.8</v>
       </c>
       <c r="L318">
         <v>3.25</v>
       </c>
       <c r="M318">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="N318">
-        <v>2</v>
+        <v>2.45</v>
       </c>
       <c r="O318">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="P318">
-        <v>4.2</v>
+        <v>3</v>
       </c>
       <c r="Q318">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R318">
-        <v>2.01</v>
+        <v>2.11</v>
       </c>
       <c r="S318">
-        <v>1.89</v>
+        <v>1.79</v>
       </c>
       <c r="T318">
         <v>2.25</v>
       </c>
       <c r="U318">
-        <v>2.07</v>
+        <v>1.99</v>
       </c>
       <c r="V318">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="W318">
         <v>-1</v>
       </c>
       <c r="X318">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="Y318">
         <v>-1</v>
       </c>
       <c r="Z318">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA318">
-        <v>0.8899999999999999</v>
+        <v>0.395</v>
       </c>
       <c r="AB318">
-        <v>1.07</v>
+        <v>-0.5</v>
       </c>
       <c r="AC318">
-        <v>-1</v>
+        <v>0.455</v>
       </c>
     </row>
     <row r="319" spans="1:29">
@@ -34991,7 +34991,7 @@
         <v>386</v>
       </c>
       <c r="B388">
-        <v>6809425</v>
+        <v>6809424</v>
       </c>
       <c r="C388" t="s">
         <v>28</v>
@@ -35003,76 +35003,76 @@
         <v>45271.70833333334</v>
       </c>
       <c r="F388" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="G388" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H388">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I388">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J388" t="s">
         <v>54</v>
       </c>
       <c r="K388">
-        <v>2.3</v>
+        <v>4.5</v>
       </c>
       <c r="L388">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M388">
-        <v>3.25</v>
+        <v>1.75</v>
       </c>
       <c r="N388">
-        <v>2.7</v>
+        <v>4.2</v>
       </c>
       <c r="O388">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="P388">
-        <v>2.8</v>
+        <v>1.85</v>
       </c>
       <c r="Q388">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R388">
-        <v>1.92</v>
+        <v>2.01</v>
       </c>
       <c r="S388">
-        <v>1.98</v>
+        <v>1.89</v>
       </c>
       <c r="T388">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U388">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="V388">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="W388">
         <v>-1</v>
       </c>
       <c r="X388">
-        <v>2.1</v>
+        <v>2.75</v>
       </c>
       <c r="Y388">
         <v>-1</v>
       </c>
       <c r="Z388">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AA388">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB388">
         <v>-1</v>
       </c>
       <c r="AC388">
-        <v>0.95</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="389" spans="1:29">
@@ -35080,7 +35080,7 @@
         <v>387</v>
       </c>
       <c r="B389">
-        <v>6809424</v>
+        <v>6809425</v>
       </c>
       <c r="C389" t="s">
         <v>28</v>
@@ -35092,76 +35092,76 @@
         <v>45271.70833333334</v>
       </c>
       <c r="F389" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="G389" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H389">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I389">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J389" t="s">
         <v>54</v>
       </c>
       <c r="K389">
-        <v>4.5</v>
+        <v>2.3</v>
       </c>
       <c r="L389">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M389">
-        <v>1.75</v>
+        <v>3.25</v>
       </c>
       <c r="N389">
-        <v>4.2</v>
+        <v>2.7</v>
       </c>
       <c r="O389">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="P389">
-        <v>1.85</v>
+        <v>2.8</v>
       </c>
       <c r="Q389">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R389">
-        <v>2.01</v>
+        <v>1.92</v>
       </c>
       <c r="S389">
-        <v>1.89</v>
+        <v>1.98</v>
       </c>
       <c r="T389">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U389">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V389">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="W389">
         <v>-1</v>
       </c>
       <c r="X389">
-        <v>2.75</v>
+        <v>2.1</v>
       </c>
       <c r="Y389">
         <v>-1</v>
       </c>
       <c r="Z389">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="AA389">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB389">
         <v>-1</v>
       </c>
       <c r="AC389">
-        <v>1.05</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="390" spans="1:29">
@@ -36148,7 +36148,7 @@
         <v>399</v>
       </c>
       <c r="B401">
-        <v>6809292</v>
+        <v>6809435</v>
       </c>
       <c r="C401" t="s">
         <v>28</v>
@@ -36160,49 +36160,49 @@
         <v>45279.72916666666</v>
       </c>
       <c r="F401" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="G401" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="H401">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I401">
         <v>3</v>
       </c>
       <c r="J401" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K401">
-        <v>2.875</v>
+        <v>1.333</v>
       </c>
       <c r="L401">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="M401">
-        <v>2.25</v>
+        <v>8</v>
       </c>
       <c r="N401">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="O401">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="P401">
-        <v>2.45</v>
+        <v>7</v>
       </c>
       <c r="Q401">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R401">
-        <v>1.78</v>
+        <v>1.83</v>
       </c>
       <c r="S401">
-        <v>2.125</v>
+        <v>2.07</v>
       </c>
       <c r="T401">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U401">
         <v>2.04</v>
@@ -36214,16 +36214,16 @@
         <v>-1</v>
       </c>
       <c r="X401">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y401">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="Z401">
         <v>-1</v>
       </c>
       <c r="AA401">
-        <v>1.125</v>
+        <v>1.07</v>
       </c>
       <c r="AB401">
         <v>1.04</v>
@@ -36237,7 +36237,7 @@
         <v>400</v>
       </c>
       <c r="B402">
-        <v>6809435</v>
+        <v>6809292</v>
       </c>
       <c r="C402" t="s">
         <v>28</v>
@@ -36249,49 +36249,49 @@
         <v>45279.72916666666</v>
       </c>
       <c r="F402" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="G402" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="H402">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I402">
         <v>3</v>
       </c>
       <c r="J402" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K402">
-        <v>1.333</v>
+        <v>2.875</v>
       </c>
       <c r="L402">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="M402">
-        <v>8</v>
+        <v>2.25</v>
       </c>
       <c r="N402">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="O402">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="P402">
-        <v>7</v>
+        <v>2.45</v>
       </c>
       <c r="Q402">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R402">
-        <v>1.83</v>
+        <v>1.78</v>
       </c>
       <c r="S402">
-        <v>2.07</v>
+        <v>2.125</v>
       </c>
       <c r="T402">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U402">
         <v>2.04</v>
@@ -36303,16 +36303,16 @@
         <v>-1</v>
       </c>
       <c r="X402">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y402">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="Z402">
         <v>-1</v>
       </c>
       <c r="AA402">
-        <v>1.07</v>
+        <v>1.125</v>
       </c>
       <c r="AB402">
         <v>1.04</v>
@@ -36415,7 +36415,7 @@
         <v>402</v>
       </c>
       <c r="B404">
-        <v>6809434</v>
+        <v>6809438</v>
       </c>
       <c r="C404" t="s">
         <v>28</v>
@@ -36427,58 +36427,58 @@
         <v>45280.72916666666</v>
       </c>
       <c r="F404" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G404" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="H404">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I404">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J404" t="s">
         <v>53</v>
       </c>
       <c r="K404">
-        <v>1.4</v>
+        <v>2.15</v>
       </c>
       <c r="L404">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="M404">
-        <v>7</v>
+        <v>2.9</v>
       </c>
       <c r="N404">
-        <v>1.363</v>
+        <v>2.3</v>
       </c>
       <c r="O404">
-        <v>5.25</v>
+        <v>3.5</v>
       </c>
       <c r="P404">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="Q404">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R404">
-        <v>1.87</v>
+        <v>2.08</v>
       </c>
       <c r="S404">
+        <v>1.82</v>
+      </c>
+      <c r="T404">
+        <v>2.5</v>
+      </c>
+      <c r="U404">
         <v>2.06</v>
       </c>
-      <c r="T404">
-        <v>2.75</v>
-      </c>
-      <c r="U404">
-        <v>1.91</v>
-      </c>
       <c r="V404">
-        <v>1.99</v>
+        <v>1.84</v>
       </c>
       <c r="W404">
-        <v>0.363</v>
+        <v>1.3</v>
       </c>
       <c r="X404">
         <v>-1</v>
@@ -36487,16 +36487,16 @@
         <v>-1</v>
       </c>
       <c r="Z404">
-        <v>-0.5</v>
+        <v>1.08</v>
       </c>
       <c r="AA404">
-        <v>0.53</v>
+        <v>-1</v>
       </c>
       <c r="AB404">
-        <v>-1</v>
+        <v>1.06</v>
       </c>
       <c r="AC404">
-        <v>0.99</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="405" spans="1:29">
@@ -36504,7 +36504,7 @@
         <v>403</v>
       </c>
       <c r="B405">
-        <v>6809438</v>
+        <v>6809434</v>
       </c>
       <c r="C405" t="s">
         <v>28</v>
@@ -36516,58 +36516,58 @@
         <v>45280.72916666666</v>
       </c>
       <c r="F405" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G405" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="H405">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I405">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J405" t="s">
         <v>53</v>
       </c>
       <c r="K405">
-        <v>2.15</v>
+        <v>1.4</v>
       </c>
       <c r="L405">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="M405">
-        <v>2.9</v>
+        <v>7</v>
       </c>
       <c r="N405">
-        <v>2.3</v>
+        <v>1.363</v>
       </c>
       <c r="O405">
-        <v>3.5</v>
+        <v>5.25</v>
       </c>
       <c r="P405">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="Q405">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R405">
-        <v>2.08</v>
+        <v>1.87</v>
       </c>
       <c r="S405">
-        <v>1.82</v>
+        <v>2.06</v>
       </c>
       <c r="T405">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U405">
-        <v>2.06</v>
+        <v>1.91</v>
       </c>
       <c r="V405">
-        <v>1.84</v>
+        <v>1.99</v>
       </c>
       <c r="W405">
-        <v>1.3</v>
+        <v>0.363</v>
       </c>
       <c r="X405">
         <v>-1</v>
@@ -36576,16 +36576,16 @@
         <v>-1</v>
       </c>
       <c r="Z405">
-        <v>1.08</v>
+        <v>-0.5</v>
       </c>
       <c r="AA405">
-        <v>-1</v>
+        <v>0.53</v>
       </c>
       <c r="AB405">
-        <v>1.06</v>
+        <v>-1</v>
       </c>
       <c r="AC405">
-        <v>-1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="406" spans="1:29">
@@ -37394,7 +37394,7 @@
         <v>413</v>
       </c>
       <c r="B415">
-        <v>6809442</v>
+        <v>6809440</v>
       </c>
       <c r="C415" t="s">
         <v>28</v>
@@ -37406,58 +37406,58 @@
         <v>45294.63541666666</v>
       </c>
       <c r="F415" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="G415" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="H415">
+        <v>2</v>
+      </c>
+      <c r="I415">
         <v>1</v>
-      </c>
-      <c r="I415">
-        <v>0</v>
       </c>
       <c r="J415" t="s">
         <v>53</v>
       </c>
       <c r="K415">
-        <v>1.222</v>
+        <v>2.25</v>
       </c>
       <c r="L415">
-        <v>6.5</v>
+        <v>3.2</v>
       </c>
       <c r="M415">
-        <v>11</v>
+        <v>3.25</v>
       </c>
       <c r="N415">
-        <v>1.2</v>
+        <v>2.15</v>
       </c>
       <c r="O415">
-        <v>6.5</v>
+        <v>3.2</v>
       </c>
       <c r="P415">
-        <v>15</v>
+        <v>3.5</v>
       </c>
       <c r="Q415">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R415">
-        <v>1.95</v>
+        <v>1.89</v>
       </c>
       <c r="S415">
-        <v>1.98</v>
+        <v>2.04</v>
       </c>
       <c r="T415">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U415">
-        <v>2.02</v>
+        <v>1.86</v>
       </c>
       <c r="V415">
-        <v>1.88</v>
+        <v>2.04</v>
       </c>
       <c r="W415">
-        <v>0.2</v>
+        <v>1.15</v>
       </c>
       <c r="X415">
         <v>-1</v>
@@ -37466,16 +37466,16 @@
         <v>-1</v>
       </c>
       <c r="Z415">
-        <v>-1</v>
+        <v>0.8899999999999999</v>
       </c>
       <c r="AA415">
-        <v>0.98</v>
+        <v>-1</v>
       </c>
       <c r="AB415">
-        <v>-1</v>
+        <v>0.8600000000000001</v>
       </c>
       <c r="AC415">
-        <v>0.8799999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="416" spans="1:29">
@@ -37483,7 +37483,7 @@
         <v>414</v>
       </c>
       <c r="B416">
-        <v>6809440</v>
+        <v>6809442</v>
       </c>
       <c r="C416" t="s">
         <v>28</v>
@@ -37495,58 +37495,58 @@
         <v>45294.63541666666</v>
       </c>
       <c r="F416" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="G416" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="H416">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I416">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J416" t="s">
         <v>53</v>
       </c>
       <c r="K416">
-        <v>2.25</v>
+        <v>1.222</v>
       </c>
       <c r="L416">
-        <v>3.2</v>
+        <v>6.5</v>
       </c>
       <c r="M416">
-        <v>3.25</v>
+        <v>11</v>
       </c>
       <c r="N416">
-        <v>2.15</v>
+        <v>1.2</v>
       </c>
       <c r="O416">
-        <v>3.2</v>
+        <v>6.5</v>
       </c>
       <c r="P416">
-        <v>3.5</v>
+        <v>15</v>
       </c>
       <c r="Q416">
-        <v>-0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R416">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="S416">
-        <v>2.04</v>
+        <v>1.98</v>
       </c>
       <c r="T416">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U416">
-        <v>1.86</v>
+        <v>2.02</v>
       </c>
       <c r="V416">
-        <v>2.04</v>
+        <v>1.88</v>
       </c>
       <c r="W416">
-        <v>1.15</v>
+        <v>0.2</v>
       </c>
       <c r="X416">
         <v>-1</v>
@@ -37555,16 +37555,16 @@
         <v>-1</v>
       </c>
       <c r="Z416">
-        <v>0.8899999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA416">
-        <v>-1</v>
+        <v>0.98</v>
       </c>
       <c r="AB416">
-        <v>0.8600000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC416">
-        <v>-1</v>
+        <v>0.8799999999999999</v>
       </c>
     </row>
     <row r="417" spans="1:29">
@@ -40615,6 +40615,15 @@
       <c r="G451" t="s">
         <v>32</v>
       </c>
+      <c r="H451">
+        <v>4</v>
+      </c>
+      <c r="I451">
+        <v>0</v>
+      </c>
+      <c r="J451" t="s">
+        <v>53</v>
+      </c>
       <c r="K451">
         <v>1.615</v>
       </c>
@@ -40625,46 +40634,52 @@
         <v>5.5</v>
       </c>
       <c r="N451">
-        <v>1.533</v>
+        <v>1.5</v>
       </c>
       <c r="O451">
         <v>3.8</v>
       </c>
       <c r="P451">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="Q451">
         <v>-1</v>
       </c>
       <c r="R451">
-        <v>2.03</v>
+        <v>1.95</v>
       </c>
       <c r="S451">
-        <v>1.87</v>
+        <v>1.95</v>
       </c>
       <c r="T451">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U451">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="V451">
-        <v>1.9</v>
+        <v>2.04</v>
       </c>
       <c r="W451">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="X451">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y451">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z451">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AA451">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB451">
+        <v>0.8600000000000001</v>
+      </c>
+      <c r="AC451">
+        <v>-1</v>
       </c>
     </row>
     <row r="452" spans="1:29">
@@ -40699,7 +40714,7 @@
         <v>5</v>
       </c>
       <c r="N452">
-        <v>1.65</v>
+        <v>1.666</v>
       </c>
       <c r="O452">
         <v>3.75</v>
@@ -40711,19 +40726,19 @@
         <v>-0.75</v>
       </c>
       <c r="R452">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="S452">
-        <v>2.03</v>
+        <v>2.02</v>
       </c>
       <c r="T452">
         <v>2.5</v>
       </c>
       <c r="U452">
-        <v>2.01</v>
+        <v>2.07</v>
       </c>
       <c r="V452">
-        <v>1.89</v>
+        <v>1.83</v>
       </c>
       <c r="W452">
         <v>0</v>
@@ -40785,19 +40800,19 @@
         <v>-0.25</v>
       </c>
       <c r="R453">
-        <v>1.98</v>
+        <v>2.03</v>
       </c>
       <c r="S453">
-        <v>1.92</v>
+        <v>1.87</v>
       </c>
       <c r="T453">
         <v>2.25</v>
       </c>
       <c r="U453">
-        <v>2.01</v>
+        <v>2.02</v>
       </c>
       <c r="V453">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="W453">
         <v>0</v>
@@ -40847,31 +40862,31 @@
         <v>1.533</v>
       </c>
       <c r="N454">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="O454">
         <v>3.6</v>
       </c>
       <c r="P454">
-        <v>1.85</v>
+        <v>1.909</v>
       </c>
       <c r="Q454">
         <v>0.5</v>
       </c>
       <c r="R454">
-        <v>2.01</v>
+        <v>1.92</v>
       </c>
       <c r="S454">
-        <v>1.89</v>
+        <v>1.98</v>
       </c>
       <c r="T454">
         <v>2.5</v>
       </c>
       <c r="U454">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="V454">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="W454">
         <v>0</v>
@@ -40933,10 +40948,10 @@
         <v>-0.25</v>
       </c>
       <c r="R455">
-        <v>1.87</v>
+        <v>1.83</v>
       </c>
       <c r="S455">
-        <v>2.03</v>
+        <v>2.07</v>
       </c>
       <c r="T455">
         <v>2.5</v>
@@ -41004,22 +41019,22 @@
         <v>5.5</v>
       </c>
       <c r="Q456">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R456">
-        <v>1.84</v>
+        <v>2.07</v>
       </c>
       <c r="S456">
-        <v>2.06</v>
+        <v>1.83</v>
       </c>
       <c r="T456">
         <v>2.5</v>
       </c>
       <c r="U456">
-        <v>1.89</v>
+        <v>1.84</v>
       </c>
       <c r="V456">
-        <v>2.01</v>
+        <v>2.06</v>
       </c>
       <c r="W456">
         <v>0</v>
@@ -41155,10 +41170,10 @@
         <v>-0.5</v>
       </c>
       <c r="R458">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="S458">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="T458">
         <v>2.25</v>
@@ -41217,31 +41232,31 @@
         <v>4.333</v>
       </c>
       <c r="N459">
-        <v>1.727</v>
+        <v>1.666</v>
       </c>
       <c r="O459">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P459">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="Q459">
         <v>-0.75</v>
       </c>
       <c r="R459">
-        <v>2.01</v>
+        <v>1.92</v>
       </c>
       <c r="S459">
-        <v>1.89</v>
+        <v>1.98</v>
       </c>
       <c r="T459">
         <v>2.75</v>
       </c>
       <c r="U459">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="V459">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="W459">
         <v>0</v>
@@ -41291,31 +41306,31 @@
         <v>3</v>
       </c>
       <c r="N460">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="O460">
         <v>3.3</v>
       </c>
       <c r="P460">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q460">
         <v>-0.25</v>
       </c>
       <c r="R460">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="S460">
-        <v>2.02</v>
+        <v>2.08</v>
       </c>
       <c r="T460">
         <v>2.25</v>
       </c>
       <c r="U460">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="V460">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="W460">
         <v>0</v>
@@ -41330,6 +41345,80 @@
         <v>0</v>
       </c>
       <c r="AA460">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="461" spans="1:29">
+      <c r="A461" s="1">
+        <v>459</v>
+      </c>
+      <c r="B461">
+        <v>6809467</v>
+      </c>
+      <c r="C461" t="s">
+        <v>28</v>
+      </c>
+      <c r="D461" t="s">
+        <v>28</v>
+      </c>
+      <c r="E461" s="2">
+        <v>45331.70833333334</v>
+      </c>
+      <c r="F461" t="s">
+        <v>45</v>
+      </c>
+      <c r="G461" t="s">
+        <v>48</v>
+      </c>
+      <c r="K461">
+        <v>3.25</v>
+      </c>
+      <c r="L461">
+        <v>3.25</v>
+      </c>
+      <c r="M461">
+        <v>2.2</v>
+      </c>
+      <c r="N461">
+        <v>3.25</v>
+      </c>
+      <c r="O461">
+        <v>3.25</v>
+      </c>
+      <c r="P461">
+        <v>2.2</v>
+      </c>
+      <c r="Q461">
+        <v>0.25</v>
+      </c>
+      <c r="R461">
+        <v>1.91</v>
+      </c>
+      <c r="S461">
+        <v>1.99</v>
+      </c>
+      <c r="T461">
+        <v>2.25</v>
+      </c>
+      <c r="U461">
+        <v>1.99</v>
+      </c>
+      <c r="V461">
+        <v>1.91</v>
+      </c>
+      <c r="W461">
+        <v>0</v>
+      </c>
+      <c r="X461">
+        <v>0</v>
+      </c>
+      <c r="Y461">
+        <v>0</v>
+      </c>
+      <c r="Z461">
+        <v>0</v>
+      </c>
+      <c r="AA461">
         <v>0</v>
       </c>
     </row>

--- a/Spain Primera Liga/Spain Primera Liga.xlsx
+++ b/Spain Primera Liga/Spain Primera Liga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2318" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2330" uniqueCount="55">
   <si>
     <t>id</t>
   </si>
@@ -540,7 +540,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC461"/>
+  <dimension ref="A1:AC464"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -19416,7 +19416,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>5697401</v>
+        <v>5703047</v>
       </c>
       <c r="C213" t="s">
         <v>28</v>
@@ -19428,76 +19428,76 @@
         <v>45074.58333333334</v>
       </c>
       <c r="F213" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="G213" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H213">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I213">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J213" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K213">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="L213">
         <v>4.5</v>
       </c>
       <c r="M213">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="N213">
-        <v>1.4</v>
+        <v>1.25</v>
       </c>
       <c r="O213">
-        <v>4.5</v>
+        <v>5.75</v>
       </c>
       <c r="P213">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="Q213">
-        <v>-1.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R213">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S213">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T213">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U213">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="V213">
-        <v>1.99</v>
+        <v>1.97</v>
       </c>
       <c r="W213">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X213">
         <v>-1</v>
       </c>
       <c r="Y213">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="Z213">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA213">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB213">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC213">
-        <v>0.99</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="214" spans="1:29">
@@ -19505,7 +19505,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>5701613</v>
+        <v>5701612</v>
       </c>
       <c r="C214" t="s">
         <v>28</v>
@@ -19517,58 +19517,58 @@
         <v>45074.58333333334</v>
       </c>
       <c r="F214" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G214" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H214">
+        <v>2</v>
+      </c>
+      <c r="I214">
         <v>1</v>
-      </c>
-      <c r="I214">
-        <v>0</v>
       </c>
       <c r="J214" t="s">
         <v>53</v>
       </c>
       <c r="K214">
-        <v>2.6</v>
+        <v>1.909</v>
       </c>
       <c r="L214">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M214">
-        <v>2.7</v>
+        <v>4</v>
       </c>
       <c r="N214">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="O214">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="P214">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="Q214">
         <v>-0.25</v>
       </c>
       <c r="R214">
-        <v>2.075</v>
+        <v>2.1</v>
       </c>
       <c r="S214">
-        <v>1.725</v>
+        <v>1.8</v>
       </c>
       <c r="T214">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="U214">
-        <v>1.95</v>
+        <v>1.82</v>
       </c>
       <c r="V214">
-        <v>1.95</v>
+        <v>2.08</v>
       </c>
       <c r="W214">
-        <v>1.45</v>
+        <v>1.4</v>
       </c>
       <c r="X214">
         <v>-1</v>
@@ -19577,16 +19577,16 @@
         <v>-1</v>
       </c>
       <c r="Z214">
-        <v>1.075</v>
+        <v>1.1</v>
       </c>
       <c r="AA214">
         <v>-1</v>
       </c>
       <c r="AB214">
-        <v>-1</v>
+        <v>0.8200000000000001</v>
       </c>
       <c r="AC214">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="215" spans="1:29">
@@ -19594,7 +19594,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>5701612</v>
+        <v>5701613</v>
       </c>
       <c r="C215" t="s">
         <v>28</v>
@@ -19606,58 +19606,58 @@
         <v>45074.58333333334</v>
       </c>
       <c r="F215" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G215" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H215">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I215">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J215" t="s">
         <v>53</v>
       </c>
       <c r="K215">
-        <v>1.909</v>
+        <v>2.6</v>
       </c>
       <c r="L215">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M215">
-        <v>4</v>
+        <v>2.7</v>
       </c>
       <c r="N215">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="O215">
-        <v>2.75</v>
+        <v>3.1</v>
       </c>
       <c r="P215">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="Q215">
         <v>-0.25</v>
       </c>
       <c r="R215">
-        <v>2.1</v>
+        <v>2.075</v>
       </c>
       <c r="S215">
-        <v>1.8</v>
+        <v>1.725</v>
       </c>
       <c r="T215">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="U215">
-        <v>1.82</v>
+        <v>1.95</v>
       </c>
       <c r="V215">
-        <v>2.08</v>
+        <v>1.95</v>
       </c>
       <c r="W215">
-        <v>1.4</v>
+        <v>1.45</v>
       </c>
       <c r="X215">
         <v>-1</v>
@@ -19666,16 +19666,16 @@
         <v>-1</v>
       </c>
       <c r="Z215">
-        <v>1.1</v>
+        <v>1.075</v>
       </c>
       <c r="AA215">
         <v>-1</v>
       </c>
       <c r="AB215">
-        <v>0.8200000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC215">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="216" spans="1:29">
@@ -19683,7 +19683,7 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>5705727</v>
+        <v>5697401</v>
       </c>
       <c r="C216" t="s">
         <v>28</v>
@@ -19695,76 +19695,76 @@
         <v>45074.58333333334</v>
       </c>
       <c r="F216" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G216" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H216">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I216">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J216" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K216">
-        <v>1.909</v>
+        <v>1.4</v>
       </c>
       <c r="L216">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="M216">
-        <v>3.75</v>
+        <v>8</v>
       </c>
       <c r="N216">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="O216">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="P216">
-        <v>3.6</v>
+        <v>8</v>
       </c>
       <c r="Q216">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R216">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="S216">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="T216">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U216">
-        <v>2.07</v>
+        <v>1.91</v>
       </c>
       <c r="V216">
-        <v>1.83</v>
+        <v>1.99</v>
       </c>
       <c r="W216">
         <v>-1</v>
       </c>
       <c r="X216">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y216">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="Z216">
         <v>-1</v>
       </c>
       <c r="AA216">
-        <v>0.7749999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AB216">
-        <v>1.07</v>
+        <v>-1</v>
       </c>
       <c r="AC216">
-        <v>-1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="217" spans="1:29">
@@ -19772,7 +19772,7 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>5703047</v>
+        <v>5705727</v>
       </c>
       <c r="C217" t="s">
         <v>28</v>
@@ -19784,76 +19784,76 @@
         <v>45074.58333333334</v>
       </c>
       <c r="F217" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="G217" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H217">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I217">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J217" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K217">
-        <v>1.5</v>
+        <v>1.909</v>
       </c>
       <c r="L217">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="M217">
-        <v>6</v>
+        <v>3.75</v>
       </c>
       <c r="N217">
-        <v>1.25</v>
+        <v>2</v>
       </c>
       <c r="O217">
-        <v>5.75</v>
+        <v>3.5</v>
       </c>
       <c r="P217">
-        <v>12</v>
+        <v>3.6</v>
       </c>
       <c r="Q217">
-        <v>-1.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R217">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S217">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="T217">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U217">
-        <v>1.93</v>
+        <v>2.07</v>
       </c>
       <c r="V217">
-        <v>1.97</v>
+        <v>1.83</v>
       </c>
       <c r="W217">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="X217">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y217">
         <v>-1</v>
       </c>
       <c r="Z217">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA217">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB217">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="AC217">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="218" spans="1:29">
@@ -19861,7 +19861,7 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>5697402</v>
+        <v>5705884</v>
       </c>
       <c r="C218" t="s">
         <v>28</v>
@@ -19873,76 +19873,76 @@
         <v>45074.58333333334</v>
       </c>
       <c r="F218" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G218" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="H218">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I218">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J218" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K218">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L218">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M218">
         <v>3.1</v>
       </c>
       <c r="N218">
-        <v>2.2</v>
+        <v>1.909</v>
       </c>
       <c r="O218">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P218">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="Q218">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R218">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="S218">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="T218">
         <v>2.5</v>
       </c>
       <c r="U218">
-        <v>1.86</v>
+        <v>1.99</v>
       </c>
       <c r="V218">
-        <v>2.04</v>
+        <v>1.91</v>
       </c>
       <c r="W218">
         <v>-1</v>
       </c>
       <c r="X218">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y218">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Z218">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA218">
-        <v>0.465</v>
+        <v>0.9199999999999999</v>
       </c>
       <c r="AB218">
-        <v>-1</v>
+        <v>0.99</v>
       </c>
       <c r="AC218">
-        <v>1.04</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="219" spans="1:29">
@@ -19950,7 +19950,7 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>5705884</v>
+        <v>5713343</v>
       </c>
       <c r="C219" t="s">
         <v>28</v>
@@ -19962,76 +19962,76 @@
         <v>45074.58333333334</v>
       </c>
       <c r="F219" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G219" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="H219">
+        <v>2</v>
+      </c>
+      <c r="I219">
         <v>1</v>
       </c>
-      <c r="I219">
-        <v>2</v>
-      </c>
       <c r="J219" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K219">
-        <v>2.2</v>
+        <v>2.875</v>
       </c>
       <c r="L219">
         <v>3.5</v>
       </c>
       <c r="M219">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="N219">
-        <v>1.909</v>
+        <v>3</v>
       </c>
       <c r="O219">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P219">
-        <v>3.8</v>
+        <v>2.2</v>
       </c>
       <c r="Q219">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R219">
-        <v>1.98</v>
+        <v>1.9</v>
       </c>
       <c r="S219">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="T219">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U219">
-        <v>1.99</v>
+        <v>2.06</v>
       </c>
       <c r="V219">
-        <v>1.91</v>
+        <v>1.84</v>
       </c>
       <c r="W219">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X219">
         <v>-1</v>
       </c>
       <c r="Y219">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Z219">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA219">
-        <v>0.9199999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB219">
-        <v>0.99</v>
+        <v>0</v>
       </c>
       <c r="AC219">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="220" spans="1:29">
@@ -20039,7 +20039,7 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>5713343</v>
+        <v>5697402</v>
       </c>
       <c r="C220" t="s">
         <v>28</v>
@@ -20051,76 +20051,76 @@
         <v>45074.58333333334</v>
       </c>
       <c r="F220" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G220" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H220">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I220">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J220" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K220">
-        <v>2.875</v>
+        <v>2.25</v>
       </c>
       <c r="L220">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M220">
+        <v>3.1</v>
+      </c>
+      <c r="N220">
+        <v>2.2</v>
+      </c>
+      <c r="O220">
+        <v>3.3</v>
+      </c>
+      <c r="P220">
+        <v>3.3</v>
+      </c>
+      <c r="Q220">
+        <v>-0.25</v>
+      </c>
+      <c r="R220">
+        <v>1.97</v>
+      </c>
+      <c r="S220">
+        <v>1.93</v>
+      </c>
+      <c r="T220">
+        <v>2.5</v>
+      </c>
+      <c r="U220">
+        <v>1.86</v>
+      </c>
+      <c r="V220">
+        <v>2.04</v>
+      </c>
+      <c r="W220">
+        <v>-1</v>
+      </c>
+      <c r="X220">
         <v>2.3</v>
       </c>
-      <c r="N220">
-        <v>3</v>
-      </c>
-      <c r="O220">
-        <v>3.75</v>
-      </c>
-      <c r="P220">
-        <v>2.2</v>
-      </c>
-      <c r="Q220">
-        <v>0.25</v>
-      </c>
-      <c r="R220">
-        <v>1.9</v>
-      </c>
-      <c r="S220">
-        <v>2</v>
-      </c>
-      <c r="T220">
-        <v>3</v>
-      </c>
-      <c r="U220">
-        <v>2.06</v>
-      </c>
-      <c r="V220">
-        <v>1.84</v>
-      </c>
-      <c r="W220">
-        <v>2</v>
-      </c>
-      <c r="X220">
-        <v>-1</v>
-      </c>
       <c r="Y220">
         <v>-1</v>
       </c>
       <c r="Z220">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AA220">
-        <v>-1</v>
+        <v>0.465</v>
       </c>
       <c r="AB220">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC220">
-        <v>-0</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="221" spans="1:29">
@@ -20306,7 +20306,7 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>5734136</v>
+        <v>5730415</v>
       </c>
       <c r="C223" t="s">
         <v>28</v>
@@ -20318,76 +20318,76 @@
         <v>45081.5625</v>
       </c>
       <c r="F223" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="G223" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H223">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I223">
         <v>1</v>
       </c>
       <c r="J223" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K223">
-        <v>1.95</v>
+        <v>2.25</v>
       </c>
       <c r="L223">
+        <v>3.5</v>
+      </c>
+      <c r="M223">
+        <v>3</v>
+      </c>
+      <c r="N223">
+        <v>2.05</v>
+      </c>
+      <c r="O223">
         <v>3.6</v>
       </c>
-      <c r="M223">
-        <v>3.6</v>
-      </c>
-      <c r="N223">
-        <v>1.65</v>
-      </c>
-      <c r="O223">
-        <v>4</v>
-      </c>
       <c r="P223">
-        <v>4.75</v>
+        <v>3.25</v>
       </c>
       <c r="Q223">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R223">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="S223">
-        <v>2.06</v>
+        <v>2.05</v>
       </c>
       <c r="T223">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U223">
-        <v>1.9</v>
+        <v>2.02</v>
       </c>
       <c r="V223">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="W223">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X223">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y223">
         <v>-1</v>
       </c>
       <c r="Z223">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA223">
-        <v>1.06</v>
+        <v>-1</v>
       </c>
       <c r="AB223">
-        <v>-1</v>
+        <v>0.51</v>
       </c>
       <c r="AC223">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="224" spans="1:29">
@@ -20395,7 +20395,7 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>5776610</v>
+        <v>5734136</v>
       </c>
       <c r="C224" t="s">
         <v>28</v>
@@ -20407,76 +20407,76 @@
         <v>45081.5625</v>
       </c>
       <c r="F224" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="G224" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H224">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I224">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J224" t="s">
         <v>54</v>
       </c>
       <c r="K224">
-        <v>2.75</v>
+        <v>1.95</v>
       </c>
       <c r="L224">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M224">
-        <v>2.45</v>
+        <v>3.6</v>
       </c>
       <c r="N224">
-        <v>2.625</v>
+        <v>1.65</v>
       </c>
       <c r="O224">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P224">
-        <v>2.45</v>
+        <v>4.75</v>
       </c>
       <c r="Q224">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R224">
-        <v>2.04</v>
+        <v>1.84</v>
       </c>
       <c r="S224">
-        <v>1.86</v>
+        <v>2.06</v>
       </c>
       <c r="T224">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U224">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="V224">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="W224">
         <v>-1</v>
       </c>
       <c r="X224">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Y224">
         <v>-1</v>
       </c>
       <c r="Z224">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA224">
-        <v>-0</v>
+        <v>1.06</v>
       </c>
       <c r="AB224">
-        <v>0.8799999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC224">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="225" spans="1:29">
@@ -20484,7 +20484,7 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>5730415</v>
+        <v>5776610</v>
       </c>
       <c r="C225" t="s">
         <v>28</v>
@@ -20496,76 +20496,76 @@
         <v>45081.5625</v>
       </c>
       <c r="F225" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="G225" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H225">
         <v>2</v>
       </c>
       <c r="I225">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J225" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K225">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="L225">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M225">
-        <v>3</v>
+        <v>2.45</v>
       </c>
       <c r="N225">
-        <v>2.05</v>
+        <v>2.625</v>
       </c>
       <c r="O225">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P225">
+        <v>2.45</v>
+      </c>
+      <c r="Q225">
+        <v>0</v>
+      </c>
+      <c r="R225">
+        <v>2.04</v>
+      </c>
+      <c r="S225">
+        <v>1.86</v>
+      </c>
+      <c r="T225">
         <v>3.25</v>
       </c>
-      <c r="Q225">
-        <v>-0.25</v>
-      </c>
-      <c r="R225">
-        <v>1.85</v>
-      </c>
-      <c r="S225">
-        <v>2.05</v>
-      </c>
-      <c r="T225">
+      <c r="U225">
+        <v>1.88</v>
+      </c>
+      <c r="V225">
+        <v>2.02</v>
+      </c>
+      <c r="W225">
+        <v>-1</v>
+      </c>
+      <c r="X225">
         <v>2.75</v>
       </c>
-      <c r="U225">
-        <v>2.02</v>
-      </c>
-      <c r="V225">
-        <v>1.88</v>
-      </c>
-      <c r="W225">
-        <v>1.05</v>
-      </c>
-      <c r="X225">
-        <v>-1</v>
-      </c>
       <c r="Y225">
         <v>-1</v>
       </c>
       <c r="Z225">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA225">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB225">
-        <v>0.51</v>
+        <v>0.8799999999999999</v>
       </c>
       <c r="AC225">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="226" spans="1:29">
@@ -20751,7 +20751,7 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>5738382</v>
+        <v>5734498</v>
       </c>
       <c r="C228" t="s">
         <v>28</v>
@@ -20763,76 +20763,76 @@
         <v>45081.66666666666</v>
       </c>
       <c r="F228" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G228" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H228">
+        <v>0</v>
+      </c>
+      <c r="I228">
+        <v>0</v>
+      </c>
+      <c r="J228" t="s">
+        <v>54</v>
+      </c>
+      <c r="K228">
+        <v>2.1</v>
+      </c>
+      <c r="L228">
+        <v>3.4</v>
+      </c>
+      <c r="M228">
+        <v>3.4</v>
+      </c>
+      <c r="N228">
+        <v>2.05</v>
+      </c>
+      <c r="O228">
+        <v>3.3</v>
+      </c>
+      <c r="P228">
+        <v>4</v>
+      </c>
+      <c r="Q228">
+        <v>-0.5</v>
+      </c>
+      <c r="R228">
+        <v>2.08</v>
+      </c>
+      <c r="S228">
+        <v>1.82</v>
+      </c>
+      <c r="T228">
         <v>2</v>
       </c>
-      <c r="I228">
-        <v>1</v>
-      </c>
-      <c r="J228" t="s">
-        <v>53</v>
-      </c>
-      <c r="K228">
-        <v>3</v>
-      </c>
-      <c r="L228">
-        <v>3.6</v>
-      </c>
-      <c r="M228">
-        <v>2.2</v>
-      </c>
-      <c r="N228">
-        <v>2.7</v>
-      </c>
-      <c r="O228">
-        <v>3.6</v>
-      </c>
-      <c r="P228">
-        <v>2.45</v>
-      </c>
-      <c r="Q228">
-        <v>0</v>
-      </c>
-      <c r="R228">
-        <v>2.06</v>
-      </c>
-      <c r="S228">
-        <v>1.84</v>
-      </c>
-      <c r="T228">
-        <v>2.5</v>
-      </c>
       <c r="U228">
-        <v>1.95</v>
+        <v>1.82</v>
       </c>
       <c r="V228">
-        <v>1.95</v>
+        <v>2.08</v>
       </c>
       <c r="W228">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X228">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y228">
         <v>-1</v>
       </c>
       <c r="Z228">
-        <v>1.06</v>
+        <v>-1</v>
       </c>
       <c r="AA228">
-        <v>-1</v>
+        <v>0.8200000000000001</v>
       </c>
       <c r="AB228">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC228">
-        <v>-1</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="229" spans="1:29">
@@ -20929,7 +20929,7 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>5734498</v>
+        <v>5738382</v>
       </c>
       <c r="C230" t="s">
         <v>28</v>
@@ -20941,76 +20941,76 @@
         <v>45081.66666666666</v>
       </c>
       <c r="F230" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G230" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H230">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I230">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J230" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K230">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="L230">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M230">
-        <v>3.4</v>
+        <v>2.2</v>
       </c>
       <c r="N230">
-        <v>2.05</v>
+        <v>2.7</v>
       </c>
       <c r="O230">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P230">
-        <v>4</v>
+        <v>2.45</v>
       </c>
       <c r="Q230">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R230">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="S230">
-        <v>1.82</v>
+        <v>1.84</v>
       </c>
       <c r="T230">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U230">
-        <v>1.82</v>
+        <v>1.95</v>
       </c>
       <c r="V230">
-        <v>2.08</v>
+        <v>1.95</v>
       </c>
       <c r="W230">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X230">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y230">
         <v>-1</v>
       </c>
       <c r="Z230">
-        <v>-1</v>
+        <v>1.06</v>
       </c>
       <c r="AA230">
-        <v>0.8200000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB230">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC230">
-        <v>1.08</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="231" spans="1:29">
@@ -27782,7 +27782,7 @@
         <v>305</v>
       </c>
       <c r="B307">
-        <v>6809226</v>
+        <v>6809388</v>
       </c>
       <c r="C307" t="s">
         <v>28</v>
@@ -27794,58 +27794,58 @@
         <v>45200.66666666666</v>
       </c>
       <c r="F307" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="G307" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="H307">
         <v>3</v>
       </c>
       <c r="I307">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J307" t="s">
         <v>53</v>
       </c>
       <c r="K307">
-        <v>2.2</v>
+        <v>1.333</v>
       </c>
       <c r="L307">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="M307">
-        <v>3.4</v>
+        <v>8.5</v>
       </c>
       <c r="N307">
-        <v>2.05</v>
+        <v>1.333</v>
       </c>
       <c r="O307">
-        <v>3.25</v>
+        <v>5.5</v>
       </c>
       <c r="P307">
-        <v>4</v>
+        <v>8.5</v>
       </c>
       <c r="Q307">
-        <v>-0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R307">
+        <v>2.03</v>
+      </c>
+      <c r="S307">
+        <v>1.87</v>
+      </c>
+      <c r="T307">
+        <v>2.5</v>
+      </c>
+      <c r="U307">
+        <v>1.84</v>
+      </c>
+      <c r="V307">
         <v>2.06</v>
       </c>
-      <c r="S307">
-        <v>1.84</v>
-      </c>
-      <c r="T307">
-        <v>2.25</v>
-      </c>
-      <c r="U307">
-        <v>2.05</v>
-      </c>
-      <c r="V307">
-        <v>1.85</v>
-      </c>
       <c r="W307">
-        <v>1.05</v>
+        <v>0.333</v>
       </c>
       <c r="X307">
         <v>-1</v>
@@ -27854,13 +27854,13 @@
         <v>-1</v>
       </c>
       <c r="Z307">
-        <v>1.06</v>
+        <v>-1</v>
       </c>
       <c r="AA307">
-        <v>-1</v>
+        <v>0.8700000000000001</v>
       </c>
       <c r="AB307">
-        <v>1.05</v>
+        <v>0.8400000000000001</v>
       </c>
       <c r="AC307">
         <v>-1</v>
@@ -27871,7 +27871,7 @@
         <v>306</v>
       </c>
       <c r="B308">
-        <v>6809388</v>
+        <v>6809226</v>
       </c>
       <c r="C308" t="s">
         <v>28</v>
@@ -27883,58 +27883,58 @@
         <v>45200.66666666666</v>
       </c>
       <c r="F308" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="G308" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="H308">
         <v>3</v>
       </c>
       <c r="I308">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J308" t="s">
         <v>53</v>
       </c>
       <c r="K308">
-        <v>1.333</v>
+        <v>2.2</v>
       </c>
       <c r="L308">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="M308">
-        <v>8.5</v>
+        <v>3.4</v>
       </c>
       <c r="N308">
-        <v>1.333</v>
+        <v>2.05</v>
       </c>
       <c r="O308">
-        <v>5.5</v>
+        <v>3.25</v>
       </c>
       <c r="P308">
-        <v>8.5</v>
+        <v>4</v>
       </c>
       <c r="Q308">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R308">
-        <v>2.03</v>
+        <v>2.06</v>
       </c>
       <c r="S308">
-        <v>1.87</v>
+        <v>1.84</v>
       </c>
       <c r="T308">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U308">
-        <v>1.84</v>
+        <v>2.05</v>
       </c>
       <c r="V308">
-        <v>2.06</v>
+        <v>1.85</v>
       </c>
       <c r="W308">
-        <v>0.333</v>
+        <v>1.05</v>
       </c>
       <c r="X308">
         <v>-1</v>
@@ -27943,13 +27943,13 @@
         <v>-1</v>
       </c>
       <c r="Z308">
-        <v>-1</v>
+        <v>1.06</v>
       </c>
       <c r="AA308">
-        <v>0.8700000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB308">
-        <v>0.8400000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="AC308">
         <v>-1</v>
@@ -36593,7 +36593,7 @@
         <v>404</v>
       </c>
       <c r="B406">
-        <v>6809436</v>
+        <v>6809289</v>
       </c>
       <c r="C406" t="s">
         <v>28</v>
@@ -36605,76 +36605,76 @@
         <v>45281.625</v>
       </c>
       <c r="F406" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G406" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H406">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I406">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J406" t="s">
         <v>54</v>
       </c>
       <c r="K406">
-        <v>4.333</v>
+        <v>2.4</v>
       </c>
       <c r="L406">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M406">
-        <v>1.85</v>
+        <v>2.75</v>
       </c>
       <c r="N406">
-        <v>6</v>
+        <v>2.6</v>
       </c>
       <c r="O406">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P406">
-        <v>1.65</v>
+        <v>2.5</v>
       </c>
       <c r="Q406">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R406">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="S406">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="T406">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U406">
-        <v>1.84</v>
+        <v>1.91</v>
       </c>
       <c r="V406">
-        <v>2.06</v>
+        <v>1.99</v>
       </c>
       <c r="W406">
         <v>-1</v>
       </c>
       <c r="X406">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="Y406">
         <v>-1</v>
       </c>
       <c r="Z406">
-        <v>0.98</v>
+        <v>0</v>
       </c>
       <c r="AA406">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB406">
         <v>-1</v>
       </c>
       <c r="AC406">
-        <v>1.06</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="407" spans="1:29">
@@ -36682,7 +36682,7 @@
         <v>405</v>
       </c>
       <c r="B407">
-        <v>6809289</v>
+        <v>6809436</v>
       </c>
       <c r="C407" t="s">
         <v>28</v>
@@ -36694,76 +36694,76 @@
         <v>45281.625</v>
       </c>
       <c r="F407" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G407" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H407">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I407">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J407" t="s">
         <v>54</v>
       </c>
       <c r="K407">
-        <v>2.4</v>
+        <v>4.333</v>
       </c>
       <c r="L407">
+        <v>3.2</v>
+      </c>
+      <c r="M407">
+        <v>1.85</v>
+      </c>
+      <c r="N407">
+        <v>6</v>
+      </c>
+      <c r="O407">
         <v>3.5</v>
       </c>
-      <c r="M407">
-        <v>2.75</v>
-      </c>
-      <c r="N407">
-        <v>2.6</v>
-      </c>
-      <c r="O407">
-        <v>3.6</v>
-      </c>
       <c r="P407">
+        <v>1.65</v>
+      </c>
+      <c r="Q407">
+        <v>0.75</v>
+      </c>
+      <c r="R407">
+        <v>1.98</v>
+      </c>
+      <c r="S407">
+        <v>1.92</v>
+      </c>
+      <c r="T407">
+        <v>2</v>
+      </c>
+      <c r="U407">
+        <v>1.84</v>
+      </c>
+      <c r="V407">
+        <v>2.06</v>
+      </c>
+      <c r="W407">
+        <v>-1</v>
+      </c>
+      <c r="X407">
         <v>2.5</v>
       </c>
-      <c r="Q407">
-        <v>0</v>
-      </c>
-      <c r="R407">
-        <v>1.97</v>
-      </c>
-      <c r="S407">
-        <v>1.93</v>
-      </c>
-      <c r="T407">
-        <v>2.75</v>
-      </c>
-      <c r="U407">
-        <v>1.91</v>
-      </c>
-      <c r="V407">
-        <v>1.99</v>
-      </c>
-      <c r="W407">
-        <v>-1</v>
-      </c>
-      <c r="X407">
-        <v>2.6</v>
-      </c>
       <c r="Y407">
         <v>-1</v>
       </c>
       <c r="Z407">
-        <v>0</v>
+        <v>0.98</v>
       </c>
       <c r="AA407">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB407">
         <v>-1</v>
       </c>
       <c r="AC407">
-        <v>0.99</v>
+        <v>1.06</v>
       </c>
     </row>
     <row r="408" spans="1:29">
@@ -40687,7 +40687,7 @@
         <v>450</v>
       </c>
       <c r="B452">
-        <v>6809316</v>
+        <v>6809462</v>
       </c>
       <c r="C452" t="s">
         <v>28</v>
@@ -40696,49 +40696,49 @@
         <v>28</v>
       </c>
       <c r="E452" s="2">
-        <v>45325.41666666666</v>
+        <v>45325.51041666666</v>
       </c>
       <c r="F452" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="G452" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="K452">
-        <v>1.666</v>
+        <v>2.375</v>
       </c>
       <c r="L452">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="M452">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N452">
-        <v>1.666</v>
+        <v>2.05</v>
       </c>
       <c r="O452">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="P452">
-        <v>5.5</v>
+        <v>3.8</v>
       </c>
       <c r="Q452">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R452">
-        <v>1.88</v>
+        <v>2.07</v>
       </c>
       <c r="S452">
-        <v>2.02</v>
+        <v>1.83</v>
       </c>
       <c r="T452">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U452">
-        <v>2.07</v>
+        <v>1.95</v>
       </c>
       <c r="V452">
-        <v>1.83</v>
+        <v>1.95</v>
       </c>
       <c r="W452">
         <v>0</v>
@@ -40761,7 +40761,7 @@
         <v>451</v>
       </c>
       <c r="B453">
-        <v>6809462</v>
+        <v>6809315</v>
       </c>
       <c r="C453" t="s">
         <v>28</v>
@@ -40770,49 +40770,49 @@
         <v>28</v>
       </c>
       <c r="E453" s="2">
-        <v>45325.51041666666</v>
+        <v>45325.60416666666</v>
       </c>
       <c r="F453" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G453" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="K453">
-        <v>2.375</v>
+        <v>6</v>
       </c>
       <c r="L453">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="M453">
-        <v>3</v>
+        <v>1.533</v>
       </c>
       <c r="N453">
-        <v>2.3</v>
+        <v>4</v>
       </c>
       <c r="O453">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="P453">
-        <v>3.3</v>
+        <v>1.909</v>
       </c>
       <c r="Q453">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R453">
-        <v>2.03</v>
+        <v>1.95</v>
       </c>
       <c r="S453">
-        <v>1.87</v>
+        <v>1.95</v>
       </c>
       <c r="T453">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U453">
-        <v>2.02</v>
+        <v>1.97</v>
       </c>
       <c r="V453">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="W453">
         <v>0</v>
@@ -40835,7 +40835,7 @@
         <v>452</v>
       </c>
       <c r="B454">
-        <v>6809315</v>
+        <v>6809313</v>
       </c>
       <c r="C454" t="s">
         <v>28</v>
@@ -40844,49 +40844,49 @@
         <v>28</v>
       </c>
       <c r="E454" s="2">
-        <v>45325.60416666666</v>
+        <v>45325.70833333334</v>
       </c>
       <c r="F454" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G454" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="K454">
-        <v>6</v>
+        <v>2.25</v>
       </c>
       <c r="L454">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M454">
-        <v>1.533</v>
+        <v>2.9</v>
       </c>
       <c r="N454">
-        <v>4</v>
+        <v>2.15</v>
       </c>
       <c r="O454">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P454">
-        <v>1.909</v>
+        <v>3.4</v>
       </c>
       <c r="Q454">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R454">
-        <v>1.92</v>
+        <v>1.86</v>
       </c>
       <c r="S454">
-        <v>1.98</v>
+        <v>2.04</v>
       </c>
       <c r="T454">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U454">
-        <v>1.92</v>
+        <v>1.82</v>
       </c>
       <c r="V454">
-        <v>1.98</v>
+        <v>2.08</v>
       </c>
       <c r="W454">
         <v>0</v>
@@ -40909,7 +40909,7 @@
         <v>453</v>
       </c>
       <c r="B455">
-        <v>6809313</v>
+        <v>6809464</v>
       </c>
       <c r="C455" t="s">
         <v>28</v>
@@ -40918,49 +40918,49 @@
         <v>28</v>
       </c>
       <c r="E455" s="2">
-        <v>45325.70833333334</v>
+        <v>45326.41666666666</v>
       </c>
       <c r="F455" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G455" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K455">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="L455">
         <v>3.6</v>
       </c>
       <c r="M455">
-        <v>2.9</v>
+        <v>4.333</v>
       </c>
       <c r="N455">
-        <v>2.1</v>
+        <v>1.615</v>
       </c>
       <c r="O455">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P455">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="Q455">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R455">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="S455">
-        <v>2.07</v>
+        <v>2.08</v>
       </c>
       <c r="T455">
         <v>2.5</v>
       </c>
       <c r="U455">
-        <v>2.03</v>
+        <v>1.9</v>
       </c>
       <c r="V455">
-        <v>1.87</v>
+        <v>2</v>
       </c>
       <c r="W455">
         <v>0</v>
@@ -40983,7 +40983,7 @@
         <v>454</v>
       </c>
       <c r="B456">
-        <v>6809464</v>
+        <v>6809317</v>
       </c>
       <c r="C456" t="s">
         <v>28</v>
@@ -40992,49 +40992,49 @@
         <v>28</v>
       </c>
       <c r="E456" s="2">
-        <v>45326.41666666666</v>
+        <v>45326.51041666666</v>
       </c>
       <c r="F456" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G456" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="K456">
-        <v>1.8</v>
+        <v>2.3</v>
       </c>
       <c r="L456">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="M456">
-        <v>4.333</v>
+        <v>3.1</v>
       </c>
       <c r="N456">
-        <v>1.615</v>
+        <v>2.375</v>
       </c>
       <c r="O456">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="P456">
-        <v>5.5</v>
+        <v>3.3</v>
       </c>
       <c r="Q456">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R456">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="S456">
-        <v>1.83</v>
+        <v>1.9</v>
       </c>
       <c r="T456">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U456">
-        <v>1.84</v>
+        <v>1.81</v>
       </c>
       <c r="V456">
-        <v>2.06</v>
+        <v>2.09</v>
       </c>
       <c r="W456">
         <v>0</v>
@@ -41057,7 +41057,7 @@
         <v>455</v>
       </c>
       <c r="B457">
-        <v>6809317</v>
+        <v>6809461</v>
       </c>
       <c r="C457" t="s">
         <v>28</v>
@@ -41066,49 +41066,49 @@
         <v>28</v>
       </c>
       <c r="E457" s="2">
-        <v>45326.51041666666</v>
+        <v>45326.60416666666</v>
       </c>
       <c r="F457" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G457" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="K457">
-        <v>2.3</v>
+        <v>1.833</v>
       </c>
       <c r="L457">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M457">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="N457">
-        <v>2.375</v>
+        <v>1.909</v>
       </c>
       <c r="O457">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="P457">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="Q457">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R457">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="S457">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="T457">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U457">
-        <v>1.86</v>
+        <v>2.03</v>
       </c>
       <c r="V457">
-        <v>2.04</v>
+        <v>1.87</v>
       </c>
       <c r="W457">
         <v>0</v>
@@ -41131,7 +41131,7 @@
         <v>456</v>
       </c>
       <c r="B458">
-        <v>6809461</v>
+        <v>6809463</v>
       </c>
       <c r="C458" t="s">
         <v>28</v>
@@ -41140,49 +41140,49 @@
         <v>28</v>
       </c>
       <c r="E458" s="2">
-        <v>45326.60416666666</v>
+        <v>45326.70833333334</v>
       </c>
       <c r="F458" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G458" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="K458">
-        <v>1.833</v>
+        <v>1.8</v>
       </c>
       <c r="L458">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M458">
-        <v>4.5</v>
+        <v>4.333</v>
       </c>
       <c r="N458">
-        <v>1.909</v>
+        <v>1.666</v>
       </c>
       <c r="O458">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="P458">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="Q458">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R458">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="S458">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="T458">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U458">
-        <v>2.03</v>
+        <v>1.85</v>
       </c>
       <c r="V458">
-        <v>1.87</v>
+        <v>2.05</v>
       </c>
       <c r="W458">
         <v>0</v>
@@ -41205,7 +41205,7 @@
         <v>457</v>
       </c>
       <c r="B459">
-        <v>6809463</v>
+        <v>6809314</v>
       </c>
       <c r="C459" t="s">
         <v>28</v>
@@ -41214,49 +41214,49 @@
         <v>28</v>
       </c>
       <c r="E459" s="2">
-        <v>45326.70833333334</v>
+        <v>45327.70833333334</v>
       </c>
       <c r="F459" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="G459" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K459">
-        <v>1.8</v>
+        <v>2.375</v>
       </c>
       <c r="L459">
+        <v>3.25</v>
+      </c>
+      <c r="M459">
+        <v>3</v>
+      </c>
+      <c r="N459">
+        <v>2.1</v>
+      </c>
+      <c r="O459">
+        <v>3.3</v>
+      </c>
+      <c r="P459">
         <v>3.6</v>
       </c>
-      <c r="M459">
-        <v>4.333</v>
-      </c>
-      <c r="N459">
-        <v>1.666</v>
-      </c>
-      <c r="O459">
-        <v>4.2</v>
-      </c>
-      <c r="P459">
-        <v>4.75</v>
-      </c>
       <c r="Q459">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R459">
-        <v>1.92</v>
+        <v>1.82</v>
       </c>
       <c r="S459">
-        <v>1.98</v>
+        <v>2.08</v>
       </c>
       <c r="T459">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U459">
-        <v>1.85</v>
+        <v>1.99</v>
       </c>
       <c r="V459">
-        <v>2.05</v>
+        <v>1.91</v>
       </c>
       <c r="W459">
         <v>0</v>
@@ -41279,7 +41279,7 @@
         <v>458</v>
       </c>
       <c r="B460">
-        <v>6809314</v>
+        <v>6809467</v>
       </c>
       <c r="C460" t="s">
         <v>28</v>
@@ -41288,40 +41288,40 @@
         <v>28</v>
       </c>
       <c r="E460" s="2">
-        <v>45327.70833333334</v>
+        <v>45331.70833333334</v>
       </c>
       <c r="F460" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="G460" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="K460">
-        <v>2.375</v>
+        <v>3.25</v>
       </c>
       <c r="L460">
         <v>3.25</v>
       </c>
       <c r="M460">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="N460">
-        <v>2.1</v>
+        <v>3.25</v>
       </c>
       <c r="O460">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="P460">
-        <v>3.6</v>
+        <v>2.2</v>
       </c>
       <c r="Q460">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R460">
-        <v>1.82</v>
+        <v>1.91</v>
       </c>
       <c r="S460">
-        <v>2.08</v>
+        <v>1.99</v>
       </c>
       <c r="T460">
         <v>2.25</v>
@@ -41353,7 +41353,7 @@
         <v>459</v>
       </c>
       <c r="B461">
-        <v>6809467</v>
+        <v>6809466</v>
       </c>
       <c r="C461" t="s">
         <v>28</v>
@@ -41362,63 +41362,285 @@
         <v>28</v>
       </c>
       <c r="E461" s="2">
-        <v>45331.70833333334</v>
+        <v>45332.41666666666</v>
       </c>
       <c r="F461" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="G461" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="K461">
+        <v>2.375</v>
+      </c>
+      <c r="L461">
+        <v>3.4</v>
+      </c>
+      <c r="M461">
+        <v>2.875</v>
+      </c>
+      <c r="N461">
+        <v>2.15</v>
+      </c>
+      <c r="O461">
+        <v>3.4</v>
+      </c>
+      <c r="P461">
+        <v>3.3</v>
+      </c>
+      <c r="Q461">
+        <v>-0.25</v>
+      </c>
+      <c r="R461">
+        <v>1.88</v>
+      </c>
+      <c r="S461">
+        <v>2.02</v>
+      </c>
+      <c r="T461">
+        <v>2.5</v>
+      </c>
+      <c r="U461">
+        <v>2</v>
+      </c>
+      <c r="V461">
+        <v>1.9</v>
+      </c>
+      <c r="W461">
+        <v>0</v>
+      </c>
+      <c r="X461">
+        <v>0</v>
+      </c>
+      <c r="Y461">
+        <v>0</v>
+      </c>
+      <c r="Z461">
+        <v>0</v>
+      </c>
+      <c r="AA461">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="462" spans="1:29">
+      <c r="A462" s="1">
+        <v>460</v>
+      </c>
+      <c r="B462">
+        <v>6809323</v>
+      </c>
+      <c r="C462" t="s">
+        <v>28</v>
+      </c>
+      <c r="D462" t="s">
+        <v>28</v>
+      </c>
+      <c r="E462" s="2">
+        <v>45332.51041666666</v>
+      </c>
+      <c r="F462" t="s">
+        <v>43</v>
+      </c>
+      <c r="G462" t="s">
+        <v>42</v>
+      </c>
+      <c r="K462">
+        <v>1.727</v>
+      </c>
+      <c r="L462">
+        <v>3.5</v>
+      </c>
+      <c r="M462">
+        <v>5</v>
+      </c>
+      <c r="N462">
+        <v>1.833</v>
+      </c>
+      <c r="O462">
+        <v>3.6</v>
+      </c>
+      <c r="P462">
+        <v>4.333</v>
+      </c>
+      <c r="Q462">
+        <v>-0.5</v>
+      </c>
+      <c r="R462">
+        <v>1.87</v>
+      </c>
+      <c r="S462">
+        <v>2.03</v>
+      </c>
+      <c r="T462">
+        <v>2</v>
+      </c>
+      <c r="U462">
+        <v>1.92</v>
+      </c>
+      <c r="V462">
+        <v>1.98</v>
+      </c>
+      <c r="W462">
+        <v>0</v>
+      </c>
+      <c r="X462">
+        <v>0</v>
+      </c>
+      <c r="Y462">
+        <v>0</v>
+      </c>
+      <c r="Z462">
+        <v>0</v>
+      </c>
+      <c r="AA462">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="463" spans="1:29">
+      <c r="A463" s="1">
+        <v>461</v>
+      </c>
+      <c r="B463">
+        <v>6809322</v>
+      </c>
+      <c r="C463" t="s">
+        <v>28</v>
+      </c>
+      <c r="D463" t="s">
+        <v>28</v>
+      </c>
+      <c r="E463" s="2">
+        <v>45332.60416666666</v>
+      </c>
+      <c r="F463" t="s">
+        <v>47</v>
+      </c>
+      <c r="G463" t="s">
+        <v>41</v>
+      </c>
+      <c r="K463">
+        <v>1.571</v>
+      </c>
+      <c r="L463">
+        <v>4</v>
+      </c>
+      <c r="M463">
+        <v>5.5</v>
+      </c>
+      <c r="N463">
+        <v>1.55</v>
+      </c>
+      <c r="O463">
+        <v>4</v>
+      </c>
+      <c r="P463">
+        <v>5.5</v>
+      </c>
+      <c r="Q463">
+        <v>-1</v>
+      </c>
+      <c r="R463">
+        <v>1.88</v>
+      </c>
+      <c r="S463">
+        <v>2.02</v>
+      </c>
+      <c r="T463">
         <v>3.25</v>
       </c>
-      <c r="L461">
-        <v>3.25</v>
-      </c>
-      <c r="M461">
-        <v>2.2</v>
-      </c>
-      <c r="N461">
-        <v>3.25</v>
-      </c>
-      <c r="O461">
-        <v>3.25</v>
-      </c>
-      <c r="P461">
-        <v>2.2</v>
-      </c>
-      <c r="Q461">
-        <v>0.25</v>
-      </c>
-      <c r="R461">
-        <v>1.91</v>
-      </c>
-      <c r="S461">
-        <v>1.99</v>
-      </c>
-      <c r="T461">
-        <v>2.25</v>
-      </c>
-      <c r="U461">
-        <v>1.99</v>
-      </c>
-      <c r="V461">
-        <v>1.91</v>
-      </c>
-      <c r="W461">
-        <v>0</v>
-      </c>
-      <c r="X461">
-        <v>0</v>
-      </c>
-      <c r="Y461">
-        <v>0</v>
-      </c>
-      <c r="Z461">
-        <v>0</v>
-      </c>
-      <c r="AA461">
+      <c r="U463">
+        <v>2.03</v>
+      </c>
+      <c r="V463">
+        <v>1.87</v>
+      </c>
+      <c r="W463">
+        <v>0</v>
+      </c>
+      <c r="X463">
+        <v>0</v>
+      </c>
+      <c r="Y463">
+        <v>0</v>
+      </c>
+      <c r="Z463">
+        <v>0</v>
+      </c>
+      <c r="AA463">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="464" spans="1:29">
+      <c r="A464" s="1">
+        <v>462</v>
+      </c>
+      <c r="B464">
+        <v>6809320</v>
+      </c>
+      <c r="C464" t="s">
+        <v>28</v>
+      </c>
+      <c r="D464" t="s">
+        <v>28</v>
+      </c>
+      <c r="E464" s="2">
+        <v>45332.70833333334</v>
+      </c>
+      <c r="F464" t="s">
+        <v>49</v>
+      </c>
+      <c r="G464" t="s">
+        <v>30</v>
+      </c>
+      <c r="K464">
+        <v>2.875</v>
+      </c>
+      <c r="L464">
+        <v>3</v>
+      </c>
+      <c r="M464">
+        <v>2.6</v>
+      </c>
+      <c r="N464">
+        <v>2.75</v>
+      </c>
+      <c r="O464">
+        <v>3</v>
+      </c>
+      <c r="P464">
+        <v>2.75</v>
+      </c>
+      <c r="Q464">
+        <v>0</v>
+      </c>
+      <c r="R464">
+        <v>1.95</v>
+      </c>
+      <c r="S464">
+        <v>1.95</v>
+      </c>
+      <c r="T464">
+        <v>2</v>
+      </c>
+      <c r="U464">
+        <v>1.95</v>
+      </c>
+      <c r="V464">
+        <v>1.95</v>
+      </c>
+      <c r="W464">
+        <v>0</v>
+      </c>
+      <c r="X464">
+        <v>0</v>
+      </c>
+      <c r="Y464">
+        <v>0</v>
+      </c>
+      <c r="Z464">
+        <v>0</v>
+      </c>
+      <c r="AA464">
         <v>0</v>
       </c>
     </row>

--- a/Spain Primera Liga/Spain Primera Liga.xlsx
+++ b/Spain Primera Liga/Spain Primera Liga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2330" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2363" uniqueCount="55">
   <si>
     <t>id</t>
   </si>
@@ -540,7 +540,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC464"/>
+  <dimension ref="A1:AC470"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -10071,7 +10071,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>5210915</v>
+        <v>5210911</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10083,76 +10083,76 @@
         <v>45004.51041666666</v>
       </c>
       <c r="F108" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G108" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J108" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K108">
-        <v>1.3</v>
+        <v>3</v>
       </c>
       <c r="L108">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="M108">
-        <v>10</v>
+        <v>2.45</v>
       </c>
       <c r="N108">
-        <v>1.4</v>
+        <v>3</v>
       </c>
       <c r="O108">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="P108">
-        <v>9</v>
+        <v>2.5</v>
       </c>
       <c r="Q108">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R108">
-        <v>1.97</v>
+        <v>2.14</v>
       </c>
       <c r="S108">
-        <v>1.93</v>
+        <v>1.77</v>
       </c>
       <c r="T108">
         <v>2.25</v>
       </c>
       <c r="U108">
-        <v>1.85</v>
+        <v>2.06</v>
       </c>
       <c r="V108">
-        <v>2.05</v>
+        <v>1.84</v>
       </c>
       <c r="W108">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X108">
         <v>-1</v>
       </c>
       <c r="Y108">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z108">
-        <v>0.97</v>
+        <v>-1</v>
       </c>
       <c r="AA108">
-        <v>-1</v>
+        <v>0.77</v>
       </c>
       <c r="AB108">
-        <v>-0.5</v>
+        <v>1.06</v>
       </c>
       <c r="AC108">
-        <v>0.5249999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -10160,7 +10160,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>5210911</v>
+        <v>5210915</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10172,76 +10172,76 @@
         <v>45004.51041666666</v>
       </c>
       <c r="F109" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G109" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J109" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K109">
-        <v>3</v>
+        <v>1.3</v>
       </c>
       <c r="L109">
-        <v>3.1</v>
+        <v>5</v>
       </c>
       <c r="M109">
-        <v>2.45</v>
+        <v>10</v>
       </c>
       <c r="N109">
-        <v>3</v>
+        <v>1.4</v>
       </c>
       <c r="O109">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="P109">
-        <v>2.5</v>
+        <v>9</v>
       </c>
       <c r="Q109">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R109">
-        <v>2.14</v>
+        <v>1.97</v>
       </c>
       <c r="S109">
-        <v>1.77</v>
+        <v>1.93</v>
       </c>
       <c r="T109">
         <v>2.25</v>
       </c>
       <c r="U109">
-        <v>2.06</v>
+        <v>1.85</v>
       </c>
       <c r="V109">
-        <v>1.84</v>
+        <v>2.05</v>
       </c>
       <c r="W109">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X109">
         <v>-1</v>
       </c>
       <c r="Y109">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z109">
-        <v>-1</v>
+        <v>0.97</v>
       </c>
       <c r="AA109">
-        <v>0.77</v>
+        <v>-1</v>
       </c>
       <c r="AB109">
-        <v>1.06</v>
+        <v>-0.5</v>
       </c>
       <c r="AC109">
-        <v>-1</v>
+        <v>0.5249999999999999</v>
       </c>
     </row>
     <row r="110" spans="1:29">
@@ -13364,7 +13364,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>5210955</v>
+        <v>5210954</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -13376,58 +13376,58 @@
         <v>45038.5625</v>
       </c>
       <c r="F145" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G145" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="H145">
+        <v>2</v>
+      </c>
+      <c r="I145">
         <v>1</v>
-      </c>
-      <c r="I145">
-        <v>0</v>
       </c>
       <c r="J145" t="s">
         <v>53</v>
       </c>
       <c r="K145">
+        <v>1.666</v>
+      </c>
+      <c r="L145">
+        <v>3.75</v>
+      </c>
+      <c r="M145">
+        <v>5</v>
+      </c>
+      <c r="N145">
+        <v>1.65</v>
+      </c>
+      <c r="O145">
+        <v>3.6</v>
+      </c>
+      <c r="P145">
+        <v>5.75</v>
+      </c>
+      <c r="Q145">
+        <v>-0.75</v>
+      </c>
+      <c r="R145">
+        <v>1.89</v>
+      </c>
+      <c r="S145">
+        <v>2.01</v>
+      </c>
+      <c r="T145">
         <v>2.25</v>
       </c>
-      <c r="L145">
-        <v>3.4</v>
-      </c>
-      <c r="M145">
-        <v>3.1</v>
-      </c>
-      <c r="N145">
-        <v>2.5</v>
-      </c>
-      <c r="O145">
-        <v>3.4</v>
-      </c>
-      <c r="P145">
-        <v>2.8</v>
-      </c>
-      <c r="Q145">
-        <v>0</v>
-      </c>
-      <c r="R145">
-        <v>1.79</v>
-      </c>
-      <c r="S145">
-        <v>2.11</v>
-      </c>
-      <c r="T145">
-        <v>2.5</v>
-      </c>
       <c r="U145">
-        <v>2.05</v>
+        <v>2.01</v>
       </c>
       <c r="V145">
-        <v>1.85</v>
+        <v>1.89</v>
       </c>
       <c r="W145">
-        <v>1.5</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X145">
         <v>-1</v>
@@ -13436,16 +13436,16 @@
         <v>-1</v>
       </c>
       <c r="Z145">
-        <v>0.79</v>
+        <v>0.445</v>
       </c>
       <c r="AA145">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB145">
-        <v>-1</v>
+        <v>1.01</v>
       </c>
       <c r="AC145">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="146" spans="1:29">
@@ -13453,7 +13453,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>5210954</v>
+        <v>5210955</v>
       </c>
       <c r="C146" t="s">
         <v>28</v>
@@ -13465,58 +13465,58 @@
         <v>45038.5625</v>
       </c>
       <c r="F146" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G146" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="H146">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I146">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J146" t="s">
         <v>53</v>
       </c>
       <c r="K146">
-        <v>1.666</v>
+        <v>2.25</v>
       </c>
       <c r="L146">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M146">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="N146">
-        <v>1.65</v>
+        <v>2.5</v>
       </c>
       <c r="O146">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P146">
-        <v>5.75</v>
+        <v>2.8</v>
       </c>
       <c r="Q146">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R146">
-        <v>1.89</v>
+        <v>1.79</v>
       </c>
       <c r="S146">
-        <v>2.01</v>
+        <v>2.11</v>
       </c>
       <c r="T146">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U146">
-        <v>2.01</v>
+        <v>2.05</v>
       </c>
       <c r="V146">
-        <v>1.89</v>
+        <v>1.85</v>
       </c>
       <c r="W146">
-        <v>0.6499999999999999</v>
+        <v>1.5</v>
       </c>
       <c r="X146">
         <v>-1</v>
@@ -13525,16 +13525,16 @@
         <v>-1</v>
       </c>
       <c r="Z146">
-        <v>0.445</v>
+        <v>0.79</v>
       </c>
       <c r="AA146">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB146">
-        <v>1.01</v>
+        <v>-1</v>
       </c>
       <c r="AC146">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="147" spans="1:29">
@@ -13987,7 +13987,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>5470775</v>
+        <v>5461881</v>
       </c>
       <c r="C152" t="s">
         <v>28</v>
@@ -13999,76 +13999,76 @@
         <v>45041.60416666666</v>
       </c>
       <c r="F152" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G152" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="H152">
+        <v>0</v>
+      </c>
+      <c r="I152">
+        <v>1</v>
+      </c>
+      <c r="J152" t="s">
+        <v>52</v>
+      </c>
+      <c r="K152">
+        <v>2.3</v>
+      </c>
+      <c r="L152">
+        <v>3.2</v>
+      </c>
+      <c r="M152">
+        <v>3.2</v>
+      </c>
+      <c r="N152">
+        <v>2.05</v>
+      </c>
+      <c r="O152">
+        <v>3.2</v>
+      </c>
+      <c r="P152">
         <v>4</v>
       </c>
-      <c r="I152">
+      <c r="Q152">
+        <v>-0.5</v>
+      </c>
+      <c r="R152">
+        <v>2.08</v>
+      </c>
+      <c r="S152">
+        <v>1.82</v>
+      </c>
+      <c r="T152">
         <v>2</v>
       </c>
-      <c r="J152" t="s">
-        <v>53</v>
-      </c>
-      <c r="K152">
-        <v>6</v>
-      </c>
-      <c r="L152">
-        <v>4</v>
-      </c>
-      <c r="M152">
-        <v>1.533</v>
-      </c>
-      <c r="N152">
-        <v>5.25</v>
-      </c>
-      <c r="O152">
-        <v>4.2</v>
-      </c>
-      <c r="P152">
-        <v>1.6</v>
-      </c>
-      <c r="Q152">
-        <v>1</v>
-      </c>
-      <c r="R152">
-        <v>1.84</v>
-      </c>
-      <c r="S152">
-        <v>2.06</v>
-      </c>
-      <c r="T152">
+      <c r="U152">
+        <v>1.93</v>
+      </c>
+      <c r="V152">
+        <v>1.97</v>
+      </c>
+      <c r="W152">
+        <v>-1</v>
+      </c>
+      <c r="X152">
+        <v>-1</v>
+      </c>
+      <c r="Y152">
         <v>3</v>
       </c>
-      <c r="U152">
-        <v>1.95</v>
-      </c>
-      <c r="V152">
-        <v>1.95</v>
-      </c>
-      <c r="W152">
-        <v>4.25</v>
-      </c>
-      <c r="X152">
-        <v>-1</v>
-      </c>
-      <c r="Y152">
-        <v>-1</v>
-      </c>
       <c r="Z152">
-        <v>0.8400000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA152">
-        <v>-1</v>
+        <v>0.8200000000000001</v>
       </c>
       <c r="AB152">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC152">
-        <v>-1</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="153" spans="1:29">
@@ -14076,7 +14076,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>5461881</v>
+        <v>5470775</v>
       </c>
       <c r="C153" t="s">
         <v>28</v>
@@ -14088,76 +14088,76 @@
         <v>45041.60416666666</v>
       </c>
       <c r="F153" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G153" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I153">
+        <v>2</v>
+      </c>
+      <c r="J153" t="s">
+        <v>53</v>
+      </c>
+      <c r="K153">
+        <v>6</v>
+      </c>
+      <c r="L153">
+        <v>4</v>
+      </c>
+      <c r="M153">
+        <v>1.533</v>
+      </c>
+      <c r="N153">
+        <v>5.25</v>
+      </c>
+      <c r="O153">
+        <v>4.2</v>
+      </c>
+      <c r="P153">
+        <v>1.6</v>
+      </c>
+      <c r="Q153">
         <v>1</v>
       </c>
-      <c r="J153" t="s">
-        <v>52</v>
-      </c>
-      <c r="K153">
-        <v>2.3</v>
-      </c>
-      <c r="L153">
-        <v>3.2</v>
-      </c>
-      <c r="M153">
-        <v>3.2</v>
-      </c>
-      <c r="N153">
-        <v>2.05</v>
-      </c>
-      <c r="O153">
-        <v>3.2</v>
-      </c>
-      <c r="P153">
-        <v>4</v>
-      </c>
-      <c r="Q153">
-        <v>-0.5</v>
-      </c>
       <c r="R153">
-        <v>2.08</v>
+        <v>1.84</v>
       </c>
       <c r="S153">
-        <v>1.82</v>
+        <v>2.06</v>
       </c>
       <c r="T153">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U153">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="V153">
-        <v>1.97</v>
+        <v>1.95</v>
       </c>
       <c r="W153">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="X153">
         <v>-1</v>
       </c>
       <c r="Y153">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z153">
-        <v>-1</v>
+        <v>0.8400000000000001</v>
       </c>
       <c r="AA153">
-        <v>0.8200000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB153">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC153">
-        <v>0.97</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="154" spans="1:29">
@@ -14254,7 +14254,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>5471430</v>
+        <v>5475945</v>
       </c>
       <c r="C155" t="s">
         <v>28</v>
@@ -14266,73 +14266,73 @@
         <v>45042.60416666666</v>
       </c>
       <c r="F155" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G155" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H155">
+        <v>3</v>
+      </c>
+      <c r="I155">
         <v>1</v>
       </c>
-      <c r="I155">
-        <v>2</v>
-      </c>
       <c r="J155" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K155">
-        <v>1.95</v>
+        <v>1.363</v>
       </c>
       <c r="L155">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="M155">
-        <v>3.8</v>
+        <v>9</v>
       </c>
       <c r="N155">
-        <v>1.85</v>
+        <v>1.3</v>
       </c>
       <c r="O155">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="P155">
-        <v>4.5</v>
+        <v>12</v>
       </c>
       <c r="Q155">
-        <v>-0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R155">
-        <v>1.88</v>
+        <v>2.04</v>
       </c>
       <c r="S155">
-        <v>2.02</v>
+        <v>1.86</v>
       </c>
       <c r="T155">
         <v>2.25</v>
       </c>
       <c r="U155">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="V155">
-        <v>1.9</v>
+        <v>2.03</v>
       </c>
       <c r="W155">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="X155">
         <v>-1</v>
       </c>
       <c r="Y155">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Z155">
-        <v>-1</v>
+        <v>1.04</v>
       </c>
       <c r="AA155">
-        <v>1.02</v>
+        <v>-1</v>
       </c>
       <c r="AB155">
-        <v>1</v>
+        <v>0.8700000000000001</v>
       </c>
       <c r="AC155">
         <v>-1</v>
@@ -14343,7 +14343,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>5475945</v>
+        <v>5471430</v>
       </c>
       <c r="C156" t="s">
         <v>28</v>
@@ -14355,73 +14355,73 @@
         <v>45042.60416666666</v>
       </c>
       <c r="F156" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="G156" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H156">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I156">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J156" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K156">
-        <v>1.363</v>
+        <v>1.95</v>
       </c>
       <c r="L156">
+        <v>3.4</v>
+      </c>
+      <c r="M156">
+        <v>3.8</v>
+      </c>
+      <c r="N156">
+        <v>1.85</v>
+      </c>
+      <c r="O156">
+        <v>3.5</v>
+      </c>
+      <c r="P156">
         <v>4.5</v>
       </c>
-      <c r="M156">
-        <v>9</v>
-      </c>
-      <c r="N156">
-        <v>1.3</v>
-      </c>
-      <c r="O156">
-        <v>4.75</v>
-      </c>
-      <c r="P156">
-        <v>12</v>
-      </c>
       <c r="Q156">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R156">
-        <v>2.04</v>
+        <v>1.88</v>
       </c>
       <c r="S156">
-        <v>1.86</v>
+        <v>2.02</v>
       </c>
       <c r="T156">
         <v>2.25</v>
       </c>
       <c r="U156">
-        <v>1.87</v>
+        <v>2</v>
       </c>
       <c r="V156">
-        <v>2.03</v>
+        <v>1.9</v>
       </c>
       <c r="W156">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="X156">
         <v>-1</v>
       </c>
       <c r="Y156">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Z156">
-        <v>1.04</v>
+        <v>-1</v>
       </c>
       <c r="AA156">
-        <v>-1</v>
+        <v>1.02</v>
       </c>
       <c r="AB156">
-        <v>0.8700000000000001</v>
+        <v>1</v>
       </c>
       <c r="AC156">
         <v>-1</v>
@@ -14610,7 +14610,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>5466354</v>
+        <v>5466355</v>
       </c>
       <c r="C159" t="s">
         <v>28</v>
@@ -14622,49 +14622,49 @@
         <v>45043.60416666666</v>
       </c>
       <c r="F159" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G159" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H159">
+        <v>4</v>
+      </c>
+      <c r="I159">
         <v>2</v>
-      </c>
-      <c r="I159">
-        <v>1</v>
       </c>
       <c r="J159" t="s">
         <v>53</v>
       </c>
       <c r="K159">
-        <v>1.666</v>
+        <v>1.55</v>
       </c>
       <c r="L159">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="M159">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="N159">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="O159">
-        <v>3.8</v>
+        <v>4.333</v>
       </c>
       <c r="P159">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q159">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R159">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="S159">
-        <v>1.95</v>
+        <v>1.99</v>
       </c>
       <c r="T159">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U159">
         <v>1.93</v>
@@ -14673,7 +14673,7 @@
         <v>1.97</v>
       </c>
       <c r="W159">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="X159">
         <v>-1</v>
@@ -14682,10 +14682,10 @@
         <v>-1</v>
       </c>
       <c r="Z159">
-        <v>0.475</v>
+        <v>0.9099999999999999</v>
       </c>
       <c r="AA159">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB159">
         <v>0.9299999999999999</v>
@@ -14699,7 +14699,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>5466355</v>
+        <v>5466354</v>
       </c>
       <c r="C160" t="s">
         <v>28</v>
@@ -14711,49 +14711,49 @@
         <v>45043.60416666666</v>
       </c>
       <c r="F160" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G160" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H160">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I160">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J160" t="s">
         <v>53</v>
       </c>
       <c r="K160">
-        <v>1.55</v>
+        <v>1.666</v>
       </c>
       <c r="L160">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="M160">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="N160">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="O160">
-        <v>4.333</v>
+        <v>3.8</v>
       </c>
       <c r="P160">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q160">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R160">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="S160">
-        <v>1.99</v>
+        <v>1.95</v>
       </c>
       <c r="T160">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U160">
         <v>1.93</v>
@@ -14762,7 +14762,7 @@
         <v>1.97</v>
       </c>
       <c r="W160">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="X160">
         <v>-1</v>
@@ -14771,10 +14771,10 @@
         <v>-1</v>
       </c>
       <c r="Z160">
-        <v>0.9099999999999999</v>
+        <v>0.475</v>
       </c>
       <c r="AA160">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB160">
         <v>0.9299999999999999</v>
@@ -16123,7 +16123,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>5549244</v>
+        <v>5534214</v>
       </c>
       <c r="C176" t="s">
         <v>28</v>
@@ -16135,58 +16135,58 @@
         <v>45049.70833333334</v>
       </c>
       <c r="F176" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="G176" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H176">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I176">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J176" t="s">
         <v>53</v>
       </c>
       <c r="K176">
-        <v>1.3</v>
+        <v>2.55</v>
       </c>
       <c r="L176">
-        <v>5.5</v>
+        <v>3</v>
       </c>
       <c r="M176">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="N176">
-        <v>1.333</v>
+        <v>2.8</v>
       </c>
       <c r="O176">
-        <v>5.25</v>
+        <v>2.9</v>
       </c>
       <c r="P176">
-        <v>9.5</v>
+        <v>2.875</v>
       </c>
       <c r="Q176">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="R176">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S176">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T176">
-        <v>3</v>
+        <v>1.75</v>
       </c>
       <c r="U176">
-        <v>2.07</v>
+        <v>1.86</v>
       </c>
       <c r="V176">
-        <v>1.83</v>
+        <v>2.04</v>
       </c>
       <c r="W176">
-        <v>0.333</v>
+        <v>1.8</v>
       </c>
       <c r="X176">
         <v>-1</v>
@@ -16195,16 +16195,16 @@
         <v>-1</v>
       </c>
       <c r="Z176">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA176">
         <v>-1</v>
       </c>
       <c r="AB176">
-        <v>1.07</v>
+        <v>-1</v>
       </c>
       <c r="AC176">
-        <v>-1</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="177" spans="1:29">
@@ -16212,7 +16212,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>5534214</v>
+        <v>5549244</v>
       </c>
       <c r="C177" t="s">
         <v>28</v>
@@ -16224,58 +16224,58 @@
         <v>45049.70833333334</v>
       </c>
       <c r="F177" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G177" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H177">
+        <v>5</v>
+      </c>
+      <c r="I177">
         <v>1</v>
-      </c>
-      <c r="I177">
-        <v>0</v>
       </c>
       <c r="J177" t="s">
         <v>53</v>
       </c>
       <c r="K177">
-        <v>2.55</v>
+        <v>1.3</v>
       </c>
       <c r="L177">
+        <v>5.5</v>
+      </c>
+      <c r="M177">
+        <v>10</v>
+      </c>
+      <c r="N177">
+        <v>1.333</v>
+      </c>
+      <c r="O177">
+        <v>5.25</v>
+      </c>
+      <c r="P177">
+        <v>9.5</v>
+      </c>
+      <c r="Q177">
+        <v>-1.5</v>
+      </c>
+      <c r="R177">
+        <v>1.95</v>
+      </c>
+      <c r="S177">
+        <v>1.95</v>
+      </c>
+      <c r="T177">
         <v>3</v>
       </c>
-      <c r="M177">
-        <v>3</v>
-      </c>
-      <c r="N177">
-        <v>2.8</v>
-      </c>
-      <c r="O177">
-        <v>2.9</v>
-      </c>
-      <c r="P177">
-        <v>2.875</v>
-      </c>
-      <c r="Q177">
-        <v>0</v>
-      </c>
-      <c r="R177">
-        <v>1.9</v>
-      </c>
-      <c r="S177">
-        <v>2</v>
-      </c>
-      <c r="T177">
-        <v>1.75</v>
-      </c>
       <c r="U177">
-        <v>1.86</v>
+        <v>2.07</v>
       </c>
       <c r="V177">
-        <v>2.04</v>
+        <v>1.83</v>
       </c>
       <c r="W177">
-        <v>1.8</v>
+        <v>0.333</v>
       </c>
       <c r="X177">
         <v>-1</v>
@@ -16284,16 +16284,16 @@
         <v>-1</v>
       </c>
       <c r="Z177">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AA177">
         <v>-1</v>
       </c>
       <c r="AB177">
-        <v>-1</v>
+        <v>1.07</v>
       </c>
       <c r="AC177">
-        <v>1.04</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="178" spans="1:29">
@@ -17814,7 +17814,7 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>5611042</v>
+        <v>5611043</v>
       </c>
       <c r="C195" t="s">
         <v>28</v>
@@ -17826,76 +17826,76 @@
         <v>45066.5625</v>
       </c>
       <c r="F195" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="G195" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H195">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I195">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J195" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K195">
-        <v>2.3</v>
+        <v>1.5</v>
       </c>
       <c r="L195">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="M195">
-        <v>3.2</v>
+        <v>6.5</v>
       </c>
       <c r="N195">
-        <v>2.25</v>
+        <v>1.65</v>
       </c>
       <c r="O195">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="P195">
-        <v>3.3</v>
+        <v>6</v>
       </c>
       <c r="Q195">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R195">
-        <v>1.95</v>
+        <v>1.89</v>
       </c>
       <c r="S195">
-        <v>1.95</v>
+        <v>2.01</v>
       </c>
       <c r="T195">
         <v>2.25</v>
       </c>
       <c r="U195">
-        <v>1.9</v>
+        <v>2.09</v>
       </c>
       <c r="V195">
-        <v>2</v>
+        <v>1.81</v>
       </c>
       <c r="W195">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X195">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y195">
         <v>-1</v>
       </c>
       <c r="Z195">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA195">
-        <v>-1</v>
+        <v>1.01</v>
       </c>
       <c r="AB195">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AC195">
-        <v>-1</v>
+        <v>0.405</v>
       </c>
     </row>
     <row r="196" spans="1:29">
@@ -17903,7 +17903,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>5611043</v>
+        <v>5611042</v>
       </c>
       <c r="C196" t="s">
         <v>28</v>
@@ -17915,76 +17915,76 @@
         <v>45066.5625</v>
       </c>
       <c r="F196" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="G196" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H196">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I196">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J196" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K196">
-        <v>1.5</v>
+        <v>2.3</v>
       </c>
       <c r="L196">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="M196">
-        <v>6.5</v>
+        <v>3.2</v>
       </c>
       <c r="N196">
-        <v>1.65</v>
+        <v>2.25</v>
       </c>
       <c r="O196">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="P196">
-        <v>6</v>
+        <v>3.3</v>
       </c>
       <c r="Q196">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R196">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="S196">
-        <v>2.01</v>
+        <v>1.95</v>
       </c>
       <c r="T196">
         <v>2.25</v>
       </c>
       <c r="U196">
-        <v>2.09</v>
+        <v>1.9</v>
       </c>
       <c r="V196">
-        <v>1.81</v>
+        <v>2</v>
       </c>
       <c r="W196">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X196">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y196">
         <v>-1</v>
       </c>
       <c r="Z196">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA196">
-        <v>1.01</v>
+        <v>-1</v>
       </c>
       <c r="AB196">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC196">
-        <v>0.405</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="197" spans="1:29">
@@ -18793,7 +18793,7 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>5638885</v>
+        <v>5634388</v>
       </c>
       <c r="C206" t="s">
         <v>28</v>
@@ -18805,58 +18805,58 @@
         <v>45070.60416666666</v>
       </c>
       <c r="F206" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="G206" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="H206">
         <v>2</v>
       </c>
       <c r="I206">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J206" t="s">
         <v>53</v>
       </c>
       <c r="K206">
-        <v>1.363</v>
+        <v>1.45</v>
       </c>
       <c r="L206">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="M206">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="N206">
-        <v>1.363</v>
+        <v>1.45</v>
       </c>
       <c r="O206">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="P206">
-        <v>7.5</v>
+        <v>6</v>
       </c>
       <c r="Q206">
-        <v>-1.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R206">
-        <v>2.06</v>
+        <v>2.07</v>
       </c>
       <c r="S206">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="T206">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U206">
-        <v>2.07</v>
+        <v>1.92</v>
       </c>
       <c r="V206">
-        <v>1.83</v>
+        <v>1.98</v>
       </c>
       <c r="W206">
-        <v>0.363</v>
+        <v>0.45</v>
       </c>
       <c r="X206">
         <v>-1</v>
@@ -18865,16 +18865,16 @@
         <v>-1</v>
       </c>
       <c r="Z206">
-        <v>-1</v>
+        <v>1.07</v>
       </c>
       <c r="AA206">
-        <v>0.8400000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB206">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC206">
-        <v>0.415</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="207" spans="1:29">
@@ -18882,7 +18882,7 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>5634388</v>
+        <v>5638885</v>
       </c>
       <c r="C207" t="s">
         <v>28</v>
@@ -18894,58 +18894,58 @@
         <v>45070.60416666666</v>
       </c>
       <c r="F207" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="G207" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="H207">
         <v>2</v>
       </c>
       <c r="I207">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J207" t="s">
         <v>53</v>
       </c>
       <c r="K207">
-        <v>1.45</v>
+        <v>1.363</v>
       </c>
       <c r="L207">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="M207">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="N207">
-        <v>1.45</v>
+        <v>1.363</v>
       </c>
       <c r="O207">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="P207">
-        <v>6</v>
+        <v>7.5</v>
       </c>
       <c r="Q207">
-        <v>-1.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R207">
+        <v>2.06</v>
+      </c>
+      <c r="S207">
+        <v>1.84</v>
+      </c>
+      <c r="T207">
+        <v>3.25</v>
+      </c>
+      <c r="U207">
         <v>2.07</v>
       </c>
-      <c r="S207">
+      <c r="V207">
         <v>1.83</v>
       </c>
-      <c r="T207">
-        <v>3</v>
-      </c>
-      <c r="U207">
-        <v>1.92</v>
-      </c>
-      <c r="V207">
-        <v>1.98</v>
-      </c>
       <c r="W207">
-        <v>0.45</v>
+        <v>0.363</v>
       </c>
       <c r="X207">
         <v>-1</v>
@@ -18954,16 +18954,16 @@
         <v>-1</v>
       </c>
       <c r="Z207">
-        <v>1.07</v>
+        <v>-1</v>
       </c>
       <c r="AA207">
-        <v>-1</v>
+        <v>0.8400000000000001</v>
       </c>
       <c r="AB207">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC207">
-        <v>0.98</v>
+        <v>0.415</v>
       </c>
     </row>
     <row r="208" spans="1:29">
@@ -19416,7 +19416,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>5703047</v>
+        <v>5701613</v>
       </c>
       <c r="C213" t="s">
         <v>28</v>
@@ -19428,13 +19428,13 @@
         <v>45074.58333333334</v>
       </c>
       <c r="F213" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G213" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H213">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I213">
         <v>0</v>
@@ -19443,43 +19443,43 @@
         <v>53</v>
       </c>
       <c r="K213">
-        <v>1.5</v>
+        <v>2.6</v>
       </c>
       <c r="L213">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="M213">
-        <v>6</v>
+        <v>2.7</v>
       </c>
       <c r="N213">
-        <v>1.25</v>
+        <v>2.45</v>
       </c>
       <c r="O213">
-        <v>5.75</v>
+        <v>3.1</v>
       </c>
       <c r="P213">
-        <v>12</v>
+        <v>3.1</v>
       </c>
       <c r="Q213">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R213">
+        <v>2.075</v>
+      </c>
+      <c r="S213">
+        <v>1.725</v>
+      </c>
+      <c r="T213">
         <v>2</v>
       </c>
-      <c r="S213">
-        <v>1.9</v>
-      </c>
-      <c r="T213">
-        <v>3</v>
-      </c>
       <c r="U213">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="V213">
-        <v>1.97</v>
+        <v>1.95</v>
       </c>
       <c r="W213">
-        <v>0.25</v>
+        <v>1.45</v>
       </c>
       <c r="X213">
         <v>-1</v>
@@ -19488,16 +19488,16 @@
         <v>-1</v>
       </c>
       <c r="Z213">
-        <v>1</v>
+        <v>1.075</v>
       </c>
       <c r="AA213">
         <v>-1</v>
       </c>
       <c r="AB213">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC213">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="214" spans="1:29">
@@ -19505,7 +19505,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>5701612</v>
+        <v>5703047</v>
       </c>
       <c r="C214" t="s">
         <v>28</v>
@@ -19517,58 +19517,58 @@
         <v>45074.58333333334</v>
       </c>
       <c r="F214" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G214" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="H214">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I214">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J214" t="s">
         <v>53</v>
       </c>
       <c r="K214">
-        <v>1.909</v>
+        <v>1.5</v>
       </c>
       <c r="L214">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="M214">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N214">
-        <v>2.4</v>
+        <v>1.25</v>
       </c>
       <c r="O214">
-        <v>2.75</v>
+        <v>5.75</v>
       </c>
       <c r="P214">
-        <v>3.5</v>
+        <v>12</v>
       </c>
       <c r="Q214">
-        <v>-0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R214">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="S214">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T214">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="U214">
-        <v>1.82</v>
+        <v>1.93</v>
       </c>
       <c r="V214">
-        <v>2.08</v>
+        <v>1.97</v>
       </c>
       <c r="W214">
-        <v>1.4</v>
+        <v>0.25</v>
       </c>
       <c r="X214">
         <v>-1</v>
@@ -19577,16 +19577,16 @@
         <v>-1</v>
       </c>
       <c r="Z214">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AA214">
         <v>-1</v>
       </c>
       <c r="AB214">
-        <v>0.8200000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC214">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="215" spans="1:29">
@@ -19594,7 +19594,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>5701613</v>
+        <v>5705727</v>
       </c>
       <c r="C215" t="s">
         <v>28</v>
@@ -19606,76 +19606,76 @@
         <v>45074.58333333334</v>
       </c>
       <c r="F215" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="G215" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="H215">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I215">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J215" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K215">
-        <v>2.6</v>
+        <v>1.909</v>
       </c>
       <c r="L215">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M215">
-        <v>2.7</v>
+        <v>3.75</v>
       </c>
       <c r="N215">
-        <v>2.45</v>
+        <v>2</v>
       </c>
       <c r="O215">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="P215">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="Q215">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R215">
-        <v>2.075</v>
+        <v>2.025</v>
       </c>
       <c r="S215">
-        <v>1.725</v>
+        <v>1.775</v>
       </c>
       <c r="T215">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U215">
-        <v>1.95</v>
+        <v>2.07</v>
       </c>
       <c r="V215">
-        <v>1.95</v>
+        <v>1.83</v>
       </c>
       <c r="W215">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="X215">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y215">
         <v>-1</v>
       </c>
       <c r="Z215">
-        <v>1.075</v>
+        <v>-1</v>
       </c>
       <c r="AA215">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB215">
-        <v>-1</v>
+        <v>1.07</v>
       </c>
       <c r="AC215">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="216" spans="1:29">
@@ -19683,7 +19683,7 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>5697401</v>
+        <v>5705884</v>
       </c>
       <c r="C216" t="s">
         <v>28</v>
@@ -19695,56 +19695,56 @@
         <v>45074.58333333334</v>
       </c>
       <c r="F216" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G216" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="H216">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I216">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J216" t="s">
         <v>52</v>
       </c>
       <c r="K216">
-        <v>1.4</v>
+        <v>2.2</v>
       </c>
       <c r="L216">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="M216">
-        <v>8</v>
+        <v>3.1</v>
       </c>
       <c r="N216">
-        <v>1.4</v>
+        <v>1.909</v>
       </c>
       <c r="O216">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="P216">
-        <v>8</v>
+        <v>3.8</v>
       </c>
       <c r="Q216">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R216">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="S216">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="T216">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U216">
+        <v>1.99</v>
+      </c>
+      <c r="V216">
         <v>1.91</v>
       </c>
-      <c r="V216">
-        <v>1.99</v>
-      </c>
       <c r="W216">
         <v>-1</v>
       </c>
@@ -19752,19 +19752,19 @@
         <v>-1</v>
       </c>
       <c r="Y216">
-        <v>7</v>
+        <v>2.8</v>
       </c>
       <c r="Z216">
         <v>-1</v>
       </c>
       <c r="AA216">
-        <v>0.95</v>
+        <v>0.9199999999999999</v>
       </c>
       <c r="AB216">
-        <v>-1</v>
+        <v>0.99</v>
       </c>
       <c r="AC216">
-        <v>0.99</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="217" spans="1:29">
@@ -19772,7 +19772,7 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>5705727</v>
+        <v>5697401</v>
       </c>
       <c r="C217" t="s">
         <v>28</v>
@@ -19784,76 +19784,76 @@
         <v>45074.58333333334</v>
       </c>
       <c r="F217" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G217" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H217">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I217">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J217" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K217">
-        <v>1.909</v>
+        <v>1.4</v>
       </c>
       <c r="L217">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="M217">
-        <v>3.75</v>
+        <v>8</v>
       </c>
       <c r="N217">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="O217">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="P217">
-        <v>3.6</v>
+        <v>8</v>
       </c>
       <c r="Q217">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R217">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="S217">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="T217">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U217">
-        <v>2.07</v>
+        <v>1.91</v>
       </c>
       <c r="V217">
-        <v>1.83</v>
+        <v>1.99</v>
       </c>
       <c r="W217">
         <v>-1</v>
       </c>
       <c r="X217">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y217">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="Z217">
         <v>-1</v>
       </c>
       <c r="AA217">
-        <v>0.7749999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AB217">
-        <v>1.07</v>
+        <v>-1</v>
       </c>
       <c r="AC217">
-        <v>-1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="218" spans="1:29">
@@ -19861,7 +19861,7 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>5705884</v>
+        <v>5713343</v>
       </c>
       <c r="C218" t="s">
         <v>28</v>
@@ -19873,76 +19873,76 @@
         <v>45074.58333333334</v>
       </c>
       <c r="F218" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G218" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="H218">
+        <v>2</v>
+      </c>
+      <c r="I218">
         <v>1</v>
       </c>
-      <c r="I218">
-        <v>2</v>
-      </c>
       <c r="J218" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K218">
-        <v>2.2</v>
+        <v>2.875</v>
       </c>
       <c r="L218">
         <v>3.5</v>
       </c>
       <c r="M218">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="N218">
-        <v>1.909</v>
+        <v>3</v>
       </c>
       <c r="O218">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P218">
-        <v>3.8</v>
+        <v>2.2</v>
       </c>
       <c r="Q218">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R218">
-        <v>1.98</v>
+        <v>1.9</v>
       </c>
       <c r="S218">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="T218">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U218">
-        <v>1.99</v>
+        <v>2.06</v>
       </c>
       <c r="V218">
-        <v>1.91</v>
+        <v>1.84</v>
       </c>
       <c r="W218">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X218">
         <v>-1</v>
       </c>
       <c r="Y218">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Z218">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA218">
-        <v>0.9199999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB218">
-        <v>0.99</v>
+        <v>0</v>
       </c>
       <c r="AC218">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="219" spans="1:29">
@@ -19950,7 +19950,7 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>5713343</v>
+        <v>5697402</v>
       </c>
       <c r="C219" t="s">
         <v>28</v>
@@ -19962,76 +19962,76 @@
         <v>45074.58333333334</v>
       </c>
       <c r="F219" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G219" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H219">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I219">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J219" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K219">
-        <v>2.875</v>
+        <v>2.25</v>
       </c>
       <c r="L219">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M219">
+        <v>3.1</v>
+      </c>
+      <c r="N219">
+        <v>2.2</v>
+      </c>
+      <c r="O219">
+        <v>3.3</v>
+      </c>
+      <c r="P219">
+        <v>3.3</v>
+      </c>
+      <c r="Q219">
+        <v>-0.25</v>
+      </c>
+      <c r="R219">
+        <v>1.97</v>
+      </c>
+      <c r="S219">
+        <v>1.93</v>
+      </c>
+      <c r="T219">
+        <v>2.5</v>
+      </c>
+      <c r="U219">
+        <v>1.86</v>
+      </c>
+      <c r="V219">
+        <v>2.04</v>
+      </c>
+      <c r="W219">
+        <v>-1</v>
+      </c>
+      <c r="X219">
         <v>2.3</v>
       </c>
-      <c r="N219">
-        <v>3</v>
-      </c>
-      <c r="O219">
-        <v>3.75</v>
-      </c>
-      <c r="P219">
-        <v>2.2</v>
-      </c>
-      <c r="Q219">
-        <v>0.25</v>
-      </c>
-      <c r="R219">
-        <v>1.9</v>
-      </c>
-      <c r="S219">
-        <v>2</v>
-      </c>
-      <c r="T219">
-        <v>3</v>
-      </c>
-      <c r="U219">
-        <v>2.06</v>
-      </c>
-      <c r="V219">
-        <v>1.84</v>
-      </c>
-      <c r="W219">
-        <v>2</v>
-      </c>
-      <c r="X219">
-        <v>-1</v>
-      </c>
       <c r="Y219">
         <v>-1</v>
       </c>
       <c r="Z219">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AA219">
-        <v>-1</v>
+        <v>0.465</v>
       </c>
       <c r="AB219">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC219">
-        <v>-0</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="220" spans="1:29">
@@ -20039,7 +20039,7 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>5697402</v>
+        <v>5701612</v>
       </c>
       <c r="C220" t="s">
         <v>28</v>
@@ -20051,76 +20051,76 @@
         <v>45074.58333333334</v>
       </c>
       <c r="F220" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="G220" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H220">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I220">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J220" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K220">
-        <v>2.25</v>
+        <v>1.909</v>
       </c>
       <c r="L220">
         <v>3.4</v>
       </c>
       <c r="M220">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="N220">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="O220">
-        <v>3.3</v>
+        <v>2.75</v>
       </c>
       <c r="P220">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="Q220">
         <v>-0.25</v>
       </c>
       <c r="R220">
-        <v>1.97</v>
+        <v>2.1</v>
       </c>
       <c r="S220">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="T220">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="U220">
-        <v>1.86</v>
+        <v>1.82</v>
       </c>
       <c r="V220">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="W220">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="X220">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y220">
         <v>-1</v>
       </c>
       <c r="Z220">
-        <v>-0.5</v>
+        <v>1.1</v>
       </c>
       <c r="AA220">
-        <v>0.465</v>
+        <v>-1</v>
       </c>
       <c r="AB220">
-        <v>-1</v>
+        <v>0.8200000000000001</v>
       </c>
       <c r="AC220">
-        <v>1.04</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="221" spans="1:29">
@@ -20128,7 +20128,7 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>5732767</v>
+        <v>5734136</v>
       </c>
       <c r="C221" t="s">
         <v>28</v>
@@ -20140,76 +20140,76 @@
         <v>45081.5625</v>
       </c>
       <c r="F221" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="G221" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H221">
+        <v>1</v>
+      </c>
+      <c r="I221">
+        <v>1</v>
+      </c>
+      <c r="J221" t="s">
+        <v>54</v>
+      </c>
+      <c r="K221">
+        <v>1.95</v>
+      </c>
+      <c r="L221">
+        <v>3.6</v>
+      </c>
+      <c r="M221">
+        <v>3.6</v>
+      </c>
+      <c r="N221">
+        <v>1.65</v>
+      </c>
+      <c r="O221">
+        <v>4</v>
+      </c>
+      <c r="P221">
+        <v>4.75</v>
+      </c>
+      <c r="Q221">
+        <v>-0.75</v>
+      </c>
+      <c r="R221">
+        <v>1.84</v>
+      </c>
+      <c r="S221">
+        <v>2.06</v>
+      </c>
+      <c r="T221">
         <v>3</v>
       </c>
-      <c r="I221">
-        <v>0</v>
-      </c>
-      <c r="J221" t="s">
-        <v>53</v>
-      </c>
-      <c r="K221">
-        <v>3.4</v>
-      </c>
-      <c r="L221">
-        <v>3.3</v>
-      </c>
-      <c r="M221">
-        <v>2.15</v>
-      </c>
-      <c r="N221">
+      <c r="U221">
+        <v>1.9</v>
+      </c>
+      <c r="V221">
+        <v>2</v>
+      </c>
+      <c r="W221">
+        <v>-1</v>
+      </c>
+      <c r="X221">
         <v>3</v>
       </c>
-      <c r="O221">
-        <v>3.2</v>
-      </c>
-      <c r="P221">
-        <v>2.45</v>
-      </c>
-      <c r="Q221">
-        <v>0.25</v>
-      </c>
-      <c r="R221">
-        <v>1.8</v>
-      </c>
-      <c r="S221">
-        <v>2.14</v>
-      </c>
-      <c r="T221">
-        <v>2</v>
-      </c>
-      <c r="U221">
-        <v>1.89</v>
-      </c>
-      <c r="V221">
-        <v>2.01</v>
-      </c>
-      <c r="W221">
-        <v>2</v>
-      </c>
-      <c r="X221">
-        <v>-1</v>
-      </c>
       <c r="Y221">
         <v>-1</v>
       </c>
       <c r="Z221">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA221">
-        <v>-1</v>
+        <v>1.06</v>
       </c>
       <c r="AB221">
-        <v>0.8899999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC221">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="222" spans="1:29">
@@ -20217,7 +20217,7 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>5776609</v>
+        <v>5732767</v>
       </c>
       <c r="C222" t="s">
         <v>28</v>
@@ -20229,49 +20229,49 @@
         <v>45081.5625</v>
       </c>
       <c r="F222" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="G222" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H222">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I222">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J222" t="s">
         <v>53</v>
       </c>
       <c r="K222">
-        <v>2.25</v>
+        <v>3.4</v>
       </c>
       <c r="L222">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M222">
-        <v>2.9</v>
+        <v>2.15</v>
       </c>
       <c r="N222">
-        <v>1.571</v>
+        <v>3</v>
       </c>
       <c r="O222">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="P222">
-        <v>5.75</v>
+        <v>2.45</v>
       </c>
       <c r="Q222">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R222">
-        <v>2.01</v>
+        <v>1.8</v>
       </c>
       <c r="S222">
-        <v>1.89</v>
+        <v>2.14</v>
       </c>
       <c r="T222">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U222">
         <v>1.89</v>
@@ -20280,7 +20280,7 @@
         <v>2.01</v>
       </c>
       <c r="W222">
-        <v>0.571</v>
+        <v>2</v>
       </c>
       <c r="X222">
         <v>-1</v>
@@ -20289,10 +20289,10 @@
         <v>-1</v>
       </c>
       <c r="Z222">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AA222">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB222">
         <v>0.8899999999999999</v>
@@ -20306,7 +20306,7 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>5730415</v>
+        <v>5776609</v>
       </c>
       <c r="C223" t="s">
         <v>28</v>
@@ -20318,10 +20318,10 @@
         <v>45081.5625</v>
       </c>
       <c r="F223" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G223" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H223">
         <v>2</v>
@@ -20336,40 +20336,40 @@
         <v>2.25</v>
       </c>
       <c r="L223">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M223">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="N223">
-        <v>2.05</v>
+        <v>1.571</v>
       </c>
       <c r="O223">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P223">
-        <v>3.25</v>
+        <v>5.75</v>
       </c>
       <c r="Q223">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R223">
-        <v>1.85</v>
+        <v>2.01</v>
       </c>
       <c r="S223">
-        <v>2.05</v>
+        <v>1.89</v>
       </c>
       <c r="T223">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U223">
-        <v>2.02</v>
+        <v>1.89</v>
       </c>
       <c r="V223">
-        <v>1.88</v>
+        <v>2.01</v>
       </c>
       <c r="W223">
-        <v>1.05</v>
+        <v>0.571</v>
       </c>
       <c r="X223">
         <v>-1</v>
@@ -20378,16 +20378,16 @@
         <v>-1</v>
       </c>
       <c r="Z223">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA223">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB223">
-        <v>0.51</v>
+        <v>0.8899999999999999</v>
       </c>
       <c r="AC223">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="224" spans="1:29">
@@ -20395,7 +20395,7 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>5734136</v>
+        <v>5776610</v>
       </c>
       <c r="C224" t="s">
         <v>28</v>
@@ -20407,76 +20407,76 @@
         <v>45081.5625</v>
       </c>
       <c r="F224" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="G224" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H224">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I224">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J224" t="s">
         <v>54</v>
       </c>
       <c r="K224">
-        <v>1.95</v>
+        <v>2.75</v>
       </c>
       <c r="L224">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M224">
-        <v>3.6</v>
+        <v>2.45</v>
       </c>
       <c r="N224">
-        <v>1.65</v>
+        <v>2.625</v>
       </c>
       <c r="O224">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P224">
-        <v>4.75</v>
+        <v>2.45</v>
       </c>
       <c r="Q224">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R224">
-        <v>1.84</v>
+        <v>2.04</v>
       </c>
       <c r="S224">
-        <v>2.06</v>
+        <v>1.86</v>
       </c>
       <c r="T224">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U224">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="V224">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="W224">
         <v>-1</v>
       </c>
       <c r="X224">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Y224">
         <v>-1</v>
       </c>
       <c r="Z224">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA224">
-        <v>1.06</v>
+        <v>-0</v>
       </c>
       <c r="AB224">
-        <v>-1</v>
+        <v>0.8799999999999999</v>
       </c>
       <c r="AC224">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="225" spans="1:29">
@@ -20484,7 +20484,7 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>5776610</v>
+        <v>5730415</v>
       </c>
       <c r="C225" t="s">
         <v>28</v>
@@ -20496,76 +20496,76 @@
         <v>45081.5625</v>
       </c>
       <c r="F225" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G225" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H225">
         <v>2</v>
       </c>
       <c r="I225">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J225" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K225">
+        <v>2.25</v>
+      </c>
+      <c r="L225">
+        <v>3.5</v>
+      </c>
+      <c r="M225">
+        <v>3</v>
+      </c>
+      <c r="N225">
+        <v>2.05</v>
+      </c>
+      <c r="O225">
+        <v>3.6</v>
+      </c>
+      <c r="P225">
+        <v>3.25</v>
+      </c>
+      <c r="Q225">
+        <v>-0.25</v>
+      </c>
+      <c r="R225">
+        <v>1.85</v>
+      </c>
+      <c r="S225">
+        <v>2.05</v>
+      </c>
+      <c r="T225">
         <v>2.75</v>
       </c>
-      <c r="L225">
-        <v>3.4</v>
-      </c>
-      <c r="M225">
-        <v>2.45</v>
-      </c>
-      <c r="N225">
-        <v>2.625</v>
-      </c>
-      <c r="O225">
-        <v>3.75</v>
-      </c>
-      <c r="P225">
-        <v>2.45</v>
-      </c>
-      <c r="Q225">
-        <v>0</v>
-      </c>
-      <c r="R225">
-        <v>2.04</v>
-      </c>
-      <c r="S225">
-        <v>1.86</v>
-      </c>
-      <c r="T225">
-        <v>3.25</v>
-      </c>
       <c r="U225">
+        <v>2.02</v>
+      </c>
+      <c r="V225">
         <v>1.88</v>
       </c>
-      <c r="V225">
-        <v>2.02</v>
-      </c>
       <c r="W225">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X225">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y225">
         <v>-1</v>
       </c>
       <c r="Z225">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA225">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB225">
-        <v>0.8799999999999999</v>
+        <v>0.51</v>
       </c>
       <c r="AC225">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="226" spans="1:29">
@@ -20573,7 +20573,7 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>5762751</v>
+        <v>5734498</v>
       </c>
       <c r="C226" t="s">
         <v>28</v>
@@ -20585,55 +20585,55 @@
         <v>45081.66666666666</v>
       </c>
       <c r="F226" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="G226" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="H226">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I226">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J226" t="s">
         <v>54</v>
       </c>
       <c r="K226">
-        <v>3.1</v>
+        <v>2.1</v>
       </c>
       <c r="L226">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M226">
-        <v>2.2</v>
+        <v>3.4</v>
       </c>
       <c r="N226">
-        <v>2.875</v>
+        <v>2.05</v>
       </c>
       <c r="O226">
         <v>3.3</v>
       </c>
       <c r="P226">
-        <v>2.45</v>
+        <v>4</v>
       </c>
       <c r="Q226">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R226">
-        <v>1.78</v>
+        <v>2.08</v>
       </c>
       <c r="S226">
-        <v>2.125</v>
+        <v>1.82</v>
       </c>
       <c r="T226">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U226">
-        <v>1.92</v>
+        <v>1.82</v>
       </c>
       <c r="V226">
-        <v>1.98</v>
+        <v>2.08</v>
       </c>
       <c r="W226">
         <v>-1</v>
@@ -20645,16 +20645,16 @@
         <v>-1</v>
       </c>
       <c r="Z226">
-        <v>0.39</v>
+        <v>-1</v>
       </c>
       <c r="AA226">
-        <v>-0.5</v>
+        <v>0.8200000000000001</v>
       </c>
       <c r="AB226">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC226">
-        <v>0.49</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="227" spans="1:29">
@@ -20662,7 +20662,7 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>5737343</v>
+        <v>5762751</v>
       </c>
       <c r="C227" t="s">
         <v>28</v>
@@ -20674,10 +20674,10 @@
         <v>45081.66666666666</v>
       </c>
       <c r="F227" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="G227" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="H227">
         <v>1</v>
@@ -20689,40 +20689,40 @@
         <v>54</v>
       </c>
       <c r="K227">
-        <v>2.6</v>
+        <v>3.1</v>
       </c>
       <c r="L227">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M227">
-        <v>2.6</v>
+        <v>2.2</v>
       </c>
       <c r="N227">
-        <v>2.45</v>
+        <v>2.875</v>
       </c>
       <c r="O227">
         <v>3.3</v>
       </c>
       <c r="P227">
-        <v>2.875</v>
+        <v>2.45</v>
       </c>
       <c r="Q227">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R227">
-        <v>2.05</v>
+        <v>1.78</v>
       </c>
       <c r="S227">
-        <v>1.75</v>
+        <v>2.125</v>
       </c>
       <c r="T227">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U227">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="V227">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="W227">
         <v>-1</v>
@@ -20734,16 +20734,16 @@
         <v>-1</v>
       </c>
       <c r="Z227">
+        <v>0.39</v>
+      </c>
+      <c r="AA227">
         <v>-0.5</v>
       </c>
-      <c r="AA227">
-        <v>0.375</v>
-      </c>
       <c r="AB227">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC227">
-        <v>0.99</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="228" spans="1:29">
@@ -20751,7 +20751,7 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>5734498</v>
+        <v>5738382</v>
       </c>
       <c r="C228" t="s">
         <v>28</v>
@@ -20763,76 +20763,76 @@
         <v>45081.66666666666</v>
       </c>
       <c r="F228" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G228" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H228">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I228">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J228" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K228">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="L228">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M228">
-        <v>3.4</v>
+        <v>2.2</v>
       </c>
       <c r="N228">
-        <v>2.05</v>
+        <v>2.7</v>
       </c>
       <c r="O228">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P228">
-        <v>4</v>
+        <v>2.45</v>
       </c>
       <c r="Q228">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R228">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="S228">
-        <v>1.82</v>
+        <v>1.84</v>
       </c>
       <c r="T228">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U228">
-        <v>1.82</v>
+        <v>1.95</v>
       </c>
       <c r="V228">
-        <v>2.08</v>
+        <v>1.95</v>
       </c>
       <c r="W228">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X228">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y228">
         <v>-1</v>
       </c>
       <c r="Z228">
-        <v>-1</v>
+        <v>1.06</v>
       </c>
       <c r="AA228">
-        <v>0.8200000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB228">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC228">
-        <v>1.08</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="229" spans="1:29">
@@ -20929,7 +20929,7 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>5738382</v>
+        <v>5737343</v>
       </c>
       <c r="C230" t="s">
         <v>28</v>
@@ -20941,76 +20941,76 @@
         <v>45081.66666666666</v>
       </c>
       <c r="F230" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="G230" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H230">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I230">
         <v>1</v>
       </c>
       <c r="J230" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K230">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="L230">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M230">
-        <v>2.2</v>
+        <v>2.6</v>
       </c>
       <c r="N230">
-        <v>2.7</v>
+        <v>2.45</v>
       </c>
       <c r="O230">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P230">
-        <v>2.45</v>
+        <v>2.875</v>
       </c>
       <c r="Q230">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R230">
-        <v>2.06</v>
+        <v>2.05</v>
       </c>
       <c r="S230">
-        <v>1.84</v>
+        <v>1.75</v>
       </c>
       <c r="T230">
         <v>2.5</v>
       </c>
       <c r="U230">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="V230">
-        <v>1.95</v>
+        <v>1.99</v>
       </c>
       <c r="W230">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X230">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y230">
         <v>-1</v>
       </c>
       <c r="Z230">
-        <v>1.06</v>
+        <v>-0.5</v>
       </c>
       <c r="AA230">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
       <c r="AB230">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC230">
-        <v>-1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="231" spans="1:29">
@@ -26447,7 +26447,7 @@
         <v>290</v>
       </c>
       <c r="B292">
-        <v>6809386</v>
+        <v>6809222</v>
       </c>
       <c r="C292" t="s">
         <v>28</v>
@@ -26459,76 +26459,76 @@
         <v>45196.58333333334</v>
       </c>
       <c r="F292" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="G292" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="H292">
+        <v>1</v>
+      </c>
+      <c r="I292">
         <v>2</v>
       </c>
-      <c r="I292">
-        <v>0</v>
-      </c>
       <c r="J292" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K292">
-        <v>1.285</v>
+        <v>1.909</v>
       </c>
       <c r="L292">
-        <v>6</v>
+        <v>3.6</v>
       </c>
       <c r="M292">
-        <v>8</v>
+        <v>3.75</v>
       </c>
       <c r="N292">
-        <v>1.166</v>
+        <v>2.15</v>
       </c>
       <c r="O292">
-        <v>8</v>
+        <v>3.75</v>
       </c>
       <c r="P292">
-        <v>15</v>
+        <v>3.25</v>
       </c>
       <c r="Q292">
-        <v>-2</v>
+        <v>-0.25</v>
       </c>
       <c r="R292">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="S292">
-        <v>2.05</v>
+        <v>2.06</v>
       </c>
       <c r="T292">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U292">
-        <v>1.99</v>
+        <v>2.02</v>
       </c>
       <c r="V292">
-        <v>1.91</v>
+        <v>1.88</v>
       </c>
       <c r="W292">
-        <v>0.1659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X292">
         <v>-1</v>
       </c>
       <c r="Y292">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Z292">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA292">
+        <v>1.06</v>
+      </c>
+      <c r="AB292">
+        <v>0</v>
+      </c>
+      <c r="AC292">
         <v>-0</v>
-      </c>
-      <c r="AB292">
-        <v>-1</v>
-      </c>
-      <c r="AC292">
-        <v>0.9099999999999999</v>
       </c>
     </row>
     <row r="293" spans="1:29">
@@ -26536,7 +26536,7 @@
         <v>291</v>
       </c>
       <c r="B293">
-        <v>6809222</v>
+        <v>6809383</v>
       </c>
       <c r="C293" t="s">
         <v>28</v>
@@ -26548,76 +26548,76 @@
         <v>45196.58333333334</v>
       </c>
       <c r="F293" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G293" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="H293">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I293">
         <v>2</v>
       </c>
       <c r="J293" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K293">
-        <v>1.909</v>
+        <v>1.666</v>
       </c>
       <c r="L293">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M293">
-        <v>3.75</v>
+        <v>5.5</v>
       </c>
       <c r="N293">
-        <v>2.15</v>
+        <v>1.5</v>
       </c>
       <c r="O293">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="P293">
-        <v>3.25</v>
+        <v>6.5</v>
       </c>
       <c r="Q293">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R293">
-        <v>1.87</v>
+        <v>1.93</v>
       </c>
       <c r="S293">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="T293">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U293">
-        <v>2.02</v>
+        <v>1.92</v>
       </c>
       <c r="V293">
-        <v>1.88</v>
+        <v>1.98</v>
       </c>
       <c r="W293">
         <v>-1</v>
       </c>
       <c r="X293">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y293">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Z293">
         <v>-1</v>
       </c>
       <c r="AA293">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AB293">
-        <v>0</v>
+        <v>0.9199999999999999</v>
       </c>
       <c r="AC293">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="294" spans="1:29">
@@ -26625,7 +26625,7 @@
         <v>292</v>
       </c>
       <c r="B294">
-        <v>6809383</v>
+        <v>6809386</v>
       </c>
       <c r="C294" t="s">
         <v>28</v>
@@ -26637,76 +26637,76 @@
         <v>45196.58333333334</v>
       </c>
       <c r="F294" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="G294" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="H294">
         <v>2</v>
       </c>
       <c r="I294">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J294" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K294">
-        <v>1.666</v>
+        <v>1.285</v>
       </c>
       <c r="L294">
-        <v>3.5</v>
+        <v>6</v>
       </c>
       <c r="M294">
-        <v>5.5</v>
+        <v>8</v>
       </c>
       <c r="N294">
-        <v>1.5</v>
+        <v>1.166</v>
       </c>
       <c r="O294">
-        <v>4.2</v>
+        <v>8</v>
       </c>
       <c r="P294">
-        <v>6.5</v>
+        <v>15</v>
       </c>
       <c r="Q294">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="R294">
-        <v>1.93</v>
+        <v>1.85</v>
       </c>
       <c r="S294">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T294">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="U294">
-        <v>1.92</v>
+        <v>1.99</v>
       </c>
       <c r="V294">
-        <v>1.98</v>
+        <v>1.91</v>
       </c>
       <c r="W294">
-        <v>-1</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X294">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y294">
         <v>-1</v>
       </c>
       <c r="Z294">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA294">
-        <v>1</v>
+        <v>-0</v>
       </c>
       <c r="AB294">
-        <v>0.9199999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC294">
-        <v>-1</v>
+        <v>0.9099999999999999</v>
       </c>
     </row>
     <row r="295" spans="1:29">
@@ -26714,7 +26714,7 @@
         <v>293</v>
       </c>
       <c r="B295">
-        <v>6809384</v>
+        <v>6809223</v>
       </c>
       <c r="C295" t="s">
         <v>28</v>
@@ -26726,19 +26726,19 @@
         <v>45196.6875</v>
       </c>
       <c r="F295" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="G295" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="H295">
         <v>0</v>
       </c>
       <c r="I295">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J295" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K295">
         <v>2.625</v>
@@ -26750,52 +26750,52 @@
         <v>2.875</v>
       </c>
       <c r="N295">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="O295">
+        <v>3</v>
+      </c>
+      <c r="P295">
         <v>3.1</v>
       </c>
-      <c r="P295">
-        <v>2.9</v>
-      </c>
       <c r="Q295">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R295">
-        <v>1.85</v>
+        <v>2.125</v>
       </c>
       <c r="S295">
-        <v>2.05</v>
+        <v>1.78</v>
       </c>
       <c r="T295">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U295">
-        <v>2.08</v>
+        <v>2.03</v>
       </c>
       <c r="V295">
-        <v>1.82</v>
+        <v>1.87</v>
       </c>
       <c r="W295">
         <v>-1</v>
       </c>
       <c r="X295">
+        <v>-1</v>
+      </c>
+      <c r="Y295">
         <v>2.1</v>
       </c>
-      <c r="Y295">
-        <v>-1</v>
-      </c>
       <c r="Z295">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA295">
-        <v>-0</v>
+        <v>0.78</v>
       </c>
       <c r="AB295">
         <v>-1</v>
       </c>
       <c r="AC295">
-        <v>0.8200000000000001</v>
+        <v>0.8700000000000001</v>
       </c>
     </row>
     <row r="296" spans="1:29">
@@ -26803,7 +26803,7 @@
         <v>294</v>
       </c>
       <c r="B296">
-        <v>6809223</v>
+        <v>6809384</v>
       </c>
       <c r="C296" t="s">
         <v>28</v>
@@ -26815,19 +26815,19 @@
         <v>45196.6875</v>
       </c>
       <c r="F296" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="G296" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="H296">
         <v>0</v>
       </c>
       <c r="I296">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J296" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K296">
         <v>2.625</v>
@@ -26839,52 +26839,52 @@
         <v>2.875</v>
       </c>
       <c r="N296">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="O296">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="P296">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="Q296">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R296">
-        <v>2.125</v>
+        <v>1.85</v>
       </c>
       <c r="S296">
-        <v>1.78</v>
+        <v>2.05</v>
       </c>
       <c r="T296">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U296">
-        <v>2.03</v>
+        <v>2.08</v>
       </c>
       <c r="V296">
-        <v>1.87</v>
+        <v>1.82</v>
       </c>
       <c r="W296">
         <v>-1</v>
       </c>
       <c r="X296">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y296">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z296">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA296">
-        <v>0.78</v>
+        <v>-0</v>
       </c>
       <c r="AB296">
         <v>-1</v>
       </c>
       <c r="AC296">
-        <v>0.8700000000000001</v>
+        <v>0.8200000000000001</v>
       </c>
     </row>
     <row r="297" spans="1:29">
@@ -28672,7 +28672,7 @@
         <v>315</v>
       </c>
       <c r="B317">
-        <v>6809394</v>
+        <v>6809395</v>
       </c>
       <c r="C317" t="s">
         <v>28</v>
@@ -28684,76 +28684,76 @@
         <v>45207.5625</v>
       </c>
       <c r="F317" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="G317" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="H317">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I317">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J317" t="s">
         <v>54</v>
       </c>
       <c r="K317">
-        <v>2.1</v>
+        <v>2.8</v>
       </c>
       <c r="L317">
         <v>3.25</v>
       </c>
       <c r="M317">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="N317">
-        <v>2</v>
+        <v>2.45</v>
       </c>
       <c r="O317">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="P317">
-        <v>4.2</v>
+        <v>3</v>
       </c>
       <c r="Q317">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R317">
-        <v>2.01</v>
+        <v>2.11</v>
       </c>
       <c r="S317">
-        <v>1.89</v>
+        <v>1.79</v>
       </c>
       <c r="T317">
         <v>2.25</v>
       </c>
       <c r="U317">
-        <v>2.07</v>
+        <v>1.99</v>
       </c>
       <c r="V317">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="W317">
         <v>-1</v>
       </c>
       <c r="X317">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="Y317">
         <v>-1</v>
       </c>
       <c r="Z317">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA317">
-        <v>0.8899999999999999</v>
+        <v>0.395</v>
       </c>
       <c r="AB317">
-        <v>1.07</v>
+        <v>-0.5</v>
       </c>
       <c r="AC317">
-        <v>-1</v>
+        <v>0.455</v>
       </c>
     </row>
     <row r="318" spans="1:29">
@@ -28761,7 +28761,7 @@
         <v>316</v>
       </c>
       <c r="B318">
-        <v>6809395</v>
+        <v>6809394</v>
       </c>
       <c r="C318" t="s">
         <v>28</v>
@@ -28773,76 +28773,76 @@
         <v>45207.5625</v>
       </c>
       <c r="F318" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="G318" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="H318">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I318">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J318" t="s">
         <v>54</v>
       </c>
       <c r="K318">
-        <v>2.8</v>
+        <v>2.1</v>
       </c>
       <c r="L318">
         <v>3.25</v>
       </c>
       <c r="M318">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="N318">
-        <v>2.45</v>
+        <v>2</v>
       </c>
       <c r="O318">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P318">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="Q318">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R318">
-        <v>2.11</v>
+        <v>2.01</v>
       </c>
       <c r="S318">
-        <v>1.79</v>
+        <v>1.89</v>
       </c>
       <c r="T318">
         <v>2.25</v>
       </c>
       <c r="U318">
-        <v>1.99</v>
+        <v>2.07</v>
       </c>
       <c r="V318">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="W318">
         <v>-1</v>
       </c>
       <c r="X318">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="Y318">
         <v>-1</v>
       </c>
       <c r="Z318">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA318">
-        <v>0.395</v>
+        <v>0.8899999999999999</v>
       </c>
       <c r="AB318">
-        <v>-0.5</v>
+        <v>1.07</v>
       </c>
       <c r="AC318">
-        <v>0.455</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="319" spans="1:29">
@@ -36148,7 +36148,7 @@
         <v>399</v>
       </c>
       <c r="B401">
-        <v>6809435</v>
+        <v>6809292</v>
       </c>
       <c r="C401" t="s">
         <v>28</v>
@@ -36160,49 +36160,49 @@
         <v>45279.72916666666</v>
       </c>
       <c r="F401" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="G401" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="H401">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I401">
         <v>3</v>
       </c>
       <c r="J401" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K401">
-        <v>1.333</v>
+        <v>2.875</v>
       </c>
       <c r="L401">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="M401">
-        <v>8</v>
+        <v>2.25</v>
       </c>
       <c r="N401">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="O401">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="P401">
-        <v>7</v>
+        <v>2.45</v>
       </c>
       <c r="Q401">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R401">
-        <v>1.83</v>
+        <v>1.78</v>
       </c>
       <c r="S401">
-        <v>2.07</v>
+        <v>2.125</v>
       </c>
       <c r="T401">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U401">
         <v>2.04</v>
@@ -36214,16 +36214,16 @@
         <v>-1</v>
       </c>
       <c r="X401">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y401">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="Z401">
         <v>-1</v>
       </c>
       <c r="AA401">
-        <v>1.07</v>
+        <v>1.125</v>
       </c>
       <c r="AB401">
         <v>1.04</v>
@@ -36237,7 +36237,7 @@
         <v>400</v>
       </c>
       <c r="B402">
-        <v>6809292</v>
+        <v>6809435</v>
       </c>
       <c r="C402" t="s">
         <v>28</v>
@@ -36249,49 +36249,49 @@
         <v>45279.72916666666</v>
       </c>
       <c r="F402" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="G402" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="H402">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I402">
         <v>3</v>
       </c>
       <c r="J402" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K402">
-        <v>2.875</v>
+        <v>1.333</v>
       </c>
       <c r="L402">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="M402">
-        <v>2.25</v>
+        <v>8</v>
       </c>
       <c r="N402">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="O402">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="P402">
-        <v>2.45</v>
+        <v>7</v>
       </c>
       <c r="Q402">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R402">
-        <v>1.78</v>
+        <v>1.83</v>
       </c>
       <c r="S402">
-        <v>2.125</v>
+        <v>2.07</v>
       </c>
       <c r="T402">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U402">
         <v>2.04</v>
@@ -36303,16 +36303,16 @@
         <v>-1</v>
       </c>
       <c r="X402">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y402">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="Z402">
         <v>-1</v>
       </c>
       <c r="AA402">
-        <v>1.125</v>
+        <v>1.07</v>
       </c>
       <c r="AB402">
         <v>1.04</v>
@@ -40687,7 +40687,7 @@
         <v>450</v>
       </c>
       <c r="B452">
-        <v>6809462</v>
+        <v>6809316</v>
       </c>
       <c r="C452" t="s">
         <v>28</v>
@@ -40696,64 +40696,79 @@
         <v>28</v>
       </c>
       <c r="E452" s="2">
-        <v>45325.51041666666</v>
+        <v>45325.41666666666</v>
       </c>
       <c r="F452" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="G452" t="s">
-        <v>49</v>
+        <v>34</v>
+      </c>
+      <c r="H452">
+        <v>2</v>
+      </c>
+      <c r="I452">
+        <v>1</v>
+      </c>
+      <c r="J452" t="s">
+        <v>53</v>
       </c>
       <c r="K452">
-        <v>2.375</v>
+        <v>1.666</v>
       </c>
       <c r="L452">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="M452">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N452">
-        <v>2.05</v>
+        <v>1.7</v>
       </c>
       <c r="O452">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="P452">
-        <v>3.8</v>
+        <v>5.25</v>
       </c>
       <c r="Q452">
+        <v>-0.75</v>
+      </c>
+      <c r="R452">
+        <v>1.98</v>
+      </c>
+      <c r="S452">
+        <v>1.92</v>
+      </c>
+      <c r="T452">
+        <v>2.5</v>
+      </c>
+      <c r="U452">
+        <v>2.07</v>
+      </c>
+      <c r="V452">
+        <v>1.83</v>
+      </c>
+      <c r="W452">
+        <v>0.7</v>
+      </c>
+      <c r="X452">
+        <v>-1</v>
+      </c>
+      <c r="Y452">
+        <v>-1</v>
+      </c>
+      <c r="Z452">
+        <v>0.49</v>
+      </c>
+      <c r="AA452">
         <v>-0.5</v>
       </c>
-      <c r="R452">
-        <v>2.07</v>
-      </c>
-      <c r="S452">
-        <v>1.83</v>
-      </c>
-      <c r="T452">
-        <v>2.25</v>
-      </c>
-      <c r="U452">
-        <v>1.95</v>
-      </c>
-      <c r="V452">
-        <v>1.95</v>
-      </c>
-      <c r="W452">
-        <v>0</v>
-      </c>
-      <c r="X452">
-        <v>0</v>
-      </c>
-      <c r="Y452">
-        <v>0</v>
-      </c>
-      <c r="Z452">
-        <v>0</v>
-      </c>
-      <c r="AA452">
-        <v>0</v>
+      <c r="AB452">
+        <v>1.07</v>
+      </c>
+      <c r="AC452">
+        <v>-1</v>
       </c>
     </row>
     <row r="453" spans="1:29">
@@ -40761,7 +40776,7 @@
         <v>451</v>
       </c>
       <c r="B453">
-        <v>6809315</v>
+        <v>6809462</v>
       </c>
       <c r="C453" t="s">
         <v>28</v>
@@ -40770,64 +40785,79 @@
         <v>28</v>
       </c>
       <c r="E453" s="2">
-        <v>45325.60416666666</v>
+        <v>45325.51041666666</v>
       </c>
       <c r="F453" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G453" t="s">
-        <v>46</v>
+        <v>49</v>
+      </c>
+      <c r="H453">
+        <v>1</v>
+      </c>
+      <c r="I453">
+        <v>1</v>
+      </c>
+      <c r="J453" t="s">
+        <v>54</v>
       </c>
       <c r="K453">
-        <v>6</v>
+        <v>2.375</v>
       </c>
       <c r="L453">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="M453">
-        <v>1.533</v>
+        <v>3</v>
       </c>
       <c r="N453">
-        <v>4</v>
+        <v>2.15</v>
       </c>
       <c r="O453">
+        <v>3.3</v>
+      </c>
+      <c r="P453">
         <v>3.6</v>
       </c>
-      <c r="P453">
-        <v>1.909</v>
-      </c>
       <c r="Q453">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R453">
+        <v>1.86</v>
+      </c>
+      <c r="S453">
+        <v>2.04</v>
+      </c>
+      <c r="T453">
+        <v>2.25</v>
+      </c>
+      <c r="U453">
         <v>1.95</v>
       </c>
-      <c r="S453">
+      <c r="V453">
         <v>1.95</v>
       </c>
-      <c r="T453">
-        <v>2.5</v>
-      </c>
-      <c r="U453">
-        <v>1.97</v>
-      </c>
-      <c r="V453">
-        <v>1.93</v>
-      </c>
       <c r="W453">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X453">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="Y453">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z453">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA453">
-        <v>0</v>
+        <v>0.52</v>
+      </c>
+      <c r="AB453">
+        <v>-0.5</v>
+      </c>
+      <c r="AC453">
+        <v>0.475</v>
       </c>
     </row>
     <row r="454" spans="1:29">
@@ -40835,7 +40865,7 @@
         <v>452</v>
       </c>
       <c r="B454">
-        <v>6809313</v>
+        <v>6809315</v>
       </c>
       <c r="C454" t="s">
         <v>28</v>
@@ -40844,64 +40874,79 @@
         <v>28</v>
       </c>
       <c r="E454" s="2">
-        <v>45325.70833333334</v>
+        <v>45325.60416666666</v>
       </c>
       <c r="F454" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G454" t="s">
-        <v>43</v>
+        <v>46</v>
+      </c>
+      <c r="H454">
+        <v>1</v>
+      </c>
+      <c r="I454">
+        <v>3</v>
+      </c>
+      <c r="J454" t="s">
+        <v>52</v>
       </c>
       <c r="K454">
-        <v>2.25</v>
+        <v>6</v>
       </c>
       <c r="L454">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M454">
-        <v>2.9</v>
+        <v>1.533</v>
       </c>
       <c r="N454">
-        <v>2.15</v>
+        <v>4</v>
       </c>
       <c r="O454">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P454">
-        <v>3.4</v>
+        <v>1.909</v>
       </c>
       <c r="Q454">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R454">
-        <v>1.86</v>
+        <v>1.95</v>
       </c>
       <c r="S454">
-        <v>2.04</v>
+        <v>1.95</v>
       </c>
       <c r="T454">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U454">
-        <v>1.82</v>
+        <v>1.99</v>
       </c>
       <c r="V454">
-        <v>2.08</v>
+        <v>1.91</v>
       </c>
       <c r="W454">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X454">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y454">
-        <v>0</v>
+        <v>0.909</v>
       </c>
       <c r="Z454">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA454">
-        <v>0</v>
+        <v>0.95</v>
+      </c>
+      <c r="AB454">
+        <v>0.99</v>
+      </c>
+      <c r="AC454">
+        <v>-1</v>
       </c>
     </row>
     <row r="455" spans="1:29">
@@ -40909,7 +40954,7 @@
         <v>453</v>
       </c>
       <c r="B455">
-        <v>6809464</v>
+        <v>6809313</v>
       </c>
       <c r="C455" t="s">
         <v>28</v>
@@ -40918,64 +40963,79 @@
         <v>28</v>
       </c>
       <c r="E455" s="2">
-        <v>45326.41666666666</v>
+        <v>45325.70833333334</v>
       </c>
       <c r="F455" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G455" t="s">
-        <v>45</v>
+        <v>43</v>
+      </c>
+      <c r="H455">
+        <v>0</v>
+      </c>
+      <c r="I455">
+        <v>0</v>
+      </c>
+      <c r="J455" t="s">
+        <v>54</v>
       </c>
       <c r="K455">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="L455">
         <v>3.6</v>
       </c>
       <c r="M455">
-        <v>4.333</v>
+        <v>2.9</v>
       </c>
       <c r="N455">
-        <v>1.615</v>
+        <v>2</v>
       </c>
       <c r="O455">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P455">
-        <v>5.5</v>
+        <v>3.8</v>
       </c>
       <c r="Q455">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R455">
-        <v>1.82</v>
+        <v>2.02</v>
       </c>
       <c r="S455">
-        <v>2.08</v>
+        <v>1.88</v>
       </c>
       <c r="T455">
         <v>2.5</v>
       </c>
       <c r="U455">
-        <v>1.9</v>
+        <v>2.04</v>
       </c>
       <c r="V455">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="W455">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X455">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="Y455">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z455">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA455">
-        <v>0</v>
+        <v>0.8799999999999999</v>
+      </c>
+      <c r="AB455">
+        <v>-1</v>
+      </c>
+      <c r="AC455">
+        <v>0.8600000000000001</v>
       </c>
     </row>
     <row r="456" spans="1:29">
@@ -40983,7 +41043,7 @@
         <v>454</v>
       </c>
       <c r="B456">
-        <v>6809317</v>
+        <v>6809464</v>
       </c>
       <c r="C456" t="s">
         <v>28</v>
@@ -40992,64 +41052,79 @@
         <v>28</v>
       </c>
       <c r="E456" s="2">
-        <v>45326.51041666666</v>
+        <v>45326.41666666666</v>
       </c>
       <c r="F456" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="G456" t="s">
-        <v>39</v>
+        <v>45</v>
+      </c>
+      <c r="H456">
+        <v>0</v>
+      </c>
+      <c r="I456">
+        <v>0</v>
+      </c>
+      <c r="J456" t="s">
+        <v>54</v>
       </c>
       <c r="K456">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="L456">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="M456">
-        <v>3.1</v>
+        <v>4.333</v>
       </c>
       <c r="N456">
-        <v>2.375</v>
+        <v>1.615</v>
       </c>
       <c r="O456">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="P456">
-        <v>3.3</v>
+        <v>5.25</v>
       </c>
       <c r="Q456">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R456">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="S456">
-        <v>1.9</v>
+        <v>1.83</v>
       </c>
       <c r="T456">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U456">
-        <v>1.81</v>
+        <v>1.86</v>
       </c>
       <c r="V456">
-        <v>2.09</v>
+        <v>2.04</v>
       </c>
       <c r="W456">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X456">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Y456">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z456">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA456">
-        <v>0</v>
+        <v>0.8300000000000001</v>
+      </c>
+      <c r="AB456">
+        <v>-1</v>
+      </c>
+      <c r="AC456">
+        <v>1.04</v>
       </c>
     </row>
     <row r="457" spans="1:29">
@@ -41057,7 +41132,7 @@
         <v>455</v>
       </c>
       <c r="B457">
-        <v>6809461</v>
+        <v>6809317</v>
       </c>
       <c r="C457" t="s">
         <v>28</v>
@@ -41066,64 +41141,79 @@
         <v>28</v>
       </c>
       <c r="E457" s="2">
-        <v>45326.60416666666</v>
+        <v>45326.51041666666</v>
       </c>
       <c r="F457" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G457" t="s">
-        <v>44</v>
+        <v>39</v>
+      </c>
+      <c r="H457">
+        <v>0</v>
+      </c>
+      <c r="I457">
+        <v>3</v>
+      </c>
+      <c r="J457" t="s">
+        <v>52</v>
       </c>
       <c r="K457">
-        <v>1.833</v>
+        <v>2.3</v>
       </c>
       <c r="L457">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M457">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="N457">
-        <v>1.909</v>
+        <v>2.15</v>
       </c>
       <c r="O457">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="P457">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="Q457">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R457">
-        <v>1.99</v>
+        <v>1.83</v>
       </c>
       <c r="S457">
-        <v>1.91</v>
+        <v>2.07</v>
       </c>
       <c r="T457">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U457">
-        <v>2.03</v>
+        <v>2.04</v>
       </c>
       <c r="V457">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="W457">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X457">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y457">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="Z457">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA457">
-        <v>0</v>
+        <v>1.07</v>
+      </c>
+      <c r="AB457">
+        <v>1.04</v>
+      </c>
+      <c r="AC457">
+        <v>-1</v>
       </c>
     </row>
     <row r="458" spans="1:29">
@@ -41131,7 +41221,7 @@
         <v>456</v>
       </c>
       <c r="B458">
-        <v>6809463</v>
+        <v>6809461</v>
       </c>
       <c r="C458" t="s">
         <v>28</v>
@@ -41140,64 +41230,79 @@
         <v>28</v>
       </c>
       <c r="E458" s="2">
-        <v>45326.70833333334</v>
+        <v>45326.60416666666</v>
       </c>
       <c r="F458" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G458" t="s">
-        <v>37</v>
+        <v>44</v>
+      </c>
+      <c r="H458">
+        <v>1</v>
+      </c>
+      <c r="I458">
+        <v>1</v>
+      </c>
+      <c r="J458" t="s">
+        <v>54</v>
       </c>
       <c r="K458">
-        <v>1.8</v>
+        <v>1.833</v>
       </c>
       <c r="L458">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M458">
-        <v>4.333</v>
+        <v>4.5</v>
       </c>
       <c r="N458">
-        <v>1.666</v>
+        <v>1.95</v>
       </c>
       <c r="O458">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="P458">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="Q458">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R458">
-        <v>1.95</v>
+        <v>2.01</v>
       </c>
       <c r="S458">
-        <v>1.95</v>
+        <v>1.89</v>
       </c>
       <c r="T458">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U458">
-        <v>1.85</v>
+        <v>2.08</v>
       </c>
       <c r="V458">
-        <v>2.05</v>
+        <v>1.82</v>
       </c>
       <c r="W458">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X458">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="Y458">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z458">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA458">
-        <v>0</v>
+        <v>0.8899999999999999</v>
+      </c>
+      <c r="AB458">
+        <v>-0.5</v>
+      </c>
+      <c r="AC458">
+        <v>0.41</v>
       </c>
     </row>
     <row r="459" spans="1:29">
@@ -41205,7 +41310,7 @@
         <v>457</v>
       </c>
       <c r="B459">
-        <v>6809314</v>
+        <v>6809463</v>
       </c>
       <c r="C459" t="s">
         <v>28</v>
@@ -41214,64 +41319,79 @@
         <v>28</v>
       </c>
       <c r="E459" s="2">
-        <v>45327.70833333334</v>
+        <v>45326.70833333334</v>
       </c>
       <c r="F459" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="G459" t="s">
-        <v>36</v>
+        <v>37</v>
+      </c>
+      <c r="H459">
+        <v>1</v>
+      </c>
+      <c r="I459">
+        <v>1</v>
+      </c>
+      <c r="J459" t="s">
+        <v>54</v>
       </c>
       <c r="K459">
-        <v>2.375</v>
+        <v>1.8</v>
       </c>
       <c r="L459">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="M459">
+        <v>4.333</v>
+      </c>
+      <c r="N459">
+        <v>1.666</v>
+      </c>
+      <c r="O459">
+        <v>4.2</v>
+      </c>
+      <c r="P459">
+        <v>4.75</v>
+      </c>
+      <c r="Q459">
+        <v>-0.75</v>
+      </c>
+      <c r="R459">
+        <v>1.89</v>
+      </c>
+      <c r="S459">
+        <v>2.01</v>
+      </c>
+      <c r="T459">
         <v>3</v>
       </c>
-      <c r="N459">
-        <v>2.1</v>
-      </c>
-      <c r="O459">
-        <v>3.3</v>
-      </c>
-      <c r="P459">
-        <v>3.6</v>
-      </c>
-      <c r="Q459">
-        <v>-0.25</v>
-      </c>
-      <c r="R459">
-        <v>1.82</v>
-      </c>
-      <c r="S459">
-        <v>2.08</v>
-      </c>
-      <c r="T459">
-        <v>2.25</v>
-      </c>
       <c r="U459">
-        <v>1.99</v>
+        <v>2.02</v>
       </c>
       <c r="V459">
-        <v>1.91</v>
+        <v>1.88</v>
       </c>
       <c r="W459">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X459">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="Y459">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z459">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA459">
-        <v>0</v>
+        <v>1.01</v>
+      </c>
+      <c r="AB459">
+        <v>-1</v>
+      </c>
+      <c r="AC459">
+        <v>0.8799999999999999</v>
       </c>
     </row>
     <row r="460" spans="1:29">
@@ -41279,7 +41399,7 @@
         <v>458</v>
       </c>
       <c r="B460">
-        <v>6809467</v>
+        <v>6809314</v>
       </c>
       <c r="C460" t="s">
         <v>28</v>
@@ -41288,64 +41408,79 @@
         <v>28</v>
       </c>
       <c r="E460" s="2">
-        <v>45331.70833333334</v>
+        <v>45327.70833333334</v>
       </c>
       <c r="F460" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="G460" t="s">
-        <v>48</v>
+        <v>36</v>
+      </c>
+      <c r="H460">
+        <v>1</v>
+      </c>
+      <c r="I460">
+        <v>2</v>
+      </c>
+      <c r="J460" t="s">
+        <v>52</v>
       </c>
       <c r="K460">
-        <v>3.25</v>
+        <v>2.375</v>
       </c>
       <c r="L460">
         <v>3.25</v>
       </c>
       <c r="M460">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="N460">
-        <v>3.25</v>
+        <v>2.1</v>
       </c>
       <c r="O460">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="P460">
-        <v>2.2</v>
+        <v>3.6</v>
       </c>
       <c r="Q460">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R460">
-        <v>1.91</v>
+        <v>1.82</v>
       </c>
       <c r="S460">
-        <v>1.99</v>
+        <v>2.11</v>
       </c>
       <c r="T460">
         <v>2.25</v>
       </c>
       <c r="U460">
-        <v>1.99</v>
+        <v>2.09</v>
       </c>
       <c r="V460">
-        <v>1.91</v>
+        <v>1.81</v>
       </c>
       <c r="W460">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X460">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y460">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="Z460">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA460">
-        <v>0</v>
+        <v>1.11</v>
+      </c>
+      <c r="AB460">
+        <v>1.09</v>
+      </c>
+      <c r="AC460">
+        <v>-1</v>
       </c>
     </row>
     <row r="461" spans="1:29">
@@ -41353,7 +41488,7 @@
         <v>459</v>
       </c>
       <c r="B461">
-        <v>6809466</v>
+        <v>6809467</v>
       </c>
       <c r="C461" t="s">
         <v>28</v>
@@ -41362,49 +41497,49 @@
         <v>28</v>
       </c>
       <c r="E461" s="2">
-        <v>45332.41666666666</v>
+        <v>45331.70833333334</v>
       </c>
       <c r="F461" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="G461" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="K461">
-        <v>2.375</v>
+        <v>3.25</v>
       </c>
       <c r="L461">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M461">
-        <v>2.875</v>
+        <v>2.2</v>
       </c>
       <c r="N461">
-        <v>2.15</v>
+        <v>3</v>
       </c>
       <c r="O461">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P461">
-        <v>3.3</v>
+        <v>2.5</v>
       </c>
       <c r="Q461">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R461">
-        <v>1.88</v>
+        <v>2.04</v>
       </c>
       <c r="S461">
-        <v>2.02</v>
+        <v>1.86</v>
       </c>
       <c r="T461">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U461">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="V461">
-        <v>1.9</v>
+        <v>2.07</v>
       </c>
       <c r="W461">
         <v>0</v>
@@ -41427,7 +41562,7 @@
         <v>460</v>
       </c>
       <c r="B462">
-        <v>6809323</v>
+        <v>6809466</v>
       </c>
       <c r="C462" t="s">
         <v>28</v>
@@ -41436,49 +41571,49 @@
         <v>28</v>
       </c>
       <c r="E462" s="2">
-        <v>45332.51041666666</v>
+        <v>45332.41666666666</v>
       </c>
       <c r="F462" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G462" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="K462">
-        <v>1.727</v>
+        <v>2.375</v>
       </c>
       <c r="L462">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M462">
-        <v>5</v>
+        <v>2.875</v>
       </c>
       <c r="N462">
-        <v>1.833</v>
+        <v>2.2</v>
       </c>
       <c r="O462">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P462">
-        <v>4.333</v>
+        <v>3.3</v>
       </c>
       <c r="Q462">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R462">
-        <v>1.87</v>
+        <v>1.92</v>
       </c>
       <c r="S462">
-        <v>2.03</v>
+        <v>1.98</v>
       </c>
       <c r="T462">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U462">
-        <v>1.92</v>
+        <v>2.05</v>
       </c>
       <c r="V462">
-        <v>1.98</v>
+        <v>1.85</v>
       </c>
       <c r="W462">
         <v>0</v>
@@ -41501,7 +41636,7 @@
         <v>461</v>
       </c>
       <c r="B463">
-        <v>6809322</v>
+        <v>6809323</v>
       </c>
       <c r="C463" t="s">
         <v>28</v>
@@ -41510,49 +41645,49 @@
         <v>28</v>
       </c>
       <c r="E463" s="2">
-        <v>45332.60416666666</v>
+        <v>45332.51041666666</v>
       </c>
       <c r="F463" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G463" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K463">
-        <v>1.571</v>
+        <v>1.727</v>
       </c>
       <c r="L463">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M463">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="N463">
-        <v>1.55</v>
+        <v>1.833</v>
       </c>
       <c r="O463">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="P463">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="Q463">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R463">
-        <v>1.88</v>
+        <v>1.86</v>
       </c>
       <c r="S463">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="T463">
-        <v>3.25</v>
+        <v>1.75</v>
       </c>
       <c r="U463">
-        <v>2.03</v>
+        <v>1.82</v>
       </c>
       <c r="V463">
-        <v>1.87</v>
+        <v>2.08</v>
       </c>
       <c r="W463">
         <v>0</v>
@@ -41575,7 +41710,7 @@
         <v>462</v>
       </c>
       <c r="B464">
-        <v>6809320</v>
+        <v>6809322</v>
       </c>
       <c r="C464" t="s">
         <v>28</v>
@@ -41584,43 +41719,43 @@
         <v>28</v>
       </c>
       <c r="E464" s="2">
-        <v>45332.70833333334</v>
+        <v>45332.60416666666</v>
       </c>
       <c r="F464" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G464" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="K464">
-        <v>2.875</v>
+        <v>1.571</v>
       </c>
       <c r="L464">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M464">
-        <v>2.6</v>
+        <v>5.5</v>
       </c>
       <c r="N464">
-        <v>2.75</v>
+        <v>1.45</v>
       </c>
       <c r="O464">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P464">
-        <v>2.75</v>
+        <v>6.5</v>
       </c>
       <c r="Q464">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R464">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="S464">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="T464">
-        <v>2</v>
+        <v>3.25</v>
       </c>
       <c r="U464">
         <v>1.95</v>
@@ -41641,6 +41776,450 @@
         <v>0</v>
       </c>
       <c r="AA464">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="465" spans="1:27">
+      <c r="A465" s="1">
+        <v>463</v>
+      </c>
+      <c r="B465">
+        <v>6809320</v>
+      </c>
+      <c r="C465" t="s">
+        <v>28</v>
+      </c>
+      <c r="D465" t="s">
+        <v>28</v>
+      </c>
+      <c r="E465" s="2">
+        <v>45332.70833333334</v>
+      </c>
+      <c r="F465" t="s">
+        <v>49</v>
+      </c>
+      <c r="G465" t="s">
+        <v>30</v>
+      </c>
+      <c r="K465">
+        <v>2.875</v>
+      </c>
+      <c r="L465">
+        <v>3</v>
+      </c>
+      <c r="M465">
+        <v>2.6</v>
+      </c>
+      <c r="N465">
+        <v>2.625</v>
+      </c>
+      <c r="O465">
+        <v>3</v>
+      </c>
+      <c r="P465">
+        <v>3</v>
+      </c>
+      <c r="Q465">
+        <v>0</v>
+      </c>
+      <c r="R465">
+        <v>1.83</v>
+      </c>
+      <c r="S465">
+        <v>2.07</v>
+      </c>
+      <c r="T465">
+        <v>2</v>
+      </c>
+      <c r="U465">
+        <v>1.95</v>
+      </c>
+      <c r="V465">
+        <v>1.95</v>
+      </c>
+      <c r="W465">
+        <v>0</v>
+      </c>
+      <c r="X465">
+        <v>0</v>
+      </c>
+      <c r="Y465">
+        <v>0</v>
+      </c>
+      <c r="Z465">
+        <v>0</v>
+      </c>
+      <c r="AA465">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="466" spans="1:27">
+      <c r="A466" s="1">
+        <v>464</v>
+      </c>
+      <c r="B466">
+        <v>6809468</v>
+      </c>
+      <c r="C466" t="s">
+        <v>28</v>
+      </c>
+      <c r="D466" t="s">
+        <v>28</v>
+      </c>
+      <c r="E466" s="2">
+        <v>45333.41666666666</v>
+      </c>
+      <c r="F466" t="s">
+        <v>44</v>
+      </c>
+      <c r="G466" t="s">
+        <v>39</v>
+      </c>
+      <c r="K466">
+        <v>2.25</v>
+      </c>
+      <c r="L466">
+        <v>3.25</v>
+      </c>
+      <c r="M466">
+        <v>3.2</v>
+      </c>
+      <c r="N466">
+        <v>2.2</v>
+      </c>
+      <c r="O466">
+        <v>3.1</v>
+      </c>
+      <c r="P466">
+        <v>3.6</v>
+      </c>
+      <c r="Q466">
+        <v>-0.25</v>
+      </c>
+      <c r="R466">
+        <v>1.9</v>
+      </c>
+      <c r="S466">
+        <v>2</v>
+      </c>
+      <c r="T466">
+        <v>2</v>
+      </c>
+      <c r="U466">
+        <v>1.95</v>
+      </c>
+      <c r="V466">
+        <v>1.95</v>
+      </c>
+      <c r="W466">
+        <v>0</v>
+      </c>
+      <c r="X466">
+        <v>0</v>
+      </c>
+      <c r="Y466">
+        <v>0</v>
+      </c>
+      <c r="Z466">
+        <v>0</v>
+      </c>
+      <c r="AA466">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="467" spans="1:27">
+      <c r="A467" s="1">
+        <v>465</v>
+      </c>
+      <c r="B467">
+        <v>6809465</v>
+      </c>
+      <c r="C467" t="s">
+        <v>28</v>
+      </c>
+      <c r="D467" t="s">
+        <v>28</v>
+      </c>
+      <c r="E467" s="2">
+        <v>45333.51041666666</v>
+      </c>
+      <c r="F467" t="s">
+        <v>32</v>
+      </c>
+      <c r="G467" t="s">
+        <v>35</v>
+      </c>
+      <c r="K467">
+        <v>2.3</v>
+      </c>
+      <c r="L467">
+        <v>3</v>
+      </c>
+      <c r="M467">
+        <v>3.4</v>
+      </c>
+      <c r="N467">
+        <v>2.3</v>
+      </c>
+      <c r="O467">
+        <v>3</v>
+      </c>
+      <c r="P467">
+        <v>3.4</v>
+      </c>
+      <c r="Q467">
+        <v>-0.25</v>
+      </c>
+      <c r="R467">
+        <v>2.02</v>
+      </c>
+      <c r="S467">
+        <v>1.88</v>
+      </c>
+      <c r="T467">
+        <v>2</v>
+      </c>
+      <c r="U467">
+        <v>2.1</v>
+      </c>
+      <c r="V467">
+        <v>1.8</v>
+      </c>
+      <c r="W467">
+        <v>0</v>
+      </c>
+      <c r="X467">
+        <v>0</v>
+      </c>
+      <c r="Y467">
+        <v>0</v>
+      </c>
+      <c r="Z467">
+        <v>0</v>
+      </c>
+      <c r="AA467">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="468" spans="1:27">
+      <c r="A468" s="1">
+        <v>466</v>
+      </c>
+      <c r="B468">
+        <v>6809321</v>
+      </c>
+      <c r="C468" t="s">
+        <v>28</v>
+      </c>
+      <c r="D468" t="s">
+        <v>28</v>
+      </c>
+      <c r="E468" s="2">
+        <v>45333.60416666666</v>
+      </c>
+      <c r="F468" t="s">
+        <v>36</v>
+      </c>
+      <c r="G468" t="s">
+        <v>37</v>
+      </c>
+      <c r="K468">
+        <v>3.75</v>
+      </c>
+      <c r="L468">
+        <v>3.4</v>
+      </c>
+      <c r="M468">
+        <v>2</v>
+      </c>
+      <c r="N468">
+        <v>3.6</v>
+      </c>
+      <c r="O468">
+        <v>3.5</v>
+      </c>
+      <c r="P468">
+        <v>2.05</v>
+      </c>
+      <c r="Q468">
+        <v>0.25</v>
+      </c>
+      <c r="R468">
+        <v>2.07</v>
+      </c>
+      <c r="S468">
+        <v>1.83</v>
+      </c>
+      <c r="T468">
+        <v>2.5</v>
+      </c>
+      <c r="U468">
+        <v>1.89</v>
+      </c>
+      <c r="V468">
+        <v>2.01</v>
+      </c>
+      <c r="W468">
+        <v>0</v>
+      </c>
+      <c r="X468">
+        <v>0</v>
+      </c>
+      <c r="Y468">
+        <v>0</v>
+      </c>
+      <c r="Z468">
+        <v>0</v>
+      </c>
+      <c r="AA468">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="469" spans="1:27">
+      <c r="A469" s="1">
+        <v>467</v>
+      </c>
+      <c r="B469">
+        <v>6809319</v>
+      </c>
+      <c r="C469" t="s">
+        <v>28</v>
+      </c>
+      <c r="D469" t="s">
+        <v>28</v>
+      </c>
+      <c r="E469" s="2">
+        <v>45333.70833333334</v>
+      </c>
+      <c r="F469" t="s">
+        <v>46</v>
+      </c>
+      <c r="G469" t="s">
+        <v>51</v>
+      </c>
+      <c r="K469">
+        <v>1.25</v>
+      </c>
+      <c r="L469">
+        <v>6.5</v>
+      </c>
+      <c r="M469">
+        <v>9</v>
+      </c>
+      <c r="N469">
+        <v>1.222</v>
+      </c>
+      <c r="O469">
+        <v>7.5</v>
+      </c>
+      <c r="P469">
+        <v>10</v>
+      </c>
+      <c r="Q469">
+        <v>-2</v>
+      </c>
+      <c r="R469">
+        <v>2.03</v>
+      </c>
+      <c r="S469">
+        <v>1.87</v>
+      </c>
+      <c r="T469">
+        <v>3.5</v>
+      </c>
+      <c r="U469">
+        <v>2.05</v>
+      </c>
+      <c r="V469">
+        <v>1.85</v>
+      </c>
+      <c r="W469">
+        <v>0</v>
+      </c>
+      <c r="X469">
+        <v>0</v>
+      </c>
+      <c r="Y469">
+        <v>0</v>
+      </c>
+      <c r="Z469">
+        <v>0</v>
+      </c>
+      <c r="AA469">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="470" spans="1:27">
+      <c r="A470" s="1">
+        <v>468</v>
+      </c>
+      <c r="B470">
+        <v>6809318</v>
+      </c>
+      <c r="C470" t="s">
+        <v>28</v>
+      </c>
+      <c r="D470" t="s">
+        <v>28</v>
+      </c>
+      <c r="E470" s="2">
+        <v>45334.70833333334</v>
+      </c>
+      <c r="F470" t="s">
+        <v>34</v>
+      </c>
+      <c r="G470" t="s">
+        <v>38</v>
+      </c>
+      <c r="K470">
+        <v>4.2</v>
+      </c>
+      <c r="L470">
+        <v>3.75</v>
+      </c>
+      <c r="M470">
+        <v>1.8</v>
+      </c>
+      <c r="N470">
+        <v>4.5</v>
+      </c>
+      <c r="O470">
+        <v>4</v>
+      </c>
+      <c r="P470">
+        <v>1.7</v>
+      </c>
+      <c r="Q470">
+        <v>0.75</v>
+      </c>
+      <c r="R470">
+        <v>1.95</v>
+      </c>
+      <c r="S470">
+        <v>1.95</v>
+      </c>
+      <c r="T470">
+        <v>2.5</v>
+      </c>
+      <c r="U470">
+        <v>1.84</v>
+      </c>
+      <c r="V470">
+        <v>2.06</v>
+      </c>
+      <c r="W470">
+        <v>0</v>
+      </c>
+      <c r="X470">
+        <v>0</v>
+      </c>
+      <c r="Y470">
+        <v>0</v>
+      </c>
+      <c r="Z470">
+        <v>0</v>
+      </c>
+      <c r="AA470">
         <v>0</v>
       </c>
     </row>

--- a/Spain Primera Liga/Spain Primera Liga.xlsx
+++ b/Spain Primera Liga/Spain Primera Liga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2363" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2384" uniqueCount="55">
   <si>
     <t>id</t>
   </si>
@@ -540,7 +540,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC470"/>
+  <dimension ref="A1:AC475"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -15767,7 +15767,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>5540298</v>
+        <v>5534478</v>
       </c>
       <c r="C172" t="s">
         <v>28</v>
@@ -15779,58 +15779,58 @@
         <v>45048.60416666666</v>
       </c>
       <c r="F172" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="G172" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="H172">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I172">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J172" t="s">
         <v>53</v>
       </c>
       <c r="K172">
-        <v>1.65</v>
+        <v>1.25</v>
       </c>
       <c r="L172">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="M172">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="N172">
-        <v>1.727</v>
+        <v>1.166</v>
       </c>
       <c r="O172">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="P172">
-        <v>4.5</v>
+        <v>15</v>
       </c>
       <c r="Q172">
-        <v>-0.75</v>
+        <v>-2</v>
       </c>
       <c r="R172">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="S172">
-        <v>1.98</v>
+        <v>2.05</v>
       </c>
       <c r="T172">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U172">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V172">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="W172">
-        <v>0.7270000000000001</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X172">
         <v>-1</v>
@@ -15839,16 +15839,16 @@
         <v>-1</v>
       </c>
       <c r="Z172">
-        <v>0.46</v>
+        <v>-1</v>
       </c>
       <c r="AA172">
-        <v>-0.5</v>
+        <v>1.05</v>
       </c>
       <c r="AB172">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC172">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="173" spans="1:29">
@@ -15856,7 +15856,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>5534478</v>
+        <v>5540298</v>
       </c>
       <c r="C173" t="s">
         <v>28</v>
@@ -15868,58 +15868,58 @@
         <v>45048.60416666666</v>
       </c>
       <c r="F173" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="G173" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="H173">
+        <v>2</v>
+      </c>
+      <c r="I173">
         <v>1</v>
-      </c>
-      <c r="I173">
-        <v>0</v>
       </c>
       <c r="J173" t="s">
         <v>53</v>
       </c>
       <c r="K173">
-        <v>1.25</v>
+        <v>1.65</v>
       </c>
       <c r="L173">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="M173">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="N173">
-        <v>1.166</v>
+        <v>1.727</v>
       </c>
       <c r="O173">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="P173">
-        <v>15</v>
+        <v>4.5</v>
       </c>
       <c r="Q173">
-        <v>-2</v>
+        <v>-0.75</v>
       </c>
       <c r="R173">
-        <v>1.85</v>
+        <v>1.92</v>
       </c>
       <c r="S173">
-        <v>2.05</v>
+        <v>1.98</v>
       </c>
       <c r="T173">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U173">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V173">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="W173">
-        <v>0.1659999999999999</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X173">
         <v>-1</v>
@@ -15928,16 +15928,16 @@
         <v>-1</v>
       </c>
       <c r="Z173">
-        <v>-1</v>
+        <v>0.46</v>
       </c>
       <c r="AA173">
-        <v>1.05</v>
+        <v>-0.5</v>
       </c>
       <c r="AB173">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC173">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="174" spans="1:29">
@@ -16479,7 +16479,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>5540274</v>
+        <v>5549243</v>
       </c>
       <c r="C180" t="s">
         <v>28</v>
@@ -16491,76 +16491,76 @@
         <v>45050.70833333334</v>
       </c>
       <c r="F180" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G180" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="H180">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I180">
         <v>1</v>
       </c>
       <c r="J180" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K180">
-        <v>1.65</v>
+        <v>1.615</v>
       </c>
       <c r="L180">
         <v>3.8</v>
       </c>
       <c r="M180">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="N180">
-        <v>1.909</v>
+        <v>1.615</v>
       </c>
       <c r="O180">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P180">
-        <v>3.8</v>
+        <v>5.5</v>
       </c>
       <c r="Q180">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R180">
-        <v>1.95</v>
+        <v>1.82</v>
       </c>
       <c r="S180">
-        <v>1.95</v>
+        <v>2.08</v>
       </c>
       <c r="T180">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U180">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="V180">
-        <v>1.9</v>
+        <v>2.03</v>
       </c>
       <c r="W180">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X180">
         <v>-1</v>
       </c>
       <c r="Y180">
-        <v>-1</v>
+        <v>4.5</v>
       </c>
       <c r="Z180">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA180">
-        <v>-1</v>
+        <v>1.08</v>
       </c>
       <c r="AB180">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC180">
-        <v>-1</v>
+        <v>1.03</v>
       </c>
     </row>
     <row r="181" spans="1:29">
@@ -16568,7 +16568,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>5549243</v>
+        <v>5540274</v>
       </c>
       <c r="C181" t="s">
         <v>28</v>
@@ -16580,76 +16580,76 @@
         <v>45050.70833333334</v>
       </c>
       <c r="F181" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G181" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I181">
         <v>1</v>
       </c>
       <c r="J181" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K181">
-        <v>1.615</v>
+        <v>1.65</v>
       </c>
       <c r="L181">
         <v>3.8</v>
       </c>
       <c r="M181">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="N181">
-        <v>1.615</v>
+        <v>1.909</v>
       </c>
       <c r="O181">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P181">
-        <v>5.5</v>
+        <v>3.8</v>
       </c>
       <c r="Q181">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R181">
-        <v>1.82</v>
+        <v>1.95</v>
       </c>
       <c r="S181">
-        <v>2.08</v>
+        <v>1.95</v>
       </c>
       <c r="T181">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U181">
-        <v>1.87</v>
+        <v>2</v>
       </c>
       <c r="V181">
-        <v>2.03</v>
+        <v>1.9</v>
       </c>
       <c r="W181">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X181">
         <v>-1</v>
       </c>
       <c r="Y181">
-        <v>4.5</v>
+        <v>-1</v>
       </c>
       <c r="Z181">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA181">
-        <v>1.08</v>
+        <v>-1</v>
       </c>
       <c r="AB181">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC181">
-        <v>1.03</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="182" spans="1:29">
@@ -17814,7 +17814,7 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>5611043</v>
+        <v>5611042</v>
       </c>
       <c r="C195" t="s">
         <v>28</v>
@@ -17826,76 +17826,76 @@
         <v>45066.5625</v>
       </c>
       <c r="F195" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="G195" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H195">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I195">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J195" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K195">
-        <v>1.5</v>
+        <v>2.3</v>
       </c>
       <c r="L195">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="M195">
-        <v>6.5</v>
+        <v>3.2</v>
       </c>
       <c r="N195">
-        <v>1.65</v>
+        <v>2.25</v>
       </c>
       <c r="O195">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="P195">
-        <v>6</v>
+        <v>3.3</v>
       </c>
       <c r="Q195">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R195">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="S195">
-        <v>2.01</v>
+        <v>1.95</v>
       </c>
       <c r="T195">
         <v>2.25</v>
       </c>
       <c r="U195">
-        <v>2.09</v>
+        <v>1.9</v>
       </c>
       <c r="V195">
-        <v>1.81</v>
+        <v>2</v>
       </c>
       <c r="W195">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X195">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y195">
         <v>-1</v>
       </c>
       <c r="Z195">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA195">
-        <v>1.01</v>
+        <v>-1</v>
       </c>
       <c r="AB195">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC195">
-        <v>0.405</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="196" spans="1:29">
@@ -17903,7 +17903,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>5611042</v>
+        <v>5611043</v>
       </c>
       <c r="C196" t="s">
         <v>28</v>
@@ -17915,76 +17915,76 @@
         <v>45066.5625</v>
       </c>
       <c r="F196" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="G196" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H196">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I196">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J196" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K196">
-        <v>2.3</v>
+        <v>1.5</v>
       </c>
       <c r="L196">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="M196">
-        <v>3.2</v>
+        <v>6.5</v>
       </c>
       <c r="N196">
-        <v>2.25</v>
+        <v>1.65</v>
       </c>
       <c r="O196">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="P196">
-        <v>3.3</v>
+        <v>6</v>
       </c>
       <c r="Q196">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R196">
-        <v>1.95</v>
+        <v>1.89</v>
       </c>
       <c r="S196">
-        <v>1.95</v>
+        <v>2.01</v>
       </c>
       <c r="T196">
         <v>2.25</v>
       </c>
       <c r="U196">
-        <v>1.9</v>
+        <v>2.09</v>
       </c>
       <c r="V196">
-        <v>2</v>
+        <v>1.81</v>
       </c>
       <c r="W196">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X196">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y196">
         <v>-1</v>
       </c>
       <c r="Z196">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA196">
-        <v>-1</v>
+        <v>1.01</v>
       </c>
       <c r="AB196">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AC196">
-        <v>-1</v>
+        <v>0.405</v>
       </c>
     </row>
     <row r="197" spans="1:29">
@@ -18437,7 +18437,7 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>5638811</v>
+        <v>5638808</v>
       </c>
       <c r="C202" t="s">
         <v>28</v>
@@ -18449,61 +18449,61 @@
         <v>45069.60416666666</v>
       </c>
       <c r="F202" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G202" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H202">
         <v>1</v>
       </c>
       <c r="I202">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J202" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K202">
-        <v>1.4</v>
+        <v>2.2</v>
       </c>
       <c r="L202">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="M202">
-        <v>8.5</v>
+        <v>3.25</v>
       </c>
       <c r="N202">
-        <v>1.363</v>
+        <v>2.1</v>
       </c>
       <c r="O202">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="P202">
-        <v>8</v>
+        <v>3.6</v>
       </c>
       <c r="Q202">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R202">
-        <v>1.89</v>
+        <v>1.82</v>
       </c>
       <c r="S202">
-        <v>2.01</v>
+        <v>2.08</v>
       </c>
       <c r="T202">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U202">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="V202">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W202">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X202">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y202">
         <v>-1</v>
@@ -18512,13 +18512,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA202">
-        <v>0.5049999999999999</v>
+        <v>0.54</v>
       </c>
       <c r="AB202">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC202">
-        <v>0.8999999999999999</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="203" spans="1:29">
@@ -18526,7 +18526,7 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>5638808</v>
+        <v>5638811</v>
       </c>
       <c r="C203" t="s">
         <v>28</v>
@@ -18538,61 +18538,61 @@
         <v>45069.60416666666</v>
       </c>
       <c r="F203" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G203" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="H203">
         <v>1</v>
       </c>
       <c r="I203">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J203" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K203">
-        <v>2.2</v>
+        <v>1.4</v>
       </c>
       <c r="L203">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="M203">
-        <v>3.25</v>
+        <v>8.5</v>
       </c>
       <c r="N203">
-        <v>2.1</v>
+        <v>1.363</v>
       </c>
       <c r="O203">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="P203">
-        <v>3.6</v>
+        <v>8</v>
       </c>
       <c r="Q203">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R203">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="S203">
-        <v>2.08</v>
+        <v>2.01</v>
       </c>
       <c r="T203">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U203">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="V203">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W203">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X203">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y203">
         <v>-1</v>
@@ -18601,13 +18601,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA203">
-        <v>0.54</v>
+        <v>0.5049999999999999</v>
       </c>
       <c r="AB203">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC203">
-        <v>0.5125</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="204" spans="1:29">
@@ -18704,7 +18704,7 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>5638809</v>
+        <v>5634388</v>
       </c>
       <c r="C205" t="s">
         <v>28</v>
@@ -18716,76 +18716,76 @@
         <v>45070.60416666666</v>
       </c>
       <c r="F205" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G205" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="H205">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I205">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J205" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K205">
-        <v>3.8</v>
+        <v>1.45</v>
       </c>
       <c r="L205">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="M205">
-        <v>1.909</v>
+        <v>6.5</v>
       </c>
       <c r="N205">
-        <v>3.3</v>
+        <v>1.45</v>
       </c>
       <c r="O205">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="P205">
-        <v>2.15</v>
+        <v>6</v>
       </c>
       <c r="Q205">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R205">
-        <v>1.99</v>
+        <v>2.07</v>
       </c>
       <c r="S205">
-        <v>1.94</v>
+        <v>1.83</v>
       </c>
       <c r="T205">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U205">
-        <v>1.96</v>
+        <v>1.92</v>
       </c>
       <c r="V205">
-        <v>1.94</v>
+        <v>1.98</v>
       </c>
       <c r="W205">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X205">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y205">
         <v>-1</v>
       </c>
       <c r="Z205">
-        <v>0.495</v>
+        <v>1.07</v>
       </c>
       <c r="AA205">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB205">
         <v>-1</v>
       </c>
       <c r="AC205">
-        <v>0.9399999999999999</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="206" spans="1:29">
@@ -18793,7 +18793,7 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>5634388</v>
+        <v>5638809</v>
       </c>
       <c r="C206" t="s">
         <v>28</v>
@@ -18805,76 +18805,76 @@
         <v>45070.60416666666</v>
       </c>
       <c r="F206" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G206" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="H206">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I206">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J206" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K206">
-        <v>1.45</v>
+        <v>3.8</v>
       </c>
       <c r="L206">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="M206">
-        <v>6.5</v>
+        <v>1.909</v>
       </c>
       <c r="N206">
-        <v>1.45</v>
+        <v>3.3</v>
       </c>
       <c r="O206">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="P206">
-        <v>6</v>
+        <v>2.15</v>
       </c>
       <c r="Q206">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R206">
-        <v>2.07</v>
+        <v>1.99</v>
       </c>
       <c r="S206">
-        <v>1.83</v>
+        <v>1.94</v>
       </c>
       <c r="T206">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U206">
-        <v>1.92</v>
+        <v>1.96</v>
       </c>
       <c r="V206">
-        <v>1.98</v>
+        <v>1.94</v>
       </c>
       <c r="W206">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X206">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y206">
         <v>-1</v>
       </c>
       <c r="Z206">
-        <v>1.07</v>
+        <v>0.495</v>
       </c>
       <c r="AA206">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB206">
         <v>-1</v>
       </c>
       <c r="AC206">
-        <v>0.98</v>
+        <v>0.9399999999999999</v>
       </c>
     </row>
     <row r="207" spans="1:29">
@@ -18971,7 +18971,7 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>5642104</v>
+        <v>5643107</v>
       </c>
       <c r="C208" t="s">
         <v>28</v>
@@ -18983,76 +18983,76 @@
         <v>45070.70833333334</v>
       </c>
       <c r="F208" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="G208" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="H208">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I208">
+        <v>3</v>
+      </c>
+      <c r="J208" t="s">
+        <v>54</v>
+      </c>
+      <c r="K208">
+        <v>4</v>
+      </c>
+      <c r="L208">
+        <v>3.75</v>
+      </c>
+      <c r="M208">
+        <v>1.833</v>
+      </c>
+      <c r="N208">
+        <v>3</v>
+      </c>
+      <c r="O208">
+        <v>3.5</v>
+      </c>
+      <c r="P208">
+        <v>2.3</v>
+      </c>
+      <c r="Q208">
+        <v>0.25</v>
+      </c>
+      <c r="R208">
+        <v>1.82</v>
+      </c>
+      <c r="S208">
+        <v>2.11</v>
+      </c>
+      <c r="T208">
+        <v>2.75</v>
+      </c>
+      <c r="U208">
+        <v>2</v>
+      </c>
+      <c r="V208">
+        <v>1.9</v>
+      </c>
+      <c r="W208">
+        <v>-1</v>
+      </c>
+      <c r="X208">
+        <v>2.5</v>
+      </c>
+      <c r="Y208">
+        <v>-1</v>
+      </c>
+      <c r="Z208">
+        <v>0.41</v>
+      </c>
+      <c r="AA208">
+        <v>-0.5</v>
+      </c>
+      <c r="AB208">
         <v>1</v>
       </c>
-      <c r="J208" t="s">
-        <v>52</v>
-      </c>
-      <c r="K208">
-        <v>1.909</v>
-      </c>
-      <c r="L208">
-        <v>3.25</v>
-      </c>
-      <c r="M208">
-        <v>4.333</v>
-      </c>
-      <c r="N208">
-        <v>2.25</v>
-      </c>
-      <c r="O208">
-        <v>2.9</v>
-      </c>
-      <c r="P208">
-        <v>3.75</v>
-      </c>
-      <c r="Q208">
-        <v>-0.25</v>
-      </c>
-      <c r="R208">
-        <v>1.96</v>
-      </c>
-      <c r="S208">
-        <v>1.97</v>
-      </c>
-      <c r="T208">
-        <v>1.75</v>
-      </c>
-      <c r="U208">
-        <v>1.81</v>
-      </c>
-      <c r="V208">
-        <v>2.09</v>
-      </c>
-      <c r="W208">
-        <v>-1</v>
-      </c>
-      <c r="X208">
-        <v>-1</v>
-      </c>
-      <c r="Y208">
-        <v>2.75</v>
-      </c>
-      <c r="Z208">
-        <v>-1</v>
-      </c>
-      <c r="AA208">
-        <v>0.97</v>
-      </c>
-      <c r="AB208">
-        <v>-1</v>
-      </c>
       <c r="AC208">
-        <v>1.09</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="209" spans="1:29">
@@ -19060,7 +19060,7 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>5643107</v>
+        <v>5642104</v>
       </c>
       <c r="C209" t="s">
         <v>28</v>
@@ -19072,76 +19072,76 @@
         <v>45070.70833333334</v>
       </c>
       <c r="F209" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="G209" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="H209">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I209">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J209" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K209">
-        <v>4</v>
+        <v>1.909</v>
       </c>
       <c r="L209">
+        <v>3.25</v>
+      </c>
+      <c r="M209">
+        <v>4.333</v>
+      </c>
+      <c r="N209">
+        <v>2.25</v>
+      </c>
+      <c r="O209">
+        <v>2.9</v>
+      </c>
+      <c r="P209">
         <v>3.75</v>
       </c>
-      <c r="M209">
-        <v>1.833</v>
-      </c>
-      <c r="N209">
-        <v>3</v>
-      </c>
-      <c r="O209">
-        <v>3.5</v>
-      </c>
-      <c r="P209">
-        <v>2.3</v>
-      </c>
       <c r="Q209">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R209">
-        <v>1.82</v>
+        <v>1.96</v>
       </c>
       <c r="S209">
-        <v>2.11</v>
+        <v>1.97</v>
       </c>
       <c r="T209">
+        <v>1.75</v>
+      </c>
+      <c r="U209">
+        <v>1.81</v>
+      </c>
+      <c r="V209">
+        <v>2.09</v>
+      </c>
+      <c r="W209">
+        <v>-1</v>
+      </c>
+      <c r="X209">
+        <v>-1</v>
+      </c>
+      <c r="Y209">
         <v>2.75</v>
       </c>
-      <c r="U209">
-        <v>2</v>
-      </c>
-      <c r="V209">
-        <v>1.9</v>
-      </c>
-      <c r="W209">
-        <v>-1</v>
-      </c>
-      <c r="X209">
-        <v>2.5</v>
-      </c>
-      <c r="Y209">
-        <v>-1</v>
-      </c>
       <c r="Z209">
-        <v>0.41</v>
+        <v>-1</v>
       </c>
       <c r="AA209">
-        <v>-0.5</v>
+        <v>0.97</v>
       </c>
       <c r="AB209">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC209">
-        <v>-1</v>
+        <v>1.09</v>
       </c>
     </row>
     <row r="210" spans="1:29">
@@ -19416,7 +19416,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>5701613</v>
+        <v>5697402</v>
       </c>
       <c r="C213" t="s">
         <v>28</v>
@@ -19428,76 +19428,76 @@
         <v>45074.58333333334</v>
       </c>
       <c r="F213" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="G213" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H213">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I213">
         <v>0</v>
       </c>
       <c r="J213" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K213">
-        <v>2.6</v>
+        <v>2.25</v>
       </c>
       <c r="L213">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M213">
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
       <c r="N213">
-        <v>2.45</v>
+        <v>2.2</v>
       </c>
       <c r="O213">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P213">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="Q213">
         <v>-0.25</v>
       </c>
       <c r="R213">
-        <v>2.075</v>
+        <v>1.97</v>
       </c>
       <c r="S213">
-        <v>1.725</v>
+        <v>1.93</v>
       </c>
       <c r="T213">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U213">
-        <v>1.95</v>
+        <v>1.86</v>
       </c>
       <c r="V213">
-        <v>1.95</v>
+        <v>2.04</v>
       </c>
       <c r="W213">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="X213">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y213">
         <v>-1</v>
       </c>
       <c r="Z213">
-        <v>1.075</v>
+        <v>-0.5</v>
       </c>
       <c r="AA213">
-        <v>-1</v>
+        <v>0.465</v>
       </c>
       <c r="AB213">
         <v>-1</v>
       </c>
       <c r="AC213">
-        <v>0.95</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="214" spans="1:29">
@@ -19505,7 +19505,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>5703047</v>
+        <v>5697401</v>
       </c>
       <c r="C214" t="s">
         <v>28</v>
@@ -19517,76 +19517,76 @@
         <v>45074.58333333334</v>
       </c>
       <c r="F214" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="G214" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H214">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I214">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J214" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K214">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="L214">
         <v>4.5</v>
       </c>
       <c r="M214">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="N214">
-        <v>1.25</v>
+        <v>1.4</v>
       </c>
       <c r="O214">
-        <v>5.75</v>
+        <v>4.5</v>
       </c>
       <c r="P214">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="Q214">
-        <v>-1.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R214">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S214">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T214">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U214">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="V214">
-        <v>1.97</v>
+        <v>1.99</v>
       </c>
       <c r="W214">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="X214">
         <v>-1</v>
       </c>
       <c r="Y214">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="Z214">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA214">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB214">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC214">
-        <v>-0</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="215" spans="1:29">
@@ -19772,7 +19772,7 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>5697401</v>
+        <v>5703047</v>
       </c>
       <c r="C217" t="s">
         <v>28</v>
@@ -19784,76 +19784,76 @@
         <v>45074.58333333334</v>
       </c>
       <c r="F217" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="G217" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H217">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I217">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J217" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K217">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="L217">
         <v>4.5</v>
       </c>
       <c r="M217">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="N217">
-        <v>1.4</v>
+        <v>1.25</v>
       </c>
       <c r="O217">
-        <v>4.5</v>
+        <v>5.75</v>
       </c>
       <c r="P217">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="Q217">
-        <v>-1.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R217">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S217">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T217">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U217">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="V217">
-        <v>1.99</v>
+        <v>1.97</v>
       </c>
       <c r="W217">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X217">
         <v>-1</v>
       </c>
       <c r="Y217">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="Z217">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA217">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB217">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC217">
-        <v>0.99</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="218" spans="1:29">
@@ -19861,7 +19861,7 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>5713343</v>
+        <v>5701613</v>
       </c>
       <c r="C218" t="s">
         <v>28</v>
@@ -19873,58 +19873,58 @@
         <v>45074.58333333334</v>
       </c>
       <c r="F218" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="G218" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="H218">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I218">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J218" t="s">
         <v>53</v>
       </c>
       <c r="K218">
-        <v>2.875</v>
+        <v>2.6</v>
       </c>
       <c r="L218">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M218">
-        <v>2.3</v>
+        <v>2.7</v>
       </c>
       <c r="N218">
-        <v>3</v>
+        <v>2.45</v>
       </c>
       <c r="O218">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="P218">
-        <v>2.2</v>
+        <v>3.1</v>
       </c>
       <c r="Q218">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R218">
-        <v>1.9</v>
+        <v>2.075</v>
       </c>
       <c r="S218">
+        <v>1.725</v>
+      </c>
+      <c r="T218">
         <v>2</v>
       </c>
-      <c r="T218">
-        <v>3</v>
-      </c>
       <c r="U218">
-        <v>2.06</v>
+        <v>1.95</v>
       </c>
       <c r="V218">
-        <v>1.84</v>
+        <v>1.95</v>
       </c>
       <c r="W218">
-        <v>2</v>
+        <v>1.45</v>
       </c>
       <c r="X218">
         <v>-1</v>
@@ -19933,16 +19933,16 @@
         <v>-1</v>
       </c>
       <c r="Z218">
-        <v>0.8999999999999999</v>
+        <v>1.075</v>
       </c>
       <c r="AA218">
         <v>-1</v>
       </c>
       <c r="AB218">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC218">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="219" spans="1:29">
@@ -19950,7 +19950,7 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>5697402</v>
+        <v>5701612</v>
       </c>
       <c r="C219" t="s">
         <v>28</v>
@@ -19962,76 +19962,76 @@
         <v>45074.58333333334</v>
       </c>
       <c r="F219" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="G219" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H219">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I219">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J219" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K219">
-        <v>2.25</v>
+        <v>1.909</v>
       </c>
       <c r="L219">
         <v>3.4</v>
       </c>
       <c r="M219">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="N219">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="O219">
-        <v>3.3</v>
+        <v>2.75</v>
       </c>
       <c r="P219">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="Q219">
         <v>-0.25</v>
       </c>
       <c r="R219">
-        <v>1.97</v>
+        <v>2.1</v>
       </c>
       <c r="S219">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="T219">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="U219">
-        <v>1.86</v>
+        <v>1.82</v>
       </c>
       <c r="V219">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="W219">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="X219">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y219">
         <v>-1</v>
       </c>
       <c r="Z219">
-        <v>-0.5</v>
+        <v>1.1</v>
       </c>
       <c r="AA219">
-        <v>0.465</v>
+        <v>-1</v>
       </c>
       <c r="AB219">
-        <v>-1</v>
+        <v>0.8200000000000001</v>
       </c>
       <c r="AC219">
-        <v>1.04</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="220" spans="1:29">
@@ -20039,7 +20039,7 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>5701612</v>
+        <v>5713343</v>
       </c>
       <c r="C220" t="s">
         <v>28</v>
@@ -20051,10 +20051,10 @@
         <v>45074.58333333334</v>
       </c>
       <c r="F220" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="G220" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="H220">
         <v>2</v>
@@ -20066,43 +20066,43 @@
         <v>53</v>
       </c>
       <c r="K220">
-        <v>1.909</v>
+        <v>2.875</v>
       </c>
       <c r="L220">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M220">
-        <v>4</v>
+        <v>2.3</v>
       </c>
       <c r="N220">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="O220">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="P220">
-        <v>3.5</v>
+        <v>2.2</v>
       </c>
       <c r="Q220">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R220">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="S220">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T220">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="U220">
-        <v>1.82</v>
+        <v>2.06</v>
       </c>
       <c r="V220">
-        <v>2.08</v>
+        <v>1.84</v>
       </c>
       <c r="W220">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="X220">
         <v>-1</v>
@@ -20111,16 +20111,16 @@
         <v>-1</v>
       </c>
       <c r="Z220">
-        <v>1.1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA220">
         <v>-1</v>
       </c>
       <c r="AB220">
-        <v>0.8200000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC220">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="221" spans="1:29">
@@ -20128,7 +20128,7 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>5734136</v>
+        <v>5776610</v>
       </c>
       <c r="C221" t="s">
         <v>28</v>
@@ -20140,76 +20140,76 @@
         <v>45081.5625</v>
       </c>
       <c r="F221" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="G221" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H221">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I221">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J221" t="s">
         <v>54</v>
       </c>
       <c r="K221">
-        <v>1.95</v>
+        <v>2.75</v>
       </c>
       <c r="L221">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M221">
-        <v>3.6</v>
+        <v>2.45</v>
       </c>
       <c r="N221">
-        <v>1.65</v>
+        <v>2.625</v>
       </c>
       <c r="O221">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P221">
-        <v>4.75</v>
+        <v>2.45</v>
       </c>
       <c r="Q221">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R221">
-        <v>1.84</v>
+        <v>2.04</v>
       </c>
       <c r="S221">
-        <v>2.06</v>
+        <v>1.86</v>
       </c>
       <c r="T221">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U221">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="V221">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="W221">
         <v>-1</v>
       </c>
       <c r="X221">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Y221">
         <v>-1</v>
       </c>
       <c r="Z221">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA221">
-        <v>1.06</v>
+        <v>-0</v>
       </c>
       <c r="AB221">
-        <v>-1</v>
+        <v>0.8799999999999999</v>
       </c>
       <c r="AC221">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="222" spans="1:29">
@@ -20306,7 +20306,7 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>5776609</v>
+        <v>5730415</v>
       </c>
       <c r="C223" t="s">
         <v>28</v>
@@ -20318,10 +20318,10 @@
         <v>45081.5625</v>
       </c>
       <c r="F223" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G223" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H223">
         <v>2</v>
@@ -20336,40 +20336,40 @@
         <v>2.25</v>
       </c>
       <c r="L223">
+        <v>3.5</v>
+      </c>
+      <c r="M223">
+        <v>3</v>
+      </c>
+      <c r="N223">
+        <v>2.05</v>
+      </c>
+      <c r="O223">
         <v>3.6</v>
       </c>
-      <c r="M223">
-        <v>2.9</v>
-      </c>
-      <c r="N223">
-        <v>1.571</v>
-      </c>
-      <c r="O223">
-        <v>4</v>
-      </c>
       <c r="P223">
-        <v>5.75</v>
+        <v>3.25</v>
       </c>
       <c r="Q223">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R223">
-        <v>2.01</v>
+        <v>1.85</v>
       </c>
       <c r="S223">
-        <v>1.89</v>
+        <v>2.05</v>
       </c>
       <c r="T223">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U223">
-        <v>1.89</v>
+        <v>2.02</v>
       </c>
       <c r="V223">
-        <v>2.01</v>
+        <v>1.88</v>
       </c>
       <c r="W223">
-        <v>0.571</v>
+        <v>1.05</v>
       </c>
       <c r="X223">
         <v>-1</v>
@@ -20378,16 +20378,16 @@
         <v>-1</v>
       </c>
       <c r="Z223">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA223">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB223">
-        <v>0.8899999999999999</v>
+        <v>0.51</v>
       </c>
       <c r="AC223">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="224" spans="1:29">
@@ -20395,7 +20395,7 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>5776610</v>
+        <v>5734136</v>
       </c>
       <c r="C224" t="s">
         <v>28</v>
@@ -20407,76 +20407,76 @@
         <v>45081.5625</v>
       </c>
       <c r="F224" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="G224" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H224">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I224">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J224" t="s">
         <v>54</v>
       </c>
       <c r="K224">
-        <v>2.75</v>
+        <v>1.95</v>
       </c>
       <c r="L224">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M224">
-        <v>2.45</v>
+        <v>3.6</v>
       </c>
       <c r="N224">
-        <v>2.625</v>
+        <v>1.65</v>
       </c>
       <c r="O224">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P224">
-        <v>2.45</v>
+        <v>4.75</v>
       </c>
       <c r="Q224">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R224">
-        <v>2.04</v>
+        <v>1.84</v>
       </c>
       <c r="S224">
-        <v>1.86</v>
+        <v>2.06</v>
       </c>
       <c r="T224">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U224">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="V224">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="W224">
         <v>-1</v>
       </c>
       <c r="X224">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Y224">
         <v>-1</v>
       </c>
       <c r="Z224">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA224">
-        <v>-0</v>
+        <v>1.06</v>
       </c>
       <c r="AB224">
-        <v>0.8799999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC224">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="225" spans="1:29">
@@ -20484,7 +20484,7 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>5730415</v>
+        <v>5776609</v>
       </c>
       <c r="C225" t="s">
         <v>28</v>
@@ -20496,10 +20496,10 @@
         <v>45081.5625</v>
       </c>
       <c r="F225" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G225" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H225">
         <v>2</v>
@@ -20514,40 +20514,40 @@
         <v>2.25</v>
       </c>
       <c r="L225">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M225">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="N225">
-        <v>2.05</v>
+        <v>1.571</v>
       </c>
       <c r="O225">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P225">
-        <v>3.25</v>
+        <v>5.75</v>
       </c>
       <c r="Q225">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R225">
-        <v>1.85</v>
+        <v>2.01</v>
       </c>
       <c r="S225">
-        <v>2.05</v>
+        <v>1.89</v>
       </c>
       <c r="T225">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U225">
-        <v>2.02</v>
+        <v>1.89</v>
       </c>
       <c r="V225">
-        <v>1.88</v>
+        <v>2.01</v>
       </c>
       <c r="W225">
-        <v>1.05</v>
+        <v>0.571</v>
       </c>
       <c r="X225">
         <v>-1</v>
@@ -20556,16 +20556,16 @@
         <v>-1</v>
       </c>
       <c r="Z225">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA225">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB225">
-        <v>0.51</v>
+        <v>0.8899999999999999</v>
       </c>
       <c r="AC225">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="226" spans="1:29">
@@ -20662,7 +20662,7 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>5762751</v>
+        <v>5732768</v>
       </c>
       <c r="C227" t="s">
         <v>28</v>
@@ -20674,76 +20674,76 @@
         <v>45081.66666666666</v>
       </c>
       <c r="F227" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="G227" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H227">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I227">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J227" t="s">
         <v>54</v>
       </c>
       <c r="K227">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="L227">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M227">
-        <v>2.2</v>
+        <v>1.909</v>
       </c>
       <c r="N227">
-        <v>2.875</v>
+        <v>2.4</v>
       </c>
       <c r="O227">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="P227">
-        <v>2.45</v>
+        <v>2.75</v>
       </c>
       <c r="Q227">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R227">
-        <v>1.78</v>
+        <v>2.1</v>
       </c>
       <c r="S227">
-        <v>2.125</v>
+        <v>1.83</v>
       </c>
       <c r="T227">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="U227">
-        <v>1.92</v>
+        <v>2.1</v>
       </c>
       <c r="V227">
-        <v>1.98</v>
+        <v>1.8</v>
       </c>
       <c r="W227">
         <v>-1</v>
       </c>
       <c r="X227">
-        <v>2.3</v>
+        <v>2.75</v>
       </c>
       <c r="Y227">
         <v>-1</v>
       </c>
       <c r="Z227">
-        <v>0.39</v>
+        <v>-0.5</v>
       </c>
       <c r="AA227">
-        <v>-0.5</v>
+        <v>0.415</v>
       </c>
       <c r="AB227">
-        <v>-0.5</v>
+        <v>1.1</v>
       </c>
       <c r="AC227">
-        <v>0.49</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="228" spans="1:29">
@@ -20840,7 +20840,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>5732768</v>
+        <v>5762751</v>
       </c>
       <c r="C229" t="s">
         <v>28</v>
@@ -20852,76 +20852,76 @@
         <v>45081.66666666666</v>
       </c>
       <c r="F229" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="G229" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H229">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I229">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J229" t="s">
         <v>54</v>
       </c>
       <c r="K229">
+        <v>3.1</v>
+      </c>
+      <c r="L229">
         <v>3.5</v>
       </c>
-      <c r="L229">
-        <v>4</v>
-      </c>
       <c r="M229">
-        <v>1.909</v>
+        <v>2.2</v>
       </c>
       <c r="N229">
-        <v>2.4</v>
+        <v>2.875</v>
       </c>
       <c r="O229">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="P229">
-        <v>2.75</v>
+        <v>2.45</v>
       </c>
       <c r="Q229">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R229">
-        <v>2.1</v>
+        <v>1.78</v>
       </c>
       <c r="S229">
-        <v>1.83</v>
+        <v>2.125</v>
       </c>
       <c r="T229">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="U229">
-        <v>2.1</v>
+        <v>1.92</v>
       </c>
       <c r="V229">
-        <v>1.8</v>
+        <v>1.98</v>
       </c>
       <c r="W229">
         <v>-1</v>
       </c>
       <c r="X229">
-        <v>2.75</v>
+        <v>2.3</v>
       </c>
       <c r="Y229">
         <v>-1</v>
       </c>
       <c r="Z229">
+        <v>0.39</v>
+      </c>
+      <c r="AA229">
         <v>-0.5</v>
       </c>
-      <c r="AA229">
-        <v>0.415</v>
-      </c>
       <c r="AB229">
-        <v>1.1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC229">
-        <v>-1</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="230" spans="1:29">
@@ -26002,7 +26002,7 @@
         <v>285</v>
       </c>
       <c r="B287">
-        <v>7173100</v>
+        <v>7173107</v>
       </c>
       <c r="C287" t="s">
         <v>28</v>
@@ -26014,76 +26014,76 @@
         <v>45193.5625</v>
       </c>
       <c r="F287" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G287" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="H287">
         <v>1</v>
       </c>
       <c r="I287">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J287" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K287">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="L287">
+        <v>3.3</v>
+      </c>
+      <c r="M287">
         <v>3.5</v>
       </c>
-      <c r="M287">
-        <v>4.5</v>
-      </c>
       <c r="N287">
-        <v>1.75</v>
+        <v>1.909</v>
       </c>
       <c r="O287">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P287">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="Q287">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R287">
-        <v>2.07</v>
+        <v>1.95</v>
       </c>
       <c r="S287">
-        <v>1.86</v>
+        <v>1.95</v>
       </c>
       <c r="T287">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U287">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="V287">
-        <v>2.01</v>
+        <v>1.95</v>
       </c>
       <c r="W287">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X287">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y287">
         <v>-1</v>
       </c>
       <c r="Z287">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA287">
-        <v>0.8600000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB287">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC287">
-        <v>0.5049999999999999</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="288" spans="1:29">
@@ -26091,7 +26091,7 @@
         <v>286</v>
       </c>
       <c r="B288">
-        <v>7173107</v>
+        <v>7173100</v>
       </c>
       <c r="C288" t="s">
         <v>28</v>
@@ -26103,76 +26103,76 @@
         <v>45193.5625</v>
       </c>
       <c r="F288" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G288" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="H288">
         <v>1</v>
       </c>
       <c r="I288">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J288" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K288">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="L288">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M288">
+        <v>4.5</v>
+      </c>
+      <c r="N288">
+        <v>1.75</v>
+      </c>
+      <c r="O288">
         <v>3.5</v>
       </c>
-      <c r="N288">
-        <v>1.909</v>
-      </c>
-      <c r="O288">
-        <v>3.6</v>
-      </c>
       <c r="P288">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="Q288">
+        <v>-0.75</v>
+      </c>
+      <c r="R288">
+        <v>2.07</v>
+      </c>
+      <c r="S288">
+        <v>1.86</v>
+      </c>
+      <c r="T288">
+        <v>2.25</v>
+      </c>
+      <c r="U288">
+        <v>1.89</v>
+      </c>
+      <c r="V288">
+        <v>2.01</v>
+      </c>
+      <c r="W288">
+        <v>-1</v>
+      </c>
+      <c r="X288">
+        <v>2.5</v>
+      </c>
+      <c r="Y288">
+        <v>-1</v>
+      </c>
+      <c r="Z288">
+        <v>-1</v>
+      </c>
+      <c r="AA288">
+        <v>0.8600000000000001</v>
+      </c>
+      <c r="AB288">
         <v>-0.5</v>
       </c>
-      <c r="R288">
-        <v>1.95</v>
-      </c>
-      <c r="S288">
-        <v>1.95</v>
-      </c>
-      <c r="T288">
-        <v>2.5</v>
-      </c>
-      <c r="U288">
-        <v>1.95</v>
-      </c>
-      <c r="V288">
-        <v>1.95</v>
-      </c>
-      <c r="W288">
-        <v>0.909</v>
-      </c>
-      <c r="X288">
-        <v>-1</v>
-      </c>
-      <c r="Y288">
-        <v>-1</v>
-      </c>
-      <c r="Z288">
-        <v>0.95</v>
-      </c>
-      <c r="AA288">
-        <v>-1</v>
-      </c>
-      <c r="AB288">
-        <v>-1</v>
-      </c>
       <c r="AC288">
-        <v>0.95</v>
+        <v>0.5049999999999999</v>
       </c>
     </row>
     <row r="289" spans="1:29">
@@ -26714,7 +26714,7 @@
         <v>293</v>
       </c>
       <c r="B295">
-        <v>6809223</v>
+        <v>6809384</v>
       </c>
       <c r="C295" t="s">
         <v>28</v>
@@ -26726,19 +26726,19 @@
         <v>45196.6875</v>
       </c>
       <c r="F295" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="G295" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="H295">
         <v>0</v>
       </c>
       <c r="I295">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J295" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K295">
         <v>2.625</v>
@@ -26750,52 +26750,52 @@
         <v>2.875</v>
       </c>
       <c r="N295">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="O295">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="P295">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="Q295">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R295">
-        <v>2.125</v>
+        <v>1.85</v>
       </c>
       <c r="S295">
-        <v>1.78</v>
+        <v>2.05</v>
       </c>
       <c r="T295">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U295">
-        <v>2.03</v>
+        <v>2.08</v>
       </c>
       <c r="V295">
-        <v>1.87</v>
+        <v>1.82</v>
       </c>
       <c r="W295">
         <v>-1</v>
       </c>
       <c r="X295">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y295">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z295">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA295">
-        <v>0.78</v>
+        <v>-0</v>
       </c>
       <c r="AB295">
         <v>-1</v>
       </c>
       <c r="AC295">
-        <v>0.8700000000000001</v>
+        <v>0.8200000000000001</v>
       </c>
     </row>
     <row r="296" spans="1:29">
@@ -26803,7 +26803,7 @@
         <v>294</v>
       </c>
       <c r="B296">
-        <v>6809384</v>
+        <v>6809223</v>
       </c>
       <c r="C296" t="s">
         <v>28</v>
@@ -26815,19 +26815,19 @@
         <v>45196.6875</v>
       </c>
       <c r="F296" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="G296" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="H296">
         <v>0</v>
       </c>
       <c r="I296">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J296" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K296">
         <v>2.625</v>
@@ -26839,52 +26839,52 @@
         <v>2.875</v>
       </c>
       <c r="N296">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="O296">
+        <v>3</v>
+      </c>
+      <c r="P296">
         <v>3.1</v>
       </c>
-      <c r="P296">
-        <v>2.9</v>
-      </c>
       <c r="Q296">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R296">
-        <v>1.85</v>
+        <v>2.125</v>
       </c>
       <c r="S296">
-        <v>2.05</v>
+        <v>1.78</v>
       </c>
       <c r="T296">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U296">
-        <v>2.08</v>
+        <v>2.03</v>
       </c>
       <c r="V296">
-        <v>1.82</v>
+        <v>1.87</v>
       </c>
       <c r="W296">
         <v>-1</v>
       </c>
       <c r="X296">
+        <v>-1</v>
+      </c>
+      <c r="Y296">
         <v>2.1</v>
       </c>
-      <c r="Y296">
-        <v>-1</v>
-      </c>
       <c r="Z296">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA296">
-        <v>-0</v>
+        <v>0.78</v>
       </c>
       <c r="AB296">
         <v>-1</v>
       </c>
       <c r="AC296">
-        <v>0.8200000000000001</v>
+        <v>0.8700000000000001</v>
       </c>
     </row>
     <row r="297" spans="1:29">
@@ -26892,7 +26892,7 @@
         <v>295</v>
       </c>
       <c r="B297">
-        <v>6809387</v>
+        <v>6809385</v>
       </c>
       <c r="C297" t="s">
         <v>28</v>
@@ -26904,10 +26904,10 @@
         <v>45197.58333333334</v>
       </c>
       <c r="F297" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="G297" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H297">
         <v>1</v>
@@ -26919,61 +26919,61 @@
         <v>54</v>
       </c>
       <c r="K297">
-        <v>2</v>
+        <v>3.2</v>
       </c>
       <c r="L297">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M297">
-        <v>4</v>
+        <v>2.25</v>
       </c>
       <c r="N297">
-        <v>1.571</v>
+        <v>2.8</v>
       </c>
       <c r="O297">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="P297">
-        <v>6.5</v>
+        <v>2.55</v>
       </c>
       <c r="Q297">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R297">
-        <v>2.06</v>
+        <v>2.07</v>
       </c>
       <c r="S297">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="T297">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U297">
-        <v>1.99</v>
+        <v>1.97</v>
       </c>
       <c r="V297">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="W297">
         <v>-1</v>
       </c>
       <c r="X297">
-        <v>2.75</v>
+        <v>2.3</v>
       </c>
       <c r="Y297">
         <v>-1</v>
       </c>
       <c r="Z297">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA297">
-        <v>0.8400000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB297">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC297">
-        <v>0.455</v>
+        <v>0.9299999999999999</v>
       </c>
     </row>
     <row r="298" spans="1:29">
@@ -26981,7 +26981,7 @@
         <v>296</v>
       </c>
       <c r="B298">
-        <v>6809385</v>
+        <v>6809387</v>
       </c>
       <c r="C298" t="s">
         <v>28</v>
@@ -26993,10 +26993,10 @@
         <v>45197.58333333334</v>
       </c>
       <c r="F298" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="G298" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H298">
         <v>1</v>
@@ -27008,61 +27008,61 @@
         <v>54</v>
       </c>
       <c r="K298">
+        <v>2</v>
+      </c>
+      <c r="L298">
         <v>3.2</v>
       </c>
-      <c r="L298">
-        <v>3.25</v>
-      </c>
       <c r="M298">
+        <v>4</v>
+      </c>
+      <c r="N298">
+        <v>1.571</v>
+      </c>
+      <c r="O298">
+        <v>3.75</v>
+      </c>
+      <c r="P298">
+        <v>6.5</v>
+      </c>
+      <c r="Q298">
+        <v>-1</v>
+      </c>
+      <c r="R298">
+        <v>2.06</v>
+      </c>
+      <c r="S298">
+        <v>1.84</v>
+      </c>
+      <c r="T298">
         <v>2.25</v>
       </c>
-      <c r="N298">
-        <v>2.8</v>
-      </c>
-      <c r="O298">
-        <v>3.3</v>
-      </c>
-      <c r="P298">
-        <v>2.55</v>
-      </c>
-      <c r="Q298">
-        <v>0</v>
-      </c>
-      <c r="R298">
-        <v>2.07</v>
-      </c>
-      <c r="S298">
-        <v>1.86</v>
-      </c>
-      <c r="T298">
-        <v>2.5</v>
-      </c>
       <c r="U298">
-        <v>1.97</v>
+        <v>1.99</v>
       </c>
       <c r="V298">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="W298">
         <v>-1</v>
       </c>
       <c r="X298">
-        <v>2.3</v>
+        <v>2.75</v>
       </c>
       <c r="Y298">
         <v>-1</v>
       </c>
       <c r="Z298">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA298">
-        <v>-0</v>
+        <v>0.8400000000000001</v>
       </c>
       <c r="AB298">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC298">
-        <v>0.9299999999999999</v>
+        <v>0.455</v>
       </c>
     </row>
     <row r="299" spans="1:29">
@@ -34991,7 +34991,7 @@
         <v>386</v>
       </c>
       <c r="B388">
-        <v>6809424</v>
+        <v>6809425</v>
       </c>
       <c r="C388" t="s">
         <v>28</v>
@@ -35003,76 +35003,76 @@
         <v>45271.70833333334</v>
       </c>
       <c r="F388" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="G388" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H388">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I388">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J388" t="s">
         <v>54</v>
       </c>
       <c r="K388">
-        <v>4.5</v>
+        <v>2.3</v>
       </c>
       <c r="L388">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M388">
-        <v>1.75</v>
+        <v>3.25</v>
       </c>
       <c r="N388">
-        <v>4.2</v>
+        <v>2.7</v>
       </c>
       <c r="O388">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="P388">
-        <v>1.85</v>
+        <v>2.8</v>
       </c>
       <c r="Q388">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R388">
-        <v>2.01</v>
+        <v>1.92</v>
       </c>
       <c r="S388">
-        <v>1.89</v>
+        <v>1.98</v>
       </c>
       <c r="T388">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U388">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V388">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="W388">
         <v>-1</v>
       </c>
       <c r="X388">
-        <v>2.75</v>
+        <v>2.1</v>
       </c>
       <c r="Y388">
         <v>-1</v>
       </c>
       <c r="Z388">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="AA388">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB388">
         <v>-1</v>
       </c>
       <c r="AC388">
-        <v>1.05</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="389" spans="1:29">
@@ -35080,7 +35080,7 @@
         <v>387</v>
       </c>
       <c r="B389">
-        <v>6809425</v>
+        <v>6809424</v>
       </c>
       <c r="C389" t="s">
         <v>28</v>
@@ -35092,76 +35092,76 @@
         <v>45271.70833333334</v>
       </c>
       <c r="F389" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="G389" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H389">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I389">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J389" t="s">
         <v>54</v>
       </c>
       <c r="K389">
-        <v>2.3</v>
+        <v>4.5</v>
       </c>
       <c r="L389">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M389">
-        <v>3.25</v>
+        <v>1.75</v>
       </c>
       <c r="N389">
-        <v>2.7</v>
+        <v>4.2</v>
       </c>
       <c r="O389">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="P389">
-        <v>2.8</v>
+        <v>1.85</v>
       </c>
       <c r="Q389">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R389">
-        <v>1.92</v>
+        <v>2.01</v>
       </c>
       <c r="S389">
-        <v>1.98</v>
+        <v>1.89</v>
       </c>
       <c r="T389">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U389">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="V389">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="W389">
         <v>-1</v>
       </c>
       <c r="X389">
-        <v>2.1</v>
+        <v>2.75</v>
       </c>
       <c r="Y389">
         <v>-1</v>
       </c>
       <c r="Z389">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AA389">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB389">
         <v>-1</v>
       </c>
       <c r="AC389">
-        <v>0.95</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="390" spans="1:29">
@@ -36415,7 +36415,7 @@
         <v>402</v>
       </c>
       <c r="B404">
-        <v>6809438</v>
+        <v>6809434</v>
       </c>
       <c r="C404" t="s">
         <v>28</v>
@@ -36427,58 +36427,58 @@
         <v>45280.72916666666</v>
       </c>
       <c r="F404" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G404" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="H404">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I404">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J404" t="s">
         <v>53</v>
       </c>
       <c r="K404">
-        <v>2.15</v>
+        <v>1.4</v>
       </c>
       <c r="L404">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="M404">
-        <v>2.9</v>
+        <v>7</v>
       </c>
       <c r="N404">
-        <v>2.3</v>
+        <v>1.363</v>
       </c>
       <c r="O404">
-        <v>3.5</v>
+        <v>5.25</v>
       </c>
       <c r="P404">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="Q404">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R404">
-        <v>2.08</v>
+        <v>1.87</v>
       </c>
       <c r="S404">
-        <v>1.82</v>
+        <v>2.06</v>
       </c>
       <c r="T404">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U404">
-        <v>2.06</v>
+        <v>1.91</v>
       </c>
       <c r="V404">
-        <v>1.84</v>
+        <v>1.99</v>
       </c>
       <c r="W404">
-        <v>1.3</v>
+        <v>0.363</v>
       </c>
       <c r="X404">
         <v>-1</v>
@@ -36487,16 +36487,16 @@
         <v>-1</v>
       </c>
       <c r="Z404">
-        <v>1.08</v>
+        <v>-0.5</v>
       </c>
       <c r="AA404">
-        <v>-1</v>
+        <v>0.53</v>
       </c>
       <c r="AB404">
-        <v>1.06</v>
+        <v>-1</v>
       </c>
       <c r="AC404">
-        <v>-1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="405" spans="1:29">
@@ -36504,7 +36504,7 @@
         <v>403</v>
       </c>
       <c r="B405">
-        <v>6809434</v>
+        <v>6809438</v>
       </c>
       <c r="C405" t="s">
         <v>28</v>
@@ -36516,58 +36516,58 @@
         <v>45280.72916666666</v>
       </c>
       <c r="F405" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G405" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="H405">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I405">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J405" t="s">
         <v>53</v>
       </c>
       <c r="K405">
-        <v>1.4</v>
+        <v>2.15</v>
       </c>
       <c r="L405">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="M405">
-        <v>7</v>
+        <v>2.9</v>
       </c>
       <c r="N405">
-        <v>1.363</v>
+        <v>2.3</v>
       </c>
       <c r="O405">
-        <v>5.25</v>
+        <v>3.5</v>
       </c>
       <c r="P405">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="Q405">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R405">
-        <v>1.87</v>
+        <v>2.08</v>
       </c>
       <c r="S405">
+        <v>1.82</v>
+      </c>
+      <c r="T405">
+        <v>2.5</v>
+      </c>
+      <c r="U405">
         <v>2.06</v>
       </c>
-      <c r="T405">
-        <v>2.75</v>
-      </c>
-      <c r="U405">
-        <v>1.91</v>
-      </c>
       <c r="V405">
-        <v>1.99</v>
+        <v>1.84</v>
       </c>
       <c r="W405">
-        <v>0.363</v>
+        <v>1.3</v>
       </c>
       <c r="X405">
         <v>-1</v>
@@ -36576,16 +36576,16 @@
         <v>-1</v>
       </c>
       <c r="Z405">
-        <v>-0.5</v>
+        <v>1.08</v>
       </c>
       <c r="AA405">
-        <v>0.53</v>
+        <v>-1</v>
       </c>
       <c r="AB405">
-        <v>-1</v>
+        <v>1.06</v>
       </c>
       <c r="AC405">
-        <v>0.99</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="406" spans="1:29">
@@ -36771,7 +36771,7 @@
         <v>406</v>
       </c>
       <c r="B408">
-        <v>6809437</v>
+        <v>6809290</v>
       </c>
       <c r="C408" t="s">
         <v>28</v>
@@ -36783,76 +36783,76 @@
         <v>45281.72916666666</v>
       </c>
       <c r="F408" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="G408" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="H408">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I408">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J408" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K408">
-        <v>4.75</v>
+        <v>2.2</v>
       </c>
       <c r="L408">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="M408">
-        <v>1.666</v>
+        <v>3.4</v>
       </c>
       <c r="N408">
-        <v>5.5</v>
+        <v>2.2</v>
       </c>
       <c r="O408">
-        <v>4.2</v>
+        <v>2.9</v>
       </c>
       <c r="P408">
-        <v>1.571</v>
+        <v>4</v>
       </c>
       <c r="Q408">
-        <v>1</v>
+        <v>-0.25</v>
       </c>
       <c r="R408">
-        <v>1.83</v>
+        <v>1.89</v>
       </c>
       <c r="S408">
-        <v>2.07</v>
+        <v>2.01</v>
       </c>
       <c r="T408">
-        <v>2.5</v>
+        <v>1.75</v>
       </c>
       <c r="U408">
-        <v>1.88</v>
+        <v>1.95</v>
       </c>
       <c r="V408">
-        <v>2.02</v>
+        <v>1.95</v>
       </c>
       <c r="W408">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X408">
         <v>-1</v>
       </c>
       <c r="Y408">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="Z408">
-        <v>0</v>
+        <v>0.8899999999999999</v>
       </c>
       <c r="AA408">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB408">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC408">
-        <v>1.02</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="409" spans="1:29">
@@ -36860,7 +36860,7 @@
         <v>407</v>
       </c>
       <c r="B409">
-        <v>6809290</v>
+        <v>6809437</v>
       </c>
       <c r="C409" t="s">
         <v>28</v>
@@ -36872,76 +36872,76 @@
         <v>45281.72916666666</v>
       </c>
       <c r="F409" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="G409" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="H409">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I409">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J409" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K409">
-        <v>2.2</v>
+        <v>4.75</v>
       </c>
       <c r="L409">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="M409">
-        <v>3.4</v>
+        <v>1.666</v>
       </c>
       <c r="N409">
-        <v>2.2</v>
+        <v>5.5</v>
       </c>
       <c r="O409">
-        <v>2.9</v>
+        <v>4.2</v>
       </c>
       <c r="P409">
-        <v>4</v>
+        <v>1.571</v>
       </c>
       <c r="Q409">
-        <v>-0.25</v>
+        <v>1</v>
       </c>
       <c r="R409">
-        <v>1.89</v>
+        <v>1.83</v>
       </c>
       <c r="S409">
-        <v>2.01</v>
+        <v>2.07</v>
       </c>
       <c r="T409">
-        <v>1.75</v>
+        <v>2.5</v>
       </c>
       <c r="U409">
-        <v>1.95</v>
+        <v>1.88</v>
       </c>
       <c r="V409">
-        <v>1.95</v>
+        <v>2.02</v>
       </c>
       <c r="W409">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X409">
         <v>-1</v>
       </c>
       <c r="Y409">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="Z409">
-        <v>0.8899999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA409">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB409">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC409">
-        <v>-1</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="410" spans="1:29">
@@ -37394,7 +37394,7 @@
         <v>413</v>
       </c>
       <c r="B415">
-        <v>6809440</v>
+        <v>6809442</v>
       </c>
       <c r="C415" t="s">
         <v>28</v>
@@ -37406,58 +37406,58 @@
         <v>45294.63541666666</v>
       </c>
       <c r="F415" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="G415" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="H415">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I415">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J415" t="s">
         <v>53</v>
       </c>
       <c r="K415">
-        <v>2.25</v>
+        <v>1.222</v>
       </c>
       <c r="L415">
-        <v>3.2</v>
+        <v>6.5</v>
       </c>
       <c r="M415">
-        <v>3.25</v>
+        <v>11</v>
       </c>
       <c r="N415">
-        <v>2.15</v>
+        <v>1.2</v>
       </c>
       <c r="O415">
-        <v>3.2</v>
+        <v>6.5</v>
       </c>
       <c r="P415">
-        <v>3.5</v>
+        <v>15</v>
       </c>
       <c r="Q415">
-        <v>-0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R415">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="S415">
-        <v>2.04</v>
+        <v>1.98</v>
       </c>
       <c r="T415">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U415">
-        <v>1.86</v>
+        <v>2.02</v>
       </c>
       <c r="V415">
-        <v>2.04</v>
+        <v>1.88</v>
       </c>
       <c r="W415">
-        <v>1.15</v>
+        <v>0.2</v>
       </c>
       <c r="X415">
         <v>-1</v>
@@ -37466,16 +37466,16 @@
         <v>-1</v>
       </c>
       <c r="Z415">
-        <v>0.8899999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA415">
-        <v>-1</v>
+        <v>0.98</v>
       </c>
       <c r="AB415">
-        <v>0.8600000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC415">
-        <v>-1</v>
+        <v>0.8799999999999999</v>
       </c>
     </row>
     <row r="416" spans="1:29">
@@ -37483,7 +37483,7 @@
         <v>414</v>
       </c>
       <c r="B416">
-        <v>6809442</v>
+        <v>6809440</v>
       </c>
       <c r="C416" t="s">
         <v>28</v>
@@ -37495,58 +37495,58 @@
         <v>45294.63541666666</v>
       </c>
       <c r="F416" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="G416" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="H416">
+        <v>2</v>
+      </c>
+      <c r="I416">
         <v>1</v>
-      </c>
-      <c r="I416">
-        <v>0</v>
       </c>
       <c r="J416" t="s">
         <v>53</v>
       </c>
       <c r="K416">
-        <v>1.222</v>
+        <v>2.25</v>
       </c>
       <c r="L416">
-        <v>6.5</v>
+        <v>3.2</v>
       </c>
       <c r="M416">
-        <v>11</v>
+        <v>3.25</v>
       </c>
       <c r="N416">
-        <v>1.2</v>
+        <v>2.15</v>
       </c>
       <c r="O416">
-        <v>6.5</v>
+        <v>3.2</v>
       </c>
       <c r="P416">
-        <v>15</v>
+        <v>3.5</v>
       </c>
       <c r="Q416">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R416">
-        <v>1.95</v>
+        <v>1.89</v>
       </c>
       <c r="S416">
-        <v>1.98</v>
+        <v>2.04</v>
       </c>
       <c r="T416">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U416">
-        <v>2.02</v>
+        <v>1.86</v>
       </c>
       <c r="V416">
-        <v>1.88</v>
+        <v>2.04</v>
       </c>
       <c r="W416">
-        <v>0.2</v>
+        <v>1.15</v>
       </c>
       <c r="X416">
         <v>-1</v>
@@ -37555,16 +37555,16 @@
         <v>-1</v>
       </c>
       <c r="Z416">
-        <v>-1</v>
+        <v>0.8899999999999999</v>
       </c>
       <c r="AA416">
-        <v>0.98</v>
+        <v>-1</v>
       </c>
       <c r="AB416">
-        <v>-1</v>
+        <v>0.8600000000000001</v>
       </c>
       <c r="AC416">
-        <v>0.8799999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="417" spans="1:29">
@@ -41505,6 +41505,15 @@
       <c r="G461" t="s">
         <v>48</v>
       </c>
+      <c r="H461">
+        <v>0</v>
+      </c>
+      <c r="I461">
+        <v>2</v>
+      </c>
+      <c r="J461" t="s">
+        <v>52</v>
+      </c>
       <c r="K461">
         <v>3.25</v>
       </c>
@@ -41518,43 +41527,49 @@
         <v>3</v>
       </c>
       <c r="O461">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="P461">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="Q461">
         <v>0</v>
       </c>
       <c r="R461">
-        <v>2.04</v>
+        <v>2.09</v>
       </c>
       <c r="S461">
-        <v>1.86</v>
+        <v>1.84</v>
       </c>
       <c r="T461">
         <v>2</v>
       </c>
       <c r="U461">
-        <v>1.83</v>
+        <v>2.01</v>
       </c>
       <c r="V461">
-        <v>2.07</v>
+        <v>1.89</v>
       </c>
       <c r="W461">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X461">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y461">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="Z461">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA461">
-        <v>0</v>
+        <v>0.8400000000000001</v>
+      </c>
+      <c r="AB461">
+        <v>0</v>
+      </c>
+      <c r="AC461">
+        <v>-0</v>
       </c>
     </row>
     <row r="462" spans="1:29">
@@ -41562,7 +41577,7 @@
         <v>460</v>
       </c>
       <c r="B462">
-        <v>6809466</v>
+        <v>6809468</v>
       </c>
       <c r="C462" t="s">
         <v>28</v>
@@ -41571,49 +41586,49 @@
         <v>28</v>
       </c>
       <c r="E462" s="2">
-        <v>45332.41666666666</v>
+        <v>45333.41666666666</v>
       </c>
       <c r="F462" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="G462" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="K462">
-        <v>2.375</v>
+        <v>2.25</v>
       </c>
       <c r="L462">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M462">
-        <v>2.875</v>
+        <v>3.2</v>
       </c>
       <c r="N462">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="O462">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="P462">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="Q462">
         <v>-0.25</v>
       </c>
       <c r="R462">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="S462">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="T462">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U462">
-        <v>2.05</v>
+        <v>1.93</v>
       </c>
       <c r="V462">
-        <v>1.85</v>
+        <v>1.97</v>
       </c>
       <c r="W462">
         <v>0</v>
@@ -41636,7 +41651,7 @@
         <v>461</v>
       </c>
       <c r="B463">
-        <v>6809323</v>
+        <v>6809465</v>
       </c>
       <c r="C463" t="s">
         <v>28</v>
@@ -41645,49 +41660,49 @@
         <v>28</v>
       </c>
       <c r="E463" s="2">
-        <v>45332.51041666666</v>
+        <v>45333.51041666666</v>
       </c>
       <c r="F463" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="G463" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="K463">
-        <v>1.727</v>
+        <v>2.3</v>
       </c>
       <c r="L463">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="M463">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="N463">
-        <v>1.833</v>
+        <v>2.3</v>
       </c>
       <c r="O463">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="P463">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="Q463">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R463">
+        <v>2.07</v>
+      </c>
+      <c r="S463">
         <v>1.86</v>
-      </c>
-      <c r="S463">
-        <v>2.04</v>
       </c>
       <c r="T463">
         <v>1.75</v>
       </c>
       <c r="U463">
-        <v>1.82</v>
+        <v>1.88</v>
       </c>
       <c r="V463">
-        <v>2.08</v>
+        <v>2.02</v>
       </c>
       <c r="W463">
         <v>0</v>
@@ -41710,7 +41725,7 @@
         <v>462</v>
       </c>
       <c r="B464">
-        <v>6809322</v>
+        <v>6809321</v>
       </c>
       <c r="C464" t="s">
         <v>28</v>
@@ -41719,43 +41734,43 @@
         <v>28</v>
       </c>
       <c r="E464" s="2">
-        <v>45332.60416666666</v>
+        <v>45333.60416666666</v>
       </c>
       <c r="F464" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="G464" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="K464">
-        <v>1.571</v>
+        <v>3.75</v>
       </c>
       <c r="L464">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M464">
-        <v>5.5</v>
+        <v>2</v>
       </c>
       <c r="N464">
-        <v>1.45</v>
+        <v>3.6</v>
       </c>
       <c r="O464">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="P464">
-        <v>6.5</v>
+        <v>2.05</v>
       </c>
       <c r="Q464">
-        <v>-1.25</v>
+        <v>0.5</v>
       </c>
       <c r="R464">
-        <v>1.92</v>
+        <v>1.86</v>
       </c>
       <c r="S464">
-        <v>1.98</v>
+        <v>2.07</v>
       </c>
       <c r="T464">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U464">
         <v>1.95</v>
@@ -41784,7 +41799,7 @@
         <v>463</v>
       </c>
       <c r="B465">
-        <v>6809320</v>
+        <v>6809319</v>
       </c>
       <c r="C465" t="s">
         <v>28</v>
@@ -41793,49 +41808,49 @@
         <v>28</v>
       </c>
       <c r="E465" s="2">
-        <v>45332.70833333334</v>
+        <v>45333.70833333334</v>
       </c>
       <c r="F465" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G465" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="K465">
-        <v>2.875</v>
+        <v>1.25</v>
       </c>
       <c r="L465">
-        <v>3</v>
+        <v>6.5</v>
       </c>
       <c r="M465">
-        <v>2.6</v>
+        <v>9</v>
       </c>
       <c r="N465">
-        <v>2.625</v>
+        <v>1.222</v>
       </c>
       <c r="O465">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="P465">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="Q465">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="R465">
-        <v>1.83</v>
+        <v>1.93</v>
       </c>
       <c r="S465">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="T465">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="U465">
-        <v>1.95</v>
+        <v>1.88</v>
       </c>
       <c r="V465">
-        <v>1.95</v>
+        <v>2.02</v>
       </c>
       <c r="W465">
         <v>0</v>
@@ -41858,7 +41873,7 @@
         <v>464</v>
       </c>
       <c r="B466">
-        <v>6809468</v>
+        <v>6809318</v>
       </c>
       <c r="C466" t="s">
         <v>28</v>
@@ -41867,49 +41882,49 @@
         <v>28</v>
       </c>
       <c r="E466" s="2">
-        <v>45333.41666666666</v>
+        <v>45334.70833333334</v>
       </c>
       <c r="F466" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="G466" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K466">
-        <v>2.25</v>
+        <v>4.2</v>
       </c>
       <c r="L466">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="M466">
-        <v>3.2</v>
+        <v>1.8</v>
       </c>
       <c r="N466">
-        <v>2.2</v>
+        <v>4.333</v>
       </c>
       <c r="O466">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="P466">
-        <v>3.6</v>
+        <v>1.727</v>
       </c>
       <c r="Q466">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R466">
-        <v>1.9</v>
+        <v>1.94</v>
       </c>
       <c r="S466">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="T466">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U466">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="V466">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="W466">
         <v>0</v>
@@ -41932,7 +41947,7 @@
         <v>465</v>
       </c>
       <c r="B467">
-        <v>6809465</v>
+        <v>7791486</v>
       </c>
       <c r="C467" t="s">
         <v>28</v>
@@ -41941,49 +41956,49 @@
         <v>28</v>
       </c>
       <c r="E467" s="2">
-        <v>45333.51041666666</v>
+        <v>45338.70833333334</v>
       </c>
       <c r="F467" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G467" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="K467">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="L467">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="M467">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="N467">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="O467">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="P467">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="Q467">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R467">
-        <v>2.02</v>
+        <v>2.09</v>
       </c>
       <c r="S467">
-        <v>1.88</v>
+        <v>1.81</v>
       </c>
       <c r="T467">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U467">
-        <v>2.1</v>
+        <v>1.98</v>
       </c>
       <c r="V467">
-        <v>1.8</v>
+        <v>1.92</v>
       </c>
       <c r="W467">
         <v>0</v>
@@ -42006,7 +42021,7 @@
         <v>466</v>
       </c>
       <c r="B468">
-        <v>6809321</v>
+        <v>7791487</v>
       </c>
       <c r="C468" t="s">
         <v>28</v>
@@ -42015,49 +42030,49 @@
         <v>28</v>
       </c>
       <c r="E468" s="2">
-        <v>45333.60416666666</v>
+        <v>45339.41666666666</v>
       </c>
       <c r="F468" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G468" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="K468">
-        <v>3.75</v>
+        <v>1.333</v>
       </c>
       <c r="L468">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="M468">
-        <v>2</v>
+        <v>8.5</v>
       </c>
       <c r="N468">
-        <v>3.6</v>
+        <v>1.363</v>
       </c>
       <c r="O468">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="P468">
-        <v>2.05</v>
+        <v>8</v>
       </c>
       <c r="Q468">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R468">
-        <v>2.07</v>
+        <v>1.84</v>
       </c>
       <c r="S468">
-        <v>1.83</v>
+        <v>2.06</v>
       </c>
       <c r="T468">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U468">
-        <v>1.89</v>
+        <v>1.92</v>
       </c>
       <c r="V468">
-        <v>2.01</v>
+        <v>1.98</v>
       </c>
       <c r="W468">
         <v>0</v>
@@ -42080,7 +42095,7 @@
         <v>467</v>
       </c>
       <c r="B469">
-        <v>6809319</v>
+        <v>7791488</v>
       </c>
       <c r="C469" t="s">
         <v>28</v>
@@ -42089,34 +42104,34 @@
         <v>28</v>
       </c>
       <c r="E469" s="2">
-        <v>45333.70833333334</v>
+        <v>45339.51041666666</v>
       </c>
       <c r="F469" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G469" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="K469">
-        <v>1.25</v>
+        <v>1.7</v>
       </c>
       <c r="L469">
-        <v>6.5</v>
+        <v>3.4</v>
       </c>
       <c r="M469">
-        <v>9</v>
+        <v>5.25</v>
       </c>
       <c r="N469">
-        <v>1.222</v>
+        <v>1.727</v>
       </c>
       <c r="O469">
-        <v>7.5</v>
+        <v>3.4</v>
       </c>
       <c r="P469">
-        <v>10</v>
+        <v>5.5</v>
       </c>
       <c r="Q469">
-        <v>-2</v>
+        <v>-0.75</v>
       </c>
       <c r="R469">
         <v>2.03</v>
@@ -42125,13 +42140,13 @@
         <v>1.87</v>
       </c>
       <c r="T469">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="U469">
-        <v>2.05</v>
+        <v>1.89</v>
       </c>
       <c r="V469">
-        <v>1.85</v>
+        <v>2.01</v>
       </c>
       <c r="W469">
         <v>0</v>
@@ -42154,7 +42169,7 @@
         <v>468</v>
       </c>
       <c r="B470">
-        <v>6809318</v>
+        <v>7791489</v>
       </c>
       <c r="C470" t="s">
         <v>28</v>
@@ -42163,34 +42178,34 @@
         <v>28</v>
       </c>
       <c r="E470" s="2">
-        <v>45334.70833333334</v>
+        <v>45339.60416666666</v>
       </c>
       <c r="F470" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G470" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="K470">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="L470">
         <v>3.75</v>
       </c>
       <c r="M470">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="N470">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="O470">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P470">
-        <v>1.7</v>
+        <v>1.909</v>
       </c>
       <c r="Q470">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R470">
         <v>1.95</v>
@@ -42199,27 +42214,397 @@
         <v>1.95</v>
       </c>
       <c r="T470">
+        <v>2.75</v>
+      </c>
+      <c r="U470">
+        <v>1.86</v>
+      </c>
+      <c r="V470">
+        <v>2.04</v>
+      </c>
+      <c r="W470">
+        <v>0</v>
+      </c>
+      <c r="X470">
+        <v>0</v>
+      </c>
+      <c r="Y470">
+        <v>0</v>
+      </c>
+      <c r="Z470">
+        <v>0</v>
+      </c>
+      <c r="AA470">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="471" spans="1:27">
+      <c r="A471" s="1">
+        <v>469</v>
+      </c>
+      <c r="B471">
+        <v>7791495</v>
+      </c>
+      <c r="C471" t="s">
+        <v>28</v>
+      </c>
+      <c r="D471" t="s">
+        <v>28</v>
+      </c>
+      <c r="E471" s="2">
+        <v>45339.70833333334</v>
+      </c>
+      <c r="F471" t="s">
+        <v>30</v>
+      </c>
+      <c r="G471" t="s">
+        <v>36</v>
+      </c>
+      <c r="K471">
+        <v>2.05</v>
+      </c>
+      <c r="L471">
+        <v>3.4</v>
+      </c>
+      <c r="M471">
+        <v>3.5</v>
+      </c>
+      <c r="N471">
+        <v>2.05</v>
+      </c>
+      <c r="O471">
+        <v>3.4</v>
+      </c>
+      <c r="P471">
+        <v>3.6</v>
+      </c>
+      <c r="Q471">
+        <v>-0.25</v>
+      </c>
+      <c r="R471">
+        <v>1.83</v>
+      </c>
+      <c r="S471">
+        <v>2.07</v>
+      </c>
+      <c r="T471">
+        <v>2.25</v>
+      </c>
+      <c r="U471">
+        <v>1.93</v>
+      </c>
+      <c r="V471">
+        <v>1.97</v>
+      </c>
+      <c r="W471">
+        <v>0</v>
+      </c>
+      <c r="X471">
+        <v>0</v>
+      </c>
+      <c r="Y471">
+        <v>0</v>
+      </c>
+      <c r="Z471">
+        <v>0</v>
+      </c>
+      <c r="AA471">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="472" spans="1:27">
+      <c r="A472" s="1">
+        <v>470</v>
+      </c>
+      <c r="B472">
+        <v>7791496</v>
+      </c>
+      <c r="C472" t="s">
+        <v>28</v>
+      </c>
+      <c r="D472" t="s">
+        <v>28</v>
+      </c>
+      <c r="E472" s="2">
+        <v>45340.41666666666</v>
+      </c>
+      <c r="F472" t="s">
+        <v>35</v>
+      </c>
+      <c r="G472" t="s">
+        <v>47</v>
+      </c>
+      <c r="K472">
+        <v>5</v>
+      </c>
+      <c r="L472">
+        <v>3.75</v>
+      </c>
+      <c r="M472">
+        <v>1.666</v>
+      </c>
+      <c r="N472">
+        <v>5.5</v>
+      </c>
+      <c r="O472">
+        <v>3.8</v>
+      </c>
+      <c r="P472">
+        <v>1.615</v>
+      </c>
+      <c r="Q472">
+        <v>0.75</v>
+      </c>
+      <c r="R472">
+        <v>2.09</v>
+      </c>
+      <c r="S472">
+        <v>1.81</v>
+      </c>
+      <c r="T472">
         <v>2.5</v>
       </c>
-      <c r="U470">
+      <c r="U472">
+        <v>1.85</v>
+      </c>
+      <c r="V472">
+        <v>2.05</v>
+      </c>
+      <c r="W472">
+        <v>0</v>
+      </c>
+      <c r="X472">
+        <v>0</v>
+      </c>
+      <c r="Y472">
+        <v>0</v>
+      </c>
+      <c r="Z472">
+        <v>0</v>
+      </c>
+      <c r="AA472">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="473" spans="1:27">
+      <c r="A473" s="1">
+        <v>471</v>
+      </c>
+      <c r="B473">
+        <v>7791497</v>
+      </c>
+      <c r="C473" t="s">
+        <v>28</v>
+      </c>
+      <c r="D473" t="s">
+        <v>28</v>
+      </c>
+      <c r="E473" s="2">
+        <v>45340.51041666666</v>
+      </c>
+      <c r="F473" t="s">
+        <v>51</v>
+      </c>
+      <c r="G473" t="s">
+        <v>34</v>
+      </c>
+      <c r="K473">
+        <v>2</v>
+      </c>
+      <c r="L473">
+        <v>3.5</v>
+      </c>
+      <c r="M473">
+        <v>3.4</v>
+      </c>
+      <c r="N473">
+        <v>2</v>
+      </c>
+      <c r="O473">
+        <v>3.6</v>
+      </c>
+      <c r="P473">
+        <v>3.5</v>
+      </c>
+      <c r="Q473">
+        <v>-0.5</v>
+      </c>
+      <c r="R473">
+        <v>2.08</v>
+      </c>
+      <c r="S473">
+        <v>1.82</v>
+      </c>
+      <c r="T473">
+        <v>2.5</v>
+      </c>
+      <c r="U473">
+        <v>1.91</v>
+      </c>
+      <c r="V473">
+        <v>1.99</v>
+      </c>
+      <c r="W473">
+        <v>0</v>
+      </c>
+      <c r="X473">
+        <v>0</v>
+      </c>
+      <c r="Y473">
+        <v>0</v>
+      </c>
+      <c r="Z473">
+        <v>0</v>
+      </c>
+      <c r="AA473">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="474" spans="1:27">
+      <c r="A474" s="1">
+        <v>472</v>
+      </c>
+      <c r="B474">
+        <v>7791498</v>
+      </c>
+      <c r="C474" t="s">
+        <v>28</v>
+      </c>
+      <c r="D474" t="s">
+        <v>28</v>
+      </c>
+      <c r="E474" s="2">
+        <v>45340.60416666666</v>
+      </c>
+      <c r="F474" t="s">
+        <v>32</v>
+      </c>
+      <c r="G474" t="s">
+        <v>43</v>
+      </c>
+      <c r="K474">
+        <v>3.1</v>
+      </c>
+      <c r="L474">
+        <v>2.875</v>
+      </c>
+      <c r="M474">
+        <v>2.55</v>
+      </c>
+      <c r="N474">
+        <v>3.2</v>
+      </c>
+      <c r="O474">
+        <v>2.875</v>
+      </c>
+      <c r="P474">
+        <v>2.45</v>
+      </c>
+      <c r="Q474">
+        <v>0.25</v>
+      </c>
+      <c r="R474">
+        <v>1.78</v>
+      </c>
+      <c r="S474">
+        <v>2.125</v>
+      </c>
+      <c r="T474">
+        <v>1.75</v>
+      </c>
+      <c r="U474">
+        <v>1.92</v>
+      </c>
+      <c r="V474">
+        <v>1.98</v>
+      </c>
+      <c r="W474">
+        <v>0</v>
+      </c>
+      <c r="X474">
+        <v>0</v>
+      </c>
+      <c r="Y474">
+        <v>0</v>
+      </c>
+      <c r="Z474">
+        <v>0</v>
+      </c>
+      <c r="AA474">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="475" spans="1:27">
+      <c r="A475" s="1">
+        <v>473</v>
+      </c>
+      <c r="B475">
+        <v>6809473</v>
+      </c>
+      <c r="C475" t="s">
+        <v>28</v>
+      </c>
+      <c r="D475" t="s">
+        <v>28</v>
+      </c>
+      <c r="E475" s="2">
+        <v>45340.70833333334</v>
+      </c>
+      <c r="F475" t="s">
+        <v>48</v>
+      </c>
+      <c r="G475" t="s">
+        <v>50</v>
+      </c>
+      <c r="K475">
+        <v>1.95</v>
+      </c>
+      <c r="L475">
+        <v>3.4</v>
+      </c>
+      <c r="M475">
+        <v>3.6</v>
+      </c>
+      <c r="N475">
+        <v>2</v>
+      </c>
+      <c r="O475">
+        <v>3.25</v>
+      </c>
+      <c r="P475">
+        <v>4</v>
+      </c>
+      <c r="Q475">
+        <v>-0.5</v>
+      </c>
+      <c r="R475">
+        <v>2.06</v>
+      </c>
+      <c r="S475">
         <v>1.84</v>
       </c>
-      <c r="V470">
-        <v>2.06</v>
-      </c>
-      <c r="W470">
-        <v>0</v>
-      </c>
-      <c r="X470">
-        <v>0</v>
-      </c>
-      <c r="Y470">
-        <v>0</v>
-      </c>
-      <c r="Z470">
-        <v>0</v>
-      </c>
-      <c r="AA470">
+      <c r="T475">
+        <v>2.25</v>
+      </c>
+      <c r="U475">
+        <v>1.95</v>
+      </c>
+      <c r="V475">
+        <v>1.95</v>
+      </c>
+      <c r="W475">
+        <v>0</v>
+      </c>
+      <c r="X475">
+        <v>0</v>
+      </c>
+      <c r="Y475">
+        <v>0</v>
+      </c>
+      <c r="Z475">
+        <v>0</v>
+      </c>
+      <c r="AA475">
         <v>0</v>
       </c>
     </row>

--- a/Spain Primera Liga/Spain Primera Liga.xlsx
+++ b/Spain Primera Liga/Spain Primera Liga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2384" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2413" uniqueCount="55">
   <si>
     <t>id</t>
   </si>
@@ -540,7 +540,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC475"/>
+  <dimension ref="A1:AC480"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -13364,7 +13364,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>5210954</v>
+        <v>5210955</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -13376,58 +13376,58 @@
         <v>45038.5625</v>
       </c>
       <c r="F145" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G145" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="H145">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I145">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J145" t="s">
         <v>53</v>
       </c>
       <c r="K145">
-        <v>1.666</v>
+        <v>2.25</v>
       </c>
       <c r="L145">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M145">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="N145">
-        <v>1.65</v>
+        <v>2.5</v>
       </c>
       <c r="O145">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P145">
-        <v>5.75</v>
+        <v>2.8</v>
       </c>
       <c r="Q145">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R145">
-        <v>1.89</v>
+        <v>1.79</v>
       </c>
       <c r="S145">
-        <v>2.01</v>
+        <v>2.11</v>
       </c>
       <c r="T145">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U145">
-        <v>2.01</v>
+        <v>2.05</v>
       </c>
       <c r="V145">
-        <v>1.89</v>
+        <v>1.85</v>
       </c>
       <c r="W145">
-        <v>0.6499999999999999</v>
+        <v>1.5</v>
       </c>
       <c r="X145">
         <v>-1</v>
@@ -13436,16 +13436,16 @@
         <v>-1</v>
       </c>
       <c r="Z145">
-        <v>0.445</v>
+        <v>0.79</v>
       </c>
       <c r="AA145">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB145">
-        <v>1.01</v>
+        <v>-1</v>
       </c>
       <c r="AC145">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="146" spans="1:29">
@@ -13453,7 +13453,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>5210955</v>
+        <v>5210954</v>
       </c>
       <c r="C146" t="s">
         <v>28</v>
@@ -13465,58 +13465,58 @@
         <v>45038.5625</v>
       </c>
       <c r="F146" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G146" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="H146">
+        <v>2</v>
+      </c>
+      <c r="I146">
         <v>1</v>
-      </c>
-      <c r="I146">
-        <v>0</v>
       </c>
       <c r="J146" t="s">
         <v>53</v>
       </c>
       <c r="K146">
+        <v>1.666</v>
+      </c>
+      <c r="L146">
+        <v>3.75</v>
+      </c>
+      <c r="M146">
+        <v>5</v>
+      </c>
+      <c r="N146">
+        <v>1.65</v>
+      </c>
+      <c r="O146">
+        <v>3.6</v>
+      </c>
+      <c r="P146">
+        <v>5.75</v>
+      </c>
+      <c r="Q146">
+        <v>-0.75</v>
+      </c>
+      <c r="R146">
+        <v>1.89</v>
+      </c>
+      <c r="S146">
+        <v>2.01</v>
+      </c>
+      <c r="T146">
         <v>2.25</v>
       </c>
-      <c r="L146">
-        <v>3.4</v>
-      </c>
-      <c r="M146">
-        <v>3.1</v>
-      </c>
-      <c r="N146">
-        <v>2.5</v>
-      </c>
-      <c r="O146">
-        <v>3.4</v>
-      </c>
-      <c r="P146">
-        <v>2.8</v>
-      </c>
-      <c r="Q146">
-        <v>0</v>
-      </c>
-      <c r="R146">
-        <v>1.79</v>
-      </c>
-      <c r="S146">
-        <v>2.11</v>
-      </c>
-      <c r="T146">
-        <v>2.5</v>
-      </c>
       <c r="U146">
-        <v>2.05</v>
+        <v>2.01</v>
       </c>
       <c r="V146">
-        <v>1.85</v>
+        <v>1.89</v>
       </c>
       <c r="W146">
-        <v>1.5</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X146">
         <v>-1</v>
@@ -13525,16 +13525,16 @@
         <v>-1</v>
       </c>
       <c r="Z146">
-        <v>0.79</v>
+        <v>0.445</v>
       </c>
       <c r="AA146">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB146">
-        <v>-1</v>
+        <v>1.01</v>
       </c>
       <c r="AC146">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="147" spans="1:29">
@@ -13987,7 +13987,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>5461881</v>
+        <v>5470775</v>
       </c>
       <c r="C152" t="s">
         <v>28</v>
@@ -13999,76 +13999,76 @@
         <v>45041.60416666666</v>
       </c>
       <c r="F152" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G152" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I152">
+        <v>2</v>
+      </c>
+      <c r="J152" t="s">
+        <v>53</v>
+      </c>
+      <c r="K152">
+        <v>6</v>
+      </c>
+      <c r="L152">
+        <v>4</v>
+      </c>
+      <c r="M152">
+        <v>1.533</v>
+      </c>
+      <c r="N152">
+        <v>5.25</v>
+      </c>
+      <c r="O152">
+        <v>4.2</v>
+      </c>
+      <c r="P152">
+        <v>1.6</v>
+      </c>
+      <c r="Q152">
         <v>1</v>
       </c>
-      <c r="J152" t="s">
-        <v>52</v>
-      </c>
-      <c r="K152">
-        <v>2.3</v>
-      </c>
-      <c r="L152">
-        <v>3.2</v>
-      </c>
-      <c r="M152">
-        <v>3.2</v>
-      </c>
-      <c r="N152">
-        <v>2.05</v>
-      </c>
-      <c r="O152">
-        <v>3.2</v>
-      </c>
-      <c r="P152">
-        <v>4</v>
-      </c>
-      <c r="Q152">
-        <v>-0.5</v>
-      </c>
       <c r="R152">
-        <v>2.08</v>
+        <v>1.84</v>
       </c>
       <c r="S152">
-        <v>1.82</v>
+        <v>2.06</v>
       </c>
       <c r="T152">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U152">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="V152">
-        <v>1.97</v>
+        <v>1.95</v>
       </c>
       <c r="W152">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="X152">
         <v>-1</v>
       </c>
       <c r="Y152">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z152">
-        <v>-1</v>
+        <v>0.8400000000000001</v>
       </c>
       <c r="AA152">
-        <v>0.8200000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB152">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC152">
-        <v>0.97</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="153" spans="1:29">
@@ -14076,7 +14076,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>5470775</v>
+        <v>5461881</v>
       </c>
       <c r="C153" t="s">
         <v>28</v>
@@ -14088,76 +14088,76 @@
         <v>45041.60416666666</v>
       </c>
       <c r="F153" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G153" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="H153">
+        <v>0</v>
+      </c>
+      <c r="I153">
+        <v>1</v>
+      </c>
+      <c r="J153" t="s">
+        <v>52</v>
+      </c>
+      <c r="K153">
+        <v>2.3</v>
+      </c>
+      <c r="L153">
+        <v>3.2</v>
+      </c>
+      <c r="M153">
+        <v>3.2</v>
+      </c>
+      <c r="N153">
+        <v>2.05</v>
+      </c>
+      <c r="O153">
+        <v>3.2</v>
+      </c>
+      <c r="P153">
         <v>4</v>
       </c>
-      <c r="I153">
+      <c r="Q153">
+        <v>-0.5</v>
+      </c>
+      <c r="R153">
+        <v>2.08</v>
+      </c>
+      <c r="S153">
+        <v>1.82</v>
+      </c>
+      <c r="T153">
         <v>2</v>
       </c>
-      <c r="J153" t="s">
-        <v>53</v>
-      </c>
-      <c r="K153">
-        <v>6</v>
-      </c>
-      <c r="L153">
-        <v>4</v>
-      </c>
-      <c r="M153">
-        <v>1.533</v>
-      </c>
-      <c r="N153">
-        <v>5.25</v>
-      </c>
-      <c r="O153">
-        <v>4.2</v>
-      </c>
-      <c r="P153">
-        <v>1.6</v>
-      </c>
-      <c r="Q153">
-        <v>1</v>
-      </c>
-      <c r="R153">
-        <v>1.84</v>
-      </c>
-      <c r="S153">
-        <v>2.06</v>
-      </c>
-      <c r="T153">
+      <c r="U153">
+        <v>1.93</v>
+      </c>
+      <c r="V153">
+        <v>1.97</v>
+      </c>
+      <c r="W153">
+        <v>-1</v>
+      </c>
+      <c r="X153">
+        <v>-1</v>
+      </c>
+      <c r="Y153">
         <v>3</v>
       </c>
-      <c r="U153">
-        <v>1.95</v>
-      </c>
-      <c r="V153">
-        <v>1.95</v>
-      </c>
-      <c r="W153">
-        <v>4.25</v>
-      </c>
-      <c r="X153">
-        <v>-1</v>
-      </c>
-      <c r="Y153">
-        <v>-1</v>
-      </c>
       <c r="Z153">
-        <v>0.8400000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA153">
-        <v>-1</v>
+        <v>0.8200000000000001</v>
       </c>
       <c r="AB153">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC153">
-        <v>-1</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="154" spans="1:29">
@@ -16301,7 +16301,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>5534213</v>
+        <v>5545333</v>
       </c>
       <c r="C178" t="s">
         <v>28</v>
@@ -16313,58 +16313,58 @@
         <v>45050.60416666666</v>
       </c>
       <c r="F178" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G178" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H178">
+        <v>3</v>
+      </c>
+      <c r="I178">
         <v>2</v>
-      </c>
-      <c r="I178">
-        <v>1</v>
       </c>
       <c r="J178" t="s">
         <v>53</v>
       </c>
       <c r="K178">
-        <v>2.2</v>
+        <v>1.909</v>
       </c>
       <c r="L178">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M178">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="N178">
-        <v>1.909</v>
+        <v>1.8</v>
       </c>
       <c r="O178">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="P178">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="Q178">
         <v>-0.5</v>
       </c>
       <c r="R178">
+        <v>1.88</v>
+      </c>
+      <c r="S178">
+        <v>2.02</v>
+      </c>
+      <c r="T178">
+        <v>2.5</v>
+      </c>
+      <c r="U178">
+        <v>1.98</v>
+      </c>
+      <c r="V178">
         <v>1.92</v>
       </c>
-      <c r="S178">
-        <v>1.98</v>
-      </c>
-      <c r="T178">
-        <v>2</v>
-      </c>
-      <c r="U178">
-        <v>1.86</v>
-      </c>
-      <c r="V178">
-        <v>2.04</v>
-      </c>
       <c r="W178">
-        <v>0.909</v>
+        <v>0.8</v>
       </c>
       <c r="X178">
         <v>-1</v>
@@ -16373,13 +16373,13 @@
         <v>-1</v>
       </c>
       <c r="Z178">
-        <v>0.9199999999999999</v>
+        <v>0.8799999999999999</v>
       </c>
       <c r="AA178">
         <v>-1</v>
       </c>
       <c r="AB178">
-        <v>0.8600000000000001</v>
+        <v>0.98</v>
       </c>
       <c r="AC178">
         <v>-1</v>
@@ -16390,7 +16390,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>5545333</v>
+        <v>5534213</v>
       </c>
       <c r="C179" t="s">
         <v>28</v>
@@ -16402,58 +16402,58 @@
         <v>45050.60416666666</v>
       </c>
       <c r="F179" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G179" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H179">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I179">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J179" t="s">
         <v>53</v>
       </c>
       <c r="K179">
+        <v>2.2</v>
+      </c>
+      <c r="L179">
+        <v>3.2</v>
+      </c>
+      <c r="M179">
+        <v>3.4</v>
+      </c>
+      <c r="N179">
         <v>1.909</v>
       </c>
-      <c r="L179">
-        <v>3.5</v>
-      </c>
-      <c r="M179">
-        <v>4</v>
-      </c>
-      <c r="N179">
-        <v>1.8</v>
-      </c>
       <c r="O179">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="P179">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="Q179">
         <v>-0.5</v>
       </c>
       <c r="R179">
-        <v>1.88</v>
+        <v>1.92</v>
       </c>
       <c r="S179">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="T179">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U179">
-        <v>1.98</v>
+        <v>1.86</v>
       </c>
       <c r="V179">
-        <v>1.92</v>
+        <v>2.04</v>
       </c>
       <c r="W179">
-        <v>0.8</v>
+        <v>0.909</v>
       </c>
       <c r="X179">
         <v>-1</v>
@@ -16462,13 +16462,13 @@
         <v>-1</v>
       </c>
       <c r="Z179">
-        <v>0.8799999999999999</v>
+        <v>0.9199999999999999</v>
       </c>
       <c r="AA179">
         <v>-1</v>
       </c>
       <c r="AB179">
-        <v>0.98</v>
+        <v>0.8600000000000001</v>
       </c>
       <c r="AC179">
         <v>-1</v>
@@ -18793,7 +18793,7 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>5638809</v>
+        <v>5638885</v>
       </c>
       <c r="C206" t="s">
         <v>28</v>
@@ -18805,76 +18805,76 @@
         <v>45070.60416666666</v>
       </c>
       <c r="F206" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="G206" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H206">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I206">
         <v>1</v>
       </c>
       <c r="J206" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K206">
-        <v>3.8</v>
+        <v>1.363</v>
       </c>
       <c r="L206">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="M206">
-        <v>1.909</v>
+        <v>8</v>
       </c>
       <c r="N206">
-        <v>3.3</v>
+        <v>1.363</v>
       </c>
       <c r="O206">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="P206">
-        <v>2.15</v>
+        <v>7.5</v>
       </c>
       <c r="Q206">
-        <v>0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R206">
-        <v>1.99</v>
+        <v>2.06</v>
       </c>
       <c r="S206">
-        <v>1.94</v>
+        <v>1.84</v>
       </c>
       <c r="T206">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U206">
-        <v>1.96</v>
+        <v>2.07</v>
       </c>
       <c r="V206">
-        <v>1.94</v>
+        <v>1.83</v>
       </c>
       <c r="W206">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X206">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y206">
         <v>-1</v>
       </c>
       <c r="Z206">
-        <v>0.495</v>
+        <v>-1</v>
       </c>
       <c r="AA206">
+        <v>0.8400000000000001</v>
+      </c>
+      <c r="AB206">
         <v>-0.5</v>
       </c>
-      <c r="AB206">
-        <v>-1</v>
-      </c>
       <c r="AC206">
-        <v>0.9399999999999999</v>
+        <v>0.415</v>
       </c>
     </row>
     <row r="207" spans="1:29">
@@ -18882,7 +18882,7 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>5638885</v>
+        <v>5638809</v>
       </c>
       <c r="C207" t="s">
         <v>28</v>
@@ -18894,76 +18894,76 @@
         <v>45070.60416666666</v>
       </c>
       <c r="F207" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="G207" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H207">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I207">
         <v>1</v>
       </c>
       <c r="J207" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K207">
-        <v>1.363</v>
+        <v>3.8</v>
       </c>
       <c r="L207">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="M207">
-        <v>8</v>
+        <v>1.909</v>
       </c>
       <c r="N207">
-        <v>1.363</v>
+        <v>3.3</v>
       </c>
       <c r="O207">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="P207">
-        <v>7.5</v>
+        <v>2.15</v>
       </c>
       <c r="Q207">
-        <v>-1.5</v>
+        <v>0.25</v>
       </c>
       <c r="R207">
-        <v>2.06</v>
+        <v>1.99</v>
       </c>
       <c r="S207">
-        <v>1.84</v>
+        <v>1.94</v>
       </c>
       <c r="T207">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U207">
-        <v>2.07</v>
+        <v>1.96</v>
       </c>
       <c r="V207">
-        <v>1.83</v>
+        <v>1.94</v>
       </c>
       <c r="W207">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X207">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y207">
         <v>-1</v>
       </c>
       <c r="Z207">
-        <v>-1</v>
+        <v>0.495</v>
       </c>
       <c r="AA207">
-        <v>0.8400000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB207">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC207">
-        <v>0.415</v>
+        <v>0.9399999999999999</v>
       </c>
     </row>
     <row r="208" spans="1:29">
@@ -19416,7 +19416,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>5697402</v>
+        <v>5705727</v>
       </c>
       <c r="C213" t="s">
         <v>28</v>
@@ -19428,76 +19428,76 @@
         <v>45074.58333333334</v>
       </c>
       <c r="F213" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G213" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H213">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I213">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J213" t="s">
         <v>54</v>
       </c>
       <c r="K213">
-        <v>2.25</v>
+        <v>1.909</v>
       </c>
       <c r="L213">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M213">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="N213">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="O213">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P213">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="Q213">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R213">
-        <v>1.97</v>
+        <v>2.025</v>
       </c>
       <c r="S213">
-        <v>1.93</v>
+        <v>1.775</v>
       </c>
       <c r="T213">
         <v>2.5</v>
       </c>
       <c r="U213">
-        <v>1.86</v>
+        <v>2.07</v>
       </c>
       <c r="V213">
-        <v>2.04</v>
+        <v>1.83</v>
       </c>
       <c r="W213">
         <v>-1</v>
       </c>
       <c r="X213">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="Y213">
         <v>-1</v>
       </c>
       <c r="Z213">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA213">
-        <v>0.465</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB213">
-        <v>-1</v>
+        <v>1.07</v>
       </c>
       <c r="AC213">
-        <v>1.04</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="214" spans="1:29">
@@ -19505,7 +19505,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>5697401</v>
+        <v>5703047</v>
       </c>
       <c r="C214" t="s">
         <v>28</v>
@@ -19517,76 +19517,76 @@
         <v>45074.58333333334</v>
       </c>
       <c r="F214" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="G214" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H214">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I214">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J214" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K214">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="L214">
         <v>4.5</v>
       </c>
       <c r="M214">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="N214">
-        <v>1.4</v>
+        <v>1.25</v>
       </c>
       <c r="O214">
-        <v>4.5</v>
+        <v>5.75</v>
       </c>
       <c r="P214">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="Q214">
-        <v>-1.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R214">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S214">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T214">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U214">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="V214">
-        <v>1.99</v>
+        <v>1.97</v>
       </c>
       <c r="W214">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X214">
         <v>-1</v>
       </c>
       <c r="Y214">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="Z214">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA214">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB214">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC214">
-        <v>0.99</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="215" spans="1:29">
@@ -19594,7 +19594,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>5705727</v>
+        <v>5697402</v>
       </c>
       <c r="C215" t="s">
         <v>28</v>
@@ -19606,76 +19606,76 @@
         <v>45074.58333333334</v>
       </c>
       <c r="F215" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G215" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H215">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I215">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J215" t="s">
         <v>54</v>
       </c>
       <c r="K215">
-        <v>1.909</v>
+        <v>2.25</v>
       </c>
       <c r="L215">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M215">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="N215">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="O215">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P215">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="Q215">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R215">
-        <v>2.025</v>
+        <v>1.97</v>
       </c>
       <c r="S215">
-        <v>1.775</v>
+        <v>1.93</v>
       </c>
       <c r="T215">
         <v>2.5</v>
       </c>
       <c r="U215">
-        <v>2.07</v>
+        <v>1.86</v>
       </c>
       <c r="V215">
-        <v>1.83</v>
+        <v>2.04</v>
       </c>
       <c r="W215">
         <v>-1</v>
       </c>
       <c r="X215">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="Y215">
         <v>-1</v>
       </c>
       <c r="Z215">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA215">
-        <v>0.7749999999999999</v>
+        <v>0.465</v>
       </c>
       <c r="AB215">
-        <v>1.07</v>
+        <v>-1</v>
       </c>
       <c r="AC215">
-        <v>-1</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="216" spans="1:29">
@@ -19683,7 +19683,7 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>5705884</v>
+        <v>5701612</v>
       </c>
       <c r="C216" t="s">
         <v>28</v>
@@ -19695,73 +19695,73 @@
         <v>45074.58333333334</v>
       </c>
       <c r="F216" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G216" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="H216">
+        <v>2</v>
+      </c>
+      <c r="I216">
         <v>1</v>
       </c>
-      <c r="I216">
-        <v>2</v>
-      </c>
       <c r="J216" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K216">
-        <v>2.2</v>
+        <v>1.909</v>
       </c>
       <c r="L216">
+        <v>3.4</v>
+      </c>
+      <c r="M216">
+        <v>4</v>
+      </c>
+      <c r="N216">
+        <v>2.4</v>
+      </c>
+      <c r="O216">
+        <v>2.75</v>
+      </c>
+      <c r="P216">
         <v>3.5</v>
       </c>
-      <c r="M216">
-        <v>3.1</v>
-      </c>
-      <c r="N216">
-        <v>1.909</v>
-      </c>
-      <c r="O216">
-        <v>3.6</v>
-      </c>
-      <c r="P216">
-        <v>3.8</v>
-      </c>
       <c r="Q216">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R216">
-        <v>1.98</v>
+        <v>2.1</v>
       </c>
       <c r="S216">
-        <v>1.92</v>
+        <v>1.8</v>
       </c>
       <c r="T216">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="U216">
-        <v>1.99</v>
+        <v>1.82</v>
       </c>
       <c r="V216">
-        <v>1.91</v>
+        <v>2.08</v>
       </c>
       <c r="W216">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="X216">
         <v>-1</v>
       </c>
       <c r="Y216">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Z216">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="AA216">
-        <v>0.9199999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB216">
-        <v>0.99</v>
+        <v>0.8200000000000001</v>
       </c>
       <c r="AC216">
         <v>-1</v>
@@ -19772,7 +19772,7 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>5703047</v>
+        <v>5701613</v>
       </c>
       <c r="C217" t="s">
         <v>28</v>
@@ -19784,13 +19784,13 @@
         <v>45074.58333333334</v>
       </c>
       <c r="F217" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G217" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H217">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I217">
         <v>0</v>
@@ -19799,43 +19799,43 @@
         <v>53</v>
       </c>
       <c r="K217">
-        <v>1.5</v>
+        <v>2.6</v>
       </c>
       <c r="L217">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="M217">
-        <v>6</v>
+        <v>2.7</v>
       </c>
       <c r="N217">
-        <v>1.25</v>
+        <v>2.45</v>
       </c>
       <c r="O217">
-        <v>5.75</v>
+        <v>3.1</v>
       </c>
       <c r="P217">
-        <v>12</v>
+        <v>3.1</v>
       </c>
       <c r="Q217">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R217">
+        <v>2.075</v>
+      </c>
+      <c r="S217">
+        <v>1.725</v>
+      </c>
+      <c r="T217">
         <v>2</v>
       </c>
-      <c r="S217">
-        <v>1.9</v>
-      </c>
-      <c r="T217">
-        <v>3</v>
-      </c>
       <c r="U217">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="V217">
-        <v>1.97</v>
+        <v>1.95</v>
       </c>
       <c r="W217">
-        <v>0.25</v>
+        <v>1.45</v>
       </c>
       <c r="X217">
         <v>-1</v>
@@ -19844,16 +19844,16 @@
         <v>-1</v>
       </c>
       <c r="Z217">
-        <v>1</v>
+        <v>1.075</v>
       </c>
       <c r="AA217">
         <v>-1</v>
       </c>
       <c r="AB217">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC217">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="218" spans="1:29">
@@ -19861,7 +19861,7 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>5701613</v>
+        <v>5697401</v>
       </c>
       <c r="C218" t="s">
         <v>28</v>
@@ -19873,76 +19873,76 @@
         <v>45074.58333333334</v>
       </c>
       <c r="F218" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="G218" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H218">
+        <v>0</v>
+      </c>
+      <c r="I218">
         <v>1</v>
       </c>
-      <c r="I218">
-        <v>0</v>
-      </c>
       <c r="J218" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K218">
-        <v>2.6</v>
+        <v>1.4</v>
       </c>
       <c r="L218">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="M218">
-        <v>2.7</v>
+        <v>8</v>
       </c>
       <c r="N218">
-        <v>2.45</v>
+        <v>1.4</v>
       </c>
       <c r="O218">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="P218">
-        <v>3.1</v>
+        <v>8</v>
       </c>
       <c r="Q218">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R218">
-        <v>2.075</v>
+        <v>1.95</v>
       </c>
       <c r="S218">
-        <v>1.725</v>
+        <v>1.95</v>
       </c>
       <c r="T218">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U218">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="V218">
-        <v>1.95</v>
+        <v>1.99</v>
       </c>
       <c r="W218">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="X218">
         <v>-1</v>
       </c>
       <c r="Y218">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="Z218">
-        <v>1.075</v>
+        <v>-1</v>
       </c>
       <c r="AA218">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB218">
         <v>-1</v>
       </c>
       <c r="AC218">
-        <v>0.95</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="219" spans="1:29">
@@ -19950,7 +19950,7 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>5701612</v>
+        <v>5713343</v>
       </c>
       <c r="C219" t="s">
         <v>28</v>
@@ -19962,10 +19962,10 @@
         <v>45074.58333333334</v>
       </c>
       <c r="F219" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="G219" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="H219">
         <v>2</v>
@@ -19977,43 +19977,43 @@
         <v>53</v>
       </c>
       <c r="K219">
-        <v>1.909</v>
+        <v>2.875</v>
       </c>
       <c r="L219">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M219">
-        <v>4</v>
+        <v>2.3</v>
       </c>
       <c r="N219">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="O219">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="P219">
-        <v>3.5</v>
+        <v>2.2</v>
       </c>
       <c r="Q219">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R219">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="S219">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T219">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="U219">
-        <v>1.82</v>
+        <v>2.06</v>
       </c>
       <c r="V219">
-        <v>2.08</v>
+        <v>1.84</v>
       </c>
       <c r="W219">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="X219">
         <v>-1</v>
@@ -20022,16 +20022,16 @@
         <v>-1</v>
       </c>
       <c r="Z219">
-        <v>1.1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA219">
         <v>-1</v>
       </c>
       <c r="AB219">
-        <v>0.8200000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC219">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="220" spans="1:29">
@@ -20039,7 +20039,7 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>5713343</v>
+        <v>5705884</v>
       </c>
       <c r="C220" t="s">
         <v>28</v>
@@ -20051,76 +20051,76 @@
         <v>45074.58333333334</v>
       </c>
       <c r="F220" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G220" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="H220">
+        <v>1</v>
+      </c>
+      <c r="I220">
         <v>2</v>
       </c>
-      <c r="I220">
-        <v>1</v>
-      </c>
       <c r="J220" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K220">
-        <v>2.875</v>
+        <v>2.2</v>
       </c>
       <c r="L220">
         <v>3.5</v>
       </c>
       <c r="M220">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="N220">
-        <v>3</v>
+        <v>1.909</v>
       </c>
       <c r="O220">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P220">
-        <v>2.2</v>
+        <v>3.8</v>
       </c>
       <c r="Q220">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R220">
-        <v>1.9</v>
+        <v>1.98</v>
       </c>
       <c r="S220">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="T220">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U220">
-        <v>2.06</v>
+        <v>1.99</v>
       </c>
       <c r="V220">
-        <v>1.84</v>
+        <v>1.91</v>
       </c>
       <c r="W220">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X220">
         <v>-1</v>
       </c>
       <c r="Y220">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Z220">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA220">
-        <v>-1</v>
+        <v>0.9199999999999999</v>
       </c>
       <c r="AB220">
-        <v>0</v>
+        <v>0.99</v>
       </c>
       <c r="AC220">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="221" spans="1:29">
@@ -20128,7 +20128,7 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>5776610</v>
+        <v>5776609</v>
       </c>
       <c r="C221" t="s">
         <v>28</v>
@@ -20140,61 +20140,61 @@
         <v>45081.5625</v>
       </c>
       <c r="F221" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="G221" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H221">
         <v>2</v>
       </c>
       <c r="I221">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J221" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K221">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="L221">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M221">
-        <v>2.45</v>
+        <v>2.9</v>
       </c>
       <c r="N221">
-        <v>2.625</v>
+        <v>1.571</v>
       </c>
       <c r="O221">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P221">
-        <v>2.45</v>
+        <v>5.75</v>
       </c>
       <c r="Q221">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R221">
-        <v>2.04</v>
+        <v>2.01</v>
       </c>
       <c r="S221">
-        <v>1.86</v>
+        <v>1.89</v>
       </c>
       <c r="T221">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U221">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="V221">
-        <v>2.02</v>
+        <v>2.01</v>
       </c>
       <c r="W221">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X221">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y221">
         <v>-1</v>
@@ -20206,7 +20206,7 @@
         <v>-0</v>
       </c>
       <c r="AB221">
-        <v>0.8799999999999999</v>
+        <v>0.8899999999999999</v>
       </c>
       <c r="AC221">
         <v>-1</v>
@@ -20217,7 +20217,7 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>5732767</v>
+        <v>5776610</v>
       </c>
       <c r="C222" t="s">
         <v>28</v>
@@ -20229,73 +20229,73 @@
         <v>45081.5625</v>
       </c>
       <c r="F222" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G222" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H222">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I222">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J222" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K222">
+        <v>2.75</v>
+      </c>
+      <c r="L222">
         <v>3.4</v>
       </c>
-      <c r="L222">
-        <v>3.3</v>
-      </c>
       <c r="M222">
-        <v>2.15</v>
+        <v>2.45</v>
       </c>
       <c r="N222">
-        <v>3</v>
+        <v>2.625</v>
       </c>
       <c r="O222">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="P222">
         <v>2.45</v>
       </c>
       <c r="Q222">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R222">
-        <v>1.8</v>
+        <v>2.04</v>
       </c>
       <c r="S222">
-        <v>2.14</v>
+        <v>1.86</v>
       </c>
       <c r="T222">
-        <v>2</v>
+        <v>3.25</v>
       </c>
       <c r="U222">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="V222">
-        <v>2.01</v>
+        <v>2.02</v>
       </c>
       <c r="W222">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X222">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y222">
         <v>-1</v>
       </c>
       <c r="Z222">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AA222">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB222">
-        <v>0.8899999999999999</v>
+        <v>0.8799999999999999</v>
       </c>
       <c r="AC222">
         <v>-1</v>
@@ -20306,7 +20306,7 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>5730415</v>
+        <v>5734136</v>
       </c>
       <c r="C223" t="s">
         <v>28</v>
@@ -20318,76 +20318,76 @@
         <v>45081.5625</v>
       </c>
       <c r="F223" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="G223" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H223">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I223">
         <v>1</v>
       </c>
       <c r="J223" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K223">
-        <v>2.25</v>
+        <v>1.95</v>
       </c>
       <c r="L223">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M223">
+        <v>3.6</v>
+      </c>
+      <c r="N223">
+        <v>1.65</v>
+      </c>
+      <c r="O223">
+        <v>4</v>
+      </c>
+      <c r="P223">
+        <v>4.75</v>
+      </c>
+      <c r="Q223">
+        <v>-0.75</v>
+      </c>
+      <c r="R223">
+        <v>1.84</v>
+      </c>
+      <c r="S223">
+        <v>2.06</v>
+      </c>
+      <c r="T223">
         <v>3</v>
       </c>
-      <c r="N223">
-        <v>2.05</v>
-      </c>
-      <c r="O223">
-        <v>3.6</v>
-      </c>
-      <c r="P223">
-        <v>3.25</v>
-      </c>
-      <c r="Q223">
-        <v>-0.25</v>
-      </c>
-      <c r="R223">
-        <v>1.85</v>
-      </c>
-      <c r="S223">
-        <v>2.05</v>
-      </c>
-      <c r="T223">
-        <v>2.75</v>
-      </c>
       <c r="U223">
-        <v>2.02</v>
+        <v>1.9</v>
       </c>
       <c r="V223">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="W223">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X223">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y223">
         <v>-1</v>
       </c>
       <c r="Z223">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA223">
-        <v>-1</v>
+        <v>1.06</v>
       </c>
       <c r="AB223">
-        <v>0.51</v>
+        <v>-1</v>
       </c>
       <c r="AC223">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="224" spans="1:29">
@@ -20395,7 +20395,7 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>5734136</v>
+        <v>5732767</v>
       </c>
       <c r="C224" t="s">
         <v>28</v>
@@ -20407,76 +20407,76 @@
         <v>45081.5625</v>
       </c>
       <c r="F224" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="G224" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H224">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I224">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J224" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K224">
-        <v>1.95</v>
+        <v>3.4</v>
       </c>
       <c r="L224">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M224">
-        <v>3.6</v>
+        <v>2.15</v>
       </c>
       <c r="N224">
-        <v>1.65</v>
+        <v>3</v>
       </c>
       <c r="O224">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="P224">
-        <v>4.75</v>
+        <v>2.45</v>
       </c>
       <c r="Q224">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R224">
-        <v>1.84</v>
+        <v>1.8</v>
       </c>
       <c r="S224">
-        <v>2.06</v>
+        <v>2.14</v>
       </c>
       <c r="T224">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U224">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="V224">
+        <v>2.01</v>
+      </c>
+      <c r="W224">
         <v>2</v>
       </c>
-      <c r="W224">
-        <v>-1</v>
-      </c>
       <c r="X224">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y224">
         <v>-1</v>
       </c>
       <c r="Z224">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA224">
-        <v>1.06</v>
+        <v>-1</v>
       </c>
       <c r="AB224">
-        <v>-1</v>
+        <v>0.8899999999999999</v>
       </c>
       <c r="AC224">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="225" spans="1:29">
@@ -20484,7 +20484,7 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>5776609</v>
+        <v>5730415</v>
       </c>
       <c r="C225" t="s">
         <v>28</v>
@@ -20496,10 +20496,10 @@
         <v>45081.5625</v>
       </c>
       <c r="F225" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G225" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H225">
         <v>2</v>
@@ -20514,40 +20514,40 @@
         <v>2.25</v>
       </c>
       <c r="L225">
+        <v>3.5</v>
+      </c>
+      <c r="M225">
+        <v>3</v>
+      </c>
+      <c r="N225">
+        <v>2.05</v>
+      </c>
+      <c r="O225">
         <v>3.6</v>
       </c>
-      <c r="M225">
-        <v>2.9</v>
-      </c>
-      <c r="N225">
-        <v>1.571</v>
-      </c>
-      <c r="O225">
-        <v>4</v>
-      </c>
       <c r="P225">
-        <v>5.75</v>
+        <v>3.25</v>
       </c>
       <c r="Q225">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R225">
-        <v>2.01</v>
+        <v>1.85</v>
       </c>
       <c r="S225">
-        <v>1.89</v>
+        <v>2.05</v>
       </c>
       <c r="T225">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U225">
-        <v>1.89</v>
+        <v>2.02</v>
       </c>
       <c r="V225">
-        <v>2.01</v>
+        <v>1.88</v>
       </c>
       <c r="W225">
-        <v>0.571</v>
+        <v>1.05</v>
       </c>
       <c r="X225">
         <v>-1</v>
@@ -20556,16 +20556,16 @@
         <v>-1</v>
       </c>
       <c r="Z225">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA225">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB225">
-        <v>0.8899999999999999</v>
+        <v>0.51</v>
       </c>
       <c r="AC225">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="226" spans="1:29">
@@ -20573,7 +20573,7 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>5734498</v>
+        <v>5762751</v>
       </c>
       <c r="C226" t="s">
         <v>28</v>
@@ -20585,55 +20585,55 @@
         <v>45081.66666666666</v>
       </c>
       <c r="F226" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="G226" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="H226">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I226">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J226" t="s">
         <v>54</v>
       </c>
       <c r="K226">
-        <v>2.1</v>
+        <v>3.1</v>
       </c>
       <c r="L226">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M226">
-        <v>3.4</v>
+        <v>2.2</v>
       </c>
       <c r="N226">
-        <v>2.05</v>
+        <v>2.875</v>
       </c>
       <c r="O226">
         <v>3.3</v>
       </c>
       <c r="P226">
-        <v>4</v>
+        <v>2.45</v>
       </c>
       <c r="Q226">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R226">
-        <v>2.08</v>
+        <v>1.78</v>
       </c>
       <c r="S226">
-        <v>1.82</v>
+        <v>2.125</v>
       </c>
       <c r="T226">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U226">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="V226">
-        <v>2.08</v>
+        <v>1.98</v>
       </c>
       <c r="W226">
         <v>-1</v>
@@ -20645,16 +20645,16 @@
         <v>-1</v>
       </c>
       <c r="Z226">
-        <v>-1</v>
+        <v>0.39</v>
       </c>
       <c r="AA226">
-        <v>0.8200000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB226">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC226">
-        <v>1.08</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="227" spans="1:29">
@@ -20662,7 +20662,7 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>5732768</v>
+        <v>5738382</v>
       </c>
       <c r="C227" t="s">
         <v>28</v>
@@ -20674,73 +20674,73 @@
         <v>45081.66666666666</v>
       </c>
       <c r="F227" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G227" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="H227">
+        <v>2</v>
+      </c>
+      <c r="I227">
+        <v>1</v>
+      </c>
+      <c r="J227" t="s">
+        <v>53</v>
+      </c>
+      <c r="K227">
         <v>3</v>
       </c>
-      <c r="I227">
-        <v>3</v>
-      </c>
-      <c r="J227" t="s">
-        <v>54</v>
-      </c>
-      <c r="K227">
-        <v>3.5</v>
-      </c>
       <c r="L227">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M227">
-        <v>1.909</v>
+        <v>2.2</v>
       </c>
       <c r="N227">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="O227">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P227">
-        <v>2.75</v>
+        <v>2.45</v>
       </c>
       <c r="Q227">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R227">
-        <v>2.1</v>
+        <v>2.06</v>
       </c>
       <c r="S227">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="T227">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U227">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="V227">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W227">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X227">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y227">
         <v>-1</v>
       </c>
       <c r="Z227">
-        <v>-0.5</v>
+        <v>1.06</v>
       </c>
       <c r="AA227">
-        <v>0.415</v>
+        <v>-1</v>
       </c>
       <c r="AB227">
-        <v>1.1</v>
+        <v>0.95</v>
       </c>
       <c r="AC227">
         <v>-1</v>
@@ -20751,7 +20751,7 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>5738382</v>
+        <v>5734498</v>
       </c>
       <c r="C228" t="s">
         <v>28</v>
@@ -20763,76 +20763,76 @@
         <v>45081.66666666666</v>
       </c>
       <c r="F228" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G228" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H228">
+        <v>0</v>
+      </c>
+      <c r="I228">
+        <v>0</v>
+      </c>
+      <c r="J228" t="s">
+        <v>54</v>
+      </c>
+      <c r="K228">
+        <v>2.1</v>
+      </c>
+      <c r="L228">
+        <v>3.4</v>
+      </c>
+      <c r="M228">
+        <v>3.4</v>
+      </c>
+      <c r="N228">
+        <v>2.05</v>
+      </c>
+      <c r="O228">
+        <v>3.3</v>
+      </c>
+      <c r="P228">
+        <v>4</v>
+      </c>
+      <c r="Q228">
+        <v>-0.5</v>
+      </c>
+      <c r="R228">
+        <v>2.08</v>
+      </c>
+      <c r="S228">
+        <v>1.82</v>
+      </c>
+      <c r="T228">
         <v>2</v>
       </c>
-      <c r="I228">
-        <v>1</v>
-      </c>
-      <c r="J228" t="s">
-        <v>53</v>
-      </c>
-      <c r="K228">
-        <v>3</v>
-      </c>
-      <c r="L228">
-        <v>3.6</v>
-      </c>
-      <c r="M228">
-        <v>2.2</v>
-      </c>
-      <c r="N228">
-        <v>2.7</v>
-      </c>
-      <c r="O228">
-        <v>3.6</v>
-      </c>
-      <c r="P228">
-        <v>2.45</v>
-      </c>
-      <c r="Q228">
-        <v>0</v>
-      </c>
-      <c r="R228">
-        <v>2.06</v>
-      </c>
-      <c r="S228">
-        <v>1.84</v>
-      </c>
-      <c r="T228">
-        <v>2.5</v>
-      </c>
       <c r="U228">
-        <v>1.95</v>
+        <v>1.82</v>
       </c>
       <c r="V228">
-        <v>1.95</v>
+        <v>2.08</v>
       </c>
       <c r="W228">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X228">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y228">
         <v>-1</v>
       </c>
       <c r="Z228">
-        <v>1.06</v>
+        <v>-1</v>
       </c>
       <c r="AA228">
-        <v>-1</v>
+        <v>0.8200000000000001</v>
       </c>
       <c r="AB228">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC228">
-        <v>-1</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="229" spans="1:29">
@@ -20840,7 +20840,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>5762751</v>
+        <v>5732768</v>
       </c>
       <c r="C229" t="s">
         <v>28</v>
@@ -20852,76 +20852,76 @@
         <v>45081.66666666666</v>
       </c>
       <c r="F229" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="G229" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H229">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I229">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J229" t="s">
         <v>54</v>
       </c>
       <c r="K229">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="L229">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M229">
-        <v>2.2</v>
+        <v>1.909</v>
       </c>
       <c r="N229">
-        <v>2.875</v>
+        <v>2.4</v>
       </c>
       <c r="O229">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="P229">
-        <v>2.45</v>
+        <v>2.75</v>
       </c>
       <c r="Q229">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R229">
-        <v>1.78</v>
+        <v>2.1</v>
       </c>
       <c r="S229">
-        <v>2.125</v>
+        <v>1.83</v>
       </c>
       <c r="T229">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="U229">
-        <v>1.92</v>
+        <v>2.1</v>
       </c>
       <c r="V229">
-        <v>1.98</v>
+        <v>1.8</v>
       </c>
       <c r="W229">
         <v>-1</v>
       </c>
       <c r="X229">
-        <v>2.3</v>
+        <v>2.75</v>
       </c>
       <c r="Y229">
         <v>-1</v>
       </c>
       <c r="Z229">
-        <v>0.39</v>
+        <v>-0.5</v>
       </c>
       <c r="AA229">
-        <v>-0.5</v>
+        <v>0.415</v>
       </c>
       <c r="AB229">
-        <v>-0.5</v>
+        <v>1.1</v>
       </c>
       <c r="AC229">
-        <v>0.49</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="230" spans="1:29">
@@ -26002,7 +26002,7 @@
         <v>285</v>
       </c>
       <c r="B287">
-        <v>7173107</v>
+        <v>7173100</v>
       </c>
       <c r="C287" t="s">
         <v>28</v>
@@ -26014,76 +26014,76 @@
         <v>45193.5625</v>
       </c>
       <c r="F287" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G287" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="H287">
         <v>1</v>
       </c>
       <c r="I287">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J287" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K287">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="L287">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M287">
+        <v>4.5</v>
+      </c>
+      <c r="N287">
+        <v>1.75</v>
+      </c>
+      <c r="O287">
         <v>3.5</v>
       </c>
-      <c r="N287">
-        <v>1.909</v>
-      </c>
-      <c r="O287">
-        <v>3.6</v>
-      </c>
       <c r="P287">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="Q287">
+        <v>-0.75</v>
+      </c>
+      <c r="R287">
+        <v>2.07</v>
+      </c>
+      <c r="S287">
+        <v>1.86</v>
+      </c>
+      <c r="T287">
+        <v>2.25</v>
+      </c>
+      <c r="U287">
+        <v>1.89</v>
+      </c>
+      <c r="V287">
+        <v>2.01</v>
+      </c>
+      <c r="W287">
+        <v>-1</v>
+      </c>
+      <c r="X287">
+        <v>2.5</v>
+      </c>
+      <c r="Y287">
+        <v>-1</v>
+      </c>
+      <c r="Z287">
+        <v>-1</v>
+      </c>
+      <c r="AA287">
+        <v>0.8600000000000001</v>
+      </c>
+      <c r="AB287">
         <v>-0.5</v>
       </c>
-      <c r="R287">
-        <v>1.95</v>
-      </c>
-      <c r="S287">
-        <v>1.95</v>
-      </c>
-      <c r="T287">
-        <v>2.5</v>
-      </c>
-      <c r="U287">
-        <v>1.95</v>
-      </c>
-      <c r="V287">
-        <v>1.95</v>
-      </c>
-      <c r="W287">
-        <v>0.909</v>
-      </c>
-      <c r="X287">
-        <v>-1</v>
-      </c>
-      <c r="Y287">
-        <v>-1</v>
-      </c>
-      <c r="Z287">
-        <v>0.95</v>
-      </c>
-      <c r="AA287">
-        <v>-1</v>
-      </c>
-      <c r="AB287">
-        <v>-1</v>
-      </c>
       <c r="AC287">
-        <v>0.95</v>
+        <v>0.5049999999999999</v>
       </c>
     </row>
     <row r="288" spans="1:29">
@@ -26091,7 +26091,7 @@
         <v>286</v>
       </c>
       <c r="B288">
-        <v>7173100</v>
+        <v>7173107</v>
       </c>
       <c r="C288" t="s">
         <v>28</v>
@@ -26103,76 +26103,76 @@
         <v>45193.5625</v>
       </c>
       <c r="F288" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G288" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="H288">
         <v>1</v>
       </c>
       <c r="I288">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J288" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K288">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="L288">
+        <v>3.3</v>
+      </c>
+      <c r="M288">
         <v>3.5</v>
       </c>
-      <c r="M288">
-        <v>4.5</v>
-      </c>
       <c r="N288">
-        <v>1.75</v>
+        <v>1.909</v>
       </c>
       <c r="O288">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P288">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="Q288">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R288">
-        <v>2.07</v>
+        <v>1.95</v>
       </c>
       <c r="S288">
-        <v>1.86</v>
+        <v>1.95</v>
       </c>
       <c r="T288">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U288">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="V288">
-        <v>2.01</v>
+        <v>1.95</v>
       </c>
       <c r="W288">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X288">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y288">
         <v>-1</v>
       </c>
       <c r="Z288">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA288">
-        <v>0.8600000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB288">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC288">
-        <v>0.5049999999999999</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="289" spans="1:29">
@@ -26714,7 +26714,7 @@
         <v>293</v>
       </c>
       <c r="B295">
-        <v>6809384</v>
+        <v>6809223</v>
       </c>
       <c r="C295" t="s">
         <v>28</v>
@@ -26726,19 +26726,19 @@
         <v>45196.6875</v>
       </c>
       <c r="F295" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="G295" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="H295">
         <v>0</v>
       </c>
       <c r="I295">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J295" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K295">
         <v>2.625</v>
@@ -26750,52 +26750,52 @@
         <v>2.875</v>
       </c>
       <c r="N295">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="O295">
+        <v>3</v>
+      </c>
+      <c r="P295">
         <v>3.1</v>
       </c>
-      <c r="P295">
-        <v>2.9</v>
-      </c>
       <c r="Q295">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R295">
-        <v>1.85</v>
+        <v>2.125</v>
       </c>
       <c r="S295">
-        <v>2.05</v>
+        <v>1.78</v>
       </c>
       <c r="T295">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U295">
-        <v>2.08</v>
+        <v>2.03</v>
       </c>
       <c r="V295">
-        <v>1.82</v>
+        <v>1.87</v>
       </c>
       <c r="W295">
         <v>-1</v>
       </c>
       <c r="X295">
+        <v>-1</v>
+      </c>
+      <c r="Y295">
         <v>2.1</v>
       </c>
-      <c r="Y295">
-        <v>-1</v>
-      </c>
       <c r="Z295">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA295">
-        <v>-0</v>
+        <v>0.78</v>
       </c>
       <c r="AB295">
         <v>-1</v>
       </c>
       <c r="AC295">
-        <v>0.8200000000000001</v>
+        <v>0.8700000000000001</v>
       </c>
     </row>
     <row r="296" spans="1:29">
@@ -26803,7 +26803,7 @@
         <v>294</v>
       </c>
       <c r="B296">
-        <v>6809223</v>
+        <v>6809384</v>
       </c>
       <c r="C296" t="s">
         <v>28</v>
@@ -26815,19 +26815,19 @@
         <v>45196.6875</v>
       </c>
       <c r="F296" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="G296" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="H296">
         <v>0</v>
       </c>
       <c r="I296">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J296" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K296">
         <v>2.625</v>
@@ -26839,52 +26839,52 @@
         <v>2.875</v>
       </c>
       <c r="N296">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="O296">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="P296">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="Q296">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R296">
-        <v>2.125</v>
+        <v>1.85</v>
       </c>
       <c r="S296">
-        <v>1.78</v>
+        <v>2.05</v>
       </c>
       <c r="T296">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U296">
-        <v>2.03</v>
+        <v>2.08</v>
       </c>
       <c r="V296">
-        <v>1.87</v>
+        <v>1.82</v>
       </c>
       <c r="W296">
         <v>-1</v>
       </c>
       <c r="X296">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y296">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z296">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA296">
-        <v>0.78</v>
+        <v>-0</v>
       </c>
       <c r="AB296">
         <v>-1</v>
       </c>
       <c r="AC296">
-        <v>0.8700000000000001</v>
+        <v>0.8200000000000001</v>
       </c>
     </row>
     <row r="297" spans="1:29">
@@ -27782,7 +27782,7 @@
         <v>305</v>
       </c>
       <c r="B307">
-        <v>6809388</v>
+        <v>6809226</v>
       </c>
       <c r="C307" t="s">
         <v>28</v>
@@ -27794,58 +27794,58 @@
         <v>45200.66666666666</v>
       </c>
       <c r="F307" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="G307" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="H307">
         <v>3</v>
       </c>
       <c r="I307">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J307" t="s">
         <v>53</v>
       </c>
       <c r="K307">
-        <v>1.333</v>
+        <v>2.2</v>
       </c>
       <c r="L307">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="M307">
-        <v>8.5</v>
+        <v>3.4</v>
       </c>
       <c r="N307">
-        <v>1.333</v>
+        <v>2.05</v>
       </c>
       <c r="O307">
-        <v>5.5</v>
+        <v>3.25</v>
       </c>
       <c r="P307">
-        <v>8.5</v>
+        <v>4</v>
       </c>
       <c r="Q307">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R307">
-        <v>2.03</v>
+        <v>2.06</v>
       </c>
       <c r="S307">
-        <v>1.87</v>
+        <v>1.84</v>
       </c>
       <c r="T307">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U307">
-        <v>1.84</v>
+        <v>2.05</v>
       </c>
       <c r="V307">
-        <v>2.06</v>
+        <v>1.85</v>
       </c>
       <c r="W307">
-        <v>0.333</v>
+        <v>1.05</v>
       </c>
       <c r="X307">
         <v>-1</v>
@@ -27854,13 +27854,13 @@
         <v>-1</v>
       </c>
       <c r="Z307">
-        <v>-1</v>
+        <v>1.06</v>
       </c>
       <c r="AA307">
-        <v>0.8700000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB307">
-        <v>0.8400000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="AC307">
         <v>-1</v>
@@ -27871,7 +27871,7 @@
         <v>306</v>
       </c>
       <c r="B308">
-        <v>6809226</v>
+        <v>6809388</v>
       </c>
       <c r="C308" t="s">
         <v>28</v>
@@ -27883,58 +27883,58 @@
         <v>45200.66666666666</v>
       </c>
       <c r="F308" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="G308" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="H308">
         <v>3</v>
       </c>
       <c r="I308">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J308" t="s">
         <v>53</v>
       </c>
       <c r="K308">
-        <v>2.2</v>
+        <v>1.333</v>
       </c>
       <c r="L308">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="M308">
-        <v>3.4</v>
+        <v>8.5</v>
       </c>
       <c r="N308">
-        <v>2.05</v>
+        <v>1.333</v>
       </c>
       <c r="O308">
-        <v>3.25</v>
+        <v>5.5</v>
       </c>
       <c r="P308">
-        <v>4</v>
+        <v>8.5</v>
       </c>
       <c r="Q308">
-        <v>-0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R308">
+        <v>2.03</v>
+      </c>
+      <c r="S308">
+        <v>1.87</v>
+      </c>
+      <c r="T308">
+        <v>2.5</v>
+      </c>
+      <c r="U308">
+        <v>1.84</v>
+      </c>
+      <c r="V308">
         <v>2.06</v>
       </c>
-      <c r="S308">
-        <v>1.84</v>
-      </c>
-      <c r="T308">
-        <v>2.25</v>
-      </c>
-      <c r="U308">
-        <v>2.05</v>
-      </c>
-      <c r="V308">
-        <v>1.85</v>
-      </c>
       <c r="W308">
-        <v>1.05</v>
+        <v>0.333</v>
       </c>
       <c r="X308">
         <v>-1</v>
@@ -27943,13 +27943,13 @@
         <v>-1</v>
       </c>
       <c r="Z308">
-        <v>1.06</v>
+        <v>-1</v>
       </c>
       <c r="AA308">
-        <v>-1</v>
+        <v>0.8700000000000001</v>
       </c>
       <c r="AB308">
-        <v>1.05</v>
+        <v>0.8400000000000001</v>
       </c>
       <c r="AC308">
         <v>-1</v>
@@ -28672,7 +28672,7 @@
         <v>315</v>
       </c>
       <c r="B317">
-        <v>6809395</v>
+        <v>6809394</v>
       </c>
       <c r="C317" t="s">
         <v>28</v>
@@ -28684,76 +28684,76 @@
         <v>45207.5625</v>
       </c>
       <c r="F317" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="G317" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="H317">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I317">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J317" t="s">
         <v>54</v>
       </c>
       <c r="K317">
-        <v>2.8</v>
+        <v>2.1</v>
       </c>
       <c r="L317">
         <v>3.25</v>
       </c>
       <c r="M317">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="N317">
-        <v>2.45</v>
+        <v>2</v>
       </c>
       <c r="O317">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P317">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="Q317">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R317">
-        <v>2.11</v>
+        <v>2.01</v>
       </c>
       <c r="S317">
-        <v>1.79</v>
+        <v>1.89</v>
       </c>
       <c r="T317">
         <v>2.25</v>
       </c>
       <c r="U317">
-        <v>1.99</v>
+        <v>2.07</v>
       </c>
       <c r="V317">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="W317">
         <v>-1</v>
       </c>
       <c r="X317">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="Y317">
         <v>-1</v>
       </c>
       <c r="Z317">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA317">
-        <v>0.395</v>
+        <v>0.8899999999999999</v>
       </c>
       <c r="AB317">
-        <v>-0.5</v>
+        <v>1.07</v>
       </c>
       <c r="AC317">
-        <v>0.455</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="318" spans="1:29">
@@ -28761,7 +28761,7 @@
         <v>316</v>
       </c>
       <c r="B318">
-        <v>6809394</v>
+        <v>6809395</v>
       </c>
       <c r="C318" t="s">
         <v>28</v>
@@ -28773,76 +28773,76 @@
         <v>45207.5625</v>
       </c>
       <c r="F318" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="G318" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="H318">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I318">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J318" t="s">
         <v>54</v>
       </c>
       <c r="K318">
-        <v>2.1</v>
+        <v>2.8</v>
       </c>
       <c r="L318">
         <v>3.25</v>
       </c>
       <c r="M318">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="N318">
-        <v>2</v>
+        <v>2.45</v>
       </c>
       <c r="O318">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="P318">
-        <v>4.2</v>
+        <v>3</v>
       </c>
       <c r="Q318">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R318">
-        <v>2.01</v>
+        <v>2.11</v>
       </c>
       <c r="S318">
-        <v>1.89</v>
+        <v>1.79</v>
       </c>
       <c r="T318">
         <v>2.25</v>
       </c>
       <c r="U318">
-        <v>2.07</v>
+        <v>1.99</v>
       </c>
       <c r="V318">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="W318">
         <v>-1</v>
       </c>
       <c r="X318">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="Y318">
         <v>-1</v>
       </c>
       <c r="Z318">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA318">
-        <v>0.8899999999999999</v>
+        <v>0.395</v>
       </c>
       <c r="AB318">
-        <v>1.07</v>
+        <v>-0.5</v>
       </c>
       <c r="AC318">
-        <v>-1</v>
+        <v>0.455</v>
       </c>
     </row>
     <row r="319" spans="1:29">
@@ -31876,7 +31876,7 @@
         <v>351</v>
       </c>
       <c r="B353">
-        <v>6809414</v>
+        <v>6809255</v>
       </c>
       <c r="C353" t="s">
         <v>28</v>
@@ -31888,10 +31888,10 @@
         <v>45241.60416666666</v>
       </c>
       <c r="F353" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G353" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="H353">
         <v>1</v>
@@ -31903,61 +31903,61 @@
         <v>54</v>
       </c>
       <c r="K353">
-        <v>2.5</v>
+        <v>1.75</v>
       </c>
       <c r="L353">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="M353">
-        <v>3</v>
+        <v>4.75</v>
       </c>
       <c r="N353">
-        <v>2.45</v>
+        <v>1.909</v>
       </c>
       <c r="O353">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P353">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="Q353">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R353">
-        <v>2.11</v>
+        <v>1.97</v>
       </c>
       <c r="S353">
-        <v>1.79</v>
+        <v>1.93</v>
       </c>
       <c r="T353">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U353">
-        <v>2.02</v>
+        <v>1.75</v>
       </c>
       <c r="V353">
-        <v>1.88</v>
+        <v>2.05</v>
       </c>
       <c r="W353">
         <v>-1</v>
       </c>
       <c r="X353">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="Y353">
         <v>-1</v>
       </c>
       <c r="Z353">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA353">
-        <v>0.395</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="AB353">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AC353">
-        <v>0.4399999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="354" spans="1:29">
@@ -31965,7 +31965,7 @@
         <v>352</v>
       </c>
       <c r="B354">
-        <v>6809255</v>
+        <v>6809414</v>
       </c>
       <c r="C354" t="s">
         <v>28</v>
@@ -31977,10 +31977,10 @@
         <v>45241.60416666666</v>
       </c>
       <c r="F354" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G354" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="H354">
         <v>1</v>
@@ -31992,61 +31992,61 @@
         <v>54</v>
       </c>
       <c r="K354">
-        <v>1.75</v>
+        <v>2.5</v>
       </c>
       <c r="L354">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="M354">
-        <v>4.75</v>
+        <v>3</v>
       </c>
       <c r="N354">
-        <v>1.909</v>
+        <v>2.45</v>
       </c>
       <c r="O354">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="P354">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="Q354">
+        <v>-0.25</v>
+      </c>
+      <c r="R354">
+        <v>2.11</v>
+      </c>
+      <c r="S354">
+        <v>1.79</v>
+      </c>
+      <c r="T354">
+        <v>2.25</v>
+      </c>
+      <c r="U354">
+        <v>2.02</v>
+      </c>
+      <c r="V354">
+        <v>1.88</v>
+      </c>
+      <c r="W354">
+        <v>-1</v>
+      </c>
+      <c r="X354">
+        <v>2.1</v>
+      </c>
+      <c r="Y354">
+        <v>-1</v>
+      </c>
+      <c r="Z354">
         <v>-0.5</v>
       </c>
-      <c r="R354">
-        <v>1.97</v>
-      </c>
-      <c r="S354">
-        <v>1.93</v>
-      </c>
-      <c r="T354">
-        <v>2</v>
-      </c>
-      <c r="U354">
-        <v>1.75</v>
-      </c>
-      <c r="V354">
-        <v>2.05</v>
-      </c>
-      <c r="W354">
-        <v>-1</v>
-      </c>
-      <c r="X354">
-        <v>2.2</v>
-      </c>
-      <c r="Y354">
-        <v>-1</v>
-      </c>
-      <c r="Z354">
-        <v>-1</v>
-      </c>
       <c r="AA354">
-        <v>0.9299999999999999</v>
+        <v>0.395</v>
       </c>
       <c r="AB354">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AC354">
-        <v>-0</v>
+        <v>0.4399999999999999</v>
       </c>
     </row>
     <row r="355" spans="1:29">
@@ -34991,7 +34991,7 @@
         <v>386</v>
       </c>
       <c r="B388">
-        <v>6809425</v>
+        <v>6809424</v>
       </c>
       <c r="C388" t="s">
         <v>28</v>
@@ -35003,76 +35003,76 @@
         <v>45271.70833333334</v>
       </c>
       <c r="F388" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="G388" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H388">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I388">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J388" t="s">
         <v>54</v>
       </c>
       <c r="K388">
-        <v>2.3</v>
+        <v>4.5</v>
       </c>
       <c r="L388">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M388">
-        <v>3.25</v>
+        <v>1.75</v>
       </c>
       <c r="N388">
-        <v>2.7</v>
+        <v>4.2</v>
       </c>
       <c r="O388">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="P388">
-        <v>2.8</v>
+        <v>1.85</v>
       </c>
       <c r="Q388">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R388">
-        <v>1.92</v>
+        <v>2.01</v>
       </c>
       <c r="S388">
-        <v>1.98</v>
+        <v>1.89</v>
       </c>
       <c r="T388">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U388">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="V388">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="W388">
         <v>-1</v>
       </c>
       <c r="X388">
-        <v>2.1</v>
+        <v>2.75</v>
       </c>
       <c r="Y388">
         <v>-1</v>
       </c>
       <c r="Z388">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AA388">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB388">
         <v>-1</v>
       </c>
       <c r="AC388">
-        <v>0.95</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="389" spans="1:29">
@@ -35080,7 +35080,7 @@
         <v>387</v>
       </c>
       <c r="B389">
-        <v>6809424</v>
+        <v>6809425</v>
       </c>
       <c r="C389" t="s">
         <v>28</v>
@@ -35092,76 +35092,76 @@
         <v>45271.70833333334</v>
       </c>
       <c r="F389" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="G389" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H389">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I389">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J389" t="s">
         <v>54</v>
       </c>
       <c r="K389">
-        <v>4.5</v>
+        <v>2.3</v>
       </c>
       <c r="L389">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M389">
-        <v>1.75</v>
+        <v>3.25</v>
       </c>
       <c r="N389">
-        <v>4.2</v>
+        <v>2.7</v>
       </c>
       <c r="O389">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="P389">
-        <v>1.85</v>
+        <v>2.8</v>
       </c>
       <c r="Q389">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R389">
-        <v>2.01</v>
+        <v>1.92</v>
       </c>
       <c r="S389">
-        <v>1.89</v>
+        <v>1.98</v>
       </c>
       <c r="T389">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U389">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V389">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="W389">
         <v>-1</v>
       </c>
       <c r="X389">
-        <v>2.75</v>
+        <v>2.1</v>
       </c>
       <c r="Y389">
         <v>-1</v>
       </c>
       <c r="Z389">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="AA389">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB389">
         <v>-1</v>
       </c>
       <c r="AC389">
-        <v>1.05</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="390" spans="1:29">
@@ -36148,7 +36148,7 @@
         <v>399</v>
       </c>
       <c r="B401">
-        <v>6809292</v>
+        <v>6809435</v>
       </c>
       <c r="C401" t="s">
         <v>28</v>
@@ -36160,49 +36160,49 @@
         <v>45279.72916666666</v>
       </c>
       <c r="F401" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="G401" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="H401">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I401">
         <v>3</v>
       </c>
       <c r="J401" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K401">
-        <v>2.875</v>
+        <v>1.333</v>
       </c>
       <c r="L401">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="M401">
-        <v>2.25</v>
+        <v>8</v>
       </c>
       <c r="N401">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="O401">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="P401">
-        <v>2.45</v>
+        <v>7</v>
       </c>
       <c r="Q401">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R401">
-        <v>1.78</v>
+        <v>1.83</v>
       </c>
       <c r="S401">
-        <v>2.125</v>
+        <v>2.07</v>
       </c>
       <c r="T401">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U401">
         <v>2.04</v>
@@ -36214,16 +36214,16 @@
         <v>-1</v>
       </c>
       <c r="X401">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y401">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="Z401">
         <v>-1</v>
       </c>
       <c r="AA401">
-        <v>1.125</v>
+        <v>1.07</v>
       </c>
       <c r="AB401">
         <v>1.04</v>
@@ -36237,7 +36237,7 @@
         <v>400</v>
       </c>
       <c r="B402">
-        <v>6809435</v>
+        <v>6809292</v>
       </c>
       <c r="C402" t="s">
         <v>28</v>
@@ -36249,49 +36249,49 @@
         <v>45279.72916666666</v>
       </c>
       <c r="F402" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="G402" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="H402">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I402">
         <v>3</v>
       </c>
       <c r="J402" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K402">
-        <v>1.333</v>
+        <v>2.875</v>
       </c>
       <c r="L402">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="M402">
-        <v>8</v>
+        <v>2.25</v>
       </c>
       <c r="N402">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="O402">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="P402">
-        <v>7</v>
+        <v>2.45</v>
       </c>
       <c r="Q402">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R402">
-        <v>1.83</v>
+        <v>1.78</v>
       </c>
       <c r="S402">
-        <v>2.07</v>
+        <v>2.125</v>
       </c>
       <c r="T402">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U402">
         <v>2.04</v>
@@ -36303,16 +36303,16 @@
         <v>-1</v>
       </c>
       <c r="X402">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y402">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="Z402">
         <v>-1</v>
       </c>
       <c r="AA402">
-        <v>1.07</v>
+        <v>1.125</v>
       </c>
       <c r="AB402">
         <v>1.04</v>
@@ -36593,7 +36593,7 @@
         <v>404</v>
       </c>
       <c r="B406">
-        <v>6809289</v>
+        <v>6809436</v>
       </c>
       <c r="C406" t="s">
         <v>28</v>
@@ -36605,76 +36605,76 @@
         <v>45281.625</v>
       </c>
       <c r="F406" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G406" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H406">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I406">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J406" t="s">
         <v>54</v>
       </c>
       <c r="K406">
-        <v>2.4</v>
+        <v>4.333</v>
       </c>
       <c r="L406">
+        <v>3.2</v>
+      </c>
+      <c r="M406">
+        <v>1.85</v>
+      </c>
+      <c r="N406">
+        <v>6</v>
+      </c>
+      <c r="O406">
         <v>3.5</v>
       </c>
-      <c r="M406">
-        <v>2.75</v>
-      </c>
-      <c r="N406">
-        <v>2.6</v>
-      </c>
-      <c r="O406">
-        <v>3.6</v>
-      </c>
       <c r="P406">
+        <v>1.65</v>
+      </c>
+      <c r="Q406">
+        <v>0.75</v>
+      </c>
+      <c r="R406">
+        <v>1.98</v>
+      </c>
+      <c r="S406">
+        <v>1.92</v>
+      </c>
+      <c r="T406">
+        <v>2</v>
+      </c>
+      <c r="U406">
+        <v>1.84</v>
+      </c>
+      <c r="V406">
+        <v>2.06</v>
+      </c>
+      <c r="W406">
+        <v>-1</v>
+      </c>
+      <c r="X406">
         <v>2.5</v>
       </c>
-      <c r="Q406">
-        <v>0</v>
-      </c>
-      <c r="R406">
-        <v>1.97</v>
-      </c>
-      <c r="S406">
-        <v>1.93</v>
-      </c>
-      <c r="T406">
-        <v>2.75</v>
-      </c>
-      <c r="U406">
-        <v>1.91</v>
-      </c>
-      <c r="V406">
-        <v>1.99</v>
-      </c>
-      <c r="W406">
-        <v>-1</v>
-      </c>
-      <c r="X406">
-        <v>2.6</v>
-      </c>
       <c r="Y406">
         <v>-1</v>
       </c>
       <c r="Z406">
-        <v>0</v>
+        <v>0.98</v>
       </c>
       <c r="AA406">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB406">
         <v>-1</v>
       </c>
       <c r="AC406">
-        <v>0.99</v>
+        <v>1.06</v>
       </c>
     </row>
     <row r="407" spans="1:29">
@@ -36682,7 +36682,7 @@
         <v>405</v>
       </c>
       <c r="B407">
-        <v>6809436</v>
+        <v>6809289</v>
       </c>
       <c r="C407" t="s">
         <v>28</v>
@@ -36694,76 +36694,76 @@
         <v>45281.625</v>
       </c>
       <c r="F407" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G407" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H407">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I407">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J407" t="s">
         <v>54</v>
       </c>
       <c r="K407">
-        <v>4.333</v>
+        <v>2.4</v>
       </c>
       <c r="L407">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M407">
-        <v>1.85</v>
+        <v>2.75</v>
       </c>
       <c r="N407">
-        <v>6</v>
+        <v>2.6</v>
       </c>
       <c r="O407">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P407">
-        <v>1.65</v>
+        <v>2.5</v>
       </c>
       <c r="Q407">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R407">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="S407">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="T407">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U407">
-        <v>1.84</v>
+        <v>1.91</v>
       </c>
       <c r="V407">
-        <v>2.06</v>
+        <v>1.99</v>
       </c>
       <c r="W407">
         <v>-1</v>
       </c>
       <c r="X407">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="Y407">
         <v>-1</v>
       </c>
       <c r="Z407">
-        <v>0.98</v>
+        <v>0</v>
       </c>
       <c r="AA407">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB407">
         <v>-1</v>
       </c>
       <c r="AC407">
-        <v>1.06</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="408" spans="1:29">
@@ -37394,7 +37394,7 @@
         <v>413</v>
       </c>
       <c r="B415">
-        <v>6809442</v>
+        <v>6809440</v>
       </c>
       <c r="C415" t="s">
         <v>28</v>
@@ -37406,58 +37406,58 @@
         <v>45294.63541666666</v>
       </c>
       <c r="F415" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="G415" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="H415">
+        <v>2</v>
+      </c>
+      <c r="I415">
         <v>1</v>
-      </c>
-      <c r="I415">
-        <v>0</v>
       </c>
       <c r="J415" t="s">
         <v>53</v>
       </c>
       <c r="K415">
-        <v>1.222</v>
+        <v>2.25</v>
       </c>
       <c r="L415">
-        <v>6.5</v>
+        <v>3.2</v>
       </c>
       <c r="M415">
-        <v>11</v>
+        <v>3.25</v>
       </c>
       <c r="N415">
-        <v>1.2</v>
+        <v>2.15</v>
       </c>
       <c r="O415">
-        <v>6.5</v>
+        <v>3.2</v>
       </c>
       <c r="P415">
-        <v>15</v>
+        <v>3.5</v>
       </c>
       <c r="Q415">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R415">
-        <v>1.95</v>
+        <v>1.89</v>
       </c>
       <c r="S415">
-        <v>1.98</v>
+        <v>2.04</v>
       </c>
       <c r="T415">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U415">
-        <v>2.02</v>
+        <v>1.86</v>
       </c>
       <c r="V415">
-        <v>1.88</v>
+        <v>2.04</v>
       </c>
       <c r="W415">
-        <v>0.2</v>
+        <v>1.15</v>
       </c>
       <c r="X415">
         <v>-1</v>
@@ -37466,16 +37466,16 @@
         <v>-1</v>
       </c>
       <c r="Z415">
-        <v>-1</v>
+        <v>0.8899999999999999</v>
       </c>
       <c r="AA415">
-        <v>0.98</v>
+        <v>-1</v>
       </c>
       <c r="AB415">
-        <v>-1</v>
+        <v>0.8600000000000001</v>
       </c>
       <c r="AC415">
-        <v>0.8799999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="416" spans="1:29">
@@ -37483,7 +37483,7 @@
         <v>414</v>
       </c>
       <c r="B416">
-        <v>6809440</v>
+        <v>6809442</v>
       </c>
       <c r="C416" t="s">
         <v>28</v>
@@ -37495,58 +37495,58 @@
         <v>45294.63541666666</v>
       </c>
       <c r="F416" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="G416" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="H416">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I416">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J416" t="s">
         <v>53</v>
       </c>
       <c r="K416">
-        <v>2.25</v>
+        <v>1.222</v>
       </c>
       <c r="L416">
-        <v>3.2</v>
+        <v>6.5</v>
       </c>
       <c r="M416">
-        <v>3.25</v>
+        <v>11</v>
       </c>
       <c r="N416">
-        <v>2.15</v>
+        <v>1.2</v>
       </c>
       <c r="O416">
-        <v>3.2</v>
+        <v>6.5</v>
       </c>
       <c r="P416">
-        <v>3.5</v>
+        <v>15</v>
       </c>
       <c r="Q416">
-        <v>-0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R416">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="S416">
-        <v>2.04</v>
+        <v>1.98</v>
       </c>
       <c r="T416">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U416">
-        <v>1.86</v>
+        <v>2.02</v>
       </c>
       <c r="V416">
-        <v>2.04</v>
+        <v>1.88</v>
       </c>
       <c r="W416">
-        <v>1.15</v>
+        <v>0.2</v>
       </c>
       <c r="X416">
         <v>-1</v>
@@ -37555,16 +37555,16 @@
         <v>-1</v>
       </c>
       <c r="Z416">
-        <v>0.8899999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA416">
-        <v>-1</v>
+        <v>0.98</v>
       </c>
       <c r="AB416">
-        <v>0.8600000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC416">
-        <v>-1</v>
+        <v>0.8799999999999999</v>
       </c>
     </row>
     <row r="417" spans="1:29">
@@ -41577,7 +41577,7 @@
         <v>460</v>
       </c>
       <c r="B462">
-        <v>6809468</v>
+        <v>6809466</v>
       </c>
       <c r="C462" t="s">
         <v>28</v>
@@ -41586,64 +41586,79 @@
         <v>28</v>
       </c>
       <c r="E462" s="2">
-        <v>45333.41666666666</v>
+        <v>45332.41666666666</v>
       </c>
       <c r="F462" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="G462" t="s">
-        <v>39</v>
+        <v>31</v>
+      </c>
+      <c r="H462">
+        <v>1</v>
+      </c>
+      <c r="I462">
+        <v>1</v>
+      </c>
+      <c r="J462" t="s">
+        <v>54</v>
       </c>
       <c r="K462">
-        <v>2.25</v>
+        <v>2.375</v>
       </c>
       <c r="L462">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M462">
-        <v>3.2</v>
+        <v>2.875</v>
       </c>
       <c r="N462">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="O462">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="P462">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="Q462">
         <v>-0.25</v>
       </c>
       <c r="R462">
-        <v>1.91</v>
+        <v>1.89</v>
       </c>
       <c r="S462">
-        <v>1.99</v>
+        <v>2.01</v>
       </c>
       <c r="T462">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U462">
-        <v>1.93</v>
+        <v>2.03</v>
       </c>
       <c r="V462">
-        <v>1.97</v>
+        <v>1.87</v>
       </c>
       <c r="W462">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X462">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="Y462">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z462">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA462">
-        <v>0</v>
+        <v>0.5049999999999999</v>
+      </c>
+      <c r="AB462">
+        <v>-1</v>
+      </c>
+      <c r="AC462">
+        <v>0.8700000000000001</v>
       </c>
     </row>
     <row r="463" spans="1:29">
@@ -41651,7 +41666,7 @@
         <v>461</v>
       </c>
       <c r="B463">
-        <v>6809465</v>
+        <v>6809323</v>
       </c>
       <c r="C463" t="s">
         <v>28</v>
@@ -41660,64 +41675,79 @@
         <v>28</v>
       </c>
       <c r="E463" s="2">
-        <v>45333.51041666666</v>
+        <v>45332.51041666666</v>
       </c>
       <c r="F463" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="G463" t="s">
-        <v>35</v>
+        <v>42</v>
+      </c>
+      <c r="H463">
+        <v>0</v>
+      </c>
+      <c r="I463">
+        <v>1</v>
+      </c>
+      <c r="J463" t="s">
+        <v>52</v>
       </c>
       <c r="K463">
-        <v>2.3</v>
+        <v>1.727</v>
       </c>
       <c r="L463">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="M463">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="N463">
-        <v>2.3</v>
+        <v>1.727</v>
       </c>
       <c r="O463">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="P463">
-        <v>3.4</v>
+        <v>5.75</v>
       </c>
       <c r="Q463">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R463">
-        <v>2.07</v>
+        <v>2.02</v>
       </c>
       <c r="S463">
-        <v>1.86</v>
+        <v>1.88</v>
       </c>
       <c r="T463">
+        <v>2</v>
+      </c>
+      <c r="U463">
+        <v>2.05</v>
+      </c>
+      <c r="V463">
         <v>1.75</v>
       </c>
-      <c r="U463">
-        <v>1.88</v>
-      </c>
-      <c r="V463">
-        <v>2.02</v>
-      </c>
       <c r="W463">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X463">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y463">
-        <v>0</v>
+        <v>4.75</v>
       </c>
       <c r="Z463">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA463">
-        <v>0</v>
+        <v>0.8799999999999999</v>
+      </c>
+      <c r="AB463">
+        <v>-1</v>
+      </c>
+      <c r="AC463">
+        <v>0.75</v>
       </c>
     </row>
     <row r="464" spans="1:29">
@@ -41725,7 +41755,7 @@
         <v>462</v>
       </c>
       <c r="B464">
-        <v>6809321</v>
+        <v>6809322</v>
       </c>
       <c r="C464" t="s">
         <v>28</v>
@@ -41734,72 +41764,87 @@
         <v>28</v>
       </c>
       <c r="E464" s="2">
-        <v>45333.60416666666</v>
+        <v>45332.60416666666</v>
       </c>
       <c r="F464" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="G464" t="s">
-        <v>37</v>
+        <v>41</v>
+      </c>
+      <c r="H464">
+        <v>4</v>
+      </c>
+      <c r="I464">
+        <v>0</v>
+      </c>
+      <c r="J464" t="s">
+        <v>53</v>
       </c>
       <c r="K464">
-        <v>3.75</v>
+        <v>1.571</v>
       </c>
       <c r="L464">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M464">
-        <v>2</v>
+        <v>5.5</v>
       </c>
       <c r="N464">
-        <v>3.6</v>
+        <v>1.4</v>
       </c>
       <c r="O464">
+        <v>5.5</v>
+      </c>
+      <c r="P464">
+        <v>6</v>
+      </c>
+      <c r="Q464">
+        <v>-1.25</v>
+      </c>
+      <c r="R464">
+        <v>1.88</v>
+      </c>
+      <c r="S464">
+        <v>2.02</v>
+      </c>
+      <c r="T464">
         <v>3.5</v>
       </c>
-      <c r="P464">
-        <v>2.05</v>
-      </c>
-      <c r="Q464">
-        <v>0.5</v>
-      </c>
-      <c r="R464">
+      <c r="U464">
         <v>1.86</v>
       </c>
-      <c r="S464">
-        <v>2.07</v>
-      </c>
-      <c r="T464">
-        <v>2.5</v>
-      </c>
-      <c r="U464">
-        <v>1.95</v>
-      </c>
       <c r="V464">
-        <v>1.95</v>
+        <v>2.04</v>
       </c>
       <c r="W464">
-        <v>0</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X464">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y464">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z464">
-        <v>0</v>
+        <v>0.8799999999999999</v>
       </c>
       <c r="AA464">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="465" spans="1:27">
+        <v>-1</v>
+      </c>
+      <c r="AB464">
+        <v>0.8600000000000001</v>
+      </c>
+      <c r="AC464">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="465" spans="1:29">
       <c r="A465" s="1">
         <v>463</v>
       </c>
       <c r="B465">
-        <v>6809319</v>
+        <v>6809320</v>
       </c>
       <c r="C465" t="s">
         <v>28</v>
@@ -41808,72 +41853,87 @@
         <v>28</v>
       </c>
       <c r="E465" s="2">
-        <v>45333.70833333334</v>
+        <v>45332.70833333334</v>
       </c>
       <c r="F465" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G465" t="s">
-        <v>51</v>
+        <v>30</v>
+      </c>
+      <c r="H465">
+        <v>2</v>
+      </c>
+      <c r="I465">
+        <v>0</v>
+      </c>
+      <c r="J465" t="s">
+        <v>53</v>
       </c>
       <c r="K465">
-        <v>1.25</v>
+        <v>2.875</v>
       </c>
       <c r="L465">
-        <v>6.5</v>
+        <v>3</v>
       </c>
       <c r="M465">
-        <v>9</v>
+        <v>2.6</v>
       </c>
       <c r="N465">
-        <v>1.222</v>
+        <v>2.55</v>
       </c>
       <c r="O465">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="P465">
-        <v>10</v>
+        <v>3.2</v>
       </c>
       <c r="Q465">
-        <v>-2</v>
+        <v>-0.25</v>
       </c>
       <c r="R465">
-        <v>1.93</v>
+        <v>2.075</v>
       </c>
       <c r="S465">
+        <v>1.725</v>
+      </c>
+      <c r="T465">
         <v>2</v>
       </c>
-      <c r="T465">
-        <v>3.5</v>
-      </c>
       <c r="U465">
-        <v>1.88</v>
+        <v>1.99</v>
       </c>
       <c r="V465">
-        <v>2.02</v>
+        <v>1.91</v>
       </c>
       <c r="W465">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="X465">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y465">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z465">
-        <v>0</v>
+        <v>1.075</v>
       </c>
       <c r="AA465">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="466" spans="1:27">
+        <v>-1</v>
+      </c>
+      <c r="AB465">
+        <v>0</v>
+      </c>
+      <c r="AC465">
+        <v>-0</v>
+      </c>
+    </row>
+    <row r="466" spans="1:29">
       <c r="A466" s="1">
         <v>464</v>
       </c>
       <c r="B466">
-        <v>6809318</v>
+        <v>6809468</v>
       </c>
       <c r="C466" t="s">
         <v>28</v>
@@ -41882,72 +41942,87 @@
         <v>28</v>
       </c>
       <c r="E466" s="2">
-        <v>45334.70833333334</v>
+        <v>45333.41666666666</v>
       </c>
       <c r="F466" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="G466" t="s">
-        <v>38</v>
+        <v>39</v>
+      </c>
+      <c r="H466">
+        <v>3</v>
+      </c>
+      <c r="I466">
+        <v>2</v>
+      </c>
+      <c r="J466" t="s">
+        <v>53</v>
       </c>
       <c r="K466">
-        <v>4.2</v>
+        <v>2.25</v>
       </c>
       <c r="L466">
+        <v>3.25</v>
+      </c>
+      <c r="M466">
+        <v>3.2</v>
+      </c>
+      <c r="N466">
+        <v>2.15</v>
+      </c>
+      <c r="O466">
+        <v>3</v>
+      </c>
+      <c r="P466">
         <v>3.75</v>
       </c>
-      <c r="M466">
-        <v>1.8</v>
-      </c>
-      <c r="N466">
-        <v>4.333</v>
-      </c>
-      <c r="O466">
-        <v>4</v>
-      </c>
-      <c r="P466">
-        <v>1.727</v>
-      </c>
       <c r="Q466">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R466">
-        <v>1.94</v>
+        <v>1.85</v>
       </c>
       <c r="S466">
-        <v>1.99</v>
+        <v>2.05</v>
       </c>
       <c r="T466">
-        <v>2.5</v>
+        <v>1.75</v>
       </c>
       <c r="U466">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="V466">
-        <v>2.05</v>
+        <v>2.06</v>
       </c>
       <c r="W466">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="X466">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y466">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z466">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA466">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="467" spans="1:27">
+        <v>-1</v>
+      </c>
+      <c r="AB466">
+        <v>0.8400000000000001</v>
+      </c>
+      <c r="AC466">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="467" spans="1:29">
       <c r="A467" s="1">
         <v>465</v>
       </c>
       <c r="B467">
-        <v>7791486</v>
+        <v>6809465</v>
       </c>
       <c r="C467" t="s">
         <v>28</v>
@@ -41956,72 +42031,87 @@
         <v>28</v>
       </c>
       <c r="E467" s="2">
-        <v>45338.70833333334</v>
+        <v>45333.51041666666</v>
       </c>
       <c r="F467" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G467" t="s">
-        <v>44</v>
+        <v>35</v>
+      </c>
+      <c r="H467">
+        <v>2</v>
+      </c>
+      <c r="I467">
+        <v>1</v>
+      </c>
+      <c r="J467" t="s">
+        <v>53</v>
       </c>
       <c r="K467">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="L467">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="M467">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="N467">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="O467">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="P467">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="Q467">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R467">
-        <v>2.09</v>
+        <v>2.125</v>
       </c>
       <c r="S467">
         <v>1.81</v>
       </c>
       <c r="T467">
-        <v>2.5</v>
+        <v>1.75</v>
       </c>
       <c r="U467">
-        <v>1.98</v>
+        <v>2.07</v>
       </c>
       <c r="V467">
-        <v>1.92</v>
+        <v>1.83</v>
       </c>
       <c r="W467">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="X467">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y467">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z467">
-        <v>0</v>
+        <v>1.125</v>
       </c>
       <c r="AA467">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="468" spans="1:27">
+        <v>-1</v>
+      </c>
+      <c r="AB467">
+        <v>1.07</v>
+      </c>
+      <c r="AC467">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="468" spans="1:29">
       <c r="A468" s="1">
         <v>466</v>
       </c>
       <c r="B468">
-        <v>7791487</v>
+        <v>6809321</v>
       </c>
       <c r="C468" t="s">
         <v>28</v>
@@ -42030,72 +42120,87 @@
         <v>28</v>
       </c>
       <c r="E468" s="2">
-        <v>45339.41666666666</v>
+        <v>45333.60416666666</v>
       </c>
       <c r="F468" t="s">
+        <v>36</v>
+      </c>
+      <c r="G468" t="s">
         <v>37</v>
       </c>
-      <c r="G468" t="s">
-        <v>49</v>
+      <c r="H468">
+        <v>1</v>
+      </c>
+      <c r="I468">
+        <v>0</v>
+      </c>
+      <c r="J468" t="s">
+        <v>53</v>
       </c>
       <c r="K468">
-        <v>1.333</v>
+        <v>3.75</v>
       </c>
       <c r="L468">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="M468">
-        <v>8.5</v>
+        <v>2</v>
       </c>
       <c r="N468">
-        <v>1.363</v>
+        <v>3.6</v>
       </c>
       <c r="O468">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="P468">
-        <v>8</v>
+        <v>2.05</v>
       </c>
       <c r="Q468">
-        <v>-1.25</v>
+        <v>0.5</v>
       </c>
       <c r="R468">
+        <v>1.86</v>
+      </c>
+      <c r="S468">
+        <v>2.04</v>
+      </c>
+      <c r="T468">
+        <v>2.5</v>
+      </c>
+      <c r="U468">
         <v>1.84</v>
       </c>
-      <c r="S468">
+      <c r="V468">
         <v>2.06</v>
       </c>
-      <c r="T468">
-        <v>2.75</v>
-      </c>
-      <c r="U468">
-        <v>1.92</v>
-      </c>
-      <c r="V468">
-        <v>1.98</v>
-      </c>
       <c r="W468">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="X468">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y468">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z468">
-        <v>0</v>
+        <v>0.8600000000000001</v>
       </c>
       <c r="AA468">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="469" spans="1:27">
+        <v>-1</v>
+      </c>
+      <c r="AB468">
+        <v>-1</v>
+      </c>
+      <c r="AC468">
+        <v>1.06</v>
+      </c>
+    </row>
+    <row r="469" spans="1:29">
       <c r="A469" s="1">
         <v>467</v>
       </c>
       <c r="B469">
-        <v>7791488</v>
+        <v>6809319</v>
       </c>
       <c r="C469" t="s">
         <v>28</v>
@@ -42104,72 +42209,87 @@
         <v>28</v>
       </c>
       <c r="E469" s="2">
-        <v>45339.51041666666</v>
+        <v>45333.70833333334</v>
       </c>
       <c r="F469" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="G469" t="s">
-        <v>45</v>
+        <v>51</v>
+      </c>
+      <c r="H469">
+        <v>3</v>
+      </c>
+      <c r="I469">
+        <v>3</v>
+      </c>
+      <c r="J469" t="s">
+        <v>54</v>
       </c>
       <c r="K469">
-        <v>1.7</v>
+        <v>1.25</v>
       </c>
       <c r="L469">
-        <v>3.4</v>
+        <v>6.5</v>
       </c>
       <c r="M469">
-        <v>5.25</v>
+        <v>9</v>
       </c>
       <c r="N469">
-        <v>1.727</v>
+        <v>1.181</v>
       </c>
       <c r="O469">
-        <v>3.4</v>
+        <v>8</v>
       </c>
       <c r="P469">
-        <v>5.5</v>
+        <v>13</v>
       </c>
       <c r="Q469">
-        <v>-0.75</v>
+        <v>-2</v>
       </c>
       <c r="R469">
-        <v>2.03</v>
+        <v>1.98</v>
       </c>
       <c r="S469">
-        <v>1.87</v>
+        <v>1.95</v>
       </c>
       <c r="T469">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="U469">
-        <v>1.89</v>
+        <v>2.06</v>
       </c>
       <c r="V469">
-        <v>2.01</v>
+        <v>1.84</v>
       </c>
       <c r="W469">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X469">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="Y469">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z469">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA469">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="470" spans="1:27">
+        <v>0.95</v>
+      </c>
+      <c r="AB469">
+        <v>1.06</v>
+      </c>
+      <c r="AC469">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="470" spans="1:29">
       <c r="A470" s="1">
         <v>468</v>
       </c>
       <c r="B470">
-        <v>7791489</v>
+        <v>6809318</v>
       </c>
       <c r="C470" t="s">
         <v>28</v>
@@ -42178,72 +42298,87 @@
         <v>28</v>
       </c>
       <c r="E470" s="2">
-        <v>45339.60416666666</v>
+        <v>45334.70833333334</v>
       </c>
       <c r="F470" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G470" t="s">
-        <v>46</v>
+        <v>38</v>
+      </c>
+      <c r="H470">
+        <v>0</v>
+      </c>
+      <c r="I470">
+        <v>0</v>
+      </c>
+      <c r="J470" t="s">
+        <v>54</v>
       </c>
       <c r="K470">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="L470">
         <v>3.75</v>
       </c>
       <c r="M470">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="N470">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="O470">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P470">
-        <v>1.909</v>
+        <v>1.8</v>
       </c>
       <c r="Q470">
         <v>0.5</v>
       </c>
       <c r="R470">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="S470">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="T470">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U470">
-        <v>1.86</v>
+        <v>1.88</v>
       </c>
       <c r="V470">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="W470">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X470">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="Y470">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z470">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="AA470">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="471" spans="1:27">
+        <v>-1</v>
+      </c>
+      <c r="AB470">
+        <v>-1</v>
+      </c>
+      <c r="AC470">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="471" spans="1:29">
       <c r="A471" s="1">
         <v>469</v>
       </c>
       <c r="B471">
-        <v>7791495</v>
+        <v>7791486</v>
       </c>
       <c r="C471" t="s">
         <v>28</v>
@@ -42252,49 +42387,49 @@
         <v>28</v>
       </c>
       <c r="E471" s="2">
-        <v>45339.70833333334</v>
+        <v>45338.70833333334</v>
       </c>
       <c r="F471" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G471" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="K471">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L471">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M471">
         <v>3.5</v>
       </c>
       <c r="N471">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="O471">
         <v>3.4</v>
       </c>
       <c r="P471">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="Q471">
         <v>-0.25</v>
       </c>
       <c r="R471">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="S471">
-        <v>2.07</v>
+        <v>2.06</v>
       </c>
       <c r="T471">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U471">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="V471">
-        <v>1.97</v>
+        <v>1.92</v>
       </c>
       <c r="W471">
         <v>0</v>
@@ -42312,12 +42447,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="472" spans="1:27">
+    <row r="472" spans="1:29">
       <c r="A472" s="1">
         <v>470</v>
       </c>
       <c r="B472">
-        <v>7791496</v>
+        <v>7791487</v>
       </c>
       <c r="C472" t="s">
         <v>28</v>
@@ -42326,49 +42461,49 @@
         <v>28</v>
       </c>
       <c r="E472" s="2">
-        <v>45340.41666666666</v>
+        <v>45339.41666666666</v>
       </c>
       <c r="F472" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G472" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K472">
+        <v>1.333</v>
+      </c>
+      <c r="L472">
         <v>5</v>
       </c>
-      <c r="L472">
-        <v>3.75</v>
-      </c>
       <c r="M472">
-        <v>1.666</v>
+        <v>8.5</v>
       </c>
       <c r="N472">
-        <v>5.5</v>
+        <v>1.45</v>
       </c>
       <c r="O472">
-        <v>3.8</v>
+        <v>4.75</v>
       </c>
       <c r="P472">
-        <v>1.615</v>
+        <v>7</v>
       </c>
       <c r="Q472">
-        <v>0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R472">
-        <v>2.09</v>
+        <v>2.01</v>
       </c>
       <c r="S472">
-        <v>1.81</v>
+        <v>1.89</v>
       </c>
       <c r="T472">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U472">
-        <v>1.85</v>
+        <v>1.98</v>
       </c>
       <c r="V472">
-        <v>2.05</v>
+        <v>1.92</v>
       </c>
       <c r="W472">
         <v>0</v>
@@ -42386,12 +42521,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="473" spans="1:27">
+    <row r="473" spans="1:29">
       <c r="A473" s="1">
         <v>471</v>
       </c>
       <c r="B473">
-        <v>7791497</v>
+        <v>7791488</v>
       </c>
       <c r="C473" t="s">
         <v>28</v>
@@ -42400,49 +42535,49 @@
         <v>28</v>
       </c>
       <c r="E473" s="2">
-        <v>45340.51041666666</v>
+        <v>45339.51041666666</v>
       </c>
       <c r="F473" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G473" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="K473">
+        <v>1.7</v>
+      </c>
+      <c r="L473">
+        <v>3.4</v>
+      </c>
+      <c r="M473">
+        <v>5.25</v>
+      </c>
+      <c r="N473">
+        <v>1.75</v>
+      </c>
+      <c r="O473">
+        <v>3.3</v>
+      </c>
+      <c r="P473">
+        <v>5.5</v>
+      </c>
+      <c r="Q473">
+        <v>-0.75</v>
+      </c>
+      <c r="R473">
+        <v>2.07</v>
+      </c>
+      <c r="S473">
+        <v>1.83</v>
+      </c>
+      <c r="T473">
         <v>2</v>
       </c>
-      <c r="L473">
-        <v>3.5</v>
-      </c>
-      <c r="M473">
-        <v>3.4</v>
-      </c>
-      <c r="N473">
-        <v>2</v>
-      </c>
-      <c r="O473">
-        <v>3.6</v>
-      </c>
-      <c r="P473">
-        <v>3.5</v>
-      </c>
-      <c r="Q473">
-        <v>-0.5</v>
-      </c>
-      <c r="R473">
-        <v>2.08</v>
-      </c>
-      <c r="S473">
-        <v>1.82</v>
-      </c>
-      <c r="T473">
-        <v>2.5</v>
-      </c>
       <c r="U473">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="V473">
-        <v>1.99</v>
+        <v>1.95</v>
       </c>
       <c r="W473">
         <v>0</v>
@@ -42460,12 +42595,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="474" spans="1:27">
+    <row r="474" spans="1:29">
       <c r="A474" s="1">
         <v>472</v>
       </c>
       <c r="B474">
-        <v>7791498</v>
+        <v>7791489</v>
       </c>
       <c r="C474" t="s">
         <v>28</v>
@@ -42474,49 +42609,49 @@
         <v>28</v>
       </c>
       <c r="E474" s="2">
-        <v>45340.60416666666</v>
+        <v>45339.60416666666</v>
       </c>
       <c r="F474" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G474" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="K474">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="L474">
-        <v>2.875</v>
+        <v>3.75</v>
       </c>
       <c r="M474">
-        <v>2.55</v>
+        <v>1.85</v>
       </c>
       <c r="N474">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="O474">
-        <v>2.875</v>
+        <v>3.8</v>
       </c>
       <c r="P474">
-        <v>2.45</v>
+        <v>1.85</v>
       </c>
       <c r="Q474">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R474">
-        <v>1.78</v>
+        <v>2.02</v>
       </c>
       <c r="S474">
-        <v>2.125</v>
+        <v>1.88</v>
       </c>
       <c r="T474">
-        <v>1.75</v>
+        <v>2.75</v>
       </c>
       <c r="U474">
-        <v>1.92</v>
+        <v>1.89</v>
       </c>
       <c r="V474">
-        <v>1.98</v>
+        <v>2.01</v>
       </c>
       <c r="W474">
         <v>0</v>
@@ -42534,12 +42669,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="475" spans="1:27">
+    <row r="475" spans="1:29">
       <c r="A475" s="1">
         <v>473</v>
       </c>
       <c r="B475">
-        <v>6809473</v>
+        <v>7791495</v>
       </c>
       <c r="C475" t="s">
         <v>28</v>
@@ -42548,63 +42683,433 @@
         <v>28</v>
       </c>
       <c r="E475" s="2">
-        <v>45340.70833333334</v>
+        <v>45339.70833333334</v>
       </c>
       <c r="F475" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="G475" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="K475">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="L475">
         <v>3.4</v>
       </c>
       <c r="M475">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="N475">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="O475">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P475">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="Q475">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R475">
-        <v>2.06</v>
+        <v>1.95</v>
       </c>
       <c r="S475">
-        <v>1.84</v>
+        <v>1.95</v>
       </c>
       <c r="T475">
         <v>2.25</v>
       </c>
       <c r="U475">
+        <v>1.98</v>
+      </c>
+      <c r="V475">
+        <v>1.92</v>
+      </c>
+      <c r="W475">
+        <v>0</v>
+      </c>
+      <c r="X475">
+        <v>0</v>
+      </c>
+      <c r="Y475">
+        <v>0</v>
+      </c>
+      <c r="Z475">
+        <v>0</v>
+      </c>
+      <c r="AA475">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="476" spans="1:29">
+      <c r="A476" s="1">
+        <v>474</v>
+      </c>
+      <c r="B476">
+        <v>7791496</v>
+      </c>
+      <c r="C476" t="s">
+        <v>28</v>
+      </c>
+      <c r="D476" t="s">
+        <v>28</v>
+      </c>
+      <c r="E476" s="2">
+        <v>45340.41666666666</v>
+      </c>
+      <c r="F476" t="s">
+        <v>35</v>
+      </c>
+      <c r="G476" t="s">
+        <v>47</v>
+      </c>
+      <c r="K476">
+        <v>5</v>
+      </c>
+      <c r="L476">
+        <v>3.75</v>
+      </c>
+      <c r="M476">
+        <v>1.666</v>
+      </c>
+      <c r="N476">
+        <v>6</v>
+      </c>
+      <c r="O476">
+        <v>3.75</v>
+      </c>
+      <c r="P476">
+        <v>1.615</v>
+      </c>
+      <c r="Q476">
+        <v>0.75</v>
+      </c>
+      <c r="R476">
+        <v>2.09</v>
+      </c>
+      <c r="S476">
+        <v>1.81</v>
+      </c>
+      <c r="T476">
+        <v>2.5</v>
+      </c>
+      <c r="U476">
+        <v>1.88</v>
+      </c>
+      <c r="V476">
+        <v>2.02</v>
+      </c>
+      <c r="W476">
+        <v>0</v>
+      </c>
+      <c r="X476">
+        <v>0</v>
+      </c>
+      <c r="Y476">
+        <v>0</v>
+      </c>
+      <c r="Z476">
+        <v>0</v>
+      </c>
+      <c r="AA476">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="477" spans="1:29">
+      <c r="A477" s="1">
+        <v>475</v>
+      </c>
+      <c r="B477">
+        <v>7791497</v>
+      </c>
+      <c r="C477" t="s">
+        <v>28</v>
+      </c>
+      <c r="D477" t="s">
+        <v>28</v>
+      </c>
+      <c r="E477" s="2">
+        <v>45340.51041666666</v>
+      </c>
+      <c r="F477" t="s">
+        <v>51</v>
+      </c>
+      <c r="G477" t="s">
+        <v>34</v>
+      </c>
+      <c r="K477">
+        <v>2</v>
+      </c>
+      <c r="L477">
+        <v>3.5</v>
+      </c>
+      <c r="M477">
+        <v>3.4</v>
+      </c>
+      <c r="N477">
+        <v>2.1</v>
+      </c>
+      <c r="O477">
+        <v>3.5</v>
+      </c>
+      <c r="P477">
+        <v>3.4</v>
+      </c>
+      <c r="Q477">
+        <v>-0.25</v>
+      </c>
+      <c r="R477">
+        <v>1.85</v>
+      </c>
+      <c r="S477">
+        <v>2.05</v>
+      </c>
+      <c r="T477">
+        <v>2.5</v>
+      </c>
+      <c r="U477">
+        <v>1.99</v>
+      </c>
+      <c r="V477">
+        <v>1.91</v>
+      </c>
+      <c r="W477">
+        <v>0</v>
+      </c>
+      <c r="X477">
+        <v>0</v>
+      </c>
+      <c r="Y477">
+        <v>0</v>
+      </c>
+      <c r="Z477">
+        <v>0</v>
+      </c>
+      <c r="AA477">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="478" spans="1:29">
+      <c r="A478" s="1">
+        <v>476</v>
+      </c>
+      <c r="B478">
+        <v>7791498</v>
+      </c>
+      <c r="C478" t="s">
+        <v>28</v>
+      </c>
+      <c r="D478" t="s">
+        <v>28</v>
+      </c>
+      <c r="E478" s="2">
+        <v>45340.60416666666</v>
+      </c>
+      <c r="F478" t="s">
+        <v>32</v>
+      </c>
+      <c r="G478" t="s">
+        <v>43</v>
+      </c>
+      <c r="K478">
+        <v>3.1</v>
+      </c>
+      <c r="L478">
+        <v>2.875</v>
+      </c>
+      <c r="M478">
+        <v>2.55</v>
+      </c>
+      <c r="N478">
+        <v>3.4</v>
+      </c>
+      <c r="O478">
+        <v>2.8</v>
+      </c>
+      <c r="P478">
+        <v>2.5</v>
+      </c>
+      <c r="Q478">
+        <v>0.25</v>
+      </c>
+      <c r="R478">
+        <v>1.78</v>
+      </c>
+      <c r="S478">
+        <v>2.125</v>
+      </c>
+      <c r="T478">
+        <v>1.75</v>
+      </c>
+      <c r="U478">
+        <v>2.03</v>
+      </c>
+      <c r="V478">
+        <v>1.87</v>
+      </c>
+      <c r="W478">
+        <v>0</v>
+      </c>
+      <c r="X478">
+        <v>0</v>
+      </c>
+      <c r="Y478">
+        <v>0</v>
+      </c>
+      <c r="Z478">
+        <v>0</v>
+      </c>
+      <c r="AA478">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="479" spans="1:29">
+      <c r="A479" s="1">
+        <v>477</v>
+      </c>
+      <c r="B479">
+        <v>6809473</v>
+      </c>
+      <c r="C479" t="s">
+        <v>28</v>
+      </c>
+      <c r="D479" t="s">
+        <v>28</v>
+      </c>
+      <c r="E479" s="2">
+        <v>45340.70833333334</v>
+      </c>
+      <c r="F479" t="s">
+        <v>48</v>
+      </c>
+      <c r="G479" t="s">
+        <v>50</v>
+      </c>
+      <c r="K479">
         <v>1.95</v>
       </c>
-      <c r="V475">
+      <c r="L479">
+        <v>3.4</v>
+      </c>
+      <c r="M479">
+        <v>3.6</v>
+      </c>
+      <c r="N479">
+        <v>2.05</v>
+      </c>
+      <c r="O479">
+        <v>3.3</v>
+      </c>
+      <c r="P479">
+        <v>3.8</v>
+      </c>
+      <c r="Q479">
+        <v>-0.5</v>
+      </c>
+      <c r="R479">
+        <v>2.09</v>
+      </c>
+      <c r="S479">
+        <v>1.81</v>
+      </c>
+      <c r="T479">
+        <v>2.25</v>
+      </c>
+      <c r="U479">
         <v>1.95</v>
       </c>
-      <c r="W475">
-        <v>0</v>
-      </c>
-      <c r="X475">
-        <v>0</v>
-      </c>
-      <c r="Y475">
-        <v>0</v>
-      </c>
-      <c r="Z475">
-        <v>0</v>
-      </c>
-      <c r="AA475">
+      <c r="V479">
+        <v>1.95</v>
+      </c>
+      <c r="W479">
+        <v>0</v>
+      </c>
+      <c r="X479">
+        <v>0</v>
+      </c>
+      <c r="Y479">
+        <v>0</v>
+      </c>
+      <c r="Z479">
+        <v>0</v>
+      </c>
+      <c r="AA479">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="480" spans="1:29">
+      <c r="A480" s="1">
+        <v>478</v>
+      </c>
+      <c r="B480">
+        <v>7791499</v>
+      </c>
+      <c r="C480" t="s">
+        <v>28</v>
+      </c>
+      <c r="D480" t="s">
+        <v>28</v>
+      </c>
+      <c r="E480" s="2">
+        <v>45341.70833333334</v>
+      </c>
+      <c r="F480" t="s">
+        <v>38</v>
+      </c>
+      <c r="G480" t="s">
+        <v>41</v>
+      </c>
+      <c r="K480">
+        <v>1.95</v>
+      </c>
+      <c r="L480">
+        <v>3.4</v>
+      </c>
+      <c r="M480">
+        <v>3.6</v>
+      </c>
+      <c r="N480">
+        <v>1.95</v>
+      </c>
+      <c r="O480">
+        <v>3.5</v>
+      </c>
+      <c r="P480">
+        <v>3.75</v>
+      </c>
+      <c r="Q480">
+        <v>-0.5</v>
+      </c>
+      <c r="R480">
+        <v>1.99</v>
+      </c>
+      <c r="S480">
+        <v>1.91</v>
+      </c>
+      <c r="T480">
+        <v>2.75</v>
+      </c>
+      <c r="U480">
+        <v>1.95</v>
+      </c>
+      <c r="V480">
+        <v>1.95</v>
+      </c>
+      <c r="W480">
+        <v>0</v>
+      </c>
+      <c r="X480">
+        <v>0</v>
+      </c>
+      <c r="Y480">
+        <v>0</v>
+      </c>
+      <c r="Z480">
+        <v>0</v>
+      </c>
+      <c r="AA480">
         <v>0</v>
       </c>
     </row>

--- a/Spain Primera Liga/Spain Primera Liga.xlsx
+++ b/Spain Primera Liga/Spain Primera Liga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2413" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2418" uniqueCount="55">
   <si>
     <t>id</t>
   </si>
@@ -540,7 +540,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC480"/>
+  <dimension ref="A1:AC481"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -10071,7 +10071,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>5210911</v>
+        <v>5210915</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10083,76 +10083,76 @@
         <v>45004.51041666666</v>
       </c>
       <c r="F108" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G108" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J108" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K108">
-        <v>3</v>
+        <v>1.3</v>
       </c>
       <c r="L108">
-        <v>3.1</v>
+        <v>5</v>
       </c>
       <c r="M108">
-        <v>2.45</v>
+        <v>10</v>
       </c>
       <c r="N108">
-        <v>3</v>
+        <v>1.4</v>
       </c>
       <c r="O108">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="P108">
-        <v>2.5</v>
+        <v>9</v>
       </c>
       <c r="Q108">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R108">
-        <v>2.14</v>
+        <v>1.97</v>
       </c>
       <c r="S108">
-        <v>1.77</v>
+        <v>1.93</v>
       </c>
       <c r="T108">
         <v>2.25</v>
       </c>
       <c r="U108">
-        <v>2.06</v>
+        <v>1.85</v>
       </c>
       <c r="V108">
-        <v>1.84</v>
+        <v>2.05</v>
       </c>
       <c r="W108">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X108">
         <v>-1</v>
       </c>
       <c r="Y108">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z108">
-        <v>-1</v>
+        <v>0.97</v>
       </c>
       <c r="AA108">
-        <v>0.77</v>
+        <v>-1</v>
       </c>
       <c r="AB108">
-        <v>1.06</v>
+        <v>-0.5</v>
       </c>
       <c r="AC108">
-        <v>-1</v>
+        <v>0.5249999999999999</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -10160,7 +10160,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>5210915</v>
+        <v>5210911</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10172,76 +10172,76 @@
         <v>45004.51041666666</v>
       </c>
       <c r="F109" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G109" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H109">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J109" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K109">
-        <v>1.3</v>
+        <v>3</v>
       </c>
       <c r="L109">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="M109">
-        <v>10</v>
+        <v>2.45</v>
       </c>
       <c r="N109">
-        <v>1.4</v>
+        <v>3</v>
       </c>
       <c r="O109">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="P109">
-        <v>9</v>
+        <v>2.5</v>
       </c>
       <c r="Q109">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R109">
-        <v>1.97</v>
+        <v>2.14</v>
       </c>
       <c r="S109">
-        <v>1.93</v>
+        <v>1.77</v>
       </c>
       <c r="T109">
         <v>2.25</v>
       </c>
       <c r="U109">
-        <v>1.85</v>
+        <v>2.06</v>
       </c>
       <c r="V109">
-        <v>2.05</v>
+        <v>1.84</v>
       </c>
       <c r="W109">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X109">
         <v>-1</v>
       </c>
       <c r="Y109">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z109">
-        <v>0.97</v>
+        <v>-1</v>
       </c>
       <c r="AA109">
-        <v>-1</v>
+        <v>0.77</v>
       </c>
       <c r="AB109">
-        <v>-0.5</v>
+        <v>1.06</v>
       </c>
       <c r="AC109">
-        <v>0.5249999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="110" spans="1:29">
@@ -13364,7 +13364,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>5210955</v>
+        <v>5210954</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -13376,58 +13376,58 @@
         <v>45038.5625</v>
       </c>
       <c r="F145" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G145" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="H145">
+        <v>2</v>
+      </c>
+      <c r="I145">
         <v>1</v>
-      </c>
-      <c r="I145">
-        <v>0</v>
       </c>
       <c r="J145" t="s">
         <v>53</v>
       </c>
       <c r="K145">
+        <v>1.666</v>
+      </c>
+      <c r="L145">
+        <v>3.75</v>
+      </c>
+      <c r="M145">
+        <v>5</v>
+      </c>
+      <c r="N145">
+        <v>1.65</v>
+      </c>
+      <c r="O145">
+        <v>3.6</v>
+      </c>
+      <c r="P145">
+        <v>5.75</v>
+      </c>
+      <c r="Q145">
+        <v>-0.75</v>
+      </c>
+      <c r="R145">
+        <v>1.89</v>
+      </c>
+      <c r="S145">
+        <v>2.01</v>
+      </c>
+      <c r="T145">
         <v>2.25</v>
       </c>
-      <c r="L145">
-        <v>3.4</v>
-      </c>
-      <c r="M145">
-        <v>3.1</v>
-      </c>
-      <c r="N145">
-        <v>2.5</v>
-      </c>
-      <c r="O145">
-        <v>3.4</v>
-      </c>
-      <c r="P145">
-        <v>2.8</v>
-      </c>
-      <c r="Q145">
-        <v>0</v>
-      </c>
-      <c r="R145">
-        <v>1.79</v>
-      </c>
-      <c r="S145">
-        <v>2.11</v>
-      </c>
-      <c r="T145">
-        <v>2.5</v>
-      </c>
       <c r="U145">
-        <v>2.05</v>
+        <v>2.01</v>
       </c>
       <c r="V145">
-        <v>1.85</v>
+        <v>1.89</v>
       </c>
       <c r="W145">
-        <v>1.5</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X145">
         <v>-1</v>
@@ -13436,16 +13436,16 @@
         <v>-1</v>
       </c>
       <c r="Z145">
-        <v>0.79</v>
+        <v>0.445</v>
       </c>
       <c r="AA145">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB145">
-        <v>-1</v>
+        <v>1.01</v>
       </c>
       <c r="AC145">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="146" spans="1:29">
@@ -13453,7 +13453,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>5210954</v>
+        <v>5210955</v>
       </c>
       <c r="C146" t="s">
         <v>28</v>
@@ -13465,58 +13465,58 @@
         <v>45038.5625</v>
       </c>
       <c r="F146" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G146" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="H146">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I146">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J146" t="s">
         <v>53</v>
       </c>
       <c r="K146">
-        <v>1.666</v>
+        <v>2.25</v>
       </c>
       <c r="L146">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M146">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="N146">
-        <v>1.65</v>
+        <v>2.5</v>
       </c>
       <c r="O146">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P146">
-        <v>5.75</v>
+        <v>2.8</v>
       </c>
       <c r="Q146">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R146">
-        <v>1.89</v>
+        <v>1.79</v>
       </c>
       <c r="S146">
-        <v>2.01</v>
+        <v>2.11</v>
       </c>
       <c r="T146">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U146">
-        <v>2.01</v>
+        <v>2.05</v>
       </c>
       <c r="V146">
-        <v>1.89</v>
+        <v>1.85</v>
       </c>
       <c r="W146">
-        <v>0.6499999999999999</v>
+        <v>1.5</v>
       </c>
       <c r="X146">
         <v>-1</v>
@@ -13525,16 +13525,16 @@
         <v>-1</v>
       </c>
       <c r="Z146">
-        <v>0.445</v>
+        <v>0.79</v>
       </c>
       <c r="AA146">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB146">
-        <v>1.01</v>
+        <v>-1</v>
       </c>
       <c r="AC146">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="147" spans="1:29">
@@ -14610,7 +14610,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>5466355</v>
+        <v>5466354</v>
       </c>
       <c r="C159" t="s">
         <v>28</v>
@@ -14622,49 +14622,49 @@
         <v>45043.60416666666</v>
       </c>
       <c r="F159" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G159" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H159">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I159">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J159" t="s">
         <v>53</v>
       </c>
       <c r="K159">
-        <v>1.55</v>
+        <v>1.666</v>
       </c>
       <c r="L159">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="M159">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="N159">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="O159">
-        <v>4.333</v>
+        <v>3.8</v>
       </c>
       <c r="P159">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q159">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R159">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="S159">
-        <v>1.99</v>
+        <v>1.95</v>
       </c>
       <c r="T159">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U159">
         <v>1.93</v>
@@ -14673,7 +14673,7 @@
         <v>1.97</v>
       </c>
       <c r="W159">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="X159">
         <v>-1</v>
@@ -14682,10 +14682,10 @@
         <v>-1</v>
       </c>
       <c r="Z159">
-        <v>0.9099999999999999</v>
+        <v>0.475</v>
       </c>
       <c r="AA159">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB159">
         <v>0.9299999999999999</v>
@@ -14699,7 +14699,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>5466354</v>
+        <v>5466355</v>
       </c>
       <c r="C160" t="s">
         <v>28</v>
@@ -14711,49 +14711,49 @@
         <v>45043.60416666666</v>
       </c>
       <c r="F160" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G160" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H160">
+        <v>4</v>
+      </c>
+      <c r="I160">
         <v>2</v>
-      </c>
-      <c r="I160">
-        <v>1</v>
       </c>
       <c r="J160" t="s">
         <v>53</v>
       </c>
       <c r="K160">
-        <v>1.666</v>
+        <v>1.55</v>
       </c>
       <c r="L160">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="M160">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="N160">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="O160">
-        <v>3.8</v>
+        <v>4.333</v>
       </c>
       <c r="P160">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q160">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R160">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="S160">
-        <v>1.95</v>
+        <v>1.99</v>
       </c>
       <c r="T160">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U160">
         <v>1.93</v>
@@ -14762,7 +14762,7 @@
         <v>1.97</v>
       </c>
       <c r="W160">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="X160">
         <v>-1</v>
@@ -14771,10 +14771,10 @@
         <v>-1</v>
       </c>
       <c r="Z160">
-        <v>0.475</v>
+        <v>0.9099999999999999</v>
       </c>
       <c r="AA160">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB160">
         <v>0.9299999999999999</v>
@@ -15767,7 +15767,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>5534478</v>
+        <v>5540298</v>
       </c>
       <c r="C172" t="s">
         <v>28</v>
@@ -15779,58 +15779,58 @@
         <v>45048.60416666666</v>
       </c>
       <c r="F172" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="G172" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="H172">
+        <v>2</v>
+      </c>
+      <c r="I172">
         <v>1</v>
-      </c>
-      <c r="I172">
-        <v>0</v>
       </c>
       <c r="J172" t="s">
         <v>53</v>
       </c>
       <c r="K172">
-        <v>1.25</v>
+        <v>1.65</v>
       </c>
       <c r="L172">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="M172">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="N172">
-        <v>1.166</v>
+        <v>1.727</v>
       </c>
       <c r="O172">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="P172">
-        <v>15</v>
+        <v>4.5</v>
       </c>
       <c r="Q172">
-        <v>-2</v>
+        <v>-0.75</v>
       </c>
       <c r="R172">
-        <v>1.85</v>
+        <v>1.92</v>
       </c>
       <c r="S172">
-        <v>2.05</v>
+        <v>1.98</v>
       </c>
       <c r="T172">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U172">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V172">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="W172">
-        <v>0.1659999999999999</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X172">
         <v>-1</v>
@@ -15839,16 +15839,16 @@
         <v>-1</v>
       </c>
       <c r="Z172">
-        <v>-1</v>
+        <v>0.46</v>
       </c>
       <c r="AA172">
-        <v>1.05</v>
+        <v>-0.5</v>
       </c>
       <c r="AB172">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC172">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="173" spans="1:29">
@@ -15856,7 +15856,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>5540298</v>
+        <v>5534478</v>
       </c>
       <c r="C173" t="s">
         <v>28</v>
@@ -15868,58 +15868,58 @@
         <v>45048.60416666666</v>
       </c>
       <c r="F173" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="G173" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="H173">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I173">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J173" t="s">
         <v>53</v>
       </c>
       <c r="K173">
-        <v>1.65</v>
+        <v>1.25</v>
       </c>
       <c r="L173">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="M173">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="N173">
-        <v>1.727</v>
+        <v>1.166</v>
       </c>
       <c r="O173">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="P173">
-        <v>4.5</v>
+        <v>15</v>
       </c>
       <c r="Q173">
-        <v>-0.75</v>
+        <v>-2</v>
       </c>
       <c r="R173">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="S173">
-        <v>1.98</v>
+        <v>2.05</v>
       </c>
       <c r="T173">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U173">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V173">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="W173">
-        <v>0.7270000000000001</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X173">
         <v>-1</v>
@@ -15928,16 +15928,16 @@
         <v>-1</v>
       </c>
       <c r="Z173">
-        <v>0.46</v>
+        <v>-1</v>
       </c>
       <c r="AA173">
-        <v>-0.5</v>
+        <v>1.05</v>
       </c>
       <c r="AB173">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC173">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="174" spans="1:29">
@@ -16123,7 +16123,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>5534214</v>
+        <v>5549244</v>
       </c>
       <c r="C176" t="s">
         <v>28</v>
@@ -16135,58 +16135,58 @@
         <v>45049.70833333334</v>
       </c>
       <c r="F176" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G176" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H176">
+        <v>5</v>
+      </c>
+      <c r="I176">
         <v>1</v>
-      </c>
-      <c r="I176">
-        <v>0</v>
       </c>
       <c r="J176" t="s">
         <v>53</v>
       </c>
       <c r="K176">
-        <v>2.55</v>
+        <v>1.3</v>
       </c>
       <c r="L176">
+        <v>5.5</v>
+      </c>
+      <c r="M176">
+        <v>10</v>
+      </c>
+      <c r="N176">
+        <v>1.333</v>
+      </c>
+      <c r="O176">
+        <v>5.25</v>
+      </c>
+      <c r="P176">
+        <v>9.5</v>
+      </c>
+      <c r="Q176">
+        <v>-1.5</v>
+      </c>
+      <c r="R176">
+        <v>1.95</v>
+      </c>
+      <c r="S176">
+        <v>1.95</v>
+      </c>
+      <c r="T176">
         <v>3</v>
       </c>
-      <c r="M176">
-        <v>3</v>
-      </c>
-      <c r="N176">
-        <v>2.8</v>
-      </c>
-      <c r="O176">
-        <v>2.9</v>
-      </c>
-      <c r="P176">
-        <v>2.875</v>
-      </c>
-      <c r="Q176">
-        <v>0</v>
-      </c>
-      <c r="R176">
-        <v>1.9</v>
-      </c>
-      <c r="S176">
-        <v>2</v>
-      </c>
-      <c r="T176">
-        <v>1.75</v>
-      </c>
       <c r="U176">
-        <v>1.86</v>
+        <v>2.07</v>
       </c>
       <c r="V176">
-        <v>2.04</v>
+        <v>1.83</v>
       </c>
       <c r="W176">
-        <v>1.8</v>
+        <v>0.333</v>
       </c>
       <c r="X176">
         <v>-1</v>
@@ -16195,16 +16195,16 @@
         <v>-1</v>
       </c>
       <c r="Z176">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AA176">
         <v>-1</v>
       </c>
       <c r="AB176">
-        <v>-1</v>
+        <v>1.07</v>
       </c>
       <c r="AC176">
-        <v>1.04</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="177" spans="1:29">
@@ -16212,7 +16212,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>5549244</v>
+        <v>5534214</v>
       </c>
       <c r="C177" t="s">
         <v>28</v>
@@ -16224,58 +16224,58 @@
         <v>45049.70833333334</v>
       </c>
       <c r="F177" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="G177" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H177">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I177">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J177" t="s">
         <v>53</v>
       </c>
       <c r="K177">
-        <v>1.3</v>
+        <v>2.55</v>
       </c>
       <c r="L177">
-        <v>5.5</v>
+        <v>3</v>
       </c>
       <c r="M177">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="N177">
-        <v>1.333</v>
+        <v>2.8</v>
       </c>
       <c r="O177">
-        <v>5.25</v>
+        <v>2.9</v>
       </c>
       <c r="P177">
-        <v>9.5</v>
+        <v>2.875</v>
       </c>
       <c r="Q177">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="R177">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S177">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T177">
-        <v>3</v>
+        <v>1.75</v>
       </c>
       <c r="U177">
-        <v>2.07</v>
+        <v>1.86</v>
       </c>
       <c r="V177">
-        <v>1.83</v>
+        <v>2.04</v>
       </c>
       <c r="W177">
-        <v>0.333</v>
+        <v>1.8</v>
       </c>
       <c r="X177">
         <v>-1</v>
@@ -16284,16 +16284,16 @@
         <v>-1</v>
       </c>
       <c r="Z177">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA177">
         <v>-1</v>
       </c>
       <c r="AB177">
-        <v>1.07</v>
+        <v>-1</v>
       </c>
       <c r="AC177">
-        <v>-1</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="178" spans="1:29">
@@ -18704,7 +18704,7 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>5634388</v>
+        <v>5638885</v>
       </c>
       <c r="C205" t="s">
         <v>28</v>
@@ -18716,58 +18716,58 @@
         <v>45070.60416666666</v>
       </c>
       <c r="F205" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="G205" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="H205">
         <v>2</v>
       </c>
       <c r="I205">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J205" t="s">
         <v>53</v>
       </c>
       <c r="K205">
-        <v>1.45</v>
+        <v>1.363</v>
       </c>
       <c r="L205">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="M205">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="N205">
-        <v>1.45</v>
+        <v>1.363</v>
       </c>
       <c r="O205">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="P205">
-        <v>6</v>
+        <v>7.5</v>
       </c>
       <c r="Q205">
-        <v>-1.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R205">
+        <v>2.06</v>
+      </c>
+      <c r="S205">
+        <v>1.84</v>
+      </c>
+      <c r="T205">
+        <v>3.25</v>
+      </c>
+      <c r="U205">
         <v>2.07</v>
       </c>
-      <c r="S205">
+      <c r="V205">
         <v>1.83</v>
       </c>
-      <c r="T205">
-        <v>3</v>
-      </c>
-      <c r="U205">
-        <v>1.92</v>
-      </c>
-      <c r="V205">
-        <v>1.98</v>
-      </c>
       <c r="W205">
-        <v>0.45</v>
+        <v>0.363</v>
       </c>
       <c r="X205">
         <v>-1</v>
@@ -18776,16 +18776,16 @@
         <v>-1</v>
       </c>
       <c r="Z205">
-        <v>1.07</v>
+        <v>-1</v>
       </c>
       <c r="AA205">
-        <v>-1</v>
+        <v>0.8400000000000001</v>
       </c>
       <c r="AB205">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC205">
-        <v>0.98</v>
+        <v>0.415</v>
       </c>
     </row>
     <row r="206" spans="1:29">
@@ -18793,7 +18793,7 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>5638885</v>
+        <v>5638809</v>
       </c>
       <c r="C206" t="s">
         <v>28</v>
@@ -18805,76 +18805,76 @@
         <v>45070.60416666666</v>
       </c>
       <c r="F206" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="G206" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H206">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I206">
         <v>1</v>
       </c>
       <c r="J206" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K206">
-        <v>1.363</v>
+        <v>3.8</v>
       </c>
       <c r="L206">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="M206">
-        <v>8</v>
+        <v>1.909</v>
       </c>
       <c r="N206">
-        <v>1.363</v>
+        <v>3.3</v>
       </c>
       <c r="O206">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="P206">
-        <v>7.5</v>
+        <v>2.15</v>
       </c>
       <c r="Q206">
-        <v>-1.5</v>
+        <v>0.25</v>
       </c>
       <c r="R206">
-        <v>2.06</v>
+        <v>1.99</v>
       </c>
       <c r="S206">
-        <v>1.84</v>
+        <v>1.94</v>
       </c>
       <c r="T206">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U206">
-        <v>2.07</v>
+        <v>1.96</v>
       </c>
       <c r="V206">
-        <v>1.83</v>
+        <v>1.94</v>
       </c>
       <c r="W206">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X206">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y206">
         <v>-1</v>
       </c>
       <c r="Z206">
-        <v>-1</v>
+        <v>0.495</v>
       </c>
       <c r="AA206">
-        <v>0.8400000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB206">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC206">
-        <v>0.415</v>
+        <v>0.9399999999999999</v>
       </c>
     </row>
     <row r="207" spans="1:29">
@@ -18882,7 +18882,7 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>5638809</v>
+        <v>5634388</v>
       </c>
       <c r="C207" t="s">
         <v>28</v>
@@ -18894,76 +18894,76 @@
         <v>45070.60416666666</v>
       </c>
       <c r="F207" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G207" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="H207">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I207">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J207" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K207">
-        <v>3.8</v>
+        <v>1.45</v>
       </c>
       <c r="L207">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="M207">
-        <v>1.909</v>
+        <v>6.5</v>
       </c>
       <c r="N207">
-        <v>3.3</v>
+        <v>1.45</v>
       </c>
       <c r="O207">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="P207">
-        <v>2.15</v>
+        <v>6</v>
       </c>
       <c r="Q207">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R207">
-        <v>1.99</v>
+        <v>2.07</v>
       </c>
       <c r="S207">
-        <v>1.94</v>
+        <v>1.83</v>
       </c>
       <c r="T207">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U207">
-        <v>1.96</v>
+        <v>1.92</v>
       </c>
       <c r="V207">
-        <v>1.94</v>
+        <v>1.98</v>
       </c>
       <c r="W207">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X207">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y207">
         <v>-1</v>
       </c>
       <c r="Z207">
-        <v>0.495</v>
+        <v>1.07</v>
       </c>
       <c r="AA207">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB207">
         <v>-1</v>
       </c>
       <c r="AC207">
-        <v>0.9399999999999999</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="208" spans="1:29">
@@ -18971,7 +18971,7 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>5643107</v>
+        <v>5642104</v>
       </c>
       <c r="C208" t="s">
         <v>28</v>
@@ -18983,76 +18983,76 @@
         <v>45070.70833333334</v>
       </c>
       <c r="F208" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="G208" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="H208">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I208">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J208" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K208">
-        <v>4</v>
+        <v>1.909</v>
       </c>
       <c r="L208">
+        <v>3.25</v>
+      </c>
+      <c r="M208">
+        <v>4.333</v>
+      </c>
+      <c r="N208">
+        <v>2.25</v>
+      </c>
+      <c r="O208">
+        <v>2.9</v>
+      </c>
+      <c r="P208">
         <v>3.75</v>
       </c>
-      <c r="M208">
-        <v>1.833</v>
-      </c>
-      <c r="N208">
-        <v>3</v>
-      </c>
-      <c r="O208">
-        <v>3.5</v>
-      </c>
-      <c r="P208">
-        <v>2.3</v>
-      </c>
       <c r="Q208">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R208">
-        <v>1.82</v>
+        <v>1.96</v>
       </c>
       <c r="S208">
-        <v>2.11</v>
+        <v>1.97</v>
       </c>
       <c r="T208">
+        <v>1.75</v>
+      </c>
+      <c r="U208">
+        <v>1.81</v>
+      </c>
+      <c r="V208">
+        <v>2.09</v>
+      </c>
+      <c r="W208">
+        <v>-1</v>
+      </c>
+      <c r="X208">
+        <v>-1</v>
+      </c>
+      <c r="Y208">
         <v>2.75</v>
       </c>
-      <c r="U208">
-        <v>2</v>
-      </c>
-      <c r="V208">
-        <v>1.9</v>
-      </c>
-      <c r="W208">
-        <v>-1</v>
-      </c>
-      <c r="X208">
-        <v>2.5</v>
-      </c>
-      <c r="Y208">
-        <v>-1</v>
-      </c>
       <c r="Z208">
-        <v>0.41</v>
+        <v>-1</v>
       </c>
       <c r="AA208">
-        <v>-0.5</v>
+        <v>0.97</v>
       </c>
       <c r="AB208">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC208">
-        <v>-1</v>
+        <v>1.09</v>
       </c>
     </row>
     <row r="209" spans="1:29">
@@ -19060,7 +19060,7 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>5642104</v>
+        <v>5643107</v>
       </c>
       <c r="C209" t="s">
         <v>28</v>
@@ -19072,76 +19072,76 @@
         <v>45070.70833333334</v>
       </c>
       <c r="F209" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="G209" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="H209">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I209">
+        <v>3</v>
+      </c>
+      <c r="J209" t="s">
+        <v>54</v>
+      </c>
+      <c r="K209">
+        <v>4</v>
+      </c>
+      <c r="L209">
+        <v>3.75</v>
+      </c>
+      <c r="M209">
+        <v>1.833</v>
+      </c>
+      <c r="N209">
+        <v>3</v>
+      </c>
+      <c r="O209">
+        <v>3.5</v>
+      </c>
+      <c r="P209">
+        <v>2.3</v>
+      </c>
+      <c r="Q209">
+        <v>0.25</v>
+      </c>
+      <c r="R209">
+        <v>1.82</v>
+      </c>
+      <c r="S209">
+        <v>2.11</v>
+      </c>
+      <c r="T209">
+        <v>2.75</v>
+      </c>
+      <c r="U209">
+        <v>2</v>
+      </c>
+      <c r="V209">
+        <v>1.9</v>
+      </c>
+      <c r="W209">
+        <v>-1</v>
+      </c>
+      <c r="X209">
+        <v>2.5</v>
+      </c>
+      <c r="Y209">
+        <v>-1</v>
+      </c>
+      <c r="Z209">
+        <v>0.41</v>
+      </c>
+      <c r="AA209">
+        <v>-0.5</v>
+      </c>
+      <c r="AB209">
         <v>1</v>
       </c>
-      <c r="J209" t="s">
-        <v>52</v>
-      </c>
-      <c r="K209">
-        <v>1.909</v>
-      </c>
-      <c r="L209">
-        <v>3.25</v>
-      </c>
-      <c r="M209">
-        <v>4.333</v>
-      </c>
-      <c r="N209">
-        <v>2.25</v>
-      </c>
-      <c r="O209">
-        <v>2.9</v>
-      </c>
-      <c r="P209">
-        <v>3.75</v>
-      </c>
-      <c r="Q209">
-        <v>-0.25</v>
-      </c>
-      <c r="R209">
-        <v>1.96</v>
-      </c>
-      <c r="S209">
-        <v>1.97</v>
-      </c>
-      <c r="T209">
-        <v>1.75</v>
-      </c>
-      <c r="U209">
-        <v>1.81</v>
-      </c>
-      <c r="V209">
-        <v>2.09</v>
-      </c>
-      <c r="W209">
-        <v>-1</v>
-      </c>
-      <c r="X209">
-        <v>-1</v>
-      </c>
-      <c r="Y209">
-        <v>2.75</v>
-      </c>
-      <c r="Z209">
-        <v>-1</v>
-      </c>
-      <c r="AA209">
-        <v>0.97</v>
-      </c>
-      <c r="AB209">
-        <v>-1</v>
-      </c>
       <c r="AC209">
-        <v>1.09</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="210" spans="1:29">
@@ -19505,7 +19505,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>5703047</v>
+        <v>5705884</v>
       </c>
       <c r="C214" t="s">
         <v>28</v>
@@ -19517,76 +19517,76 @@
         <v>45074.58333333334</v>
       </c>
       <c r="F214" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G214" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="H214">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I214">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J214" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K214">
-        <v>1.5</v>
+        <v>2.2</v>
       </c>
       <c r="L214">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="M214">
-        <v>6</v>
+        <v>3.1</v>
       </c>
       <c r="N214">
-        <v>1.25</v>
+        <v>1.909</v>
       </c>
       <c r="O214">
-        <v>5.75</v>
+        <v>3.6</v>
       </c>
       <c r="P214">
-        <v>12</v>
+        <v>3.8</v>
       </c>
       <c r="Q214">
-        <v>-1.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R214">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="S214">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="T214">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U214">
-        <v>1.93</v>
+        <v>1.99</v>
       </c>
       <c r="V214">
-        <v>1.97</v>
+        <v>1.91</v>
       </c>
       <c r="W214">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="X214">
         <v>-1</v>
       </c>
       <c r="Y214">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Z214">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA214">
-        <v>-1</v>
+        <v>0.9199999999999999</v>
       </c>
       <c r="AB214">
-        <v>0</v>
+        <v>0.99</v>
       </c>
       <c r="AC214">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="215" spans="1:29">
@@ -19594,7 +19594,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>5697402</v>
+        <v>5713343</v>
       </c>
       <c r="C215" t="s">
         <v>28</v>
@@ -19606,76 +19606,76 @@
         <v>45074.58333333334</v>
       </c>
       <c r="F215" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G215" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="H215">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I215">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J215" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K215">
-        <v>2.25</v>
+        <v>2.875</v>
       </c>
       <c r="L215">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M215">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="N215">
+        <v>3</v>
+      </c>
+      <c r="O215">
+        <v>3.75</v>
+      </c>
+      <c r="P215">
         <v>2.2</v>
       </c>
-      <c r="O215">
-        <v>3.3</v>
-      </c>
-      <c r="P215">
-        <v>3.3</v>
-      </c>
       <c r="Q215">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R215">
-        <v>1.97</v>
+        <v>1.9</v>
       </c>
       <c r="S215">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="T215">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U215">
-        <v>1.86</v>
+        <v>2.06</v>
       </c>
       <c r="V215">
-        <v>2.04</v>
+        <v>1.84</v>
       </c>
       <c r="W215">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X215">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y215">
         <v>-1</v>
       </c>
       <c r="Z215">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA215">
-        <v>0.465</v>
+        <v>-1</v>
       </c>
       <c r="AB215">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC215">
-        <v>1.04</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="216" spans="1:29">
@@ -19683,7 +19683,7 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>5701612</v>
+        <v>5697401</v>
       </c>
       <c r="C216" t="s">
         <v>28</v>
@@ -19695,76 +19695,76 @@
         <v>45074.58333333334</v>
       </c>
       <c r="F216" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="G216" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="H216">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I216">
         <v>1</v>
       </c>
       <c r="J216" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K216">
-        <v>1.909</v>
+        <v>1.4</v>
       </c>
       <c r="L216">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="M216">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="N216">
-        <v>2.4</v>
+        <v>1.4</v>
       </c>
       <c r="O216">
+        <v>4.5</v>
+      </c>
+      <c r="P216">
+        <v>8</v>
+      </c>
+      <c r="Q216">
+        <v>-1.25</v>
+      </c>
+      <c r="R216">
+        <v>1.95</v>
+      </c>
+      <c r="S216">
+        <v>1.95</v>
+      </c>
+      <c r="T216">
         <v>2.75</v>
       </c>
-      <c r="P216">
-        <v>3.5</v>
-      </c>
-      <c r="Q216">
-        <v>-0.25</v>
-      </c>
-      <c r="R216">
-        <v>2.1</v>
-      </c>
-      <c r="S216">
-        <v>1.8</v>
-      </c>
-      <c r="T216">
-        <v>1.5</v>
-      </c>
       <c r="U216">
-        <v>1.82</v>
+        <v>1.91</v>
       </c>
       <c r="V216">
-        <v>2.08</v>
+        <v>1.99</v>
       </c>
       <c r="W216">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="X216">
         <v>-1</v>
       </c>
       <c r="Y216">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="Z216">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="AA216">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB216">
-        <v>0.8200000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC216">
-        <v>-1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="217" spans="1:29">
@@ -19772,7 +19772,7 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>5701613</v>
+        <v>5701612</v>
       </c>
       <c r="C217" t="s">
         <v>28</v>
@@ -19784,58 +19784,58 @@
         <v>45074.58333333334</v>
       </c>
       <c r="F217" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G217" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H217">
+        <v>2</v>
+      </c>
+      <c r="I217">
         <v>1</v>
-      </c>
-      <c r="I217">
-        <v>0</v>
       </c>
       <c r="J217" t="s">
         <v>53</v>
       </c>
       <c r="K217">
-        <v>2.6</v>
+        <v>1.909</v>
       </c>
       <c r="L217">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M217">
-        <v>2.7</v>
+        <v>4</v>
       </c>
       <c r="N217">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="O217">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="P217">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="Q217">
         <v>-0.25</v>
       </c>
       <c r="R217">
-        <v>2.075</v>
+        <v>2.1</v>
       </c>
       <c r="S217">
-        <v>1.725</v>
+        <v>1.8</v>
       </c>
       <c r="T217">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="U217">
-        <v>1.95</v>
+        <v>1.82</v>
       </c>
       <c r="V217">
-        <v>1.95</v>
+        <v>2.08</v>
       </c>
       <c r="W217">
-        <v>1.45</v>
+        <v>1.4</v>
       </c>
       <c r="X217">
         <v>-1</v>
@@ -19844,16 +19844,16 @@
         <v>-1</v>
       </c>
       <c r="Z217">
-        <v>1.075</v>
+        <v>1.1</v>
       </c>
       <c r="AA217">
         <v>-1</v>
       </c>
       <c r="AB217">
-        <v>-1</v>
+        <v>0.8200000000000001</v>
       </c>
       <c r="AC217">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="218" spans="1:29">
@@ -19861,7 +19861,7 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>5697401</v>
+        <v>5701613</v>
       </c>
       <c r="C218" t="s">
         <v>28</v>
@@ -19873,76 +19873,76 @@
         <v>45074.58333333334</v>
       </c>
       <c r="F218" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="G218" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H218">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I218">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J218" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K218">
-        <v>1.4</v>
+        <v>2.6</v>
       </c>
       <c r="L218">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="M218">
-        <v>8</v>
+        <v>2.7</v>
       </c>
       <c r="N218">
-        <v>1.4</v>
+        <v>2.45</v>
       </c>
       <c r="O218">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="P218">
-        <v>8</v>
+        <v>3.1</v>
       </c>
       <c r="Q218">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R218">
+        <v>2.075</v>
+      </c>
+      <c r="S218">
+        <v>1.725</v>
+      </c>
+      <c r="T218">
+        <v>2</v>
+      </c>
+      <c r="U218">
         <v>1.95</v>
       </c>
-      <c r="S218">
+      <c r="V218">
         <v>1.95</v>
       </c>
-      <c r="T218">
-        <v>2.75</v>
-      </c>
-      <c r="U218">
-        <v>1.91</v>
-      </c>
-      <c r="V218">
-        <v>1.99</v>
-      </c>
       <c r="W218">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="X218">
         <v>-1</v>
       </c>
       <c r="Y218">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="Z218">
-        <v>-1</v>
+        <v>1.075</v>
       </c>
       <c r="AA218">
+        <v>-1</v>
+      </c>
+      <c r="AB218">
+        <v>-1</v>
+      </c>
+      <c r="AC218">
         <v>0.95</v>
-      </c>
-      <c r="AB218">
-        <v>-1</v>
-      </c>
-      <c r="AC218">
-        <v>0.99</v>
       </c>
     </row>
     <row r="219" spans="1:29">
@@ -19950,7 +19950,7 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>5713343</v>
+        <v>5697402</v>
       </c>
       <c r="C219" t="s">
         <v>28</v>
@@ -19962,76 +19962,76 @@
         <v>45074.58333333334</v>
       </c>
       <c r="F219" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G219" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H219">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I219">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J219" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K219">
-        <v>2.875</v>
+        <v>2.25</v>
       </c>
       <c r="L219">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M219">
+        <v>3.1</v>
+      </c>
+      <c r="N219">
+        <v>2.2</v>
+      </c>
+      <c r="O219">
+        <v>3.3</v>
+      </c>
+      <c r="P219">
+        <v>3.3</v>
+      </c>
+      <c r="Q219">
+        <v>-0.25</v>
+      </c>
+      <c r="R219">
+        <v>1.97</v>
+      </c>
+      <c r="S219">
+        <v>1.93</v>
+      </c>
+      <c r="T219">
+        <v>2.5</v>
+      </c>
+      <c r="U219">
+        <v>1.86</v>
+      </c>
+      <c r="V219">
+        <v>2.04</v>
+      </c>
+      <c r="W219">
+        <v>-1</v>
+      </c>
+      <c r="X219">
         <v>2.3</v>
       </c>
-      <c r="N219">
-        <v>3</v>
-      </c>
-      <c r="O219">
-        <v>3.75</v>
-      </c>
-      <c r="P219">
-        <v>2.2</v>
-      </c>
-      <c r="Q219">
-        <v>0.25</v>
-      </c>
-      <c r="R219">
-        <v>1.9</v>
-      </c>
-      <c r="S219">
-        <v>2</v>
-      </c>
-      <c r="T219">
-        <v>3</v>
-      </c>
-      <c r="U219">
-        <v>2.06</v>
-      </c>
-      <c r="V219">
-        <v>1.84</v>
-      </c>
-      <c r="W219">
-        <v>2</v>
-      </c>
-      <c r="X219">
-        <v>-1</v>
-      </c>
       <c r="Y219">
         <v>-1</v>
       </c>
       <c r="Z219">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AA219">
-        <v>-1</v>
+        <v>0.465</v>
       </c>
       <c r="AB219">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC219">
-        <v>-0</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="220" spans="1:29">
@@ -20039,7 +20039,7 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>5705884</v>
+        <v>5703047</v>
       </c>
       <c r="C220" t="s">
         <v>28</v>
@@ -20051,76 +20051,76 @@
         <v>45074.58333333334</v>
       </c>
       <c r="F220" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="G220" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="H220">
+        <v>3</v>
+      </c>
+      <c r="I220">
+        <v>0</v>
+      </c>
+      <c r="J220" t="s">
+        <v>53</v>
+      </c>
+      <c r="K220">
+        <v>1.5</v>
+      </c>
+      <c r="L220">
+        <v>4.5</v>
+      </c>
+      <c r="M220">
+        <v>6</v>
+      </c>
+      <c r="N220">
+        <v>1.25</v>
+      </c>
+      <c r="O220">
+        <v>5.75</v>
+      </c>
+      <c r="P220">
+        <v>12</v>
+      </c>
+      <c r="Q220">
+        <v>-1.75</v>
+      </c>
+      <c r="R220">
+        <v>2</v>
+      </c>
+      <c r="S220">
+        <v>1.9</v>
+      </c>
+      <c r="T220">
+        <v>3</v>
+      </c>
+      <c r="U220">
+        <v>1.93</v>
+      </c>
+      <c r="V220">
+        <v>1.97</v>
+      </c>
+      <c r="W220">
+        <v>0.25</v>
+      </c>
+      <c r="X220">
+        <v>-1</v>
+      </c>
+      <c r="Y220">
+        <v>-1</v>
+      </c>
+      <c r="Z220">
         <v>1</v>
       </c>
-      <c r="I220">
-        <v>2</v>
-      </c>
-      <c r="J220" t="s">
-        <v>52</v>
-      </c>
-      <c r="K220">
-        <v>2.2</v>
-      </c>
-      <c r="L220">
-        <v>3.5</v>
-      </c>
-      <c r="M220">
-        <v>3.1</v>
-      </c>
-      <c r="N220">
-        <v>1.909</v>
-      </c>
-      <c r="O220">
-        <v>3.6</v>
-      </c>
-      <c r="P220">
-        <v>3.8</v>
-      </c>
-      <c r="Q220">
-        <v>-0.5</v>
-      </c>
-      <c r="R220">
-        <v>1.98</v>
-      </c>
-      <c r="S220">
-        <v>1.92</v>
-      </c>
-      <c r="T220">
-        <v>2.5</v>
-      </c>
-      <c r="U220">
-        <v>1.99</v>
-      </c>
-      <c r="V220">
-        <v>1.91</v>
-      </c>
-      <c r="W220">
-        <v>-1</v>
-      </c>
-      <c r="X220">
-        <v>-1</v>
-      </c>
-      <c r="Y220">
-        <v>2.8</v>
-      </c>
-      <c r="Z220">
-        <v>-1</v>
-      </c>
       <c r="AA220">
-        <v>0.9199999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB220">
-        <v>0.99</v>
+        <v>0</v>
       </c>
       <c r="AC220">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="221" spans="1:29">
@@ -20128,7 +20128,7 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>5776609</v>
+        <v>5776610</v>
       </c>
       <c r="C221" t="s">
         <v>28</v>
@@ -20140,61 +20140,61 @@
         <v>45081.5625</v>
       </c>
       <c r="F221" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="G221" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H221">
         <v>2</v>
       </c>
       <c r="I221">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J221" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K221">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="L221">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M221">
-        <v>2.9</v>
+        <v>2.45</v>
       </c>
       <c r="N221">
-        <v>1.571</v>
+        <v>2.625</v>
       </c>
       <c r="O221">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P221">
-        <v>5.75</v>
+        <v>2.45</v>
       </c>
       <c r="Q221">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R221">
-        <v>2.01</v>
+        <v>2.04</v>
       </c>
       <c r="S221">
-        <v>1.89</v>
+        <v>1.86</v>
       </c>
       <c r="T221">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U221">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="V221">
-        <v>2.01</v>
+        <v>2.02</v>
       </c>
       <c r="W221">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X221">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y221">
         <v>-1</v>
@@ -20206,7 +20206,7 @@
         <v>-0</v>
       </c>
       <c r="AB221">
-        <v>0.8899999999999999</v>
+        <v>0.8799999999999999</v>
       </c>
       <c r="AC221">
         <v>-1</v>
@@ -20217,7 +20217,7 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>5776610</v>
+        <v>5734136</v>
       </c>
       <c r="C222" t="s">
         <v>28</v>
@@ -20229,76 +20229,76 @@
         <v>45081.5625</v>
       </c>
       <c r="F222" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="G222" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H222">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I222">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J222" t="s">
         <v>54</v>
       </c>
       <c r="K222">
-        <v>2.75</v>
+        <v>1.95</v>
       </c>
       <c r="L222">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M222">
-        <v>2.45</v>
+        <v>3.6</v>
       </c>
       <c r="N222">
-        <v>2.625</v>
+        <v>1.65</v>
       </c>
       <c r="O222">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P222">
-        <v>2.45</v>
+        <v>4.75</v>
       </c>
       <c r="Q222">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R222">
-        <v>2.04</v>
+        <v>1.84</v>
       </c>
       <c r="S222">
-        <v>1.86</v>
+        <v>2.06</v>
       </c>
       <c r="T222">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U222">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="V222">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="W222">
         <v>-1</v>
       </c>
       <c r="X222">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Y222">
         <v>-1</v>
       </c>
       <c r="Z222">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA222">
-        <v>-0</v>
+        <v>1.06</v>
       </c>
       <c r="AB222">
-        <v>0.8799999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC222">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="223" spans="1:29">
@@ -20306,7 +20306,7 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>5734136</v>
+        <v>5732767</v>
       </c>
       <c r="C223" t="s">
         <v>28</v>
@@ -20318,76 +20318,76 @@
         <v>45081.5625</v>
       </c>
       <c r="F223" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="G223" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H223">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I223">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J223" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K223">
-        <v>1.95</v>
+        <v>3.4</v>
       </c>
       <c r="L223">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M223">
-        <v>3.6</v>
+        <v>2.15</v>
       </c>
       <c r="N223">
-        <v>1.65</v>
+        <v>3</v>
       </c>
       <c r="O223">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="P223">
-        <v>4.75</v>
+        <v>2.45</v>
       </c>
       <c r="Q223">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R223">
-        <v>1.84</v>
+        <v>1.8</v>
       </c>
       <c r="S223">
-        <v>2.06</v>
+        <v>2.14</v>
       </c>
       <c r="T223">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U223">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="V223">
+        <v>2.01</v>
+      </c>
+      <c r="W223">
         <v>2</v>
       </c>
-      <c r="W223">
-        <v>-1</v>
-      </c>
       <c r="X223">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y223">
         <v>-1</v>
       </c>
       <c r="Z223">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA223">
-        <v>1.06</v>
+        <v>-1</v>
       </c>
       <c r="AB223">
-        <v>-1</v>
+        <v>0.8899999999999999</v>
       </c>
       <c r="AC223">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="224" spans="1:29">
@@ -20395,7 +20395,7 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>5732767</v>
+        <v>5730415</v>
       </c>
       <c r="C224" t="s">
         <v>28</v>
@@ -20407,58 +20407,58 @@
         <v>45081.5625</v>
       </c>
       <c r="F224" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="G224" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="H224">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I224">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J224" t="s">
         <v>53</v>
       </c>
       <c r="K224">
-        <v>3.4</v>
+        <v>2.25</v>
       </c>
       <c r="L224">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M224">
-        <v>2.15</v>
+        <v>3</v>
       </c>
       <c r="N224">
-        <v>3</v>
+        <v>2.05</v>
       </c>
       <c r="O224">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="P224">
-        <v>2.45</v>
+        <v>3.25</v>
       </c>
       <c r="Q224">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R224">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S224">
-        <v>2.14</v>
+        <v>2.05</v>
       </c>
       <c r="T224">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U224">
-        <v>1.89</v>
+        <v>2.02</v>
       </c>
       <c r="V224">
-        <v>2.01</v>
+        <v>1.88</v>
       </c>
       <c r="W224">
-        <v>2</v>
+        <v>1.05</v>
       </c>
       <c r="X224">
         <v>-1</v>
@@ -20467,16 +20467,16 @@
         <v>-1</v>
       </c>
       <c r="Z224">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA224">
         <v>-1</v>
       </c>
       <c r="AB224">
-        <v>0.8899999999999999</v>
+        <v>0.51</v>
       </c>
       <c r="AC224">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="225" spans="1:29">
@@ -20484,7 +20484,7 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>5730415</v>
+        <v>5776609</v>
       </c>
       <c r="C225" t="s">
         <v>28</v>
@@ -20496,10 +20496,10 @@
         <v>45081.5625</v>
       </c>
       <c r="F225" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G225" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H225">
         <v>2</v>
@@ -20514,40 +20514,40 @@
         <v>2.25</v>
       </c>
       <c r="L225">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M225">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="N225">
-        <v>2.05</v>
+        <v>1.571</v>
       </c>
       <c r="O225">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P225">
-        <v>3.25</v>
+        <v>5.75</v>
       </c>
       <c r="Q225">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R225">
-        <v>1.85</v>
+        <v>2.01</v>
       </c>
       <c r="S225">
-        <v>2.05</v>
+        <v>1.89</v>
       </c>
       <c r="T225">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U225">
-        <v>2.02</v>
+        <v>1.89</v>
       </c>
       <c r="V225">
-        <v>1.88</v>
+        <v>2.01</v>
       </c>
       <c r="W225">
-        <v>1.05</v>
+        <v>0.571</v>
       </c>
       <c r="X225">
         <v>-1</v>
@@ -20556,16 +20556,16 @@
         <v>-1</v>
       </c>
       <c r="Z225">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA225">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB225">
-        <v>0.51</v>
+        <v>0.8899999999999999</v>
       </c>
       <c r="AC225">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="226" spans="1:29">
@@ -20573,7 +20573,7 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>5762751</v>
+        <v>5732768</v>
       </c>
       <c r="C226" t="s">
         <v>28</v>
@@ -20585,76 +20585,76 @@
         <v>45081.66666666666</v>
       </c>
       <c r="F226" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="G226" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H226">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I226">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J226" t="s">
         <v>54</v>
       </c>
       <c r="K226">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="L226">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M226">
-        <v>2.2</v>
+        <v>1.909</v>
       </c>
       <c r="N226">
-        <v>2.875</v>
+        <v>2.4</v>
       </c>
       <c r="O226">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="P226">
-        <v>2.45</v>
+        <v>2.75</v>
       </c>
       <c r="Q226">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R226">
-        <v>1.78</v>
+        <v>2.1</v>
       </c>
       <c r="S226">
-        <v>2.125</v>
+        <v>1.83</v>
       </c>
       <c r="T226">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="U226">
-        <v>1.92</v>
+        <v>2.1</v>
       </c>
       <c r="V226">
-        <v>1.98</v>
+        <v>1.8</v>
       </c>
       <c r="W226">
         <v>-1</v>
       </c>
       <c r="X226">
-        <v>2.3</v>
+        <v>2.75</v>
       </c>
       <c r="Y226">
         <v>-1</v>
       </c>
       <c r="Z226">
-        <v>0.39</v>
+        <v>-0.5</v>
       </c>
       <c r="AA226">
-        <v>-0.5</v>
+        <v>0.415</v>
       </c>
       <c r="AB226">
-        <v>-0.5</v>
+        <v>1.1</v>
       </c>
       <c r="AC226">
-        <v>0.49</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="227" spans="1:29">
@@ -20840,7 +20840,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>5732768</v>
+        <v>5737343</v>
       </c>
       <c r="C229" t="s">
         <v>28</v>
@@ -20852,61 +20852,61 @@
         <v>45081.66666666666</v>
       </c>
       <c r="F229" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G229" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="H229">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I229">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J229" t="s">
         <v>54</v>
       </c>
       <c r="K229">
-        <v>3.5</v>
+        <v>2.6</v>
       </c>
       <c r="L229">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M229">
-        <v>1.909</v>
+        <v>2.6</v>
       </c>
       <c r="N229">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="O229">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="P229">
-        <v>2.75</v>
+        <v>2.875</v>
       </c>
       <c r="Q229">
         <v>-0.25</v>
       </c>
       <c r="R229">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="S229">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="T229">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U229">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="V229">
-        <v>1.8</v>
+        <v>1.99</v>
       </c>
       <c r="W229">
         <v>-1</v>
       </c>
       <c r="X229">
-        <v>2.75</v>
+        <v>2.3</v>
       </c>
       <c r="Y229">
         <v>-1</v>
@@ -20915,13 +20915,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA229">
-        <v>0.415</v>
+        <v>0.375</v>
       </c>
       <c r="AB229">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="AC229">
-        <v>-1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="230" spans="1:29">
@@ -20929,7 +20929,7 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>5737343</v>
+        <v>5762751</v>
       </c>
       <c r="C230" t="s">
         <v>28</v>
@@ -20941,10 +20941,10 @@
         <v>45081.66666666666</v>
       </c>
       <c r="F230" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="G230" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="H230">
         <v>1</v>
@@ -20956,40 +20956,40 @@
         <v>54</v>
       </c>
       <c r="K230">
-        <v>2.6</v>
+        <v>3.1</v>
       </c>
       <c r="L230">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M230">
-        <v>2.6</v>
+        <v>2.2</v>
       </c>
       <c r="N230">
-        <v>2.45</v>
+        <v>2.875</v>
       </c>
       <c r="O230">
         <v>3.3</v>
       </c>
       <c r="P230">
-        <v>2.875</v>
+        <v>2.45</v>
       </c>
       <c r="Q230">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R230">
-        <v>2.05</v>
+        <v>1.78</v>
       </c>
       <c r="S230">
-        <v>1.75</v>
+        <v>2.125</v>
       </c>
       <c r="T230">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U230">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="V230">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="W230">
         <v>-1</v>
@@ -21001,16 +21001,16 @@
         <v>-1</v>
       </c>
       <c r="Z230">
+        <v>0.39</v>
+      </c>
+      <c r="AA230">
         <v>-0.5</v>
       </c>
-      <c r="AA230">
-        <v>0.375</v>
-      </c>
       <c r="AB230">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC230">
-        <v>0.99</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="231" spans="1:29">
@@ -27782,7 +27782,7 @@
         <v>305</v>
       </c>
       <c r="B307">
-        <v>6809226</v>
+        <v>6809388</v>
       </c>
       <c r="C307" t="s">
         <v>28</v>
@@ -27794,58 +27794,58 @@
         <v>45200.66666666666</v>
       </c>
       <c r="F307" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="G307" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="H307">
         <v>3</v>
       </c>
       <c r="I307">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J307" t="s">
         <v>53</v>
       </c>
       <c r="K307">
-        <v>2.2</v>
+        <v>1.333</v>
       </c>
       <c r="L307">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="M307">
-        <v>3.4</v>
+        <v>8.5</v>
       </c>
       <c r="N307">
-        <v>2.05</v>
+        <v>1.333</v>
       </c>
       <c r="O307">
-        <v>3.25</v>
+        <v>5.5</v>
       </c>
       <c r="P307">
-        <v>4</v>
+        <v>8.5</v>
       </c>
       <c r="Q307">
-        <v>-0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R307">
+        <v>2.03</v>
+      </c>
+      <c r="S307">
+        <v>1.87</v>
+      </c>
+      <c r="T307">
+        <v>2.5</v>
+      </c>
+      <c r="U307">
+        <v>1.84</v>
+      </c>
+      <c r="V307">
         <v>2.06</v>
       </c>
-      <c r="S307">
-        <v>1.84</v>
-      </c>
-      <c r="T307">
-        <v>2.25</v>
-      </c>
-      <c r="U307">
-        <v>2.05</v>
-      </c>
-      <c r="V307">
-        <v>1.85</v>
-      </c>
       <c r="W307">
-        <v>1.05</v>
+        <v>0.333</v>
       </c>
       <c r="X307">
         <v>-1</v>
@@ -27854,13 +27854,13 @@
         <v>-1</v>
       </c>
       <c r="Z307">
-        <v>1.06</v>
+        <v>-1</v>
       </c>
       <c r="AA307">
-        <v>-1</v>
+        <v>0.8700000000000001</v>
       </c>
       <c r="AB307">
-        <v>1.05</v>
+        <v>0.8400000000000001</v>
       </c>
       <c r="AC307">
         <v>-1</v>
@@ -27871,7 +27871,7 @@
         <v>306</v>
       </c>
       <c r="B308">
-        <v>6809388</v>
+        <v>6809226</v>
       </c>
       <c r="C308" t="s">
         <v>28</v>
@@ -27883,58 +27883,58 @@
         <v>45200.66666666666</v>
       </c>
       <c r="F308" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="G308" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="H308">
         <v>3</v>
       </c>
       <c r="I308">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J308" t="s">
         <v>53</v>
       </c>
       <c r="K308">
-        <v>1.333</v>
+        <v>2.2</v>
       </c>
       <c r="L308">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="M308">
-        <v>8.5</v>
+        <v>3.4</v>
       </c>
       <c r="N308">
-        <v>1.333</v>
+        <v>2.05</v>
       </c>
       <c r="O308">
-        <v>5.5</v>
+        <v>3.25</v>
       </c>
       <c r="P308">
-        <v>8.5</v>
+        <v>4</v>
       </c>
       <c r="Q308">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R308">
-        <v>2.03</v>
+        <v>2.06</v>
       </c>
       <c r="S308">
-        <v>1.87</v>
+        <v>1.84</v>
       </c>
       <c r="T308">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U308">
-        <v>1.84</v>
+        <v>2.05</v>
       </c>
       <c r="V308">
-        <v>2.06</v>
+        <v>1.85</v>
       </c>
       <c r="W308">
-        <v>0.333</v>
+        <v>1.05</v>
       </c>
       <c r="X308">
         <v>-1</v>
@@ -27943,13 +27943,13 @@
         <v>-1</v>
       </c>
       <c r="Z308">
-        <v>-1</v>
+        <v>1.06</v>
       </c>
       <c r="AA308">
-        <v>0.8700000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB308">
-        <v>0.8400000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="AC308">
         <v>-1</v>
@@ -28672,7 +28672,7 @@
         <v>315</v>
       </c>
       <c r="B317">
-        <v>6809394</v>
+        <v>6809395</v>
       </c>
       <c r="C317" t="s">
         <v>28</v>
@@ -28684,76 +28684,76 @@
         <v>45207.5625</v>
       </c>
       <c r="F317" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="G317" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="H317">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I317">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J317" t="s">
         <v>54</v>
       </c>
       <c r="K317">
-        <v>2.1</v>
+        <v>2.8</v>
       </c>
       <c r="L317">
         <v>3.25</v>
       </c>
       <c r="M317">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="N317">
-        <v>2</v>
+        <v>2.45</v>
       </c>
       <c r="O317">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="P317">
-        <v>4.2</v>
+        <v>3</v>
       </c>
       <c r="Q317">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R317">
-        <v>2.01</v>
+        <v>2.11</v>
       </c>
       <c r="S317">
-        <v>1.89</v>
+        <v>1.79</v>
       </c>
       <c r="T317">
         <v>2.25</v>
       </c>
       <c r="U317">
-        <v>2.07</v>
+        <v>1.99</v>
       </c>
       <c r="V317">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="W317">
         <v>-1</v>
       </c>
       <c r="X317">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="Y317">
         <v>-1</v>
       </c>
       <c r="Z317">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA317">
-        <v>0.8899999999999999</v>
+        <v>0.395</v>
       </c>
       <c r="AB317">
-        <v>1.07</v>
+        <v>-0.5</v>
       </c>
       <c r="AC317">
-        <v>-1</v>
+        <v>0.455</v>
       </c>
     </row>
     <row r="318" spans="1:29">
@@ -28761,7 +28761,7 @@
         <v>316</v>
       </c>
       <c r="B318">
-        <v>6809395</v>
+        <v>6809394</v>
       </c>
       <c r="C318" t="s">
         <v>28</v>
@@ -28773,76 +28773,76 @@
         <v>45207.5625</v>
       </c>
       <c r="F318" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="G318" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="H318">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I318">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J318" t="s">
         <v>54</v>
       </c>
       <c r="K318">
-        <v>2.8</v>
+        <v>2.1</v>
       </c>
       <c r="L318">
         <v>3.25</v>
       </c>
       <c r="M318">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="N318">
-        <v>2.45</v>
+        <v>2</v>
       </c>
       <c r="O318">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P318">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="Q318">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R318">
-        <v>2.11</v>
+        <v>2.01</v>
       </c>
       <c r="S318">
-        <v>1.79</v>
+        <v>1.89</v>
       </c>
       <c r="T318">
         <v>2.25</v>
       </c>
       <c r="U318">
-        <v>1.99</v>
+        <v>2.07</v>
       </c>
       <c r="V318">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="W318">
         <v>-1</v>
       </c>
       <c r="X318">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="Y318">
         <v>-1</v>
       </c>
       <c r="Z318">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA318">
-        <v>0.395</v>
+        <v>0.8899999999999999</v>
       </c>
       <c r="AB318">
-        <v>-0.5</v>
+        <v>1.07</v>
       </c>
       <c r="AC318">
-        <v>0.455</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="319" spans="1:29">
@@ -36148,7 +36148,7 @@
         <v>399</v>
       </c>
       <c r="B401">
-        <v>6809435</v>
+        <v>6809292</v>
       </c>
       <c r="C401" t="s">
         <v>28</v>
@@ -36160,49 +36160,49 @@
         <v>45279.72916666666</v>
       </c>
       <c r="F401" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="G401" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="H401">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I401">
         <v>3</v>
       </c>
       <c r="J401" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K401">
-        <v>1.333</v>
+        <v>2.875</v>
       </c>
       <c r="L401">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="M401">
-        <v>8</v>
+        <v>2.25</v>
       </c>
       <c r="N401">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="O401">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="P401">
-        <v>7</v>
+        <v>2.45</v>
       </c>
       <c r="Q401">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R401">
-        <v>1.83</v>
+        <v>1.78</v>
       </c>
       <c r="S401">
-        <v>2.07</v>
+        <v>2.125</v>
       </c>
       <c r="T401">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U401">
         <v>2.04</v>
@@ -36214,16 +36214,16 @@
         <v>-1</v>
       </c>
       <c r="X401">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y401">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="Z401">
         <v>-1</v>
       </c>
       <c r="AA401">
-        <v>1.07</v>
+        <v>1.125</v>
       </c>
       <c r="AB401">
         <v>1.04</v>
@@ -36237,7 +36237,7 @@
         <v>400</v>
       </c>
       <c r="B402">
-        <v>6809292</v>
+        <v>6809435</v>
       </c>
       <c r="C402" t="s">
         <v>28</v>
@@ -36249,49 +36249,49 @@
         <v>45279.72916666666</v>
       </c>
       <c r="F402" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="G402" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="H402">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I402">
         <v>3</v>
       </c>
       <c r="J402" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K402">
-        <v>2.875</v>
+        <v>1.333</v>
       </c>
       <c r="L402">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="M402">
-        <v>2.25</v>
+        <v>8</v>
       </c>
       <c r="N402">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="O402">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="P402">
-        <v>2.45</v>
+        <v>7</v>
       </c>
       <c r="Q402">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R402">
-        <v>1.78</v>
+        <v>1.83</v>
       </c>
       <c r="S402">
-        <v>2.125</v>
+        <v>2.07</v>
       </c>
       <c r="T402">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U402">
         <v>2.04</v>
@@ -36303,16 +36303,16 @@
         <v>-1</v>
       </c>
       <c r="X402">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y402">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="Z402">
         <v>-1</v>
       </c>
       <c r="AA402">
-        <v>1.125</v>
+        <v>1.07</v>
       </c>
       <c r="AB402">
         <v>1.04</v>
@@ -36593,7 +36593,7 @@
         <v>404</v>
       </c>
       <c r="B406">
-        <v>6809436</v>
+        <v>6809289</v>
       </c>
       <c r="C406" t="s">
         <v>28</v>
@@ -36605,76 +36605,76 @@
         <v>45281.625</v>
       </c>
       <c r="F406" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G406" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H406">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I406">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J406" t="s">
         <v>54</v>
       </c>
       <c r="K406">
-        <v>4.333</v>
+        <v>2.4</v>
       </c>
       <c r="L406">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M406">
-        <v>1.85</v>
+        <v>2.75</v>
       </c>
       <c r="N406">
-        <v>6</v>
+        <v>2.6</v>
       </c>
       <c r="O406">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P406">
-        <v>1.65</v>
+        <v>2.5</v>
       </c>
       <c r="Q406">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R406">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="S406">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="T406">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U406">
-        <v>1.84</v>
+        <v>1.91</v>
       </c>
       <c r="V406">
-        <v>2.06</v>
+        <v>1.99</v>
       </c>
       <c r="W406">
         <v>-1</v>
       </c>
       <c r="X406">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="Y406">
         <v>-1</v>
       </c>
       <c r="Z406">
-        <v>0.98</v>
+        <v>0</v>
       </c>
       <c r="AA406">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB406">
         <v>-1</v>
       </c>
       <c r="AC406">
-        <v>1.06</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="407" spans="1:29">
@@ -36682,7 +36682,7 @@
         <v>405</v>
       </c>
       <c r="B407">
-        <v>6809289</v>
+        <v>6809436</v>
       </c>
       <c r="C407" t="s">
         <v>28</v>
@@ -36694,76 +36694,76 @@
         <v>45281.625</v>
       </c>
       <c r="F407" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G407" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H407">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I407">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J407" t="s">
         <v>54</v>
       </c>
       <c r="K407">
-        <v>2.4</v>
+        <v>4.333</v>
       </c>
       <c r="L407">
+        <v>3.2</v>
+      </c>
+      <c r="M407">
+        <v>1.85</v>
+      </c>
+      <c r="N407">
+        <v>6</v>
+      </c>
+      <c r="O407">
         <v>3.5</v>
       </c>
-      <c r="M407">
-        <v>2.75</v>
-      </c>
-      <c r="N407">
-        <v>2.6</v>
-      </c>
-      <c r="O407">
-        <v>3.6</v>
-      </c>
       <c r="P407">
+        <v>1.65</v>
+      </c>
+      <c r="Q407">
+        <v>0.75</v>
+      </c>
+      <c r="R407">
+        <v>1.98</v>
+      </c>
+      <c r="S407">
+        <v>1.92</v>
+      </c>
+      <c r="T407">
+        <v>2</v>
+      </c>
+      <c r="U407">
+        <v>1.84</v>
+      </c>
+      <c r="V407">
+        <v>2.06</v>
+      </c>
+      <c r="W407">
+        <v>-1</v>
+      </c>
+      <c r="X407">
         <v>2.5</v>
       </c>
-      <c r="Q407">
-        <v>0</v>
-      </c>
-      <c r="R407">
-        <v>1.97</v>
-      </c>
-      <c r="S407">
-        <v>1.93</v>
-      </c>
-      <c r="T407">
-        <v>2.75</v>
-      </c>
-      <c r="U407">
-        <v>1.91</v>
-      </c>
-      <c r="V407">
-        <v>1.99</v>
-      </c>
-      <c r="W407">
-        <v>-1</v>
-      </c>
-      <c r="X407">
-        <v>2.6</v>
-      </c>
       <c r="Y407">
         <v>-1</v>
       </c>
       <c r="Z407">
-        <v>0</v>
+        <v>0.98</v>
       </c>
       <c r="AA407">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB407">
         <v>-1</v>
       </c>
       <c r="AC407">
-        <v>0.99</v>
+        <v>1.06</v>
       </c>
     </row>
     <row r="408" spans="1:29">
@@ -42395,6 +42395,15 @@
       <c r="G471" t="s">
         <v>44</v>
       </c>
+      <c r="H471">
+        <v>1</v>
+      </c>
+      <c r="I471">
+        <v>1</v>
+      </c>
+      <c r="J471" t="s">
+        <v>54</v>
+      </c>
       <c r="K471">
         <v>2</v>
       </c>
@@ -42405,46 +42414,52 @@
         <v>3.5</v>
       </c>
       <c r="N471">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="O471">
         <v>3.4</v>
       </c>
       <c r="P471">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q471">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R471">
-        <v>1.84</v>
+        <v>2.05</v>
       </c>
       <c r="S471">
-        <v>2.06</v>
+        <v>1.85</v>
       </c>
       <c r="T471">
         <v>2.5</v>
       </c>
       <c r="U471">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="V471">
-        <v>1.92</v>
+        <v>1.97</v>
       </c>
       <c r="W471">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X471">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="Y471">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z471">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA471">
-        <v>0</v>
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB471">
+        <v>-1</v>
+      </c>
+      <c r="AC471">
+        <v>0.97</v>
       </c>
     </row>
     <row r="472" spans="1:29">
@@ -42479,31 +42494,31 @@
         <v>8.5</v>
       </c>
       <c r="N472">
-        <v>1.45</v>
+        <v>1.533</v>
       </c>
       <c r="O472">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="P472">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Q472">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="R472">
-        <v>2.01</v>
+        <v>1.86</v>
       </c>
       <c r="S472">
-        <v>1.89</v>
+        <v>2.04</v>
       </c>
       <c r="T472">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U472">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="V472">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="W472">
         <v>0</v>
@@ -42574,10 +42589,10 @@
         <v>2</v>
       </c>
       <c r="U473">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="V473">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="W473">
         <v>0</v>
@@ -42639,10 +42654,10 @@
         <v>0.5</v>
       </c>
       <c r="R474">
-        <v>2.02</v>
+        <v>2.03</v>
       </c>
       <c r="S474">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="T474">
         <v>2.75</v>
@@ -42722,10 +42737,10 @@
         <v>2.25</v>
       </c>
       <c r="U475">
-        <v>1.98</v>
+        <v>2.01</v>
       </c>
       <c r="V475">
-        <v>1.92</v>
+        <v>1.89</v>
       </c>
       <c r="W475">
         <v>0</v>
@@ -42861,19 +42876,19 @@
         <v>-0.25</v>
       </c>
       <c r="R477">
-        <v>1.85</v>
+        <v>1.89</v>
       </c>
       <c r="S477">
-        <v>2.05</v>
+        <v>2.01</v>
       </c>
       <c r="T477">
         <v>2.5</v>
       </c>
       <c r="U477">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="V477">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="W477">
         <v>0</v>
@@ -42944,10 +42959,10 @@
         <v>1.75</v>
       </c>
       <c r="U478">
-        <v>2.03</v>
+        <v>2.02</v>
       </c>
       <c r="V478">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="W478">
         <v>0</v>
@@ -42997,31 +43012,31 @@
         <v>3.6</v>
       </c>
       <c r="N479">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="O479">
         <v>3.3</v>
       </c>
       <c r="P479">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="Q479">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R479">
-        <v>2.09</v>
+        <v>1.82</v>
       </c>
       <c r="S479">
-        <v>1.81</v>
+        <v>2.08</v>
       </c>
       <c r="T479">
         <v>2.25</v>
       </c>
       <c r="U479">
-        <v>1.95</v>
+        <v>2.04</v>
       </c>
       <c r="V479">
-        <v>1.95</v>
+        <v>1.86</v>
       </c>
       <c r="W479">
         <v>0</v>
@@ -43071,31 +43086,31 @@
         <v>3.6</v>
       </c>
       <c r="N480">
-        <v>1.95</v>
+        <v>1.909</v>
       </c>
       <c r="O480">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P480">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q480">
         <v>-0.5</v>
       </c>
       <c r="R480">
-        <v>1.99</v>
+        <v>1.95</v>
       </c>
       <c r="S480">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="T480">
         <v>2.75</v>
       </c>
       <c r="U480">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="V480">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="W480">
         <v>0</v>
@@ -43110,6 +43125,80 @@
         <v>0</v>
       </c>
       <c r="AA480">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="481" spans="1:27">
+      <c r="A481" s="1">
+        <v>479</v>
+      </c>
+      <c r="B481">
+        <v>6809475</v>
+      </c>
+      <c r="C481" t="s">
+        <v>28</v>
+      </c>
+      <c r="D481" t="s">
+        <v>28</v>
+      </c>
+      <c r="E481" s="2">
+        <v>45345.70833333334</v>
+      </c>
+      <c r="F481" t="s">
+        <v>43</v>
+      </c>
+      <c r="G481" t="s">
+        <v>31</v>
+      </c>
+      <c r="K481">
+        <v>1.727</v>
+      </c>
+      <c r="L481">
+        <v>3.6</v>
+      </c>
+      <c r="M481">
+        <v>4.75</v>
+      </c>
+      <c r="N481">
+        <v>1.75</v>
+      </c>
+      <c r="O481">
+        <v>3.5</v>
+      </c>
+      <c r="P481">
+        <v>4.5</v>
+      </c>
+      <c r="Q481">
+        <v>-0.75</v>
+      </c>
+      <c r="R481">
+        <v>2.06</v>
+      </c>
+      <c r="S481">
+        <v>1.84</v>
+      </c>
+      <c r="T481">
+        <v>2.25</v>
+      </c>
+      <c r="U481">
+        <v>1.82</v>
+      </c>
+      <c r="V481">
+        <v>2.08</v>
+      </c>
+      <c r="W481">
+        <v>0</v>
+      </c>
+      <c r="X481">
+        <v>0</v>
+      </c>
+      <c r="Y481">
+        <v>0</v>
+      </c>
+      <c r="Z481">
+        <v>0</v>
+      </c>
+      <c r="AA481">
         <v>0</v>
       </c>
     </row>

--- a/Spain Primera Liga/Spain Primera Liga.xlsx
+++ b/Spain Primera Liga/Spain Primera Liga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2418" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2430" uniqueCount="55">
   <si>
     <t>id</t>
   </si>
@@ -540,7 +540,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC481"/>
+  <dimension ref="A1:AC484"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -14610,7 +14610,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>5466354</v>
+        <v>5466355</v>
       </c>
       <c r="C159" t="s">
         <v>28</v>
@@ -14622,49 +14622,49 @@
         <v>45043.60416666666</v>
       </c>
       <c r="F159" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G159" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H159">
+        <v>4</v>
+      </c>
+      <c r="I159">
         <v>2</v>
-      </c>
-      <c r="I159">
-        <v>1</v>
       </c>
       <c r="J159" t="s">
         <v>53</v>
       </c>
       <c r="K159">
-        <v>1.666</v>
+        <v>1.55</v>
       </c>
       <c r="L159">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="M159">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="N159">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="O159">
-        <v>3.8</v>
+        <v>4.333</v>
       </c>
       <c r="P159">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q159">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R159">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="S159">
-        <v>1.95</v>
+        <v>1.99</v>
       </c>
       <c r="T159">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U159">
         <v>1.93</v>
@@ -14673,7 +14673,7 @@
         <v>1.97</v>
       </c>
       <c r="W159">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="X159">
         <v>-1</v>
@@ -14682,10 +14682,10 @@
         <v>-1</v>
       </c>
       <c r="Z159">
-        <v>0.475</v>
+        <v>0.9099999999999999</v>
       </c>
       <c r="AA159">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB159">
         <v>0.9299999999999999</v>
@@ -14699,7 +14699,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>5466355</v>
+        <v>5466354</v>
       </c>
       <c r="C160" t="s">
         <v>28</v>
@@ -14711,49 +14711,49 @@
         <v>45043.60416666666</v>
       </c>
       <c r="F160" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G160" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H160">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I160">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J160" t="s">
         <v>53</v>
       </c>
       <c r="K160">
-        <v>1.55</v>
+        <v>1.666</v>
       </c>
       <c r="L160">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="M160">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="N160">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="O160">
-        <v>4.333</v>
+        <v>3.8</v>
       </c>
       <c r="P160">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q160">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R160">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="S160">
-        <v>1.99</v>
+        <v>1.95</v>
       </c>
       <c r="T160">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U160">
         <v>1.93</v>
@@ -14762,7 +14762,7 @@
         <v>1.97</v>
       </c>
       <c r="W160">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="X160">
         <v>-1</v>
@@ -14771,10 +14771,10 @@
         <v>-1</v>
       </c>
       <c r="Z160">
-        <v>0.9099999999999999</v>
+        <v>0.475</v>
       </c>
       <c r="AA160">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB160">
         <v>0.9299999999999999</v>
@@ -16123,7 +16123,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>5549244</v>
+        <v>5534214</v>
       </c>
       <c r="C176" t="s">
         <v>28</v>
@@ -16135,58 +16135,58 @@
         <v>45049.70833333334</v>
       </c>
       <c r="F176" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="G176" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H176">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I176">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J176" t="s">
         <v>53</v>
       </c>
       <c r="K176">
-        <v>1.3</v>
+        <v>2.55</v>
       </c>
       <c r="L176">
-        <v>5.5</v>
+        <v>3</v>
       </c>
       <c r="M176">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="N176">
-        <v>1.333</v>
+        <v>2.8</v>
       </c>
       <c r="O176">
-        <v>5.25</v>
+        <v>2.9</v>
       </c>
       <c r="P176">
-        <v>9.5</v>
+        <v>2.875</v>
       </c>
       <c r="Q176">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="R176">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S176">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T176">
-        <v>3</v>
+        <v>1.75</v>
       </c>
       <c r="U176">
-        <v>2.07</v>
+        <v>1.86</v>
       </c>
       <c r="V176">
-        <v>1.83</v>
+        <v>2.04</v>
       </c>
       <c r="W176">
-        <v>0.333</v>
+        <v>1.8</v>
       </c>
       <c r="X176">
         <v>-1</v>
@@ -16195,16 +16195,16 @@
         <v>-1</v>
       </c>
       <c r="Z176">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA176">
         <v>-1</v>
       </c>
       <c r="AB176">
-        <v>1.07</v>
+        <v>-1</v>
       </c>
       <c r="AC176">
-        <v>-1</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="177" spans="1:29">
@@ -16212,7 +16212,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>5534214</v>
+        <v>5549244</v>
       </c>
       <c r="C177" t="s">
         <v>28</v>
@@ -16224,58 +16224,58 @@
         <v>45049.70833333334</v>
       </c>
       <c r="F177" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G177" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H177">
+        <v>5</v>
+      </c>
+      <c r="I177">
         <v>1</v>
-      </c>
-      <c r="I177">
-        <v>0</v>
       </c>
       <c r="J177" t="s">
         <v>53</v>
       </c>
       <c r="K177">
-        <v>2.55</v>
+        <v>1.3</v>
       </c>
       <c r="L177">
+        <v>5.5</v>
+      </c>
+      <c r="M177">
+        <v>10</v>
+      </c>
+      <c r="N177">
+        <v>1.333</v>
+      </c>
+      <c r="O177">
+        <v>5.25</v>
+      </c>
+      <c r="P177">
+        <v>9.5</v>
+      </c>
+      <c r="Q177">
+        <v>-1.5</v>
+      </c>
+      <c r="R177">
+        <v>1.95</v>
+      </c>
+      <c r="S177">
+        <v>1.95</v>
+      </c>
+      <c r="T177">
         <v>3</v>
       </c>
-      <c r="M177">
-        <v>3</v>
-      </c>
-      <c r="N177">
-        <v>2.8</v>
-      </c>
-      <c r="O177">
-        <v>2.9</v>
-      </c>
-      <c r="P177">
-        <v>2.875</v>
-      </c>
-      <c r="Q177">
-        <v>0</v>
-      </c>
-      <c r="R177">
-        <v>1.9</v>
-      </c>
-      <c r="S177">
-        <v>2</v>
-      </c>
-      <c r="T177">
-        <v>1.75</v>
-      </c>
       <c r="U177">
-        <v>1.86</v>
+        <v>2.07</v>
       </c>
       <c r="V177">
-        <v>2.04</v>
+        <v>1.83</v>
       </c>
       <c r="W177">
-        <v>1.8</v>
+        <v>0.333</v>
       </c>
       <c r="X177">
         <v>-1</v>
@@ -16284,16 +16284,16 @@
         <v>-1</v>
       </c>
       <c r="Z177">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AA177">
         <v>-1</v>
       </c>
       <c r="AB177">
-        <v>-1</v>
+        <v>1.07</v>
       </c>
       <c r="AC177">
-        <v>1.04</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="178" spans="1:29">
@@ -18437,7 +18437,7 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>5638808</v>
+        <v>5638811</v>
       </c>
       <c r="C202" t="s">
         <v>28</v>
@@ -18449,61 +18449,61 @@
         <v>45069.60416666666</v>
       </c>
       <c r="F202" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G202" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="H202">
         <v>1</v>
       </c>
       <c r="I202">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J202" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K202">
-        <v>2.2</v>
+        <v>1.4</v>
       </c>
       <c r="L202">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="M202">
-        <v>3.25</v>
+        <v>8.5</v>
       </c>
       <c r="N202">
-        <v>2.1</v>
+        <v>1.363</v>
       </c>
       <c r="O202">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="P202">
-        <v>3.6</v>
+        <v>8</v>
       </c>
       <c r="Q202">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R202">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="S202">
-        <v>2.08</v>
+        <v>2.01</v>
       </c>
       <c r="T202">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U202">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="V202">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W202">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X202">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y202">
         <v>-1</v>
@@ -18512,13 +18512,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA202">
-        <v>0.54</v>
+        <v>0.5049999999999999</v>
       </c>
       <c r="AB202">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC202">
-        <v>0.5125</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="203" spans="1:29">
@@ -18526,7 +18526,7 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>5638811</v>
+        <v>5638808</v>
       </c>
       <c r="C203" t="s">
         <v>28</v>
@@ -18538,61 +18538,61 @@
         <v>45069.60416666666</v>
       </c>
       <c r="F203" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G203" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H203">
         <v>1</v>
       </c>
       <c r="I203">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J203" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K203">
-        <v>1.4</v>
+        <v>2.2</v>
       </c>
       <c r="L203">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="M203">
-        <v>8.5</v>
+        <v>3.25</v>
       </c>
       <c r="N203">
-        <v>1.363</v>
+        <v>2.1</v>
       </c>
       <c r="O203">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="P203">
-        <v>8</v>
+        <v>3.6</v>
       </c>
       <c r="Q203">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R203">
-        <v>1.89</v>
+        <v>1.82</v>
       </c>
       <c r="S203">
-        <v>2.01</v>
+        <v>2.08</v>
       </c>
       <c r="T203">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U203">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="V203">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W203">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X203">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y203">
         <v>-1</v>
@@ -18601,13 +18601,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA203">
-        <v>0.5049999999999999</v>
+        <v>0.54</v>
       </c>
       <c r="AB203">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC203">
-        <v>0.8999999999999999</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="204" spans="1:29">
@@ -19594,7 +19594,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>5713343</v>
+        <v>5697401</v>
       </c>
       <c r="C215" t="s">
         <v>28</v>
@@ -19606,76 +19606,76 @@
         <v>45074.58333333334</v>
       </c>
       <c r="F215" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G215" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H215">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I215">
         <v>1</v>
       </c>
       <c r="J215" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K215">
-        <v>2.875</v>
+        <v>1.4</v>
       </c>
       <c r="L215">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="M215">
-        <v>2.3</v>
+        <v>8</v>
       </c>
       <c r="N215">
-        <v>3</v>
+        <v>1.4</v>
       </c>
       <c r="O215">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="P215">
-        <v>2.2</v>
+        <v>8</v>
       </c>
       <c r="Q215">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R215">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S215">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T215">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U215">
-        <v>2.06</v>
+        <v>1.91</v>
       </c>
       <c r="V215">
-        <v>1.84</v>
+        <v>1.99</v>
       </c>
       <c r="W215">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X215">
         <v>-1</v>
       </c>
       <c r="Y215">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="Z215">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA215">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB215">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC215">
-        <v>-0</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="216" spans="1:29">
@@ -19683,7 +19683,7 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>5697401</v>
+        <v>5697402</v>
       </c>
       <c r="C216" t="s">
         <v>28</v>
@@ -19695,76 +19695,76 @@
         <v>45074.58333333334</v>
       </c>
       <c r="F216" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G216" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H216">
         <v>0</v>
       </c>
       <c r="I216">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J216" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K216">
-        <v>1.4</v>
+        <v>2.25</v>
       </c>
       <c r="L216">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="M216">
-        <v>8</v>
+        <v>3.1</v>
       </c>
       <c r="N216">
-        <v>1.4</v>
+        <v>2.2</v>
       </c>
       <c r="O216">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="P216">
-        <v>8</v>
+        <v>3.3</v>
       </c>
       <c r="Q216">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R216">
-        <v>1.95</v>
+        <v>1.97</v>
       </c>
       <c r="S216">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="T216">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U216">
-        <v>1.91</v>
+        <v>1.86</v>
       </c>
       <c r="V216">
-        <v>1.99</v>
+        <v>2.04</v>
       </c>
       <c r="W216">
         <v>-1</v>
       </c>
       <c r="X216">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y216">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="Z216">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA216">
-        <v>0.95</v>
+        <v>0.465</v>
       </c>
       <c r="AB216">
         <v>-1</v>
       </c>
       <c r="AC216">
-        <v>0.99</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="217" spans="1:29">
@@ -19950,7 +19950,7 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>5697402</v>
+        <v>5713343</v>
       </c>
       <c r="C219" t="s">
         <v>28</v>
@@ -19962,76 +19962,76 @@
         <v>45074.58333333334</v>
       </c>
       <c r="F219" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G219" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="H219">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I219">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J219" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K219">
-        <v>2.25</v>
+        <v>2.875</v>
       </c>
       <c r="L219">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M219">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="N219">
+        <v>3</v>
+      </c>
+      <c r="O219">
+        <v>3.75</v>
+      </c>
+      <c r="P219">
         <v>2.2</v>
       </c>
-      <c r="O219">
-        <v>3.3</v>
-      </c>
-      <c r="P219">
-        <v>3.3</v>
-      </c>
       <c r="Q219">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R219">
-        <v>1.97</v>
+        <v>1.9</v>
       </c>
       <c r="S219">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="T219">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U219">
-        <v>1.86</v>
+        <v>2.06</v>
       </c>
       <c r="V219">
-        <v>2.04</v>
+        <v>1.84</v>
       </c>
       <c r="W219">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X219">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y219">
         <v>-1</v>
       </c>
       <c r="Z219">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA219">
-        <v>0.465</v>
+        <v>-1</v>
       </c>
       <c r="AB219">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC219">
-        <v>1.04</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="220" spans="1:29">
@@ -20306,7 +20306,7 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>5732767</v>
+        <v>5776609</v>
       </c>
       <c r="C223" t="s">
         <v>28</v>
@@ -20318,49 +20318,49 @@
         <v>45081.5625</v>
       </c>
       <c r="F223" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="G223" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H223">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I223">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J223" t="s">
         <v>53</v>
       </c>
       <c r="K223">
-        <v>3.4</v>
+        <v>2.25</v>
       </c>
       <c r="L223">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M223">
-        <v>2.15</v>
+        <v>2.9</v>
       </c>
       <c r="N223">
-        <v>3</v>
+        <v>1.571</v>
       </c>
       <c r="O223">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="P223">
-        <v>2.45</v>
+        <v>5.75</v>
       </c>
       <c r="Q223">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R223">
-        <v>1.8</v>
+        <v>2.01</v>
       </c>
       <c r="S223">
-        <v>2.14</v>
+        <v>1.89</v>
       </c>
       <c r="T223">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U223">
         <v>1.89</v>
@@ -20369,7 +20369,7 @@
         <v>2.01</v>
       </c>
       <c r="W223">
-        <v>2</v>
+        <v>0.571</v>
       </c>
       <c r="X223">
         <v>-1</v>
@@ -20378,10 +20378,10 @@
         <v>-1</v>
       </c>
       <c r="Z223">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AA223">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB223">
         <v>0.8899999999999999</v>
@@ -20484,7 +20484,7 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>5776609</v>
+        <v>5732767</v>
       </c>
       <c r="C225" t="s">
         <v>28</v>
@@ -20496,49 +20496,49 @@
         <v>45081.5625</v>
       </c>
       <c r="F225" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="G225" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H225">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I225">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J225" t="s">
         <v>53</v>
       </c>
       <c r="K225">
-        <v>2.25</v>
+        <v>3.4</v>
       </c>
       <c r="L225">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M225">
-        <v>2.9</v>
+        <v>2.15</v>
       </c>
       <c r="N225">
-        <v>1.571</v>
+        <v>3</v>
       </c>
       <c r="O225">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="P225">
-        <v>5.75</v>
+        <v>2.45</v>
       </c>
       <c r="Q225">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R225">
-        <v>2.01</v>
+        <v>1.8</v>
       </c>
       <c r="S225">
-        <v>1.89</v>
+        <v>2.14</v>
       </c>
       <c r="T225">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U225">
         <v>1.89</v>
@@ -20547,7 +20547,7 @@
         <v>2.01</v>
       </c>
       <c r="W225">
-        <v>0.571</v>
+        <v>2</v>
       </c>
       <c r="X225">
         <v>-1</v>
@@ -20556,10 +20556,10 @@
         <v>-1</v>
       </c>
       <c r="Z225">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AA225">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB225">
         <v>0.8899999999999999</v>
@@ -20662,7 +20662,7 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>5738382</v>
+        <v>5737343</v>
       </c>
       <c r="C227" t="s">
         <v>28</v>
@@ -20674,76 +20674,76 @@
         <v>45081.66666666666</v>
       </c>
       <c r="F227" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="G227" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H227">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I227">
         <v>1</v>
       </c>
       <c r="J227" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K227">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="L227">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M227">
-        <v>2.2</v>
+        <v>2.6</v>
       </c>
       <c r="N227">
-        <v>2.7</v>
+        <v>2.45</v>
       </c>
       <c r="O227">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P227">
-        <v>2.45</v>
+        <v>2.875</v>
       </c>
       <c r="Q227">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R227">
-        <v>2.06</v>
+        <v>2.05</v>
       </c>
       <c r="S227">
-        <v>1.84</v>
+        <v>1.75</v>
       </c>
       <c r="T227">
         <v>2.5</v>
       </c>
       <c r="U227">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="V227">
-        <v>1.95</v>
+        <v>1.99</v>
       </c>
       <c r="W227">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X227">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y227">
         <v>-1</v>
       </c>
       <c r="Z227">
-        <v>1.06</v>
+        <v>-0.5</v>
       </c>
       <c r="AA227">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
       <c r="AB227">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC227">
-        <v>-1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="228" spans="1:29">
@@ -20751,7 +20751,7 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>5734498</v>
+        <v>5738382</v>
       </c>
       <c r="C228" t="s">
         <v>28</v>
@@ -20763,76 +20763,76 @@
         <v>45081.66666666666</v>
       </c>
       <c r="F228" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G228" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H228">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I228">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J228" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K228">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="L228">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M228">
-        <v>3.4</v>
+        <v>2.2</v>
       </c>
       <c r="N228">
-        <v>2.05</v>
+        <v>2.7</v>
       </c>
       <c r="O228">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P228">
-        <v>4</v>
+        <v>2.45</v>
       </c>
       <c r="Q228">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R228">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="S228">
-        <v>1.82</v>
+        <v>1.84</v>
       </c>
       <c r="T228">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U228">
-        <v>1.82</v>
+        <v>1.95</v>
       </c>
       <c r="V228">
-        <v>2.08</v>
+        <v>1.95</v>
       </c>
       <c r="W228">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X228">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y228">
         <v>-1</v>
       </c>
       <c r="Z228">
-        <v>-1</v>
+        <v>1.06</v>
       </c>
       <c r="AA228">
-        <v>0.8200000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB228">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC228">
-        <v>1.08</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="229" spans="1:29">
@@ -20840,7 +20840,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>5737343</v>
+        <v>5762751</v>
       </c>
       <c r="C229" t="s">
         <v>28</v>
@@ -20852,10 +20852,10 @@
         <v>45081.66666666666</v>
       </c>
       <c r="F229" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="G229" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="H229">
         <v>1</v>
@@ -20867,40 +20867,40 @@
         <v>54</v>
       </c>
       <c r="K229">
-        <v>2.6</v>
+        <v>3.1</v>
       </c>
       <c r="L229">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M229">
-        <v>2.6</v>
+        <v>2.2</v>
       </c>
       <c r="N229">
-        <v>2.45</v>
+        <v>2.875</v>
       </c>
       <c r="O229">
         <v>3.3</v>
       </c>
       <c r="P229">
-        <v>2.875</v>
+        <v>2.45</v>
       </c>
       <c r="Q229">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R229">
-        <v>2.05</v>
+        <v>1.78</v>
       </c>
       <c r="S229">
-        <v>1.75</v>
+        <v>2.125</v>
       </c>
       <c r="T229">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U229">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="V229">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="W229">
         <v>-1</v>
@@ -20912,16 +20912,16 @@
         <v>-1</v>
       </c>
       <c r="Z229">
+        <v>0.39</v>
+      </c>
+      <c r="AA229">
         <v>-0.5</v>
       </c>
-      <c r="AA229">
-        <v>0.375</v>
-      </c>
       <c r="AB229">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC229">
-        <v>0.99</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="230" spans="1:29">
@@ -20929,7 +20929,7 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>5762751</v>
+        <v>5734498</v>
       </c>
       <c r="C230" t="s">
         <v>28</v>
@@ -20941,55 +20941,55 @@
         <v>45081.66666666666</v>
       </c>
       <c r="F230" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="G230" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="H230">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I230">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J230" t="s">
         <v>54</v>
       </c>
       <c r="K230">
-        <v>3.1</v>
+        <v>2.1</v>
       </c>
       <c r="L230">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M230">
-        <v>2.2</v>
+        <v>3.4</v>
       </c>
       <c r="N230">
-        <v>2.875</v>
+        <v>2.05</v>
       </c>
       <c r="O230">
         <v>3.3</v>
       </c>
       <c r="P230">
-        <v>2.45</v>
+        <v>4</v>
       </c>
       <c r="Q230">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R230">
-        <v>1.78</v>
+        <v>2.08</v>
       </c>
       <c r="S230">
-        <v>2.125</v>
+        <v>1.82</v>
       </c>
       <c r="T230">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U230">
-        <v>1.92</v>
+        <v>1.82</v>
       </c>
       <c r="V230">
-        <v>1.98</v>
+        <v>2.08</v>
       </c>
       <c r="W230">
         <v>-1</v>
@@ -21001,16 +21001,16 @@
         <v>-1</v>
       </c>
       <c r="Z230">
-        <v>0.39</v>
+        <v>-1</v>
       </c>
       <c r="AA230">
-        <v>-0.5</v>
+        <v>0.8200000000000001</v>
       </c>
       <c r="AB230">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC230">
-        <v>0.49</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="231" spans="1:29">
@@ -26447,7 +26447,7 @@
         <v>290</v>
       </c>
       <c r="B292">
-        <v>6809222</v>
+        <v>6809383</v>
       </c>
       <c r="C292" t="s">
         <v>28</v>
@@ -26459,76 +26459,76 @@
         <v>45196.58333333334</v>
       </c>
       <c r="F292" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G292" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="H292">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I292">
         <v>2</v>
       </c>
       <c r="J292" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K292">
-        <v>1.909</v>
+        <v>1.666</v>
       </c>
       <c r="L292">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M292">
-        <v>3.75</v>
+        <v>5.5</v>
       </c>
       <c r="N292">
-        <v>2.15</v>
+        <v>1.5</v>
       </c>
       <c r="O292">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="P292">
-        <v>3.25</v>
+        <v>6.5</v>
       </c>
       <c r="Q292">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R292">
-        <v>1.87</v>
+        <v>1.93</v>
       </c>
       <c r="S292">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="T292">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U292">
-        <v>2.02</v>
+        <v>1.92</v>
       </c>
       <c r="V292">
-        <v>1.88</v>
+        <v>1.98</v>
       </c>
       <c r="W292">
         <v>-1</v>
       </c>
       <c r="X292">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y292">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Z292">
         <v>-1</v>
       </c>
       <c r="AA292">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AB292">
-        <v>0</v>
+        <v>0.9199999999999999</v>
       </c>
       <c r="AC292">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="293" spans="1:29">
@@ -26536,7 +26536,7 @@
         <v>291</v>
       </c>
       <c r="B293">
-        <v>6809383</v>
+        <v>6809222</v>
       </c>
       <c r="C293" t="s">
         <v>28</v>
@@ -26548,76 +26548,76 @@
         <v>45196.58333333334</v>
       </c>
       <c r="F293" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G293" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H293">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I293">
         <v>2</v>
       </c>
       <c r="J293" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K293">
-        <v>1.666</v>
+        <v>1.909</v>
       </c>
       <c r="L293">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M293">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="N293">
-        <v>1.5</v>
+        <v>2.15</v>
       </c>
       <c r="O293">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="P293">
-        <v>6.5</v>
+        <v>3.25</v>
       </c>
       <c r="Q293">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R293">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="S293">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="T293">
+        <v>3</v>
+      </c>
+      <c r="U293">
+        <v>2.02</v>
+      </c>
+      <c r="V293">
+        <v>1.88</v>
+      </c>
+      <c r="W293">
+        <v>-1</v>
+      </c>
+      <c r="X293">
+        <v>-1</v>
+      </c>
+      <c r="Y293">
         <v>2.25</v>
       </c>
-      <c r="U293">
-        <v>1.92</v>
-      </c>
-      <c r="V293">
-        <v>1.98</v>
-      </c>
-      <c r="W293">
-        <v>-1</v>
-      </c>
-      <c r="X293">
-        <v>3.2</v>
-      </c>
-      <c r="Y293">
-        <v>-1</v>
-      </c>
       <c r="Z293">
         <v>-1</v>
       </c>
       <c r="AA293">
-        <v>1</v>
+        <v>1.06</v>
       </c>
       <c r="AB293">
-        <v>0.9199999999999999</v>
+        <v>0</v>
       </c>
       <c r="AC293">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="294" spans="1:29">
@@ -31876,7 +31876,7 @@
         <v>351</v>
       </c>
       <c r="B353">
-        <v>6809255</v>
+        <v>6809414</v>
       </c>
       <c r="C353" t="s">
         <v>28</v>
@@ -31888,10 +31888,10 @@
         <v>45241.60416666666</v>
       </c>
       <c r="F353" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G353" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="H353">
         <v>1</v>
@@ -31903,61 +31903,61 @@
         <v>54</v>
       </c>
       <c r="K353">
-        <v>1.75</v>
+        <v>2.5</v>
       </c>
       <c r="L353">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="M353">
-        <v>4.75</v>
+        <v>3</v>
       </c>
       <c r="N353">
-        <v>1.909</v>
+        <v>2.45</v>
       </c>
       <c r="O353">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="P353">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="Q353">
+        <v>-0.25</v>
+      </c>
+      <c r="R353">
+        <v>2.11</v>
+      </c>
+      <c r="S353">
+        <v>1.79</v>
+      </c>
+      <c r="T353">
+        <v>2.25</v>
+      </c>
+      <c r="U353">
+        <v>2.02</v>
+      </c>
+      <c r="V353">
+        <v>1.88</v>
+      </c>
+      <c r="W353">
+        <v>-1</v>
+      </c>
+      <c r="X353">
+        <v>2.1</v>
+      </c>
+      <c r="Y353">
+        <v>-1</v>
+      </c>
+      <c r="Z353">
         <v>-0.5</v>
       </c>
-      <c r="R353">
-        <v>1.97</v>
-      </c>
-      <c r="S353">
-        <v>1.93</v>
-      </c>
-      <c r="T353">
-        <v>2</v>
-      </c>
-      <c r="U353">
-        <v>1.75</v>
-      </c>
-      <c r="V353">
-        <v>2.05</v>
-      </c>
-      <c r="W353">
-        <v>-1</v>
-      </c>
-      <c r="X353">
-        <v>2.2</v>
-      </c>
-      <c r="Y353">
-        <v>-1</v>
-      </c>
-      <c r="Z353">
-        <v>-1</v>
-      </c>
       <c r="AA353">
-        <v>0.9299999999999999</v>
+        <v>0.395</v>
       </c>
       <c r="AB353">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AC353">
-        <v>-0</v>
+        <v>0.4399999999999999</v>
       </c>
     </row>
     <row r="354" spans="1:29">
@@ -31965,7 +31965,7 @@
         <v>352</v>
       </c>
       <c r="B354">
-        <v>6809414</v>
+        <v>6809255</v>
       </c>
       <c r="C354" t="s">
         <v>28</v>
@@ -31977,10 +31977,10 @@
         <v>45241.60416666666</v>
       </c>
       <c r="F354" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G354" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="H354">
         <v>1</v>
@@ -31992,61 +31992,61 @@
         <v>54</v>
       </c>
       <c r="K354">
-        <v>2.5</v>
+        <v>1.75</v>
       </c>
       <c r="L354">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="M354">
-        <v>3</v>
+        <v>4.75</v>
       </c>
       <c r="N354">
-        <v>2.45</v>
+        <v>1.909</v>
       </c>
       <c r="O354">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P354">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="Q354">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R354">
-        <v>2.11</v>
+        <v>1.97</v>
       </c>
       <c r="S354">
-        <v>1.79</v>
+        <v>1.93</v>
       </c>
       <c r="T354">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U354">
-        <v>2.02</v>
+        <v>1.75</v>
       </c>
       <c r="V354">
-        <v>1.88</v>
+        <v>2.05</v>
       </c>
       <c r="W354">
         <v>-1</v>
       </c>
       <c r="X354">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="Y354">
         <v>-1</v>
       </c>
       <c r="Z354">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA354">
-        <v>0.395</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="AB354">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AC354">
-        <v>0.4399999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="355" spans="1:29">
@@ -37394,7 +37394,7 @@
         <v>413</v>
       </c>
       <c r="B415">
-        <v>6809440</v>
+        <v>6809442</v>
       </c>
       <c r="C415" t="s">
         <v>28</v>
@@ -37406,58 +37406,58 @@
         <v>45294.63541666666</v>
       </c>
       <c r="F415" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="G415" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="H415">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I415">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J415" t="s">
         <v>53</v>
       </c>
       <c r="K415">
-        <v>2.25</v>
+        <v>1.222</v>
       </c>
       <c r="L415">
-        <v>3.2</v>
+        <v>6.5</v>
       </c>
       <c r="M415">
-        <v>3.25</v>
+        <v>11</v>
       </c>
       <c r="N415">
-        <v>2.15</v>
+        <v>1.2</v>
       </c>
       <c r="O415">
-        <v>3.2</v>
+        <v>6.5</v>
       </c>
       <c r="P415">
-        <v>3.5</v>
+        <v>15</v>
       </c>
       <c r="Q415">
-        <v>-0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R415">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="S415">
-        <v>2.04</v>
+        <v>1.98</v>
       </c>
       <c r="T415">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U415">
-        <v>1.86</v>
+        <v>2.02</v>
       </c>
       <c r="V415">
-        <v>2.04</v>
+        <v>1.88</v>
       </c>
       <c r="W415">
-        <v>1.15</v>
+        <v>0.2</v>
       </c>
       <c r="X415">
         <v>-1</v>
@@ -37466,16 +37466,16 @@
         <v>-1</v>
       </c>
       <c r="Z415">
-        <v>0.8899999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA415">
-        <v>-1</v>
+        <v>0.98</v>
       </c>
       <c r="AB415">
-        <v>0.8600000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC415">
-        <v>-1</v>
+        <v>0.8799999999999999</v>
       </c>
     </row>
     <row r="416" spans="1:29">
@@ -37483,7 +37483,7 @@
         <v>414</v>
       </c>
       <c r="B416">
-        <v>6809442</v>
+        <v>6809440</v>
       </c>
       <c r="C416" t="s">
         <v>28</v>
@@ -37495,58 +37495,58 @@
         <v>45294.63541666666</v>
       </c>
       <c r="F416" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="G416" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="H416">
+        <v>2</v>
+      </c>
+      <c r="I416">
         <v>1</v>
-      </c>
-      <c r="I416">
-        <v>0</v>
       </c>
       <c r="J416" t="s">
         <v>53</v>
       </c>
       <c r="K416">
-        <v>1.222</v>
+        <v>2.25</v>
       </c>
       <c r="L416">
-        <v>6.5</v>
+        <v>3.2</v>
       </c>
       <c r="M416">
-        <v>11</v>
+        <v>3.25</v>
       </c>
       <c r="N416">
-        <v>1.2</v>
+        <v>2.15</v>
       </c>
       <c r="O416">
-        <v>6.5</v>
+        <v>3.2</v>
       </c>
       <c r="P416">
-        <v>15</v>
+        <v>3.5</v>
       </c>
       <c r="Q416">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R416">
-        <v>1.95</v>
+        <v>1.89</v>
       </c>
       <c r="S416">
-        <v>1.98</v>
+        <v>2.04</v>
       </c>
       <c r="T416">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U416">
-        <v>2.02</v>
+        <v>1.86</v>
       </c>
       <c r="V416">
-        <v>1.88</v>
+        <v>2.04</v>
       </c>
       <c r="W416">
-        <v>0.2</v>
+        <v>1.15</v>
       </c>
       <c r="X416">
         <v>-1</v>
@@ -37555,16 +37555,16 @@
         <v>-1</v>
       </c>
       <c r="Z416">
-        <v>-1</v>
+        <v>0.8899999999999999</v>
       </c>
       <c r="AA416">
-        <v>0.98</v>
+        <v>-1</v>
       </c>
       <c r="AB416">
-        <v>-1</v>
+        <v>0.8600000000000001</v>
       </c>
       <c r="AC416">
-        <v>0.8799999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="417" spans="1:29">
@@ -42467,7 +42467,7 @@
         <v>470</v>
       </c>
       <c r="B472">
-        <v>7791487</v>
+        <v>7791488</v>
       </c>
       <c r="C472" t="s">
         <v>28</v>
@@ -42476,49 +42476,49 @@
         <v>28</v>
       </c>
       <c r="E472" s="2">
-        <v>45339.41666666666</v>
+        <v>45339.51041666666</v>
       </c>
       <c r="F472" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G472" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="K472">
-        <v>1.333</v>
+        <v>1.7</v>
       </c>
       <c r="L472">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="M472">
-        <v>8.5</v>
+        <v>5.25</v>
       </c>
       <c r="N472">
-        <v>1.533</v>
+        <v>1.8</v>
       </c>
       <c r="O472">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="P472">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="Q472">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R472">
-        <v>1.86</v>
+        <v>1.83</v>
       </c>
       <c r="S472">
-        <v>2.04</v>
+        <v>2.07</v>
       </c>
       <c r="T472">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U472">
-        <v>1.99</v>
+        <v>2.08</v>
       </c>
       <c r="V472">
-        <v>1.91</v>
+        <v>1.82</v>
       </c>
       <c r="W472">
         <v>0</v>
@@ -42541,7 +42541,7 @@
         <v>471</v>
       </c>
       <c r="B473">
-        <v>7791488</v>
+        <v>7791489</v>
       </c>
       <c r="C473" t="s">
         <v>28</v>
@@ -42550,49 +42550,49 @@
         <v>28</v>
       </c>
       <c r="E473" s="2">
-        <v>45339.51041666666</v>
+        <v>45339.60416666666</v>
       </c>
       <c r="F473" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G473" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K473">
-        <v>1.7</v>
+        <v>3.75</v>
       </c>
       <c r="L473">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M473">
-        <v>5.25</v>
+        <v>1.85</v>
       </c>
       <c r="N473">
-        <v>1.75</v>
+        <v>3.75</v>
       </c>
       <c r="O473">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="P473">
-        <v>5.5</v>
+        <v>1.909</v>
       </c>
       <c r="Q473">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R473">
-        <v>2.07</v>
+        <v>1.97</v>
       </c>
       <c r="S473">
-        <v>1.83</v>
+        <v>1.93</v>
       </c>
       <c r="T473">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U473">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="V473">
-        <v>1.92</v>
+        <v>1.97</v>
       </c>
       <c r="W473">
         <v>0</v>
@@ -42615,7 +42615,7 @@
         <v>472</v>
       </c>
       <c r="B474">
-        <v>7791489</v>
+        <v>7791495</v>
       </c>
       <c r="C474" t="s">
         <v>28</v>
@@ -42624,49 +42624,49 @@
         <v>28</v>
       </c>
       <c r="E474" s="2">
-        <v>45339.60416666666</v>
+        <v>45339.70833333334</v>
       </c>
       <c r="F474" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G474" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="K474">
-        <v>3.75</v>
+        <v>2.05</v>
       </c>
       <c r="L474">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M474">
-        <v>1.85</v>
+        <v>3.5</v>
       </c>
       <c r="N474">
-        <v>3.8</v>
+        <v>2.25</v>
       </c>
       <c r="O474">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="P474">
-        <v>1.85</v>
+        <v>3.4</v>
       </c>
       <c r="Q474">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R474">
-        <v>2.03</v>
+        <v>1.95</v>
       </c>
       <c r="S474">
-        <v>1.87</v>
+        <v>1.95</v>
       </c>
       <c r="T474">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U474">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="V474">
-        <v>2.01</v>
+        <v>2.1</v>
       </c>
       <c r="W474">
         <v>0</v>
@@ -42689,7 +42689,7 @@
         <v>473</v>
       </c>
       <c r="B475">
-        <v>7791495</v>
+        <v>7791496</v>
       </c>
       <c r="C475" t="s">
         <v>28</v>
@@ -42698,49 +42698,49 @@
         <v>28</v>
       </c>
       <c r="E475" s="2">
-        <v>45339.70833333334</v>
+        <v>45340.41666666666</v>
       </c>
       <c r="F475" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G475" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="K475">
-        <v>2.05</v>
+        <v>5</v>
       </c>
       <c r="L475">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M475">
-        <v>3.5</v>
+        <v>1.666</v>
       </c>
       <c r="N475">
-        <v>2.25</v>
+        <v>6</v>
       </c>
       <c r="O475">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="P475">
-        <v>3.3</v>
+        <v>1.615</v>
       </c>
       <c r="Q475">
-        <v>-0.25</v>
+        <v>1</v>
       </c>
       <c r="R475">
-        <v>1.95</v>
+        <v>1.83</v>
       </c>
       <c r="S475">
-        <v>1.95</v>
+        <v>2.07</v>
       </c>
       <c r="T475">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U475">
-        <v>2.01</v>
+        <v>1.88</v>
       </c>
       <c r="V475">
-        <v>1.89</v>
+        <v>2.02</v>
       </c>
       <c r="W475">
         <v>0</v>
@@ -42763,7 +42763,7 @@
         <v>474</v>
       </c>
       <c r="B476">
-        <v>7791496</v>
+        <v>7791497</v>
       </c>
       <c r="C476" t="s">
         <v>28</v>
@@ -42772,49 +42772,49 @@
         <v>28</v>
       </c>
       <c r="E476" s="2">
-        <v>45340.41666666666</v>
+        <v>45340.51041666666</v>
       </c>
       <c r="F476" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="G476" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="K476">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L476">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M476">
-        <v>1.666</v>
+        <v>3.4</v>
       </c>
       <c r="N476">
-        <v>6</v>
+        <v>2.1</v>
       </c>
       <c r="O476">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P476">
-        <v>1.615</v>
+        <v>3.4</v>
       </c>
       <c r="Q476">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R476">
-        <v>2.09</v>
+        <v>1.88</v>
       </c>
       <c r="S476">
-        <v>1.81</v>
+        <v>2.02</v>
       </c>
       <c r="T476">
         <v>2.5</v>
       </c>
       <c r="U476">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="V476">
-        <v>2.02</v>
+        <v>1.9</v>
       </c>
       <c r="W476">
         <v>0</v>
@@ -42837,7 +42837,7 @@
         <v>475</v>
       </c>
       <c r="B477">
-        <v>7791497</v>
+        <v>7791498</v>
       </c>
       <c r="C477" t="s">
         <v>28</v>
@@ -42846,49 +42846,49 @@
         <v>28</v>
       </c>
       <c r="E477" s="2">
-        <v>45340.51041666666</v>
+        <v>45340.60416666666</v>
       </c>
       <c r="F477" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="G477" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="K477">
-        <v>2</v>
+        <v>3.1</v>
       </c>
       <c r="L477">
-        <v>3.5</v>
+        <v>2.875</v>
       </c>
       <c r="M477">
+        <v>2.55</v>
+      </c>
+      <c r="N477">
         <v>3.4</v>
       </c>
-      <c r="N477">
-        <v>2.1</v>
-      </c>
       <c r="O477">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="P477">
-        <v>3.4</v>
+        <v>2.5</v>
       </c>
       <c r="Q477">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R477">
-        <v>1.89</v>
+        <v>1.78</v>
       </c>
       <c r="S477">
-        <v>2.01</v>
+        <v>2.125</v>
       </c>
       <c r="T477">
-        <v>2.5</v>
+        <v>1.75</v>
       </c>
       <c r="U477">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="V477">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="W477">
         <v>0</v>
@@ -42911,7 +42911,7 @@
         <v>476</v>
       </c>
       <c r="B478">
-        <v>7791498</v>
+        <v>6809473</v>
       </c>
       <c r="C478" t="s">
         <v>28</v>
@@ -42920,49 +42920,49 @@
         <v>28</v>
       </c>
       <c r="E478" s="2">
-        <v>45340.60416666666</v>
+        <v>45340.70833333334</v>
       </c>
       <c r="F478" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="G478" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="K478">
-        <v>3.1</v>
+        <v>1.95</v>
       </c>
       <c r="L478">
-        <v>2.875</v>
+        <v>3.4</v>
       </c>
       <c r="M478">
-        <v>2.55</v>
+        <v>3.6</v>
       </c>
       <c r="N478">
-        <v>3.4</v>
+        <v>2.1</v>
       </c>
       <c r="O478">
-        <v>2.8</v>
+        <v>3.3</v>
       </c>
       <c r="P478">
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q478">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R478">
-        <v>1.78</v>
+        <v>1.82</v>
       </c>
       <c r="S478">
-        <v>2.125</v>
+        <v>2.08</v>
       </c>
       <c r="T478">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="U478">
-        <v>2.02</v>
+        <v>2.03</v>
       </c>
       <c r="V478">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="W478">
         <v>0</v>
@@ -42985,7 +42985,7 @@
         <v>477</v>
       </c>
       <c r="B479">
-        <v>6809473</v>
+        <v>7791499</v>
       </c>
       <c r="C479" t="s">
         <v>28</v>
@@ -42994,13 +42994,13 @@
         <v>28</v>
       </c>
       <c r="E479" s="2">
-        <v>45340.70833333334</v>
+        <v>45341.70833333334</v>
       </c>
       <c r="F479" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="G479" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="K479">
         <v>1.95</v>
@@ -43012,31 +43012,31 @@
         <v>3.6</v>
       </c>
       <c r="N479">
-        <v>2.1</v>
+        <v>1.909</v>
       </c>
       <c r="O479">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P479">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q479">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R479">
-        <v>1.82</v>
+        <v>1.95</v>
       </c>
       <c r="S479">
-        <v>2.08</v>
+        <v>1.95</v>
       </c>
       <c r="T479">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U479">
-        <v>2.04</v>
+        <v>1.91</v>
       </c>
       <c r="V479">
-        <v>1.86</v>
+        <v>1.99</v>
       </c>
       <c r="W479">
         <v>0</v>
@@ -43059,7 +43059,7 @@
         <v>478</v>
       </c>
       <c r="B480">
-        <v>7791499</v>
+        <v>6809475</v>
       </c>
       <c r="C480" t="s">
         <v>28</v>
@@ -43068,49 +43068,49 @@
         <v>28</v>
       </c>
       <c r="E480" s="2">
-        <v>45341.70833333334</v>
+        <v>45345.70833333334</v>
       </c>
       <c r="F480" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G480" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="K480">
-        <v>1.95</v>
+        <v>1.727</v>
       </c>
       <c r="L480">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M480">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="N480">
-        <v>1.909</v>
+        <v>1.75</v>
       </c>
       <c r="O480">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P480">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="Q480">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R480">
-        <v>1.95</v>
+        <v>2.06</v>
       </c>
       <c r="S480">
-        <v>1.95</v>
+        <v>1.84</v>
       </c>
       <c r="T480">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U480">
-        <v>1.92</v>
+        <v>1.82</v>
       </c>
       <c r="V480">
-        <v>1.98</v>
+        <v>2.08</v>
       </c>
       <c r="W480">
         <v>0</v>
@@ -43133,7 +43133,7 @@
         <v>479</v>
       </c>
       <c r="B481">
-        <v>6809475</v>
+        <v>6809333</v>
       </c>
       <c r="C481" t="s">
         <v>28</v>
@@ -43142,63 +43142,285 @@
         <v>28</v>
       </c>
       <c r="E481" s="2">
-        <v>45345.70833333334</v>
+        <v>45346.41666666666</v>
       </c>
       <c r="F481" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G481" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K481">
-        <v>1.727</v>
+        <v>2.625</v>
       </c>
       <c r="L481">
-        <v>3.6</v>
+        <v>2.875</v>
       </c>
       <c r="M481">
-        <v>4.75</v>
+        <v>2.875</v>
       </c>
       <c r="N481">
-        <v>1.75</v>
+        <v>2.6</v>
       </c>
       <c r="O481">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="P481">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="Q481">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R481">
-        <v>2.06</v>
+        <v>1.82</v>
       </c>
       <c r="S481">
-        <v>1.84</v>
+        <v>2.08</v>
       </c>
       <c r="T481">
         <v>2.25</v>
       </c>
       <c r="U481">
+        <v>2.07</v>
+      </c>
+      <c r="V481">
+        <v>1.83</v>
+      </c>
+      <c r="W481">
+        <v>0</v>
+      </c>
+      <c r="X481">
+        <v>0</v>
+      </c>
+      <c r="Y481">
+        <v>0</v>
+      </c>
+      <c r="Z481">
+        <v>0</v>
+      </c>
+      <c r="AA481">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="482" spans="1:27">
+      <c r="A482" s="1">
+        <v>480</v>
+      </c>
+      <c r="B482">
+        <v>6809330</v>
+      </c>
+      <c r="C482" t="s">
+        <v>28</v>
+      </c>
+      <c r="D482" t="s">
+        <v>28</v>
+      </c>
+      <c r="E482" s="2">
+        <v>45346.51041666666</v>
+      </c>
+      <c r="F482" t="s">
+        <v>46</v>
+      </c>
+      <c r="G482" t="s">
+        <v>44</v>
+      </c>
+      <c r="K482">
+        <v>1.4</v>
+      </c>
+      <c r="L482">
+        <v>5</v>
+      </c>
+      <c r="M482">
+        <v>7</v>
+      </c>
+      <c r="N482">
+        <v>1.4</v>
+      </c>
+      <c r="O482">
+        <v>5</v>
+      </c>
+      <c r="P482">
+        <v>7</v>
+      </c>
+      <c r="Q482">
+        <v>-1.25</v>
+      </c>
+      <c r="R482">
+        <v>1.92</v>
+      </c>
+      <c r="S482">
+        <v>1.98</v>
+      </c>
+      <c r="T482">
+        <v>2.75</v>
+      </c>
+      <c r="U482">
+        <v>1.86</v>
+      </c>
+      <c r="V482">
+        <v>2.04</v>
+      </c>
+      <c r="W482">
+        <v>0</v>
+      </c>
+      <c r="X482">
+        <v>0</v>
+      </c>
+      <c r="Y482">
+        <v>0</v>
+      </c>
+      <c r="Z482">
+        <v>0</v>
+      </c>
+      <c r="AA482">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="483" spans="1:27">
+      <c r="A483" s="1">
+        <v>481</v>
+      </c>
+      <c r="B483">
+        <v>6809476</v>
+      </c>
+      <c r="C483" t="s">
+        <v>28</v>
+      </c>
+      <c r="D483" t="s">
+        <v>28</v>
+      </c>
+      <c r="E483" s="2">
+        <v>45346.60416666666</v>
+      </c>
+      <c r="F483" t="s">
+        <v>50</v>
+      </c>
+      <c r="G483" t="s">
+        <v>32</v>
+      </c>
+      <c r="K483">
+        <v>1.95</v>
+      </c>
+      <c r="L483">
+        <v>3</v>
+      </c>
+      <c r="M483">
+        <v>4.5</v>
+      </c>
+      <c r="N483">
+        <v>1.95</v>
+      </c>
+      <c r="O483">
+        <v>3</v>
+      </c>
+      <c r="P483">
+        <v>4.5</v>
+      </c>
+      <c r="Q483">
+        <v>-0.5</v>
+      </c>
+      <c r="R483">
+        <v>2.04</v>
+      </c>
+      <c r="S483">
+        <v>1.86</v>
+      </c>
+      <c r="T483">
+        <v>1.75</v>
+      </c>
+      <c r="U483">
         <v>1.82</v>
       </c>
-      <c r="V481">
+      <c r="V483">
         <v>2.08</v>
       </c>
-      <c r="W481">
-        <v>0</v>
-      </c>
-      <c r="X481">
-        <v>0</v>
-      </c>
-      <c r="Y481">
-        <v>0</v>
-      </c>
-      <c r="Z481">
-        <v>0</v>
-      </c>
-      <c r="AA481">
+      <c r="W483">
+        <v>0</v>
+      </c>
+      <c r="X483">
+        <v>0</v>
+      </c>
+      <c r="Y483">
+        <v>0</v>
+      </c>
+      <c r="Z483">
+        <v>0</v>
+      </c>
+      <c r="AA483">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="484" spans="1:27">
+      <c r="A484" s="1">
+        <v>482</v>
+      </c>
+      <c r="B484">
+        <v>6809329</v>
+      </c>
+      <c r="C484" t="s">
+        <v>28</v>
+      </c>
+      <c r="D484" t="s">
+        <v>28</v>
+      </c>
+      <c r="E484" s="2">
+        <v>45346.70833333334</v>
+      </c>
+      <c r="F484" t="s">
+        <v>34</v>
+      </c>
+      <c r="G484" t="s">
+        <v>37</v>
+      </c>
+      <c r="K484">
+        <v>4.333</v>
+      </c>
+      <c r="L484">
+        <v>3.75</v>
+      </c>
+      <c r="M484">
+        <v>1.727</v>
+      </c>
+      <c r="N484">
+        <v>4.5</v>
+      </c>
+      <c r="O484">
+        <v>3.75</v>
+      </c>
+      <c r="P484">
+        <v>1.727</v>
+      </c>
+      <c r="Q484">
+        <v>0.75</v>
+      </c>
+      <c r="R484">
+        <v>1.88</v>
+      </c>
+      <c r="S484">
+        <v>2.02</v>
+      </c>
+      <c r="T484">
+        <v>2.75</v>
+      </c>
+      <c r="U484">
+        <v>1.95</v>
+      </c>
+      <c r="V484">
+        <v>1.95</v>
+      </c>
+      <c r="W484">
+        <v>0</v>
+      </c>
+      <c r="X484">
+        <v>0</v>
+      </c>
+      <c r="Y484">
+        <v>0</v>
+      </c>
+      <c r="Z484">
+        <v>0</v>
+      </c>
+      <c r="AA484">
         <v>0</v>
       </c>
     </row>

--- a/Spain Primera Liga/Spain Primera Liga.xlsx
+++ b/Spain Primera Liga/Spain Primera Liga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2430" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2418" uniqueCount="55">
   <si>
     <t>id</t>
   </si>
@@ -540,7 +540,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC484"/>
+  <dimension ref="A1:AC481"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -14610,7 +14610,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>5466355</v>
+        <v>5466354</v>
       </c>
       <c r="C159" t="s">
         <v>28</v>
@@ -14622,49 +14622,49 @@
         <v>45043.60416666666</v>
       </c>
       <c r="F159" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G159" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H159">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I159">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J159" t="s">
         <v>53</v>
       </c>
       <c r="K159">
-        <v>1.55</v>
+        <v>1.666</v>
       </c>
       <c r="L159">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="M159">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="N159">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="O159">
-        <v>4.333</v>
+        <v>3.8</v>
       </c>
       <c r="P159">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q159">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R159">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="S159">
-        <v>1.99</v>
+        <v>1.95</v>
       </c>
       <c r="T159">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U159">
         <v>1.93</v>
@@ -14673,7 +14673,7 @@
         <v>1.97</v>
       </c>
       <c r="W159">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="X159">
         <v>-1</v>
@@ -14682,10 +14682,10 @@
         <v>-1</v>
       </c>
       <c r="Z159">
-        <v>0.9099999999999999</v>
+        <v>0.475</v>
       </c>
       <c r="AA159">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB159">
         <v>0.9299999999999999</v>
@@ -14699,7 +14699,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>5466354</v>
+        <v>5466355</v>
       </c>
       <c r="C160" t="s">
         <v>28</v>
@@ -14711,49 +14711,49 @@
         <v>45043.60416666666</v>
       </c>
       <c r="F160" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G160" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H160">
+        <v>4</v>
+      </c>
+      <c r="I160">
         <v>2</v>
-      </c>
-      <c r="I160">
-        <v>1</v>
       </c>
       <c r="J160" t="s">
         <v>53</v>
       </c>
       <c r="K160">
-        <v>1.666</v>
+        <v>1.55</v>
       </c>
       <c r="L160">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="M160">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="N160">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="O160">
-        <v>3.8</v>
+        <v>4.333</v>
       </c>
       <c r="P160">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q160">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R160">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="S160">
-        <v>1.95</v>
+        <v>1.99</v>
       </c>
       <c r="T160">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U160">
         <v>1.93</v>
@@ -14762,7 +14762,7 @@
         <v>1.97</v>
       </c>
       <c r="W160">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="X160">
         <v>-1</v>
@@ -14771,10 +14771,10 @@
         <v>-1</v>
       </c>
       <c r="Z160">
-        <v>0.475</v>
+        <v>0.9099999999999999</v>
       </c>
       <c r="AA160">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB160">
         <v>0.9299999999999999</v>
@@ -18437,7 +18437,7 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>5638811</v>
+        <v>5638808</v>
       </c>
       <c r="C202" t="s">
         <v>28</v>
@@ -18449,61 +18449,61 @@
         <v>45069.60416666666</v>
       </c>
       <c r="F202" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G202" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H202">
         <v>1</v>
       </c>
       <c r="I202">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J202" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K202">
-        <v>1.4</v>
+        <v>2.2</v>
       </c>
       <c r="L202">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="M202">
-        <v>8.5</v>
+        <v>3.25</v>
       </c>
       <c r="N202">
-        <v>1.363</v>
+        <v>2.1</v>
       </c>
       <c r="O202">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="P202">
-        <v>8</v>
+        <v>3.6</v>
       </c>
       <c r="Q202">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R202">
-        <v>1.89</v>
+        <v>1.82</v>
       </c>
       <c r="S202">
-        <v>2.01</v>
+        <v>2.08</v>
       </c>
       <c r="T202">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U202">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="V202">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W202">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X202">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y202">
         <v>-1</v>
@@ -18512,13 +18512,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA202">
-        <v>0.5049999999999999</v>
+        <v>0.54</v>
       </c>
       <c r="AB202">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC202">
-        <v>0.8999999999999999</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="203" spans="1:29">
@@ -18526,7 +18526,7 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>5638808</v>
+        <v>5638811</v>
       </c>
       <c r="C203" t="s">
         <v>28</v>
@@ -18538,61 +18538,61 @@
         <v>45069.60416666666</v>
       </c>
       <c r="F203" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G203" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="H203">
         <v>1</v>
       </c>
       <c r="I203">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J203" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K203">
-        <v>2.2</v>
+        <v>1.4</v>
       </c>
       <c r="L203">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="M203">
-        <v>3.25</v>
+        <v>8.5</v>
       </c>
       <c r="N203">
-        <v>2.1</v>
+        <v>1.363</v>
       </c>
       <c r="O203">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="P203">
-        <v>3.6</v>
+        <v>8</v>
       </c>
       <c r="Q203">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R203">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="S203">
-        <v>2.08</v>
+        <v>2.01</v>
       </c>
       <c r="T203">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U203">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="V203">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W203">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X203">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y203">
         <v>-1</v>
@@ -18601,13 +18601,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA203">
-        <v>0.54</v>
+        <v>0.5049999999999999</v>
       </c>
       <c r="AB203">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC203">
-        <v>0.5125</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="204" spans="1:29">
@@ -19594,7 +19594,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>5697401</v>
+        <v>5713343</v>
       </c>
       <c r="C215" t="s">
         <v>28</v>
@@ -19606,76 +19606,76 @@
         <v>45074.58333333334</v>
       </c>
       <c r="F215" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G215" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H215">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I215">
         <v>1</v>
       </c>
       <c r="J215" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K215">
-        <v>1.4</v>
+        <v>2.875</v>
       </c>
       <c r="L215">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="M215">
-        <v>8</v>
+        <v>2.3</v>
       </c>
       <c r="N215">
-        <v>1.4</v>
+        <v>3</v>
       </c>
       <c r="O215">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="P215">
-        <v>8</v>
+        <v>2.2</v>
       </c>
       <c r="Q215">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R215">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S215">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T215">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U215">
-        <v>1.91</v>
+        <v>2.06</v>
       </c>
       <c r="V215">
-        <v>1.99</v>
+        <v>1.84</v>
       </c>
       <c r="W215">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X215">
         <v>-1</v>
       </c>
       <c r="Y215">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="Z215">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA215">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB215">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC215">
-        <v>0.99</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="216" spans="1:29">
@@ -19772,7 +19772,7 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>5701612</v>
+        <v>5703047</v>
       </c>
       <c r="C217" t="s">
         <v>28</v>
@@ -19784,58 +19784,58 @@
         <v>45074.58333333334</v>
       </c>
       <c r="F217" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G217" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="H217">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I217">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J217" t="s">
         <v>53</v>
       </c>
       <c r="K217">
-        <v>1.909</v>
+        <v>1.5</v>
       </c>
       <c r="L217">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="M217">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N217">
-        <v>2.4</v>
+        <v>1.25</v>
       </c>
       <c r="O217">
-        <v>2.75</v>
+        <v>5.75</v>
       </c>
       <c r="P217">
-        <v>3.5</v>
+        <v>12</v>
       </c>
       <c r="Q217">
-        <v>-0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R217">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="S217">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T217">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="U217">
-        <v>1.82</v>
+        <v>1.93</v>
       </c>
       <c r="V217">
-        <v>2.08</v>
+        <v>1.97</v>
       </c>
       <c r="W217">
-        <v>1.4</v>
+        <v>0.25</v>
       </c>
       <c r="X217">
         <v>-1</v>
@@ -19844,16 +19844,16 @@
         <v>-1</v>
       </c>
       <c r="Z217">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AA217">
         <v>-1</v>
       </c>
       <c r="AB217">
-        <v>0.8200000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC217">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="218" spans="1:29">
@@ -19950,7 +19950,7 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>5713343</v>
+        <v>5701612</v>
       </c>
       <c r="C219" t="s">
         <v>28</v>
@@ -19962,10 +19962,10 @@
         <v>45074.58333333334</v>
       </c>
       <c r="F219" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="G219" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="H219">
         <v>2</v>
@@ -19977,43 +19977,43 @@
         <v>53</v>
       </c>
       <c r="K219">
-        <v>2.875</v>
+        <v>1.909</v>
       </c>
       <c r="L219">
+        <v>3.4</v>
+      </c>
+      <c r="M219">
+        <v>4</v>
+      </c>
+      <c r="N219">
+        <v>2.4</v>
+      </c>
+      <c r="O219">
+        <v>2.75</v>
+      </c>
+      <c r="P219">
         <v>3.5</v>
       </c>
-      <c r="M219">
-        <v>2.3</v>
-      </c>
-      <c r="N219">
-        <v>3</v>
-      </c>
-      <c r="O219">
-        <v>3.75</v>
-      </c>
-      <c r="P219">
-        <v>2.2</v>
-      </c>
       <c r="Q219">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R219">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="S219">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="T219">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="U219">
-        <v>2.06</v>
+        <v>1.82</v>
       </c>
       <c r="V219">
-        <v>1.84</v>
+        <v>2.08</v>
       </c>
       <c r="W219">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="X219">
         <v>-1</v>
@@ -20022,16 +20022,16 @@
         <v>-1</v>
       </c>
       <c r="Z219">
-        <v>0.8999999999999999</v>
+        <v>1.1</v>
       </c>
       <c r="AA219">
         <v>-1</v>
       </c>
       <c r="AB219">
-        <v>0</v>
+        <v>0.8200000000000001</v>
       </c>
       <c r="AC219">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="220" spans="1:29">
@@ -20039,7 +20039,7 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>5703047</v>
+        <v>5697401</v>
       </c>
       <c r="C220" t="s">
         <v>28</v>
@@ -20051,76 +20051,76 @@
         <v>45074.58333333334</v>
       </c>
       <c r="F220" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="G220" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H220">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I220">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J220" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K220">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="L220">
         <v>4.5</v>
       </c>
       <c r="M220">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="N220">
-        <v>1.25</v>
+        <v>1.4</v>
       </c>
       <c r="O220">
-        <v>5.75</v>
+        <v>4.5</v>
       </c>
       <c r="P220">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="Q220">
-        <v>-1.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R220">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S220">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T220">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U220">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="V220">
-        <v>1.97</v>
+        <v>1.99</v>
       </c>
       <c r="W220">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="X220">
         <v>-1</v>
       </c>
       <c r="Y220">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="Z220">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA220">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB220">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC220">
-        <v>-0</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="221" spans="1:29">
@@ -20306,7 +20306,7 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>5776609</v>
+        <v>5732767</v>
       </c>
       <c r="C223" t="s">
         <v>28</v>
@@ -20318,49 +20318,49 @@
         <v>45081.5625</v>
       </c>
       <c r="F223" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="G223" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H223">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I223">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J223" t="s">
         <v>53</v>
       </c>
       <c r="K223">
-        <v>2.25</v>
+        <v>3.4</v>
       </c>
       <c r="L223">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M223">
-        <v>2.9</v>
+        <v>2.15</v>
       </c>
       <c r="N223">
-        <v>1.571</v>
+        <v>3</v>
       </c>
       <c r="O223">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="P223">
-        <v>5.75</v>
+        <v>2.45</v>
       </c>
       <c r="Q223">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R223">
-        <v>2.01</v>
+        <v>1.8</v>
       </c>
       <c r="S223">
-        <v>1.89</v>
+        <v>2.14</v>
       </c>
       <c r="T223">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U223">
         <v>1.89</v>
@@ -20369,7 +20369,7 @@
         <v>2.01</v>
       </c>
       <c r="W223">
-        <v>0.571</v>
+        <v>2</v>
       </c>
       <c r="X223">
         <v>-1</v>
@@ -20378,10 +20378,10 @@
         <v>-1</v>
       </c>
       <c r="Z223">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AA223">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB223">
         <v>0.8899999999999999</v>
@@ -20484,7 +20484,7 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>5732767</v>
+        <v>5776609</v>
       </c>
       <c r="C225" t="s">
         <v>28</v>
@@ -20496,49 +20496,49 @@
         <v>45081.5625</v>
       </c>
       <c r="F225" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="G225" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H225">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I225">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J225" t="s">
         <v>53</v>
       </c>
       <c r="K225">
-        <v>3.4</v>
+        <v>2.25</v>
       </c>
       <c r="L225">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M225">
-        <v>2.15</v>
+        <v>2.9</v>
       </c>
       <c r="N225">
-        <v>3</v>
+        <v>1.571</v>
       </c>
       <c r="O225">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="P225">
-        <v>2.45</v>
+        <v>5.75</v>
       </c>
       <c r="Q225">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R225">
-        <v>1.8</v>
+        <v>2.01</v>
       </c>
       <c r="S225">
-        <v>2.14</v>
+        <v>1.89</v>
       </c>
       <c r="T225">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U225">
         <v>1.89</v>
@@ -20547,7 +20547,7 @@
         <v>2.01</v>
       </c>
       <c r="W225">
-        <v>2</v>
+        <v>0.571</v>
       </c>
       <c r="X225">
         <v>-1</v>
@@ -20556,10 +20556,10 @@
         <v>-1</v>
       </c>
       <c r="Z225">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AA225">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB225">
         <v>0.8899999999999999</v>
@@ -20662,7 +20662,7 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>5737343</v>
+        <v>5738382</v>
       </c>
       <c r="C227" t="s">
         <v>28</v>
@@ -20674,76 +20674,76 @@
         <v>45081.66666666666</v>
       </c>
       <c r="F227" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="G227" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H227">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I227">
         <v>1</v>
       </c>
       <c r="J227" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K227">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="L227">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M227">
-        <v>2.6</v>
+        <v>2.2</v>
       </c>
       <c r="N227">
+        <v>2.7</v>
+      </c>
+      <c r="O227">
+        <v>3.6</v>
+      </c>
+      <c r="P227">
         <v>2.45</v>
       </c>
-      <c r="O227">
-        <v>3.3</v>
-      </c>
-      <c r="P227">
-        <v>2.875</v>
-      </c>
       <c r="Q227">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R227">
-        <v>2.05</v>
+        <v>2.06</v>
       </c>
       <c r="S227">
-        <v>1.75</v>
+        <v>1.84</v>
       </c>
       <c r="T227">
         <v>2.5</v>
       </c>
       <c r="U227">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="V227">
-        <v>1.99</v>
+        <v>1.95</v>
       </c>
       <c r="W227">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X227">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y227">
         <v>-1</v>
       </c>
       <c r="Z227">
-        <v>-0.5</v>
+        <v>1.06</v>
       </c>
       <c r="AA227">
-        <v>0.375</v>
+        <v>-1</v>
       </c>
       <c r="AB227">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC227">
-        <v>0.99</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="228" spans="1:29">
@@ -20751,7 +20751,7 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>5738382</v>
+        <v>5734498</v>
       </c>
       <c r="C228" t="s">
         <v>28</v>
@@ -20763,76 +20763,76 @@
         <v>45081.66666666666</v>
       </c>
       <c r="F228" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G228" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H228">
+        <v>0</v>
+      </c>
+      <c r="I228">
+        <v>0</v>
+      </c>
+      <c r="J228" t="s">
+        <v>54</v>
+      </c>
+      <c r="K228">
+        <v>2.1</v>
+      </c>
+      <c r="L228">
+        <v>3.4</v>
+      </c>
+      <c r="M228">
+        <v>3.4</v>
+      </c>
+      <c r="N228">
+        <v>2.05</v>
+      </c>
+      <c r="O228">
+        <v>3.3</v>
+      </c>
+      <c r="P228">
+        <v>4</v>
+      </c>
+      <c r="Q228">
+        <v>-0.5</v>
+      </c>
+      <c r="R228">
+        <v>2.08</v>
+      </c>
+      <c r="S228">
+        <v>1.82</v>
+      </c>
+      <c r="T228">
         <v>2</v>
       </c>
-      <c r="I228">
-        <v>1</v>
-      </c>
-      <c r="J228" t="s">
-        <v>53</v>
-      </c>
-      <c r="K228">
-        <v>3</v>
-      </c>
-      <c r="L228">
-        <v>3.6</v>
-      </c>
-      <c r="M228">
-        <v>2.2</v>
-      </c>
-      <c r="N228">
-        <v>2.7</v>
-      </c>
-      <c r="O228">
-        <v>3.6</v>
-      </c>
-      <c r="P228">
-        <v>2.45</v>
-      </c>
-      <c r="Q228">
-        <v>0</v>
-      </c>
-      <c r="R228">
-        <v>2.06</v>
-      </c>
-      <c r="S228">
-        <v>1.84</v>
-      </c>
-      <c r="T228">
-        <v>2.5</v>
-      </c>
       <c r="U228">
-        <v>1.95</v>
+        <v>1.82</v>
       </c>
       <c r="V228">
-        <v>1.95</v>
+        <v>2.08</v>
       </c>
       <c r="W228">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X228">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y228">
         <v>-1</v>
       </c>
       <c r="Z228">
-        <v>1.06</v>
+        <v>-1</v>
       </c>
       <c r="AA228">
-        <v>-1</v>
+        <v>0.8200000000000001</v>
       </c>
       <c r="AB228">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC228">
-        <v>-1</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="229" spans="1:29">
@@ -20840,7 +20840,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>5762751</v>
+        <v>5737343</v>
       </c>
       <c r="C229" t="s">
         <v>28</v>
@@ -20852,10 +20852,10 @@
         <v>45081.66666666666</v>
       </c>
       <c r="F229" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="G229" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="H229">
         <v>1</v>
@@ -20867,40 +20867,40 @@
         <v>54</v>
       </c>
       <c r="K229">
-        <v>3.1</v>
+        <v>2.6</v>
       </c>
       <c r="L229">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M229">
-        <v>2.2</v>
+        <v>2.6</v>
       </c>
       <c r="N229">
-        <v>2.875</v>
+        <v>2.45</v>
       </c>
       <c r="O229">
         <v>3.3</v>
       </c>
       <c r="P229">
-        <v>2.45</v>
+        <v>2.875</v>
       </c>
       <c r="Q229">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R229">
-        <v>1.78</v>
+        <v>2.05</v>
       </c>
       <c r="S229">
-        <v>2.125</v>
+        <v>1.75</v>
       </c>
       <c r="T229">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U229">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="V229">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="W229">
         <v>-1</v>
@@ -20912,16 +20912,16 @@
         <v>-1</v>
       </c>
       <c r="Z229">
-        <v>0.39</v>
+        <v>-0.5</v>
       </c>
       <c r="AA229">
-        <v>-0.5</v>
+        <v>0.375</v>
       </c>
       <c r="AB229">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC229">
-        <v>0.49</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="230" spans="1:29">
@@ -20929,7 +20929,7 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>5734498</v>
+        <v>5762751</v>
       </c>
       <c r="C230" t="s">
         <v>28</v>
@@ -20941,55 +20941,55 @@
         <v>45081.66666666666</v>
       </c>
       <c r="F230" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="G230" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="H230">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I230">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J230" t="s">
         <v>54</v>
       </c>
       <c r="K230">
-        <v>2.1</v>
+        <v>3.1</v>
       </c>
       <c r="L230">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M230">
-        <v>3.4</v>
+        <v>2.2</v>
       </c>
       <c r="N230">
-        <v>2.05</v>
+        <v>2.875</v>
       </c>
       <c r="O230">
         <v>3.3</v>
       </c>
       <c r="P230">
-        <v>4</v>
+        <v>2.45</v>
       </c>
       <c r="Q230">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R230">
-        <v>2.08</v>
+        <v>1.78</v>
       </c>
       <c r="S230">
-        <v>1.82</v>
+        <v>2.125</v>
       </c>
       <c r="T230">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U230">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="V230">
-        <v>2.08</v>
+        <v>1.98</v>
       </c>
       <c r="W230">
         <v>-1</v>
@@ -21001,16 +21001,16 @@
         <v>-1</v>
       </c>
       <c r="Z230">
-        <v>-1</v>
+        <v>0.39</v>
       </c>
       <c r="AA230">
-        <v>0.8200000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB230">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC230">
-        <v>1.08</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="231" spans="1:29">
@@ -27782,7 +27782,7 @@
         <v>305</v>
       </c>
       <c r="B307">
-        <v>6809388</v>
+        <v>6809226</v>
       </c>
       <c r="C307" t="s">
         <v>28</v>
@@ -27794,58 +27794,58 @@
         <v>45200.66666666666</v>
       </c>
       <c r="F307" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="G307" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="H307">
         <v>3</v>
       </c>
       <c r="I307">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J307" t="s">
         <v>53</v>
       </c>
       <c r="K307">
-        <v>1.333</v>
+        <v>2.2</v>
       </c>
       <c r="L307">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="M307">
-        <v>8.5</v>
+        <v>3.4</v>
       </c>
       <c r="N307">
-        <v>1.333</v>
+        <v>2.05</v>
       </c>
       <c r="O307">
-        <v>5.5</v>
+        <v>3.25</v>
       </c>
       <c r="P307">
-        <v>8.5</v>
+        <v>4</v>
       </c>
       <c r="Q307">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R307">
-        <v>2.03</v>
+        <v>2.06</v>
       </c>
       <c r="S307">
-        <v>1.87</v>
+        <v>1.84</v>
       </c>
       <c r="T307">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U307">
-        <v>1.84</v>
+        <v>2.05</v>
       </c>
       <c r="V307">
-        <v>2.06</v>
+        <v>1.85</v>
       </c>
       <c r="W307">
-        <v>0.333</v>
+        <v>1.05</v>
       </c>
       <c r="X307">
         <v>-1</v>
@@ -27854,13 +27854,13 @@
         <v>-1</v>
       </c>
       <c r="Z307">
-        <v>-1</v>
+        <v>1.06</v>
       </c>
       <c r="AA307">
-        <v>0.8700000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB307">
-        <v>0.8400000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="AC307">
         <v>-1</v>
@@ -27871,7 +27871,7 @@
         <v>306</v>
       </c>
       <c r="B308">
-        <v>6809226</v>
+        <v>6809388</v>
       </c>
       <c r="C308" t="s">
         <v>28</v>
@@ -27883,58 +27883,58 @@
         <v>45200.66666666666</v>
       </c>
       <c r="F308" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="G308" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="H308">
         <v>3</v>
       </c>
       <c r="I308">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J308" t="s">
         <v>53</v>
       </c>
       <c r="K308">
-        <v>2.2</v>
+        <v>1.333</v>
       </c>
       <c r="L308">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="M308">
-        <v>3.4</v>
+        <v>8.5</v>
       </c>
       <c r="N308">
-        <v>2.05</v>
+        <v>1.333</v>
       </c>
       <c r="O308">
-        <v>3.25</v>
+        <v>5.5</v>
       </c>
       <c r="P308">
-        <v>4</v>
+        <v>8.5</v>
       </c>
       <c r="Q308">
-        <v>-0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R308">
+        <v>2.03</v>
+      </c>
+      <c r="S308">
+        <v>1.87</v>
+      </c>
+      <c r="T308">
+        <v>2.5</v>
+      </c>
+      <c r="U308">
+        <v>1.84</v>
+      </c>
+      <c r="V308">
         <v>2.06</v>
       </c>
-      <c r="S308">
-        <v>1.84</v>
-      </c>
-      <c r="T308">
-        <v>2.25</v>
-      </c>
-      <c r="U308">
-        <v>2.05</v>
-      </c>
-      <c r="V308">
-        <v>1.85</v>
-      </c>
       <c r="W308">
-        <v>1.05</v>
+        <v>0.333</v>
       </c>
       <c r="X308">
         <v>-1</v>
@@ -27943,13 +27943,13 @@
         <v>-1</v>
       </c>
       <c r="Z308">
-        <v>1.06</v>
+        <v>-1</v>
       </c>
       <c r="AA308">
-        <v>-1</v>
+        <v>0.8700000000000001</v>
       </c>
       <c r="AB308">
-        <v>1.05</v>
+        <v>0.8400000000000001</v>
       </c>
       <c r="AC308">
         <v>-1</v>
@@ -31876,7 +31876,7 @@
         <v>351</v>
       </c>
       <c r="B353">
-        <v>6809414</v>
+        <v>6809255</v>
       </c>
       <c r="C353" t="s">
         <v>28</v>
@@ -31888,10 +31888,10 @@
         <v>45241.60416666666</v>
       </c>
       <c r="F353" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G353" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="H353">
         <v>1</v>
@@ -31903,61 +31903,61 @@
         <v>54</v>
       </c>
       <c r="K353">
-        <v>2.5</v>
+        <v>1.75</v>
       </c>
       <c r="L353">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="M353">
-        <v>3</v>
+        <v>4.75</v>
       </c>
       <c r="N353">
-        <v>2.45</v>
+        <v>1.909</v>
       </c>
       <c r="O353">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P353">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="Q353">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R353">
-        <v>2.11</v>
+        <v>1.97</v>
       </c>
       <c r="S353">
-        <v>1.79</v>
+        <v>1.93</v>
       </c>
       <c r="T353">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U353">
-        <v>2.02</v>
+        <v>1.75</v>
       </c>
       <c r="V353">
-        <v>1.88</v>
+        <v>2.05</v>
       </c>
       <c r="W353">
         <v>-1</v>
       </c>
       <c r="X353">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="Y353">
         <v>-1</v>
       </c>
       <c r="Z353">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA353">
-        <v>0.395</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="AB353">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AC353">
-        <v>0.4399999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="354" spans="1:29">
@@ -31965,7 +31965,7 @@
         <v>352</v>
       </c>
       <c r="B354">
-        <v>6809255</v>
+        <v>6809414</v>
       </c>
       <c r="C354" t="s">
         <v>28</v>
@@ -31977,10 +31977,10 @@
         <v>45241.60416666666</v>
       </c>
       <c r="F354" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G354" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="H354">
         <v>1</v>
@@ -31992,61 +31992,61 @@
         <v>54</v>
       </c>
       <c r="K354">
-        <v>1.75</v>
+        <v>2.5</v>
       </c>
       <c r="L354">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="M354">
-        <v>4.75</v>
+        <v>3</v>
       </c>
       <c r="N354">
-        <v>1.909</v>
+        <v>2.45</v>
       </c>
       <c r="O354">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="P354">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="Q354">
+        <v>-0.25</v>
+      </c>
+      <c r="R354">
+        <v>2.11</v>
+      </c>
+      <c r="S354">
+        <v>1.79</v>
+      </c>
+      <c r="T354">
+        <v>2.25</v>
+      </c>
+      <c r="U354">
+        <v>2.02</v>
+      </c>
+      <c r="V354">
+        <v>1.88</v>
+      </c>
+      <c r="W354">
+        <v>-1</v>
+      </c>
+      <c r="X354">
+        <v>2.1</v>
+      </c>
+      <c r="Y354">
+        <v>-1</v>
+      </c>
+      <c r="Z354">
         <v>-0.5</v>
       </c>
-      <c r="R354">
-        <v>1.97</v>
-      </c>
-      <c r="S354">
-        <v>1.93</v>
-      </c>
-      <c r="T354">
-        <v>2</v>
-      </c>
-      <c r="U354">
-        <v>1.75</v>
-      </c>
-      <c r="V354">
-        <v>2.05</v>
-      </c>
-      <c r="W354">
-        <v>-1</v>
-      </c>
-      <c r="X354">
-        <v>2.2</v>
-      </c>
-      <c r="Y354">
-        <v>-1</v>
-      </c>
-      <c r="Z354">
-        <v>-1</v>
-      </c>
       <c r="AA354">
-        <v>0.9299999999999999</v>
+        <v>0.395</v>
       </c>
       <c r="AB354">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AC354">
-        <v>-0</v>
+        <v>0.4399999999999999</v>
       </c>
     </row>
     <row r="355" spans="1:29">
@@ -34991,7 +34991,7 @@
         <v>386</v>
       </c>
       <c r="B388">
-        <v>6809424</v>
+        <v>6809425</v>
       </c>
       <c r="C388" t="s">
         <v>28</v>
@@ -35003,76 +35003,76 @@
         <v>45271.70833333334</v>
       </c>
       <c r="F388" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="G388" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H388">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I388">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J388" t="s">
         <v>54</v>
       </c>
       <c r="K388">
-        <v>4.5</v>
+        <v>2.3</v>
       </c>
       <c r="L388">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M388">
-        <v>1.75</v>
+        <v>3.25</v>
       </c>
       <c r="N388">
-        <v>4.2</v>
+        <v>2.7</v>
       </c>
       <c r="O388">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="P388">
-        <v>1.85</v>
+        <v>2.8</v>
       </c>
       <c r="Q388">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R388">
-        <v>2.01</v>
+        <v>1.92</v>
       </c>
       <c r="S388">
-        <v>1.89</v>
+        <v>1.98</v>
       </c>
       <c r="T388">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U388">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V388">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="W388">
         <v>-1</v>
       </c>
       <c r="X388">
-        <v>2.75</v>
+        <v>2.1</v>
       </c>
       <c r="Y388">
         <v>-1</v>
       </c>
       <c r="Z388">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="AA388">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB388">
         <v>-1</v>
       </c>
       <c r="AC388">
-        <v>1.05</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="389" spans="1:29">
@@ -35080,7 +35080,7 @@
         <v>387</v>
       </c>
       <c r="B389">
-        <v>6809425</v>
+        <v>6809424</v>
       </c>
       <c r="C389" t="s">
         <v>28</v>
@@ -35092,76 +35092,76 @@
         <v>45271.70833333334</v>
       </c>
       <c r="F389" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="G389" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H389">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I389">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J389" t="s">
         <v>54</v>
       </c>
       <c r="K389">
-        <v>2.3</v>
+        <v>4.5</v>
       </c>
       <c r="L389">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M389">
-        <v>3.25</v>
+        <v>1.75</v>
       </c>
       <c r="N389">
-        <v>2.7</v>
+        <v>4.2</v>
       </c>
       <c r="O389">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="P389">
-        <v>2.8</v>
+        <v>1.85</v>
       </c>
       <c r="Q389">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R389">
-        <v>1.92</v>
+        <v>2.01</v>
       </c>
       <c r="S389">
-        <v>1.98</v>
+        <v>1.89</v>
       </c>
       <c r="T389">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U389">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="V389">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="W389">
         <v>-1</v>
       </c>
       <c r="X389">
-        <v>2.1</v>
+        <v>2.75</v>
       </c>
       <c r="Y389">
         <v>-1</v>
       </c>
       <c r="Z389">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AA389">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB389">
         <v>-1</v>
       </c>
       <c r="AC389">
-        <v>0.95</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="390" spans="1:29">
@@ -36415,7 +36415,7 @@
         <v>402</v>
       </c>
       <c r="B404">
-        <v>6809434</v>
+        <v>6809438</v>
       </c>
       <c r="C404" t="s">
         <v>28</v>
@@ -36427,58 +36427,58 @@
         <v>45280.72916666666</v>
       </c>
       <c r="F404" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G404" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="H404">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I404">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J404" t="s">
         <v>53</v>
       </c>
       <c r="K404">
-        <v>1.4</v>
+        <v>2.15</v>
       </c>
       <c r="L404">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="M404">
-        <v>7</v>
+        <v>2.9</v>
       </c>
       <c r="N404">
-        <v>1.363</v>
+        <v>2.3</v>
       </c>
       <c r="O404">
-        <v>5.25</v>
+        <v>3.5</v>
       </c>
       <c r="P404">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="Q404">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R404">
-        <v>1.87</v>
+        <v>2.08</v>
       </c>
       <c r="S404">
+        <v>1.82</v>
+      </c>
+      <c r="T404">
+        <v>2.5</v>
+      </c>
+      <c r="U404">
         <v>2.06</v>
       </c>
-      <c r="T404">
-        <v>2.75</v>
-      </c>
-      <c r="U404">
-        <v>1.91</v>
-      </c>
       <c r="V404">
-        <v>1.99</v>
+        <v>1.84</v>
       </c>
       <c r="W404">
-        <v>0.363</v>
+        <v>1.3</v>
       </c>
       <c r="X404">
         <v>-1</v>
@@ -36487,16 +36487,16 @@
         <v>-1</v>
       </c>
       <c r="Z404">
-        <v>-0.5</v>
+        <v>1.08</v>
       </c>
       <c r="AA404">
-        <v>0.53</v>
+        <v>-1</v>
       </c>
       <c r="AB404">
-        <v>-1</v>
+        <v>1.06</v>
       </c>
       <c r="AC404">
-        <v>0.99</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="405" spans="1:29">
@@ -36504,7 +36504,7 @@
         <v>403</v>
       </c>
       <c r="B405">
-        <v>6809438</v>
+        <v>6809434</v>
       </c>
       <c r="C405" t="s">
         <v>28</v>
@@ -36516,58 +36516,58 @@
         <v>45280.72916666666</v>
       </c>
       <c r="F405" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G405" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="H405">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I405">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J405" t="s">
         <v>53</v>
       </c>
       <c r="K405">
-        <v>2.15</v>
+        <v>1.4</v>
       </c>
       <c r="L405">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="M405">
-        <v>2.9</v>
+        <v>7</v>
       </c>
       <c r="N405">
-        <v>2.3</v>
+        <v>1.363</v>
       </c>
       <c r="O405">
-        <v>3.5</v>
+        <v>5.25</v>
       </c>
       <c r="P405">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="Q405">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R405">
-        <v>2.08</v>
+        <v>1.87</v>
       </c>
       <c r="S405">
-        <v>1.82</v>
+        <v>2.06</v>
       </c>
       <c r="T405">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U405">
-        <v>2.06</v>
+        <v>1.91</v>
       </c>
       <c r="V405">
-        <v>1.84</v>
+        <v>1.99</v>
       </c>
       <c r="W405">
-        <v>1.3</v>
+        <v>0.363</v>
       </c>
       <c r="X405">
         <v>-1</v>
@@ -36576,16 +36576,16 @@
         <v>-1</v>
       </c>
       <c r="Z405">
-        <v>1.08</v>
+        <v>-0.5</v>
       </c>
       <c r="AA405">
-        <v>-1</v>
+        <v>0.53</v>
       </c>
       <c r="AB405">
-        <v>1.06</v>
+        <v>-1</v>
       </c>
       <c r="AC405">
-        <v>-1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="406" spans="1:29">
@@ -36593,7 +36593,7 @@
         <v>404</v>
       </c>
       <c r="B406">
-        <v>6809289</v>
+        <v>6809436</v>
       </c>
       <c r="C406" t="s">
         <v>28</v>
@@ -36605,76 +36605,76 @@
         <v>45281.625</v>
       </c>
       <c r="F406" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G406" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H406">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I406">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J406" t="s">
         <v>54</v>
       </c>
       <c r="K406">
-        <v>2.4</v>
+        <v>4.333</v>
       </c>
       <c r="L406">
+        <v>3.2</v>
+      </c>
+      <c r="M406">
+        <v>1.85</v>
+      </c>
+      <c r="N406">
+        <v>6</v>
+      </c>
+      <c r="O406">
         <v>3.5</v>
       </c>
-      <c r="M406">
-        <v>2.75</v>
-      </c>
-      <c r="N406">
-        <v>2.6</v>
-      </c>
-      <c r="O406">
-        <v>3.6</v>
-      </c>
       <c r="P406">
+        <v>1.65</v>
+      </c>
+      <c r="Q406">
+        <v>0.75</v>
+      </c>
+      <c r="R406">
+        <v>1.98</v>
+      </c>
+      <c r="S406">
+        <v>1.92</v>
+      </c>
+      <c r="T406">
+        <v>2</v>
+      </c>
+      <c r="U406">
+        <v>1.84</v>
+      </c>
+      <c r="V406">
+        <v>2.06</v>
+      </c>
+      <c r="W406">
+        <v>-1</v>
+      </c>
+      <c r="X406">
         <v>2.5</v>
       </c>
-      <c r="Q406">
-        <v>0</v>
-      </c>
-      <c r="R406">
-        <v>1.97</v>
-      </c>
-      <c r="S406">
-        <v>1.93</v>
-      </c>
-      <c r="T406">
-        <v>2.75</v>
-      </c>
-      <c r="U406">
-        <v>1.91</v>
-      </c>
-      <c r="V406">
-        <v>1.99</v>
-      </c>
-      <c r="W406">
-        <v>-1</v>
-      </c>
-      <c r="X406">
-        <v>2.6</v>
-      </c>
       <c r="Y406">
         <v>-1</v>
       </c>
       <c r="Z406">
-        <v>0</v>
+        <v>0.98</v>
       </c>
       <c r="AA406">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB406">
         <v>-1</v>
       </c>
       <c r="AC406">
-        <v>0.99</v>
+        <v>1.06</v>
       </c>
     </row>
     <row r="407" spans="1:29">
@@ -36682,7 +36682,7 @@
         <v>405</v>
       </c>
       <c r="B407">
-        <v>6809436</v>
+        <v>6809289</v>
       </c>
       <c r="C407" t="s">
         <v>28</v>
@@ -36694,76 +36694,76 @@
         <v>45281.625</v>
       </c>
       <c r="F407" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G407" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H407">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I407">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J407" t="s">
         <v>54</v>
       </c>
       <c r="K407">
-        <v>4.333</v>
+        <v>2.4</v>
       </c>
       <c r="L407">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M407">
-        <v>1.85</v>
+        <v>2.75</v>
       </c>
       <c r="N407">
-        <v>6</v>
+        <v>2.6</v>
       </c>
       <c r="O407">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P407">
-        <v>1.65</v>
+        <v>2.5</v>
       </c>
       <c r="Q407">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R407">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="S407">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="T407">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U407">
-        <v>1.84</v>
+        <v>1.91</v>
       </c>
       <c r="V407">
-        <v>2.06</v>
+        <v>1.99</v>
       </c>
       <c r="W407">
         <v>-1</v>
       </c>
       <c r="X407">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="Y407">
         <v>-1</v>
       </c>
       <c r="Z407">
-        <v>0.98</v>
+        <v>0</v>
       </c>
       <c r="AA407">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB407">
         <v>-1</v>
       </c>
       <c r="AC407">
-        <v>1.06</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="408" spans="1:29">
@@ -36771,7 +36771,7 @@
         <v>406</v>
       </c>
       <c r="B408">
-        <v>6809290</v>
+        <v>6809437</v>
       </c>
       <c r="C408" t="s">
         <v>28</v>
@@ -36783,76 +36783,76 @@
         <v>45281.72916666666</v>
       </c>
       <c r="F408" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="G408" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="H408">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I408">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J408" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K408">
-        <v>2.2</v>
+        <v>4.75</v>
       </c>
       <c r="L408">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="M408">
-        <v>3.4</v>
+        <v>1.666</v>
       </c>
       <c r="N408">
-        <v>2.2</v>
+        <v>5.5</v>
       </c>
       <c r="O408">
-        <v>2.9</v>
+        <v>4.2</v>
       </c>
       <c r="P408">
-        <v>4</v>
+        <v>1.571</v>
       </c>
       <c r="Q408">
-        <v>-0.25</v>
+        <v>1</v>
       </c>
       <c r="R408">
-        <v>1.89</v>
+        <v>1.83</v>
       </c>
       <c r="S408">
-        <v>2.01</v>
+        <v>2.07</v>
       </c>
       <c r="T408">
-        <v>1.75</v>
+        <v>2.5</v>
       </c>
       <c r="U408">
-        <v>1.95</v>
+        <v>1.88</v>
       </c>
       <c r="V408">
-        <v>1.95</v>
+        <v>2.02</v>
       </c>
       <c r="W408">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X408">
         <v>-1</v>
       </c>
       <c r="Y408">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="Z408">
-        <v>0.8899999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA408">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB408">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC408">
-        <v>-1</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="409" spans="1:29">
@@ -36860,7 +36860,7 @@
         <v>407</v>
       </c>
       <c r="B409">
-        <v>6809437</v>
+        <v>6809290</v>
       </c>
       <c r="C409" t="s">
         <v>28</v>
@@ -36872,76 +36872,76 @@
         <v>45281.72916666666</v>
       </c>
       <c r="F409" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="G409" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="H409">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I409">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J409" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K409">
-        <v>4.75</v>
+        <v>2.2</v>
       </c>
       <c r="L409">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="M409">
-        <v>1.666</v>
+        <v>3.4</v>
       </c>
       <c r="N409">
-        <v>5.5</v>
+        <v>2.2</v>
       </c>
       <c r="O409">
-        <v>4.2</v>
+        <v>2.9</v>
       </c>
       <c r="P409">
-        <v>1.571</v>
+        <v>4</v>
       </c>
       <c r="Q409">
-        <v>1</v>
+        <v>-0.25</v>
       </c>
       <c r="R409">
-        <v>1.83</v>
+        <v>1.89</v>
       </c>
       <c r="S409">
-        <v>2.07</v>
+        <v>2.01</v>
       </c>
       <c r="T409">
-        <v>2.5</v>
+        <v>1.75</v>
       </c>
       <c r="U409">
-        <v>1.88</v>
+        <v>1.95</v>
       </c>
       <c r="V409">
-        <v>2.02</v>
+        <v>1.95</v>
       </c>
       <c r="W409">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X409">
         <v>-1</v>
       </c>
       <c r="Y409">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="Z409">
-        <v>0</v>
+        <v>0.8899999999999999</v>
       </c>
       <c r="AA409">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB409">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC409">
-        <v>1.02</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="410" spans="1:29">
@@ -37394,7 +37394,7 @@
         <v>413</v>
       </c>
       <c r="B415">
-        <v>6809442</v>
+        <v>6809440</v>
       </c>
       <c r="C415" t="s">
         <v>28</v>
@@ -37406,58 +37406,58 @@
         <v>45294.63541666666</v>
       </c>
       <c r="F415" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="G415" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="H415">
+        <v>2</v>
+      </c>
+      <c r="I415">
         <v>1</v>
-      </c>
-      <c r="I415">
-        <v>0</v>
       </c>
       <c r="J415" t="s">
         <v>53</v>
       </c>
       <c r="K415">
-        <v>1.222</v>
+        <v>2.25</v>
       </c>
       <c r="L415">
-        <v>6.5</v>
+        <v>3.2</v>
       </c>
       <c r="M415">
-        <v>11</v>
+        <v>3.25</v>
       </c>
       <c r="N415">
-        <v>1.2</v>
+        <v>2.15</v>
       </c>
       <c r="O415">
-        <v>6.5</v>
+        <v>3.2</v>
       </c>
       <c r="P415">
-        <v>15</v>
+        <v>3.5</v>
       </c>
       <c r="Q415">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R415">
-        <v>1.95</v>
+        <v>1.89</v>
       </c>
       <c r="S415">
-        <v>1.98</v>
+        <v>2.04</v>
       </c>
       <c r="T415">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U415">
-        <v>2.02</v>
+        <v>1.86</v>
       </c>
       <c r="V415">
-        <v>1.88</v>
+        <v>2.04</v>
       </c>
       <c r="W415">
-        <v>0.2</v>
+        <v>1.15</v>
       </c>
       <c r="X415">
         <v>-1</v>
@@ -37466,16 +37466,16 @@
         <v>-1</v>
       </c>
       <c r="Z415">
-        <v>-1</v>
+        <v>0.8899999999999999</v>
       </c>
       <c r="AA415">
-        <v>0.98</v>
+        <v>-1</v>
       </c>
       <c r="AB415">
-        <v>-1</v>
+        <v>0.8600000000000001</v>
       </c>
       <c r="AC415">
-        <v>0.8799999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="416" spans="1:29">
@@ -37483,7 +37483,7 @@
         <v>414</v>
       </c>
       <c r="B416">
-        <v>6809440</v>
+        <v>6809442</v>
       </c>
       <c r="C416" t="s">
         <v>28</v>
@@ -37495,58 +37495,58 @@
         <v>45294.63541666666</v>
       </c>
       <c r="F416" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="G416" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="H416">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I416">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J416" t="s">
         <v>53</v>
       </c>
       <c r="K416">
-        <v>2.25</v>
+        <v>1.222</v>
       </c>
       <c r="L416">
-        <v>3.2</v>
+        <v>6.5</v>
       </c>
       <c r="M416">
-        <v>3.25</v>
+        <v>11</v>
       </c>
       <c r="N416">
-        <v>2.15</v>
+        <v>1.2</v>
       </c>
       <c r="O416">
-        <v>3.2</v>
+        <v>6.5</v>
       </c>
       <c r="P416">
-        <v>3.5</v>
+        <v>15</v>
       </c>
       <c r="Q416">
-        <v>-0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R416">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="S416">
-        <v>2.04</v>
+        <v>1.98</v>
       </c>
       <c r="T416">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U416">
-        <v>1.86</v>
+        <v>2.02</v>
       </c>
       <c r="V416">
-        <v>2.04</v>
+        <v>1.88</v>
       </c>
       <c r="W416">
-        <v>1.15</v>
+        <v>0.2</v>
       </c>
       <c r="X416">
         <v>-1</v>
@@ -37555,16 +37555,16 @@
         <v>-1</v>
       </c>
       <c r="Z416">
-        <v>0.8899999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA416">
-        <v>-1</v>
+        <v>0.98</v>
       </c>
       <c r="AB416">
-        <v>0.8600000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC416">
-        <v>-1</v>
+        <v>0.8799999999999999</v>
       </c>
     </row>
     <row r="417" spans="1:29">
@@ -42467,7 +42467,7 @@
         <v>470</v>
       </c>
       <c r="B472">
-        <v>7791488</v>
+        <v>7791496</v>
       </c>
       <c r="C472" t="s">
         <v>28</v>
@@ -42476,49 +42476,49 @@
         <v>28</v>
       </c>
       <c r="E472" s="2">
-        <v>45339.51041666666</v>
+        <v>45340.41666666666</v>
       </c>
       <c r="F472" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G472" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K472">
-        <v>1.7</v>
+        <v>5</v>
       </c>
       <c r="L472">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M472">
-        <v>5.25</v>
+        <v>1.666</v>
       </c>
       <c r="N472">
-        <v>1.8</v>
+        <v>6</v>
       </c>
       <c r="O472">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="P472">
-        <v>5.5</v>
+        <v>1.571</v>
       </c>
       <c r="Q472">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="R472">
-        <v>1.83</v>
+        <v>1.9</v>
       </c>
       <c r="S472">
-        <v>2.07</v>
+        <v>2.03</v>
       </c>
       <c r="T472">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U472">
-        <v>2.08</v>
+        <v>1.86</v>
       </c>
       <c r="V472">
-        <v>1.82</v>
+        <v>2.04</v>
       </c>
       <c r="W472">
         <v>0</v>
@@ -42541,7 +42541,7 @@
         <v>471</v>
       </c>
       <c r="B473">
-        <v>7791489</v>
+        <v>7791497</v>
       </c>
       <c r="C473" t="s">
         <v>28</v>
@@ -42550,49 +42550,49 @@
         <v>28</v>
       </c>
       <c r="E473" s="2">
-        <v>45339.60416666666</v>
+        <v>45340.51041666666</v>
       </c>
       <c r="F473" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="G473" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="K473">
-        <v>3.75</v>
+        <v>2</v>
       </c>
       <c r="L473">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M473">
-        <v>1.85</v>
+        <v>3.4</v>
       </c>
       <c r="N473">
-        <v>3.75</v>
+        <v>2.15</v>
       </c>
       <c r="O473">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P473">
-        <v>1.909</v>
+        <v>3.3</v>
       </c>
       <c r="Q473">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R473">
-        <v>1.97</v>
+        <v>1.87</v>
       </c>
       <c r="S473">
-        <v>1.93</v>
+        <v>2.06</v>
       </c>
       <c r="T473">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U473">
-        <v>1.93</v>
+        <v>2.08</v>
       </c>
       <c r="V473">
-        <v>1.97</v>
+        <v>1.82</v>
       </c>
       <c r="W473">
         <v>0</v>
@@ -42615,7 +42615,7 @@
         <v>472</v>
       </c>
       <c r="B474">
-        <v>7791495</v>
+        <v>7791498</v>
       </c>
       <c r="C474" t="s">
         <v>28</v>
@@ -42624,49 +42624,49 @@
         <v>28</v>
       </c>
       <c r="E474" s="2">
-        <v>45339.70833333334</v>
+        <v>45340.60416666666</v>
       </c>
       <c r="F474" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G474" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="K474">
-        <v>2.05</v>
+        <v>3.1</v>
       </c>
       <c r="L474">
-        <v>3.4</v>
+        <v>2.875</v>
       </c>
       <c r="M474">
-        <v>3.5</v>
+        <v>2.55</v>
       </c>
       <c r="N474">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="O474">
-        <v>3.2</v>
+        <v>2.875</v>
       </c>
       <c r="P474">
-        <v>3.4</v>
+        <v>2.55</v>
       </c>
       <c r="Q474">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R474">
-        <v>1.95</v>
+        <v>1.77</v>
       </c>
       <c r="S474">
-        <v>1.95</v>
+        <v>2.175</v>
       </c>
       <c r="T474">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U474">
-        <v>1.8</v>
+        <v>1.99</v>
       </c>
       <c r="V474">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="W474">
         <v>0</v>
@@ -42689,7 +42689,7 @@
         <v>473</v>
       </c>
       <c r="B475">
-        <v>7791496</v>
+        <v>6809473</v>
       </c>
       <c r="C475" t="s">
         <v>28</v>
@@ -42698,49 +42698,49 @@
         <v>28</v>
       </c>
       <c r="E475" s="2">
-        <v>45340.41666666666</v>
+        <v>45340.70833333334</v>
       </c>
       <c r="F475" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="G475" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="K475">
-        <v>5</v>
+        <v>1.95</v>
       </c>
       <c r="L475">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M475">
-        <v>1.666</v>
+        <v>3.6</v>
       </c>
       <c r="N475">
-        <v>6</v>
+        <v>2.1</v>
       </c>
       <c r="O475">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P475">
-        <v>1.615</v>
+        <v>3.6</v>
       </c>
       <c r="Q475">
-        <v>1</v>
+        <v>-0.25</v>
       </c>
       <c r="R475">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="S475">
-        <v>2.07</v>
+        <v>2.09</v>
       </c>
       <c r="T475">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U475">
-        <v>1.88</v>
+        <v>2.03</v>
       </c>
       <c r="V475">
-        <v>2.02</v>
+        <v>1.87</v>
       </c>
       <c r="W475">
         <v>0</v>
@@ -42763,7 +42763,7 @@
         <v>474</v>
       </c>
       <c r="B476">
-        <v>7791497</v>
+        <v>7791499</v>
       </c>
       <c r="C476" t="s">
         <v>28</v>
@@ -42772,49 +42772,49 @@
         <v>28</v>
       </c>
       <c r="E476" s="2">
-        <v>45340.51041666666</v>
+        <v>45341.70833333334</v>
       </c>
       <c r="F476" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="G476" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="K476">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="L476">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M476">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="N476">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="O476">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P476">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="Q476">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R476">
-        <v>1.88</v>
+        <v>1.95</v>
       </c>
       <c r="S476">
-        <v>2.02</v>
+        <v>1.95</v>
       </c>
       <c r="T476">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U476">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="V476">
-        <v>1.9</v>
+        <v>1.99</v>
       </c>
       <c r="W476">
         <v>0</v>
@@ -42837,7 +42837,7 @@
         <v>475</v>
       </c>
       <c r="B477">
-        <v>7791498</v>
+        <v>6809475</v>
       </c>
       <c r="C477" t="s">
         <v>28</v>
@@ -42846,49 +42846,49 @@
         <v>28</v>
       </c>
       <c r="E477" s="2">
-        <v>45340.60416666666</v>
+        <v>45345.70833333334</v>
       </c>
       <c r="F477" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="G477" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="K477">
-        <v>3.1</v>
+        <v>1.727</v>
       </c>
       <c r="L477">
-        <v>2.875</v>
+        <v>3.6</v>
       </c>
       <c r="M477">
-        <v>2.55</v>
+        <v>4.75</v>
       </c>
       <c r="N477">
-        <v>3.4</v>
+        <v>1.8</v>
       </c>
       <c r="O477">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="P477">
-        <v>2.5</v>
+        <v>4.333</v>
       </c>
       <c r="Q477">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R477">
-        <v>1.78</v>
+        <v>1.87</v>
       </c>
       <c r="S477">
-        <v>2.125</v>
+        <v>2.03</v>
       </c>
       <c r="T477">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="U477">
-        <v>2.02</v>
+        <v>1.85</v>
       </c>
       <c r="V477">
-        <v>1.88</v>
+        <v>2.05</v>
       </c>
       <c r="W477">
         <v>0</v>
@@ -42911,7 +42911,7 @@
         <v>476</v>
       </c>
       <c r="B478">
-        <v>6809473</v>
+        <v>6809333</v>
       </c>
       <c r="C478" t="s">
         <v>28</v>
@@ -42920,34 +42920,34 @@
         <v>28</v>
       </c>
       <c r="E478" s="2">
-        <v>45340.70833333334</v>
+        <v>45346.41666666666</v>
       </c>
       <c r="F478" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="G478" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="K478">
-        <v>1.95</v>
+        <v>2.625</v>
       </c>
       <c r="L478">
-        <v>3.4</v>
+        <v>2.875</v>
       </c>
       <c r="M478">
-        <v>3.6</v>
+        <v>2.875</v>
       </c>
       <c r="N478">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="O478">
-        <v>3.3</v>
+        <v>2.8</v>
       </c>
       <c r="P478">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="Q478">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R478">
         <v>1.82</v>
@@ -42959,10 +42959,10 @@
         <v>2.25</v>
       </c>
       <c r="U478">
-        <v>2.03</v>
+        <v>2.07</v>
       </c>
       <c r="V478">
-        <v>1.87</v>
+        <v>1.83</v>
       </c>
       <c r="W478">
         <v>0</v>
@@ -42985,7 +42985,7 @@
         <v>477</v>
       </c>
       <c r="B479">
-        <v>7791499</v>
+        <v>6809330</v>
       </c>
       <c r="C479" t="s">
         <v>28</v>
@@ -42994,49 +42994,49 @@
         <v>28</v>
       </c>
       <c r="E479" s="2">
-        <v>45341.70833333334</v>
+        <v>45346.51041666666</v>
       </c>
       <c r="F479" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="G479" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="K479">
-        <v>1.95</v>
+        <v>1.4</v>
       </c>
       <c r="L479">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="M479">
-        <v>3.6</v>
+        <v>7</v>
       </c>
       <c r="N479">
-        <v>1.909</v>
+        <v>1.4</v>
       </c>
       <c r="O479">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="P479">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="Q479">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R479">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="S479">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="T479">
         <v>2.75</v>
       </c>
       <c r="U479">
-        <v>1.91</v>
+        <v>1.86</v>
       </c>
       <c r="V479">
-        <v>1.99</v>
+        <v>2.04</v>
       </c>
       <c r="W479">
         <v>0</v>
@@ -43059,7 +43059,7 @@
         <v>478</v>
       </c>
       <c r="B480">
-        <v>6809475</v>
+        <v>6809476</v>
       </c>
       <c r="C480" t="s">
         <v>28</v>
@@ -43068,49 +43068,49 @@
         <v>28</v>
       </c>
       <c r="E480" s="2">
-        <v>45345.70833333334</v>
+        <v>45346.60416666666</v>
       </c>
       <c r="F480" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G480" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K480">
-        <v>1.727</v>
+        <v>1.95</v>
       </c>
       <c r="L480">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="M480">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="N480">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="O480">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="P480">
         <v>4.5</v>
       </c>
       <c r="Q480">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R480">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="S480">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="T480">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="U480">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="V480">
-        <v>2.08</v>
+        <v>2.07</v>
       </c>
       <c r="W480">
         <v>0</v>
@@ -43133,7 +43133,7 @@
         <v>479</v>
       </c>
       <c r="B481">
-        <v>6809333</v>
+        <v>6809329</v>
       </c>
       <c r="C481" t="s">
         <v>28</v>
@@ -43142,49 +43142,49 @@
         <v>28</v>
       </c>
       <c r="E481" s="2">
-        <v>45346.41666666666</v>
+        <v>45346.70833333334</v>
       </c>
       <c r="F481" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="G481" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="K481">
-        <v>2.625</v>
+        <v>4.333</v>
       </c>
       <c r="L481">
-        <v>2.875</v>
+        <v>3.75</v>
       </c>
       <c r="M481">
-        <v>2.875</v>
+        <v>1.727</v>
       </c>
       <c r="N481">
-        <v>2.6</v>
+        <v>4.5</v>
       </c>
       <c r="O481">
-        <v>2.8</v>
+        <v>3.75</v>
       </c>
       <c r="P481">
-        <v>3.1</v>
+        <v>1.727</v>
       </c>
       <c r="Q481">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R481">
-        <v>1.82</v>
+        <v>1.91</v>
       </c>
       <c r="S481">
-        <v>2.08</v>
+        <v>1.99</v>
       </c>
       <c r="T481">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U481">
-        <v>2.07</v>
+        <v>1.95</v>
       </c>
       <c r="V481">
-        <v>1.83</v>
+        <v>1.95</v>
       </c>
       <c r="W481">
         <v>0</v>
@@ -43199,228 +43199,6 @@
         <v>0</v>
       </c>
       <c r="AA481">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="482" spans="1:27">
-      <c r="A482" s="1">
-        <v>480</v>
-      </c>
-      <c r="B482">
-        <v>6809330</v>
-      </c>
-      <c r="C482" t="s">
-        <v>28</v>
-      </c>
-      <c r="D482" t="s">
-        <v>28</v>
-      </c>
-      <c r="E482" s="2">
-        <v>45346.51041666666</v>
-      </c>
-      <c r="F482" t="s">
-        <v>46</v>
-      </c>
-      <c r="G482" t="s">
-        <v>44</v>
-      </c>
-      <c r="K482">
-        <v>1.4</v>
-      </c>
-      <c r="L482">
-        <v>5</v>
-      </c>
-      <c r="M482">
-        <v>7</v>
-      </c>
-      <c r="N482">
-        <v>1.4</v>
-      </c>
-      <c r="O482">
-        <v>5</v>
-      </c>
-      <c r="P482">
-        <v>7</v>
-      </c>
-      <c r="Q482">
-        <v>-1.25</v>
-      </c>
-      <c r="R482">
-        <v>1.92</v>
-      </c>
-      <c r="S482">
-        <v>1.98</v>
-      </c>
-      <c r="T482">
-        <v>2.75</v>
-      </c>
-      <c r="U482">
-        <v>1.86</v>
-      </c>
-      <c r="V482">
-        <v>2.04</v>
-      </c>
-      <c r="W482">
-        <v>0</v>
-      </c>
-      <c r="X482">
-        <v>0</v>
-      </c>
-      <c r="Y482">
-        <v>0</v>
-      </c>
-      <c r="Z482">
-        <v>0</v>
-      </c>
-      <c r="AA482">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="483" spans="1:27">
-      <c r="A483" s="1">
-        <v>481</v>
-      </c>
-      <c r="B483">
-        <v>6809476</v>
-      </c>
-      <c r="C483" t="s">
-        <v>28</v>
-      </c>
-      <c r="D483" t="s">
-        <v>28</v>
-      </c>
-      <c r="E483" s="2">
-        <v>45346.60416666666</v>
-      </c>
-      <c r="F483" t="s">
-        <v>50</v>
-      </c>
-      <c r="G483" t="s">
-        <v>32</v>
-      </c>
-      <c r="K483">
-        <v>1.95</v>
-      </c>
-      <c r="L483">
-        <v>3</v>
-      </c>
-      <c r="M483">
-        <v>4.5</v>
-      </c>
-      <c r="N483">
-        <v>1.95</v>
-      </c>
-      <c r="O483">
-        <v>3</v>
-      </c>
-      <c r="P483">
-        <v>4.5</v>
-      </c>
-      <c r="Q483">
-        <v>-0.5</v>
-      </c>
-      <c r="R483">
-        <v>2.04</v>
-      </c>
-      <c r="S483">
-        <v>1.86</v>
-      </c>
-      <c r="T483">
-        <v>1.75</v>
-      </c>
-      <c r="U483">
-        <v>1.82</v>
-      </c>
-      <c r="V483">
-        <v>2.08</v>
-      </c>
-      <c r="W483">
-        <v>0</v>
-      </c>
-      <c r="X483">
-        <v>0</v>
-      </c>
-      <c r="Y483">
-        <v>0</v>
-      </c>
-      <c r="Z483">
-        <v>0</v>
-      </c>
-      <c r="AA483">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="484" spans="1:27">
-      <c r="A484" s="1">
-        <v>482</v>
-      </c>
-      <c r="B484">
-        <v>6809329</v>
-      </c>
-      <c r="C484" t="s">
-        <v>28</v>
-      </c>
-      <c r="D484" t="s">
-        <v>28</v>
-      </c>
-      <c r="E484" s="2">
-        <v>45346.70833333334</v>
-      </c>
-      <c r="F484" t="s">
-        <v>34</v>
-      </c>
-      <c r="G484" t="s">
-        <v>37</v>
-      </c>
-      <c r="K484">
-        <v>4.333</v>
-      </c>
-      <c r="L484">
-        <v>3.75</v>
-      </c>
-      <c r="M484">
-        <v>1.727</v>
-      </c>
-      <c r="N484">
-        <v>4.5</v>
-      </c>
-      <c r="O484">
-        <v>3.75</v>
-      </c>
-      <c r="P484">
-        <v>1.727</v>
-      </c>
-      <c r="Q484">
-        <v>0.75</v>
-      </c>
-      <c r="R484">
-        <v>1.88</v>
-      </c>
-      <c r="S484">
-        <v>2.02</v>
-      </c>
-      <c r="T484">
-        <v>2.75</v>
-      </c>
-      <c r="U484">
-        <v>1.95</v>
-      </c>
-      <c r="V484">
-        <v>1.95</v>
-      </c>
-      <c r="W484">
-        <v>0</v>
-      </c>
-      <c r="X484">
-        <v>0</v>
-      </c>
-      <c r="Y484">
-        <v>0</v>
-      </c>
-      <c r="Z484">
-        <v>0</v>
-      </c>
-      <c r="AA484">
         <v>0</v>
       </c>
     </row>

--- a/Spain Primera Liga/Spain Primera Liga.xlsx
+++ b/Spain Primera Liga/Spain Primera Liga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2418" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2458" uniqueCount="55">
   <si>
     <t>id</t>
   </si>
@@ -540,7 +540,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC481"/>
+  <dimension ref="A1:AC489"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -13987,7 +13987,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>5470775</v>
+        <v>5461881</v>
       </c>
       <c r="C152" t="s">
         <v>28</v>
@@ -13999,76 +13999,76 @@
         <v>45041.60416666666</v>
       </c>
       <c r="F152" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G152" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="H152">
+        <v>0</v>
+      </c>
+      <c r="I152">
+        <v>1</v>
+      </c>
+      <c r="J152" t="s">
+        <v>52</v>
+      </c>
+      <c r="K152">
+        <v>2.3</v>
+      </c>
+      <c r="L152">
+        <v>3.2</v>
+      </c>
+      <c r="M152">
+        <v>3.2</v>
+      </c>
+      <c r="N152">
+        <v>2.05</v>
+      </c>
+      <c r="O152">
+        <v>3.2</v>
+      </c>
+      <c r="P152">
         <v>4</v>
       </c>
-      <c r="I152">
+      <c r="Q152">
+        <v>-0.5</v>
+      </c>
+      <c r="R152">
+        <v>2.08</v>
+      </c>
+      <c r="S152">
+        <v>1.82</v>
+      </c>
+      <c r="T152">
         <v>2</v>
       </c>
-      <c r="J152" t="s">
-        <v>53</v>
-      </c>
-      <c r="K152">
-        <v>6</v>
-      </c>
-      <c r="L152">
-        <v>4</v>
-      </c>
-      <c r="M152">
-        <v>1.533</v>
-      </c>
-      <c r="N152">
-        <v>5.25</v>
-      </c>
-      <c r="O152">
-        <v>4.2</v>
-      </c>
-      <c r="P152">
-        <v>1.6</v>
-      </c>
-      <c r="Q152">
-        <v>1</v>
-      </c>
-      <c r="R152">
-        <v>1.84</v>
-      </c>
-      <c r="S152">
-        <v>2.06</v>
-      </c>
-      <c r="T152">
+      <c r="U152">
+        <v>1.93</v>
+      </c>
+      <c r="V152">
+        <v>1.97</v>
+      </c>
+      <c r="W152">
+        <v>-1</v>
+      </c>
+      <c r="X152">
+        <v>-1</v>
+      </c>
+      <c r="Y152">
         <v>3</v>
       </c>
-      <c r="U152">
-        <v>1.95</v>
-      </c>
-      <c r="V152">
-        <v>1.95</v>
-      </c>
-      <c r="W152">
-        <v>4.25</v>
-      </c>
-      <c r="X152">
-        <v>-1</v>
-      </c>
-      <c r="Y152">
-        <v>-1</v>
-      </c>
       <c r="Z152">
-        <v>0.8400000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA152">
-        <v>-1</v>
+        <v>0.8200000000000001</v>
       </c>
       <c r="AB152">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC152">
-        <v>-1</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="153" spans="1:29">
@@ -14076,7 +14076,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>5461881</v>
+        <v>5470775</v>
       </c>
       <c r="C153" t="s">
         <v>28</v>
@@ -14088,76 +14088,76 @@
         <v>45041.60416666666</v>
       </c>
       <c r="F153" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G153" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I153">
+        <v>2</v>
+      </c>
+      <c r="J153" t="s">
+        <v>53</v>
+      </c>
+      <c r="K153">
+        <v>6</v>
+      </c>
+      <c r="L153">
+        <v>4</v>
+      </c>
+      <c r="M153">
+        <v>1.533</v>
+      </c>
+      <c r="N153">
+        <v>5.25</v>
+      </c>
+      <c r="O153">
+        <v>4.2</v>
+      </c>
+      <c r="P153">
+        <v>1.6</v>
+      </c>
+      <c r="Q153">
         <v>1</v>
       </c>
-      <c r="J153" t="s">
-        <v>52</v>
-      </c>
-      <c r="K153">
-        <v>2.3</v>
-      </c>
-      <c r="L153">
-        <v>3.2</v>
-      </c>
-      <c r="M153">
-        <v>3.2</v>
-      </c>
-      <c r="N153">
-        <v>2.05</v>
-      </c>
-      <c r="O153">
-        <v>3.2</v>
-      </c>
-      <c r="P153">
-        <v>4</v>
-      </c>
-      <c r="Q153">
-        <v>-0.5</v>
-      </c>
       <c r="R153">
-        <v>2.08</v>
+        <v>1.84</v>
       </c>
       <c r="S153">
-        <v>1.82</v>
+        <v>2.06</v>
       </c>
       <c r="T153">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U153">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="V153">
-        <v>1.97</v>
+        <v>1.95</v>
       </c>
       <c r="W153">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="X153">
         <v>-1</v>
       </c>
       <c r="Y153">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z153">
-        <v>-1</v>
+        <v>0.8400000000000001</v>
       </c>
       <c r="AA153">
-        <v>0.8200000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB153">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC153">
-        <v>0.97</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="154" spans="1:29">
@@ -14254,7 +14254,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>5475945</v>
+        <v>5471430</v>
       </c>
       <c r="C155" t="s">
         <v>28</v>
@@ -14266,73 +14266,73 @@
         <v>45042.60416666666</v>
       </c>
       <c r="F155" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="G155" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H155">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I155">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J155" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K155">
-        <v>1.363</v>
+        <v>1.95</v>
       </c>
       <c r="L155">
+        <v>3.4</v>
+      </c>
+      <c r="M155">
+        <v>3.8</v>
+      </c>
+      <c r="N155">
+        <v>1.85</v>
+      </c>
+      <c r="O155">
+        <v>3.5</v>
+      </c>
+      <c r="P155">
         <v>4.5</v>
       </c>
-      <c r="M155">
-        <v>9</v>
-      </c>
-      <c r="N155">
-        <v>1.3</v>
-      </c>
-      <c r="O155">
-        <v>4.75</v>
-      </c>
-      <c r="P155">
-        <v>12</v>
-      </c>
       <c r="Q155">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R155">
-        <v>2.04</v>
+        <v>1.88</v>
       </c>
       <c r="S155">
-        <v>1.86</v>
+        <v>2.02</v>
       </c>
       <c r="T155">
         <v>2.25</v>
       </c>
       <c r="U155">
-        <v>1.87</v>
+        <v>2</v>
       </c>
       <c r="V155">
-        <v>2.03</v>
+        <v>1.9</v>
       </c>
       <c r="W155">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="X155">
         <v>-1</v>
       </c>
       <c r="Y155">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Z155">
-        <v>1.04</v>
+        <v>-1</v>
       </c>
       <c r="AA155">
-        <v>-1</v>
+        <v>1.02</v>
       </c>
       <c r="AB155">
-        <v>0.8700000000000001</v>
+        <v>1</v>
       </c>
       <c r="AC155">
         <v>-1</v>
@@ -14343,7 +14343,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>5471430</v>
+        <v>5475945</v>
       </c>
       <c r="C156" t="s">
         <v>28</v>
@@ -14355,73 +14355,73 @@
         <v>45042.60416666666</v>
       </c>
       <c r="F156" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G156" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H156">
+        <v>3</v>
+      </c>
+      <c r="I156">
         <v>1</v>
       </c>
-      <c r="I156">
-        <v>2</v>
-      </c>
       <c r="J156" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K156">
-        <v>1.95</v>
+        <v>1.363</v>
       </c>
       <c r="L156">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="M156">
-        <v>3.8</v>
+        <v>9</v>
       </c>
       <c r="N156">
-        <v>1.85</v>
+        <v>1.3</v>
       </c>
       <c r="O156">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="P156">
-        <v>4.5</v>
+        <v>12</v>
       </c>
       <c r="Q156">
-        <v>-0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R156">
-        <v>1.88</v>
+        <v>2.04</v>
       </c>
       <c r="S156">
-        <v>2.02</v>
+        <v>1.86</v>
       </c>
       <c r="T156">
         <v>2.25</v>
       </c>
       <c r="U156">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="V156">
-        <v>1.9</v>
+        <v>2.03</v>
       </c>
       <c r="W156">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="X156">
         <v>-1</v>
       </c>
       <c r="Y156">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Z156">
-        <v>-1</v>
+        <v>1.04</v>
       </c>
       <c r="AA156">
-        <v>1.02</v>
+        <v>-1</v>
       </c>
       <c r="AB156">
-        <v>1</v>
+        <v>0.8700000000000001</v>
       </c>
       <c r="AC156">
         <v>-1</v>
@@ -15767,7 +15767,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>5540298</v>
+        <v>5534478</v>
       </c>
       <c r="C172" t="s">
         <v>28</v>
@@ -15779,58 +15779,58 @@
         <v>45048.60416666666</v>
       </c>
       <c r="F172" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="G172" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="H172">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I172">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J172" t="s">
         <v>53</v>
       </c>
       <c r="K172">
-        <v>1.65</v>
+        <v>1.25</v>
       </c>
       <c r="L172">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="M172">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="N172">
-        <v>1.727</v>
+        <v>1.166</v>
       </c>
       <c r="O172">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="P172">
-        <v>4.5</v>
+        <v>15</v>
       </c>
       <c r="Q172">
-        <v>-0.75</v>
+        <v>-2</v>
       </c>
       <c r="R172">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="S172">
-        <v>1.98</v>
+        <v>2.05</v>
       </c>
       <c r="T172">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U172">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V172">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="W172">
-        <v>0.7270000000000001</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X172">
         <v>-1</v>
@@ -15839,16 +15839,16 @@
         <v>-1</v>
       </c>
       <c r="Z172">
-        <v>0.46</v>
+        <v>-1</v>
       </c>
       <c r="AA172">
-        <v>-0.5</v>
+        <v>1.05</v>
       </c>
       <c r="AB172">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC172">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="173" spans="1:29">
@@ -15856,7 +15856,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>5534478</v>
+        <v>5540298</v>
       </c>
       <c r="C173" t="s">
         <v>28</v>
@@ -15868,58 +15868,58 @@
         <v>45048.60416666666</v>
       </c>
       <c r="F173" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="G173" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="H173">
+        <v>2</v>
+      </c>
+      <c r="I173">
         <v>1</v>
-      </c>
-      <c r="I173">
-        <v>0</v>
       </c>
       <c r="J173" t="s">
         <v>53</v>
       </c>
       <c r="K173">
-        <v>1.25</v>
+        <v>1.65</v>
       </c>
       <c r="L173">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="M173">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="N173">
-        <v>1.166</v>
+        <v>1.727</v>
       </c>
       <c r="O173">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="P173">
-        <v>15</v>
+        <v>4.5</v>
       </c>
       <c r="Q173">
-        <v>-2</v>
+        <v>-0.75</v>
       </c>
       <c r="R173">
-        <v>1.85</v>
+        <v>1.92</v>
       </c>
       <c r="S173">
-        <v>2.05</v>
+        <v>1.98</v>
       </c>
       <c r="T173">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U173">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V173">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="W173">
-        <v>0.1659999999999999</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X173">
         <v>-1</v>
@@ -15928,16 +15928,16 @@
         <v>-1</v>
       </c>
       <c r="Z173">
-        <v>-1</v>
+        <v>0.46</v>
       </c>
       <c r="AA173">
-        <v>1.05</v>
+        <v>-0.5</v>
       </c>
       <c r="AB173">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC173">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="174" spans="1:29">
@@ -16123,7 +16123,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>5534214</v>
+        <v>5549244</v>
       </c>
       <c r="C176" t="s">
         <v>28</v>
@@ -16135,58 +16135,58 @@
         <v>45049.70833333334</v>
       </c>
       <c r="F176" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G176" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H176">
+        <v>5</v>
+      </c>
+      <c r="I176">
         <v>1</v>
-      </c>
-      <c r="I176">
-        <v>0</v>
       </c>
       <c r="J176" t="s">
         <v>53</v>
       </c>
       <c r="K176">
-        <v>2.55</v>
+        <v>1.3</v>
       </c>
       <c r="L176">
+        <v>5.5</v>
+      </c>
+      <c r="M176">
+        <v>10</v>
+      </c>
+      <c r="N176">
+        <v>1.333</v>
+      </c>
+      <c r="O176">
+        <v>5.25</v>
+      </c>
+      <c r="P176">
+        <v>9.5</v>
+      </c>
+      <c r="Q176">
+        <v>-1.5</v>
+      </c>
+      <c r="R176">
+        <v>1.95</v>
+      </c>
+      <c r="S176">
+        <v>1.95</v>
+      </c>
+      <c r="T176">
         <v>3</v>
       </c>
-      <c r="M176">
-        <v>3</v>
-      </c>
-      <c r="N176">
-        <v>2.8</v>
-      </c>
-      <c r="O176">
-        <v>2.9</v>
-      </c>
-      <c r="P176">
-        <v>2.875</v>
-      </c>
-      <c r="Q176">
-        <v>0</v>
-      </c>
-      <c r="R176">
-        <v>1.9</v>
-      </c>
-      <c r="S176">
-        <v>2</v>
-      </c>
-      <c r="T176">
-        <v>1.75</v>
-      </c>
       <c r="U176">
-        <v>1.86</v>
+        <v>2.07</v>
       </c>
       <c r="V176">
-        <v>2.04</v>
+        <v>1.83</v>
       </c>
       <c r="W176">
-        <v>1.8</v>
+        <v>0.333</v>
       </c>
       <c r="X176">
         <v>-1</v>
@@ -16195,16 +16195,16 @@
         <v>-1</v>
       </c>
       <c r="Z176">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AA176">
         <v>-1</v>
       </c>
       <c r="AB176">
-        <v>-1</v>
+        <v>1.07</v>
       </c>
       <c r="AC176">
-        <v>1.04</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="177" spans="1:29">
@@ -16212,7 +16212,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>5549244</v>
+        <v>5534214</v>
       </c>
       <c r="C177" t="s">
         <v>28</v>
@@ -16224,58 +16224,58 @@
         <v>45049.70833333334</v>
       </c>
       <c r="F177" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="G177" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H177">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I177">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J177" t="s">
         <v>53</v>
       </c>
       <c r="K177">
-        <v>1.3</v>
+        <v>2.55</v>
       </c>
       <c r="L177">
-        <v>5.5</v>
+        <v>3</v>
       </c>
       <c r="M177">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="N177">
-        <v>1.333</v>
+        <v>2.8</v>
       </c>
       <c r="O177">
-        <v>5.25</v>
+        <v>2.9</v>
       </c>
       <c r="P177">
-        <v>9.5</v>
+        <v>2.875</v>
       </c>
       <c r="Q177">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="R177">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S177">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T177">
-        <v>3</v>
+        <v>1.75</v>
       </c>
       <c r="U177">
-        <v>2.07</v>
+        <v>1.86</v>
       </c>
       <c r="V177">
-        <v>1.83</v>
+        <v>2.04</v>
       </c>
       <c r="W177">
-        <v>0.333</v>
+        <v>1.8</v>
       </c>
       <c r="X177">
         <v>-1</v>
@@ -16284,16 +16284,16 @@
         <v>-1</v>
       </c>
       <c r="Z177">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA177">
         <v>-1</v>
       </c>
       <c r="AB177">
-        <v>1.07</v>
+        <v>-1</v>
       </c>
       <c r="AC177">
-        <v>-1</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="178" spans="1:29">
@@ -16301,7 +16301,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>5545333</v>
+        <v>5534213</v>
       </c>
       <c r="C178" t="s">
         <v>28</v>
@@ -16313,58 +16313,58 @@
         <v>45050.60416666666</v>
       </c>
       <c r="F178" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G178" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H178">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I178">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J178" t="s">
         <v>53</v>
       </c>
       <c r="K178">
+        <v>2.2</v>
+      </c>
+      <c r="L178">
+        <v>3.2</v>
+      </c>
+      <c r="M178">
+        <v>3.4</v>
+      </c>
+      <c r="N178">
         <v>1.909</v>
       </c>
-      <c r="L178">
-        <v>3.5</v>
-      </c>
-      <c r="M178">
-        <v>4</v>
-      </c>
-      <c r="N178">
-        <v>1.8</v>
-      </c>
       <c r="O178">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="P178">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="Q178">
         <v>-0.5</v>
       </c>
       <c r="R178">
-        <v>1.88</v>
+        <v>1.92</v>
       </c>
       <c r="S178">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="T178">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U178">
-        <v>1.98</v>
+        <v>1.86</v>
       </c>
       <c r="V178">
-        <v>1.92</v>
+        <v>2.04</v>
       </c>
       <c r="W178">
-        <v>0.8</v>
+        <v>0.909</v>
       </c>
       <c r="X178">
         <v>-1</v>
@@ -16373,13 +16373,13 @@
         <v>-1</v>
       </c>
       <c r="Z178">
-        <v>0.8799999999999999</v>
+        <v>0.9199999999999999</v>
       </c>
       <c r="AA178">
         <v>-1</v>
       </c>
       <c r="AB178">
-        <v>0.98</v>
+        <v>0.8600000000000001</v>
       </c>
       <c r="AC178">
         <v>-1</v>
@@ -16390,7 +16390,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>5534213</v>
+        <v>5545333</v>
       </c>
       <c r="C179" t="s">
         <v>28</v>
@@ -16402,58 +16402,58 @@
         <v>45050.60416666666</v>
       </c>
       <c r="F179" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G179" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H179">
+        <v>3</v>
+      </c>
+      <c r="I179">
         <v>2</v>
-      </c>
-      <c r="I179">
-        <v>1</v>
       </c>
       <c r="J179" t="s">
         <v>53</v>
       </c>
       <c r="K179">
-        <v>2.2</v>
+        <v>1.909</v>
       </c>
       <c r="L179">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M179">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="N179">
-        <v>1.909</v>
+        <v>1.8</v>
       </c>
       <c r="O179">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="P179">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="Q179">
         <v>-0.5</v>
       </c>
       <c r="R179">
+        <v>1.88</v>
+      </c>
+      <c r="S179">
+        <v>2.02</v>
+      </c>
+      <c r="T179">
+        <v>2.5</v>
+      </c>
+      <c r="U179">
+        <v>1.98</v>
+      </c>
+      <c r="V179">
         <v>1.92</v>
       </c>
-      <c r="S179">
-        <v>1.98</v>
-      </c>
-      <c r="T179">
-        <v>2</v>
-      </c>
-      <c r="U179">
-        <v>1.86</v>
-      </c>
-      <c r="V179">
-        <v>2.04</v>
-      </c>
       <c r="W179">
-        <v>0.909</v>
+        <v>0.8</v>
       </c>
       <c r="X179">
         <v>-1</v>
@@ -16462,13 +16462,13 @@
         <v>-1</v>
       </c>
       <c r="Z179">
-        <v>0.9199999999999999</v>
+        <v>0.8799999999999999</v>
       </c>
       <c r="AA179">
         <v>-1</v>
       </c>
       <c r="AB179">
-        <v>0.8600000000000001</v>
+        <v>0.98</v>
       </c>
       <c r="AC179">
         <v>-1</v>
@@ -16479,7 +16479,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>5549243</v>
+        <v>5540274</v>
       </c>
       <c r="C180" t="s">
         <v>28</v>
@@ -16491,76 +16491,76 @@
         <v>45050.70833333334</v>
       </c>
       <c r="F180" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G180" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I180">
         <v>1</v>
       </c>
       <c r="J180" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K180">
-        <v>1.615</v>
+        <v>1.65</v>
       </c>
       <c r="L180">
         <v>3.8</v>
       </c>
       <c r="M180">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="N180">
-        <v>1.615</v>
+        <v>1.909</v>
       </c>
       <c r="O180">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P180">
-        <v>5.5</v>
+        <v>3.8</v>
       </c>
       <c r="Q180">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R180">
-        <v>1.82</v>
+        <v>1.95</v>
       </c>
       <c r="S180">
-        <v>2.08</v>
+        <v>1.95</v>
       </c>
       <c r="T180">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U180">
-        <v>1.87</v>
+        <v>2</v>
       </c>
       <c r="V180">
-        <v>2.03</v>
+        <v>1.9</v>
       </c>
       <c r="W180">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X180">
         <v>-1</v>
       </c>
       <c r="Y180">
-        <v>4.5</v>
+        <v>-1</v>
       </c>
       <c r="Z180">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA180">
-        <v>1.08</v>
+        <v>-1</v>
       </c>
       <c r="AB180">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC180">
-        <v>1.03</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="181" spans="1:29">
@@ -16568,7 +16568,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>5540274</v>
+        <v>5549243</v>
       </c>
       <c r="C181" t="s">
         <v>28</v>
@@ -16580,76 +16580,76 @@
         <v>45050.70833333334</v>
       </c>
       <c r="F181" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G181" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="H181">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I181">
         <v>1</v>
       </c>
       <c r="J181" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K181">
-        <v>1.65</v>
+        <v>1.615</v>
       </c>
       <c r="L181">
         <v>3.8</v>
       </c>
       <c r="M181">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="N181">
-        <v>1.909</v>
+        <v>1.615</v>
       </c>
       <c r="O181">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P181">
-        <v>3.8</v>
+        <v>5.5</v>
       </c>
       <c r="Q181">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R181">
-        <v>1.95</v>
+        <v>1.82</v>
       </c>
       <c r="S181">
-        <v>1.95</v>
+        <v>2.08</v>
       </c>
       <c r="T181">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U181">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="V181">
-        <v>1.9</v>
+        <v>2.03</v>
       </c>
       <c r="W181">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X181">
         <v>-1</v>
       </c>
       <c r="Y181">
-        <v>-1</v>
+        <v>4.5</v>
       </c>
       <c r="Z181">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA181">
-        <v>-1</v>
+        <v>1.08</v>
       </c>
       <c r="AB181">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC181">
-        <v>-1</v>
+        <v>1.03</v>
       </c>
     </row>
     <row r="182" spans="1:29">
@@ -17814,7 +17814,7 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>5611042</v>
+        <v>5611043</v>
       </c>
       <c r="C195" t="s">
         <v>28</v>
@@ -17826,76 +17826,76 @@
         <v>45066.5625</v>
       </c>
       <c r="F195" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="G195" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H195">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I195">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J195" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K195">
-        <v>2.3</v>
+        <v>1.5</v>
       </c>
       <c r="L195">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="M195">
-        <v>3.2</v>
+        <v>6.5</v>
       </c>
       <c r="N195">
-        <v>2.25</v>
+        <v>1.65</v>
       </c>
       <c r="O195">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="P195">
-        <v>3.3</v>
+        <v>6</v>
       </c>
       <c r="Q195">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R195">
-        <v>1.95</v>
+        <v>1.89</v>
       </c>
       <c r="S195">
-        <v>1.95</v>
+        <v>2.01</v>
       </c>
       <c r="T195">
         <v>2.25</v>
       </c>
       <c r="U195">
-        <v>1.9</v>
+        <v>2.09</v>
       </c>
       <c r="V195">
-        <v>2</v>
+        <v>1.81</v>
       </c>
       <c r="W195">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X195">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y195">
         <v>-1</v>
       </c>
       <c r="Z195">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA195">
-        <v>-1</v>
+        <v>1.01</v>
       </c>
       <c r="AB195">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AC195">
-        <v>-1</v>
+        <v>0.405</v>
       </c>
     </row>
     <row r="196" spans="1:29">
@@ -17903,7 +17903,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>5611043</v>
+        <v>5611042</v>
       </c>
       <c r="C196" t="s">
         <v>28</v>
@@ -17915,76 +17915,76 @@
         <v>45066.5625</v>
       </c>
       <c r="F196" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="G196" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H196">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I196">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J196" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K196">
-        <v>1.5</v>
+        <v>2.3</v>
       </c>
       <c r="L196">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="M196">
-        <v>6.5</v>
+        <v>3.2</v>
       </c>
       <c r="N196">
-        <v>1.65</v>
+        <v>2.25</v>
       </c>
       <c r="O196">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="P196">
-        <v>6</v>
+        <v>3.3</v>
       </c>
       <c r="Q196">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R196">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="S196">
-        <v>2.01</v>
+        <v>1.95</v>
       </c>
       <c r="T196">
         <v>2.25</v>
       </c>
       <c r="U196">
-        <v>2.09</v>
+        <v>1.9</v>
       </c>
       <c r="V196">
-        <v>1.81</v>
+        <v>2</v>
       </c>
       <c r="W196">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X196">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y196">
         <v>-1</v>
       </c>
       <c r="Z196">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA196">
-        <v>1.01</v>
+        <v>-1</v>
       </c>
       <c r="AB196">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC196">
-        <v>0.405</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="197" spans="1:29">
@@ -18704,7 +18704,7 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>5638885</v>
+        <v>5634388</v>
       </c>
       <c r="C205" t="s">
         <v>28</v>
@@ -18716,58 +18716,58 @@
         <v>45070.60416666666</v>
       </c>
       <c r="F205" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="G205" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="H205">
         <v>2</v>
       </c>
       <c r="I205">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J205" t="s">
         <v>53</v>
       </c>
       <c r="K205">
-        <v>1.363</v>
+        <v>1.45</v>
       </c>
       <c r="L205">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="M205">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="N205">
-        <v>1.363</v>
+        <v>1.45</v>
       </c>
       <c r="O205">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="P205">
-        <v>7.5</v>
+        <v>6</v>
       </c>
       <c r="Q205">
-        <v>-1.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R205">
-        <v>2.06</v>
+        <v>2.07</v>
       </c>
       <c r="S205">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="T205">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U205">
-        <v>2.07</v>
+        <v>1.92</v>
       </c>
       <c r="V205">
-        <v>1.83</v>
+        <v>1.98</v>
       </c>
       <c r="W205">
-        <v>0.363</v>
+        <v>0.45</v>
       </c>
       <c r="X205">
         <v>-1</v>
@@ -18776,16 +18776,16 @@
         <v>-1</v>
       </c>
       <c r="Z205">
-        <v>-1</v>
+        <v>1.07</v>
       </c>
       <c r="AA205">
-        <v>0.8400000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB205">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC205">
-        <v>0.415</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="206" spans="1:29">
@@ -18793,7 +18793,7 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>5638809</v>
+        <v>5638885</v>
       </c>
       <c r="C206" t="s">
         <v>28</v>
@@ -18805,76 +18805,76 @@
         <v>45070.60416666666</v>
       </c>
       <c r="F206" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="G206" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H206">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I206">
         <v>1</v>
       </c>
       <c r="J206" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K206">
-        <v>3.8</v>
+        <v>1.363</v>
       </c>
       <c r="L206">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="M206">
-        <v>1.909</v>
+        <v>8</v>
       </c>
       <c r="N206">
-        <v>3.3</v>
+        <v>1.363</v>
       </c>
       <c r="O206">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="P206">
-        <v>2.15</v>
+        <v>7.5</v>
       </c>
       <c r="Q206">
-        <v>0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R206">
-        <v>1.99</v>
+        <v>2.06</v>
       </c>
       <c r="S206">
-        <v>1.94</v>
+        <v>1.84</v>
       </c>
       <c r="T206">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U206">
-        <v>1.96</v>
+        <v>2.07</v>
       </c>
       <c r="V206">
-        <v>1.94</v>
+        <v>1.83</v>
       </c>
       <c r="W206">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X206">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y206">
         <v>-1</v>
       </c>
       <c r="Z206">
-        <v>0.495</v>
+        <v>-1</v>
       </c>
       <c r="AA206">
+        <v>0.8400000000000001</v>
+      </c>
+      <c r="AB206">
         <v>-0.5</v>
       </c>
-      <c r="AB206">
-        <v>-1</v>
-      </c>
       <c r="AC206">
-        <v>0.9399999999999999</v>
+        <v>0.415</v>
       </c>
     </row>
     <row r="207" spans="1:29">
@@ -18882,7 +18882,7 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>5634388</v>
+        <v>5638809</v>
       </c>
       <c r="C207" t="s">
         <v>28</v>
@@ -18894,76 +18894,76 @@
         <v>45070.60416666666</v>
       </c>
       <c r="F207" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G207" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="H207">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I207">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J207" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K207">
-        <v>1.45</v>
+        <v>3.8</v>
       </c>
       <c r="L207">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="M207">
-        <v>6.5</v>
+        <v>1.909</v>
       </c>
       <c r="N207">
-        <v>1.45</v>
+        <v>3.3</v>
       </c>
       <c r="O207">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="P207">
-        <v>6</v>
+        <v>2.15</v>
       </c>
       <c r="Q207">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R207">
-        <v>2.07</v>
+        <v>1.99</v>
       </c>
       <c r="S207">
-        <v>1.83</v>
+        <v>1.94</v>
       </c>
       <c r="T207">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U207">
-        <v>1.92</v>
+        <v>1.96</v>
       </c>
       <c r="V207">
-        <v>1.98</v>
+        <v>1.94</v>
       </c>
       <c r="W207">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X207">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y207">
         <v>-1</v>
       </c>
       <c r="Z207">
-        <v>1.07</v>
+        <v>0.495</v>
       </c>
       <c r="AA207">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB207">
         <v>-1</v>
       </c>
       <c r="AC207">
-        <v>0.98</v>
+        <v>0.9399999999999999</v>
       </c>
     </row>
     <row r="208" spans="1:29">
@@ -19416,7 +19416,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>5705727</v>
+        <v>5705884</v>
       </c>
       <c r="C213" t="s">
         <v>28</v>
@@ -19428,73 +19428,73 @@
         <v>45074.58333333334</v>
       </c>
       <c r="F213" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="G213" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="H213">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I213">
         <v>2</v>
       </c>
       <c r="J213" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K213">
+        <v>2.2</v>
+      </c>
+      <c r="L213">
+        <v>3.5</v>
+      </c>
+      <c r="M213">
+        <v>3.1</v>
+      </c>
+      <c r="N213">
         <v>1.909</v>
       </c>
-      <c r="L213">
+      <c r="O213">
         <v>3.6</v>
       </c>
-      <c r="M213">
-        <v>3.75</v>
-      </c>
-      <c r="N213">
-        <v>2</v>
-      </c>
-      <c r="O213">
-        <v>3.5</v>
-      </c>
       <c r="P213">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="Q213">
         <v>-0.5</v>
       </c>
       <c r="R213">
-        <v>2.025</v>
+        <v>1.98</v>
       </c>
       <c r="S213">
-        <v>1.775</v>
+        <v>1.92</v>
       </c>
       <c r="T213">
         <v>2.5</v>
       </c>
       <c r="U213">
-        <v>2.07</v>
+        <v>1.99</v>
       </c>
       <c r="V213">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="W213">
         <v>-1</v>
       </c>
       <c r="X213">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y213">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Z213">
         <v>-1</v>
       </c>
       <c r="AA213">
-        <v>0.7749999999999999</v>
+        <v>0.9199999999999999</v>
       </c>
       <c r="AB213">
-        <v>1.07</v>
+        <v>0.99</v>
       </c>
       <c r="AC213">
         <v>-1</v>
@@ -19505,7 +19505,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>5705884</v>
+        <v>5705727</v>
       </c>
       <c r="C214" t="s">
         <v>28</v>
@@ -19517,73 +19517,73 @@
         <v>45074.58333333334</v>
       </c>
       <c r="F214" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="G214" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="H214">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I214">
         <v>2</v>
       </c>
       <c r="J214" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K214">
-        <v>2.2</v>
+        <v>1.909</v>
       </c>
       <c r="L214">
+        <v>3.6</v>
+      </c>
+      <c r="M214">
+        <v>3.75</v>
+      </c>
+      <c r="N214">
+        <v>2</v>
+      </c>
+      <c r="O214">
         <v>3.5</v>
       </c>
-      <c r="M214">
-        <v>3.1</v>
-      </c>
-      <c r="N214">
-        <v>1.909</v>
-      </c>
-      <c r="O214">
+      <c r="P214">
         <v>3.6</v>
-      </c>
-      <c r="P214">
-        <v>3.8</v>
       </c>
       <c r="Q214">
         <v>-0.5</v>
       </c>
       <c r="R214">
-        <v>1.98</v>
+        <v>2.025</v>
       </c>
       <c r="S214">
-        <v>1.92</v>
+        <v>1.775</v>
       </c>
       <c r="T214">
         <v>2.5</v>
       </c>
       <c r="U214">
-        <v>1.99</v>
+        <v>2.07</v>
       </c>
       <c r="V214">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="W214">
         <v>-1</v>
       </c>
       <c r="X214">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y214">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Z214">
         <v>-1</v>
       </c>
       <c r="AA214">
-        <v>0.9199999999999999</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB214">
-        <v>0.99</v>
+        <v>1.07</v>
       </c>
       <c r="AC214">
         <v>-1</v>
@@ -19594,7 +19594,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>5713343</v>
+        <v>5701613</v>
       </c>
       <c r="C215" t="s">
         <v>28</v>
@@ -19606,58 +19606,58 @@
         <v>45074.58333333334</v>
       </c>
       <c r="F215" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="G215" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="H215">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I215">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J215" t="s">
         <v>53</v>
       </c>
       <c r="K215">
-        <v>2.875</v>
+        <v>2.6</v>
       </c>
       <c r="L215">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M215">
-        <v>2.3</v>
+        <v>2.7</v>
       </c>
       <c r="N215">
-        <v>3</v>
+        <v>2.45</v>
       </c>
       <c r="O215">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="P215">
-        <v>2.2</v>
+        <v>3.1</v>
       </c>
       <c r="Q215">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R215">
-        <v>1.9</v>
+        <v>2.075</v>
       </c>
       <c r="S215">
+        <v>1.725</v>
+      </c>
+      <c r="T215">
         <v>2</v>
       </c>
-      <c r="T215">
-        <v>3</v>
-      </c>
       <c r="U215">
-        <v>2.06</v>
+        <v>1.95</v>
       </c>
       <c r="V215">
-        <v>1.84</v>
+        <v>1.95</v>
       </c>
       <c r="W215">
-        <v>2</v>
+        <v>1.45</v>
       </c>
       <c r="X215">
         <v>-1</v>
@@ -19666,16 +19666,16 @@
         <v>-1</v>
       </c>
       <c r="Z215">
-        <v>0.8999999999999999</v>
+        <v>1.075</v>
       </c>
       <c r="AA215">
         <v>-1</v>
       </c>
       <c r="AB215">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC215">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="216" spans="1:29">
@@ -19683,7 +19683,7 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>5697402</v>
+        <v>5701612</v>
       </c>
       <c r="C216" t="s">
         <v>28</v>
@@ -19695,76 +19695,76 @@
         <v>45074.58333333334</v>
       </c>
       <c r="F216" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="G216" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H216">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I216">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J216" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K216">
-        <v>2.25</v>
+        <v>1.909</v>
       </c>
       <c r="L216">
         <v>3.4</v>
       </c>
       <c r="M216">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="N216">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="O216">
-        <v>3.3</v>
+        <v>2.75</v>
       </c>
       <c r="P216">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="Q216">
         <v>-0.25</v>
       </c>
       <c r="R216">
-        <v>1.97</v>
+        <v>2.1</v>
       </c>
       <c r="S216">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="T216">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="U216">
-        <v>1.86</v>
+        <v>1.82</v>
       </c>
       <c r="V216">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="W216">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="X216">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y216">
         <v>-1</v>
       </c>
       <c r="Z216">
-        <v>-0.5</v>
+        <v>1.1</v>
       </c>
       <c r="AA216">
-        <v>0.465</v>
+        <v>-1</v>
       </c>
       <c r="AB216">
-        <v>-1</v>
+        <v>0.8200000000000001</v>
       </c>
       <c r="AC216">
-        <v>1.04</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="217" spans="1:29">
@@ -19772,7 +19772,7 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>5703047</v>
+        <v>5697402</v>
       </c>
       <c r="C217" t="s">
         <v>28</v>
@@ -19784,76 +19784,76 @@
         <v>45074.58333333334</v>
       </c>
       <c r="F217" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="G217" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="H217">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I217">
         <v>0</v>
       </c>
       <c r="J217" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K217">
-        <v>1.5</v>
+        <v>2.25</v>
       </c>
       <c r="L217">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="M217">
-        <v>6</v>
+        <v>3.1</v>
       </c>
       <c r="N217">
-        <v>1.25</v>
+        <v>2.2</v>
       </c>
       <c r="O217">
-        <v>5.75</v>
+        <v>3.3</v>
       </c>
       <c r="P217">
-        <v>12</v>
+        <v>3.3</v>
       </c>
       <c r="Q217">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R217">
-        <v>2</v>
+        <v>1.97</v>
       </c>
       <c r="S217">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="T217">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U217">
-        <v>1.93</v>
+        <v>1.86</v>
       </c>
       <c r="V217">
-        <v>1.97</v>
+        <v>2.04</v>
       </c>
       <c r="W217">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="X217">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y217">
         <v>-1</v>
       </c>
       <c r="Z217">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA217">
-        <v>-1</v>
+        <v>0.465</v>
       </c>
       <c r="AB217">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC217">
-        <v>-0</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="218" spans="1:29">
@@ -19861,7 +19861,7 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>5701613</v>
+        <v>5713343</v>
       </c>
       <c r="C218" t="s">
         <v>28</v>
@@ -19873,59 +19873,59 @@
         <v>45074.58333333334</v>
       </c>
       <c r="F218" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="G218" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="H218">
+        <v>2</v>
+      </c>
+      <c r="I218">
         <v>1</v>
-      </c>
-      <c r="I218">
-        <v>0</v>
       </c>
       <c r="J218" t="s">
         <v>53</v>
       </c>
       <c r="K218">
-        <v>2.6</v>
+        <v>2.875</v>
       </c>
       <c r="L218">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M218">
-        <v>2.7</v>
+        <v>2.3</v>
       </c>
       <c r="N218">
-        <v>2.45</v>
+        <v>3</v>
       </c>
       <c r="O218">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="P218">
-        <v>3.1</v>
+        <v>2.2</v>
       </c>
       <c r="Q218">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R218">
-        <v>2.075</v>
+        <v>1.9</v>
       </c>
       <c r="S218">
-        <v>1.725</v>
+        <v>2</v>
       </c>
       <c r="T218">
+        <v>3</v>
+      </c>
+      <c r="U218">
+        <v>2.06</v>
+      </c>
+      <c r="V218">
+        <v>1.84</v>
+      </c>
+      <c r="W218">
         <v>2</v>
       </c>
-      <c r="U218">
-        <v>1.95</v>
-      </c>
-      <c r="V218">
-        <v>1.95</v>
-      </c>
-      <c r="W218">
-        <v>1.45</v>
-      </c>
       <c r="X218">
         <v>-1</v>
       </c>
@@ -19933,16 +19933,16 @@
         <v>-1</v>
       </c>
       <c r="Z218">
-        <v>1.075</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA218">
         <v>-1</v>
       </c>
       <c r="AB218">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC218">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="219" spans="1:29">
@@ -19950,7 +19950,7 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>5701612</v>
+        <v>5703047</v>
       </c>
       <c r="C219" t="s">
         <v>28</v>
@@ -19962,58 +19962,58 @@
         <v>45074.58333333334</v>
       </c>
       <c r="F219" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G219" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="H219">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I219">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J219" t="s">
         <v>53</v>
       </c>
       <c r="K219">
-        <v>1.909</v>
+        <v>1.5</v>
       </c>
       <c r="L219">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="M219">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N219">
-        <v>2.4</v>
+        <v>1.25</v>
       </c>
       <c r="O219">
-        <v>2.75</v>
+        <v>5.75</v>
       </c>
       <c r="P219">
-        <v>3.5</v>
+        <v>12</v>
       </c>
       <c r="Q219">
-        <v>-0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R219">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="S219">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T219">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="U219">
-        <v>1.82</v>
+        <v>1.93</v>
       </c>
       <c r="V219">
-        <v>2.08</v>
+        <v>1.97</v>
       </c>
       <c r="W219">
-        <v>1.4</v>
+        <v>0.25</v>
       </c>
       <c r="X219">
         <v>-1</v>
@@ -20022,16 +20022,16 @@
         <v>-1</v>
       </c>
       <c r="Z219">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AA219">
         <v>-1</v>
       </c>
       <c r="AB219">
-        <v>0.8200000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC219">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="220" spans="1:29">
@@ -20128,7 +20128,7 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>5776610</v>
+        <v>5730415</v>
       </c>
       <c r="C221" t="s">
         <v>28</v>
@@ -20140,76 +20140,76 @@
         <v>45081.5625</v>
       </c>
       <c r="F221" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G221" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H221">
         <v>2</v>
       </c>
       <c r="I221">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J221" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K221">
+        <v>2.25</v>
+      </c>
+      <c r="L221">
+        <v>3.5</v>
+      </c>
+      <c r="M221">
+        <v>3</v>
+      </c>
+      <c r="N221">
+        <v>2.05</v>
+      </c>
+      <c r="O221">
+        <v>3.6</v>
+      </c>
+      <c r="P221">
+        <v>3.25</v>
+      </c>
+      <c r="Q221">
+        <v>-0.25</v>
+      </c>
+      <c r="R221">
+        <v>1.85</v>
+      </c>
+      <c r="S221">
+        <v>2.05</v>
+      </c>
+      <c r="T221">
         <v>2.75</v>
       </c>
-      <c r="L221">
-        <v>3.4</v>
-      </c>
-      <c r="M221">
-        <v>2.45</v>
-      </c>
-      <c r="N221">
-        <v>2.625</v>
-      </c>
-      <c r="O221">
-        <v>3.75</v>
-      </c>
-      <c r="P221">
-        <v>2.45</v>
-      </c>
-      <c r="Q221">
-        <v>0</v>
-      </c>
-      <c r="R221">
-        <v>2.04</v>
-      </c>
-      <c r="S221">
-        <v>1.86</v>
-      </c>
-      <c r="T221">
-        <v>3.25</v>
-      </c>
       <c r="U221">
+        <v>2.02</v>
+      </c>
+      <c r="V221">
         <v>1.88</v>
       </c>
-      <c r="V221">
-        <v>2.02</v>
-      </c>
       <c r="W221">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X221">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y221">
         <v>-1</v>
       </c>
       <c r="Z221">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA221">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB221">
-        <v>0.8799999999999999</v>
+        <v>0.51</v>
       </c>
       <c r="AC221">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="222" spans="1:29">
@@ -20217,7 +20217,7 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>5734136</v>
+        <v>5732767</v>
       </c>
       <c r="C222" t="s">
         <v>28</v>
@@ -20229,76 +20229,76 @@
         <v>45081.5625</v>
       </c>
       <c r="F222" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="G222" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H222">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I222">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J222" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K222">
-        <v>1.95</v>
+        <v>3.4</v>
       </c>
       <c r="L222">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M222">
-        <v>3.6</v>
+        <v>2.15</v>
       </c>
       <c r="N222">
-        <v>1.65</v>
+        <v>3</v>
       </c>
       <c r="O222">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="P222">
-        <v>4.75</v>
+        <v>2.45</v>
       </c>
       <c r="Q222">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R222">
-        <v>1.84</v>
+        <v>1.8</v>
       </c>
       <c r="S222">
-        <v>2.06</v>
+        <v>2.14</v>
       </c>
       <c r="T222">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U222">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="V222">
+        <v>2.01</v>
+      </c>
+      <c r="W222">
         <v>2</v>
       </c>
-      <c r="W222">
-        <v>-1</v>
-      </c>
       <c r="X222">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y222">
         <v>-1</v>
       </c>
       <c r="Z222">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA222">
-        <v>1.06</v>
+        <v>-1</v>
       </c>
       <c r="AB222">
-        <v>-1</v>
+        <v>0.8899999999999999</v>
       </c>
       <c r="AC222">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="223" spans="1:29">
@@ -20306,7 +20306,7 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>5732767</v>
+        <v>5734136</v>
       </c>
       <c r="C223" t="s">
         <v>28</v>
@@ -20318,76 +20318,76 @@
         <v>45081.5625</v>
       </c>
       <c r="F223" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="G223" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H223">
+        <v>1</v>
+      </c>
+      <c r="I223">
+        <v>1</v>
+      </c>
+      <c r="J223" t="s">
+        <v>54</v>
+      </c>
+      <c r="K223">
+        <v>1.95</v>
+      </c>
+      <c r="L223">
+        <v>3.6</v>
+      </c>
+      <c r="M223">
+        <v>3.6</v>
+      </c>
+      <c r="N223">
+        <v>1.65</v>
+      </c>
+      <c r="O223">
+        <v>4</v>
+      </c>
+      <c r="P223">
+        <v>4.75</v>
+      </c>
+      <c r="Q223">
+        <v>-0.75</v>
+      </c>
+      <c r="R223">
+        <v>1.84</v>
+      </c>
+      <c r="S223">
+        <v>2.06</v>
+      </c>
+      <c r="T223">
         <v>3</v>
       </c>
-      <c r="I223">
-        <v>0</v>
-      </c>
-      <c r="J223" t="s">
-        <v>53</v>
-      </c>
-      <c r="K223">
-        <v>3.4</v>
-      </c>
-      <c r="L223">
-        <v>3.3</v>
-      </c>
-      <c r="M223">
-        <v>2.15</v>
-      </c>
-      <c r="N223">
+      <c r="U223">
+        <v>1.9</v>
+      </c>
+      <c r="V223">
+        <v>2</v>
+      </c>
+      <c r="W223">
+        <v>-1</v>
+      </c>
+      <c r="X223">
         <v>3</v>
       </c>
-      <c r="O223">
-        <v>3.2</v>
-      </c>
-      <c r="P223">
-        <v>2.45</v>
-      </c>
-      <c r="Q223">
-        <v>0.25</v>
-      </c>
-      <c r="R223">
-        <v>1.8</v>
-      </c>
-      <c r="S223">
-        <v>2.14</v>
-      </c>
-      <c r="T223">
-        <v>2</v>
-      </c>
-      <c r="U223">
-        <v>1.89</v>
-      </c>
-      <c r="V223">
-        <v>2.01</v>
-      </c>
-      <c r="W223">
-        <v>2</v>
-      </c>
-      <c r="X223">
-        <v>-1</v>
-      </c>
       <c r="Y223">
         <v>-1</v>
       </c>
       <c r="Z223">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA223">
-        <v>-1</v>
+        <v>1.06</v>
       </c>
       <c r="AB223">
-        <v>0.8899999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC223">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="224" spans="1:29">
@@ -20395,7 +20395,7 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>5730415</v>
+        <v>5776609</v>
       </c>
       <c r="C224" t="s">
         <v>28</v>
@@ -20407,10 +20407,10 @@
         <v>45081.5625</v>
       </c>
       <c r="F224" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G224" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H224">
         <v>2</v>
@@ -20425,40 +20425,40 @@
         <v>2.25</v>
       </c>
       <c r="L224">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M224">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="N224">
-        <v>2.05</v>
+        <v>1.571</v>
       </c>
       <c r="O224">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P224">
-        <v>3.25</v>
+        <v>5.75</v>
       </c>
       <c r="Q224">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R224">
-        <v>1.85</v>
+        <v>2.01</v>
       </c>
       <c r="S224">
-        <v>2.05</v>
+        <v>1.89</v>
       </c>
       <c r="T224">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U224">
-        <v>2.02</v>
+        <v>1.89</v>
       </c>
       <c r="V224">
-        <v>1.88</v>
+        <v>2.01</v>
       </c>
       <c r="W224">
-        <v>1.05</v>
+        <v>0.571</v>
       </c>
       <c r="X224">
         <v>-1</v>
@@ -20467,16 +20467,16 @@
         <v>-1</v>
       </c>
       <c r="Z224">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA224">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB224">
-        <v>0.51</v>
+        <v>0.8899999999999999</v>
       </c>
       <c r="AC224">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="225" spans="1:29">
@@ -20484,7 +20484,7 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>5776609</v>
+        <v>5776610</v>
       </c>
       <c r="C225" t="s">
         <v>28</v>
@@ -20496,61 +20496,61 @@
         <v>45081.5625</v>
       </c>
       <c r="F225" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="G225" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H225">
         <v>2</v>
       </c>
       <c r="I225">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J225" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K225">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="L225">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M225">
-        <v>2.9</v>
+        <v>2.45</v>
       </c>
       <c r="N225">
-        <v>1.571</v>
+        <v>2.625</v>
       </c>
       <c r="O225">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P225">
-        <v>5.75</v>
+        <v>2.45</v>
       </c>
       <c r="Q225">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R225">
-        <v>2.01</v>
+        <v>2.04</v>
       </c>
       <c r="S225">
-        <v>1.89</v>
+        <v>1.86</v>
       </c>
       <c r="T225">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U225">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="V225">
-        <v>2.01</v>
+        <v>2.02</v>
       </c>
       <c r="W225">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X225">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y225">
         <v>-1</v>
@@ -20562,7 +20562,7 @@
         <v>-0</v>
       </c>
       <c r="AB225">
-        <v>0.8899999999999999</v>
+        <v>0.8799999999999999</v>
       </c>
       <c r="AC225">
         <v>-1</v>
@@ -20573,7 +20573,7 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>5732768</v>
+        <v>5734498</v>
       </c>
       <c r="C226" t="s">
         <v>28</v>
@@ -20585,76 +20585,76 @@
         <v>45081.66666666666</v>
       </c>
       <c r="F226" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G226" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="H226">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I226">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J226" t="s">
         <v>54</v>
       </c>
       <c r="K226">
-        <v>3.5</v>
+        <v>2.1</v>
       </c>
       <c r="L226">
+        <v>3.4</v>
+      </c>
+      <c r="M226">
+        <v>3.4</v>
+      </c>
+      <c r="N226">
+        <v>2.05</v>
+      </c>
+      <c r="O226">
+        <v>3.3</v>
+      </c>
+      <c r="P226">
         <v>4</v>
       </c>
-      <c r="M226">
-        <v>1.909</v>
-      </c>
-      <c r="N226">
-        <v>2.4</v>
-      </c>
-      <c r="O226">
-        <v>3.75</v>
-      </c>
-      <c r="P226">
-        <v>2.75</v>
-      </c>
       <c r="Q226">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R226">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="S226">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="T226">
-        <v>3.25</v>
+        <v>2</v>
       </c>
       <c r="U226">
-        <v>2.1</v>
+        <v>1.82</v>
       </c>
       <c r="V226">
-        <v>1.8</v>
+        <v>2.08</v>
       </c>
       <c r="W226">
         <v>-1</v>
       </c>
       <c r="X226">
-        <v>2.75</v>
+        <v>2.3</v>
       </c>
       <c r="Y226">
         <v>-1</v>
       </c>
       <c r="Z226">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA226">
-        <v>0.415</v>
+        <v>0.8200000000000001</v>
       </c>
       <c r="AB226">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="AC226">
-        <v>-1</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="227" spans="1:29">
@@ -20662,7 +20662,7 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>5738382</v>
+        <v>5737343</v>
       </c>
       <c r="C227" t="s">
         <v>28</v>
@@ -20674,76 +20674,76 @@
         <v>45081.66666666666</v>
       </c>
       <c r="F227" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="G227" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H227">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I227">
         <v>1</v>
       </c>
       <c r="J227" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K227">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="L227">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M227">
-        <v>2.2</v>
+        <v>2.6</v>
       </c>
       <c r="N227">
-        <v>2.7</v>
+        <v>2.45</v>
       </c>
       <c r="O227">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P227">
-        <v>2.45</v>
+        <v>2.875</v>
       </c>
       <c r="Q227">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R227">
-        <v>2.06</v>
+        <v>2.05</v>
       </c>
       <c r="S227">
-        <v>1.84</v>
+        <v>1.75</v>
       </c>
       <c r="T227">
         <v>2.5</v>
       </c>
       <c r="U227">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="V227">
-        <v>1.95</v>
+        <v>1.99</v>
       </c>
       <c r="W227">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X227">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y227">
         <v>-1</v>
       </c>
       <c r="Z227">
-        <v>1.06</v>
+        <v>-0.5</v>
       </c>
       <c r="AA227">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
       <c r="AB227">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC227">
-        <v>-1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="228" spans="1:29">
@@ -20751,7 +20751,7 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>5734498</v>
+        <v>5738382</v>
       </c>
       <c r="C228" t="s">
         <v>28</v>
@@ -20763,76 +20763,76 @@
         <v>45081.66666666666</v>
       </c>
       <c r="F228" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G228" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H228">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I228">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J228" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K228">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="L228">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M228">
-        <v>3.4</v>
+        <v>2.2</v>
       </c>
       <c r="N228">
-        <v>2.05</v>
+        <v>2.7</v>
       </c>
       <c r="O228">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P228">
-        <v>4</v>
+        <v>2.45</v>
       </c>
       <c r="Q228">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R228">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="S228">
-        <v>1.82</v>
+        <v>1.84</v>
       </c>
       <c r="T228">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U228">
-        <v>1.82</v>
+        <v>1.95</v>
       </c>
       <c r="V228">
-        <v>2.08</v>
+        <v>1.95</v>
       </c>
       <c r="W228">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X228">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y228">
         <v>-1</v>
       </c>
       <c r="Z228">
-        <v>-1</v>
+        <v>1.06</v>
       </c>
       <c r="AA228">
-        <v>0.8200000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB228">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC228">
-        <v>1.08</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="229" spans="1:29">
@@ -20840,7 +20840,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>5737343</v>
+        <v>5732768</v>
       </c>
       <c r="C229" t="s">
         <v>28</v>
@@ -20852,61 +20852,61 @@
         <v>45081.66666666666</v>
       </c>
       <c r="F229" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G229" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="H229">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I229">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J229" t="s">
         <v>54</v>
       </c>
       <c r="K229">
-        <v>2.6</v>
+        <v>3.5</v>
       </c>
       <c r="L229">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M229">
-        <v>2.6</v>
+        <v>1.909</v>
       </c>
       <c r="N229">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="O229">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="P229">
-        <v>2.875</v>
+        <v>2.75</v>
       </c>
       <c r="Q229">
         <v>-0.25</v>
       </c>
       <c r="R229">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="S229">
-        <v>1.75</v>
+        <v>1.83</v>
       </c>
       <c r="T229">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U229">
-        <v>1.91</v>
+        <v>2.1</v>
       </c>
       <c r="V229">
-        <v>1.99</v>
+        <v>1.8</v>
       </c>
       <c r="W229">
         <v>-1</v>
       </c>
       <c r="X229">
-        <v>2.3</v>
+        <v>2.75</v>
       </c>
       <c r="Y229">
         <v>-1</v>
@@ -20915,13 +20915,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA229">
-        <v>0.375</v>
+        <v>0.415</v>
       </c>
       <c r="AB229">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="AC229">
-        <v>0.99</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="230" spans="1:29">
@@ -26536,7 +26536,7 @@
         <v>291</v>
       </c>
       <c r="B293">
-        <v>6809222</v>
+        <v>6809386</v>
       </c>
       <c r="C293" t="s">
         <v>28</v>
@@ -26548,76 +26548,76 @@
         <v>45196.58333333334</v>
       </c>
       <c r="F293" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="G293" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="H293">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I293">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J293" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K293">
-        <v>1.909</v>
+        <v>1.285</v>
       </c>
       <c r="L293">
-        <v>3.6</v>
+        <v>6</v>
       </c>
       <c r="M293">
-        <v>3.75</v>
+        <v>8</v>
       </c>
       <c r="N293">
-        <v>2.15</v>
+        <v>1.166</v>
       </c>
       <c r="O293">
-        <v>3.75</v>
+        <v>8</v>
       </c>
       <c r="P293">
+        <v>15</v>
+      </c>
+      <c r="Q293">
+        <v>-2</v>
+      </c>
+      <c r="R293">
+        <v>1.85</v>
+      </c>
+      <c r="S293">
+        <v>2.05</v>
+      </c>
+      <c r="T293">
         <v>3.25</v>
       </c>
-      <c r="Q293">
-        <v>-0.25</v>
-      </c>
-      <c r="R293">
-        <v>1.87</v>
-      </c>
-      <c r="S293">
-        <v>2.06</v>
-      </c>
-      <c r="T293">
-        <v>3</v>
-      </c>
       <c r="U293">
-        <v>2.02</v>
+        <v>1.99</v>
       </c>
       <c r="V293">
-        <v>1.88</v>
+        <v>1.91</v>
       </c>
       <c r="W293">
-        <v>-1</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X293">
         <v>-1</v>
       </c>
       <c r="Y293">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Z293">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA293">
-        <v>1.06</v>
+        <v>-0</v>
       </c>
       <c r="AB293">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC293">
-        <v>-0</v>
+        <v>0.9099999999999999</v>
       </c>
     </row>
     <row r="294" spans="1:29">
@@ -26625,7 +26625,7 @@
         <v>292</v>
       </c>
       <c r="B294">
-        <v>6809386</v>
+        <v>6809222</v>
       </c>
       <c r="C294" t="s">
         <v>28</v>
@@ -26637,76 +26637,76 @@
         <v>45196.58333333334</v>
       </c>
       <c r="F294" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="G294" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="H294">
+        <v>1</v>
+      </c>
+      <c r="I294">
         <v>2</v>
       </c>
-      <c r="I294">
-        <v>0</v>
-      </c>
       <c r="J294" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K294">
-        <v>1.285</v>
+        <v>1.909</v>
       </c>
       <c r="L294">
-        <v>6</v>
+        <v>3.6</v>
       </c>
       <c r="M294">
-        <v>8</v>
+        <v>3.75</v>
       </c>
       <c r="N294">
-        <v>1.166</v>
+        <v>2.15</v>
       </c>
       <c r="O294">
-        <v>8</v>
+        <v>3.75</v>
       </c>
       <c r="P294">
-        <v>15</v>
+        <v>3.25</v>
       </c>
       <c r="Q294">
-        <v>-2</v>
+        <v>-0.25</v>
       </c>
       <c r="R294">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="S294">
-        <v>2.05</v>
+        <v>2.06</v>
       </c>
       <c r="T294">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U294">
-        <v>1.99</v>
+        <v>2.02</v>
       </c>
       <c r="V294">
-        <v>1.91</v>
+        <v>1.88</v>
       </c>
       <c r="W294">
-        <v>0.1659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X294">
         <v>-1</v>
       </c>
       <c r="Y294">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Z294">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA294">
+        <v>1.06</v>
+      </c>
+      <c r="AB294">
+        <v>0</v>
+      </c>
+      <c r="AC294">
         <v>-0</v>
-      </c>
-      <c r="AB294">
-        <v>-1</v>
-      </c>
-      <c r="AC294">
-        <v>0.9099999999999999</v>
       </c>
     </row>
     <row r="295" spans="1:29">
@@ -28672,7 +28672,7 @@
         <v>315</v>
       </c>
       <c r="B317">
-        <v>6809395</v>
+        <v>6809394</v>
       </c>
       <c r="C317" t="s">
         <v>28</v>
@@ -28684,76 +28684,76 @@
         <v>45207.5625</v>
       </c>
       <c r="F317" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="G317" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="H317">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I317">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J317" t="s">
         <v>54</v>
       </c>
       <c r="K317">
-        <v>2.8</v>
+        <v>2.1</v>
       </c>
       <c r="L317">
         <v>3.25</v>
       </c>
       <c r="M317">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="N317">
-        <v>2.45</v>
+        <v>2</v>
       </c>
       <c r="O317">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P317">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="Q317">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R317">
-        <v>2.11</v>
+        <v>2.01</v>
       </c>
       <c r="S317">
-        <v>1.79</v>
+        <v>1.89</v>
       </c>
       <c r="T317">
         <v>2.25</v>
       </c>
       <c r="U317">
-        <v>1.99</v>
+        <v>2.07</v>
       </c>
       <c r="V317">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="W317">
         <v>-1</v>
       </c>
       <c r="X317">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="Y317">
         <v>-1</v>
       </c>
       <c r="Z317">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA317">
-        <v>0.395</v>
+        <v>0.8899999999999999</v>
       </c>
       <c r="AB317">
-        <v>-0.5</v>
+        <v>1.07</v>
       </c>
       <c r="AC317">
-        <v>0.455</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="318" spans="1:29">
@@ -28761,7 +28761,7 @@
         <v>316</v>
       </c>
       <c r="B318">
-        <v>6809394</v>
+        <v>6809395</v>
       </c>
       <c r="C318" t="s">
         <v>28</v>
@@ -28773,76 +28773,76 @@
         <v>45207.5625</v>
       </c>
       <c r="F318" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="G318" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="H318">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I318">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J318" t="s">
         <v>54</v>
       </c>
       <c r="K318">
-        <v>2.1</v>
+        <v>2.8</v>
       </c>
       <c r="L318">
         <v>3.25</v>
       </c>
       <c r="M318">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="N318">
-        <v>2</v>
+        <v>2.45</v>
       </c>
       <c r="O318">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="P318">
-        <v>4.2</v>
+        <v>3</v>
       </c>
       <c r="Q318">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R318">
-        <v>2.01</v>
+        <v>2.11</v>
       </c>
       <c r="S318">
-        <v>1.89</v>
+        <v>1.79</v>
       </c>
       <c r="T318">
         <v>2.25</v>
       </c>
       <c r="U318">
-        <v>2.07</v>
+        <v>1.99</v>
       </c>
       <c r="V318">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="W318">
         <v>-1</v>
       </c>
       <c r="X318">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="Y318">
         <v>-1</v>
       </c>
       <c r="Z318">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA318">
-        <v>0.8899999999999999</v>
+        <v>0.395</v>
       </c>
       <c r="AB318">
-        <v>1.07</v>
+        <v>-0.5</v>
       </c>
       <c r="AC318">
-        <v>-1</v>
+        <v>0.455</v>
       </c>
     </row>
     <row r="319" spans="1:29">
@@ -36415,7 +36415,7 @@
         <v>402</v>
       </c>
       <c r="B404">
-        <v>6809438</v>
+        <v>6809434</v>
       </c>
       <c r="C404" t="s">
         <v>28</v>
@@ -36427,58 +36427,58 @@
         <v>45280.72916666666</v>
       </c>
       <c r="F404" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G404" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="H404">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I404">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J404" t="s">
         <v>53</v>
       </c>
       <c r="K404">
-        <v>2.15</v>
+        <v>1.4</v>
       </c>
       <c r="L404">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="M404">
-        <v>2.9</v>
+        <v>7</v>
       </c>
       <c r="N404">
-        <v>2.3</v>
+        <v>1.363</v>
       </c>
       <c r="O404">
-        <v>3.5</v>
+        <v>5.25</v>
       </c>
       <c r="P404">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="Q404">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R404">
-        <v>2.08</v>
+        <v>1.87</v>
       </c>
       <c r="S404">
-        <v>1.82</v>
+        <v>2.06</v>
       </c>
       <c r="T404">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U404">
-        <v>2.06</v>
+        <v>1.91</v>
       </c>
       <c r="V404">
-        <v>1.84</v>
+        <v>1.99</v>
       </c>
       <c r="W404">
-        <v>1.3</v>
+        <v>0.363</v>
       </c>
       <c r="X404">
         <v>-1</v>
@@ -36487,16 +36487,16 @@
         <v>-1</v>
       </c>
       <c r="Z404">
-        <v>1.08</v>
+        <v>-0.5</v>
       </c>
       <c r="AA404">
-        <v>-1</v>
+        <v>0.53</v>
       </c>
       <c r="AB404">
-        <v>1.06</v>
+        <v>-1</v>
       </c>
       <c r="AC404">
-        <v>-1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="405" spans="1:29">
@@ -36504,7 +36504,7 @@
         <v>403</v>
       </c>
       <c r="B405">
-        <v>6809434</v>
+        <v>6809438</v>
       </c>
       <c r="C405" t="s">
         <v>28</v>
@@ -36516,58 +36516,58 @@
         <v>45280.72916666666</v>
       </c>
       <c r="F405" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G405" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="H405">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I405">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J405" t="s">
         <v>53</v>
       </c>
       <c r="K405">
-        <v>1.4</v>
+        <v>2.15</v>
       </c>
       <c r="L405">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="M405">
-        <v>7</v>
+        <v>2.9</v>
       </c>
       <c r="N405">
-        <v>1.363</v>
+        <v>2.3</v>
       </c>
       <c r="O405">
-        <v>5.25</v>
+        <v>3.5</v>
       </c>
       <c r="P405">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="Q405">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R405">
-        <v>1.87</v>
+        <v>2.08</v>
       </c>
       <c r="S405">
+        <v>1.82</v>
+      </c>
+      <c r="T405">
+        <v>2.5</v>
+      </c>
+      <c r="U405">
         <v>2.06</v>
       </c>
-      <c r="T405">
-        <v>2.75</v>
-      </c>
-      <c r="U405">
-        <v>1.91</v>
-      </c>
       <c r="V405">
-        <v>1.99</v>
+        <v>1.84</v>
       </c>
       <c r="W405">
-        <v>0.363</v>
+        <v>1.3</v>
       </c>
       <c r="X405">
         <v>-1</v>
@@ -36576,16 +36576,16 @@
         <v>-1</v>
       </c>
       <c r="Z405">
-        <v>-0.5</v>
+        <v>1.08</v>
       </c>
       <c r="AA405">
-        <v>0.53</v>
+        <v>-1</v>
       </c>
       <c r="AB405">
-        <v>-1</v>
+        <v>1.06</v>
       </c>
       <c r="AC405">
-        <v>0.99</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="406" spans="1:29">
@@ -36593,7 +36593,7 @@
         <v>404</v>
       </c>
       <c r="B406">
-        <v>6809436</v>
+        <v>6809289</v>
       </c>
       <c r="C406" t="s">
         <v>28</v>
@@ -36605,76 +36605,76 @@
         <v>45281.625</v>
       </c>
       <c r="F406" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G406" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H406">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I406">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J406" t="s">
         <v>54</v>
       </c>
       <c r="K406">
-        <v>4.333</v>
+        <v>2.4</v>
       </c>
       <c r="L406">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M406">
-        <v>1.85</v>
+        <v>2.75</v>
       </c>
       <c r="N406">
-        <v>6</v>
+        <v>2.6</v>
       </c>
       <c r="O406">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P406">
-        <v>1.65</v>
+        <v>2.5</v>
       </c>
       <c r="Q406">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R406">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="S406">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="T406">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U406">
-        <v>1.84</v>
+        <v>1.91</v>
       </c>
       <c r="V406">
-        <v>2.06</v>
+        <v>1.99</v>
       </c>
       <c r="W406">
         <v>-1</v>
       </c>
       <c r="X406">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="Y406">
         <v>-1</v>
       </c>
       <c r="Z406">
-        <v>0.98</v>
+        <v>0</v>
       </c>
       <c r="AA406">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB406">
         <v>-1</v>
       </c>
       <c r="AC406">
-        <v>1.06</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="407" spans="1:29">
@@ -36682,7 +36682,7 @@
         <v>405</v>
       </c>
       <c r="B407">
-        <v>6809289</v>
+        <v>6809436</v>
       </c>
       <c r="C407" t="s">
         <v>28</v>
@@ -36694,76 +36694,76 @@
         <v>45281.625</v>
       </c>
       <c r="F407" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G407" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H407">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I407">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J407" t="s">
         <v>54</v>
       </c>
       <c r="K407">
-        <v>2.4</v>
+        <v>4.333</v>
       </c>
       <c r="L407">
+        <v>3.2</v>
+      </c>
+      <c r="M407">
+        <v>1.85</v>
+      </c>
+      <c r="N407">
+        <v>6</v>
+      </c>
+      <c r="O407">
         <v>3.5</v>
       </c>
-      <c r="M407">
-        <v>2.75</v>
-      </c>
-      <c r="N407">
-        <v>2.6</v>
-      </c>
-      <c r="O407">
-        <v>3.6</v>
-      </c>
       <c r="P407">
+        <v>1.65</v>
+      </c>
+      <c r="Q407">
+        <v>0.75</v>
+      </c>
+      <c r="R407">
+        <v>1.98</v>
+      </c>
+      <c r="S407">
+        <v>1.92</v>
+      </c>
+      <c r="T407">
+        <v>2</v>
+      </c>
+      <c r="U407">
+        <v>1.84</v>
+      </c>
+      <c r="V407">
+        <v>2.06</v>
+      </c>
+      <c r="W407">
+        <v>-1</v>
+      </c>
+      <c r="X407">
         <v>2.5</v>
       </c>
-      <c r="Q407">
-        <v>0</v>
-      </c>
-      <c r="R407">
-        <v>1.97</v>
-      </c>
-      <c r="S407">
-        <v>1.93</v>
-      </c>
-      <c r="T407">
-        <v>2.75</v>
-      </c>
-      <c r="U407">
-        <v>1.91</v>
-      </c>
-      <c r="V407">
-        <v>1.99</v>
-      </c>
-      <c r="W407">
-        <v>-1</v>
-      </c>
-      <c r="X407">
-        <v>2.6</v>
-      </c>
       <c r="Y407">
         <v>-1</v>
       </c>
       <c r="Z407">
-        <v>0</v>
+        <v>0.98</v>
       </c>
       <c r="AA407">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB407">
         <v>-1</v>
       </c>
       <c r="AC407">
-        <v>0.99</v>
+        <v>1.06</v>
       </c>
     </row>
     <row r="408" spans="1:29">
@@ -36771,7 +36771,7 @@
         <v>406</v>
       </c>
       <c r="B408">
-        <v>6809437</v>
+        <v>6809290</v>
       </c>
       <c r="C408" t="s">
         <v>28</v>
@@ -36783,76 +36783,76 @@
         <v>45281.72916666666</v>
       </c>
       <c r="F408" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="G408" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="H408">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I408">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J408" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K408">
-        <v>4.75</v>
+        <v>2.2</v>
       </c>
       <c r="L408">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="M408">
-        <v>1.666</v>
+        <v>3.4</v>
       </c>
       <c r="N408">
-        <v>5.5</v>
+        <v>2.2</v>
       </c>
       <c r="O408">
-        <v>4.2</v>
+        <v>2.9</v>
       </c>
       <c r="P408">
-        <v>1.571</v>
+        <v>4</v>
       </c>
       <c r="Q408">
-        <v>1</v>
+        <v>-0.25</v>
       </c>
       <c r="R408">
-        <v>1.83</v>
+        <v>1.89</v>
       </c>
       <c r="S408">
-        <v>2.07</v>
+        <v>2.01</v>
       </c>
       <c r="T408">
-        <v>2.5</v>
+        <v>1.75</v>
       </c>
       <c r="U408">
-        <v>1.88</v>
+        <v>1.95</v>
       </c>
       <c r="V408">
-        <v>2.02</v>
+        <v>1.95</v>
       </c>
       <c r="W408">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X408">
         <v>-1</v>
       </c>
       <c r="Y408">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="Z408">
-        <v>0</v>
+        <v>0.8899999999999999</v>
       </c>
       <c r="AA408">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB408">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC408">
-        <v>1.02</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="409" spans="1:29">
@@ -36860,7 +36860,7 @@
         <v>407</v>
       </c>
       <c r="B409">
-        <v>6809290</v>
+        <v>6809437</v>
       </c>
       <c r="C409" t="s">
         <v>28</v>
@@ -36872,76 +36872,76 @@
         <v>45281.72916666666</v>
       </c>
       <c r="F409" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="G409" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="H409">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I409">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J409" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K409">
-        <v>2.2</v>
+        <v>4.75</v>
       </c>
       <c r="L409">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="M409">
-        <v>3.4</v>
+        <v>1.666</v>
       </c>
       <c r="N409">
-        <v>2.2</v>
+        <v>5.5</v>
       </c>
       <c r="O409">
-        <v>2.9</v>
+        <v>4.2</v>
       </c>
       <c r="P409">
-        <v>4</v>
+        <v>1.571</v>
       </c>
       <c r="Q409">
-        <v>-0.25</v>
+        <v>1</v>
       </c>
       <c r="R409">
-        <v>1.89</v>
+        <v>1.83</v>
       </c>
       <c r="S409">
-        <v>2.01</v>
+        <v>2.07</v>
       </c>
       <c r="T409">
-        <v>1.75</v>
+        <v>2.5</v>
       </c>
       <c r="U409">
-        <v>1.95</v>
+        <v>1.88</v>
       </c>
       <c r="V409">
-        <v>1.95</v>
+        <v>2.02</v>
       </c>
       <c r="W409">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X409">
         <v>-1</v>
       </c>
       <c r="Y409">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="Z409">
-        <v>0.8899999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA409">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB409">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC409">
-        <v>-1</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="410" spans="1:29">
@@ -42467,7 +42467,7 @@
         <v>470</v>
       </c>
       <c r="B472">
-        <v>7791496</v>
+        <v>7791487</v>
       </c>
       <c r="C472" t="s">
         <v>28</v>
@@ -42476,64 +42476,79 @@
         <v>28</v>
       </c>
       <c r="E472" s="2">
-        <v>45340.41666666666</v>
+        <v>45339.41666666666</v>
       </c>
       <c r="F472" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G472" t="s">
-        <v>47</v>
+        <v>49</v>
+      </c>
+      <c r="H472">
+        <v>5</v>
+      </c>
+      <c r="I472">
+        <v>0</v>
+      </c>
+      <c r="J472" t="s">
+        <v>53</v>
       </c>
       <c r="K472">
+        <v>1.333</v>
+      </c>
+      <c r="L472">
         <v>5</v>
       </c>
-      <c r="L472">
-        <v>3.75</v>
-      </c>
       <c r="M472">
-        <v>1.666</v>
+        <v>8.5</v>
       </c>
       <c r="N472">
-        <v>6</v>
+        <v>1.45</v>
       </c>
       <c r="O472">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="P472">
-        <v>1.571</v>
+        <v>6.5</v>
       </c>
       <c r="Q472">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="R472">
-        <v>1.9</v>
+        <v>1.81</v>
       </c>
       <c r="S472">
-        <v>2.03</v>
+        <v>2.09</v>
       </c>
       <c r="T472">
         <v>2.5</v>
       </c>
       <c r="U472">
-        <v>1.86</v>
+        <v>1.98</v>
       </c>
       <c r="V472">
-        <v>2.04</v>
+        <v>1.92</v>
       </c>
       <c r="W472">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="X472">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y472">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z472">
-        <v>0</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AA472">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB472">
+        <v>0.98</v>
+      </c>
+      <c r="AC472">
+        <v>-1</v>
       </c>
     </row>
     <row r="473" spans="1:29">
@@ -42541,7 +42556,7 @@
         <v>471</v>
       </c>
       <c r="B473">
-        <v>7791497</v>
+        <v>7791488</v>
       </c>
       <c r="C473" t="s">
         <v>28</v>
@@ -42550,64 +42565,79 @@
         <v>28</v>
       </c>
       <c r="E473" s="2">
-        <v>45340.51041666666</v>
+        <v>45339.51041666666</v>
       </c>
       <c r="F473" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G473" t="s">
-        <v>34</v>
+        <v>45</v>
+      </c>
+      <c r="H473">
+        <v>2</v>
+      </c>
+      <c r="I473">
+        <v>0</v>
+      </c>
+      <c r="J473" t="s">
+        <v>53</v>
       </c>
       <c r="K473">
+        <v>1.7</v>
+      </c>
+      <c r="L473">
+        <v>3.4</v>
+      </c>
+      <c r="M473">
+        <v>5.25</v>
+      </c>
+      <c r="N473">
+        <v>1.8</v>
+      </c>
+      <c r="O473">
+        <v>3.25</v>
+      </c>
+      <c r="P473">
+        <v>5.25</v>
+      </c>
+      <c r="Q473">
+        <v>-0.75</v>
+      </c>
+      <c r="R473">
+        <v>2.07</v>
+      </c>
+      <c r="S473">
+        <v>1.83</v>
+      </c>
+      <c r="T473">
         <v>2</v>
       </c>
-      <c r="L473">
-        <v>3.5</v>
-      </c>
-      <c r="M473">
-        <v>3.4</v>
-      </c>
-      <c r="N473">
-        <v>2.15</v>
-      </c>
-      <c r="O473">
-        <v>3.5</v>
-      </c>
-      <c r="P473">
-        <v>3.3</v>
-      </c>
-      <c r="Q473">
-        <v>-0.25</v>
-      </c>
-      <c r="R473">
-        <v>1.87</v>
-      </c>
-      <c r="S473">
-        <v>2.06</v>
-      </c>
-      <c r="T473">
-        <v>2.5</v>
-      </c>
       <c r="U473">
-        <v>2.08</v>
+        <v>1.99</v>
       </c>
       <c r="V473">
-        <v>1.82</v>
+        <v>1.91</v>
       </c>
       <c r="W473">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="X473">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y473">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z473">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="AA473">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB473">
+        <v>0</v>
+      </c>
+      <c r="AC473">
+        <v>-0</v>
       </c>
     </row>
     <row r="474" spans="1:29">
@@ -42615,7 +42645,7 @@
         <v>472</v>
       </c>
       <c r="B474">
-        <v>7791498</v>
+        <v>7791489</v>
       </c>
       <c r="C474" t="s">
         <v>28</v>
@@ -42624,64 +42654,79 @@
         <v>28</v>
       </c>
       <c r="E474" s="2">
-        <v>45340.60416666666</v>
+        <v>45339.60416666666</v>
       </c>
       <c r="F474" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G474" t="s">
-        <v>43</v>
+        <v>46</v>
+      </c>
+      <c r="H474">
+        <v>1</v>
+      </c>
+      <c r="I474">
+        <v>2</v>
+      </c>
+      <c r="J474" t="s">
+        <v>52</v>
       </c>
       <c r="K474">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="L474">
-        <v>2.875</v>
+        <v>3.75</v>
       </c>
       <c r="M474">
-        <v>2.55</v>
+        <v>1.85</v>
       </c>
       <c r="N474">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="O474">
-        <v>2.875</v>
+        <v>3.75</v>
       </c>
       <c r="P474">
-        <v>2.55</v>
+        <v>1.95</v>
       </c>
       <c r="Q474">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R474">
-        <v>1.77</v>
+        <v>1.88</v>
       </c>
       <c r="S474">
-        <v>2.175</v>
+        <v>2.02</v>
       </c>
       <c r="T474">
-        <v>1.75</v>
+        <v>2.75</v>
       </c>
       <c r="U474">
+        <v>1.91</v>
+      </c>
+      <c r="V474">
         <v>1.99</v>
       </c>
-      <c r="V474">
-        <v>1.91</v>
-      </c>
       <c r="W474">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X474">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y474">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="Z474">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA474">
-        <v>0</v>
+        <v>1.02</v>
+      </c>
+      <c r="AB474">
+        <v>0.455</v>
+      </c>
+      <c r="AC474">
+        <v>-0.5</v>
       </c>
     </row>
     <row r="475" spans="1:29">
@@ -42689,7 +42734,7 @@
         <v>473</v>
       </c>
       <c r="B475">
-        <v>6809473</v>
+        <v>7791495</v>
       </c>
       <c r="C475" t="s">
         <v>28</v>
@@ -42698,64 +42743,79 @@
         <v>28</v>
       </c>
       <c r="E475" s="2">
-        <v>45340.70833333334</v>
+        <v>45339.70833333334</v>
       </c>
       <c r="F475" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="G475" t="s">
-        <v>50</v>
+        <v>36</v>
+      </c>
+      <c r="H475">
+        <v>0</v>
+      </c>
+      <c r="I475">
+        <v>0</v>
+      </c>
+      <c r="J475" t="s">
+        <v>54</v>
       </c>
       <c r="K475">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="L475">
         <v>3.4</v>
       </c>
       <c r="M475">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="N475">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="O475">
+        <v>3.2</v>
+      </c>
+      <c r="P475">
         <v>3.4</v>
-      </c>
-      <c r="P475">
-        <v>3.6</v>
       </c>
       <c r="Q475">
         <v>-0.25</v>
       </c>
       <c r="R475">
-        <v>1.84</v>
+        <v>1.95</v>
       </c>
       <c r="S475">
-        <v>2.09</v>
+        <v>1.95</v>
       </c>
       <c r="T475">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U475">
-        <v>2.03</v>
+        <v>1.86</v>
       </c>
       <c r="V475">
-        <v>1.87</v>
+        <v>2.04</v>
       </c>
       <c r="W475">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X475">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="Y475">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z475">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA475">
-        <v>0</v>
+        <v>0.475</v>
+      </c>
+      <c r="AB475">
+        <v>-1</v>
+      </c>
+      <c r="AC475">
+        <v>1.04</v>
       </c>
     </row>
     <row r="476" spans="1:29">
@@ -42763,7 +42823,7 @@
         <v>474</v>
       </c>
       <c r="B476">
-        <v>7791499</v>
+        <v>7791496</v>
       </c>
       <c r="C476" t="s">
         <v>28</v>
@@ -42772,64 +42832,79 @@
         <v>28</v>
       </c>
       <c r="E476" s="2">
-        <v>45341.70833333334</v>
+        <v>45340.41666666666</v>
       </c>
       <c r="F476" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G476" t="s">
-        <v>41</v>
+        <v>47</v>
+      </c>
+      <c r="H476">
+        <v>1</v>
+      </c>
+      <c r="I476">
+        <v>1</v>
+      </c>
+      <c r="J476" t="s">
+        <v>54</v>
       </c>
       <c r="K476">
-        <v>1.95</v>
+        <v>5</v>
       </c>
       <c r="L476">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M476">
-        <v>3.6</v>
+        <v>1.666</v>
       </c>
       <c r="N476">
-        <v>1.95</v>
+        <v>5</v>
       </c>
       <c r="O476">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P476">
-        <v>3.8</v>
+        <v>1.666</v>
       </c>
       <c r="Q476">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R476">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S476">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T476">
         <v>2.75</v>
       </c>
       <c r="U476">
-        <v>1.91</v>
+        <v>2.01</v>
       </c>
       <c r="V476">
-        <v>1.99</v>
+        <v>1.89</v>
       </c>
       <c r="W476">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X476">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Y476">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z476">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA476">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB476">
+        <v>-1</v>
+      </c>
+      <c r="AC476">
+        <v>0.8899999999999999</v>
       </c>
     </row>
     <row r="477" spans="1:29">
@@ -42837,7 +42912,7 @@
         <v>475</v>
       </c>
       <c r="B477">
-        <v>6809475</v>
+        <v>7791497</v>
       </c>
       <c r="C477" t="s">
         <v>28</v>
@@ -42846,64 +42921,79 @@
         <v>28</v>
       </c>
       <c r="E477" s="2">
-        <v>45345.70833333334</v>
+        <v>45340.51041666666</v>
       </c>
       <c r="F477" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G477" t="s">
-        <v>31</v>
+        <v>34</v>
+      </c>
+      <c r="H477">
+        <v>1</v>
+      </c>
+      <c r="I477">
+        <v>1</v>
+      </c>
+      <c r="J477" t="s">
+        <v>54</v>
       </c>
       <c r="K477">
-        <v>1.727</v>
+        <v>2</v>
       </c>
       <c r="L477">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M477">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="N477">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="O477">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P477">
-        <v>4.333</v>
+        <v>3.25</v>
       </c>
       <c r="Q477">
+        <v>-0.25</v>
+      </c>
+      <c r="R477">
+        <v>1.95</v>
+      </c>
+      <c r="S477">
+        <v>1.95</v>
+      </c>
+      <c r="T477">
+        <v>2.5</v>
+      </c>
+      <c r="U477">
+        <v>2.025</v>
+      </c>
+      <c r="V477">
+        <v>1.775</v>
+      </c>
+      <c r="W477">
+        <v>-1</v>
+      </c>
+      <c r="X477">
+        <v>2.4</v>
+      </c>
+      <c r="Y477">
+        <v>-1</v>
+      </c>
+      <c r="Z477">
         <v>-0.5</v>
       </c>
-      <c r="R477">
-        <v>1.87</v>
-      </c>
-      <c r="S477">
-        <v>2.03</v>
-      </c>
-      <c r="T477">
-        <v>2.25</v>
-      </c>
-      <c r="U477">
-        <v>1.85</v>
-      </c>
-      <c r="V477">
-        <v>2.05</v>
-      </c>
-      <c r="W477">
-        <v>0</v>
-      </c>
-      <c r="X477">
-        <v>0</v>
-      </c>
-      <c r="Y477">
-        <v>0</v>
-      </c>
-      <c r="Z477">
-        <v>0</v>
-      </c>
       <c r="AA477">
-        <v>0</v>
+        <v>0.475</v>
+      </c>
+      <c r="AB477">
+        <v>-1</v>
+      </c>
+      <c r="AC477">
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="478" spans="1:29">
@@ -42911,7 +43001,7 @@
         <v>476</v>
       </c>
       <c r="B478">
-        <v>6809333</v>
+        <v>7791498</v>
       </c>
       <c r="C478" t="s">
         <v>28</v>
@@ -42920,64 +43010,79 @@
         <v>28</v>
       </c>
       <c r="E478" s="2">
-        <v>45346.41666666666</v>
+        <v>45340.60416666666</v>
       </c>
       <c r="F478" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="G478" t="s">
-        <v>30</v>
+        <v>43</v>
+      </c>
+      <c r="H478">
+        <v>1</v>
+      </c>
+      <c r="I478">
+        <v>2</v>
+      </c>
+      <c r="J478" t="s">
+        <v>52</v>
       </c>
       <c r="K478">
-        <v>2.625</v>
+        <v>3.1</v>
       </c>
       <c r="L478">
         <v>2.875</v>
       </c>
       <c r="M478">
+        <v>2.55</v>
+      </c>
+      <c r="N478">
+        <v>3.6</v>
+      </c>
+      <c r="O478">
         <v>2.875</v>
       </c>
-      <c r="N478">
-        <v>2.6</v>
-      </c>
-      <c r="O478">
-        <v>2.8</v>
-      </c>
       <c r="P478">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="Q478">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R478">
-        <v>1.82</v>
+        <v>1.91</v>
       </c>
       <c r="S478">
-        <v>2.08</v>
+        <v>2.02</v>
       </c>
       <c r="T478">
-        <v>2.25</v>
+        <v>1.5</v>
       </c>
       <c r="U478">
-        <v>2.07</v>
+        <v>1.88</v>
       </c>
       <c r="V478">
-        <v>1.83</v>
+        <v>2.02</v>
       </c>
       <c r="W478">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X478">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y478">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="Z478">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA478">
-        <v>0</v>
+        <v>1.02</v>
+      </c>
+      <c r="AB478">
+        <v>0.8799999999999999</v>
+      </c>
+      <c r="AC478">
+        <v>-1</v>
       </c>
     </row>
     <row r="479" spans="1:29">
@@ -42985,7 +43090,7 @@
         <v>477</v>
       </c>
       <c r="B479">
-        <v>6809330</v>
+        <v>6809473</v>
       </c>
       <c r="C479" t="s">
         <v>28</v>
@@ -42994,64 +43099,79 @@
         <v>28</v>
       </c>
       <c r="E479" s="2">
-        <v>45346.51041666666</v>
+        <v>45340.70833333334</v>
       </c>
       <c r="F479" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G479" t="s">
-        <v>44</v>
+        <v>50</v>
+      </c>
+      <c r="H479">
+        <v>0</v>
+      </c>
+      <c r="I479">
+        <v>0</v>
+      </c>
+      <c r="J479" t="s">
+        <v>54</v>
       </c>
       <c r="K479">
-        <v>1.4</v>
+        <v>1.95</v>
       </c>
       <c r="L479">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="M479">
-        <v>7</v>
+        <v>3.6</v>
       </c>
       <c r="N479">
-        <v>1.4</v>
+        <v>2.4</v>
       </c>
       <c r="O479">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="P479">
-        <v>7</v>
+        <v>3.25</v>
       </c>
       <c r="Q479">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R479">
+        <v>2.08</v>
+      </c>
+      <c r="S479">
+        <v>1.85</v>
+      </c>
+      <c r="T479">
+        <v>2</v>
+      </c>
+      <c r="U479">
         <v>1.92</v>
       </c>
-      <c r="S479">
+      <c r="V479">
         <v>1.98</v>
       </c>
-      <c r="T479">
-        <v>2.75</v>
-      </c>
-      <c r="U479">
-        <v>1.86</v>
-      </c>
-      <c r="V479">
-        <v>2.04</v>
-      </c>
       <c r="W479">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X479">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="Y479">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z479">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA479">
-        <v>0</v>
+        <v>0.425</v>
+      </c>
+      <c r="AB479">
+        <v>-1</v>
+      </c>
+      <c r="AC479">
+        <v>0.98</v>
       </c>
     </row>
     <row r="480" spans="1:29">
@@ -43059,7 +43179,7 @@
         <v>478</v>
       </c>
       <c r="B480">
-        <v>6809476</v>
+        <v>7791499</v>
       </c>
       <c r="C480" t="s">
         <v>28</v>
@@ -43068,49 +43188,49 @@
         <v>28</v>
       </c>
       <c r="E480" s="2">
-        <v>45346.60416666666</v>
+        <v>45341.70833333334</v>
       </c>
       <c r="F480" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="G480" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="K480">
         <v>1.95</v>
       </c>
       <c r="L480">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="M480">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="N480">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="O480">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="P480">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="Q480">
         <v>-0.5</v>
       </c>
       <c r="R480">
-        <v>2.04</v>
+        <v>1.89</v>
       </c>
       <c r="S480">
-        <v>1.86</v>
+        <v>2.01</v>
       </c>
       <c r="T480">
-        <v>1.75</v>
+        <v>2.75</v>
       </c>
       <c r="U480">
-        <v>1.83</v>
+        <v>1.87</v>
       </c>
       <c r="V480">
-        <v>2.07</v>
+        <v>2.03</v>
       </c>
       <c r="W480">
         <v>0</v>
@@ -43133,72 +43253,664 @@
         <v>479</v>
       </c>
       <c r="B481">
+        <v>6809475</v>
+      </c>
+      <c r="C481" t="s">
+        <v>28</v>
+      </c>
+      <c r="D481" t="s">
+        <v>28</v>
+      </c>
+      <c r="E481" s="2">
+        <v>45345.70833333334</v>
+      </c>
+      <c r="F481" t="s">
+        <v>43</v>
+      </c>
+      <c r="G481" t="s">
+        <v>31</v>
+      </c>
+      <c r="K481">
+        <v>1.727</v>
+      </c>
+      <c r="L481">
+        <v>3.6</v>
+      </c>
+      <c r="M481">
+        <v>4.75</v>
+      </c>
+      <c r="N481">
+        <v>1.8</v>
+      </c>
+      <c r="O481">
+        <v>3.5</v>
+      </c>
+      <c r="P481">
+        <v>4.333</v>
+      </c>
+      <c r="Q481">
+        <v>-0.5</v>
+      </c>
+      <c r="R481">
+        <v>1.88</v>
+      </c>
+      <c r="S481">
+        <v>2.02</v>
+      </c>
+      <c r="T481">
+        <v>2.25</v>
+      </c>
+      <c r="U481">
+        <v>1.86</v>
+      </c>
+      <c r="V481">
+        <v>2.04</v>
+      </c>
+      <c r="W481">
+        <v>0</v>
+      </c>
+      <c r="X481">
+        <v>0</v>
+      </c>
+      <c r="Y481">
+        <v>0</v>
+      </c>
+      <c r="Z481">
+        <v>0</v>
+      </c>
+      <c r="AA481">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="482" spans="1:27">
+      <c r="A482" s="1">
+        <v>480</v>
+      </c>
+      <c r="B482">
+        <v>6809333</v>
+      </c>
+      <c r="C482" t="s">
+        <v>28</v>
+      </c>
+      <c r="D482" t="s">
+        <v>28</v>
+      </c>
+      <c r="E482" s="2">
+        <v>45346.41666666666</v>
+      </c>
+      <c r="F482" t="s">
+        <v>51</v>
+      </c>
+      <c r="G482" t="s">
+        <v>30</v>
+      </c>
+      <c r="K482">
+        <v>2.625</v>
+      </c>
+      <c r="L482">
+        <v>2.875</v>
+      </c>
+      <c r="M482">
+        <v>2.875</v>
+      </c>
+      <c r="N482">
+        <v>2.6</v>
+      </c>
+      <c r="O482">
+        <v>2.8</v>
+      </c>
+      <c r="P482">
+        <v>3.1</v>
+      </c>
+      <c r="Q482">
+        <v>0</v>
+      </c>
+      <c r="R482">
+        <v>1.85</v>
+      </c>
+      <c r="S482">
+        <v>2.05</v>
+      </c>
+      <c r="T482">
+        <v>2.25</v>
+      </c>
+      <c r="U482">
+        <v>2.11</v>
+      </c>
+      <c r="V482">
+        <v>1.79</v>
+      </c>
+      <c r="W482">
+        <v>0</v>
+      </c>
+      <c r="X482">
+        <v>0</v>
+      </c>
+      <c r="Y482">
+        <v>0</v>
+      </c>
+      <c r="Z482">
+        <v>0</v>
+      </c>
+      <c r="AA482">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="483" spans="1:27">
+      <c r="A483" s="1">
+        <v>481</v>
+      </c>
+      <c r="B483">
+        <v>6809330</v>
+      </c>
+      <c r="C483" t="s">
+        <v>28</v>
+      </c>
+      <c r="D483" t="s">
+        <v>28</v>
+      </c>
+      <c r="E483" s="2">
+        <v>45346.51041666666</v>
+      </c>
+      <c r="F483" t="s">
+        <v>46</v>
+      </c>
+      <c r="G483" t="s">
+        <v>44</v>
+      </c>
+      <c r="K483">
+        <v>1.4</v>
+      </c>
+      <c r="L483">
+        <v>5</v>
+      </c>
+      <c r="M483">
+        <v>7</v>
+      </c>
+      <c r="N483">
+        <v>1.4</v>
+      </c>
+      <c r="O483">
+        <v>5</v>
+      </c>
+      <c r="P483">
+        <v>7</v>
+      </c>
+      <c r="Q483">
+        <v>-1.25</v>
+      </c>
+      <c r="R483">
+        <v>1.92</v>
+      </c>
+      <c r="S483">
+        <v>1.98</v>
+      </c>
+      <c r="T483">
+        <v>2.75</v>
+      </c>
+      <c r="U483">
+        <v>1.85</v>
+      </c>
+      <c r="V483">
+        <v>2.05</v>
+      </c>
+      <c r="W483">
+        <v>0</v>
+      </c>
+      <c r="X483">
+        <v>0</v>
+      </c>
+      <c r="Y483">
+        <v>0</v>
+      </c>
+      <c r="Z483">
+        <v>0</v>
+      </c>
+      <c r="AA483">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="484" spans="1:27">
+      <c r="A484" s="1">
+        <v>482</v>
+      </c>
+      <c r="B484">
+        <v>6809476</v>
+      </c>
+      <c r="C484" t="s">
+        <v>28</v>
+      </c>
+      <c r="D484" t="s">
+        <v>28</v>
+      </c>
+      <c r="E484" s="2">
+        <v>45346.60416666666</v>
+      </c>
+      <c r="F484" t="s">
+        <v>50</v>
+      </c>
+      <c r="G484" t="s">
+        <v>32</v>
+      </c>
+      <c r="K484">
+        <v>1.95</v>
+      </c>
+      <c r="L484">
+        <v>3</v>
+      </c>
+      <c r="M484">
+        <v>4.5</v>
+      </c>
+      <c r="N484">
+        <v>1.909</v>
+      </c>
+      <c r="O484">
+        <v>3</v>
+      </c>
+      <c r="P484">
+        <v>4.75</v>
+      </c>
+      <c r="Q484">
+        <v>-0.5</v>
+      </c>
+      <c r="R484">
+        <v>1.95</v>
+      </c>
+      <c r="S484">
+        <v>1.95</v>
+      </c>
+      <c r="T484">
+        <v>1.75</v>
+      </c>
+      <c r="U484">
+        <v>1.83</v>
+      </c>
+      <c r="V484">
+        <v>2.07</v>
+      </c>
+      <c r="W484">
+        <v>0</v>
+      </c>
+      <c r="X484">
+        <v>0</v>
+      </c>
+      <c r="Y484">
+        <v>0</v>
+      </c>
+      <c r="Z484">
+        <v>0</v>
+      </c>
+      <c r="AA484">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="485" spans="1:27">
+      <c r="A485" s="1">
+        <v>483</v>
+      </c>
+      <c r="B485">
         <v>6809329</v>
       </c>
-      <c r="C481" t="s">
-        <v>28</v>
-      </c>
-      <c r="D481" t="s">
-        <v>28</v>
-      </c>
-      <c r="E481" s="2">
+      <c r="C485" t="s">
+        <v>28</v>
+      </c>
+      <c r="D485" t="s">
+        <v>28</v>
+      </c>
+      <c r="E485" s="2">
         <v>45346.70833333334</v>
       </c>
-      <c r="F481" t="s">
+      <c r="F485" t="s">
         <v>34</v>
       </c>
-      <c r="G481" t="s">
+      <c r="G485" t="s">
         <v>37</v>
       </c>
-      <c r="K481">
+      <c r="K485">
         <v>4.333</v>
       </c>
-      <c r="L481">
+      <c r="L485">
         <v>3.75</v>
       </c>
-      <c r="M481">
+      <c r="M485">
         <v>1.727</v>
       </c>
-      <c r="N481">
+      <c r="N485">
         <v>4.5</v>
       </c>
-      <c r="O481">
+      <c r="O485">
         <v>3.75</v>
       </c>
-      <c r="P481">
+      <c r="P485">
         <v>1.727</v>
       </c>
-      <c r="Q481">
+      <c r="Q485">
         <v>0.75</v>
       </c>
-      <c r="R481">
-        <v>1.91</v>
-      </c>
-      <c r="S481">
-        <v>1.99</v>
-      </c>
-      <c r="T481">
+      <c r="R485">
+        <v>1.87</v>
+      </c>
+      <c r="S485">
+        <v>2.03</v>
+      </c>
+      <c r="T485">
         <v>2.75</v>
       </c>
-      <c r="U481">
+      <c r="U485">
+        <v>1.98</v>
+      </c>
+      <c r="V485">
+        <v>1.92</v>
+      </c>
+      <c r="W485">
+        <v>0</v>
+      </c>
+      <c r="X485">
+        <v>0</v>
+      </c>
+      <c r="Y485">
+        <v>0</v>
+      </c>
+      <c r="Z485">
+        <v>0</v>
+      </c>
+      <c r="AA485">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="486" spans="1:27">
+      <c r="A486" s="1">
+        <v>484</v>
+      </c>
+      <c r="B486">
+        <v>6809474</v>
+      </c>
+      <c r="C486" t="s">
+        <v>28</v>
+      </c>
+      <c r="D486" t="s">
+        <v>28</v>
+      </c>
+      <c r="E486" s="2">
+        <v>45347.41666666666</v>
+      </c>
+      <c r="F486" t="s">
+        <v>45</v>
+      </c>
+      <c r="G486" t="s">
+        <v>39</v>
+      </c>
+      <c r="K486">
+        <v>2.75</v>
+      </c>
+      <c r="L486">
+        <v>2.875</v>
+      </c>
+      <c r="M486">
+        <v>2.75</v>
+      </c>
+      <c r="N486">
+        <v>2.9</v>
+      </c>
+      <c r="O486">
+        <v>3</v>
+      </c>
+      <c r="P486">
+        <v>2.6</v>
+      </c>
+      <c r="Q486">
+        <v>0</v>
+      </c>
+      <c r="R486">
+        <v>2.06</v>
+      </c>
+      <c r="S486">
+        <v>1.84</v>
+      </c>
+      <c r="T486">
+        <v>2</v>
+      </c>
+      <c r="U486">
+        <v>2</v>
+      </c>
+      <c r="V486">
+        <v>1.9</v>
+      </c>
+      <c r="W486">
+        <v>0</v>
+      </c>
+      <c r="X486">
+        <v>0</v>
+      </c>
+      <c r="Y486">
+        <v>0</v>
+      </c>
+      <c r="Z486">
+        <v>0</v>
+      </c>
+      <c r="AA486">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="487" spans="1:27">
+      <c r="A487" s="1">
+        <v>485</v>
+      </c>
+      <c r="B487">
+        <v>6809477</v>
+      </c>
+      <c r="C487" t="s">
+        <v>28</v>
+      </c>
+      <c r="D487" t="s">
+        <v>28</v>
+      </c>
+      <c r="E487" s="2">
+        <v>45347.51041666666</v>
+      </c>
+      <c r="F487" t="s">
+        <v>48</v>
+      </c>
+      <c r="G487" t="s">
+        <v>38</v>
+      </c>
+      <c r="K487">
+        <v>3.1</v>
+      </c>
+      <c r="L487">
+        <v>3</v>
+      </c>
+      <c r="M487">
+        <v>2.5</v>
+      </c>
+      <c r="N487">
+        <v>3.1</v>
+      </c>
+      <c r="O487">
+        <v>3</v>
+      </c>
+      <c r="P487">
+        <v>2.45</v>
+      </c>
+      <c r="Q487">
+        <v>0.25</v>
+      </c>
+      <c r="R487">
+        <v>1.8</v>
+      </c>
+      <c r="S487">
+        <v>2.1</v>
+      </c>
+      <c r="T487">
+        <v>2.25</v>
+      </c>
+      <c r="U487">
         <v>1.95</v>
       </c>
-      <c r="V481">
+      <c r="V487">
         <v>1.95</v>
       </c>
-      <c r="W481">
-        <v>0</v>
-      </c>
-      <c r="X481">
-        <v>0</v>
-      </c>
-      <c r="Y481">
-        <v>0</v>
-      </c>
-      <c r="Z481">
-        <v>0</v>
-      </c>
-      <c r="AA481">
+      <c r="W487">
+        <v>0</v>
+      </c>
+      <c r="X487">
+        <v>0</v>
+      </c>
+      <c r="Y487">
+        <v>0</v>
+      </c>
+      <c r="Z487">
+        <v>0</v>
+      </c>
+      <c r="AA487">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="488" spans="1:27">
+      <c r="A488" s="1">
+        <v>486</v>
+      </c>
+      <c r="B488">
+        <v>6809334</v>
+      </c>
+      <c r="C488" t="s">
+        <v>28</v>
+      </c>
+      <c r="D488" t="s">
+        <v>28</v>
+      </c>
+      <c r="E488" s="2">
+        <v>45347.60416666666</v>
+      </c>
+      <c r="F488" t="s">
+        <v>49</v>
+      </c>
+      <c r="G488" t="s">
+        <v>42</v>
+      </c>
+      <c r="K488">
+        <v>2.4</v>
+      </c>
+      <c r="L488">
+        <v>2.8</v>
+      </c>
+      <c r="M488">
+        <v>3.25</v>
+      </c>
+      <c r="N488">
+        <v>2.375</v>
+      </c>
+      <c r="O488">
+        <v>2.875</v>
+      </c>
+      <c r="P488">
+        <v>3.4</v>
+      </c>
+      <c r="Q488">
+        <v>-0.25</v>
+      </c>
+      <c r="R488">
+        <v>2.05</v>
+      </c>
+      <c r="S488">
+        <v>1.85</v>
+      </c>
+      <c r="T488">
+        <v>2</v>
+      </c>
+      <c r="U488">
+        <v>1.95</v>
+      </c>
+      <c r="V488">
+        <v>1.95</v>
+      </c>
+      <c r="W488">
+        <v>0</v>
+      </c>
+      <c r="X488">
+        <v>0</v>
+      </c>
+      <c r="Y488">
+        <v>0</v>
+      </c>
+      <c r="Z488">
+        <v>0</v>
+      </c>
+      <c r="AA488">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="489" spans="1:27">
+      <c r="A489" s="1">
+        <v>487</v>
+      </c>
+      <c r="B489">
+        <v>6809332</v>
+      </c>
+      <c r="C489" t="s">
+        <v>28</v>
+      </c>
+      <c r="D489" t="s">
+        <v>28</v>
+      </c>
+      <c r="E489" s="2">
+        <v>45347.70833333334</v>
+      </c>
+      <c r="F489" t="s">
+        <v>47</v>
+      </c>
+      <c r="G489" t="s">
+        <v>36</v>
+      </c>
+      <c r="K489">
+        <v>1.3</v>
+      </c>
+      <c r="L489">
+        <v>5.5</v>
+      </c>
+      <c r="M489">
+        <v>8.5</v>
+      </c>
+      <c r="N489">
+        <v>1.3</v>
+      </c>
+      <c r="O489">
+        <v>5.5</v>
+      </c>
+      <c r="P489">
+        <v>8.5</v>
+      </c>
+      <c r="Q489">
+        <v>-1.5</v>
+      </c>
+      <c r="R489">
+        <v>1.9</v>
+      </c>
+      <c r="S489">
+        <v>2</v>
+      </c>
+      <c r="T489">
+        <v>3</v>
+      </c>
+      <c r="U489">
+        <v>1.9</v>
+      </c>
+      <c r="V489">
+        <v>2</v>
+      </c>
+      <c r="W489">
+        <v>0</v>
+      </c>
+      <c r="X489">
+        <v>0</v>
+      </c>
+      <c r="Y489">
+        <v>0</v>
+      </c>
+      <c r="Z489">
+        <v>0</v>
+      </c>
+      <c r="AA489">
         <v>0</v>
       </c>
     </row>

--- a/Spain Primera Liga/Spain Primera Liga.xlsx
+++ b/Spain Primera Liga/Spain Primera Liga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2458" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2463" uniqueCount="55">
   <si>
     <t>id</t>
   </si>
@@ -540,7 +540,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC489"/>
+  <dimension ref="A1:AC490"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -10071,7 +10071,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>5210915</v>
+        <v>5210911</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10083,76 +10083,76 @@
         <v>45004.51041666666</v>
       </c>
       <c r="F108" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G108" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J108" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K108">
-        <v>1.3</v>
+        <v>3</v>
       </c>
       <c r="L108">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="M108">
-        <v>10</v>
+        <v>2.45</v>
       </c>
       <c r="N108">
-        <v>1.4</v>
+        <v>3</v>
       </c>
       <c r="O108">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="P108">
-        <v>9</v>
+        <v>2.5</v>
       </c>
       <c r="Q108">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R108">
-        <v>1.97</v>
+        <v>2.14</v>
       </c>
       <c r="S108">
-        <v>1.93</v>
+        <v>1.77</v>
       </c>
       <c r="T108">
         <v>2.25</v>
       </c>
       <c r="U108">
-        <v>1.85</v>
+        <v>2.06</v>
       </c>
       <c r="V108">
-        <v>2.05</v>
+        <v>1.84</v>
       </c>
       <c r="W108">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X108">
         <v>-1</v>
       </c>
       <c r="Y108">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z108">
-        <v>0.97</v>
+        <v>-1</v>
       </c>
       <c r="AA108">
-        <v>-1</v>
+        <v>0.77</v>
       </c>
       <c r="AB108">
-        <v>-0.5</v>
+        <v>1.06</v>
       </c>
       <c r="AC108">
-        <v>0.5249999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -10160,7 +10160,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>5210911</v>
+        <v>5210915</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10172,76 +10172,76 @@
         <v>45004.51041666666</v>
       </c>
       <c r="F109" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G109" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J109" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K109">
-        <v>3</v>
+        <v>1.3</v>
       </c>
       <c r="L109">
-        <v>3.1</v>
+        <v>5</v>
       </c>
       <c r="M109">
-        <v>2.45</v>
+        <v>10</v>
       </c>
       <c r="N109">
-        <v>3</v>
+        <v>1.4</v>
       </c>
       <c r="O109">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="P109">
-        <v>2.5</v>
+        <v>9</v>
       </c>
       <c r="Q109">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R109">
-        <v>2.14</v>
+        <v>1.97</v>
       </c>
       <c r="S109">
-        <v>1.77</v>
+        <v>1.93</v>
       </c>
       <c r="T109">
         <v>2.25</v>
       </c>
       <c r="U109">
-        <v>2.06</v>
+        <v>1.85</v>
       </c>
       <c r="V109">
-        <v>1.84</v>
+        <v>2.05</v>
       </c>
       <c r="W109">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X109">
         <v>-1</v>
       </c>
       <c r="Y109">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z109">
-        <v>-1</v>
+        <v>0.97</v>
       </c>
       <c r="AA109">
-        <v>0.77</v>
+        <v>-1</v>
       </c>
       <c r="AB109">
-        <v>1.06</v>
+        <v>-0.5</v>
       </c>
       <c r="AC109">
-        <v>-1</v>
+        <v>0.5249999999999999</v>
       </c>
     </row>
     <row r="110" spans="1:29">
@@ -13364,7 +13364,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>5210954</v>
+        <v>5210955</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -13376,58 +13376,58 @@
         <v>45038.5625</v>
       </c>
       <c r="F145" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G145" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="H145">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I145">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J145" t="s">
         <v>53</v>
       </c>
       <c r="K145">
-        <v>1.666</v>
+        <v>2.25</v>
       </c>
       <c r="L145">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M145">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="N145">
-        <v>1.65</v>
+        <v>2.5</v>
       </c>
       <c r="O145">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P145">
-        <v>5.75</v>
+        <v>2.8</v>
       </c>
       <c r="Q145">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R145">
-        <v>1.89</v>
+        <v>1.79</v>
       </c>
       <c r="S145">
-        <v>2.01</v>
+        <v>2.11</v>
       </c>
       <c r="T145">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U145">
-        <v>2.01</v>
+        <v>2.05</v>
       </c>
       <c r="V145">
-        <v>1.89</v>
+        <v>1.85</v>
       </c>
       <c r="W145">
-        <v>0.6499999999999999</v>
+        <v>1.5</v>
       </c>
       <c r="X145">
         <v>-1</v>
@@ -13436,16 +13436,16 @@
         <v>-1</v>
       </c>
       <c r="Z145">
-        <v>0.445</v>
+        <v>0.79</v>
       </c>
       <c r="AA145">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB145">
-        <v>1.01</v>
+        <v>-1</v>
       </c>
       <c r="AC145">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="146" spans="1:29">
@@ -13453,7 +13453,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>5210955</v>
+        <v>5210954</v>
       </c>
       <c r="C146" t="s">
         <v>28</v>
@@ -13465,58 +13465,58 @@
         <v>45038.5625</v>
       </c>
       <c r="F146" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G146" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="H146">
+        <v>2</v>
+      </c>
+      <c r="I146">
         <v>1</v>
-      </c>
-      <c r="I146">
-        <v>0</v>
       </c>
       <c r="J146" t="s">
         <v>53</v>
       </c>
       <c r="K146">
+        <v>1.666</v>
+      </c>
+      <c r="L146">
+        <v>3.75</v>
+      </c>
+      <c r="M146">
+        <v>5</v>
+      </c>
+      <c r="N146">
+        <v>1.65</v>
+      </c>
+      <c r="O146">
+        <v>3.6</v>
+      </c>
+      <c r="P146">
+        <v>5.75</v>
+      </c>
+      <c r="Q146">
+        <v>-0.75</v>
+      </c>
+      <c r="R146">
+        <v>1.89</v>
+      </c>
+      <c r="S146">
+        <v>2.01</v>
+      </c>
+      <c r="T146">
         <v>2.25</v>
       </c>
-      <c r="L146">
-        <v>3.4</v>
-      </c>
-      <c r="M146">
-        <v>3.1</v>
-      </c>
-      <c r="N146">
-        <v>2.5</v>
-      </c>
-      <c r="O146">
-        <v>3.4</v>
-      </c>
-      <c r="P146">
-        <v>2.8</v>
-      </c>
-      <c r="Q146">
-        <v>0</v>
-      </c>
-      <c r="R146">
-        <v>1.79</v>
-      </c>
-      <c r="S146">
-        <v>2.11</v>
-      </c>
-      <c r="T146">
-        <v>2.5</v>
-      </c>
       <c r="U146">
-        <v>2.05</v>
+        <v>2.01</v>
       </c>
       <c r="V146">
-        <v>1.85</v>
+        <v>1.89</v>
       </c>
       <c r="W146">
-        <v>1.5</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X146">
         <v>-1</v>
@@ -13525,16 +13525,16 @@
         <v>-1</v>
       </c>
       <c r="Z146">
-        <v>0.79</v>
+        <v>0.445</v>
       </c>
       <c r="AA146">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB146">
-        <v>-1</v>
+        <v>1.01</v>
       </c>
       <c r="AC146">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="147" spans="1:29">
@@ -13987,7 +13987,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>5461881</v>
+        <v>5470775</v>
       </c>
       <c r="C152" t="s">
         <v>28</v>
@@ -13999,76 +13999,76 @@
         <v>45041.60416666666</v>
       </c>
       <c r="F152" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G152" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I152">
+        <v>2</v>
+      </c>
+      <c r="J152" t="s">
+        <v>53</v>
+      </c>
+      <c r="K152">
+        <v>6</v>
+      </c>
+      <c r="L152">
+        <v>4</v>
+      </c>
+      <c r="M152">
+        <v>1.533</v>
+      </c>
+      <c r="N152">
+        <v>5.25</v>
+      </c>
+      <c r="O152">
+        <v>4.2</v>
+      </c>
+      <c r="P152">
+        <v>1.6</v>
+      </c>
+      <c r="Q152">
         <v>1</v>
       </c>
-      <c r="J152" t="s">
-        <v>52</v>
-      </c>
-      <c r="K152">
-        <v>2.3</v>
-      </c>
-      <c r="L152">
-        <v>3.2</v>
-      </c>
-      <c r="M152">
-        <v>3.2</v>
-      </c>
-      <c r="N152">
-        <v>2.05</v>
-      </c>
-      <c r="O152">
-        <v>3.2</v>
-      </c>
-      <c r="P152">
-        <v>4</v>
-      </c>
-      <c r="Q152">
-        <v>-0.5</v>
-      </c>
       <c r="R152">
-        <v>2.08</v>
+        <v>1.84</v>
       </c>
       <c r="S152">
-        <v>1.82</v>
+        <v>2.06</v>
       </c>
       <c r="T152">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U152">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="V152">
-        <v>1.97</v>
+        <v>1.95</v>
       </c>
       <c r="W152">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="X152">
         <v>-1</v>
       </c>
       <c r="Y152">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z152">
-        <v>-1</v>
+        <v>0.8400000000000001</v>
       </c>
       <c r="AA152">
-        <v>0.8200000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB152">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC152">
-        <v>0.97</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="153" spans="1:29">
@@ -14076,7 +14076,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>5470775</v>
+        <v>5461881</v>
       </c>
       <c r="C153" t="s">
         <v>28</v>
@@ -14088,76 +14088,76 @@
         <v>45041.60416666666</v>
       </c>
       <c r="F153" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G153" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="H153">
+        <v>0</v>
+      </c>
+      <c r="I153">
+        <v>1</v>
+      </c>
+      <c r="J153" t="s">
+        <v>52</v>
+      </c>
+      <c r="K153">
+        <v>2.3</v>
+      </c>
+      <c r="L153">
+        <v>3.2</v>
+      </c>
+      <c r="M153">
+        <v>3.2</v>
+      </c>
+      <c r="N153">
+        <v>2.05</v>
+      </c>
+      <c r="O153">
+        <v>3.2</v>
+      </c>
+      <c r="P153">
         <v>4</v>
       </c>
-      <c r="I153">
+      <c r="Q153">
+        <v>-0.5</v>
+      </c>
+      <c r="R153">
+        <v>2.08</v>
+      </c>
+      <c r="S153">
+        <v>1.82</v>
+      </c>
+      <c r="T153">
         <v>2</v>
       </c>
-      <c r="J153" t="s">
-        <v>53</v>
-      </c>
-      <c r="K153">
-        <v>6</v>
-      </c>
-      <c r="L153">
-        <v>4</v>
-      </c>
-      <c r="M153">
-        <v>1.533</v>
-      </c>
-      <c r="N153">
-        <v>5.25</v>
-      </c>
-      <c r="O153">
-        <v>4.2</v>
-      </c>
-      <c r="P153">
-        <v>1.6</v>
-      </c>
-      <c r="Q153">
-        <v>1</v>
-      </c>
-      <c r="R153">
-        <v>1.84</v>
-      </c>
-      <c r="S153">
-        <v>2.06</v>
-      </c>
-      <c r="T153">
+      <c r="U153">
+        <v>1.93</v>
+      </c>
+      <c r="V153">
+        <v>1.97</v>
+      </c>
+      <c r="W153">
+        <v>-1</v>
+      </c>
+      <c r="X153">
+        <v>-1</v>
+      </c>
+      <c r="Y153">
         <v>3</v>
       </c>
-      <c r="U153">
-        <v>1.95</v>
-      </c>
-      <c r="V153">
-        <v>1.95</v>
-      </c>
-      <c r="W153">
-        <v>4.25</v>
-      </c>
-      <c r="X153">
-        <v>-1</v>
-      </c>
-      <c r="Y153">
-        <v>-1</v>
-      </c>
       <c r="Z153">
-        <v>0.8400000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA153">
-        <v>-1</v>
+        <v>0.8200000000000001</v>
       </c>
       <c r="AB153">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC153">
-        <v>-1</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="154" spans="1:29">
@@ -14254,7 +14254,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>5471430</v>
+        <v>5475945</v>
       </c>
       <c r="C155" t="s">
         <v>28</v>
@@ -14266,73 +14266,73 @@
         <v>45042.60416666666</v>
       </c>
       <c r="F155" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G155" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H155">
+        <v>3</v>
+      </c>
+      <c r="I155">
         <v>1</v>
       </c>
-      <c r="I155">
-        <v>2</v>
-      </c>
       <c r="J155" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K155">
-        <v>1.95</v>
+        <v>1.363</v>
       </c>
       <c r="L155">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="M155">
-        <v>3.8</v>
+        <v>9</v>
       </c>
       <c r="N155">
-        <v>1.85</v>
+        <v>1.3</v>
       </c>
       <c r="O155">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="P155">
-        <v>4.5</v>
+        <v>12</v>
       </c>
       <c r="Q155">
-        <v>-0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R155">
-        <v>1.88</v>
+        <v>2.04</v>
       </c>
       <c r="S155">
-        <v>2.02</v>
+        <v>1.86</v>
       </c>
       <c r="T155">
         <v>2.25</v>
       </c>
       <c r="U155">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="V155">
-        <v>1.9</v>
+        <v>2.03</v>
       </c>
       <c r="W155">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="X155">
         <v>-1</v>
       </c>
       <c r="Y155">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Z155">
-        <v>-1</v>
+        <v>1.04</v>
       </c>
       <c r="AA155">
-        <v>1.02</v>
+        <v>-1</v>
       </c>
       <c r="AB155">
-        <v>1</v>
+        <v>0.8700000000000001</v>
       </c>
       <c r="AC155">
         <v>-1</v>
@@ -14343,7 +14343,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>5475945</v>
+        <v>5471430</v>
       </c>
       <c r="C156" t="s">
         <v>28</v>
@@ -14355,73 +14355,73 @@
         <v>45042.60416666666</v>
       </c>
       <c r="F156" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="G156" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H156">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I156">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J156" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K156">
-        <v>1.363</v>
+        <v>1.95</v>
       </c>
       <c r="L156">
+        <v>3.4</v>
+      </c>
+      <c r="M156">
+        <v>3.8</v>
+      </c>
+      <c r="N156">
+        <v>1.85</v>
+      </c>
+      <c r="O156">
+        <v>3.5</v>
+      </c>
+      <c r="P156">
         <v>4.5</v>
       </c>
-      <c r="M156">
-        <v>9</v>
-      </c>
-      <c r="N156">
-        <v>1.3</v>
-      </c>
-      <c r="O156">
-        <v>4.75</v>
-      </c>
-      <c r="P156">
-        <v>12</v>
-      </c>
       <c r="Q156">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R156">
-        <v>2.04</v>
+        <v>1.88</v>
       </c>
       <c r="S156">
-        <v>1.86</v>
+        <v>2.02</v>
       </c>
       <c r="T156">
         <v>2.25</v>
       </c>
       <c r="U156">
-        <v>1.87</v>
+        <v>2</v>
       </c>
       <c r="V156">
-        <v>2.03</v>
+        <v>1.9</v>
       </c>
       <c r="W156">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="X156">
         <v>-1</v>
       </c>
       <c r="Y156">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Z156">
-        <v>1.04</v>
+        <v>-1</v>
       </c>
       <c r="AA156">
-        <v>-1</v>
+        <v>1.02</v>
       </c>
       <c r="AB156">
-        <v>0.8700000000000001</v>
+        <v>1</v>
       </c>
       <c r="AC156">
         <v>-1</v>
@@ -16123,7 +16123,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>5549244</v>
+        <v>5534214</v>
       </c>
       <c r="C176" t="s">
         <v>28</v>
@@ -16135,58 +16135,58 @@
         <v>45049.70833333334</v>
       </c>
       <c r="F176" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="G176" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H176">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I176">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J176" t="s">
         <v>53</v>
       </c>
       <c r="K176">
-        <v>1.3</v>
+        <v>2.55</v>
       </c>
       <c r="L176">
-        <v>5.5</v>
+        <v>3</v>
       </c>
       <c r="M176">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="N176">
-        <v>1.333</v>
+        <v>2.8</v>
       </c>
       <c r="O176">
-        <v>5.25</v>
+        <v>2.9</v>
       </c>
       <c r="P176">
-        <v>9.5</v>
+        <v>2.875</v>
       </c>
       <c r="Q176">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="R176">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S176">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T176">
-        <v>3</v>
+        <v>1.75</v>
       </c>
       <c r="U176">
-        <v>2.07</v>
+        <v>1.86</v>
       </c>
       <c r="V176">
-        <v>1.83</v>
+        <v>2.04</v>
       </c>
       <c r="W176">
-        <v>0.333</v>
+        <v>1.8</v>
       </c>
       <c r="X176">
         <v>-1</v>
@@ -16195,16 +16195,16 @@
         <v>-1</v>
       </c>
       <c r="Z176">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA176">
         <v>-1</v>
       </c>
       <c r="AB176">
-        <v>1.07</v>
+        <v>-1</v>
       </c>
       <c r="AC176">
-        <v>-1</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="177" spans="1:29">
@@ -16212,7 +16212,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>5534214</v>
+        <v>5549244</v>
       </c>
       <c r="C177" t="s">
         <v>28</v>
@@ -16224,58 +16224,58 @@
         <v>45049.70833333334</v>
       </c>
       <c r="F177" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G177" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H177">
+        <v>5</v>
+      </c>
+      <c r="I177">
         <v>1</v>
-      </c>
-      <c r="I177">
-        <v>0</v>
       </c>
       <c r="J177" t="s">
         <v>53</v>
       </c>
       <c r="K177">
-        <v>2.55</v>
+        <v>1.3</v>
       </c>
       <c r="L177">
+        <v>5.5</v>
+      </c>
+      <c r="M177">
+        <v>10</v>
+      </c>
+      <c r="N177">
+        <v>1.333</v>
+      </c>
+      <c r="O177">
+        <v>5.25</v>
+      </c>
+      <c r="P177">
+        <v>9.5</v>
+      </c>
+      <c r="Q177">
+        <v>-1.5</v>
+      </c>
+      <c r="R177">
+        <v>1.95</v>
+      </c>
+      <c r="S177">
+        <v>1.95</v>
+      </c>
+      <c r="T177">
         <v>3</v>
       </c>
-      <c r="M177">
-        <v>3</v>
-      </c>
-      <c r="N177">
-        <v>2.8</v>
-      </c>
-      <c r="O177">
-        <v>2.9</v>
-      </c>
-      <c r="P177">
-        <v>2.875</v>
-      </c>
-      <c r="Q177">
-        <v>0</v>
-      </c>
-      <c r="R177">
-        <v>1.9</v>
-      </c>
-      <c r="S177">
-        <v>2</v>
-      </c>
-      <c r="T177">
-        <v>1.75</v>
-      </c>
       <c r="U177">
-        <v>1.86</v>
+        <v>2.07</v>
       </c>
       <c r="V177">
-        <v>2.04</v>
+        <v>1.83</v>
       </c>
       <c r="W177">
-        <v>1.8</v>
+        <v>0.333</v>
       </c>
       <c r="X177">
         <v>-1</v>
@@ -16284,16 +16284,16 @@
         <v>-1</v>
       </c>
       <c r="Z177">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AA177">
         <v>-1</v>
       </c>
       <c r="AB177">
-        <v>-1</v>
+        <v>1.07</v>
       </c>
       <c r="AC177">
-        <v>1.04</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="178" spans="1:29">
@@ -17814,7 +17814,7 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>5611043</v>
+        <v>5611042</v>
       </c>
       <c r="C195" t="s">
         <v>28</v>
@@ -17826,76 +17826,76 @@
         <v>45066.5625</v>
       </c>
       <c r="F195" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="G195" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H195">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I195">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J195" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K195">
-        <v>1.5</v>
+        <v>2.3</v>
       </c>
       <c r="L195">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="M195">
-        <v>6.5</v>
+        <v>3.2</v>
       </c>
       <c r="N195">
-        <v>1.65</v>
+        <v>2.25</v>
       </c>
       <c r="O195">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="P195">
-        <v>6</v>
+        <v>3.3</v>
       </c>
       <c r="Q195">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R195">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="S195">
-        <v>2.01</v>
+        <v>1.95</v>
       </c>
       <c r="T195">
         <v>2.25</v>
       </c>
       <c r="U195">
-        <v>2.09</v>
+        <v>1.9</v>
       </c>
       <c r="V195">
-        <v>1.81</v>
+        <v>2</v>
       </c>
       <c r="W195">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X195">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y195">
         <v>-1</v>
       </c>
       <c r="Z195">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA195">
-        <v>1.01</v>
+        <v>-1</v>
       </c>
       <c r="AB195">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC195">
-        <v>0.405</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="196" spans="1:29">
@@ -17903,7 +17903,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>5611042</v>
+        <v>5611043</v>
       </c>
       <c r="C196" t="s">
         <v>28</v>
@@ -17915,76 +17915,76 @@
         <v>45066.5625</v>
       </c>
       <c r="F196" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="G196" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H196">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I196">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J196" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K196">
-        <v>2.3</v>
+        <v>1.5</v>
       </c>
       <c r="L196">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="M196">
-        <v>3.2</v>
+        <v>6.5</v>
       </c>
       <c r="N196">
-        <v>2.25</v>
+        <v>1.65</v>
       </c>
       <c r="O196">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="P196">
-        <v>3.3</v>
+        <v>6</v>
       </c>
       <c r="Q196">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R196">
-        <v>1.95</v>
+        <v>1.89</v>
       </c>
       <c r="S196">
-        <v>1.95</v>
+        <v>2.01</v>
       </c>
       <c r="T196">
         <v>2.25</v>
       </c>
       <c r="U196">
-        <v>1.9</v>
+        <v>2.09</v>
       </c>
       <c r="V196">
-        <v>2</v>
+        <v>1.81</v>
       </c>
       <c r="W196">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X196">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y196">
         <v>-1</v>
       </c>
       <c r="Z196">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA196">
-        <v>-1</v>
+        <v>1.01</v>
       </c>
       <c r="AB196">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AC196">
-        <v>-1</v>
+        <v>0.405</v>
       </c>
     </row>
     <row r="197" spans="1:29">
@@ -18704,7 +18704,7 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>5634388</v>
+        <v>5638809</v>
       </c>
       <c r="C205" t="s">
         <v>28</v>
@@ -18716,76 +18716,76 @@
         <v>45070.60416666666</v>
       </c>
       <c r="F205" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G205" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="H205">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I205">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J205" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K205">
-        <v>1.45</v>
+        <v>3.8</v>
       </c>
       <c r="L205">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="M205">
-        <v>6.5</v>
+        <v>1.909</v>
       </c>
       <c r="N205">
-        <v>1.45</v>
+        <v>3.3</v>
       </c>
       <c r="O205">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="P205">
-        <v>6</v>
+        <v>2.15</v>
       </c>
       <c r="Q205">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R205">
-        <v>2.07</v>
+        <v>1.99</v>
       </c>
       <c r="S205">
-        <v>1.83</v>
+        <v>1.94</v>
       </c>
       <c r="T205">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U205">
-        <v>1.92</v>
+        <v>1.96</v>
       </c>
       <c r="V205">
-        <v>1.98</v>
+        <v>1.94</v>
       </c>
       <c r="W205">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X205">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y205">
         <v>-1</v>
       </c>
       <c r="Z205">
-        <v>1.07</v>
+        <v>0.495</v>
       </c>
       <c r="AA205">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB205">
         <v>-1</v>
       </c>
       <c r="AC205">
-        <v>0.98</v>
+        <v>0.9399999999999999</v>
       </c>
     </row>
     <row r="206" spans="1:29">
@@ -18882,7 +18882,7 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>5638809</v>
+        <v>5634388</v>
       </c>
       <c r="C207" t="s">
         <v>28</v>
@@ -18894,76 +18894,76 @@
         <v>45070.60416666666</v>
       </c>
       <c r="F207" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G207" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="H207">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I207">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J207" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K207">
-        <v>3.8</v>
+        <v>1.45</v>
       </c>
       <c r="L207">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="M207">
-        <v>1.909</v>
+        <v>6.5</v>
       </c>
       <c r="N207">
-        <v>3.3</v>
+        <v>1.45</v>
       </c>
       <c r="O207">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="P207">
-        <v>2.15</v>
+        <v>6</v>
       </c>
       <c r="Q207">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R207">
-        <v>1.99</v>
+        <v>2.07</v>
       </c>
       <c r="S207">
-        <v>1.94</v>
+        <v>1.83</v>
       </c>
       <c r="T207">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U207">
-        <v>1.96</v>
+        <v>1.92</v>
       </c>
       <c r="V207">
-        <v>1.94</v>
+        <v>1.98</v>
       </c>
       <c r="W207">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X207">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y207">
         <v>-1</v>
       </c>
       <c r="Z207">
-        <v>0.495</v>
+        <v>1.07</v>
       </c>
       <c r="AA207">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB207">
         <v>-1</v>
       </c>
       <c r="AC207">
-        <v>0.9399999999999999</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="208" spans="1:29">
@@ -18971,7 +18971,7 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>5642104</v>
+        <v>5643107</v>
       </c>
       <c r="C208" t="s">
         <v>28</v>
@@ -18983,76 +18983,76 @@
         <v>45070.70833333334</v>
       </c>
       <c r="F208" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="G208" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="H208">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I208">
+        <v>3</v>
+      </c>
+      <c r="J208" t="s">
+        <v>54</v>
+      </c>
+      <c r="K208">
+        <v>4</v>
+      </c>
+      <c r="L208">
+        <v>3.75</v>
+      </c>
+      <c r="M208">
+        <v>1.833</v>
+      </c>
+      <c r="N208">
+        <v>3</v>
+      </c>
+      <c r="O208">
+        <v>3.5</v>
+      </c>
+      <c r="P208">
+        <v>2.3</v>
+      </c>
+      <c r="Q208">
+        <v>0.25</v>
+      </c>
+      <c r="R208">
+        <v>1.82</v>
+      </c>
+      <c r="S208">
+        <v>2.11</v>
+      </c>
+      <c r="T208">
+        <v>2.75</v>
+      </c>
+      <c r="U208">
+        <v>2</v>
+      </c>
+      <c r="V208">
+        <v>1.9</v>
+      </c>
+      <c r="W208">
+        <v>-1</v>
+      </c>
+      <c r="X208">
+        <v>2.5</v>
+      </c>
+      <c r="Y208">
+        <v>-1</v>
+      </c>
+      <c r="Z208">
+        <v>0.41</v>
+      </c>
+      <c r="AA208">
+        <v>-0.5</v>
+      </c>
+      <c r="AB208">
         <v>1</v>
       </c>
-      <c r="J208" t="s">
-        <v>52</v>
-      </c>
-      <c r="K208">
-        <v>1.909</v>
-      </c>
-      <c r="L208">
-        <v>3.25</v>
-      </c>
-      <c r="M208">
-        <v>4.333</v>
-      </c>
-      <c r="N208">
-        <v>2.25</v>
-      </c>
-      <c r="O208">
-        <v>2.9</v>
-      </c>
-      <c r="P208">
-        <v>3.75</v>
-      </c>
-      <c r="Q208">
-        <v>-0.25</v>
-      </c>
-      <c r="R208">
-        <v>1.96</v>
-      </c>
-      <c r="S208">
-        <v>1.97</v>
-      </c>
-      <c r="T208">
-        <v>1.75</v>
-      </c>
-      <c r="U208">
-        <v>1.81</v>
-      </c>
-      <c r="V208">
-        <v>2.09</v>
-      </c>
-      <c r="W208">
-        <v>-1</v>
-      </c>
-      <c r="X208">
-        <v>-1</v>
-      </c>
-      <c r="Y208">
-        <v>2.75</v>
-      </c>
-      <c r="Z208">
-        <v>-1</v>
-      </c>
-      <c r="AA208">
-        <v>0.97</v>
-      </c>
-      <c r="AB208">
-        <v>-1</v>
-      </c>
       <c r="AC208">
-        <v>1.09</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="209" spans="1:29">
@@ -19060,7 +19060,7 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>5643107</v>
+        <v>5642104</v>
       </c>
       <c r="C209" t="s">
         <v>28</v>
@@ -19072,76 +19072,76 @@
         <v>45070.70833333334</v>
       </c>
       <c r="F209" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="G209" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="H209">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I209">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J209" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K209">
-        <v>4</v>
+        <v>1.909</v>
       </c>
       <c r="L209">
+        <v>3.25</v>
+      </c>
+      <c r="M209">
+        <v>4.333</v>
+      </c>
+      <c r="N209">
+        <v>2.25</v>
+      </c>
+      <c r="O209">
+        <v>2.9</v>
+      </c>
+      <c r="P209">
         <v>3.75</v>
       </c>
-      <c r="M209">
-        <v>1.833</v>
-      </c>
-      <c r="N209">
-        <v>3</v>
-      </c>
-      <c r="O209">
-        <v>3.5</v>
-      </c>
-      <c r="P209">
-        <v>2.3</v>
-      </c>
       <c r="Q209">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R209">
-        <v>1.82</v>
+        <v>1.96</v>
       </c>
       <c r="S209">
-        <v>2.11</v>
+        <v>1.97</v>
       </c>
       <c r="T209">
+        <v>1.75</v>
+      </c>
+      <c r="U209">
+        <v>1.81</v>
+      </c>
+      <c r="V209">
+        <v>2.09</v>
+      </c>
+      <c r="W209">
+        <v>-1</v>
+      </c>
+      <c r="X209">
+        <v>-1</v>
+      </c>
+      <c r="Y209">
         <v>2.75</v>
       </c>
-      <c r="U209">
-        <v>2</v>
-      </c>
-      <c r="V209">
-        <v>1.9</v>
-      </c>
-      <c r="W209">
-        <v>-1</v>
-      </c>
-      <c r="X209">
-        <v>2.5</v>
-      </c>
-      <c r="Y209">
-        <v>-1</v>
-      </c>
       <c r="Z209">
-        <v>0.41</v>
+        <v>-1</v>
       </c>
       <c r="AA209">
-        <v>-0.5</v>
+        <v>0.97</v>
       </c>
       <c r="AB209">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC209">
-        <v>-1</v>
+        <v>1.09</v>
       </c>
     </row>
     <row r="210" spans="1:29">
@@ -19416,7 +19416,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>5705884</v>
+        <v>5697401</v>
       </c>
       <c r="C213" t="s">
         <v>28</v>
@@ -19428,56 +19428,56 @@
         <v>45074.58333333334</v>
       </c>
       <c r="F213" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G213" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="H213">
+        <v>0</v>
+      </c>
+      <c r="I213">
         <v>1</v>
-      </c>
-      <c r="I213">
-        <v>2</v>
       </c>
       <c r="J213" t="s">
         <v>52</v>
       </c>
       <c r="K213">
-        <v>2.2</v>
+        <v>1.4</v>
       </c>
       <c r="L213">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="M213">
-        <v>3.1</v>
+        <v>8</v>
       </c>
       <c r="N213">
-        <v>1.909</v>
+        <v>1.4</v>
       </c>
       <c r="O213">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="P213">
-        <v>3.8</v>
+        <v>8</v>
       </c>
       <c r="Q213">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R213">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="S213">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="T213">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U213">
+        <v>1.91</v>
+      </c>
+      <c r="V213">
         <v>1.99</v>
       </c>
-      <c r="V213">
-        <v>1.91</v>
-      </c>
       <c r="W213">
         <v>-1</v>
       </c>
@@ -19485,19 +19485,19 @@
         <v>-1</v>
       </c>
       <c r="Y213">
-        <v>2.8</v>
+        <v>7</v>
       </c>
       <c r="Z213">
         <v>-1</v>
       </c>
       <c r="AA213">
-        <v>0.9199999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AB213">
+        <v>-1</v>
+      </c>
+      <c r="AC213">
         <v>0.99</v>
-      </c>
-      <c r="AC213">
-        <v>-1</v>
       </c>
     </row>
     <row r="214" spans="1:29">
@@ -19505,7 +19505,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>5705727</v>
+        <v>5703047</v>
       </c>
       <c r="C214" t="s">
         <v>28</v>
@@ -19517,76 +19517,76 @@
         <v>45074.58333333334</v>
       </c>
       <c r="F214" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="G214" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H214">
+        <v>3</v>
+      </c>
+      <c r="I214">
+        <v>0</v>
+      </c>
+      <c r="J214" t="s">
+        <v>53</v>
+      </c>
+      <c r="K214">
+        <v>1.5</v>
+      </c>
+      <c r="L214">
+        <v>4.5</v>
+      </c>
+      <c r="M214">
+        <v>6</v>
+      </c>
+      <c r="N214">
+        <v>1.25</v>
+      </c>
+      <c r="O214">
+        <v>5.75</v>
+      </c>
+      <c r="P214">
+        <v>12</v>
+      </c>
+      <c r="Q214">
+        <v>-1.75</v>
+      </c>
+      <c r="R214">
         <v>2</v>
       </c>
-      <c r="I214">
-        <v>2</v>
-      </c>
-      <c r="J214" t="s">
-        <v>54</v>
-      </c>
-      <c r="K214">
-        <v>1.909</v>
-      </c>
-      <c r="L214">
-        <v>3.6</v>
-      </c>
-      <c r="M214">
-        <v>3.75</v>
-      </c>
-      <c r="N214">
-        <v>2</v>
-      </c>
-      <c r="O214">
-        <v>3.5</v>
-      </c>
-      <c r="P214">
-        <v>3.6</v>
-      </c>
-      <c r="Q214">
-        <v>-0.5</v>
-      </c>
-      <c r="R214">
-        <v>2.025</v>
-      </c>
       <c r="S214">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="T214">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U214">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="V214">
-        <v>1.83</v>
+        <v>1.97</v>
       </c>
       <c r="W214">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X214">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y214">
         <v>-1</v>
       </c>
       <c r="Z214">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA214">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB214">
-        <v>1.07</v>
+        <v>0</v>
       </c>
       <c r="AC214">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="215" spans="1:29">
@@ -19594,7 +19594,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>5701613</v>
+        <v>5697402</v>
       </c>
       <c r="C215" t="s">
         <v>28</v>
@@ -19606,76 +19606,76 @@
         <v>45074.58333333334</v>
       </c>
       <c r="F215" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="G215" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H215">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I215">
         <v>0</v>
       </c>
       <c r="J215" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K215">
-        <v>2.6</v>
+        <v>2.25</v>
       </c>
       <c r="L215">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M215">
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
       <c r="N215">
-        <v>2.45</v>
+        <v>2.2</v>
       </c>
       <c r="O215">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P215">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="Q215">
         <v>-0.25</v>
       </c>
       <c r="R215">
-        <v>2.075</v>
+        <v>1.97</v>
       </c>
       <c r="S215">
-        <v>1.725</v>
+        <v>1.93</v>
       </c>
       <c r="T215">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U215">
-        <v>1.95</v>
+        <v>1.86</v>
       </c>
       <c r="V215">
-        <v>1.95</v>
+        <v>2.04</v>
       </c>
       <c r="W215">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="X215">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y215">
         <v>-1</v>
       </c>
       <c r="Z215">
-        <v>1.075</v>
+        <v>-0.5</v>
       </c>
       <c r="AA215">
-        <v>-1</v>
+        <v>0.465</v>
       </c>
       <c r="AB215">
         <v>-1</v>
       </c>
       <c r="AC215">
-        <v>0.95</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="216" spans="1:29">
@@ -19772,7 +19772,7 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>5697402</v>
+        <v>5705727</v>
       </c>
       <c r="C217" t="s">
         <v>28</v>
@@ -19784,76 +19784,76 @@
         <v>45074.58333333334</v>
       </c>
       <c r="F217" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G217" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H217">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I217">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J217" t="s">
         <v>54</v>
       </c>
       <c r="K217">
-        <v>2.25</v>
+        <v>1.909</v>
       </c>
       <c r="L217">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M217">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="N217">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="O217">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P217">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="Q217">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R217">
-        <v>1.97</v>
+        <v>2.025</v>
       </c>
       <c r="S217">
-        <v>1.93</v>
+        <v>1.775</v>
       </c>
       <c r="T217">
         <v>2.5</v>
       </c>
       <c r="U217">
-        <v>1.86</v>
+        <v>2.07</v>
       </c>
       <c r="V217">
-        <v>2.04</v>
+        <v>1.83</v>
       </c>
       <c r="W217">
         <v>-1</v>
       </c>
       <c r="X217">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="Y217">
         <v>-1</v>
       </c>
       <c r="Z217">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA217">
-        <v>0.465</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB217">
-        <v>-1</v>
+        <v>1.07</v>
       </c>
       <c r="AC217">
-        <v>1.04</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="218" spans="1:29">
@@ -19861,7 +19861,7 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>5713343</v>
+        <v>5705884</v>
       </c>
       <c r="C218" t="s">
         <v>28</v>
@@ -19873,76 +19873,76 @@
         <v>45074.58333333334</v>
       </c>
       <c r="F218" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G218" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="H218">
+        <v>1</v>
+      </c>
+      <c r="I218">
         <v>2</v>
       </c>
-      <c r="I218">
-        <v>1</v>
-      </c>
       <c r="J218" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K218">
-        <v>2.875</v>
+        <v>2.2</v>
       </c>
       <c r="L218">
         <v>3.5</v>
       </c>
       <c r="M218">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="N218">
-        <v>3</v>
+        <v>1.909</v>
       </c>
       <c r="O218">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P218">
-        <v>2.2</v>
+        <v>3.8</v>
       </c>
       <c r="Q218">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R218">
-        <v>1.9</v>
+        <v>1.98</v>
       </c>
       <c r="S218">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="T218">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U218">
-        <v>2.06</v>
+        <v>1.99</v>
       </c>
       <c r="V218">
-        <v>1.84</v>
+        <v>1.91</v>
       </c>
       <c r="W218">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X218">
         <v>-1</v>
       </c>
       <c r="Y218">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Z218">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA218">
-        <v>-1</v>
+        <v>0.9199999999999999</v>
       </c>
       <c r="AB218">
-        <v>0</v>
+        <v>0.99</v>
       </c>
       <c r="AC218">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="219" spans="1:29">
@@ -19950,7 +19950,7 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>5703047</v>
+        <v>5701613</v>
       </c>
       <c r="C219" t="s">
         <v>28</v>
@@ -19962,13 +19962,13 @@
         <v>45074.58333333334</v>
       </c>
       <c r="F219" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G219" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H219">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I219">
         <v>0</v>
@@ -19977,43 +19977,43 @@
         <v>53</v>
       </c>
       <c r="K219">
-        <v>1.5</v>
+        <v>2.6</v>
       </c>
       <c r="L219">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="M219">
-        <v>6</v>
+        <v>2.7</v>
       </c>
       <c r="N219">
-        <v>1.25</v>
+        <v>2.45</v>
       </c>
       <c r="O219">
-        <v>5.75</v>
+        <v>3.1</v>
       </c>
       <c r="P219">
-        <v>12</v>
+        <v>3.1</v>
       </c>
       <c r="Q219">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R219">
+        <v>2.075</v>
+      </c>
+      <c r="S219">
+        <v>1.725</v>
+      </c>
+      <c r="T219">
         <v>2</v>
       </c>
-      <c r="S219">
-        <v>1.9</v>
-      </c>
-      <c r="T219">
-        <v>3</v>
-      </c>
       <c r="U219">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="V219">
-        <v>1.97</v>
+        <v>1.95</v>
       </c>
       <c r="W219">
-        <v>0.25</v>
+        <v>1.45</v>
       </c>
       <c r="X219">
         <v>-1</v>
@@ -20022,16 +20022,16 @@
         <v>-1</v>
       </c>
       <c r="Z219">
-        <v>1</v>
+        <v>1.075</v>
       </c>
       <c r="AA219">
         <v>-1</v>
       </c>
       <c r="AB219">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC219">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="220" spans="1:29">
@@ -20039,7 +20039,7 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>5697401</v>
+        <v>5713343</v>
       </c>
       <c r="C220" t="s">
         <v>28</v>
@@ -20051,76 +20051,76 @@
         <v>45074.58333333334</v>
       </c>
       <c r="F220" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G220" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H220">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I220">
         <v>1</v>
       </c>
       <c r="J220" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K220">
-        <v>1.4</v>
+        <v>2.875</v>
       </c>
       <c r="L220">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="M220">
-        <v>8</v>
+        <v>2.3</v>
       </c>
       <c r="N220">
-        <v>1.4</v>
+        <v>3</v>
       </c>
       <c r="O220">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="P220">
-        <v>8</v>
+        <v>2.2</v>
       </c>
       <c r="Q220">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R220">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S220">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T220">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U220">
-        <v>1.91</v>
+        <v>2.06</v>
       </c>
       <c r="V220">
-        <v>1.99</v>
+        <v>1.84</v>
       </c>
       <c r="W220">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X220">
         <v>-1</v>
       </c>
       <c r="Y220">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="Z220">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA220">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB220">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC220">
-        <v>0.99</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="221" spans="1:29">
@@ -20128,7 +20128,7 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>5730415</v>
+        <v>5734136</v>
       </c>
       <c r="C221" t="s">
         <v>28</v>
@@ -20140,76 +20140,76 @@
         <v>45081.5625</v>
       </c>
       <c r="F221" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="G221" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H221">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I221">
         <v>1</v>
       </c>
       <c r="J221" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K221">
-        <v>2.25</v>
+        <v>1.95</v>
       </c>
       <c r="L221">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M221">
+        <v>3.6</v>
+      </c>
+      <c r="N221">
+        <v>1.65</v>
+      </c>
+      <c r="O221">
+        <v>4</v>
+      </c>
+      <c r="P221">
+        <v>4.75</v>
+      </c>
+      <c r="Q221">
+        <v>-0.75</v>
+      </c>
+      <c r="R221">
+        <v>1.84</v>
+      </c>
+      <c r="S221">
+        <v>2.06</v>
+      </c>
+      <c r="T221">
         <v>3</v>
       </c>
-      <c r="N221">
-        <v>2.05</v>
-      </c>
-      <c r="O221">
-        <v>3.6</v>
-      </c>
-      <c r="P221">
-        <v>3.25</v>
-      </c>
-      <c r="Q221">
-        <v>-0.25</v>
-      </c>
-      <c r="R221">
-        <v>1.85</v>
-      </c>
-      <c r="S221">
-        <v>2.05</v>
-      </c>
-      <c r="T221">
-        <v>2.75</v>
-      </c>
       <c r="U221">
-        <v>2.02</v>
+        <v>1.9</v>
       </c>
       <c r="V221">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="W221">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X221">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y221">
         <v>-1</v>
       </c>
       <c r="Z221">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA221">
-        <v>-1</v>
+        <v>1.06</v>
       </c>
       <c r="AB221">
-        <v>0.51</v>
+        <v>-1</v>
       </c>
       <c r="AC221">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="222" spans="1:29">
@@ -20217,7 +20217,7 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>5732767</v>
+        <v>5776609</v>
       </c>
       <c r="C222" t="s">
         <v>28</v>
@@ -20229,49 +20229,49 @@
         <v>45081.5625</v>
       </c>
       <c r="F222" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="G222" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H222">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I222">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J222" t="s">
         <v>53</v>
       </c>
       <c r="K222">
-        <v>3.4</v>
+        <v>2.25</v>
       </c>
       <c r="L222">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M222">
-        <v>2.15</v>
+        <v>2.9</v>
       </c>
       <c r="N222">
-        <v>3</v>
+        <v>1.571</v>
       </c>
       <c r="O222">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="P222">
-        <v>2.45</v>
+        <v>5.75</v>
       </c>
       <c r="Q222">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R222">
-        <v>1.8</v>
+        <v>2.01</v>
       </c>
       <c r="S222">
-        <v>2.14</v>
+        <v>1.89</v>
       </c>
       <c r="T222">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U222">
         <v>1.89</v>
@@ -20280,7 +20280,7 @@
         <v>2.01</v>
       </c>
       <c r="W222">
-        <v>2</v>
+        <v>0.571</v>
       </c>
       <c r="X222">
         <v>-1</v>
@@ -20289,10 +20289,10 @@
         <v>-1</v>
       </c>
       <c r="Z222">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AA222">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB222">
         <v>0.8899999999999999</v>
@@ -20306,7 +20306,7 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>5734136</v>
+        <v>5732767</v>
       </c>
       <c r="C223" t="s">
         <v>28</v>
@@ -20318,76 +20318,76 @@
         <v>45081.5625</v>
       </c>
       <c r="F223" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="G223" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H223">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I223">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J223" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K223">
-        <v>1.95</v>
+        <v>3.4</v>
       </c>
       <c r="L223">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M223">
-        <v>3.6</v>
+        <v>2.15</v>
       </c>
       <c r="N223">
-        <v>1.65</v>
+        <v>3</v>
       </c>
       <c r="O223">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="P223">
-        <v>4.75</v>
+        <v>2.45</v>
       </c>
       <c r="Q223">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R223">
-        <v>1.84</v>
+        <v>1.8</v>
       </c>
       <c r="S223">
-        <v>2.06</v>
+        <v>2.14</v>
       </c>
       <c r="T223">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U223">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="V223">
+        <v>2.01</v>
+      </c>
+      <c r="W223">
         <v>2</v>
       </c>
-      <c r="W223">
-        <v>-1</v>
-      </c>
       <c r="X223">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y223">
         <v>-1</v>
       </c>
       <c r="Z223">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA223">
-        <v>1.06</v>
+        <v>-1</v>
       </c>
       <c r="AB223">
-        <v>-1</v>
+        <v>0.8899999999999999</v>
       </c>
       <c r="AC223">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="224" spans="1:29">
@@ -20395,7 +20395,7 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>5776609</v>
+        <v>5776610</v>
       </c>
       <c r="C224" t="s">
         <v>28</v>
@@ -20407,61 +20407,61 @@
         <v>45081.5625</v>
       </c>
       <c r="F224" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="G224" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H224">
         <v>2</v>
       </c>
       <c r="I224">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J224" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K224">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="L224">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M224">
-        <v>2.9</v>
+        <v>2.45</v>
       </c>
       <c r="N224">
-        <v>1.571</v>
+        <v>2.625</v>
       </c>
       <c r="O224">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P224">
-        <v>5.75</v>
+        <v>2.45</v>
       </c>
       <c r="Q224">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R224">
-        <v>2.01</v>
+        <v>2.04</v>
       </c>
       <c r="S224">
-        <v>1.89</v>
+        <v>1.86</v>
       </c>
       <c r="T224">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U224">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="V224">
-        <v>2.01</v>
+        <v>2.02</v>
       </c>
       <c r="W224">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X224">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y224">
         <v>-1</v>
@@ -20473,7 +20473,7 @@
         <v>-0</v>
       </c>
       <c r="AB224">
-        <v>0.8899999999999999</v>
+        <v>0.8799999999999999</v>
       </c>
       <c r="AC224">
         <v>-1</v>
@@ -20484,7 +20484,7 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>5776610</v>
+        <v>5730415</v>
       </c>
       <c r="C225" t="s">
         <v>28</v>
@@ -20496,76 +20496,76 @@
         <v>45081.5625</v>
       </c>
       <c r="F225" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G225" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H225">
         <v>2</v>
       </c>
       <c r="I225">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J225" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K225">
+        <v>2.25</v>
+      </c>
+      <c r="L225">
+        <v>3.5</v>
+      </c>
+      <c r="M225">
+        <v>3</v>
+      </c>
+      <c r="N225">
+        <v>2.05</v>
+      </c>
+      <c r="O225">
+        <v>3.6</v>
+      </c>
+      <c r="P225">
+        <v>3.25</v>
+      </c>
+      <c r="Q225">
+        <v>-0.25</v>
+      </c>
+      <c r="R225">
+        <v>1.85</v>
+      </c>
+      <c r="S225">
+        <v>2.05</v>
+      </c>
+      <c r="T225">
         <v>2.75</v>
       </c>
-      <c r="L225">
-        <v>3.4</v>
-      </c>
-      <c r="M225">
-        <v>2.45</v>
-      </c>
-      <c r="N225">
-        <v>2.625</v>
-      </c>
-      <c r="O225">
-        <v>3.75</v>
-      </c>
-      <c r="P225">
-        <v>2.45</v>
-      </c>
-      <c r="Q225">
-        <v>0</v>
-      </c>
-      <c r="R225">
-        <v>2.04</v>
-      </c>
-      <c r="S225">
-        <v>1.86</v>
-      </c>
-      <c r="T225">
-        <v>3.25</v>
-      </c>
       <c r="U225">
+        <v>2.02</v>
+      </c>
+      <c r="V225">
         <v>1.88</v>
       </c>
-      <c r="V225">
-        <v>2.02</v>
-      </c>
       <c r="W225">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X225">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y225">
         <v>-1</v>
       </c>
       <c r="Z225">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA225">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB225">
-        <v>0.8799999999999999</v>
+        <v>0.51</v>
       </c>
       <c r="AC225">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="226" spans="1:29">
@@ -20573,7 +20573,7 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>5734498</v>
+        <v>5737343</v>
       </c>
       <c r="C226" t="s">
         <v>28</v>
@@ -20585,55 +20585,55 @@
         <v>45081.66666666666</v>
       </c>
       <c r="F226" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="G226" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H226">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I226">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J226" t="s">
         <v>54</v>
       </c>
       <c r="K226">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="L226">
         <v>3.4</v>
       </c>
       <c r="M226">
-        <v>3.4</v>
+        <v>2.6</v>
       </c>
       <c r="N226">
-        <v>2.05</v>
+        <v>2.45</v>
       </c>
       <c r="O226">
         <v>3.3</v>
       </c>
       <c r="P226">
-        <v>4</v>
+        <v>2.875</v>
       </c>
       <c r="Q226">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R226">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="S226">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="T226">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U226">
-        <v>1.82</v>
+        <v>1.91</v>
       </c>
       <c r="V226">
-        <v>2.08</v>
+        <v>1.99</v>
       </c>
       <c r="W226">
         <v>-1</v>
@@ -20645,16 +20645,16 @@
         <v>-1</v>
       </c>
       <c r="Z226">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA226">
-        <v>0.8200000000000001</v>
+        <v>0.375</v>
       </c>
       <c r="AB226">
         <v>-1</v>
       </c>
       <c r="AC226">
-        <v>1.08</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="227" spans="1:29">
@@ -20662,7 +20662,7 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>5737343</v>
+        <v>5734498</v>
       </c>
       <c r="C227" t="s">
         <v>28</v>
@@ -20674,55 +20674,55 @@
         <v>45081.66666666666</v>
       </c>
       <c r="F227" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="G227" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H227">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I227">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J227" t="s">
         <v>54</v>
       </c>
       <c r="K227">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="L227">
         <v>3.4</v>
       </c>
       <c r="M227">
-        <v>2.6</v>
+        <v>3.4</v>
       </c>
       <c r="N227">
-        <v>2.45</v>
+        <v>2.05</v>
       </c>
       <c r="O227">
         <v>3.3</v>
       </c>
       <c r="P227">
-        <v>2.875</v>
+        <v>4</v>
       </c>
       <c r="Q227">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R227">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="S227">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="T227">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U227">
-        <v>1.91</v>
+        <v>1.82</v>
       </c>
       <c r="V227">
-        <v>1.99</v>
+        <v>2.08</v>
       </c>
       <c r="W227">
         <v>-1</v>
@@ -20734,16 +20734,16 @@
         <v>-1</v>
       </c>
       <c r="Z227">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA227">
-        <v>0.375</v>
+        <v>0.8200000000000001</v>
       </c>
       <c r="AB227">
         <v>-1</v>
       </c>
       <c r="AC227">
-        <v>0.99</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="228" spans="1:29">
@@ -20751,7 +20751,7 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>5738382</v>
+        <v>5732768</v>
       </c>
       <c r="C228" t="s">
         <v>28</v>
@@ -20763,73 +20763,73 @@
         <v>45081.66666666666</v>
       </c>
       <c r="F228" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G228" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="H228">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I228">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J228" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K228">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="L228">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M228">
-        <v>2.2</v>
+        <v>1.909</v>
       </c>
       <c r="N228">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="O228">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P228">
-        <v>2.45</v>
+        <v>2.75</v>
       </c>
       <c r="Q228">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R228">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="S228">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="T228">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U228">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="V228">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W228">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X228">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y228">
         <v>-1</v>
       </c>
       <c r="Z228">
-        <v>1.06</v>
+        <v>-0.5</v>
       </c>
       <c r="AA228">
-        <v>-1</v>
+        <v>0.415</v>
       </c>
       <c r="AB228">
-        <v>0.95</v>
+        <v>1.1</v>
       </c>
       <c r="AC228">
         <v>-1</v>
@@ -20840,7 +20840,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>5732768</v>
+        <v>5762751</v>
       </c>
       <c r="C229" t="s">
         <v>28</v>
@@ -20852,76 +20852,76 @@
         <v>45081.66666666666</v>
       </c>
       <c r="F229" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="G229" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H229">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I229">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J229" t="s">
         <v>54</v>
       </c>
       <c r="K229">
+        <v>3.1</v>
+      </c>
+      <c r="L229">
         <v>3.5</v>
       </c>
-      <c r="L229">
-        <v>4</v>
-      </c>
       <c r="M229">
-        <v>1.909</v>
+        <v>2.2</v>
       </c>
       <c r="N229">
-        <v>2.4</v>
+        <v>2.875</v>
       </c>
       <c r="O229">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="P229">
-        <v>2.75</v>
+        <v>2.45</v>
       </c>
       <c r="Q229">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R229">
-        <v>2.1</v>
+        <v>1.78</v>
       </c>
       <c r="S229">
-        <v>1.83</v>
+        <v>2.125</v>
       </c>
       <c r="T229">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="U229">
-        <v>2.1</v>
+        <v>1.92</v>
       </c>
       <c r="V229">
-        <v>1.8</v>
+        <v>1.98</v>
       </c>
       <c r="W229">
         <v>-1</v>
       </c>
       <c r="X229">
-        <v>2.75</v>
+        <v>2.3</v>
       </c>
       <c r="Y229">
         <v>-1</v>
       </c>
       <c r="Z229">
+        <v>0.39</v>
+      </c>
+      <c r="AA229">
         <v>-0.5</v>
       </c>
-      <c r="AA229">
-        <v>0.415</v>
-      </c>
       <c r="AB229">
-        <v>1.1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC229">
-        <v>-1</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="230" spans="1:29">
@@ -20929,7 +20929,7 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>5762751</v>
+        <v>5738382</v>
       </c>
       <c r="C230" t="s">
         <v>28</v>
@@ -20941,76 +20941,76 @@
         <v>45081.66666666666</v>
       </c>
       <c r="F230" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="G230" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H230">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I230">
         <v>1</v>
       </c>
       <c r="J230" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K230">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="L230">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M230">
         <v>2.2</v>
       </c>
       <c r="N230">
-        <v>2.875</v>
+        <v>2.7</v>
       </c>
       <c r="O230">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P230">
         <v>2.45</v>
       </c>
       <c r="Q230">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R230">
-        <v>1.78</v>
+        <v>2.06</v>
       </c>
       <c r="S230">
-        <v>2.125</v>
+        <v>1.84</v>
       </c>
       <c r="T230">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U230">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="V230">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="W230">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X230">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y230">
         <v>-1</v>
       </c>
       <c r="Z230">
-        <v>0.39</v>
+        <v>1.06</v>
       </c>
       <c r="AA230">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB230">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AC230">
-        <v>0.49</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="231" spans="1:29">
@@ -26002,7 +26002,7 @@
         <v>285</v>
       </c>
       <c r="B287">
-        <v>7173100</v>
+        <v>7173107</v>
       </c>
       <c r="C287" t="s">
         <v>28</v>
@@ -26014,76 +26014,76 @@
         <v>45193.5625</v>
       </c>
       <c r="F287" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G287" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="H287">
         <v>1</v>
       </c>
       <c r="I287">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J287" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K287">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="L287">
+        <v>3.3</v>
+      </c>
+      <c r="M287">
         <v>3.5</v>
       </c>
-      <c r="M287">
-        <v>4.5</v>
-      </c>
       <c r="N287">
-        <v>1.75</v>
+        <v>1.909</v>
       </c>
       <c r="O287">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P287">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="Q287">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R287">
-        <v>2.07</v>
+        <v>1.95</v>
       </c>
       <c r="S287">
-        <v>1.86</v>
+        <v>1.95</v>
       </c>
       <c r="T287">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U287">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="V287">
-        <v>2.01</v>
+        <v>1.95</v>
       </c>
       <c r="W287">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X287">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y287">
         <v>-1</v>
       </c>
       <c r="Z287">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA287">
-        <v>0.8600000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB287">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC287">
-        <v>0.5049999999999999</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="288" spans="1:29">
@@ -26091,7 +26091,7 @@
         <v>286</v>
       </c>
       <c r="B288">
-        <v>7173107</v>
+        <v>7173100</v>
       </c>
       <c r="C288" t="s">
         <v>28</v>
@@ -26103,76 +26103,76 @@
         <v>45193.5625</v>
       </c>
       <c r="F288" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G288" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="H288">
         <v>1</v>
       </c>
       <c r="I288">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J288" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K288">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="L288">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M288">
+        <v>4.5</v>
+      </c>
+      <c r="N288">
+        <v>1.75</v>
+      </c>
+      <c r="O288">
         <v>3.5</v>
       </c>
-      <c r="N288">
-        <v>1.909</v>
-      </c>
-      <c r="O288">
-        <v>3.6</v>
-      </c>
       <c r="P288">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="Q288">
+        <v>-0.75</v>
+      </c>
+      <c r="R288">
+        <v>2.07</v>
+      </c>
+      <c r="S288">
+        <v>1.86</v>
+      </c>
+      <c r="T288">
+        <v>2.25</v>
+      </c>
+      <c r="U288">
+        <v>1.89</v>
+      </c>
+      <c r="V288">
+        <v>2.01</v>
+      </c>
+      <c r="W288">
+        <v>-1</v>
+      </c>
+      <c r="X288">
+        <v>2.5</v>
+      </c>
+      <c r="Y288">
+        <v>-1</v>
+      </c>
+      <c r="Z288">
+        <v>-1</v>
+      </c>
+      <c r="AA288">
+        <v>0.8600000000000001</v>
+      </c>
+      <c r="AB288">
         <v>-0.5</v>
       </c>
-      <c r="R288">
-        <v>1.95</v>
-      </c>
-      <c r="S288">
-        <v>1.95</v>
-      </c>
-      <c r="T288">
-        <v>2.5</v>
-      </c>
-      <c r="U288">
-        <v>1.95</v>
-      </c>
-      <c r="V288">
-        <v>1.95</v>
-      </c>
-      <c r="W288">
-        <v>0.909</v>
-      </c>
-      <c r="X288">
-        <v>-1</v>
-      </c>
-      <c r="Y288">
-        <v>-1</v>
-      </c>
-      <c r="Z288">
-        <v>0.95</v>
-      </c>
-      <c r="AA288">
-        <v>-1</v>
-      </c>
-      <c r="AB288">
-        <v>-1</v>
-      </c>
       <c r="AC288">
-        <v>0.95</v>
+        <v>0.5049999999999999</v>
       </c>
     </row>
     <row r="289" spans="1:29">
@@ -26447,7 +26447,7 @@
         <v>290</v>
       </c>
       <c r="B292">
-        <v>6809383</v>
+        <v>6809222</v>
       </c>
       <c r="C292" t="s">
         <v>28</v>
@@ -26459,76 +26459,76 @@
         <v>45196.58333333334</v>
       </c>
       <c r="F292" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G292" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H292">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I292">
         <v>2</v>
       </c>
       <c r="J292" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K292">
-        <v>1.666</v>
+        <v>1.909</v>
       </c>
       <c r="L292">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M292">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="N292">
-        <v>1.5</v>
+        <v>2.15</v>
       </c>
       <c r="O292">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="P292">
-        <v>6.5</v>
+        <v>3.25</v>
       </c>
       <c r="Q292">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R292">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="S292">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="T292">
+        <v>3</v>
+      </c>
+      <c r="U292">
+        <v>2.02</v>
+      </c>
+      <c r="V292">
+        <v>1.88</v>
+      </c>
+      <c r="W292">
+        <v>-1</v>
+      </c>
+      <c r="X292">
+        <v>-1</v>
+      </c>
+      <c r="Y292">
         <v>2.25</v>
       </c>
-      <c r="U292">
-        <v>1.92</v>
-      </c>
-      <c r="V292">
-        <v>1.98</v>
-      </c>
-      <c r="W292">
-        <v>-1</v>
-      </c>
-      <c r="X292">
-        <v>3.2</v>
-      </c>
-      <c r="Y292">
-        <v>-1</v>
-      </c>
       <c r="Z292">
         <v>-1</v>
       </c>
       <c r="AA292">
-        <v>1</v>
+        <v>1.06</v>
       </c>
       <c r="AB292">
-        <v>0.9199999999999999</v>
+        <v>0</v>
       </c>
       <c r="AC292">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="293" spans="1:29">
@@ -26536,7 +26536,7 @@
         <v>291</v>
       </c>
       <c r="B293">
-        <v>6809386</v>
+        <v>6809383</v>
       </c>
       <c r="C293" t="s">
         <v>28</v>
@@ -26548,76 +26548,76 @@
         <v>45196.58333333334</v>
       </c>
       <c r="F293" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="G293" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="H293">
         <v>2</v>
       </c>
       <c r="I293">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J293" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K293">
-        <v>1.285</v>
+        <v>1.666</v>
       </c>
       <c r="L293">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="M293">
-        <v>8</v>
+        <v>5.5</v>
       </c>
       <c r="N293">
-        <v>1.166</v>
+        <v>1.5</v>
       </c>
       <c r="O293">
-        <v>8</v>
+        <v>4.2</v>
       </c>
       <c r="P293">
-        <v>15</v>
+        <v>6.5</v>
       </c>
       <c r="Q293">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="R293">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="S293">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T293">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="U293">
-        <v>1.99</v>
+        <v>1.92</v>
       </c>
       <c r="V293">
-        <v>1.91</v>
+        <v>1.98</v>
       </c>
       <c r="W293">
-        <v>0.1659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X293">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y293">
         <v>-1</v>
       </c>
       <c r="Z293">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA293">
-        <v>-0</v>
+        <v>1</v>
       </c>
       <c r="AB293">
-        <v>-1</v>
+        <v>0.9199999999999999</v>
       </c>
       <c r="AC293">
-        <v>0.9099999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="294" spans="1:29">
@@ -26625,7 +26625,7 @@
         <v>292</v>
       </c>
       <c r="B294">
-        <v>6809222</v>
+        <v>6809386</v>
       </c>
       <c r="C294" t="s">
         <v>28</v>
@@ -26637,76 +26637,76 @@
         <v>45196.58333333334</v>
       </c>
       <c r="F294" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="G294" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="H294">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I294">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J294" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K294">
-        <v>1.909</v>
+        <v>1.285</v>
       </c>
       <c r="L294">
-        <v>3.6</v>
+        <v>6</v>
       </c>
       <c r="M294">
-        <v>3.75</v>
+        <v>8</v>
       </c>
       <c r="N294">
-        <v>2.15</v>
+        <v>1.166</v>
       </c>
       <c r="O294">
-        <v>3.75</v>
+        <v>8</v>
       </c>
       <c r="P294">
+        <v>15</v>
+      </c>
+      <c r="Q294">
+        <v>-2</v>
+      </c>
+      <c r="R294">
+        <v>1.85</v>
+      </c>
+      <c r="S294">
+        <v>2.05</v>
+      </c>
+      <c r="T294">
         <v>3.25</v>
       </c>
-      <c r="Q294">
-        <v>-0.25</v>
-      </c>
-      <c r="R294">
-        <v>1.87</v>
-      </c>
-      <c r="S294">
-        <v>2.06</v>
-      </c>
-      <c r="T294">
-        <v>3</v>
-      </c>
       <c r="U294">
-        <v>2.02</v>
+        <v>1.99</v>
       </c>
       <c r="V294">
-        <v>1.88</v>
+        <v>1.91</v>
       </c>
       <c r="W294">
-        <v>-1</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X294">
         <v>-1</v>
       </c>
       <c r="Y294">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Z294">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA294">
-        <v>1.06</v>
+        <v>-0</v>
       </c>
       <c r="AB294">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC294">
-        <v>-0</v>
+        <v>0.9099999999999999</v>
       </c>
     </row>
     <row r="295" spans="1:29">
@@ -31876,7 +31876,7 @@
         <v>351</v>
       </c>
       <c r="B353">
-        <v>6809255</v>
+        <v>6809414</v>
       </c>
       <c r="C353" t="s">
         <v>28</v>
@@ -31888,10 +31888,10 @@
         <v>45241.60416666666</v>
       </c>
       <c r="F353" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G353" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="H353">
         <v>1</v>
@@ -31903,61 +31903,61 @@
         <v>54</v>
       </c>
       <c r="K353">
-        <v>1.75</v>
+        <v>2.5</v>
       </c>
       <c r="L353">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="M353">
-        <v>4.75</v>
+        <v>3</v>
       </c>
       <c r="N353">
-        <v>1.909</v>
+        <v>2.45</v>
       </c>
       <c r="O353">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="P353">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="Q353">
+        <v>-0.25</v>
+      </c>
+      <c r="R353">
+        <v>2.11</v>
+      </c>
+      <c r="S353">
+        <v>1.79</v>
+      </c>
+      <c r="T353">
+        <v>2.25</v>
+      </c>
+      <c r="U353">
+        <v>2.02</v>
+      </c>
+      <c r="V353">
+        <v>1.88</v>
+      </c>
+      <c r="W353">
+        <v>-1</v>
+      </c>
+      <c r="X353">
+        <v>2.1</v>
+      </c>
+      <c r="Y353">
+        <v>-1</v>
+      </c>
+      <c r="Z353">
         <v>-0.5</v>
       </c>
-      <c r="R353">
-        <v>1.97</v>
-      </c>
-      <c r="S353">
-        <v>1.93</v>
-      </c>
-      <c r="T353">
-        <v>2</v>
-      </c>
-      <c r="U353">
-        <v>1.75</v>
-      </c>
-      <c r="V353">
-        <v>2.05</v>
-      </c>
-      <c r="W353">
-        <v>-1</v>
-      </c>
-      <c r="X353">
-        <v>2.2</v>
-      </c>
-      <c r="Y353">
-        <v>-1</v>
-      </c>
-      <c r="Z353">
-        <v>-1</v>
-      </c>
       <c r="AA353">
-        <v>0.9299999999999999</v>
+        <v>0.395</v>
       </c>
       <c r="AB353">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AC353">
-        <v>-0</v>
+        <v>0.4399999999999999</v>
       </c>
     </row>
     <row r="354" spans="1:29">
@@ -31965,7 +31965,7 @@
         <v>352</v>
       </c>
       <c r="B354">
-        <v>6809414</v>
+        <v>6809255</v>
       </c>
       <c r="C354" t="s">
         <v>28</v>
@@ -31977,10 +31977,10 @@
         <v>45241.60416666666</v>
       </c>
       <c r="F354" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G354" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="H354">
         <v>1</v>
@@ -31992,61 +31992,61 @@
         <v>54</v>
       </c>
       <c r="K354">
-        <v>2.5</v>
+        <v>1.75</v>
       </c>
       <c r="L354">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="M354">
-        <v>3</v>
+        <v>4.75</v>
       </c>
       <c r="N354">
-        <v>2.45</v>
+        <v>1.909</v>
       </c>
       <c r="O354">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P354">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="Q354">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R354">
-        <v>2.11</v>
+        <v>1.97</v>
       </c>
       <c r="S354">
-        <v>1.79</v>
+        <v>1.93</v>
       </c>
       <c r="T354">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U354">
-        <v>2.02</v>
+        <v>1.75</v>
       </c>
       <c r="V354">
-        <v>1.88</v>
+        <v>2.05</v>
       </c>
       <c r="W354">
         <v>-1</v>
       </c>
       <c r="X354">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="Y354">
         <v>-1</v>
       </c>
       <c r="Z354">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA354">
-        <v>0.395</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="AB354">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AC354">
-        <v>0.4399999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="355" spans="1:29">
@@ -34991,7 +34991,7 @@
         <v>386</v>
       </c>
       <c r="B388">
-        <v>6809425</v>
+        <v>6809424</v>
       </c>
       <c r="C388" t="s">
         <v>28</v>
@@ -35003,76 +35003,76 @@
         <v>45271.70833333334</v>
       </c>
       <c r="F388" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="G388" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H388">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I388">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J388" t="s">
         <v>54</v>
       </c>
       <c r="K388">
-        <v>2.3</v>
+        <v>4.5</v>
       </c>
       <c r="L388">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M388">
-        <v>3.25</v>
+        <v>1.75</v>
       </c>
       <c r="N388">
-        <v>2.7</v>
+        <v>4.2</v>
       </c>
       <c r="O388">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="P388">
-        <v>2.8</v>
+        <v>1.85</v>
       </c>
       <c r="Q388">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R388">
-        <v>1.92</v>
+        <v>2.01</v>
       </c>
       <c r="S388">
-        <v>1.98</v>
+        <v>1.89</v>
       </c>
       <c r="T388">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U388">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="V388">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="W388">
         <v>-1</v>
       </c>
       <c r="X388">
-        <v>2.1</v>
+        <v>2.75</v>
       </c>
       <c r="Y388">
         <v>-1</v>
       </c>
       <c r="Z388">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AA388">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB388">
         <v>-1</v>
       </c>
       <c r="AC388">
-        <v>0.95</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="389" spans="1:29">
@@ -35080,7 +35080,7 @@
         <v>387</v>
       </c>
       <c r="B389">
-        <v>6809424</v>
+        <v>6809425</v>
       </c>
       <c r="C389" t="s">
         <v>28</v>
@@ -35092,76 +35092,76 @@
         <v>45271.70833333334</v>
       </c>
       <c r="F389" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="G389" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H389">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I389">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J389" t="s">
         <v>54</v>
       </c>
       <c r="K389">
-        <v>4.5</v>
+        <v>2.3</v>
       </c>
       <c r="L389">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M389">
-        <v>1.75</v>
+        <v>3.25</v>
       </c>
       <c r="N389">
-        <v>4.2</v>
+        <v>2.7</v>
       </c>
       <c r="O389">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="P389">
-        <v>1.85</v>
+        <v>2.8</v>
       </c>
       <c r="Q389">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R389">
-        <v>2.01</v>
+        <v>1.92</v>
       </c>
       <c r="S389">
-        <v>1.89</v>
+        <v>1.98</v>
       </c>
       <c r="T389">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U389">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V389">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="W389">
         <v>-1</v>
       </c>
       <c r="X389">
-        <v>2.75</v>
+        <v>2.1</v>
       </c>
       <c r="Y389">
         <v>-1</v>
       </c>
       <c r="Z389">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="AA389">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB389">
         <v>-1</v>
       </c>
       <c r="AC389">
-        <v>1.05</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="390" spans="1:29">
@@ -36415,7 +36415,7 @@
         <v>402</v>
       </c>
       <c r="B404">
-        <v>6809434</v>
+        <v>6809438</v>
       </c>
       <c r="C404" t="s">
         <v>28</v>
@@ -36427,58 +36427,58 @@
         <v>45280.72916666666</v>
       </c>
       <c r="F404" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G404" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="H404">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I404">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J404" t="s">
         <v>53</v>
       </c>
       <c r="K404">
-        <v>1.4</v>
+        <v>2.15</v>
       </c>
       <c r="L404">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="M404">
-        <v>7</v>
+        <v>2.9</v>
       </c>
       <c r="N404">
-        <v>1.363</v>
+        <v>2.3</v>
       </c>
       <c r="O404">
-        <v>5.25</v>
+        <v>3.5</v>
       </c>
       <c r="P404">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="Q404">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R404">
-        <v>1.87</v>
+        <v>2.08</v>
       </c>
       <c r="S404">
+        <v>1.82</v>
+      </c>
+      <c r="T404">
+        <v>2.5</v>
+      </c>
+      <c r="U404">
         <v>2.06</v>
       </c>
-      <c r="T404">
-        <v>2.75</v>
-      </c>
-      <c r="U404">
-        <v>1.91</v>
-      </c>
       <c r="V404">
-        <v>1.99</v>
+        <v>1.84</v>
       </c>
       <c r="W404">
-        <v>0.363</v>
+        <v>1.3</v>
       </c>
       <c r="X404">
         <v>-1</v>
@@ -36487,16 +36487,16 @@
         <v>-1</v>
       </c>
       <c r="Z404">
-        <v>-0.5</v>
+        <v>1.08</v>
       </c>
       <c r="AA404">
-        <v>0.53</v>
+        <v>-1</v>
       </c>
       <c r="AB404">
-        <v>-1</v>
+        <v>1.06</v>
       </c>
       <c r="AC404">
-        <v>0.99</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="405" spans="1:29">
@@ -36504,7 +36504,7 @@
         <v>403</v>
       </c>
       <c r="B405">
-        <v>6809438</v>
+        <v>6809434</v>
       </c>
       <c r="C405" t="s">
         <v>28</v>
@@ -36516,58 +36516,58 @@
         <v>45280.72916666666</v>
       </c>
       <c r="F405" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G405" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="H405">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I405">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J405" t="s">
         <v>53</v>
       </c>
       <c r="K405">
-        <v>2.15</v>
+        <v>1.4</v>
       </c>
       <c r="L405">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="M405">
-        <v>2.9</v>
+        <v>7</v>
       </c>
       <c r="N405">
-        <v>2.3</v>
+        <v>1.363</v>
       </c>
       <c r="O405">
-        <v>3.5</v>
+        <v>5.25</v>
       </c>
       <c r="P405">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="Q405">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R405">
-        <v>2.08</v>
+        <v>1.87</v>
       </c>
       <c r="S405">
-        <v>1.82</v>
+        <v>2.06</v>
       </c>
       <c r="T405">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U405">
-        <v>2.06</v>
+        <v>1.91</v>
       </c>
       <c r="V405">
-        <v>1.84</v>
+        <v>1.99</v>
       </c>
       <c r="W405">
-        <v>1.3</v>
+        <v>0.363</v>
       </c>
       <c r="X405">
         <v>-1</v>
@@ -36576,16 +36576,16 @@
         <v>-1</v>
       </c>
       <c r="Z405">
-        <v>1.08</v>
+        <v>-0.5</v>
       </c>
       <c r="AA405">
-        <v>-1</v>
+        <v>0.53</v>
       </c>
       <c r="AB405">
-        <v>1.06</v>
+        <v>-1</v>
       </c>
       <c r="AC405">
-        <v>-1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="406" spans="1:29">
@@ -36593,7 +36593,7 @@
         <v>404</v>
       </c>
       <c r="B406">
-        <v>6809289</v>
+        <v>6809436</v>
       </c>
       <c r="C406" t="s">
         <v>28</v>
@@ -36605,76 +36605,76 @@
         <v>45281.625</v>
       </c>
       <c r="F406" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G406" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H406">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I406">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J406" t="s">
         <v>54</v>
       </c>
       <c r="K406">
-        <v>2.4</v>
+        <v>4.333</v>
       </c>
       <c r="L406">
+        <v>3.2</v>
+      </c>
+      <c r="M406">
+        <v>1.85</v>
+      </c>
+      <c r="N406">
+        <v>6</v>
+      </c>
+      <c r="O406">
         <v>3.5</v>
       </c>
-      <c r="M406">
-        <v>2.75</v>
-      </c>
-      <c r="N406">
-        <v>2.6</v>
-      </c>
-      <c r="O406">
-        <v>3.6</v>
-      </c>
       <c r="P406">
+        <v>1.65</v>
+      </c>
+      <c r="Q406">
+        <v>0.75</v>
+      </c>
+      <c r="R406">
+        <v>1.98</v>
+      </c>
+      <c r="S406">
+        <v>1.92</v>
+      </c>
+      <c r="T406">
+        <v>2</v>
+      </c>
+      <c r="U406">
+        <v>1.84</v>
+      </c>
+      <c r="V406">
+        <v>2.06</v>
+      </c>
+      <c r="W406">
+        <v>-1</v>
+      </c>
+      <c r="X406">
         <v>2.5</v>
       </c>
-      <c r="Q406">
-        <v>0</v>
-      </c>
-      <c r="R406">
-        <v>1.97</v>
-      </c>
-      <c r="S406">
-        <v>1.93</v>
-      </c>
-      <c r="T406">
-        <v>2.75</v>
-      </c>
-      <c r="U406">
-        <v>1.91</v>
-      </c>
-      <c r="V406">
-        <v>1.99</v>
-      </c>
-      <c r="W406">
-        <v>-1</v>
-      </c>
-      <c r="X406">
-        <v>2.6</v>
-      </c>
       <c r="Y406">
         <v>-1</v>
       </c>
       <c r="Z406">
-        <v>0</v>
+        <v>0.98</v>
       </c>
       <c r="AA406">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB406">
         <v>-1</v>
       </c>
       <c r="AC406">
-        <v>0.99</v>
+        <v>1.06</v>
       </c>
     </row>
     <row r="407" spans="1:29">
@@ -36682,7 +36682,7 @@
         <v>405</v>
       </c>
       <c r="B407">
-        <v>6809436</v>
+        <v>6809289</v>
       </c>
       <c r="C407" t="s">
         <v>28</v>
@@ -36694,76 +36694,76 @@
         <v>45281.625</v>
       </c>
       <c r="F407" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G407" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H407">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I407">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J407" t="s">
         <v>54</v>
       </c>
       <c r="K407">
-        <v>4.333</v>
+        <v>2.4</v>
       </c>
       <c r="L407">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M407">
-        <v>1.85</v>
+        <v>2.75</v>
       </c>
       <c r="N407">
-        <v>6</v>
+        <v>2.6</v>
       </c>
       <c r="O407">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P407">
-        <v>1.65</v>
+        <v>2.5</v>
       </c>
       <c r="Q407">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R407">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="S407">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="T407">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U407">
-        <v>1.84</v>
+        <v>1.91</v>
       </c>
       <c r="V407">
-        <v>2.06</v>
+        <v>1.99</v>
       </c>
       <c r="W407">
         <v>-1</v>
       </c>
       <c r="X407">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="Y407">
         <v>-1</v>
       </c>
       <c r="Z407">
-        <v>0.98</v>
+        <v>0</v>
       </c>
       <c r="AA407">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB407">
         <v>-1</v>
       </c>
       <c r="AC407">
-        <v>1.06</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="408" spans="1:29">
@@ -36771,7 +36771,7 @@
         <v>406</v>
       </c>
       <c r="B408">
-        <v>6809290</v>
+        <v>6809437</v>
       </c>
       <c r="C408" t="s">
         <v>28</v>
@@ -36783,76 +36783,76 @@
         <v>45281.72916666666</v>
       </c>
       <c r="F408" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="G408" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="H408">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I408">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J408" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K408">
-        <v>2.2</v>
+        <v>4.75</v>
       </c>
       <c r="L408">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="M408">
-        <v>3.4</v>
+        <v>1.666</v>
       </c>
       <c r="N408">
-        <v>2.2</v>
+        <v>5.5</v>
       </c>
       <c r="O408">
-        <v>2.9</v>
+        <v>4.2</v>
       </c>
       <c r="P408">
-        <v>4</v>
+        <v>1.571</v>
       </c>
       <c r="Q408">
-        <v>-0.25</v>
+        <v>1</v>
       </c>
       <c r="R408">
-        <v>1.89</v>
+        <v>1.83</v>
       </c>
       <c r="S408">
-        <v>2.01</v>
+        <v>2.07</v>
       </c>
       <c r="T408">
-        <v>1.75</v>
+        <v>2.5</v>
       </c>
       <c r="U408">
-        <v>1.95</v>
+        <v>1.88</v>
       </c>
       <c r="V408">
-        <v>1.95</v>
+        <v>2.02</v>
       </c>
       <c r="W408">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X408">
         <v>-1</v>
       </c>
       <c r="Y408">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="Z408">
-        <v>0.8899999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA408">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB408">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC408">
-        <v>-1</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="409" spans="1:29">
@@ -36860,7 +36860,7 @@
         <v>407</v>
       </c>
       <c r="B409">
-        <v>6809437</v>
+        <v>6809290</v>
       </c>
       <c r="C409" t="s">
         <v>28</v>
@@ -36872,76 +36872,76 @@
         <v>45281.72916666666</v>
       </c>
       <c r="F409" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="G409" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="H409">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I409">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J409" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K409">
-        <v>4.75</v>
+        <v>2.2</v>
       </c>
       <c r="L409">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="M409">
-        <v>1.666</v>
+        <v>3.4</v>
       </c>
       <c r="N409">
-        <v>5.5</v>
+        <v>2.2</v>
       </c>
       <c r="O409">
-        <v>4.2</v>
+        <v>2.9</v>
       </c>
       <c r="P409">
-        <v>1.571</v>
+        <v>4</v>
       </c>
       <c r="Q409">
-        <v>1</v>
+        <v>-0.25</v>
       </c>
       <c r="R409">
-        <v>1.83</v>
+        <v>1.89</v>
       </c>
       <c r="S409">
-        <v>2.07</v>
+        <v>2.01</v>
       </c>
       <c r="T409">
-        <v>2.5</v>
+        <v>1.75</v>
       </c>
       <c r="U409">
-        <v>1.88</v>
+        <v>1.95</v>
       </c>
       <c r="V409">
-        <v>2.02</v>
+        <v>1.95</v>
       </c>
       <c r="W409">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X409">
         <v>-1</v>
       </c>
       <c r="Y409">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="Z409">
-        <v>0</v>
+        <v>0.8899999999999999</v>
       </c>
       <c r="AA409">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB409">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC409">
-        <v>1.02</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="410" spans="1:29">
@@ -43196,6 +43196,15 @@
       <c r="G480" t="s">
         <v>41</v>
       </c>
+      <c r="H480">
+        <v>3</v>
+      </c>
+      <c r="I480">
+        <v>2</v>
+      </c>
+      <c r="J480" t="s">
+        <v>53</v>
+      </c>
       <c r="K480">
         <v>1.95</v>
       </c>
@@ -43206,46 +43215,52 @@
         <v>3.6</v>
       </c>
       <c r="N480">
-        <v>1.85</v>
+        <v>1.833</v>
       </c>
       <c r="O480">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P480">
-        <v>4.2</v>
+        <v>4.333</v>
       </c>
       <c r="Q480">
         <v>-0.5</v>
       </c>
       <c r="R480">
-        <v>1.89</v>
+        <v>1.86</v>
       </c>
       <c r="S480">
-        <v>2.01</v>
+        <v>2.04</v>
       </c>
       <c r="T480">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U480">
-        <v>1.87</v>
+        <v>1.93</v>
       </c>
       <c r="V480">
-        <v>2.03</v>
+        <v>1.97</v>
       </c>
       <c r="W480">
-        <v>0</v>
+        <v>0.833</v>
       </c>
       <c r="X480">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y480">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z480">
-        <v>0</v>
+        <v>0.8600000000000001</v>
       </c>
       <c r="AA480">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB480">
+        <v>0.9299999999999999</v>
+      </c>
+      <c r="AC480">
+        <v>-1</v>
       </c>
     </row>
     <row r="481" spans="1:27">
@@ -43280,31 +43295,31 @@
         <v>4.75</v>
       </c>
       <c r="N481">
-        <v>1.8</v>
+        <v>1.727</v>
       </c>
       <c r="O481">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P481">
-        <v>4.333</v>
+        <v>4.75</v>
       </c>
       <c r="Q481">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R481">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="S481">
-        <v>2.02</v>
+        <v>1.9</v>
       </c>
       <c r="T481">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U481">
-        <v>1.86</v>
+        <v>2.08</v>
       </c>
       <c r="V481">
-        <v>2.04</v>
+        <v>1.82</v>
       </c>
       <c r="W481">
         <v>0</v>
@@ -43354,22 +43369,22 @@
         <v>2.875</v>
       </c>
       <c r="N482">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="O482">
         <v>2.8</v>
       </c>
       <c r="P482">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="Q482">
         <v>0</v>
       </c>
       <c r="R482">
-        <v>1.85</v>
+        <v>1.91</v>
       </c>
       <c r="S482">
-        <v>2.05</v>
+        <v>1.99</v>
       </c>
       <c r="T482">
         <v>2.25</v>
@@ -43449,10 +43464,10 @@
         <v>2.75</v>
       </c>
       <c r="U483">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="V483">
-        <v>2.05</v>
+        <v>2.07</v>
       </c>
       <c r="W483">
         <v>0</v>
@@ -43514,19 +43529,19 @@
         <v>-0.5</v>
       </c>
       <c r="R484">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="S484">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="T484">
         <v>1.75</v>
       </c>
       <c r="U484">
-        <v>1.83</v>
+        <v>1.89</v>
       </c>
       <c r="V484">
-        <v>2.07</v>
+        <v>2.01</v>
       </c>
       <c r="W484">
         <v>0</v>
@@ -43588,19 +43603,19 @@
         <v>0.75</v>
       </c>
       <c r="R485">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="S485">
-        <v>2.03</v>
+        <v>1.99</v>
       </c>
       <c r="T485">
         <v>2.75</v>
       </c>
       <c r="U485">
-        <v>1.98</v>
+        <v>2.01</v>
       </c>
       <c r="V485">
-        <v>1.92</v>
+        <v>1.89</v>
       </c>
       <c r="W485">
         <v>0</v>
@@ -43662,19 +43677,19 @@
         <v>0</v>
       </c>
       <c r="R486">
-        <v>2.06</v>
+        <v>2.07</v>
       </c>
       <c r="S486">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="T486">
         <v>2</v>
       </c>
       <c r="U486">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="V486">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="W486">
         <v>0</v>
@@ -43724,22 +43739,22 @@
         <v>2.5</v>
       </c>
       <c r="N487">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="O487">
         <v>3</v>
       </c>
       <c r="P487">
-        <v>2.45</v>
+        <v>2.25</v>
       </c>
       <c r="Q487">
         <v>0.25</v>
       </c>
       <c r="R487">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S487">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="T487">
         <v>2.25</v>
@@ -43810,19 +43825,19 @@
         <v>-0.25</v>
       </c>
       <c r="R488">
-        <v>2.05</v>
+        <v>2.01</v>
       </c>
       <c r="S488">
-        <v>1.85</v>
+        <v>1.89</v>
       </c>
       <c r="T488">
         <v>2</v>
       </c>
       <c r="U488">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="V488">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="W488">
         <v>0</v>
@@ -43893,10 +43908,10 @@
         <v>3</v>
       </c>
       <c r="U489">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="V489">
-        <v>2</v>
+        <v>2.01</v>
       </c>
       <c r="W489">
         <v>0</v>
@@ -43911,6 +43926,80 @@
         <v>0</v>
       </c>
       <c r="AA489">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="490" spans="1:27">
+      <c r="A490" s="1">
+        <v>488</v>
+      </c>
+      <c r="B490">
+        <v>6809331</v>
+      </c>
+      <c r="C490" t="s">
+        <v>28</v>
+      </c>
+      <c r="D490" t="s">
+        <v>28</v>
+      </c>
+      <c r="E490" s="2">
+        <v>45348.70833333334</v>
+      </c>
+      <c r="F490" t="s">
+        <v>41</v>
+      </c>
+      <c r="G490" t="s">
+        <v>35</v>
+      </c>
+      <c r="K490">
+        <v>1.6</v>
+      </c>
+      <c r="L490">
+        <v>4.2</v>
+      </c>
+      <c r="M490">
+        <v>5</v>
+      </c>
+      <c r="N490">
+        <v>1.615</v>
+      </c>
+      <c r="O490">
+        <v>4.2</v>
+      </c>
+      <c r="P490">
+        <v>4.75</v>
+      </c>
+      <c r="Q490">
+        <v>-0.75</v>
+      </c>
+      <c r="R490">
+        <v>1.87</v>
+      </c>
+      <c r="S490">
+        <v>2.03</v>
+      </c>
+      <c r="T490">
+        <v>2.75</v>
+      </c>
+      <c r="U490">
+        <v>1.95</v>
+      </c>
+      <c r="V490">
+        <v>1.95</v>
+      </c>
+      <c r="W490">
+        <v>0</v>
+      </c>
+      <c r="X490">
+        <v>0</v>
+      </c>
+      <c r="Y490">
+        <v>0</v>
+      </c>
+      <c r="Z490">
+        <v>0</v>
+      </c>
+      <c r="AA490">
         <v>0</v>
       </c>
     </row>

--- a/Spain Primera Liga/Spain Primera Liga.xlsx
+++ b/Spain Primera Liga/Spain Primera Liga.xlsx
@@ -14254,7 +14254,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>5475945</v>
+        <v>5471430</v>
       </c>
       <c r="C155" t="s">
         <v>28</v>
@@ -14266,73 +14266,73 @@
         <v>45042.60416666666</v>
       </c>
       <c r="F155" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="G155" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H155">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I155">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J155" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K155">
-        <v>1.363</v>
+        <v>1.95</v>
       </c>
       <c r="L155">
+        <v>3.4</v>
+      </c>
+      <c r="M155">
+        <v>3.8</v>
+      </c>
+      <c r="N155">
+        <v>1.85</v>
+      </c>
+      <c r="O155">
+        <v>3.5</v>
+      </c>
+      <c r="P155">
         <v>4.5</v>
       </c>
-      <c r="M155">
-        <v>9</v>
-      </c>
-      <c r="N155">
-        <v>1.3</v>
-      </c>
-      <c r="O155">
-        <v>4.75</v>
-      </c>
-      <c r="P155">
-        <v>12</v>
-      </c>
       <c r="Q155">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R155">
-        <v>2.04</v>
+        <v>1.88</v>
       </c>
       <c r="S155">
-        <v>1.86</v>
+        <v>2.02</v>
       </c>
       <c r="T155">
         <v>2.25</v>
       </c>
       <c r="U155">
-        <v>1.87</v>
+        <v>2</v>
       </c>
       <c r="V155">
-        <v>2.03</v>
+        <v>1.9</v>
       </c>
       <c r="W155">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="X155">
         <v>-1</v>
       </c>
       <c r="Y155">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Z155">
-        <v>1.04</v>
+        <v>-1</v>
       </c>
       <c r="AA155">
-        <v>-1</v>
+        <v>1.02</v>
       </c>
       <c r="AB155">
-        <v>0.8700000000000001</v>
+        <v>1</v>
       </c>
       <c r="AC155">
         <v>-1</v>
@@ -14343,7 +14343,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>5471430</v>
+        <v>5475945</v>
       </c>
       <c r="C156" t="s">
         <v>28</v>
@@ -14355,73 +14355,73 @@
         <v>45042.60416666666</v>
       </c>
       <c r="F156" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G156" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H156">
+        <v>3</v>
+      </c>
+      <c r="I156">
         <v>1</v>
       </c>
-      <c r="I156">
-        <v>2</v>
-      </c>
       <c r="J156" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K156">
-        <v>1.95</v>
+        <v>1.363</v>
       </c>
       <c r="L156">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="M156">
-        <v>3.8</v>
+        <v>9</v>
       </c>
       <c r="N156">
-        <v>1.85</v>
+        <v>1.3</v>
       </c>
       <c r="O156">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="P156">
-        <v>4.5</v>
+        <v>12</v>
       </c>
       <c r="Q156">
-        <v>-0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R156">
-        <v>1.88</v>
+        <v>2.04</v>
       </c>
       <c r="S156">
-        <v>2.02</v>
+        <v>1.86</v>
       </c>
       <c r="T156">
         <v>2.25</v>
       </c>
       <c r="U156">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="V156">
-        <v>1.9</v>
+        <v>2.03</v>
       </c>
       <c r="W156">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="X156">
         <v>-1</v>
       </c>
       <c r="Y156">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Z156">
-        <v>-1</v>
+        <v>1.04</v>
       </c>
       <c r="AA156">
-        <v>1.02</v>
+        <v>-1</v>
       </c>
       <c r="AB156">
-        <v>1</v>
+        <v>0.8700000000000001</v>
       </c>
       <c r="AC156">
         <v>-1</v>
@@ -14610,7 +14610,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>5466354</v>
+        <v>5466355</v>
       </c>
       <c r="C159" t="s">
         <v>28</v>
@@ -14622,49 +14622,49 @@
         <v>45043.60416666666</v>
       </c>
       <c r="F159" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G159" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H159">
+        <v>4</v>
+      </c>
+      <c r="I159">
         <v>2</v>
-      </c>
-      <c r="I159">
-        <v>1</v>
       </c>
       <c r="J159" t="s">
         <v>53</v>
       </c>
       <c r="K159">
-        <v>1.666</v>
+        <v>1.55</v>
       </c>
       <c r="L159">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="M159">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="N159">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="O159">
-        <v>3.8</v>
+        <v>4.333</v>
       </c>
       <c r="P159">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q159">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R159">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="S159">
-        <v>1.95</v>
+        <v>1.99</v>
       </c>
       <c r="T159">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U159">
         <v>1.93</v>
@@ -14673,7 +14673,7 @@
         <v>1.97</v>
       </c>
       <c r="W159">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="X159">
         <v>-1</v>
@@ -14682,10 +14682,10 @@
         <v>-1</v>
       </c>
       <c r="Z159">
-        <v>0.475</v>
+        <v>0.9099999999999999</v>
       </c>
       <c r="AA159">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB159">
         <v>0.9299999999999999</v>
@@ -14699,7 +14699,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>5466355</v>
+        <v>5466354</v>
       </c>
       <c r="C160" t="s">
         <v>28</v>
@@ -14711,49 +14711,49 @@
         <v>45043.60416666666</v>
       </c>
       <c r="F160" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G160" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H160">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I160">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J160" t="s">
         <v>53</v>
       </c>
       <c r="K160">
-        <v>1.55</v>
+        <v>1.666</v>
       </c>
       <c r="L160">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="M160">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="N160">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="O160">
-        <v>4.333</v>
+        <v>3.8</v>
       </c>
       <c r="P160">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q160">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R160">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="S160">
-        <v>1.99</v>
+        <v>1.95</v>
       </c>
       <c r="T160">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U160">
         <v>1.93</v>
@@ -14762,7 +14762,7 @@
         <v>1.97</v>
       </c>
       <c r="W160">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="X160">
         <v>-1</v>
@@ -14771,10 +14771,10 @@
         <v>-1</v>
       </c>
       <c r="Z160">
-        <v>0.9099999999999999</v>
+        <v>0.475</v>
       </c>
       <c r="AA160">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB160">
         <v>0.9299999999999999</v>
@@ -15767,7 +15767,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>5534478</v>
+        <v>5540298</v>
       </c>
       <c r="C172" t="s">
         <v>28</v>
@@ -15779,58 +15779,58 @@
         <v>45048.60416666666</v>
       </c>
       <c r="F172" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="G172" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="H172">
+        <v>2</v>
+      </c>
+      <c r="I172">
         <v>1</v>
-      </c>
-      <c r="I172">
-        <v>0</v>
       </c>
       <c r="J172" t="s">
         <v>53</v>
       </c>
       <c r="K172">
-        <v>1.25</v>
+        <v>1.65</v>
       </c>
       <c r="L172">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="M172">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="N172">
-        <v>1.166</v>
+        <v>1.727</v>
       </c>
       <c r="O172">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="P172">
-        <v>15</v>
+        <v>4.5</v>
       </c>
       <c r="Q172">
-        <v>-2</v>
+        <v>-0.75</v>
       </c>
       <c r="R172">
-        <v>1.85</v>
+        <v>1.92</v>
       </c>
       <c r="S172">
-        <v>2.05</v>
+        <v>1.98</v>
       </c>
       <c r="T172">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U172">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V172">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="W172">
-        <v>0.1659999999999999</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X172">
         <v>-1</v>
@@ -15839,16 +15839,16 @@
         <v>-1</v>
       </c>
       <c r="Z172">
-        <v>-1</v>
+        <v>0.46</v>
       </c>
       <c r="AA172">
-        <v>1.05</v>
+        <v>-0.5</v>
       </c>
       <c r="AB172">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC172">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="173" spans="1:29">
@@ -15856,7 +15856,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>5540298</v>
+        <v>5534478</v>
       </c>
       <c r="C173" t="s">
         <v>28</v>
@@ -15868,58 +15868,58 @@
         <v>45048.60416666666</v>
       </c>
       <c r="F173" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="G173" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="H173">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I173">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J173" t="s">
         <v>53</v>
       </c>
       <c r="K173">
-        <v>1.65</v>
+        <v>1.25</v>
       </c>
       <c r="L173">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="M173">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="N173">
-        <v>1.727</v>
+        <v>1.166</v>
       </c>
       <c r="O173">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="P173">
-        <v>4.5</v>
+        <v>15</v>
       </c>
       <c r="Q173">
-        <v>-0.75</v>
+        <v>-2</v>
       </c>
       <c r="R173">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="S173">
-        <v>1.98</v>
+        <v>2.05</v>
       </c>
       <c r="T173">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U173">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V173">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="W173">
-        <v>0.7270000000000001</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X173">
         <v>-1</v>
@@ -15928,16 +15928,16 @@
         <v>-1</v>
       </c>
       <c r="Z173">
-        <v>0.46</v>
+        <v>-1</v>
       </c>
       <c r="AA173">
-        <v>-0.5</v>
+        <v>1.05</v>
       </c>
       <c r="AB173">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC173">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="174" spans="1:29">
@@ -16301,7 +16301,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>5534213</v>
+        <v>5545333</v>
       </c>
       <c r="C178" t="s">
         <v>28</v>
@@ -16313,58 +16313,58 @@
         <v>45050.60416666666</v>
       </c>
       <c r="F178" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G178" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H178">
+        <v>3</v>
+      </c>
+      <c r="I178">
         <v>2</v>
-      </c>
-      <c r="I178">
-        <v>1</v>
       </c>
       <c r="J178" t="s">
         <v>53</v>
       </c>
       <c r="K178">
-        <v>2.2</v>
+        <v>1.909</v>
       </c>
       <c r="L178">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M178">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="N178">
-        <v>1.909</v>
+        <v>1.8</v>
       </c>
       <c r="O178">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="P178">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="Q178">
         <v>-0.5</v>
       </c>
       <c r="R178">
+        <v>1.88</v>
+      </c>
+      <c r="S178">
+        <v>2.02</v>
+      </c>
+      <c r="T178">
+        <v>2.5</v>
+      </c>
+      <c r="U178">
+        <v>1.98</v>
+      </c>
+      <c r="V178">
         <v>1.92</v>
       </c>
-      <c r="S178">
-        <v>1.98</v>
-      </c>
-      <c r="T178">
-        <v>2</v>
-      </c>
-      <c r="U178">
-        <v>1.86</v>
-      </c>
-      <c r="V178">
-        <v>2.04</v>
-      </c>
       <c r="W178">
-        <v>0.909</v>
+        <v>0.8</v>
       </c>
       <c r="X178">
         <v>-1</v>
@@ -16373,13 +16373,13 @@
         <v>-1</v>
       </c>
       <c r="Z178">
-        <v>0.9199999999999999</v>
+        <v>0.8799999999999999</v>
       </c>
       <c r="AA178">
         <v>-1</v>
       </c>
       <c r="AB178">
-        <v>0.8600000000000001</v>
+        <v>0.98</v>
       </c>
       <c r="AC178">
         <v>-1</v>
@@ -16390,7 +16390,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>5545333</v>
+        <v>5534213</v>
       </c>
       <c r="C179" t="s">
         <v>28</v>
@@ -16402,58 +16402,58 @@
         <v>45050.60416666666</v>
       </c>
       <c r="F179" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G179" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H179">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I179">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J179" t="s">
         <v>53</v>
       </c>
       <c r="K179">
+        <v>2.2</v>
+      </c>
+      <c r="L179">
+        <v>3.2</v>
+      </c>
+      <c r="M179">
+        <v>3.4</v>
+      </c>
+      <c r="N179">
         <v>1.909</v>
       </c>
-      <c r="L179">
-        <v>3.5</v>
-      </c>
-      <c r="M179">
-        <v>4</v>
-      </c>
-      <c r="N179">
-        <v>1.8</v>
-      </c>
       <c r="O179">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="P179">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="Q179">
         <v>-0.5</v>
       </c>
       <c r="R179">
-        <v>1.88</v>
+        <v>1.92</v>
       </c>
       <c r="S179">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="T179">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U179">
-        <v>1.98</v>
+        <v>1.86</v>
       </c>
       <c r="V179">
-        <v>1.92</v>
+        <v>2.04</v>
       </c>
       <c r="W179">
-        <v>0.8</v>
+        <v>0.909</v>
       </c>
       <c r="X179">
         <v>-1</v>
@@ -16462,13 +16462,13 @@
         <v>-1</v>
       </c>
       <c r="Z179">
-        <v>0.8799999999999999</v>
+        <v>0.9199999999999999</v>
       </c>
       <c r="AA179">
         <v>-1</v>
       </c>
       <c r="AB179">
-        <v>0.98</v>
+        <v>0.8600000000000001</v>
       </c>
       <c r="AC179">
         <v>-1</v>
@@ -18437,7 +18437,7 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>5638808</v>
+        <v>5638811</v>
       </c>
       <c r="C202" t="s">
         <v>28</v>
@@ -18449,61 +18449,61 @@
         <v>45069.60416666666</v>
       </c>
       <c r="F202" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G202" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="H202">
         <v>1</v>
       </c>
       <c r="I202">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J202" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K202">
-        <v>2.2</v>
+        <v>1.4</v>
       </c>
       <c r="L202">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="M202">
-        <v>3.25</v>
+        <v>8.5</v>
       </c>
       <c r="N202">
-        <v>2.1</v>
+        <v>1.363</v>
       </c>
       <c r="O202">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="P202">
-        <v>3.6</v>
+        <v>8</v>
       </c>
       <c r="Q202">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R202">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="S202">
-        <v>2.08</v>
+        <v>2.01</v>
       </c>
       <c r="T202">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U202">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="V202">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W202">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X202">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y202">
         <v>-1</v>
@@ -18512,13 +18512,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA202">
-        <v>0.54</v>
+        <v>0.5049999999999999</v>
       </c>
       <c r="AB202">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC202">
-        <v>0.5125</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="203" spans="1:29">
@@ -18526,7 +18526,7 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>5638811</v>
+        <v>5638808</v>
       </c>
       <c r="C203" t="s">
         <v>28</v>
@@ -18538,61 +18538,61 @@
         <v>45069.60416666666</v>
       </c>
       <c r="F203" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G203" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H203">
         <v>1</v>
       </c>
       <c r="I203">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J203" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K203">
-        <v>1.4</v>
+        <v>2.2</v>
       </c>
       <c r="L203">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="M203">
-        <v>8.5</v>
+        <v>3.25</v>
       </c>
       <c r="N203">
-        <v>1.363</v>
+        <v>2.1</v>
       </c>
       <c r="O203">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="P203">
-        <v>8</v>
+        <v>3.6</v>
       </c>
       <c r="Q203">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R203">
-        <v>1.89</v>
+        <v>1.82</v>
       </c>
       <c r="S203">
-        <v>2.01</v>
+        <v>2.08</v>
       </c>
       <c r="T203">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U203">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="V203">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W203">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X203">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y203">
         <v>-1</v>
@@ -18601,13 +18601,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA203">
-        <v>0.5049999999999999</v>
+        <v>0.54</v>
       </c>
       <c r="AB203">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC203">
-        <v>0.8999999999999999</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="204" spans="1:29">
@@ -18793,7 +18793,7 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>5638885</v>
+        <v>5634388</v>
       </c>
       <c r="C206" t="s">
         <v>28</v>
@@ -18805,58 +18805,58 @@
         <v>45070.60416666666</v>
       </c>
       <c r="F206" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="G206" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="H206">
         <v>2</v>
       </c>
       <c r="I206">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J206" t="s">
         <v>53</v>
       </c>
       <c r="K206">
-        <v>1.363</v>
+        <v>1.45</v>
       </c>
       <c r="L206">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="M206">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="N206">
-        <v>1.363</v>
+        <v>1.45</v>
       </c>
       <c r="O206">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="P206">
-        <v>7.5</v>
+        <v>6</v>
       </c>
       <c r="Q206">
-        <v>-1.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R206">
-        <v>2.06</v>
+        <v>2.07</v>
       </c>
       <c r="S206">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="T206">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U206">
-        <v>2.07</v>
+        <v>1.92</v>
       </c>
       <c r="V206">
-        <v>1.83</v>
+        <v>1.98</v>
       </c>
       <c r="W206">
-        <v>0.363</v>
+        <v>0.45</v>
       </c>
       <c r="X206">
         <v>-1</v>
@@ -18865,16 +18865,16 @@
         <v>-1</v>
       </c>
       <c r="Z206">
-        <v>-1</v>
+        <v>1.07</v>
       </c>
       <c r="AA206">
-        <v>0.8400000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB206">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC206">
-        <v>0.415</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="207" spans="1:29">
@@ -18882,7 +18882,7 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>5634388</v>
+        <v>5638885</v>
       </c>
       <c r="C207" t="s">
         <v>28</v>
@@ -18894,58 +18894,58 @@
         <v>45070.60416666666</v>
       </c>
       <c r="F207" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="G207" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="H207">
         <v>2</v>
       </c>
       <c r="I207">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J207" t="s">
         <v>53</v>
       </c>
       <c r="K207">
-        <v>1.45</v>
+        <v>1.363</v>
       </c>
       <c r="L207">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="M207">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="N207">
-        <v>1.45</v>
+        <v>1.363</v>
       </c>
       <c r="O207">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="P207">
-        <v>6</v>
+        <v>7.5</v>
       </c>
       <c r="Q207">
-        <v>-1.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R207">
+        <v>2.06</v>
+      </c>
+      <c r="S207">
+        <v>1.84</v>
+      </c>
+      <c r="T207">
+        <v>3.25</v>
+      </c>
+      <c r="U207">
         <v>2.07</v>
       </c>
-      <c r="S207">
+      <c r="V207">
         <v>1.83</v>
       </c>
-      <c r="T207">
-        <v>3</v>
-      </c>
-      <c r="U207">
-        <v>1.92</v>
-      </c>
-      <c r="V207">
-        <v>1.98</v>
-      </c>
       <c r="W207">
-        <v>0.45</v>
+        <v>0.363</v>
       </c>
       <c r="X207">
         <v>-1</v>
@@ -18954,16 +18954,16 @@
         <v>-1</v>
       </c>
       <c r="Z207">
-        <v>1.07</v>
+        <v>-1</v>
       </c>
       <c r="AA207">
-        <v>-1</v>
+        <v>0.8400000000000001</v>
       </c>
       <c r="AB207">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC207">
-        <v>0.98</v>
+        <v>0.415</v>
       </c>
     </row>
     <row r="208" spans="1:29">
@@ -18971,7 +18971,7 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>5643107</v>
+        <v>5642104</v>
       </c>
       <c r="C208" t="s">
         <v>28</v>
@@ -18983,76 +18983,76 @@
         <v>45070.70833333334</v>
       </c>
       <c r="F208" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="G208" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="H208">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I208">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J208" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K208">
-        <v>4</v>
+        <v>1.909</v>
       </c>
       <c r="L208">
+        <v>3.25</v>
+      </c>
+      <c r="M208">
+        <v>4.333</v>
+      </c>
+      <c r="N208">
+        <v>2.25</v>
+      </c>
+      <c r="O208">
+        <v>2.9</v>
+      </c>
+      <c r="P208">
         <v>3.75</v>
       </c>
-      <c r="M208">
-        <v>1.833</v>
-      </c>
-      <c r="N208">
-        <v>3</v>
-      </c>
-      <c r="O208">
-        <v>3.5</v>
-      </c>
-      <c r="P208">
-        <v>2.3</v>
-      </c>
       <c r="Q208">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R208">
-        <v>1.82</v>
+        <v>1.96</v>
       </c>
       <c r="S208">
-        <v>2.11</v>
+        <v>1.97</v>
       </c>
       <c r="T208">
+        <v>1.75</v>
+      </c>
+      <c r="U208">
+        <v>1.81</v>
+      </c>
+      <c r="V208">
+        <v>2.09</v>
+      </c>
+      <c r="W208">
+        <v>-1</v>
+      </c>
+      <c r="X208">
+        <v>-1</v>
+      </c>
+      <c r="Y208">
         <v>2.75</v>
       </c>
-      <c r="U208">
-        <v>2</v>
-      </c>
-      <c r="V208">
-        <v>1.9</v>
-      </c>
-      <c r="W208">
-        <v>-1</v>
-      </c>
-      <c r="X208">
-        <v>2.5</v>
-      </c>
-      <c r="Y208">
-        <v>-1</v>
-      </c>
       <c r="Z208">
-        <v>0.41</v>
+        <v>-1</v>
       </c>
       <c r="AA208">
-        <v>-0.5</v>
+        <v>0.97</v>
       </c>
       <c r="AB208">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC208">
-        <v>-1</v>
+        <v>1.09</v>
       </c>
     </row>
     <row r="209" spans="1:29">
@@ -19060,7 +19060,7 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>5642104</v>
+        <v>5643107</v>
       </c>
       <c r="C209" t="s">
         <v>28</v>
@@ -19072,76 +19072,76 @@
         <v>45070.70833333334</v>
       </c>
       <c r="F209" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="G209" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="H209">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I209">
+        <v>3</v>
+      </c>
+      <c r="J209" t="s">
+        <v>54</v>
+      </c>
+      <c r="K209">
+        <v>4</v>
+      </c>
+      <c r="L209">
+        <v>3.75</v>
+      </c>
+      <c r="M209">
+        <v>1.833</v>
+      </c>
+      <c r="N209">
+        <v>3</v>
+      </c>
+      <c r="O209">
+        <v>3.5</v>
+      </c>
+      <c r="P209">
+        <v>2.3</v>
+      </c>
+      <c r="Q209">
+        <v>0.25</v>
+      </c>
+      <c r="R209">
+        <v>1.82</v>
+      </c>
+      <c r="S209">
+        <v>2.11</v>
+      </c>
+      <c r="T209">
+        <v>2.75</v>
+      </c>
+      <c r="U209">
+        <v>2</v>
+      </c>
+      <c r="V209">
+        <v>1.9</v>
+      </c>
+      <c r="W209">
+        <v>-1</v>
+      </c>
+      <c r="X209">
+        <v>2.5</v>
+      </c>
+      <c r="Y209">
+        <v>-1</v>
+      </c>
+      <c r="Z209">
+        <v>0.41</v>
+      </c>
+      <c r="AA209">
+        <v>-0.5</v>
+      </c>
+      <c r="AB209">
         <v>1</v>
       </c>
-      <c r="J209" t="s">
-        <v>52</v>
-      </c>
-      <c r="K209">
-        <v>1.909</v>
-      </c>
-      <c r="L209">
-        <v>3.25</v>
-      </c>
-      <c r="M209">
-        <v>4.333</v>
-      </c>
-      <c r="N209">
-        <v>2.25</v>
-      </c>
-      <c r="O209">
-        <v>2.9</v>
-      </c>
-      <c r="P209">
-        <v>3.75</v>
-      </c>
-      <c r="Q209">
-        <v>-0.25</v>
-      </c>
-      <c r="R209">
-        <v>1.96</v>
-      </c>
-      <c r="S209">
-        <v>1.97</v>
-      </c>
-      <c r="T209">
-        <v>1.75</v>
-      </c>
-      <c r="U209">
-        <v>1.81</v>
-      </c>
-      <c r="V209">
-        <v>2.09</v>
-      </c>
-      <c r="W209">
-        <v>-1</v>
-      </c>
-      <c r="X209">
-        <v>-1</v>
-      </c>
-      <c r="Y209">
-        <v>2.75</v>
-      </c>
-      <c r="Z209">
-        <v>-1</v>
-      </c>
-      <c r="AA209">
-        <v>0.97</v>
-      </c>
-      <c r="AB209">
-        <v>-1</v>
-      </c>
       <c r="AC209">
-        <v>1.09</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="210" spans="1:29">
@@ -19416,7 +19416,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>5697401</v>
+        <v>5701612</v>
       </c>
       <c r="C213" t="s">
         <v>28</v>
@@ -19428,76 +19428,76 @@
         <v>45074.58333333334</v>
       </c>
       <c r="F213" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G213" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="H213">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I213">
         <v>1</v>
       </c>
       <c r="J213" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K213">
+        <v>1.909</v>
+      </c>
+      <c r="L213">
+        <v>3.4</v>
+      </c>
+      <c r="M213">
+        <v>4</v>
+      </c>
+      <c r="N213">
+        <v>2.4</v>
+      </c>
+      <c r="O213">
+        <v>2.75</v>
+      </c>
+      <c r="P213">
+        <v>3.5</v>
+      </c>
+      <c r="Q213">
+        <v>-0.25</v>
+      </c>
+      <c r="R213">
+        <v>2.1</v>
+      </c>
+      <c r="S213">
+        <v>1.8</v>
+      </c>
+      <c r="T213">
+        <v>1.5</v>
+      </c>
+      <c r="U213">
+        <v>1.82</v>
+      </c>
+      <c r="V213">
+        <v>2.08</v>
+      </c>
+      <c r="W213">
         <v>1.4</v>
       </c>
-      <c r="L213">
-        <v>4.5</v>
-      </c>
-      <c r="M213">
-        <v>8</v>
-      </c>
-      <c r="N213">
-        <v>1.4</v>
-      </c>
-      <c r="O213">
-        <v>4.5</v>
-      </c>
-      <c r="P213">
-        <v>8</v>
-      </c>
-      <c r="Q213">
-        <v>-1.25</v>
-      </c>
-      <c r="R213">
-        <v>1.95</v>
-      </c>
-      <c r="S213">
-        <v>1.95</v>
-      </c>
-      <c r="T213">
-        <v>2.75</v>
-      </c>
-      <c r="U213">
-        <v>1.91</v>
-      </c>
-      <c r="V213">
-        <v>1.99</v>
-      </c>
-      <c r="W213">
-        <v>-1</v>
-      </c>
       <c r="X213">
         <v>-1</v>
       </c>
       <c r="Y213">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="Z213">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="AA213">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB213">
-        <v>-1</v>
+        <v>0.8200000000000001</v>
       </c>
       <c r="AC213">
-        <v>0.99</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="214" spans="1:29">
@@ -19505,7 +19505,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>5703047</v>
+        <v>5701613</v>
       </c>
       <c r="C214" t="s">
         <v>28</v>
@@ -19517,13 +19517,13 @@
         <v>45074.58333333334</v>
       </c>
       <c r="F214" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G214" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H214">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I214">
         <v>0</v>
@@ -19532,43 +19532,43 @@
         <v>53</v>
       </c>
       <c r="K214">
-        <v>1.5</v>
+        <v>2.6</v>
       </c>
       <c r="L214">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="M214">
-        <v>6</v>
+        <v>2.7</v>
       </c>
       <c r="N214">
-        <v>1.25</v>
+        <v>2.45</v>
       </c>
       <c r="O214">
-        <v>5.75</v>
+        <v>3.1</v>
       </c>
       <c r="P214">
-        <v>12</v>
+        <v>3.1</v>
       </c>
       <c r="Q214">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R214">
+        <v>2.075</v>
+      </c>
+      <c r="S214">
+        <v>1.725</v>
+      </c>
+      <c r="T214">
         <v>2</v>
       </c>
-      <c r="S214">
-        <v>1.9</v>
-      </c>
-      <c r="T214">
-        <v>3</v>
-      </c>
       <c r="U214">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="V214">
-        <v>1.97</v>
+        <v>1.95</v>
       </c>
       <c r="W214">
-        <v>0.25</v>
+        <v>1.45</v>
       </c>
       <c r="X214">
         <v>-1</v>
@@ -19577,16 +19577,16 @@
         <v>-1</v>
       </c>
       <c r="Z214">
-        <v>1</v>
+        <v>1.075</v>
       </c>
       <c r="AA214">
         <v>-1</v>
       </c>
       <c r="AB214">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC214">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="215" spans="1:29">
@@ -19594,7 +19594,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>5697402</v>
+        <v>5703047</v>
       </c>
       <c r="C215" t="s">
         <v>28</v>
@@ -19606,76 +19606,76 @@
         <v>45074.58333333334</v>
       </c>
       <c r="F215" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="G215" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="H215">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I215">
         <v>0</v>
       </c>
       <c r="J215" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K215">
-        <v>2.25</v>
+        <v>1.5</v>
       </c>
       <c r="L215">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="M215">
-        <v>3.1</v>
+        <v>6</v>
       </c>
       <c r="N215">
-        <v>2.2</v>
+        <v>1.25</v>
       </c>
       <c r="O215">
-        <v>3.3</v>
+        <v>5.75</v>
       </c>
       <c r="P215">
-        <v>3.3</v>
+        <v>12</v>
       </c>
       <c r="Q215">
-        <v>-0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R215">
+        <v>2</v>
+      </c>
+      <c r="S215">
+        <v>1.9</v>
+      </c>
+      <c r="T215">
+        <v>3</v>
+      </c>
+      <c r="U215">
+        <v>1.93</v>
+      </c>
+      <c r="V215">
         <v>1.97</v>
       </c>
-      <c r="S215">
-        <v>1.93</v>
-      </c>
-      <c r="T215">
-        <v>2.5</v>
-      </c>
-      <c r="U215">
-        <v>1.86</v>
-      </c>
-      <c r="V215">
-        <v>2.04</v>
-      </c>
       <c r="W215">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X215">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y215">
         <v>-1</v>
       </c>
       <c r="Z215">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AA215">
-        <v>0.465</v>
+        <v>-1</v>
       </c>
       <c r="AB215">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC215">
-        <v>1.04</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="216" spans="1:29">
@@ -19683,7 +19683,7 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>5701612</v>
+        <v>5705727</v>
       </c>
       <c r="C216" t="s">
         <v>28</v>
@@ -19695,73 +19695,73 @@
         <v>45074.58333333334</v>
       </c>
       <c r="F216" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="G216" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="H216">
         <v>2</v>
       </c>
       <c r="I216">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J216" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K216">
         <v>1.909</v>
       </c>
       <c r="L216">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M216">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="N216">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="O216">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="P216">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q216">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R216">
-        <v>2.1</v>
+        <v>2.025</v>
       </c>
       <c r="S216">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="T216">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="U216">
-        <v>1.82</v>
+        <v>2.07</v>
       </c>
       <c r="V216">
-        <v>2.08</v>
+        <v>1.83</v>
       </c>
       <c r="W216">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="X216">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y216">
         <v>-1</v>
       </c>
       <c r="Z216">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="AA216">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB216">
-        <v>0.8200000000000001</v>
+        <v>1.07</v>
       </c>
       <c r="AC216">
         <v>-1</v>
@@ -19772,7 +19772,7 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>5705727</v>
+        <v>5705884</v>
       </c>
       <c r="C217" t="s">
         <v>28</v>
@@ -19784,73 +19784,73 @@
         <v>45074.58333333334</v>
       </c>
       <c r="F217" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="G217" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="H217">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I217">
         <v>2</v>
       </c>
       <c r="J217" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K217">
+        <v>2.2</v>
+      </c>
+      <c r="L217">
+        <v>3.5</v>
+      </c>
+      <c r="M217">
+        <v>3.1</v>
+      </c>
+      <c r="N217">
         <v>1.909</v>
       </c>
-      <c r="L217">
+      <c r="O217">
         <v>3.6</v>
       </c>
-      <c r="M217">
-        <v>3.75</v>
-      </c>
-      <c r="N217">
-        <v>2</v>
-      </c>
-      <c r="O217">
-        <v>3.5</v>
-      </c>
       <c r="P217">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="Q217">
         <v>-0.5</v>
       </c>
       <c r="R217">
-        <v>2.025</v>
+        <v>1.98</v>
       </c>
       <c r="S217">
-        <v>1.775</v>
+        <v>1.92</v>
       </c>
       <c r="T217">
         <v>2.5</v>
       </c>
       <c r="U217">
-        <v>2.07</v>
+        <v>1.99</v>
       </c>
       <c r="V217">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="W217">
         <v>-1</v>
       </c>
       <c r="X217">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y217">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Z217">
         <v>-1</v>
       </c>
       <c r="AA217">
-        <v>0.7749999999999999</v>
+        <v>0.9199999999999999</v>
       </c>
       <c r="AB217">
-        <v>1.07</v>
+        <v>0.99</v>
       </c>
       <c r="AC217">
         <v>-1</v>
@@ -19861,7 +19861,7 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>5705884</v>
+        <v>5697401</v>
       </c>
       <c r="C218" t="s">
         <v>28</v>
@@ -19873,56 +19873,56 @@
         <v>45074.58333333334</v>
       </c>
       <c r="F218" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G218" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="H218">
+        <v>0</v>
+      </c>
+      <c r="I218">
         <v>1</v>
-      </c>
-      <c r="I218">
-        <v>2</v>
       </c>
       <c r="J218" t="s">
         <v>52</v>
       </c>
       <c r="K218">
-        <v>2.2</v>
+        <v>1.4</v>
       </c>
       <c r="L218">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="M218">
-        <v>3.1</v>
+        <v>8</v>
       </c>
       <c r="N218">
-        <v>1.909</v>
+        <v>1.4</v>
       </c>
       <c r="O218">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="P218">
-        <v>3.8</v>
+        <v>8</v>
       </c>
       <c r="Q218">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R218">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="S218">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="T218">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U218">
+        <v>1.91</v>
+      </c>
+      <c r="V218">
         <v>1.99</v>
       </c>
-      <c r="V218">
-        <v>1.91</v>
-      </c>
       <c r="W218">
         <v>-1</v>
       </c>
@@ -19930,19 +19930,19 @@
         <v>-1</v>
       </c>
       <c r="Y218">
-        <v>2.8</v>
+        <v>7</v>
       </c>
       <c r="Z218">
         <v>-1</v>
       </c>
       <c r="AA218">
-        <v>0.9199999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AB218">
+        <v>-1</v>
+      </c>
+      <c r="AC218">
         <v>0.99</v>
-      </c>
-      <c r="AC218">
-        <v>-1</v>
       </c>
     </row>
     <row r="219" spans="1:29">
@@ -19950,7 +19950,7 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>5701613</v>
+        <v>5713343</v>
       </c>
       <c r="C219" t="s">
         <v>28</v>
@@ -19962,59 +19962,59 @@
         <v>45074.58333333334</v>
       </c>
       <c r="F219" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="G219" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="H219">
+        <v>2</v>
+      </c>
+      <c r="I219">
         <v>1</v>
-      </c>
-      <c r="I219">
-        <v>0</v>
       </c>
       <c r="J219" t="s">
         <v>53</v>
       </c>
       <c r="K219">
-        <v>2.6</v>
+        <v>2.875</v>
       </c>
       <c r="L219">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M219">
-        <v>2.7</v>
+        <v>2.3</v>
       </c>
       <c r="N219">
-        <v>2.45</v>
+        <v>3</v>
       </c>
       <c r="O219">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="P219">
-        <v>3.1</v>
+        <v>2.2</v>
       </c>
       <c r="Q219">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R219">
-        <v>2.075</v>
+        <v>1.9</v>
       </c>
       <c r="S219">
-        <v>1.725</v>
+        <v>2</v>
       </c>
       <c r="T219">
+        <v>3</v>
+      </c>
+      <c r="U219">
+        <v>2.06</v>
+      </c>
+      <c r="V219">
+        <v>1.84</v>
+      </c>
+      <c r="W219">
         <v>2</v>
       </c>
-      <c r="U219">
-        <v>1.95</v>
-      </c>
-      <c r="V219">
-        <v>1.95</v>
-      </c>
-      <c r="W219">
-        <v>1.45</v>
-      </c>
       <c r="X219">
         <v>-1</v>
       </c>
@@ -20022,16 +20022,16 @@
         <v>-1</v>
       </c>
       <c r="Z219">
-        <v>1.075</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA219">
         <v>-1</v>
       </c>
       <c r="AB219">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC219">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="220" spans="1:29">
@@ -20039,7 +20039,7 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>5713343</v>
+        <v>5697402</v>
       </c>
       <c r="C220" t="s">
         <v>28</v>
@@ -20051,76 +20051,76 @@
         <v>45074.58333333334</v>
       </c>
       <c r="F220" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G220" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H220">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I220">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J220" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K220">
-        <v>2.875</v>
+        <v>2.25</v>
       </c>
       <c r="L220">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M220">
+        <v>3.1</v>
+      </c>
+      <c r="N220">
+        <v>2.2</v>
+      </c>
+      <c r="O220">
+        <v>3.3</v>
+      </c>
+      <c r="P220">
+        <v>3.3</v>
+      </c>
+      <c r="Q220">
+        <v>-0.25</v>
+      </c>
+      <c r="R220">
+        <v>1.97</v>
+      </c>
+      <c r="S220">
+        <v>1.93</v>
+      </c>
+      <c r="T220">
+        <v>2.5</v>
+      </c>
+      <c r="U220">
+        <v>1.86</v>
+      </c>
+      <c r="V220">
+        <v>2.04</v>
+      </c>
+      <c r="W220">
+        <v>-1</v>
+      </c>
+      <c r="X220">
         <v>2.3</v>
       </c>
-      <c r="N220">
-        <v>3</v>
-      </c>
-      <c r="O220">
-        <v>3.75</v>
-      </c>
-      <c r="P220">
-        <v>2.2</v>
-      </c>
-      <c r="Q220">
-        <v>0.25</v>
-      </c>
-      <c r="R220">
-        <v>1.9</v>
-      </c>
-      <c r="S220">
-        <v>2</v>
-      </c>
-      <c r="T220">
-        <v>3</v>
-      </c>
-      <c r="U220">
-        <v>2.06</v>
-      </c>
-      <c r="V220">
-        <v>1.84</v>
-      </c>
-      <c r="W220">
-        <v>2</v>
-      </c>
-      <c r="X220">
-        <v>-1</v>
-      </c>
       <c r="Y220">
         <v>-1</v>
       </c>
       <c r="Z220">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AA220">
-        <v>-1</v>
+        <v>0.465</v>
       </c>
       <c r="AB220">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC220">
-        <v>-0</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="221" spans="1:29">
@@ -20128,7 +20128,7 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>5734136</v>
+        <v>5732767</v>
       </c>
       <c r="C221" t="s">
         <v>28</v>
@@ -20140,76 +20140,76 @@
         <v>45081.5625</v>
       </c>
       <c r="F221" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="G221" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H221">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I221">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J221" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K221">
-        <v>1.95</v>
+        <v>3.4</v>
       </c>
       <c r="L221">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M221">
-        <v>3.6</v>
+        <v>2.15</v>
       </c>
       <c r="N221">
-        <v>1.65</v>
+        <v>3</v>
       </c>
       <c r="O221">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="P221">
-        <v>4.75</v>
+        <v>2.45</v>
       </c>
       <c r="Q221">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R221">
-        <v>1.84</v>
+        <v>1.8</v>
       </c>
       <c r="S221">
-        <v>2.06</v>
+        <v>2.14</v>
       </c>
       <c r="T221">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U221">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="V221">
+        <v>2.01</v>
+      </c>
+      <c r="W221">
         <v>2</v>
       </c>
-      <c r="W221">
-        <v>-1</v>
-      </c>
       <c r="X221">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y221">
         <v>-1</v>
       </c>
       <c r="Z221">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA221">
-        <v>1.06</v>
+        <v>-1</v>
       </c>
       <c r="AB221">
-        <v>-1</v>
+        <v>0.8899999999999999</v>
       </c>
       <c r="AC221">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="222" spans="1:29">
@@ -20217,7 +20217,7 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>5776609</v>
+        <v>5730415</v>
       </c>
       <c r="C222" t="s">
         <v>28</v>
@@ -20229,10 +20229,10 @@
         <v>45081.5625</v>
       </c>
       <c r="F222" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G222" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H222">
         <v>2</v>
@@ -20247,40 +20247,40 @@
         <v>2.25</v>
       </c>
       <c r="L222">
+        <v>3.5</v>
+      </c>
+      <c r="M222">
+        <v>3</v>
+      </c>
+      <c r="N222">
+        <v>2.05</v>
+      </c>
+      <c r="O222">
         <v>3.6</v>
       </c>
-      <c r="M222">
-        <v>2.9</v>
-      </c>
-      <c r="N222">
-        <v>1.571</v>
-      </c>
-      <c r="O222">
-        <v>4</v>
-      </c>
       <c r="P222">
-        <v>5.75</v>
+        <v>3.25</v>
       </c>
       <c r="Q222">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R222">
-        <v>2.01</v>
+        <v>1.85</v>
       </c>
       <c r="S222">
-        <v>1.89</v>
+        <v>2.05</v>
       </c>
       <c r="T222">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U222">
-        <v>1.89</v>
+        <v>2.02</v>
       </c>
       <c r="V222">
-        <v>2.01</v>
+        <v>1.88</v>
       </c>
       <c r="W222">
-        <v>0.571</v>
+        <v>1.05</v>
       </c>
       <c r="X222">
         <v>-1</v>
@@ -20289,16 +20289,16 @@
         <v>-1</v>
       </c>
       <c r="Z222">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA222">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB222">
-        <v>0.8899999999999999</v>
+        <v>0.51</v>
       </c>
       <c r="AC222">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="223" spans="1:29">
@@ -20306,7 +20306,7 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>5732767</v>
+        <v>5776609</v>
       </c>
       <c r="C223" t="s">
         <v>28</v>
@@ -20318,49 +20318,49 @@
         <v>45081.5625</v>
       </c>
       <c r="F223" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="G223" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H223">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I223">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J223" t="s">
         <v>53</v>
       </c>
       <c r="K223">
-        <v>3.4</v>
+        <v>2.25</v>
       </c>
       <c r="L223">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M223">
-        <v>2.15</v>
+        <v>2.9</v>
       </c>
       <c r="N223">
-        <v>3</v>
+        <v>1.571</v>
       </c>
       <c r="O223">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="P223">
-        <v>2.45</v>
+        <v>5.75</v>
       </c>
       <c r="Q223">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R223">
-        <v>1.8</v>
+        <v>2.01</v>
       </c>
       <c r="S223">
-        <v>2.14</v>
+        <v>1.89</v>
       </c>
       <c r="T223">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U223">
         <v>1.89</v>
@@ -20369,7 +20369,7 @@
         <v>2.01</v>
       </c>
       <c r="W223">
-        <v>2</v>
+        <v>0.571</v>
       </c>
       <c r="X223">
         <v>-1</v>
@@ -20378,10 +20378,10 @@
         <v>-1</v>
       </c>
       <c r="Z223">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AA223">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB223">
         <v>0.8899999999999999</v>
@@ -20484,7 +20484,7 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>5730415</v>
+        <v>5734136</v>
       </c>
       <c r="C225" t="s">
         <v>28</v>
@@ -20496,76 +20496,76 @@
         <v>45081.5625</v>
       </c>
       <c r="F225" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="G225" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H225">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I225">
         <v>1</v>
       </c>
       <c r="J225" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K225">
-        <v>2.25</v>
+        <v>1.95</v>
       </c>
       <c r="L225">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M225">
+        <v>3.6</v>
+      </c>
+      <c r="N225">
+        <v>1.65</v>
+      </c>
+      <c r="O225">
+        <v>4</v>
+      </c>
+      <c r="P225">
+        <v>4.75</v>
+      </c>
+      <c r="Q225">
+        <v>-0.75</v>
+      </c>
+      <c r="R225">
+        <v>1.84</v>
+      </c>
+      <c r="S225">
+        <v>2.06</v>
+      </c>
+      <c r="T225">
         <v>3</v>
       </c>
-      <c r="N225">
-        <v>2.05</v>
-      </c>
-      <c r="O225">
-        <v>3.6</v>
-      </c>
-      <c r="P225">
-        <v>3.25</v>
-      </c>
-      <c r="Q225">
-        <v>-0.25</v>
-      </c>
-      <c r="R225">
-        <v>1.85</v>
-      </c>
-      <c r="S225">
-        <v>2.05</v>
-      </c>
-      <c r="T225">
-        <v>2.75</v>
-      </c>
       <c r="U225">
-        <v>2.02</v>
+        <v>1.9</v>
       </c>
       <c r="V225">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="W225">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X225">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y225">
         <v>-1</v>
       </c>
       <c r="Z225">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA225">
-        <v>-1</v>
+        <v>1.06</v>
       </c>
       <c r="AB225">
-        <v>0.51</v>
+        <v>-1</v>
       </c>
       <c r="AC225">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="226" spans="1:29">
@@ -20573,7 +20573,7 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>5737343</v>
+        <v>5738382</v>
       </c>
       <c r="C226" t="s">
         <v>28</v>
@@ -20585,76 +20585,76 @@
         <v>45081.66666666666</v>
       </c>
       <c r="F226" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="G226" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H226">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I226">
         <v>1</v>
       </c>
       <c r="J226" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K226">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="L226">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M226">
-        <v>2.6</v>
+        <v>2.2</v>
       </c>
       <c r="N226">
+        <v>2.7</v>
+      </c>
+      <c r="O226">
+        <v>3.6</v>
+      </c>
+      <c r="P226">
         <v>2.45</v>
       </c>
-      <c r="O226">
-        <v>3.3</v>
-      </c>
-      <c r="P226">
-        <v>2.875</v>
-      </c>
       <c r="Q226">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R226">
-        <v>2.05</v>
+        <v>2.06</v>
       </c>
       <c r="S226">
-        <v>1.75</v>
+        <v>1.84</v>
       </c>
       <c r="T226">
         <v>2.5</v>
       </c>
       <c r="U226">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="V226">
-        <v>1.99</v>
+        <v>1.95</v>
       </c>
       <c r="W226">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X226">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y226">
         <v>-1</v>
       </c>
       <c r="Z226">
-        <v>-0.5</v>
+        <v>1.06</v>
       </c>
       <c r="AA226">
-        <v>0.375</v>
+        <v>-1</v>
       </c>
       <c r="AB226">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC226">
-        <v>0.99</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="227" spans="1:29">
@@ -20662,7 +20662,7 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>5734498</v>
+        <v>5737343</v>
       </c>
       <c r="C227" t="s">
         <v>28</v>
@@ -20674,55 +20674,55 @@
         <v>45081.66666666666</v>
       </c>
       <c r="F227" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="G227" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H227">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I227">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J227" t="s">
         <v>54</v>
       </c>
       <c r="K227">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="L227">
         <v>3.4</v>
       </c>
       <c r="M227">
-        <v>3.4</v>
+        <v>2.6</v>
       </c>
       <c r="N227">
-        <v>2.05</v>
+        <v>2.45</v>
       </c>
       <c r="O227">
         <v>3.3</v>
       </c>
       <c r="P227">
-        <v>4</v>
+        <v>2.875</v>
       </c>
       <c r="Q227">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R227">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="S227">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="T227">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U227">
-        <v>1.82</v>
+        <v>1.91</v>
       </c>
       <c r="V227">
-        <v>2.08</v>
+        <v>1.99</v>
       </c>
       <c r="W227">
         <v>-1</v>
@@ -20734,16 +20734,16 @@
         <v>-1</v>
       </c>
       <c r="Z227">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA227">
-        <v>0.8200000000000001</v>
+        <v>0.375</v>
       </c>
       <c r="AB227">
         <v>-1</v>
       </c>
       <c r="AC227">
-        <v>1.08</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="228" spans="1:29">
@@ -20751,7 +20751,7 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>5732768</v>
+        <v>5762751</v>
       </c>
       <c r="C228" t="s">
         <v>28</v>
@@ -20763,76 +20763,76 @@
         <v>45081.66666666666</v>
       </c>
       <c r="F228" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="G228" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H228">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I228">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J228" t="s">
         <v>54</v>
       </c>
       <c r="K228">
+        <v>3.1</v>
+      </c>
+      <c r="L228">
         <v>3.5</v>
       </c>
-      <c r="L228">
-        <v>4</v>
-      </c>
       <c r="M228">
-        <v>1.909</v>
+        <v>2.2</v>
       </c>
       <c r="N228">
-        <v>2.4</v>
+        <v>2.875</v>
       </c>
       <c r="O228">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="P228">
-        <v>2.75</v>
+        <v>2.45</v>
       </c>
       <c r="Q228">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R228">
-        <v>2.1</v>
+        <v>1.78</v>
       </c>
       <c r="S228">
-        <v>1.83</v>
+        <v>2.125</v>
       </c>
       <c r="T228">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="U228">
-        <v>2.1</v>
+        <v>1.92</v>
       </c>
       <c r="V228">
-        <v>1.8</v>
+        <v>1.98</v>
       </c>
       <c r="W228">
         <v>-1</v>
       </c>
       <c r="X228">
-        <v>2.75</v>
+        <v>2.3</v>
       </c>
       <c r="Y228">
         <v>-1</v>
       </c>
       <c r="Z228">
+        <v>0.39</v>
+      </c>
+      <c r="AA228">
         <v>-0.5</v>
       </c>
-      <c r="AA228">
-        <v>0.415</v>
-      </c>
       <c r="AB228">
-        <v>1.1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC228">
-        <v>-1</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="229" spans="1:29">
@@ -20840,7 +20840,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>5762751</v>
+        <v>5734498</v>
       </c>
       <c r="C229" t="s">
         <v>28</v>
@@ -20852,55 +20852,55 @@
         <v>45081.66666666666</v>
       </c>
       <c r="F229" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="G229" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="H229">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I229">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J229" t="s">
         <v>54</v>
       </c>
       <c r="K229">
-        <v>3.1</v>
+        <v>2.1</v>
       </c>
       <c r="L229">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M229">
-        <v>2.2</v>
+        <v>3.4</v>
       </c>
       <c r="N229">
-        <v>2.875</v>
+        <v>2.05</v>
       </c>
       <c r="O229">
         <v>3.3</v>
       </c>
       <c r="P229">
-        <v>2.45</v>
+        <v>4</v>
       </c>
       <c r="Q229">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R229">
-        <v>1.78</v>
+        <v>2.08</v>
       </c>
       <c r="S229">
-        <v>2.125</v>
+        <v>1.82</v>
       </c>
       <c r="T229">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U229">
-        <v>1.92</v>
+        <v>1.82</v>
       </c>
       <c r="V229">
-        <v>1.98</v>
+        <v>2.08</v>
       </c>
       <c r="W229">
         <v>-1</v>
@@ -20912,16 +20912,16 @@
         <v>-1</v>
       </c>
       <c r="Z229">
-        <v>0.39</v>
+        <v>-1</v>
       </c>
       <c r="AA229">
-        <v>-0.5</v>
+        <v>0.8200000000000001</v>
       </c>
       <c r="AB229">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC229">
-        <v>0.49</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="230" spans="1:29">
@@ -20929,7 +20929,7 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>5738382</v>
+        <v>5732768</v>
       </c>
       <c r="C230" t="s">
         <v>28</v>
@@ -20941,73 +20941,73 @@
         <v>45081.66666666666</v>
       </c>
       <c r="F230" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G230" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="H230">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I230">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J230" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K230">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="L230">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M230">
-        <v>2.2</v>
+        <v>1.909</v>
       </c>
       <c r="N230">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="O230">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P230">
-        <v>2.45</v>
+        <v>2.75</v>
       </c>
       <c r="Q230">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R230">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="S230">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="T230">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U230">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="V230">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W230">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X230">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y230">
         <v>-1</v>
       </c>
       <c r="Z230">
-        <v>1.06</v>
+        <v>-0.5</v>
       </c>
       <c r="AA230">
-        <v>-1</v>
+        <v>0.415</v>
       </c>
       <c r="AB230">
-        <v>0.95</v>
+        <v>1.1</v>
       </c>
       <c r="AC230">
         <v>-1</v>
@@ -26002,7 +26002,7 @@
         <v>285</v>
       </c>
       <c r="B287">
-        <v>7173107</v>
+        <v>7173100</v>
       </c>
       <c r="C287" t="s">
         <v>28</v>
@@ -26014,76 +26014,76 @@
         <v>45193.5625</v>
       </c>
       <c r="F287" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G287" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="H287">
         <v>1</v>
       </c>
       <c r="I287">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J287" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K287">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="L287">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M287">
+        <v>4.5</v>
+      </c>
+      <c r="N287">
+        <v>1.75</v>
+      </c>
+      <c r="O287">
         <v>3.5</v>
       </c>
-      <c r="N287">
-        <v>1.909</v>
-      </c>
-      <c r="O287">
-        <v>3.6</v>
-      </c>
       <c r="P287">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="Q287">
+        <v>-0.75</v>
+      </c>
+      <c r="R287">
+        <v>2.07</v>
+      </c>
+      <c r="S287">
+        <v>1.86</v>
+      </c>
+      <c r="T287">
+        <v>2.25</v>
+      </c>
+      <c r="U287">
+        <v>1.89</v>
+      </c>
+      <c r="V287">
+        <v>2.01</v>
+      </c>
+      <c r="W287">
+        <v>-1</v>
+      </c>
+      <c r="X287">
+        <v>2.5</v>
+      </c>
+      <c r="Y287">
+        <v>-1</v>
+      </c>
+      <c r="Z287">
+        <v>-1</v>
+      </c>
+      <c r="AA287">
+        <v>0.8600000000000001</v>
+      </c>
+      <c r="AB287">
         <v>-0.5</v>
       </c>
-      <c r="R287">
-        <v>1.95</v>
-      </c>
-      <c r="S287">
-        <v>1.95</v>
-      </c>
-      <c r="T287">
-        <v>2.5</v>
-      </c>
-      <c r="U287">
-        <v>1.95</v>
-      </c>
-      <c r="V287">
-        <v>1.95</v>
-      </c>
-      <c r="W287">
-        <v>0.909</v>
-      </c>
-      <c r="X287">
-        <v>-1</v>
-      </c>
-      <c r="Y287">
-        <v>-1</v>
-      </c>
-      <c r="Z287">
-        <v>0.95</v>
-      </c>
-      <c r="AA287">
-        <v>-1</v>
-      </c>
-      <c r="AB287">
-        <v>-1</v>
-      </c>
       <c r="AC287">
-        <v>0.95</v>
+        <v>0.5049999999999999</v>
       </c>
     </row>
     <row r="288" spans="1:29">
@@ -26091,7 +26091,7 @@
         <v>286</v>
       </c>
       <c r="B288">
-        <v>7173100</v>
+        <v>7173107</v>
       </c>
       <c r="C288" t="s">
         <v>28</v>
@@ -26103,76 +26103,76 @@
         <v>45193.5625</v>
       </c>
       <c r="F288" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G288" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="H288">
         <v>1</v>
       </c>
       <c r="I288">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J288" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K288">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="L288">
+        <v>3.3</v>
+      </c>
+      <c r="M288">
         <v>3.5</v>
       </c>
-      <c r="M288">
-        <v>4.5</v>
-      </c>
       <c r="N288">
-        <v>1.75</v>
+        <v>1.909</v>
       </c>
       <c r="O288">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P288">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="Q288">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R288">
-        <v>2.07</v>
+        <v>1.95</v>
       </c>
       <c r="S288">
-        <v>1.86</v>
+        <v>1.95</v>
       </c>
       <c r="T288">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U288">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="V288">
-        <v>2.01</v>
+        <v>1.95</v>
       </c>
       <c r="W288">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X288">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y288">
         <v>-1</v>
       </c>
       <c r="Z288">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA288">
-        <v>0.8600000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB288">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC288">
-        <v>0.5049999999999999</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="289" spans="1:29">
@@ -26447,7 +26447,7 @@
         <v>290</v>
       </c>
       <c r="B292">
-        <v>6809222</v>
+        <v>6809383</v>
       </c>
       <c r="C292" t="s">
         <v>28</v>
@@ -26459,76 +26459,76 @@
         <v>45196.58333333334</v>
       </c>
       <c r="F292" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G292" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="H292">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I292">
         <v>2</v>
       </c>
       <c r="J292" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K292">
-        <v>1.909</v>
+        <v>1.666</v>
       </c>
       <c r="L292">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M292">
-        <v>3.75</v>
+        <v>5.5</v>
       </c>
       <c r="N292">
-        <v>2.15</v>
+        <v>1.5</v>
       </c>
       <c r="O292">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="P292">
-        <v>3.25</v>
+        <v>6.5</v>
       </c>
       <c r="Q292">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R292">
-        <v>1.87</v>
+        <v>1.93</v>
       </c>
       <c r="S292">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="T292">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U292">
-        <v>2.02</v>
+        <v>1.92</v>
       </c>
       <c r="V292">
-        <v>1.88</v>
+        <v>1.98</v>
       </c>
       <c r="W292">
         <v>-1</v>
       </c>
       <c r="X292">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y292">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Z292">
         <v>-1</v>
       </c>
       <c r="AA292">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AB292">
-        <v>0</v>
+        <v>0.9199999999999999</v>
       </c>
       <c r="AC292">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="293" spans="1:29">
@@ -26536,7 +26536,7 @@
         <v>291</v>
       </c>
       <c r="B293">
-        <v>6809383</v>
+        <v>6809222</v>
       </c>
       <c r="C293" t="s">
         <v>28</v>
@@ -26548,76 +26548,76 @@
         <v>45196.58333333334</v>
       </c>
       <c r="F293" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G293" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H293">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I293">
         <v>2</v>
       </c>
       <c r="J293" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K293">
-        <v>1.666</v>
+        <v>1.909</v>
       </c>
       <c r="L293">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M293">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="N293">
-        <v>1.5</v>
+        <v>2.15</v>
       </c>
       <c r="O293">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="P293">
-        <v>6.5</v>
+        <v>3.25</v>
       </c>
       <c r="Q293">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R293">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="S293">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="T293">
+        <v>3</v>
+      </c>
+      <c r="U293">
+        <v>2.02</v>
+      </c>
+      <c r="V293">
+        <v>1.88</v>
+      </c>
+      <c r="W293">
+        <v>-1</v>
+      </c>
+      <c r="X293">
+        <v>-1</v>
+      </c>
+      <c r="Y293">
         <v>2.25</v>
       </c>
-      <c r="U293">
-        <v>1.92</v>
-      </c>
-      <c r="V293">
-        <v>1.98</v>
-      </c>
-      <c r="W293">
-        <v>-1</v>
-      </c>
-      <c r="X293">
-        <v>3.2</v>
-      </c>
-      <c r="Y293">
-        <v>-1</v>
-      </c>
       <c r="Z293">
         <v>-1</v>
       </c>
       <c r="AA293">
-        <v>1</v>
+        <v>1.06</v>
       </c>
       <c r="AB293">
-        <v>0.9199999999999999</v>
+        <v>0</v>
       </c>
       <c r="AC293">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="294" spans="1:29">
@@ -26714,7 +26714,7 @@
         <v>293</v>
       </c>
       <c r="B295">
-        <v>6809223</v>
+        <v>6809384</v>
       </c>
       <c r="C295" t="s">
         <v>28</v>
@@ -26726,19 +26726,19 @@
         <v>45196.6875</v>
       </c>
       <c r="F295" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="G295" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="H295">
         <v>0</v>
       </c>
       <c r="I295">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J295" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K295">
         <v>2.625</v>
@@ -26750,52 +26750,52 @@
         <v>2.875</v>
       </c>
       <c r="N295">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="O295">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="P295">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="Q295">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R295">
-        <v>2.125</v>
+        <v>1.85</v>
       </c>
       <c r="S295">
-        <v>1.78</v>
+        <v>2.05</v>
       </c>
       <c r="T295">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U295">
-        <v>2.03</v>
+        <v>2.08</v>
       </c>
       <c r="V295">
-        <v>1.87</v>
+        <v>1.82</v>
       </c>
       <c r="W295">
         <v>-1</v>
       </c>
       <c r="X295">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y295">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z295">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA295">
-        <v>0.78</v>
+        <v>-0</v>
       </c>
       <c r="AB295">
         <v>-1</v>
       </c>
       <c r="AC295">
-        <v>0.8700000000000001</v>
+        <v>0.8200000000000001</v>
       </c>
     </row>
     <row r="296" spans="1:29">
@@ -26803,7 +26803,7 @@
         <v>294</v>
       </c>
       <c r="B296">
-        <v>6809384</v>
+        <v>6809223</v>
       </c>
       <c r="C296" t="s">
         <v>28</v>
@@ -26815,19 +26815,19 @@
         <v>45196.6875</v>
       </c>
       <c r="F296" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="G296" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="H296">
         <v>0</v>
       </c>
       <c r="I296">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J296" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K296">
         <v>2.625</v>
@@ -26839,52 +26839,52 @@
         <v>2.875</v>
       </c>
       <c r="N296">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="O296">
+        <v>3</v>
+      </c>
+      <c r="P296">
         <v>3.1</v>
       </c>
-      <c r="P296">
-        <v>2.9</v>
-      </c>
       <c r="Q296">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R296">
-        <v>1.85</v>
+        <v>2.125</v>
       </c>
       <c r="S296">
-        <v>2.05</v>
+        <v>1.78</v>
       </c>
       <c r="T296">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U296">
-        <v>2.08</v>
+        <v>2.03</v>
       </c>
       <c r="V296">
-        <v>1.82</v>
+        <v>1.87</v>
       </c>
       <c r="W296">
         <v>-1</v>
       </c>
       <c r="X296">
+        <v>-1</v>
+      </c>
+      <c r="Y296">
         <v>2.1</v>
       </c>
-      <c r="Y296">
-        <v>-1</v>
-      </c>
       <c r="Z296">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA296">
-        <v>-0</v>
+        <v>0.78</v>
       </c>
       <c r="AB296">
         <v>-1</v>
       </c>
       <c r="AC296">
-        <v>0.8200000000000001</v>
+        <v>0.8700000000000001</v>
       </c>
     </row>
     <row r="297" spans="1:29">
@@ -26892,7 +26892,7 @@
         <v>295</v>
       </c>
       <c r="B297">
-        <v>6809385</v>
+        <v>6809387</v>
       </c>
       <c r="C297" t="s">
         <v>28</v>
@@ -26904,10 +26904,10 @@
         <v>45197.58333333334</v>
       </c>
       <c r="F297" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="G297" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H297">
         <v>1</v>
@@ -26919,61 +26919,61 @@
         <v>54</v>
       </c>
       <c r="K297">
+        <v>2</v>
+      </c>
+      <c r="L297">
         <v>3.2</v>
       </c>
-      <c r="L297">
-        <v>3.25</v>
-      </c>
       <c r="M297">
+        <v>4</v>
+      </c>
+      <c r="N297">
+        <v>1.571</v>
+      </c>
+      <c r="O297">
+        <v>3.75</v>
+      </c>
+      <c r="P297">
+        <v>6.5</v>
+      </c>
+      <c r="Q297">
+        <v>-1</v>
+      </c>
+      <c r="R297">
+        <v>2.06</v>
+      </c>
+      <c r="S297">
+        <v>1.84</v>
+      </c>
+      <c r="T297">
         <v>2.25</v>
       </c>
-      <c r="N297">
-        <v>2.8</v>
-      </c>
-      <c r="O297">
-        <v>3.3</v>
-      </c>
-      <c r="P297">
-        <v>2.55</v>
-      </c>
-      <c r="Q297">
-        <v>0</v>
-      </c>
-      <c r="R297">
-        <v>2.07</v>
-      </c>
-      <c r="S297">
-        <v>1.86</v>
-      </c>
-      <c r="T297">
-        <v>2.5</v>
-      </c>
       <c r="U297">
-        <v>1.97</v>
+        <v>1.99</v>
       </c>
       <c r="V297">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="W297">
         <v>-1</v>
       </c>
       <c r="X297">
-        <v>2.3</v>
+        <v>2.75</v>
       </c>
       <c r="Y297">
         <v>-1</v>
       </c>
       <c r="Z297">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA297">
-        <v>-0</v>
+        <v>0.8400000000000001</v>
       </c>
       <c r="AB297">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC297">
-        <v>0.9299999999999999</v>
+        <v>0.455</v>
       </c>
     </row>
     <row r="298" spans="1:29">
@@ -26981,7 +26981,7 @@
         <v>296</v>
       </c>
       <c r="B298">
-        <v>6809387</v>
+        <v>6809385</v>
       </c>
       <c r="C298" t="s">
         <v>28</v>
@@ -26993,10 +26993,10 @@
         <v>45197.58333333334</v>
       </c>
       <c r="F298" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="G298" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H298">
         <v>1</v>
@@ -27008,61 +27008,61 @@
         <v>54</v>
       </c>
       <c r="K298">
-        <v>2</v>
+        <v>3.2</v>
       </c>
       <c r="L298">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M298">
-        <v>4</v>
+        <v>2.25</v>
       </c>
       <c r="N298">
-        <v>1.571</v>
+        <v>2.8</v>
       </c>
       <c r="O298">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="P298">
-        <v>6.5</v>
+        <v>2.55</v>
       </c>
       <c r="Q298">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R298">
-        <v>2.06</v>
+        <v>2.07</v>
       </c>
       <c r="S298">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="T298">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U298">
-        <v>1.99</v>
+        <v>1.97</v>
       </c>
       <c r="V298">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="W298">
         <v>-1</v>
       </c>
       <c r="X298">
-        <v>2.75</v>
+        <v>2.3</v>
       </c>
       <c r="Y298">
         <v>-1</v>
       </c>
       <c r="Z298">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA298">
-        <v>0.8400000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB298">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC298">
-        <v>0.455</v>
+        <v>0.9299999999999999</v>
       </c>
     </row>
     <row r="299" spans="1:29">
@@ -31876,7 +31876,7 @@
         <v>351</v>
       </c>
       <c r="B353">
-        <v>6809414</v>
+        <v>6809255</v>
       </c>
       <c r="C353" t="s">
         <v>28</v>
@@ -31888,10 +31888,10 @@
         <v>45241.60416666666</v>
       </c>
       <c r="F353" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G353" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="H353">
         <v>1</v>
@@ -31903,61 +31903,61 @@
         <v>54</v>
       </c>
       <c r="K353">
-        <v>2.5</v>
+        <v>1.75</v>
       </c>
       <c r="L353">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="M353">
-        <v>3</v>
+        <v>4.75</v>
       </c>
       <c r="N353">
-        <v>2.45</v>
+        <v>1.909</v>
       </c>
       <c r="O353">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P353">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="Q353">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R353">
-        <v>2.11</v>
+        <v>1.97</v>
       </c>
       <c r="S353">
-        <v>1.79</v>
+        <v>1.93</v>
       </c>
       <c r="T353">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U353">
-        <v>2.02</v>
+        <v>1.75</v>
       </c>
       <c r="V353">
-        <v>1.88</v>
+        <v>2.05</v>
       </c>
       <c r="W353">
         <v>-1</v>
       </c>
       <c r="X353">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="Y353">
         <v>-1</v>
       </c>
       <c r="Z353">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA353">
-        <v>0.395</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="AB353">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AC353">
-        <v>0.4399999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="354" spans="1:29">
@@ -31965,7 +31965,7 @@
         <v>352</v>
       </c>
       <c r="B354">
-        <v>6809255</v>
+        <v>6809414</v>
       </c>
       <c r="C354" t="s">
         <v>28</v>
@@ -31977,10 +31977,10 @@
         <v>45241.60416666666</v>
       </c>
       <c r="F354" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G354" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="H354">
         <v>1</v>
@@ -31992,61 +31992,61 @@
         <v>54</v>
       </c>
       <c r="K354">
-        <v>1.75</v>
+        <v>2.5</v>
       </c>
       <c r="L354">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="M354">
-        <v>4.75</v>
+        <v>3</v>
       </c>
       <c r="N354">
-        <v>1.909</v>
+        <v>2.45</v>
       </c>
       <c r="O354">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="P354">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="Q354">
+        <v>-0.25</v>
+      </c>
+      <c r="R354">
+        <v>2.11</v>
+      </c>
+      <c r="S354">
+        <v>1.79</v>
+      </c>
+      <c r="T354">
+        <v>2.25</v>
+      </c>
+      <c r="U354">
+        <v>2.02</v>
+      </c>
+      <c r="V354">
+        <v>1.88</v>
+      </c>
+      <c r="W354">
+        <v>-1</v>
+      </c>
+      <c r="X354">
+        <v>2.1</v>
+      </c>
+      <c r="Y354">
+        <v>-1</v>
+      </c>
+      <c r="Z354">
         <v>-0.5</v>
       </c>
-      <c r="R354">
-        <v>1.97</v>
-      </c>
-      <c r="S354">
-        <v>1.93</v>
-      </c>
-      <c r="T354">
-        <v>2</v>
-      </c>
-      <c r="U354">
-        <v>1.75</v>
-      </c>
-      <c r="V354">
-        <v>2.05</v>
-      </c>
-      <c r="W354">
-        <v>-1</v>
-      </c>
-      <c r="X354">
-        <v>2.2</v>
-      </c>
-      <c r="Y354">
-        <v>-1</v>
-      </c>
-      <c r="Z354">
-        <v>-1</v>
-      </c>
       <c r="AA354">
-        <v>0.9299999999999999</v>
+        <v>0.395</v>
       </c>
       <c r="AB354">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AC354">
-        <v>-0</v>
+        <v>0.4399999999999999</v>
       </c>
     </row>
     <row r="355" spans="1:29">
@@ -36148,7 +36148,7 @@
         <v>399</v>
       </c>
       <c r="B401">
-        <v>6809292</v>
+        <v>6809435</v>
       </c>
       <c r="C401" t="s">
         <v>28</v>
@@ -36160,49 +36160,49 @@
         <v>45279.72916666666</v>
       </c>
       <c r="F401" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="G401" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="H401">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I401">
         <v>3</v>
       </c>
       <c r="J401" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K401">
-        <v>2.875</v>
+        <v>1.333</v>
       </c>
       <c r="L401">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="M401">
-        <v>2.25</v>
+        <v>8</v>
       </c>
       <c r="N401">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="O401">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="P401">
-        <v>2.45</v>
+        <v>7</v>
       </c>
       <c r="Q401">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R401">
-        <v>1.78</v>
+        <v>1.83</v>
       </c>
       <c r="S401">
-        <v>2.125</v>
+        <v>2.07</v>
       </c>
       <c r="T401">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U401">
         <v>2.04</v>
@@ -36214,16 +36214,16 @@
         <v>-1</v>
       </c>
       <c r="X401">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y401">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="Z401">
         <v>-1</v>
       </c>
       <c r="AA401">
-        <v>1.125</v>
+        <v>1.07</v>
       </c>
       <c r="AB401">
         <v>1.04</v>
@@ -36237,7 +36237,7 @@
         <v>400</v>
       </c>
       <c r="B402">
-        <v>6809435</v>
+        <v>6809292</v>
       </c>
       <c r="C402" t="s">
         <v>28</v>
@@ -36249,49 +36249,49 @@
         <v>45279.72916666666</v>
       </c>
       <c r="F402" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="G402" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="H402">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I402">
         <v>3</v>
       </c>
       <c r="J402" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K402">
-        <v>1.333</v>
+        <v>2.875</v>
       </c>
       <c r="L402">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="M402">
-        <v>8</v>
+        <v>2.25</v>
       </c>
       <c r="N402">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="O402">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="P402">
-        <v>7</v>
+        <v>2.45</v>
       </c>
       <c r="Q402">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R402">
-        <v>1.83</v>
+        <v>1.78</v>
       </c>
       <c r="S402">
-        <v>2.07</v>
+        <v>2.125</v>
       </c>
       <c r="T402">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U402">
         <v>2.04</v>
@@ -36303,16 +36303,16 @@
         <v>-1</v>
       </c>
       <c r="X402">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y402">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="Z402">
         <v>-1</v>
       </c>
       <c r="AA402">
-        <v>1.07</v>
+        <v>1.125</v>
       </c>
       <c r="AB402">
         <v>1.04</v>
@@ -36593,7 +36593,7 @@
         <v>404</v>
       </c>
       <c r="B406">
-        <v>6809436</v>
+        <v>6809289</v>
       </c>
       <c r="C406" t="s">
         <v>28</v>
@@ -36605,76 +36605,76 @@
         <v>45281.625</v>
       </c>
       <c r="F406" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G406" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H406">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I406">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J406" t="s">
         <v>54</v>
       </c>
       <c r="K406">
-        <v>4.333</v>
+        <v>2.4</v>
       </c>
       <c r="L406">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M406">
-        <v>1.85</v>
+        <v>2.75</v>
       </c>
       <c r="N406">
-        <v>6</v>
+        <v>2.6</v>
       </c>
       <c r="O406">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P406">
-        <v>1.65</v>
+        <v>2.5</v>
       </c>
       <c r="Q406">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R406">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="S406">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="T406">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U406">
-        <v>1.84</v>
+        <v>1.91</v>
       </c>
       <c r="V406">
-        <v>2.06</v>
+        <v>1.99</v>
       </c>
       <c r="W406">
         <v>-1</v>
       </c>
       <c r="X406">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="Y406">
         <v>-1</v>
       </c>
       <c r="Z406">
-        <v>0.98</v>
+        <v>0</v>
       </c>
       <c r="AA406">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB406">
         <v>-1</v>
       </c>
       <c r="AC406">
-        <v>1.06</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="407" spans="1:29">
@@ -36682,7 +36682,7 @@
         <v>405</v>
       </c>
       <c r="B407">
-        <v>6809289</v>
+        <v>6809436</v>
       </c>
       <c r="C407" t="s">
         <v>28</v>
@@ -36694,76 +36694,76 @@
         <v>45281.625</v>
       </c>
       <c r="F407" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G407" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H407">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I407">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J407" t="s">
         <v>54</v>
       </c>
       <c r="K407">
-        <v>2.4</v>
+        <v>4.333</v>
       </c>
       <c r="L407">
+        <v>3.2</v>
+      </c>
+      <c r="M407">
+        <v>1.85</v>
+      </c>
+      <c r="N407">
+        <v>6</v>
+      </c>
+      <c r="O407">
         <v>3.5</v>
       </c>
-      <c r="M407">
-        <v>2.75</v>
-      </c>
-      <c r="N407">
-        <v>2.6</v>
-      </c>
-      <c r="O407">
-        <v>3.6</v>
-      </c>
       <c r="P407">
+        <v>1.65</v>
+      </c>
+      <c r="Q407">
+        <v>0.75</v>
+      </c>
+      <c r="R407">
+        <v>1.98</v>
+      </c>
+      <c r="S407">
+        <v>1.92</v>
+      </c>
+      <c r="T407">
+        <v>2</v>
+      </c>
+      <c r="U407">
+        <v>1.84</v>
+      </c>
+      <c r="V407">
+        <v>2.06</v>
+      </c>
+      <c r="W407">
+        <v>-1</v>
+      </c>
+      <c r="X407">
         <v>2.5</v>
       </c>
-      <c r="Q407">
-        <v>0</v>
-      </c>
-      <c r="R407">
-        <v>1.97</v>
-      </c>
-      <c r="S407">
-        <v>1.93</v>
-      </c>
-      <c r="T407">
-        <v>2.75</v>
-      </c>
-      <c r="U407">
-        <v>1.91</v>
-      </c>
-      <c r="V407">
-        <v>1.99</v>
-      </c>
-      <c r="W407">
-        <v>-1</v>
-      </c>
-      <c r="X407">
-        <v>2.6</v>
-      </c>
       <c r="Y407">
         <v>-1</v>
       </c>
       <c r="Z407">
-        <v>0</v>
+        <v>0.98</v>
       </c>
       <c r="AA407">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB407">
         <v>-1</v>
       </c>
       <c r="AC407">
-        <v>0.99</v>
+        <v>1.06</v>
       </c>
     </row>
     <row r="408" spans="1:29">
@@ -37394,7 +37394,7 @@
         <v>413</v>
       </c>
       <c r="B415">
-        <v>6809440</v>
+        <v>6809442</v>
       </c>
       <c r="C415" t="s">
         <v>28</v>
@@ -37406,58 +37406,58 @@
         <v>45294.63541666666</v>
       </c>
       <c r="F415" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="G415" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="H415">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I415">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J415" t="s">
         <v>53</v>
       </c>
       <c r="K415">
-        <v>2.25</v>
+        <v>1.222</v>
       </c>
       <c r="L415">
-        <v>3.2</v>
+        <v>6.5</v>
       </c>
       <c r="M415">
-        <v>3.25</v>
+        <v>11</v>
       </c>
       <c r="N415">
-        <v>2.15</v>
+        <v>1.2</v>
       </c>
       <c r="O415">
-        <v>3.2</v>
+        <v>6.5</v>
       </c>
       <c r="P415">
-        <v>3.5</v>
+        <v>15</v>
       </c>
       <c r="Q415">
-        <v>-0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R415">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="S415">
-        <v>2.04</v>
+        <v>1.98</v>
       </c>
       <c r="T415">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U415">
-        <v>1.86</v>
+        <v>2.02</v>
       </c>
       <c r="V415">
-        <v>2.04</v>
+        <v>1.88</v>
       </c>
       <c r="W415">
-        <v>1.15</v>
+        <v>0.2</v>
       </c>
       <c r="X415">
         <v>-1</v>
@@ -37466,16 +37466,16 @@
         <v>-1</v>
       </c>
       <c r="Z415">
-        <v>0.8899999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA415">
-        <v>-1</v>
+        <v>0.98</v>
       </c>
       <c r="AB415">
-        <v>0.8600000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC415">
-        <v>-1</v>
+        <v>0.8799999999999999</v>
       </c>
     </row>
     <row r="416" spans="1:29">
@@ -37483,7 +37483,7 @@
         <v>414</v>
       </c>
       <c r="B416">
-        <v>6809442</v>
+        <v>6809440</v>
       </c>
       <c r="C416" t="s">
         <v>28</v>
@@ -37495,58 +37495,58 @@
         <v>45294.63541666666</v>
       </c>
       <c r="F416" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="G416" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="H416">
+        <v>2</v>
+      </c>
+      <c r="I416">
         <v>1</v>
-      </c>
-      <c r="I416">
-        <v>0</v>
       </c>
       <c r="J416" t="s">
         <v>53</v>
       </c>
       <c r="K416">
-        <v>1.222</v>
+        <v>2.25</v>
       </c>
       <c r="L416">
-        <v>6.5</v>
+        <v>3.2</v>
       </c>
       <c r="M416">
-        <v>11</v>
+        <v>3.25</v>
       </c>
       <c r="N416">
-        <v>1.2</v>
+        <v>2.15</v>
       </c>
       <c r="O416">
-        <v>6.5</v>
+        <v>3.2</v>
       </c>
       <c r="P416">
-        <v>15</v>
+        <v>3.5</v>
       </c>
       <c r="Q416">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R416">
-        <v>1.95</v>
+        <v>1.89</v>
       </c>
       <c r="S416">
-        <v>1.98</v>
+        <v>2.04</v>
       </c>
       <c r="T416">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U416">
-        <v>2.02</v>
+        <v>1.86</v>
       </c>
       <c r="V416">
-        <v>1.88</v>
+        <v>2.04</v>
       </c>
       <c r="W416">
-        <v>0.2</v>
+        <v>1.15</v>
       </c>
       <c r="X416">
         <v>-1</v>
@@ -37555,16 +37555,16 @@
         <v>-1</v>
       </c>
       <c r="Z416">
-        <v>-1</v>
+        <v>0.8899999999999999</v>
       </c>
       <c r="AA416">
-        <v>0.98</v>
+        <v>-1</v>
       </c>
       <c r="AB416">
-        <v>-1</v>
+        <v>0.8600000000000001</v>
       </c>
       <c r="AC416">
-        <v>0.8799999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="417" spans="1:29">
@@ -43307,19 +43307,19 @@
         <v>-0.75</v>
       </c>
       <c r="R481">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="S481">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="T481">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U481">
-        <v>2.08</v>
+        <v>1.83</v>
       </c>
       <c r="V481">
-        <v>1.82</v>
+        <v>2.07</v>
       </c>
       <c r="W481">
         <v>0</v>
@@ -43372,28 +43372,28 @@
         <v>2.8</v>
       </c>
       <c r="O482">
+        <v>2.75</v>
+      </c>
+      <c r="P482">
         <v>2.8</v>
       </c>
-      <c r="P482">
-        <v>2.875</v>
-      </c>
       <c r="Q482">
         <v>0</v>
       </c>
       <c r="R482">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="S482">
-        <v>1.99</v>
+        <v>1.95</v>
       </c>
       <c r="T482">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U482">
-        <v>2.11</v>
+        <v>1.84</v>
       </c>
       <c r="V482">
-        <v>1.79</v>
+        <v>2.06</v>
       </c>
       <c r="W482">
         <v>0</v>
@@ -43461,13 +43461,13 @@
         <v>1.98</v>
       </c>
       <c r="T483">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U483">
-        <v>1.83</v>
+        <v>2.08</v>
       </c>
       <c r="V483">
-        <v>2.07</v>
+        <v>1.82</v>
       </c>
       <c r="W483">
         <v>0</v>
@@ -43591,31 +43591,31 @@
         <v>1.727</v>
       </c>
       <c r="N485">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="O485">
         <v>3.75</v>
       </c>
       <c r="P485">
-        <v>1.727</v>
+        <v>1.7</v>
       </c>
       <c r="Q485">
         <v>0.75</v>
       </c>
       <c r="R485">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="S485">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="T485">
         <v>2.75</v>
       </c>
       <c r="U485">
-        <v>2.01</v>
+        <v>1.98</v>
       </c>
       <c r="V485">
-        <v>1.89</v>
+        <v>1.92</v>
       </c>
       <c r="W485">
         <v>0</v>
@@ -43665,22 +43665,22 @@
         <v>2.75</v>
       </c>
       <c r="N486">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="O486">
         <v>3</v>
       </c>
       <c r="P486">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="Q486">
         <v>0</v>
       </c>
       <c r="R486">
-        <v>2.07</v>
+        <v>2.125</v>
       </c>
       <c r="S486">
-        <v>1.83</v>
+        <v>1.78</v>
       </c>
       <c r="T486">
         <v>2</v>
@@ -43739,22 +43739,22 @@
         <v>2.5</v>
       </c>
       <c r="N487">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="O487">
         <v>3</v>
       </c>
       <c r="P487">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="Q487">
         <v>0.25</v>
       </c>
       <c r="R487">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S487">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T487">
         <v>2.25</v>
@@ -43825,19 +43825,19 @@
         <v>-0.25</v>
       </c>
       <c r="R488">
-        <v>2.01</v>
+        <v>2.03</v>
       </c>
       <c r="S488">
-        <v>1.89</v>
+        <v>1.87</v>
       </c>
       <c r="T488">
         <v>2</v>
       </c>
       <c r="U488">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="V488">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="W488">
         <v>0</v>
@@ -43973,10 +43973,10 @@
         <v>-0.75</v>
       </c>
       <c r="R490">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="S490">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="T490">
         <v>2.75</v>

--- a/Spain Primera Liga/Spain Primera Liga.xlsx
+++ b/Spain Primera Liga/Spain Primera Liga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2463" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2459" uniqueCount="55">
   <si>
     <t>id</t>
   </si>
@@ -540,7 +540,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC490"/>
+  <dimension ref="A1:AC489"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -10071,7 +10071,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>5210911</v>
+        <v>5210915</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10083,76 +10083,76 @@
         <v>45004.51041666666</v>
       </c>
       <c r="F108" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G108" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J108" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K108">
-        <v>3</v>
+        <v>1.3</v>
       </c>
       <c r="L108">
-        <v>3.1</v>
+        <v>5</v>
       </c>
       <c r="M108">
-        <v>2.45</v>
+        <v>10</v>
       </c>
       <c r="N108">
-        <v>3</v>
+        <v>1.4</v>
       </c>
       <c r="O108">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="P108">
-        <v>2.5</v>
+        <v>9</v>
       </c>
       <c r="Q108">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R108">
-        <v>2.14</v>
+        <v>1.97</v>
       </c>
       <c r="S108">
-        <v>1.77</v>
+        <v>1.93</v>
       </c>
       <c r="T108">
         <v>2.25</v>
       </c>
       <c r="U108">
-        <v>2.06</v>
+        <v>1.85</v>
       </c>
       <c r="V108">
-        <v>1.84</v>
+        <v>2.05</v>
       </c>
       <c r="W108">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X108">
         <v>-1</v>
       </c>
       <c r="Y108">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z108">
-        <v>-1</v>
+        <v>0.97</v>
       </c>
       <c r="AA108">
-        <v>0.77</v>
+        <v>-1</v>
       </c>
       <c r="AB108">
-        <v>1.06</v>
+        <v>-0.5</v>
       </c>
       <c r="AC108">
-        <v>-1</v>
+        <v>0.5249999999999999</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -10160,7 +10160,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>5210915</v>
+        <v>5210911</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10172,76 +10172,76 @@
         <v>45004.51041666666</v>
       </c>
       <c r="F109" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G109" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H109">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J109" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K109">
-        <v>1.3</v>
+        <v>3</v>
       </c>
       <c r="L109">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="M109">
-        <v>10</v>
+        <v>2.45</v>
       </c>
       <c r="N109">
-        <v>1.4</v>
+        <v>3</v>
       </c>
       <c r="O109">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="P109">
-        <v>9</v>
+        <v>2.5</v>
       </c>
       <c r="Q109">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R109">
-        <v>1.97</v>
+        <v>2.14</v>
       </c>
       <c r="S109">
-        <v>1.93</v>
+        <v>1.77</v>
       </c>
       <c r="T109">
         <v>2.25</v>
       </c>
       <c r="U109">
-        <v>1.85</v>
+        <v>2.06</v>
       </c>
       <c r="V109">
-        <v>2.05</v>
+        <v>1.84</v>
       </c>
       <c r="W109">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X109">
         <v>-1</v>
       </c>
       <c r="Y109">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z109">
-        <v>0.97</v>
+        <v>-1</v>
       </c>
       <c r="AA109">
-        <v>-1</v>
+        <v>0.77</v>
       </c>
       <c r="AB109">
-        <v>-0.5</v>
+        <v>1.06</v>
       </c>
       <c r="AC109">
-        <v>0.5249999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="110" spans="1:29">
@@ -13364,7 +13364,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>5210955</v>
+        <v>5210954</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -13376,58 +13376,58 @@
         <v>45038.5625</v>
       </c>
       <c r="F145" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G145" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="H145">
+        <v>2</v>
+      </c>
+      <c r="I145">
         <v>1</v>
-      </c>
-      <c r="I145">
-        <v>0</v>
       </c>
       <c r="J145" t="s">
         <v>53</v>
       </c>
       <c r="K145">
+        <v>1.666</v>
+      </c>
+      <c r="L145">
+        <v>3.75</v>
+      </c>
+      <c r="M145">
+        <v>5</v>
+      </c>
+      <c r="N145">
+        <v>1.65</v>
+      </c>
+      <c r="O145">
+        <v>3.6</v>
+      </c>
+      <c r="P145">
+        <v>5.75</v>
+      </c>
+      <c r="Q145">
+        <v>-0.75</v>
+      </c>
+      <c r="R145">
+        <v>1.89</v>
+      </c>
+      <c r="S145">
+        <v>2.01</v>
+      </c>
+      <c r="T145">
         <v>2.25</v>
       </c>
-      <c r="L145">
-        <v>3.4</v>
-      </c>
-      <c r="M145">
-        <v>3.1</v>
-      </c>
-      <c r="N145">
-        <v>2.5</v>
-      </c>
-      <c r="O145">
-        <v>3.4</v>
-      </c>
-      <c r="P145">
-        <v>2.8</v>
-      </c>
-      <c r="Q145">
-        <v>0</v>
-      </c>
-      <c r="R145">
-        <v>1.79</v>
-      </c>
-      <c r="S145">
-        <v>2.11</v>
-      </c>
-      <c r="T145">
-        <v>2.5</v>
-      </c>
       <c r="U145">
-        <v>2.05</v>
+        <v>2.01</v>
       </c>
       <c r="V145">
-        <v>1.85</v>
+        <v>1.89</v>
       </c>
       <c r="W145">
-        <v>1.5</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X145">
         <v>-1</v>
@@ -13436,16 +13436,16 @@
         <v>-1</v>
       </c>
       <c r="Z145">
-        <v>0.79</v>
+        <v>0.445</v>
       </c>
       <c r="AA145">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB145">
-        <v>-1</v>
+        <v>1.01</v>
       </c>
       <c r="AC145">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="146" spans="1:29">
@@ -13453,7 +13453,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>5210954</v>
+        <v>5210955</v>
       </c>
       <c r="C146" t="s">
         <v>28</v>
@@ -13465,58 +13465,58 @@
         <v>45038.5625</v>
       </c>
       <c r="F146" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G146" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="H146">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I146">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J146" t="s">
         <v>53</v>
       </c>
       <c r="K146">
-        <v>1.666</v>
+        <v>2.25</v>
       </c>
       <c r="L146">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M146">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="N146">
-        <v>1.65</v>
+        <v>2.5</v>
       </c>
       <c r="O146">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P146">
-        <v>5.75</v>
+        <v>2.8</v>
       </c>
       <c r="Q146">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R146">
-        <v>1.89</v>
+        <v>1.79</v>
       </c>
       <c r="S146">
-        <v>2.01</v>
+        <v>2.11</v>
       </c>
       <c r="T146">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U146">
-        <v>2.01</v>
+        <v>2.05</v>
       </c>
       <c r="V146">
-        <v>1.89</v>
+        <v>1.85</v>
       </c>
       <c r="W146">
-        <v>0.6499999999999999</v>
+        <v>1.5</v>
       </c>
       <c r="X146">
         <v>-1</v>
@@ -13525,16 +13525,16 @@
         <v>-1</v>
       </c>
       <c r="Z146">
-        <v>0.445</v>
+        <v>0.79</v>
       </c>
       <c r="AA146">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB146">
-        <v>1.01</v>
+        <v>-1</v>
       </c>
       <c r="AC146">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="147" spans="1:29">
@@ -13987,7 +13987,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>5470775</v>
+        <v>5461881</v>
       </c>
       <c r="C152" t="s">
         <v>28</v>
@@ -13999,76 +13999,76 @@
         <v>45041.60416666666</v>
       </c>
       <c r="F152" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G152" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="H152">
+        <v>0</v>
+      </c>
+      <c r="I152">
+        <v>1</v>
+      </c>
+      <c r="J152" t="s">
+        <v>52</v>
+      </c>
+      <c r="K152">
+        <v>2.3</v>
+      </c>
+      <c r="L152">
+        <v>3.2</v>
+      </c>
+      <c r="M152">
+        <v>3.2</v>
+      </c>
+      <c r="N152">
+        <v>2.05</v>
+      </c>
+      <c r="O152">
+        <v>3.2</v>
+      </c>
+      <c r="P152">
         <v>4</v>
       </c>
-      <c r="I152">
+      <c r="Q152">
+        <v>-0.5</v>
+      </c>
+      <c r="R152">
+        <v>2.08</v>
+      </c>
+      <c r="S152">
+        <v>1.82</v>
+      </c>
+      <c r="T152">
         <v>2</v>
       </c>
-      <c r="J152" t="s">
-        <v>53</v>
-      </c>
-      <c r="K152">
-        <v>6</v>
-      </c>
-      <c r="L152">
-        <v>4</v>
-      </c>
-      <c r="M152">
-        <v>1.533</v>
-      </c>
-      <c r="N152">
-        <v>5.25</v>
-      </c>
-      <c r="O152">
-        <v>4.2</v>
-      </c>
-      <c r="P152">
-        <v>1.6</v>
-      </c>
-      <c r="Q152">
-        <v>1</v>
-      </c>
-      <c r="R152">
-        <v>1.84</v>
-      </c>
-      <c r="S152">
-        <v>2.06</v>
-      </c>
-      <c r="T152">
+      <c r="U152">
+        <v>1.93</v>
+      </c>
+      <c r="V152">
+        <v>1.97</v>
+      </c>
+      <c r="W152">
+        <v>-1</v>
+      </c>
+      <c r="X152">
+        <v>-1</v>
+      </c>
+      <c r="Y152">
         <v>3</v>
       </c>
-      <c r="U152">
-        <v>1.95</v>
-      </c>
-      <c r="V152">
-        <v>1.95</v>
-      </c>
-      <c r="W152">
-        <v>4.25</v>
-      </c>
-      <c r="X152">
-        <v>-1</v>
-      </c>
-      <c r="Y152">
-        <v>-1</v>
-      </c>
       <c r="Z152">
-        <v>0.8400000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA152">
-        <v>-1</v>
+        <v>0.8200000000000001</v>
       </c>
       <c r="AB152">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC152">
-        <v>-1</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="153" spans="1:29">
@@ -14076,7 +14076,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>5461881</v>
+        <v>5470775</v>
       </c>
       <c r="C153" t="s">
         <v>28</v>
@@ -14088,76 +14088,76 @@
         <v>45041.60416666666</v>
       </c>
       <c r="F153" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G153" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I153">
+        <v>2</v>
+      </c>
+      <c r="J153" t="s">
+        <v>53</v>
+      </c>
+      <c r="K153">
+        <v>6</v>
+      </c>
+      <c r="L153">
+        <v>4</v>
+      </c>
+      <c r="M153">
+        <v>1.533</v>
+      </c>
+      <c r="N153">
+        <v>5.25</v>
+      </c>
+      <c r="O153">
+        <v>4.2</v>
+      </c>
+      <c r="P153">
+        <v>1.6</v>
+      </c>
+      <c r="Q153">
         <v>1</v>
       </c>
-      <c r="J153" t="s">
-        <v>52</v>
-      </c>
-      <c r="K153">
-        <v>2.3</v>
-      </c>
-      <c r="L153">
-        <v>3.2</v>
-      </c>
-      <c r="M153">
-        <v>3.2</v>
-      </c>
-      <c r="N153">
-        <v>2.05</v>
-      </c>
-      <c r="O153">
-        <v>3.2</v>
-      </c>
-      <c r="P153">
-        <v>4</v>
-      </c>
-      <c r="Q153">
-        <v>-0.5</v>
-      </c>
       <c r="R153">
-        <v>2.08</v>
+        <v>1.84</v>
       </c>
       <c r="S153">
-        <v>1.82</v>
+        <v>2.06</v>
       </c>
       <c r="T153">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U153">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="V153">
-        <v>1.97</v>
+        <v>1.95</v>
       </c>
       <c r="W153">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="X153">
         <v>-1</v>
       </c>
       <c r="Y153">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z153">
-        <v>-1</v>
+        <v>0.8400000000000001</v>
       </c>
       <c r="AA153">
-        <v>0.8200000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB153">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC153">
-        <v>0.97</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="154" spans="1:29">
@@ -14254,7 +14254,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>5471430</v>
+        <v>5475945</v>
       </c>
       <c r="C155" t="s">
         <v>28</v>
@@ -14266,73 +14266,73 @@
         <v>45042.60416666666</v>
       </c>
       <c r="F155" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G155" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H155">
+        <v>3</v>
+      </c>
+      <c r="I155">
         <v>1</v>
       </c>
-      <c r="I155">
-        <v>2</v>
-      </c>
       <c r="J155" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K155">
-        <v>1.95</v>
+        <v>1.363</v>
       </c>
       <c r="L155">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="M155">
-        <v>3.8</v>
+        <v>9</v>
       </c>
       <c r="N155">
-        <v>1.85</v>
+        <v>1.3</v>
       </c>
       <c r="O155">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="P155">
-        <v>4.5</v>
+        <v>12</v>
       </c>
       <c r="Q155">
-        <v>-0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R155">
-        <v>1.88</v>
+        <v>2.04</v>
       </c>
       <c r="S155">
-        <v>2.02</v>
+        <v>1.86</v>
       </c>
       <c r="T155">
         <v>2.25</v>
       </c>
       <c r="U155">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="V155">
-        <v>1.9</v>
+        <v>2.03</v>
       </c>
       <c r="W155">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="X155">
         <v>-1</v>
       </c>
       <c r="Y155">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Z155">
-        <v>-1</v>
+        <v>1.04</v>
       </c>
       <c r="AA155">
-        <v>1.02</v>
+        <v>-1</v>
       </c>
       <c r="AB155">
-        <v>1</v>
+        <v>0.8700000000000001</v>
       </c>
       <c r="AC155">
         <v>-1</v>
@@ -14343,7 +14343,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>5475945</v>
+        <v>5471430</v>
       </c>
       <c r="C156" t="s">
         <v>28</v>
@@ -14355,73 +14355,73 @@
         <v>45042.60416666666</v>
       </c>
       <c r="F156" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="G156" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H156">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I156">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J156" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K156">
-        <v>1.363</v>
+        <v>1.95</v>
       </c>
       <c r="L156">
+        <v>3.4</v>
+      </c>
+      <c r="M156">
+        <v>3.8</v>
+      </c>
+      <c r="N156">
+        <v>1.85</v>
+      </c>
+      <c r="O156">
+        <v>3.5</v>
+      </c>
+      <c r="P156">
         <v>4.5</v>
       </c>
-      <c r="M156">
-        <v>9</v>
-      </c>
-      <c r="N156">
-        <v>1.3</v>
-      </c>
-      <c r="O156">
-        <v>4.75</v>
-      </c>
-      <c r="P156">
-        <v>12</v>
-      </c>
       <c r="Q156">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R156">
-        <v>2.04</v>
+        <v>1.88</v>
       </c>
       <c r="S156">
-        <v>1.86</v>
+        <v>2.02</v>
       </c>
       <c r="T156">
         <v>2.25</v>
       </c>
       <c r="U156">
-        <v>1.87</v>
+        <v>2</v>
       </c>
       <c r="V156">
-        <v>2.03</v>
+        <v>1.9</v>
       </c>
       <c r="W156">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="X156">
         <v>-1</v>
       </c>
       <c r="Y156">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Z156">
-        <v>1.04</v>
+        <v>-1</v>
       </c>
       <c r="AA156">
-        <v>-1</v>
+        <v>1.02</v>
       </c>
       <c r="AB156">
-        <v>0.8700000000000001</v>
+        <v>1</v>
       </c>
       <c r="AC156">
         <v>-1</v>
@@ -14432,7 +14432,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>5467507</v>
+        <v>5466353</v>
       </c>
       <c r="C157" t="s">
         <v>28</v>
@@ -14444,58 +14444,58 @@
         <v>45042.70833333334</v>
       </c>
       <c r="F157" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G157" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="H157">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I157">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J157" t="s">
         <v>53</v>
       </c>
       <c r="K157">
+        <v>1.4</v>
+      </c>
+      <c r="L157">
         <v>4.5</v>
       </c>
-      <c r="L157">
-        <v>4</v>
-      </c>
       <c r="M157">
-        <v>1.7</v>
+        <v>7.5</v>
       </c>
       <c r="N157">
+        <v>1.363</v>
+      </c>
+      <c r="O157">
         <v>5</v>
       </c>
-      <c r="O157">
-        <v>3.8</v>
-      </c>
       <c r="P157">
-        <v>1.7</v>
+        <v>8</v>
       </c>
       <c r="Q157">
-        <v>0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R157">
-        <v>1.95</v>
+        <v>1.87</v>
       </c>
       <c r="S157">
-        <v>1.95</v>
+        <v>2.03</v>
       </c>
       <c r="T157">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U157">
-        <v>1.85</v>
+        <v>1.96</v>
       </c>
       <c r="V157">
-        <v>2.05</v>
+        <v>1.94</v>
       </c>
       <c r="W157">
-        <v>4</v>
+        <v>0.363</v>
       </c>
       <c r="X157">
         <v>-1</v>
@@ -14504,16 +14504,16 @@
         <v>-1</v>
       </c>
       <c r="Z157">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AA157">
-        <v>-1</v>
+        <v>0.5149999999999999</v>
       </c>
       <c r="AB157">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC157">
-        <v>-1</v>
+        <v>0.9399999999999999</v>
       </c>
     </row>
     <row r="158" spans="1:29">
@@ -14521,7 +14521,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>5466353</v>
+        <v>5467507</v>
       </c>
       <c r="C158" t="s">
         <v>28</v>
@@ -14533,58 +14533,58 @@
         <v>45042.70833333334</v>
       </c>
       <c r="F158" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G158" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="H158">
+        <v>2</v>
+      </c>
+      <c r="I158">
         <v>1</v>
-      </c>
-      <c r="I158">
-        <v>0</v>
       </c>
       <c r="J158" t="s">
         <v>53</v>
       </c>
       <c r="K158">
-        <v>1.4</v>
+        <v>4.5</v>
       </c>
       <c r="L158">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="M158">
-        <v>7.5</v>
+        <v>1.7</v>
       </c>
       <c r="N158">
-        <v>1.363</v>
+        <v>5</v>
       </c>
       <c r="O158">
-        <v>5</v>
+        <v>3.8</v>
       </c>
       <c r="P158">
-        <v>8</v>
+        <v>1.7</v>
       </c>
       <c r="Q158">
-        <v>-1.25</v>
+        <v>0.75</v>
       </c>
       <c r="R158">
-        <v>1.87</v>
+        <v>1.95</v>
       </c>
       <c r="S158">
-        <v>2.03</v>
+        <v>1.95</v>
       </c>
       <c r="T158">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U158">
-        <v>1.96</v>
+        <v>1.85</v>
       </c>
       <c r="V158">
-        <v>1.94</v>
+        <v>2.05</v>
       </c>
       <c r="W158">
-        <v>0.363</v>
+        <v>4</v>
       </c>
       <c r="X158">
         <v>-1</v>
@@ -14593,16 +14593,16 @@
         <v>-1</v>
       </c>
       <c r="Z158">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AA158">
-        <v>0.5149999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB158">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC158">
-        <v>0.9399999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="159" spans="1:29">
@@ -14610,7 +14610,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>5466355</v>
+        <v>5466354</v>
       </c>
       <c r="C159" t="s">
         <v>28</v>
@@ -14622,49 +14622,49 @@
         <v>45043.60416666666</v>
       </c>
       <c r="F159" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G159" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H159">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I159">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J159" t="s">
         <v>53</v>
       </c>
       <c r="K159">
-        <v>1.55</v>
+        <v>1.666</v>
       </c>
       <c r="L159">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="M159">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="N159">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="O159">
-        <v>4.333</v>
+        <v>3.8</v>
       </c>
       <c r="P159">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q159">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R159">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="S159">
-        <v>1.99</v>
+        <v>1.95</v>
       </c>
       <c r="T159">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U159">
         <v>1.93</v>
@@ -14673,7 +14673,7 @@
         <v>1.97</v>
       </c>
       <c r="W159">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="X159">
         <v>-1</v>
@@ -14682,10 +14682,10 @@
         <v>-1</v>
       </c>
       <c r="Z159">
-        <v>0.9099999999999999</v>
+        <v>0.475</v>
       </c>
       <c r="AA159">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB159">
         <v>0.9299999999999999</v>
@@ -14699,7 +14699,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>5466354</v>
+        <v>5466355</v>
       </c>
       <c r="C160" t="s">
         <v>28</v>
@@ -14711,49 +14711,49 @@
         <v>45043.60416666666</v>
       </c>
       <c r="F160" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G160" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H160">
+        <v>4</v>
+      </c>
+      <c r="I160">
         <v>2</v>
-      </c>
-      <c r="I160">
-        <v>1</v>
       </c>
       <c r="J160" t="s">
         <v>53</v>
       </c>
       <c r="K160">
-        <v>1.666</v>
+        <v>1.55</v>
       </c>
       <c r="L160">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="M160">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="N160">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="O160">
-        <v>3.8</v>
+        <v>4.333</v>
       </c>
       <c r="P160">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q160">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R160">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="S160">
-        <v>1.95</v>
+        <v>1.99</v>
       </c>
       <c r="T160">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U160">
         <v>1.93</v>
@@ -14762,7 +14762,7 @@
         <v>1.97</v>
       </c>
       <c r="W160">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="X160">
         <v>-1</v>
@@ -14771,10 +14771,10 @@
         <v>-1</v>
       </c>
       <c r="Z160">
-        <v>0.475</v>
+        <v>0.9099999999999999</v>
       </c>
       <c r="AA160">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB160">
         <v>0.9299999999999999</v>
@@ -15767,7 +15767,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>5540298</v>
+        <v>5534478</v>
       </c>
       <c r="C172" t="s">
         <v>28</v>
@@ -15779,58 +15779,58 @@
         <v>45048.60416666666</v>
       </c>
       <c r="F172" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="G172" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="H172">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I172">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J172" t="s">
         <v>53</v>
       </c>
       <c r="K172">
-        <v>1.65</v>
+        <v>1.25</v>
       </c>
       <c r="L172">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="M172">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="N172">
-        <v>1.727</v>
+        <v>1.166</v>
       </c>
       <c r="O172">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="P172">
-        <v>4.5</v>
+        <v>15</v>
       </c>
       <c r="Q172">
-        <v>-0.75</v>
+        <v>-2</v>
       </c>
       <c r="R172">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="S172">
-        <v>1.98</v>
+        <v>2.05</v>
       </c>
       <c r="T172">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U172">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V172">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="W172">
-        <v>0.7270000000000001</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X172">
         <v>-1</v>
@@ -15839,16 +15839,16 @@
         <v>-1</v>
       </c>
       <c r="Z172">
-        <v>0.46</v>
+        <v>-1</v>
       </c>
       <c r="AA172">
-        <v>-0.5</v>
+        <v>1.05</v>
       </c>
       <c r="AB172">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC172">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="173" spans="1:29">
@@ -15856,7 +15856,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>5534478</v>
+        <v>5540298</v>
       </c>
       <c r="C173" t="s">
         <v>28</v>
@@ -15868,58 +15868,58 @@
         <v>45048.60416666666</v>
       </c>
       <c r="F173" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="G173" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="H173">
+        <v>2</v>
+      </c>
+      <c r="I173">
         <v>1</v>
-      </c>
-      <c r="I173">
-        <v>0</v>
       </c>
       <c r="J173" t="s">
         <v>53</v>
       </c>
       <c r="K173">
-        <v>1.25</v>
+        <v>1.65</v>
       </c>
       <c r="L173">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="M173">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="N173">
-        <v>1.166</v>
+        <v>1.727</v>
       </c>
       <c r="O173">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="P173">
-        <v>15</v>
+        <v>4.5</v>
       </c>
       <c r="Q173">
-        <v>-2</v>
+        <v>-0.75</v>
       </c>
       <c r="R173">
-        <v>1.85</v>
+        <v>1.92</v>
       </c>
       <c r="S173">
-        <v>2.05</v>
+        <v>1.98</v>
       </c>
       <c r="T173">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U173">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V173">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="W173">
-        <v>0.1659999999999999</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X173">
         <v>-1</v>
@@ -15928,16 +15928,16 @@
         <v>-1</v>
       </c>
       <c r="Z173">
-        <v>-1</v>
+        <v>0.46</v>
       </c>
       <c r="AA173">
-        <v>1.05</v>
+        <v>-0.5</v>
       </c>
       <c r="AB173">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC173">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="174" spans="1:29">
@@ -16123,7 +16123,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>5534214</v>
+        <v>5549244</v>
       </c>
       <c r="C176" t="s">
         <v>28</v>
@@ -16135,58 +16135,58 @@
         <v>45049.70833333334</v>
       </c>
       <c r="F176" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G176" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H176">
+        <v>5</v>
+      </c>
+      <c r="I176">
         <v>1</v>
-      </c>
-      <c r="I176">
-        <v>0</v>
       </c>
       <c r="J176" t="s">
         <v>53</v>
       </c>
       <c r="K176">
-        <v>2.55</v>
+        <v>1.3</v>
       </c>
       <c r="L176">
+        <v>5.5</v>
+      </c>
+      <c r="M176">
+        <v>10</v>
+      </c>
+      <c r="N176">
+        <v>1.333</v>
+      </c>
+      <c r="O176">
+        <v>5.25</v>
+      </c>
+      <c r="P176">
+        <v>9.5</v>
+      </c>
+      <c r="Q176">
+        <v>-1.5</v>
+      </c>
+      <c r="R176">
+        <v>1.95</v>
+      </c>
+      <c r="S176">
+        <v>1.95</v>
+      </c>
+      <c r="T176">
         <v>3</v>
       </c>
-      <c r="M176">
-        <v>3</v>
-      </c>
-      <c r="N176">
-        <v>2.8</v>
-      </c>
-      <c r="O176">
-        <v>2.9</v>
-      </c>
-      <c r="P176">
-        <v>2.875</v>
-      </c>
-      <c r="Q176">
-        <v>0</v>
-      </c>
-      <c r="R176">
-        <v>1.9</v>
-      </c>
-      <c r="S176">
-        <v>2</v>
-      </c>
-      <c r="T176">
-        <v>1.75</v>
-      </c>
       <c r="U176">
-        <v>1.86</v>
+        <v>2.07</v>
       </c>
       <c r="V176">
-        <v>2.04</v>
+        <v>1.83</v>
       </c>
       <c r="W176">
-        <v>1.8</v>
+        <v>0.333</v>
       </c>
       <c r="X176">
         <v>-1</v>
@@ -16195,16 +16195,16 @@
         <v>-1</v>
       </c>
       <c r="Z176">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AA176">
         <v>-1</v>
       </c>
       <c r="AB176">
-        <v>-1</v>
+        <v>1.07</v>
       </c>
       <c r="AC176">
-        <v>1.04</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="177" spans="1:29">
@@ -16212,7 +16212,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>5549244</v>
+        <v>5534214</v>
       </c>
       <c r="C177" t="s">
         <v>28</v>
@@ -16224,58 +16224,58 @@
         <v>45049.70833333334</v>
       </c>
       <c r="F177" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="G177" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H177">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I177">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J177" t="s">
         <v>53</v>
       </c>
       <c r="K177">
-        <v>1.3</v>
+        <v>2.55</v>
       </c>
       <c r="L177">
-        <v>5.5</v>
+        <v>3</v>
       </c>
       <c r="M177">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="N177">
-        <v>1.333</v>
+        <v>2.8</v>
       </c>
       <c r="O177">
-        <v>5.25</v>
+        <v>2.9</v>
       </c>
       <c r="P177">
-        <v>9.5</v>
+        <v>2.875</v>
       </c>
       <c r="Q177">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="R177">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S177">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T177">
-        <v>3</v>
+        <v>1.75</v>
       </c>
       <c r="U177">
-        <v>2.07</v>
+        <v>1.86</v>
       </c>
       <c r="V177">
-        <v>1.83</v>
+        <v>2.04</v>
       </c>
       <c r="W177">
-        <v>0.333</v>
+        <v>1.8</v>
       </c>
       <c r="X177">
         <v>-1</v>
@@ -16284,16 +16284,16 @@
         <v>-1</v>
       </c>
       <c r="Z177">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA177">
         <v>-1</v>
       </c>
       <c r="AB177">
-        <v>1.07</v>
+        <v>-1</v>
       </c>
       <c r="AC177">
-        <v>-1</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="178" spans="1:29">
@@ -17814,7 +17814,7 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>5611042</v>
+        <v>5611043</v>
       </c>
       <c r="C195" t="s">
         <v>28</v>
@@ -17826,76 +17826,76 @@
         <v>45066.5625</v>
       </c>
       <c r="F195" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="G195" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H195">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I195">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J195" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K195">
-        <v>2.3</v>
+        <v>1.5</v>
       </c>
       <c r="L195">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="M195">
-        <v>3.2</v>
+        <v>6.5</v>
       </c>
       <c r="N195">
-        <v>2.25</v>
+        <v>1.65</v>
       </c>
       <c r="O195">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="P195">
-        <v>3.3</v>
+        <v>6</v>
       </c>
       <c r="Q195">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R195">
-        <v>1.95</v>
+        <v>1.89</v>
       </c>
       <c r="S195">
-        <v>1.95</v>
+        <v>2.01</v>
       </c>
       <c r="T195">
         <v>2.25</v>
       </c>
       <c r="U195">
-        <v>1.9</v>
+        <v>2.09</v>
       </c>
       <c r="V195">
-        <v>2</v>
+        <v>1.81</v>
       </c>
       <c r="W195">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X195">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y195">
         <v>-1</v>
       </c>
       <c r="Z195">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA195">
-        <v>-1</v>
+        <v>1.01</v>
       </c>
       <c r="AB195">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AC195">
-        <v>-1</v>
+        <v>0.405</v>
       </c>
     </row>
     <row r="196" spans="1:29">
@@ -17903,7 +17903,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>5611043</v>
+        <v>5611042</v>
       </c>
       <c r="C196" t="s">
         <v>28</v>
@@ -17915,76 +17915,76 @@
         <v>45066.5625</v>
       </c>
       <c r="F196" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="G196" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H196">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I196">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J196" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K196">
-        <v>1.5</v>
+        <v>2.3</v>
       </c>
       <c r="L196">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="M196">
-        <v>6.5</v>
+        <v>3.2</v>
       </c>
       <c r="N196">
-        <v>1.65</v>
+        <v>2.25</v>
       </c>
       <c r="O196">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="P196">
-        <v>6</v>
+        <v>3.3</v>
       </c>
       <c r="Q196">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R196">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="S196">
-        <v>2.01</v>
+        <v>1.95</v>
       </c>
       <c r="T196">
         <v>2.25</v>
       </c>
       <c r="U196">
-        <v>2.09</v>
+        <v>1.9</v>
       </c>
       <c r="V196">
-        <v>1.81</v>
+        <v>2</v>
       </c>
       <c r="W196">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X196">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y196">
         <v>-1</v>
       </c>
       <c r="Z196">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA196">
-        <v>1.01</v>
+        <v>-1</v>
       </c>
       <c r="AB196">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC196">
-        <v>0.405</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="197" spans="1:29">
@@ -18704,7 +18704,7 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>5638809</v>
+        <v>5634388</v>
       </c>
       <c r="C205" t="s">
         <v>28</v>
@@ -18716,76 +18716,76 @@
         <v>45070.60416666666</v>
       </c>
       <c r="F205" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G205" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="H205">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I205">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J205" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K205">
-        <v>3.8</v>
+        <v>1.45</v>
       </c>
       <c r="L205">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="M205">
-        <v>1.909</v>
+        <v>6.5</v>
       </c>
       <c r="N205">
-        <v>3.3</v>
+        <v>1.45</v>
       </c>
       <c r="O205">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="P205">
-        <v>2.15</v>
+        <v>6</v>
       </c>
       <c r="Q205">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R205">
-        <v>1.99</v>
+        <v>2.07</v>
       </c>
       <c r="S205">
-        <v>1.94</v>
+        <v>1.83</v>
       </c>
       <c r="T205">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U205">
-        <v>1.96</v>
+        <v>1.92</v>
       </c>
       <c r="V205">
-        <v>1.94</v>
+        <v>1.98</v>
       </c>
       <c r="W205">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X205">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y205">
         <v>-1</v>
       </c>
       <c r="Z205">
-        <v>0.495</v>
+        <v>1.07</v>
       </c>
       <c r="AA205">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB205">
         <v>-1</v>
       </c>
       <c r="AC205">
-        <v>0.9399999999999999</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="206" spans="1:29">
@@ -18793,7 +18793,7 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>5634388</v>
+        <v>5638809</v>
       </c>
       <c r="C206" t="s">
         <v>28</v>
@@ -18805,76 +18805,76 @@
         <v>45070.60416666666</v>
       </c>
       <c r="F206" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G206" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="H206">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I206">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J206" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K206">
-        <v>1.45</v>
+        <v>3.8</v>
       </c>
       <c r="L206">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="M206">
-        <v>6.5</v>
+        <v>1.909</v>
       </c>
       <c r="N206">
-        <v>1.45</v>
+        <v>3.3</v>
       </c>
       <c r="O206">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="P206">
-        <v>6</v>
+        <v>2.15</v>
       </c>
       <c r="Q206">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R206">
-        <v>2.07</v>
+        <v>1.99</v>
       </c>
       <c r="S206">
-        <v>1.83</v>
+        <v>1.94</v>
       </c>
       <c r="T206">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U206">
-        <v>1.92</v>
+        <v>1.96</v>
       </c>
       <c r="V206">
-        <v>1.98</v>
+        <v>1.94</v>
       </c>
       <c r="W206">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X206">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y206">
         <v>-1</v>
       </c>
       <c r="Z206">
-        <v>1.07</v>
+        <v>0.495</v>
       </c>
       <c r="AA206">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB206">
         <v>-1</v>
       </c>
       <c r="AC206">
-        <v>0.98</v>
+        <v>0.9399999999999999</v>
       </c>
     </row>
     <row r="207" spans="1:29">
@@ -19416,7 +19416,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>5701612</v>
+        <v>5697401</v>
       </c>
       <c r="C213" t="s">
         <v>28</v>
@@ -19428,76 +19428,76 @@
         <v>45074.58333333334</v>
       </c>
       <c r="F213" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="G213" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="H213">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I213">
         <v>1</v>
       </c>
       <c r="J213" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K213">
-        <v>1.909</v>
+        <v>1.4</v>
       </c>
       <c r="L213">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="M213">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="N213">
-        <v>2.4</v>
+        <v>1.4</v>
       </c>
       <c r="O213">
+        <v>4.5</v>
+      </c>
+      <c r="P213">
+        <v>8</v>
+      </c>
+      <c r="Q213">
+        <v>-1.25</v>
+      </c>
+      <c r="R213">
+        <v>1.95</v>
+      </c>
+      <c r="S213">
+        <v>1.95</v>
+      </c>
+      <c r="T213">
         <v>2.75</v>
       </c>
-      <c r="P213">
-        <v>3.5</v>
-      </c>
-      <c r="Q213">
-        <v>-0.25</v>
-      </c>
-      <c r="R213">
-        <v>2.1</v>
-      </c>
-      <c r="S213">
-        <v>1.8</v>
-      </c>
-      <c r="T213">
-        <v>1.5</v>
-      </c>
       <c r="U213">
-        <v>1.82</v>
+        <v>1.91</v>
       </c>
       <c r="V213">
-        <v>2.08</v>
+        <v>1.99</v>
       </c>
       <c r="W213">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="X213">
         <v>-1</v>
       </c>
       <c r="Y213">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="Z213">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="AA213">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB213">
-        <v>0.8200000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC213">
-        <v>-1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="214" spans="1:29">
@@ -19505,7 +19505,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>5701613</v>
+        <v>5705884</v>
       </c>
       <c r="C214" t="s">
         <v>28</v>
@@ -19517,76 +19517,76 @@
         <v>45074.58333333334</v>
       </c>
       <c r="F214" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G214" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="H214">
         <v>1</v>
       </c>
       <c r="I214">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J214" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K214">
-        <v>2.6</v>
+        <v>2.2</v>
       </c>
       <c r="L214">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M214">
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
       <c r="N214">
-        <v>2.45</v>
+        <v>1.909</v>
       </c>
       <c r="O214">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="P214">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="Q214">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R214">
-        <v>2.075</v>
+        <v>1.98</v>
       </c>
       <c r="S214">
-        <v>1.725</v>
+        <v>1.92</v>
       </c>
       <c r="T214">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U214">
-        <v>1.95</v>
+        <v>1.99</v>
       </c>
       <c r="V214">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="W214">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="X214">
         <v>-1</v>
       </c>
       <c r="Y214">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Z214">
-        <v>1.075</v>
+        <v>-1</v>
       </c>
       <c r="AA214">
-        <v>-1</v>
+        <v>0.9199999999999999</v>
       </c>
       <c r="AB214">
-        <v>-1</v>
+        <v>0.99</v>
       </c>
       <c r="AC214">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="215" spans="1:29">
@@ -19594,7 +19594,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>5703047</v>
+        <v>5713343</v>
       </c>
       <c r="C215" t="s">
         <v>28</v>
@@ -19606,58 +19606,58 @@
         <v>45074.58333333334</v>
       </c>
       <c r="F215" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="G215" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H215">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I215">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J215" t="s">
         <v>53</v>
       </c>
       <c r="K215">
-        <v>1.5</v>
+        <v>2.875</v>
       </c>
       <c r="L215">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="M215">
-        <v>6</v>
+        <v>2.3</v>
       </c>
       <c r="N215">
-        <v>1.25</v>
+        <v>3</v>
       </c>
       <c r="O215">
-        <v>5.75</v>
+        <v>3.75</v>
       </c>
       <c r="P215">
-        <v>12</v>
+        <v>2.2</v>
       </c>
       <c r="Q215">
-        <v>-1.75</v>
+        <v>0.25</v>
       </c>
       <c r="R215">
+        <v>1.9</v>
+      </c>
+      <c r="S215">
         <v>2</v>
-      </c>
-      <c r="S215">
-        <v>1.9</v>
       </c>
       <c r="T215">
         <v>3</v>
       </c>
       <c r="U215">
-        <v>1.93</v>
+        <v>2.06</v>
       </c>
       <c r="V215">
-        <v>1.97</v>
+        <v>1.84</v>
       </c>
       <c r="W215">
-        <v>0.25</v>
+        <v>2</v>
       </c>
       <c r="X215">
         <v>-1</v>
@@ -19666,7 +19666,7 @@
         <v>-1</v>
       </c>
       <c r="Z215">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA215">
         <v>-1</v>
@@ -19683,7 +19683,7 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>5705727</v>
+        <v>5697402</v>
       </c>
       <c r="C216" t="s">
         <v>28</v>
@@ -19695,76 +19695,76 @@
         <v>45074.58333333334</v>
       </c>
       <c r="F216" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G216" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H216">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I216">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J216" t="s">
         <v>54</v>
       </c>
       <c r="K216">
-        <v>1.909</v>
+        <v>2.25</v>
       </c>
       <c r="L216">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M216">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="N216">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="O216">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P216">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="Q216">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R216">
-        <v>2.025</v>
+        <v>1.97</v>
       </c>
       <c r="S216">
-        <v>1.775</v>
+        <v>1.93</v>
       </c>
       <c r="T216">
         <v>2.5</v>
       </c>
       <c r="U216">
-        <v>2.07</v>
+        <v>1.86</v>
       </c>
       <c r="V216">
-        <v>1.83</v>
+        <v>2.04</v>
       </c>
       <c r="W216">
         <v>-1</v>
       </c>
       <c r="X216">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="Y216">
         <v>-1</v>
       </c>
       <c r="Z216">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA216">
-        <v>0.7749999999999999</v>
+        <v>0.465</v>
       </c>
       <c r="AB216">
-        <v>1.07</v>
+        <v>-1</v>
       </c>
       <c r="AC216">
-        <v>-1</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="217" spans="1:29">
@@ -19772,7 +19772,7 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>5705884</v>
+        <v>5701612</v>
       </c>
       <c r="C217" t="s">
         <v>28</v>
@@ -19784,73 +19784,73 @@
         <v>45074.58333333334</v>
       </c>
       <c r="F217" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G217" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="H217">
+        <v>2</v>
+      </c>
+      <c r="I217">
         <v>1</v>
       </c>
-      <c r="I217">
-        <v>2</v>
-      </c>
       <c r="J217" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K217">
-        <v>2.2</v>
+        <v>1.909</v>
       </c>
       <c r="L217">
+        <v>3.4</v>
+      </c>
+      <c r="M217">
+        <v>4</v>
+      </c>
+      <c r="N217">
+        <v>2.4</v>
+      </c>
+      <c r="O217">
+        <v>2.75</v>
+      </c>
+      <c r="P217">
         <v>3.5</v>
       </c>
-      <c r="M217">
-        <v>3.1</v>
-      </c>
-      <c r="N217">
-        <v>1.909</v>
-      </c>
-      <c r="O217">
-        <v>3.6</v>
-      </c>
-      <c r="P217">
-        <v>3.8</v>
-      </c>
       <c r="Q217">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R217">
-        <v>1.98</v>
+        <v>2.1</v>
       </c>
       <c r="S217">
-        <v>1.92</v>
+        <v>1.8</v>
       </c>
       <c r="T217">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="U217">
-        <v>1.99</v>
+        <v>1.82</v>
       </c>
       <c r="V217">
-        <v>1.91</v>
+        <v>2.08</v>
       </c>
       <c r="W217">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="X217">
         <v>-1</v>
       </c>
       <c r="Y217">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Z217">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="AA217">
-        <v>0.9199999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB217">
-        <v>0.99</v>
+        <v>0.8200000000000001</v>
       </c>
       <c r="AC217">
         <v>-1</v>
@@ -19861,7 +19861,7 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>5697401</v>
+        <v>5701613</v>
       </c>
       <c r="C218" t="s">
         <v>28</v>
@@ -19873,76 +19873,76 @@
         <v>45074.58333333334</v>
       </c>
       <c r="F218" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="G218" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H218">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I218">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J218" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K218">
-        <v>1.4</v>
+        <v>2.6</v>
       </c>
       <c r="L218">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="M218">
-        <v>8</v>
+        <v>2.7</v>
       </c>
       <c r="N218">
-        <v>1.4</v>
+        <v>2.45</v>
       </c>
       <c r="O218">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="P218">
-        <v>8</v>
+        <v>3.1</v>
       </c>
       <c r="Q218">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R218">
+        <v>2.075</v>
+      </c>
+      <c r="S218">
+        <v>1.725</v>
+      </c>
+      <c r="T218">
+        <v>2</v>
+      </c>
+      <c r="U218">
         <v>1.95</v>
       </c>
-      <c r="S218">
+      <c r="V218">
         <v>1.95</v>
       </c>
-      <c r="T218">
-        <v>2.75</v>
-      </c>
-      <c r="U218">
-        <v>1.91</v>
-      </c>
-      <c r="V218">
-        <v>1.99</v>
-      </c>
       <c r="W218">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="X218">
         <v>-1</v>
       </c>
       <c r="Y218">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="Z218">
-        <v>-1</v>
+        <v>1.075</v>
       </c>
       <c r="AA218">
+        <v>-1</v>
+      </c>
+      <c r="AB218">
+        <v>-1</v>
+      </c>
+      <c r="AC218">
         <v>0.95</v>
-      </c>
-      <c r="AB218">
-        <v>-1</v>
-      </c>
-      <c r="AC218">
-        <v>0.99</v>
       </c>
     </row>
     <row r="219" spans="1:29">
@@ -19950,7 +19950,7 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>5713343</v>
+        <v>5703047</v>
       </c>
       <c r="C219" t="s">
         <v>28</v>
@@ -19962,58 +19962,58 @@
         <v>45074.58333333334</v>
       </c>
       <c r="F219" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="G219" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H219">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I219">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J219" t="s">
         <v>53</v>
       </c>
       <c r="K219">
-        <v>2.875</v>
+        <v>1.5</v>
       </c>
       <c r="L219">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="M219">
-        <v>2.3</v>
+        <v>6</v>
       </c>
       <c r="N219">
-        <v>3</v>
+        <v>1.25</v>
       </c>
       <c r="O219">
-        <v>3.75</v>
+        <v>5.75</v>
       </c>
       <c r="P219">
-        <v>2.2</v>
+        <v>12</v>
       </c>
       <c r="Q219">
-        <v>0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R219">
+        <v>2</v>
+      </c>
+      <c r="S219">
         <v>1.9</v>
-      </c>
-      <c r="S219">
-        <v>2</v>
       </c>
       <c r="T219">
         <v>3</v>
       </c>
       <c r="U219">
-        <v>2.06</v>
+        <v>1.93</v>
       </c>
       <c r="V219">
-        <v>1.84</v>
+        <v>1.97</v>
       </c>
       <c r="W219">
-        <v>2</v>
+        <v>0.25</v>
       </c>
       <c r="X219">
         <v>-1</v>
@@ -20022,7 +20022,7 @@
         <v>-1</v>
       </c>
       <c r="Z219">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AA219">
         <v>-1</v>
@@ -20039,7 +20039,7 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>5697402</v>
+        <v>5705727</v>
       </c>
       <c r="C220" t="s">
         <v>28</v>
@@ -20051,76 +20051,76 @@
         <v>45074.58333333334</v>
       </c>
       <c r="F220" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G220" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H220">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I220">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J220" t="s">
         <v>54</v>
       </c>
       <c r="K220">
-        <v>2.25</v>
+        <v>1.909</v>
       </c>
       <c r="L220">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M220">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="N220">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="O220">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P220">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="Q220">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R220">
-        <v>1.97</v>
+        <v>2.025</v>
       </c>
       <c r="S220">
-        <v>1.93</v>
+        <v>1.775</v>
       </c>
       <c r="T220">
         <v>2.5</v>
       </c>
       <c r="U220">
-        <v>1.86</v>
+        <v>2.07</v>
       </c>
       <c r="V220">
-        <v>2.04</v>
+        <v>1.83</v>
       </c>
       <c r="W220">
         <v>-1</v>
       </c>
       <c r="X220">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="Y220">
         <v>-1</v>
       </c>
       <c r="Z220">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA220">
-        <v>0.465</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB220">
-        <v>-1</v>
+        <v>1.07</v>
       </c>
       <c r="AC220">
-        <v>1.04</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="221" spans="1:29">
@@ -20128,7 +20128,7 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>5732767</v>
+        <v>5776609</v>
       </c>
       <c r="C221" t="s">
         <v>28</v>
@@ -20140,49 +20140,49 @@
         <v>45081.5625</v>
       </c>
       <c r="F221" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="G221" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H221">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I221">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J221" t="s">
         <v>53</v>
       </c>
       <c r="K221">
-        <v>3.4</v>
+        <v>2.25</v>
       </c>
       <c r="L221">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M221">
-        <v>2.15</v>
+        <v>2.9</v>
       </c>
       <c r="N221">
-        <v>3</v>
+        <v>1.571</v>
       </c>
       <c r="O221">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="P221">
-        <v>2.45</v>
+        <v>5.75</v>
       </c>
       <c r="Q221">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R221">
-        <v>1.8</v>
+        <v>2.01</v>
       </c>
       <c r="S221">
-        <v>2.14</v>
+        <v>1.89</v>
       </c>
       <c r="T221">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U221">
         <v>1.89</v>
@@ -20191,7 +20191,7 @@
         <v>2.01</v>
       </c>
       <c r="W221">
-        <v>2</v>
+        <v>0.571</v>
       </c>
       <c r="X221">
         <v>-1</v>
@@ -20200,10 +20200,10 @@
         <v>-1</v>
       </c>
       <c r="Z221">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AA221">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB221">
         <v>0.8899999999999999</v>
@@ -20217,7 +20217,7 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>5730415</v>
+        <v>5732767</v>
       </c>
       <c r="C222" t="s">
         <v>28</v>
@@ -20229,58 +20229,58 @@
         <v>45081.5625</v>
       </c>
       <c r="F222" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="G222" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="H222">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I222">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J222" t="s">
         <v>53</v>
       </c>
       <c r="K222">
-        <v>2.25</v>
+        <v>3.4</v>
       </c>
       <c r="L222">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M222">
+        <v>2.15</v>
+      </c>
+      <c r="N222">
         <v>3</v>
       </c>
-      <c r="N222">
-        <v>2.05</v>
-      </c>
       <c r="O222">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="P222">
-        <v>3.25</v>
+        <v>2.45</v>
       </c>
       <c r="Q222">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R222">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S222">
-        <v>2.05</v>
+        <v>2.14</v>
       </c>
       <c r="T222">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U222">
-        <v>2.02</v>
+        <v>1.89</v>
       </c>
       <c r="V222">
-        <v>1.88</v>
+        <v>2.01</v>
       </c>
       <c r="W222">
-        <v>1.05</v>
+        <v>2</v>
       </c>
       <c r="X222">
         <v>-1</v>
@@ -20289,16 +20289,16 @@
         <v>-1</v>
       </c>
       <c r="Z222">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AA222">
         <v>-1</v>
       </c>
       <c r="AB222">
-        <v>0.51</v>
+        <v>0.8899999999999999</v>
       </c>
       <c r="AC222">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="223" spans="1:29">
@@ -20306,7 +20306,7 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>5776609</v>
+        <v>5734136</v>
       </c>
       <c r="C223" t="s">
         <v>28</v>
@@ -20318,76 +20318,76 @@
         <v>45081.5625</v>
       </c>
       <c r="F223" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="G223" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H223">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I223">
         <v>1</v>
       </c>
       <c r="J223" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K223">
-        <v>2.25</v>
+        <v>1.95</v>
       </c>
       <c r="L223">
         <v>3.6</v>
       </c>
       <c r="M223">
-        <v>2.9</v>
+        <v>3.6</v>
       </c>
       <c r="N223">
-        <v>1.571</v>
+        <v>1.65</v>
       </c>
       <c r="O223">
         <v>4</v>
       </c>
       <c r="P223">
-        <v>5.75</v>
+        <v>4.75</v>
       </c>
       <c r="Q223">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R223">
-        <v>2.01</v>
+        <v>1.84</v>
       </c>
       <c r="S223">
-        <v>1.89</v>
+        <v>2.06</v>
       </c>
       <c r="T223">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U223">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="V223">
-        <v>2.01</v>
+        <v>2</v>
       </c>
       <c r="W223">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X223">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y223">
         <v>-1</v>
       </c>
       <c r="Z223">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA223">
-        <v>-0</v>
+        <v>1.06</v>
       </c>
       <c r="AB223">
-        <v>0.8899999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC223">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="224" spans="1:29">
@@ -20484,7 +20484,7 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>5734136</v>
+        <v>5730415</v>
       </c>
       <c r="C225" t="s">
         <v>28</v>
@@ -20496,76 +20496,76 @@
         <v>45081.5625</v>
       </c>
       <c r="F225" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="G225" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H225">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I225">
         <v>1</v>
       </c>
       <c r="J225" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K225">
-        <v>1.95</v>
+        <v>2.25</v>
       </c>
       <c r="L225">
+        <v>3.5</v>
+      </c>
+      <c r="M225">
+        <v>3</v>
+      </c>
+      <c r="N225">
+        <v>2.05</v>
+      </c>
+      <c r="O225">
         <v>3.6</v>
       </c>
-      <c r="M225">
-        <v>3.6</v>
-      </c>
-      <c r="N225">
-        <v>1.65</v>
-      </c>
-      <c r="O225">
-        <v>4</v>
-      </c>
       <c r="P225">
-        <v>4.75</v>
+        <v>3.25</v>
       </c>
       <c r="Q225">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R225">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="S225">
-        <v>2.06</v>
+        <v>2.05</v>
       </c>
       <c r="T225">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U225">
-        <v>1.9</v>
+        <v>2.02</v>
       </c>
       <c r="V225">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="W225">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X225">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y225">
         <v>-1</v>
       </c>
       <c r="Z225">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA225">
-        <v>1.06</v>
+        <v>-1</v>
       </c>
       <c r="AB225">
-        <v>-1</v>
+        <v>0.51</v>
       </c>
       <c r="AC225">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="226" spans="1:29">
@@ -20573,7 +20573,7 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>5738382</v>
+        <v>5762751</v>
       </c>
       <c r="C226" t="s">
         <v>28</v>
@@ -20585,76 +20585,76 @@
         <v>45081.66666666666</v>
       </c>
       <c r="F226" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="G226" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H226">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I226">
         <v>1</v>
       </c>
       <c r="J226" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K226">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="L226">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M226">
         <v>2.2</v>
       </c>
       <c r="N226">
-        <v>2.7</v>
+        <v>2.875</v>
       </c>
       <c r="O226">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P226">
         <v>2.45</v>
       </c>
       <c r="Q226">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R226">
-        <v>2.06</v>
+        <v>1.78</v>
       </c>
       <c r="S226">
-        <v>1.84</v>
+        <v>2.125</v>
       </c>
       <c r="T226">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U226">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="V226">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="W226">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X226">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y226">
         <v>-1</v>
       </c>
       <c r="Z226">
-        <v>1.06</v>
+        <v>0.39</v>
       </c>
       <c r="AA226">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB226">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AC226">
-        <v>-1</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="227" spans="1:29">
@@ -20751,7 +20751,7 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>5762751</v>
+        <v>5734498</v>
       </c>
       <c r="C228" t="s">
         <v>28</v>
@@ -20763,55 +20763,55 @@
         <v>45081.66666666666</v>
       </c>
       <c r="F228" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="G228" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="H228">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I228">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J228" t="s">
         <v>54</v>
       </c>
       <c r="K228">
-        <v>3.1</v>
+        <v>2.1</v>
       </c>
       <c r="L228">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M228">
-        <v>2.2</v>
+        <v>3.4</v>
       </c>
       <c r="N228">
-        <v>2.875</v>
+        <v>2.05</v>
       </c>
       <c r="O228">
         <v>3.3</v>
       </c>
       <c r="P228">
-        <v>2.45</v>
+        <v>4</v>
       </c>
       <c r="Q228">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R228">
-        <v>1.78</v>
+        <v>2.08</v>
       </c>
       <c r="S228">
-        <v>2.125</v>
+        <v>1.82</v>
       </c>
       <c r="T228">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U228">
-        <v>1.92</v>
+        <v>1.82</v>
       </c>
       <c r="V228">
-        <v>1.98</v>
+        <v>2.08</v>
       </c>
       <c r="W228">
         <v>-1</v>
@@ -20823,16 +20823,16 @@
         <v>-1</v>
       </c>
       <c r="Z228">
-        <v>0.39</v>
+        <v>-1</v>
       </c>
       <c r="AA228">
-        <v>-0.5</v>
+        <v>0.8200000000000001</v>
       </c>
       <c r="AB228">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC228">
-        <v>0.49</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="229" spans="1:29">
@@ -20840,7 +20840,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>5734498</v>
+        <v>5732768</v>
       </c>
       <c r="C229" t="s">
         <v>28</v>
@@ -20852,76 +20852,76 @@
         <v>45081.66666666666</v>
       </c>
       <c r="F229" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G229" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="H229">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I229">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J229" t="s">
         <v>54</v>
       </c>
       <c r="K229">
+        <v>3.5</v>
+      </c>
+      <c r="L229">
+        <v>4</v>
+      </c>
+      <c r="M229">
+        <v>1.909</v>
+      </c>
+      <c r="N229">
+        <v>2.4</v>
+      </c>
+      <c r="O229">
+        <v>3.75</v>
+      </c>
+      <c r="P229">
+        <v>2.75</v>
+      </c>
+      <c r="Q229">
+        <v>-0.25</v>
+      </c>
+      <c r="R229">
         <v>2.1</v>
       </c>
-      <c r="L229">
-        <v>3.4</v>
-      </c>
-      <c r="M229">
-        <v>3.4</v>
-      </c>
-      <c r="N229">
-        <v>2.05</v>
-      </c>
-      <c r="O229">
-        <v>3.3</v>
-      </c>
-      <c r="P229">
-        <v>4</v>
-      </c>
-      <c r="Q229">
+      <c r="S229">
+        <v>1.83</v>
+      </c>
+      <c r="T229">
+        <v>3.25</v>
+      </c>
+      <c r="U229">
+        <v>2.1</v>
+      </c>
+      <c r="V229">
+        <v>1.8</v>
+      </c>
+      <c r="W229">
+        <v>-1</v>
+      </c>
+      <c r="X229">
+        <v>2.75</v>
+      </c>
+      <c r="Y229">
+        <v>-1</v>
+      </c>
+      <c r="Z229">
         <v>-0.5</v>
       </c>
-      <c r="R229">
-        <v>2.08</v>
-      </c>
-      <c r="S229">
-        <v>1.82</v>
-      </c>
-      <c r="T229">
-        <v>2</v>
-      </c>
-      <c r="U229">
-        <v>1.82</v>
-      </c>
-      <c r="V229">
-        <v>2.08</v>
-      </c>
-      <c r="W229">
-        <v>-1</v>
-      </c>
-      <c r="X229">
-        <v>2.3</v>
-      </c>
-      <c r="Y229">
-        <v>-1</v>
-      </c>
-      <c r="Z229">
-        <v>-1</v>
-      </c>
       <c r="AA229">
-        <v>0.8200000000000001</v>
+        <v>0.415</v>
       </c>
       <c r="AB229">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="AC229">
-        <v>1.08</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="230" spans="1:29">
@@ -20929,7 +20929,7 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>5732768</v>
+        <v>5738382</v>
       </c>
       <c r="C230" t="s">
         <v>28</v>
@@ -20941,73 +20941,73 @@
         <v>45081.66666666666</v>
       </c>
       <c r="F230" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G230" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="H230">
+        <v>2</v>
+      </c>
+      <c r="I230">
+        <v>1</v>
+      </c>
+      <c r="J230" t="s">
+        <v>53</v>
+      </c>
+      <c r="K230">
         <v>3</v>
       </c>
-      <c r="I230">
-        <v>3</v>
-      </c>
-      <c r="J230" t="s">
-        <v>54</v>
-      </c>
-      <c r="K230">
-        <v>3.5</v>
-      </c>
       <c r="L230">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M230">
-        <v>1.909</v>
+        <v>2.2</v>
       </c>
       <c r="N230">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="O230">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P230">
-        <v>2.75</v>
+        <v>2.45</v>
       </c>
       <c r="Q230">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R230">
-        <v>2.1</v>
+        <v>2.06</v>
       </c>
       <c r="S230">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="T230">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U230">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="V230">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W230">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X230">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y230">
         <v>-1</v>
       </c>
       <c r="Z230">
-        <v>-0.5</v>
+        <v>1.06</v>
       </c>
       <c r="AA230">
-        <v>0.415</v>
+        <v>-1</v>
       </c>
       <c r="AB230">
-        <v>1.1</v>
+        <v>0.95</v>
       </c>
       <c r="AC230">
         <v>-1</v>
@@ -26447,7 +26447,7 @@
         <v>290</v>
       </c>
       <c r="B292">
-        <v>6809383</v>
+        <v>6809222</v>
       </c>
       <c r="C292" t="s">
         <v>28</v>
@@ -26459,76 +26459,76 @@
         <v>45196.58333333334</v>
       </c>
       <c r="F292" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G292" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H292">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I292">
         <v>2</v>
       </c>
       <c r="J292" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K292">
-        <v>1.666</v>
+        <v>1.909</v>
       </c>
       <c r="L292">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M292">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="N292">
-        <v>1.5</v>
+        <v>2.15</v>
       </c>
       <c r="O292">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="P292">
-        <v>6.5</v>
+        <v>3.25</v>
       </c>
       <c r="Q292">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R292">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="S292">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="T292">
+        <v>3</v>
+      </c>
+      <c r="U292">
+        <v>2.02</v>
+      </c>
+      <c r="V292">
+        <v>1.88</v>
+      </c>
+      <c r="W292">
+        <v>-1</v>
+      </c>
+      <c r="X292">
+        <v>-1</v>
+      </c>
+      <c r="Y292">
         <v>2.25</v>
       </c>
-      <c r="U292">
-        <v>1.92</v>
-      </c>
-      <c r="V292">
-        <v>1.98</v>
-      </c>
-      <c r="W292">
-        <v>-1</v>
-      </c>
-      <c r="X292">
-        <v>3.2</v>
-      </c>
-      <c r="Y292">
-        <v>-1</v>
-      </c>
       <c r="Z292">
         <v>-1</v>
       </c>
       <c r="AA292">
-        <v>1</v>
+        <v>1.06</v>
       </c>
       <c r="AB292">
-        <v>0.9199999999999999</v>
+        <v>0</v>
       </c>
       <c r="AC292">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="293" spans="1:29">
@@ -26536,7 +26536,7 @@
         <v>291</v>
       </c>
       <c r="B293">
-        <v>6809222</v>
+        <v>6809383</v>
       </c>
       <c r="C293" t="s">
         <v>28</v>
@@ -26548,76 +26548,76 @@
         <v>45196.58333333334</v>
       </c>
       <c r="F293" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G293" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="H293">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I293">
         <v>2</v>
       </c>
       <c r="J293" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K293">
-        <v>1.909</v>
+        <v>1.666</v>
       </c>
       <c r="L293">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M293">
-        <v>3.75</v>
+        <v>5.5</v>
       </c>
       <c r="N293">
-        <v>2.15</v>
+        <v>1.5</v>
       </c>
       <c r="O293">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="P293">
-        <v>3.25</v>
+        <v>6.5</v>
       </c>
       <c r="Q293">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R293">
-        <v>1.87</v>
+        <v>1.93</v>
       </c>
       <c r="S293">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="T293">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U293">
-        <v>2.02</v>
+        <v>1.92</v>
       </c>
       <c r="V293">
-        <v>1.88</v>
+        <v>1.98</v>
       </c>
       <c r="W293">
         <v>-1</v>
       </c>
       <c r="X293">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y293">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Z293">
         <v>-1</v>
       </c>
       <c r="AA293">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AB293">
-        <v>0</v>
+        <v>0.9199999999999999</v>
       </c>
       <c r="AC293">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="294" spans="1:29">
@@ -26892,7 +26892,7 @@
         <v>295</v>
       </c>
       <c r="B297">
-        <v>6809387</v>
+        <v>6809385</v>
       </c>
       <c r="C297" t="s">
         <v>28</v>
@@ -26904,10 +26904,10 @@
         <v>45197.58333333334</v>
       </c>
       <c r="F297" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="G297" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H297">
         <v>1</v>
@@ -26919,61 +26919,61 @@
         <v>54</v>
       </c>
       <c r="K297">
-        <v>2</v>
+        <v>3.2</v>
       </c>
       <c r="L297">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M297">
-        <v>4</v>
+        <v>2.25</v>
       </c>
       <c r="N297">
-        <v>1.571</v>
+        <v>2.8</v>
       </c>
       <c r="O297">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="P297">
-        <v>6.5</v>
+        <v>2.55</v>
       </c>
       <c r="Q297">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R297">
-        <v>2.06</v>
+        <v>2.07</v>
       </c>
       <c r="S297">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="T297">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U297">
-        <v>1.99</v>
+        <v>1.97</v>
       </c>
       <c r="V297">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="W297">
         <v>-1</v>
       </c>
       <c r="X297">
-        <v>2.75</v>
+        <v>2.3</v>
       </c>
       <c r="Y297">
         <v>-1</v>
       </c>
       <c r="Z297">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA297">
-        <v>0.8400000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB297">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC297">
-        <v>0.455</v>
+        <v>0.9299999999999999</v>
       </c>
     </row>
     <row r="298" spans="1:29">
@@ -26981,7 +26981,7 @@
         <v>296</v>
       </c>
       <c r="B298">
-        <v>6809385</v>
+        <v>6809387</v>
       </c>
       <c r="C298" t="s">
         <v>28</v>
@@ -26993,10 +26993,10 @@
         <v>45197.58333333334</v>
       </c>
       <c r="F298" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="G298" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H298">
         <v>1</v>
@@ -27008,61 +27008,61 @@
         <v>54</v>
       </c>
       <c r="K298">
+        <v>2</v>
+      </c>
+      <c r="L298">
         <v>3.2</v>
       </c>
-      <c r="L298">
-        <v>3.25</v>
-      </c>
       <c r="M298">
+        <v>4</v>
+      </c>
+      <c r="N298">
+        <v>1.571</v>
+      </c>
+      <c r="O298">
+        <v>3.75</v>
+      </c>
+      <c r="P298">
+        <v>6.5</v>
+      </c>
+      <c r="Q298">
+        <v>-1</v>
+      </c>
+      <c r="R298">
+        <v>2.06</v>
+      </c>
+      <c r="S298">
+        <v>1.84</v>
+      </c>
+      <c r="T298">
         <v>2.25</v>
       </c>
-      <c r="N298">
-        <v>2.8</v>
-      </c>
-      <c r="O298">
-        <v>3.3</v>
-      </c>
-      <c r="P298">
-        <v>2.55</v>
-      </c>
-      <c r="Q298">
-        <v>0</v>
-      </c>
-      <c r="R298">
-        <v>2.07</v>
-      </c>
-      <c r="S298">
-        <v>1.86</v>
-      </c>
-      <c r="T298">
-        <v>2.5</v>
-      </c>
       <c r="U298">
-        <v>1.97</v>
+        <v>1.99</v>
       </c>
       <c r="V298">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="W298">
         <v>-1</v>
       </c>
       <c r="X298">
-        <v>2.3</v>
+        <v>2.75</v>
       </c>
       <c r="Y298">
         <v>-1</v>
       </c>
       <c r="Z298">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA298">
-        <v>-0</v>
+        <v>0.8400000000000001</v>
       </c>
       <c r="AB298">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC298">
-        <v>0.9299999999999999</v>
+        <v>0.455</v>
       </c>
     </row>
     <row r="299" spans="1:29">
@@ -27782,7 +27782,7 @@
         <v>305</v>
       </c>
       <c r="B307">
-        <v>6809226</v>
+        <v>6809388</v>
       </c>
       <c r="C307" t="s">
         <v>28</v>
@@ -27794,58 +27794,58 @@
         <v>45200.66666666666</v>
       </c>
       <c r="F307" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="G307" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="H307">
         <v>3</v>
       </c>
       <c r="I307">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J307" t="s">
         <v>53</v>
       </c>
       <c r="K307">
-        <v>2.2</v>
+        <v>1.333</v>
       </c>
       <c r="L307">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="M307">
-        <v>3.4</v>
+        <v>8.5</v>
       </c>
       <c r="N307">
-        <v>2.05</v>
+        <v>1.333</v>
       </c>
       <c r="O307">
-        <v>3.25</v>
+        <v>5.5</v>
       </c>
       <c r="P307">
-        <v>4</v>
+        <v>8.5</v>
       </c>
       <c r="Q307">
-        <v>-0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R307">
+        <v>2.03</v>
+      </c>
+      <c r="S307">
+        <v>1.87</v>
+      </c>
+      <c r="T307">
+        <v>2.5</v>
+      </c>
+      <c r="U307">
+        <v>1.84</v>
+      </c>
+      <c r="V307">
         <v>2.06</v>
       </c>
-      <c r="S307">
-        <v>1.84</v>
-      </c>
-      <c r="T307">
-        <v>2.25</v>
-      </c>
-      <c r="U307">
-        <v>2.05</v>
-      </c>
-      <c r="V307">
-        <v>1.85</v>
-      </c>
       <c r="W307">
-        <v>1.05</v>
+        <v>0.333</v>
       </c>
       <c r="X307">
         <v>-1</v>
@@ -27854,13 +27854,13 @@
         <v>-1</v>
       </c>
       <c r="Z307">
-        <v>1.06</v>
+        <v>-1</v>
       </c>
       <c r="AA307">
-        <v>-1</v>
+        <v>0.8700000000000001</v>
       </c>
       <c r="AB307">
-        <v>1.05</v>
+        <v>0.8400000000000001</v>
       </c>
       <c r="AC307">
         <v>-1</v>
@@ -27871,7 +27871,7 @@
         <v>306</v>
       </c>
       <c r="B308">
-        <v>6809388</v>
+        <v>6809226</v>
       </c>
       <c r="C308" t="s">
         <v>28</v>
@@ -27883,58 +27883,58 @@
         <v>45200.66666666666</v>
       </c>
       <c r="F308" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="G308" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="H308">
         <v>3</v>
       </c>
       <c r="I308">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J308" t="s">
         <v>53</v>
       </c>
       <c r="K308">
-        <v>1.333</v>
+        <v>2.2</v>
       </c>
       <c r="L308">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="M308">
-        <v>8.5</v>
+        <v>3.4</v>
       </c>
       <c r="N308">
-        <v>1.333</v>
+        <v>2.05</v>
       </c>
       <c r="O308">
-        <v>5.5</v>
+        <v>3.25</v>
       </c>
       <c r="P308">
-        <v>8.5</v>
+        <v>4</v>
       </c>
       <c r="Q308">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R308">
-        <v>2.03</v>
+        <v>2.06</v>
       </c>
       <c r="S308">
-        <v>1.87</v>
+        <v>1.84</v>
       </c>
       <c r="T308">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U308">
-        <v>1.84</v>
+        <v>2.05</v>
       </c>
       <c r="V308">
-        <v>2.06</v>
+        <v>1.85</v>
       </c>
       <c r="W308">
-        <v>0.333</v>
+        <v>1.05</v>
       </c>
       <c r="X308">
         <v>-1</v>
@@ -27943,13 +27943,13 @@
         <v>-1</v>
       </c>
       <c r="Z308">
-        <v>-1</v>
+        <v>1.06</v>
       </c>
       <c r="AA308">
-        <v>0.8700000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB308">
-        <v>0.8400000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="AC308">
         <v>-1</v>
@@ -34991,7 +34991,7 @@
         <v>386</v>
       </c>
       <c r="B388">
-        <v>6809424</v>
+        <v>6809425</v>
       </c>
       <c r="C388" t="s">
         <v>28</v>
@@ -35003,76 +35003,76 @@
         <v>45271.70833333334</v>
       </c>
       <c r="F388" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="G388" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H388">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I388">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J388" t="s">
         <v>54</v>
       </c>
       <c r="K388">
-        <v>4.5</v>
+        <v>2.3</v>
       </c>
       <c r="L388">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M388">
-        <v>1.75</v>
+        <v>3.25</v>
       </c>
       <c r="N388">
-        <v>4.2</v>
+        <v>2.7</v>
       </c>
       <c r="O388">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="P388">
-        <v>1.85</v>
+        <v>2.8</v>
       </c>
       <c r="Q388">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R388">
-        <v>2.01</v>
+        <v>1.92</v>
       </c>
       <c r="S388">
-        <v>1.89</v>
+        <v>1.98</v>
       </c>
       <c r="T388">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U388">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V388">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="W388">
         <v>-1</v>
       </c>
       <c r="X388">
-        <v>2.75</v>
+        <v>2.1</v>
       </c>
       <c r="Y388">
         <v>-1</v>
       </c>
       <c r="Z388">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="AA388">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB388">
         <v>-1</v>
       </c>
       <c r="AC388">
-        <v>1.05</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="389" spans="1:29">
@@ -35080,7 +35080,7 @@
         <v>387</v>
       </c>
       <c r="B389">
-        <v>6809425</v>
+        <v>6809424</v>
       </c>
       <c r="C389" t="s">
         <v>28</v>
@@ -35092,76 +35092,76 @@
         <v>45271.70833333334</v>
       </c>
       <c r="F389" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="G389" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H389">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I389">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J389" t="s">
         <v>54</v>
       </c>
       <c r="K389">
-        <v>2.3</v>
+        <v>4.5</v>
       </c>
       <c r="L389">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M389">
-        <v>3.25</v>
+        <v>1.75</v>
       </c>
       <c r="N389">
-        <v>2.7</v>
+        <v>4.2</v>
       </c>
       <c r="O389">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="P389">
-        <v>2.8</v>
+        <v>1.85</v>
       </c>
       <c r="Q389">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R389">
-        <v>1.92</v>
+        <v>2.01</v>
       </c>
       <c r="S389">
-        <v>1.98</v>
+        <v>1.89</v>
       </c>
       <c r="T389">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U389">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="V389">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="W389">
         <v>-1</v>
       </c>
       <c r="X389">
-        <v>2.1</v>
+        <v>2.75</v>
       </c>
       <c r="Y389">
         <v>-1</v>
       </c>
       <c r="Z389">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AA389">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB389">
         <v>-1</v>
       </c>
       <c r="AC389">
-        <v>0.95</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="390" spans="1:29">
@@ -36148,7 +36148,7 @@
         <v>399</v>
       </c>
       <c r="B401">
-        <v>6809435</v>
+        <v>6809292</v>
       </c>
       <c r="C401" t="s">
         <v>28</v>
@@ -36160,49 +36160,49 @@
         <v>45279.72916666666</v>
       </c>
       <c r="F401" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="G401" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="H401">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I401">
         <v>3</v>
       </c>
       <c r="J401" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K401">
-        <v>1.333</v>
+        <v>2.875</v>
       </c>
       <c r="L401">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="M401">
-        <v>8</v>
+        <v>2.25</v>
       </c>
       <c r="N401">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="O401">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="P401">
-        <v>7</v>
+        <v>2.45</v>
       </c>
       <c r="Q401">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R401">
-        <v>1.83</v>
+        <v>1.78</v>
       </c>
       <c r="S401">
-        <v>2.07</v>
+        <v>2.125</v>
       </c>
       <c r="T401">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U401">
         <v>2.04</v>
@@ -36214,16 +36214,16 @@
         <v>-1</v>
       </c>
       <c r="X401">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y401">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="Z401">
         <v>-1</v>
       </c>
       <c r="AA401">
-        <v>1.07</v>
+        <v>1.125</v>
       </c>
       <c r="AB401">
         <v>1.04</v>
@@ -36237,7 +36237,7 @@
         <v>400</v>
       </c>
       <c r="B402">
-        <v>6809292</v>
+        <v>6809435</v>
       </c>
       <c r="C402" t="s">
         <v>28</v>
@@ -36249,49 +36249,49 @@
         <v>45279.72916666666</v>
       </c>
       <c r="F402" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="G402" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="H402">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I402">
         <v>3</v>
       </c>
       <c r="J402" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K402">
-        <v>2.875</v>
+        <v>1.333</v>
       </c>
       <c r="L402">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="M402">
-        <v>2.25</v>
+        <v>8</v>
       </c>
       <c r="N402">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="O402">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="P402">
-        <v>2.45</v>
+        <v>7</v>
       </c>
       <c r="Q402">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R402">
-        <v>1.78</v>
+        <v>1.83</v>
       </c>
       <c r="S402">
-        <v>2.125</v>
+        <v>2.07</v>
       </c>
       <c r="T402">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U402">
         <v>2.04</v>
@@ -36303,16 +36303,16 @@
         <v>-1</v>
       </c>
       <c r="X402">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y402">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="Z402">
         <v>-1</v>
       </c>
       <c r="AA402">
-        <v>1.125</v>
+        <v>1.07</v>
       </c>
       <c r="AB402">
         <v>1.04</v>
@@ -36415,7 +36415,7 @@
         <v>402</v>
       </c>
       <c r="B404">
-        <v>6809438</v>
+        <v>6809434</v>
       </c>
       <c r="C404" t="s">
         <v>28</v>
@@ -36427,58 +36427,58 @@
         <v>45280.72916666666</v>
       </c>
       <c r="F404" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G404" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="H404">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I404">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J404" t="s">
         <v>53</v>
       </c>
       <c r="K404">
-        <v>2.15</v>
+        <v>1.4</v>
       </c>
       <c r="L404">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="M404">
-        <v>2.9</v>
+        <v>7</v>
       </c>
       <c r="N404">
-        <v>2.3</v>
+        <v>1.363</v>
       </c>
       <c r="O404">
-        <v>3.5</v>
+        <v>5.25</v>
       </c>
       <c r="P404">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="Q404">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R404">
-        <v>2.08</v>
+        <v>1.87</v>
       </c>
       <c r="S404">
-        <v>1.82</v>
+        <v>2.06</v>
       </c>
       <c r="T404">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U404">
-        <v>2.06</v>
+        <v>1.91</v>
       </c>
       <c r="V404">
-        <v>1.84</v>
+        <v>1.99</v>
       </c>
       <c r="W404">
-        <v>1.3</v>
+        <v>0.363</v>
       </c>
       <c r="X404">
         <v>-1</v>
@@ -36487,16 +36487,16 @@
         <v>-1</v>
       </c>
       <c r="Z404">
-        <v>1.08</v>
+        <v>-0.5</v>
       </c>
       <c r="AA404">
-        <v>-1</v>
+        <v>0.53</v>
       </c>
       <c r="AB404">
-        <v>1.06</v>
+        <v>-1</v>
       </c>
       <c r="AC404">
-        <v>-1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="405" spans="1:29">
@@ -36504,7 +36504,7 @@
         <v>403</v>
       </c>
       <c r="B405">
-        <v>6809434</v>
+        <v>6809438</v>
       </c>
       <c r="C405" t="s">
         <v>28</v>
@@ -36516,58 +36516,58 @@
         <v>45280.72916666666</v>
       </c>
       <c r="F405" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G405" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="H405">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I405">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J405" t="s">
         <v>53</v>
       </c>
       <c r="K405">
-        <v>1.4</v>
+        <v>2.15</v>
       </c>
       <c r="L405">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="M405">
-        <v>7</v>
+        <v>2.9</v>
       </c>
       <c r="N405">
-        <v>1.363</v>
+        <v>2.3</v>
       </c>
       <c r="O405">
-        <v>5.25</v>
+        <v>3.5</v>
       </c>
       <c r="P405">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="Q405">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R405">
-        <v>1.87</v>
+        <v>2.08</v>
       </c>
       <c r="S405">
+        <v>1.82</v>
+      </c>
+      <c r="T405">
+        <v>2.5</v>
+      </c>
+      <c r="U405">
         <v>2.06</v>
       </c>
-      <c r="T405">
-        <v>2.75</v>
-      </c>
-      <c r="U405">
-        <v>1.91</v>
-      </c>
       <c r="V405">
-        <v>1.99</v>
+        <v>1.84</v>
       </c>
       <c r="W405">
-        <v>0.363</v>
+        <v>1.3</v>
       </c>
       <c r="X405">
         <v>-1</v>
@@ -36576,16 +36576,16 @@
         <v>-1</v>
       </c>
       <c r="Z405">
-        <v>-0.5</v>
+        <v>1.08</v>
       </c>
       <c r="AA405">
-        <v>0.53</v>
+        <v>-1</v>
       </c>
       <c r="AB405">
-        <v>-1</v>
+        <v>1.06</v>
       </c>
       <c r="AC405">
-        <v>0.99</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="406" spans="1:29">
@@ -36771,7 +36771,7 @@
         <v>406</v>
       </c>
       <c r="B408">
-        <v>6809437</v>
+        <v>6809290</v>
       </c>
       <c r="C408" t="s">
         <v>28</v>
@@ -36783,76 +36783,76 @@
         <v>45281.72916666666</v>
       </c>
       <c r="F408" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="G408" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="H408">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I408">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J408" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K408">
-        <v>4.75</v>
+        <v>2.2</v>
       </c>
       <c r="L408">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="M408">
-        <v>1.666</v>
+        <v>3.4</v>
       </c>
       <c r="N408">
-        <v>5.5</v>
+        <v>2.2</v>
       </c>
       <c r="O408">
-        <v>4.2</v>
+        <v>2.9</v>
       </c>
       <c r="P408">
-        <v>1.571</v>
+        <v>4</v>
       </c>
       <c r="Q408">
-        <v>1</v>
+        <v>-0.25</v>
       </c>
       <c r="R408">
-        <v>1.83</v>
+        <v>1.89</v>
       </c>
       <c r="S408">
-        <v>2.07</v>
+        <v>2.01</v>
       </c>
       <c r="T408">
-        <v>2.5</v>
+        <v>1.75</v>
       </c>
       <c r="U408">
-        <v>1.88</v>
+        <v>1.95</v>
       </c>
       <c r="V408">
-        <v>2.02</v>
+        <v>1.95</v>
       </c>
       <c r="W408">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X408">
         <v>-1</v>
       </c>
       <c r="Y408">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="Z408">
-        <v>0</v>
+        <v>0.8899999999999999</v>
       </c>
       <c r="AA408">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB408">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC408">
-        <v>1.02</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="409" spans="1:29">
@@ -36860,7 +36860,7 @@
         <v>407</v>
       </c>
       <c r="B409">
-        <v>6809290</v>
+        <v>6809437</v>
       </c>
       <c r="C409" t="s">
         <v>28</v>
@@ -36872,76 +36872,76 @@
         <v>45281.72916666666</v>
       </c>
       <c r="F409" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="G409" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="H409">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I409">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J409" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K409">
-        <v>2.2</v>
+        <v>4.75</v>
       </c>
       <c r="L409">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="M409">
-        <v>3.4</v>
+        <v>1.666</v>
       </c>
       <c r="N409">
-        <v>2.2</v>
+        <v>5.5</v>
       </c>
       <c r="O409">
-        <v>2.9</v>
+        <v>4.2</v>
       </c>
       <c r="P409">
-        <v>4</v>
+        <v>1.571</v>
       </c>
       <c r="Q409">
-        <v>-0.25</v>
+        <v>1</v>
       </c>
       <c r="R409">
-        <v>1.89</v>
+        <v>1.83</v>
       </c>
       <c r="S409">
-        <v>2.01</v>
+        <v>2.07</v>
       </c>
       <c r="T409">
-        <v>1.75</v>
+        <v>2.5</v>
       </c>
       <c r="U409">
-        <v>1.95</v>
+        <v>1.88</v>
       </c>
       <c r="V409">
-        <v>1.95</v>
+        <v>2.02</v>
       </c>
       <c r="W409">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X409">
         <v>-1</v>
       </c>
       <c r="Y409">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="Z409">
-        <v>0.8899999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA409">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB409">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC409">
-        <v>-1</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="410" spans="1:29">
@@ -43316,10 +43316,10 @@
         <v>2.25</v>
       </c>
       <c r="U481">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="V481">
-        <v>2.07</v>
+        <v>2.06</v>
       </c>
       <c r="W481">
         <v>0</v>
@@ -43381,19 +43381,19 @@
         <v>0</v>
       </c>
       <c r="R482">
-        <v>1.95</v>
+        <v>1.99</v>
       </c>
       <c r="S482">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="T482">
         <v>2</v>
       </c>
       <c r="U482">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="V482">
-        <v>2.06</v>
+        <v>2.05</v>
       </c>
       <c r="W482">
         <v>0</v>
@@ -43416,7 +43416,7 @@
         <v>481</v>
       </c>
       <c r="B483">
-        <v>6809330</v>
+        <v>6809476</v>
       </c>
       <c r="C483" t="s">
         <v>28</v>
@@ -43425,49 +43425,49 @@
         <v>28</v>
       </c>
       <c r="E483" s="2">
-        <v>45346.51041666666</v>
+        <v>45346.60416666666</v>
       </c>
       <c r="F483" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="G483" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="K483">
-        <v>1.4</v>
+        <v>1.95</v>
       </c>
       <c r="L483">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M483">
-        <v>7</v>
+        <v>4.5</v>
       </c>
       <c r="N483">
-        <v>1.4</v>
+        <v>1.909</v>
       </c>
       <c r="O483">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P483">
-        <v>7</v>
+        <v>4.75</v>
       </c>
       <c r="Q483">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R483">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="S483">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="T483">
-        <v>3</v>
+        <v>1.75</v>
       </c>
       <c r="U483">
-        <v>2.08</v>
+        <v>1.87</v>
       </c>
       <c r="V483">
-        <v>1.82</v>
+        <v>2.03</v>
       </c>
       <c r="W483">
         <v>0</v>
@@ -43490,7 +43490,7 @@
         <v>482</v>
       </c>
       <c r="B484">
-        <v>6809476</v>
+        <v>6809329</v>
       </c>
       <c r="C484" t="s">
         <v>28</v>
@@ -43499,49 +43499,49 @@
         <v>28</v>
       </c>
       <c r="E484" s="2">
-        <v>45346.60416666666</v>
+        <v>45346.70833333334</v>
       </c>
       <c r="F484" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="G484" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="K484">
-        <v>1.95</v>
+        <v>4.333</v>
       </c>
       <c r="L484">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="M484">
-        <v>4.5</v>
+        <v>1.727</v>
       </c>
       <c r="N484">
-        <v>1.909</v>
+        <v>4.75</v>
       </c>
       <c r="O484">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="P484">
-        <v>4.75</v>
+        <v>1.7</v>
       </c>
       <c r="Q484">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R484">
+        <v>1.93</v>
+      </c>
+      <c r="S484">
+        <v>1.97</v>
+      </c>
+      <c r="T484">
+        <v>2.75</v>
+      </c>
+      <c r="U484">
+        <v>1.98</v>
+      </c>
+      <c r="V484">
         <v>1.92</v>
-      </c>
-      <c r="S484">
-        <v>1.98</v>
-      </c>
-      <c r="T484">
-        <v>1.75</v>
-      </c>
-      <c r="U484">
-        <v>1.89</v>
-      </c>
-      <c r="V484">
-        <v>2.01</v>
       </c>
       <c r="W484">
         <v>0</v>
@@ -43564,7 +43564,7 @@
         <v>483</v>
       </c>
       <c r="B485">
-        <v>6809329</v>
+        <v>6809474</v>
       </c>
       <c r="C485" t="s">
         <v>28</v>
@@ -43573,49 +43573,49 @@
         <v>28</v>
       </c>
       <c r="E485" s="2">
-        <v>45346.70833333334</v>
+        <v>45347.41666666666</v>
       </c>
       <c r="F485" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="G485" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="K485">
-        <v>4.333</v>
+        <v>2.75</v>
       </c>
       <c r="L485">
-        <v>3.75</v>
+        <v>2.875</v>
       </c>
       <c r="M485">
-        <v>1.727</v>
+        <v>2.75</v>
       </c>
       <c r="N485">
-        <v>4.75</v>
+        <v>3</v>
       </c>
       <c r="O485">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="P485">
-        <v>1.7</v>
+        <v>2.55</v>
       </c>
       <c r="Q485">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R485">
-        <v>1.92</v>
+        <v>2.14</v>
       </c>
       <c r="S485">
-        <v>1.98</v>
+        <v>1.77</v>
       </c>
       <c r="T485">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U485">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="V485">
-        <v>1.92</v>
+        <v>1.88</v>
       </c>
       <c r="W485">
         <v>0</v>
@@ -43638,7 +43638,7 @@
         <v>484</v>
       </c>
       <c r="B486">
-        <v>6809474</v>
+        <v>6809477</v>
       </c>
       <c r="C486" t="s">
         <v>28</v>
@@ -43647,49 +43647,49 @@
         <v>28</v>
       </c>
       <c r="E486" s="2">
-        <v>45347.41666666666</v>
+        <v>45347.51041666666</v>
       </c>
       <c r="F486" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G486" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K486">
-        <v>2.75</v>
+        <v>3.1</v>
       </c>
       <c r="L486">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="M486">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="N486">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="O486">
         <v>3</v>
       </c>
       <c r="P486">
-        <v>2.55</v>
+        <v>2.15</v>
       </c>
       <c r="Q486">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R486">
-        <v>2.125</v>
+        <v>2</v>
       </c>
       <c r="S486">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="T486">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U486">
-        <v>2.02</v>
+        <v>1.95</v>
       </c>
       <c r="V486">
-        <v>1.88</v>
+        <v>1.95</v>
       </c>
       <c r="W486">
         <v>0</v>
@@ -43712,7 +43712,7 @@
         <v>485</v>
       </c>
       <c r="B487">
-        <v>6809477</v>
+        <v>6809334</v>
       </c>
       <c r="C487" t="s">
         <v>28</v>
@@ -43721,43 +43721,43 @@
         <v>28</v>
       </c>
       <c r="E487" s="2">
-        <v>45347.51041666666</v>
+        <v>45347.60416666666</v>
       </c>
       <c r="F487" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G487" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="K487">
-        <v>3.1</v>
+        <v>2.4</v>
       </c>
       <c r="L487">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="M487">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="N487">
-        <v>3.6</v>
+        <v>2.375</v>
       </c>
       <c r="O487">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="P487">
-        <v>2.15</v>
+        <v>3.4</v>
       </c>
       <c r="Q487">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R487">
+        <v>2.03</v>
+      </c>
+      <c r="S487">
+        <v>1.87</v>
+      </c>
+      <c r="T487">
         <v>2</v>
-      </c>
-      <c r="S487">
-        <v>1.9</v>
-      </c>
-      <c r="T487">
-        <v>2.25</v>
       </c>
       <c r="U487">
         <v>1.95</v>
@@ -43786,7 +43786,7 @@
         <v>486</v>
       </c>
       <c r="B488">
-        <v>6809334</v>
+        <v>6809332</v>
       </c>
       <c r="C488" t="s">
         <v>28</v>
@@ -43795,49 +43795,49 @@
         <v>28</v>
       </c>
       <c r="E488" s="2">
-        <v>45347.60416666666</v>
+        <v>45347.70833333334</v>
       </c>
       <c r="F488" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G488" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="K488">
-        <v>2.4</v>
+        <v>1.3</v>
       </c>
       <c r="L488">
-        <v>2.8</v>
+        <v>5.5</v>
       </c>
       <c r="M488">
-        <v>3.25</v>
+        <v>8.5</v>
       </c>
       <c r="N488">
-        <v>2.375</v>
+        <v>1.3</v>
       </c>
       <c r="O488">
-        <v>2.875</v>
+        <v>5.5</v>
       </c>
       <c r="P488">
-        <v>3.4</v>
+        <v>8.5</v>
       </c>
       <c r="Q488">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R488">
-        <v>2.03</v>
+        <v>1.86</v>
       </c>
       <c r="S488">
-        <v>1.87</v>
+        <v>2.04</v>
       </c>
       <c r="T488">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U488">
-        <v>1.95</v>
+        <v>1.84</v>
       </c>
       <c r="V488">
-        <v>1.95</v>
+        <v>2.06</v>
       </c>
       <c r="W488">
         <v>0</v>
@@ -43860,7 +43860,7 @@
         <v>487</v>
       </c>
       <c r="B489">
-        <v>6809332</v>
+        <v>6809331</v>
       </c>
       <c r="C489" t="s">
         <v>28</v>
@@ -43869,49 +43869,49 @@
         <v>28</v>
       </c>
       <c r="E489" s="2">
-        <v>45347.70833333334</v>
+        <v>45348.70833333334</v>
       </c>
       <c r="F489" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="G489" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K489">
-        <v>1.3</v>
+        <v>1.6</v>
       </c>
       <c r="L489">
-        <v>5.5</v>
+        <v>4.2</v>
       </c>
       <c r="M489">
-        <v>8.5</v>
+        <v>5</v>
       </c>
       <c r="N489">
-        <v>1.3</v>
+        <v>1.615</v>
       </c>
       <c r="O489">
-        <v>5.5</v>
+        <v>4.2</v>
       </c>
       <c r="P489">
-        <v>8.5</v>
+        <v>4.75</v>
       </c>
       <c r="Q489">
-        <v>-1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R489">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S489">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T489">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U489">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="V489">
-        <v>2.01</v>
+        <v>1.95</v>
       </c>
       <c r="W489">
         <v>0</v>
@@ -43926,80 +43926,6 @@
         <v>0</v>
       </c>
       <c r="AA489">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="490" spans="1:27">
-      <c r="A490" s="1">
-        <v>488</v>
-      </c>
-      <c r="B490">
-        <v>6809331</v>
-      </c>
-      <c r="C490" t="s">
-        <v>28</v>
-      </c>
-      <c r="D490" t="s">
-        <v>28</v>
-      </c>
-      <c r="E490" s="2">
-        <v>45348.70833333334</v>
-      </c>
-      <c r="F490" t="s">
-        <v>41</v>
-      </c>
-      <c r="G490" t="s">
-        <v>35</v>
-      </c>
-      <c r="K490">
-        <v>1.6</v>
-      </c>
-      <c r="L490">
-        <v>4.2</v>
-      </c>
-      <c r="M490">
-        <v>5</v>
-      </c>
-      <c r="N490">
-        <v>1.615</v>
-      </c>
-      <c r="O490">
-        <v>4.2</v>
-      </c>
-      <c r="P490">
-        <v>4.75</v>
-      </c>
-      <c r="Q490">
-        <v>-0.75</v>
-      </c>
-      <c r="R490">
-        <v>1.85</v>
-      </c>
-      <c r="S490">
-        <v>2.05</v>
-      </c>
-      <c r="T490">
-        <v>2.75</v>
-      </c>
-      <c r="U490">
-        <v>1.95</v>
-      </c>
-      <c r="V490">
-        <v>1.95</v>
-      </c>
-      <c r="W490">
-        <v>0</v>
-      </c>
-      <c r="X490">
-        <v>0</v>
-      </c>
-      <c r="Y490">
-        <v>0</v>
-      </c>
-      <c r="Z490">
-        <v>0</v>
-      </c>
-      <c r="AA490">
         <v>0</v>
       </c>
     </row>

--- a/Spain Primera Liga/Spain Primera Liga.xlsx
+++ b/Spain Primera Liga/Spain Primera Liga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2459" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2467" uniqueCount="55">
   <si>
     <t>id</t>
   </si>
@@ -540,7 +540,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC489"/>
+  <dimension ref="A1:AC491"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -10071,7 +10071,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>5210915</v>
+        <v>5210911</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10083,76 +10083,76 @@
         <v>45004.51041666666</v>
       </c>
       <c r="F108" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G108" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J108" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K108">
-        <v>1.3</v>
+        <v>3</v>
       </c>
       <c r="L108">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="M108">
-        <v>10</v>
+        <v>2.45</v>
       </c>
       <c r="N108">
-        <v>1.4</v>
+        <v>3</v>
       </c>
       <c r="O108">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="P108">
-        <v>9</v>
+        <v>2.5</v>
       </c>
       <c r="Q108">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R108">
-        <v>1.97</v>
+        <v>2.14</v>
       </c>
       <c r="S108">
-        <v>1.93</v>
+        <v>1.77</v>
       </c>
       <c r="T108">
         <v>2.25</v>
       </c>
       <c r="U108">
-        <v>1.85</v>
+        <v>2.06</v>
       </c>
       <c r="V108">
-        <v>2.05</v>
+        <v>1.84</v>
       </c>
       <c r="W108">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X108">
         <v>-1</v>
       </c>
       <c r="Y108">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z108">
-        <v>0.97</v>
+        <v>-1</v>
       </c>
       <c r="AA108">
-        <v>-1</v>
+        <v>0.77</v>
       </c>
       <c r="AB108">
-        <v>-0.5</v>
+        <v>1.06</v>
       </c>
       <c r="AC108">
-        <v>0.5249999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -10160,7 +10160,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>5210911</v>
+        <v>5210915</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10172,76 +10172,76 @@
         <v>45004.51041666666</v>
       </c>
       <c r="F109" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G109" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J109" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K109">
-        <v>3</v>
+        <v>1.3</v>
       </c>
       <c r="L109">
-        <v>3.1</v>
+        <v>5</v>
       </c>
       <c r="M109">
-        <v>2.45</v>
+        <v>10</v>
       </c>
       <c r="N109">
-        <v>3</v>
+        <v>1.4</v>
       </c>
       <c r="O109">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="P109">
-        <v>2.5</v>
+        <v>9</v>
       </c>
       <c r="Q109">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R109">
-        <v>2.14</v>
+        <v>1.97</v>
       </c>
       <c r="S109">
-        <v>1.77</v>
+        <v>1.93</v>
       </c>
       <c r="T109">
         <v>2.25</v>
       </c>
       <c r="U109">
-        <v>2.06</v>
+        <v>1.85</v>
       </c>
       <c r="V109">
-        <v>1.84</v>
+        <v>2.05</v>
       </c>
       <c r="W109">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X109">
         <v>-1</v>
       </c>
       <c r="Y109">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z109">
-        <v>-1</v>
+        <v>0.97</v>
       </c>
       <c r="AA109">
-        <v>0.77</v>
+        <v>-1</v>
       </c>
       <c r="AB109">
-        <v>1.06</v>
+        <v>-0.5</v>
       </c>
       <c r="AC109">
-        <v>-1</v>
+        <v>0.5249999999999999</v>
       </c>
     </row>
     <row r="110" spans="1:29">
@@ -13364,7 +13364,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>5210954</v>
+        <v>5210955</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -13376,58 +13376,58 @@
         <v>45038.5625</v>
       </c>
       <c r="F145" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G145" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="H145">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I145">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J145" t="s">
         <v>53</v>
       </c>
       <c r="K145">
-        <v>1.666</v>
+        <v>2.25</v>
       </c>
       <c r="L145">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M145">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="N145">
-        <v>1.65</v>
+        <v>2.5</v>
       </c>
       <c r="O145">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P145">
-        <v>5.75</v>
+        <v>2.8</v>
       </c>
       <c r="Q145">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R145">
-        <v>1.89</v>
+        <v>1.79</v>
       </c>
       <c r="S145">
-        <v>2.01</v>
+        <v>2.11</v>
       </c>
       <c r="T145">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U145">
-        <v>2.01</v>
+        <v>2.05</v>
       </c>
       <c r="V145">
-        <v>1.89</v>
+        <v>1.85</v>
       </c>
       <c r="W145">
-        <v>0.6499999999999999</v>
+        <v>1.5</v>
       </c>
       <c r="X145">
         <v>-1</v>
@@ -13436,16 +13436,16 @@
         <v>-1</v>
       </c>
       <c r="Z145">
-        <v>0.445</v>
+        <v>0.79</v>
       </c>
       <c r="AA145">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB145">
-        <v>1.01</v>
+        <v>-1</v>
       </c>
       <c r="AC145">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="146" spans="1:29">
@@ -13453,7 +13453,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>5210955</v>
+        <v>5210954</v>
       </c>
       <c r="C146" t="s">
         <v>28</v>
@@ -13465,58 +13465,58 @@
         <v>45038.5625</v>
       </c>
       <c r="F146" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G146" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="H146">
+        <v>2</v>
+      </c>
+      <c r="I146">
         <v>1</v>
-      </c>
-      <c r="I146">
-        <v>0</v>
       </c>
       <c r="J146" t="s">
         <v>53</v>
       </c>
       <c r="K146">
+        <v>1.666</v>
+      </c>
+      <c r="L146">
+        <v>3.75</v>
+      </c>
+      <c r="M146">
+        <v>5</v>
+      </c>
+      <c r="N146">
+        <v>1.65</v>
+      </c>
+      <c r="O146">
+        <v>3.6</v>
+      </c>
+      <c r="P146">
+        <v>5.75</v>
+      </c>
+      <c r="Q146">
+        <v>-0.75</v>
+      </c>
+      <c r="R146">
+        <v>1.89</v>
+      </c>
+      <c r="S146">
+        <v>2.01</v>
+      </c>
+      <c r="T146">
         <v>2.25</v>
       </c>
-      <c r="L146">
-        <v>3.4</v>
-      </c>
-      <c r="M146">
-        <v>3.1</v>
-      </c>
-      <c r="N146">
-        <v>2.5</v>
-      </c>
-      <c r="O146">
-        <v>3.4</v>
-      </c>
-      <c r="P146">
-        <v>2.8</v>
-      </c>
-      <c r="Q146">
-        <v>0</v>
-      </c>
-      <c r="R146">
-        <v>1.79</v>
-      </c>
-      <c r="S146">
-        <v>2.11</v>
-      </c>
-      <c r="T146">
-        <v>2.5</v>
-      </c>
       <c r="U146">
-        <v>2.05</v>
+        <v>2.01</v>
       </c>
       <c r="V146">
-        <v>1.85</v>
+        <v>1.89</v>
       </c>
       <c r="W146">
-        <v>1.5</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X146">
         <v>-1</v>
@@ -13525,16 +13525,16 @@
         <v>-1</v>
       </c>
       <c r="Z146">
-        <v>0.79</v>
+        <v>0.445</v>
       </c>
       <c r="AA146">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB146">
-        <v>-1</v>
+        <v>1.01</v>
       </c>
       <c r="AC146">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="147" spans="1:29">
@@ -14432,7 +14432,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>5466353</v>
+        <v>5467507</v>
       </c>
       <c r="C157" t="s">
         <v>28</v>
@@ -14444,58 +14444,58 @@
         <v>45042.70833333334</v>
       </c>
       <c r="F157" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G157" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="H157">
+        <v>2</v>
+      </c>
+      <c r="I157">
         <v>1</v>
-      </c>
-      <c r="I157">
-        <v>0</v>
       </c>
       <c r="J157" t="s">
         <v>53</v>
       </c>
       <c r="K157">
-        <v>1.4</v>
+        <v>4.5</v>
       </c>
       <c r="L157">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="M157">
-        <v>7.5</v>
+        <v>1.7</v>
       </c>
       <c r="N157">
-        <v>1.363</v>
+        <v>5</v>
       </c>
       <c r="O157">
-        <v>5</v>
+        <v>3.8</v>
       </c>
       <c r="P157">
-        <v>8</v>
+        <v>1.7</v>
       </c>
       <c r="Q157">
-        <v>-1.25</v>
+        <v>0.75</v>
       </c>
       <c r="R157">
-        <v>1.87</v>
+        <v>1.95</v>
       </c>
       <c r="S157">
-        <v>2.03</v>
+        <v>1.95</v>
       </c>
       <c r="T157">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U157">
-        <v>1.96</v>
+        <v>1.85</v>
       </c>
       <c r="V157">
-        <v>1.94</v>
+        <v>2.05</v>
       </c>
       <c r="W157">
-        <v>0.363</v>
+        <v>4</v>
       </c>
       <c r="X157">
         <v>-1</v>
@@ -14504,16 +14504,16 @@
         <v>-1</v>
       </c>
       <c r="Z157">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AA157">
-        <v>0.5149999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB157">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC157">
-        <v>0.9399999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="158" spans="1:29">
@@ -14521,7 +14521,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>5467507</v>
+        <v>5466353</v>
       </c>
       <c r="C158" t="s">
         <v>28</v>
@@ -14533,58 +14533,58 @@
         <v>45042.70833333334</v>
       </c>
       <c r="F158" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G158" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="H158">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I158">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J158" t="s">
         <v>53</v>
       </c>
       <c r="K158">
+        <v>1.4</v>
+      </c>
+      <c r="L158">
         <v>4.5</v>
       </c>
-      <c r="L158">
-        <v>4</v>
-      </c>
       <c r="M158">
-        <v>1.7</v>
+        <v>7.5</v>
       </c>
       <c r="N158">
+        <v>1.363</v>
+      </c>
+      <c r="O158">
         <v>5</v>
       </c>
-      <c r="O158">
-        <v>3.8</v>
-      </c>
       <c r="P158">
-        <v>1.7</v>
+        <v>8</v>
       </c>
       <c r="Q158">
-        <v>0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R158">
-        <v>1.95</v>
+        <v>1.87</v>
       </c>
       <c r="S158">
-        <v>1.95</v>
+        <v>2.03</v>
       </c>
       <c r="T158">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U158">
-        <v>1.85</v>
+        <v>1.96</v>
       </c>
       <c r="V158">
-        <v>2.05</v>
+        <v>1.94</v>
       </c>
       <c r="W158">
-        <v>4</v>
+        <v>0.363</v>
       </c>
       <c r="X158">
         <v>-1</v>
@@ -14593,16 +14593,16 @@
         <v>-1</v>
       </c>
       <c r="Z158">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AA158">
-        <v>-1</v>
+        <v>0.5149999999999999</v>
       </c>
       <c r="AB158">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC158">
-        <v>-1</v>
+        <v>0.9399999999999999</v>
       </c>
     </row>
     <row r="159" spans="1:29">
@@ -14610,7 +14610,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>5466354</v>
+        <v>5466355</v>
       </c>
       <c r="C159" t="s">
         <v>28</v>
@@ -14622,49 +14622,49 @@
         <v>45043.60416666666</v>
       </c>
       <c r="F159" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G159" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H159">
+        <v>4</v>
+      </c>
+      <c r="I159">
         <v>2</v>
-      </c>
-      <c r="I159">
-        <v>1</v>
       </c>
       <c r="J159" t="s">
         <v>53</v>
       </c>
       <c r="K159">
-        <v>1.666</v>
+        <v>1.55</v>
       </c>
       <c r="L159">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="M159">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="N159">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="O159">
-        <v>3.8</v>
+        <v>4.333</v>
       </c>
       <c r="P159">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q159">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R159">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="S159">
-        <v>1.95</v>
+        <v>1.99</v>
       </c>
       <c r="T159">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U159">
         <v>1.93</v>
@@ -14673,7 +14673,7 @@
         <v>1.97</v>
       </c>
       <c r="W159">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="X159">
         <v>-1</v>
@@ -14682,10 +14682,10 @@
         <v>-1</v>
       </c>
       <c r="Z159">
-        <v>0.475</v>
+        <v>0.9099999999999999</v>
       </c>
       <c r="AA159">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB159">
         <v>0.9299999999999999</v>
@@ -14699,7 +14699,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>5466355</v>
+        <v>5466354</v>
       </c>
       <c r="C160" t="s">
         <v>28</v>
@@ -14711,49 +14711,49 @@
         <v>45043.60416666666</v>
       </c>
       <c r="F160" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G160" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H160">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I160">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J160" t="s">
         <v>53</v>
       </c>
       <c r="K160">
-        <v>1.55</v>
+        <v>1.666</v>
       </c>
       <c r="L160">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="M160">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="N160">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="O160">
-        <v>4.333</v>
+        <v>3.8</v>
       </c>
       <c r="P160">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q160">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R160">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="S160">
-        <v>1.99</v>
+        <v>1.95</v>
       </c>
       <c r="T160">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U160">
         <v>1.93</v>
@@ -14762,7 +14762,7 @@
         <v>1.97</v>
       </c>
       <c r="W160">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="X160">
         <v>-1</v>
@@ -14771,10 +14771,10 @@
         <v>-1</v>
       </c>
       <c r="Z160">
-        <v>0.9099999999999999</v>
+        <v>0.475</v>
       </c>
       <c r="AA160">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB160">
         <v>0.9299999999999999</v>
@@ -15767,7 +15767,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>5534478</v>
+        <v>5540298</v>
       </c>
       <c r="C172" t="s">
         <v>28</v>
@@ -15779,58 +15779,58 @@
         <v>45048.60416666666</v>
       </c>
       <c r="F172" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="G172" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="H172">
+        <v>2</v>
+      </c>
+      <c r="I172">
         <v>1</v>
-      </c>
-      <c r="I172">
-        <v>0</v>
       </c>
       <c r="J172" t="s">
         <v>53</v>
       </c>
       <c r="K172">
-        <v>1.25</v>
+        <v>1.65</v>
       </c>
       <c r="L172">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="M172">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="N172">
-        <v>1.166</v>
+        <v>1.727</v>
       </c>
       <c r="O172">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="P172">
-        <v>15</v>
+        <v>4.5</v>
       </c>
       <c r="Q172">
-        <v>-2</v>
+        <v>-0.75</v>
       </c>
       <c r="R172">
-        <v>1.85</v>
+        <v>1.92</v>
       </c>
       <c r="S172">
-        <v>2.05</v>
+        <v>1.98</v>
       </c>
       <c r="T172">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U172">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V172">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="W172">
-        <v>0.1659999999999999</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X172">
         <v>-1</v>
@@ -15839,16 +15839,16 @@
         <v>-1</v>
       </c>
       <c r="Z172">
-        <v>-1</v>
+        <v>0.46</v>
       </c>
       <c r="AA172">
-        <v>1.05</v>
+        <v>-0.5</v>
       </c>
       <c r="AB172">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC172">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="173" spans="1:29">
@@ -15856,7 +15856,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>5540298</v>
+        <v>5534478</v>
       </c>
       <c r="C173" t="s">
         <v>28</v>
@@ -15868,58 +15868,58 @@
         <v>45048.60416666666</v>
       </c>
       <c r="F173" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="G173" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="H173">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I173">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J173" t="s">
         <v>53</v>
       </c>
       <c r="K173">
-        <v>1.65</v>
+        <v>1.25</v>
       </c>
       <c r="L173">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="M173">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="N173">
-        <v>1.727</v>
+        <v>1.166</v>
       </c>
       <c r="O173">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="P173">
-        <v>4.5</v>
+        <v>15</v>
       </c>
       <c r="Q173">
-        <v>-0.75</v>
+        <v>-2</v>
       </c>
       <c r="R173">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="S173">
-        <v>1.98</v>
+        <v>2.05</v>
       </c>
       <c r="T173">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U173">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V173">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="W173">
-        <v>0.7270000000000001</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X173">
         <v>-1</v>
@@ -15928,16 +15928,16 @@
         <v>-1</v>
       </c>
       <c r="Z173">
-        <v>0.46</v>
+        <v>-1</v>
       </c>
       <c r="AA173">
-        <v>-0.5</v>
+        <v>1.05</v>
       </c>
       <c r="AB173">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC173">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="174" spans="1:29">
@@ -16479,7 +16479,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>5540274</v>
+        <v>5549243</v>
       </c>
       <c r="C180" t="s">
         <v>28</v>
@@ -16491,76 +16491,76 @@
         <v>45050.70833333334</v>
       </c>
       <c r="F180" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G180" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="H180">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I180">
         <v>1</v>
       </c>
       <c r="J180" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K180">
-        <v>1.65</v>
+        <v>1.615</v>
       </c>
       <c r="L180">
         <v>3.8</v>
       </c>
       <c r="M180">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="N180">
-        <v>1.909</v>
+        <v>1.615</v>
       </c>
       <c r="O180">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P180">
-        <v>3.8</v>
+        <v>5.5</v>
       </c>
       <c r="Q180">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R180">
-        <v>1.95</v>
+        <v>1.82</v>
       </c>
       <c r="S180">
-        <v>1.95</v>
+        <v>2.08</v>
       </c>
       <c r="T180">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U180">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="V180">
-        <v>1.9</v>
+        <v>2.03</v>
       </c>
       <c r="W180">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X180">
         <v>-1</v>
       </c>
       <c r="Y180">
-        <v>-1</v>
+        <v>4.5</v>
       </c>
       <c r="Z180">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA180">
-        <v>-1</v>
+        <v>1.08</v>
       </c>
       <c r="AB180">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC180">
-        <v>-1</v>
+        <v>1.03</v>
       </c>
     </row>
     <row r="181" spans="1:29">
@@ -16568,7 +16568,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>5549243</v>
+        <v>5540274</v>
       </c>
       <c r="C181" t="s">
         <v>28</v>
@@ -16580,76 +16580,76 @@
         <v>45050.70833333334</v>
       </c>
       <c r="F181" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G181" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I181">
         <v>1</v>
       </c>
       <c r="J181" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K181">
-        <v>1.615</v>
+        <v>1.65</v>
       </c>
       <c r="L181">
         <v>3.8</v>
       </c>
       <c r="M181">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="N181">
-        <v>1.615</v>
+        <v>1.909</v>
       </c>
       <c r="O181">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P181">
-        <v>5.5</v>
+        <v>3.8</v>
       </c>
       <c r="Q181">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R181">
-        <v>1.82</v>
+        <v>1.95</v>
       </c>
       <c r="S181">
-        <v>2.08</v>
+        <v>1.95</v>
       </c>
       <c r="T181">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U181">
-        <v>1.87</v>
+        <v>2</v>
       </c>
       <c r="V181">
-        <v>2.03</v>
+        <v>1.9</v>
       </c>
       <c r="W181">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X181">
         <v>-1</v>
       </c>
       <c r="Y181">
-        <v>4.5</v>
+        <v>-1</v>
       </c>
       <c r="Z181">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA181">
-        <v>1.08</v>
+        <v>-1</v>
       </c>
       <c r="AB181">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC181">
-        <v>1.03</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="182" spans="1:29">
@@ -17814,7 +17814,7 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>5611043</v>
+        <v>5611042</v>
       </c>
       <c r="C195" t="s">
         <v>28</v>
@@ -17826,76 +17826,76 @@
         <v>45066.5625</v>
       </c>
       <c r="F195" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="G195" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H195">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I195">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J195" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K195">
-        <v>1.5</v>
+        <v>2.3</v>
       </c>
       <c r="L195">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="M195">
-        <v>6.5</v>
+        <v>3.2</v>
       </c>
       <c r="N195">
-        <v>1.65</v>
+        <v>2.25</v>
       </c>
       <c r="O195">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="P195">
-        <v>6</v>
+        <v>3.3</v>
       </c>
       <c r="Q195">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R195">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="S195">
-        <v>2.01</v>
+        <v>1.95</v>
       </c>
       <c r="T195">
         <v>2.25</v>
       </c>
       <c r="U195">
-        <v>2.09</v>
+        <v>1.9</v>
       </c>
       <c r="V195">
-        <v>1.81</v>
+        <v>2</v>
       </c>
       <c r="W195">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X195">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y195">
         <v>-1</v>
       </c>
       <c r="Z195">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA195">
-        <v>1.01</v>
+        <v>-1</v>
       </c>
       <c r="AB195">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC195">
-        <v>0.405</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="196" spans="1:29">
@@ -17903,7 +17903,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>5611042</v>
+        <v>5611043</v>
       </c>
       <c r="C196" t="s">
         <v>28</v>
@@ -17915,76 +17915,76 @@
         <v>45066.5625</v>
       </c>
       <c r="F196" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="G196" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H196">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I196">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J196" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K196">
-        <v>2.3</v>
+        <v>1.5</v>
       </c>
       <c r="L196">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="M196">
-        <v>3.2</v>
+        <v>6.5</v>
       </c>
       <c r="N196">
-        <v>2.25</v>
+        <v>1.65</v>
       </c>
       <c r="O196">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="P196">
-        <v>3.3</v>
+        <v>6</v>
       </c>
       <c r="Q196">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R196">
-        <v>1.95</v>
+        <v>1.89</v>
       </c>
       <c r="S196">
-        <v>1.95</v>
+        <v>2.01</v>
       </c>
       <c r="T196">
         <v>2.25</v>
       </c>
       <c r="U196">
-        <v>1.9</v>
+        <v>2.09</v>
       </c>
       <c r="V196">
-        <v>2</v>
+        <v>1.81</v>
       </c>
       <c r="W196">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X196">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y196">
         <v>-1</v>
       </c>
       <c r="Z196">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA196">
-        <v>-1</v>
+        <v>1.01</v>
       </c>
       <c r="AB196">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AC196">
-        <v>-1</v>
+        <v>0.405</v>
       </c>
     </row>
     <row r="197" spans="1:29">
@@ -18437,7 +18437,7 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>5638811</v>
+        <v>5638808</v>
       </c>
       <c r="C202" t="s">
         <v>28</v>
@@ -18449,61 +18449,61 @@
         <v>45069.60416666666</v>
       </c>
       <c r="F202" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G202" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H202">
         <v>1</v>
       </c>
       <c r="I202">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J202" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K202">
-        <v>1.4</v>
+        <v>2.2</v>
       </c>
       <c r="L202">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="M202">
-        <v>8.5</v>
+        <v>3.25</v>
       </c>
       <c r="N202">
-        <v>1.363</v>
+        <v>2.1</v>
       </c>
       <c r="O202">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="P202">
-        <v>8</v>
+        <v>3.6</v>
       </c>
       <c r="Q202">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R202">
-        <v>1.89</v>
+        <v>1.82</v>
       </c>
       <c r="S202">
-        <v>2.01</v>
+        <v>2.08</v>
       </c>
       <c r="T202">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U202">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="V202">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W202">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X202">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y202">
         <v>-1</v>
@@ -18512,13 +18512,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA202">
-        <v>0.5049999999999999</v>
+        <v>0.54</v>
       </c>
       <c r="AB202">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC202">
-        <v>0.8999999999999999</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="203" spans="1:29">
@@ -18526,7 +18526,7 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>5638808</v>
+        <v>5638811</v>
       </c>
       <c r="C203" t="s">
         <v>28</v>
@@ -18538,61 +18538,61 @@
         <v>45069.60416666666</v>
       </c>
       <c r="F203" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G203" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="H203">
         <v>1</v>
       </c>
       <c r="I203">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J203" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K203">
-        <v>2.2</v>
+        <v>1.4</v>
       </c>
       <c r="L203">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="M203">
-        <v>3.25</v>
+        <v>8.5</v>
       </c>
       <c r="N203">
-        <v>2.1</v>
+        <v>1.363</v>
       </c>
       <c r="O203">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="P203">
-        <v>3.6</v>
+        <v>8</v>
       </c>
       <c r="Q203">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R203">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="S203">
-        <v>2.08</v>
+        <v>2.01</v>
       </c>
       <c r="T203">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U203">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="V203">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W203">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X203">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y203">
         <v>-1</v>
@@ -18601,13 +18601,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA203">
-        <v>0.54</v>
+        <v>0.5049999999999999</v>
       </c>
       <c r="AB203">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC203">
-        <v>0.5125</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="204" spans="1:29">
@@ -18793,7 +18793,7 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>5638809</v>
+        <v>5638885</v>
       </c>
       <c r="C206" t="s">
         <v>28</v>
@@ -18805,76 +18805,76 @@
         <v>45070.60416666666</v>
       </c>
       <c r="F206" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="G206" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H206">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I206">
         <v>1</v>
       </c>
       <c r="J206" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K206">
-        <v>3.8</v>
+        <v>1.363</v>
       </c>
       <c r="L206">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="M206">
-        <v>1.909</v>
+        <v>8</v>
       </c>
       <c r="N206">
-        <v>3.3</v>
+        <v>1.363</v>
       </c>
       <c r="O206">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="P206">
-        <v>2.15</v>
+        <v>7.5</v>
       </c>
       <c r="Q206">
-        <v>0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R206">
-        <v>1.99</v>
+        <v>2.06</v>
       </c>
       <c r="S206">
-        <v>1.94</v>
+        <v>1.84</v>
       </c>
       <c r="T206">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U206">
-        <v>1.96</v>
+        <v>2.07</v>
       </c>
       <c r="V206">
-        <v>1.94</v>
+        <v>1.83</v>
       </c>
       <c r="W206">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X206">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y206">
         <v>-1</v>
       </c>
       <c r="Z206">
-        <v>0.495</v>
+        <v>-1</v>
       </c>
       <c r="AA206">
+        <v>0.8400000000000001</v>
+      </c>
+      <c r="AB206">
         <v>-0.5</v>
       </c>
-      <c r="AB206">
-        <v>-1</v>
-      </c>
       <c r="AC206">
-        <v>0.9399999999999999</v>
+        <v>0.415</v>
       </c>
     </row>
     <row r="207" spans="1:29">
@@ -18882,7 +18882,7 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>5638885</v>
+        <v>5638809</v>
       </c>
       <c r="C207" t="s">
         <v>28</v>
@@ -18894,76 +18894,76 @@
         <v>45070.60416666666</v>
       </c>
       <c r="F207" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="G207" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H207">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I207">
         <v>1</v>
       </c>
       <c r="J207" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K207">
-        <v>1.363</v>
+        <v>3.8</v>
       </c>
       <c r="L207">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="M207">
-        <v>8</v>
+        <v>1.909</v>
       </c>
       <c r="N207">
-        <v>1.363</v>
+        <v>3.3</v>
       </c>
       <c r="O207">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="P207">
-        <v>7.5</v>
+        <v>2.15</v>
       </c>
       <c r="Q207">
-        <v>-1.5</v>
+        <v>0.25</v>
       </c>
       <c r="R207">
-        <v>2.06</v>
+        <v>1.99</v>
       </c>
       <c r="S207">
-        <v>1.84</v>
+        <v>1.94</v>
       </c>
       <c r="T207">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U207">
-        <v>2.07</v>
+        <v>1.96</v>
       </c>
       <c r="V207">
-        <v>1.83</v>
+        <v>1.94</v>
       </c>
       <c r="W207">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X207">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y207">
         <v>-1</v>
       </c>
       <c r="Z207">
-        <v>-1</v>
+        <v>0.495</v>
       </c>
       <c r="AA207">
-        <v>0.8400000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB207">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC207">
-        <v>0.415</v>
+        <v>0.9399999999999999</v>
       </c>
     </row>
     <row r="208" spans="1:29">
@@ -19416,7 +19416,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>5697401</v>
+        <v>5703047</v>
       </c>
       <c r="C213" t="s">
         <v>28</v>
@@ -19428,76 +19428,76 @@
         <v>45074.58333333334</v>
       </c>
       <c r="F213" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="G213" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H213">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I213">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J213" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K213">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="L213">
         <v>4.5</v>
       </c>
       <c r="M213">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="N213">
-        <v>1.4</v>
+        <v>1.25</v>
       </c>
       <c r="O213">
-        <v>4.5</v>
+        <v>5.75</v>
       </c>
       <c r="P213">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="Q213">
-        <v>-1.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R213">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S213">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T213">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U213">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="V213">
-        <v>1.99</v>
+        <v>1.97</v>
       </c>
       <c r="W213">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X213">
         <v>-1</v>
       </c>
       <c r="Y213">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="Z213">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA213">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB213">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC213">
-        <v>0.99</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="214" spans="1:29">
@@ -19505,7 +19505,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>5705884</v>
+        <v>5701613</v>
       </c>
       <c r="C214" t="s">
         <v>28</v>
@@ -19517,76 +19517,76 @@
         <v>45074.58333333334</v>
       </c>
       <c r="F214" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G214" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="H214">
         <v>1</v>
       </c>
       <c r="I214">
+        <v>0</v>
+      </c>
+      <c r="J214" t="s">
+        <v>53</v>
+      </c>
+      <c r="K214">
+        <v>2.6</v>
+      </c>
+      <c r="L214">
+        <v>3.2</v>
+      </c>
+      <c r="M214">
+        <v>2.7</v>
+      </c>
+      <c r="N214">
+        <v>2.45</v>
+      </c>
+      <c r="O214">
+        <v>3.1</v>
+      </c>
+      <c r="P214">
+        <v>3.1</v>
+      </c>
+      <c r="Q214">
+        <v>-0.25</v>
+      </c>
+      <c r="R214">
+        <v>2.075</v>
+      </c>
+      <c r="S214">
+        <v>1.725</v>
+      </c>
+      <c r="T214">
         <v>2</v>
       </c>
-      <c r="J214" t="s">
-        <v>52</v>
-      </c>
-      <c r="K214">
-        <v>2.2</v>
-      </c>
-      <c r="L214">
-        <v>3.5</v>
-      </c>
-      <c r="M214">
-        <v>3.1</v>
-      </c>
-      <c r="N214">
-        <v>1.909</v>
-      </c>
-      <c r="O214">
-        <v>3.6</v>
-      </c>
-      <c r="P214">
-        <v>3.8</v>
-      </c>
-      <c r="Q214">
-        <v>-0.5</v>
-      </c>
-      <c r="R214">
-        <v>1.98</v>
-      </c>
-      <c r="S214">
-        <v>1.92</v>
-      </c>
-      <c r="T214">
-        <v>2.5</v>
-      </c>
       <c r="U214">
-        <v>1.99</v>
+        <v>1.95</v>
       </c>
       <c r="V214">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="W214">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="X214">
         <v>-1</v>
       </c>
       <c r="Y214">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Z214">
-        <v>-1</v>
+        <v>1.075</v>
       </c>
       <c r="AA214">
-        <v>0.9199999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB214">
-        <v>0.99</v>
+        <v>-1</v>
       </c>
       <c r="AC214">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="215" spans="1:29">
@@ -19594,7 +19594,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>5713343</v>
+        <v>5697402</v>
       </c>
       <c r="C215" t="s">
         <v>28</v>
@@ -19606,76 +19606,76 @@
         <v>45074.58333333334</v>
       </c>
       <c r="F215" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G215" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H215">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I215">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J215" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K215">
-        <v>2.875</v>
+        <v>2.25</v>
       </c>
       <c r="L215">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M215">
+        <v>3.1</v>
+      </c>
+      <c r="N215">
+        <v>2.2</v>
+      </c>
+      <c r="O215">
+        <v>3.3</v>
+      </c>
+      <c r="P215">
+        <v>3.3</v>
+      </c>
+      <c r="Q215">
+        <v>-0.25</v>
+      </c>
+      <c r="R215">
+        <v>1.97</v>
+      </c>
+      <c r="S215">
+        <v>1.93</v>
+      </c>
+      <c r="T215">
+        <v>2.5</v>
+      </c>
+      <c r="U215">
+        <v>1.86</v>
+      </c>
+      <c r="V215">
+        <v>2.04</v>
+      </c>
+      <c r="W215">
+        <v>-1</v>
+      </c>
+      <c r="X215">
         <v>2.3</v>
       </c>
-      <c r="N215">
-        <v>3</v>
-      </c>
-      <c r="O215">
-        <v>3.75</v>
-      </c>
-      <c r="P215">
-        <v>2.2</v>
-      </c>
-      <c r="Q215">
-        <v>0.25</v>
-      </c>
-      <c r="R215">
-        <v>1.9</v>
-      </c>
-      <c r="S215">
-        <v>2</v>
-      </c>
-      <c r="T215">
-        <v>3</v>
-      </c>
-      <c r="U215">
-        <v>2.06</v>
-      </c>
-      <c r="V215">
-        <v>1.84</v>
-      </c>
-      <c r="W215">
-        <v>2</v>
-      </c>
-      <c r="X215">
-        <v>-1</v>
-      </c>
       <c r="Y215">
         <v>-1</v>
       </c>
       <c r="Z215">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AA215">
-        <v>-1</v>
+        <v>0.465</v>
       </c>
       <c r="AB215">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC215">
-        <v>-0</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="216" spans="1:29">
@@ -19683,7 +19683,7 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>5697402</v>
+        <v>5697401</v>
       </c>
       <c r="C216" t="s">
         <v>28</v>
@@ -19695,76 +19695,76 @@
         <v>45074.58333333334</v>
       </c>
       <c r="F216" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G216" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H216">
         <v>0</v>
       </c>
       <c r="I216">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J216" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K216">
-        <v>2.25</v>
+        <v>1.4</v>
       </c>
       <c r="L216">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="M216">
-        <v>3.1</v>
+        <v>8</v>
       </c>
       <c r="N216">
-        <v>2.2</v>
+        <v>1.4</v>
       </c>
       <c r="O216">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="P216">
-        <v>3.3</v>
+        <v>8</v>
       </c>
       <c r="Q216">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R216">
-        <v>1.97</v>
+        <v>1.95</v>
       </c>
       <c r="S216">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="T216">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U216">
-        <v>1.86</v>
+        <v>1.91</v>
       </c>
       <c r="V216">
-        <v>2.04</v>
+        <v>1.99</v>
       </c>
       <c r="W216">
         <v>-1</v>
       </c>
       <c r="X216">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y216">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="Z216">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA216">
-        <v>0.465</v>
+        <v>0.95</v>
       </c>
       <c r="AB216">
         <v>-1</v>
       </c>
       <c r="AC216">
-        <v>1.04</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="217" spans="1:29">
@@ -19861,7 +19861,7 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>5701613</v>
+        <v>5705884</v>
       </c>
       <c r="C218" t="s">
         <v>28</v>
@@ -19873,76 +19873,76 @@
         <v>45074.58333333334</v>
       </c>
       <c r="F218" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G218" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="H218">
         <v>1</v>
       </c>
       <c r="I218">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J218" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K218">
-        <v>2.6</v>
+        <v>2.2</v>
       </c>
       <c r="L218">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M218">
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
       <c r="N218">
-        <v>2.45</v>
+        <v>1.909</v>
       </c>
       <c r="O218">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="P218">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="Q218">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R218">
-        <v>2.075</v>
+        <v>1.98</v>
       </c>
       <c r="S218">
-        <v>1.725</v>
+        <v>1.92</v>
       </c>
       <c r="T218">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U218">
-        <v>1.95</v>
+        <v>1.99</v>
       </c>
       <c r="V218">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="W218">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="X218">
         <v>-1</v>
       </c>
       <c r="Y218">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Z218">
-        <v>1.075</v>
+        <v>-1</v>
       </c>
       <c r="AA218">
-        <v>-1</v>
+        <v>0.9199999999999999</v>
       </c>
       <c r="AB218">
-        <v>-1</v>
+        <v>0.99</v>
       </c>
       <c r="AC218">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="219" spans="1:29">
@@ -19950,7 +19950,7 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>5703047</v>
+        <v>5713343</v>
       </c>
       <c r="C219" t="s">
         <v>28</v>
@@ -19962,58 +19962,58 @@
         <v>45074.58333333334</v>
       </c>
       <c r="F219" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="G219" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H219">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I219">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J219" t="s">
         <v>53</v>
       </c>
       <c r="K219">
-        <v>1.5</v>
+        <v>2.875</v>
       </c>
       <c r="L219">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="M219">
-        <v>6</v>
+        <v>2.3</v>
       </c>
       <c r="N219">
-        <v>1.25</v>
+        <v>3</v>
       </c>
       <c r="O219">
-        <v>5.75</v>
+        <v>3.75</v>
       </c>
       <c r="P219">
-        <v>12</v>
+        <v>2.2</v>
       </c>
       <c r="Q219">
-        <v>-1.75</v>
+        <v>0.25</v>
       </c>
       <c r="R219">
+        <v>1.9</v>
+      </c>
+      <c r="S219">
         <v>2</v>
-      </c>
-      <c r="S219">
-        <v>1.9</v>
       </c>
       <c r="T219">
         <v>3</v>
       </c>
       <c r="U219">
-        <v>1.93</v>
+        <v>2.06</v>
       </c>
       <c r="V219">
-        <v>1.97</v>
+        <v>1.84</v>
       </c>
       <c r="W219">
-        <v>0.25</v>
+        <v>2</v>
       </c>
       <c r="X219">
         <v>-1</v>
@@ -20022,7 +20022,7 @@
         <v>-1</v>
       </c>
       <c r="Z219">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA219">
         <v>-1</v>
@@ -20128,7 +20128,7 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>5776609</v>
+        <v>5732767</v>
       </c>
       <c r="C221" t="s">
         <v>28</v>
@@ -20140,49 +20140,49 @@
         <v>45081.5625</v>
       </c>
       <c r="F221" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="G221" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H221">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I221">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J221" t="s">
         <v>53</v>
       </c>
       <c r="K221">
-        <v>2.25</v>
+        <v>3.4</v>
       </c>
       <c r="L221">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M221">
-        <v>2.9</v>
+        <v>2.15</v>
       </c>
       <c r="N221">
-        <v>1.571</v>
+        <v>3</v>
       </c>
       <c r="O221">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="P221">
-        <v>5.75</v>
+        <v>2.45</v>
       </c>
       <c r="Q221">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R221">
-        <v>2.01</v>
+        <v>1.8</v>
       </c>
       <c r="S221">
-        <v>1.89</v>
+        <v>2.14</v>
       </c>
       <c r="T221">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U221">
         <v>1.89</v>
@@ -20191,7 +20191,7 @@
         <v>2.01</v>
       </c>
       <c r="W221">
-        <v>0.571</v>
+        <v>2</v>
       </c>
       <c r="X221">
         <v>-1</v>
@@ -20200,10 +20200,10 @@
         <v>-1</v>
       </c>
       <c r="Z221">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AA221">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB221">
         <v>0.8899999999999999</v>
@@ -20217,7 +20217,7 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>5732767</v>
+        <v>5776610</v>
       </c>
       <c r="C222" t="s">
         <v>28</v>
@@ -20229,73 +20229,73 @@
         <v>45081.5625</v>
       </c>
       <c r="F222" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G222" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H222">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I222">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J222" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K222">
+        <v>2.75</v>
+      </c>
+      <c r="L222">
         <v>3.4</v>
       </c>
-      <c r="L222">
-        <v>3.3</v>
-      </c>
       <c r="M222">
-        <v>2.15</v>
+        <v>2.45</v>
       </c>
       <c r="N222">
-        <v>3</v>
+        <v>2.625</v>
       </c>
       <c r="O222">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="P222">
         <v>2.45</v>
       </c>
       <c r="Q222">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R222">
-        <v>1.8</v>
+        <v>2.04</v>
       </c>
       <c r="S222">
-        <v>2.14</v>
+        <v>1.86</v>
       </c>
       <c r="T222">
-        <v>2</v>
+        <v>3.25</v>
       </c>
       <c r="U222">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="V222">
-        <v>2.01</v>
+        <v>2.02</v>
       </c>
       <c r="W222">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X222">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y222">
         <v>-1</v>
       </c>
       <c r="Z222">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AA222">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB222">
-        <v>0.8899999999999999</v>
+        <v>0.8799999999999999</v>
       </c>
       <c r="AC222">
         <v>-1</v>
@@ -20306,7 +20306,7 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>5734136</v>
+        <v>5730415</v>
       </c>
       <c r="C223" t="s">
         <v>28</v>
@@ -20318,76 +20318,76 @@
         <v>45081.5625</v>
       </c>
       <c r="F223" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="G223" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H223">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I223">
         <v>1</v>
       </c>
       <c r="J223" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K223">
-        <v>1.95</v>
+        <v>2.25</v>
       </c>
       <c r="L223">
+        <v>3.5</v>
+      </c>
+      <c r="M223">
+        <v>3</v>
+      </c>
+      <c r="N223">
+        <v>2.05</v>
+      </c>
+      <c r="O223">
         <v>3.6</v>
       </c>
-      <c r="M223">
-        <v>3.6</v>
-      </c>
-      <c r="N223">
-        <v>1.65</v>
-      </c>
-      <c r="O223">
-        <v>4</v>
-      </c>
       <c r="P223">
-        <v>4.75</v>
+        <v>3.25</v>
       </c>
       <c r="Q223">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R223">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="S223">
-        <v>2.06</v>
+        <v>2.05</v>
       </c>
       <c r="T223">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U223">
-        <v>1.9</v>
+        <v>2.02</v>
       </c>
       <c r="V223">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="W223">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X223">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y223">
         <v>-1</v>
       </c>
       <c r="Z223">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA223">
-        <v>1.06</v>
+        <v>-1</v>
       </c>
       <c r="AB223">
-        <v>-1</v>
+        <v>0.51</v>
       </c>
       <c r="AC223">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="224" spans="1:29">
@@ -20395,7 +20395,7 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>5776610</v>
+        <v>5734136</v>
       </c>
       <c r="C224" t="s">
         <v>28</v>
@@ -20407,76 +20407,76 @@
         <v>45081.5625</v>
       </c>
       <c r="F224" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="G224" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H224">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I224">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J224" t="s">
         <v>54</v>
       </c>
       <c r="K224">
-        <v>2.75</v>
+        <v>1.95</v>
       </c>
       <c r="L224">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M224">
-        <v>2.45</v>
+        <v>3.6</v>
       </c>
       <c r="N224">
-        <v>2.625</v>
+        <v>1.65</v>
       </c>
       <c r="O224">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P224">
-        <v>2.45</v>
+        <v>4.75</v>
       </c>
       <c r="Q224">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R224">
-        <v>2.04</v>
+        <v>1.84</v>
       </c>
       <c r="S224">
-        <v>1.86</v>
+        <v>2.06</v>
       </c>
       <c r="T224">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U224">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="V224">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="W224">
         <v>-1</v>
       </c>
       <c r="X224">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Y224">
         <v>-1</v>
       </c>
       <c r="Z224">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA224">
-        <v>-0</v>
+        <v>1.06</v>
       </c>
       <c r="AB224">
-        <v>0.8799999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC224">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="225" spans="1:29">
@@ -20484,7 +20484,7 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>5730415</v>
+        <v>5776609</v>
       </c>
       <c r="C225" t="s">
         <v>28</v>
@@ -20496,10 +20496,10 @@
         <v>45081.5625</v>
       </c>
       <c r="F225" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G225" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H225">
         <v>2</v>
@@ -20514,40 +20514,40 @@
         <v>2.25</v>
       </c>
       <c r="L225">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M225">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="N225">
-        <v>2.05</v>
+        <v>1.571</v>
       </c>
       <c r="O225">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P225">
-        <v>3.25</v>
+        <v>5.75</v>
       </c>
       <c r="Q225">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R225">
-        <v>1.85</v>
+        <v>2.01</v>
       </c>
       <c r="S225">
-        <v>2.05</v>
+        <v>1.89</v>
       </c>
       <c r="T225">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U225">
-        <v>2.02</v>
+        <v>1.89</v>
       </c>
       <c r="V225">
-        <v>1.88</v>
+        <v>2.01</v>
       </c>
       <c r="W225">
-        <v>1.05</v>
+        <v>0.571</v>
       </c>
       <c r="X225">
         <v>-1</v>
@@ -20556,16 +20556,16 @@
         <v>-1</v>
       </c>
       <c r="Z225">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA225">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB225">
-        <v>0.51</v>
+        <v>0.8899999999999999</v>
       </c>
       <c r="AC225">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="226" spans="1:29">
@@ -20573,7 +20573,7 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>5762751</v>
+        <v>5737343</v>
       </c>
       <c r="C226" t="s">
         <v>28</v>
@@ -20585,10 +20585,10 @@
         <v>45081.66666666666</v>
       </c>
       <c r="F226" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="G226" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="H226">
         <v>1</v>
@@ -20600,40 +20600,40 @@
         <v>54</v>
       </c>
       <c r="K226">
-        <v>3.1</v>
+        <v>2.6</v>
       </c>
       <c r="L226">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M226">
-        <v>2.2</v>
+        <v>2.6</v>
       </c>
       <c r="N226">
-        <v>2.875</v>
+        <v>2.45</v>
       </c>
       <c r="O226">
         <v>3.3</v>
       </c>
       <c r="P226">
-        <v>2.45</v>
+        <v>2.875</v>
       </c>
       <c r="Q226">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R226">
-        <v>1.78</v>
+        <v>2.05</v>
       </c>
       <c r="S226">
-        <v>2.125</v>
+        <v>1.75</v>
       </c>
       <c r="T226">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U226">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="V226">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="W226">
         <v>-1</v>
@@ -20645,16 +20645,16 @@
         <v>-1</v>
       </c>
       <c r="Z226">
-        <v>0.39</v>
+        <v>-0.5</v>
       </c>
       <c r="AA226">
-        <v>-0.5</v>
+        <v>0.375</v>
       </c>
       <c r="AB226">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC226">
-        <v>0.49</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="227" spans="1:29">
@@ -20662,7 +20662,7 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>5737343</v>
+        <v>5732768</v>
       </c>
       <c r="C227" t="s">
         <v>28</v>
@@ -20674,61 +20674,61 @@
         <v>45081.66666666666</v>
       </c>
       <c r="F227" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G227" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="H227">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I227">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J227" t="s">
         <v>54</v>
       </c>
       <c r="K227">
-        <v>2.6</v>
+        <v>3.5</v>
       </c>
       <c r="L227">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M227">
-        <v>2.6</v>
+        <v>1.909</v>
       </c>
       <c r="N227">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="O227">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="P227">
-        <v>2.875</v>
+        <v>2.75</v>
       </c>
       <c r="Q227">
         <v>-0.25</v>
       </c>
       <c r="R227">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="S227">
-        <v>1.75</v>
+        <v>1.83</v>
       </c>
       <c r="T227">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U227">
-        <v>1.91</v>
+        <v>2.1</v>
       </c>
       <c r="V227">
-        <v>1.99</v>
+        <v>1.8</v>
       </c>
       <c r="W227">
         <v>-1</v>
       </c>
       <c r="X227">
-        <v>2.3</v>
+        <v>2.75</v>
       </c>
       <c r="Y227">
         <v>-1</v>
@@ -20737,13 +20737,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA227">
-        <v>0.375</v>
+        <v>0.415</v>
       </c>
       <c r="AB227">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="AC227">
-        <v>0.99</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="228" spans="1:29">
@@ -20840,7 +20840,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>5732768</v>
+        <v>5738382</v>
       </c>
       <c r="C229" t="s">
         <v>28</v>
@@ -20852,73 +20852,73 @@
         <v>45081.66666666666</v>
       </c>
       <c r="F229" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G229" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="H229">
+        <v>2</v>
+      </c>
+      <c r="I229">
+        <v>1</v>
+      </c>
+      <c r="J229" t="s">
+        <v>53</v>
+      </c>
+      <c r="K229">
         <v>3</v>
       </c>
-      <c r="I229">
-        <v>3</v>
-      </c>
-      <c r="J229" t="s">
-        <v>54</v>
-      </c>
-      <c r="K229">
-        <v>3.5</v>
-      </c>
       <c r="L229">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M229">
-        <v>1.909</v>
+        <v>2.2</v>
       </c>
       <c r="N229">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="O229">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P229">
-        <v>2.75</v>
+        <v>2.45</v>
       </c>
       <c r="Q229">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R229">
-        <v>2.1</v>
+        <v>2.06</v>
       </c>
       <c r="S229">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="T229">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U229">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="V229">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W229">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X229">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y229">
         <v>-1</v>
       </c>
       <c r="Z229">
-        <v>-0.5</v>
+        <v>1.06</v>
       </c>
       <c r="AA229">
-        <v>0.415</v>
+        <v>-1</v>
       </c>
       <c r="AB229">
-        <v>1.1</v>
+        <v>0.95</v>
       </c>
       <c r="AC229">
         <v>-1</v>
@@ -20929,7 +20929,7 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>5738382</v>
+        <v>5762751</v>
       </c>
       <c r="C230" t="s">
         <v>28</v>
@@ -20941,76 +20941,76 @@
         <v>45081.66666666666</v>
       </c>
       <c r="F230" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="G230" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H230">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I230">
         <v>1</v>
       </c>
       <c r="J230" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K230">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="L230">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M230">
         <v>2.2</v>
       </c>
       <c r="N230">
-        <v>2.7</v>
+        <v>2.875</v>
       </c>
       <c r="O230">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P230">
         <v>2.45</v>
       </c>
       <c r="Q230">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R230">
-        <v>2.06</v>
+        <v>1.78</v>
       </c>
       <c r="S230">
-        <v>1.84</v>
+        <v>2.125</v>
       </c>
       <c r="T230">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U230">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="V230">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="W230">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X230">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y230">
         <v>-1</v>
       </c>
       <c r="Z230">
-        <v>1.06</v>
+        <v>0.39</v>
       </c>
       <c r="AA230">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB230">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AC230">
-        <v>-1</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="231" spans="1:29">
@@ -26447,7 +26447,7 @@
         <v>290</v>
       </c>
       <c r="B292">
-        <v>6809222</v>
+        <v>6809386</v>
       </c>
       <c r="C292" t="s">
         <v>28</v>
@@ -26459,76 +26459,76 @@
         <v>45196.58333333334</v>
       </c>
       <c r="F292" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="G292" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="H292">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I292">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J292" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K292">
-        <v>1.909</v>
+        <v>1.285</v>
       </c>
       <c r="L292">
-        <v>3.6</v>
+        <v>6</v>
       </c>
       <c r="M292">
-        <v>3.75</v>
+        <v>8</v>
       </c>
       <c r="N292">
-        <v>2.15</v>
+        <v>1.166</v>
       </c>
       <c r="O292">
-        <v>3.75</v>
+        <v>8</v>
       </c>
       <c r="P292">
+        <v>15</v>
+      </c>
+      <c r="Q292">
+        <v>-2</v>
+      </c>
+      <c r="R292">
+        <v>1.85</v>
+      </c>
+      <c r="S292">
+        <v>2.05</v>
+      </c>
+      <c r="T292">
         <v>3.25</v>
       </c>
-      <c r="Q292">
-        <v>-0.25</v>
-      </c>
-      <c r="R292">
-        <v>1.87</v>
-      </c>
-      <c r="S292">
-        <v>2.06</v>
-      </c>
-      <c r="T292">
-        <v>3</v>
-      </c>
       <c r="U292">
-        <v>2.02</v>
+        <v>1.99</v>
       </c>
       <c r="V292">
-        <v>1.88</v>
+        <v>1.91</v>
       </c>
       <c r="W292">
-        <v>-1</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X292">
         <v>-1</v>
       </c>
       <c r="Y292">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Z292">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA292">
-        <v>1.06</v>
+        <v>-0</v>
       </c>
       <c r="AB292">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC292">
-        <v>-0</v>
+        <v>0.9099999999999999</v>
       </c>
     </row>
     <row r="293" spans="1:29">
@@ -26536,7 +26536,7 @@
         <v>291</v>
       </c>
       <c r="B293">
-        <v>6809383</v>
+        <v>6809222</v>
       </c>
       <c r="C293" t="s">
         <v>28</v>
@@ -26548,76 +26548,76 @@
         <v>45196.58333333334</v>
       </c>
       <c r="F293" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G293" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H293">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I293">
         <v>2</v>
       </c>
       <c r="J293" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K293">
-        <v>1.666</v>
+        <v>1.909</v>
       </c>
       <c r="L293">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M293">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="N293">
-        <v>1.5</v>
+        <v>2.15</v>
       </c>
       <c r="O293">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="P293">
-        <v>6.5</v>
+        <v>3.25</v>
       </c>
       <c r="Q293">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R293">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="S293">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="T293">
+        <v>3</v>
+      </c>
+      <c r="U293">
+        <v>2.02</v>
+      </c>
+      <c r="V293">
+        <v>1.88</v>
+      </c>
+      <c r="W293">
+        <v>-1</v>
+      </c>
+      <c r="X293">
+        <v>-1</v>
+      </c>
+      <c r="Y293">
         <v>2.25</v>
       </c>
-      <c r="U293">
-        <v>1.92</v>
-      </c>
-      <c r="V293">
-        <v>1.98</v>
-      </c>
-      <c r="W293">
-        <v>-1</v>
-      </c>
-      <c r="X293">
-        <v>3.2</v>
-      </c>
-      <c r="Y293">
-        <v>-1</v>
-      </c>
       <c r="Z293">
         <v>-1</v>
       </c>
       <c r="AA293">
-        <v>1</v>
+        <v>1.06</v>
       </c>
       <c r="AB293">
-        <v>0.9199999999999999</v>
+        <v>0</v>
       </c>
       <c r="AC293">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="294" spans="1:29">
@@ -26625,7 +26625,7 @@
         <v>292</v>
       </c>
       <c r="B294">
-        <v>6809386</v>
+        <v>6809383</v>
       </c>
       <c r="C294" t="s">
         <v>28</v>
@@ -26637,76 +26637,76 @@
         <v>45196.58333333334</v>
       </c>
       <c r="F294" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="G294" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="H294">
         <v>2</v>
       </c>
       <c r="I294">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J294" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K294">
-        <v>1.285</v>
+        <v>1.666</v>
       </c>
       <c r="L294">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="M294">
-        <v>8</v>
+        <v>5.5</v>
       </c>
       <c r="N294">
-        <v>1.166</v>
+        <v>1.5</v>
       </c>
       <c r="O294">
-        <v>8</v>
+        <v>4.2</v>
       </c>
       <c r="P294">
-        <v>15</v>
+        <v>6.5</v>
       </c>
       <c r="Q294">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="R294">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="S294">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T294">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="U294">
-        <v>1.99</v>
+        <v>1.92</v>
       </c>
       <c r="V294">
-        <v>1.91</v>
+        <v>1.98</v>
       </c>
       <c r="W294">
-        <v>0.1659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X294">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y294">
         <v>-1</v>
       </c>
       <c r="Z294">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA294">
-        <v>-0</v>
+        <v>1</v>
       </c>
       <c r="AB294">
-        <v>-1</v>
+        <v>0.9199999999999999</v>
       </c>
       <c r="AC294">
-        <v>0.9099999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="295" spans="1:29">
@@ -26892,7 +26892,7 @@
         <v>295</v>
       </c>
       <c r="B297">
-        <v>6809385</v>
+        <v>6809387</v>
       </c>
       <c r="C297" t="s">
         <v>28</v>
@@ -26904,10 +26904,10 @@
         <v>45197.58333333334</v>
       </c>
       <c r="F297" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="G297" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H297">
         <v>1</v>
@@ -26919,61 +26919,61 @@
         <v>54</v>
       </c>
       <c r="K297">
+        <v>2</v>
+      </c>
+      <c r="L297">
         <v>3.2</v>
       </c>
-      <c r="L297">
-        <v>3.25</v>
-      </c>
       <c r="M297">
+        <v>4</v>
+      </c>
+      <c r="N297">
+        <v>1.571</v>
+      </c>
+      <c r="O297">
+        <v>3.75</v>
+      </c>
+      <c r="P297">
+        <v>6.5</v>
+      </c>
+      <c r="Q297">
+        <v>-1</v>
+      </c>
+      <c r="R297">
+        <v>2.06</v>
+      </c>
+      <c r="S297">
+        <v>1.84</v>
+      </c>
+      <c r="T297">
         <v>2.25</v>
       </c>
-      <c r="N297">
-        <v>2.8</v>
-      </c>
-      <c r="O297">
-        <v>3.3</v>
-      </c>
-      <c r="P297">
-        <v>2.55</v>
-      </c>
-      <c r="Q297">
-        <v>0</v>
-      </c>
-      <c r="R297">
-        <v>2.07</v>
-      </c>
-      <c r="S297">
-        <v>1.86</v>
-      </c>
-      <c r="T297">
-        <v>2.5</v>
-      </c>
       <c r="U297">
-        <v>1.97</v>
+        <v>1.99</v>
       </c>
       <c r="V297">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="W297">
         <v>-1</v>
       </c>
       <c r="X297">
-        <v>2.3</v>
+        <v>2.75</v>
       </c>
       <c r="Y297">
         <v>-1</v>
       </c>
       <c r="Z297">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA297">
-        <v>-0</v>
+        <v>0.8400000000000001</v>
       </c>
       <c r="AB297">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC297">
-        <v>0.9299999999999999</v>
+        <v>0.455</v>
       </c>
     </row>
     <row r="298" spans="1:29">
@@ -26981,7 +26981,7 @@
         <v>296</v>
       </c>
       <c r="B298">
-        <v>6809387</v>
+        <v>6809385</v>
       </c>
       <c r="C298" t="s">
         <v>28</v>
@@ -26993,10 +26993,10 @@
         <v>45197.58333333334</v>
       </c>
       <c r="F298" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="G298" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H298">
         <v>1</v>
@@ -27008,61 +27008,61 @@
         <v>54</v>
       </c>
       <c r="K298">
-        <v>2</v>
+        <v>3.2</v>
       </c>
       <c r="L298">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M298">
-        <v>4</v>
+        <v>2.25</v>
       </c>
       <c r="N298">
-        <v>1.571</v>
+        <v>2.8</v>
       </c>
       <c r="O298">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="P298">
-        <v>6.5</v>
+        <v>2.55</v>
       </c>
       <c r="Q298">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R298">
-        <v>2.06</v>
+        <v>2.07</v>
       </c>
       <c r="S298">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="T298">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U298">
-        <v>1.99</v>
+        <v>1.97</v>
       </c>
       <c r="V298">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="W298">
         <v>-1</v>
       </c>
       <c r="X298">
-        <v>2.75</v>
+        <v>2.3</v>
       </c>
       <c r="Y298">
         <v>-1</v>
       </c>
       <c r="Z298">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA298">
-        <v>0.8400000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB298">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC298">
-        <v>0.455</v>
+        <v>0.9299999999999999</v>
       </c>
     </row>
     <row r="299" spans="1:29">
@@ -27782,7 +27782,7 @@
         <v>305</v>
       </c>
       <c r="B307">
-        <v>6809388</v>
+        <v>6809226</v>
       </c>
       <c r="C307" t="s">
         <v>28</v>
@@ -27794,58 +27794,58 @@
         <v>45200.66666666666</v>
       </c>
       <c r="F307" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="G307" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="H307">
         <v>3</v>
       </c>
       <c r="I307">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J307" t="s">
         <v>53</v>
       </c>
       <c r="K307">
-        <v>1.333</v>
+        <v>2.2</v>
       </c>
       <c r="L307">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="M307">
-        <v>8.5</v>
+        <v>3.4</v>
       </c>
       <c r="N307">
-        <v>1.333</v>
+        <v>2.05</v>
       </c>
       <c r="O307">
-        <v>5.5</v>
+        <v>3.25</v>
       </c>
       <c r="P307">
-        <v>8.5</v>
+        <v>4</v>
       </c>
       <c r="Q307">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R307">
-        <v>2.03</v>
+        <v>2.06</v>
       </c>
       <c r="S307">
-        <v>1.87</v>
+        <v>1.84</v>
       </c>
       <c r="T307">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U307">
-        <v>1.84</v>
+        <v>2.05</v>
       </c>
       <c r="V307">
-        <v>2.06</v>
+        <v>1.85</v>
       </c>
       <c r="W307">
-        <v>0.333</v>
+        <v>1.05</v>
       </c>
       <c r="X307">
         <v>-1</v>
@@ -27854,13 +27854,13 @@
         <v>-1</v>
       </c>
       <c r="Z307">
-        <v>-1</v>
+        <v>1.06</v>
       </c>
       <c r="AA307">
-        <v>0.8700000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB307">
-        <v>0.8400000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="AC307">
         <v>-1</v>
@@ -27871,7 +27871,7 @@
         <v>306</v>
       </c>
       <c r="B308">
-        <v>6809226</v>
+        <v>6809388</v>
       </c>
       <c r="C308" t="s">
         <v>28</v>
@@ -27883,58 +27883,58 @@
         <v>45200.66666666666</v>
       </c>
       <c r="F308" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="G308" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="H308">
         <v>3</v>
       </c>
       <c r="I308">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J308" t="s">
         <v>53</v>
       </c>
       <c r="K308">
-        <v>2.2</v>
+        <v>1.333</v>
       </c>
       <c r="L308">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="M308">
-        <v>3.4</v>
+        <v>8.5</v>
       </c>
       <c r="N308">
-        <v>2.05</v>
+        <v>1.333</v>
       </c>
       <c r="O308">
-        <v>3.25</v>
+        <v>5.5</v>
       </c>
       <c r="P308">
-        <v>4</v>
+        <v>8.5</v>
       </c>
       <c r="Q308">
-        <v>-0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R308">
+        <v>2.03</v>
+      </c>
+      <c r="S308">
+        <v>1.87</v>
+      </c>
+      <c r="T308">
+        <v>2.5</v>
+      </c>
+      <c r="U308">
+        <v>1.84</v>
+      </c>
+      <c r="V308">
         <v>2.06</v>
       </c>
-      <c r="S308">
-        <v>1.84</v>
-      </c>
-      <c r="T308">
-        <v>2.25</v>
-      </c>
-      <c r="U308">
-        <v>2.05</v>
-      </c>
-      <c r="V308">
-        <v>1.85</v>
-      </c>
       <c r="W308">
-        <v>1.05</v>
+        <v>0.333</v>
       </c>
       <c r="X308">
         <v>-1</v>
@@ -27943,13 +27943,13 @@
         <v>-1</v>
       </c>
       <c r="Z308">
-        <v>1.06</v>
+        <v>-1</v>
       </c>
       <c r="AA308">
-        <v>-1</v>
+        <v>0.8700000000000001</v>
       </c>
       <c r="AB308">
-        <v>1.05</v>
+        <v>0.8400000000000001</v>
       </c>
       <c r="AC308">
         <v>-1</v>
@@ -28672,7 +28672,7 @@
         <v>315</v>
       </c>
       <c r="B317">
-        <v>6809394</v>
+        <v>6809395</v>
       </c>
       <c r="C317" t="s">
         <v>28</v>
@@ -28684,76 +28684,76 @@
         <v>45207.5625</v>
       </c>
       <c r="F317" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="G317" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="H317">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I317">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J317" t="s">
         <v>54</v>
       </c>
       <c r="K317">
-        <v>2.1</v>
+        <v>2.8</v>
       </c>
       <c r="L317">
         <v>3.25</v>
       </c>
       <c r="M317">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="N317">
-        <v>2</v>
+        <v>2.45</v>
       </c>
       <c r="O317">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="P317">
-        <v>4.2</v>
+        <v>3</v>
       </c>
       <c r="Q317">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R317">
-        <v>2.01</v>
+        <v>2.11</v>
       </c>
       <c r="S317">
-        <v>1.89</v>
+        <v>1.79</v>
       </c>
       <c r="T317">
         <v>2.25</v>
       </c>
       <c r="U317">
-        <v>2.07</v>
+        <v>1.99</v>
       </c>
       <c r="V317">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="W317">
         <v>-1</v>
       </c>
       <c r="X317">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="Y317">
         <v>-1</v>
       </c>
       <c r="Z317">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA317">
-        <v>0.8899999999999999</v>
+        <v>0.395</v>
       </c>
       <c r="AB317">
-        <v>1.07</v>
+        <v>-0.5</v>
       </c>
       <c r="AC317">
-        <v>-1</v>
+        <v>0.455</v>
       </c>
     </row>
     <row r="318" spans="1:29">
@@ -28761,7 +28761,7 @@
         <v>316</v>
       </c>
       <c r="B318">
-        <v>6809395</v>
+        <v>6809394</v>
       </c>
       <c r="C318" t="s">
         <v>28</v>
@@ -28773,76 +28773,76 @@
         <v>45207.5625</v>
       </c>
       <c r="F318" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="G318" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="H318">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I318">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J318" t="s">
         <v>54</v>
       </c>
       <c r="K318">
-        <v>2.8</v>
+        <v>2.1</v>
       </c>
       <c r="L318">
         <v>3.25</v>
       </c>
       <c r="M318">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="N318">
-        <v>2.45</v>
+        <v>2</v>
       </c>
       <c r="O318">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P318">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="Q318">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R318">
-        <v>2.11</v>
+        <v>2.01</v>
       </c>
       <c r="S318">
-        <v>1.79</v>
+        <v>1.89</v>
       </c>
       <c r="T318">
         <v>2.25</v>
       </c>
       <c r="U318">
-        <v>1.99</v>
+        <v>2.07</v>
       </c>
       <c r="V318">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="W318">
         <v>-1</v>
       </c>
       <c r="X318">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="Y318">
         <v>-1</v>
       </c>
       <c r="Z318">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA318">
-        <v>0.395</v>
+        <v>0.8899999999999999</v>
       </c>
       <c r="AB318">
-        <v>-0.5</v>
+        <v>1.07</v>
       </c>
       <c r="AC318">
-        <v>0.455</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="319" spans="1:29">
@@ -31876,7 +31876,7 @@
         <v>351</v>
       </c>
       <c r="B353">
-        <v>6809255</v>
+        <v>6809414</v>
       </c>
       <c r="C353" t="s">
         <v>28</v>
@@ -31888,10 +31888,10 @@
         <v>45241.60416666666</v>
       </c>
       <c r="F353" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G353" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="H353">
         <v>1</v>
@@ -31903,61 +31903,61 @@
         <v>54</v>
       </c>
       <c r="K353">
-        <v>1.75</v>
+        <v>2.5</v>
       </c>
       <c r="L353">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="M353">
-        <v>4.75</v>
+        <v>3</v>
       </c>
       <c r="N353">
-        <v>1.909</v>
+        <v>2.45</v>
       </c>
       <c r="O353">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="P353">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="Q353">
+        <v>-0.25</v>
+      </c>
+      <c r="R353">
+        <v>2.11</v>
+      </c>
+      <c r="S353">
+        <v>1.79</v>
+      </c>
+      <c r="T353">
+        <v>2.25</v>
+      </c>
+      <c r="U353">
+        <v>2.02</v>
+      </c>
+      <c r="V353">
+        <v>1.88</v>
+      </c>
+      <c r="W353">
+        <v>-1</v>
+      </c>
+      <c r="X353">
+        <v>2.1</v>
+      </c>
+      <c r="Y353">
+        <v>-1</v>
+      </c>
+      <c r="Z353">
         <v>-0.5</v>
       </c>
-      <c r="R353">
-        <v>1.97</v>
-      </c>
-      <c r="S353">
-        <v>1.93</v>
-      </c>
-      <c r="T353">
-        <v>2</v>
-      </c>
-      <c r="U353">
-        <v>1.75</v>
-      </c>
-      <c r="V353">
-        <v>2.05</v>
-      </c>
-      <c r="W353">
-        <v>-1</v>
-      </c>
-      <c r="X353">
-        <v>2.2</v>
-      </c>
-      <c r="Y353">
-        <v>-1</v>
-      </c>
-      <c r="Z353">
-        <v>-1</v>
-      </c>
       <c r="AA353">
-        <v>0.9299999999999999</v>
+        <v>0.395</v>
       </c>
       <c r="AB353">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AC353">
-        <v>-0</v>
+        <v>0.4399999999999999</v>
       </c>
     </row>
     <row r="354" spans="1:29">
@@ -31965,7 +31965,7 @@
         <v>352</v>
       </c>
       <c r="B354">
-        <v>6809414</v>
+        <v>6809255</v>
       </c>
       <c r="C354" t="s">
         <v>28</v>
@@ -31977,10 +31977,10 @@
         <v>45241.60416666666</v>
       </c>
       <c r="F354" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G354" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="H354">
         <v>1</v>
@@ -31992,61 +31992,61 @@
         <v>54</v>
       </c>
       <c r="K354">
-        <v>2.5</v>
+        <v>1.75</v>
       </c>
       <c r="L354">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="M354">
-        <v>3</v>
+        <v>4.75</v>
       </c>
       <c r="N354">
-        <v>2.45</v>
+        <v>1.909</v>
       </c>
       <c r="O354">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P354">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="Q354">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R354">
-        <v>2.11</v>
+        <v>1.97</v>
       </c>
       <c r="S354">
-        <v>1.79</v>
+        <v>1.93</v>
       </c>
       <c r="T354">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U354">
-        <v>2.02</v>
+        <v>1.75</v>
       </c>
       <c r="V354">
-        <v>1.88</v>
+        <v>2.05</v>
       </c>
       <c r="W354">
         <v>-1</v>
       </c>
       <c r="X354">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="Y354">
         <v>-1</v>
       </c>
       <c r="Z354">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA354">
-        <v>0.395</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="AB354">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AC354">
-        <v>0.4399999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="355" spans="1:29">
@@ -36148,7 +36148,7 @@
         <v>399</v>
       </c>
       <c r="B401">
-        <v>6809292</v>
+        <v>6809435</v>
       </c>
       <c r="C401" t="s">
         <v>28</v>
@@ -36160,49 +36160,49 @@
         <v>45279.72916666666</v>
       </c>
       <c r="F401" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="G401" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="H401">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I401">
         <v>3</v>
       </c>
       <c r="J401" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K401">
-        <v>2.875</v>
+        <v>1.333</v>
       </c>
       <c r="L401">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="M401">
-        <v>2.25</v>
+        <v>8</v>
       </c>
       <c r="N401">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="O401">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="P401">
-        <v>2.45</v>
+        <v>7</v>
       </c>
       <c r="Q401">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R401">
-        <v>1.78</v>
+        <v>1.83</v>
       </c>
       <c r="S401">
-        <v>2.125</v>
+        <v>2.07</v>
       </c>
       <c r="T401">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U401">
         <v>2.04</v>
@@ -36214,16 +36214,16 @@
         <v>-1</v>
       </c>
       <c r="X401">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y401">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="Z401">
         <v>-1</v>
       </c>
       <c r="AA401">
-        <v>1.125</v>
+        <v>1.07</v>
       </c>
       <c r="AB401">
         <v>1.04</v>
@@ -36237,7 +36237,7 @@
         <v>400</v>
       </c>
       <c r="B402">
-        <v>6809435</v>
+        <v>6809292</v>
       </c>
       <c r="C402" t="s">
         <v>28</v>
@@ -36249,49 +36249,49 @@
         <v>45279.72916666666</v>
       </c>
       <c r="F402" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="G402" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="H402">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I402">
         <v>3</v>
       </c>
       <c r="J402" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K402">
-        <v>1.333</v>
+        <v>2.875</v>
       </c>
       <c r="L402">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="M402">
-        <v>8</v>
+        <v>2.25</v>
       </c>
       <c r="N402">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="O402">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="P402">
-        <v>7</v>
+        <v>2.45</v>
       </c>
       <c r="Q402">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R402">
-        <v>1.83</v>
+        <v>1.78</v>
       </c>
       <c r="S402">
-        <v>2.07</v>
+        <v>2.125</v>
       </c>
       <c r="T402">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U402">
         <v>2.04</v>
@@ -36303,16 +36303,16 @@
         <v>-1</v>
       </c>
       <c r="X402">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y402">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="Z402">
         <v>-1</v>
       </c>
       <c r="AA402">
-        <v>1.07</v>
+        <v>1.125</v>
       </c>
       <c r="AB402">
         <v>1.04</v>
@@ -37394,7 +37394,7 @@
         <v>413</v>
       </c>
       <c r="B415">
-        <v>6809442</v>
+        <v>6809440</v>
       </c>
       <c r="C415" t="s">
         <v>28</v>
@@ -37406,58 +37406,58 @@
         <v>45294.63541666666</v>
       </c>
       <c r="F415" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="G415" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="H415">
+        <v>2</v>
+      </c>
+      <c r="I415">
         <v>1</v>
-      </c>
-      <c r="I415">
-        <v>0</v>
       </c>
       <c r="J415" t="s">
         <v>53</v>
       </c>
       <c r="K415">
-        <v>1.222</v>
+        <v>2.25</v>
       </c>
       <c r="L415">
-        <v>6.5</v>
+        <v>3.2</v>
       </c>
       <c r="M415">
-        <v>11</v>
+        <v>3.25</v>
       </c>
       <c r="N415">
-        <v>1.2</v>
+        <v>2.15</v>
       </c>
       <c r="O415">
-        <v>6.5</v>
+        <v>3.2</v>
       </c>
       <c r="P415">
-        <v>15</v>
+        <v>3.5</v>
       </c>
       <c r="Q415">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R415">
-        <v>1.95</v>
+        <v>1.89</v>
       </c>
       <c r="S415">
-        <v>1.98</v>
+        <v>2.04</v>
       </c>
       <c r="T415">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U415">
-        <v>2.02</v>
+        <v>1.86</v>
       </c>
       <c r="V415">
-        <v>1.88</v>
+        <v>2.04</v>
       </c>
       <c r="W415">
-        <v>0.2</v>
+        <v>1.15</v>
       </c>
       <c r="X415">
         <v>-1</v>
@@ -37466,16 +37466,16 @@
         <v>-1</v>
       </c>
       <c r="Z415">
-        <v>-1</v>
+        <v>0.8899999999999999</v>
       </c>
       <c r="AA415">
-        <v>0.98</v>
+        <v>-1</v>
       </c>
       <c r="AB415">
-        <v>-1</v>
+        <v>0.8600000000000001</v>
       </c>
       <c r="AC415">
-        <v>0.8799999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="416" spans="1:29">
@@ -37483,7 +37483,7 @@
         <v>414</v>
       </c>
       <c r="B416">
-        <v>6809440</v>
+        <v>6809442</v>
       </c>
       <c r="C416" t="s">
         <v>28</v>
@@ -37495,58 +37495,58 @@
         <v>45294.63541666666</v>
       </c>
       <c r="F416" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="G416" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="H416">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I416">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J416" t="s">
         <v>53</v>
       </c>
       <c r="K416">
-        <v>2.25</v>
+        <v>1.222</v>
       </c>
       <c r="L416">
-        <v>3.2</v>
+        <v>6.5</v>
       </c>
       <c r="M416">
-        <v>3.25</v>
+        <v>11</v>
       </c>
       <c r="N416">
-        <v>2.15</v>
+        <v>1.2</v>
       </c>
       <c r="O416">
-        <v>3.2</v>
+        <v>6.5</v>
       </c>
       <c r="P416">
-        <v>3.5</v>
+        <v>15</v>
       </c>
       <c r="Q416">
-        <v>-0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R416">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="S416">
-        <v>2.04</v>
+        <v>1.98</v>
       </c>
       <c r="T416">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U416">
-        <v>1.86</v>
+        <v>2.02</v>
       </c>
       <c r="V416">
-        <v>2.04</v>
+        <v>1.88</v>
       </c>
       <c r="W416">
-        <v>1.15</v>
+        <v>0.2</v>
       </c>
       <c r="X416">
         <v>-1</v>
@@ -37555,16 +37555,16 @@
         <v>-1</v>
       </c>
       <c r="Z416">
-        <v>0.8899999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA416">
-        <v>-1</v>
+        <v>0.98</v>
       </c>
       <c r="AB416">
-        <v>0.8600000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC416">
-        <v>-1</v>
+        <v>0.8799999999999999</v>
       </c>
     </row>
     <row r="417" spans="1:29">
@@ -43301,25 +43301,25 @@
         <v>3.6</v>
       </c>
       <c r="P481">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="Q481">
         <v>-0.75</v>
       </c>
       <c r="R481">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="S481">
-        <v>1.88</v>
+        <v>1.92</v>
       </c>
       <c r="T481">
         <v>2.25</v>
       </c>
       <c r="U481">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="V481">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="W481">
         <v>0</v>
@@ -43372,28 +43372,28 @@
         <v>2.8</v>
       </c>
       <c r="O482">
-        <v>2.75</v>
+        <v>2.875</v>
       </c>
       <c r="P482">
-        <v>2.8</v>
+        <v>2.875</v>
       </c>
       <c r="Q482">
         <v>0</v>
       </c>
       <c r="R482">
-        <v>1.99</v>
+        <v>1.93</v>
       </c>
       <c r="S482">
-        <v>1.91</v>
+        <v>1.97</v>
       </c>
       <c r="T482">
         <v>2</v>
       </c>
       <c r="U482">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="V482">
-        <v>2.05</v>
+        <v>2.04</v>
       </c>
       <c r="W482">
         <v>0</v>
@@ -43416,7 +43416,7 @@
         <v>481</v>
       </c>
       <c r="B483">
-        <v>6809476</v>
+        <v>6809330</v>
       </c>
       <c r="C483" t="s">
         <v>28</v>
@@ -43425,49 +43425,49 @@
         <v>28</v>
       </c>
       <c r="E483" s="2">
-        <v>45346.60416666666</v>
+        <v>45346.51041666666</v>
       </c>
       <c r="F483" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="G483" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="K483">
-        <v>1.95</v>
+        <v>1.4</v>
       </c>
       <c r="L483">
+        <v>5</v>
+      </c>
+      <c r="M483">
+        <v>7</v>
+      </c>
+      <c r="N483">
+        <v>1.4</v>
+      </c>
+      <c r="O483">
+        <v>5</v>
+      </c>
+      <c r="P483">
+        <v>7</v>
+      </c>
+      <c r="Q483">
+        <v>-1.25</v>
+      </c>
+      <c r="R483">
+        <v>1.97</v>
+      </c>
+      <c r="S483">
+        <v>1.93</v>
+      </c>
+      <c r="T483">
         <v>3</v>
       </c>
-      <c r="M483">
-        <v>4.5</v>
-      </c>
-      <c r="N483">
-        <v>1.909</v>
-      </c>
-      <c r="O483">
-        <v>3</v>
-      </c>
-      <c r="P483">
-        <v>4.75</v>
-      </c>
-      <c r="Q483">
-        <v>-0.5</v>
-      </c>
-      <c r="R483">
-        <v>1.95</v>
-      </c>
-      <c r="S483">
-        <v>1.95</v>
-      </c>
-      <c r="T483">
-        <v>1.75</v>
-      </c>
       <c r="U483">
-        <v>1.87</v>
+        <v>2.07</v>
       </c>
       <c r="V483">
-        <v>2.03</v>
+        <v>1.83</v>
       </c>
       <c r="W483">
         <v>0</v>
@@ -43490,7 +43490,7 @@
         <v>482</v>
       </c>
       <c r="B484">
-        <v>6809329</v>
+        <v>6809476</v>
       </c>
       <c r="C484" t="s">
         <v>28</v>
@@ -43499,49 +43499,49 @@
         <v>28</v>
       </c>
       <c r="E484" s="2">
-        <v>45346.70833333334</v>
+        <v>45346.60416666666</v>
       </c>
       <c r="F484" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="G484" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="K484">
-        <v>4.333</v>
+        <v>1.95</v>
       </c>
       <c r="L484">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="M484">
-        <v>1.727</v>
+        <v>4.5</v>
       </c>
       <c r="N484">
-        <v>4.75</v>
+        <v>1.909</v>
       </c>
       <c r="O484">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="P484">
-        <v>1.7</v>
+        <v>5</v>
       </c>
       <c r="Q484">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R484">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="S484">
-        <v>1.97</v>
+        <v>1.95</v>
       </c>
       <c r="T484">
-        <v>2.75</v>
+        <v>1.75</v>
       </c>
       <c r="U484">
-        <v>1.98</v>
+        <v>1.9</v>
       </c>
       <c r="V484">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="W484">
         <v>0</v>
@@ -43564,7 +43564,7 @@
         <v>483</v>
       </c>
       <c r="B485">
-        <v>6809474</v>
+        <v>6809329</v>
       </c>
       <c r="C485" t="s">
         <v>28</v>
@@ -43573,49 +43573,49 @@
         <v>28</v>
       </c>
       <c r="E485" s="2">
-        <v>45347.41666666666</v>
+        <v>45346.70833333334</v>
       </c>
       <c r="F485" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="G485" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K485">
+        <v>4.333</v>
+      </c>
+      <c r="L485">
+        <v>3.75</v>
+      </c>
+      <c r="M485">
+        <v>1.727</v>
+      </c>
+      <c r="N485">
+        <v>4.75</v>
+      </c>
+      <c r="O485">
+        <v>4</v>
+      </c>
+      <c r="P485">
+        <v>1.7</v>
+      </c>
+      <c r="Q485">
+        <v>0.75</v>
+      </c>
+      <c r="R485">
+        <v>1.91</v>
+      </c>
+      <c r="S485">
+        <v>1.99</v>
+      </c>
+      <c r="T485">
         <v>2.75</v>
       </c>
-      <c r="L485">
-        <v>2.875</v>
-      </c>
-      <c r="M485">
-        <v>2.75</v>
-      </c>
-      <c r="N485">
-        <v>3</v>
-      </c>
-      <c r="O485">
-        <v>3</v>
-      </c>
-      <c r="P485">
-        <v>2.55</v>
-      </c>
-      <c r="Q485">
-        <v>0</v>
-      </c>
-      <c r="R485">
-        <v>2.14</v>
-      </c>
-      <c r="S485">
-        <v>1.77</v>
-      </c>
-      <c r="T485">
-        <v>2</v>
-      </c>
       <c r="U485">
-        <v>2.02</v>
+        <v>1.99</v>
       </c>
       <c r="V485">
-        <v>1.88</v>
+        <v>1.91</v>
       </c>
       <c r="W485">
         <v>0</v>
@@ -43638,7 +43638,7 @@
         <v>484</v>
       </c>
       <c r="B486">
-        <v>6809477</v>
+        <v>6809474</v>
       </c>
       <c r="C486" t="s">
         <v>28</v>
@@ -43647,49 +43647,49 @@
         <v>28</v>
       </c>
       <c r="E486" s="2">
-        <v>45347.51041666666</v>
+        <v>45347.41666666666</v>
       </c>
       <c r="F486" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G486" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K486">
+        <v>2.75</v>
+      </c>
+      <c r="L486">
+        <v>2.875</v>
+      </c>
+      <c r="M486">
+        <v>2.75</v>
+      </c>
+      <c r="N486">
         <v>3.1</v>
-      </c>
-      <c r="L486">
-        <v>3</v>
-      </c>
-      <c r="M486">
-        <v>2.5</v>
-      </c>
-      <c r="N486">
-        <v>3.6</v>
       </c>
       <c r="O486">
         <v>3</v>
       </c>
       <c r="P486">
-        <v>2.15</v>
+        <v>2.5</v>
       </c>
       <c r="Q486">
         <v>0.25</v>
       </c>
       <c r="R486">
+        <v>1.76</v>
+      </c>
+      <c r="S486">
+        <v>2.155</v>
+      </c>
+      <c r="T486">
         <v>2</v>
       </c>
-      <c r="S486">
-        <v>1.9</v>
-      </c>
-      <c r="T486">
-        <v>2.25</v>
-      </c>
       <c r="U486">
-        <v>1.95</v>
+        <v>2.01</v>
       </c>
       <c r="V486">
-        <v>1.95</v>
+        <v>1.89</v>
       </c>
       <c r="W486">
         <v>0</v>
@@ -43712,7 +43712,7 @@
         <v>485</v>
       </c>
       <c r="B487">
-        <v>6809334</v>
+        <v>6809477</v>
       </c>
       <c r="C487" t="s">
         <v>28</v>
@@ -43721,34 +43721,34 @@
         <v>28</v>
       </c>
       <c r="E487" s="2">
-        <v>45347.60416666666</v>
+        <v>45347.51041666666</v>
       </c>
       <c r="F487" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G487" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="K487">
-        <v>2.4</v>
+        <v>3.1</v>
       </c>
       <c r="L487">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="M487">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="N487">
-        <v>2.375</v>
+        <v>3.6</v>
       </c>
       <c r="O487">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="P487">
-        <v>3.4</v>
+        <v>2.2</v>
       </c>
       <c r="Q487">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R487">
         <v>2.03</v>
@@ -43757,13 +43757,13 @@
         <v>1.87</v>
       </c>
       <c r="T487">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U487">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="V487">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="W487">
         <v>0</v>
@@ -43786,7 +43786,7 @@
         <v>486</v>
       </c>
       <c r="B488">
-        <v>6809332</v>
+        <v>6809334</v>
       </c>
       <c r="C488" t="s">
         <v>28</v>
@@ -43795,49 +43795,49 @@
         <v>28</v>
       </c>
       <c r="E488" s="2">
-        <v>45347.70833333334</v>
+        <v>45347.60416666666</v>
       </c>
       <c r="F488" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G488" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="K488">
-        <v>1.3</v>
+        <v>2.4</v>
       </c>
       <c r="L488">
-        <v>5.5</v>
+        <v>2.8</v>
       </c>
       <c r="M488">
-        <v>8.5</v>
+        <v>3.25</v>
       </c>
       <c r="N488">
-        <v>1.3</v>
+        <v>2.375</v>
       </c>
       <c r="O488">
-        <v>5.5</v>
+        <v>2.9</v>
       </c>
       <c r="P488">
-        <v>8.5</v>
+        <v>3.5</v>
       </c>
       <c r="Q488">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R488">
-        <v>1.86</v>
+        <v>2.03</v>
       </c>
       <c r="S488">
-        <v>2.04</v>
+        <v>1.87</v>
       </c>
       <c r="T488">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U488">
-        <v>1.84</v>
+        <v>1.95</v>
       </c>
       <c r="V488">
-        <v>2.06</v>
+        <v>1.95</v>
       </c>
       <c r="W488">
         <v>0</v>
@@ -43860,72 +43860,220 @@
         <v>487</v>
       </c>
       <c r="B489">
+        <v>6809332</v>
+      </c>
+      <c r="C489" t="s">
+        <v>28</v>
+      </c>
+      <c r="D489" t="s">
+        <v>28</v>
+      </c>
+      <c r="E489" s="2">
+        <v>45347.70833333334</v>
+      </c>
+      <c r="F489" t="s">
+        <v>47</v>
+      </c>
+      <c r="G489" t="s">
+        <v>36</v>
+      </c>
+      <c r="K489">
+        <v>1.3</v>
+      </c>
+      <c r="L489">
+        <v>5.5</v>
+      </c>
+      <c r="M489">
+        <v>8.5</v>
+      </c>
+      <c r="N489">
+        <v>1.285</v>
+      </c>
+      <c r="O489">
+        <v>6</v>
+      </c>
+      <c r="P489">
+        <v>9</v>
+      </c>
+      <c r="Q489">
+        <v>-1.5</v>
+      </c>
+      <c r="R489">
+        <v>1.86</v>
+      </c>
+      <c r="S489">
+        <v>2.04</v>
+      </c>
+      <c r="T489">
+        <v>3</v>
+      </c>
+      <c r="U489">
+        <v>1.82</v>
+      </c>
+      <c r="V489">
+        <v>2.08</v>
+      </c>
+      <c r="W489">
+        <v>0</v>
+      </c>
+      <c r="X489">
+        <v>0</v>
+      </c>
+      <c r="Y489">
+        <v>0</v>
+      </c>
+      <c r="Z489">
+        <v>0</v>
+      </c>
+      <c r="AA489">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="490" spans="1:27">
+      <c r="A490" s="1">
+        <v>488</v>
+      </c>
+      <c r="B490">
         <v>6809331</v>
       </c>
-      <c r="C489" t="s">
-        <v>28</v>
-      </c>
-      <c r="D489" t="s">
-        <v>28</v>
-      </c>
-      <c r="E489" s="2">
+      <c r="C490" t="s">
+        <v>28</v>
+      </c>
+      <c r="D490" t="s">
+        <v>28</v>
+      </c>
+      <c r="E490" s="2">
         <v>45348.70833333334</v>
       </c>
-      <c r="F489" t="s">
+      <c r="F490" t="s">
         <v>41</v>
       </c>
-      <c r="G489" t="s">
+      <c r="G490" t="s">
         <v>35</v>
       </c>
-      <c r="K489">
+      <c r="K490">
         <v>1.6</v>
       </c>
-      <c r="L489">
+      <c r="L490">
         <v>4.2</v>
       </c>
-      <c r="M489">
+      <c r="M490">
         <v>5</v>
       </c>
-      <c r="N489">
-        <v>1.615</v>
-      </c>
-      <c r="O489">
+      <c r="N490">
+        <v>1.65</v>
+      </c>
+      <c r="O490">
         <v>4.2</v>
       </c>
-      <c r="P489">
+      <c r="P490">
         <v>4.75</v>
       </c>
-      <c r="Q489">
+      <c r="Q490">
         <v>-0.75</v>
       </c>
-      <c r="R489">
-        <v>1.85</v>
-      </c>
-      <c r="S489">
-        <v>2.05</v>
-      </c>
-      <c r="T489">
+      <c r="R490">
+        <v>1.86</v>
+      </c>
+      <c r="S490">
+        <v>2.04</v>
+      </c>
+      <c r="T490">
         <v>2.75</v>
       </c>
-      <c r="U489">
+      <c r="U490">
         <v>1.95</v>
       </c>
-      <c r="V489">
+      <c r="V490">
         <v>1.95</v>
       </c>
-      <c r="W489">
-        <v>0</v>
-      </c>
-      <c r="X489">
-        <v>0</v>
-      </c>
-      <c r="Y489">
-        <v>0</v>
-      </c>
-      <c r="Z489">
-        <v>0</v>
-      </c>
-      <c r="AA489">
+      <c r="W490">
+        <v>0</v>
+      </c>
+      <c r="X490">
+        <v>0</v>
+      </c>
+      <c r="Y490">
+        <v>0</v>
+      </c>
+      <c r="Z490">
+        <v>0</v>
+      </c>
+      <c r="AA490">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="491" spans="1:27">
+      <c r="A491" s="1">
+        <v>489</v>
+      </c>
+      <c r="B491">
+        <v>6809335</v>
+      </c>
+      <c r="C491" t="s">
+        <v>28</v>
+      </c>
+      <c r="D491" t="s">
+        <v>28</v>
+      </c>
+      <c r="E491" s="2">
+        <v>45352.70833333334</v>
+      </c>
+      <c r="F491" t="s">
+        <v>39</v>
+      </c>
+      <c r="G491" t="s">
+        <v>34</v>
+      </c>
+      <c r="K491">
+        <v>1.75</v>
+      </c>
+      <c r="L491">
+        <v>3.75</v>
+      </c>
+      <c r="M491">
+        <v>4.333</v>
+      </c>
+      <c r="N491">
+        <v>1.75</v>
+      </c>
+      <c r="O491">
+        <v>3.75</v>
+      </c>
+      <c r="P491">
+        <v>4.333</v>
+      </c>
+      <c r="Q491">
+        <v>-0.75</v>
+      </c>
+      <c r="R491">
+        <v>2.02</v>
+      </c>
+      <c r="S491">
+        <v>1.88</v>
+      </c>
+      <c r="T491">
+        <v>2.5</v>
+      </c>
+      <c r="U491">
+        <v>1.95</v>
+      </c>
+      <c r="V491">
+        <v>1.95</v>
+      </c>
+      <c r="W491">
+        <v>0</v>
+      </c>
+      <c r="X491">
+        <v>0</v>
+      </c>
+      <c r="Y491">
+        <v>0</v>
+      </c>
+      <c r="Z491">
+        <v>0</v>
+      </c>
+      <c r="AA491">
         <v>0</v>
       </c>
     </row>

--- a/Spain Primera Liga/Spain Primera Liga.xlsx
+++ b/Spain Primera Liga/Spain Primera Liga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2467" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2468" uniqueCount="55">
   <si>
     <t>id</t>
   </si>
@@ -10071,7 +10071,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>5210911</v>
+        <v>5210915</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10083,76 +10083,76 @@
         <v>45004.51041666666</v>
       </c>
       <c r="F108" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G108" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J108" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K108">
-        <v>3</v>
+        <v>1.3</v>
       </c>
       <c r="L108">
-        <v>3.1</v>
+        <v>5</v>
       </c>
       <c r="M108">
-        <v>2.45</v>
+        <v>10</v>
       </c>
       <c r="N108">
-        <v>3</v>
+        <v>1.4</v>
       </c>
       <c r="O108">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="P108">
-        <v>2.5</v>
+        <v>9</v>
       </c>
       <c r="Q108">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R108">
-        <v>2.14</v>
+        <v>1.97</v>
       </c>
       <c r="S108">
-        <v>1.77</v>
+        <v>1.93</v>
       </c>
       <c r="T108">
         <v>2.25</v>
       </c>
       <c r="U108">
-        <v>2.06</v>
+        <v>1.85</v>
       </c>
       <c r="V108">
-        <v>1.84</v>
+        <v>2.05</v>
       </c>
       <c r="W108">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X108">
         <v>-1</v>
       </c>
       <c r="Y108">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z108">
-        <v>-1</v>
+        <v>0.97</v>
       </c>
       <c r="AA108">
-        <v>0.77</v>
+        <v>-1</v>
       </c>
       <c r="AB108">
-        <v>1.06</v>
+        <v>-0.5</v>
       </c>
       <c r="AC108">
-        <v>-1</v>
+        <v>0.5249999999999999</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -10160,7 +10160,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>5210915</v>
+        <v>5210911</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10172,76 +10172,76 @@
         <v>45004.51041666666</v>
       </c>
       <c r="F109" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G109" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H109">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J109" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K109">
-        <v>1.3</v>
+        <v>3</v>
       </c>
       <c r="L109">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="M109">
-        <v>10</v>
+        <v>2.45</v>
       </c>
       <c r="N109">
-        <v>1.4</v>
+        <v>3</v>
       </c>
       <c r="O109">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="P109">
-        <v>9</v>
+        <v>2.5</v>
       </c>
       <c r="Q109">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R109">
-        <v>1.97</v>
+        <v>2.14</v>
       </c>
       <c r="S109">
-        <v>1.93</v>
+        <v>1.77</v>
       </c>
       <c r="T109">
         <v>2.25</v>
       </c>
       <c r="U109">
-        <v>1.85</v>
+        <v>2.06</v>
       </c>
       <c r="V109">
-        <v>2.05</v>
+        <v>1.84</v>
       </c>
       <c r="W109">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X109">
         <v>-1</v>
       </c>
       <c r="Y109">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z109">
-        <v>0.97</v>
+        <v>-1</v>
       </c>
       <c r="AA109">
-        <v>-1</v>
+        <v>0.77</v>
       </c>
       <c r="AB109">
-        <v>-0.5</v>
+        <v>1.06</v>
       </c>
       <c r="AC109">
-        <v>0.5249999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="110" spans="1:29">
@@ -14432,7 +14432,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>5467507</v>
+        <v>5466353</v>
       </c>
       <c r="C157" t="s">
         <v>28</v>
@@ -14444,58 +14444,58 @@
         <v>45042.70833333334</v>
       </c>
       <c r="F157" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G157" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="H157">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I157">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J157" t="s">
         <v>53</v>
       </c>
       <c r="K157">
+        <v>1.4</v>
+      </c>
+      <c r="L157">
         <v>4.5</v>
       </c>
-      <c r="L157">
-        <v>4</v>
-      </c>
       <c r="M157">
-        <v>1.7</v>
+        <v>7.5</v>
       </c>
       <c r="N157">
+        <v>1.363</v>
+      </c>
+      <c r="O157">
         <v>5</v>
       </c>
-      <c r="O157">
-        <v>3.8</v>
-      </c>
       <c r="P157">
-        <v>1.7</v>
+        <v>8</v>
       </c>
       <c r="Q157">
-        <v>0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R157">
-        <v>1.95</v>
+        <v>1.87</v>
       </c>
       <c r="S157">
-        <v>1.95</v>
+        <v>2.03</v>
       </c>
       <c r="T157">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U157">
-        <v>1.85</v>
+        <v>1.96</v>
       </c>
       <c r="V157">
-        <v>2.05</v>
+        <v>1.94</v>
       </c>
       <c r="W157">
-        <v>4</v>
+        <v>0.363</v>
       </c>
       <c r="X157">
         <v>-1</v>
@@ -14504,16 +14504,16 @@
         <v>-1</v>
       </c>
       <c r="Z157">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AA157">
-        <v>-1</v>
+        <v>0.5149999999999999</v>
       </c>
       <c r="AB157">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC157">
-        <v>-1</v>
+        <v>0.9399999999999999</v>
       </c>
     </row>
     <row r="158" spans="1:29">
@@ -14521,7 +14521,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>5466353</v>
+        <v>5467507</v>
       </c>
       <c r="C158" t="s">
         <v>28</v>
@@ -14533,58 +14533,58 @@
         <v>45042.70833333334</v>
       </c>
       <c r="F158" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G158" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="H158">
+        <v>2</v>
+      </c>
+      <c r="I158">
         <v>1</v>
-      </c>
-      <c r="I158">
-        <v>0</v>
       </c>
       <c r="J158" t="s">
         <v>53</v>
       </c>
       <c r="K158">
-        <v>1.4</v>
+        <v>4.5</v>
       </c>
       <c r="L158">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="M158">
-        <v>7.5</v>
+        <v>1.7</v>
       </c>
       <c r="N158">
-        <v>1.363</v>
+        <v>5</v>
       </c>
       <c r="O158">
-        <v>5</v>
+        <v>3.8</v>
       </c>
       <c r="P158">
-        <v>8</v>
+        <v>1.7</v>
       </c>
       <c r="Q158">
-        <v>-1.25</v>
+        <v>0.75</v>
       </c>
       <c r="R158">
-        <v>1.87</v>
+        <v>1.95</v>
       </c>
       <c r="S158">
-        <v>2.03</v>
+        <v>1.95</v>
       </c>
       <c r="T158">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U158">
-        <v>1.96</v>
+        <v>1.85</v>
       </c>
       <c r="V158">
-        <v>1.94</v>
+        <v>2.05</v>
       </c>
       <c r="W158">
-        <v>0.363</v>
+        <v>4</v>
       </c>
       <c r="X158">
         <v>-1</v>
@@ -14593,16 +14593,16 @@
         <v>-1</v>
       </c>
       <c r="Z158">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AA158">
-        <v>0.5149999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB158">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC158">
-        <v>0.9399999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="159" spans="1:29">
@@ -14610,7 +14610,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>5466355</v>
+        <v>5466354</v>
       </c>
       <c r="C159" t="s">
         <v>28</v>
@@ -14622,49 +14622,49 @@
         <v>45043.60416666666</v>
       </c>
       <c r="F159" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G159" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H159">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I159">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J159" t="s">
         <v>53</v>
       </c>
       <c r="K159">
-        <v>1.55</v>
+        <v>1.666</v>
       </c>
       <c r="L159">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="M159">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="N159">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="O159">
-        <v>4.333</v>
+        <v>3.8</v>
       </c>
       <c r="P159">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q159">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R159">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="S159">
-        <v>1.99</v>
+        <v>1.95</v>
       </c>
       <c r="T159">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U159">
         <v>1.93</v>
@@ -14673,7 +14673,7 @@
         <v>1.97</v>
       </c>
       <c r="W159">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="X159">
         <v>-1</v>
@@ -14682,10 +14682,10 @@
         <v>-1</v>
       </c>
       <c r="Z159">
-        <v>0.9099999999999999</v>
+        <v>0.475</v>
       </c>
       <c r="AA159">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB159">
         <v>0.9299999999999999</v>
@@ -14699,7 +14699,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>5466354</v>
+        <v>5466355</v>
       </c>
       <c r="C160" t="s">
         <v>28</v>
@@ -14711,49 +14711,49 @@
         <v>45043.60416666666</v>
       </c>
       <c r="F160" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G160" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H160">
+        <v>4</v>
+      </c>
+      <c r="I160">
         <v>2</v>
-      </c>
-      <c r="I160">
-        <v>1</v>
       </c>
       <c r="J160" t="s">
         <v>53</v>
       </c>
       <c r="K160">
-        <v>1.666</v>
+        <v>1.55</v>
       </c>
       <c r="L160">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="M160">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="N160">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="O160">
-        <v>3.8</v>
+        <v>4.333</v>
       </c>
       <c r="P160">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q160">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R160">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="S160">
-        <v>1.95</v>
+        <v>1.99</v>
       </c>
       <c r="T160">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U160">
         <v>1.93</v>
@@ -14762,7 +14762,7 @@
         <v>1.97</v>
       </c>
       <c r="W160">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="X160">
         <v>-1</v>
@@ -14771,10 +14771,10 @@
         <v>-1</v>
       </c>
       <c r="Z160">
-        <v>0.475</v>
+        <v>0.9099999999999999</v>
       </c>
       <c r="AA160">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB160">
         <v>0.9299999999999999</v>
@@ -17814,7 +17814,7 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>5611042</v>
+        <v>5611043</v>
       </c>
       <c r="C195" t="s">
         <v>28</v>
@@ -17826,76 +17826,76 @@
         <v>45066.5625</v>
       </c>
       <c r="F195" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="G195" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H195">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I195">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J195" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K195">
-        <v>2.3</v>
+        <v>1.5</v>
       </c>
       <c r="L195">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="M195">
-        <v>3.2</v>
+        <v>6.5</v>
       </c>
       <c r="N195">
-        <v>2.25</v>
+        <v>1.65</v>
       </c>
       <c r="O195">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="P195">
-        <v>3.3</v>
+        <v>6</v>
       </c>
       <c r="Q195">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R195">
-        <v>1.95</v>
+        <v>1.89</v>
       </c>
       <c r="S195">
-        <v>1.95</v>
+        <v>2.01</v>
       </c>
       <c r="T195">
         <v>2.25</v>
       </c>
       <c r="U195">
-        <v>1.9</v>
+        <v>2.09</v>
       </c>
       <c r="V195">
-        <v>2</v>
+        <v>1.81</v>
       </c>
       <c r="W195">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X195">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y195">
         <v>-1</v>
       </c>
       <c r="Z195">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA195">
-        <v>-1</v>
+        <v>1.01</v>
       </c>
       <c r="AB195">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AC195">
-        <v>-1</v>
+        <v>0.405</v>
       </c>
     </row>
     <row r="196" spans="1:29">
@@ -17903,7 +17903,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>5611043</v>
+        <v>5611042</v>
       </c>
       <c r="C196" t="s">
         <v>28</v>
@@ -17915,76 +17915,76 @@
         <v>45066.5625</v>
       </c>
       <c r="F196" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="G196" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H196">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I196">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J196" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K196">
-        <v>1.5</v>
+        <v>2.3</v>
       </c>
       <c r="L196">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="M196">
-        <v>6.5</v>
+        <v>3.2</v>
       </c>
       <c r="N196">
-        <v>1.65</v>
+        <v>2.25</v>
       </c>
       <c r="O196">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="P196">
-        <v>6</v>
+        <v>3.3</v>
       </c>
       <c r="Q196">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R196">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="S196">
-        <v>2.01</v>
+        <v>1.95</v>
       </c>
       <c r="T196">
         <v>2.25</v>
       </c>
       <c r="U196">
-        <v>2.09</v>
+        <v>1.9</v>
       </c>
       <c r="V196">
-        <v>1.81</v>
+        <v>2</v>
       </c>
       <c r="W196">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X196">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y196">
         <v>-1</v>
       </c>
       <c r="Z196">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA196">
-        <v>1.01</v>
+        <v>-1</v>
       </c>
       <c r="AB196">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC196">
-        <v>0.405</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="197" spans="1:29">
@@ -18704,7 +18704,7 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>5634388</v>
+        <v>5638885</v>
       </c>
       <c r="C205" t="s">
         <v>28</v>
@@ -18716,58 +18716,58 @@
         <v>45070.60416666666</v>
       </c>
       <c r="F205" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="G205" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="H205">
         <v>2</v>
       </c>
       <c r="I205">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J205" t="s">
         <v>53</v>
       </c>
       <c r="K205">
-        <v>1.45</v>
+        <v>1.363</v>
       </c>
       <c r="L205">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="M205">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="N205">
-        <v>1.45</v>
+        <v>1.363</v>
       </c>
       <c r="O205">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="P205">
-        <v>6</v>
+        <v>7.5</v>
       </c>
       <c r="Q205">
-        <v>-1.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R205">
+        <v>2.06</v>
+      </c>
+      <c r="S205">
+        <v>1.84</v>
+      </c>
+      <c r="T205">
+        <v>3.25</v>
+      </c>
+      <c r="U205">
         <v>2.07</v>
       </c>
-      <c r="S205">
+      <c r="V205">
         <v>1.83</v>
       </c>
-      <c r="T205">
-        <v>3</v>
-      </c>
-      <c r="U205">
-        <v>1.92</v>
-      </c>
-      <c r="V205">
-        <v>1.98</v>
-      </c>
       <c r="W205">
-        <v>0.45</v>
+        <v>0.363</v>
       </c>
       <c r="X205">
         <v>-1</v>
@@ -18776,16 +18776,16 @@
         <v>-1</v>
       </c>
       <c r="Z205">
-        <v>1.07</v>
+        <v>-1</v>
       </c>
       <c r="AA205">
-        <v>-1</v>
+        <v>0.8400000000000001</v>
       </c>
       <c r="AB205">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC205">
-        <v>0.98</v>
+        <v>0.415</v>
       </c>
     </row>
     <row r="206" spans="1:29">
@@ -18793,7 +18793,7 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>5638885</v>
+        <v>5634388</v>
       </c>
       <c r="C206" t="s">
         <v>28</v>
@@ -18805,58 +18805,58 @@
         <v>45070.60416666666</v>
       </c>
       <c r="F206" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="G206" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="H206">
         <v>2</v>
       </c>
       <c r="I206">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J206" t="s">
         <v>53</v>
       </c>
       <c r="K206">
-        <v>1.363</v>
+        <v>1.45</v>
       </c>
       <c r="L206">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="M206">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="N206">
-        <v>1.363</v>
+        <v>1.45</v>
       </c>
       <c r="O206">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="P206">
-        <v>7.5</v>
+        <v>6</v>
       </c>
       <c r="Q206">
-        <v>-1.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R206">
-        <v>2.06</v>
+        <v>2.07</v>
       </c>
       <c r="S206">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="T206">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U206">
-        <v>2.07</v>
+        <v>1.92</v>
       </c>
       <c r="V206">
-        <v>1.83</v>
+        <v>1.98</v>
       </c>
       <c r="W206">
-        <v>0.363</v>
+        <v>0.45</v>
       </c>
       <c r="X206">
         <v>-1</v>
@@ -18865,16 +18865,16 @@
         <v>-1</v>
       </c>
       <c r="Z206">
-        <v>-1</v>
+        <v>1.07</v>
       </c>
       <c r="AA206">
-        <v>0.8400000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB206">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC206">
-        <v>0.415</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="207" spans="1:29">
@@ -18971,7 +18971,7 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>5642104</v>
+        <v>5643107</v>
       </c>
       <c r="C208" t="s">
         <v>28</v>
@@ -18983,76 +18983,76 @@
         <v>45070.70833333334</v>
       </c>
       <c r="F208" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="G208" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="H208">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I208">
+        <v>3</v>
+      </c>
+      <c r="J208" t="s">
+        <v>54</v>
+      </c>
+      <c r="K208">
+        <v>4</v>
+      </c>
+      <c r="L208">
+        <v>3.75</v>
+      </c>
+      <c r="M208">
+        <v>1.833</v>
+      </c>
+      <c r="N208">
+        <v>3</v>
+      </c>
+      <c r="O208">
+        <v>3.5</v>
+      </c>
+      <c r="P208">
+        <v>2.3</v>
+      </c>
+      <c r="Q208">
+        <v>0.25</v>
+      </c>
+      <c r="R208">
+        <v>1.82</v>
+      </c>
+      <c r="S208">
+        <v>2.11</v>
+      </c>
+      <c r="T208">
+        <v>2.75</v>
+      </c>
+      <c r="U208">
+        <v>2</v>
+      </c>
+      <c r="V208">
+        <v>1.9</v>
+      </c>
+      <c r="W208">
+        <v>-1</v>
+      </c>
+      <c r="X208">
+        <v>2.5</v>
+      </c>
+      <c r="Y208">
+        <v>-1</v>
+      </c>
+      <c r="Z208">
+        <v>0.41</v>
+      </c>
+      <c r="AA208">
+        <v>-0.5</v>
+      </c>
+      <c r="AB208">
         <v>1</v>
       </c>
-      <c r="J208" t="s">
-        <v>52</v>
-      </c>
-      <c r="K208">
-        <v>1.909</v>
-      </c>
-      <c r="L208">
-        <v>3.25</v>
-      </c>
-      <c r="M208">
-        <v>4.333</v>
-      </c>
-      <c r="N208">
-        <v>2.25</v>
-      </c>
-      <c r="O208">
-        <v>2.9</v>
-      </c>
-      <c r="P208">
-        <v>3.75</v>
-      </c>
-      <c r="Q208">
-        <v>-0.25</v>
-      </c>
-      <c r="R208">
-        <v>1.96</v>
-      </c>
-      <c r="S208">
-        <v>1.97</v>
-      </c>
-      <c r="T208">
-        <v>1.75</v>
-      </c>
-      <c r="U208">
-        <v>1.81</v>
-      </c>
-      <c r="V208">
-        <v>2.09</v>
-      </c>
-      <c r="W208">
-        <v>-1</v>
-      </c>
-      <c r="X208">
-        <v>-1</v>
-      </c>
-      <c r="Y208">
-        <v>2.75</v>
-      </c>
-      <c r="Z208">
-        <v>-1</v>
-      </c>
-      <c r="AA208">
-        <v>0.97</v>
-      </c>
-      <c r="AB208">
-        <v>-1</v>
-      </c>
       <c r="AC208">
-        <v>1.09</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="209" spans="1:29">
@@ -19060,7 +19060,7 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>5643107</v>
+        <v>5642104</v>
       </c>
       <c r="C209" t="s">
         <v>28</v>
@@ -19072,76 +19072,76 @@
         <v>45070.70833333334</v>
       </c>
       <c r="F209" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="G209" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="H209">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I209">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J209" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K209">
-        <v>4</v>
+        <v>1.909</v>
       </c>
       <c r="L209">
+        <v>3.25</v>
+      </c>
+      <c r="M209">
+        <v>4.333</v>
+      </c>
+      <c r="N209">
+        <v>2.25</v>
+      </c>
+      <c r="O209">
+        <v>2.9</v>
+      </c>
+      <c r="P209">
         <v>3.75</v>
       </c>
-      <c r="M209">
-        <v>1.833</v>
-      </c>
-      <c r="N209">
-        <v>3</v>
-      </c>
-      <c r="O209">
-        <v>3.5</v>
-      </c>
-      <c r="P209">
-        <v>2.3</v>
-      </c>
       <c r="Q209">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R209">
-        <v>1.82</v>
+        <v>1.96</v>
       </c>
       <c r="S209">
-        <v>2.11</v>
+        <v>1.97</v>
       </c>
       <c r="T209">
+        <v>1.75</v>
+      </c>
+      <c r="U209">
+        <v>1.81</v>
+      </c>
+      <c r="V209">
+        <v>2.09</v>
+      </c>
+      <c r="W209">
+        <v>-1</v>
+      </c>
+      <c r="X209">
+        <v>-1</v>
+      </c>
+      <c r="Y209">
         <v>2.75</v>
       </c>
-      <c r="U209">
-        <v>2</v>
-      </c>
-      <c r="V209">
-        <v>1.9</v>
-      </c>
-      <c r="W209">
-        <v>-1</v>
-      </c>
-      <c r="X209">
-        <v>2.5</v>
-      </c>
-      <c r="Y209">
-        <v>-1</v>
-      </c>
       <c r="Z209">
-        <v>0.41</v>
+        <v>-1</v>
       </c>
       <c r="AA209">
-        <v>-0.5</v>
+        <v>0.97</v>
       </c>
       <c r="AB209">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC209">
-        <v>-1</v>
+        <v>1.09</v>
       </c>
     </row>
     <row r="210" spans="1:29">
@@ -19416,7 +19416,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>5703047</v>
+        <v>5705884</v>
       </c>
       <c r="C213" t="s">
         <v>28</v>
@@ -19428,76 +19428,76 @@
         <v>45074.58333333334</v>
       </c>
       <c r="F213" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G213" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="H213">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I213">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J213" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K213">
-        <v>1.5</v>
+        <v>2.2</v>
       </c>
       <c r="L213">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="M213">
-        <v>6</v>
+        <v>3.1</v>
       </c>
       <c r="N213">
-        <v>1.25</v>
+        <v>1.909</v>
       </c>
       <c r="O213">
-        <v>5.75</v>
+        <v>3.6</v>
       </c>
       <c r="P213">
-        <v>12</v>
+        <v>3.8</v>
       </c>
       <c r="Q213">
-        <v>-1.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R213">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="S213">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="T213">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U213">
-        <v>1.93</v>
+        <v>1.99</v>
       </c>
       <c r="V213">
-        <v>1.97</v>
+        <v>1.91</v>
       </c>
       <c r="W213">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="X213">
         <v>-1</v>
       </c>
       <c r="Y213">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Z213">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA213">
-        <v>-1</v>
+        <v>0.9199999999999999</v>
       </c>
       <c r="AB213">
-        <v>0</v>
+        <v>0.99</v>
       </c>
       <c r="AC213">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="214" spans="1:29">
@@ -19505,7 +19505,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>5701613</v>
+        <v>5701612</v>
       </c>
       <c r="C214" t="s">
         <v>28</v>
@@ -19517,58 +19517,58 @@
         <v>45074.58333333334</v>
       </c>
       <c r="F214" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G214" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H214">
+        <v>2</v>
+      </c>
+      <c r="I214">
         <v>1</v>
-      </c>
-      <c r="I214">
-        <v>0</v>
       </c>
       <c r="J214" t="s">
         <v>53</v>
       </c>
       <c r="K214">
-        <v>2.6</v>
+        <v>1.909</v>
       </c>
       <c r="L214">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M214">
-        <v>2.7</v>
+        <v>4</v>
       </c>
       <c r="N214">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="O214">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="P214">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="Q214">
         <v>-0.25</v>
       </c>
       <c r="R214">
-        <v>2.075</v>
+        <v>2.1</v>
       </c>
       <c r="S214">
-        <v>1.725</v>
+        <v>1.8</v>
       </c>
       <c r="T214">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="U214">
-        <v>1.95</v>
+        <v>1.82</v>
       </c>
       <c r="V214">
-        <v>1.95</v>
+        <v>2.08</v>
       </c>
       <c r="W214">
-        <v>1.45</v>
+        <v>1.4</v>
       </c>
       <c r="X214">
         <v>-1</v>
@@ -19577,16 +19577,16 @@
         <v>-1</v>
       </c>
       <c r="Z214">
-        <v>1.075</v>
+        <v>1.1</v>
       </c>
       <c r="AA214">
         <v>-1</v>
       </c>
       <c r="AB214">
-        <v>-1</v>
+        <v>0.8200000000000001</v>
       </c>
       <c r="AC214">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="215" spans="1:29">
@@ -19594,7 +19594,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>5697402</v>
+        <v>5705727</v>
       </c>
       <c r="C215" t="s">
         <v>28</v>
@@ -19606,76 +19606,76 @@
         <v>45074.58333333334</v>
       </c>
       <c r="F215" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G215" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H215">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I215">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J215" t="s">
         <v>54</v>
       </c>
       <c r="K215">
-        <v>2.25</v>
+        <v>1.909</v>
       </c>
       <c r="L215">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M215">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="N215">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="O215">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P215">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="Q215">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R215">
-        <v>1.97</v>
+        <v>2.025</v>
       </c>
       <c r="S215">
-        <v>1.93</v>
+        <v>1.775</v>
       </c>
       <c r="T215">
         <v>2.5</v>
       </c>
       <c r="U215">
-        <v>1.86</v>
+        <v>2.07</v>
       </c>
       <c r="V215">
-        <v>2.04</v>
+        <v>1.83</v>
       </c>
       <c r="W215">
         <v>-1</v>
       </c>
       <c r="X215">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="Y215">
         <v>-1</v>
       </c>
       <c r="Z215">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA215">
-        <v>0.465</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB215">
-        <v>-1</v>
+        <v>1.07</v>
       </c>
       <c r="AC215">
-        <v>1.04</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="216" spans="1:29">
@@ -19683,7 +19683,7 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>5697401</v>
+        <v>5697402</v>
       </c>
       <c r="C216" t="s">
         <v>28</v>
@@ -19695,76 +19695,76 @@
         <v>45074.58333333334</v>
       </c>
       <c r="F216" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G216" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H216">
         <v>0</v>
       </c>
       <c r="I216">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J216" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K216">
-        <v>1.4</v>
+        <v>2.25</v>
       </c>
       <c r="L216">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="M216">
-        <v>8</v>
+        <v>3.1</v>
       </c>
       <c r="N216">
-        <v>1.4</v>
+        <v>2.2</v>
       </c>
       <c r="O216">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="P216">
-        <v>8</v>
+        <v>3.3</v>
       </c>
       <c r="Q216">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R216">
-        <v>1.95</v>
+        <v>1.97</v>
       </c>
       <c r="S216">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="T216">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U216">
-        <v>1.91</v>
+        <v>1.86</v>
       </c>
       <c r="V216">
-        <v>1.99</v>
+        <v>2.04</v>
       </c>
       <c r="W216">
         <v>-1</v>
       </c>
       <c r="X216">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y216">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="Z216">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA216">
-        <v>0.95</v>
+        <v>0.465</v>
       </c>
       <c r="AB216">
         <v>-1</v>
       </c>
       <c r="AC216">
-        <v>0.99</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="217" spans="1:29">
@@ -19772,7 +19772,7 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>5701612</v>
+        <v>5713343</v>
       </c>
       <c r="C217" t="s">
         <v>28</v>
@@ -19784,10 +19784,10 @@
         <v>45074.58333333334</v>
       </c>
       <c r="F217" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="G217" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="H217">
         <v>2</v>
@@ -19799,43 +19799,43 @@
         <v>53</v>
       </c>
       <c r="K217">
-        <v>1.909</v>
+        <v>2.875</v>
       </c>
       <c r="L217">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M217">
-        <v>4</v>
+        <v>2.3</v>
       </c>
       <c r="N217">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="O217">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="P217">
-        <v>3.5</v>
+        <v>2.2</v>
       </c>
       <c r="Q217">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R217">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="S217">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T217">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="U217">
-        <v>1.82</v>
+        <v>2.06</v>
       </c>
       <c r="V217">
-        <v>2.08</v>
+        <v>1.84</v>
       </c>
       <c r="W217">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="X217">
         <v>-1</v>
@@ -19844,16 +19844,16 @@
         <v>-1</v>
       </c>
       <c r="Z217">
-        <v>1.1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA217">
         <v>-1</v>
       </c>
       <c r="AB217">
-        <v>0.8200000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC217">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="218" spans="1:29">
@@ -19861,7 +19861,7 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>5705884</v>
+        <v>5697401</v>
       </c>
       <c r="C218" t="s">
         <v>28</v>
@@ -19873,56 +19873,56 @@
         <v>45074.58333333334</v>
       </c>
       <c r="F218" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G218" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="H218">
+        <v>0</v>
+      </c>
+      <c r="I218">
         <v>1</v>
-      </c>
-      <c r="I218">
-        <v>2</v>
       </c>
       <c r="J218" t="s">
         <v>52</v>
       </c>
       <c r="K218">
-        <v>2.2</v>
+        <v>1.4</v>
       </c>
       <c r="L218">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="M218">
-        <v>3.1</v>
+        <v>8</v>
       </c>
       <c r="N218">
-        <v>1.909</v>
+        <v>1.4</v>
       </c>
       <c r="O218">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="P218">
-        <v>3.8</v>
+        <v>8</v>
       </c>
       <c r="Q218">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R218">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="S218">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="T218">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U218">
+        <v>1.91</v>
+      </c>
+      <c r="V218">
         <v>1.99</v>
       </c>
-      <c r="V218">
-        <v>1.91</v>
-      </c>
       <c r="W218">
         <v>-1</v>
       </c>
@@ -19930,19 +19930,19 @@
         <v>-1</v>
       </c>
       <c r="Y218">
-        <v>2.8</v>
+        <v>7</v>
       </c>
       <c r="Z218">
         <v>-1</v>
       </c>
       <c r="AA218">
-        <v>0.9199999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AB218">
+        <v>-1</v>
+      </c>
+      <c r="AC218">
         <v>0.99</v>
-      </c>
-      <c r="AC218">
-        <v>-1</v>
       </c>
     </row>
     <row r="219" spans="1:29">
@@ -19950,7 +19950,7 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>5713343</v>
+        <v>5701613</v>
       </c>
       <c r="C219" t="s">
         <v>28</v>
@@ -19962,58 +19962,58 @@
         <v>45074.58333333334</v>
       </c>
       <c r="F219" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="G219" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="H219">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I219">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J219" t="s">
         <v>53</v>
       </c>
       <c r="K219">
-        <v>2.875</v>
+        <v>2.6</v>
       </c>
       <c r="L219">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M219">
-        <v>2.3</v>
+        <v>2.7</v>
       </c>
       <c r="N219">
-        <v>3</v>
+        <v>2.45</v>
       </c>
       <c r="O219">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="P219">
-        <v>2.2</v>
+        <v>3.1</v>
       </c>
       <c r="Q219">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R219">
-        <v>1.9</v>
+        <v>2.075</v>
       </c>
       <c r="S219">
+        <v>1.725</v>
+      </c>
+      <c r="T219">
         <v>2</v>
       </c>
-      <c r="T219">
-        <v>3</v>
-      </c>
       <c r="U219">
-        <v>2.06</v>
+        <v>1.95</v>
       </c>
       <c r="V219">
-        <v>1.84</v>
+        <v>1.95</v>
       </c>
       <c r="W219">
-        <v>2</v>
+        <v>1.45</v>
       </c>
       <c r="X219">
         <v>-1</v>
@@ -20022,16 +20022,16 @@
         <v>-1</v>
       </c>
       <c r="Z219">
-        <v>0.8999999999999999</v>
+        <v>1.075</v>
       </c>
       <c r="AA219">
         <v>-1</v>
       </c>
       <c r="AB219">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC219">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="220" spans="1:29">
@@ -20039,7 +20039,7 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>5705727</v>
+        <v>5703047</v>
       </c>
       <c r="C220" t="s">
         <v>28</v>
@@ -20051,76 +20051,76 @@
         <v>45074.58333333334</v>
       </c>
       <c r="F220" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="G220" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H220">
+        <v>3</v>
+      </c>
+      <c r="I220">
+        <v>0</v>
+      </c>
+      <c r="J220" t="s">
+        <v>53</v>
+      </c>
+      <c r="K220">
+        <v>1.5</v>
+      </c>
+      <c r="L220">
+        <v>4.5</v>
+      </c>
+      <c r="M220">
+        <v>6</v>
+      </c>
+      <c r="N220">
+        <v>1.25</v>
+      </c>
+      <c r="O220">
+        <v>5.75</v>
+      </c>
+      <c r="P220">
+        <v>12</v>
+      </c>
+      <c r="Q220">
+        <v>-1.75</v>
+      </c>
+      <c r="R220">
         <v>2</v>
       </c>
-      <c r="I220">
-        <v>2</v>
-      </c>
-      <c r="J220" t="s">
-        <v>54</v>
-      </c>
-      <c r="K220">
-        <v>1.909</v>
-      </c>
-      <c r="L220">
-        <v>3.6</v>
-      </c>
-      <c r="M220">
-        <v>3.75</v>
-      </c>
-      <c r="N220">
-        <v>2</v>
-      </c>
-      <c r="O220">
-        <v>3.5</v>
-      </c>
-      <c r="P220">
-        <v>3.6</v>
-      </c>
-      <c r="Q220">
-        <v>-0.5</v>
-      </c>
-      <c r="R220">
-        <v>2.025</v>
-      </c>
       <c r="S220">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="T220">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U220">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="V220">
-        <v>1.83</v>
+        <v>1.97</v>
       </c>
       <c r="W220">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X220">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y220">
         <v>-1</v>
       </c>
       <c r="Z220">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA220">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB220">
-        <v>1.07</v>
+        <v>0</v>
       </c>
       <c r="AC220">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="221" spans="1:29">
@@ -20128,7 +20128,7 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>5732767</v>
+        <v>5776609</v>
       </c>
       <c r="C221" t="s">
         <v>28</v>
@@ -20140,49 +20140,49 @@
         <v>45081.5625</v>
       </c>
       <c r="F221" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="G221" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H221">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I221">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J221" t="s">
         <v>53</v>
       </c>
       <c r="K221">
-        <v>3.4</v>
+        <v>2.25</v>
       </c>
       <c r="L221">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M221">
-        <v>2.15</v>
+        <v>2.9</v>
       </c>
       <c r="N221">
-        <v>3</v>
+        <v>1.571</v>
       </c>
       <c r="O221">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="P221">
-        <v>2.45</v>
+        <v>5.75</v>
       </c>
       <c r="Q221">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R221">
-        <v>1.8</v>
+        <v>2.01</v>
       </c>
       <c r="S221">
-        <v>2.14</v>
+        <v>1.89</v>
       </c>
       <c r="T221">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U221">
         <v>1.89</v>
@@ -20191,7 +20191,7 @@
         <v>2.01</v>
       </c>
       <c r="W221">
-        <v>2</v>
+        <v>0.571</v>
       </c>
       <c r="X221">
         <v>-1</v>
@@ -20200,10 +20200,10 @@
         <v>-1</v>
       </c>
       <c r="Z221">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AA221">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB221">
         <v>0.8899999999999999</v>
@@ -20217,7 +20217,7 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>5776610</v>
+        <v>5734136</v>
       </c>
       <c r="C222" t="s">
         <v>28</v>
@@ -20229,76 +20229,76 @@
         <v>45081.5625</v>
       </c>
       <c r="F222" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="G222" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H222">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I222">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J222" t="s">
         <v>54</v>
       </c>
       <c r="K222">
-        <v>2.75</v>
+        <v>1.95</v>
       </c>
       <c r="L222">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M222">
-        <v>2.45</v>
+        <v>3.6</v>
       </c>
       <c r="N222">
-        <v>2.625</v>
+        <v>1.65</v>
       </c>
       <c r="O222">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P222">
-        <v>2.45</v>
+        <v>4.75</v>
       </c>
       <c r="Q222">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R222">
-        <v>2.04</v>
+        <v>1.84</v>
       </c>
       <c r="S222">
-        <v>1.86</v>
+        <v>2.06</v>
       </c>
       <c r="T222">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U222">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="V222">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="W222">
         <v>-1</v>
       </c>
       <c r="X222">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Y222">
         <v>-1</v>
       </c>
       <c r="Z222">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA222">
-        <v>-0</v>
+        <v>1.06</v>
       </c>
       <c r="AB222">
-        <v>0.8799999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC222">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="223" spans="1:29">
@@ -20306,7 +20306,7 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>5730415</v>
+        <v>5732767</v>
       </c>
       <c r="C223" t="s">
         <v>28</v>
@@ -20318,58 +20318,58 @@
         <v>45081.5625</v>
       </c>
       <c r="F223" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="G223" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="H223">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I223">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J223" t="s">
         <v>53</v>
       </c>
       <c r="K223">
-        <v>2.25</v>
+        <v>3.4</v>
       </c>
       <c r="L223">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M223">
+        <v>2.15</v>
+      </c>
+      <c r="N223">
         <v>3</v>
       </c>
-      <c r="N223">
-        <v>2.05</v>
-      </c>
       <c r="O223">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="P223">
-        <v>3.25</v>
+        <v>2.45</v>
       </c>
       <c r="Q223">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R223">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S223">
-        <v>2.05</v>
+        <v>2.14</v>
       </c>
       <c r="T223">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U223">
-        <v>2.02</v>
+        <v>1.89</v>
       </c>
       <c r="V223">
-        <v>1.88</v>
+        <v>2.01</v>
       </c>
       <c r="W223">
-        <v>1.05</v>
+        <v>2</v>
       </c>
       <c r="X223">
         <v>-1</v>
@@ -20378,16 +20378,16 @@
         <v>-1</v>
       </c>
       <c r="Z223">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AA223">
         <v>-1</v>
       </c>
       <c r="AB223">
-        <v>0.51</v>
+        <v>0.8899999999999999</v>
       </c>
       <c r="AC223">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="224" spans="1:29">
@@ -20395,7 +20395,7 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>5734136</v>
+        <v>5730415</v>
       </c>
       <c r="C224" t="s">
         <v>28</v>
@@ -20407,76 +20407,76 @@
         <v>45081.5625</v>
       </c>
       <c r="F224" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="G224" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H224">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I224">
         <v>1</v>
       </c>
       <c r="J224" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K224">
-        <v>1.95</v>
+        <v>2.25</v>
       </c>
       <c r="L224">
+        <v>3.5</v>
+      </c>
+      <c r="M224">
+        <v>3</v>
+      </c>
+      <c r="N224">
+        <v>2.05</v>
+      </c>
+      <c r="O224">
         <v>3.6</v>
       </c>
-      <c r="M224">
-        <v>3.6</v>
-      </c>
-      <c r="N224">
-        <v>1.65</v>
-      </c>
-      <c r="O224">
-        <v>4</v>
-      </c>
       <c r="P224">
-        <v>4.75</v>
+        <v>3.25</v>
       </c>
       <c r="Q224">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R224">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="S224">
-        <v>2.06</v>
+        <v>2.05</v>
       </c>
       <c r="T224">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U224">
-        <v>1.9</v>
+        <v>2.02</v>
       </c>
       <c r="V224">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="W224">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X224">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y224">
         <v>-1</v>
       </c>
       <c r="Z224">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA224">
-        <v>1.06</v>
+        <v>-1</v>
       </c>
       <c r="AB224">
-        <v>-1</v>
+        <v>0.51</v>
       </c>
       <c r="AC224">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="225" spans="1:29">
@@ -20484,7 +20484,7 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>5776609</v>
+        <v>5776610</v>
       </c>
       <c r="C225" t="s">
         <v>28</v>
@@ -20496,61 +20496,61 @@
         <v>45081.5625</v>
       </c>
       <c r="F225" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="G225" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H225">
         <v>2</v>
       </c>
       <c r="I225">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J225" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K225">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="L225">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M225">
-        <v>2.9</v>
+        <v>2.45</v>
       </c>
       <c r="N225">
-        <v>1.571</v>
+        <v>2.625</v>
       </c>
       <c r="O225">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P225">
-        <v>5.75</v>
+        <v>2.45</v>
       </c>
       <c r="Q225">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R225">
-        <v>2.01</v>
+        <v>2.04</v>
       </c>
       <c r="S225">
-        <v>1.89</v>
+        <v>1.86</v>
       </c>
       <c r="T225">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U225">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="V225">
-        <v>2.01</v>
+        <v>2.02</v>
       </c>
       <c r="W225">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X225">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y225">
         <v>-1</v>
@@ -20562,7 +20562,7 @@
         <v>-0</v>
       </c>
       <c r="AB225">
-        <v>0.8899999999999999</v>
+        <v>0.8799999999999999</v>
       </c>
       <c r="AC225">
         <v>-1</v>
@@ -20573,7 +20573,7 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>5737343</v>
+        <v>5734498</v>
       </c>
       <c r="C226" t="s">
         <v>28</v>
@@ -20585,55 +20585,55 @@
         <v>45081.66666666666</v>
       </c>
       <c r="F226" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="G226" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H226">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I226">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J226" t="s">
         <v>54</v>
       </c>
       <c r="K226">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="L226">
         <v>3.4</v>
       </c>
       <c r="M226">
-        <v>2.6</v>
+        <v>3.4</v>
       </c>
       <c r="N226">
-        <v>2.45</v>
+        <v>2.05</v>
       </c>
       <c r="O226">
         <v>3.3</v>
       </c>
       <c r="P226">
-        <v>2.875</v>
+        <v>4</v>
       </c>
       <c r="Q226">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R226">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="S226">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="T226">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U226">
-        <v>1.91</v>
+        <v>1.82</v>
       </c>
       <c r="V226">
-        <v>1.99</v>
+        <v>2.08</v>
       </c>
       <c r="W226">
         <v>-1</v>
@@ -20645,16 +20645,16 @@
         <v>-1</v>
       </c>
       <c r="Z226">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA226">
-        <v>0.375</v>
+        <v>0.8200000000000001</v>
       </c>
       <c r="AB226">
         <v>-1</v>
       </c>
       <c r="AC226">
-        <v>0.99</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="227" spans="1:29">
@@ -20751,7 +20751,7 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>5734498</v>
+        <v>5737343</v>
       </c>
       <c r="C228" t="s">
         <v>28</v>
@@ -20763,55 +20763,55 @@
         <v>45081.66666666666</v>
       </c>
       <c r="F228" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="G228" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H228">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I228">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J228" t="s">
         <v>54</v>
       </c>
       <c r="K228">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="L228">
         <v>3.4</v>
       </c>
       <c r="M228">
-        <v>3.4</v>
+        <v>2.6</v>
       </c>
       <c r="N228">
-        <v>2.05</v>
+        <v>2.45</v>
       </c>
       <c r="O228">
         <v>3.3</v>
       </c>
       <c r="P228">
-        <v>4</v>
+        <v>2.875</v>
       </c>
       <c r="Q228">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R228">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="S228">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="T228">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U228">
-        <v>1.82</v>
+        <v>1.91</v>
       </c>
       <c r="V228">
-        <v>2.08</v>
+        <v>1.99</v>
       </c>
       <c r="W228">
         <v>-1</v>
@@ -20823,16 +20823,16 @@
         <v>-1</v>
       </c>
       <c r="Z228">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA228">
-        <v>0.8200000000000001</v>
+        <v>0.375</v>
       </c>
       <c r="AB228">
         <v>-1</v>
       </c>
       <c r="AC228">
-        <v>1.08</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="229" spans="1:29">
@@ -26002,7 +26002,7 @@
         <v>285</v>
       </c>
       <c r="B287">
-        <v>7173100</v>
+        <v>7173107</v>
       </c>
       <c r="C287" t="s">
         <v>28</v>
@@ -26014,76 +26014,76 @@
         <v>45193.5625</v>
       </c>
       <c r="F287" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G287" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="H287">
         <v>1</v>
       </c>
       <c r="I287">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J287" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K287">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="L287">
+        <v>3.3</v>
+      </c>
+      <c r="M287">
         <v>3.5</v>
       </c>
-      <c r="M287">
-        <v>4.5</v>
-      </c>
       <c r="N287">
-        <v>1.75</v>
+        <v>1.909</v>
       </c>
       <c r="O287">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P287">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="Q287">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R287">
-        <v>2.07</v>
+        <v>1.95</v>
       </c>
       <c r="S287">
-        <v>1.86</v>
+        <v>1.95</v>
       </c>
       <c r="T287">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U287">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="V287">
-        <v>2.01</v>
+        <v>1.95</v>
       </c>
       <c r="W287">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X287">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y287">
         <v>-1</v>
       </c>
       <c r="Z287">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA287">
-        <v>0.8600000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB287">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC287">
-        <v>0.5049999999999999</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="288" spans="1:29">
@@ -26091,7 +26091,7 @@
         <v>286</v>
       </c>
       <c r="B288">
-        <v>7173107</v>
+        <v>7173100</v>
       </c>
       <c r="C288" t="s">
         <v>28</v>
@@ -26103,76 +26103,76 @@
         <v>45193.5625</v>
       </c>
       <c r="F288" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G288" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="H288">
         <v>1</v>
       </c>
       <c r="I288">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J288" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K288">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="L288">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M288">
+        <v>4.5</v>
+      </c>
+      <c r="N288">
+        <v>1.75</v>
+      </c>
+      <c r="O288">
         <v>3.5</v>
       </c>
-      <c r="N288">
-        <v>1.909</v>
-      </c>
-      <c r="O288">
-        <v>3.6</v>
-      </c>
       <c r="P288">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="Q288">
+        <v>-0.75</v>
+      </c>
+      <c r="R288">
+        <v>2.07</v>
+      </c>
+      <c r="S288">
+        <v>1.86</v>
+      </c>
+      <c r="T288">
+        <v>2.25</v>
+      </c>
+      <c r="U288">
+        <v>1.89</v>
+      </c>
+      <c r="V288">
+        <v>2.01</v>
+      </c>
+      <c r="W288">
+        <v>-1</v>
+      </c>
+      <c r="X288">
+        <v>2.5</v>
+      </c>
+      <c r="Y288">
+        <v>-1</v>
+      </c>
+      <c r="Z288">
+        <v>-1</v>
+      </c>
+      <c r="AA288">
+        <v>0.8600000000000001</v>
+      </c>
+      <c r="AB288">
         <v>-0.5</v>
       </c>
-      <c r="R288">
-        <v>1.95</v>
-      </c>
-      <c r="S288">
-        <v>1.95</v>
-      </c>
-      <c r="T288">
-        <v>2.5</v>
-      </c>
-      <c r="U288">
-        <v>1.95</v>
-      </c>
-      <c r="V288">
-        <v>1.95</v>
-      </c>
-      <c r="W288">
-        <v>0.909</v>
-      </c>
-      <c r="X288">
-        <v>-1</v>
-      </c>
-      <c r="Y288">
-        <v>-1</v>
-      </c>
-      <c r="Z288">
-        <v>0.95</v>
-      </c>
-      <c r="AA288">
-        <v>-1</v>
-      </c>
-      <c r="AB288">
-        <v>-1</v>
-      </c>
       <c r="AC288">
-        <v>0.95</v>
+        <v>0.5049999999999999</v>
       </c>
     </row>
     <row r="289" spans="1:29">
@@ -26536,7 +26536,7 @@
         <v>291</v>
       </c>
       <c r="B293">
-        <v>6809222</v>
+        <v>6809383</v>
       </c>
       <c r="C293" t="s">
         <v>28</v>
@@ -26548,76 +26548,76 @@
         <v>45196.58333333334</v>
       </c>
       <c r="F293" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G293" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="H293">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I293">
         <v>2</v>
       </c>
       <c r="J293" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K293">
-        <v>1.909</v>
+        <v>1.666</v>
       </c>
       <c r="L293">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M293">
-        <v>3.75</v>
+        <v>5.5</v>
       </c>
       <c r="N293">
-        <v>2.15</v>
+        <v>1.5</v>
       </c>
       <c r="O293">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="P293">
-        <v>3.25</v>
+        <v>6.5</v>
       </c>
       <c r="Q293">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R293">
-        <v>1.87</v>
+        <v>1.93</v>
       </c>
       <c r="S293">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="T293">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U293">
-        <v>2.02</v>
+        <v>1.92</v>
       </c>
       <c r="V293">
-        <v>1.88</v>
+        <v>1.98</v>
       </c>
       <c r="W293">
         <v>-1</v>
       </c>
       <c r="X293">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y293">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Z293">
         <v>-1</v>
       </c>
       <c r="AA293">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AB293">
-        <v>0</v>
+        <v>0.9199999999999999</v>
       </c>
       <c r="AC293">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="294" spans="1:29">
@@ -26625,7 +26625,7 @@
         <v>292</v>
       </c>
       <c r="B294">
-        <v>6809383</v>
+        <v>6809222</v>
       </c>
       <c r="C294" t="s">
         <v>28</v>
@@ -26637,76 +26637,76 @@
         <v>45196.58333333334</v>
       </c>
       <c r="F294" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G294" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H294">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I294">
         <v>2</v>
       </c>
       <c r="J294" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K294">
-        <v>1.666</v>
+        <v>1.909</v>
       </c>
       <c r="L294">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M294">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="N294">
-        <v>1.5</v>
+        <v>2.15</v>
       </c>
       <c r="O294">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="P294">
-        <v>6.5</v>
+        <v>3.25</v>
       </c>
       <c r="Q294">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R294">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="S294">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="T294">
+        <v>3</v>
+      </c>
+      <c r="U294">
+        <v>2.02</v>
+      </c>
+      <c r="V294">
+        <v>1.88</v>
+      </c>
+      <c r="W294">
+        <v>-1</v>
+      </c>
+      <c r="X294">
+        <v>-1</v>
+      </c>
+      <c r="Y294">
         <v>2.25</v>
       </c>
-      <c r="U294">
-        <v>1.92</v>
-      </c>
-      <c r="V294">
-        <v>1.98</v>
-      </c>
-      <c r="W294">
-        <v>-1</v>
-      </c>
-      <c r="X294">
-        <v>3.2</v>
-      </c>
-      <c r="Y294">
-        <v>-1</v>
-      </c>
       <c r="Z294">
         <v>-1</v>
       </c>
       <c r="AA294">
-        <v>1</v>
+        <v>1.06</v>
       </c>
       <c r="AB294">
-        <v>0.9199999999999999</v>
+        <v>0</v>
       </c>
       <c r="AC294">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="295" spans="1:29">
@@ -26714,7 +26714,7 @@
         <v>293</v>
       </c>
       <c r="B295">
-        <v>6809384</v>
+        <v>6809223</v>
       </c>
       <c r="C295" t="s">
         <v>28</v>
@@ -26726,19 +26726,19 @@
         <v>45196.6875</v>
       </c>
       <c r="F295" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="G295" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="H295">
         <v>0</v>
       </c>
       <c r="I295">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J295" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K295">
         <v>2.625</v>
@@ -26750,52 +26750,52 @@
         <v>2.875</v>
       </c>
       <c r="N295">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="O295">
+        <v>3</v>
+      </c>
+      <c r="P295">
         <v>3.1</v>
       </c>
-      <c r="P295">
-        <v>2.9</v>
-      </c>
       <c r="Q295">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R295">
-        <v>1.85</v>
+        <v>2.125</v>
       </c>
       <c r="S295">
-        <v>2.05</v>
+        <v>1.78</v>
       </c>
       <c r="T295">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U295">
-        <v>2.08</v>
+        <v>2.03</v>
       </c>
       <c r="V295">
-        <v>1.82</v>
+        <v>1.87</v>
       </c>
       <c r="W295">
         <v>-1</v>
       </c>
       <c r="X295">
+        <v>-1</v>
+      </c>
+      <c r="Y295">
         <v>2.1</v>
       </c>
-      <c r="Y295">
-        <v>-1</v>
-      </c>
       <c r="Z295">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA295">
-        <v>-0</v>
+        <v>0.78</v>
       </c>
       <c r="AB295">
         <v>-1</v>
       </c>
       <c r="AC295">
-        <v>0.8200000000000001</v>
+        <v>0.8700000000000001</v>
       </c>
     </row>
     <row r="296" spans="1:29">
@@ -26803,7 +26803,7 @@
         <v>294</v>
       </c>
       <c r="B296">
-        <v>6809223</v>
+        <v>6809384</v>
       </c>
       <c r="C296" t="s">
         <v>28</v>
@@ -26815,19 +26815,19 @@
         <v>45196.6875</v>
       </c>
       <c r="F296" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="G296" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="H296">
         <v>0</v>
       </c>
       <c r="I296">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J296" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K296">
         <v>2.625</v>
@@ -26839,52 +26839,52 @@
         <v>2.875</v>
       </c>
       <c r="N296">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="O296">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="P296">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="Q296">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R296">
-        <v>2.125</v>
+        <v>1.85</v>
       </c>
       <c r="S296">
-        <v>1.78</v>
+        <v>2.05</v>
       </c>
       <c r="T296">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U296">
-        <v>2.03</v>
+        <v>2.08</v>
       </c>
       <c r="V296">
-        <v>1.87</v>
+        <v>1.82</v>
       </c>
       <c r="W296">
         <v>-1</v>
       </c>
       <c r="X296">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y296">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z296">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA296">
-        <v>0.78</v>
+        <v>-0</v>
       </c>
       <c r="AB296">
         <v>-1</v>
       </c>
       <c r="AC296">
-        <v>0.8700000000000001</v>
+        <v>0.8200000000000001</v>
       </c>
     </row>
     <row r="297" spans="1:29">
@@ -27782,7 +27782,7 @@
         <v>305</v>
       </c>
       <c r="B307">
-        <v>6809226</v>
+        <v>6809388</v>
       </c>
       <c r="C307" t="s">
         <v>28</v>
@@ -27794,58 +27794,58 @@
         <v>45200.66666666666</v>
       </c>
       <c r="F307" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="G307" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="H307">
         <v>3</v>
       </c>
       <c r="I307">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J307" t="s">
         <v>53</v>
       </c>
       <c r="K307">
-        <v>2.2</v>
+        <v>1.333</v>
       </c>
       <c r="L307">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="M307">
-        <v>3.4</v>
+        <v>8.5</v>
       </c>
       <c r="N307">
-        <v>2.05</v>
+        <v>1.333</v>
       </c>
       <c r="O307">
-        <v>3.25</v>
+        <v>5.5</v>
       </c>
       <c r="P307">
-        <v>4</v>
+        <v>8.5</v>
       </c>
       <c r="Q307">
-        <v>-0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R307">
+        <v>2.03</v>
+      </c>
+      <c r="S307">
+        <v>1.87</v>
+      </c>
+      <c r="T307">
+        <v>2.5</v>
+      </c>
+      <c r="U307">
+        <v>1.84</v>
+      </c>
+      <c r="V307">
         <v>2.06</v>
       </c>
-      <c r="S307">
-        <v>1.84</v>
-      </c>
-      <c r="T307">
-        <v>2.25</v>
-      </c>
-      <c r="U307">
-        <v>2.05</v>
-      </c>
-      <c r="V307">
-        <v>1.85</v>
-      </c>
       <c r="W307">
-        <v>1.05</v>
+        <v>0.333</v>
       </c>
       <c r="X307">
         <v>-1</v>
@@ -27854,13 +27854,13 @@
         <v>-1</v>
       </c>
       <c r="Z307">
-        <v>1.06</v>
+        <v>-1</v>
       </c>
       <c r="AA307">
-        <v>-1</v>
+        <v>0.8700000000000001</v>
       </c>
       <c r="AB307">
-        <v>1.05</v>
+        <v>0.8400000000000001</v>
       </c>
       <c r="AC307">
         <v>-1</v>
@@ -27871,7 +27871,7 @@
         <v>306</v>
       </c>
       <c r="B308">
-        <v>6809388</v>
+        <v>6809226</v>
       </c>
       <c r="C308" t="s">
         <v>28</v>
@@ -27883,58 +27883,58 @@
         <v>45200.66666666666</v>
       </c>
       <c r="F308" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="G308" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="H308">
         <v>3</v>
       </c>
       <c r="I308">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J308" t="s">
         <v>53</v>
       </c>
       <c r="K308">
-        <v>1.333</v>
+        <v>2.2</v>
       </c>
       <c r="L308">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="M308">
-        <v>8.5</v>
+        <v>3.4</v>
       </c>
       <c r="N308">
-        <v>1.333</v>
+        <v>2.05</v>
       </c>
       <c r="O308">
-        <v>5.5</v>
+        <v>3.25</v>
       </c>
       <c r="P308">
-        <v>8.5</v>
+        <v>4</v>
       </c>
       <c r="Q308">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R308">
-        <v>2.03</v>
+        <v>2.06</v>
       </c>
       <c r="S308">
-        <v>1.87</v>
+        <v>1.84</v>
       </c>
       <c r="T308">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U308">
-        <v>1.84</v>
+        <v>2.05</v>
       </c>
       <c r="V308">
-        <v>2.06</v>
+        <v>1.85</v>
       </c>
       <c r="W308">
-        <v>0.333</v>
+        <v>1.05</v>
       </c>
       <c r="X308">
         <v>-1</v>
@@ -27943,13 +27943,13 @@
         <v>-1</v>
       </c>
       <c r="Z308">
-        <v>-1</v>
+        <v>1.06</v>
       </c>
       <c r="AA308">
-        <v>0.8700000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB308">
-        <v>0.8400000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="AC308">
         <v>-1</v>
@@ -31876,7 +31876,7 @@
         <v>351</v>
       </c>
       <c r="B353">
-        <v>6809414</v>
+        <v>6809255</v>
       </c>
       <c r="C353" t="s">
         <v>28</v>
@@ -31888,10 +31888,10 @@
         <v>45241.60416666666</v>
       </c>
       <c r="F353" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G353" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="H353">
         <v>1</v>
@@ -31903,61 +31903,61 @@
         <v>54</v>
       </c>
       <c r="K353">
-        <v>2.5</v>
+        <v>1.75</v>
       </c>
       <c r="L353">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="M353">
-        <v>3</v>
+        <v>4.75</v>
       </c>
       <c r="N353">
-        <v>2.45</v>
+        <v>1.909</v>
       </c>
       <c r="O353">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P353">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="Q353">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R353">
-        <v>2.11</v>
+        <v>1.97</v>
       </c>
       <c r="S353">
-        <v>1.79</v>
+        <v>1.93</v>
       </c>
       <c r="T353">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U353">
-        <v>2.02</v>
+        <v>1.75</v>
       </c>
       <c r="V353">
-        <v>1.88</v>
+        <v>2.05</v>
       </c>
       <c r="W353">
         <v>-1</v>
       </c>
       <c r="X353">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="Y353">
         <v>-1</v>
       </c>
       <c r="Z353">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA353">
-        <v>0.395</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="AB353">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AC353">
-        <v>0.4399999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="354" spans="1:29">
@@ -31965,7 +31965,7 @@
         <v>352</v>
       </c>
       <c r="B354">
-        <v>6809255</v>
+        <v>6809414</v>
       </c>
       <c r="C354" t="s">
         <v>28</v>
@@ -31977,10 +31977,10 @@
         <v>45241.60416666666</v>
       </c>
       <c r="F354" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G354" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="H354">
         <v>1</v>
@@ -31992,61 +31992,61 @@
         <v>54</v>
       </c>
       <c r="K354">
-        <v>1.75</v>
+        <v>2.5</v>
       </c>
       <c r="L354">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="M354">
-        <v>4.75</v>
+        <v>3</v>
       </c>
       <c r="N354">
-        <v>1.909</v>
+        <v>2.45</v>
       </c>
       <c r="O354">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="P354">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="Q354">
+        <v>-0.25</v>
+      </c>
+      <c r="R354">
+        <v>2.11</v>
+      </c>
+      <c r="S354">
+        <v>1.79</v>
+      </c>
+      <c r="T354">
+        <v>2.25</v>
+      </c>
+      <c r="U354">
+        <v>2.02</v>
+      </c>
+      <c r="V354">
+        <v>1.88</v>
+      </c>
+      <c r="W354">
+        <v>-1</v>
+      </c>
+      <c r="X354">
+        <v>2.1</v>
+      </c>
+      <c r="Y354">
+        <v>-1</v>
+      </c>
+      <c r="Z354">
         <v>-0.5</v>
       </c>
-      <c r="R354">
-        <v>1.97</v>
-      </c>
-      <c r="S354">
-        <v>1.93</v>
-      </c>
-      <c r="T354">
-        <v>2</v>
-      </c>
-      <c r="U354">
-        <v>1.75</v>
-      </c>
-      <c r="V354">
-        <v>2.05</v>
-      </c>
-      <c r="W354">
-        <v>-1</v>
-      </c>
-      <c r="X354">
-        <v>2.2</v>
-      </c>
-      <c r="Y354">
-        <v>-1</v>
-      </c>
-      <c r="Z354">
-        <v>-1</v>
-      </c>
       <c r="AA354">
-        <v>0.9299999999999999</v>
+        <v>0.395</v>
       </c>
       <c r="AB354">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AC354">
-        <v>-0</v>
+        <v>0.4399999999999999</v>
       </c>
     </row>
     <row r="355" spans="1:29">
@@ -34991,7 +34991,7 @@
         <v>386</v>
       </c>
       <c r="B388">
-        <v>6809425</v>
+        <v>6809424</v>
       </c>
       <c r="C388" t="s">
         <v>28</v>
@@ -35003,76 +35003,76 @@
         <v>45271.70833333334</v>
       </c>
       <c r="F388" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="G388" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H388">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I388">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J388" t="s">
         <v>54</v>
       </c>
       <c r="K388">
-        <v>2.3</v>
+        <v>4.5</v>
       </c>
       <c r="L388">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M388">
-        <v>3.25</v>
+        <v>1.75</v>
       </c>
       <c r="N388">
-        <v>2.7</v>
+        <v>4.2</v>
       </c>
       <c r="O388">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="P388">
-        <v>2.8</v>
+        <v>1.85</v>
       </c>
       <c r="Q388">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R388">
-        <v>1.92</v>
+        <v>2.01</v>
       </c>
       <c r="S388">
-        <v>1.98</v>
+        <v>1.89</v>
       </c>
       <c r="T388">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U388">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="V388">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="W388">
         <v>-1</v>
       </c>
       <c r="X388">
-        <v>2.1</v>
+        <v>2.75</v>
       </c>
       <c r="Y388">
         <v>-1</v>
       </c>
       <c r="Z388">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AA388">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB388">
         <v>-1</v>
       </c>
       <c r="AC388">
-        <v>0.95</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="389" spans="1:29">
@@ -35080,7 +35080,7 @@
         <v>387</v>
       </c>
       <c r="B389">
-        <v>6809424</v>
+        <v>6809425</v>
       </c>
       <c r="C389" t="s">
         <v>28</v>
@@ -35092,76 +35092,76 @@
         <v>45271.70833333334</v>
       </c>
       <c r="F389" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="G389" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H389">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I389">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J389" t="s">
         <v>54</v>
       </c>
       <c r="K389">
-        <v>4.5</v>
+        <v>2.3</v>
       </c>
       <c r="L389">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M389">
-        <v>1.75</v>
+        <v>3.25</v>
       </c>
       <c r="N389">
-        <v>4.2</v>
+        <v>2.7</v>
       </c>
       <c r="O389">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="P389">
-        <v>1.85</v>
+        <v>2.8</v>
       </c>
       <c r="Q389">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R389">
-        <v>2.01</v>
+        <v>1.92</v>
       </c>
       <c r="S389">
-        <v>1.89</v>
+        <v>1.98</v>
       </c>
       <c r="T389">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U389">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V389">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="W389">
         <v>-1</v>
       </c>
       <c r="X389">
-        <v>2.75</v>
+        <v>2.1</v>
       </c>
       <c r="Y389">
         <v>-1</v>
       </c>
       <c r="Z389">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="AA389">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB389">
         <v>-1</v>
       </c>
       <c r="AC389">
-        <v>1.05</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="390" spans="1:29">
@@ -36148,7 +36148,7 @@
         <v>399</v>
       </c>
       <c r="B401">
-        <v>6809435</v>
+        <v>6809292</v>
       </c>
       <c r="C401" t="s">
         <v>28</v>
@@ -36160,49 +36160,49 @@
         <v>45279.72916666666</v>
       </c>
       <c r="F401" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="G401" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="H401">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I401">
         <v>3</v>
       </c>
       <c r="J401" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K401">
-        <v>1.333</v>
+        <v>2.875</v>
       </c>
       <c r="L401">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="M401">
-        <v>8</v>
+        <v>2.25</v>
       </c>
       <c r="N401">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="O401">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="P401">
-        <v>7</v>
+        <v>2.45</v>
       </c>
       <c r="Q401">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R401">
-        <v>1.83</v>
+        <v>1.78</v>
       </c>
       <c r="S401">
-        <v>2.07</v>
+        <v>2.125</v>
       </c>
       <c r="T401">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U401">
         <v>2.04</v>
@@ -36214,16 +36214,16 @@
         <v>-1</v>
       </c>
       <c r="X401">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y401">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="Z401">
         <v>-1</v>
       </c>
       <c r="AA401">
-        <v>1.07</v>
+        <v>1.125</v>
       </c>
       <c r="AB401">
         <v>1.04</v>
@@ -36237,7 +36237,7 @@
         <v>400</v>
       </c>
       <c r="B402">
-        <v>6809292</v>
+        <v>6809435</v>
       </c>
       <c r="C402" t="s">
         <v>28</v>
@@ -36249,49 +36249,49 @@
         <v>45279.72916666666</v>
       </c>
       <c r="F402" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="G402" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="H402">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I402">
         <v>3</v>
       </c>
       <c r="J402" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K402">
-        <v>2.875</v>
+        <v>1.333</v>
       </c>
       <c r="L402">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="M402">
-        <v>2.25</v>
+        <v>8</v>
       </c>
       <c r="N402">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="O402">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="P402">
-        <v>2.45</v>
+        <v>7</v>
       </c>
       <c r="Q402">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R402">
-        <v>1.78</v>
+        <v>1.83</v>
       </c>
       <c r="S402">
-        <v>2.125</v>
+        <v>2.07</v>
       </c>
       <c r="T402">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U402">
         <v>2.04</v>
@@ -36303,16 +36303,16 @@
         <v>-1</v>
       </c>
       <c r="X402">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y402">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="Z402">
         <v>-1</v>
       </c>
       <c r="AA402">
-        <v>1.125</v>
+        <v>1.07</v>
       </c>
       <c r="AB402">
         <v>1.04</v>
@@ -36415,7 +36415,7 @@
         <v>402</v>
       </c>
       <c r="B404">
-        <v>6809434</v>
+        <v>6809438</v>
       </c>
       <c r="C404" t="s">
         <v>28</v>
@@ -36427,58 +36427,58 @@
         <v>45280.72916666666</v>
       </c>
       <c r="F404" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G404" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="H404">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I404">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J404" t="s">
         <v>53</v>
       </c>
       <c r="K404">
-        <v>1.4</v>
+        <v>2.15</v>
       </c>
       <c r="L404">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="M404">
-        <v>7</v>
+        <v>2.9</v>
       </c>
       <c r="N404">
-        <v>1.363</v>
+        <v>2.3</v>
       </c>
       <c r="O404">
-        <v>5.25</v>
+        <v>3.5</v>
       </c>
       <c r="P404">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="Q404">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R404">
-        <v>1.87</v>
+        <v>2.08</v>
       </c>
       <c r="S404">
+        <v>1.82</v>
+      </c>
+      <c r="T404">
+        <v>2.5</v>
+      </c>
+      <c r="U404">
         <v>2.06</v>
       </c>
-      <c r="T404">
-        <v>2.75</v>
-      </c>
-      <c r="U404">
-        <v>1.91</v>
-      </c>
       <c r="V404">
-        <v>1.99</v>
+        <v>1.84</v>
       </c>
       <c r="W404">
-        <v>0.363</v>
+        <v>1.3</v>
       </c>
       <c r="X404">
         <v>-1</v>
@@ -36487,16 +36487,16 @@
         <v>-1</v>
       </c>
       <c r="Z404">
-        <v>-0.5</v>
+        <v>1.08</v>
       </c>
       <c r="AA404">
-        <v>0.53</v>
+        <v>-1</v>
       </c>
       <c r="AB404">
-        <v>-1</v>
+        <v>1.06</v>
       </c>
       <c r="AC404">
-        <v>0.99</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="405" spans="1:29">
@@ -36504,7 +36504,7 @@
         <v>403</v>
       </c>
       <c r="B405">
-        <v>6809438</v>
+        <v>6809434</v>
       </c>
       <c r="C405" t="s">
         <v>28</v>
@@ -36516,58 +36516,58 @@
         <v>45280.72916666666</v>
       </c>
       <c r="F405" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G405" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="H405">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I405">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J405" t="s">
         <v>53</v>
       </c>
       <c r="K405">
-        <v>2.15</v>
+        <v>1.4</v>
       </c>
       <c r="L405">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="M405">
-        <v>2.9</v>
+        <v>7</v>
       </c>
       <c r="N405">
-        <v>2.3</v>
+        <v>1.363</v>
       </c>
       <c r="O405">
-        <v>3.5</v>
+        <v>5.25</v>
       </c>
       <c r="P405">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="Q405">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R405">
-        <v>2.08</v>
+        <v>1.87</v>
       </c>
       <c r="S405">
-        <v>1.82</v>
+        <v>2.06</v>
       </c>
       <c r="T405">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U405">
-        <v>2.06</v>
+        <v>1.91</v>
       </c>
       <c r="V405">
-        <v>1.84</v>
+        <v>1.99</v>
       </c>
       <c r="W405">
-        <v>1.3</v>
+        <v>0.363</v>
       </c>
       <c r="X405">
         <v>-1</v>
@@ -36576,16 +36576,16 @@
         <v>-1</v>
       </c>
       <c r="Z405">
-        <v>1.08</v>
+        <v>-0.5</v>
       </c>
       <c r="AA405">
-        <v>-1</v>
+        <v>0.53</v>
       </c>
       <c r="AB405">
-        <v>1.06</v>
+        <v>-1</v>
       </c>
       <c r="AC405">
-        <v>-1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="406" spans="1:29">
@@ -36771,7 +36771,7 @@
         <v>406</v>
       </c>
       <c r="B408">
-        <v>6809290</v>
+        <v>6809437</v>
       </c>
       <c r="C408" t="s">
         <v>28</v>
@@ -36783,76 +36783,76 @@
         <v>45281.72916666666</v>
       </c>
       <c r="F408" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="G408" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="H408">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I408">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J408" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K408">
-        <v>2.2</v>
+        <v>4.75</v>
       </c>
       <c r="L408">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="M408">
-        <v>3.4</v>
+        <v>1.666</v>
       </c>
       <c r="N408">
-        <v>2.2</v>
+        <v>5.5</v>
       </c>
       <c r="O408">
-        <v>2.9</v>
+        <v>4.2</v>
       </c>
       <c r="P408">
-        <v>4</v>
+        <v>1.571</v>
       </c>
       <c r="Q408">
-        <v>-0.25</v>
+        <v>1</v>
       </c>
       <c r="R408">
-        <v>1.89</v>
+        <v>1.83</v>
       </c>
       <c r="S408">
-        <v>2.01</v>
+        <v>2.07</v>
       </c>
       <c r="T408">
-        <v>1.75</v>
+        <v>2.5</v>
       </c>
       <c r="U408">
-        <v>1.95</v>
+        <v>1.88</v>
       </c>
       <c r="V408">
-        <v>1.95</v>
+        <v>2.02</v>
       </c>
       <c r="W408">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X408">
         <v>-1</v>
       </c>
       <c r="Y408">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="Z408">
-        <v>0.8899999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA408">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB408">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC408">
-        <v>-1</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="409" spans="1:29">
@@ -36860,7 +36860,7 @@
         <v>407</v>
       </c>
       <c r="B409">
-        <v>6809437</v>
+        <v>6809290</v>
       </c>
       <c r="C409" t="s">
         <v>28</v>
@@ -36872,76 +36872,76 @@
         <v>45281.72916666666</v>
       </c>
       <c r="F409" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="G409" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="H409">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I409">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J409" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K409">
-        <v>4.75</v>
+        <v>2.2</v>
       </c>
       <c r="L409">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="M409">
-        <v>1.666</v>
+        <v>3.4</v>
       </c>
       <c r="N409">
-        <v>5.5</v>
+        <v>2.2</v>
       </c>
       <c r="O409">
-        <v>4.2</v>
+        <v>2.9</v>
       </c>
       <c r="P409">
-        <v>1.571</v>
+        <v>4</v>
       </c>
       <c r="Q409">
-        <v>1</v>
+        <v>-0.25</v>
       </c>
       <c r="R409">
-        <v>1.83</v>
+        <v>1.89</v>
       </c>
       <c r="S409">
-        <v>2.07</v>
+        <v>2.01</v>
       </c>
       <c r="T409">
-        <v>2.5</v>
+        <v>1.75</v>
       </c>
       <c r="U409">
-        <v>1.88</v>
+        <v>1.95</v>
       </c>
       <c r="V409">
-        <v>2.02</v>
+        <v>1.95</v>
       </c>
       <c r="W409">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X409">
         <v>-1</v>
       </c>
       <c r="Y409">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="Z409">
-        <v>0</v>
+        <v>0.8899999999999999</v>
       </c>
       <c r="AA409">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB409">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC409">
-        <v>1.02</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="410" spans="1:29">
@@ -37394,7 +37394,7 @@
         <v>413</v>
       </c>
       <c r="B415">
-        <v>6809440</v>
+        <v>6809442</v>
       </c>
       <c r="C415" t="s">
         <v>28</v>
@@ -37406,58 +37406,58 @@
         <v>45294.63541666666</v>
       </c>
       <c r="F415" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="G415" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="H415">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I415">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J415" t="s">
         <v>53</v>
       </c>
       <c r="K415">
-        <v>2.25</v>
+        <v>1.222</v>
       </c>
       <c r="L415">
-        <v>3.2</v>
+        <v>6.5</v>
       </c>
       <c r="M415">
-        <v>3.25</v>
+        <v>11</v>
       </c>
       <c r="N415">
-        <v>2.15</v>
+        <v>1.2</v>
       </c>
       <c r="O415">
-        <v>3.2</v>
+        <v>6.5</v>
       </c>
       <c r="P415">
-        <v>3.5</v>
+        <v>15</v>
       </c>
       <c r="Q415">
-        <v>-0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R415">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="S415">
-        <v>2.04</v>
+        <v>1.98</v>
       </c>
       <c r="T415">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U415">
-        <v>1.86</v>
+        <v>2.02</v>
       </c>
       <c r="V415">
-        <v>2.04</v>
+        <v>1.88</v>
       </c>
       <c r="W415">
-        <v>1.15</v>
+        <v>0.2</v>
       </c>
       <c r="X415">
         <v>-1</v>
@@ -37466,16 +37466,16 @@
         <v>-1</v>
       </c>
       <c r="Z415">
-        <v>0.8899999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA415">
-        <v>-1</v>
+        <v>0.98</v>
       </c>
       <c r="AB415">
-        <v>0.8600000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC415">
-        <v>-1</v>
+        <v>0.8799999999999999</v>
       </c>
     </row>
     <row r="416" spans="1:29">
@@ -37483,7 +37483,7 @@
         <v>414</v>
       </c>
       <c r="B416">
-        <v>6809442</v>
+        <v>6809440</v>
       </c>
       <c r="C416" t="s">
         <v>28</v>
@@ -37495,58 +37495,58 @@
         <v>45294.63541666666</v>
       </c>
       <c r="F416" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="G416" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="H416">
+        <v>2</v>
+      </c>
+      <c r="I416">
         <v>1</v>
-      </c>
-      <c r="I416">
-        <v>0</v>
       </c>
       <c r="J416" t="s">
         <v>53</v>
       </c>
       <c r="K416">
-        <v>1.222</v>
+        <v>2.25</v>
       </c>
       <c r="L416">
-        <v>6.5</v>
+        <v>3.2</v>
       </c>
       <c r="M416">
-        <v>11</v>
+        <v>3.25</v>
       </c>
       <c r="N416">
-        <v>1.2</v>
+        <v>2.15</v>
       </c>
       <c r="O416">
-        <v>6.5</v>
+        <v>3.2</v>
       </c>
       <c r="P416">
-        <v>15</v>
+        <v>3.5</v>
       </c>
       <c r="Q416">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R416">
-        <v>1.95</v>
+        <v>1.89</v>
       </c>
       <c r="S416">
-        <v>1.98</v>
+        <v>2.04</v>
       </c>
       <c r="T416">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U416">
-        <v>2.02</v>
+        <v>1.86</v>
       </c>
       <c r="V416">
-        <v>1.88</v>
+        <v>2.04</v>
       </c>
       <c r="W416">
-        <v>0.2</v>
+        <v>1.15</v>
       </c>
       <c r="X416">
         <v>-1</v>
@@ -37555,16 +37555,16 @@
         <v>-1</v>
       </c>
       <c r="Z416">
-        <v>-1</v>
+        <v>0.8899999999999999</v>
       </c>
       <c r="AA416">
-        <v>0.98</v>
+        <v>-1</v>
       </c>
       <c r="AB416">
-        <v>-1</v>
+        <v>0.8600000000000001</v>
       </c>
       <c r="AC416">
-        <v>0.8799999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="417" spans="1:29">
@@ -43263,7 +43263,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="481" spans="1:27">
+    <row r="481" spans="1:29">
       <c r="A481" s="1">
         <v>479</v>
       </c>
@@ -43285,6 +43285,15 @@
       <c r="G481" t="s">
         <v>31</v>
       </c>
+      <c r="H481">
+        <v>1</v>
+      </c>
+      <c r="I481">
+        <v>3</v>
+      </c>
+      <c r="J481" t="s">
+        <v>52</v>
+      </c>
       <c r="K481">
         <v>1.727</v>
       </c>
@@ -43295,49 +43304,55 @@
         <v>4.75</v>
       </c>
       <c r="N481">
-        <v>1.727</v>
+        <v>1.615</v>
       </c>
       <c r="O481">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P481">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="Q481">
         <v>-0.75</v>
       </c>
       <c r="R481">
-        <v>1.98</v>
+        <v>1.81</v>
       </c>
       <c r="S481">
-        <v>1.92</v>
+        <v>2.09</v>
       </c>
       <c r="T481">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U481">
-        <v>1.86</v>
+        <v>1.89</v>
       </c>
       <c r="V481">
-        <v>2.04</v>
+        <v>2.01</v>
       </c>
       <c r="W481">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X481">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y481">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="Z481">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA481">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="482" spans="1:27">
+        <v>1.09</v>
+      </c>
+      <c r="AB481">
+        <v>0.8899999999999999</v>
+      </c>
+      <c r="AC481">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="482" spans="1:29">
       <c r="A482" s="1">
         <v>480</v>
       </c>
@@ -43411,7 +43426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="483" spans="1:27">
+    <row r="483" spans="1:29">
       <c r="A483" s="1">
         <v>481</v>
       </c>
@@ -43443,31 +43458,31 @@
         <v>7</v>
       </c>
       <c r="N483">
-        <v>1.4</v>
+        <v>1.444</v>
       </c>
       <c r="O483">
         <v>5</v>
       </c>
       <c r="P483">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="Q483">
         <v>-1.25</v>
       </c>
       <c r="R483">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="S483">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="T483">
         <v>3</v>
       </c>
       <c r="U483">
-        <v>2.07</v>
+        <v>2.06</v>
       </c>
       <c r="V483">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="W483">
         <v>0</v>
@@ -43485,7 +43500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="484" spans="1:27">
+    <row r="484" spans="1:29">
       <c r="A484" s="1">
         <v>482</v>
       </c>
@@ -43529,10 +43544,10 @@
         <v>-0.5</v>
       </c>
       <c r="R484">
-        <v>1.95</v>
+        <v>1.99</v>
       </c>
       <c r="S484">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="T484">
         <v>1.75</v>
@@ -43559,7 +43574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="485" spans="1:27">
+    <row r="485" spans="1:29">
       <c r="A485" s="1">
         <v>483</v>
       </c>
@@ -43612,10 +43627,10 @@
         <v>2.75</v>
       </c>
       <c r="U485">
-        <v>1.99</v>
+        <v>2.02</v>
       </c>
       <c r="V485">
-        <v>1.91</v>
+        <v>1.88</v>
       </c>
       <c r="W485">
         <v>0</v>
@@ -43633,7 +43648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="486" spans="1:27">
+    <row r="486" spans="1:29">
       <c r="A486" s="1">
         <v>484</v>
       </c>
@@ -43677,19 +43692,19 @@
         <v>0.25</v>
       </c>
       <c r="R486">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="S486">
-        <v>2.155</v>
+        <v>2.125</v>
       </c>
       <c r="T486">
         <v>2</v>
       </c>
       <c r="U486">
-        <v>2.01</v>
+        <v>2</v>
       </c>
       <c r="V486">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="W486">
         <v>0</v>
@@ -43707,7 +43722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="487" spans="1:27">
+    <row r="487" spans="1:29">
       <c r="A487" s="1">
         <v>485</v>
       </c>
@@ -43751,10 +43766,10 @@
         <v>0.25</v>
       </c>
       <c r="R487">
-        <v>2.03</v>
+        <v>2.04</v>
       </c>
       <c r="S487">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="T487">
         <v>2.25</v>
@@ -43781,7 +43796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="488" spans="1:27">
+    <row r="488" spans="1:29">
       <c r="A488" s="1">
         <v>486</v>
       </c>
@@ -43825,10 +43840,10 @@
         <v>-0.25</v>
       </c>
       <c r="R488">
-        <v>2.03</v>
+        <v>2.04</v>
       </c>
       <c r="S488">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="T488">
         <v>2</v>
@@ -43855,7 +43870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="489" spans="1:27">
+    <row r="489" spans="1:29">
       <c r="A489" s="1">
         <v>487</v>
       </c>
@@ -43899,20 +43914,20 @@
         <v>-1.5</v>
       </c>
       <c r="R489">
-        <v>1.86</v>
+        <v>1.84</v>
       </c>
       <c r="S489">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="T489">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U489">
+        <v>2.08</v>
+      </c>
+      <c r="V489">
         <v>1.82</v>
       </c>
-      <c r="V489">
-        <v>2.08</v>
-      </c>
       <c r="W489">
         <v>0</v>
       </c>
@@ -43929,7 +43944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="490" spans="1:27">
+    <row r="490" spans="1:29">
       <c r="A490" s="1">
         <v>488</v>
       </c>
@@ -43961,22 +43976,22 @@
         <v>5</v>
       </c>
       <c r="N490">
-        <v>1.65</v>
+        <v>1.615</v>
       </c>
       <c r="O490">
         <v>4.2</v>
       </c>
       <c r="P490">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="Q490">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R490">
-        <v>1.86</v>
+        <v>2.05</v>
       </c>
       <c r="S490">
-        <v>2.04</v>
+        <v>1.85</v>
       </c>
       <c r="T490">
         <v>2.75</v>
@@ -44003,7 +44018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="491" spans="1:27">
+    <row r="491" spans="1:29">
       <c r="A491" s="1">
         <v>489</v>
       </c>

--- a/Spain Primera Liga/Spain Primera Liga.xlsx
+++ b/Spain Primera Liga/Spain Primera Liga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2468" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2480" uniqueCount="55">
   <si>
     <t>id</t>
   </si>
@@ -540,7 +540,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC491"/>
+  <dimension ref="A1:AC494"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -13987,7 +13987,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>5461881</v>
+        <v>5470775</v>
       </c>
       <c r="C152" t="s">
         <v>28</v>
@@ -13999,76 +13999,76 @@
         <v>45041.60416666666</v>
       </c>
       <c r="F152" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G152" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I152">
+        <v>2</v>
+      </c>
+      <c r="J152" t="s">
+        <v>53</v>
+      </c>
+      <c r="K152">
+        <v>6</v>
+      </c>
+      <c r="L152">
+        <v>4</v>
+      </c>
+      <c r="M152">
+        <v>1.533</v>
+      </c>
+      <c r="N152">
+        <v>5.25</v>
+      </c>
+      <c r="O152">
+        <v>4.2</v>
+      </c>
+      <c r="P152">
+        <v>1.6</v>
+      </c>
+      <c r="Q152">
         <v>1</v>
       </c>
-      <c r="J152" t="s">
-        <v>52</v>
-      </c>
-      <c r="K152">
-        <v>2.3</v>
-      </c>
-      <c r="L152">
-        <v>3.2</v>
-      </c>
-      <c r="M152">
-        <v>3.2</v>
-      </c>
-      <c r="N152">
-        <v>2.05</v>
-      </c>
-      <c r="O152">
-        <v>3.2</v>
-      </c>
-      <c r="P152">
-        <v>4</v>
-      </c>
-      <c r="Q152">
-        <v>-0.5</v>
-      </c>
       <c r="R152">
-        <v>2.08</v>
+        <v>1.84</v>
       </c>
       <c r="S152">
-        <v>1.82</v>
+        <v>2.06</v>
       </c>
       <c r="T152">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U152">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="V152">
-        <v>1.97</v>
+        <v>1.95</v>
       </c>
       <c r="W152">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="X152">
         <v>-1</v>
       </c>
       <c r="Y152">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z152">
-        <v>-1</v>
+        <v>0.8400000000000001</v>
       </c>
       <c r="AA152">
-        <v>0.8200000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB152">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC152">
-        <v>0.97</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="153" spans="1:29">
@@ -14076,7 +14076,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>5470775</v>
+        <v>5461881</v>
       </c>
       <c r="C153" t="s">
         <v>28</v>
@@ -14088,76 +14088,76 @@
         <v>45041.60416666666</v>
       </c>
       <c r="F153" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G153" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="H153">
+        <v>0</v>
+      </c>
+      <c r="I153">
+        <v>1</v>
+      </c>
+      <c r="J153" t="s">
+        <v>52</v>
+      </c>
+      <c r="K153">
+        <v>2.3</v>
+      </c>
+      <c r="L153">
+        <v>3.2</v>
+      </c>
+      <c r="M153">
+        <v>3.2</v>
+      </c>
+      <c r="N153">
+        <v>2.05</v>
+      </c>
+      <c r="O153">
+        <v>3.2</v>
+      </c>
+      <c r="P153">
         <v>4</v>
       </c>
-      <c r="I153">
+      <c r="Q153">
+        <v>-0.5</v>
+      </c>
+      <c r="R153">
+        <v>2.08</v>
+      </c>
+      <c r="S153">
+        <v>1.82</v>
+      </c>
+      <c r="T153">
         <v>2</v>
       </c>
-      <c r="J153" t="s">
-        <v>53</v>
-      </c>
-      <c r="K153">
-        <v>6</v>
-      </c>
-      <c r="L153">
-        <v>4</v>
-      </c>
-      <c r="M153">
-        <v>1.533</v>
-      </c>
-      <c r="N153">
-        <v>5.25</v>
-      </c>
-      <c r="O153">
-        <v>4.2</v>
-      </c>
-      <c r="P153">
-        <v>1.6</v>
-      </c>
-      <c r="Q153">
-        <v>1</v>
-      </c>
-      <c r="R153">
-        <v>1.84</v>
-      </c>
-      <c r="S153">
-        <v>2.06</v>
-      </c>
-      <c r="T153">
+      <c r="U153">
+        <v>1.93</v>
+      </c>
+      <c r="V153">
+        <v>1.97</v>
+      </c>
+      <c r="W153">
+        <v>-1</v>
+      </c>
+      <c r="X153">
+        <v>-1</v>
+      </c>
+      <c r="Y153">
         <v>3</v>
       </c>
-      <c r="U153">
-        <v>1.95</v>
-      </c>
-      <c r="V153">
-        <v>1.95</v>
-      </c>
-      <c r="W153">
-        <v>4.25</v>
-      </c>
-      <c r="X153">
-        <v>-1</v>
-      </c>
-      <c r="Y153">
-        <v>-1</v>
-      </c>
       <c r="Z153">
-        <v>0.8400000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA153">
-        <v>-1</v>
+        <v>0.8200000000000001</v>
       </c>
       <c r="AB153">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC153">
-        <v>-1</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="154" spans="1:29">
@@ -15767,7 +15767,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>5540298</v>
+        <v>5534478</v>
       </c>
       <c r="C172" t="s">
         <v>28</v>
@@ -15779,58 +15779,58 @@
         <v>45048.60416666666</v>
       </c>
       <c r="F172" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="G172" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="H172">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I172">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J172" t="s">
         <v>53</v>
       </c>
       <c r="K172">
-        <v>1.65</v>
+        <v>1.25</v>
       </c>
       <c r="L172">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="M172">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="N172">
-        <v>1.727</v>
+        <v>1.166</v>
       </c>
       <c r="O172">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="P172">
-        <v>4.5</v>
+        <v>15</v>
       </c>
       <c r="Q172">
-        <v>-0.75</v>
+        <v>-2</v>
       </c>
       <c r="R172">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="S172">
-        <v>1.98</v>
+        <v>2.05</v>
       </c>
       <c r="T172">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U172">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V172">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="W172">
-        <v>0.7270000000000001</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X172">
         <v>-1</v>
@@ -15839,16 +15839,16 @@
         <v>-1</v>
       </c>
       <c r="Z172">
-        <v>0.46</v>
+        <v>-1</v>
       </c>
       <c r="AA172">
-        <v>-0.5</v>
+        <v>1.05</v>
       </c>
       <c r="AB172">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC172">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="173" spans="1:29">
@@ -15856,7 +15856,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>5534478</v>
+        <v>5540298</v>
       </c>
       <c r="C173" t="s">
         <v>28</v>
@@ -15868,58 +15868,58 @@
         <v>45048.60416666666</v>
       </c>
       <c r="F173" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="G173" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="H173">
+        <v>2</v>
+      </c>
+      <c r="I173">
         <v>1</v>
-      </c>
-      <c r="I173">
-        <v>0</v>
       </c>
       <c r="J173" t="s">
         <v>53</v>
       </c>
       <c r="K173">
-        <v>1.25</v>
+        <v>1.65</v>
       </c>
       <c r="L173">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="M173">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="N173">
-        <v>1.166</v>
+        <v>1.727</v>
       </c>
       <c r="O173">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="P173">
-        <v>15</v>
+        <v>4.5</v>
       </c>
       <c r="Q173">
-        <v>-2</v>
+        <v>-0.75</v>
       </c>
       <c r="R173">
-        <v>1.85</v>
+        <v>1.92</v>
       </c>
       <c r="S173">
-        <v>2.05</v>
+        <v>1.98</v>
       </c>
       <c r="T173">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U173">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V173">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="W173">
-        <v>0.1659999999999999</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X173">
         <v>-1</v>
@@ -15928,16 +15928,16 @@
         <v>-1</v>
       </c>
       <c r="Z173">
-        <v>-1</v>
+        <v>0.46</v>
       </c>
       <c r="AA173">
-        <v>1.05</v>
+        <v>-0.5</v>
       </c>
       <c r="AB173">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC173">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="174" spans="1:29">
@@ -16479,7 +16479,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>5549243</v>
+        <v>5540274</v>
       </c>
       <c r="C180" t="s">
         <v>28</v>
@@ -16491,76 +16491,76 @@
         <v>45050.70833333334</v>
       </c>
       <c r="F180" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G180" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I180">
         <v>1</v>
       </c>
       <c r="J180" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K180">
-        <v>1.615</v>
+        <v>1.65</v>
       </c>
       <c r="L180">
         <v>3.8</v>
       </c>
       <c r="M180">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="N180">
-        <v>1.615</v>
+        <v>1.909</v>
       </c>
       <c r="O180">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P180">
-        <v>5.5</v>
+        <v>3.8</v>
       </c>
       <c r="Q180">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R180">
-        <v>1.82</v>
+        <v>1.95</v>
       </c>
       <c r="S180">
-        <v>2.08</v>
+        <v>1.95</v>
       </c>
       <c r="T180">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U180">
-        <v>1.87</v>
+        <v>2</v>
       </c>
       <c r="V180">
-        <v>2.03</v>
+        <v>1.9</v>
       </c>
       <c r="W180">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X180">
         <v>-1</v>
       </c>
       <c r="Y180">
-        <v>4.5</v>
+        <v>-1</v>
       </c>
       <c r="Z180">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA180">
-        <v>1.08</v>
+        <v>-1</v>
       </c>
       <c r="AB180">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC180">
-        <v>1.03</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="181" spans="1:29">
@@ -16568,7 +16568,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>5540274</v>
+        <v>5549243</v>
       </c>
       <c r="C181" t="s">
         <v>28</v>
@@ -16580,76 +16580,76 @@
         <v>45050.70833333334</v>
       </c>
       <c r="F181" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G181" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="H181">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I181">
         <v>1</v>
       </c>
       <c r="J181" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K181">
-        <v>1.65</v>
+        <v>1.615</v>
       </c>
       <c r="L181">
         <v>3.8</v>
       </c>
       <c r="M181">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="N181">
-        <v>1.909</v>
+        <v>1.615</v>
       </c>
       <c r="O181">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P181">
-        <v>3.8</v>
+        <v>5.5</v>
       </c>
       <c r="Q181">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R181">
-        <v>1.95</v>
+        <v>1.82</v>
       </c>
       <c r="S181">
-        <v>1.95</v>
+        <v>2.08</v>
       </c>
       <c r="T181">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U181">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="V181">
-        <v>1.9</v>
+        <v>2.03</v>
       </c>
       <c r="W181">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X181">
         <v>-1</v>
       </c>
       <c r="Y181">
-        <v>-1</v>
+        <v>4.5</v>
       </c>
       <c r="Z181">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA181">
-        <v>-1</v>
+        <v>1.08</v>
       </c>
       <c r="AB181">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC181">
-        <v>-1</v>
+        <v>1.03</v>
       </c>
     </row>
     <row r="182" spans="1:29">
@@ -17814,7 +17814,7 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>5611043</v>
+        <v>5611042</v>
       </c>
       <c r="C195" t="s">
         <v>28</v>
@@ -17826,76 +17826,76 @@
         <v>45066.5625</v>
       </c>
       <c r="F195" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="G195" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H195">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I195">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J195" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K195">
-        <v>1.5</v>
+        <v>2.3</v>
       </c>
       <c r="L195">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="M195">
-        <v>6.5</v>
+        <v>3.2</v>
       </c>
       <c r="N195">
-        <v>1.65</v>
+        <v>2.25</v>
       </c>
       <c r="O195">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="P195">
-        <v>6</v>
+        <v>3.3</v>
       </c>
       <c r="Q195">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R195">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="S195">
-        <v>2.01</v>
+        <v>1.95</v>
       </c>
       <c r="T195">
         <v>2.25</v>
       </c>
       <c r="U195">
-        <v>2.09</v>
+        <v>1.9</v>
       </c>
       <c r="V195">
-        <v>1.81</v>
+        <v>2</v>
       </c>
       <c r="W195">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X195">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y195">
         <v>-1</v>
       </c>
       <c r="Z195">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA195">
-        <v>1.01</v>
+        <v>-1</v>
       </c>
       <c r="AB195">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC195">
-        <v>0.405</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="196" spans="1:29">
@@ -17903,7 +17903,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>5611042</v>
+        <v>5611043</v>
       </c>
       <c r="C196" t="s">
         <v>28</v>
@@ -17915,76 +17915,76 @@
         <v>45066.5625</v>
       </c>
       <c r="F196" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="G196" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H196">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I196">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J196" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K196">
-        <v>2.3</v>
+        <v>1.5</v>
       </c>
       <c r="L196">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="M196">
-        <v>3.2</v>
+        <v>6.5</v>
       </c>
       <c r="N196">
-        <v>2.25</v>
+        <v>1.65</v>
       </c>
       <c r="O196">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="P196">
-        <v>3.3</v>
+        <v>6</v>
       </c>
       <c r="Q196">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R196">
-        <v>1.95</v>
+        <v>1.89</v>
       </c>
       <c r="S196">
-        <v>1.95</v>
+        <v>2.01</v>
       </c>
       <c r="T196">
         <v>2.25</v>
       </c>
       <c r="U196">
-        <v>1.9</v>
+        <v>2.09</v>
       </c>
       <c r="V196">
-        <v>2</v>
+        <v>1.81</v>
       </c>
       <c r="W196">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X196">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y196">
         <v>-1</v>
       </c>
       <c r="Z196">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA196">
-        <v>-1</v>
+        <v>1.01</v>
       </c>
       <c r="AB196">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AC196">
-        <v>-1</v>
+        <v>0.405</v>
       </c>
     </row>
     <row r="197" spans="1:29">
@@ -18704,7 +18704,7 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>5638885</v>
+        <v>5634388</v>
       </c>
       <c r="C205" t="s">
         <v>28</v>
@@ -18716,58 +18716,58 @@
         <v>45070.60416666666</v>
       </c>
       <c r="F205" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="G205" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="H205">
         <v>2</v>
       </c>
       <c r="I205">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J205" t="s">
         <v>53</v>
       </c>
       <c r="K205">
-        <v>1.363</v>
+        <v>1.45</v>
       </c>
       <c r="L205">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="M205">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="N205">
-        <v>1.363</v>
+        <v>1.45</v>
       </c>
       <c r="O205">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="P205">
-        <v>7.5</v>
+        <v>6</v>
       </c>
       <c r="Q205">
-        <v>-1.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R205">
-        <v>2.06</v>
+        <v>2.07</v>
       </c>
       <c r="S205">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="T205">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U205">
-        <v>2.07</v>
+        <v>1.92</v>
       </c>
       <c r="V205">
-        <v>1.83</v>
+        <v>1.98</v>
       </c>
       <c r="W205">
-        <v>0.363</v>
+        <v>0.45</v>
       </c>
       <c r="X205">
         <v>-1</v>
@@ -18776,16 +18776,16 @@
         <v>-1</v>
       </c>
       <c r="Z205">
-        <v>-1</v>
+        <v>1.07</v>
       </c>
       <c r="AA205">
-        <v>0.8400000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB205">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC205">
-        <v>0.415</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="206" spans="1:29">
@@ -18793,7 +18793,7 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>5634388</v>
+        <v>5638885</v>
       </c>
       <c r="C206" t="s">
         <v>28</v>
@@ -18805,58 +18805,58 @@
         <v>45070.60416666666</v>
       </c>
       <c r="F206" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="G206" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="H206">
         <v>2</v>
       </c>
       <c r="I206">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J206" t="s">
         <v>53</v>
       </c>
       <c r="K206">
-        <v>1.45</v>
+        <v>1.363</v>
       </c>
       <c r="L206">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="M206">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="N206">
-        <v>1.45</v>
+        <v>1.363</v>
       </c>
       <c r="O206">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="P206">
-        <v>6</v>
+        <v>7.5</v>
       </c>
       <c r="Q206">
-        <v>-1.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R206">
+        <v>2.06</v>
+      </c>
+      <c r="S206">
+        <v>1.84</v>
+      </c>
+      <c r="T206">
+        <v>3.25</v>
+      </c>
+      <c r="U206">
         <v>2.07</v>
       </c>
-      <c r="S206">
+      <c r="V206">
         <v>1.83</v>
       </c>
-      <c r="T206">
-        <v>3</v>
-      </c>
-      <c r="U206">
-        <v>1.92</v>
-      </c>
-      <c r="V206">
-        <v>1.98</v>
-      </c>
       <c r="W206">
-        <v>0.45</v>
+        <v>0.363</v>
       </c>
       <c r="X206">
         <v>-1</v>
@@ -18865,16 +18865,16 @@
         <v>-1</v>
       </c>
       <c r="Z206">
-        <v>1.07</v>
+        <v>-1</v>
       </c>
       <c r="AA206">
-        <v>-1</v>
+        <v>0.8400000000000001</v>
       </c>
       <c r="AB206">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC206">
-        <v>0.98</v>
+        <v>0.415</v>
       </c>
     </row>
     <row r="207" spans="1:29">
@@ -19416,7 +19416,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>5705884</v>
+        <v>5705727</v>
       </c>
       <c r="C213" t="s">
         <v>28</v>
@@ -19428,73 +19428,73 @@
         <v>45074.58333333334</v>
       </c>
       <c r="F213" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="G213" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="H213">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I213">
         <v>2</v>
       </c>
       <c r="J213" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K213">
-        <v>2.2</v>
+        <v>1.909</v>
       </c>
       <c r="L213">
+        <v>3.6</v>
+      </c>
+      <c r="M213">
+        <v>3.75</v>
+      </c>
+      <c r="N213">
+        <v>2</v>
+      </c>
+      <c r="O213">
         <v>3.5</v>
       </c>
-      <c r="M213">
-        <v>3.1</v>
-      </c>
-      <c r="N213">
-        <v>1.909</v>
-      </c>
-      <c r="O213">
+      <c r="P213">
         <v>3.6</v>
-      </c>
-      <c r="P213">
-        <v>3.8</v>
       </c>
       <c r="Q213">
         <v>-0.5</v>
       </c>
       <c r="R213">
-        <v>1.98</v>
+        <v>2.025</v>
       </c>
       <c r="S213">
-        <v>1.92</v>
+        <v>1.775</v>
       </c>
       <c r="T213">
         <v>2.5</v>
       </c>
       <c r="U213">
-        <v>1.99</v>
+        <v>2.07</v>
       </c>
       <c r="V213">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="W213">
         <v>-1</v>
       </c>
       <c r="X213">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y213">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Z213">
         <v>-1</v>
       </c>
       <c r="AA213">
-        <v>0.9199999999999999</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB213">
-        <v>0.99</v>
+        <v>1.07</v>
       </c>
       <c r="AC213">
         <v>-1</v>
@@ -19505,7 +19505,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>5701612</v>
+        <v>5705884</v>
       </c>
       <c r="C214" t="s">
         <v>28</v>
@@ -19517,73 +19517,73 @@
         <v>45074.58333333334</v>
       </c>
       <c r="F214" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G214" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="H214">
+        <v>1</v>
+      </c>
+      <c r="I214">
         <v>2</v>
       </c>
-      <c r="I214">
-        <v>1</v>
-      </c>
       <c r="J214" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K214">
+        <v>2.2</v>
+      </c>
+      <c r="L214">
+        <v>3.5</v>
+      </c>
+      <c r="M214">
+        <v>3.1</v>
+      </c>
+      <c r="N214">
         <v>1.909</v>
       </c>
-      <c r="L214">
-        <v>3.4</v>
-      </c>
-      <c r="M214">
-        <v>4</v>
-      </c>
-      <c r="N214">
-        <v>2.4</v>
-      </c>
       <c r="O214">
-        <v>2.75</v>
+        <v>3.6</v>
       </c>
       <c r="P214">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="Q214">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R214">
-        <v>2.1</v>
+        <v>1.98</v>
       </c>
       <c r="S214">
-        <v>1.8</v>
+        <v>1.92</v>
       </c>
       <c r="T214">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="U214">
-        <v>1.82</v>
+        <v>1.99</v>
       </c>
       <c r="V214">
-        <v>2.08</v>
+        <v>1.91</v>
       </c>
       <c r="W214">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="X214">
         <v>-1</v>
       </c>
       <c r="Y214">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Z214">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="AA214">
-        <v>-1</v>
+        <v>0.9199999999999999</v>
       </c>
       <c r="AB214">
-        <v>0.8200000000000001</v>
+        <v>0.99</v>
       </c>
       <c r="AC214">
         <v>-1</v>
@@ -19594,7 +19594,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>5705727</v>
+        <v>5701612</v>
       </c>
       <c r="C215" t="s">
         <v>28</v>
@@ -19606,73 +19606,73 @@
         <v>45074.58333333334</v>
       </c>
       <c r="F215" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="G215" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="H215">
         <v>2</v>
       </c>
       <c r="I215">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J215" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K215">
         <v>1.909</v>
       </c>
       <c r="L215">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M215">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="N215">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="O215">
+        <v>2.75</v>
+      </c>
+      <c r="P215">
         <v>3.5</v>
       </c>
-      <c r="P215">
-        <v>3.6</v>
-      </c>
       <c r="Q215">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R215">
-        <v>2.025</v>
+        <v>2.1</v>
       </c>
       <c r="S215">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="T215">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="U215">
-        <v>2.07</v>
+        <v>1.82</v>
       </c>
       <c r="V215">
-        <v>1.83</v>
+        <v>2.08</v>
       </c>
       <c r="W215">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="X215">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y215">
         <v>-1</v>
       </c>
       <c r="Z215">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="AA215">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB215">
-        <v>1.07</v>
+        <v>0.8200000000000001</v>
       </c>
       <c r="AC215">
         <v>-1</v>
@@ -19772,7 +19772,7 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>5713343</v>
+        <v>5697401</v>
       </c>
       <c r="C217" t="s">
         <v>28</v>
@@ -19784,76 +19784,76 @@
         <v>45074.58333333334</v>
       </c>
       <c r="F217" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G217" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H217">
-        <v>2</v>
+      